--- a/data/02_intermediate/cleaned_La_Fouine_songs.xlsx
+++ b/data/02_intermediate/cleaned_La_Fouine_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>...You light up another cigarette and I pour the wine Its four o'clock in the morning and its starting to get light Now Im right where I want to be, losing track of time But I wish that it was still last night... Quand j'partirai ne venez pas pleurer sur ma tombe, combien sont sincères ? Combien de drames, de vraies galères, combien de faux frères ? Quand j'étais vraiment dans la merde, combien m'ont tendu la main ? Ne jamais remettre à demain ce qu'on peut faire à une main Déjà à l'époque, on m'enviait pour une barrette J'fais d'l'auto-stop sur le chemin du Paradis et seul le Diable s'arrête Cimetière de Trappes, en p'tite équipe, ramenez pas trop d'de-mon On vit entre anges et démons, combien me connaissent de nom ? Quand j'partirai, dites à ma famille que j'les aime Que mon truc c'est la solitude, que j'ai du mal à dire je t'aime Quand j'partirai, dites à mon dealer qu'il est au chômage Drôle de personnage, pas besoin qu'on m'rende hommage Dites à mes vrais amis que l'amitié s'étend à jamais Que j'étais nul en maths car quand on aime on n'compte jamais Vous direz aux matons que l'peura m'a fait changer d'air Que ma fierté c'est l'Maroc et que j'préfère manger par terre Aucun remord, j'ai vécu pleinement Un titulaire sur le terrain, c'est dix rageux qui parlent sur le banc Quand j'partirai, dites à mon père que rien ne sert de pleurer Dites à ma fille que ses prières remplaceront les courriers Dites à mes profs que rien à foutre si j'ai pas eu leurs diplômes Dites aux rageux que cet album va sûrement peser dix tonnes Quand j'partirai, vous passerez le salam au Congo Vous leur direz qu'on y mange bien, vous remercierez le Togo Le Cameroun et l'Algérie, le Canada, Djibouti J'aurai p't-êt' un seul remord ne pas revoir l'public du Mali J'partirai la tête haute, ma fille, n'écoute pas les gens ! J'ai des souvenirs de Dakar, de quelques frères d'Abidjan Quand j'partirai, la concurrence pourra sortir d'son trou Et seulement une fois enterré, vous pourrez prendre son pouls Je serai pas loin, je serai à jamais dans le cur d'la famille De quelques fans anéantis, de quelques surs des Antilles Quand j'serai plus là, vous direz à certains frères qu'ils m'ont déçu Que moi j'ai pas une belle plume, seulement un putain d'vécu ! Vécues, les années passent et je vois les choses empirer Seigneur, ayez pitié le jour où j'partirai Quand j'partirai, certains faux frères feront mine d'être déçus Veulent rouler avec moi, auparavant m'auraient marché dessus Dites à mes fans que j'suis fou d'eux, que je n'étais rien sans eux Que la vie, ça blesse, et qu'il n'y a pas d'fumée sans coup d'feu Big up à Fred Musa, Pascal Cefran c'est la même Encore un rap anti-FN sur ta FM Quand j'partirai, certains bâtards feront leurs condoléances Où étaient-ils quand les factures arrivaient à échéance ? Où étaient-ils quand les Restos du Cur servaient le daron ? Où étaient-ils quand les huissiers prenaient l'fauteuil du salon ? Où étaient-ils quand les yeux mouillés, Maman manquait d'liquide ? Étaient-ils là au mitard, avec une envie d'suicide ? Les années passent, bordel de merde, et j'vois les choses empirer Seigneur, ayez pitié le jour où j'partirai You might also like Yeah, le jour où j'partirai, j'emmènerai rien avec moi Pas d'appartement, pas d'bijou, pas d'voiture J'ai jamais rappé pour cette merde, t'façon Et ça, les vrais le savent, depuis mon premier album Quand j'partirai, la seule chose qui est importante pour moi C'est qu'j'espère que j'aurai l'temps de dire Achhadou an lâ ilâha illa-llâh, washadou ana Muhammad rasûlu-llâh Et j'veux entendre chanter... Fouiny Babe ! J'veux vous entendre chanter... La réussite, ça génère des inimitiés Fouiny, ça crée des ennemis Ton succès se retourne contre toi ! Qu'est-ce que tu vas faire, tuer ton succès ? Tu préférerais ne pas avoir réussi ? C'n'est pas compliqué, ou on réussit et on s'fait quelques ennemis Ou bien on loupe son coup, et on s'fait quelques amis C'est une question de choix...14</t>
+          <t>...You light up another cigarette and I pour the wine Its four o'clock in the morning and its starting to get light Now Im right where I want to be, losing track of time But I wish that it was still last night... Quand j'partirai ne venez pas pleurer sur ma tombe, combien sont sincères ? Combien de drames, de vraies galères, combien de faux frères ? Quand j'étais vraiment dans la merde, combien m'ont tendu la main ? Ne jamais remettre à demain ce qu'on peut faire à une main Déjà à l'époque, on m'enviait pour une barrette J'fais d'l'auto-stop sur le chemin du Paradis et seul le Diable s'arrête Cimetière de Trappes, en p'tite équipe, ramenez pas trop d'de-mon On vit entre anges et démons, combien me connaissent de nom ? Quand j'partirai, dites à ma famille que j'les aime Que mon truc c'est la solitude, que j'ai du mal à dire je t'aime Quand j'partirai, dites à mon dealer qu'il est au chômage Drôle de personnage, pas besoin qu'on m'rende hommage Dites à mes vrais amis que l'amitié s'étend à jamais Que j'étais nul en maths car quand on aime on n'compte jamais Vous direz aux matons que l'peura m'a fait changer d'air Que ma fierté c'est l'Maroc et que j'préfère manger par terre Aucun remord, j'ai vécu pleinement Un titulaire sur le terrain, c'est dix rageux qui parlent sur le banc Quand j'partirai, dites à mon père que rien ne sert de pleurer Dites à ma fille que ses prières remplaceront les courriers Dites à mes profs que rien à foutre si j'ai pas eu leurs diplômes Dites aux rageux que cet album va sûrement peser dix tonnes Quand j'partirai, vous passerez le salam au Congo Vous leur direz qu'on y mange bien, vous remercierez le Togo Le Cameroun et l'Algérie, le Canada, Djibouti J'aurai p't-êt' un seul remord ne pas revoir l'public du Mali J'partirai la tête haute, ma fille, n'écoute pas les gens ! J'ai des souvenirs de Dakar, de quelques frères d'Abidjan Quand j'partirai, la concurrence pourra sortir d'son trou Et seulement une fois enterré, vous pourrez prendre son pouls Je serai pas loin, je serai à jamais dans le cur d'la famille De quelques fans anéantis, de quelques surs des Antilles Quand j'serai plus là, vous direz à certains frères qu'ils m'ont déçu Que moi j'ai pas une belle plume, seulement un putain d'vécu ! Vécues, les années passent et je vois les choses empirer Seigneur, ayez pitié le jour où j'partirai Quand j'partirai, certains faux frères feront mine d'être déçus Veulent rouler avec moi, auparavant m'auraient marché dessus Dites à mes fans que j'suis fou d'eux, que je n'étais rien sans eux Que la vie, ça blesse, et qu'il n'y a pas d'fumée sans coup d'feu Big up à Fred Musa, Pascal Cefran c'est la même Encore un rap anti-FN sur ta FM Quand j'partirai, certains bâtards feront leurs condoléances Où étaient-ils quand les factures arrivaient à échéance ? Où étaient-ils quand les Restos du Cur servaient le daron ? Où étaient-ils quand les huissiers prenaient l'fauteuil du salon ? Où étaient-ils quand les yeux mouillés, Maman manquait d'liquide ? Étaient-ils là au mitard, avec une envie d'suicide ? Les années passent, bordel de merde, et j'vois les choses empirer Seigneur, ayez pitié le jour où j'partirai Yeah, le jour où j'partirai, j'emmènerai rien avec moi Pas d'appartement, pas d'bijou, pas d'voiture J'ai jamais rappé pour cette merde, t'façon Et ça, les vrais le savent, depuis mon premier album Quand j'partirai, la seule chose qui est importante pour moi C'est qu'j'espère que j'aurai l'temps de dire Achhadou an lâ ilâha illa-llâh, washadou ana Muhammad rasûlu-llâh Et j'veux entendre chanter... Fouiny Babe ! J'veux vous entendre chanter... La réussite, ça génère des inimitiés Fouiny, ça crée des ennemis Ton succès se retourne contre toi ! Qu'est-ce que tu vas faire, tuer ton succès ? Tu préférerais ne pas avoir réussi ? C'n'est pas compliqué, ou on réussit et on s'fait quelques ennemis Ou bien on loupe son coup, et on s'fait quelques amis C'est une question de choix...14</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Quand il n'y a plus d'espoir Moi je ne cesse de croire, que ce sera meilleur Perdus dans le brouillard On ne peut plus se voir, mon amour n'aies pas peur Je t'aimais à jamais, mon cur a parlé, mais je n'ai pu le faire taire Comme deux condamnés On se retrouvera avant la dernière heure Tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Oui tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Aussi loin que je me rappelle quand je remonte en arrière Moi je travaillais chez BP, le soir elle était caissière Et je venais la chercher dans ma vieille Seat Ibiza J'me rappelle qu'on cotisait pour se partager une pizza J'avais rien dans les poches, on était riches du cur Et pour m'acheter des clopes j'allais gratter mes grandes surs On s'retrouvait à l'arrêt d'bus où on parlait des heures Le soir je rentrais à pied, plus d'essence, contrôleurs Je voulais décrocher la Lune, t'avais les pieds sur Terre Je voulais faire plein de thunes, tu voulais juste être mère On s'disait Je t'aime 300 fois par jour en texto On dînait aux chandelles avec 2-3 tickets resto Mes baskets étaient trouées, tes collants était filés Notre histoire était sincère, notre couple était stylé Encore une nuit blanche à repenser à notre histoire Ce soir mon cur bat, et ce n'est pas un bruit d'couloir bruit d'couloir You might also like Quand il n'y a plus d'espoir Moi je ne cesse de croire, que ce sera meilleur Perdus dans le brouillard On ne peut plus se voir, mon amour n'aies pas peur Je t'aimais à jamais, mon cur a parlé, mais je n'ai pu le faire taire Comme deux condamnés On se retrouvera avant la dernière heure Tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Oui tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Et quand la gloire, les euros, viennent les galères senchaînent Et les amis fidèles se font aussi rares que les Je t'aime On roule dans une grosse voiture on cesse d'investir On passe devant l'arrêt d'bus mais on n'a plus rien à se dire Pardonne moi pour toutes les promesses que je n'ai pas tenues L'amour a ses raisons, le temps fait de nous des inconnus Un jour tu prends la porte, un jour je suis ton amour Malgré l'orage, les tempêtes, je t'aime comme au premier jour Tu m'écrivais au placard, moi j'répondais rarement Économie de feuilles ou avarice de sentiments ? Souvent j'ai mal agi, t'as souvent commis des erreurs Mais je veux recoller les morceaux car tu restes ma meilleure On avait tout pour être heureux, mais suffit de rien pour l'être Et si l'argent est roi, les sentiments ne sont plus maîtres Encore une nuit blanche à me nourrir de notre histoire Ce soir mon cur bat, et ce n'est pas un bruit d'couloir bruit d'couloir Quand il n'y a plus d'espoir Moi je ne cesse de croire, que ce sera meilleur Perdus dans le brouillard On ne peut plus se voir, mon amour n'aies pas peur Je t'aimais à jamais, mon cur a parlé, mais je n'ai pu le faire taire Comme deux condamnés On se retrouvera avant la dernière heure Tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Oui tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur J'ai mis sur ton trajet ces quelques mots cachés Des rayons de Soleil qui pourraient remplacer Les erreurs de la veille et les regrets du passé Je t'en donnerai assez, assez pour une vie panachée Tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Oui tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Tu es ma meilleure, tu es ma meilleure Les années passent mais je garde le meilleur Tu es ma meilleure, tu es ma meilleure Les orages passent et demain sera meilleur Tu es ma meilleure, tu es ma meilleure Les années passent mais je garde le meilleur Tu es ma meilleure, tu es ma meilleure Les orages passent et demain sera meilleur12</t>
+          <t>Quand il n'y a plus d'espoir Moi je ne cesse de croire, que ce sera meilleur Perdus dans le brouillard On ne peut plus se voir, mon amour n'aies pas peur Je t'aimais à jamais, mon cur a parlé, mais je n'ai pu le faire taire Comme deux condamnés On se retrouvera avant la dernière heure Tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Oui tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Aussi loin que je me rappelle quand je remonte en arrière Moi je travaillais chez BP, le soir elle était caissière Et je venais la chercher dans ma vieille Seat Ibiza J'me rappelle qu'on cotisait pour se partager une pizza J'avais rien dans les poches, on était riches du cur Et pour m'acheter des clopes j'allais gratter mes grandes surs On s'retrouvait à l'arrêt d'bus où on parlait des heures Le soir je rentrais à pied, plus d'essence, contrôleurs Je voulais décrocher la Lune, t'avais les pieds sur Terre Je voulais faire plein de thunes, tu voulais juste être mère On s'disait Je t'aime 300 fois par jour en texto On dînait aux chandelles avec 2-3 tickets resto Mes baskets étaient trouées, tes collants était filés Notre histoire était sincère, notre couple était stylé Encore une nuit blanche à repenser à notre histoire Ce soir mon cur bat, et ce n'est pas un bruit d'couloir bruit d'couloir Quand il n'y a plus d'espoir Moi je ne cesse de croire, que ce sera meilleur Perdus dans le brouillard On ne peut plus se voir, mon amour n'aies pas peur Je t'aimais à jamais, mon cur a parlé, mais je n'ai pu le faire taire Comme deux condamnés On se retrouvera avant la dernière heure Tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Oui tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Et quand la gloire, les euros, viennent les galères senchaînent Et les amis fidèles se font aussi rares que les Je t'aime On roule dans une grosse voiture on cesse d'investir On passe devant l'arrêt d'bus mais on n'a plus rien à se dire Pardonne moi pour toutes les promesses que je n'ai pas tenues L'amour a ses raisons, le temps fait de nous des inconnus Un jour tu prends la porte, un jour je suis ton amour Malgré l'orage, les tempêtes, je t'aime comme au premier jour Tu m'écrivais au placard, moi j'répondais rarement Économie de feuilles ou avarice de sentiments ? Souvent j'ai mal agi, t'as souvent commis des erreurs Mais je veux recoller les morceaux car tu restes ma meilleure On avait tout pour être heureux, mais suffit de rien pour l'être Et si l'argent est roi, les sentiments ne sont plus maîtres Encore une nuit blanche à me nourrir de notre histoire Ce soir mon cur bat, et ce n'est pas un bruit d'couloir bruit d'couloir Quand il n'y a plus d'espoir Moi je ne cesse de croire, que ce sera meilleur Perdus dans le brouillard On ne peut plus se voir, mon amour n'aies pas peur Je t'aimais à jamais, mon cur a parlé, mais je n'ai pu le faire taire Comme deux condamnés On se retrouvera avant la dernière heure Tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Oui tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur J'ai mis sur ton trajet ces quelques mots cachés Des rayons de Soleil qui pourraient remplacer Les erreurs de la veille et les regrets du passé Je t'en donnerai assez, assez pour une vie panachée Tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Oui tu es mon meilleur, tu es mon meilleur Les années passent, mais je garde le meilleur Oui tu es mon meilleur, oui tu es mon meilleur Les orages passent et demain sera meilleur Tu es ma meilleure, tu es ma meilleure Les années passent mais je garde le meilleur Tu es ma meilleure, tu es ma meilleure Les orages passent et demain sera meilleur Tu es ma meilleure, tu es ma meilleure Les années passent mais je garde le meilleur Tu es ma meilleure, tu es ma meilleure Les orages passent et demain sera meilleur12</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>V'là l'nouveau missile scud, frère, j'suis l'Boss du Nord au Sud Tes disques se vendent pas fais des reprises de mes tubes Quatre fois j'ai fini en taule, j'ai jamais eu d'bon baveux Mes p'tits passent en radio, tes grands passent aux aveux Tement-par' à Miami car j'fais des concerts là-bas Mais j'préfère investir au bled car j'ai d'la famille là-bas Trafic de stupéfiants sur mon casier judiciaire Nique sa mère le commissaire et son salaire de misère J'ai différentes filles avec différentes mères Et comme j'ai plein d'billets d'cent elles m'appellent Père vert J'entends ce clash sur toi partout sur les ondes Mais comme un appel à la mosquée tu peux pas répondre Contrôle de keufs nique ta mère, j'ai pas mes papiers Inculpé, toi, y a qu'à la salle de sport que t'as un casier À Paname toutes les michtonneuses te l'diront, mon frère Y a pas qu'au tabac qu'on gratte un millionnaire ! Que l'Sept-Huit m'en soit témoin j'suis pas d'une famille aisée J'suis plus cramé qu'un poulet braisé va t'faire baiser ! Contrôle abusif, j'baise l'État sans préservatif Mes rebeux trouvent ça jouissif... Tu peux m'voir au fond d'la boîte, bouteille de champ's J'mets l'rap à quatre pattes, bienvenue sur la piste de danse À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss Tu peux m'voir au fond d'la boîte, Rolex en or Les haineux parlent mal car ils sont restés dehors À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss You might also like Salope ! Numéro un au top, t'étais même pas installé T'étais bon qu'à gratter des clopes, j'vais t'apprendre à bien parler Ça t'choque, sale fiotte, j'vais m'faire retweeter par toute ta team T'existais a'-p, on était double disque de platine J'allume un cierge car ce soir on claque des sommes astronomiques Avoue qu't'es vierge bouffonne! que sur ton signe astrologique Trop souvent ceux qui ont une vie d'clebs deviennent des bandits En effet, vaut mieux un fils au hebs qu'une mère qui mendie On est prêts pour faire la guerre, tout l'monde à terre Faire parler l'fer, un bout d'métal sur les lombaires S.N.I.P. Boss de Paname ! N.I.R.O. Street Lourd, à Paname on est les Big Boss Dites aux MC's d'enlever leur bouche d'la bite à Rick Ross Demande à la rue qui contrôle le putain d'réseau On sait où sont les vraies sommes On sait qui sont les vrais hommes Cliquez, cliquez au lieu d'critiquer, faites du biff, c'est pas compliqué J'baise le game sans faire exprès comme quand j'pars avec ton briquet Mets-les tous sur l'putain d'passage clouté, j'vais tous les shooter Y en a qui sont faits pour être vus j'suis fait pour être écouté Qui peut s'vanter d'avoir eu ma peau en featuring ? À chaque combat, j'suis l'dernier à sortir du ring Comme un tron-pa, j'me trompe pas, j'fais que des tueries Complétement débile qui veut m'voler mes billes ? J'suis l'meilleur, ils le savent, j'suis pas un enfoiré d'puriste Soutenu par les braves, j'recevais des lettres de Fleury Ghetto soldat, la foi, la folie et la furie Fouiny Baby, N.I.R.O zeubi Tu peux m'voir au fond d'la boîte, bouteille de champ's J'mets l'rap à quatre pattes, bienvenue sur la piste de danse À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss Tu peux m'voir au fond d'la boîte, Rolex en or Les haineux parlent mal car ils sont restés dehors À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss La-la-la-la l'argent fait oublier la race à Paris Un Arabe pauvre reste un Arabe, un Arabe riche, ça devient un Qatari Moi, j'aime les rageux, ils ne font que leur devoir J'offre une Rolex aux autres MC qu'ils soient au courant de mon heure de gloire Balancez les bombes et donnez-moi le brassard Libérez les ondes et parlez de Kinshasa Venez pas nous gronder, on n'est que des poissards Venez pas nous plomber, on n'est que de passage Si vous tombez, évitez le plaquage Baladez les condés, évitez le placard Tout le monde est plombé, tout le monde est comblé Tout le monde est con, fais les comptes c'est le black-out Les derniers dans l'arène sont les premiers en tchatche Moi, j'ai tout-tout parié sur moi-même comme le Gitan dans Snatch Je le jure sur la tête des gosses que du Congo j'me téléporte Et mais coño ton style est bof, Kinshasa on est les boss Zappe mon putain d'couplet, t'auras plus b'soin d'dentiste Écoute mon rap de baisé, fêlé produit par des autistes J'ai brisé mes chaînes chienne, j'traîne avec mon paquetage Nique sa mère la rue, la vraie, mon frère, ici y a pas d'stage Fous le dawa dans l'club, tu fous le dawa dans l'vide On a rempli des salles, frère, avant de remplir son bide J'fais dans l'humanitaire, rap d'handicapé Coupez-moi la langue et même sans ça, j'vais vous épater 'tain, j'ai trop la dalle envie de grailler des MC Pourquoi nous défier ? Pas la peine imbécile J'suis pas dans la compèt', mais dans les pépettes Chehel ta télé tape-toi nos têtes Rap tah la dalle, on t'laissera p't-être un os Ton rap n'avance pas, j'sais pas, fais-lui les cosses Tu peux m'voir au fond d'la boîte, bouteille de champ's J'mets l'rap à quatre pattes, bienvenue sur la piste de danse À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss Tu peux m'voir au fond d'la boîte, Rolex en or Les haineux parlent mal car ils sont restés dehors À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss, c'est nous les stars Neuf-Trois fait cavaler les cops, sont où les chtars ? Rien qu'j'allume tous ces rappeurs et les pompiers peuvent rien faire Comment bâtir un empire quand t'es entouré d'mange-pierres ? Ta vengeance marque la foule, t'as tiré sur ton poto T'as des gentils discours, on a de violents propos Baby-baby no more, ou baby-baby donne-moi Non non, l'amour rend pas aveugle, on t'as juste baisé dans l'noir T'es en galère de plaquettes ? Braque l'épicier du coin Si t'es en galère de hassanats braque la Nuit du Destin J'suis le Boss du Neuf-Trois, j'ai des punchlines de bâtard J'suis le rappeur préféré de tes grands frères au placard Prof d'ma génération, les autres en apprentissage Trop d'meufs racontent d'la merde, les culs remplacent les visages À quoi bon sert d'nous clasher ? J'suis aussi sale que la Seine Moi, quand j'envoie des piques, ça m'fait rentrer d'la SACEM Le rap français m'a saoulé, à croire qu'c'est tous des pochetrons J'voulais être un hlel, j'ai un caractère de cochon Du hebs, du rap, j'en ai trop fait Soulève les 'tasses et les trophées J'ai tellement d'haineux sur mes côtes, toi-même, tu sais qu'on est cotés Elles remixent comme des DJ, au lit ne savent que hoster J'accouche pas dans ma dépo' car je ché-cra à côté J'ai chatouillé mon étoile depuis qu'je vise les gratte-ciels Chez nous les peines sont salées la juge a mis son grain de sel Tu peux m'voir au fond d'la boîte, bouteille de champ's J'mets l'rap à quatre pattes, bienvenue sur la piste de danse À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss Tu peux m'voir au fond d'la boîte, Rolex en or Les haineux parlent mal car ils sont restés dehors À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss14</t>
+          <t>V'là l'nouveau missile scud, frère, j'suis l'Boss du Nord au Sud Tes disques se vendent pas fais des reprises de mes tubes Quatre fois j'ai fini en taule, j'ai jamais eu d'bon baveux Mes p'tits passent en radio, tes grands passent aux aveux Tement-par' à Miami car j'fais des concerts là-bas Mais j'préfère investir au bled car j'ai d'la famille là-bas Trafic de stupéfiants sur mon casier judiciaire Nique sa mère le commissaire et son salaire de misère J'ai différentes filles avec différentes mères Et comme j'ai plein d'billets d'cent elles m'appellent Père vert J'entends ce clash sur toi partout sur les ondes Mais comme un appel à la mosquée tu peux pas répondre Contrôle de keufs nique ta mère, j'ai pas mes papiers Inculpé, toi, y a qu'à la salle de sport que t'as un casier À Paname toutes les michtonneuses te l'diront, mon frère Y a pas qu'au tabac qu'on gratte un millionnaire ! Que l'Sept-Huit m'en soit témoin j'suis pas d'une famille aisée J'suis plus cramé qu'un poulet braisé va t'faire baiser ! Contrôle abusif, j'baise l'État sans préservatif Mes rebeux trouvent ça jouissif... Tu peux m'voir au fond d'la boîte, bouteille de champ's J'mets l'rap à quatre pattes, bienvenue sur la piste de danse À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss Tu peux m'voir au fond d'la boîte, Rolex en or Les haineux parlent mal car ils sont restés dehors À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss Salope ! Numéro un au top, t'étais même pas installé T'étais bon qu'à gratter des clopes, j'vais t'apprendre à bien parler Ça t'choque, sale fiotte, j'vais m'faire retweeter par toute ta team T'existais a'-p, on était double disque de platine J'allume un cierge car ce soir on claque des sommes astronomiques Avoue qu't'es vierge bouffonne! que sur ton signe astrologique Trop souvent ceux qui ont une vie d'clebs deviennent des bandits En effet, vaut mieux un fils au hebs qu'une mère qui mendie On est prêts pour faire la guerre, tout l'monde à terre Faire parler l'fer, un bout d'métal sur les lombaires S.N.I.P. Boss de Paname ! N.I.R.O. Street Lourd, à Paname on est les Big Boss Dites aux MC's d'enlever leur bouche d'la bite à Rick Ross Demande à la rue qui contrôle le putain d'réseau On sait où sont les vraies sommes On sait qui sont les vrais hommes Cliquez, cliquez au lieu d'critiquer, faites du biff, c'est pas compliqué J'baise le game sans faire exprès comme quand j'pars avec ton briquet Mets-les tous sur l'putain d'passage clouté, j'vais tous les shooter Y en a qui sont faits pour être vus j'suis fait pour être écouté Qui peut s'vanter d'avoir eu ma peau en featuring ? À chaque combat, j'suis l'dernier à sortir du ring Comme un tron-pa, j'me trompe pas, j'fais que des tueries Complétement débile qui veut m'voler mes billes ? J'suis l'meilleur, ils le savent, j'suis pas un enfoiré d'puriste Soutenu par les braves, j'recevais des lettres de Fleury Ghetto soldat, la foi, la folie et la furie Fouiny Baby, N.I.R.O zeubi Tu peux m'voir au fond d'la boîte, bouteille de champ's J'mets l'rap à quatre pattes, bienvenue sur la piste de danse À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss Tu peux m'voir au fond d'la boîte, Rolex en or Les haineux parlent mal car ils sont restés dehors À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss La-la-la-la l'argent fait oublier la race à Paris Un Arabe pauvre reste un Arabe, un Arabe riche, ça devient un Qatari Moi, j'aime les rageux, ils ne font que leur devoir J'offre une Rolex aux autres MC qu'ils soient au courant de mon heure de gloire Balancez les bombes et donnez-moi le brassard Libérez les ondes et parlez de Kinshasa Venez pas nous gronder, on n'est que des poissards Venez pas nous plomber, on n'est que de passage Si vous tombez, évitez le plaquage Baladez les condés, évitez le placard Tout le monde est plombé, tout le monde est comblé Tout le monde est con, fais les comptes c'est le black-out Les derniers dans l'arène sont les premiers en tchatche Moi, j'ai tout-tout parié sur moi-même comme le Gitan dans Snatch Je le jure sur la tête des gosses que du Congo j'me téléporte Et mais coño ton style est bof, Kinshasa on est les boss Zappe mon putain d'couplet, t'auras plus b'soin d'dentiste Écoute mon rap de baisé, fêlé produit par des autistes J'ai brisé mes chaînes chienne, j'traîne avec mon paquetage Nique sa mère la rue, la vraie, mon frère, ici y a pas d'stage Fous le dawa dans l'club, tu fous le dawa dans l'vide On a rempli des salles, frère, avant de remplir son bide J'fais dans l'humanitaire, rap d'handicapé Coupez-moi la langue et même sans ça, j'vais vous épater 'tain, j'ai trop la dalle envie de grailler des MC Pourquoi nous défier ? Pas la peine imbécile J'suis pas dans la compèt', mais dans les pépettes Chehel ta télé tape-toi nos têtes Rap tah la dalle, on t'laissera p't-être un os Ton rap n'avance pas, j'sais pas, fais-lui les cosses Tu peux m'voir au fond d'la boîte, bouteille de champ's J'mets l'rap à quatre pattes, bienvenue sur la piste de danse À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss Tu peux m'voir au fond d'la boîte, Rolex en or Les haineux parlent mal car ils sont restés dehors À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss, c'est nous les stars Neuf-Trois fait cavaler les cops, sont où les chtars ? Rien qu'j'allume tous ces rappeurs et les pompiers peuvent rien faire Comment bâtir un empire quand t'es entouré d'mange-pierres ? Ta vengeance marque la foule, t'as tiré sur ton poto T'as des gentils discours, on a de violents propos Baby-baby no more, ou baby-baby donne-moi Non non, l'amour rend pas aveugle, on t'as juste baisé dans l'noir T'es en galère de plaquettes ? Braque l'épicier du coin Si t'es en galère de hassanats braque la Nuit du Destin J'suis le Boss du Neuf-Trois, j'ai des punchlines de bâtard J'suis le rappeur préféré de tes grands frères au placard Prof d'ma génération, les autres en apprentissage Trop d'meufs racontent d'la merde, les culs remplacent les visages À quoi bon sert d'nous clasher ? J'suis aussi sale que la Seine Moi, quand j'envoie des piques, ça m'fait rentrer d'la SACEM Le rap français m'a saoulé, à croire qu'c'est tous des pochetrons J'voulais être un hlel, j'ai un caractère de cochon Du hebs, du rap, j'en ai trop fait Soulève les 'tasses et les trophées J'ai tellement d'haineux sur mes côtes, toi-même, tu sais qu'on est cotés Elles remixent comme des DJ, au lit ne savent que hoster J'accouche pas dans ma dépo' car je ché-cra à côté J'ai chatouillé mon étoile depuis qu'je vise les gratte-ciels Chez nous les peines sont salées la juge a mis son grain de sel Tu peux m'voir au fond d'la boîte, bouteille de champ's J'mets l'rap à quatre pattes, bienvenue sur la piste de danse À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss Tu peux m'voir au fond d'la boîte, Rolex en or Les haineux parlent mal car ils sont restés dehors À Paname on est les boss À Paname on est les boss À Paname on est les boss À Paname on est les boss14</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ceci est une nouvelle exclusivité One Shot Biatch... C'est la vie ! Yeah, quoi d'neuf Fouiny Babe ? Si j'perds un tête-à-tête, j'te tire dessus Négro tu refuses des têtes-à-têtes et tu te pisses dessus Hicham et Toumani sont témoins ce négro est faible Ce négro tremble, frérot, ce négro bégaye Mais voyons, Petit Ourson arrête de faire la tête Voilà l'premier extrait de ta prochaine mixtape J't'ai vu dans l'futur avec un tél' Alcatel Frérot c'est pas hallal, y'a qu'dans ton slip qu'y'a du caramel Mon casier judiciaire sur le net résonne À part B2O, j'ai violé personne Lambo' en leasing, appartement en location À Bois d'Arcy ton parcours reufré drôle de réputation T'as sucé tout l'Neuf-Trois, donné ton cul dans l'Neuf-Deux Goûte ma dick du Sept-Huit, j'fous le Milan en Ligue 2 Tu payes des billets première classe aux michetonneuses de Paris Arrivées à Miami, elles s'arrêtent à l'étage de Fouiny C'est la vie B2OBiatch, Izi arrête de michetonner, ta bouche sent le zizi T'as quelques fans qui n'savent pas encore qui tu es T'es pas dans l'futur ton album est imparfait Fais, fais tes feats avec Rick Ross ben voyons ! Une victime en featuring avec un ex-maton Casier judiciaire aussi gros qu'ton pot d'protéines La prochaine fois sors d'ta caisse quand on s'croise au pied du building J'procède à l'autopsie, mais tes couilles sont au régime Les vrais savent pourquoi les anniversaires s'annulent au Régine Négro t'as des tatouages, on a des cicatrices Man on sait qui t'es B2OBA...trice You might also like Mon casier judiciaire sur le net résonne À part B2O, j'ai violé personne À part B2O, j'ai violé personne À part B2O, j'ai violé personne J'suis propriétaire, Fouiny est propriétaire J'suis propriétaire, Fouiny est propriétaire Si j'perds un tête à tête, j'te tire dessus Négro, tu refuses des têtes-à-têtes et tu te pisses dessus J'aimais ma mère et j'aurais tout fait pour elle Ils ont kidnappé la tienne mais t'es pas tombé pour elle T'as appelé les poulets, les tralalas, les empreintes Fais comme Fouiny Baby moi j'ai jamais porté plainte On habite dans l'même block, négro See you soon ! J'ai peur d'Élie Yaffa comme j'ai peur d'Élie Sémoun Bakel City Gang, mais t'es jamais à Dakar T'inquiète, t'auras ta Green Card, arrête d'esquiver les bagarres Tu kiffes Fouiny Story, négro c'est la vie ! Après l'rap, j'te vois bien comme danseuse au K.O.D B2OBiatch, bitch a.k.a. Élie Je vois qu'tu parles de thiéboudiène NeufDeuxRiz Ils ont traité ma mère, jleur pardonnerai jamais, izi izi iiiiziiii Arrête tes conneries, p'tite zoulette R'n'B Vocoder où est l'renoi qui rappait avec Ali ? Mon casier judiciaire sur le net résonne À part B2O, j'ai violé personne À part B2O, j'ai violé personne À part B2O, j'ai violé personne J'suis propriétaire, Fouiny est propriétaire J'suis propriétaire, Fouiny est propriétaire Si j'perds un tête à tête, j'te tire dessus Négro, tu refuses des têtes-à-têtes et tu te pisses dessus Izi, quest-ce que jvais faire de toute cette oseille ? Bakel City Groseille... Bah bravo morray ! Tu las pris à crédit, tu las dans ton parking Des p'tites ont 16 ans dans ton clip renoi beleck au casting Descends quon boit un verre, arrête tes sales besognes Jvais pas aux putes, jpeux pas détrôner l'Duc du Bois d'Boulogne Jsuis DSK, tes femme de ménage, rappe au Sofitel Cest plus des jambes de coq, haa sahbi, cest des jambes de sauterelle Thabites dans un building, c'sera toujours mieux pour sauter Tes bien balaise, tu ressembles à Gérard des Filles dà côté Crédible sur le net, gangster virtuel Jai fait un feat avec Booba, ça prouve qu'j'ai rien contre les homosexuels Jviens de loin, jai connu la hass, les huissiers, la zermi Tes né une cuillère en or dans la bouche, mon petit Élie Arrête de rapper nos vies, négro tas aucun vécu Notre beef a fait grimper l'cachet de tes agents d'sécu' Tas attendu d'bouger pour sortir ton sheu-cla Je suis venu, jai vaincu, toi tas tapé la harba Il ne peut en rester quun, pour ça qu't'as déménagé On connaît tous ta religion arrête de la renier Mon casier judiciaire sur le net résonne À part B2O, j'ai violé personne À part B2O, j'ai violé personne À part B2O, j'ai violé personne J'suis propriétaire, Fouiny est propriétaire J'suis propriétaire, Fouiny est propriétaire Si j'perds un tête à tête, j'te tire dessus Négro, tu refuses des têtes-à-têtes et tu te pisses dessus Elle a quoi B2OBéatrice ? Elle a ses règles ou quoi ? Elle est là, elle peut plus rien faire en rap, alors elle veut s'faire du buzz, elle invente des rumeurs sur Fouiny C'est un pointeur, c'est un pointeur, c'est un pointeur... Hey, dans ton canular bidon, la meuf elle est en train d'dire qu'en 1997, moi j'ai agressé une mineure. En 1997 j'avais quinze ans. Euh... Agression sur mineure, moi-même j'suis mineur... Ça n'a pas d'sens ! Tu fais sûrement allusion quand j't'ai pointé, B2OBiatch ! Ou elle fait sûrement allusion, j'sais pas moi, au collège, j'ai dû mettre une p'tite main au cul à une meuf, vite fait... Oups, pardon ! Bon bref, Madame la juge, Morray, je vous le jure à part B2OBiatch, je n'ai violé personne. J'avoue, c'est des gros trucs de bouffons, les règlements d'comptes sur internet. J'te clashe, j'te fais une vidéo... Les vrais bonhommes, ils règlent pas leurs histoires sur le net, j'avoue. Mais mesdames et messieurs j'peux pas faire autrement quand j'le croise en bas d'mon bâtiment, j'descends d'ma voiture, j'vais à sa fenêtre de sa voiture, j'lui dis Descends, viens, on va régler nos affaires. Il m'dit Non, y'a les keufs, y'a la sécurité... J'lui dis Descends ta race ! J'l'ai insulté de tous les noms, n'importe quel mec de tier-quar serait descendu d'sa voiture. Hassoul, quand j'ai essayé d'ouvrir sa porte pour rentrer dans sa voiture click, click, click, fermeture, centralisation des portes. Le mec est vraiment un bouffon. Même mon gars Toumani lui a dit Viens, j'monte dans ta voiture, on va dans un coin désert, on va faire un tête-à-tête, le mec a refusé ! Il a refusé deux têtes-à-têtes en une après-midi, mon frère ! Deux têtes-à-têtes ! Si j'perds un tête-à-tête, j'te tire dessus Mais commence par les faire, déjà, tes têtes-à-têtes, petit bouffon ! Après, le mec il s'est enfui dans sa voiture. Et plus tard il va raconter à des amis qu'on a en commun à Miami Ouais j'ai pas voulu descendre de ma voiture il est pas d'ma team... Euh, j'vais pas descendre de ma voiture sinon j'l'aurais niqué, j'lui aurais cassé la bouche il aurait porté plainte lui et ses deux potes après j'aurais pas eu la Green Card... Espèce de bouffon va ! Tu sais quoi, j'préfère être clandestin avec mon honneur qu'un bouffon comme toi titulaire de la Green Card ! Vas-y, va vivre en Floride, t'façon t'as l'swag à Flo Rida C'est ça !6</t>
+          <t>Ceci est une nouvelle exclusivité One Shot Biatch... C'est la vie ! Yeah, quoi d'neuf Fouiny Babe ? Si j'perds un tête-à-tête, j'te tire dessus Négro tu refuses des têtes-à-têtes et tu te pisses dessus Hicham et Toumani sont témoins ce négro est faible Ce négro tremble, frérot, ce négro bégaye Mais voyons, Petit Ourson arrête de faire la tête Voilà l'premier extrait de ta prochaine mixtape J't'ai vu dans l'futur avec un tél' Alcatel Frérot c'est pas hallal, y'a qu'dans ton slip qu'y'a du caramel Mon casier judiciaire sur le net résonne À part B2O, j'ai violé personne Lambo' en leasing, appartement en location À Bois d'Arcy ton parcours reufré drôle de réputation T'as sucé tout l'Neuf-Trois, donné ton cul dans l'Neuf-Deux Goûte ma dick du Sept-Huit, j'fous le Milan en Ligue 2 Tu payes des billets première classe aux michetonneuses de Paris Arrivées à Miami, elles s'arrêtent à l'étage de Fouiny C'est la vie B2OBiatch, Izi arrête de michetonner, ta bouche sent le zizi T'as quelques fans qui n'savent pas encore qui tu es T'es pas dans l'futur ton album est imparfait Fais, fais tes feats avec Rick Ross ben voyons ! Une victime en featuring avec un ex-maton Casier judiciaire aussi gros qu'ton pot d'protéines La prochaine fois sors d'ta caisse quand on s'croise au pied du building J'procède à l'autopsie, mais tes couilles sont au régime Les vrais savent pourquoi les anniversaires s'annulent au Régine Négro t'as des tatouages, on a des cicatrices Man on sait qui t'es B2OBA...trice Mon casier judiciaire sur le net résonne À part B2O, j'ai violé personne À part B2O, j'ai violé personne À part B2O, j'ai violé personne J'suis propriétaire, Fouiny est propriétaire J'suis propriétaire, Fouiny est propriétaire Si j'perds un tête à tête, j'te tire dessus Négro, tu refuses des têtes-à-têtes et tu te pisses dessus J'aimais ma mère et j'aurais tout fait pour elle Ils ont kidnappé la tienne mais t'es pas tombé pour elle T'as appelé les poulets, les tralalas, les empreintes Fais comme Fouiny Baby moi j'ai jamais porté plainte On habite dans l'même block, négro See you soon ! J'ai peur d'Élie Yaffa comme j'ai peur d'Élie Sémoun Bakel City Gang, mais t'es jamais à Dakar T'inquiète, t'auras ta Green Card, arrête d'esquiver les bagarres Tu kiffes Fouiny Story, négro c'est la vie ! Après l'rap, j'te vois bien comme danseuse au K.O.D B2OBiatch, bitch a.k.a. Élie Je vois qu'tu parles de thiéboudiène NeufDeuxRiz Ils ont traité ma mère, jleur pardonnerai jamais, izi izi iiiiziiii Arrête tes conneries, p'tite zoulette R'n'B Vocoder où est l'renoi qui rappait avec Ali ? Mon casier judiciaire sur le net résonne À part B2O, j'ai violé personne À part B2O, j'ai violé personne À part B2O, j'ai violé personne J'suis propriétaire, Fouiny est propriétaire J'suis propriétaire, Fouiny est propriétaire Si j'perds un tête à tête, j'te tire dessus Négro, tu refuses des têtes-à-têtes et tu te pisses dessus Izi, quest-ce que jvais faire de toute cette oseille ? Bakel City Groseille... Bah bravo morray ! Tu las pris à crédit, tu las dans ton parking Des p'tites ont 16 ans dans ton clip renoi beleck au casting Descends quon boit un verre, arrête tes sales besognes Jvais pas aux putes, jpeux pas détrôner l'Duc du Bois d'Boulogne Jsuis DSK, tes femme de ménage, rappe au Sofitel Cest plus des jambes de coq, haa sahbi, cest des jambes de sauterelle Thabites dans un building, c'sera toujours mieux pour sauter Tes bien balaise, tu ressembles à Gérard des Filles dà côté Crédible sur le net, gangster virtuel Jai fait un feat avec Booba, ça prouve qu'j'ai rien contre les homosexuels Jviens de loin, jai connu la hass, les huissiers, la zermi Tes né une cuillère en or dans la bouche, mon petit Élie Arrête de rapper nos vies, négro tas aucun vécu Notre beef a fait grimper l'cachet de tes agents d'sécu' Tas attendu d'bouger pour sortir ton sheu-cla Je suis venu, jai vaincu, toi tas tapé la harba Il ne peut en rester quun, pour ça qu't'as déménagé On connaît tous ta religion arrête de la renier Mon casier judiciaire sur le net résonne À part B2O, j'ai violé personne À part B2O, j'ai violé personne À part B2O, j'ai violé personne J'suis propriétaire, Fouiny est propriétaire J'suis propriétaire, Fouiny est propriétaire Si j'perds un tête à tête, j'te tire dessus Négro, tu refuses des têtes-à-têtes et tu te pisses dessus Elle a quoi B2OBéatrice ? Elle a ses règles ou quoi ? Elle est là, elle peut plus rien faire en rap, alors elle veut s'faire du buzz, elle invente des rumeurs sur Fouiny C'est un pointeur, c'est un pointeur, c'est un pointeur... Hey, dans ton canular bidon, la meuf elle est en train d'dire qu'en 1997, moi j'ai agressé une mineure. En 1997 j'avais quinze ans. Euh... Agression sur mineure, moi-même j'suis mineur... Ça n'a pas d'sens ! Tu fais sûrement allusion quand j't'ai pointé, B2OBiatch ! Ou elle fait sûrement allusion, j'sais pas moi, au collège, j'ai dû mettre une p'tite main au cul à une meuf, vite fait... Oups, pardon ! Bon bref, Madame la juge, Morray, je vous le jure à part B2OBiatch, je n'ai violé personne. J'avoue, c'est des gros trucs de bouffons, les règlements d'comptes sur internet. J'te clashe, j'te fais une vidéo... Les vrais bonhommes, ils règlent pas leurs histoires sur le net, j'avoue. Mais mesdames et messieurs j'peux pas faire autrement quand j'le croise en bas d'mon bâtiment, j'descends d'ma voiture, j'vais à sa fenêtre de sa voiture, j'lui dis Descends, viens, on va régler nos affaires. Il m'dit Non, y'a les keufs, y'a la sécurité... J'lui dis Descends ta race ! J'l'ai insulté de tous les noms, n'importe quel mec de tier-quar serait descendu d'sa voiture. Hassoul, quand j'ai essayé d'ouvrir sa porte pour rentrer dans sa voiture click, click, click, fermeture, centralisation des portes. Le mec est vraiment un bouffon. Même mon gars Toumani lui a dit Viens, j'monte dans ta voiture, on va dans un coin désert, on va faire un tête-à-tête, le mec a refusé ! Il a refusé deux têtes-à-têtes en une après-midi, mon frère ! Deux têtes-à-têtes ! Si j'perds un tête-à-tête, j'te tire dessus Mais commence par les faire, déjà, tes têtes-à-têtes, petit bouffon ! Après, le mec il s'est enfui dans sa voiture. Et plus tard il va raconter à des amis qu'on a en commun à Miami Ouais j'ai pas voulu descendre de ma voiture il est pas d'ma team... Euh, j'vais pas descendre de ma voiture sinon j'l'aurais niqué, j'lui aurais cassé la bouche il aurait porté plainte lui et ses deux potes après j'aurais pas eu la Green Card... Espèce de bouffon va ! Tu sais quoi, j'préfère être clandestin avec mon honneur qu'un bouffon comme toi titulaire de la Green Card ! Vas-y, va vivre en Floride, t'façon t'as l'swag à Flo Rida C'est ça !6</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Depuis que je traîne en bas, le soir chez moi j'entends Maman pleurer Dans ce trou à rats, on veut pas de moi, j'vois les profs se marrer Bâtiment A, commissariat, je sais même plus où aller Quand ça va pas, pas d'sheu-ca, impossible de s'barrer Aucun diplôme, quelques chromes et j'les entends parler Olympia, Bercy, Dôme, et j'me surprends rêver Gyrophare, sirène qui sonne et j'ai l'sommeil léger Bouteille de champagne, silicone faut bien s'laisser aller Seul au fond de la sse-cla, j'rêvais de sortir de là Mais j'avais pas les mots, j'avais, j'avais pas les mots J'aurais dû la prendre dans mes bras, lui dire qu'elle comptait pour moi Mais j'avais pas les mots, j'avais, j'avais pas les mots Maman je t'aime et papa c'est pareil, j'ai jamais su le dire car J'avais pas les mots, j'avais, j'avais pas les mots Plus jeune je ne trouvais pas les mots pour leur raconter mon histoire J'avais pas les mots, j'avais, j'avais pas les mots Quand les portes se ferment, j'fume de l'herbe et je laisse les gens parler J'tombe à terre, j'remonte en selle, j'vois ma vie s'étaler Coup de première, coup de deuxième Combien de fois j'ai calé ? Préviens mon père, préviens ma mère, j'en ai pour quelques années Assurance, carte grise, du matin au soir contrôlé Pas de vacances, un peu de tise, au quartier je passerai tout l'été Manigances, marchandises, influant quoi qu'on dise Face au vent celui qu'on vise, deviendra grand quoi qu'ils disent Seul au fond de la sse-cla, j'rêvais de sortir de là Mais j'avais pas les mots, j'avais, j'avais pas les mots J'aurais dû la prendre dans mes bras, lui dire qu'elle comptait pour moi Mais j'avais pas les mots, j'avais, j'avais pas les mots Maman je t'aime et papa c'est pareil, j'ai jamais su le dire car J'avais pas les mots, j'avais, j'avais pas les mots Plus jeune je ne trouvais pas les mots pour leur raconter mon histoire J'avais pas les mots, j'avais, j'avais pas les mots Incompris dans mon coin, personne à qui parler Avec le temps t'iras pas loin la conseillère me disait Papa, cesse de raler, maman, pose ton balais Trop d'années ont passé, jamais trouvé le temps de se parler Souvent absent tu taffais trop, elle aussi ne trouvait pas les mots Quand tu seras grand, souvent ses mots semmêlaient dans mon cerveau J'avais pas les mots, j'avais, j'avais pas les mots Terré dans mon silence fréro, j'avais pas les mots Seul au fond de la sse-cla, j'rêvais de sortir de là Mais j'avais pas les mots, j'avais, j'avais pas les mots J'aurais dû la prendre dans mes bras, lui dire qu'elle comptait pour moi Mais j'avais pas les mots, j'avais, j'avais pas les mots Maman je t'aime et papa c'est pareil, j'ai jamais su le dire car J'avais pas les mots, j'avais, j'avais pas les mots Plus jeune je ne trouvais pas les mots pour leur raconter mon histoire J'avais pas les mots, j'avais, j'avais pas les motsYou might also like9</t>
+          <t>Depuis que je traîne en bas, le soir chez moi j'entends Maman pleurer Dans ce trou à rats, on veut pas de moi, j'vois les profs se marrer Bâtiment A, commissariat, je sais même plus où aller Quand ça va pas, pas d'sheu-ca, impossible de s'barrer Aucun diplôme, quelques chromes et j'les entends parler Olympia, Bercy, Dôme, et j'me surprends rêver Gyrophare, sirène qui sonne et j'ai l'sommeil léger Bouteille de champagne, silicone faut bien s'laisser aller Seul au fond de la sse-cla, j'rêvais de sortir de là Mais j'avais pas les mots, j'avais, j'avais pas les mots J'aurais dû la prendre dans mes bras, lui dire qu'elle comptait pour moi Mais j'avais pas les mots, j'avais, j'avais pas les mots Maman je t'aime et papa c'est pareil, j'ai jamais su le dire car J'avais pas les mots, j'avais, j'avais pas les mots Plus jeune je ne trouvais pas les mots pour leur raconter mon histoire J'avais pas les mots, j'avais, j'avais pas les mots Quand les portes se ferment, j'fume de l'herbe et je laisse les gens parler J'tombe à terre, j'remonte en selle, j'vois ma vie s'étaler Coup de première, coup de deuxième Combien de fois j'ai calé ? Préviens mon père, préviens ma mère, j'en ai pour quelques années Assurance, carte grise, du matin au soir contrôlé Pas de vacances, un peu de tise, au quartier je passerai tout l'été Manigances, marchandises, influant quoi qu'on dise Face au vent celui qu'on vise, deviendra grand quoi qu'ils disent Seul au fond de la sse-cla, j'rêvais de sortir de là Mais j'avais pas les mots, j'avais, j'avais pas les mots J'aurais dû la prendre dans mes bras, lui dire qu'elle comptait pour moi Mais j'avais pas les mots, j'avais, j'avais pas les mots Maman je t'aime et papa c'est pareil, j'ai jamais su le dire car J'avais pas les mots, j'avais, j'avais pas les mots Plus jeune je ne trouvais pas les mots pour leur raconter mon histoire J'avais pas les mots, j'avais, j'avais pas les mots Incompris dans mon coin, personne à qui parler Avec le temps t'iras pas loin la conseillère me disait Papa, cesse de raler, maman, pose ton balais Trop d'années ont passé, jamais trouvé le temps de se parler Souvent absent tu taffais trop, elle aussi ne trouvait pas les mots Quand tu seras grand, souvent ses mots semmêlaient dans mon cerveau J'avais pas les mots, j'avais, j'avais pas les mots Terré dans mon silence fréro, j'avais pas les mots Seul au fond de la sse-cla, j'rêvais de sortir de là Mais j'avais pas les mots, j'avais, j'avais pas les mots J'aurais dû la prendre dans mes bras, lui dire qu'elle comptait pour moi Mais j'avais pas les mots, j'avais, j'avais pas les mots Maman je t'aime et papa c'est pareil, j'ai jamais su le dire car J'avais pas les mots, j'avais, j'avais pas les mots Plus jeune je ne trouvais pas les mots pour leur raconter mon histoire J'avais pas les mots, j'avais, j'avais pas les mots9</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mariage pour tous ouais, bsahtek renoi Ma feu-meu rentre des Antilles avec le boule plein d'heloua J'suis marié à la street ouais, j'ai graille le kola Salam à ma clique de mahbouls, renoi, Banlieue Sale BS'bollah Fous la merde on va les hebeul, arboula, arbé, lingala, peul Fusil chargé, ferme ta gueule, j'suis né tout seul mais j'vais pas mourir seul Un-deux-trois trophées demande à Trace qui est le sse-bo Fouiny Baby roule sur l'or négro, petit rageux roule un joint d'héro Fourgon, cellule, bédo, braco, coke, chtars Tournée, platine, promo, télé, radio, Popstars La vie c'est un doigt dans une teuch', l'autre sur la gâchette Gros, j'préfère finir aux assiettes qu'avoir rien dans mon assiette Repré-représailles, sors ton gun fais-le ! T'as d'l'argent qui dort, mais les keufs t'ont vé-le J'rappe le compét' vé-le Nier toutes tes sales affaires négro, fais-le, fais-le, fais-le Comme my nigga French ouais, j'vous passe le shout out BS seront les bests, y'a pas d'doute Inch'Allah Comme my nigga French ouais, j'vous passe le shout out BS seront les bests, y'a pas d'doute Inch'Allah Glenn, sors le 5D, j'vais m'faire cer-su Le Coran rien n'est fini, on va leur tirer dessus Fais des pompes, cantine Fouiny dans ta cellule J'ai baisé l'peura merde, elle prend pas la pilule ! You might also like Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Bêta-Oméga-Oméga-Bêta, hum... Asba ! Cours plus vite qu'Usain Bolt SaïdAouita Autopsie, Wesh Zoulette t'ont fait tomber d'l'élite Tout l'monde se demande pourquoi ton gars sûr n'était pas là au Zénith Putain d'crevard, drôle de mentalité il n'en restera qu'un Y'a qu'sur la glace que tes négros prendront tes patins Taekwondo, boxe, mais tu sais pas te per-ta Tu roules en Lambo' et tes frères te suivent en Jetta La hchouma tu t'fais virer d'une te-boî, ouais nhar Sheitan Mais quel artiste de merde refuse des photos avec ses fans ? Grosse merde sur la tête de ta calvitie T'as bientôt quarante balais allez dégage d'ici Tu tapes des petits d'dix-sept piges, négro ça devient critique Mais devant Dixon tu cours, cours, comme un champion olympique N'oublie pas qu'ton père était serveur dans un bar à putes Attends, quand j'y repense... t'es peut-être un fils de pute ! Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères S-Kal, Banlieue Sale signez chez nous Les autres font trop d'la merde, font du rap chelou Une-deux, p'tit pont, feinte, frappe, crochet T'as pas attendu d'jouer au foot renoi pour être fauché Braco, fourgon, kalash, roquette, recette, retraite Braco, fourgon, cellulaire, promenade, parloir, cantine, barquette Toi et ta chance, toi et ta chance, signe chez nous t'auras une avance Viens pas test, j'te l'dis d'avance, diamants noirs Casamance Les salles de bains, les comicos sont pleines de balances Très peu ont cru en moi, j'ai fait du chemin depuis J'avance CDC4, négro dans ta chatte Demande aux Bambaras on remplit des stades Glenn, sors le 5D, j'vais m'faire cer-su Le Coran rien n'est fini, on va leur tirer dessus Fais des pompes, cantine Fouiny dans ta cellule J'ai baisé l'peura merde, elle prend pas la pilule ! Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères12</t>
+          <t>Mariage pour tous ouais, bsahtek renoi Ma feu-meu rentre des Antilles avec le boule plein d'heloua J'suis marié à la street ouais, j'ai graille le kola Salam à ma clique de mahbouls, renoi, Banlieue Sale BS'bollah Fous la merde on va les hebeul, arboula, arbé, lingala, peul Fusil chargé, ferme ta gueule, j'suis né tout seul mais j'vais pas mourir seul Un-deux-trois trophées demande à Trace qui est le sse-bo Fouiny Baby roule sur l'or négro, petit rageux roule un joint d'héro Fourgon, cellule, bédo, braco, coke, chtars Tournée, platine, promo, télé, radio, Popstars La vie c'est un doigt dans une teuch', l'autre sur la gâchette Gros, j'préfère finir aux assiettes qu'avoir rien dans mon assiette Repré-représailles, sors ton gun fais-le ! T'as d'l'argent qui dort, mais les keufs t'ont vé-le J'rappe le compét' vé-le Nier toutes tes sales affaires négro, fais-le, fais-le, fais-le Comme my nigga French ouais, j'vous passe le shout out BS seront les bests, y'a pas d'doute Inch'Allah Comme my nigga French ouais, j'vous passe le shout out BS seront les bests, y'a pas d'doute Inch'Allah Glenn, sors le 5D, j'vais m'faire cer-su Le Coran rien n'est fini, on va leur tirer dessus Fais des pompes, cantine Fouiny dans ta cellule J'ai baisé l'peura merde, elle prend pas la pilule ! Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Bêta-Oméga-Oméga-Bêta, hum... Asba ! Cours plus vite qu'Usain Bolt SaïdAouita Autopsie, Wesh Zoulette t'ont fait tomber d'l'élite Tout l'monde se demande pourquoi ton gars sûr n'était pas là au Zénith Putain d'crevard, drôle de mentalité il n'en restera qu'un Y'a qu'sur la glace que tes négros prendront tes patins Taekwondo, boxe, mais tu sais pas te per-ta Tu roules en Lambo' et tes frères te suivent en Jetta La hchouma tu t'fais virer d'une te-boî, ouais nhar Sheitan Mais quel artiste de merde refuse des photos avec ses fans ? Grosse merde sur la tête de ta calvitie T'as bientôt quarante balais allez dégage d'ici Tu tapes des petits d'dix-sept piges, négro ça devient critique Mais devant Dixon tu cours, cours, comme un champion olympique N'oublie pas qu'ton père était serveur dans un bar à putes Attends, quand j'y repense... t'es peut-être un fils de pute ! Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères S-Kal, Banlieue Sale signez chez nous Les autres font trop d'la merde, font du rap chelou Une-deux, p'tit pont, feinte, frappe, crochet T'as pas attendu d'jouer au foot renoi pour être fauché Braco, fourgon, kalash, roquette, recette, retraite Braco, fourgon, cellulaire, promenade, parloir, cantine, barquette Toi et ta chance, toi et ta chance, signe chez nous t'auras une avance Viens pas test, j'te l'dis d'avance, diamants noirs Casamance Les salles de bains, les comicos sont pleines de balances Très peu ont cru en moi, j'ai fait du chemin depuis J'avance CDC4, négro dans ta chatte Demande aux Bambaras on remplit des stades Glenn, sors le 5D, j'vais m'faire cer-su Le Coran rien n'est fini, on va leur tirer dessus Fais des pompes, cantine Fouiny dans ta cellule J'ai baisé l'peura merde, elle prend pas la pilule ! Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères Va niquer ta mère, c'est la fête des mères12</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sur ma route, j'ai vu tomber combien de rois Au final c'est retour à la case départ Dans les rues, dévisagé, pointé du doigt Sans rancune, c'est retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on s'revoit à la case départ Retour à la case départ On a arrêté d'traîner juste en trouvant nos rôles Au final, c'est les plus petits qu'on retrouve dans nos halls Esclave de ma passion, j'me dis que j'serai jamais aboli On nous respecte sur un coup d'tête demande à Basile Boli T'as beau gagner des millions, tu vas mourir comme tout l'monde Autrement dit, même en lumière, tu vises pas plus loin qu'une ombre Dites-moi combien d'enfants battus seront des parents violents Combien de victimes de la route se disaient chauds au volant Un peu partout des guerres de religion, c'qui change c'est l'époque Beaucoup de gens qu'ont réussi t'diront C'qui change, c'est les potes Les mêmes scénarios pour d'autres gens, donc faites place aux suivants On a pas les mêmes péchés, mais on aura le même jugement Sur ma route, j'ai vu tomber combien de rois Au final c'est retour à la case départ Dans les rues, dévisagé, pointé du doigt Sans rancune, c'est retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on s'revoit à la case départ Retour à la case départ Retour à la case départ Retour à la case départ Retour à la case départ Case départ Retour à la case départ Sur l'terrain, les p'tits ont la coupe mais pas l'salaire à Neymar Hey yo Skalp, coupe le son ça j'le veux a capella Libre-penseur enfermé, demande à Nelson Mandela Même si tout nous sépare, nombreux sur la ligne de départ Et la guitare me rappelle que, très tôt, j'rentrais déjà très tard F.A.Babe, Fouiny Babe, Sindy et Soultouane Ils sont après nous comme les chiens d'la douane J'les ai entendus parler combien de fois Au final, c'est retour à la case départ Et j'nous ai vus contourner combien de lois Sans succès, retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on se revoit à la case départ Sur ma route, j'ai vu tomber combien de rois Au final c'est retour à la case départ Dans les rues, dévisagé, pointé du doigt Sans rancune, c'est retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on s'revoit à la case départ Case départ Mes problèmes se couchent pas, même si l'soleil s'est levé Ma carrière est remplie d'vices que le Sheitan a meublé Plus d'ennemis, plus d'fans, plus d'claps Baby ton son ne marche plus, t'as l'buzz d'un cul d'jatte Posé à l'arrêt d'bus, regarde j'fais peine à voir Des rafales de larmes sont venues tuer ma joie Tes punchlines étaient bien, mais ça paye pas les factures Pas d'télé, pas d'radio, et ta carrière se fracture La vie un court-métrage où tu joues plus aucune scène J'retourne à ma vie d'esclave, j'passe plus sur aucune chaîne J'ai perdu des êtres chers, les photos ont d'la valeur Mourir en pôle position comme Walker Sur ma route, j'ai vu tomber combien de rois Au final c'est retour à la case départ Dans les rues, dévisagé, pointé du doigt Sans rancune, c'est retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on s'revoit à la case départ Retour à la case départ Retour à la case départ Retour à la case départ Retour à la case départ Case départ Retour à la case départ Retour à la case départ Retour à la case départYou might also like14</t>
+          <t>Sur ma route, j'ai vu tomber combien de rois Au final c'est retour à la case départ Dans les rues, dévisagé, pointé du doigt Sans rancune, c'est retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on s'revoit à la case départ Retour à la case départ On a arrêté d'traîner juste en trouvant nos rôles Au final, c'est les plus petits qu'on retrouve dans nos halls Esclave de ma passion, j'me dis que j'serai jamais aboli On nous respecte sur un coup d'tête demande à Basile Boli T'as beau gagner des millions, tu vas mourir comme tout l'monde Autrement dit, même en lumière, tu vises pas plus loin qu'une ombre Dites-moi combien d'enfants battus seront des parents violents Combien de victimes de la route se disaient chauds au volant Un peu partout des guerres de religion, c'qui change c'est l'époque Beaucoup de gens qu'ont réussi t'diront C'qui change, c'est les potes Les mêmes scénarios pour d'autres gens, donc faites place aux suivants On a pas les mêmes péchés, mais on aura le même jugement Sur ma route, j'ai vu tomber combien de rois Au final c'est retour à la case départ Dans les rues, dévisagé, pointé du doigt Sans rancune, c'est retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on s'revoit à la case départ Retour à la case départ Retour à la case départ Retour à la case départ Retour à la case départ Case départ Retour à la case départ Sur l'terrain, les p'tits ont la coupe mais pas l'salaire à Neymar Hey yo Skalp, coupe le son ça j'le veux a capella Libre-penseur enfermé, demande à Nelson Mandela Même si tout nous sépare, nombreux sur la ligne de départ Et la guitare me rappelle que, très tôt, j'rentrais déjà très tard F.A.Babe, Fouiny Babe, Sindy et Soultouane Ils sont après nous comme les chiens d'la douane J'les ai entendus parler combien de fois Au final, c'est retour à la case départ Et j'nous ai vus contourner combien de lois Sans succès, retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on se revoit à la case départ Sur ma route, j'ai vu tomber combien de rois Au final c'est retour à la case départ Dans les rues, dévisagé, pointé du doigt Sans rancune, c'est retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on s'revoit à la case départ Case départ Mes problèmes se couchent pas, même si l'soleil s'est levé Ma carrière est remplie d'vices que le Sheitan a meublé Plus d'ennemis, plus d'fans, plus d'claps Baby ton son ne marche plus, t'as l'buzz d'un cul d'jatte Posé à l'arrêt d'bus, regarde j'fais peine à voir Des rafales de larmes sont venues tuer ma joie Tes punchlines étaient bien, mais ça paye pas les factures Pas d'télé, pas d'radio, et ta carrière se fracture La vie un court-métrage où tu joues plus aucune scène J'retourne à ma vie d'esclave, j'passe plus sur aucune chaîne J'ai perdu des êtres chers, les photos ont d'la valeur Mourir en pôle position comme Walker Sur ma route, j'ai vu tomber combien de rois Au final c'est retour à la case départ Dans les rues, dévisagé, pointé du doigt Sans rancune, c'est retour à la case départ Quelques mots sur un papier, beaucoup d'espoir C'est un aller sans retour à la case départ Un peu de elle, de lui, de nous, beaucoup de toi Au cas ou on s'revoit à la case départ Retour à la case départ Retour à la case départ Retour à la case départ Retour à la case départ Case départ Retour à la case départ Retour à la case départ Retour à la case départ14</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dans mon miroir j'vois mes défauts et mes défaites Mais j'aime voir ma réussite car c'est le reflet d'ton échec Yeah, j'suis dans mon jacuzzi, t'es dans ta jalousie Jalou-jalousie, jalou-jalousie J'reste dans mon jacuzzi, reste dans ta jalousie Jalou-jalousie, jalou-jalou-jalousie Les rageux parlent, on appelle ça d'la jalousie Les haineux parlent, on appelle ça d'la jalou-jalousie Tu portes l'il, on appelle ça d'la jalousie Laisse, laisse-les parler, jalou-jalou-jalousie Yeah j'ai percé dans l'peura frérot ouais nique sa mère les braquos Le rap sans DJ Mehdi, c'est comme Sniper sans Blacko Cherche la monnaie nuit et jour, ouais nique sa mère les haters Billets violets, billets jaunes j'ai signé chez les Lakers Stop le peura renoi, c'est pas pour toi, stop les blagues Dis-moi avec qui tu traînes et j'te dirais si t'as du swagg Parfois j'fais la salat pour m'éloigner du 6.6.6 J'suis toujours en avance robeu ma montre est suisse-suisse-suisse J'traîne pas dans l'show-business, j'm'accroche pas à cette branche Y'a qu'sur un putain d'zèbre qu'on pourrait pas voir toutes leurs lignes blanches Tes disques se vendent pas t'es qu'un rageux frère tu gamberges Tu veux sortir un classique ? Sors un CD vierge Travaille dur de janvier à janvier j'ai pas l'temps d'envier Les jaloux parlent mal, restent mignons un brolic dans le gosier J'fais croquer les tits-pe d'partout depuis mon premier album Va l'dire à Steve Jobs, j'fais pas qu'un croc dans ma pomme You might also like J'rentre comme un M.Sixteen entre les mains d'un atteint de la Parkinson Ratatatatatata fais pas l'pare balles-tringue pas d'flingue c'est ta mort qui sonne On espère s'en sortir, pourtant ça ne parle que de haram Les traîtres on les piétine, les jaloux on leur passe le salam Compose le eighteen j'viens foutre le fire Tes oreilles prennent de la valeur, Banlieue Sale, Foolek Empire La concurrence est prête à tout pour bronzer sous les palmiers Écarter les jambes comme Jordan au-dessus du panier On court après la fraîche, les condés nous courent après Veulent des noms mais on préfère se faire contourner à la craie J'étale ma ge-ra sur un son d'vainqueur J'ai perdu trop de proches, ma voix, mon peura touchent plein cur Fidèle à mes one shot, facultatif sont les backers Acharné sur la batterie demande à Travis Barker Ne m'manque pas de toupet, surtout en fin d'couplet Sors le kick et le taff, j'éclate les mines et les mythomanes qui nous font croire qu'ils ont tout fait Yeah, j'suis dans mon jacuzzi, t'es dans ta jalousie Jalou-jalousie, jalou-jalousie J'reste dans mon jacuzzi, reste dans ta jalousie Jalou-jalousie, jalou-jalou-jalousie Les rageux parlent, on appelle ça d'la jalousie Les haineux parlent, on appelle ça d'la jalou-jalousie Tu portes l'il, on appelle ça d'la jalousie Laisse, laisse-les parler, jalou-jalou-jalousie Il signe la relève du rap game, donc ils sont jaloux d'Fouiny Moi j'ai signé chez Fouiny, donc ils sont jaloux d'Baby J'prends ta place jour après jour, commence à faire tes valises Dans le Neuf-Trois quand ça tire au pompe boy personne balise J'sais pas où j'vais mais la balistique sait où j'ai traîné Bien la meuf, bien l'gamos, dommage que l'son soit khené Jaloux quand j'avance mais quand j'suis pauvre ils m'aiment Paraît qu'les keufs veulent tous ma peau, dis-leur qu'c'est idem J'te parle de jalousie, la foule est unanime Plein d'complots bizarres, menaces de mort, coups d'fil anonymes Porte bien mon pseudonyme, mon gun me back mal, demande plus d'harmonie C'est F.A.Baby bad boy my homie Vitriyo superstar, si c'est pas moi c'est qui ? J'casse la démarche sur la rythmique Graisse pas la patte à un flic flic heya, appelle-moi Meek Mill bitch I'm A Boss Youguette fais pas ta halal, t'as touché le bout d'mon .. Si tu mens à ta daronne, sache que tu mens à tout l'monde Capitale du Crime, rien n'est impossible, j'ai vu des garces sincères Avant d'sauver Willy, commencer par mon ascenseur Dans le tier-quar où je vis reculer n'est pas dans les principes moi j'suis fidèle au grec frite hey Désolé ma veste n'est pas réversible, c'est pas Fatou mais ta nympho' qu'on excise Avec Six, on tient le pavé, la galère abuse À gauche les kaffirs me tirent, à droite les frères m'usent Bref j'vise la tête, dans l'caleçon j'ai la banana à Elvis Pas d'secret ou d'confessionnal dans la tombe de F.X Princesse L.E.C.K. est une drogue que tu pourras test Laisse pas traîner ta fille ou son fils aura ma tête Neuf-Quatre qui peut dire mieux ? T'arrêtes pas les balles même si t'es Oliver Kahn Moi et la relève du rap, Tony P. à Villeurbanne Yeah, j'suis dans mon jacuzzi, t'es dans ta jalousie Jalou-jalousie, jalou-jalousie J'reste dans mon jacuzzi, reste dans ta jalousie Jalou-jalousie, jalou-jalou-jalousie Les rageux parlent, on appelle ça d'la jalousie Les haineux parlent, on appelle ça d'la jalou-jalousie Tu portes l'il, on appelle ça d'la jalousie Laisse, laisse-les parler, jalou-jalou-jalousie Joue pas ton jaloux et rejoins nous !9</t>
+          <t>Dans mon miroir j'vois mes défauts et mes défaites Mais j'aime voir ma réussite car c'est le reflet d'ton échec Yeah, j'suis dans mon jacuzzi, t'es dans ta jalousie Jalou-jalousie, jalou-jalousie J'reste dans mon jacuzzi, reste dans ta jalousie Jalou-jalousie, jalou-jalou-jalousie Les rageux parlent, on appelle ça d'la jalousie Les haineux parlent, on appelle ça d'la jalou-jalousie Tu portes l'il, on appelle ça d'la jalousie Laisse, laisse-les parler, jalou-jalou-jalousie Yeah j'ai percé dans l'peura frérot ouais nique sa mère les braquos Le rap sans DJ Mehdi, c'est comme Sniper sans Blacko Cherche la monnaie nuit et jour, ouais nique sa mère les haters Billets violets, billets jaunes j'ai signé chez les Lakers Stop le peura renoi, c'est pas pour toi, stop les blagues Dis-moi avec qui tu traînes et j'te dirais si t'as du swagg Parfois j'fais la salat pour m'éloigner du 6.6.6 J'suis toujours en avance robeu ma montre est suisse-suisse-suisse J'traîne pas dans l'show-business, j'm'accroche pas à cette branche Y'a qu'sur un putain d'zèbre qu'on pourrait pas voir toutes leurs lignes blanches Tes disques se vendent pas t'es qu'un rageux frère tu gamberges Tu veux sortir un classique ? Sors un CD vierge Travaille dur de janvier à janvier j'ai pas l'temps d'envier Les jaloux parlent mal, restent mignons un brolic dans le gosier J'fais croquer les tits-pe d'partout depuis mon premier album Va l'dire à Steve Jobs, j'fais pas qu'un croc dans ma pomme J'rentre comme un M.Sixteen entre les mains d'un atteint de la Parkinson Ratatatatatata fais pas l'pare balles-tringue pas d'flingue c'est ta mort qui sonne On espère s'en sortir, pourtant ça ne parle que de haram Les traîtres on les piétine, les jaloux on leur passe le salam Compose le eighteen j'viens foutre le fire Tes oreilles prennent de la valeur, Banlieue Sale, Foolek Empire La concurrence est prête à tout pour bronzer sous les palmiers Écarter les jambes comme Jordan au-dessus du panier On court après la fraîche, les condés nous courent après Veulent des noms mais on préfère se faire contourner à la craie J'étale ma ge-ra sur un son d'vainqueur J'ai perdu trop de proches, ma voix, mon peura touchent plein cur Fidèle à mes one shot, facultatif sont les backers Acharné sur la batterie demande à Travis Barker Ne m'manque pas de toupet, surtout en fin d'couplet Sors le kick et le taff, j'éclate les mines et les mythomanes qui nous font croire qu'ils ont tout fait Yeah, j'suis dans mon jacuzzi, t'es dans ta jalousie Jalou-jalousie, jalou-jalousie J'reste dans mon jacuzzi, reste dans ta jalousie Jalou-jalousie, jalou-jalou-jalousie Les rageux parlent, on appelle ça d'la jalousie Les haineux parlent, on appelle ça d'la jalou-jalousie Tu portes l'il, on appelle ça d'la jalousie Laisse, laisse-les parler, jalou-jalou-jalousie Il signe la relève du rap game, donc ils sont jaloux d'Fouiny Moi j'ai signé chez Fouiny, donc ils sont jaloux d'Baby J'prends ta place jour après jour, commence à faire tes valises Dans le Neuf-Trois quand ça tire au pompe boy personne balise J'sais pas où j'vais mais la balistique sait où j'ai traîné Bien la meuf, bien l'gamos, dommage que l'son soit khené Jaloux quand j'avance mais quand j'suis pauvre ils m'aiment Paraît qu'les keufs veulent tous ma peau, dis-leur qu'c'est idem J'te parle de jalousie, la foule est unanime Plein d'complots bizarres, menaces de mort, coups d'fil anonymes Porte bien mon pseudonyme, mon gun me back mal, demande plus d'harmonie C'est F.A.Baby bad boy my homie Vitriyo superstar, si c'est pas moi c'est qui ? J'casse la démarche sur la rythmique Graisse pas la patte à un flic flic heya, appelle-moi Meek Mill bitch I'm A Boss Youguette fais pas ta halal, t'as touché le bout d'mon .. Si tu mens à ta daronne, sache que tu mens à tout l'monde Capitale du Crime, rien n'est impossible, j'ai vu des garces sincères Avant d'sauver Willy, commencer par mon ascenseur Dans le tier-quar où je vis reculer n'est pas dans les principes moi j'suis fidèle au grec frite hey Désolé ma veste n'est pas réversible, c'est pas Fatou mais ta nympho' qu'on excise Avec Six, on tient le pavé, la galère abuse À gauche les kaffirs me tirent, à droite les frères m'usent Bref j'vise la tête, dans l'caleçon j'ai la banana à Elvis Pas d'secret ou d'confessionnal dans la tombe de F.X Princesse L.E.C.K. est une drogue que tu pourras test Laisse pas traîner ta fille ou son fils aura ma tête Neuf-Quatre qui peut dire mieux ? T'arrêtes pas les balles même si t'es Oliver Kahn Moi et la relève du rap, Tony P. à Villeurbanne Yeah, j'suis dans mon jacuzzi, t'es dans ta jalousie Jalou-jalousie, jalou-jalousie J'reste dans mon jacuzzi, reste dans ta jalousie Jalou-jalousie, jalou-jalou-jalousie Les rageux parlent, on appelle ça d'la jalousie Les haineux parlent, on appelle ça d'la jalou-jalousie Tu portes l'il, on appelle ça d'la jalousie Laisse, laisse-les parler, jalou-jalou-jalousie Joue pas ton jaloux et rejoins nous !9</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>À l'école ils ont coupé l'arbre, comment choisir ma branche ? À trop haïr les Noirs, Le Pen fait des nuits blanches Combien de portes j'ai ouvert ? Combien de bouches j'ai fermé ? Combien de daronnes sous terre ? Combien de pères enfermés ? Tu ressens ce vide souvent quand les huissiers partent J'ai mangé des pierres, mais j'ai jamais chié d'appart' La rue c'est la jungle, et j'me tape la part du lion J'ai fait l'tour de l'Afrique, j'ai l'flow Western Union Frère j'suis pas un Blood, mais j'ai fait couler le sang et pas qu'un peu Toujours en rouge depuis qu'les keufs s'habillent en bleu S'il doit en rester qu'un, j'voulais pas être l'élu J'avance sans regarder derrière, mon propre frère ne l'est plus Quand la sincérité marche, la jalousie court J'ai bossé toutes les nuits pour que mes disques voient l'jour Tu veux clasher Fouiny Babe ? Prends un ticket, fais la queue Haineux, y'a toujours pas de Ballon d'Or en Ligue 2 Et si les portes se ferment, même dans la merde Frérot n'oublie jamais essaye encore Fais ton chemin n'écoute pas les gens, le respect avant l'argent Frérot n'oublie jamais essaye encore Et frérot quelle que soit la peine, pourvu qu'les parents tiennent Jamais renoncer, essaye encore Ils connaissent le refrain, ils savent que j'viens de loin Frérot malgré mon teint, personne n'a pu m'stopper You might also like J'ai commencé en bas d'l'échelle, on donnait pas cher de ma peau Je me rappelle des pâtes, des couloirs et des yoyos Filtre marocco, j'monte pas sur scène sans l'odo Frère j'ai pas changé, j'mange toujours des bananes Alloco Sénégal, Mali, Côte d'Ivoire, Algérie Tunisie, Mauritanie, Bénin, Guinée-Conakry Un foot en salle, une reu-pié, nous suffisaient pour gole-ri J'repense à la prison, au foyer, aux frères qu'on m'a pris J'suis qu'un p'tit rappeur, j'aurai pas l'Prix Nobel Mais quand je sors l'album, c'est l'Jour de l'An, l'Aïd, Noël Petit reufré fougueux, Blanc, Renoi ou Rebeu Drôle de Parcours, le son tourne dans l'Clio II Toujours pas tatoué, les marques sont à l'intérieur Nouvel album, cantine extérieure Les rageux veulent ma peau d'platine Partir au top tôt comme James mais dans l'Dîn, Amin Et si les portes se ferment, même dans la merde Frérot n'oublie jamais essaye encore Fais ton chemin n'écoute pas les gens, le respect avant l'argent Frérot n'oublie jamais essaye encore Et frérot quelle que soit la peine, pourvu qu'les parents tiennent Jamais renoncer, essaye encore Ils connaissent le refrain, ils savent que j'viens de loin Frérot malgré mon teint, personne n'a pu m'stopper, personne n'a pu m'stopper Dans quel monde vit-on ? Élevé dans un hall J'ai fais des allers-retours, j'ai chanté Quel est mon rôle ? J'voulais prendre mon envol, mais pas comme Aaliyah Les p'tits du quartier veulent tous signer comme Bacary Sagna Et quand j'regarde ma vie, j'me dis C'est la folie J'repense au bâtiment F, aux frères de Mantes-La-Jolie Aux grands qu'on a perdus, aux drames, aux fléaux Ma liberté s'éloigne quand s'approche la Mondeo Vouloir s'en sortir, côtoyer le pire La misère m'inspire, trimer, réussir À vivre de peut-être, les parents s'endettent C'est noir dans la tête, les jours se répètent Vouloir s'en sortir, côtoyer le pire La misère m'inspire, trimer, réussir À vivre de peut-être, les parents s'endettent C'est noir dans la tête, les jours se répètent Et si les portes se ferment, même dans la merde Frérot n'oublie jamais essaye encore Fais ton chemin n'écoute pas les gens, le respect avant l'argent Frérot n'oublie jamais essaye encore Et frérot quelle que soit la peine, pourvu qu'les parents tiennent Jamais renoncer, essaye encore Ils connaissent le refrain, ils savent que j'viens de loin Frérot malgré mon teint, personne n'a pu m'stopper, personne n'a pu m'stopper Essaye encore Essaye encore Essaye encore Ils connaissent le refrain, ils savent que j'viens de loin Frérot malgré mon teint, personne n'a pu m'stopper, personne n'a pu m'stopper3</t>
+          <t>À l'école ils ont coupé l'arbre, comment choisir ma branche ? À trop haïr les Noirs, Le Pen fait des nuits blanches Combien de portes j'ai ouvert ? Combien de bouches j'ai fermé ? Combien de daronnes sous terre ? Combien de pères enfermés ? Tu ressens ce vide souvent quand les huissiers partent J'ai mangé des pierres, mais j'ai jamais chié d'appart' La rue c'est la jungle, et j'me tape la part du lion J'ai fait l'tour de l'Afrique, j'ai l'flow Western Union Frère j'suis pas un Blood, mais j'ai fait couler le sang et pas qu'un peu Toujours en rouge depuis qu'les keufs s'habillent en bleu S'il doit en rester qu'un, j'voulais pas être l'élu J'avance sans regarder derrière, mon propre frère ne l'est plus Quand la sincérité marche, la jalousie court J'ai bossé toutes les nuits pour que mes disques voient l'jour Tu veux clasher Fouiny Babe ? Prends un ticket, fais la queue Haineux, y'a toujours pas de Ballon d'Or en Ligue 2 Et si les portes se ferment, même dans la merde Frérot n'oublie jamais essaye encore Fais ton chemin n'écoute pas les gens, le respect avant l'argent Frérot n'oublie jamais essaye encore Et frérot quelle que soit la peine, pourvu qu'les parents tiennent Jamais renoncer, essaye encore Ils connaissent le refrain, ils savent que j'viens de loin Frérot malgré mon teint, personne n'a pu m'stopper J'ai commencé en bas d'l'échelle, on donnait pas cher de ma peau Je me rappelle des pâtes, des couloirs et des yoyos Filtre marocco, j'monte pas sur scène sans l'odo Frère j'ai pas changé, j'mange toujours des bananes Alloco Sénégal, Mali, Côte d'Ivoire, Algérie Tunisie, Mauritanie, Bénin, Guinée-Conakry Un foot en salle, une reu-pié, nous suffisaient pour gole-ri J'repense à la prison, au foyer, aux frères qu'on m'a pris J'suis qu'un p'tit rappeur, j'aurai pas l'Prix Nobel Mais quand je sors l'album, c'est l'Jour de l'An, l'Aïd, Noël Petit reufré fougueux, Blanc, Renoi ou Rebeu Drôle de Parcours, le son tourne dans l'Clio II Toujours pas tatoué, les marques sont à l'intérieur Nouvel album, cantine extérieure Les rageux veulent ma peau d'platine Partir au top tôt comme James mais dans l'Dîn, Amin Et si les portes se ferment, même dans la merde Frérot n'oublie jamais essaye encore Fais ton chemin n'écoute pas les gens, le respect avant l'argent Frérot n'oublie jamais essaye encore Et frérot quelle que soit la peine, pourvu qu'les parents tiennent Jamais renoncer, essaye encore Ils connaissent le refrain, ils savent que j'viens de loin Frérot malgré mon teint, personne n'a pu m'stopper, personne n'a pu m'stopper Dans quel monde vit-on ? Élevé dans un hall J'ai fais des allers-retours, j'ai chanté Quel est mon rôle ? J'voulais prendre mon envol, mais pas comme Aaliyah Les p'tits du quartier veulent tous signer comme Bacary Sagna Et quand j'regarde ma vie, j'me dis C'est la folie J'repense au bâtiment F, aux frères de Mantes-La-Jolie Aux grands qu'on a perdus, aux drames, aux fléaux Ma liberté s'éloigne quand s'approche la Mondeo Vouloir s'en sortir, côtoyer le pire La misère m'inspire, trimer, réussir À vivre de peut-être, les parents s'endettent C'est noir dans la tête, les jours se répètent Vouloir s'en sortir, côtoyer le pire La misère m'inspire, trimer, réussir À vivre de peut-être, les parents s'endettent C'est noir dans la tête, les jours se répètent Et si les portes se ferment, même dans la merde Frérot n'oublie jamais essaye encore Fais ton chemin n'écoute pas les gens, le respect avant l'argent Frérot n'oublie jamais essaye encore Et frérot quelle que soit la peine, pourvu qu'les parents tiennent Jamais renoncer, essaye encore Ils connaissent le refrain, ils savent que j'viens de loin Frérot malgré mon teint, personne n'a pu m'stopper, personne n'a pu m'stopper Essaye encore Essaye encore Essaye encore Ils connaissent le refrain, ils savent que j'viens de loin Frérot malgré mon teint, personne n'a pu m'stopper, personne n'a pu m'stopper3</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vodka, Red Bull et Vodka 1996 Pitbull et hagra Red Bull et Vodka, asba t'es rotte-ca Qu'est-ce qu'on fait d'vant Nico et Marine ? On vote pas ! Fouiny Fouiny Babe, et frère on sent monter le level Veulent du lourd, donne-leur ce qu'ils veulent, ouais c'est pour ceux qui tapent à Lidl Ouais c'est chaud demande à Seven, quand on tire on est pas les seuls Et tu finis dans un linceul frérot, si tu t'rinces l'il Au fait, moi c'est Fouine-La Et j'suis dingue de ta teuch' Nabi-Nabilla, Nabi-Nabilla You might also like Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vodka, Red Bull et Vodka Frérot, si t'as lance-ba, ma main ne la sers pas Red Bull et Vodka, Whisky Coca Rette-ba, frérot j'suis trop loin WizKhalifa Rajoutez des zéros, si vous m'voulez en tournée Frérot j'suis comme la blanche j'vais vous passer sous l'nez Hey arrête tes salades, mets-les dans ton sandwich Fouiny fait du cash ThiagoIbrahimovic Fouiny-Fouiny Baby, laisse-les parler, faire du cash, il fallait Inégalé, frère on vend du sucre et l'addition est salée J'ai pris du volume pour voir ma vie s'étaler Rageux, du balai, j'ai fait du ch'min depuis l'Retour et l'Aller Si t'arrives dans ma cellule, pleure pas comme une bouffonne Une Playstation dans ta tête voila comment j'te console Fouiny Babe, 78, Yvelines House Party, les biatchs dans la piscine Oulalala En dix piges, comme J.Lo, mon flow n'a pas pris une ride Oulalala C'est l'retour d'la BS, belvédère et joint d'weed Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Yeah, eh yo, Fouiny Babe ! Le son m'enjaille mouuuuah ! Tu crois qu'j'peux dougie là-dessus ou pas ? Leggo ! Swagg, Swagg, Swagg, Swagg Swagg, Swagg, Swagg, Swagg Les coins VIP n'sont plus assez VIP pour nous Redbull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka7</t>
+          <t>Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vodka, Red Bull et Vodka 1996 Pitbull et hagra Red Bull et Vodka, asba t'es rotte-ca Qu'est-ce qu'on fait d'vant Nico et Marine ? On vote pas ! Fouiny Fouiny Babe, et frère on sent monter le level Veulent du lourd, donne-leur ce qu'ils veulent, ouais c'est pour ceux qui tapent à Lidl Ouais c'est chaud demande à Seven, quand on tire on est pas les seuls Et tu finis dans un linceul frérot, si tu t'rinces l'il Au fait, moi c'est Fouine-La Et j'suis dingue de ta teuch' Nabi-Nabilla, Nabi-Nabilla Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vodka, Red Bull et Vodka Frérot, si t'as lance-ba, ma main ne la sers pas Red Bull et Vodka, Whisky Coca Rette-ba, frérot j'suis trop loin WizKhalifa Rajoutez des zéros, si vous m'voulez en tournée Frérot j'suis comme la blanche j'vais vous passer sous l'nez Hey arrête tes salades, mets-les dans ton sandwich Fouiny fait du cash ThiagoIbrahimovic Fouiny-Fouiny Baby, laisse-les parler, faire du cash, il fallait Inégalé, frère on vend du sucre et l'addition est salée J'ai pris du volume pour voir ma vie s'étaler Rageux, du balai, j'ai fait du ch'min depuis l'Retour et l'Aller Si t'arrives dans ma cellule, pleure pas comme une bouffonne Une Playstation dans ta tête voila comment j'te console Fouiny Babe, 78, Yvelines House Party, les biatchs dans la piscine Oulalala En dix piges, comme J.Lo, mon flow n'a pas pris une ride Oulalala C'est l'retour d'la BS, belvédère et joint d'weed Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Yeah, eh yo, Fouiny Babe ! Le son m'enjaille mouuuuah ! Tu crois qu'j'peux dougie là-dessus ou pas ? Leggo ! Swagg, Swagg, Swagg, Swagg Swagg, Swagg, Swagg, Swagg Les coins VIP n'sont plus assez VIP pour nous Redbull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka Red Bull et Vod', Red-red Bull et Vodka7</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yeah yeah yeah, co-cocaïne dans le jean Samy rejoint quelques clients à Porte Dauphine Mademoiselle devient folle avec ses amies intimes Un garrot, une seringue, et bim, et bim Mais elle a mis plus de jus qu'dans une orange sanguine Elle a fini en drame, cette soirée entre copines Il est six heures du mat' quand les keufs font dring Il vendait de la dope, mais il comparaît pour crime Il a pris 20 piges, piges, piges Sam a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Sam a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Sam a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Sam a pris du ferme, ferme, ferme Il rentrait du taf, la routine-tine Et comme y avait des travaux sur la ligne, ligne Son patron l'a laissé repartir plus tôt Redouane sauta dans le premier métro Il acheta un bouquet d'fleurs Pour l'élue de son cur Il poussa la porte d'entrée Trouve sa femme en train d'se faire fourrer Vous connaissez la suite, suite, suite Du sang sur les draps, des clics, des clics Vous connaissez la suite, suite, suite Des clics, clics, clics You might also like Il a pris 20 piges, piges, piges Redouane a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Redouane a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Redouane a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Redouane a pris du ferme, ferme, ferme Il sortait du lycée clean, clean S'en va rejoindre sa team, team, team Le bédo, les copines-pines-pines Les devoirs et les centimes-times-times Pas d'thune dans les poches pour changer d'paysage Des potos l'appellent, font un cambriolage Moussa décide d'les rejoindre pour péta la console Il s'dit qu'il pourra jouer et ne plus trainer d'vant l'hall Mais ce qu'il n'savait pas, pas, pas C'est que dans la chambre du haut, haut, haut Ils avaient ligoté les rents-pa, pa, pa Comprenez qu'il tombe de haut, haut, haut Il a pris 15 piges, piges, piges Moussa a pris du ferme, ferme, ferme Il a pris 15 piges, piges, piges Moussa a pris du ferme, ferme, ferme Il a pris 15 piges, piges, piges Moussa a pris du ferme, ferme, ferme Il a pris 15 piges, piges, piges Moussa a pris du ferme, ferme, ferme4</t>
+          <t>Yeah yeah yeah, co-cocaïne dans le jean Samy rejoint quelques clients à Porte Dauphine Mademoiselle devient folle avec ses amies intimes Un garrot, une seringue, et bim, et bim Mais elle a mis plus de jus qu'dans une orange sanguine Elle a fini en drame, cette soirée entre copines Il est six heures du mat' quand les keufs font dring Il vendait de la dope, mais il comparaît pour crime Il a pris 20 piges, piges, piges Sam a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Sam a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Sam a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Sam a pris du ferme, ferme, ferme Il rentrait du taf, la routine-tine Et comme y avait des travaux sur la ligne, ligne Son patron l'a laissé repartir plus tôt Redouane sauta dans le premier métro Il acheta un bouquet d'fleurs Pour l'élue de son cur Il poussa la porte d'entrée Trouve sa femme en train d'se faire fourrer Vous connaissez la suite, suite, suite Du sang sur les draps, des clics, des clics Vous connaissez la suite, suite, suite Des clics, clics, clics Il a pris 20 piges, piges, piges Redouane a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Redouane a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Redouane a pris du ferme, ferme, ferme Il a pris 20 piges, piges, piges Redouane a pris du ferme, ferme, ferme Il sortait du lycée clean, clean S'en va rejoindre sa team, team, team Le bédo, les copines-pines-pines Les devoirs et les centimes-times-times Pas d'thune dans les poches pour changer d'paysage Des potos l'appellent, font un cambriolage Moussa décide d'les rejoindre pour péta la console Il s'dit qu'il pourra jouer et ne plus trainer d'vant l'hall Mais ce qu'il n'savait pas, pas, pas C'est que dans la chambre du haut, haut, haut Ils avaient ligoté les rents-pa, pa, pa Comprenez qu'il tombe de haut, haut, haut Il a pris 15 piges, piges, piges Moussa a pris du ferme, ferme, ferme Il a pris 15 piges, piges, piges Moussa a pris du ferme, ferme, ferme Il a pris 15 piges, piges, piges Moussa a pris du ferme, ferme, ferme Il a pris 15 piges, piges, piges Moussa a pris du ferme, ferme, ferme4</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>On s'enjaille en première sse-cla, au-dessus des lois Quoiqu'il en soit, j'te rackette tes chaussures YannickNoah Grosse paire de couilles, j'suis dans l'Vaisseau-Père L'argent n'a pas d'odeur, mais La Fouine a du flair Mercedes-Benz, pourquoi-pourquoi tu louches ? J'vais mettre du savon sur mon gun BainD'Bouche Bonsoir, viens faire l'malin pour voir Ratatatatatata tatatatatata AuRevoir Contrôle, on contrôle, au-dessus d'eux on trône C'est la violence qu'on prône, ces rappeurs font l'aumône Street Swagg est le survêt', fructueuse est la recette Si la chance me tourne le dos, c'est pour que j'la prenne en levrette J'arrive en balle AlainProst, quitte à finir au poste La concurrence s'fait rare comme DJ Kost Le trône je l'aurai boré, unis depuis l'Île de Gorée Bracelets dorés, j'vaux des millions Pastore Frérot quand la Banlieue Sale arrive il s'passe quelque chose Dis au serveur d'rajouter d'la tise il s'passe quelque chose Numéro un frérot quand on biz il s'passe quelque chose Il s'passe quelque chose, il s'passe, il s'passe quelque chose On s'enjaille Wohoh, quand on arrive il s'passe quelque chose Wohoh, Banlieue Sale il s'passe quelque chose Wohoh, Bomayé il s'passe quelque chose Wohoh, il s'passe, il s'passe quelque chose Wohoh, quand on arrive il s'passe quelque chose Wohoh, Banlieue Sale il s'passe quelque chose Wohoh, Bomayé il s'passe quelque chose Wohoh, il s'passe, il s'passe quelque chose You might also like Ils voudraient tous m'égaler, ils se sont tous égarés Tous, régalez-vous avec le juice du boug sénégalais On pourrait tous les calmer, on pourrait tous les cramer Ratatatatata tatatatata tatatata tous les caner Ça vient de Kin'-Kina, j'fais pas du mannequinat Mesquina, j'aime les femmes fières et pas les victima Mon couplet kill killa, miskina Tu peux me pull-up comme dans une soirée dancehall SimSimma Et j'ai l'image rebelle quand je salis mon cur J'suis un sorcier venu du bled, appelle-moi Bakary Potter J'ai pris la vie en doggy strass-paillettes Et je ne baise que des princesses j'finirai dead comme Doddi Al Fayed Noir Désir hardcore, j'fais du rap-rock Et quand j'arrive, ils crient comme si je m'appelais Black Rob J'enchaîne les classiques et les hits en indé j'vous emmerde Bientôt le Zénith viens et jette un Y en l'air Frérot quand la Banlieue Sale arrive il s'passe quelque chose Dis au serveur d'rajouter d'la tise il s'passe quelque chose Numéro un frérot quand on biz il s'passe quelque chose Il s'passe quelque chose, il s'passe, il s'passe quelque chose Wohoh, quand on arrive il s'passe quelque chose Wohoh, Banlieue Sale il s'passe quelque chose Wohoh, Bomayé il s'passe quelque chose Wohoh, il s'passe, il s'passe quelque chose Wohoh, quand on arrive il s'passe quelque chose Wohoh, Banlieue Sale il s'passe quelque chose Wohoh, Bomayé il s'passe quelque chose Wohoh, il s'passe, il s'passe quelque chose Fouiny Babe Hey Laouni, on geste ou on s'enjaille ? On s'enjaille ou on geste ? Ahah Il se passe quelque chose, Fouiny1</t>
+          <t>On s'enjaille en première sse-cla, au-dessus des lois Quoiqu'il en soit, j'te rackette tes chaussures YannickNoah Grosse paire de couilles, j'suis dans l'Vaisseau-Père L'argent n'a pas d'odeur, mais La Fouine a du flair Mercedes-Benz, pourquoi-pourquoi tu louches ? J'vais mettre du savon sur mon gun BainD'Bouche Bonsoir, viens faire l'malin pour voir Ratatatatatata tatatatatata AuRevoir Contrôle, on contrôle, au-dessus d'eux on trône C'est la violence qu'on prône, ces rappeurs font l'aumône Street Swagg est le survêt', fructueuse est la recette Si la chance me tourne le dos, c'est pour que j'la prenne en levrette J'arrive en balle AlainProst, quitte à finir au poste La concurrence s'fait rare comme DJ Kost Le trône je l'aurai boré, unis depuis l'Île de Gorée Bracelets dorés, j'vaux des millions Pastore Frérot quand la Banlieue Sale arrive il s'passe quelque chose Dis au serveur d'rajouter d'la tise il s'passe quelque chose Numéro un frérot quand on biz il s'passe quelque chose Il s'passe quelque chose, il s'passe, il s'passe quelque chose On s'enjaille Wohoh, quand on arrive il s'passe quelque chose Wohoh, Banlieue Sale il s'passe quelque chose Wohoh, Bomayé il s'passe quelque chose Wohoh, il s'passe, il s'passe quelque chose Wohoh, quand on arrive il s'passe quelque chose Wohoh, Banlieue Sale il s'passe quelque chose Wohoh, Bomayé il s'passe quelque chose Wohoh, il s'passe, il s'passe quelque chose Ils voudraient tous m'égaler, ils se sont tous égarés Tous, régalez-vous avec le juice du boug sénégalais On pourrait tous les calmer, on pourrait tous les cramer Ratatatatata tatatatata tatatata tous les caner Ça vient de Kin'-Kina, j'fais pas du mannequinat Mesquina, j'aime les femmes fières et pas les victima Mon couplet kill killa, miskina Tu peux me pull-up comme dans une soirée dancehall SimSimma Et j'ai l'image rebelle quand je salis mon cur J'suis un sorcier venu du bled, appelle-moi Bakary Potter J'ai pris la vie en doggy strass-paillettes Et je ne baise que des princesses j'finirai dead comme Doddi Al Fayed Noir Désir hardcore, j'fais du rap-rock Et quand j'arrive, ils crient comme si je m'appelais Black Rob J'enchaîne les classiques et les hits en indé j'vous emmerde Bientôt le Zénith viens et jette un Y en l'air Frérot quand la Banlieue Sale arrive il s'passe quelque chose Dis au serveur d'rajouter d'la tise il s'passe quelque chose Numéro un frérot quand on biz il s'passe quelque chose Il s'passe quelque chose, il s'passe, il s'passe quelque chose Wohoh, quand on arrive il s'passe quelque chose Wohoh, Banlieue Sale il s'passe quelque chose Wohoh, Bomayé il s'passe quelque chose Wohoh, il s'passe, il s'passe quelque chose Wohoh, quand on arrive il s'passe quelque chose Wohoh, Banlieue Sale il s'passe quelque chose Wohoh, Bomayé il s'passe quelque chose Wohoh, il s'passe, il s'passe quelque chose Fouiny Babe Hey Laouni, on geste ou on s'enjaille ? On s'enjaille ou on geste ? Ahah Il se passe quelque chose, Fouiny1</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Elles ont fait de moi un homme, mes douleurs et mes peines J'traînais d'hall en hall, quitte à finir à Fresnes On m'a présenté la rue frère et j'en ai fait ma reine On m'a dit Si t'es rusé, n'en fous pas dans ton zen On m'a dit Frèro, pose-pose et j'ai sorti le gun J'ignore mais quand on pose-pose les haineux ont le seum Man on vient de loin et ose-ose ouvrir ta grande gueule Ouais je te présente ma Banlieue Sale Music Capitale du crime Yeah, yeah Veni Vidi Vici Je suis venu, j'ai fourré et j'ai vaincu J'aimerais tellement te dire que t'es pas ma chienne Mais ces mots sonnent faux oh oh oh Yeah quoi de neuf Fouiny Babe ? J'ai des tasses j'ai du flow Je vais t'masser le dos puis je vais t'casser le dos Oh, ouais on roule sans permis, Mercedes Benz Fouiny R'n'b J'ai tant besoin de toi t'es ma salope à moi Yeah 4x4 noir vitres fumées Si j'vends mes 4 jantes, j'ai assez pour te faire fumer fumer Avec des si tu refais le monde Avec des uzis on arrose tout le monde On sniffe pas de coke, on mange pas de porc Mon rap n'est pas halal, normal il est pas mort Yeah, alors je suis rentré dans un boule J'ai pris le temps de partir a 'dam et d'rentrer avec un 12 You might also like Elles ont fait de moi un homme, mes douleurs et mes peines J'traînais d'hall en hall, quitte à finir à Fresnes On m'a présenté la rue frère et j'en ai fait ma reine On m'a dit Si t'es rusé, n'en fous pas dans ton zen On m'a dit Frèro, pose-pose et j'ai sorti le gun J'ignore mais quand on pose-pose les haineux ont le seum Man on vient de loin et ose-ose ouvrir ta grande gueule Ouais je te présente ma Banlieue Sale Music Capitale du crime Yeah, yeah Veni, vidi, vici Je suis venu je suis tombé et je suis ressorti Innocent, incarcéré, dossier classé sans suite Ne jamais remettre a demain ce qu'on peut pé-ta tout d'suite Yeah mon rap n'est pas un rasoir jetable Banlieue-Banlieue Sale envois ton bord s'il est potable Swagg sur la casquette, Louis sur le gilet Le rap c'est comme le McDo, t'as pas le choix je suis le filet Yeah, c'est Banlieue Sale sur la piste La voiture de mon DJ coûte plus chère que la promo de leur artiste Yeah, le rap français pète un câble Capitale du crime des voyous en feat avec des comptables J'suis trop content on a rayé ma caisse, mais sans rancune J'fais partie des rares MC's qui en ont une haha ! T'as testé, tu repars déçu À Trappes quand le chat n'est pas les souris se tirent dessus ! Elles ont fait de moi un homme, mes douleurs et mes peines J'traînais d'hall en hall, quitte à finir à Fresnes On m'a présenté la rue frère et j'en ai fait ma reine On m'a dit Si t'es rusé, n'en fous pas dans ton zen On m'a dit Frèro, pose-pose et j'ai sorti le gun J'ignore mais quand on pose-pose les haineux ont le seum Man on vient de loin et ose-ose ouvrir ta grande gueule Ouais je te présente ma Banlieue Sale Music Capitale du crime Yeah, yeah Veni, vidi vici Je suis venu en Gucci, en Louis Tu devais sortir en juin finalement tu sors en automne T'as écouté mon disque et t'as repoussé ton album Yeah on les oubliera tous comme Danny Glover Pour nous c'est Range Rover, pour eux c'est game over Yeah concert à guichet fermé fais pas le bête Man on bouchait la rue pendant qu'tu bouchais les toilettes Yeah fusil à pompe sur la prod' a Rise-E 2000-2011 trop d'MC's ont la chatte rasée, rasée Raser les murs c'est ce qui te reste à faire On va faire comme ton père on va te faire un petit frère Yeah ma blanche se vend comme Lady Gaga Si on me pète je finis à l'ombre comme You Gataga-taga Libérez You ! T'as qu'à dire ici c'est le 7.8 Appelez les keufs mais faites vite Elles ont fait de moi un homme, mes douleurs et mes peines J'traînais d'hall en hall, quitte à finir à Fresnes On m'a présenté la rue frère et j'en ai fait ma reine On m'a dit Si t'es rusé, n'en fous pas dans ton zen On m'a dit Frèro, pose-pose et j'ai sorti le gun J'ignore mais quand on pose-pose les haineux ont le seum Man on vient de loin et ose-ose ouvrir ta grande gueule Ouais je te présente ma Banlieue Sale Music Capitale du crime5</t>
+          <t>Elles ont fait de moi un homme, mes douleurs et mes peines J'traînais d'hall en hall, quitte à finir à Fresnes On m'a présenté la rue frère et j'en ai fait ma reine On m'a dit Si t'es rusé, n'en fous pas dans ton zen On m'a dit Frèro, pose-pose et j'ai sorti le gun J'ignore mais quand on pose-pose les haineux ont le seum Man on vient de loin et ose-ose ouvrir ta grande gueule Ouais je te présente ma Banlieue Sale Music Capitale du crime Yeah, yeah Veni Vidi Vici Je suis venu, j'ai fourré et j'ai vaincu J'aimerais tellement te dire que t'es pas ma chienne Mais ces mots sonnent faux oh oh oh Yeah quoi de neuf Fouiny Babe ? J'ai des tasses j'ai du flow Je vais t'masser le dos puis je vais t'casser le dos Oh, ouais on roule sans permis, Mercedes Benz Fouiny R'n'b J'ai tant besoin de toi t'es ma salope à moi Yeah 4x4 noir vitres fumées Si j'vends mes 4 jantes, j'ai assez pour te faire fumer fumer Avec des si tu refais le monde Avec des uzis on arrose tout le monde On sniffe pas de coke, on mange pas de porc Mon rap n'est pas halal, normal il est pas mort Yeah, alors je suis rentré dans un boule J'ai pris le temps de partir a 'dam et d'rentrer avec un 12 Elles ont fait de moi un homme, mes douleurs et mes peines J'traînais d'hall en hall, quitte à finir à Fresnes On m'a présenté la rue frère et j'en ai fait ma reine On m'a dit Si t'es rusé, n'en fous pas dans ton zen On m'a dit Frèro, pose-pose et j'ai sorti le gun J'ignore mais quand on pose-pose les haineux ont le seum Man on vient de loin et ose-ose ouvrir ta grande gueule Ouais je te présente ma Banlieue Sale Music Capitale du crime Yeah, yeah Veni, vidi, vici Je suis venu je suis tombé et je suis ressorti Innocent, incarcéré, dossier classé sans suite Ne jamais remettre a demain ce qu'on peut pé-ta tout d'suite Yeah mon rap n'est pas un rasoir jetable Banlieue-Banlieue Sale envois ton bord s'il est potable Swagg sur la casquette, Louis sur le gilet Le rap c'est comme le McDo, t'as pas le choix je suis le filet Yeah, c'est Banlieue Sale sur la piste La voiture de mon DJ coûte plus chère que la promo de leur artiste Yeah, le rap français pète un câble Capitale du crime des voyous en feat avec des comptables J'suis trop content on a rayé ma caisse, mais sans rancune J'fais partie des rares MC's qui en ont une haha ! T'as testé, tu repars déçu À Trappes quand le chat n'est pas les souris se tirent dessus ! Elles ont fait de moi un homme, mes douleurs et mes peines J'traînais d'hall en hall, quitte à finir à Fresnes On m'a présenté la rue frère et j'en ai fait ma reine On m'a dit Si t'es rusé, n'en fous pas dans ton zen On m'a dit Frèro, pose-pose et j'ai sorti le gun J'ignore mais quand on pose-pose les haineux ont le seum Man on vient de loin et ose-ose ouvrir ta grande gueule Ouais je te présente ma Banlieue Sale Music Capitale du crime Yeah, yeah Veni, vidi vici Je suis venu en Gucci, en Louis Tu devais sortir en juin finalement tu sors en automne T'as écouté mon disque et t'as repoussé ton album Yeah on les oubliera tous comme Danny Glover Pour nous c'est Range Rover, pour eux c'est game over Yeah concert à guichet fermé fais pas le bête Man on bouchait la rue pendant qu'tu bouchais les toilettes Yeah fusil à pompe sur la prod' a Rise-E 2000-2011 trop d'MC's ont la chatte rasée, rasée Raser les murs c'est ce qui te reste à faire On va faire comme ton père on va te faire un petit frère Yeah ma blanche se vend comme Lady Gaga Si on me pète je finis à l'ombre comme You Gataga-taga Libérez You ! T'as qu'à dire ici c'est le 7.8 Appelez les keufs mais faites vite Elles ont fait de moi un homme, mes douleurs et mes peines J'traînais d'hall en hall, quitte à finir à Fresnes On m'a présenté la rue frère et j'en ai fait ma reine On m'a dit Si t'es rusé, n'en fous pas dans ton zen On m'a dit Frèro, pose-pose et j'ai sorti le gun J'ignore mais quand on pose-pose les haineux ont le seum Man on vient de loin et ose-ose ouvrir ta grande gueule Ouais je te présente ma Banlieue Sale Music Capitale du crime5</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Boulouloubitch Boulouloubitch ! Bordel, quand j'ai sorti ma dick J'l'ai prise en tof, je l'ai envoyée à une bitch Pas d'embrouille man, pas de litige J'voulais m'faire cer-su, est-ce que tu piges ? Tu rappais par les fenêtres, maintenant tu rappes sur Windows Béa est fâchée Ménopause Demande à Jack, enlève le bouchon B2O est sur ma bite'zer à califourchon Boss de Paname, on parle de moi comme Beckham La France entière a vu ton cadavre sous ma bécane Ouvre ta shnek, c'est mieux pour miauler 92riz c'est comme les billets J'aime les violer J'crois que j'ai pointé un membre du 92i Ou deux, ou trois ! En featuring avec Bruel, trique pas J'suis pas antisémite j'ai fait un feat avec Booba Fais monter les mineures j'suis pire que R.Kelly J'ai pointé le rap français Laounizi T'écris à genou, tu rappes accroupi Pourquoi t'envoies ta bite en MMS à des groupies ? Stop le son, stop-le son là... Mais c'est sérieux là ? Mais regardez en bas à gauche c'est la bite à Booba ! Comment tu peux envoyer ta bite à des meufs ? Normalement c'est elles qui t'envoient leurs seins ! Regardez c'est bien sa bite ! La table basse, regardez bien Zoomez en bas à gauche regardez son tapis, le tapis ! Mais c'est un truc de ouf ! Attends c'est sérieux là ?! Mais t'es sérieux, morray ? T'es sérieux, morray tout et tout et tout ? Non, mais regardez, c'est sérieux, en bas à gauche, sa bite, le tapis Putain ! You might also like La honte négro, tu t'rends compte négro ? Quand tu m'as vu 0 à 100 en 4 secondes, négro ! La honte négro, tu t'rends compte négro ? Quand tu m'as vu 0 à 100 en 4 secondes, négro ! T'as perdu tes illes-cou on s'est vu en bas du Grand C'est quoi une star qui s'enfuit ? Une étoile filante Y a pas un mec de cité pour te féliciter, on sait qui t'es Après Autopsie, c'est retraite anticipée Béa suis-moi dans mon hôtel Pour une volontaire agression sexuelle Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc Béa suis-moi dans mon hôtel Pour une volontaire agression sexuelle Fais monter les mineurs, n'oublie pas Elie J'crois que Béa est love de mon zizi J'crois que Béa est love de mon zizi Owa owa Tu veux une tof à moi, slip sur les genous Bashtek, une photo de mes illes-cou J'ai de la crème, les autres en bas sont jaloux Ils ont pas d'crème, mais en dehors de ça... Jugé à cause de mon odeur J'sais pas chanter sans vocoder J'ressens dans mon cul comme une douleur Fouiny dis-leur, dis-leur Béa suis-moi dans mon hôtel Pour une volontaire agression sexuelle Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc Béa suis-moi dans mon hôtel Pour une volontaire agression sexuelle Fais monter les mineures n'oublie pas Elie J'crois que Béa est love de mon zizi J'crois que Béa est love de mon zizi Owa owa Hé Booba je t'avais dit d'arrêter wallah Un seul couplet ça suffit wallah, je t'ai déjà assez violé dans Autopsie Bon, Mesdames et Messieurs est-ce que vous avez tous trouvé ce que ça voulait dire TLT ? Ben en vrai, moi j'crois que ça veut dire T'as La Tremblote Bon Booba arrête tes conneries s'il te plait arrête de montrer ta bite à tout le monde Elie le nudiste, bientôt en concert au Cap d'Agde !6</t>
+          <t>Boulouloubitch Boulouloubitch ! Bordel, quand j'ai sorti ma dick J'l'ai prise en tof, je l'ai envoyée à une bitch Pas d'embrouille man, pas de litige J'voulais m'faire cer-su, est-ce que tu piges ? Tu rappais par les fenêtres, maintenant tu rappes sur Windows Béa est fâchée Ménopause Demande à Jack, enlève le bouchon B2O est sur ma bite'zer à califourchon Boss de Paname, on parle de moi comme Beckham La France entière a vu ton cadavre sous ma bécane Ouvre ta shnek, c'est mieux pour miauler 92riz c'est comme les billets J'aime les violer J'crois que j'ai pointé un membre du 92i Ou deux, ou trois ! En featuring avec Bruel, trique pas J'suis pas antisémite j'ai fait un feat avec Booba Fais monter les mineures j'suis pire que R.Kelly J'ai pointé le rap français Laounizi T'écris à genou, tu rappes accroupi Pourquoi t'envoies ta bite en MMS à des groupies ? Stop le son, stop-le son là... Mais c'est sérieux là ? Mais regardez en bas à gauche c'est la bite à Booba ! Comment tu peux envoyer ta bite à des meufs ? Normalement c'est elles qui t'envoient leurs seins ! Regardez c'est bien sa bite ! La table basse, regardez bien Zoomez en bas à gauche regardez son tapis, le tapis ! Mais c'est un truc de ouf ! Attends c'est sérieux là ?! Mais t'es sérieux, morray ? T'es sérieux, morray tout et tout et tout ? Non, mais regardez, c'est sérieux, en bas à gauche, sa bite, le tapis Putain ! La honte négro, tu t'rends compte négro ? Quand tu m'as vu 0 à 100 en 4 secondes, négro ! La honte négro, tu t'rends compte négro ? Quand tu m'as vu 0 à 100 en 4 secondes, négro ! T'as perdu tes illes-cou on s'est vu en bas du Grand C'est quoi une star qui s'enfuit ? Une étoile filante Y a pas un mec de cité pour te féliciter, on sait qui t'es Après Autopsie, c'est retraite anticipée Béa suis-moi dans mon hôtel Pour une volontaire agression sexuelle Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc Béa suis-moi dans mon hôtel Pour une volontaire agression sexuelle Fais monter les mineurs, n'oublie pas Elie J'crois que Béa est love de mon zizi J'crois que Béa est love de mon zizi Owa owa Tu veux une tof à moi, slip sur les genous Bashtek, une photo de mes illes-cou J'ai de la crème, les autres en bas sont jaloux Ils ont pas d'crème, mais en dehors de ça... Jugé à cause de mon odeur J'sais pas chanter sans vocoder J'ressens dans mon cul comme une douleur Fouiny dis-leur, dis-leur Béa suis-moi dans mon hôtel Pour une volontaire agression sexuelle Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc Béa suis-moi dans mon hôtel Pour une volontaire agression sexuelle Fais monter les mineures n'oublie pas Elie J'crois que Béa est love de mon zizi J'crois que Béa est love de mon zizi Owa owa Hé Booba je t'avais dit d'arrêter wallah Un seul couplet ça suffit wallah, je t'ai déjà assez violé dans Autopsie Bon, Mesdames et Messieurs est-ce que vous avez tous trouvé ce que ça voulait dire TLT ? Ben en vrai, moi j'crois que ça veut dire T'as La Tremblote Bon Booba arrête tes conneries s'il te plait arrête de montrer ta bite à tout le monde Elie le nudiste, bientôt en concert au Cap d'Agde !6</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>On est trop à souffrir, mais ma sur le monde est à nous Je serai là pour te soutenir quand tu t'sentiras seule sur ta route J'les vois nos ennemis, ils ne peuvent rien à part parler sur nous Banlieusards endurcis promenades et numéros d'écrou Moi j'ai jamais changé, j'vois des frères devenir paranos Les choses vont s'arranger, de boulots en petits boulots La galère m'inspire, j'viens de là où les rêves tombent à l'eau Moi j'ai pas fait Saint-Cyr, tous les soirs je regarde là-haut Men soghri nsofri kaber Napolitano Manekrah mangari kheli l3adyane l'goulou Le7goni ldary khoya had el ghachi malo Denia karatni beli l3adyane lbano Va bene, ya khoti va bene Va bene, va bene Va bene s7ab lhedra khatini Va bene, ya khoti va bene Va bene, va bene Va bene baghi n3ich wehdani J'ai lâché les études, khoya j'voulais faire des tunes Le dernier d'la classe sera premier sur iTunes Un pied dans le show-biz', et puis l'autre sur le bitume Écrire avec le cur, y laisser quelques plumes J'ai d'la famille dans l'Sud, j'ai d'la famille dans l'Rif Qui peut m'stopper ? Pas leurs 22 long rifle Tu t'es embourgeoisé, khoya pourquoi tu t'plains ? Moi j'ai pas retourné ma veste PhilippPlein You might also like 3ayech fi Alger Wahran oula Milano Nriski w n'venji l3aklya Al Pacino 3ayech fi Alger Paris oula Milano Nriski w n'venji l3aklya Al Pacino Va bene, ya khoti va bene Va bene, va bene Va bene s7ab lhedra khatini Va bene, ya khoti va bene Va bene, va bene Va bene baghi n3ich wehdani J'marchais le long d'la route, j'les voyais passer en bolide Vingt ans plus tard, j'aurai une baraque en Floride Longue épopée de la misère au succès Jantes noires, cuir noir, tu sais toujours qui c'est J'suis resté l'même, en première ou en éco Appelle Damidot ma cellule a besoin d'déco C'est Tony Montana featuring Manny Casa Fouiny, Alger Taliani Va bene, ya khoti va bene Va bene, va bene Va bene s7ab lhedra khatini Va bene, ya khoti va bene Va bene, va bene Va bene baghi n3ich wehdani On est trop à souffrir, mais ma sur le monde est à nous Je serai là pour te soutenir quand tu te sentiras seule sur ta route J'les vois nos ennemis, ils ne peuvent rien à part parler sur nous Banlieusards endurcis promenades et numéros d'écrou Men soghri nsofri kaber Napolitano Manekrah mangari kheli l3adyane l'goulou Le7goni ldary khoya had el ghachi malo Denia karatni beli l3adyane lbano8</t>
+          <t>On est trop à souffrir, mais ma sur le monde est à nous Je serai là pour te soutenir quand tu t'sentiras seule sur ta route J'les vois nos ennemis, ils ne peuvent rien à part parler sur nous Banlieusards endurcis promenades et numéros d'écrou Moi j'ai jamais changé, j'vois des frères devenir paranos Les choses vont s'arranger, de boulots en petits boulots La galère m'inspire, j'viens de là où les rêves tombent à l'eau Moi j'ai pas fait Saint-Cyr, tous les soirs je regarde là-haut Men soghri nsofri kaber Napolitano Manekrah mangari kheli l3adyane l'goulou Le7goni ldary khoya had el ghachi malo Denia karatni beli l3adyane lbano Va bene, ya khoti va bene Va bene, va bene Va bene s7ab lhedra khatini Va bene, ya khoti va bene Va bene, va bene Va bene baghi n3ich wehdani J'ai lâché les études, khoya j'voulais faire des tunes Le dernier d'la classe sera premier sur iTunes Un pied dans le show-biz', et puis l'autre sur le bitume Écrire avec le cur, y laisser quelques plumes J'ai d'la famille dans l'Sud, j'ai d'la famille dans l'Rif Qui peut m'stopper ? Pas leurs 22 long rifle Tu t'es embourgeoisé, khoya pourquoi tu t'plains ? Moi j'ai pas retourné ma veste PhilippPlein 3ayech fi Alger Wahran oula Milano Nriski w n'venji l3aklya Al Pacino 3ayech fi Alger Paris oula Milano Nriski w n'venji l3aklya Al Pacino Va bene, ya khoti va bene Va bene, va bene Va bene s7ab lhedra khatini Va bene, ya khoti va bene Va bene, va bene Va bene baghi n3ich wehdani J'marchais le long d'la route, j'les voyais passer en bolide Vingt ans plus tard, j'aurai une baraque en Floride Longue épopée de la misère au succès Jantes noires, cuir noir, tu sais toujours qui c'est J'suis resté l'même, en première ou en éco Appelle Damidot ma cellule a besoin d'déco C'est Tony Montana featuring Manny Casa Fouiny, Alger Taliani Va bene, ya khoti va bene Va bene, va bene Va bene s7ab lhedra khatini Va bene, ya khoti va bene Va bene, va bene Va bene baghi n3ich wehdani On est trop à souffrir, mais ma sur le monde est à nous Je serai là pour te soutenir quand tu te sentiras seule sur ta route J'les vois nos ennemis, ils ne peuvent rien à part parler sur nous Banlieusards endurcis promenades et numéros d'écrou Men soghri nsofri kaber Napolitano Manekrah mangari kheli l3adyane l'goulou Le7goni ldary khoya had el ghachi malo Denia karatni beli l3adyane lbano8</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1,2,3, J'ai pas le syndrome de celle qui pardonne 1,2,3, J'ai la paume de ma main qui démange 1,2,3, On m'avait pourtant mise en garde 1,2,3, Phénomène bizarre Ca y est t'as chuchoté tes excuses... Recommence Arrête de te chialer dessus, franchement j'm'en fous un peu de ce que tu penses J'crois qu't'es bizarre, tu n'en finis pas Arrête de répéter que t'as rien fait, arrête de t'enfoncer T'es bizarre, ça n'en finit pas Arrête de m'harceler, de me rappeler, j'ai déjà raccroché 1,2,3, J'ai pas le syndrome de celle qui pardonne 1,2,3, J'ai la paume de ma main qui démange 1,2,3, On m'avait pourtant mise en garde 1,2,3, Phénomène bizarre Eh yo stop ! Cherche pas à savoir avec qui j'couche Comme les doigts du pianiste elles sont sur la touche 1,2,3 J'irai dans les bois 4,5, en M6 ou en M3 On parlera plus tard s'te plait, mais pas là L'ambiance devient chelou, comme Hannah Montana Eh yo Dj met du Fouiny Fouiny On veut le boul' a Nicky Nicky faire des milli-milli You might also like Eh yo stop ! Non je veux pas savoir avec qui tu crèches Et même si je suis chauve je sais que t'es de mèche 7,8,9 qu'on nous applaudisse Sois peace, fais-lui un kiss, on a la notice Qu'elle aille s'épiler-piler, Fouiny faut filer-filer L'ambiance ici n'est pas hallal, j'commande un filet-filet Tu vas tourner en rond comme la boule à facette Jarrête de cuisiner t'es pas dans ton assiette 1,2,3, J'ai pas le syndrome de celle qui pardonne 1,2,3, J'ai la paume de ma main qui démange 1,2,3, On m'avait pourtant mise en garde 1,2,3, Phénomène bizarre 1,2,3, J'ai pas le profil de celui à qui on pardonne 1,2,3, J'ai mal, j'ai l'oreille droite qui résonne 1,2,3, On m'avait pourtant mis en garde 1,2,3, J'ai la gueule du connard J'en ai fini avec ce boloss, Ah... Piste de danse Moi et toutes les folles, on bougent nos cheveux dans tous les sens Je crois que c'est bizarre, tu n'en finis pas Arrête de répéter que t'as rien fait, arrête de t'enfoncer T'es bizarre, ça n'en finit pas Arrête de m'harceler, de me rappeler, j'ai déjà raccroché 1,2,3, J'ai pas le profil de celui à qui on pardonne 1,2,3, J'ai mal, j'ai l'oreille droite qui résonne 1,2,3, On m'avait pourtant mis en garde 1,2,3, J'ai la gueule du connard 1,2,3, J'ai pas le syndrome de celle qui pardonne 1,2,3, J'ai la paume de ma main qui démange 1,2,3, On m'avait pourtant mise en garde 1,2,3, Phénomène bizarre4</t>
+          <t>1,2,3, J'ai pas le syndrome de celle qui pardonne 1,2,3, J'ai la paume de ma main qui démange 1,2,3, On m'avait pourtant mise en garde 1,2,3, Phénomène bizarre Ca y est t'as chuchoté tes excuses... Recommence Arrête de te chialer dessus, franchement j'm'en fous un peu de ce que tu penses J'crois qu't'es bizarre, tu n'en finis pas Arrête de répéter que t'as rien fait, arrête de t'enfoncer T'es bizarre, ça n'en finit pas Arrête de m'harceler, de me rappeler, j'ai déjà raccroché 1,2,3, J'ai pas le syndrome de celle qui pardonne 1,2,3, J'ai la paume de ma main qui démange 1,2,3, On m'avait pourtant mise en garde 1,2,3, Phénomène bizarre Eh yo stop ! Cherche pas à savoir avec qui j'couche Comme les doigts du pianiste elles sont sur la touche 1,2,3 J'irai dans les bois 4,5, en M6 ou en M3 On parlera plus tard s'te plait, mais pas là L'ambiance devient chelou, comme Hannah Montana Eh yo Dj met du Fouiny Fouiny On veut le boul' a Nicky Nicky faire des milli-milli Eh yo stop ! Non je veux pas savoir avec qui tu crèches Et même si je suis chauve je sais que t'es de mèche 7,8,9 qu'on nous applaudisse Sois peace, fais-lui un kiss, on a la notice Qu'elle aille s'épiler-piler, Fouiny faut filer-filer L'ambiance ici n'est pas hallal, j'commande un filet-filet Tu vas tourner en rond comme la boule à facette Jarrête de cuisiner t'es pas dans ton assiette 1,2,3, J'ai pas le syndrome de celle qui pardonne 1,2,3, J'ai la paume de ma main qui démange 1,2,3, On m'avait pourtant mise en garde 1,2,3, Phénomène bizarre 1,2,3, J'ai pas le profil de celui à qui on pardonne 1,2,3, J'ai mal, j'ai l'oreille droite qui résonne 1,2,3, On m'avait pourtant mis en garde 1,2,3, J'ai la gueule du connard J'en ai fini avec ce boloss, Ah... Piste de danse Moi et toutes les folles, on bougent nos cheveux dans tous les sens Je crois que c'est bizarre, tu n'en finis pas Arrête de répéter que t'as rien fait, arrête de t'enfoncer T'es bizarre, ça n'en finit pas Arrête de m'harceler, de me rappeler, j'ai déjà raccroché 1,2,3, J'ai pas le profil de celui à qui on pardonne 1,2,3, J'ai mal, j'ai l'oreille droite qui résonne 1,2,3, On m'avait pourtant mis en garde 1,2,3, J'ai la gueule du connard 1,2,3, J'ai pas le syndrome de celle qui pardonne 1,2,3, J'ai la paume de ma main qui démange 1,2,3, On m'avait pourtant mise en garde 1,2,3, Phénomène bizarre4</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Donne-moi un faible, j'te ferai un fort, donne-moi un gun, j'te ferai un mort Donne-moi un mic, j'te ferai un disque d'or Donne-moi un maigre, j'te ferai une masse, donne-moi une gratte, j'te ferai une passe Donne-moi une vierge, j'te ferai une grosse 'tasse Donne-moi un thème, j'te ferai un texte, donne moi une meuf, j'te ferai une ex Donne-moi l'amour, je te rendrai du sexe Donne-moi une clope, j'en ferai un bédo Une soirée sans capote, j'en ferai un berceau Donne-moi une balance, un Uzi, j'en ferai une passoire Donne moi un négro comme Mc Doom, j'en ferai un Magloire Donne-moi des pâtes, deux trois oignons, j'en ferai une gamelle Trouve-moi une meuf qui sait chanter j'en ferai une Amel Donne moi un petit qui sait jongler, j'en ferai un Samir Nasri Un million d'euros, j'en ferai un million d'ennemis Donne-moi une salle, j't'en ferai un concert Donne-moi un p'tit qui veut grimper, j'en ferai un gangster Donne-moi ta main et j'ferai de toi ma reine Donne-moi ta schneck et j'ferai de toi un contact BBM Donne-moi du love, j'en ferai ma force, donne-moi d'la haine, j'en ferai ma force Tu pe-ra bien, signe avec moi j'ferai de toi un boss Donne-moi une serviette en cellule, j'en ferai un tapis de prière Donne-moi un procureur, un gun et puis j'en ferai un gruyère Donne-moi un pote, j'en ferai un frère, donne-moi une meuf, j'en ferai une mère Donne-moi un gros schlass, un témoin que j'le fasse s'taire You might also like Donne-moi... Donne-moi... Donne-moi... Yeah, hein, yeah, donne moi une meuf j'en ferai un bord, donne moi raison, j'te donnerai tord Du commercial, jt'en ferai du hardcore Prends-moi la vie, j'en ferai un film, donne-moi une bande, j'en ferai une team Donne-moi BS, j'en ferai une dream team Donne-moi un coupable et j'en ferai une victime Donne-moi un clic-clic et j'en ferai un bim bim Donne moi un beat, j'te ferai du lourd, donne-moi ton phone, j'te ferai la cour Donne-moi ton gros boule, bitch, et j'te ferai l'amour Donne-moi le pactole et j'en ferai un pourboire La rue un trottoir, 500e un mouchoir Donne moi un p'tit dealeur de merde, j'en ferai un siste-gro Si t'as pas balancé tes frères, j'ferai d'toi un héros Donne-moi un p'tit, j'en ferai un homme, change des soupires en cyclone Donne-moi une pierre, j'en ferai un gomme-cogne Donne-moi d'la neige, j'en ferai du crack, banlieusard, jm'en bats les steaks Donne-moi un keuf, j'en ferai un bucket Donne moi des frères, j'en ferai un square, un square, j'en ferai un chtar' Donne-moi une barbichette, j'en ferai une grosse star Donne-moi une belle photo, j'en ferai un poster Petit donne moi ta mère, j'te ferai un beau-père Donne-moi un banc, j'te fais un trône Les beaux quartiers, la zone, donne-moi deux feuilles pis j'te fais un cône Donne-moi ta haine, j'en ferai ma raison Donne-moi deux trois quatre dealeurs, j'en ferai un réseau Donne-moi... Donne-moi... Donne-moi... Yeah, donne un stylo, j'te fais un son, donne-moi une arme, je te rends du plomb Politicien, j'en ferai un paillasson Donne-moi le 16ème j'en ferai le bled, donne-moi la vie j'te la rends dead Regarde nous mal, tu vas crier A l'aide! Donne-moi ta haine, j'en ferai une arme, un p'tit délit, j'en ferai un drame Donne-moi ton sang et j'le changerai en larmes Hein, donne-moi la rue, j'en ferai un palais Do-donne-moi les traîtres et je trouverai qui a parlé Han, donne-moi le game et j'en ferai une maison close Frère, donne-moi les ondes, j'en ferai une overdose AK-47 et j'fais tomber la pluie Regarde le Bois de Boulogne a changé Elle en Lui Kho, donne-moi les draps, j'en ferai un Yo-yo Donne-moi un parloir, j'te ferai un bédo Do-donne moi des co-détenus, j'en ferai des partenaires Donne-moi un trou d'balle vide, j'en ferai un contenaire Donne-moi la paix, j'te rends la guerre, connu le square et la galère Donne-moi le ciel et j'te le renderai à terre Donne-moi ton secret, j'te le renderai en silence Donne-moi la Sacem, j'te le renderai en avance Donne moi la capitale, j'la changerai en crime Raconte-moi ton histoire, j'la changerai en rimes Donne-moi l'échec j'le changerai en succès On pourra tout m'donner, ce sera jamais assez! Donne-moi... Donne-moi... Donne-moi...2</t>
+          <t>Donne-moi un faible, j'te ferai un fort, donne-moi un gun, j'te ferai un mort Donne-moi un mic, j'te ferai un disque d'or Donne-moi un maigre, j'te ferai une masse, donne-moi une gratte, j'te ferai une passe Donne-moi une vierge, j'te ferai une grosse 'tasse Donne-moi un thème, j'te ferai un texte, donne moi une meuf, j'te ferai une ex Donne-moi l'amour, je te rendrai du sexe Donne-moi une clope, j'en ferai un bédo Une soirée sans capote, j'en ferai un berceau Donne-moi une balance, un Uzi, j'en ferai une passoire Donne moi un négro comme Mc Doom, j'en ferai un Magloire Donne-moi des pâtes, deux trois oignons, j'en ferai une gamelle Trouve-moi une meuf qui sait chanter j'en ferai une Amel Donne moi un petit qui sait jongler, j'en ferai un Samir Nasri Un million d'euros, j'en ferai un million d'ennemis Donne-moi une salle, j't'en ferai un concert Donne-moi un p'tit qui veut grimper, j'en ferai un gangster Donne-moi ta main et j'ferai de toi ma reine Donne-moi ta schneck et j'ferai de toi un contact BBM Donne-moi du love, j'en ferai ma force, donne-moi d'la haine, j'en ferai ma force Tu pe-ra bien, signe avec moi j'ferai de toi un boss Donne-moi une serviette en cellule, j'en ferai un tapis de prière Donne-moi un procureur, un gun et puis j'en ferai un gruyère Donne-moi un pote, j'en ferai un frère, donne-moi une meuf, j'en ferai une mère Donne-moi un gros schlass, un témoin que j'le fasse s'taire Donne-moi... Donne-moi... Donne-moi... Yeah, hein, yeah, donne moi une meuf j'en ferai un bord, donne moi raison, j'te donnerai tord Du commercial, jt'en ferai du hardcore Prends-moi la vie, j'en ferai un film, donne-moi une bande, j'en ferai une team Donne-moi BS, j'en ferai une dream team Donne-moi un coupable et j'en ferai une victime Donne-moi un clic-clic et j'en ferai un bim bim Donne moi un beat, j'te ferai du lourd, donne-moi ton phone, j'te ferai la cour Donne-moi ton gros boule, bitch, et j'te ferai l'amour Donne-moi le pactole et j'en ferai un pourboire La rue un trottoir, 500e un mouchoir Donne moi un p'tit dealeur de merde, j'en ferai un siste-gro Si t'as pas balancé tes frères, j'ferai d'toi un héros Donne-moi un p'tit, j'en ferai un homme, change des soupires en cyclone Donne-moi une pierre, j'en ferai un gomme-cogne Donne-moi d'la neige, j'en ferai du crack, banlieusard, jm'en bats les steaks Donne-moi un keuf, j'en ferai un bucket Donne moi des frères, j'en ferai un square, un square, j'en ferai un chtar' Donne-moi une barbichette, j'en ferai une grosse star Donne-moi une belle photo, j'en ferai un poster Petit donne moi ta mère, j'te ferai un beau-père Donne-moi un banc, j'te fais un trône Les beaux quartiers, la zone, donne-moi deux feuilles pis j'te fais un cône Donne-moi ta haine, j'en ferai ma raison Donne-moi deux trois quatre dealeurs, j'en ferai un réseau Donne-moi... Donne-moi... Donne-moi... Yeah, donne un stylo, j'te fais un son, donne-moi une arme, je te rends du plomb Politicien, j'en ferai un paillasson Donne-moi le 16ème j'en ferai le bled, donne-moi la vie j'te la rends dead Regarde nous mal, tu vas crier A l'aide! Donne-moi ta haine, j'en ferai une arme, un p'tit délit, j'en ferai un drame Donne-moi ton sang et j'le changerai en larmes Hein, donne-moi la rue, j'en ferai un palais Do-donne-moi les traîtres et je trouverai qui a parlé Han, donne-moi le game et j'en ferai une maison close Frère, donne-moi les ondes, j'en ferai une overdose AK-47 et j'fais tomber la pluie Regarde le Bois de Boulogne a changé Elle en Lui Kho, donne-moi les draps, j'en ferai un Yo-yo Donne-moi un parloir, j'te ferai un bédo Do-donne moi des co-détenus, j'en ferai des partenaires Donne-moi un trou d'balle vide, j'en ferai un contenaire Donne-moi la paix, j'te rends la guerre, connu le square et la galère Donne-moi le ciel et j'te le renderai à terre Donne-moi ton secret, j'te le renderai en silence Donne-moi la Sacem, j'te le renderai en avance Donne moi la capitale, j'la changerai en crime Raconte-moi ton histoire, j'la changerai en rimes Donne-moi l'échec j'le changerai en succès On pourra tout m'donner, ce sera jamais assez! Donne-moi... Donne-moi... Donne-moi...2</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yeah Capitale du crime 3 Fouiny Baby, Kamelanc, yeah Le'go, le'go Yeah aha, yeah aha, yeah Maman un jour tout ira mieux pour le moment ici on trime grave L'argent est sur messagerie notre espoir est en gardav' On priait le seigneur, on sera pas ingénieur La misère emportait la promesse de nos jours meilleurs Frérot famille nombreuse, la vaisselle, les poussières Rajoutez des couverts ma mère est à découvert On rêvait de se barrer partir chercher la vie belle La chance n'est pas consentante comme dans les suites du Sofitel J'connais pas le futur, j'me rappelle du passé J'apprenais la zik' avant d'apprendre à faire mes lacets Ici on cherche les sous, on tend pas l'autre joue Sur la route on fait du mal on perd des frères comme Bandigou J'rappe pour les Blancs, les Africains, les Créoles Le rap est mort c'est pour ça que sur mes chèques y'a autant d'auréoles C'est perdu d'avance, merlich j'retente ma chance Concert guichets fermés moi qui blindait les salles d'audience Des fois j'suis le Sheitan, des fois j'suis la Sunna Les absents ont toujours tort à part Zyed et Bouna Un jour on t'oubliera frère un peu comme Larusso Laisse-les foncedés les portes du succès frérot j'ai l'trousseau J'me rappelle des hivers, l'eau froide dans la baignoire Quand maman pleurait les huissiers lui tendaient des mouchoirs Dédicace à Ben et Haroune J'vais percer sans baisser mon Ice Moon Trop d'bâtards parlent sur moi j'les connais à peine Depuis j'écris des textes sur ma motherfuckin'pain J'passe mes nuits en studio, la routine comme d'hab J'sors des doubles albums car mes fans veulent du rap Baisser les bras c'est pas pour moi, première classe à bord du Airbus J'en ai fait du chemin depuis mes textes à l'arrêt de bus Un jour j'rapperais torse nu pour pas retourner ma veste Rapper avec le cur sur c'est tout ce qu'il me reste J'finirais comme 2pac, BigL ou Biggie Inch'allah j'serai dans le din quand j'rejoindrais le père à Ziggy Lundi on s'fera la guerre, Mardi on sera des frères Peu importe la semaine, dimanche on dîne au cimetière Fouiny Babe You might also like Grosse pensée pour Jonathan Camara Et tous mes frères au card-pla enfermés comme Samara Viens, je vais te raconter mon histoire Je reviens de loin moi je reviens du Sahara Tout commence en primaire On mannonce le décès de mon grand frère et je vois les larmes de ma mère La mère elle sest jamais remise de ta mort Mohammed Allah Yrahmek grand frère Choc familial, choc émotionnel Depuis ce jour là je ne suis plus le même Bref, jarrive au collège Avec les mecs de mon quartier on déboule comme un cortège 6eme B, pff, quest ce quon na pas fait ? Avec Choupap Zbike on a tout redonné On a grave gol-ri Je donnerai tout ce que jai pour revivre ces moments, ces conneries Au quartier y'a encore le respect On se mélange pas avec les grands non tout ce quon fait cest secret On se contente de peu, juste une bécane Et tu pouvais voir des gosses super ferhan Jarrive au lycée, en BEP Le premier jour de cours je sais que je vais pas bosser Que des Noirs et des Arabes oh!, la prof est traumatisée Apeurée, elle sest barrée Premier tatou, premier tam-tam Premier regard avec les femmes-femmes A ce niveau là, je suis timide, discret, réservé Toutes les femmes je les ignorais Cest le bordel au quartier, ça devient insupportable La cause de cette guerre un portable Je comprends rien, le quartier se divise Des clans se forment, et certains se déguisent Bref, il faut que je taffe, le lycée ma té-je Et si j'continue à rien faire mon père va me té-je Alors jai commencé à chercher, je me suis fait pistonner Tu connais des boulots où tes bon quà porter A Rungis à moins 17 degrés Je puais le poisson même après mêtre lavé Après tout ça, y a eu le pe-ra Tu mas entendu tout niquer sur Ça sert à quoi ? Ensuite je rencontre une femme, six ans de calvaire Son amour nétait pas sincère Lundi on se fera la guerre, mardi on sera des frères Peu importe la semaine ,dimanche on dîne au cimetière Kamelanc Les yeux baissés, les mains tendues au ciel Où est la foi jaurais tant besoin delle À lapproche de la fin les gens saident On se rapproche quand les galères senchaînent Les yeux baissés, les mains tendues au ciel Où est la foi jaurais tant besoin delle À lapproche de la fin les gens saident On se rapproche quand les galères senchaînent Les yeux baissés, les mains tendues au ciel Où est la foi jaurais tant besoin delle À lapproche de la fin les gens saident On se rapproche quand les galères senchaînent Vous kiffez là ? Vous kiffez ça bande de bâtards ? Cest ça que vous aimez hein ? Cest ça que vous voulez bande de fils de putains de vos mères !4</t>
+          <t>Yeah Capitale du crime 3 Fouiny Baby, Kamelanc, yeah Le'go, le'go Yeah aha, yeah aha, yeah Maman un jour tout ira mieux pour le moment ici on trime grave L'argent est sur messagerie notre espoir est en gardav' On priait le seigneur, on sera pas ingénieur La misère emportait la promesse de nos jours meilleurs Frérot famille nombreuse, la vaisselle, les poussières Rajoutez des couverts ma mère est à découvert On rêvait de se barrer partir chercher la vie belle La chance n'est pas consentante comme dans les suites du Sofitel J'connais pas le futur, j'me rappelle du passé J'apprenais la zik' avant d'apprendre à faire mes lacets Ici on cherche les sous, on tend pas l'autre joue Sur la route on fait du mal on perd des frères comme Bandigou J'rappe pour les Blancs, les Africains, les Créoles Le rap est mort c'est pour ça que sur mes chèques y'a autant d'auréoles C'est perdu d'avance, merlich j'retente ma chance Concert guichets fermés moi qui blindait les salles d'audience Des fois j'suis le Sheitan, des fois j'suis la Sunna Les absents ont toujours tort à part Zyed et Bouna Un jour on t'oubliera frère un peu comme Larusso Laisse-les foncedés les portes du succès frérot j'ai l'trousseau J'me rappelle des hivers, l'eau froide dans la baignoire Quand maman pleurait les huissiers lui tendaient des mouchoirs Dédicace à Ben et Haroune J'vais percer sans baisser mon Ice Moon Trop d'bâtards parlent sur moi j'les connais à peine Depuis j'écris des textes sur ma motherfuckin'pain J'passe mes nuits en studio, la routine comme d'hab J'sors des doubles albums car mes fans veulent du rap Baisser les bras c'est pas pour moi, première classe à bord du Airbus J'en ai fait du chemin depuis mes textes à l'arrêt de bus Un jour j'rapperais torse nu pour pas retourner ma veste Rapper avec le cur sur c'est tout ce qu'il me reste J'finirais comme 2pac, BigL ou Biggie Inch'allah j'serai dans le din quand j'rejoindrais le père à Ziggy Lundi on s'fera la guerre, Mardi on sera des frères Peu importe la semaine, dimanche on dîne au cimetière Fouiny Babe Grosse pensée pour Jonathan Camara Et tous mes frères au card-pla enfermés comme Samara Viens, je vais te raconter mon histoire Je reviens de loin moi je reviens du Sahara Tout commence en primaire On mannonce le décès de mon grand frère et je vois les larmes de ma mère La mère elle sest jamais remise de ta mort Mohammed Allah Yrahmek grand frère Choc familial, choc émotionnel Depuis ce jour là je ne suis plus le même Bref, jarrive au collège Avec les mecs de mon quartier on déboule comme un cortège 6eme B, pff, quest ce quon na pas fait ? Avec Choupap Zbike on a tout redonné On a grave gol-ri Je donnerai tout ce que jai pour revivre ces moments, ces conneries Au quartier y'a encore le respect On se mélange pas avec les grands non tout ce quon fait cest secret On se contente de peu, juste une bécane Et tu pouvais voir des gosses super ferhan Jarrive au lycée, en BEP Le premier jour de cours je sais que je vais pas bosser Que des Noirs et des Arabes oh!, la prof est traumatisée Apeurée, elle sest barrée Premier tatou, premier tam-tam Premier regard avec les femmes-femmes A ce niveau là, je suis timide, discret, réservé Toutes les femmes je les ignorais Cest le bordel au quartier, ça devient insupportable La cause de cette guerre un portable Je comprends rien, le quartier se divise Des clans se forment, et certains se déguisent Bref, il faut que je taffe, le lycée ma té-je Et si j'continue à rien faire mon père va me té-je Alors jai commencé à chercher, je me suis fait pistonner Tu connais des boulots où tes bon quà porter A Rungis à moins 17 degrés Je puais le poisson même après mêtre lavé Après tout ça, y a eu le pe-ra Tu mas entendu tout niquer sur Ça sert à quoi ? Ensuite je rencontre une femme, six ans de calvaire Son amour nétait pas sincère Lundi on se fera la guerre, mardi on sera des frères Peu importe la semaine ,dimanche on dîne au cimetière Kamelanc Les yeux baissés, les mains tendues au ciel Où est la foi jaurais tant besoin delle À lapproche de la fin les gens saident On se rapproche quand les galères senchaînent Les yeux baissés, les mains tendues au ciel Où est la foi jaurais tant besoin delle À lapproche de la fin les gens saident On se rapproche quand les galères senchaînent Les yeux baissés, les mains tendues au ciel Où est la foi jaurais tant besoin delle À lapproche de la fin les gens saident On se rapproche quand les galères senchaînent Vous kiffez là ? Vous kiffez ça bande de bâtards ? Cest ça que vous aimez hein ? Cest ça que vous voulez bande de fils de putains de vos mères !4</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Et si je garde en moi toutes les blessures du passé C'est pour me rappeler tout ce que tu as fait pour moi Dans mon jardin secret les mauvaises fleurs ont toutes fané Le temps va, tout s'en va, pas l'amour que j'ai pour toi Papa, juste un mot j'irai là-bas, là-bas, pour toi Papa, le temps va, tout s'en va, pas l'amour que j'ai pour toi Yeah, tu voulais que je coupe des planches comme toi J'ai pas voulu et j'ai eu de la chance mais t'inquiètes je touche du bois Le frigo vide à ton départ maman t'en voulait beaucoup J'avais pas le droit mais en cachette moi je t'aimais beaucoup J'ai mis dans ce rap ce que je n'ai pas su te dire Tu restes mon père pour le meilleur et pour le pire Tu te levais à cinq heures du mat' pour qu'on puisse avoir des baskets à nos pattes Mais malgré ça j'ai quand même giflé le prof de maths Yeah, au square on m'appelle Fouiny Baby Mais pour toi je reste Laouni weld bladi Boom boom, les keufs viennent me lever T'es jamais venu au parloir car les hommes se cachent pour pleurer Yeah si t'as ouvert c'est que le vice a sonné Mais on reste tous les mêmes, papa tu es pardonné C'qui est dit est dit, c'qui est fait est fait J'ai trempé ma plume dans mes larmes pour écrire ce couplet You might also like Et si je garde en moi toutes les blessures du passé C'est pour me rappeler tout ce que tu as fait pour moi Dans mon jardin secret les mauvaises fleurs ont toutes fané Le temps va, tout s'en va, pas l'amour que j'ai pour toi Papa, juste un mot j'irai là-bas, là-bas, pour toi Papa, le temps va, tout s'en va, pas l'amour que j'ai pour toi Je te regarde d'en-haut, tu me regardes d'en-bas Tu fais vibrer mon cur de ton regard rêveur J'suis trop souvent absent, me le pardonneras-tu ? J'essaie d'être un bon père, maman me regarde d'au-dessus J'écris ce rap sincère de l'arrière du car J'ai ta p'tite tête en fond d'écran les doigts sur la guitare J'arrive à la salle pour faire les balances, il est midi Tu sors sûrement des cours avec ton sac Hello Kitty On fait la fête ce soir on affiche complet Plus personne peut entrer, mon cur affiche complet Je t'aime comme un fou, je t'aime à la folie On m'a retiré tout mes points, je t'aime comme c'est plus permis Et comme en un éclair t'es rentrée dans ma vie J'ai dis non à la taule, plus jamais les soucis C'qui est dit est dit, c'qui est fait est fait Et quand je serais plus là, j'espère que tu diras .. Et si je garde en moi toutes les blessures du passé C'est pour me rappeler tout ce que tu as fait pour moi Dans mon jardin secret les mauvaises fleurs ont toutes fané Le temps va, tout s'en va, pas l'amour que j'ai pour toi Papa, juste un mot j'irai là-bas, là-bas, pour toi Papa, le temps va, tout s'en va, pas l'amour que j'ai pour toi Dédié aux frères qui ont eu un père comme le mien Qui se cassait le dos à taffer du soir au matin Dédié aux surs qui ont eu un père comme moi Qui du matin au soir courait derrière la gloire Dédié aux frères qui ont eu un père comme le mien Qui se cassait le dos à taffer du soir au matin Dédié aux surs qui ont eu un père comme moi Qui du matin au soir courait derrière la gloire5</t>
+          <t>Et si je garde en moi toutes les blessures du passé C'est pour me rappeler tout ce que tu as fait pour moi Dans mon jardin secret les mauvaises fleurs ont toutes fané Le temps va, tout s'en va, pas l'amour que j'ai pour toi Papa, juste un mot j'irai là-bas, là-bas, pour toi Papa, le temps va, tout s'en va, pas l'amour que j'ai pour toi Yeah, tu voulais que je coupe des planches comme toi J'ai pas voulu et j'ai eu de la chance mais t'inquiètes je touche du bois Le frigo vide à ton départ maman t'en voulait beaucoup J'avais pas le droit mais en cachette moi je t'aimais beaucoup J'ai mis dans ce rap ce que je n'ai pas su te dire Tu restes mon père pour le meilleur et pour le pire Tu te levais à cinq heures du mat' pour qu'on puisse avoir des baskets à nos pattes Mais malgré ça j'ai quand même giflé le prof de maths Yeah, au square on m'appelle Fouiny Baby Mais pour toi je reste Laouni weld bladi Boom boom, les keufs viennent me lever T'es jamais venu au parloir car les hommes se cachent pour pleurer Yeah si t'as ouvert c'est que le vice a sonné Mais on reste tous les mêmes, papa tu es pardonné C'qui est dit est dit, c'qui est fait est fait J'ai trempé ma plume dans mes larmes pour écrire ce couplet Et si je garde en moi toutes les blessures du passé C'est pour me rappeler tout ce que tu as fait pour moi Dans mon jardin secret les mauvaises fleurs ont toutes fané Le temps va, tout s'en va, pas l'amour que j'ai pour toi Papa, juste un mot j'irai là-bas, là-bas, pour toi Papa, le temps va, tout s'en va, pas l'amour que j'ai pour toi Je te regarde d'en-haut, tu me regardes d'en-bas Tu fais vibrer mon cur de ton regard rêveur J'suis trop souvent absent, me le pardonneras-tu ? J'essaie d'être un bon père, maman me regarde d'au-dessus J'écris ce rap sincère de l'arrière du car J'ai ta p'tite tête en fond d'écran les doigts sur la guitare J'arrive à la salle pour faire les balances, il est midi Tu sors sûrement des cours avec ton sac Hello Kitty On fait la fête ce soir on affiche complet Plus personne peut entrer, mon cur affiche complet Je t'aime comme un fou, je t'aime à la folie On m'a retiré tout mes points, je t'aime comme c'est plus permis Et comme en un éclair t'es rentrée dans ma vie J'ai dis non à la taule, plus jamais les soucis C'qui est dit est dit, c'qui est fait est fait Et quand je serais plus là, j'espère que tu diras .. Et si je garde en moi toutes les blessures du passé C'est pour me rappeler tout ce que tu as fait pour moi Dans mon jardin secret les mauvaises fleurs ont toutes fané Le temps va, tout s'en va, pas l'amour que j'ai pour toi Papa, juste un mot j'irai là-bas, là-bas, pour toi Papa, le temps va, tout s'en va, pas l'amour que j'ai pour toi Dédié aux frères qui ont eu un père comme le mien Qui se cassait le dos à taffer du soir au matin Dédié aux surs qui ont eu un père comme moi Qui du matin au soir courait derrière la gloire Dédié aux frères qui ont eu un père comme le mien Qui se cassait le dos à taffer du soir au matin Dédié aux surs qui ont eu un père comme moi Qui du matin au soir courait derrière la gloire5</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tu crois quelle aurait pris le RER, que jla baladerais en métro ? Elle voulait des gros bolides pour sla péter devant toute ses copines Hey, les potes mont prévenu, mont dit La Fouine, handek Tu veux une bombe faut le porte-feuille qui va avec Alors il me fallait plus de fraîche que la veille Car sur la table, il faut la 'teille comme jai pas de paie, protège ton dos car le crime paie Jarnaque les criquets, je pars au charbon Joublie tout pour son sourire, même les keufs postichés sur le balcon Jsuis tombé pour elle plus de maison, plus de tour Eiffel, plus de billets verts Elle a le regard qui tue, le regard revolver Mon frère, comprends quavec une meuf comme ça, à ton bras Tu peux pas lui dire ma belle ce soir je tinvite au kefta Cétait ma meilleure, ma number one, ma best of the best Viens pas test je mallongeais sur le dos et elle, faisait le reste Clic clac clic clic les menottes cest quoi ce bordel ? Jvous le dis au final je suis tombé pour elle Quand tu seras enfermé quon pourra plus se parler Moi jte kifferai tu seras toujours au top Impossible doublier toute cette année passée Pour moi t'étais, puis tu seras toujours au top Je taimerai comme avant avec ou sans argent Tu seras toujours au top Arrête tes questions Arrête tes questions You might also like Jpréfère être pauvre avec ma miss, quen cellule et mal accompagné Versé des acomptes aux grossistes, pisté par les dés-kis Assis dans ma cellule je lis ta lettre au bord du gouffre Au bord des drames le stylo pleure, mon cahier souvre tu es en larmes Chez nous on cache nos sentiments, gentiment On préfère dire casse-toi va t-en que de crier je taime comme Lara Fabian A toutes les Fatimas, les Fatous qui blindent nos parloirs Pardonne moi de douter mais trop de gratteuses blindent mon répertoire Et dans mes petits yeux marrons tu peux lire ce que je ressens pour toi Ne me force pas à dire ce mot, jai trop dorgueil pour ça Rappelle-toi quand on était pauvres et heureux, quon galérait à larrêt de bus Quon se contentait de rien dun Maxi Best of Cest dma faute nous banlieusards on en veut toujours plus On veut sortir le SL-600 et se la péter aux Puces Clic clac clic clic les menottes c'est quoi ce bordel ? Jvous le dis au final je suis tombé pour elle Moi je taime comme tu es Où tu seras, je serai Moi je taime comme tu es Où tu seras, je serai Quand je serai enfermé, quon pourra plus se parler Est-ce que tu mkifferas quand jserai plus au top ? On aura beau chercher la lumière du passé Est-ce que tu mkifferas quand jserai plus au top ? Maimeras-tu comme avant avec ou sans argent ? Jme pose plein de questions, quand jserai plus au top Quand jserai plus au top Quand jserai plus au top Quand tu seras enfermé quon pourra plus se parler Moi jte kifferai tu seras toujours au top Impossible doublier toute cette année passée Pour moi t'étais, puis tu seras toujours au top Je taimerai comme avant avec ou sans argent Arrête tes questions, tu seras toujours au top Tu seras toujours au top Tu seras toujours au top Quand tu seras enfermé quon pourra plus se parler Moi jte kifferai tu seras toujours au top Impossible doublier toute cette année passée Pour moi t'étais, puis tu seras toujours au top Je taimerai comme avant avec ou sans argent Tu seras toujours au top Arrête tes questions Arrête tes questions4</t>
+          <t>Tu crois quelle aurait pris le RER, que jla baladerais en métro ? Elle voulait des gros bolides pour sla péter devant toute ses copines Hey, les potes mont prévenu, mont dit La Fouine, handek Tu veux une bombe faut le porte-feuille qui va avec Alors il me fallait plus de fraîche que la veille Car sur la table, il faut la 'teille comme jai pas de paie, protège ton dos car le crime paie Jarnaque les criquets, je pars au charbon Joublie tout pour son sourire, même les keufs postichés sur le balcon Jsuis tombé pour elle plus de maison, plus de tour Eiffel, plus de billets verts Elle a le regard qui tue, le regard revolver Mon frère, comprends quavec une meuf comme ça, à ton bras Tu peux pas lui dire ma belle ce soir je tinvite au kefta Cétait ma meilleure, ma number one, ma best of the best Viens pas test je mallongeais sur le dos et elle, faisait le reste Clic clac clic clic les menottes cest quoi ce bordel ? Jvous le dis au final je suis tombé pour elle Quand tu seras enfermé quon pourra plus se parler Moi jte kifferai tu seras toujours au top Impossible doublier toute cette année passée Pour moi t'étais, puis tu seras toujours au top Je taimerai comme avant avec ou sans argent Tu seras toujours au top Arrête tes questions Arrête tes questions Jpréfère être pauvre avec ma miss, quen cellule et mal accompagné Versé des acomptes aux grossistes, pisté par les dés-kis Assis dans ma cellule je lis ta lettre au bord du gouffre Au bord des drames le stylo pleure, mon cahier souvre tu es en larmes Chez nous on cache nos sentiments, gentiment On préfère dire casse-toi va t-en que de crier je taime comme Lara Fabian A toutes les Fatimas, les Fatous qui blindent nos parloirs Pardonne moi de douter mais trop de gratteuses blindent mon répertoire Et dans mes petits yeux marrons tu peux lire ce que je ressens pour toi Ne me force pas à dire ce mot, jai trop dorgueil pour ça Rappelle-toi quand on était pauvres et heureux, quon galérait à larrêt de bus Quon se contentait de rien dun Maxi Best of Cest dma faute nous banlieusards on en veut toujours plus On veut sortir le SL-600 et se la péter aux Puces Clic clac clic clic les menottes c'est quoi ce bordel ? Jvous le dis au final je suis tombé pour elle Moi je taime comme tu es Où tu seras, je serai Moi je taime comme tu es Où tu seras, je serai Quand je serai enfermé, quon pourra plus se parler Est-ce que tu mkifferas quand jserai plus au top ? On aura beau chercher la lumière du passé Est-ce que tu mkifferas quand jserai plus au top ? Maimeras-tu comme avant avec ou sans argent ? Jme pose plein de questions, quand jserai plus au top Quand jserai plus au top Quand jserai plus au top Quand tu seras enfermé quon pourra plus se parler Moi jte kifferai tu seras toujours au top Impossible doublier toute cette année passée Pour moi t'étais, puis tu seras toujours au top Je taimerai comme avant avec ou sans argent Arrête tes questions, tu seras toujours au top Tu seras toujours au top Tu seras toujours au top Quand tu seras enfermé quon pourra plus se parler Moi jte kifferai tu seras toujours au top Impossible doublier toute cette année passée Pour moi t'étais, puis tu seras toujours au top Je taimerai comme avant avec ou sans argent Tu seras toujours au top Arrête tes questions Arrête tes questions4</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Khey, pour mes kholos Pour mes khey, pour mes kholos Négro on s'en bat les couilles Quoi d'neuf Fouiny Baby ? Bone Collector on the track! Swagg, leggo C'est pour mes khey, pour mes kholos négro on s'en bat les couilles Sors ton gun, tire sur l'autre négro on s'en bat les couilles Pas d'détail, vends en gros négro on s'en bat les couilles T'as d'la C, t'as d'l'héro négro on s'en bat les couilles J'suis dans ma Porsche, j'mange un grec négro on s'en bat les couilles Frère parle mal, fais belek, car nous on s'en bat les couilles J'tiens mes couilles, ramasse tes douilles négro on s'en bat les couilles Elle pense à moi quand tu la quèn' négro elle s'en bat les couilles J'ai des dossiers sur ta meuf négro on s'en bat les couilles Le comico prend d'la valeur si ma Audemars est dans la fouille Rafale ta mère comme à Kaboul négro on s'en bat les couilles Roule sur l'or en semelles rouges négro on s'en bat les couilles Plus d'ceinture, plus d'lacets négro on s'en bat les couilles Change les hlel en prostituées négro on s'en bat les couilles Ouais Marine, j'te nique ta mère, et ton père s'en bat les couilles 78, Y.Z négro on s'en bat les couilles La barquette, l'aumônier rebeu on s'en bat les couilles Les balances s'font fumer rebeu on s'en bat les couilles Une olive dans l'terma rebeu on s'en bat les couilles Casablanca, Ketama re-rebeu on s'en bat les couilles Gros big up au Djazair là-bas ils s'en battent les couilles On veut d'la frappe, des gros bzezel rebeu on s'en bat les couilles Ta reum' n'a rien, c'est honteux négro on s'en bat les couilles Si j'suis en chien, j'braque un footeux Zlatan négro on s'en bat les couilles T'as plus d'balles ? Mets un coup d'crosse négro on s'en bat les couilles Ex-taulard, j'suis pas Rick Ross négro on s'en bat les couilles SMPR, le prétoire négro on s'en bat les couilles Comme la BAC de seille-Mar négro on s'en bat les couilles Bat les couilles ! Bat les couilles ! You might also like - Si-si, So. Bien ou quoi ma gueule ? - Bien ou quoi Fouiny ? Ça dit quoi, mon pote ? - Ah on s'en bat les couilles, hein ! Tu vois ça ! - Oh, t'as tué ça, frère ! Mais laisse-moi t'montrer comment on tue ça dans l'Neuf-Trois. Hein ? Xplosif... Tess contre tess négro on s'en bat les couilles Cagoulé, le flingue s'enraye ? Négro on s'en bat les couilles T'es en chien, t'as plus d'ye-cou ? Négro plus rien dans les fouilles Gros t'as 'quar-na tout ton tiexon qui va pleurer ta dépouille ? Six du mat', perquise au bélier négro on s'en bat les couilles Tu cherches qui ? Le plus grand des reufrés ? Négro on s'en bat les couilles Son terrain tourne, la canaille va parler négro on s'en bat les couilles La sur d'un poto t'a cé-us' négro on s'en bat les couilles T'es au hebs ? Elle s'en fout négro elle s'en bat les couilles Cale d'oseille rien que pour elle négro est devenu fou Star-system, je reste au quartier rebeu on s'en bat les couilles Coca-fraise, la serveuse est fraîche rebeu on s'en bat les couilles Vends ton bédo, vends ta zeb négro on s'en bat les couilles Valise de coke, BKO, l'Azawad on s'en bat les couilles Fais-fais d'l'oseille, aménage ta peine négro on s'en bat les couilles Tu cherches qui ? C'est moi qu'tu cherches ? Xplosif clic, clic, boum ! Addict des gros termas, Brasil on s'en bat les couilles Vaffanculo ! Tu veux m'enculer ? Négro on s'en bat les couilles On aime ça, La Jonquera là-bas on se vide les couilles Moi j'aime tirer dans les bois, toi tu n'connais qu'le Bois d'Boul' ! C'est violent, c'est caille-ra négro on s'en bat les couilles On s'en fout si tu nous aimes pas négro on s'en bat les couilles Tribunal, mon avocat comme moi il s'en bat les couilles Que t'aies qué-bra, que t'aies cheu-arra tu repars avec ta fouille Un coin d'rue, une scène de crime négro on s'en bat les couilles Une mère pleure dans les bras du tueur négro on s'en bat les couilles J'ai gé-char la douane au péage négro on s'en bat les couilles La Subaru des gendarmes j'lui mets une tempête sur la route Africa, Douala, Lagos négro on s'en bat les couilles Argent halal, argent haram négro on s'en bat les couilles Flow machine, compter euros, dollars on s'en bat les couilles Du Sept-Huit jusqu'au Neuf-Trois négro on s'en bat les couilles Bat les couilles ! Bat les couilles ! Si-si, Fouiny Baby, El Generale chico Eh wAllah on s'en bat les couilles d'ta vie, sur la vie d'ma mère Mec d'Auber', mec de Trappes négro on s'en bat les couilles</t>
+          <t>Khey, pour mes kholos Pour mes khey, pour mes kholos Négro on s'en bat les couilles Quoi d'neuf Fouiny Baby ? Bone Collector on the track! Swagg, leggo C'est pour mes khey, pour mes kholos négro on s'en bat les couilles Sors ton gun, tire sur l'autre négro on s'en bat les couilles Pas d'détail, vends en gros négro on s'en bat les couilles T'as d'la C, t'as d'l'héro négro on s'en bat les couilles J'suis dans ma Porsche, j'mange un grec négro on s'en bat les couilles Frère parle mal, fais belek, car nous on s'en bat les couilles J'tiens mes couilles, ramasse tes douilles négro on s'en bat les couilles Elle pense à moi quand tu la quèn' négro elle s'en bat les couilles J'ai des dossiers sur ta meuf négro on s'en bat les couilles Le comico prend d'la valeur si ma Audemars est dans la fouille Rafale ta mère comme à Kaboul négro on s'en bat les couilles Roule sur l'or en semelles rouges négro on s'en bat les couilles Plus d'ceinture, plus d'lacets négro on s'en bat les couilles Change les hlel en prostituées négro on s'en bat les couilles Ouais Marine, j'te nique ta mère, et ton père s'en bat les couilles 78, Y.Z négro on s'en bat les couilles La barquette, l'aumônier rebeu on s'en bat les couilles Les balances s'font fumer rebeu on s'en bat les couilles Une olive dans l'terma rebeu on s'en bat les couilles Casablanca, Ketama re-rebeu on s'en bat les couilles Gros big up au Djazair là-bas ils s'en battent les couilles On veut d'la frappe, des gros bzezel rebeu on s'en bat les couilles Ta reum' n'a rien, c'est honteux négro on s'en bat les couilles Si j'suis en chien, j'braque un footeux Zlatan négro on s'en bat les couilles T'as plus d'balles ? Mets un coup d'crosse négro on s'en bat les couilles Ex-taulard, j'suis pas Rick Ross négro on s'en bat les couilles SMPR, le prétoire négro on s'en bat les couilles Comme la BAC de seille-Mar négro on s'en bat les couilles Bat les couilles ! Bat les couilles ! - Si-si, So. Bien ou quoi ma gueule ? - Bien ou quoi Fouiny ? Ça dit quoi, mon pote ? - Ah on s'en bat les couilles, hein ! Tu vois ça ! - Oh, t'as tué ça, frère ! Mais laisse-moi t'montrer comment on tue ça dans l'Neuf-Trois. Hein ? Xplosif... Tess contre tess négro on s'en bat les couilles Cagoulé, le flingue s'enraye ? Négro on s'en bat les couilles T'es en chien, t'as plus d'ye-cou ? Négro plus rien dans les fouilles Gros t'as 'quar-na tout ton tiexon qui va pleurer ta dépouille ? Six du mat', perquise au bélier négro on s'en bat les couilles Tu cherches qui ? Le plus grand des reufrés ? Négro on s'en bat les couilles Son terrain tourne, la canaille va parler négro on s'en bat les couilles La sur d'un poto t'a cé-us' négro on s'en bat les couilles T'es au hebs ? Elle s'en fout négro elle s'en bat les couilles Cale d'oseille rien que pour elle négro est devenu fou Star-system, je reste au quartier rebeu on s'en bat les couilles Coca-fraise, la serveuse est fraîche rebeu on s'en bat les couilles Vends ton bédo, vends ta zeb négro on s'en bat les couilles Valise de coke, BKO, l'Azawad on s'en bat les couilles Fais-fais d'l'oseille, aménage ta peine négro on s'en bat les couilles Tu cherches qui ? C'est moi qu'tu cherches ? Xplosif clic, clic, boum ! Addict des gros termas, Brasil on s'en bat les couilles Vaffanculo ! Tu veux m'enculer ? Négro on s'en bat les couilles On aime ça, La Jonquera là-bas on se vide les couilles Moi j'aime tirer dans les bois, toi tu n'connais qu'le Bois d'Boul' ! C'est violent, c'est caille-ra négro on s'en bat les couilles On s'en fout si tu nous aimes pas négro on s'en bat les couilles Tribunal, mon avocat comme moi il s'en bat les couilles Que t'aies qué-bra, que t'aies cheu-arra tu repars avec ta fouille Un coin d'rue, une scène de crime négro on s'en bat les couilles Une mère pleure dans les bras du tueur négro on s'en bat les couilles J'ai gé-char la douane au péage négro on s'en bat les couilles La Subaru des gendarmes j'lui mets une tempête sur la route Africa, Douala, Lagos négro on s'en bat les couilles Argent halal, argent haram négro on s'en bat les couilles Flow machine, compter euros, dollars on s'en bat les couilles Du Sept-Huit jusqu'au Neuf-Trois négro on s'en bat les couilles Bat les couilles ! Bat les couilles ! Si-si, Fouiny Baby, El Generale chico Eh wAllah on s'en bat les couilles d'ta vie, sur la vie d'ma mère Mec d'Auber', mec de Trappes négro on s'en bat les couilles</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>La Fouine un jour tu vas percer T'oublieras le goût d'la misère, le goût du mafé Tous ces gens pour qui tu auras compté Tu n'auras plus rien à leur raconter T'oublieras le goût de toutes ces choses simples On sera qu'un reflet dans le rétro de ton X5 Tu passeras l'bonjour aux étoiles T'oublieras qu'ici on trime, qu'ici on pédale Tu feras le nécessaire pour briller T'en oublieras même que ton père était ouvrier Le soir dans ta loge tu vas pleurer, crier Personne à tes côtés, t'en oublieras même de prier T'oublieras les p'tits frères en découvrant les grosses sommes T'oublieras les meufs biens, tu voudras des meufs bonnes T'oublieras tous ces bons moments qu'on a passés Ici on n'oublie pas l'passé Parce que l'on sait d'où l'on vient Et que l'on a tant cherché La lumière le poing serré Parce que l'on sait d'où l'on vient, hey Parce que l'on sait d'ou l'on vient Et que l'on a tant cherché la lumière Et comme je sais d'où je viens Je sais où je vais, hey hey You might also like La Fouine un jour tu vas percer T'oublieras les gens, les halls qui nous ont bercés T'oublieras les grecs que l'on partageait en quatre T'oublieras la taule, les fenêtres, les lancers d'pâtes T'oublieras les frères qui t'ont aidé Dans ton gamos, les caisses que l'on t'a prêtées Les gens avec qui tu rappais en indé' T'iras sniffer d'la coke avec les gens blindés Les VIP, les nouveaux délires Ici on a qu'notre amitié à t'offrir Nous au moins on t'aime pour c'que tu es T'oublieras nos habitudes, nos rituels Tu partiras et tu reviendras ap' Restera plus qu'tes tags au bâtiment 4 Restera plus qu'ton nom sur les mur du ste-po Ici on n'oublie pas les potos Parce que l'on sait d'où l'on vient Et que l'on a tant cherché La lumière le poing serré Parce que l'on sait d'où l'on vient, hey Parce que l'on sait d'ou l'on vient Et que l'on a tant cherché la lumière Et comme je sais d'où je viens Je sais où je vais, hey hey Lassé, tu reviendras au ter-ter, pépère On t'accueillera tous les bras ouverts On n'oublie jamais l'chemin des tours Ici on donne sans attendre en retour Fouiny Baby on connaît pas Nous on connaît Laouni Mouhid d'Casablanca Frérot quoi qu'il en soit T'es né dans la merde pas dans la soie Quoi qu'il en soit-a-a-a-a On vit le passé-é-é-é-é Et on n'oublie pas-as-as-as-as Yeah, yeah Quoi qu'il en soit-a-a-a-a On vit le passé-é-é-é-é Et on n'oublie pas-as-as-as-as Yeah, yeah Yeah Parce que l'on sait d'où l'on vient Et que l'on a tant cherché La lumière le poing serré Parce que l'on sait d'où l'on vient, hey Parce que l'on sait d'ou l'on vient Et que l'on a tant cherché la lumière Et comme je sais d'où je viens Je sais où je vais, hey hey Parce que l'on sait d'où l'on vient Skalpovich Et que l'on a tant cherché Fouiny Babe La lumière le poing serré D'où l'on vient, frérot Parce que l'on sait d'où l'on vient, hey Parce que l'on sait d'ou l'on vient Et que l'on a tant cherché la lumière Et comme je sais d'où je viens Je sais où je vais, hey hey Yeah, Momo, Large, Ben Kembah, Darsh, Petcho, Toumani Aroun, Moubaka, la famille Megraoui, la famille Diarra El Caïrie, Algérie, El Loilantie, Bourlaff, Kery, News Bang Bang, Awars, Amidou, Emjahela, Michael, Balin, Criminel Paulo, Skato, Futé, Clement, Dika, Mani, Zoulou, Gorusic Baki, Gok, Sophia, Cerrou, Dixon, Trappes Tous ceux que j'oublie, ma petite gueule Tous les petits du square GSP3</t>
+          <t>La Fouine un jour tu vas percer T'oublieras le goût d'la misère, le goût du mafé Tous ces gens pour qui tu auras compté Tu n'auras plus rien à leur raconter T'oublieras le goût de toutes ces choses simples On sera qu'un reflet dans le rétro de ton X5 Tu passeras l'bonjour aux étoiles T'oublieras qu'ici on trime, qu'ici on pédale Tu feras le nécessaire pour briller T'en oublieras même que ton père était ouvrier Le soir dans ta loge tu vas pleurer, crier Personne à tes côtés, t'en oublieras même de prier T'oublieras les p'tits frères en découvrant les grosses sommes T'oublieras les meufs biens, tu voudras des meufs bonnes T'oublieras tous ces bons moments qu'on a passés Ici on n'oublie pas l'passé Parce que l'on sait d'où l'on vient Et que l'on a tant cherché La lumière le poing serré Parce que l'on sait d'où l'on vient, hey Parce que l'on sait d'ou l'on vient Et que l'on a tant cherché la lumière Et comme je sais d'où je viens Je sais où je vais, hey hey La Fouine un jour tu vas percer T'oublieras les gens, les halls qui nous ont bercés T'oublieras les grecs que l'on partageait en quatre T'oublieras la taule, les fenêtres, les lancers d'pâtes T'oublieras les frères qui t'ont aidé Dans ton gamos, les caisses que l'on t'a prêtées Les gens avec qui tu rappais en indé' T'iras sniffer d'la coke avec les gens blindés Les VIP, les nouveaux délires Ici on a qu'notre amitié à t'offrir Nous au moins on t'aime pour c'que tu es T'oublieras nos habitudes, nos rituels Tu partiras et tu reviendras ap' Restera plus qu'tes tags au bâtiment 4 Restera plus qu'ton nom sur les mur du ste-po Ici on n'oublie pas les potos Parce que l'on sait d'où l'on vient Et que l'on a tant cherché La lumière le poing serré Parce que l'on sait d'où l'on vient, hey Parce que l'on sait d'ou l'on vient Et que l'on a tant cherché la lumière Et comme je sais d'où je viens Je sais où je vais, hey hey Lassé, tu reviendras au ter-ter, pépère On t'accueillera tous les bras ouverts On n'oublie jamais l'chemin des tours Ici on donne sans attendre en retour Fouiny Baby on connaît pas Nous on connaît Laouni Mouhid d'Casablanca Frérot quoi qu'il en soit T'es né dans la merde pas dans la soie Quoi qu'il en soit-a-a-a-a On vit le passé-é-é-é-é Et on n'oublie pas-as-as-as-as Yeah, yeah Quoi qu'il en soit-a-a-a-a On vit le passé-é-é-é-é Et on n'oublie pas-as-as-as-as Yeah, yeah Yeah Parce que l'on sait d'où l'on vient Et que l'on a tant cherché La lumière le poing serré Parce que l'on sait d'où l'on vient, hey Parce que l'on sait d'ou l'on vient Et que l'on a tant cherché la lumière Et comme je sais d'où je viens Je sais où je vais, hey hey Parce que l'on sait d'où l'on vient Skalpovich Et que l'on a tant cherché Fouiny Babe La lumière le poing serré D'où l'on vient, frérot Parce que l'on sait d'où l'on vient, hey Parce que l'on sait d'ou l'on vient Et que l'on a tant cherché la lumière Et comme je sais d'où je viens Je sais où je vais, hey hey Yeah, Momo, Large, Ben Kembah, Darsh, Petcho, Toumani Aroun, Moubaka, la famille Megraoui, la famille Diarra El Caïrie, Algérie, El Loilantie, Bourlaff, Kery, News Bang Bang, Awars, Amidou, Emjahela, Michael, Balin, Criminel Paulo, Skato, Futé, Clement, Dika, Mani, Zoulou, Gorusic Baki, Gok, Sophia, Cerrou, Dixon, Trappes Tous ceux que j'oublie, ma petite gueule Tous les petits du square GSP3</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yeah, Paris Hey, bande d'enfoirés Viens pas tester la Ouest Side, la Ouest Side 78, oh ha ha... Yeah, La Fouine... ! Reste en chien ! Tu veux nous faire un chrom' mais tu connais personne ? Reste en chien ! Tu veux sortir le gamos, ta tass n'est pas bonne ? Reste en chien ! Tu veux rentrer au King, au V.I.P. et au Duplex ? Reste en chien ! T'as baisé cette crasseuse et l'a ken sans latex ? Reste en chien ! Bas les tass', bas les tass', pas de mandat, rarement en promenade, reste en chien ! Quand j'allume au Gomm-Cogne l'ahi comme héritage, reste en chien ! B2OBA, Fouine-La si t'as pas l'son dans ta gov, reste en chien ! Sur le fond d'écran d'ta tas', ma gueule, il y a ma tof, reste en chien ! Quoi tu veux siffler ma teille ? T'assoir à ma table ? Reste en chien ! Sniffer ma No-No, t'es pas un mec de Trappes ? Reste en chien ! T'as poucave touts tes potes, tous tes reufs, la taule t'as marqué, reste en chien ! Tu veux que j'décroche, t'appelles toujours en masqué, reste en chien ! Tu as pas le palmarès de Samuel Eto'o, reste en chien ! Tu t'es fait griller comme Tunis et Aketo, reste en chien ! T'as voulu clasher, j'ai brisé ta carrière, reste en chienne ! Pas d'deLorean, pas d'retour en arrière, reste en chien ! T'as pas d'contrat d'embauche, tu veux d'faire la semi ? Reste en chien ! Et tu fais plus de bruit qu'un putain d'deux et demi, reste en chien ! T'as jamais cru en moi et maintenant tu m'suces, reste en chien ! Tu changes de potes, comme de phone, comme de puce, reste en chien ! You might also like J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Trop d'bouffons dans l'industrie donc je n'me-me mélange pas Après minuit je baise ne m'appelle pas, ne me-me dérange pas Tu veux m'attraper dans tes chansons ? Bonhomme faut qu'on en parle Autour d'un 3.5.7 Magnum rempli de-de balles Reste en chien ! B2O je m'intitule, gangster est l'attitude Austère quand j'prends l'mic, ta pute a tous mes posters Auprès des jeunes j'ai de l'impact, j'te l'dis franchement Si tu passes à la barre, prononce pas mon blaze à ton jugement Bienvenue à Boulbi, on t'interpelle sur un coup d'fil Chez nous le profit n'a pas de profil J'te l'dis, j'ai vendu coke, shit... Pas b'soin d'lire entre les lignes Je ne, ne compare pas mes délits et Médellin Dans des gros bizs pour du gros biff', l'oseille n'est que d'passage J'en donne au prostituées, au salon d'massage J'arrête de fumer toutes les deux semaines Ouest Side Tu veux ma chaîne, ma liasse, ma chie-chienne, reste en chien Reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! Tu voulais qu'on passe ton son chez Cut Killer ? Reste en chien ! Si t'es un keuf, un huissier, un inspecteur, reste en chien ! Tu veux monter sur scène mais tu mets pas l'feu ? Reste en chien ! En plus tu t'es fait r'caler chez Couvre-Feu, reste en chien ! T'entends pas où quoi ? Trop de flow, trop de tass', trop de keufs, toute la banlieue ouest au cul, reste en chien ! Tester mais no no non pas de ça chez nous, reste en chien ! Tu veux des gifles-gifles ? Man t'as pas d'équipe, reste en chien ! Tu veux serrer, t'sais pas parler, les meuf te tchippent, reste en chien ! T'es recherché, t'as fait des chroms, t'es dans la merde, reste en chien ! T'investis dans l'Sud avec des ki-kilos d'herbe, reste en chien ! Paris j'arrive, 78 voilà mon empire ! Reste en chien ! Tu veux tester man ? Une seule chose à dire Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Yeah Banlieue to the 9.2 to the 7.8, c'est dangereux Si, si Reste en chien sale chien Bi-Bi-Bi-Biatch !4</t>
+          <t>Yeah, Paris Hey, bande d'enfoirés Viens pas tester la Ouest Side, la Ouest Side 78, oh ha ha... Yeah, La Fouine... ! Reste en chien ! Tu veux nous faire un chrom' mais tu connais personne ? Reste en chien ! Tu veux sortir le gamos, ta tass n'est pas bonne ? Reste en chien ! Tu veux rentrer au King, au V.I.P. et au Duplex ? Reste en chien ! T'as baisé cette crasseuse et l'a ken sans latex ? Reste en chien ! Bas les tass', bas les tass', pas de mandat, rarement en promenade, reste en chien ! Quand j'allume au Gomm-Cogne l'ahi comme héritage, reste en chien ! B2OBA, Fouine-La si t'as pas l'son dans ta gov, reste en chien ! Sur le fond d'écran d'ta tas', ma gueule, il y a ma tof, reste en chien ! Quoi tu veux siffler ma teille ? T'assoir à ma table ? Reste en chien ! Sniffer ma No-No, t'es pas un mec de Trappes ? Reste en chien ! T'as poucave touts tes potes, tous tes reufs, la taule t'as marqué, reste en chien ! Tu veux que j'décroche, t'appelles toujours en masqué, reste en chien ! Tu as pas le palmarès de Samuel Eto'o, reste en chien ! Tu t'es fait griller comme Tunis et Aketo, reste en chien ! T'as voulu clasher, j'ai brisé ta carrière, reste en chienne ! Pas d'deLorean, pas d'retour en arrière, reste en chien ! T'as pas d'contrat d'embauche, tu veux d'faire la semi ? Reste en chien ! Et tu fais plus de bruit qu'un putain d'deux et demi, reste en chien ! T'as jamais cru en moi et maintenant tu m'suces, reste en chien ! Tu changes de potes, comme de phone, comme de puce, reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Banlieue to the La Fouine to the 7.8, c'est dangereux Trop d'bouffons dans l'industrie donc je n'me-me mélange pas Après minuit je baise ne m'appelle pas, ne me-me dérange pas Tu veux m'attraper dans tes chansons ? Bonhomme faut qu'on en parle Autour d'un 3.5.7 Magnum rempli de-de balles Reste en chien ! B2O je m'intitule, gangster est l'attitude Austère quand j'prends l'mic, ta pute a tous mes posters Auprès des jeunes j'ai de l'impact, j'te l'dis franchement Si tu passes à la barre, prononce pas mon blaze à ton jugement Bienvenue à Boulbi, on t'interpelle sur un coup d'fil Chez nous le profit n'a pas de profil J'te l'dis, j'ai vendu coke, shit... Pas b'soin d'lire entre les lignes Je ne, ne compare pas mes délits et Médellin Dans des gros bizs pour du gros biff', l'oseille n'est que d'passage J'en donne au prostituées, au salon d'massage J'arrête de fumer toutes les deux semaines Ouest Side Tu veux ma chaîne, ma liasse, ma chie-chienne, reste en chien Reste en chien ! J'voulais sortir en perm, le procureur m'a dit Reste en chien ! J'voulais gérer cette tass sans thunes et elle m'a dit Reste en chien ! J'voulais taffer sans diplôme et le gars m'a dit Reste en chien ! Reste en chien, reste en chien, reste en chien ! Tu voulais qu'on passe ton son chez Cut Killer ? Reste en chien ! Si t'es un keuf, un huissier, un inspecteur, reste en chien ! Tu veux monter sur scène mais tu mets pas l'feu ? Reste en chien ! En plus tu t'es fait r'caler chez Couvre-Feu, reste en chien ! T'entends pas où quoi ? Trop de flow, trop de tass', trop de keufs, toute la banlieue ouest au cul, reste en chien ! Tester mais no no non pas de ça chez nous, reste en chien ! Tu veux des gifles-gifles ? Man t'as pas d'équipe, reste en chien ! Tu veux serrer, t'sais pas parler, les meuf te tchippent, reste en chien ! T'es recherché, t'as fait des chroms, t'es dans la merde, reste en chien ! T'investis dans l'Sud avec des ki-kilos d'herbe, reste en chien ! Paris j'arrive, 78 voilà mon empire ! Reste en chien ! Tu veux tester man ? Une seule chose à dire Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Banlieue to the La Fouine to the 7.8, c'est dangereux Reste en chien ! Yeah Banlieue to the 9.2 to the 7.8, c'est dangereux Si, si Reste en chien sale chien Bi-Bi-Bi-Biatch !4</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes On fait la même musique, mais on n'a pas les mêmes prods On a la même vie, mais on n'a pas les mêmes modes On a les mêmes embrouilles, on a les mêmes armes On n'a pas les mêmes yeux, mais on verse tous les mêmes larmes Y'en a qui vivent dans la merde, y'en a qui vivent sur les Champs On n'a pas les mêmes directions, mais le même carburant On n'a pas l'même baveux, mais on a la même cellule On a la même promenade, mais pas le même pécule On a la même rage, man, on a la même cage Man, on a les mêmes contrôles judiciaires, mais pas l'même âge On n'a pas le même texte, même si on a le même stylo On n'a pas les mêmes flows, même si on a les mêmes micros On n'a pas les mêmes quartiers, mais on a les mêmes problèmes On a le même shit, les mêmes keufs, la même haine On marche tous dans la merde, avec ou sans les mêmes shoes du bâtiment F, cellule 212 You might also like Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes On a les mêmes cahiers, mais pas les mêmes diplômes On a les mêmes comptes en banque, mais pas les mêmes sommes On a les mêmes frigos, mais rarement les mêmes repas On a les mêmes voix, mais jamais les mêmes débats On a les mêmes caisses, on n'a pas les mêmes modèles Y'a ceux qui serrent des thons, y'a ceux qui serrent des top-modèles On a pas le même talent, mais on a les mêmes rêves Toujours les mêmes matraques qui se posent sur les mêmes lèvres On a les mêmes guns, man, on a les mêmes reums Quand les potos partent un peu trop tôt, on a le même seum On a le même love quand on croise les mêmes surs On a la même haine devant les inspecteurs Yeah, honneur au Sud, à l'Est, à l'Ouest, au Nord On est tous les mêmes, on est tous en or On marche tous dans la merde avec ou sans les mêmes shoes du bâtiment F, cellule 212 Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes J'irai au bout de mes rêves où le soleil se lève Tu peux lire sur mes lèvres j'n'ai besoin d'aucune aide Aucune pause, aucune trêve, bons ou mauvais élèves On est tous les mêmes J'irai au bout de mes rêves où le soleil se lève Tu peux lire sur mes lèvres j'n'ai besoin d'aucune aide Aucune pause, aucune trêve, bons ou mauvais élèves On est tous les mêmes J'irai au bout de mes rêves où le soleil se lève Tu peux lire sur mes lèvres j'n'ai besoin d'aucune aide Aucune pause, aucune trêve, bons ou mauvais élèves On est tous les mêmes J'irai au bout de mes rêves où le soleil se lève Tu peux lire sur mes lèvres j'n'ai besoin d'aucune aide Aucune pause, aucune trêve, bons ou mauvais élèves On est tous les mêmes5</t>
+          <t>Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes On fait la même musique, mais on n'a pas les mêmes prods On a la même vie, mais on n'a pas les mêmes modes On a les mêmes embrouilles, on a les mêmes armes On n'a pas les mêmes yeux, mais on verse tous les mêmes larmes Y'en a qui vivent dans la merde, y'en a qui vivent sur les Champs On n'a pas les mêmes directions, mais le même carburant On n'a pas l'même baveux, mais on a la même cellule On a la même promenade, mais pas le même pécule On a la même rage, man, on a la même cage Man, on a les mêmes contrôles judiciaires, mais pas l'même âge On n'a pas le même texte, même si on a le même stylo On n'a pas les mêmes flows, même si on a les mêmes micros On n'a pas les mêmes quartiers, mais on a les mêmes problèmes On a le même shit, les mêmes keufs, la même haine On marche tous dans la merde, avec ou sans les mêmes shoes du bâtiment F, cellule 212 Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes On a les mêmes cahiers, mais pas les mêmes diplômes On a les mêmes comptes en banque, mais pas les mêmes sommes On a les mêmes frigos, mais rarement les mêmes repas On a les mêmes voix, mais jamais les mêmes débats On a les mêmes caisses, on n'a pas les mêmes modèles Y'a ceux qui serrent des thons, y'a ceux qui serrent des top-modèles On a pas le même talent, mais on a les mêmes rêves Toujours les mêmes matraques qui se posent sur les mêmes lèvres On a les mêmes guns, man, on a les mêmes reums Quand les potos partent un peu trop tôt, on a le même seum On a le même love quand on croise les mêmes surs On a la même haine devant les inspecteurs Yeah, honneur au Sud, à l'Est, à l'Ouest, au Nord On est tous les mêmes, on est tous en or On marche tous dans la merde avec ou sans les mêmes shoes du bâtiment F, cellule 212 Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes Vrai qu'on a les mêmes 'blèmes Mais les mêmes sourires sur nos lèvres car on a les mêmes rêves Parce que nos vies sont les mêmes, mêmes, mêmes Parce que nos vies sont les mêmes, mêmes, mêmes J'irai au bout de mes rêves où le soleil se lève Tu peux lire sur mes lèvres j'n'ai besoin d'aucune aide Aucune pause, aucune trêve, bons ou mauvais élèves On est tous les mêmes J'irai au bout de mes rêves où le soleil se lève Tu peux lire sur mes lèvres j'n'ai besoin d'aucune aide Aucune pause, aucune trêve, bons ou mauvais élèves On est tous les mêmes J'irai au bout de mes rêves où le soleil se lève Tu peux lire sur mes lèvres j'n'ai besoin d'aucune aide Aucune pause, aucune trêve, bons ou mauvais élèves On est tous les mêmes J'irai au bout de mes rêves où le soleil se lève Tu peux lire sur mes lèvres j'n'ai besoin d'aucune aide Aucune pause, aucune trêve, bons ou mauvais élèves On est tous les mêmes5</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Je te dis Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Tout le monde fait Ohoh Ohoh Tout le monde fait Ohoh Ohoh Moi hamdoulah ça va, moi ha-moi hamdoulah ça va Les keufs frappent à la porte ? Papa, ton fiston n'est pas là Quand j'avais les pieds dans la merde et les keufs dans le rétro Les menottes serrées comme la ceinture quand je prenais le métro Les premières classes, j'en connaissais qu'la compil Bois d'Ar', Osny, Fleury, Nanterre, numéro un des ventes par cantine GSP on perd de l'héroïne dans les WC Quand j'rappais dans la cave avec Doc AHWC Le frigo vide, comme les seringues devant mon bloc De Trappes entraient dans l'rap comme la BAC sans faire toc-toc ! Toc-toc - Qui est là ? C'est ce fils de pute d'huissier Ne prends pas les toilettes, le sky me donne envie de pisser Même au mitard à seize piges, j'dis Hamdoulah ça va J'fais souvent le mal mais j'espère mourir en faisant la salat Le soir dans ma cave on coupait du shit en lamelles On envoyait des équipes quand t'envoyais des e-mails Yeah, je viens de loin, rien à foutre de ton Rap Game Sur l'autoroute du succès, le Diable roule en BM Yeah, quand ça va bien on ouvre des bouteilles de champagne Quand ça va mal, on ouvre des crânes avec des bouteilles de champagne Jamais lâché de larmes devant l'juge, même sans avocat À l'aise dans ma cellule comme un poisson rouge dans un bocal Pépère en Twingo, trop farhan en BMW J'ai connu des meufs vierges et des meufs RW J'ai mis des rottes-ca, nique sa mère Bugs Bunny J'suis sur le ter-ter, pépère, il m'faut une Kharba Bruni Pleure pas maman, ton fils est devenu un soldat Et malgré les coups durs de la vie, j'dis Hamdoulah ça va ! You might also like Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Je te dis Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Tout le monde fait Ohoh Ohoh Tout le monde fait Ohoh Ohoh Ouais gars, tout va pour le mieux tant qu'il me reste quelque chose à donner Quelques phases pour les refrés La rue, on la connaît J'ai grossi mon style, et mon flow je l'ai chromé Impossible de m'détrôner car je n'suis pas au sommet Yeah, on tient les rênes et plus question que l'on freine J'ai du lithium dans les veines et pas de la coke dans le zen J'mange des pierres pour que mon coeur s'endurcisse Refré la route est longue, et puis sont rares ceux qui réussissent À treize piges, j'volais des vingt pouces seul À dix-sept ans je m'arme et puis je braque des CL Le ness-bi c'est ma life alors nique sa mère le taf On construit pas sa retraite avec les aides de la CAF Tandis que j'me baignais dans la merde, rêvait d'tout pèt' dans mes garres-ba Maman a dit T'es sur la bonne voie, donc ne t'égares pas J'ai continué ma route, jusqu'à présent sans aucun doute Mon coeur est dans les airs, faut qu'j'y arrive coûte que coûte Malgré la haine, les peines, les douleurs que l'on sème Certaines couleurs déteignent quand l'argent ouais les mène La vie va vite, trop vite, et toi tu veux qu'je freine ? J'ai pas besoin d'être attaché pour sentir mes chaînes Les jaloux j'les laisse sur la bande d'arrêt d'urgence J'ai pas beaucoup d'essence, j'espère avoir beaucoup d'chance J'ai du poids sur les épaules et trop de gens comptent sur moi C'est la merde ici, à part ça Hamdoulah ça va ! Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Je te dis Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Tout le monde fait Ohoh Ohoh Tout le monde fait Ohoh Ohoh4</t>
+          <t>Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Je te dis Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Tout le monde fait Ohoh Ohoh Tout le monde fait Ohoh Ohoh Moi hamdoulah ça va, moi ha-moi hamdoulah ça va Les keufs frappent à la porte ? Papa, ton fiston n'est pas là Quand j'avais les pieds dans la merde et les keufs dans le rétro Les menottes serrées comme la ceinture quand je prenais le métro Les premières classes, j'en connaissais qu'la compil Bois d'Ar', Osny, Fleury, Nanterre, numéro un des ventes par cantine GSP on perd de l'héroïne dans les WC Quand j'rappais dans la cave avec Doc AHWC Le frigo vide, comme les seringues devant mon bloc De Trappes entraient dans l'rap comme la BAC sans faire toc-toc ! Toc-toc - Qui est là ? C'est ce fils de pute d'huissier Ne prends pas les toilettes, le sky me donne envie de pisser Même au mitard à seize piges, j'dis Hamdoulah ça va J'fais souvent le mal mais j'espère mourir en faisant la salat Le soir dans ma cave on coupait du shit en lamelles On envoyait des équipes quand t'envoyais des e-mails Yeah, je viens de loin, rien à foutre de ton Rap Game Sur l'autoroute du succès, le Diable roule en BM Yeah, quand ça va bien on ouvre des bouteilles de champagne Quand ça va mal, on ouvre des crânes avec des bouteilles de champagne Jamais lâché de larmes devant l'juge, même sans avocat À l'aise dans ma cellule comme un poisson rouge dans un bocal Pépère en Twingo, trop farhan en BMW J'ai connu des meufs vierges et des meufs RW J'ai mis des rottes-ca, nique sa mère Bugs Bunny J'suis sur le ter-ter, pépère, il m'faut une Kharba Bruni Pleure pas maman, ton fils est devenu un soldat Et malgré les coups durs de la vie, j'dis Hamdoulah ça va ! Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Je te dis Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Tout le monde fait Ohoh Ohoh Tout le monde fait Ohoh Ohoh Ouais gars, tout va pour le mieux tant qu'il me reste quelque chose à donner Quelques phases pour les refrés La rue, on la connaît J'ai grossi mon style, et mon flow je l'ai chromé Impossible de m'détrôner car je n'suis pas au sommet Yeah, on tient les rênes et plus question que l'on freine J'ai du lithium dans les veines et pas de la coke dans le zen J'mange des pierres pour que mon coeur s'endurcisse Refré la route est longue, et puis sont rares ceux qui réussissent À treize piges, j'volais des vingt pouces seul À dix-sept ans je m'arme et puis je braque des CL Le ness-bi c'est ma life alors nique sa mère le taf On construit pas sa retraite avec les aides de la CAF Tandis que j'me baignais dans la merde, rêvait d'tout pèt' dans mes garres-ba Maman a dit T'es sur la bonne voie, donc ne t'égares pas J'ai continué ma route, jusqu'à présent sans aucun doute Mon coeur est dans les airs, faut qu'j'y arrive coûte que coûte Malgré la haine, les peines, les douleurs que l'on sème Certaines couleurs déteignent quand l'argent ouais les mène La vie va vite, trop vite, et toi tu veux qu'je freine ? J'ai pas besoin d'être attaché pour sentir mes chaînes Les jaloux j'les laisse sur la bande d'arrêt d'urgence J'ai pas beaucoup d'essence, j'espère avoir beaucoup d'chance J'ai du poids sur les épaules et trop de gens comptent sur moi C'est la merde ici, à part ça Hamdoulah ça va ! Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Moi Hamdoulah ça va, moi Ha-Hamdoulah ça va Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Je te dis Hamdoulah ça va, ça va, yeah Hamdoulah ça va, oh Tout le monde fait Ohoh Ohoh Tout le monde fait Ohoh Ohoh4</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>J'peux pas faire la reusta, La Fouine vient du re-squa J'ai fait ma vie, j'ai fait mes choix, frimer ne m'intéresse pas Je passais devant Foot Locker avec des baskets trouées Le manque de fric me fait pas peur, moi je suis fils d'ouvrier Le portefeuille vide comme le frigo J'avais des amis toxicos qui pour une dose auraient troqué leur tricot Les tours telles des montagnes égarées dans les vallées Au fin fond des caves, telles des grottes, j'ai vu des filles avaler, OK Dans l'escalier un grand se shoote, sur le terrain une balle de foot Une pierre tombale sur laquelle un nouveau nom s'ajoute Et toute sa vie ma mère s'est cassée l'dos au square Elle lavait le linge de ses sept enfants toute seule dans la baignoire C'était pour les riches le micro-ondes, les machines à laver Tout le bien qu'elle a fait, sur ses mains toutes les traces qu'elle avait, OK Je viens de loin dis-moi qui peut m'stopper Le juge t'enverra au D1 même si tu dis s'il te plaît, OK Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? You might also like Mais qui peut m'juger ? Mais qui peut m'stopper ? Moi j'ai trop purgé des peine au QD on peut en discuter J'ai confondu la garde à vue et ma chambre Je suis sorti avec Madame Cinq, aujourd'hui je renais de mes cendres Yeah J'ai vu des dealers monter tellement haut, redescendre tellement bas Mon pote pleure car son père le bat Les maisons de disques prenaient mes skeuds pour des freesbies J'ai tellement démarché, tellement ness-busi, j'ai cherché l'inspi' Hé J'avance depuis mon premier Maxi En pleine crise de délinquance, j'avance quoi que les gens disent Je suis sorti avec la rue, amorti et vise la poitrine J'ai frappé droit au crime, mon entraîneur c'est Abdel K'rim Mais jamais se mettre à table et plaider non coupable J'ai rien vu rien entendu, je ne suis pas responsable Si je suis là c'est qu'y a la baraka Et que j'ai une carapace contre ton mauvais il, enfoiré de ta race ! Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? Encore un de ces petits rebeu, personne ne peut les stopper Personne à part le bon Dieu Dar al-Baïdaa Encore un de ces petits rebeu, personne ne peut les stopper Personne à part le bon Dieu Yeah Yeah Encore un de ces petits rebeu, personne ne peut les stopper Personne à part le bon Dieu La Fouine Encore un de ces petits rebeu Encore un de ces petits rebeu Encore un de ces petits rebeu Non je dois rien à personne, quand je donne ça vient du cur Personne était là quand maman pointait aux Restos du Cur Personne était là quand les huissiers défonçaient ma porte Quand les temps était durs et que la pauvreté portait main forte Personne était là, pétage de plomb tout seul à Osny Quand je suppliais un peu de tabac à ce putain de bâtard d'auxi Personne était là à part le bon Dieu et mes anges À part la famille, à part quelque amis qui savent que... Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ?1</t>
+          <t>J'peux pas faire la reusta, La Fouine vient du re-squa J'ai fait ma vie, j'ai fait mes choix, frimer ne m'intéresse pas Je passais devant Foot Locker avec des baskets trouées Le manque de fric me fait pas peur, moi je suis fils d'ouvrier Le portefeuille vide comme le frigo J'avais des amis toxicos qui pour une dose auraient troqué leur tricot Les tours telles des montagnes égarées dans les vallées Au fin fond des caves, telles des grottes, j'ai vu des filles avaler, OK Dans l'escalier un grand se shoote, sur le terrain une balle de foot Une pierre tombale sur laquelle un nouveau nom s'ajoute Et toute sa vie ma mère s'est cassée l'dos au square Elle lavait le linge de ses sept enfants toute seule dans la baignoire C'était pour les riches le micro-ondes, les machines à laver Tout le bien qu'elle a fait, sur ses mains toutes les traces qu'elle avait, OK Je viens de loin dis-moi qui peut m'stopper Le juge t'enverra au D1 même si tu dis s'il te plaît, OK Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? Mais qui peut m'juger ? Mais qui peut m'stopper ? Moi j'ai trop purgé des peine au QD on peut en discuter J'ai confondu la garde à vue et ma chambre Je suis sorti avec Madame Cinq, aujourd'hui je renais de mes cendres Yeah J'ai vu des dealers monter tellement haut, redescendre tellement bas Mon pote pleure car son père le bat Les maisons de disques prenaient mes skeuds pour des freesbies J'ai tellement démarché, tellement ness-busi, j'ai cherché l'inspi' Hé J'avance depuis mon premier Maxi En pleine crise de délinquance, j'avance quoi que les gens disent Je suis sorti avec la rue, amorti et vise la poitrine J'ai frappé droit au crime, mon entraîneur c'est Abdel K'rim Mais jamais se mettre à table et plaider non coupable J'ai rien vu rien entendu, je ne suis pas responsable Si je suis là c'est qu'y a la baraka Et que j'ai une carapace contre ton mauvais il, enfoiré de ta race ! Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? Encore un de ces petits rebeu, personne ne peut les stopper Personne à part le bon Dieu Dar al-Baïdaa Encore un de ces petits rebeu, personne ne peut les stopper Personne à part le bon Dieu Yeah Yeah Encore un de ces petits rebeu, personne ne peut les stopper Personne à part le bon Dieu La Fouine Encore un de ces petits rebeu Encore un de ces petits rebeu Encore un de ces petits rebeu Non je dois rien à personne, quand je donne ça vient du cur Personne était là quand maman pointait aux Restos du Cur Personne était là quand les huissiers défonçaient ma porte Quand les temps était durs et que la pauvreté portait main forte Personne était là, pétage de plomb tout seul à Osny Quand je suppliais un peu de tabac à ce putain de bâtard d'auxi Personne était là à part le bon Dieu et mes anges À part la famille, à part quelque amis qui savent que... Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ? Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Renier, mon identité, j'peux pas essayer Mais qui peut m'stopper ?1</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J'ai commencé en bas comme un uppercut Silence dans la salle, mes brolics discutent J'suis en boîte avec dix putes, j'te laisse les disputes Sur l'Coran, on f'ra taire tous ces fils de putes J'suis vulgaire et le quartier kiffe Fouiny Négro t'es formaté, t'as l'flow d'un Happy Meal Dans la tess', ta soeur a tourné comme un vinyle Poucave, on t'a grillé comme un fe-keu en civil J'changeais d'cellule quand ta daronne changeait tes couches Tu r'pousses ton album FausseCouche Internet, radio, télé, mec j'suis tout-par Ta mère traîne avec nous Cougar Merde, j'ai plus d'place sur mon passeport J'ai plus d'place sur les murs pour tous mes disques d'or Casablanca, Dar al-Baïdaa, j'suis venu péter l'score Et quand j'sors, pas d'escorte Rajoute des zéros comme sur mes bulletins Crois pas qu'j'che-mar sur du sang, c'est mes Louboutin Mc, paix à ton âme, comme Audigier J'ai des liasses de billets lourdes et l'sommeil léger Que ces batards de haineux aillent s'faire enculer J'suis bon en maths, mais j'ai pas l'temps d'les calculer Fouiny Babe, 78, représente 6 heures du mat', boum boum, descente You might also like Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Her ass so big, stacks so big Clip so big, crib so big I said her ass so big, stacks so big Clip so big, crib so big That whip on drive, my hat on lean You trip I fall, get the fuck off me I'm with that bitch you ate, do that shit you watch Counting ten mil straight, this a big face watch I got ten chains on, ten thou hoodie Bitch black Travon, from the South Bronx bully Drop coupe is on white, grand cru is on ice Fuck you I'm alright, paid dues my whole life Drop came with a pilot, big face up Look like Stalley, I'm good every block Drop came with a pilot, big face up Look like Stalley, I'm good every block Montana! Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Nouveau Classe S, j'ai besoin d'un chauffeur Ma pute est kainry, j'ai besoin d'un traducteur J'suis dans l'secteur, pas besoin d'suceurs J'arrive en CBR, mon frère bsahtek le booster Si j'devais baiser toutes tes fans, j's'rai encore puceau J'ai perdu mon portable, mais j'ai toujours mon réseau Drapeau rouge vert, Morocco Gang Casablanca, ma fierté frère, anti-baltringue Viens pas tester la BS négro fout l'camp Tu f'ras pas long feu comme un mineur au Vatican J'suis mon propre patron, j'ai mon propre label En ligne avec la Sacem, le banquier en double appel Dans Capitale Du Crime, j'ai pas été assez clair Donc vaniquertagrandmere.fr J'peux casser ton contrat avec c'que j'ai sur l'poignet Les jaloux j'les vois plus GilbertMontagné Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts3</t>
+          <t>J'ai commencé en bas comme un uppercut Silence dans la salle, mes brolics discutent J'suis en boîte avec dix putes, j'te laisse les disputes Sur l'Coran, on f'ra taire tous ces fils de putes J'suis vulgaire et le quartier kiffe Fouiny Négro t'es formaté, t'as l'flow d'un Happy Meal Dans la tess', ta soeur a tourné comme un vinyle Poucave, on t'a grillé comme un fe-keu en civil J'changeais d'cellule quand ta daronne changeait tes couches Tu r'pousses ton album FausseCouche Internet, radio, télé, mec j'suis tout-par Ta mère traîne avec nous Cougar Merde, j'ai plus d'place sur mon passeport J'ai plus d'place sur les murs pour tous mes disques d'or Casablanca, Dar al-Baïdaa, j'suis venu péter l'score Et quand j'sors, pas d'escorte Rajoute des zéros comme sur mes bulletins Crois pas qu'j'che-mar sur du sang, c'est mes Louboutin Mc, paix à ton âme, comme Audigier J'ai des liasses de billets lourdes et l'sommeil léger Que ces batards de haineux aillent s'faire enculer J'suis bon en maths, mais j'ai pas l'temps d'les calculer Fouiny Babe, 78, représente 6 heures du mat', boum boum, descente Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Her ass so big, stacks so big Clip so big, crib so big I said her ass so big, stacks so big Clip so big, crib so big That whip on drive, my hat on lean You trip I fall, get the fuck off me I'm with that bitch you ate, do that shit you watch Counting ten mil straight, this a big face watch I got ten chains on, ten thou hoodie Bitch black Travon, from the South Bronx bully Drop coupe is on white, grand cru is on ice Fuck you I'm alright, paid dues my whole life Drop came with a pilot, big face up Look like Stalley, I'm good every block Drop came with a pilot, big face up Look like Stalley, I'm good every block Montana! Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Nouveau Classe S, j'ai besoin d'un chauffeur Ma pute est kainry, j'ai besoin d'un traducteur J'suis dans l'secteur, pas besoin d'suceurs J'arrive en CBR, mon frère bsahtek le booster Si j'devais baiser toutes tes fans, j's'rai encore puceau J'ai perdu mon portable, mais j'ai toujours mon réseau Drapeau rouge vert, Morocco Gang Casablanca, ma fierté frère, anti-baltringue Viens pas tester la BS négro fout l'camp Tu f'ras pas long feu comme un mineur au Vatican J'suis mon propre patron, j'ai mon propre label En ligne avec la Sacem, le banquier en double appel Dans Capitale Du Crime, j'ai pas été assez clair Donc vaniquertagrandmere.fr J'peux casser ton contrat avec c'que j'ai sur l'poignet Les jaloux j'les vois plus GilbertMontagné Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts Ray Charles, Ray Charles Ray Charles, Ray Charles Les jaloux j'les vois pas, appelle moi Ray Charles J'ai besoin d'un avocat, j'ai violé les charts3</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe À l'époque, à l'époque, on s'contentait d'rien On marchait les baskets trouées, et j'm'en suis jamais plaint À l'époque, à l'époque, on s'contentait d'rien On roulait dans des épaves, on n'mettait jamais l'plein À l'époque, à l'époque, personne croyait en moi On s'vannait dans le train, ça je sais Ça je sais D, and D, and P, mon Babe... Nahaa ! FouinyBabe Ça je sais Yeah, quand tu vois toutes les portes se fermer, ne restent plus qu'les yeux pour pleurer Pour voir la chance s'en mêler, croyez-moi, j'ai tout essayé J'ai dû purger mes peines, souvent la daronne a d'la peine Certains s'ouvrent les veines, un jour, mon frère, j'ai pris les rênes J'ai tout essayé D, and D, and P, mon Babe... Nahaa ! FouinyBabe J'ai tout essayé D, and D, and P, mon Babe... Nahaa ! FouinyBabe J'ai tout essayé Souvent le crime t'éduque quand la misère t'élève J'm'endors défoncé, j'trébuche dans mes rêves Frère je viens de loin et ça les vrais le savent J'ai vendu la C, je sais couper la sav' J'les laisse ouvrir leur gueule, mais je sais Ouais en vrai je sais, la prison pour moi n'a plus aucun secret Ouais je sais, on est partis de rien, rappe avec tes bracelets Ouais je sais, on aurait pu s'en lasser, on aurait pu tout essayer Et pour le faire ensemble, on aurait pu tout essayer C'est fou c'qu'on se ressemble, on aurait pu tout essayer D, and D, and P, mon Babe... Nahaa ! FouinyBabe Yeah, à l'époque, à l'époque, on s'contentait d'peu Famille nombreuse et bruyante, sonnait comme des coups d'feu À l'époque, à l'époque, on s'contentait d'peu Le chauffe-eau cassé, pour ça qu'on jouait avec le feu À l'époque, à l'époque, ils nous couraient après Et pour nous faire tomber, ça je sais ils ont tout essayé Nahaa ! Ils ont tout essayé Yeah, souvent j'me sens pousser des ailes, rien à perdre Maman est au Ciel Quand j'vois ces fusils braqués sur moi, chaque index me rapproche d'elle Bâtiment F ou bâtiment D, j'ai laissé ma vie en chantier Ces haineux pour me faire couler auront vraiment tout essayé Tout essayé Ils auront vraiment tout essayé Ils auront vraiment tout essayé Ils ont tout essayé, leggo' J'ai vraiment tout essayé, et j'ai pris des gifles Laisse-moi écrire des lignes pendant qu'd'autres les sniffent Pour maquiller mon succès, je marche seul dans la nuit Les secondes sont des graines, j'attends qu'le temps porte ses fruits Frérot je viens de loin, et ça je sais Oais au fond, je sais, mère isolée, allocations coupées Je viens d'en bas, ouvrez-la, j'vous en veux pas, on se sait Drôle de Parcours, et pour sortir de là, mon frère j'ai vraiment tout essayé J'aurai vraiment tout essayé J'aurai vraiment tout essayé J'aurai, j'aurai, j'aurai tout essayé You might also like D, and D, and P, mon Babe... Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe</t>
+          <t>Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe À l'époque, à l'époque, on s'contentait d'rien On marchait les baskets trouées, et j'm'en suis jamais plaint À l'époque, à l'époque, on s'contentait d'rien On roulait dans des épaves, on n'mettait jamais l'plein À l'époque, à l'époque, personne croyait en moi On s'vannait dans le train, ça je sais Ça je sais D, and D, and P, mon Babe... Nahaa ! FouinyBabe Ça je sais Yeah, quand tu vois toutes les portes se fermer, ne restent plus qu'les yeux pour pleurer Pour voir la chance s'en mêler, croyez-moi, j'ai tout essayé J'ai dû purger mes peines, souvent la daronne a d'la peine Certains s'ouvrent les veines, un jour, mon frère, j'ai pris les rênes J'ai tout essayé D, and D, and P, mon Babe... Nahaa ! FouinyBabe J'ai tout essayé D, and D, and P, mon Babe... Nahaa ! FouinyBabe J'ai tout essayé Souvent le crime t'éduque quand la misère t'élève J'm'endors défoncé, j'trébuche dans mes rêves Frère je viens de loin et ça les vrais le savent J'ai vendu la C, je sais couper la sav' J'les laisse ouvrir leur gueule, mais je sais Ouais en vrai je sais, la prison pour moi n'a plus aucun secret Ouais je sais, on est partis de rien, rappe avec tes bracelets Ouais je sais, on aurait pu s'en lasser, on aurait pu tout essayer Et pour le faire ensemble, on aurait pu tout essayer C'est fou c'qu'on se ressemble, on aurait pu tout essayer D, and D, and P, mon Babe... Nahaa ! FouinyBabe Yeah, à l'époque, à l'époque, on s'contentait d'peu Famille nombreuse et bruyante, sonnait comme des coups d'feu À l'époque, à l'époque, on s'contentait d'peu Le chauffe-eau cassé, pour ça qu'on jouait avec le feu À l'époque, à l'époque, ils nous couraient après Et pour nous faire tomber, ça je sais ils ont tout essayé Nahaa ! Ils ont tout essayé Yeah, souvent j'me sens pousser des ailes, rien à perdre Maman est au Ciel Quand j'vois ces fusils braqués sur moi, chaque index me rapproche d'elle Bâtiment F ou bâtiment D, j'ai laissé ma vie en chantier Ces haineux pour me faire couler auront vraiment tout essayé Tout essayé Ils auront vraiment tout essayé Ils auront vraiment tout essayé Ils ont tout essayé, leggo' J'ai vraiment tout essayé, et j'ai pris des gifles Laisse-moi écrire des lignes pendant qu'd'autres les sniffent Pour maquiller mon succès, je marche seul dans la nuit Les secondes sont des graines, j'attends qu'le temps porte ses fruits Frérot je viens de loin, et ça je sais Oais au fond, je sais, mère isolée, allocations coupées Je viens d'en bas, ouvrez-la, j'vous en veux pas, on se sait Drôle de Parcours, et pour sortir de là, mon frère j'ai vraiment tout essayé J'aurai vraiment tout essayé J'aurai vraiment tout essayé J'aurai, j'aurai, j'aurai tout essayé D, and D, and P, mon Babe... Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe D, and D, and P, mon Babe... Nahaa ! FouinyBabe</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>J'suis souvent en 4x4 normal que j'te mate de haut J'suis venu violer l'rap NafissatouDiallo Ouais à 16 heures j'te paye un grec, à 20 heures j'te r'paye un grec 22 heures encore un grec, mais cette nuit tu payes ta schneck On pourra danser toute la nuit pose la 'teille et les glacons Mon swagg a dit oui et ton swagg a dit non Ouais vas-y DJ monte le son, laisse les rageux où ils sont Ainsi font font font rebeu on t'la met dans l'fion Demande à Mister You, j'suis l'meilleur beatmaker Mec si tu veux un hit, donne moi une demi heure Ainsi soit il, Ice Moon sur mon froc T'es même pas mort dans l'film, t'es mort dans l'making-off J'écarte le string, jusqu'à même le sol Mais si tu peux pas suivre, I've got the pissy flow J'déborde d'inspi faut pas qu'j'traine avec ton bord Les bouteilles sont vides mais on va faire un effort Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Original hey ! Original hey ! Original hey ! Le swagg est original Original hey ! Original hey ! Original, Banlieue West Side Original You might also like Ici c'est Double N rageux je sais que t'as la haine Ramène ta meuf à une soirée elle fini avec la BS Swagg Swagg dans l'équipe, tiens tiens prends mon slip Pas d'temps pour les halal dédicace à mon gars Medine Nhar Sheitan Click le nom de ma clique Tu veux passer dans mes clips ? Fais un voeu bitch ou pécho Fouiny Baby Alors souvent j'pars en freestyle mais jamais devant les fe-keu On est pas des rappeurs français mais j'crois bien qu'on rappe mieux qu'eux Original comme les Stan Smith, qui prépare le clip Glenn Smith ? Que des chiennes posées dans mon lit et toute mon équipe est au VIP On veut pas de ta vie pourrie le vendredi Fouiny Story Pas d'TF1 et Castaldi chez nous on fuck Secret Story Le S pour les intimes, je gère que des Kardashian Kim Ma belle écarte les cuisses que j'te fasse un car jacking Rebeu traine pas dans les studios j'passe mon temps à m'accoupler Ils veulent tous me signer pourtant c'est que mon premier couplet Hey Fouiny Babe le son est lourd t'as raison j'crois qu'on va l'clippé Pas besoin d'faire d'casting j'envoie juste un message groupé BS on fait mouiller les tass c'est pour ca qu'on a du flow Je gère que des juments rebeu demande à mon jumeau Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Original hey ! Original hey ! Original hey ! Le swagg est original Original hey ! Original hey ! Original, Banlieue West Side Original On rentre claquettes plaquette tu t'fais recaler, j'ai plus d'une balle dans mon barillet Billets violets dans mon cartoné, j'suis dopé ton flow est accidenté Slow Down Moi j'lèche des feuilles, toi tu lèches des Trey Tu n'as aucun swagg, alors tu veux qu'j't'en paye J'suis dans le 9-2 en bas de la tour avec les khos et le pilon Mon couplet est court, mais mon swagg en dit long Ouais rageux on retourne les bords, toi tu retournes ta veste Tu craches sur tes frères, moi j'crache sur des fesses Ils veulent rapper, ils veulent rapper moi c'est même pas mon métier Bientôt j'finis mon couplet, ils reposent déjà en paix Ils croyaient rapper ils s'sont trompés moi c'est même pas mon métier Moi, j'ai fini mon couplet maintenant j'peux aller mixer Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Original hey ! Original hey ! Original hey ! Le swagg est original Original hey ! Original hey ! Original, Banlieue West Side Original Sois plus qu'original Welcome to Banlieue Sale Grossiste j'fais pas d'détails poto j'ai le swagg étal Banlieue Sale millionaire ton swagg à découvert Pas d'quoi t'payer un verre pendant qu'j'fais l'tour d'la terre J'aimerais te dire je t'aime mais plutôt donne ton BBM Viens avec une go à l'hotel que j'fasse une passe à mon gars Glenn Les rebeus changent d'attitude, les meufs kiffent comme d'habitude Elles veulent toutes visiter le stud', c'est mieux que des descentes de stup' Ils ont le seum, on est plus dans la dem' Mes Audemars Hublot sont dans les poignets de nos reums On fait poser les ingés, les mc's sont en danger Depuis qu'on est dans l'game les dates de sortie ont changés Pourtant on est pas rappeur, juste venus faire peur Un délire entre pote qu'est venu mettre leurs fausses montres à l'heure Oui on a de l'audace on est l'équipe la plus classe Si tu veux une passe je t'en prie demande à Bass Nouveau dougie français, on fait des tubes sans forcer Après ce titre les pseudo rappeurs seront embarrassés Tu nous veut en feat paye, en boite bouteilles Pose-la au carré VIP que j'm'enjaille avec mes kheys Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Original hey ! Original hey ! Original hey ! Le swagg est original Original hey ! Original hey ! Original, Banlieue West Side Original Rap Genius on contrôle le swagg est original ! Rejoins-nous !</t>
+          <t>J'suis souvent en 4x4 normal que j'te mate de haut J'suis venu violer l'rap NafissatouDiallo Ouais à 16 heures j'te paye un grec, à 20 heures j'te r'paye un grec 22 heures encore un grec, mais cette nuit tu payes ta schneck On pourra danser toute la nuit pose la 'teille et les glacons Mon swagg a dit oui et ton swagg a dit non Ouais vas-y DJ monte le son, laisse les rageux où ils sont Ainsi font font font rebeu on t'la met dans l'fion Demande à Mister You, j'suis l'meilleur beatmaker Mec si tu veux un hit, donne moi une demi heure Ainsi soit il, Ice Moon sur mon froc T'es même pas mort dans l'film, t'es mort dans l'making-off J'écarte le string, jusqu'à même le sol Mais si tu peux pas suivre, I've got the pissy flow J'déborde d'inspi faut pas qu'j'traine avec ton bord Les bouteilles sont vides mais on va faire un effort Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Original hey ! Original hey ! Original hey ! Le swagg est original Original hey ! Original hey ! Original, Banlieue West Side Original Ici c'est Double N rageux je sais que t'as la haine Ramène ta meuf à une soirée elle fini avec la BS Swagg Swagg dans l'équipe, tiens tiens prends mon slip Pas d'temps pour les halal dédicace à mon gars Medine Nhar Sheitan Click le nom de ma clique Tu veux passer dans mes clips ? Fais un voeu bitch ou pécho Fouiny Baby Alors souvent j'pars en freestyle mais jamais devant les fe-keu On est pas des rappeurs français mais j'crois bien qu'on rappe mieux qu'eux Original comme les Stan Smith, qui prépare le clip Glenn Smith ? Que des chiennes posées dans mon lit et toute mon équipe est au VIP On veut pas de ta vie pourrie le vendredi Fouiny Story Pas d'TF1 et Castaldi chez nous on fuck Secret Story Le S pour les intimes, je gère que des Kardashian Kim Ma belle écarte les cuisses que j'te fasse un car jacking Rebeu traine pas dans les studios j'passe mon temps à m'accoupler Ils veulent tous me signer pourtant c'est que mon premier couplet Hey Fouiny Babe le son est lourd t'as raison j'crois qu'on va l'clippé Pas besoin d'faire d'casting j'envoie juste un message groupé BS on fait mouiller les tass c'est pour ca qu'on a du flow Je gère que des juments rebeu demande à mon jumeau Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Original hey ! Original hey ! Original hey ! Le swagg est original Original hey ! Original hey ! Original, Banlieue West Side Original On rentre claquettes plaquette tu t'fais recaler, j'ai plus d'une balle dans mon barillet Billets violets dans mon cartoné, j'suis dopé ton flow est accidenté Slow Down Moi j'lèche des feuilles, toi tu lèches des Trey Tu n'as aucun swagg, alors tu veux qu'j't'en paye J'suis dans le 9-2 en bas de la tour avec les khos et le pilon Mon couplet est court, mais mon swagg en dit long Ouais rageux on retourne les bords, toi tu retournes ta veste Tu craches sur tes frères, moi j'crache sur des fesses Ils veulent rapper, ils veulent rapper moi c'est même pas mon métier Bientôt j'finis mon couplet, ils reposent déjà en paix Ils croyaient rapper ils s'sont trompés moi c'est même pas mon métier Moi, j'ai fini mon couplet maintenant j'peux aller mixer Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Original hey ! Original hey ! Original hey ! Le swagg est original Original hey ! Original hey ! Original, Banlieue West Side Original Sois plus qu'original Welcome to Banlieue Sale Grossiste j'fais pas d'détails poto j'ai le swagg étal Banlieue Sale millionaire ton swagg à découvert Pas d'quoi t'payer un verre pendant qu'j'fais l'tour d'la terre J'aimerais te dire je t'aime mais plutôt donne ton BBM Viens avec une go à l'hotel que j'fasse une passe à mon gars Glenn Les rebeus changent d'attitude, les meufs kiffent comme d'habitude Elles veulent toutes visiter le stud', c'est mieux que des descentes de stup' Ils ont le seum, on est plus dans la dem' Mes Audemars Hublot sont dans les poignets de nos reums On fait poser les ingés, les mc's sont en danger Depuis qu'on est dans l'game les dates de sortie ont changés Pourtant on est pas rappeur, juste venus faire peur Un délire entre pote qu'est venu mettre leurs fausses montres à l'heure Oui on a de l'audace on est l'équipe la plus classe Si tu veux une passe je t'en prie demande à Bass Nouveau dougie français, on fait des tubes sans forcer Après ce titre les pseudo rappeurs seront embarrassés Tu nous veut en feat paye, en boite bouteilles Pose-la au carré VIP que j'm'enjaille avec mes kheys Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Banlieue Sale affiche complet toutes les salles On est parti de rien on contrôle le swagg est original Original hey ! Original hey ! Original hey ! Le swagg est original Original hey ! Original hey ! Original, Banlieue West Side Original Rap Genius on contrôle le swagg est original ! Rejoins-nous !</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Et si je passe ma vie à parler du temps d'avant Quelques prières en l'air, la chance tourne avec le vent Maman me disait Fils tu comprendras avec le temps La vie est pleine dembûches, je l'apprends à mes dépends Inch'Allah tout ira mieux, et j'espère Inch'Allah tout ira mieux, on verra Inch'Allah tout ira mieux, ouais j'espère Inch'Allah tout ira mieux, on verra Mesdames et messieurs aussi loin que j'me rappelle Petit teigneux en classe je manquais déjà à l'appel Le soir à la maison les punitions sont sévères J'mangeais des gros coups, j'étais pas privé de dessert Les profs appellent en vain, le téléphone est coupé Les grands frères font des O.D., la blanche est mal coupée J'passe mon enfance au quartier avec des gars plus âgés J'dors dehors et j'fugue GhettoNaufragé Engrainé par les potes un jour une taffe j'ai tirée Une deuxième, une troisième, avant de passer au paquet En même pas quelques semaines ma chambre est pleine de mégots Et comme si ça ne suffisait pas bah je suis passé au bédo Je viens juste d'avoir 16 ans et j'tombe pour vol avec arme Bagarres en promenade, au mitard j'ai perdu mon âme Maman versait des larmes quand les keufs m'ont cueilli T'inquiètes les gars du Neuf-Cinq m'ont bien accueilli You might also like Et si je passe ma vie à parler du temps d'avant Quelques prières en l'air, la chance tourne avec le vent Maman me disait Fils tu comprendras avec le temps La vie est pleine dembûches, je l'apprends à mes dépends Inch'Allah tout ira mieux, et j'espère Inch'Allah tout ira mieux, on verra Inch'Allah tout ira mieux, ouais j'espère Inch'Allah tout ira mieux, on verra Aucun courrier dans cette cellule, sans télé, seul à Osny Dire que 10 ans plus tard ils diront tous qu'ils ont aidé Fouiny Bref, contrôle judiciaire, libre en conditionnel J'ai perdu mon temps, mon innocence, j'ai perdu le sommeil Audience, les juges décident de mettre Fouiny au foyer Moi j'ai un père et j'ai une mère, j'ai rien à foutre au foyer Fugue, RER et puis j'débarque au re-squa La vie reprend son cours et maman pleurt toujours ses fins de mois Entre temps égaré, mes parents sont séparés J'fais des crédits chez l'épicier, maman esquive les huissiers Le frigo est toujours vide, faut trouver des solutions À peine sorti, j'retombe pour séquestration Avocat à 2 francs, met la faute sur mes parents Problème de discipline, maison d'arrêt des Yvelines J'fais des pages, j'fais du rap et j'pense à Fatima Et dire que c'est dans ce trou à rat que j'ai appris la Fatiha Amine, le temps c'est de l'argent moi j'ai ni l'un ni l'autre Toujours les mêmes qui s'en sortent, toujours les mêmes qui se vautrent J'passe mon temps devant la télé, bédave, rouler des cônes J'ai pas connu la Rolls-Royce mais le parloir fantôme Après quelques temps à tourner frère je suis enfin libérable J'arrive chez moi, pas le temps de souffler que j'ai déjà pété un câble Avis d'expulsion sur ma porte, la daronne inconsolable Les grands frères trouvent des solutions, moi j'cherche un biz' rentable On m'avance un kilo, puis un deuxième kilo J'coupe mes plaquettes dans la cave, j'ai des rêves de ssiste-gro Les clients, les plaquettes, l'argent ça va ça vient J'dépanne maman pour le loyer, elle n'me demande pas d'où ça vient Et si je passe ma vie à parler du temps d'avant Quelques prières en l'air, la chance tourne avec le vent Maman me disait Fils tu comprendras avec le temps La vie est pleine dembûches, je l'apprends à mes dépends Inch'Allah tout ira mieux, et j'espère Inch'Allah tout ira mieux, on verra Inch'Allah tout ira mieux, ouais j'espère Inch'Allah tout ira mieux, on verra Écran plasma, Playstation 3 Si tout va bien le mois prochain on sort le M3 Enfin la vie nous sourit, j'ai mis des sous de côté Nique sa mère les contes de fées on veut rouler en Féfé Mais les plus belles histoires ont une fin Ce matin à la gare de Trappes, les gyrophares, les menottes et les chiens 72 heures de garde à v' wAllah c'est la hass Mais devant les keufs j'ai un point commun avec M.A.S On était 16 interpellés enfin 17 je crois Mais seulement deux incarcérés va savoir pourquoi Bande organisée, trafic de stupéfiants La juge la rue les procureurs m'ont tous rendu méfiant Et dans cette chienne de vie, fréro j'me suis fais tout seul A la recherche du bonheur, nique sa mère Google Maintenant tu sais d'où je viens, tu sais c'que j'ai enduré Ici pour un billet violet les toxicos te tueraient Les p'tits m'aiment bien, ils connaissent ma haine envers les procureurs J'rappe avec un couteau dans le torse, normal que je sois ton coup de coeur Et si je passe ma vie à parler du temps d'avant Quelques prières en l'air, la chance tourne avec le vent Maman me disait Fils tu comprendras avec le temps La vie est pleine dembûches, je l'apprends à mes dépends Inch'Allah tout ira mieux, et j'espère Inch'Allah tout ira mieux, on verra Inch'Allah tout ira mieux, ouais j'espère Inch'Allah tout ira mieux, on verra1</t>
+          <t>Et si je passe ma vie à parler du temps d'avant Quelques prières en l'air, la chance tourne avec le vent Maman me disait Fils tu comprendras avec le temps La vie est pleine dembûches, je l'apprends à mes dépends Inch'Allah tout ira mieux, et j'espère Inch'Allah tout ira mieux, on verra Inch'Allah tout ira mieux, ouais j'espère Inch'Allah tout ira mieux, on verra Mesdames et messieurs aussi loin que j'me rappelle Petit teigneux en classe je manquais déjà à l'appel Le soir à la maison les punitions sont sévères J'mangeais des gros coups, j'étais pas privé de dessert Les profs appellent en vain, le téléphone est coupé Les grands frères font des O.D., la blanche est mal coupée J'passe mon enfance au quartier avec des gars plus âgés J'dors dehors et j'fugue GhettoNaufragé Engrainé par les potes un jour une taffe j'ai tirée Une deuxième, une troisième, avant de passer au paquet En même pas quelques semaines ma chambre est pleine de mégots Et comme si ça ne suffisait pas bah je suis passé au bédo Je viens juste d'avoir 16 ans et j'tombe pour vol avec arme Bagarres en promenade, au mitard j'ai perdu mon âme Maman versait des larmes quand les keufs m'ont cueilli T'inquiètes les gars du Neuf-Cinq m'ont bien accueilli Et si je passe ma vie à parler du temps d'avant Quelques prières en l'air, la chance tourne avec le vent Maman me disait Fils tu comprendras avec le temps La vie est pleine dembûches, je l'apprends à mes dépends Inch'Allah tout ira mieux, et j'espère Inch'Allah tout ira mieux, on verra Inch'Allah tout ira mieux, ouais j'espère Inch'Allah tout ira mieux, on verra Aucun courrier dans cette cellule, sans télé, seul à Osny Dire que 10 ans plus tard ils diront tous qu'ils ont aidé Fouiny Bref, contrôle judiciaire, libre en conditionnel J'ai perdu mon temps, mon innocence, j'ai perdu le sommeil Audience, les juges décident de mettre Fouiny au foyer Moi j'ai un père et j'ai une mère, j'ai rien à foutre au foyer Fugue, RER et puis j'débarque au re-squa La vie reprend son cours et maman pleurt toujours ses fins de mois Entre temps égaré, mes parents sont séparés J'fais des crédits chez l'épicier, maman esquive les huissiers Le frigo est toujours vide, faut trouver des solutions À peine sorti, j'retombe pour séquestration Avocat à 2 francs, met la faute sur mes parents Problème de discipline, maison d'arrêt des Yvelines J'fais des pages, j'fais du rap et j'pense à Fatima Et dire que c'est dans ce trou à rat que j'ai appris la Fatiha Amine, le temps c'est de l'argent moi j'ai ni l'un ni l'autre Toujours les mêmes qui s'en sortent, toujours les mêmes qui se vautrent J'passe mon temps devant la télé, bédave, rouler des cônes J'ai pas connu la Rolls-Royce mais le parloir fantôme Après quelques temps à tourner frère je suis enfin libérable J'arrive chez moi, pas le temps de souffler que j'ai déjà pété un câble Avis d'expulsion sur ma porte, la daronne inconsolable Les grands frères trouvent des solutions, moi j'cherche un biz' rentable On m'avance un kilo, puis un deuxième kilo J'coupe mes plaquettes dans la cave, j'ai des rêves de ssiste-gro Les clients, les plaquettes, l'argent ça va ça vient J'dépanne maman pour le loyer, elle n'me demande pas d'où ça vient Et si je passe ma vie à parler du temps d'avant Quelques prières en l'air, la chance tourne avec le vent Maman me disait Fils tu comprendras avec le temps La vie est pleine dembûches, je l'apprends à mes dépends Inch'Allah tout ira mieux, et j'espère Inch'Allah tout ira mieux, on verra Inch'Allah tout ira mieux, ouais j'espère Inch'Allah tout ira mieux, on verra Écran plasma, Playstation 3 Si tout va bien le mois prochain on sort le M3 Enfin la vie nous sourit, j'ai mis des sous de côté Nique sa mère les contes de fées on veut rouler en Féfé Mais les plus belles histoires ont une fin Ce matin à la gare de Trappes, les gyrophares, les menottes et les chiens 72 heures de garde à v' wAllah c'est la hass Mais devant les keufs j'ai un point commun avec M.A.S On était 16 interpellés enfin 17 je crois Mais seulement deux incarcérés va savoir pourquoi Bande organisée, trafic de stupéfiants La juge la rue les procureurs m'ont tous rendu méfiant Et dans cette chienne de vie, fréro j'me suis fais tout seul A la recherche du bonheur, nique sa mère Google Maintenant tu sais d'où je viens, tu sais c'que j'ai enduré Ici pour un billet violet les toxicos te tueraient Les p'tits m'aiment bien, ils connaissent ma haine envers les procureurs J'rappe avec un couteau dans le torse, normal que je sois ton coup de coeur Et si je passe ma vie à parler du temps d'avant Quelques prières en l'air, la chance tourne avec le vent Maman me disait Fils tu comprendras avec le temps La vie est pleine dembûches, je l'apprends à mes dépends Inch'Allah tout ira mieux, et j'espère Inch'Allah tout ira mieux, on verra Inch'Allah tout ira mieux, ouais j'espère Inch'Allah tout ira mieux, on verra1</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ok, this is the remix baby ! Zehef La Fouine Sopra M'Baba Ça fait mal, ça fait mal Yeah, ma putain d'Banlieue Sale a trop la cote On braque, on deale, et des petits trouvent ça à la mode Pour les potes, j'ai toujours deux-trois 'tasses dans mon bolide Pour les jaloux , toujours deux-trois balles dans mon brolic Deux casques, une bécane négro ça peut s'terminer là J'suis trop loin, j'suis sponsorisé par la NASA Toujours opé dans la rue les keufs, les 'tasses me matent Négro j'défonce, j'ai le flow coupé au bicarbonate Les jaloux parlent trop, voudront jamais s'taire Marlich, la chatte, de la chatte, à la chatte à leur grand-mère Dangereuse est ma banlieue, mais t'inquiète je gère Dans l'Sept-Huit, on coule à force de manger des pierres Quand y'a embrouille, les baltringues se chient dessus À Trappes on a des guns, nique sa mère le jujitsu Et on vous fuck, on vous fuck J'm'en bats les couilles, j'prends mon bif, bientôt j'me barre en Royal Air Maroc Ton meilleur pote t'a poucave ça fait mal, ça fait mal Ils sont six, t'es dans la cave ça fait mal, ça fait mal Quand les keufs te soulèvent ça fait mal, ça fait mal Il t'en reste un peu sur les lèvres ça fait mal, ça fait mal Nouvel album dans les bacs ça fait mal, ça fait mal Il est lourd, il met des claques ça fait mal, ça fait mal T'es arrivant, j'suis libérable ça fait mal, ça fait mal Le champagne est sur la table ça fait mal, ça fait mal You might also like Yeah, yeah, crois-tu vraiment pouvoir stopper le M'Baba d'la Psykatra ? Alors qu'au mic' t'es aussi vrai que les seins de Carmen Electra ? Halla halla, dans les quartiers d'France et dans les villes d'Africa Halla halla, Sopra M'Baba prend le mic' et débarque à l'arrache Pour les chiens de la casse, pour les mecs qu'ont la dalle, que l'on met a l'écart Pour les frères qu'on a mis au mitard, pour les frères qu'ont l'accent de blédard, c'est la war Voilà encore un flow digne d'un combat d'boxe Une connexion plus attendue que Detox Mon flow a les poumons noircis À force de fumer du MC, il se promène dans d'autres galaxies Ces temps-ci, il réside sur Pluton Pendant que sur Terre ça rappe comme Koxie Oui, y'a mes empreintes sur le gun qui a tué ta carrière C'est bien ton crâne, la tête de mort sur toutes nos bannières Yeah quoi d'neuf Fouiny Baby ? Comme dirait Weezy V'là le remix baby ! Ton meilleur pote t'a poucave ça fait mal, ça fait mal Ils sont six, t'es dans la cave ça fait mal, ça fait mal Quand les keufs te soulèvent ça fait mal, ça fait mal Il t'en reste un peu sur les lèvres ça fait mal, ça fait mal Nouvel album dans les bacs ça fait mal, ça fait mal Il est lourd, il met des claques ça fait mal, ça fait mal T'es arrivant, j'suis libérable ça fait mal, ça fait mal Le champagne est sur la table ça fait mal, ça fait mal Oh, moi j'suis l'Hamas face à Mahmoud Abbas Mon number c'est l' 06-93 partout, hlass J'habite où ? Mais t'es fou ! J'habite à Aulnay-sous, c'est Molotov Sefyu Oh, j'ai un flow obèse comme Roselyne Bachelot C'est qui qui baise ? C'est Molotov 4 en action J'rappe en rigolant, violent, c'est pas marrant T'es mourant, j'serai là à ton enterrement Trop trop insolent, c'est-c'est-c'est affolant Qui dit violent cou-cou-cours, dis pas qu't'es pas au courant J'débranche le courant, casse toi t'es trop collant Tu vas couler, t'enculer comme Laure Manaudou sur 100 crawl Fait pas belehni, Sopra-Zehef-Laouni Espèce di counasse, on couche ta colonie, crouille Recule, casse-moi pas les couilles ou j't'en colle une Dis Saha j'suis pas homosexuel pour qu'j't'encule Dans une cage d'escalier, on peut l'faire On peut finir à l'hôtel si y'a plus d'place, sa mère Il reste ma banquette arrière, yeah Il reste ma banquette arrière, yeah Il reste ma banlieue Ouest Dans une cage d'escalier, on peut l'faire On peut finir à l'hôtel si y'a plus d'place, sa mère Il reste ma banquette arrière, yeah Il reste ma banquette arrière, yeah Il reste ma banlieue Ouest1</t>
+          <t>Ok, this is the remix baby ! Zehef La Fouine Sopra M'Baba Ça fait mal, ça fait mal Yeah, ma putain d'Banlieue Sale a trop la cote On braque, on deale, et des petits trouvent ça à la mode Pour les potes, j'ai toujours deux-trois 'tasses dans mon bolide Pour les jaloux , toujours deux-trois balles dans mon brolic Deux casques, une bécane négro ça peut s'terminer là J'suis trop loin, j'suis sponsorisé par la NASA Toujours opé dans la rue les keufs, les 'tasses me matent Négro j'défonce, j'ai le flow coupé au bicarbonate Les jaloux parlent trop, voudront jamais s'taire Marlich, la chatte, de la chatte, à la chatte à leur grand-mère Dangereuse est ma banlieue, mais t'inquiète je gère Dans l'Sept-Huit, on coule à force de manger des pierres Quand y'a embrouille, les baltringues se chient dessus À Trappes on a des guns, nique sa mère le jujitsu Et on vous fuck, on vous fuck J'm'en bats les couilles, j'prends mon bif, bientôt j'me barre en Royal Air Maroc Ton meilleur pote t'a poucave ça fait mal, ça fait mal Ils sont six, t'es dans la cave ça fait mal, ça fait mal Quand les keufs te soulèvent ça fait mal, ça fait mal Il t'en reste un peu sur les lèvres ça fait mal, ça fait mal Nouvel album dans les bacs ça fait mal, ça fait mal Il est lourd, il met des claques ça fait mal, ça fait mal T'es arrivant, j'suis libérable ça fait mal, ça fait mal Le champagne est sur la table ça fait mal, ça fait mal Yeah, yeah, crois-tu vraiment pouvoir stopper le M'Baba d'la Psykatra ? Alors qu'au mic' t'es aussi vrai que les seins de Carmen Electra ? Halla halla, dans les quartiers d'France et dans les villes d'Africa Halla halla, Sopra M'Baba prend le mic' et débarque à l'arrache Pour les chiens de la casse, pour les mecs qu'ont la dalle, que l'on met a l'écart Pour les frères qu'on a mis au mitard, pour les frères qu'ont l'accent de blédard, c'est la war Voilà encore un flow digne d'un combat d'boxe Une connexion plus attendue que Detox Mon flow a les poumons noircis À force de fumer du MC, il se promène dans d'autres galaxies Ces temps-ci, il réside sur Pluton Pendant que sur Terre ça rappe comme Koxie Oui, y'a mes empreintes sur le gun qui a tué ta carrière C'est bien ton crâne, la tête de mort sur toutes nos bannières Yeah quoi d'neuf Fouiny Baby ? Comme dirait Weezy V'là le remix baby ! Ton meilleur pote t'a poucave ça fait mal, ça fait mal Ils sont six, t'es dans la cave ça fait mal, ça fait mal Quand les keufs te soulèvent ça fait mal, ça fait mal Il t'en reste un peu sur les lèvres ça fait mal, ça fait mal Nouvel album dans les bacs ça fait mal, ça fait mal Il est lourd, il met des claques ça fait mal, ça fait mal T'es arrivant, j'suis libérable ça fait mal, ça fait mal Le champagne est sur la table ça fait mal, ça fait mal Oh, moi j'suis l'Hamas face à Mahmoud Abbas Mon number c'est l' 06-93 partout, hlass J'habite où ? Mais t'es fou ! J'habite à Aulnay-sous, c'est Molotov Sefyu Oh, j'ai un flow obèse comme Roselyne Bachelot C'est qui qui baise ? C'est Molotov 4 en action J'rappe en rigolant, violent, c'est pas marrant T'es mourant, j'serai là à ton enterrement Trop trop insolent, c'est-c'est-c'est affolant Qui dit violent cou-cou-cours, dis pas qu't'es pas au courant J'débranche le courant, casse toi t'es trop collant Tu vas couler, t'enculer comme Laure Manaudou sur 100 crawl Fait pas belehni, Sopra-Zehef-Laouni Espèce di counasse, on couche ta colonie, crouille Recule, casse-moi pas les couilles ou j't'en colle une Dis Saha j'suis pas homosexuel pour qu'j't'encule Dans une cage d'escalier, on peut l'faire On peut finir à l'hôtel si y'a plus d'place, sa mère Il reste ma banquette arrière, yeah Il reste ma banquette arrière, yeah Il reste ma banlieue Ouest Dans une cage d'escalier, on peut l'faire On peut finir à l'hôtel si y'a plus d'place, sa mère Il reste ma banquette arrière, yeah Il reste ma banquette arrière, yeah Il reste ma banlieue Ouest1</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Et si tu crois que tous ses rêves t'appartiennent, tu vis sans sommeil tu vis sans sommeil Elle vient de là où tous les gens déçus saignent, elle venait du ciel Elle venait du ciel, une fée, une magicienne Elle venait du ciel, une fée, une magicienne Yeah, elle venait du ciel À tous les gens autour de nous elle leur donnait du ciel Aux voisins plus pauvres que nous elle leur donnait du sel Enfermé dans ma cellule, frère elle me donnait des ailes J'viens du ciel les étoiles entre elles ne parlent que de quage-bra Musicien j'peux plus bouger mes mains, les menottes me foudroient Yeah elle disait reste droit, weldi reste al J'ai mal car par la fenêtre j'entends plus Laouni Dkhol l'Dar Adolescent réservé trop souvent en colère Échec scolaire, plus bas que terre, fout sa vie en l'air Où t'iras j'irai on se l'était juré Ils me menacent armés, je les supplie de tirer Si la rue rendait heureux bah je serais Bill Cosby J'galère depuis le Tam-Tam je vends depuis le cobbi À tous les mecs en manque à la recherche d'un bout d'ciel Ici la vie n'tient qu'à une ficelle Et je repense à toi les yeux fermés J'attends que ton souffle vienne m'emporter J'ai les mains vides et le coeur avide de toi, de toi Si tu savais à quel point je t'aimais Otage de mes deux bras à jamais J'ai les mains vides et le coeur avide de toi, de toi You might also like Et si tu crois que tous ses rêves t'appartiennent, tu vis sans sommeil tu vis sans sommeil Elle vient de là où tous les gens déçus saignent, elle venait du ciel Elle venait du ciel, une fée, une magicienne Elle venait du ciel, une fée, une magicienne Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Yeah je tombe, donne-moi des ailes Dans les décombres de ma vie je cherche un p'tit bout de ciel Tu pleurais souvent en t'imaginant notre vie en mieux On ferme les yeux quand on meurt mais seule la mort nous ouvre les yeux Yeah, premier couplet, dernier souffle Même avec une tonne de parfum mes sapes puent la bouffe Elles sentent l'huile et la friture J'suis né à Trappes ça sent la biture, la piqûre Si seulement le voisin du haut ne tapait pas sa femme Si seulement l'voisin du bas n'vendait pas d'la came Si seulement Amidou n'avait pas pris cette moto Si seulement Mourad nous avait pas quitté trop tôt J'ai mal et souvent j'les vois dans mes rêves Aucun tatouage sur ma peau je reste en Adam et Eve Mal dans ma tête elle me donnait des ailes Quand t'as pas connu l'vinaigre comment apprécier le miel ? Et je repense à toi les yeux fermés J'attends que ton souffle vienne m'emporter J'ai les mains vides et le coeur avide de toi, de toi Si tu savais à quel point je t'aimais Otage de mes deux bras à jamais J'ai les mains vides et le coeur avide de toi, de toi Et si tu crois que tous ses rêves t'appartiennent, tu vis sans sommeil tu vis sans sommeil Elle vient de là où tous les gens déçus saignent, elle venait du ciel Elle venait du ciel, une fée, une magicienne Elle venait du ciel, une fée, une magicienne Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam3</t>
+          <t>Et si tu crois que tous ses rêves t'appartiennent, tu vis sans sommeil tu vis sans sommeil Elle vient de là où tous les gens déçus saignent, elle venait du ciel Elle venait du ciel, une fée, une magicienne Elle venait du ciel, une fée, une magicienne Yeah, elle venait du ciel À tous les gens autour de nous elle leur donnait du ciel Aux voisins plus pauvres que nous elle leur donnait du sel Enfermé dans ma cellule, frère elle me donnait des ailes J'viens du ciel les étoiles entre elles ne parlent que de quage-bra Musicien j'peux plus bouger mes mains, les menottes me foudroient Yeah elle disait reste droit, weldi reste al J'ai mal car par la fenêtre j'entends plus Laouni Dkhol l'Dar Adolescent réservé trop souvent en colère Échec scolaire, plus bas que terre, fout sa vie en l'air Où t'iras j'irai on se l'était juré Ils me menacent armés, je les supplie de tirer Si la rue rendait heureux bah je serais Bill Cosby J'galère depuis le Tam-Tam je vends depuis le cobbi À tous les mecs en manque à la recherche d'un bout d'ciel Ici la vie n'tient qu'à une ficelle Et je repense à toi les yeux fermés J'attends que ton souffle vienne m'emporter J'ai les mains vides et le coeur avide de toi, de toi Si tu savais à quel point je t'aimais Otage de mes deux bras à jamais J'ai les mains vides et le coeur avide de toi, de toi Et si tu crois que tous ses rêves t'appartiennent, tu vis sans sommeil tu vis sans sommeil Elle vient de là où tous les gens déçus saignent, elle venait du ciel Elle venait du ciel, une fée, une magicienne Elle venait du ciel, une fée, une magicienne Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Yeah je tombe, donne-moi des ailes Dans les décombres de ma vie je cherche un p'tit bout de ciel Tu pleurais souvent en t'imaginant notre vie en mieux On ferme les yeux quand on meurt mais seule la mort nous ouvre les yeux Yeah, premier couplet, dernier souffle Même avec une tonne de parfum mes sapes puent la bouffe Elles sentent l'huile et la friture J'suis né à Trappes ça sent la biture, la piqûre Si seulement le voisin du haut ne tapait pas sa femme Si seulement l'voisin du bas n'vendait pas d'la came Si seulement Amidou n'avait pas pris cette moto Si seulement Mourad nous avait pas quitté trop tôt J'ai mal et souvent j'les vois dans mes rêves Aucun tatouage sur ma peau je reste en Adam et Eve Mal dans ma tête elle me donnait des ailes Quand t'as pas connu l'vinaigre comment apprécier le miel ? Et je repense à toi les yeux fermés J'attends que ton souffle vienne m'emporter J'ai les mains vides et le coeur avide de toi, de toi Si tu savais à quel point je t'aimais Otage de mes deux bras à jamais J'ai les mains vides et le coeur avide de toi, de toi Et si tu crois que tous ses rêves t'appartiennent, tu vis sans sommeil tu vis sans sommeil Elle vient de là où tous les gens déçus saignent, elle venait du ciel Elle venait du ciel, une fée, une magicienne Elle venait du ciel, une fée, une magicienne Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam Joue pour elle ces tam-tam ra-pa-pa-pam-pam3</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Test, le micro est branché Le même plaisir de déranger Ils me connaissent, c'est Tunisan' pour pas changer Qu'on me ramène les baies, je veux pas des restes à manger Le pouce baissé quand ils m'ont vu par terre Seul contre tous, à la Hurricane Carter Pas de compte à rendre, je fais saliver des babines Je me suis coupé du nombre pour faire du sale dans la cabine Ma vie est faite de victoires et de défaites, mec Nouvel album, deuxième opus, Li fet Met MC solitaire, vocale tessiture Respecte les critères, violent en écriture Trop déçu, plus lil vif qui pétille J'cours avec un boulet, j'suis un sportif en béquilles Ils m'ont tiré dans le dos, la grenade est dégoupillée, yeah Une vie de corbeau, moi j'ai le dîn en bouclier, yeah Pour mes blacks et mes blancs de peau dans le son tout y est Le tibia à Tong Pô, des bouches à atrophier Le sang chaud, j'ai le flow des projets à enquiller Pour mes fréros qui tiennent le flambeau, qu'ont des vies en chantier Mes cainfris, mes antillais, mes connaisseurs sortis des sentiers Car depuis tout p'tit j'suis prometteur Toujours à la hauteur, hommage à ma 'zique Supporters et auditeurs, européens d'Afrique Ces valeurs qu'on m'a enseignées Riche de l'intérieur, j'suis l'héritage de mes aînés Et c'est ainsi, de ma culture je m'imbibe Bon mari et futur père de famille Ma foi dans un livre, j'ai ré-appris à sourire J'veux pas apprendre à vivre, j'préfère apprendre à mourir J'suis pas une idole, j'cours pas après le succès Combien te tapent sur l'épaule, mais espèrent te la luxer ? Et j'suis pas exemplaire, j'voyage pas dans la soute Hors de question de me taire, on a tous émis des doutes Mais j'garde les mêmes convictions Si j'ai changé d'route, j'ai gardé la même direction Me battre pour les miens, nombreux sont sur les préjudices Me battre pour le bien, et contre leurs injustices J't'apprends rien, t'entends toujours les mêmes ragots Les sceptiques, y en a combien qui me trouveront démago ? Mais peu importe ! Je chante ma vérité, personne fait l'unanimité, donc peu importe Je chante ma vérité, personne fait l'unanimité et peu importe Je chante ma vérité, personne fait l'unanimité, peu importe Je chante ma vérité, personne fait l'unanimité J'suis pas La Fouine, j'aime pas mentir aux gosses J'suis pas dans leur délire, à savoir qui a la plus grosse Je n'suis qu'un homme, j'ai fait preuve de lâcheté J'ai commis des erreurs, mais j'espère pouvoir me racheter Ma rime est tienne, quand le succès est soudain Aux anonymes qui m'aiment, car sans eux je ne suis rien Ceux qui me comprennent, qui respectent nos codes Pour ceux qui me soutiennent, et peu importe les modesYou might also like4</t>
+          <t>Test, le micro est branché Le même plaisir de déranger Ils me connaissent, c'est Tunisan' pour pas changer Qu'on me ramène les baies, je veux pas des restes à manger Le pouce baissé quand ils m'ont vu par terre Seul contre tous, à la Hurricane Carter Pas de compte à rendre, je fais saliver des babines Je me suis coupé du nombre pour faire du sale dans la cabine Ma vie est faite de victoires et de défaites, mec Nouvel album, deuxième opus, Li fet Met MC solitaire, vocale tessiture Respecte les critères, violent en écriture Trop déçu, plus lil vif qui pétille J'cours avec un boulet, j'suis un sportif en béquilles Ils m'ont tiré dans le dos, la grenade est dégoupillée, yeah Une vie de corbeau, moi j'ai le dîn en bouclier, yeah Pour mes blacks et mes blancs de peau dans le son tout y est Le tibia à Tong Pô, des bouches à atrophier Le sang chaud, j'ai le flow des projets à enquiller Pour mes fréros qui tiennent le flambeau, qu'ont des vies en chantier Mes cainfris, mes antillais, mes connaisseurs sortis des sentiers Car depuis tout p'tit j'suis prometteur Toujours à la hauteur, hommage à ma 'zique Supporters et auditeurs, européens d'Afrique Ces valeurs qu'on m'a enseignées Riche de l'intérieur, j'suis l'héritage de mes aînés Et c'est ainsi, de ma culture je m'imbibe Bon mari et futur père de famille Ma foi dans un livre, j'ai ré-appris à sourire J'veux pas apprendre à vivre, j'préfère apprendre à mourir J'suis pas une idole, j'cours pas après le succès Combien te tapent sur l'épaule, mais espèrent te la luxer ? Et j'suis pas exemplaire, j'voyage pas dans la soute Hors de question de me taire, on a tous émis des doutes Mais j'garde les mêmes convictions Si j'ai changé d'route, j'ai gardé la même direction Me battre pour les miens, nombreux sont sur les préjudices Me battre pour le bien, et contre leurs injustices J't'apprends rien, t'entends toujours les mêmes ragots Les sceptiques, y en a combien qui me trouveront démago ? Mais peu importe ! Je chante ma vérité, personne fait l'unanimité, donc peu importe Je chante ma vérité, personne fait l'unanimité et peu importe Je chante ma vérité, personne fait l'unanimité, peu importe Je chante ma vérité, personne fait l'unanimité J'suis pas La Fouine, j'aime pas mentir aux gosses J'suis pas dans leur délire, à savoir qui a la plus grosse Je n'suis qu'un homme, j'ai fait preuve de lâcheté J'ai commis des erreurs, mais j'espère pouvoir me racheter Ma rime est tienne, quand le succès est soudain Aux anonymes qui m'aiment, car sans eux je ne suis rien Ceux qui me comprennent, qui respectent nos codes Pour ceux qui me soutiennent, et peu importe les modes4</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Référencement par ordre alphabétique provisoire 2zer Le savoir est une arme, une arme peut s'enrayer 40000 Gang Le savoir est une arme, je suis armé, je veux rien savoir Ademo Le savoir est une arme, pourtant c'est toujours les démunis qui partent en guerre Alkpote Le savoir est une arme, vive Bachar El-Assad Alonzo Psy 4 de la rime Le savoir est une arme, une arme posée sur nos tempes Cest aussi dur den savoir tant que rien, Psy 4 alimente Ce cordon ombilical qui relie joie et tristesse Alpha Wann J'taffais, j'gagnais rien du tout de l'heure J'me disais le savoir est une arme, en fait, l'argent est un bunker Alors protégez-vous les jeunes Bazoo Le savoir est une arme, car y en a besoin en temps d'guerre You might also likeBeeby Ils s'prennent pour des boxeurs, ne sont pas des bosseurs Aucune connaissance, auraient plus de savoir avec une balle dans le veau-cer Benash Le savoir est une arme, toi t'es illettré Black Kent Rimes tranchantes, ouais, sous la langue j'ai un rasoir Le savoir est une arme hum-hum s'tu veux savoir On m'dit d'laisser passer, de faire le Ray Charles AVoir Booba Le savoir est une arme, j'suis calibré, j'lis pas d'bouquin Le savoir est une arme jsuis calibré donc jsuis pas te-bé Le savoir est une arme ? Moi j'ai un flingue, j'ai pas le ba-bac Le savoir est une arme mais je n'ai pas fait d'études, alors J'ai un gros brolic tout près de mes thunes Armé jusquau cou jai grave du savoir Le savoir est une arme, trois calibres sur moi Je suis très intelligent La Boussole Le savoir est une arme Brams J'ai la psychoplume greffé à mon bras Appelle moi cobra Si le savoir est une arme t'es dans de beaux draps Brav Le savoir est une arme mais beaucoup n'ont que l'étui Calbo Ärsenik Le savoir est une arme qu'on a pas encore pressée La Canaille Si le savoir est une arme maintenant vois là ce que ça engendre J'irai pécho les munitions dans les livres ou au cinéma Sur le net, au théâtre comme au bistrot en bas de chez moi Et je te pilonnerais d'un ton froid et ferme ... Demi Portion Et si le savoir est une arme, y'a qu'sur Call-Of qu'mes potes l'ont gratuite Si le savoir est une arme, pourquoi se munir d'balles à blanc ? Despo Rutti Le savoir est une arme Construisons nos propres stand de tir avant que l'ignorance nous tue Dinos Punchlinovic Le savoir est une arme, j'ai un bac 3.5.7 Ils disent que le savoir est une arme Mais j'vais pas braquer la banque avec mes diplômes Le savoir est dans l'holster Dooz Kawa Le savoir est une arme, d'instruction massive Y a pas que les photos de charme, l'intromission raciste Nettoyez l'argent sale, les p'tits sachets de lessives Y a le savoir qu'est une arme qu'a son mode d'emploi dans les livres Dosseh On dit qu'le savoir est une me-ar yak, y a tout c'qu'il faut savoir dans boîte à gants Eden Dilinger Si le savoir est une arme, j'remplis mon stylo d'cartouches El Matador Le savoir est une arme donc à toi de fournir le silencieux Fababy Le savoir est une arme, mais personne braque pour acheter des livres Si la France nous comprends pas, pourquoi juger nos délits ? Et si le savoir est une arme, je me mutilerai avec des livres Le savoir est une arme, j'peux venir te flinguer bêtement Le savoir est une arme, un chien me f'ras la peau Le savoir est une arme, j'ai l'chargeur plein d'idées Facio Fass Si le savoir est une arme mon négro j't'abats Falcko Le savoir est une arme, Ghandi s'est fait fumer P't'être parc'qu'il avait pas d'Glock Fonky Flav' Le savoir est une arme de guerre, l'impatience un poison La violence un mystère que n'résout même plus la raison La Fouine Les bouffons se chient d'ssus, j'ai pécho l'gun et lâché la muscu Le savoir est une arme de trou du cul Mon prof c'est Yuri Orlov si le savoir est une arme Furax Barbarossa Le savoir est une arme ? On ne m'a appris que l'essentiel Moi élevé à la patate, la brique, les anciennes Si le savoir est une arme gros J'déclare une lame, t'en trouveras surement d'autres Gradur Le savoir est une armée Le savoir est une arme, un bouquin près du calibre Le savoir est une arme, fuck le furet Guizmo Le savoir est une arme le dicton est connu J'ai des livres et un tank, des punchlines made in ONU H-Magnum Le savoir est une arme donc j'arrive cagoulé Hayce Lemsi Le savoir est une arme dont on ne se sert pas L'Hexaler Le savoir est une arme, je suis fidèle à mon art Hooss Le savoir est une arme jai pas mon 6.35 mais je flingue lanti-pop Infinit' Si l'savoir est une arme, faut qu'ma liasse ressemble à un livre Ixzo Le savoir est une arme sale Kaaris Ça philosophe qu'le savoir est une arme, pour s'rendre compte Qule nègre est trop nègre pour avoir une âme, tu t'rends compte Le savoir est une arme j'ouvre le feu mais pas leur livres Kalash Le savoir est une arme jtourne les pages de ma kalash Keny Arkana Alors comprend dans quel monde nous vivons Le savoir est une arme à lheure où ils brevettent le vivant Kery James Si le savoir est une arme, soyons armés, car sans lui nous sommes désarmés Kool Shen Le savoir est une arme mais Même stupide, si t'as des sous tu peux t'constituer la plus grande armée Krok Armé de savoir j'peux te shoot Lawid Si l'savoir est une arme et ben toi t'as rien de dangereux LECK Focalisé dans le futile Le savoir est une arme, j'me suis tiré dessus, j'étais trop stupide Le savoir est une arme J'mettrai des coups d'crosse si ça tire plus En trois ans j'en ai pris dix Dialogue de sourds avec les jeunes pour eux le savoir est une arme factice Argent facile fuck la théorie vive la pratice Pour eux le savoir est une arme factice Lino Si l'savoir est un gun, mec y'a plus qu'des armes enrayées La mort est DJ, l'histoire s'répète, le disque est rayé Tellement de savoir que pour presser la gâchette, on a dû s'y mettre à trois J'diffuse mon savoir, j'fais des drive-by shooting LIO Petrodollars Le savoir est une arme, on peut blesser avec les mots Lucio Bukowski Si l'savoir est une arme beaucoup ont raté le permis Mafia K'1Fry Le savoir est une arme Mais qu'est-ce qu'une arme sans le savoir Makiavel Révolution Urbaine Ils parlent d'armes et veulent savoir qui vendent le plus Le savoir est une arme, ma culture vous tire dessus Malik Shtar Academy Si le savoir est une arme, on t'réinvite à une caserne On crache des postillons d'plomb, pour mieux t'graver tes neurones Médine Le savoir est une arme on le sait Mais combien d'entre nous finiront par l'appliquer? Hé, fallait savoir que le savoir est une arme Et que le cerveau de l'homme réfléchis comme une arme Un cadavre reste un cadavre et peu importe qui tu es C'est le savoir est une arme et y'a des corps à tuer Le Savoir est une arme en tant de guerre On peut tuer un révolutionnaire mais pas la révolution De A à Z j'cultive la fierté de soi Le savoir est une arme, moi j'en ai fait mon swag Ministère A.M.E.R Le savoir est une arme et je sors toujours armé Nègre de la pègre le savoir est une arme maintenant tu sais Mino Si le savoir est une arme j'écris ce morceau au couteau Mister You Le savoir est une arme, mais la richesse rachète lintellect MOH Le savoir est une arme, j'ai mis des cartouches d'encre dans mon gun Nakk Mendosa Le savoir est une arme, des profs qui s'prennent des coups d'schlass Niveau sagesse on est loin de Maître Yoda Ninho Le savoir est une arme, tu crois quon est bête ? Le savoir est une arme et j'avais des munitions plein la tête Niska Le savoir est une arme, je l'ai pointée sur les savants Le savoir est une arme, j'ai braqué un savant Pand'Or Si le savoir est une arme, j'ai tendance à gâcher mes munitions Paranoyan Va dire aux chômeurs surdiplômés que le savoir est une arme Pendant qu'les trafiquants d'armes se frottent les mains en Afrique Pink Tee Le savoir est une arme donc je n'ai pas besoin de gilet pare-balles PNL J'survis et j'révise mon âme, j'me dis qu'la connaissance est la meilleure des armes Prime Le savoir est une arme, j'ai quelques livres de plomb Donc j'roule un oin-j' avec l'ensemble de mes diplômes REDK On dit que le savoir est une arme, ok je charge, braque, fusille En guerre, le savoir est une arme mon frère, t'as pas de munitions Le savoir est une arme, oui, le peuple la chair à canon Rockin' Sqaut Le savoir est une âme quand ton pouvoir est modéré Le savoir est une arme si tu n't'en sers pas pour tuer paw Rohff Le savoir est une arme, j'en suis l'armurier Si le savoir est une arme tu vas t'faire rafaler Mon savoir est une arme, j'mets jamais la sécu' -Crew Le savoir est une arme et ce tir est vocal Sadek Johnny sait monter un ness-bi, depuis tout p'tit il a appris Oui son père était un gangster, mais c'n'était pas Stomy Bugsy Non, c'n'était pas Stomy Bugsy. 9-3 zoo, Neuilly-Plaisance Le savoir est une arme, j'ai quelques connaissances Le savoir est une arme, jai un 6.35 dans la trousse Salif Si le savoir est un flingue, on vide nos barillets bêtement Sat Le savoir est une arme j'ai gravé mon nom sur la balle Sch Le savoir est une arme, j'suis calibré, j'suis cultivé Siboy Le savoir est une arme Lire un livre t'aidera à formuler des excuses face au fusil Squadra A la sortie c'est le règlement des comptes, Dieu merci j'ai l'brolique sous ma cape Le savoir est une arme, j'ai plus d'une arme dans l'cartable Still Fresh Négro j'fusille, le savoir est une arme j'écris avec un uzi Si le savoir est une arme... non, non, ils l'ont trop faite Stomy Bugsy Le savoir est une arme, maitenant, tu sais Le savoir est une arme bébé, ne l'oublie jamais Mais des fois tu es blessé Souvent tu es armé Sultan Le savoir est une arme, on a les magnum Swatt's Le savoir est une arme j'te donne un EP d'Intifada Tiers Monde C'est le Tiers Monde j'ai le ka-pouch à James Bond Le savoir est une arme clik paw paw ding dong Gros le savoir est une arme mais une arme reste une arme Le savoir est une arme on a Einstein en guest star Le savoir est une arme, même les profs ont des uzis Le savoir est une arme gros, heureusement Si c'était une femme, y'aurait bien trop d'intelligents Le savoir est un gun, un desert eagle T.Killa De savoir on s'arme, j'viens fumer le cortège Avec une arme de précision comme celle du tireur de Norvège TripleGo Le savoir est une arme, mais tu ne sais pas la manier Vald Le savoir est une arme et j'suis pas le plus con Le savoir, c'est l'plus puissant des couteaux suisses Le savoir est une arme, apprends tes leçons Vîrus Le savoir, cest bien les armes, cest mieux... Volts Face Si l'savoir est une arme je sais qu'c'est l'Islam que j'dois cibler Si lsavoir est une arme, vieux jcrois qujsuis dans la merde XVBARBAR Le savoir est une arme, la vérité blesse Yong-C Le savoir est une arme, que lignorance se mette à genoux Youssoupha Le savoir est une arme et j'ai envi d'apprendre Que le dollar est une arme depuis que le monde est à vendre Si le savoir est une arme alors l'ignorance est un godemichet Le savoir sera mon arme, c'est décidé Puisque les hommes qui ont les balles combattent souvent les hommes qui ont les idées Le savoir est une arme, si t'as envi d'apprendre Sache que l'Euro est une arme et le monde est toujours à vendre Revolver, revo revo revolver Le savoir est une arme Les frères lever vos flingues en l'air Va dire aux petits frères qu'j'suis leur protecteur Mais c'est pas parce que le savoir est une arme qu'il faut poignarder son professeur Encore ignare, on m'a dit que le savoir est une arme Mon frère en prison m'a dit que le parloir est une larme Veux j'y vais direct, pas de ricochet Si le savoir est une arme, alors l'ignorance est un godemichet Le savoir est une arme, maintenant je sais Et si je verse une larme c'est parce que maintenant je saigne Zino Révolution Urbaine Le savoir est une arme 11.43 dans le Stabilo Si le savoir est une arme, nous on tire sur le prof de math9</t>
+          <t>Référencement par ordre alphabétique provisoire 2zer Le savoir est une arme, une arme peut s'enrayer 40000 Gang Le savoir est une arme, je suis armé, je veux rien savoir Ademo Le savoir est une arme, pourtant c'est toujours les démunis qui partent en guerre Alkpote Le savoir est une arme, vive Bachar El-Assad Alonzo Psy 4 de la rime Le savoir est une arme, une arme posée sur nos tempes Cest aussi dur den savoir tant que rien, Psy 4 alimente Ce cordon ombilical qui relie joie et tristesse Alpha Wann J'taffais, j'gagnais rien du tout de l'heure J'me disais le savoir est une arme, en fait, l'argent est un bunker Alors protégez-vous les jeunes Bazoo Le savoir est une arme, car y en a besoin en temps d'guerre Beeby Ils s'prennent pour des boxeurs, ne sont pas des bosseurs Aucune connaissance, auraient plus de savoir avec une balle dans le veau-cer Benash Le savoir est une arme, toi t'es illettré Black Kent Rimes tranchantes, ouais, sous la langue j'ai un rasoir Le savoir est une arme hum-hum s'tu veux savoir On m'dit d'laisser passer, de faire le Ray Charles AVoir Booba Le savoir est une arme, j'suis calibré, j'lis pas d'bouquin Le savoir est une arme jsuis calibré donc jsuis pas te-bé Le savoir est une arme ? Moi j'ai un flingue, j'ai pas le ba-bac Le savoir est une arme mais je n'ai pas fait d'études, alors J'ai un gros brolic tout près de mes thunes Armé jusquau cou jai grave du savoir Le savoir est une arme, trois calibres sur moi Je suis très intelligent La Boussole Le savoir est une arme Brams J'ai la psychoplume greffé à mon bras Appelle moi cobra Si le savoir est une arme t'es dans de beaux draps Brav Le savoir est une arme mais beaucoup n'ont que l'étui Calbo Ärsenik Le savoir est une arme qu'on a pas encore pressée La Canaille Si le savoir est une arme maintenant vois là ce que ça engendre J'irai pécho les munitions dans les livres ou au cinéma Sur le net, au théâtre comme au bistrot en bas de chez moi Et je te pilonnerais d'un ton froid et ferme ... Demi Portion Et si le savoir est une arme, y'a qu'sur Call-Of qu'mes potes l'ont gratuite Si le savoir est une arme, pourquoi se munir d'balles à blanc ? Despo Rutti Le savoir est une arme Construisons nos propres stand de tir avant que l'ignorance nous tue Dinos Punchlinovic Le savoir est une arme, j'ai un bac 3.5.7 Ils disent que le savoir est une arme Mais j'vais pas braquer la banque avec mes diplômes Le savoir est dans l'holster Dooz Kawa Le savoir est une arme, d'instruction massive Y a pas que les photos de charme, l'intromission raciste Nettoyez l'argent sale, les p'tits sachets de lessives Y a le savoir qu'est une arme qu'a son mode d'emploi dans les livres Dosseh On dit qu'le savoir est une me-ar yak, y a tout c'qu'il faut savoir dans boîte à gants Eden Dilinger Si le savoir est une arme, j'remplis mon stylo d'cartouches El Matador Le savoir est une arme donc à toi de fournir le silencieux Fababy Le savoir est une arme, mais personne braque pour acheter des livres Si la France nous comprends pas, pourquoi juger nos délits ? Et si le savoir est une arme, je me mutilerai avec des livres Le savoir est une arme, j'peux venir te flinguer bêtement Le savoir est une arme, un chien me f'ras la peau Le savoir est une arme, j'ai l'chargeur plein d'idées Facio Fass Si le savoir est une arme mon négro j't'abats Falcko Le savoir est une arme, Ghandi s'est fait fumer P't'être parc'qu'il avait pas d'Glock Fonky Flav' Le savoir est une arme de guerre, l'impatience un poison La violence un mystère que n'résout même plus la raison La Fouine Les bouffons se chient d'ssus, j'ai pécho l'gun et lâché la muscu Le savoir est une arme de trou du cul Mon prof c'est Yuri Orlov si le savoir est une arme Furax Barbarossa Le savoir est une arme ? On ne m'a appris que l'essentiel Moi élevé à la patate, la brique, les anciennes Si le savoir est une arme gros J'déclare une lame, t'en trouveras surement d'autres Gradur Le savoir est une armée Le savoir est une arme, un bouquin près du calibre Le savoir est une arme, fuck le furet Guizmo Le savoir est une arme le dicton est connu J'ai des livres et un tank, des punchlines made in ONU H-Magnum Le savoir est une arme donc j'arrive cagoulé Hayce Lemsi Le savoir est une arme dont on ne se sert pas L'Hexaler Le savoir est une arme, je suis fidèle à mon art Hooss Le savoir est une arme jai pas mon 6.35 mais je flingue lanti-pop Infinit' Si l'savoir est une arme, faut qu'ma liasse ressemble à un livre Ixzo Le savoir est une arme sale Kaaris Ça philosophe qu'le savoir est une arme, pour s'rendre compte Qule nègre est trop nègre pour avoir une âme, tu t'rends compte Le savoir est une arme j'ouvre le feu mais pas leur livres Kalash Le savoir est une arme jtourne les pages de ma kalash Keny Arkana Alors comprend dans quel monde nous vivons Le savoir est une arme à lheure où ils brevettent le vivant Kery James Si le savoir est une arme, soyons armés, car sans lui nous sommes désarmés Kool Shen Le savoir est une arme mais Même stupide, si t'as des sous tu peux t'constituer la plus grande armée Krok Armé de savoir j'peux te shoot Lawid Si l'savoir est une arme et ben toi t'as rien de dangereux LECK Focalisé dans le futile Le savoir est une arme, j'me suis tiré dessus, j'étais trop stupide Le savoir est une arme J'mettrai des coups d'crosse si ça tire plus En trois ans j'en ai pris dix Dialogue de sourds avec les jeunes pour eux le savoir est une arme factice Argent facile fuck la théorie vive la pratice Pour eux le savoir est une arme factice Lino Si l'savoir est un gun, mec y'a plus qu'des armes enrayées La mort est DJ, l'histoire s'répète, le disque est rayé Tellement de savoir que pour presser la gâchette, on a dû s'y mettre à trois J'diffuse mon savoir, j'fais des drive-by shooting LIO Petrodollars Le savoir est une arme, on peut blesser avec les mots Lucio Bukowski Si l'savoir est une arme beaucoup ont raté le permis Mafia K'1Fry Le savoir est une arme Mais qu'est-ce qu'une arme sans le savoir Makiavel Révolution Urbaine Ils parlent d'armes et veulent savoir qui vendent le plus Le savoir est une arme, ma culture vous tire dessus Malik Shtar Academy Si le savoir est une arme, on t'réinvite à une caserne On crache des postillons d'plomb, pour mieux t'graver tes neurones Médine Le savoir est une arme on le sait Mais combien d'entre nous finiront par l'appliquer? Hé, fallait savoir que le savoir est une arme Et que le cerveau de l'homme réfléchis comme une arme Un cadavre reste un cadavre et peu importe qui tu es C'est le savoir est une arme et y'a des corps à tuer Le Savoir est une arme en tant de guerre On peut tuer un révolutionnaire mais pas la révolution De A à Z j'cultive la fierté de soi Le savoir est une arme, moi j'en ai fait mon swag Ministère A.M.E.R Le savoir est une arme et je sors toujours armé Nègre de la pègre le savoir est une arme maintenant tu sais Mino Si le savoir est une arme j'écris ce morceau au couteau Mister You Le savoir est une arme, mais la richesse rachète lintellect MOH Le savoir est une arme, j'ai mis des cartouches d'encre dans mon gun Nakk Mendosa Le savoir est une arme, des profs qui s'prennent des coups d'schlass Niveau sagesse on est loin de Maître Yoda Ninho Le savoir est une arme, tu crois quon est bête ? Le savoir est une arme et j'avais des munitions plein la tête Niska Le savoir est une arme, je l'ai pointée sur les savants Le savoir est une arme, j'ai braqué un savant Pand'Or Si le savoir est une arme, j'ai tendance à gâcher mes munitions Paranoyan Va dire aux chômeurs surdiplômés que le savoir est une arme Pendant qu'les trafiquants d'armes se frottent les mains en Afrique Pink Tee Le savoir est une arme donc je n'ai pas besoin de gilet pare-balles PNL J'survis et j'révise mon âme, j'me dis qu'la connaissance est la meilleure des armes Prime Le savoir est une arme, j'ai quelques livres de plomb Donc j'roule un oin-j' avec l'ensemble de mes diplômes REDK On dit que le savoir est une arme, ok je charge, braque, fusille En guerre, le savoir est une arme mon frère, t'as pas de munitions Le savoir est une arme, oui, le peuple la chair à canon Rockin' Sqaut Le savoir est une âme quand ton pouvoir est modéré Le savoir est une arme si tu n't'en sers pas pour tuer paw Rohff Le savoir est une arme, j'en suis l'armurier Si le savoir est une arme tu vas t'faire rafaler Mon savoir est une arme, j'mets jamais la sécu' -Crew Le savoir est une arme et ce tir est vocal Sadek Johnny sait monter un ness-bi, depuis tout p'tit il a appris Oui son père était un gangster, mais c'n'était pas Stomy Bugsy Non, c'n'était pas Stomy Bugsy. 9-3 zoo, Neuilly-Plaisance Le savoir est une arme, j'ai quelques connaissances Le savoir est une arme, jai un 6.35 dans la trousse Salif Si le savoir est un flingue, on vide nos barillets bêtement Sat Le savoir est une arme j'ai gravé mon nom sur la balle Sch Le savoir est une arme, j'suis calibré, j'suis cultivé Siboy Le savoir est une arme Lire un livre t'aidera à formuler des excuses face au fusil Squadra A la sortie c'est le règlement des comptes, Dieu merci j'ai l'brolique sous ma cape Le savoir est une arme, j'ai plus d'une arme dans l'cartable Still Fresh Négro j'fusille, le savoir est une arme j'écris avec un uzi Si le savoir est une arme... non, non, ils l'ont trop faite Stomy Bugsy Le savoir est une arme, maitenant, tu sais Le savoir est une arme bébé, ne l'oublie jamais Mais des fois tu es blessé Souvent tu es armé Sultan Le savoir est une arme, on a les magnum Swatt's Le savoir est une arme j'te donne un EP d'Intifada Tiers Monde C'est le Tiers Monde j'ai le ka-pouch à James Bond Le savoir est une arme clik paw paw ding dong Gros le savoir est une arme mais une arme reste une arme Le savoir est une arme on a Einstein en guest star Le savoir est une arme, même les profs ont des uzis Le savoir est une arme gros, heureusement Si c'était une femme, y'aurait bien trop d'intelligents Le savoir est un gun, un desert eagle T.Killa De savoir on s'arme, j'viens fumer le cortège Avec une arme de précision comme celle du tireur de Norvège TripleGo Le savoir est une arme, mais tu ne sais pas la manier Vald Le savoir est une arme et j'suis pas le plus con Le savoir, c'est l'plus puissant des couteaux suisses Le savoir est une arme, apprends tes leçons Vîrus Le savoir, cest bien les armes, cest mieux... Volts Face Si l'savoir est une arme je sais qu'c'est l'Islam que j'dois cibler Si lsavoir est une arme, vieux jcrois qujsuis dans la merde XVBARBAR Le savoir est une arme, la vérité blesse Yong-C Le savoir est une arme, que lignorance se mette à genoux Youssoupha Le savoir est une arme et j'ai envi d'apprendre Que le dollar est une arme depuis que le monde est à vendre Si le savoir est une arme alors l'ignorance est un godemichet Le savoir sera mon arme, c'est décidé Puisque les hommes qui ont les balles combattent souvent les hommes qui ont les idées Le savoir est une arme, si t'as envi d'apprendre Sache que l'Euro est une arme et le monde est toujours à vendre Revolver, revo revo revolver Le savoir est une arme Les frères lever vos flingues en l'air Va dire aux petits frères qu'j'suis leur protecteur Mais c'est pas parce que le savoir est une arme qu'il faut poignarder son professeur Encore ignare, on m'a dit que le savoir est une arme Mon frère en prison m'a dit que le parloir est une larme Veux j'y vais direct, pas de ricochet Si le savoir est une arme, alors l'ignorance est un godemichet Le savoir est une arme, maintenant je sais Et si je verse une larme c'est parce que maintenant je saigne Zino Révolution Urbaine Le savoir est une arme 11.43 dans le Stabilo Si le savoir est une arme, nous on tire sur le prof de math9</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hey hey hey Hey, quoi de neuf Fouiny Babe ? Louis Babe Louis Baby Hey, Banlieue Sale, Banlieue Ouest Music Hey hey hey On levait les yeux au ciel, toujours tristes quand on tisait Ils auraient trop kiffé m'voir dans la merde les rêves brisés Banlieue Sale 2011, trop déter comme des yougos Les jaloux tentent de lire lheure sur ma putain de montre Hublot ROH2F, Fouiny Baby Tu nous jettes tellement lil que ten fais tomber tes lentilles À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Braquer ! Quest-ce que t'y connais ? Tirer ! Quest-ce que t'y connais ? Tomber ! Quest ce que ty connais ? Qu'est-ce que qu'est ce que t'y connais ? À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Jarrive j'prends mon cash, nanga déf, mangui fi rek Ani soroma, j'ai violé l'pe-ra comme un curé Appelle moi Fouiny Babe, Louis Babe ou comme tu veux On a serré ta sur ton petit frère est mon neveu Banlieue Sale canne, nique sa mère le festival de Cannes Man on vend la came, mets toi ça dans le zen ou dans le crâne Jarrive en S-600, puissant Brolic dans la boîte à gants, rebeu ta meuf nous kiffe car on est jouissant DJ E-Rise et Doc Ness, Hall F, BS, Double N Mmmh-mmmh-mmmh ! Ta meuf ne parle même plus la bouche pleine Jai demandé au Sheïtan la route de lEnfer Il ma dit tourne à droite au VIP et continue jusquau Milliardaire You might also like ROH2F, Fouiny Baby Tu nous jettes tellement lil que ten fais tomber tes lentilles À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Braquer ! Quest-ce que t'y connais ? Tirer ! Quest-ce que t'y connais ? Tomber ! Quest ce que ty connais ? Qu'est-ce que qu'est ce que t'y connais ? À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Qui déboule en putain de gamos, putain dinfra-basses V.I.P, Louis V en compagnie de 2-3 bombasses Chromé, est le flingue, violet, est la liasse WAllah, quon est dingue ton équipe libère la place Nous, la grande classe you, la grande crasse Coup, dkarcher de me-sper dans ta fa-fa-face Une bise de patte pour la street quand je baise une keuf sur la lead Mets toi à 4 pattes que j'brûle ta cellulite J'perce du sud au nord, de lest a louest, de fesses en fesses De caisses en caisses de tess en tess, mon flow les stress Hasma, faut que je pimpe la hass là J'suis partout j'confonds ma glace et mon plasma Défonce les fi-fi-fi-fi-fils de pute qui maiment pas En moi, ya du Mohammed et du Demba Prends moi, pour un de ces gentils bouffons de rappeur Comme ça tu verras rien venir la putain de ta sur Jai le dernier taser, pour te coiffer comme Don King Tsais comment j'raisonne comme mon gun dans ton parking Ya que les traitres qui prennent pas de parti Seuls les frères qui peuvent te canner pour moi sont de la partie ROH2F, Fouiny Baby Tu nous jettes tellement lil que ten fais tomber tes lentilles À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Braquer ! Quest-ce que t'y connais ? Tirer ! Quest-ce que t'y connais ? Tomber ! Quest ce que ty connais ? Qu'est-ce que qu'est ce que t'y connais ? À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Toc-toc-toc cherche la merde elle est pas là Jai trop de points en commun avec les bleus demande à Zahia Arrête le rap ton label ne paie pas comme la hagra Stop ! Coupe le son kiffe la violence a cappella Mets-moi une bastos ce soir je dîne avec la daronne J'partirai dune balle dans ldos car devant moi ya personne Gucci sale music Gucci-Gucci Swagg cest obligé Frère on est des PDG, eux il leur manque le G La Fouine ka pété yo on peut même donner ça en créole Je marche armé depuis que les anges se pendent à leurs auréoles Fouiny Fouiny Babe balance le venin et les massa Moi jaime les poulets que dans lyassa, Fouiny Babe ! On levait les yeux au ciel, toujours tristes quand on tisait Ils auraient trop kiffé m'voir dans la merde les rêves brisés Banlieue Sale 2011, trop déter comme des yougos Les jaloux tentent de lire lheure sur ma putain de montre Hublot ROH2F, Fouiny Baby Tu nous jettes tellement lil que ten fais tomber tes lentilles À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Braquer ! Quest-ce que t'y connais ? Tirer ! Quest-ce que t'y connais ? Tomber ! Quest ce que ty connais ? Qu'est-ce que qu'est ce que t'y connais ? À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Yeah, ROH2F, La Fouine Hein, vous êtes des rageux, nous des rageuls Haram aleikoum, aleikoum haram Hahaha</t>
+          <t>Hey hey hey Hey, quoi de neuf Fouiny Babe ? Louis Babe Louis Baby Hey, Banlieue Sale, Banlieue Ouest Music Hey hey hey On levait les yeux au ciel, toujours tristes quand on tisait Ils auraient trop kiffé m'voir dans la merde les rêves brisés Banlieue Sale 2011, trop déter comme des yougos Les jaloux tentent de lire lheure sur ma putain de montre Hublot ROH2F, Fouiny Baby Tu nous jettes tellement lil que ten fais tomber tes lentilles À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Braquer ! Quest-ce que t'y connais ? Tirer ! Quest-ce que t'y connais ? Tomber ! Quest ce que ty connais ? Qu'est-ce que qu'est ce que t'y connais ? À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Jarrive j'prends mon cash, nanga déf, mangui fi rek Ani soroma, j'ai violé l'pe-ra comme un curé Appelle moi Fouiny Babe, Louis Babe ou comme tu veux On a serré ta sur ton petit frère est mon neveu Banlieue Sale canne, nique sa mère le festival de Cannes Man on vend la came, mets toi ça dans le zen ou dans le crâne Jarrive en S-600, puissant Brolic dans la boîte à gants, rebeu ta meuf nous kiffe car on est jouissant DJ E-Rise et Doc Ness, Hall F, BS, Double N Mmmh-mmmh-mmmh ! Ta meuf ne parle même plus la bouche pleine Jai demandé au Sheïtan la route de lEnfer Il ma dit tourne à droite au VIP et continue jusquau Milliardaire ROH2F, Fouiny Baby Tu nous jettes tellement lil que ten fais tomber tes lentilles À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Braquer ! Quest-ce que t'y connais ? Tirer ! Quest-ce que t'y connais ? Tomber ! Quest ce que ty connais ? Qu'est-ce que qu'est ce que t'y connais ? À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Qui déboule en putain de gamos, putain dinfra-basses V.I.P, Louis V en compagnie de 2-3 bombasses Chromé, est le flingue, violet, est la liasse WAllah, quon est dingue ton équipe libère la place Nous, la grande classe you, la grande crasse Coup, dkarcher de me-sper dans ta fa-fa-face Une bise de patte pour la street quand je baise une keuf sur la lead Mets toi à 4 pattes que j'brûle ta cellulite J'perce du sud au nord, de lest a louest, de fesses en fesses De caisses en caisses de tess en tess, mon flow les stress Hasma, faut que je pimpe la hass là J'suis partout j'confonds ma glace et mon plasma Défonce les fi-fi-fi-fi-fils de pute qui maiment pas En moi, ya du Mohammed et du Demba Prends moi, pour un de ces gentils bouffons de rappeur Comme ça tu verras rien venir la putain de ta sur Jai le dernier taser, pour te coiffer comme Don King Tsais comment j'raisonne comme mon gun dans ton parking Ya que les traitres qui prennent pas de parti Seuls les frères qui peuvent te canner pour moi sont de la partie ROH2F, Fouiny Baby Tu nous jettes tellement lil que ten fais tomber tes lentilles À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Braquer ! Quest-ce que t'y connais ? Tirer ! Quest-ce que t'y connais ? Tomber ! Quest ce que ty connais ? Qu'est-ce que qu'est ce que t'y connais ? À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Toc-toc-toc cherche la merde elle est pas là Jai trop de points en commun avec les bleus demande à Zahia Arrête le rap ton label ne paie pas comme la hagra Stop ! Coupe le son kiffe la violence a cappella Mets-moi une bastos ce soir je dîne avec la daronne J'partirai dune balle dans ldos car devant moi ya personne Gucci sale music Gucci-Gucci Swagg cest obligé Frère on est des PDG, eux il leur manque le G La Fouine ka pété yo on peut même donner ça en créole Je marche armé depuis que les anges se pendent à leurs auréoles Fouiny Fouiny Babe balance le venin et les massa Moi jaime les poulets que dans lyassa, Fouiny Babe ! On levait les yeux au ciel, toujours tristes quand on tisait Ils auraient trop kiffé m'voir dans la merde les rêves brisés Banlieue Sale 2011, trop déter comme des yougos Les jaloux tentent de lire lheure sur ma putain de montre Hublot ROH2F, Fouiny Baby Tu nous jettes tellement lil que ten fais tomber tes lentilles À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Braquer ! Quest-ce que t'y connais ? Tirer ! Quest-ce que t'y connais ? Tomber ! Quest ce que ty connais ? Qu'est-ce que qu'est ce que t'y connais ? À tous ces jaloux passe-leur le Salam, pa-pa-passe leur le Salam Passe-leur le Salam, pa-pa-passe-leur le Salam Yeah, ROH2F, La Fouine Hein, vous êtes des rageux, nous des rageuls Haram aleikoum, aleikoum haram Hahaha</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Parle mal marlish A'tik Saha A'tik Saha Négro, j'vais leur apprendre a per-ra, per-ra, dans leur mère, qui vivra verra M'en bats les couilles d'Elvira, 'vira, je l'ai sur le cou ton Panamera J'passe un coup d'fil à Bouneau, Bouneau, j't'interdis de toutes les radios Laurent Rossi, Le Tavernier, c'est pas demain la veille qu'on t'verra signer J'ai pas fait d'études, c'était trop long, j'voulais l'cash tout de suite et la grosse tre-mon Première classe, ouais, le plateau est trop bon, quand les balles pleuvent, non, y'a personne au rebond J'lâche des larmes sur la tombe de la daronne, intérieur carbone, pendant que toi tu charbonnes Rah rah, en mode Capone, ma musique est comme ma chienne elle est trop bonne, trop bonne J'ai plus l'temps d'faire du rap gros ! Album, mixtape, tralala, promo ! Fouiny Babe rappe depuis l'survêt' croco ! Un dernier pour la route j't'accompagne au ssiste-gro ! Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Parle mal marlish A'tik Saha A'tik Saha You might also like Jai plus ltemps sur ma big face, jvois leur sale face, jpars de pas grand chose comme dans Scarface Là où tu traînes, pour un bout dterrain tu tfais rafaler comme en Ukraine Quoi dneuf, jviens aux nouvelles, on a pendu Saddam Hussein Jenterre mon blé dans ljardin, car on récolte ce que lon sème Jai marché dans la merde, oups, jleur ai marché dessus Jai craché dans la soupe, eh, jleur ai pissé dessus Et jsuis toujours debout comme une bécane, tu veux clasher, vas-y décale, décale Trop dla merde, pour tinterviewer faudrait ressusciter Radikal RedBull, Vodka, Hilton, pote-ca Wahrane, Dar-el-Beida, CDC feat. Varane-Pogba En cellule jai trop rêvé d'la chatte à Beyoncé 7-8 longueurs davance, jai pas ltemps dpioncer Et tous mes reubeus comptent sur moi, tous mes renois comptent sur moi En plein été on tbute de sang froid, tous tes renois crachent sur toi Si cest dlor jprends sur moi, CDC censure pas Nouveau crime signé Fouine-La Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Parle mal marlish A'tik Saha A'tik Saha Salut mon vieux tu m'reconnais ?14</t>
+          <t>Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Parle mal marlish A'tik Saha A'tik Saha Négro, j'vais leur apprendre a per-ra, per-ra, dans leur mère, qui vivra verra M'en bats les couilles d'Elvira, 'vira, je l'ai sur le cou ton Panamera J'passe un coup d'fil à Bouneau, Bouneau, j't'interdis de toutes les radios Laurent Rossi, Le Tavernier, c'est pas demain la veille qu'on t'verra signer J'ai pas fait d'études, c'était trop long, j'voulais l'cash tout de suite et la grosse tre-mon Première classe, ouais, le plateau est trop bon, quand les balles pleuvent, non, y'a personne au rebond J'lâche des larmes sur la tombe de la daronne, intérieur carbone, pendant que toi tu charbonnes Rah rah, en mode Capone, ma musique est comme ma chienne elle est trop bonne, trop bonne J'ai plus l'temps d'faire du rap gros ! Album, mixtape, tralala, promo ! Fouiny Babe rappe depuis l'survêt' croco ! Un dernier pour la route j't'accompagne au ssiste-gro ! Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Parle mal marlish A'tik Saha A'tik Saha Jai plus ltemps sur ma big face, jvois leur sale face, jpars de pas grand chose comme dans Scarface Là où tu traînes, pour un bout dterrain tu tfais rafaler comme en Ukraine Quoi dneuf, jviens aux nouvelles, on a pendu Saddam Hussein Jenterre mon blé dans ljardin, car on récolte ce que lon sème Jai marché dans la merde, oups, jleur ai marché dessus Jai craché dans la soupe, eh, jleur ai pissé dessus Et jsuis toujours debout comme une bécane, tu veux clasher, vas-y décale, décale Trop dla merde, pour tinterviewer faudrait ressusciter Radikal RedBull, Vodka, Hilton, pote-ca Wahrane, Dar-el-Beida, CDC feat. Varane-Pogba En cellule jai trop rêvé d'la chatte à Beyoncé 7-8 longueurs davance, jai pas ltemps dpioncer Et tous mes reubeus comptent sur moi, tous mes renois comptent sur moi En plein été on tbute de sang froid, tous tes renois crachent sur toi Si cest dlor jprends sur moi, CDC censure pas Nouveau crime signé Fouine-La Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Mes gars tirent pour moi, mon avocat parle pour moi Rebeu, mon banquier compte pour moi, au Bled, le daron compte sur moi A'tik Saha A'tik Saha Parle mal marlish A'tik Saha A'tik Saha Salut mon vieux tu m'reconnais ?14</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bienvenue à Boulbi, y'a pas qu'les boxeurs qui perdent leur ceinture non Ton enfance, c'est les études de Golf, ne dis pas que t'as bicrave de la pure non Un jour, tu t'feras démasquer, on fera la paix, Elie Yaffa hah J'suis pas antisémite, j'viendrai chanter à ta Bar Mitzvah nous On dormait pare-terre, sur le sol glacé, quand tu faisais du cheval à Meudon-la-Forêt, renoi Prends pas la fuite quand y'a échauffourée, tu marches avec les keufs donc t'es bien entouré, dis-moi Combien t'as mis pour l'album de Mala ? As-tu investi pour la promo de Djé ? Même avec cinquante mille eu' au poignet, tu n'as jamais eu le temps pour aucun refré Tu peux niquer une dame, deux dames, trois dames, mais jamais seize En tête-à-tête, tu vas t'essouffler, renoi, j'ai l'cardio d'Blaise J'te laisse te la raconter avec tes deuxtrois voitures que t'as pris en leasing Fouiny est propriétaire, toi, on t'a expulsé du building Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Izi, mets plus d'autotune-zer Ouais, mets melodine-zer, tozer, vocozer Jimmy ! Ouais, c'est bien comme ça Écoute, écoute You might also like J'préfère la peau des mecs, avec les poils, elle est plus douce J'traîne avec mes pirates, fuck tous tes marins d'eau douce Je savoure ma victoire, c'est ma revanche sur mes galères Ça m'a laissé des traces, maman m'avait privé d'dessert À Noel, j'voulais la Play, elle m'a offert la Xbox J'ai pleuré toute la nuit, j'avais des cernes, c'était atroce Enfance difficile, en plus, ma vue était moche Quand j'ouvrais la fenêtre, y'avait l'concessionnaire Porsche Izi, j'ai souffert, comme mes frères, de l'esclavage J'm'enferme dans l'grenier, où j'ai grandi, y'avait pas d'cave C'est pour toi, p'tit frère, si, dans mes textes, tu t'reconnais Dis-leur comme c'est dur de dire au revoir à son poney Hiii-hiii, j'pleure en autotune Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Quarante mille euros par jour pour ta sécu', t'as d'l'imagination, on a du vécu On a des vraies équipes, tu n'as qu'des lèches-culs au Gabon, y'avait personne, ils t'ont chié dessus Tu fais semblant d'pleurer la misère de l'Afrique, mais tu t'comportes comme un colon C'est pas du rap de Polonais, khoya, mes Sénégalais te la mettent dans l'fion Ouais, ma carte est marocaine, ta carte est américaine Mon roi, c'est Mohammed VI, toi, c'est devant Trump que tu t'prosternes Medina, rue 6, angle 7, j't'invite à manger du thiof Bakel City quoi ? L'renoi parle pas un mot wolof Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Hahahahah, eh ouais, négro... Quant à toutes ces petites suceuses que t'essayes d'envoyer clasher, hahahaha, j'ai plus de mètres carrés en disques d'or qu'ils ont de place dans leur petit appartement. J'clashe peut-être les mythos mais pas les clochards, négro. Et, une dernière chose, Elie t'es pas un expatrié, tu fuis la guerre dans ton pays, t'es un réfugié, négro. C'est la jungle de Floride, hahahahaaaa... Comme Elie, woooh, comme Elie, comme Elie, woooh-woooh Fouiny, Fouiny, go, c'est ça Dialal feulé souma wadji, douma sa morom. Mala gueuneu kham Djolof, mala gueuneu degg Wolof. Domou khath, thiaga sakh moola tanei3</t>
+          <t>Bienvenue à Boulbi, y'a pas qu'les boxeurs qui perdent leur ceinture non Ton enfance, c'est les études de Golf, ne dis pas que t'as bicrave de la pure non Un jour, tu t'feras démasquer, on fera la paix, Elie Yaffa hah J'suis pas antisémite, j'viendrai chanter à ta Bar Mitzvah nous On dormait pare-terre, sur le sol glacé, quand tu faisais du cheval à Meudon-la-Forêt, renoi Prends pas la fuite quand y'a échauffourée, tu marches avec les keufs donc t'es bien entouré, dis-moi Combien t'as mis pour l'album de Mala ? As-tu investi pour la promo de Djé ? Même avec cinquante mille eu' au poignet, tu n'as jamais eu le temps pour aucun refré Tu peux niquer une dame, deux dames, trois dames, mais jamais seize En tête-à-tête, tu vas t'essouffler, renoi, j'ai l'cardio d'Blaise J'te laisse te la raconter avec tes deuxtrois voitures que t'as pris en leasing Fouiny est propriétaire, toi, on t'a expulsé du building Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Izi, mets plus d'autotune-zer Ouais, mets melodine-zer, tozer, vocozer Jimmy ! Ouais, c'est bien comme ça Écoute, écoute J'préfère la peau des mecs, avec les poils, elle est plus douce J'traîne avec mes pirates, fuck tous tes marins d'eau douce Je savoure ma victoire, c'est ma revanche sur mes galères Ça m'a laissé des traces, maman m'avait privé d'dessert À Noel, j'voulais la Play, elle m'a offert la Xbox J'ai pleuré toute la nuit, j'avais des cernes, c'était atroce Enfance difficile, en plus, ma vue était moche Quand j'ouvrais la fenêtre, y'avait l'concessionnaire Porsche Izi, j'ai souffert, comme mes frères, de l'esclavage J'm'enferme dans l'grenier, où j'ai grandi, y'avait pas d'cave C'est pour toi, p'tit frère, si, dans mes textes, tu t'reconnais Dis-leur comme c'est dur de dire au revoir à son poney Hiii-hiii, j'pleure en autotune Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Quarante mille euros par jour pour ta sécu', t'as d'l'imagination, on a du vécu On a des vraies équipes, tu n'as qu'des lèches-culs au Gabon, y'avait personne, ils t'ont chié dessus Tu fais semblant d'pleurer la misère de l'Afrique, mais tu t'comportes comme un colon C'est pas du rap de Polonais, khoya, mes Sénégalais te la mettent dans l'fion Ouais, ma carte est marocaine, ta carte est américaine Mon roi, c'est Mohammed VI, toi, c'est devant Trump que tu t'prosternes Medina, rue 6, angle 7, j't'invite à manger du thiof Bakel City quoi ? L'renoi parle pas un mot wolof Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Si tu cours plus vite qu'Aubameyang, négro, t'es comme Elie, comme Elie, comme Elie Si tu préfères plutôt les trans', négro, t'es comme Elie, comme Elie, comme Elie Si t'as menti toute ton enfance, négro, t'es comme Elie, comme Elie, comme Elie Tu t'es fait fouetter dans ton propre quartier, coups d'ceinture, négro, stoppe la comédie, comédie Hahahahah, eh ouais, négro... Quant à toutes ces petites suceuses que t'essayes d'envoyer clasher, hahahaha, j'ai plus de mètres carrés en disques d'or qu'ils ont de place dans leur petit appartement. J'clashe peut-être les mythos mais pas les clochards, négro. Et, une dernière chose, Elie t'es pas un expatrié, tu fuis la guerre dans ton pays, t'es un réfugié, négro. C'est la jungle de Floride, hahahahaaaa... Comme Elie, woooh, comme Elie, comme Elie, woooh-woooh Fouiny, Fouiny, go, c'est ça Dialal feulé souma wadji, douma sa morom. Mala gueuneu kham Djolof, mala gueuneu degg Wolof. Domou khath, thiaga sakh moola tanei3</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>On déjeune au Grec, nique sa mère les Fouquet's T'as une poussière dans lil, attends je sors le lance-roquettes Le Hip-Hop est mort, sur ma vie je le regrette Je parle dans ton dos hmmmm, j'aime trop la levrette Tu crois que je suis sérieux mais depuis le début, je déconne Le rap français est dead, il a ftour un Mac Bacon Lunettes Vuitton, j'ai jamais froid aux yeux Man j'ai toujours foi en Dieu, jamais confiance aux hommes en bleu J'ai mis du botox dans mon stylo bic Ouest Side, Banlieue Sale, ouais Nhar Sheitan click De la C ,de la hi, sur les prix on te chahel On importe, on exporte, j'ai le flow tah D.H.L Je fais des albums toute l'année, ouais 365 jours V'là mon quatrième, on attend toujours ton 45 tours Disque de platine, jaloux je vois pas pourquoi t'es triste Une banquette arrière avec ma chienne, je joue à Tetris Du 'sky dans les veines, on s'enjaille MC nettoie-moi les coins de la bouche quand j'graille On déboule sur scène, on t'enjaille Un gun dans la bouche, on va te faire danser le raï On s'enjaille, on s'enjaille On s'enjaille rebeu, on s'enjaille Si t'es pas prêt d'assumer fais pas le con, vise les mollets Là d'où je viens, les vrais vont tous chercher, l'argent là où il est You might also like Dédié à tous ces fils de putes qui tiennent les clés au mitard La vie n'a pas de prix comme ma montre Audemars Les jaloux qui veulent clash finissent tous dans une marre Ton African Dream finis vite en cauchemar Et click click, ratatata, pose ton gun J'ai le corps à Snoop et les couilles à Big Pun Ton flow pue la merde, va niquer ton keum J'mâche des MC's mache chewing-gum T'as des dent de lait, t'en laisseras quelques unes parterre Ta mère est trop jeune donc on a niquer ta grand-mère Mec arrête le rap, ton album c'est de la de-mer Monte sur ma bite mmmmm, t'auras le mal de mer T'es a deux doigts d'me faire chier et à un ongle de nous quitter J'ai un pied dans la merde et un orteil dans la mosquée On parle plusieurs langages ici, on aime celui des douilles Laisse-les porter plainte, frero on porte nos couilles Du 'sky dans les veines, on s'enjaille MC nettoie-moi les coins de la bouche quand j'graille On déboule sur scène, on t'enjaille Un gun dans la bouche, on va te faire danser le raï On s'enjaille, on s'enjaille On s'enjaille rebeu, on s'enjaille Si t'es pas prêt d'assumer fais pas le con, vise les mollets Là d'où je viens, les vrais vont tous chercher, l'argent là où il est1</t>
+          <t>On déjeune au Grec, nique sa mère les Fouquet's T'as une poussière dans lil, attends je sors le lance-roquettes Le Hip-Hop est mort, sur ma vie je le regrette Je parle dans ton dos hmmmm, j'aime trop la levrette Tu crois que je suis sérieux mais depuis le début, je déconne Le rap français est dead, il a ftour un Mac Bacon Lunettes Vuitton, j'ai jamais froid aux yeux Man j'ai toujours foi en Dieu, jamais confiance aux hommes en bleu J'ai mis du botox dans mon stylo bic Ouest Side, Banlieue Sale, ouais Nhar Sheitan click De la C ,de la hi, sur les prix on te chahel On importe, on exporte, j'ai le flow tah D.H.L Je fais des albums toute l'année, ouais 365 jours V'là mon quatrième, on attend toujours ton 45 tours Disque de platine, jaloux je vois pas pourquoi t'es triste Une banquette arrière avec ma chienne, je joue à Tetris Du 'sky dans les veines, on s'enjaille MC nettoie-moi les coins de la bouche quand j'graille On déboule sur scène, on t'enjaille Un gun dans la bouche, on va te faire danser le raï On s'enjaille, on s'enjaille On s'enjaille rebeu, on s'enjaille Si t'es pas prêt d'assumer fais pas le con, vise les mollets Là d'où je viens, les vrais vont tous chercher, l'argent là où il est Dédié à tous ces fils de putes qui tiennent les clés au mitard La vie n'a pas de prix comme ma montre Audemars Les jaloux qui veulent clash finissent tous dans une marre Ton African Dream finis vite en cauchemar Et click click, ratatata, pose ton gun J'ai le corps à Snoop et les couilles à Big Pun Ton flow pue la merde, va niquer ton keum J'mâche des MC's mache chewing-gum T'as des dent de lait, t'en laisseras quelques unes parterre Ta mère est trop jeune donc on a niquer ta grand-mère Mec arrête le rap, ton album c'est de la de-mer Monte sur ma bite mmmmm, t'auras le mal de mer T'es a deux doigts d'me faire chier et à un ongle de nous quitter J'ai un pied dans la merde et un orteil dans la mosquée On parle plusieurs langages ici, on aime celui des douilles Laisse-les porter plainte, frero on porte nos couilles Du 'sky dans les veines, on s'enjaille MC nettoie-moi les coins de la bouche quand j'graille On déboule sur scène, on t'enjaille Un gun dans la bouche, on va te faire danser le raï On s'enjaille, on s'enjaille On s'enjaille rebeu, on s'enjaille Si t'es pas prêt d'assumer fais pas le con, vise les mollets Là d'où je viens, les vrais vont tous chercher, l'argent là où il est1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yeah Fouiny Babe, hein hein La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre Ayo Fouiny-Fouiny-Fouiny, fais ça pour le kiff Rien n'est fini, rien à foutre du Lamborghini-ghini-ghini Ayo Fouiny-Fouiny-Fouiny, c'est bien tu t'es saigné, saigné, saigné Mais rappelle-toi qu'avant personne ne voulait t'signer, signer On m'disait Fouiny Babe, tu rêves trop L'avenir appartient à ceux qui ont des employés qui s'lèvent tôt J'suis bien dans mon gamos, j'étais bien dans le métro Petit, n'écoute pas les gens. Prends ton bus, ton train, va ser-po J'ai toujours fait l'nécessaire, pour qu'la daronne ait l'sourire Y'a qu'ceux en Ferrari qui disent que rien ne sert de courir Maman attend l'RMI, en retard sur les APL Un jour, mon vieux, Twingo se changera en 6.3 CL Même avec les roues crevées, les p'tits ont besoin d'rêver Regarde tout c'que Fouiny a fait, frérot, sans aucun brevet Putain, j'raconte ma vie et t'as l'impression qu'j'rappe la tienne Petit, lève ton reu-vé à la tienne ! You might also like La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre Ayo Fouiny-Fouiny-Fouiny, pense au milli', milli' Mais n'oublie pas tes frères au salaire mini, mini, mini Ayo Fouiny-Fouiny-Fouiny, Veni Vidi Fouiny Tes parents sont venus, ont vu, ont subi, subi, subi Et quand les temps étaient durs, j'ai jamais perdu espoir J'ai sué en studio du matin au soir Le sourire de ma mère était ma seule gloire T'inquiète on s'revoit à la fin d'l'histoire ! J'écrivais mes textes seul dans ma garde à vue À la fin d'ma carrière, le bon Dieu fera ma dernière interview Reprends en main ton destin, frère n'oublie pas qui t'étais T'inquiète les potes ça revient en même temps qu'le Porsche GT Et ouais la vie ça va vite, ça passe de 0 à 100 Vidé d'son sang, on est tous violets comme un billet d'500 Putain, j'raconte ma vie et t'as l'impression qu'j'rappe la tienne Petit, lève ton re-vé à la tienne ! La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre Ceux d'en haut, ceux à terre, forcés à s'taire Riches ou pauvres, sans repères, forcés à s'taire Dans le noir, la lumière, forcés à s'taire Ceux qui ont rien, ceux qui espèrent, forcés à s'taire Ceux d'en haut, ceux à terre, forcés à s'taire Riches ou pauvres, sans repères, forcés à s'taire Dans le noir, la lumière, forcés à s'taire Forcés à s'taire... Forcés à s'taire...3</t>
+          <t>Yeah Fouiny Babe, hein hein La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre Ayo Fouiny-Fouiny-Fouiny, fais ça pour le kiff Rien n'est fini, rien à foutre du Lamborghini-ghini-ghini Ayo Fouiny-Fouiny-Fouiny, c'est bien tu t'es saigné, saigné, saigné Mais rappelle-toi qu'avant personne ne voulait t'signer, signer On m'disait Fouiny Babe, tu rêves trop L'avenir appartient à ceux qui ont des employés qui s'lèvent tôt J'suis bien dans mon gamos, j'étais bien dans le métro Petit, n'écoute pas les gens. Prends ton bus, ton train, va ser-po J'ai toujours fait l'nécessaire, pour qu'la daronne ait l'sourire Y'a qu'ceux en Ferrari qui disent que rien ne sert de courir Maman attend l'RMI, en retard sur les APL Un jour, mon vieux, Twingo se changera en 6.3 CL Même avec les roues crevées, les p'tits ont besoin d'rêver Regarde tout c'que Fouiny a fait, frérot, sans aucun brevet Putain, j'raconte ma vie et t'as l'impression qu'j'rappe la tienne Petit, lève ton reu-vé à la tienne ! La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre Ayo Fouiny-Fouiny-Fouiny, pense au milli', milli' Mais n'oublie pas tes frères au salaire mini, mini, mini Ayo Fouiny-Fouiny-Fouiny, Veni Vidi Fouiny Tes parents sont venus, ont vu, ont subi, subi, subi Et quand les temps étaient durs, j'ai jamais perdu espoir J'ai sué en studio du matin au soir Le sourire de ma mère était ma seule gloire T'inquiète on s'revoit à la fin d'l'histoire ! J'écrivais mes textes seul dans ma garde à vue À la fin d'ma carrière, le bon Dieu fera ma dernière interview Reprends en main ton destin, frère n'oublie pas qui t'étais T'inquiète les potes ça revient en même temps qu'le Porsche GT Et ouais la vie ça va vite, ça passe de 0 à 100 Vidé d'son sang, on est tous violets comme un billet d'500 Putain, j'raconte ma vie et t'as l'impression qu'j'rappe la tienne Petit, lève ton re-vé à la tienne ! La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre La nuit, les rêves sont clairs à bout de bras Reprends en main ton destin Te voir en bas, ils lespèrent On fera tourner la Terre Ceux d'en haut, ceux à terre, forcés à s'taire Riches ou pauvres, sans repères, forcés à s'taire Dans le noir, la lumière, forcés à s'taire Ceux qui ont rien, ceux qui espèrent, forcés à s'taire Ceux d'en haut, ceux à terre, forcés à s'taire Riches ou pauvres, sans repères, forcés à s'taire Dans le noir, la lumière, forcés à s'taire Forcés à s'taire... Forcés à s'taire...3</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuves pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venu t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips, ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT J'étais en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 PC Monsieur le Corbeau, Monsieur le Corbeau Monsieur le Corbeau, Kamarades ! Devinez qui vient de Mars Sopra M'Baba Leonidas Un caïd immature comme Ribéry, Anelka ou Gallas Mes favelas, que des piranhas sortis des marécages Je suis détesté car vu du ciel, je brille plus que Las Vegas Faites de la place au Kamarade, Sopra M'Baba flow d'une Kalash' Appelle moi Weezy F car t'es ma Nicki Lewinsky Minaj Oh my God, Oh my God, les MC's sont dans ma paume Ils veulent te voir de près, dis-leur qu'il leur faut un télescope J'suis trop loin pour eux mon style ne fait que les scandaliser Ramène-moi les sur ma planète que j'puisse les halaliser Plus de plomb qu'un pare balle quand je me met à débiter Ne m'appelle pas Toby, mon nom à moi c'est Sopra Kinté Fouiny j'ai trop d'appétit, laisse-moi le son que jengloutis Pendant que les autres MC's habillent leurs flows en Hello Kitty Qu'ils aillent tous vite s'abriter, je n'ferai pas de charité Je t'ai dit mon nom à moi c'est pas Toby mais Sopra Kinté You might also like Un négro dans la ville Guerlain s'arrache les cheveux, les envieux s'épilent J'arrive comme Hugo comme Katrina... Choper la vie sans morphine, j'suis Poids lourd toi t'es Taillefine Demande à La Fouine, c'est qui le dancehall King ? Ghetto Gwada raggamuffin' T'es armé, armé comme le Hezbollah, ennemis ? J'mange ça comme du chocolat Banlieue Sale animal, quand on arrive tout le monde fait la Ola On est dans le futur, toi ton flow sent le moisi On n'a pas choisi la musique, c'est elle qui nous a choisi Flow assassin meurtrier, Riner pas David Douillet 78 Banlieue Sale, Banlieue Ouest, Banlieue Ok J'ai trop de punchlines ma couillasse, j'laisse les MC's en dallo J'suis en concert au Dallas et au Skandalo On t'allume au kalash, puis roue arrière en char d'assaut Ptit narvalo du robinet, narvalo du caniveau Dans le rap j'ai aucun rivaux avec leurs phases toutes en carton Les MC pillent dans mes rimes comme si j'étais Toutankhamon On a des gueules de stre-mon et des grosses tre-mon Ma bite dans lilleton, ça fait tsss dans lil du maton On parle l'argo d'Treuil-Mon, criave les os d'tes morts Exécute quand on donne nos ordres, baise les putes comme un dinosaure J'suis avec Belzébuth, j'siffle un Nabuchodonosor J'rappe les doigts dans la gorge pour t'gerber mes meilleures ceau-mor Tu veux de l'écaille de poisson, pas besoin d'aller au port J'serre que des avions, appelle-moi l'aéroport Au pieds une paire de Dan-Jor, au bras un paquet bulgare Fais porter le voile à ta femme nous on la viole du regard Ecoute cette grosse prod sonninké, l'alcool est martiniquais Kho j'crois je vais tout niquer, toujours al comme Manu Key Flow milé millénium, le tien est sans unité J'ai la dégaine d'un cricket qui t'fout à poil brolické Canardo dans la cour des grands Banlieue Sale mec on entreprend Ta petite tête est dans mon rétro, re-fré la notre est dans ton écran Si tu rappes après moi c'est que t'as du cran, un petit conseil recule d'un cran Brolick nan j'connais pas de cran d'arrêt de Trappes à Abidjan J'ai les pieds dans le bizz' et la tête dans la tise, la tise dans la main et de l'autre je te vise Ban-Banlieue Sale Music, physique, technique, t'inquiète pas on maîtrise Déterminés comme Aboudou, mec tu piges pas le style est vaudou eh ! Même sur une chaise tu m'arrives à peine aux genoux ouais ! Haschish draham Dar el Baida 04000, Ca Bouge Pas Hautes Noues Peace, Brolik Verbal Banlieue Sale on s'enjaille ! Hautes Noues Peace Brolik Verbal, 11'43 dans le trou de balle Aujourd'hui j'suis extrait, j'vais me sauver du tribunal Haschish draham, ma tribu kiffe la pénétration anale Glenn Smith, Maysio, banlieusard qui fait danser le XXX Videur j'suis ton pire cauchemar, obligé que ça parte en bagarre Enervé j'ai pas coffré aujourd'hui, y'avait les gendarmes au parloir Regard infrarouge khoya, les lions ils chassent dans le noir Panthère perruquée j'vais te piquer, j'suis ton prédateur en Audemar J'suis avec Omar dans une impasse en X-Max Special Delivery ma grosse Bériz c'est Mad Max J'suis tellement violent pour toi espèce de petite connasse Tu vas porter un tampax toute l'année, en taule j'suis number one comme Komax Khoya, mon flow un numéro d'écrou, j'rigole quand je m'écroule J'suis complètement mahboul, y'a la départementale qui patrouille On s'envole comme les aigles royal, les eunuques n'ont plus d'couilles Bafana, Dar el Baida, un hors la loi qui passe à la fouille Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez1</t>
+          <t>Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuves pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venu t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips, ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT J'étais en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 PC Monsieur le Corbeau, Monsieur le Corbeau Monsieur le Corbeau, Kamarades ! Devinez qui vient de Mars Sopra M'Baba Leonidas Un caïd immature comme Ribéry, Anelka ou Gallas Mes favelas, que des piranhas sortis des marécages Je suis détesté car vu du ciel, je brille plus que Las Vegas Faites de la place au Kamarade, Sopra M'Baba flow d'une Kalash' Appelle moi Weezy F car t'es ma Nicki Lewinsky Minaj Oh my God, Oh my God, les MC's sont dans ma paume Ils veulent te voir de près, dis-leur qu'il leur faut un télescope J'suis trop loin pour eux mon style ne fait que les scandaliser Ramène-moi les sur ma planète que j'puisse les halaliser Plus de plomb qu'un pare balle quand je me met à débiter Ne m'appelle pas Toby, mon nom à moi c'est Sopra Kinté Fouiny j'ai trop d'appétit, laisse-moi le son que jengloutis Pendant que les autres MC's habillent leurs flows en Hello Kitty Qu'ils aillent tous vite s'abriter, je n'ferai pas de charité Je t'ai dit mon nom à moi c'est pas Toby mais Sopra Kinté Un négro dans la ville Guerlain s'arrache les cheveux, les envieux s'épilent J'arrive comme Hugo comme Katrina... Choper la vie sans morphine, j'suis Poids lourd toi t'es Taillefine Demande à La Fouine, c'est qui le dancehall King ? Ghetto Gwada raggamuffin' T'es armé, armé comme le Hezbollah, ennemis ? J'mange ça comme du chocolat Banlieue Sale animal, quand on arrive tout le monde fait la Ola On est dans le futur, toi ton flow sent le moisi On n'a pas choisi la musique, c'est elle qui nous a choisi Flow assassin meurtrier, Riner pas David Douillet 78 Banlieue Sale, Banlieue Ouest, Banlieue Ok J'ai trop de punchlines ma couillasse, j'laisse les MC's en dallo J'suis en concert au Dallas et au Skandalo On t'allume au kalash, puis roue arrière en char d'assaut Ptit narvalo du robinet, narvalo du caniveau Dans le rap j'ai aucun rivaux avec leurs phases toutes en carton Les MC pillent dans mes rimes comme si j'étais Toutankhamon On a des gueules de stre-mon et des grosses tre-mon Ma bite dans lilleton, ça fait tsss dans lil du maton On parle l'argo d'Treuil-Mon, criave les os d'tes morts Exécute quand on donne nos ordres, baise les putes comme un dinosaure J'suis avec Belzébuth, j'siffle un Nabuchodonosor J'rappe les doigts dans la gorge pour t'gerber mes meilleures ceau-mor Tu veux de l'écaille de poisson, pas besoin d'aller au port J'serre que des avions, appelle-moi l'aéroport Au pieds une paire de Dan-Jor, au bras un paquet bulgare Fais porter le voile à ta femme nous on la viole du regard Ecoute cette grosse prod sonninké, l'alcool est martiniquais Kho j'crois je vais tout niquer, toujours al comme Manu Key Flow milé millénium, le tien est sans unité J'ai la dégaine d'un cricket qui t'fout à poil brolické Canardo dans la cour des grands Banlieue Sale mec on entreprend Ta petite tête est dans mon rétro, re-fré la notre est dans ton écran Si tu rappes après moi c'est que t'as du cran, un petit conseil recule d'un cran Brolick nan j'connais pas de cran d'arrêt de Trappes à Abidjan J'ai les pieds dans le bizz' et la tête dans la tise, la tise dans la main et de l'autre je te vise Ban-Banlieue Sale Music, physique, technique, t'inquiète pas on maîtrise Déterminés comme Aboudou, mec tu piges pas le style est vaudou eh ! Même sur une chaise tu m'arrives à peine aux genoux ouais ! Haschish draham Dar el Baida 04000, Ca Bouge Pas Hautes Noues Peace, Brolik Verbal Banlieue Sale on s'enjaille ! Hautes Noues Peace Brolik Verbal, 11'43 dans le trou de balle Aujourd'hui j'suis extrait, j'vais me sauver du tribunal Haschish draham, ma tribu kiffe la pénétration anale Glenn Smith, Maysio, banlieusard qui fait danser le XXX Videur j'suis ton pire cauchemar, obligé que ça parte en bagarre Enervé j'ai pas coffré aujourd'hui, y'avait les gendarmes au parloir Regard infrarouge khoya, les lions ils chassent dans le noir Panthère perruquée j'vais te piquer, j'suis ton prédateur en Audemar J'suis avec Omar dans une impasse en X-Max Special Delivery ma grosse Bériz c'est Mad Max J'suis tellement violent pour toi espèce de petite connasse Tu vas porter un tampax toute l'année, en taule j'suis number one comme Komax Khoya, mon flow un numéro d'écrou, j'rigole quand je m'écroule J'suis complètement mahboul, y'a la départementale qui patrouille On s'envole comme les aigles royal, les eunuques n'ont plus d'couilles Bafana, Dar el Baida, un hors la loi qui passe à la fouille Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez1</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Burning papers into ashes, what a season How they fly high from the ground up There is yet another fountain Flowing over as the night falls Keep dreaming away Jai peur de Dieu, peur de la suite, peur de Dieu, peur de la suite Ma foi veut mguider au paradis, mon corps lui a pris la fuite Jen ai marre de guetter la street, bloqué dans ce pays de koufar On ma déjà fait du s'hour, w'Allah quma baraque cest devenu Poudlard Jsais qui tes, je toublierai pas, surtout pas le jour du jugement Jprierai Dieu pour quil nous en préserve jusquà ce que jai plus de sang Ils ont pas idée de ce que jai vécu, nique ces connards qui mont déçu Jsuis devenu une grosse pointure, je laisserai personne me marcher dessus Avec le temps jai grandi, aujourdhui jsuis plutôt connu Jrêve souvent de me saper en grande marque mais je me rappelle quen haut jserai tout nu Expliquez à tous ces bâtards quavec ou sans musique j'suis muslim Que jfais mes prières dans ldîn même si jsuis plus du tout hnine InchAllah jarrête le rap, je mécarte des djinns et du Sheïtan Tout le monde veut grimper avec oi-t, il reste plus personne quand tu te rétames Jsuis perdu jcontinue à courir, je sais plus où est-ce que je me situe Je sais que les épreuves font souffrir mais sache que la vie continue Seigneur montrez-moi le chemin, Seigneur montrez-moi la bonne route Plus javance, plus tout est incertain, tous ces rageux le succès dégoute Javais jamais vu locéan mais les joues de la daronne étaient salées Au quartier jétais bon quà tiser pourtant cétait le daron quétait saoulé Jai visité l'Île de Gorée, pleuré les ravages des coups de fouets Quand le diable éternue, cest lenfer qui te dit à tes souhaits Ils disent que jirai pas là-haut car le soir ils mont pas vu prier Ils ont vu les diamants briller, normal quils disent que jsuis illuminé Ils sprosternent devant la SACEM, allez leur dire fuck BFM Mets-la dans ta poche et pas dans ton zen, comme Zazie soyons zen Le seul physio faut pas paniquer, jreviendrai pas te niquer ta mère Si tu mas recalé même accompagné devant les portes de lenfer Jsuis le rebeu le plus écouté de Dar El Beïda aux Djazaïr Un mathusalem sur une ble-ta cest un frère de moins au Fajr Ce ne sont plus les voitures qui crament mais le cur des habitants Un rebeu à l'Assemblée c'est rare comme une capote au couvent You might also like Jmets pas la religion de côté, jcrois en Dieu depuis tout jeune Je men bas les couilles que tu mtrouves cheum, je tassure que je vais te la mettre en beauté Les haineux veulent me marabouter, boycotté par tous ces racistes Jles calcule as-p, pour men sortir je fais des douas comme lexploratrice Jai quune seule parole, jai quune âme, de temps en temps jsuis stressé Suffit que ma daronne verse une larme pour prendre un océan de péchés Jai beaucoup dennemies à steaker, jai beaucoup de victoires à fêter Ici-bas cest le monde à lenvers bientôt y aura de la neige en été Jai vu la vie en rose mon cur sest planté dans les orties Bloqué dans le labyrinthe du harm seul Dieu connait la sortie Jconnais les endroits sordides, combien de temps me reste encore-t-il ? Combien de temps serais-je encore libre ? A chaque fois que jy pense jai mal Sache que quand la mort passe elle te rattrape même si tes sportif À chaque fois que le jour se lève joublie dremercier Dieu Si jdois choisir entre le succès et les femmes sache que jemmerde les deux Et puis jai peur de la mort mais nique sa mère Tant que ma mif est à labri, jgarde les pieds sur terre Et les problèmes senchaînent Les haineux à la chaîne Mais la vie continue Yeah ....Ahn ... Un jours la mort te frappe , et la vie continue La mort, elle te loupe pas13</t>
+          <t>Burning papers into ashes, what a season How they fly high from the ground up There is yet another fountain Flowing over as the night falls Keep dreaming away Jai peur de Dieu, peur de la suite, peur de Dieu, peur de la suite Ma foi veut mguider au paradis, mon corps lui a pris la fuite Jen ai marre de guetter la street, bloqué dans ce pays de koufar On ma déjà fait du s'hour, w'Allah quma baraque cest devenu Poudlard Jsais qui tes, je toublierai pas, surtout pas le jour du jugement Jprierai Dieu pour quil nous en préserve jusquà ce que jai plus de sang Ils ont pas idée de ce que jai vécu, nique ces connards qui mont déçu Jsuis devenu une grosse pointure, je laisserai personne me marcher dessus Avec le temps jai grandi, aujourdhui jsuis plutôt connu Jrêve souvent de me saper en grande marque mais je me rappelle quen haut jserai tout nu Expliquez à tous ces bâtards quavec ou sans musique j'suis muslim Que jfais mes prières dans ldîn même si jsuis plus du tout hnine InchAllah jarrête le rap, je mécarte des djinns et du Sheïtan Tout le monde veut grimper avec oi-t, il reste plus personne quand tu te rétames Jsuis perdu jcontinue à courir, je sais plus où est-ce que je me situe Je sais que les épreuves font souffrir mais sache que la vie continue Seigneur montrez-moi le chemin, Seigneur montrez-moi la bonne route Plus javance, plus tout est incertain, tous ces rageux le succès dégoute Javais jamais vu locéan mais les joues de la daronne étaient salées Au quartier jétais bon quà tiser pourtant cétait le daron quétait saoulé Jai visité l'Île de Gorée, pleuré les ravages des coups de fouets Quand le diable éternue, cest lenfer qui te dit à tes souhaits Ils disent que jirai pas là-haut car le soir ils mont pas vu prier Ils ont vu les diamants briller, normal quils disent que jsuis illuminé Ils sprosternent devant la SACEM, allez leur dire fuck BFM Mets-la dans ta poche et pas dans ton zen, comme Zazie soyons zen Le seul physio faut pas paniquer, jreviendrai pas te niquer ta mère Si tu mas recalé même accompagné devant les portes de lenfer Jsuis le rebeu le plus écouté de Dar El Beïda aux Djazaïr Un mathusalem sur une ble-ta cest un frère de moins au Fajr Ce ne sont plus les voitures qui crament mais le cur des habitants Un rebeu à l'Assemblée c'est rare comme une capote au couvent Jmets pas la religion de côté, jcrois en Dieu depuis tout jeune Je men bas les couilles que tu mtrouves cheum, je tassure que je vais te la mettre en beauté Les haineux veulent me marabouter, boycotté par tous ces racistes Jles calcule as-p, pour men sortir je fais des douas comme lexploratrice Jai quune seule parole, jai quune âme, de temps en temps jsuis stressé Suffit que ma daronne verse une larme pour prendre un océan de péchés Jai beaucoup dennemies à steaker, jai beaucoup de victoires à fêter Ici-bas cest le monde à lenvers bientôt y aura de la neige en été Jai vu la vie en rose mon cur sest planté dans les orties Bloqué dans le labyrinthe du harm seul Dieu connait la sortie Jconnais les endroits sordides, combien de temps me reste encore-t-il ? Combien de temps serais-je encore libre ? A chaque fois que jy pense jai mal Sache que quand la mort passe elle te rattrape même si tes sportif À chaque fois que le jour se lève joublie dremercier Dieu Si jdois choisir entre le succès et les femmes sache que jemmerde les deux Et puis jai peur de la mort mais nique sa mère Tant que ma mif est à labri, jgarde les pieds sur terre Et les problèmes senchaînent Les haineux à la chaîne Mais la vie continue Yeah ....Ahn ... Un jours la mort te frappe , et la vie continue La mort, elle te loupe pas13</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>À force de d'mander pardon, le Ciel m'a pardonné Le soir j'enchaînais deux tafs, car les couches c'est pas donné J'me penchais sur ton berceau, j'me nourrissais d'ta lumière Et comme elle venait du ciel, honore le nom d'ta grand-mère Il a fallu assumer, alors je prenais sur moi Pas d'resto, pas d'ciné. 900 euros par mois Plus d'argent à compter, très peu d'gens sur qui compter Ta grand-mère était pauvre et ton père n'est pas diplômé On a choisi d'te garder, sans jamais hésiter J'ai dit Au revoir le parquet, bonjour la maternité Quelles que soient les épreuves, quels que soient les dangers J'me rappelle qu'un matin, pour moi tout a changé Depuis ce fameux matin, impossible à décrire Où je t'ai pris dans mes bras, je t'ai regardée sourire Je t'avais tellement rêvée, je t'ai tout de suite aimée Ce jour un homme a changé Depuis ce fameux matin, impossible à décrire Où on t'a pris dans nos bras, où tu nous a vus sourire On t'avait tellement rêvée, déjà neuf mois qu'on t'aimait Ce jour un ange est né S'ensuit des jours meilleurs Ohoh oh, oho oho Ohoh oh, oho oho Ohoh oh, oho oho Ce jour un ange est né You might also like Ta mère a su rester forte, elle mit d'côté le lycée Face aux galères de toutes sortes, échange poussette et cahiers On vivait dans un studio, sans enceintes, sans micro Pas d'argent pour le resto, ta mère n'est pas une michto Dans un salon sans plasma, sans lecteur DVD Mais j'l'ai jamais vue se plaindre, elle faisait les courses à Ed Vrai qu'on menait une vie simple, on s'baladait sur les Champs J'la voyais baisser l'regard devant la boutique Longchamp Cours par correspondance, entre deux couches Pampers Ta mère est une femme forte, une reine, une ghetto déesse J'me rappelle tes premiers pas, elle t'a appris à marcher Et tu trouveras dans ses bras ce que nul ne pourra t'acheter Depuis ce fameux matin, impossible à décrire Où je t'ai pris dans mes bras, je t'ai regardée sourire Je t'avais tellement rêvée, je t'ai tout de suite aimée Ce jour un homme a changé Depuis ce fameux matin, impossible à décrire Où on t'a pris dans nos bras, où tu nous a vus sourire On t'avait tellement rêvée, déjà neuf mois qu'on t'aimait Ce jour un ange est né S'ensuit des jours meilleurs Ohoh oh, oho oho Ohoh oh, oho oho Ohoh oh, oho oho Ce jour un ange est né S'ensuit des jours meilleurs Ohoh oh, oho oho Ohoh oh, oho oho Ohoh oh, oho oho Ce jour un ange est né Depuis ce fameux matin, impossible à décrire Où je t'ai pris dans mes bras, je t'ai regardée sourire Je t'avais tellement rêvée, je t'ai tout de suite aimée Ce jour un homme a changé Depuis ce fameux matin, impossible à décrire Où je t'ai pris dans mes bras, je t'ai regardée sourire Je t'avais tellement rêvée, je t'ai tout de suite aimée Ce jour un ange est né Ohoh oh, oho oho Ohoh oh, oho oho Ohoh oh, oho oho</t>
+          <t>À force de d'mander pardon, le Ciel m'a pardonné Le soir j'enchaînais deux tafs, car les couches c'est pas donné J'me penchais sur ton berceau, j'me nourrissais d'ta lumière Et comme elle venait du ciel, honore le nom d'ta grand-mère Il a fallu assumer, alors je prenais sur moi Pas d'resto, pas d'ciné. 900 euros par mois Plus d'argent à compter, très peu d'gens sur qui compter Ta grand-mère était pauvre et ton père n'est pas diplômé On a choisi d'te garder, sans jamais hésiter J'ai dit Au revoir le parquet, bonjour la maternité Quelles que soient les épreuves, quels que soient les dangers J'me rappelle qu'un matin, pour moi tout a changé Depuis ce fameux matin, impossible à décrire Où je t'ai pris dans mes bras, je t'ai regardée sourire Je t'avais tellement rêvée, je t'ai tout de suite aimée Ce jour un homme a changé Depuis ce fameux matin, impossible à décrire Où on t'a pris dans nos bras, où tu nous a vus sourire On t'avait tellement rêvée, déjà neuf mois qu'on t'aimait Ce jour un ange est né S'ensuit des jours meilleurs Ohoh oh, oho oho Ohoh oh, oho oho Ohoh oh, oho oho Ce jour un ange est né Ta mère a su rester forte, elle mit d'côté le lycée Face aux galères de toutes sortes, échange poussette et cahiers On vivait dans un studio, sans enceintes, sans micro Pas d'argent pour le resto, ta mère n'est pas une michto Dans un salon sans plasma, sans lecteur DVD Mais j'l'ai jamais vue se plaindre, elle faisait les courses à Ed Vrai qu'on menait une vie simple, on s'baladait sur les Champs J'la voyais baisser l'regard devant la boutique Longchamp Cours par correspondance, entre deux couches Pampers Ta mère est une femme forte, une reine, une ghetto déesse J'me rappelle tes premiers pas, elle t'a appris à marcher Et tu trouveras dans ses bras ce que nul ne pourra t'acheter Depuis ce fameux matin, impossible à décrire Où je t'ai pris dans mes bras, je t'ai regardée sourire Je t'avais tellement rêvée, je t'ai tout de suite aimée Ce jour un homme a changé Depuis ce fameux matin, impossible à décrire Où on t'a pris dans nos bras, où tu nous a vus sourire On t'avait tellement rêvée, déjà neuf mois qu'on t'aimait Ce jour un ange est né S'ensuit des jours meilleurs Ohoh oh, oho oho Ohoh oh, oho oho Ohoh oh, oho oho Ce jour un ange est né S'ensuit des jours meilleurs Ohoh oh, oho oho Ohoh oh, oho oho Ohoh oh, oho oho Ce jour un ange est né Depuis ce fameux matin, impossible à décrire Où je t'ai pris dans mes bras, je t'ai regardée sourire Je t'avais tellement rêvée, je t'ai tout de suite aimée Ce jour un homme a changé Depuis ce fameux matin, impossible à décrire Où je t'ai pris dans mes bras, je t'ai regardée sourire Je t'avais tellement rêvée, je t'ai tout de suite aimée Ce jour un ange est né Ohoh oh, oho oho Ohoh oh, oho oho Ohoh oh, oho oho</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yeah yeah han Louis Quoi d'neuf Fendi baby ? Yeah Han Han Yeah, va pas chercher plus loin ma ptite gueule Voilà l'équipe que t'aimes que t'adores ma ptite gueule Fendi babe, CDC ma ptite gueule Han Han Bicrave sec sur le ter-ter sahbi 2012 rien n'a changé les tits-pe vendent d'la Paki Vendent la what ? Tu cherches la merde ? Pas besoin de Mappy frère, tu sais où m'appeler Rien n'a changé y'a toujours d'la chatte à Chatelet Capitale du crime Capi-Capitale du crime 3 Capitale du crime Capi-Capitale du crime 3 On est au dessus des lois 22 carats sur les doigts J'arrive en Benz nique ta mère avec ta C3 A Trappes mec on est doués T'es roué d'coups et on est au max, check mes souliers Y'a du sang dessus car c'est à un keuf qu'mes shoes parlent Y'a du sang car elle était trop dur la touze-par Demande à Battle j'suis All Stars avant d'être Sophomore J'suis entré en cabine j'suis sorti, tout le monde était mort Check ma Casio, check son Audemars La rue en redemande donc 3010 redémarre J'pourrais être son enfant et elle m'appelle daron négro Trop de disquettes j'remplace l'ordi du salon négro Quennelle à la Dieudo, j'vis la life que Dieu donne Si j'me fais serrer tout le monde s'appelle John Doe Frère c'est quoi ton bleme-pro ? J'suis deter et toi gros ? Tu veux entrer mais t'as pas d'go, tu veux rouler mais t'as pas d'gove Bienvenue mon pote, Capitale du Crime 3000 File ou on t'kill, chez moi mon gars la drogue elle se deale Mio You might also like Bicrave sec sur le ter-ter sahbi 2012 rien n'a changé les tits-pe vendent d'la Paki Vendent la what ? Tu cherches la merde ? Pas besoin de Mappy frère, tu sais où m'appeler Rien n'a changé y'a toujours d'la chatte à Chatelet Capitale du crime Capi-Capitale du crime 3 Capitale du crime Capi-Capitale du crime 3 On est au dessus des lois 22 carats sur les doigts J'arrive en Benz nique ta mère avec ta C3 On a fumé un keuf, Mazel tov Vodka Ruskov mec ton flow est bof, BS s'attaque au coffre Gros gun braqué sur ta face, Teach me how to Dougie Nique sa mère appelle moi Rox, j'pose avec mes Rookies Ta daronne frise la folie on l'insulte on reste pas poli A force de regarder l'rap derrière Torticolis Grandi dans un taudis maudit, affronté que des gorilles golri Jeune homme lève toi bats-toi hmm DaddyMory J'mangeais la barquette en cellule, ces rappeurs n'étaient pas nés On a des lingots d'or, ils ont des poissons panés Fouiny Babe, Sneazzy West Sneazzy Écarte tes cuisses 3010 fait le reste Compile de tarés, s'marrer l'rap francais n'est pas préparé Mal barré on a soulevé ton flow car il était mal garé Nique sa mère l'Etat, nique sa mère la justice J'suis à mi-chemin entre 1995 et 3010 Bicrave sec sur le ter-ter sahbi 2012 rien n'a changé les tits-pe vendent d'la Paki Vendent la what ? Tu cherches la merde ? Pas besoin de Mappy frère, tu sais où m'appeler Rien n'a changé y'a toujours d'la chatte à Chatelet Capitale du crime Capi-Capitale du crime 3 Capitale du crime Capi-Capitale du crime 3 On est au dessus des lois 22 carats sur les doigts J'arrive en Benz nique ta mère avec ta C3 Sneazzy West ninety five tu connais j'suis dans le fief des maitres Je n'graille que du triple poney, c'est un diez équestre laisse J'm'attaque au sommet, mais j'parle pas d'mes problèmes Vrai, j'ai jamais vu l'Arabe money mais j'paye mes dettes J'marche seul j'casse des gueules Boxe thaï T'as l'seum appelle moi Michael, jeune rockstar Tu t'touches la choupinette, tu jouis mec j'parle pas dans ma barbe Fouiny Babe T'en restes indemne en fait t'as l'air d'en perdre la tête Louis XVI J'me stoppe aps, j'suis d'ja au top man, West est prêt à mourir Lope-sa grosse tass gros tu gobes ça, c'est la routine Sur mes tissus éclaboussures Vodka Redbull J'suis comme le jus dans une pote-ca craquée on n'm'arrête plus No Maybach, tes go n'aiment aps tes fausses Ray Ban Ca s'touche le manche c'est l'tour de France, vla les grosses pédales J'suis tellement chaud qu'tu ressens aps quand le soleil tape J'finis même pas sur une punchline, money time Quant à nous, nous sommes la Capitale des et annotations !2</t>
+          <t>Yeah yeah han Louis Quoi d'neuf Fendi baby ? Yeah Han Han Yeah, va pas chercher plus loin ma ptite gueule Voilà l'équipe que t'aimes que t'adores ma ptite gueule Fendi babe, CDC ma ptite gueule Han Han Bicrave sec sur le ter-ter sahbi 2012 rien n'a changé les tits-pe vendent d'la Paki Vendent la what ? Tu cherches la merde ? Pas besoin de Mappy frère, tu sais où m'appeler Rien n'a changé y'a toujours d'la chatte à Chatelet Capitale du crime Capi-Capitale du crime 3 Capitale du crime Capi-Capitale du crime 3 On est au dessus des lois 22 carats sur les doigts J'arrive en Benz nique ta mère avec ta C3 A Trappes mec on est doués T'es roué d'coups et on est au max, check mes souliers Y'a du sang dessus car c'est à un keuf qu'mes shoes parlent Y'a du sang car elle était trop dur la touze-par Demande à Battle j'suis All Stars avant d'être Sophomore J'suis entré en cabine j'suis sorti, tout le monde était mort Check ma Casio, check son Audemars La rue en redemande donc 3010 redémarre J'pourrais être son enfant et elle m'appelle daron négro Trop de disquettes j'remplace l'ordi du salon négro Quennelle à la Dieudo, j'vis la life que Dieu donne Si j'me fais serrer tout le monde s'appelle John Doe Frère c'est quoi ton bleme-pro ? J'suis deter et toi gros ? Tu veux entrer mais t'as pas d'go, tu veux rouler mais t'as pas d'gove Bienvenue mon pote, Capitale du Crime 3000 File ou on t'kill, chez moi mon gars la drogue elle se deale Mio Bicrave sec sur le ter-ter sahbi 2012 rien n'a changé les tits-pe vendent d'la Paki Vendent la what ? Tu cherches la merde ? Pas besoin de Mappy frère, tu sais où m'appeler Rien n'a changé y'a toujours d'la chatte à Chatelet Capitale du crime Capi-Capitale du crime 3 Capitale du crime Capi-Capitale du crime 3 On est au dessus des lois 22 carats sur les doigts J'arrive en Benz nique ta mère avec ta C3 On a fumé un keuf, Mazel tov Vodka Ruskov mec ton flow est bof, BS s'attaque au coffre Gros gun braqué sur ta face, Teach me how to Dougie Nique sa mère appelle moi Rox, j'pose avec mes Rookies Ta daronne frise la folie on l'insulte on reste pas poli A force de regarder l'rap derrière Torticolis Grandi dans un taudis maudit, affronté que des gorilles golri Jeune homme lève toi bats-toi hmm DaddyMory J'mangeais la barquette en cellule, ces rappeurs n'étaient pas nés On a des lingots d'or, ils ont des poissons panés Fouiny Babe, Sneazzy West Sneazzy Écarte tes cuisses 3010 fait le reste Compile de tarés, s'marrer l'rap francais n'est pas préparé Mal barré on a soulevé ton flow car il était mal garé Nique sa mère l'Etat, nique sa mère la justice J'suis à mi-chemin entre 1995 et 3010 Bicrave sec sur le ter-ter sahbi 2012 rien n'a changé les tits-pe vendent d'la Paki Vendent la what ? Tu cherches la merde ? Pas besoin de Mappy frère, tu sais où m'appeler Rien n'a changé y'a toujours d'la chatte à Chatelet Capitale du crime Capi-Capitale du crime 3 Capitale du crime Capi-Capitale du crime 3 On est au dessus des lois 22 carats sur les doigts J'arrive en Benz nique ta mère avec ta C3 Sneazzy West ninety five tu connais j'suis dans le fief des maitres Je n'graille que du triple poney, c'est un diez équestre laisse J'm'attaque au sommet, mais j'parle pas d'mes problèmes Vrai, j'ai jamais vu l'Arabe money mais j'paye mes dettes J'marche seul j'casse des gueules Boxe thaï T'as l'seum appelle moi Michael, jeune rockstar Tu t'touches la choupinette, tu jouis mec j'parle pas dans ma barbe Fouiny Babe T'en restes indemne en fait t'as l'air d'en perdre la tête Louis XVI J'me stoppe aps, j'suis d'ja au top man, West est prêt à mourir Lope-sa grosse tass gros tu gobes ça, c'est la routine Sur mes tissus éclaboussures Vodka Redbull J'suis comme le jus dans une pote-ca craquée on n'm'arrête plus No Maybach, tes go n'aiment aps tes fausses Ray Ban Ca s'touche le manche c'est l'tour de France, vla les grosses pédales J'suis tellement chaud qu'tu ressens aps quand le soleil tape J'finis même pas sur une punchline, money time Quant à nous, nous sommes la Capitale des et annotations !2</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C'est bien d'avoir du talent mais est-ce que quelqu'un l'expose ? C'est bien d'avoir le bras long mais est-ce que tu touches à quelque chose ? C'est bien de monter mais est-ce que t'aides les gens d'en bas ? C'est bien d'être solidaire mais est-ce que t'envoies des mandats ? C'est bien de bicrave la beuh mais est-ce que tu fais des sous ? C'est bien t'es chef de meute mais est-ce que tout le monde t'écoute ? C'est bien tu chantes la misère mais j'ai jamais vu le Darfour C'est bien d'me chanter par cur mais connais tu mon parcours ? C'est bien de pousser la fonte mais ça muscle pas ton cerveau C'est bien d'être dans le game mais est-ce que t'écoutes tes rivaux ? C'est bien d'aimer tes surs mais est-ce que t'es indulgent ? Est-ce que tu les protège, dis-moi est-ce que t'es ti-gen ? C'est bien de faire un gosse mais est-ce que tu peux l'élever ? C'est bien d'avoir un gun mais est-ce que tu peux tirer ? Tu peux fumer des mecs pour l'honneur de la Mama Madame la juge m'en fous du nombre car quand on aime on ne compte pas C'est bien de marcher en bande mais est-ce qu'il bouge pour toi ? Compter sur ses parents mais est-ce qu'ils compte pour toi ? C'est bien d'avoir du cur c'est mieux d'avoir la foi T'as un grand chez les autres, vaut mieux un p'tit chez soi C'est bien de traîner au quartier mais faut faire des sous Ici on te prête le gen-ar et tu rends les coups C'est bien d'avoir le bolide songe à faire le plein Et si tout ne te suffit pas nous on s'contente d'un rien You might also like Concert à guichets ouvert comme tes fesses sales C'est bien de remplir ton marcel, c'est mieux de remplir les salles C'est bien de vivre chez la mama, c'est mieux de remplir la gamelle Trop de bouffons mal dans leurs peaux rêvent de trouer la mienne C'est bien d'avoir des potes, c'est mieux d'avoir des amis C'est bien d'avoir des bandes, mais c'est mieux d'être en damier Petit grandis pas trop vite, tu vas te faire monter en l'air C'est bien tu veux croquer, mais est-ce que t'as des molaires ? C'est bien de m'envoyer des lettres, perso je préfère les mandats Je préfère un ami qui me ment qu'une balance qui ne ment pas C'est bien de louer un Porsche, c'est mieux d'avoir son Clio Enfermé dans sa cellule, c'est bien d'avoir un stylo Et je préfères avoir des kheys, je préfère avoir des ailes D'avoir raison sur une pute, que de me tromper sur une halal C'est du 7.8 au 9.3, demande à F.A Baby C'est bien d'avoir un baveux, c'est mieux d'avoir un alibi C'est bien de marcher en bande mais est-ce qu'il bouge pour toi ? Compter sur ses parents mais est-ce qu'ils compte pour toi ? C'est bien d'avoir du cur c'est mieux d'avoir la foi T'as un grand chez les autres, vaut mieux un p'tit chez soi C'est bien de traîner au quartier mais faut faire des sous Ici on te prête le gen-ar et tu rends les coups C'est bien d'avoir le bolide songe à faire le plein Et si tout ne te suffit pas nous on s'contente d'un rien C'est bien d'être le patron mais est-ce que tu gères le business ? C'est bien de faire des records mais est-ce que t'es dans le guiness ? C'est bien de venir en groupe mais est-ce que t'es bien entouré ? C'est bien d'être dans les charts mais est ce que ça va durer ? C'est bien d'être dans l'équipe mais est-ce que t'es sur le terrain ? C'est bien qu'j'ai des rivaux mais est-ce qu'ils ont mon niveau ? C'est bien de pointer un brolic mais est-ce que c'est toi qui as raison ? C'est bien de se sentir chez soi, mais est-ce que c'est ta maison ? C'est bien de faire le rappel mais est-ce que toi tu l'applique ? C'est bien de rapper la rue mais as tu aimé la street ? C'est bien d'être une star mais assumes-tu la pression ? C'est bien de parler de la vie mais poses-tu les bonnes questions ? Tu peux parler d'arc-en-ciel mais aimes-tu les gens de couleur ? C'est bien de comprendre l'Afrique qui va traduire sa douleur ? Accepte la vérité au lieu de te convaincre Le contraire des gens bien ça reste les gendarmes, refrain C'est bien de marcher en bande mais est-ce qu'il bouge pour toi ? Compter sur ses parents mais est-ce qu'ils compte pour toi ? C'est bien d'avoir du cur c'est mieux d'avoir la foi T'as un grand chez les autres, vaut mieux un p'tit chez soi C'est bien de traîner au quartier mais faut faire des sous Ici on te prête le gen-ar et tu rends les coups C'est bien d'avoir le bolide songe à faire le plein Et si tout ne te suffit pas nous on s'contente d'un rien C'est bien de kiffer cette musique mais kiffes-tu Rap Genius ?</t>
+          <t>C'est bien d'avoir du talent mais est-ce que quelqu'un l'expose ? C'est bien d'avoir le bras long mais est-ce que tu touches à quelque chose ? C'est bien de monter mais est-ce que t'aides les gens d'en bas ? C'est bien d'être solidaire mais est-ce que t'envoies des mandats ? C'est bien de bicrave la beuh mais est-ce que tu fais des sous ? C'est bien t'es chef de meute mais est-ce que tout le monde t'écoute ? C'est bien tu chantes la misère mais j'ai jamais vu le Darfour C'est bien d'me chanter par cur mais connais tu mon parcours ? C'est bien de pousser la fonte mais ça muscle pas ton cerveau C'est bien d'être dans le game mais est-ce que t'écoutes tes rivaux ? C'est bien d'aimer tes surs mais est-ce que t'es indulgent ? Est-ce que tu les protège, dis-moi est-ce que t'es ti-gen ? C'est bien de faire un gosse mais est-ce que tu peux l'élever ? C'est bien d'avoir un gun mais est-ce que tu peux tirer ? Tu peux fumer des mecs pour l'honneur de la Mama Madame la juge m'en fous du nombre car quand on aime on ne compte pas C'est bien de marcher en bande mais est-ce qu'il bouge pour toi ? Compter sur ses parents mais est-ce qu'ils compte pour toi ? C'est bien d'avoir du cur c'est mieux d'avoir la foi T'as un grand chez les autres, vaut mieux un p'tit chez soi C'est bien de traîner au quartier mais faut faire des sous Ici on te prête le gen-ar et tu rends les coups C'est bien d'avoir le bolide songe à faire le plein Et si tout ne te suffit pas nous on s'contente d'un rien Concert à guichets ouvert comme tes fesses sales C'est bien de remplir ton marcel, c'est mieux de remplir les salles C'est bien de vivre chez la mama, c'est mieux de remplir la gamelle Trop de bouffons mal dans leurs peaux rêvent de trouer la mienne C'est bien d'avoir des potes, c'est mieux d'avoir des amis C'est bien d'avoir des bandes, mais c'est mieux d'être en damier Petit grandis pas trop vite, tu vas te faire monter en l'air C'est bien tu veux croquer, mais est-ce que t'as des molaires ? C'est bien de m'envoyer des lettres, perso je préfère les mandats Je préfère un ami qui me ment qu'une balance qui ne ment pas C'est bien de louer un Porsche, c'est mieux d'avoir son Clio Enfermé dans sa cellule, c'est bien d'avoir un stylo Et je préfères avoir des kheys, je préfère avoir des ailes D'avoir raison sur une pute, que de me tromper sur une halal C'est du 7.8 au 9.3, demande à F.A Baby C'est bien d'avoir un baveux, c'est mieux d'avoir un alibi C'est bien de marcher en bande mais est-ce qu'il bouge pour toi ? Compter sur ses parents mais est-ce qu'ils compte pour toi ? C'est bien d'avoir du cur c'est mieux d'avoir la foi T'as un grand chez les autres, vaut mieux un p'tit chez soi C'est bien de traîner au quartier mais faut faire des sous Ici on te prête le gen-ar et tu rends les coups C'est bien d'avoir le bolide songe à faire le plein Et si tout ne te suffit pas nous on s'contente d'un rien C'est bien d'être le patron mais est-ce que tu gères le business ? C'est bien de faire des records mais est-ce que t'es dans le guiness ? C'est bien de venir en groupe mais est-ce que t'es bien entouré ? C'est bien d'être dans les charts mais est ce que ça va durer ? C'est bien d'être dans l'équipe mais est-ce que t'es sur le terrain ? C'est bien qu'j'ai des rivaux mais est-ce qu'ils ont mon niveau ? C'est bien de pointer un brolic mais est-ce que c'est toi qui as raison ? C'est bien de se sentir chez soi, mais est-ce que c'est ta maison ? C'est bien de faire le rappel mais est-ce que toi tu l'applique ? C'est bien de rapper la rue mais as tu aimé la street ? C'est bien d'être une star mais assumes-tu la pression ? C'est bien de parler de la vie mais poses-tu les bonnes questions ? Tu peux parler d'arc-en-ciel mais aimes-tu les gens de couleur ? C'est bien de comprendre l'Afrique qui va traduire sa douleur ? Accepte la vérité au lieu de te convaincre Le contraire des gens bien ça reste les gendarmes, refrain C'est bien de marcher en bande mais est-ce qu'il bouge pour toi ? Compter sur ses parents mais est-ce qu'ils compte pour toi ? C'est bien d'avoir du cur c'est mieux d'avoir la foi T'as un grand chez les autres, vaut mieux un p'tit chez soi C'est bien de traîner au quartier mais faut faire des sous Ici on te prête le gen-ar et tu rends les coups C'est bien d'avoir le bolide songe à faire le plein Et si tout ne te suffit pas nous on s'contente d'un rien C'est bien de kiffer cette musique mais kiffes-tu Rap Genius ?</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Dégage la place, j'ai trop la classe Mes genoux touchent le pilote, première classe Délinquance ordonnance pas d'chance Il manque une rime en ance, jeune transs' J'fais de beaux rêves car j'ai l'pe-ra français in my bed Or noir or blanc, omar et fred Le temps c'est plus d'l'argent c'est du platine On ira tous au ciel, Amine J'mets des baffes aux contrôleurs ouais fréro quand j'fraude Et les meufs sur Facebook, j'les download Banlieue sale, welcome sur la piste Et toutes celles qui sucent mal sont sur ma blacklist Pousse le son dans ta cellule ouais nique sa mère le gradé Si t'as pas d'pain c'est qu't'as pas d'blé Pas d'blé, akhé faut m'appeler Y'a que les salopes qu'ont le droit d'me palper Des CRS à terre, c'est ça le thème Uzi magnum revolver, c'est ça le thème D'la hay d'la beuh bien vicère, c'est ça le thème On va le faire, la chatte à ta grand-mère C'est ça le thème, c'est ça le thème C'est ça le thème, c'est ça le thème C'est ça le thème, c'est ça le thème On va le faire, la chatte à ta grand mère You might also like Banlieue sale millionaire, c'est ça le thème Billets violets billets verts, c'est ça qu't'aimes J'envoie des flows de gauche à droite reviennent à la maison Tôt ou tard les rappeurs français reviennent à la raison Fouiny Babe a Free, il a tout compris Demain j'arrête le rap, poisson d'avril Mon flow est fou, j'rap à l'asile Ils s'donnent du mal, pour moi c'est trop facile On fait du biff, après-demain on s'barre J'ai fais l'tour d'Europe, t'as fais le tour d'Europe Car On est les boss, on taff dur On a des disques d'or, ils ont des disques durs Comment finir mon couplet le beat est trop court ? J'peux pas baiser contre le mur, mon bord est trop lourd C'est ça l'thème on s'est relancé Fin du couplet j'sais plus par où commencer Des CRS à terre, c'est ça le thème Uzi magnum revolver, c'est ça le thème D'la hay d'la beuh bien vicère, c'est ça le thème On va le faire, la chatte à ta grand-mère C'est ça le thème, c'est ça le thème C'est ça le thème, c'est ça le thème C'est ça le thème, c'est ça le thème On va le faire, la chatte à ta grand mère Ici c'est Casa' pas les States fréro quand j'rôde Ils ont des hots dogs, moi j'ai des chiennes chaudes Chaudes, Chauchaudes comme la chatte à Marine Avec Audemars par le Hublot j'mate ma Breitling On va les dead tôt ou tard Fouiny Babe n'est pas raciste il a des diamants noirs Klehance, les mc's klehr On va l'faire, la chatte à ta grand mère2</t>
+          <t>Dégage la place, j'ai trop la classe Mes genoux touchent le pilote, première classe Délinquance ordonnance pas d'chance Il manque une rime en ance, jeune transs' J'fais de beaux rêves car j'ai l'pe-ra français in my bed Or noir or blanc, omar et fred Le temps c'est plus d'l'argent c'est du platine On ira tous au ciel, Amine J'mets des baffes aux contrôleurs ouais fréro quand j'fraude Et les meufs sur Facebook, j'les download Banlieue sale, welcome sur la piste Et toutes celles qui sucent mal sont sur ma blacklist Pousse le son dans ta cellule ouais nique sa mère le gradé Si t'as pas d'pain c'est qu't'as pas d'blé Pas d'blé, akhé faut m'appeler Y'a que les salopes qu'ont le droit d'me palper Des CRS à terre, c'est ça le thème Uzi magnum revolver, c'est ça le thème D'la hay d'la beuh bien vicère, c'est ça le thème On va le faire, la chatte à ta grand-mère C'est ça le thème, c'est ça le thème C'est ça le thème, c'est ça le thème C'est ça le thème, c'est ça le thème On va le faire, la chatte à ta grand mère Banlieue sale millionaire, c'est ça le thème Billets violets billets verts, c'est ça qu't'aimes J'envoie des flows de gauche à droite reviennent à la maison Tôt ou tard les rappeurs français reviennent à la raison Fouiny Babe a Free, il a tout compris Demain j'arrête le rap, poisson d'avril Mon flow est fou, j'rap à l'asile Ils s'donnent du mal, pour moi c'est trop facile On fait du biff, après-demain on s'barre J'ai fais l'tour d'Europe, t'as fais le tour d'Europe Car On est les boss, on taff dur On a des disques d'or, ils ont des disques durs Comment finir mon couplet le beat est trop court ? J'peux pas baiser contre le mur, mon bord est trop lourd C'est ça l'thème on s'est relancé Fin du couplet j'sais plus par où commencer Des CRS à terre, c'est ça le thème Uzi magnum revolver, c'est ça le thème D'la hay d'la beuh bien vicère, c'est ça le thème On va le faire, la chatte à ta grand-mère C'est ça le thème, c'est ça le thème C'est ça le thème, c'est ça le thème C'est ça le thème, c'est ça le thème On va le faire, la chatte à ta grand mère Ici c'est Casa' pas les States fréro quand j'rôde Ils ont des hots dogs, moi j'ai des chiennes chaudes Chaudes, Chauchaudes comme la chatte à Marine Avec Audemars par le Hublot j'mate ma Breitling On va les dead tôt ou tard Fouiny Babe n'est pas raciste il a des diamants noirs Klehance, les mc's klehr On va l'faire, la chatte à ta grand mère2</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>La première fois qu'j'ai rencontré Karl Il était triste allongé sur son lit d'hopital Il connaissait mes albums par coeur Il m'répétait Fouiny Baby je t'ai dans le coeur Quand la nuit tombe et que les infirmières ferment la porte J'mets mon casque et toutes tes musiques me transportent Ma famille habite à 500 kilomètres d'ici Donc le soir je m'ennuie la chimio' comme amie J'suis trop content de t'avoir rencontré On peut faire une partie de console, s'il te plaît ? Et on a joué ensemble toute la journée Les manettes étaient sans fil mais ses bras étaient branchés Et j'imaginais ma fille à sa place Mal-être, les larmes coulaient sur le long de la manette J'étais qu'un con mais ce jour là j'ai compris J'étais venu faire quelques photos et je me suis fait un ami Cette nuit je pars Maman c'est promis, je n'ai plus peur du noir Papa je t'en prie, ne pleure pas Elle me prend ma vie, mais pas notre histoire Yeah, la dernière fois où j'ai revu Karl Il était toujours allongé sur son lit dhôpital Y'avait son père à son chevet La console éteinte, il n'avait plus la force de jouer J'ai compris dans son regard que c'était bientôt fini J'l'ai serré dans mes bras, triste à l'infini Il était dans les vapes j'essayais de lui parler Plus il souriait et plus moi je pleurais Il m'a dit rapproche-toi j'ai quelque chose à te dire Il m'chuchota j'ai peur, j'ai pas envie de partir Reste auprès de moi, encore juste un peu T'as sûrement des trucs à faire, mais reste juste un peu Et j'imaginais ma fille à sa place Des infirmières à la place des camarades de classe J'étais qu'un con mais ce jour là j'ai compris J'étais venu faire quelques photos et je me suis fait un ami You might also like Cette nuit je pars Maman c'est promis, je n'ai plus peur du noir Papa je t'en prie, ne pleure pas Elle me prend ma vie, mais pas notre histoire Une nuit d'été mon téléphone sonna C'était son père, il m'a dit Karl est parti À l'âge où on a la vie devant soi Il avait 16 ans et demi J'me suis senti ridicule pour ces fois où je me plaignais Pour une chemise froissée, un téléphone rayé À la base c'était des photos que j'étais venu faire Loin d'imaginer un autre petit frère Cette nuit je pars Maman c'est promis, je n'ai plus peur du noir Papa je t'en prie, ne pleure pas Elle me prend ma vie, mais pas notre histoire</t>
+          <t>La première fois qu'j'ai rencontré Karl Il était triste allongé sur son lit d'hopital Il connaissait mes albums par coeur Il m'répétait Fouiny Baby je t'ai dans le coeur Quand la nuit tombe et que les infirmières ferment la porte J'mets mon casque et toutes tes musiques me transportent Ma famille habite à 500 kilomètres d'ici Donc le soir je m'ennuie la chimio' comme amie J'suis trop content de t'avoir rencontré On peut faire une partie de console, s'il te plaît ? Et on a joué ensemble toute la journée Les manettes étaient sans fil mais ses bras étaient branchés Et j'imaginais ma fille à sa place Mal-être, les larmes coulaient sur le long de la manette J'étais qu'un con mais ce jour là j'ai compris J'étais venu faire quelques photos et je me suis fait un ami Cette nuit je pars Maman c'est promis, je n'ai plus peur du noir Papa je t'en prie, ne pleure pas Elle me prend ma vie, mais pas notre histoire Yeah, la dernière fois où j'ai revu Karl Il était toujours allongé sur son lit dhôpital Y'avait son père à son chevet La console éteinte, il n'avait plus la force de jouer J'ai compris dans son regard que c'était bientôt fini J'l'ai serré dans mes bras, triste à l'infini Il était dans les vapes j'essayais de lui parler Plus il souriait et plus moi je pleurais Il m'a dit rapproche-toi j'ai quelque chose à te dire Il m'chuchota j'ai peur, j'ai pas envie de partir Reste auprès de moi, encore juste un peu T'as sûrement des trucs à faire, mais reste juste un peu Et j'imaginais ma fille à sa place Des infirmières à la place des camarades de classe J'étais qu'un con mais ce jour là j'ai compris J'étais venu faire quelques photos et je me suis fait un ami Cette nuit je pars Maman c'est promis, je n'ai plus peur du noir Papa je t'en prie, ne pleure pas Elle me prend ma vie, mais pas notre histoire Une nuit d'été mon téléphone sonna C'était son père, il m'a dit Karl est parti À l'âge où on a la vie devant soi Il avait 16 ans et demi J'me suis senti ridicule pour ces fois où je me plaignais Pour une chemise froissée, un téléphone rayé À la base c'était des photos que j'étais venu faire Loin d'imaginer un autre petit frère Cette nuit je pars Maman c'est promis, je n'ai plus peur du noir Papa je t'en prie, ne pleure pas Elle me prend ma vie, mais pas notre histoire</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yeah Mes nouvelles groupies sont tes ex fans J'arrive en balle RS4 Espagne Trop de négros ont la haine depuis qu'j'vends plus qu'eux Couche toi au sol... il pleut Mais j'ai mon K-Way, ouais ouais j'ai mon K-Way Depuis toutes ces années, j'reste debout comme au tarawih Va niquer ta maman Jacques a dit a dit et redit Ouvre tes be-jam dans ma bre-cham, raconte pas ta vie Balayette, patate dans les abdos J'ai pas soif, garde ta bouteille d'eau Sors pas ton brolique, si tu tires à blanc Arabes et noirs Laurent Blanc Mc vient pas tester si t'es pas de taille Tournée au Canada j'te laisse le Canada Dry On a le meilleur bédo frero primo Mon shit fait des bulles SanPellegrino T'as grandi à Trappes, apprends à te taire J'ai choisi le rap pour pas leur plaire J'te l'ai dit dans le 2, on va faire comme ton père Ils veulent me caner et m'jeter dans la mer Clic clic boum Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Platine en 8 semaines les rappeurs font de la peine You might also like Ta sur a des bleus elle s'est fait violer J'me fait courser par les bleus pour des billets violets Ouvre pas ta chatte, arrête de miauler Les rappeurs sont des pits sont toujours derriere mes mollets Festival de Cannes j'te laisse le sucre de canne J'suis dans ma suite StraussKahn ! Tu pues la merde, tu pues la tise Les rappeurs ont la dalle RamadanSurprise Toujours en baggy sur le maquis à te revendre la paki Toujours en LV, Yves Saint Laurent, Dior, Gucci, Fendi Ils sont déter, mais j'suis venu les terminer J'ai un swagg à durée indeterminée Tu fais de la merde, on s'souvient pas d'tes rimes T'es albums sont des missions interims Fouiny Babe, un vrai mec de tess J'écoute pas les meufs à part celle du GPS T'as grandi à Trappes, apprends à te taire J'ai choisi le rap pour pas leur plaire J'te l'ai dit dans le 2, on va faire comme ton père Ils veulent me caner et m'jeter dans la mer Clic clic boum Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Platine en 8 semaines les rappeurs font de la peine Tu rappes à l'ancienne JurassicPark J'suis venu kidnapper l'rap comme un jeune FARC Audemars au poignet j'te laisse les flic flac J'kenne des cainri fuck fuck J'regarde le pera francais derriere dans le retro Ces enfoirés confondent l'underground et le métro Ils veulent mes billets verts, Ils aurront qu'mes molards Ils m'auront pas frère MullahOmar2</t>
+          <t>Yeah Mes nouvelles groupies sont tes ex fans J'arrive en balle RS4 Espagne Trop de négros ont la haine depuis qu'j'vends plus qu'eux Couche toi au sol... il pleut Mais j'ai mon K-Way, ouais ouais j'ai mon K-Way Depuis toutes ces années, j'reste debout comme au tarawih Va niquer ta maman Jacques a dit a dit et redit Ouvre tes be-jam dans ma bre-cham, raconte pas ta vie Balayette, patate dans les abdos J'ai pas soif, garde ta bouteille d'eau Sors pas ton brolique, si tu tires à blanc Arabes et noirs Laurent Blanc Mc vient pas tester si t'es pas de taille Tournée au Canada j'te laisse le Canada Dry On a le meilleur bédo frero primo Mon shit fait des bulles SanPellegrino T'as grandi à Trappes, apprends à te taire J'ai choisi le rap pour pas leur plaire J'te l'ai dit dans le 2, on va faire comme ton père Ils veulent me caner et m'jeter dans la mer Clic clic boum Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Platine en 8 semaines les rappeurs font de la peine Ta sur a des bleus elle s'est fait violer J'me fait courser par les bleus pour des billets violets Ouvre pas ta chatte, arrête de miauler Les rappeurs sont des pits sont toujours derriere mes mollets Festival de Cannes j'te laisse le sucre de canne J'suis dans ma suite StraussKahn ! Tu pues la merde, tu pues la tise Les rappeurs ont la dalle RamadanSurprise Toujours en baggy sur le maquis à te revendre la paki Toujours en LV, Yves Saint Laurent, Dior, Gucci, Fendi Ils sont déter, mais j'suis venu les terminer J'ai un swagg à durée indeterminée Tu fais de la merde, on s'souvient pas d'tes rimes T'es albums sont des missions interims Fouiny Babe, un vrai mec de tess J'écoute pas les meufs à part celle du GPS T'as grandi à Trappes, apprends à te taire J'ai choisi le rap pour pas leur plaire J'te l'ai dit dans le 2, on va faire comme ton père Ils veulent me caner et m'jeter dans la mer Clic clic boum Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Ben Laden Platine en 8 semaines les rappeurs font de la peine Tu rappes à l'ancienne JurassicPark J'suis venu kidnapper l'rap comme un jeune FARC Audemars au poignet j'te laisse les flic flac J'kenne des cainri fuck fuck J'regarde le pera francais derriere dans le retro Ces enfoirés confondent l'underground et le métro Ils veulent mes billets verts, Ils aurront qu'mes molards Ils m'auront pas frère MullahOmar2</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, y'a embrouille et on tire pas à blanc Au quartier j'faisais 8.000 francs par jour assis sur un banc Antisocial, 78, c'est, c'est sur vos lois qu'on crache La haine, à l'étroit dans ma cellule comme dans une chatte de noiche Baisse la tête, on tire dans les jambes, man on brise tes p'tites côtes On baisse les bras, mais devant une chatte une bite garde la tête haute Frère on va s'en mêler, frère, frère, frère on va s'en mêler T'as besoin d'un gilet pare-balles juste en dessous d'ton Pelle-Pelle J'balance mon rap français, mon rap danger, alors fais bellek J'suis toujours sélectionné dans les 23 à Domenech Frère on va s'en mêler, frère, frère, frère on va s'en mêler On va s'taper Lenoir et ta-ta-tacler Makélélé Yeah, Batman avait Robin et sa Batmobile Moi j'ai ma 'tasse et ma Fouine-Mobile Spiderman lançait tout plein d'trucs pour s'accrocher au mur Ah bon ? Moi j'lance du sperme sur des fesses bien dures You might also like Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Oh yeah ! Quand y'a embrouille, obligé d's'en mêler, mêler, mêler, mêler Oh yeah ! Quand y'a embrouille, obligé d's'en mêler, mêler, mêler, mêler Oh yeah ! Quand y'a embrouille, obligé d's'en mêler, mêler, mêler, mêler Oh yeah ! Quand y'a embrouille, obligé d's'en mêler, mêler, mêler, mêler Frère on va s'en mêler, y'a embrouille et on tire pas à blanc J'sais pas pourquoi ta meuf confond ma bite et sa brosse à dents Le hip-hop est malade, on l'emmène a l'hôpital Ah, il a l'eczéma ? Moi, j'ai le flow à Benzema Balance tes meufs cramées ici on n'aime pas les filles sages On aime les grosse nnes-chiè qui changent de bites comme de tissages Frère on va s'en mêler, frère, frère, frère on va s'en mêler Mêmes les meufs se battent, les cheveux sont emmêlés, mêlés, mêlés, mêlés... Frère 78, y'a d'la CC, des 'tasses plein l'Merco En cas d'embrouille, insé-séparables comme Papy et Belgo Man tu sais où m'trouver j'serai au square ou a l'hôtel Ibis Pire qu'Iblis, ma belle ouvre la bouche appelle-moi Dentifrice Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, y'a embrouille et on tire pas à blanc Tu vas laisser des chicots et des douilles dans une flaque de sang Frère on va s'en mêler, frère, frère, frère on va s'en mêler Rebeu devant les millions aucune, aucune chatte n'est scellée Balance la monnaie, c'est à la banque que j'fais ma thérapie C'est pas d'un Doliprane que j'ai besoin, c'est d'une Maseratti Frère on va s'en mêler, frère, frère, frère on va s'en mêler Tu veux baiser Katsumi ? Si t'as deux capotes mets-les Passe-leur le mic' à Marseille, négro ils font ça à la bien Passe le crack et l'héroine, rebeu on coupe ça à la main Reufré ta 'tasse est grillée, elle a tourné comme un T-Max Tous les gars du quartier l'ont niqué, niqué, elle aime trop zdrax Ce son passera jamais en radio car il est trop vulgaire Nique sa mère, j'ai la joue au rap français sous ma bulle d'air Frère on va s'en mêler et laisser tous ces MC sans abris Mon gars on va s'exporter, tout péter comme Saïd Taghmaoui Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc2</t>
+          <t>Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, y'a embrouille et on tire pas à blanc Au quartier j'faisais 8.000 francs par jour assis sur un banc Antisocial, 78, c'est, c'est sur vos lois qu'on crache La haine, à l'étroit dans ma cellule comme dans une chatte de noiche Baisse la tête, on tire dans les jambes, man on brise tes p'tites côtes On baisse les bras, mais devant une chatte une bite garde la tête haute Frère on va s'en mêler, frère, frère, frère on va s'en mêler T'as besoin d'un gilet pare-balles juste en dessous d'ton Pelle-Pelle J'balance mon rap français, mon rap danger, alors fais bellek J'suis toujours sélectionné dans les 23 à Domenech Frère on va s'en mêler, frère, frère, frère on va s'en mêler On va s'taper Lenoir et ta-ta-tacler Makélélé Yeah, Batman avait Robin et sa Batmobile Moi j'ai ma 'tasse et ma Fouine-Mobile Spiderman lançait tout plein d'trucs pour s'accrocher au mur Ah bon ? Moi j'lance du sperme sur des fesses bien dures Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Oh yeah ! Quand y'a embrouille, obligé d's'en mêler, mêler, mêler, mêler Oh yeah ! Quand y'a embrouille, obligé d's'en mêler, mêler, mêler, mêler Oh yeah ! Quand y'a embrouille, obligé d's'en mêler, mêler, mêler, mêler Oh yeah ! Quand y'a embrouille, obligé d's'en mêler, mêler, mêler, mêler Frère on va s'en mêler, y'a embrouille et on tire pas à blanc J'sais pas pourquoi ta meuf confond ma bite et sa brosse à dents Le hip-hop est malade, on l'emmène a l'hôpital Ah, il a l'eczéma ? Moi, j'ai le flow à Benzema Balance tes meufs cramées ici on n'aime pas les filles sages On aime les grosse nnes-chiè qui changent de bites comme de tissages Frère on va s'en mêler, frère, frère, frère on va s'en mêler Mêmes les meufs se battent, les cheveux sont emmêlés, mêlés, mêlés, mêlés... Frère 78, y'a d'la CC, des 'tasses plein l'Merco En cas d'embrouille, insé-séparables comme Papy et Belgo Man tu sais où m'trouver j'serai au square ou a l'hôtel Ibis Pire qu'Iblis, ma belle ouvre la bouche appelle-moi Dentifrice Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, y'a embrouille et on tire pas à blanc Tu vas laisser des chicots et des douilles dans une flaque de sang Frère on va s'en mêler, frère, frère, frère on va s'en mêler Rebeu devant les millions aucune, aucune chatte n'est scellée Balance la monnaie, c'est à la banque que j'fais ma thérapie C'est pas d'un Doliprane que j'ai besoin, c'est d'une Maseratti Frère on va s'en mêler, frère, frère, frère on va s'en mêler Tu veux baiser Katsumi ? Si t'as deux capotes mets-les Passe-leur le mic' à Marseille, négro ils font ça à la bien Passe le crack et l'héroine, rebeu on coupe ça à la main Reufré ta 'tasse est grillée, elle a tourné comme un T-Max Tous les gars du quartier l'ont niqué, niqué, elle aime trop zdrax Ce son passera jamais en radio car il est trop vulgaire Nique sa mère, j'ai la joue au rap français sous ma bulle d'air Frère on va s'en mêler et laisser tous ces MC sans abris Mon gars on va s'exporter, tout péter comme Saïd Taghmaoui Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Frère on va s'en mêler, frère, frère, frère on va s'en mêler Frère on va s'en mêler, frère, frère, frère on va s'en mêler Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc Embrouille et on tire pas à blanc, à blanc, on tire, tire pas à blanc2</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lève le doigt en l'air, lève le doigt en l'air One for the haters, I'm holding my ace of spades up Lève le doigt en l'air, lève le doigt en l'air Sipping on this Cris', life is a bitch, ain't it ? Lève le doigt en l'air, lève le doigt en l'air All these top models, just let them hold the bottle Lève le doigt en l'air, lève le doigt en l'air Yeah J'arrive en gamos avec mes Rihannas Toi, t'arrives en vélib', ta meuf est âayana À force de nous sucer, t'as les lèvres gercées Ouais, on a percé, toi, t'as que les oreilles percées Les larmes, tu as versé, le sky, on a versé J'ai des double-poneys, pourtant j'joue pas au tiercé J'ai pas d'inspiration frère, si y a pas d'haya Juste avant l'Enfer, y'a Pattaya On sort de chez Gucci, ton rap a un goût de shit Game, Fouiny Babe, Banlieue Sale, Black Wall Street Condamnés à l'échec, les frérots comptent sur moi Toujours en Louis V, tu peux jouer aux échecs sur moi Ouais Paris, c'est magique, j'ai le pied gauche à Merlin La chatte à la chatte à la soeur à la mère à Guerlain Et ça zdedededex, demande à Seth Gueko C'est pour ceux qui ont des chiennes et une halal de té-cô You might also like Lève le doigt en l'air, lève le doigt en l'air One for the haters, I'm holding my ace of spades up Lève le doigt en l'air, lève le doigt en l'air Sipping on this Cris', life is a bitch, ain't it ? Lève le doigt en l'air, lève le doigt en l'air All these top models, just let them hold the bottle Lève le doigt en l'air, lève le doigt en l'air Yeah Prosternez-vous, les rois au rendez-vous Caillra for life, celle-là, cest pour vous French Connection, La Fouine, Game met la pression Swagg, aint no question, nique sa mère la direction Attention ! Banlieue Sale, cest la hood Tell niggas its all good, Compton roll a Backwood Toujours calibré, fils, Game stay on this shit Rap, wallets and pits and I do this shit in French Fais attention ! Ta model in my villa 22 Bordeaux iller, iller than Bounty Killa Fais attention, Jamaican meuf in my Rover Cop, don't pull me over parce que on est costauds over Fed you beef I beat my henchmen, pay I do my trenchmen Cristal Ne que Fait My goons push Benzs Tell my nigga Frenchie, jai géré un bord Un duo amorphe , they can meet me by the car, au revoir Lève le doigt en l'air, lève le doigt en l'air One for the haters, I'm holding my ace of spades up Lève le doigt en l'air, lève le doigt en l'air Sipping on this Cris', life is a bitch, ain't it ? Lève le doigt en l'air, lève le doigt en l'air All these top models, just let them hold the bottle Lève le doigt en l'air, lève le doigt en l'air Yeah Entre ta face et mon gun, on mettra un coussin J'ai un esprit saint dans un corps entre des gros seins Putain ! Frérot, j'vais pas te faire de dessin Chicha raisin, j'suis musulman comme Mickaël Chrétien Frérot, même en cellule, j'ai le forfait Néo Tu te sapes chez CA, on est des CEO Oh, you on a hater shit We blow niggas that Jadakiss long nose sniper Al-Qaeda shit Paraît que t'es privé de sortie, paraît que tu me fréquentes J'rentre en studio à midi, ta meuf boite à midi trente Et elles aiment me masser, moi, j'aime m'en lasser T'as des belles Jordan ? Pends-toi avec les lacets Paraît que t'as un sil-fu, sers-toi-en pour chasser On a des gros uzis et des corps à ramasser T'es dans l'after de l'after Fouiny baby, on se voit après le ftour Lève le doigt en l'air, lève le doigt en l'air One for the haters, I'm holding my ace of spades up Lève le doigt en l'air, lève le doigt en l'air Sipping on this Cris', life is a bitch, ain't it? Lève le doigt en l'air, lève le doigt en l'air All these top models, just let them hold the bottle Lève le doigt en l'air, lève le doigt en l'air Yeah2</t>
+          <t>Lève le doigt en l'air, lève le doigt en l'air One for the haters, I'm holding my ace of spades up Lève le doigt en l'air, lève le doigt en l'air Sipping on this Cris', life is a bitch, ain't it ? Lève le doigt en l'air, lève le doigt en l'air All these top models, just let them hold the bottle Lève le doigt en l'air, lève le doigt en l'air Yeah J'arrive en gamos avec mes Rihannas Toi, t'arrives en vélib', ta meuf est âayana À force de nous sucer, t'as les lèvres gercées Ouais, on a percé, toi, t'as que les oreilles percées Les larmes, tu as versé, le sky, on a versé J'ai des double-poneys, pourtant j'joue pas au tiercé J'ai pas d'inspiration frère, si y a pas d'haya Juste avant l'Enfer, y'a Pattaya On sort de chez Gucci, ton rap a un goût de shit Game, Fouiny Babe, Banlieue Sale, Black Wall Street Condamnés à l'échec, les frérots comptent sur moi Toujours en Louis V, tu peux jouer aux échecs sur moi Ouais Paris, c'est magique, j'ai le pied gauche à Merlin La chatte à la chatte à la soeur à la mère à Guerlain Et ça zdedededex, demande à Seth Gueko C'est pour ceux qui ont des chiennes et une halal de té-cô Lève le doigt en l'air, lève le doigt en l'air One for the haters, I'm holding my ace of spades up Lève le doigt en l'air, lève le doigt en l'air Sipping on this Cris', life is a bitch, ain't it ? Lève le doigt en l'air, lève le doigt en l'air All these top models, just let them hold the bottle Lève le doigt en l'air, lève le doigt en l'air Yeah Prosternez-vous, les rois au rendez-vous Caillra for life, celle-là, cest pour vous French Connection, La Fouine, Game met la pression Swagg, aint no question, nique sa mère la direction Attention ! Banlieue Sale, cest la hood Tell niggas its all good, Compton roll a Backwood Toujours calibré, fils, Game stay on this shit Rap, wallets and pits and I do this shit in French Fais attention ! Ta model in my villa 22 Bordeaux iller, iller than Bounty Killa Fais attention, Jamaican meuf in my Rover Cop, don't pull me over parce que on est costauds over Fed you beef I beat my henchmen, pay I do my trenchmen Cristal Ne que Fait My goons push Benzs Tell my nigga Frenchie, jai géré un bord Un duo amorphe , they can meet me by the car, au revoir Lève le doigt en l'air, lève le doigt en l'air One for the haters, I'm holding my ace of spades up Lève le doigt en l'air, lève le doigt en l'air Sipping on this Cris', life is a bitch, ain't it ? Lève le doigt en l'air, lève le doigt en l'air All these top models, just let them hold the bottle Lève le doigt en l'air, lève le doigt en l'air Yeah Entre ta face et mon gun, on mettra un coussin J'ai un esprit saint dans un corps entre des gros seins Putain ! Frérot, j'vais pas te faire de dessin Chicha raisin, j'suis musulman comme Mickaël Chrétien Frérot, même en cellule, j'ai le forfait Néo Tu te sapes chez CA, on est des CEO Oh, you on a hater shit We blow niggas that Jadakiss long nose sniper Al-Qaeda shit Paraît que t'es privé de sortie, paraît que tu me fréquentes J'rentre en studio à midi, ta meuf boite à midi trente Et elles aiment me masser, moi, j'aime m'en lasser T'as des belles Jordan ? Pends-toi avec les lacets Paraît que t'as un sil-fu, sers-toi-en pour chasser On a des gros uzis et des corps à ramasser T'es dans l'after de l'after Fouiny baby, on se voit après le ftour Lève le doigt en l'air, lève le doigt en l'air One for the haters, I'm holding my ace of spades up Lève le doigt en l'air, lève le doigt en l'air Sipping on this Cris', life is a bitch, ain't it? Lève le doigt en l'air, lève le doigt en l'air All these top models, just let them hold the bottle Lève le doigt en l'air, lève le doigt en l'air Yeah2</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J'ai entendu dire Que la Terre se passerai bien de nous J'ai entendu dire De la guerre, il ne serait rien sans nous Oui quand on a manqué d'amour on manque de mot Mais quand arrive le jour où une femme nous souffle ses mots On fait tourner le monde On fait tourner le monde on fait bouger le monde Yeah ! Parce qu'on est des pères Parce qu'on est des hommes Parce qu'on a des frères et qu'on se pardonne même en bas On est des hommes même en bas Parce qu'on a des pères et qu'un jour on le saura Un simple frère ça ne se remplace pas Même en bas On est des hommes même en bas J'ai entendu dire Que ce sont nos mères qui tiennent la cour Ce n'est pas fou Mais petit frère je dois te dire Que la Terre commence à leur peser lourd sans nous Quand la justice a l'air de te tourner le dos Et que tes poings se serrent rappelle toi de ces mots Mes paroles font tourner le monde On fait tourner le monde On fait bouger le monde You might also like Parce qu'on est des pères Parce qu'on est des hommes Parce qu'on a des frères et qu'on se pardonne même en bas On est des hommes même en bas Parce qu'on a des pères et qu'un jour on le saura Un simple frère ça ne se remplace pas Même en bas On est des hommes même en bas Frère pour avoir ce que je n'ai jamais eu J'ai du faire ce que je n'ai jamais fait Enfant de la DDASS et des causes à effets, en effet Grandir dans le block à voir les grands en Audi 4RS J'me bats avec la rue j'ai plus de bleus qu'un CRS Les galères de la vie m'ont noyé À trop sortir le Glock pour payer le loyer T'façon j'finirai seul dans c'linceul À traîner en promenade vaut mieux être mal accompagné que seul Parce qu'on vient d'en bas Parce qu'on est des pères même en bas Masquons nos vérités mes frères l'il ne ment pas Trouver un taf avec ma tête mé-cra Ma3lich ça viendra Qui mourra verra La vie est commis d'office alors on tombe Fouiny Baby, Corneille on fera tourner le monde Parce qu'on est des pères, des surs, des fils frérot Et qu'à la moindre galère on regarde tous vers le haut Parce qu'on est des pères Parce qu'on est des hommes Parce qu'on a des frères et qu'on se pardonne même en bas On est des hommes même en bas Parce qu'on a des pères et qu'un jour on le saura Un simple frère ça ne se remplace pas Même en bas On est des hommes même en bas2</t>
+          <t>J'ai entendu dire Que la Terre se passerai bien de nous J'ai entendu dire De la guerre, il ne serait rien sans nous Oui quand on a manqué d'amour on manque de mot Mais quand arrive le jour où une femme nous souffle ses mots On fait tourner le monde On fait tourner le monde on fait bouger le monde Yeah ! Parce qu'on est des pères Parce qu'on est des hommes Parce qu'on a des frères et qu'on se pardonne même en bas On est des hommes même en bas Parce qu'on a des pères et qu'un jour on le saura Un simple frère ça ne se remplace pas Même en bas On est des hommes même en bas J'ai entendu dire Que ce sont nos mères qui tiennent la cour Ce n'est pas fou Mais petit frère je dois te dire Que la Terre commence à leur peser lourd sans nous Quand la justice a l'air de te tourner le dos Et que tes poings se serrent rappelle toi de ces mots Mes paroles font tourner le monde On fait tourner le monde On fait bouger le monde Parce qu'on est des pères Parce qu'on est des hommes Parce qu'on a des frères et qu'on se pardonne même en bas On est des hommes même en bas Parce qu'on a des pères et qu'un jour on le saura Un simple frère ça ne se remplace pas Même en bas On est des hommes même en bas Frère pour avoir ce que je n'ai jamais eu J'ai du faire ce que je n'ai jamais fait Enfant de la DDASS et des causes à effets, en effet Grandir dans le block à voir les grands en Audi 4RS J'me bats avec la rue j'ai plus de bleus qu'un CRS Les galères de la vie m'ont noyé À trop sortir le Glock pour payer le loyer T'façon j'finirai seul dans c'linceul À traîner en promenade vaut mieux être mal accompagné que seul Parce qu'on vient d'en bas Parce qu'on est des pères même en bas Masquons nos vérités mes frères l'il ne ment pas Trouver un taf avec ma tête mé-cra Ma3lich ça viendra Qui mourra verra La vie est commis d'office alors on tombe Fouiny Baby, Corneille on fera tourner le monde Parce qu'on est des pères, des surs, des fils frérot Et qu'à la moindre galère on regarde tous vers le haut Parce qu'on est des pères Parce qu'on est des hommes Parce qu'on a des frères et qu'on se pardonne même en bas On est des hommes même en bas Parce qu'on a des pères et qu'un jour on le saura Un simple frère ça ne se remplace pas Même en bas On est des hommes même en bas2</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Got my swagg, got my crew, got my dough and I Got a black, leather benz SLR cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss I dont pay cover charge I dont wait in line They pay me drink for free in the club cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss Yeah, j'ai mis la Bentley avant les bufs J'suis pas Zahia mais j'rentrais souvent chez moi avec des bleus Fusil chargé j'fais danser les keufs one two step Sans respect j'fais poser T-Pain sur ma mixtape Yeah, on vient d'en bas on veut viser la lune Automatiquement j'pense aux loves AutoTune Les frères sont dans la de-mer et moi j'opère espère Amer, rêve de billets violets verts au cash qu'on pourrait faire Sur t'as du kilométrage, ta carrosserie est rayée Les mecs sont tous les mêmes ? Bah fallait pas tous les essayer J'écoute leurs 16 et j'vois qu'mon flow a fait des marmots Le rap est dead, allah y rahmou J'ai d'l'argent qui dort mais j'ai jamais sommeil Tu t'prends des coups de pression, on s'prend des coups de soleil J'attire les haineux j'attire l'oseille J'arrive en boîte ma bouteille est grosse comme Rozay You might also like Got my swagg, got my crew, got my dough and I Got a black, leather benz SLR cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss I dont pay cover charge I dont wait in line They pay me drink for free in the club cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss Hey hey oh oh, hey hey oh oh T-Pain Mack Fouiny, Rollin Like a Boss Hey hey oh oh, hey hey oh oh Ban-banlieue sale, Rollin Like... Nappy boy Là c'est Mack, les go' je m'en méfie Une fille qui dit toujours oui j'appelle ça une wi-fi Ta pute est mienne, je vous présente T-Pain J'ai 30 millions d'amies, des chattes et des chiennes Mack se dit boss, on me dit Young Money Je suis jeune et riche demande à Drizzy Rosa sous les draps, Louis Vuitton sur le bras On s'enjaille mouah Fouiny, c'est ça Yeah que des flûtes laisse ber-tom la canette J'suis l'étoile sur l'téton à Janet Fais baisser ma braguette, mate toute un canon Ta meuf sans robe momie, Toutan-Toutankahmon Bats les couilles des meufs qui se bourrent le visage La beauté est innée, bitch bouffe ton maquillage Mack mon nom est immortel Noublie pas ça comme une capote dans un bordel Got my swagg, got my crew, got my dough and I Got a black, leather benz SLR cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss I dont pay cover charge I dont wait in line They pay me drink for free in the club cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss Roll Like A Genius avec nous !1</t>
+          <t>Got my swagg, got my crew, got my dough and I Got a black, leather benz SLR cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss I dont pay cover charge I dont wait in line They pay me drink for free in the club cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss Yeah, j'ai mis la Bentley avant les bufs J'suis pas Zahia mais j'rentrais souvent chez moi avec des bleus Fusil chargé j'fais danser les keufs one two step Sans respect j'fais poser T-Pain sur ma mixtape Yeah, on vient d'en bas on veut viser la lune Automatiquement j'pense aux loves AutoTune Les frères sont dans la de-mer et moi j'opère espère Amer, rêve de billets violets verts au cash qu'on pourrait faire Sur t'as du kilométrage, ta carrosserie est rayée Les mecs sont tous les mêmes ? Bah fallait pas tous les essayer J'écoute leurs 16 et j'vois qu'mon flow a fait des marmots Le rap est dead, allah y rahmou J'ai d'l'argent qui dort mais j'ai jamais sommeil Tu t'prends des coups de pression, on s'prend des coups de soleil J'attire les haineux j'attire l'oseille J'arrive en boîte ma bouteille est grosse comme Rozay Got my swagg, got my crew, got my dough and I Got a black, leather benz SLR cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss I dont pay cover charge I dont wait in line They pay me drink for free in the club cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss Hey hey oh oh, hey hey oh oh T-Pain Mack Fouiny, Rollin Like a Boss Hey hey oh oh, hey hey oh oh Ban-banlieue sale, Rollin Like... Nappy boy Là c'est Mack, les go' je m'en méfie Une fille qui dit toujours oui j'appelle ça une wi-fi Ta pute est mienne, je vous présente T-Pain J'ai 30 millions d'amies, des chattes et des chiennes Mack se dit boss, on me dit Young Money Je suis jeune et riche demande à Drizzy Rosa sous les draps, Louis Vuitton sur le bras On s'enjaille mouah Fouiny, c'est ça Yeah que des flûtes laisse ber-tom la canette J'suis l'étoile sur l'téton à Janet Fais baisser ma braguette, mate toute un canon Ta meuf sans robe momie, Toutan-Toutankahmon Bats les couilles des meufs qui se bourrent le visage La beauté est innée, bitch bouffe ton maquillage Mack mon nom est immortel Noublie pas ça comme une capote dans un bordel Got my swagg, got my crew, got my dough and I Got a black, leather benz SLR cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss I dont pay cover charge I dont wait in line They pay me drink for free in the club cause I'm Rollin Like a Boss, Rollin Rollin Like a Boss Rollin Like a Boss, Rollin Rollin Like a Boss Roll Like A Genius avec nous !1</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DJ Khaled, Banlieue Sale Crime's Capital 3 La Fouine The Best french rapper in the game Get money Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Argent sale pourtant j'ai fait l'odo J'ai quelques traces de sang de keuf fraîches sur mon polo On rappait dans la vec', personne croyait en nous Et on traînait en meute parce qu'on nous laissait en loup J'goûtais la ceinture de mon père étant-étant petit Si j'fais la même avec ma fille elle aura des traces Gucci La bague au doigt les fusils parés, chargés, prêt à cracher, voitures garées Guette l'angle mort comme les frères qu'ont parlé Maison d'arrêt, foyers d'mineurs j'étais jeune et fougueux J'mène la belle vie comme un footeux, haineux, j'm'en fous d'eux J'rentre pas dans le moule, j'donne pas mon boule Ils s'arrachent les veuchs, rebeu j'ai fait la boule Capitale du Crime frère viens pas t'y aventurer Même Judas fut bien entouré, t'auras beau jurer Sur la vie d'ta grosse pute de mère amères car le respect s'perd Fouiny, baisse la tête qu'à la mosquée Démodé leur swagg a fait une O.D On est rodés, parle en langage codé À chaque phrase autant d'insultes que de C.O.D You might also like À force d'ouvrir ma gueule, j'finirai là-haut Et j'suis sûr que là-haut, on s'r'appellera d'en-bas Ils m'auront refroidi, ils auront réussi Voilà ma story, Fouiny Baby Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Une étoile verte sur un fond rouge J'pars en couille ou j'pars en khourouj Depuis tout petit les keufs me recherchent, savent où me trouver, rien à prouver Cherches les lovés, osé, audacieux, cagoulé, bra-braquer des bourges Pourquoi tu me parles ? Pourquoi tu m'fixes Que le rap repose en paix, comme le string à FX Yeah j'traine au VIP, au Hustler Les haineux parlent la chatte à leur soeur Nique les illuminatis, nique les franc-maçons Trop d'avance MC note ma plaque d'immatriculation Nigga' AK-47 sur ta vieille face J'te blesse en attendant que Dieu le fasse Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com2</t>
+          <t>DJ Khaled, Banlieue Sale Crime's Capital 3 La Fouine The Best french rapper in the game Get money Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Argent sale pourtant j'ai fait l'odo J'ai quelques traces de sang de keuf fraîches sur mon polo On rappait dans la vec', personne croyait en nous Et on traînait en meute parce qu'on nous laissait en loup J'goûtais la ceinture de mon père étant-étant petit Si j'fais la même avec ma fille elle aura des traces Gucci La bague au doigt les fusils parés, chargés, prêt à cracher, voitures garées Guette l'angle mort comme les frères qu'ont parlé Maison d'arrêt, foyers d'mineurs j'étais jeune et fougueux J'mène la belle vie comme un footeux, haineux, j'm'en fous d'eux J'rentre pas dans le moule, j'donne pas mon boule Ils s'arrachent les veuchs, rebeu j'ai fait la boule Capitale du Crime frère viens pas t'y aventurer Même Judas fut bien entouré, t'auras beau jurer Sur la vie d'ta grosse pute de mère amères car le respect s'perd Fouiny, baisse la tête qu'à la mosquée Démodé leur swagg a fait une O.D On est rodés, parle en langage codé À chaque phrase autant d'insultes que de C.O.D À force d'ouvrir ma gueule, j'finirai là-haut Et j'suis sûr que là-haut, on s'r'appellera d'en-bas Ils m'auront refroidi, ils auront réussi Voilà ma story, Fouiny Baby Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Une étoile verte sur un fond rouge J'pars en couille ou j'pars en khourouj Depuis tout petit les keufs me recherchent, savent où me trouver, rien à prouver Cherches les lovés, osé, audacieux, cagoulé, bra-braquer des bourges Pourquoi tu me parles ? Pourquoi tu m'fixes Que le rap repose en paix, comme le string à FX Yeah j'traine au VIP, au Hustler Les haineux parlent la chatte à leur soeur Nique les illuminatis, nique les franc-maçons Trop d'avance MC note ma plaque d'immatriculation Nigga' AK-47 sur ta vieille face J'te blesse en attendant que Dieu le fasse Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com Tiens mon mail, tiens mon-tiens mon mail Tiens mon mail Vaniquertamère.com2</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>On a fumé un keuf, c'est l'Aïd Tous ces rappeurs sont des gros mythos, je te l'jure sur ma ie-v Tu veux un tube ? Appelle-appelle l'ingé Confond pas ceux qui touchent du bois, ceux qui touchent les points G Trop de haineux, trop-trop de haineux dans ma salle d'attente Tu veux un feat ? Parle à l'assistant d'mon assistante On tombe au shtar, tu tombes dans les pommes Tiens mon mail VaNiquerTaMère.com Porsche Panamera turbo, Carrera, Cayenne J'parle pas au keufs, seuls les micros, les chiennes connaissent mon haleine On m'aime, on m'déteste, bref j'suis celui qu'on cite Pute, suce-moi direct, je suis circoncis J'reste au-dessus du pe-ra comme un accent circonflexe 1995, j'ai le flow tah Busta Flex J'débarque du 7.8, compète et verdure Elevé à la dure, lou-loubia lahdess coups-coups de ceinture Bentley, Ferrari, 6.3 Panamera Cayenne, Bugatti, Lamborghini, Porsche Carrera Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been R8, 7.8, SLS, SLR Rolls Royce, Maserati, Vroom ! La putain de sa mère Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been You might also like Habillé comme un jeu d'dames, balancer ? Nahel Sheitan Seille-o sur la ble-ta, va niquer ta jedda ! Double album dans les bacs, on coupe la poire en 2 Rebeu, personne regarde ta meuf elle est comme France 2 Brolick dans ta bouche-bouche ferme ta gueule Antillais, Arbouch, Bambara, Soninké, Peuhl-Peuhl Rebeu ne crois pas qu'on marche seul Ton rap c'est d'la merde, c'est pour ça que tu fous l'zbeul Déter-ter c'est d'la haine qui coule dans nos veines Tire-moi dans la tête si tu veux pas qu'on revienne Incarcéré, déféré pourtant j'suis muet J'ai transporté la coke dans le cul du mulet Bentley, Ferrari, 6.3 Panamera Cayenne, Bugatti, Lamborghini, Porsche Carrera Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been R8, 7.8, SLS, SLR Rolls Royce, Maserati, Vroom ! La putain de sa mère Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been Fouiny Gamos Fouiny Gamos Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been Fouiny Gamos1</t>
+          <t>On a fumé un keuf, c'est l'Aïd Tous ces rappeurs sont des gros mythos, je te l'jure sur ma ie-v Tu veux un tube ? Appelle-appelle l'ingé Confond pas ceux qui touchent du bois, ceux qui touchent les points G Trop de haineux, trop-trop de haineux dans ma salle d'attente Tu veux un feat ? Parle à l'assistant d'mon assistante On tombe au shtar, tu tombes dans les pommes Tiens mon mail VaNiquerTaMère.com Porsche Panamera turbo, Carrera, Cayenne J'parle pas au keufs, seuls les micros, les chiennes connaissent mon haleine On m'aime, on m'déteste, bref j'suis celui qu'on cite Pute, suce-moi direct, je suis circoncis J'reste au-dessus du pe-ra comme un accent circonflexe 1995, j'ai le flow tah Busta Flex J'débarque du 7.8, compète et verdure Elevé à la dure, lou-loubia lahdess coups-coups de ceinture Bentley, Ferrari, 6.3 Panamera Cayenne, Bugatti, Lamborghini, Porsche Carrera Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been R8, 7.8, SLS, SLR Rolls Royce, Maserati, Vroom ! La putain de sa mère Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been Habillé comme un jeu d'dames, balancer ? Nahel Sheitan Seille-o sur la ble-ta, va niquer ta jedda ! Double album dans les bacs, on coupe la poire en 2 Rebeu, personne regarde ta meuf elle est comme France 2 Brolick dans ta bouche-bouche ferme ta gueule Antillais, Arbouch, Bambara, Soninké, Peuhl-Peuhl Rebeu ne crois pas qu'on marche seul Ton rap c'est d'la merde, c'est pour ça que tu fous l'zbeul Déter-ter c'est d'la haine qui coule dans nos veines Tire-moi dans la tête si tu veux pas qu'on revienne Incarcéré, déféré pourtant j'suis muet J'ai transporté la coke dans le cul du mulet Bentley, Ferrari, 6.3 Panamera Cayenne, Bugatti, Lamborghini, Porsche Carrera Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been R8, 7.8, SLS, SLR Rolls Royce, Maserati, Vroom ! La putain de sa mère Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been Fouiny Gamos Fouiny Gamos Fouiny Gamos Grosse poitrine, Aston Martin Fouiny Gamos Mon pe-ra sent le neuf rebeu t'es has-been Fouiny Gamos1</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'suis un mec comme tout le monde, j'vis des ambiances trop bad Quand c'est l'heure du casse-pipe, quand c'est l'heure de la promenade Je tousse quand je fume et j'me confie quand je bois Quand les keufs me questionnent, je n'sais dire que j'sais pas Ne m'jugez pas, j'vole quand j'ai pas, sinon, à part ça Je cherche du taf et j'suis pour l'équipe du Barça J'vends de la drogue par nécessité Cambriolage, séquestration, au parquet, bien souvent, je suis impliqué Quand j'dors pas chez les keufs, j'dors chez ma meuf ou à l'hôtel Et j'ai la gaule quand le keuf se mange un cocktail Puis le soir dans l'escalier, souvent je marche sur des seringues Je fouille les placards à gaz et puis j'tombe sur des flingues Les grands m'envoient à la pharmacie pour leur acheter des Rohypnol J'ai un casque sur mes oreilles, je révise mes clés de sol Avec les potes, en bas, on a acheté un super 5 On va souvent manger des crêpes puis insulter les timp' J'suis un mec comme tout le monde, j'ai ma fierté, mes principes J'pourrais mourir pour mes gars, j'pourrais pas baisser mon slip J'dépanne la Daronne, j'dépanne le Daron J'tourne en compét', souvent je vends des litrons Toute la journée devant le hall, la nuit devant le hall J'écris mes textes au quartier, j'écris mes textes en taule J'ai fait les 400 coups, j'ai des amis partout J'ai des ennemis partout, oui j'ai un drôle de parcours Pas question de vivre avec le revenu minimal Hier à l'hôpital, on accouchait d'un mini moi J'vais voir la Sécurité Sociale, les Allocs Familiales Et puis la CMU, quand y'me regarde, j'suis ému Mes parents sont fous de lui, sont un peu dégoûtés Car je l'ai eu hors mariage, mais bon, ils vont accepter J'suis comme tout le monde moi, j'ai des sentiments Et quand mon meilleur ami meurt, et bah je pleure à l'enterrement Tu sais, on n'est pas né sous la même étoile, arrête Moi et Le Pen, on n'est pas né sur la même planète Comme tous mes potes, je hais les racistes J'aimerais gagner au Tiercé et me barrer d'ici Chez moi depuis l'époque des couches tu sais, on hait les Bush Le bonheur est tellement loin que pour le voir, je louche Range ton gun, jeune, personne ne peut rien contre moi Dieu m'a donné la vie et un jour, il me la reprendra J'ai la conscience, les mains sales, squatte la mission locale Tantôt j'cherche du taf, tantôt j'tire des taffes Jeune Marocain, Casablanca dans mon coeur Crédit Lyonnais dans ma tête, rougis par les inspecteurs Alors je traîne au quartier, ambitions de caïd Et puis quand t'as de l'argent, ben c'est tous les jours l'Haïd Quand t'en a pas, malheureusement, c'est trop souvent le Ramadan Le pouce en l'air mais la caisse du succès ne voulait pas m'attendre Au quartier, on vit souvent les uns sur les autres Les uns contre les autres, jamais les uns avec les autres J'me débrouille tout seul, j'trouve mon chemin sans boussole Dans ma cellule je me sens aussi seul que devant ma console Merci de m'écouter, de me porter un peu d'attention Parce que, jusqu'à présent, personne ne l'a fait J'ai bien vécu, j'ai tout fait, là où les embrouilles se créent J'm'en bats les couilles, pour moi, le square n'a plus aucun secret J'ai rien d'extraordinaire J'suis comme ton père, ton oncle ou ton frère J'ai tout fait, j'suis tombé, j'suis sorti J'ai taffé, j'ai écrit J'suis père Je traîne au quartier, j'suis perdu sans repère J'cherche du taf, tout va bien jusqu'à présent La seule chose qui cloche, c'est que je viens d'avoir 16 ansYou might also like</t>
+          <t>J'suis un mec comme tout le monde, j'vis des ambiances trop bad Quand c'est l'heure du casse-pipe, quand c'est l'heure de la promenade Je tousse quand je fume et j'me confie quand je bois Quand les keufs me questionnent, je n'sais dire que j'sais pas Ne m'jugez pas, j'vole quand j'ai pas, sinon, à part ça Je cherche du taf et j'suis pour l'équipe du Barça J'vends de la drogue par nécessité Cambriolage, séquestration, au parquet, bien souvent, je suis impliqué Quand j'dors pas chez les keufs, j'dors chez ma meuf ou à l'hôtel Et j'ai la gaule quand le keuf se mange un cocktail Puis le soir dans l'escalier, souvent je marche sur des seringues Je fouille les placards à gaz et puis j'tombe sur des flingues Les grands m'envoient à la pharmacie pour leur acheter des Rohypnol J'ai un casque sur mes oreilles, je révise mes clés de sol Avec les potes, en bas, on a acheté un super 5 On va souvent manger des crêpes puis insulter les timp' J'suis un mec comme tout le monde, j'ai ma fierté, mes principes J'pourrais mourir pour mes gars, j'pourrais pas baisser mon slip J'dépanne la Daronne, j'dépanne le Daron J'tourne en compét', souvent je vends des litrons Toute la journée devant le hall, la nuit devant le hall J'écris mes textes au quartier, j'écris mes textes en taule J'ai fait les 400 coups, j'ai des amis partout J'ai des ennemis partout, oui j'ai un drôle de parcours Pas question de vivre avec le revenu minimal Hier à l'hôpital, on accouchait d'un mini moi J'vais voir la Sécurité Sociale, les Allocs Familiales Et puis la CMU, quand y'me regarde, j'suis ému Mes parents sont fous de lui, sont un peu dégoûtés Car je l'ai eu hors mariage, mais bon, ils vont accepter J'suis comme tout le monde moi, j'ai des sentiments Et quand mon meilleur ami meurt, et bah je pleure à l'enterrement Tu sais, on n'est pas né sous la même étoile, arrête Moi et Le Pen, on n'est pas né sur la même planète Comme tous mes potes, je hais les racistes J'aimerais gagner au Tiercé et me barrer d'ici Chez moi depuis l'époque des couches tu sais, on hait les Bush Le bonheur est tellement loin que pour le voir, je louche Range ton gun, jeune, personne ne peut rien contre moi Dieu m'a donné la vie et un jour, il me la reprendra J'ai la conscience, les mains sales, squatte la mission locale Tantôt j'cherche du taf, tantôt j'tire des taffes Jeune Marocain, Casablanca dans mon coeur Crédit Lyonnais dans ma tête, rougis par les inspecteurs Alors je traîne au quartier, ambitions de caïd Et puis quand t'as de l'argent, ben c'est tous les jours l'Haïd Quand t'en a pas, malheureusement, c'est trop souvent le Ramadan Le pouce en l'air mais la caisse du succès ne voulait pas m'attendre Au quartier, on vit souvent les uns sur les autres Les uns contre les autres, jamais les uns avec les autres J'me débrouille tout seul, j'trouve mon chemin sans boussole Dans ma cellule je me sens aussi seul que devant ma console Merci de m'écouter, de me porter un peu d'attention Parce que, jusqu'à présent, personne ne l'a fait J'ai bien vécu, j'ai tout fait, là où les embrouilles se créent J'm'en bats les couilles, pour moi, le square n'a plus aucun secret J'ai rien d'extraordinaire J'suis comme ton père, ton oncle ou ton frère J'ai tout fait, j'suis tombé, j'suis sorti J'ai taffé, j'ai écrit J'suis père Je traîne au quartier, j'suis perdu sans repère J'cherche du taf, tout va bien jusqu'à présent La seule chose qui cloche, c'est que je viens d'avoir 16 ans</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Depuis mon premier chèque, j'ai vu le banquier s'affoler On est parti de rien, maintenant ils se mettent à nous envier Un pas en avant, briser les frontières on le fait Fouiny Babe, Farid Bang Mec, on est venu représenter Düsseldorf Représenter Paris Représenter Banlieue Sale Représenter Banger Musik Représenter Der Paname Boss Représenter Marokko Représenter Helal Money Représenter Anabol Angenommen es wär wahr und deine Uhr von Hublot echt Wieso ist dann auf deinem iPhone die Groupon-App? Ich komm back, breiter als der Eiffelturm Und habe mehr Bizeps als der iPhone-Store Disst La Fouine, doch würdest du gut bezahlen Würde keiner deiner Label-Acts U-Bahn fahren Geh ich auf dich ein mit der Flasche Moet Ist es wie der Buchstabe N, danach heißt es OP Die Bitch auf Cocaine, sie hat Paranoia Sie ist keine billige Bitch, denn Silikon ist teuer Rapper labern über Patte, doch haben kein Bares in den Taschen Wie HDF-Kanacken Und wenn du eins hast, dann muss ich es sein Weil ich die Eins bin, ich hab Fouiny mit dabei Ich hab ein CLS, du ein Fahrradschloss Ihr wollt Franzosen-Rap, das hier ist der Paname Boss - Bang You might also like Depuis mon premier chèque, j'ai vu le banquier s'affoler On est parti de rien, maintenant ils se mettent à nous envier Un pas en avant, briser les frontières on le fait Fouiny Babe, Farid Bang Mec, on est venu représenter Düsseldorf Représenter Paris Représenter Banlieue Sale Représenter Banger Musik Représenter Der Paname Boss Représenter Marokko Représenter Helal Money Représenter Anabol Fait un feat ou clash moi si tu veux percer Tu veux me canner jserai en Floride, à Trappes ou dans le New Jersey Mon poto vient d'Allemagne comme ma putain d'Porsche Cayenne J'ai cartonné la mienne, il me prête la sienne, eh ouais ma man Comme Omar Raddad, on représente de Casa à Rabat Handek tu parles mal ratatata ratatatata Si tu portes pas l'il, baarakallahu feek Commissaire, on s'fait jeter des briques, élevés aux feuilles de brick Farid Bang-bang-bang, Fouiny Baby Quand les keufs arrivent on hreb, en deuspi-deuspi Les cons qui vendaient de la C sur mon premier disque ont investi Y'a que dans ma tombe que j'aurai du répit, répit Putain les gros mythos dans l'peu-ra sont tous repéré Ils relatent nos histoires comme un greffier Frère on a des jouets, j'ai une clique qui aime les cliques-cliques Hurensohn, Banlieue-banlieue Sale, Banger Musik Depuis mon premier chèque, j'ai vu le banquier s'affoler On est parti de rien, maintenant ils se mettent à nous envier Un pas en avant, briser les frontières on le fait Fouiny Babe, Farid Bang Mec, on est venu représenter Düsseldorf Représenter Paris Représenter Banlieue Sale Représenter Banger Musik Représenter Der Paname Boss Représenter Marokko Représenter Helal Money Représenter Anabol Yeah, La Fouine, Farid Bang On a sorti les crampons Han, finale de la Ligue des Champions Banger Musik, Banlieue Sale16</t>
+          <t>Depuis mon premier chèque, j'ai vu le banquier s'affoler On est parti de rien, maintenant ils se mettent à nous envier Un pas en avant, briser les frontières on le fait Fouiny Babe, Farid Bang Mec, on est venu représenter Düsseldorf Représenter Paris Représenter Banlieue Sale Représenter Banger Musik Représenter Der Paname Boss Représenter Marokko Représenter Helal Money Représenter Anabol Angenommen es wär wahr und deine Uhr von Hublot echt Wieso ist dann auf deinem iPhone die Groupon-App? Ich komm back, breiter als der Eiffelturm Und habe mehr Bizeps als der iPhone-Store Disst La Fouine, doch würdest du gut bezahlen Würde keiner deiner Label-Acts U-Bahn fahren Geh ich auf dich ein mit der Flasche Moet Ist es wie der Buchstabe N, danach heißt es OP Die Bitch auf Cocaine, sie hat Paranoia Sie ist keine billige Bitch, denn Silikon ist teuer Rapper labern über Patte, doch haben kein Bares in den Taschen Wie HDF-Kanacken Und wenn du eins hast, dann muss ich es sein Weil ich die Eins bin, ich hab Fouiny mit dabei Ich hab ein CLS, du ein Fahrradschloss Ihr wollt Franzosen-Rap, das hier ist der Paname Boss - Bang Depuis mon premier chèque, j'ai vu le banquier s'affoler On est parti de rien, maintenant ils se mettent à nous envier Un pas en avant, briser les frontières on le fait Fouiny Babe, Farid Bang Mec, on est venu représenter Düsseldorf Représenter Paris Représenter Banlieue Sale Représenter Banger Musik Représenter Der Paname Boss Représenter Marokko Représenter Helal Money Représenter Anabol Fait un feat ou clash moi si tu veux percer Tu veux me canner jserai en Floride, à Trappes ou dans le New Jersey Mon poto vient d'Allemagne comme ma putain d'Porsche Cayenne J'ai cartonné la mienne, il me prête la sienne, eh ouais ma man Comme Omar Raddad, on représente de Casa à Rabat Handek tu parles mal ratatata ratatatata Si tu portes pas l'il, baarakallahu feek Commissaire, on s'fait jeter des briques, élevés aux feuilles de brick Farid Bang-bang-bang, Fouiny Baby Quand les keufs arrivent on hreb, en deuspi-deuspi Les cons qui vendaient de la C sur mon premier disque ont investi Y'a que dans ma tombe que j'aurai du répit, répit Putain les gros mythos dans l'peu-ra sont tous repéré Ils relatent nos histoires comme un greffier Frère on a des jouets, j'ai une clique qui aime les cliques-cliques Hurensohn, Banlieue-banlieue Sale, Banger Musik Depuis mon premier chèque, j'ai vu le banquier s'affoler On est parti de rien, maintenant ils se mettent à nous envier Un pas en avant, briser les frontières on le fait Fouiny Babe, Farid Bang Mec, on est venu représenter Düsseldorf Représenter Paris Représenter Banlieue Sale Représenter Banger Musik Représenter Der Paname Boss Représenter Marokko Représenter Helal Money Représenter Anabol Yeah, La Fouine, Farid Bang On a sorti les crampons Han, finale de la Ligue des Champions Banger Musik, Banlieue Sale16</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Contrôle les continents, les pays et les villes... Red Devils Salut mon vieux tu m'reconnais ? Fouiny Babe S-Kal, Banlieue Sale Hé yo Skorp ! J'crois qu'on va encore fourrer sur ce son Jantes en 22, carrosserie noire mate, le concessionnaire m'a dit Touche à rien Cinéma, télé, concerts sold out, les grands du quartier m'ont dit Touche à rien Quelques chèques et plus de zéros pour mon comptable, wallah, mon banquier m'a dit Touche à rien Prod de baisé, celle-là c'est pour tous mes fêlés, j'ai dit DJ Skorp, ouais, touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, brolique devant leur gueule, ils vont tous chahad Par ici les mecs et les fe-meu' sont trop bad, ramène toute ta clique, on les mettra bien Tes menaces sont du genre, catégorie bonne blague, si les teuchs miaulent c'est qu'tu restes en chien Bloqués sur l'terrain, on veut passer à un autre stade et on brouille les pistes pour qu'tu fasses pas l'lien Tu nous trouves lourds, j'ai envie d'dire comme d'hab', Skal, Banlieue Sale, vas-y kicke là, tiens Défilé d'magnums, défilés de Mathu', ma clique de XXX est dans la te-boi' Ouais, c'est validé, mon DJ est barbu, s'te plaît, fais-moi un cut, tout l'monde lève le doigt Oh non, oh non, wesh Skorp, c'est comment ? Mettez-vous en levrette, c'est Sultan qui prend les commandes On fait les fous, avec des seizes on fait des sous, vous avez tous rendez-vous pour une nouvelle mise à l'amende Belek, on opère, sortez les gros fers, mec du neuf-ze-dou', gneux-Ba, Cuvetars et Te-tere On sera pas lapidés vu qu'on a graillé des pierres, y'en a marre du béton, faut passer la serpillière Flow nonchalant, qui n'a pas de talent, disent-t-ils en râlant, écoute ça bien Refais tes lèvres ? Non, refais tes eins' ? Non, refais ton boule ? Non Touche à rien ! You might also like Jantes en 22, carrosserie noire mate, le concessionnaire m'a dit Touche à rien Cinéma, télé, concerts sold out, les grands du quartier m'ont dit Touche à rien Quelques chèques et plus de zéros pour mon comptable, wallah, mon banquier m'a dit Touche à rien Prod de baisé, celle-là c'est pour tous mes fêlés, j'ai dit DJ Skorp, ouais, touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, brolique devant leur gueule, ils vont tous chahad Dans c'rap de merde y'a trop d'sangsues, pack de douze et j'leur pisse dessus Touche à rien, rebeu, j'ai trop la côte, nique la mère à ton meilleur pote Henijay Music, 'nardo, Red comme les Bulls d'Chicago Ça ne sert à rien de jouer les costauds, tu vas porter plainte après l'hosto Touche à rien, j'ai trop la lle-da, je t'efface comme un Velleda, mon rap accumule les médailles, j'te découpe comme un jedi Ouais ouais, touche à rien sur le beat à Skorp, ouais ouais, Red Devils est trop hardcore Oh no, j'suis trop rapido, tu ferais mieux d'écraser comme un putain de mégot Sujet sensible comme prononcer Dieudo, j'veux pas les quer-cho donc je t'explique poto Jantes en 22, carrosserie noire mate, le concessionnaire m'a dit Touche à rien Cinéma, télé, concerts sold out, les grands du quartier m'ont dit Touche à rien Quelques chèques et plus de zéros pour mon comptable, wallah, mon banquier m'a dit Touche à rien Prod de baisé, celle-là c'est pour tous mes fêlés, j'ai dit DJ Skorp, ouais, touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, brolique devant leur gueule, ils vont tous chahad Hé yo Sultan et Canardo WAllah, bien vos couplets Mais vous avez été trop doux les gars, wAllah Si j'étais pas le rappeur préféré de la grand-mère à ton rappeur préféré, j'aurais fait encore plus sale Mais bon... j'commence doucement Nique ta soeur, ah ouais t'en as ap, ramène ta mère, j'lui crache dans la chatte On rentre chez Rolex, une chacun, t'as signé chez eux mais t'as touché rien Ouais, touche à rien comme les rappeurs français, Skorp, coupe le son, faut que je parle à mon banquier Monsieur, j'ai des problèmes et ma femme à pris la BM et ma maîtresse a pris la Porsche, appelle un chauffeur ou t'es viré J'touche à tout, j'fais du cash, j'vends plus de hasch, j'ai une ceinture H On te met un oigt-d, on est pas timides, tes gars se mouillent pour toi seulement parce que t'as du liquide T'es en fin de carrière comme le basketteur Shaq', parle sur moi, t'aurais 20 milles likes Banlieue Sale, S-Kal, gilet pare-balles, c'est DJ Skorp feat Khaled Kelkal, touche à rien... Jantes en 22, carrosserie noire mate, le concessionnaire m'a dit Touche à rien Cinéma, télé, concerts sold out, les grands du quartier m'ont dit Touche à rien Quelques chèques et plus de zéros pour mon comptable, wallah, mon banquier m'a dit Touche à rien Prod de baisé, celle-là c'est pour tous mes fêlés, j'ai dit DJ Skorp, ouais, touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, brolique devant leur gueule, ils vont tous chahad</t>
+          <t>Contrôle les continents, les pays et les villes... Red Devils Salut mon vieux tu m'reconnais ? Fouiny Babe S-Kal, Banlieue Sale Hé yo Skorp ! J'crois qu'on va encore fourrer sur ce son Jantes en 22, carrosserie noire mate, le concessionnaire m'a dit Touche à rien Cinéma, télé, concerts sold out, les grands du quartier m'ont dit Touche à rien Quelques chèques et plus de zéros pour mon comptable, wallah, mon banquier m'a dit Touche à rien Prod de baisé, celle-là c'est pour tous mes fêlés, j'ai dit DJ Skorp, ouais, touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, brolique devant leur gueule, ils vont tous chahad Par ici les mecs et les fe-meu' sont trop bad, ramène toute ta clique, on les mettra bien Tes menaces sont du genre, catégorie bonne blague, si les teuchs miaulent c'est qu'tu restes en chien Bloqués sur l'terrain, on veut passer à un autre stade et on brouille les pistes pour qu'tu fasses pas l'lien Tu nous trouves lourds, j'ai envie d'dire comme d'hab', Skal, Banlieue Sale, vas-y kicke là, tiens Défilé d'magnums, défilés de Mathu', ma clique de XXX est dans la te-boi' Ouais, c'est validé, mon DJ est barbu, s'te plaît, fais-moi un cut, tout l'monde lève le doigt Oh non, oh non, wesh Skorp, c'est comment ? Mettez-vous en levrette, c'est Sultan qui prend les commandes On fait les fous, avec des seizes on fait des sous, vous avez tous rendez-vous pour une nouvelle mise à l'amende Belek, on opère, sortez les gros fers, mec du neuf-ze-dou', gneux-Ba, Cuvetars et Te-tere On sera pas lapidés vu qu'on a graillé des pierres, y'en a marre du béton, faut passer la serpillière Flow nonchalant, qui n'a pas de talent, disent-t-ils en râlant, écoute ça bien Refais tes lèvres ? Non, refais tes eins' ? Non, refais ton boule ? Non Touche à rien ! Jantes en 22, carrosserie noire mate, le concessionnaire m'a dit Touche à rien Cinéma, télé, concerts sold out, les grands du quartier m'ont dit Touche à rien Quelques chèques et plus de zéros pour mon comptable, wallah, mon banquier m'a dit Touche à rien Prod de baisé, celle-là c'est pour tous mes fêlés, j'ai dit DJ Skorp, ouais, touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, brolique devant leur gueule, ils vont tous chahad Dans c'rap de merde y'a trop d'sangsues, pack de douze et j'leur pisse dessus Touche à rien, rebeu, j'ai trop la côte, nique la mère à ton meilleur pote Henijay Music, 'nardo, Red comme les Bulls d'Chicago Ça ne sert à rien de jouer les costauds, tu vas porter plainte après l'hosto Touche à rien, j'ai trop la lle-da, je t'efface comme un Velleda, mon rap accumule les médailles, j'te découpe comme un jedi Ouais ouais, touche à rien sur le beat à Skorp, ouais ouais, Red Devils est trop hardcore Oh no, j'suis trop rapido, tu ferais mieux d'écraser comme un putain de mégot Sujet sensible comme prononcer Dieudo, j'veux pas les quer-cho donc je t'explique poto Jantes en 22, carrosserie noire mate, le concessionnaire m'a dit Touche à rien Cinéma, télé, concerts sold out, les grands du quartier m'ont dit Touche à rien Quelques chèques et plus de zéros pour mon comptable, wallah, mon banquier m'a dit Touche à rien Prod de baisé, celle-là c'est pour tous mes fêlés, j'ai dit DJ Skorp, ouais, touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, brolique devant leur gueule, ils vont tous chahad Hé yo Sultan et Canardo WAllah, bien vos couplets Mais vous avez été trop doux les gars, wAllah Si j'étais pas le rappeur préféré de la grand-mère à ton rappeur préféré, j'aurais fait encore plus sale Mais bon... j'commence doucement Nique ta soeur, ah ouais t'en as ap, ramène ta mère, j'lui crache dans la chatte On rentre chez Rolex, une chacun, t'as signé chez eux mais t'as touché rien Ouais, touche à rien comme les rappeurs français, Skorp, coupe le son, faut que je parle à mon banquier Monsieur, j'ai des problèmes et ma femme à pris la BM et ma maîtresse a pris la Porsche, appelle un chauffeur ou t'es viré J'touche à tout, j'fais du cash, j'vends plus de hasch, j'ai une ceinture H On te met un oigt-d, on est pas timides, tes gars se mouillent pour toi seulement parce que t'as du liquide T'es en fin de carrière comme le basketteur Shaq', parle sur moi, t'aurais 20 milles likes Banlieue Sale, S-Kal, gilet pare-balles, c'est DJ Skorp feat Khaled Kelkal, touche à rien... Jantes en 22, carrosserie noire mate, le concessionnaire m'a dit Touche à rien Cinéma, télé, concerts sold out, les grands du quartier m'ont dit Touche à rien Quelques chèques et plus de zéros pour mon comptable, wallah, mon banquier m'a dit Touche à rien Prod de baisé, celle-là c'est pour tous mes fêlés, j'ai dit DJ Skorp, ouais, touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, touche à rien, touche à-touche à rien Touche à rien, touche à rien, brolique devant leur gueule, ils vont tous chahad</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Salut mon vieux, tu m'reconnais ? Khoya, j'ai fait des millions d'euros, donc fuck you toi et ta vie d'artiste Ouais, biatch, j'te baise pas par la chatte, j'passerai bien par l'entrée des artistes Et c'que le temps laissa sur ma peau, reubeu, v'là les putains d'cicatrices J'ai pas l'time, j'suis pas dans leur matrice, tu veux un feat, j't'envoie mon K-bis Ça fait du bien, CDC j'vais enfin pouvoir traiter leur mère J'ai trop d'liasses de billets d'cent eu', normal qu'l'entraîneur me mette au vert Bouche bien les oreilles de ta fille, j't'ai dit ça c'est pas du Team BS Bizarre ta chienne est trop tactile, elle m'rappelle ma Nintendo DS Nique sa mère les bras d'Morphée, Banlieue Sale on a des masseuses Tire-moi dessus devant la chicha renoi et là t'auras un Starbuzz Dites-leur d'aller niquer leur mère, on n'est pas du tout dans la même sphère J'ai deux-trois biatchs VHR, j'ai deux-trois ennemis en DHR Ici c'est la Ligue 1, la Ligue 1, CDC Banlieue Sale ça kicke hein Est-c'que dans les geôles du tribunal, tu nous trouves encore sympathiques, hein ? Mais renoi qui t'a dit ça ? On t'a jamais clashé connard On ne tire pas sur les ambulances, encore moins sur les corbillards, biatch J'ride tranquille sur Paris, à l'heure qu'il est sous Bavaria Les khos rêvent de Panamera, du salaire de Di María Trop d'fils de pute, j'les vois retourner leur veste à quelques euros CDC 4 dans les bacs détendez-vous, c'n'est que l'intro ...Ils ont trop peur j'viens prendre le trône, nous le savons... ...J'ai marché dans la merde, j'vais marcher sur la moon... ...Qui sont les bests, Banlieue Ouest, mate leur équipe s'écrouler... ...J'peux pas faire la re-sta, La Fouine vient du re-squa... ...Nique sa mère la hass, j'tiens le rap en laisse... ...Bois d'Ar', Osny, Fleury, Nanterre... ...On va faire comme ton père, on va t'niquer ta mère... ...J'arrive en balle, RS4, Espagne... ...Tiens mon mail, tiens mon, tiens mon mail... ...Jantes noires, cuir noir... ...Va niquer ta mère.com...You might also like4</t>
+          <t>Salut mon vieux, tu m'reconnais ? Khoya, j'ai fait des millions d'euros, donc fuck you toi et ta vie d'artiste Ouais, biatch, j'te baise pas par la chatte, j'passerai bien par l'entrée des artistes Et c'que le temps laissa sur ma peau, reubeu, v'là les putains d'cicatrices J'ai pas l'time, j'suis pas dans leur matrice, tu veux un feat, j't'envoie mon K-bis Ça fait du bien, CDC j'vais enfin pouvoir traiter leur mère J'ai trop d'liasses de billets d'cent eu', normal qu'l'entraîneur me mette au vert Bouche bien les oreilles de ta fille, j't'ai dit ça c'est pas du Team BS Bizarre ta chienne est trop tactile, elle m'rappelle ma Nintendo DS Nique sa mère les bras d'Morphée, Banlieue Sale on a des masseuses Tire-moi dessus devant la chicha renoi et là t'auras un Starbuzz Dites-leur d'aller niquer leur mère, on n'est pas du tout dans la même sphère J'ai deux-trois biatchs VHR, j'ai deux-trois ennemis en DHR Ici c'est la Ligue 1, la Ligue 1, CDC Banlieue Sale ça kicke hein Est-c'que dans les geôles du tribunal, tu nous trouves encore sympathiques, hein ? Mais renoi qui t'a dit ça ? On t'a jamais clashé connard On ne tire pas sur les ambulances, encore moins sur les corbillards, biatch J'ride tranquille sur Paris, à l'heure qu'il est sous Bavaria Les khos rêvent de Panamera, du salaire de Di María Trop d'fils de pute, j'les vois retourner leur veste à quelques euros CDC 4 dans les bacs détendez-vous, c'n'est que l'intro ...Ils ont trop peur j'viens prendre le trône, nous le savons... ...J'ai marché dans la merde, j'vais marcher sur la moon... ...Qui sont les bests, Banlieue Ouest, mate leur équipe s'écrouler... ...J'peux pas faire la re-sta, La Fouine vient du re-squa... ...Nique sa mère la hass, j'tiens le rap en laisse... ...Bois d'Ar', Osny, Fleury, Nanterre... ...On va faire comme ton père, on va t'niquer ta mère... ...J'arrive en balle, RS4, Espagne... ...Tiens mon mail, tiens mon, tiens mon mail... ...Jantes noires, cuir noir... ...Va niquer ta mère.com...4</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Yeah, Fouiny, Lartiste Dar Beida Please ma belle, fais un signe au serveur, tous nos verres sont vides, vides, vides Au réveil à quinze heures, sorry j't'ai pas rappelée, mais personne te valide-lide-lide T'as kiffé la serveuse, t'as pas laissé d'pourboire, car tes poches sont vides, vides, vides J'me barre d'ici, j'ai pas l'temps de parler, désolé j'suis speed, speed, speed Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Ils ont voulu nous test, khoya allah yester Moi j'paie toujours mes dettes comme un Lannister Mes gars tiennent la route avec ou sans mis-per J'oublie pas mes textes sauf devant l'inspecteur J'suis dans toutes les bouches comme du Al Fakher Une révélation comme mon poto Fékir Je sais qtu m'as pas vu car y'a un mur de bouteilles On n'est pas des vendus mais on sait que tout s'paye gros You might also like Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu crois plus aux fantômes, à part ceux de Snapchat Appelle en deux-deux, j'arrive en 4x4 Fuck l'alpinisme, j'roule en Escalade J'suis au coin VIP, c'est un truc de malade Khoya j'croise une meuf, elle m'a l'air sûre d'elle Elle m'dit j'm'appelle Mandarine, moi j'suis bonne, moi j'suis belle La meuf elle est orange, elle a tisé une 'teille Elle m'dit nan j'bois pas, c'est du champagne hlel Please ma belle, fais un signe au serveur, tous nos verres sont vides, vides, vides Au réveil à quinze heures, sorry j't'ai pas rappelée, mais personne te valide-lide-lide T'as kiffé la serveuse, t'as pas laissé d'pourboire, car tes poches sont vides, vides, vides J'me barre d'ici, j'ai pas l'temps de parler, désolé j'suis speed, speed, speed Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' On sert des gows sans trop s'parler Et le showcase affiche complet J'm'arrache avant l'deuxième couplet J'termine la night dans mon coupé On sert des gows sans trop s'parler Et le showcase affiche complet J'm'arrache avant l'deuxième couplet J'termine la night dans mon coupé Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta'1</t>
+          <t>Yeah, Fouiny, Lartiste Dar Beida Please ma belle, fais un signe au serveur, tous nos verres sont vides, vides, vides Au réveil à quinze heures, sorry j't'ai pas rappelée, mais personne te valide-lide-lide T'as kiffé la serveuse, t'as pas laissé d'pourboire, car tes poches sont vides, vides, vides J'me barre d'ici, j'ai pas l'temps de parler, désolé j'suis speed, speed, speed Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Ils ont voulu nous test, khoya allah yester Moi j'paie toujours mes dettes comme un Lannister Mes gars tiennent la route avec ou sans mis-per J'oublie pas mes textes sauf devant l'inspecteur J'suis dans toutes les bouches comme du Al Fakher Une révélation comme mon poto Fékir Je sais qtu m'as pas vu car y'a un mur de bouteilles On n'est pas des vendus mais on sait que tout s'paye gros Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu crois plus aux fantômes, à part ceux de Snapchat Appelle en deux-deux, j'arrive en 4x4 Fuck l'alpinisme, j'roule en Escalade J'suis au coin VIP, c'est un truc de malade Khoya j'croise une meuf, elle m'a l'air sûre d'elle Elle m'dit j'm'appelle Mandarine, moi j'suis bonne, moi j'suis belle La meuf elle est orange, elle a tisé une 'teille Elle m'dit nan j'bois pas, c'est du champagne hlel Please ma belle, fais un signe au serveur, tous nos verres sont vides, vides, vides Au réveil à quinze heures, sorry j't'ai pas rappelée, mais personne te valide-lide-lide T'as kiffé la serveuse, t'as pas laissé d'pourboire, car tes poches sont vides, vides, vides J'me barre d'ici, j'ai pas l'temps de parler, désolé j'suis speed, speed, speed Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' On sert des gows sans trop s'parler Et le showcase affiche complet J'm'arrache avant l'deuxième couplet J'termine la night dans mon coupé On sert des gows sans trop s'parler Et le showcase affiche complet J'm'arrache avant l'deuxième couplet J'termine la night dans mon coupé Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta' Tu fais pitié, fais pas la re-sta Ta soirée est naze, désolé on reste pas Y'a pas d'avion d'chasse, y'a que des Vespa Faut leur mettre des filtres, comme sur Insta'1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Hey yo Skalp, j'voulais dire ta prod' c'est du rap C'est du vraie putain d'rap J'rappe les mitards de Nanterre les frères qu'on enterre Les coups d'feux la beu-her, brolic sur la tempe, rebeu j'rappe les mains en l'air J'rappe mon passé, mon vécu les frères sous écrou Toutes les familles au fond du trou en deux et demi j'rappe en putain d'roue J'rappe les descentes, les grosses perquises et les frères sans mis-per Au ter-ter la neige dans l'nez des frères, j'rappe pour les sports d'hiver J'rappe mon succès, mes défaites, le Zenith, la salle des fêtes J'rappe de cur a cur, j'rappe les têtes a têtes Jamais réconcilié barreaux sciés, canon scié Hé, hé, hé c'est Fouiny Baby pas oublier J'rappe les larmes de mon père, le sourire de mon banquier A la mémoire de ma mère j'vais les faire tous banquer Han, Neuf-quatre c'est le Barça comme dit le poto Kery Sept-Huit c'est la Syrie Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac You might also like J'rappe mes pensées ma furie, mon écurie, des tueries Les barreaux des Baumettes, les lancers de yoyo de Fleury J'rappe le malheurs de mes proches aussi pour combler mes poches J'rappe les délaissés de l'état qui sont tout plein de reproches Mes frères qui tiennent le pavé, ceux qui n'ont jamais bavé J'rappe pour ceux en bas de la pente qui ont pleins d'épreuves a bravées J'rappe Bagneux ces habitants, neuf-zeudou-zou résident Ce qui compte c'est la fin du match, pas le score à la mi-temps J'rappe pour tous ceux qui prennent la peine de m'écouter Pour vous j'me prends la tête j'essaye d'faire de lourds couplets J'rappe pour marquer les esprits, tout ce que je vie j'le décris Je n'peux que voir les choses en grand, y'a plus tit-pe comme ici J'rappe pour les bons vivants, j'rappe les fourgons cellulaires J'rappe pour les gens conscients et ceux qui ont pas l'formulaire Même si c'est maintenant que je croque, j'peux pas changer de cap J'peux foutre ma voix dans la Pop, tes MCs savent que je rappe Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac J'rappe pour ceux au mitard, le cur bloqué au quartier Entre les keufs et moi le courant passe pas, il m'ont juste tasé J'rappe pour ceux qui vendent de la blanche, de la beuh' ou du seum Si y'a plus d'balles dans l'chargeur on t'crosse avec le gun Une colère infantile, j'rappe j'ai pas un centime J'suis c'rappeur qui a la dalle donc les taulards me cantinent Descendant d'esclave, j'sais que lÉtat nous mènent en bateau Me parle pas du daron ou j'vais pleurer comme Sakho Punchlineur éclipse, j'rappe la lune et l'Soleil Un pote qui s'barre quand ça tire c'est une amitié qui s'enraye J'rappe depuis l'début et j'sais que pour eux c'est fini Moi c'est Bondy, Grigny, Vini c'est l'ptit à Fouiny J'rappe, j'suis sur écoute,dans mon flow y'a d'la reverb Quand ma vie aura plus dessence, j'me demande c'que la mort me réserve J'me demande c'que la mort me réserve, j'me demande c'que la mort me réserve J'me demande c'que la mort me réserve, j'me demande c'que la mort me réserve Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac On a vécu comme Marlo, on meurt comme Tupac On a vécu comme Marlo, on meurt comme Tupac6</t>
+          <t>Hey yo Skalp, j'voulais dire ta prod' c'est du rap C'est du vraie putain d'rap J'rappe les mitards de Nanterre les frères qu'on enterre Les coups d'feux la beu-her, brolic sur la tempe, rebeu j'rappe les mains en l'air J'rappe mon passé, mon vécu les frères sous écrou Toutes les familles au fond du trou en deux et demi j'rappe en putain d'roue J'rappe les descentes, les grosses perquises et les frères sans mis-per Au ter-ter la neige dans l'nez des frères, j'rappe pour les sports d'hiver J'rappe mon succès, mes défaites, le Zenith, la salle des fêtes J'rappe de cur a cur, j'rappe les têtes a têtes Jamais réconcilié barreaux sciés, canon scié Hé, hé, hé c'est Fouiny Baby pas oublier J'rappe les larmes de mon père, le sourire de mon banquier A la mémoire de ma mère j'vais les faire tous banquer Han, Neuf-quatre c'est le Barça comme dit le poto Kery Sept-Huit c'est la Syrie Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac J'rappe mes pensées ma furie, mon écurie, des tueries Les barreaux des Baumettes, les lancers de yoyo de Fleury J'rappe le malheurs de mes proches aussi pour combler mes poches J'rappe les délaissés de l'état qui sont tout plein de reproches Mes frères qui tiennent le pavé, ceux qui n'ont jamais bavé J'rappe pour ceux en bas de la pente qui ont pleins d'épreuves a bravées J'rappe Bagneux ces habitants, neuf-zeudou-zou résident Ce qui compte c'est la fin du match, pas le score à la mi-temps J'rappe pour tous ceux qui prennent la peine de m'écouter Pour vous j'me prends la tête j'essaye d'faire de lourds couplets J'rappe pour marquer les esprits, tout ce que je vie j'le décris Je n'peux que voir les choses en grand, y'a plus tit-pe comme ici J'rappe pour les bons vivants, j'rappe les fourgons cellulaires J'rappe pour les gens conscients et ceux qui ont pas l'formulaire Même si c'est maintenant que je croque, j'peux pas changer de cap J'peux foutre ma voix dans la Pop, tes MCs savent que je rappe Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac J'rappe pour ceux au mitard, le cur bloqué au quartier Entre les keufs et moi le courant passe pas, il m'ont juste tasé J'rappe pour ceux qui vendent de la blanche, de la beuh' ou du seum Si y'a plus d'balles dans l'chargeur on t'crosse avec le gun Une colère infantile, j'rappe j'ai pas un centime J'suis c'rappeur qui a la dalle donc les taulards me cantinent Descendant d'esclave, j'sais que lÉtat nous mènent en bateau Me parle pas du daron ou j'vais pleurer comme Sakho Punchlineur éclipse, j'rappe la lune et l'Soleil Un pote qui s'barre quand ça tire c'est une amitié qui s'enraye J'rappe depuis l'début et j'sais que pour eux c'est fini Moi c'est Bondy, Grigny, Vini c'est l'ptit à Fouiny J'rappe, j'suis sur écoute,dans mon flow y'a d'la reverb Quand ma vie aura plus dessence, j'me demande c'que la mort me réserve J'me demande c'que la mort me réserve, j'me demande c'que la mort me réserve J'me demande c'que la mort me réserve, j'me demande c'que la mort me réserve Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac Quand la rue écrit Fouiny Babe rappe Quand la rue écrit Baby rappe Quand la rue écrit Soultouane rappe On a vécu comme Marlo on meurt comme Tupac On a vécu comme Marlo, on meurt comme Tupac On a vécu comme Marlo, on meurt comme Tupac6</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Wo oh oh woh oh oh, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde L'aventure est dangereuse, la routine est mortelle Le bonheur s'fait rare comme une vierge dans un film de Dorcel Mauvaises fréquentations t'as trainé avec les grands Quand tu voulais en vendre ils avaient le nez dedans Tu t'es retrouvé en taule au quartier disciplinaire Là t'as tout mis sur ton dos, t'as pris une peine exemplaire T'as r'çu aucun mandat, tu t'es débrouillé seul Mais t'avais le mental ouais t'as su fermer ta gueule Les mois les années passent, khoya jamais tu déprimes Quand tu t'retrouves dans l'impasse tu t'dis qu'tu payes pour tes crimes Tu fais des trucs de ouf et puis un jour tu les paies Tu pleures une amitié qu'on a contournée à la craie Un matin tu t'en sors et tes potes te font la bise Comme si de rien n'était la rue c'est pire que le showbiz La roue tourne, comme le surveillant qui fait sa ronde Même au fond du trou dis toi qu'c'est pas la fin du monde, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde C'est pas la fin du monde You might also like L'aventure est dangereuse, la routine est mortelle Le soir quand tu t'endors tout tes rêves t'emmènent auprès d'elle Ta daronne nous a quitté t'as des larmes sur les joues Tu regrettes toutes ces fois où t'as pas su dire I love you Plus personne ne t'écoute tu t'confies à une bouteille Ta vie est un cauchemar où t'as perdu le sommeil Pas sapé mal habillé, tu t'es pas lavé Rebellion outrage tu finis en GAV Au plus profond de toi tu peux ressentir ce vide Plus personne avec qui partager les fêtes de l'Aïd T'as dit oui avec la tête, t'as dit non avec le coeur T'as dit oui avec un brolique, t'as dit non aux inspecteurs Rien n'la ramènera, même pas l'biff à Khelaifi Tu marches la tête baissée et t'as plus goût à la vie Après la pluie le soleil brille à nouveau sur le monde Même au fond du trou dis toi qu'c'est pas la fin du monde, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde C'est pas la fin du monde Tu vis des choses immondes, même si la Terre est ronde C'est pas la fin du monde pas la fin du monde Tu vis des choses immondes, même si la Terre gronde C'est pas la fin du monde c'est pas la fin du monde Tu vis des choses immondes, même si la Terre gronde C'est pas la fin du monde pas la fin du monde Tu vis des choses immondes, même si la Terre gronde C'est pas la fin du monde Wo ou oh oh oh Et puis t'es tombé love d'cette fille, elle t'as laissé des séquelles C'est pas la fin du monde, juste la fin d'un monde avec elle Petit relève la tête, non faut pas t'laisser aller Les filles c'est une de perdue, dix de retweetées C'est pas la fin du monde, il te reste tes vrais gars Et arrête de chialer t'as sali mes Balanciaga Quand tu l'as rencontrée, t'as vite oublié tes frères Le jour où t'es revenu ils t'ont accueilli à bras ouverts C'est pas la fin du monde, c'est l'début d'quelque chose de grand Vaut mieux une vraie rupture, que des faux sentiments Elle t'as laissée depuis des mois et t'y repenses chaque seconde Je sais tu vas pas bien mais c'est pas la fin du monde, c'est pas la fin du monde Yep, c'est pas la fin du monde Ouais, c'est pas la fin du monde Yep, Fouiny1</t>
+          <t>Wo oh oh woh oh oh, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde L'aventure est dangereuse, la routine est mortelle Le bonheur s'fait rare comme une vierge dans un film de Dorcel Mauvaises fréquentations t'as trainé avec les grands Quand tu voulais en vendre ils avaient le nez dedans Tu t'es retrouvé en taule au quartier disciplinaire Là t'as tout mis sur ton dos, t'as pris une peine exemplaire T'as r'çu aucun mandat, tu t'es débrouillé seul Mais t'avais le mental ouais t'as su fermer ta gueule Les mois les années passent, khoya jamais tu déprimes Quand tu t'retrouves dans l'impasse tu t'dis qu'tu payes pour tes crimes Tu fais des trucs de ouf et puis un jour tu les paies Tu pleures une amitié qu'on a contournée à la craie Un matin tu t'en sors et tes potes te font la bise Comme si de rien n'était la rue c'est pire que le showbiz La roue tourne, comme le surveillant qui fait sa ronde Même au fond du trou dis toi qu'c'est pas la fin du monde, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde C'est pas la fin du monde L'aventure est dangereuse, la routine est mortelle Le soir quand tu t'endors tout tes rêves t'emmènent auprès d'elle Ta daronne nous a quitté t'as des larmes sur les joues Tu regrettes toutes ces fois où t'as pas su dire I love you Plus personne ne t'écoute tu t'confies à une bouteille Ta vie est un cauchemar où t'as perdu le sommeil Pas sapé mal habillé, tu t'es pas lavé Rebellion outrage tu finis en GAV Au plus profond de toi tu peux ressentir ce vide Plus personne avec qui partager les fêtes de l'Aïd T'as dit oui avec la tête, t'as dit non avec le coeur T'as dit oui avec un brolique, t'as dit non aux inspecteurs Rien n'la ramènera, même pas l'biff à Khelaifi Tu marches la tête baissée et t'as plus goût à la vie Après la pluie le soleil brille à nouveau sur le monde Même au fond du trou dis toi qu'c'est pas la fin du monde, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde Wo oh oh woh oh oh, c'est pas la fin du monde C'est pas la fin du monde Tu vis des choses immondes, même si la Terre est ronde C'est pas la fin du monde pas la fin du monde Tu vis des choses immondes, même si la Terre gronde C'est pas la fin du monde c'est pas la fin du monde Tu vis des choses immondes, même si la Terre gronde C'est pas la fin du monde pas la fin du monde Tu vis des choses immondes, même si la Terre gronde C'est pas la fin du monde Wo ou oh oh oh Et puis t'es tombé love d'cette fille, elle t'as laissé des séquelles C'est pas la fin du monde, juste la fin d'un monde avec elle Petit relève la tête, non faut pas t'laisser aller Les filles c'est une de perdue, dix de retweetées C'est pas la fin du monde, il te reste tes vrais gars Et arrête de chialer t'as sali mes Balanciaga Quand tu l'as rencontrée, t'as vite oublié tes frères Le jour où t'es revenu ils t'ont accueilli à bras ouverts C'est pas la fin du monde, c'est l'début d'quelque chose de grand Vaut mieux une vraie rupture, que des faux sentiments Elle t'as laissée depuis des mois et t'y repenses chaque seconde Je sais tu vas pas bien mais c'est pas la fin du monde, c'est pas la fin du monde Yep, c'est pas la fin du monde Ouais, c'est pas la fin du monde Yep, Fouiny1</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ouais, j'avais du mal à dormir ce soir J'avais besoin de parler J'avais besoin de te parler Et quand tu m'envoyais acheter du pain, je sais, je râlais Toi te levais à 5h du matin avec ton balai pour remplir le frigo J'ai mal, j'écris ce texte en pleurant, mes larmes tombent sur ma feuille usée J'ai du mal à lire mon couplet Depuis mes journées sont grises et mes nuits sont blanches J'ai du mal à dormir et dans le noir je sens ta présence Avec tes 2000 francs de RMI, m'an tu nous achetais nos livres C'es pas toi que j'ai enterré, c'est ma raison de vivre Et quand je passe devant la maison devant la fenêtre là où t'avais l'habitude d'être Y'a plus personne et personne connait mon mal-être A part Ilham et Samira, Naïma et Hakim , Adil et puis Kamel Amé Dieu seul sait comme on a mal Je souhaite à tous les gens du monde d'avoir une mère comme toi Et pas au pire de mes ennemis de perdre une mère comme toi Aucune médaille d'honneur pour une femme d'honneur Juste un cimetière, quelques larmes, quelques potes, quelque fleurs Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut You might also like Tout seul dans le noir je regarde la haut Et forcé d'y croire je regarde là-haut Ecrire ce texte me torture Je me souviens de ton visage, de ton sourire, ta fierté et même dans les coups durs, les mauvaises factures Les crédits, les dettes, les perquis' les prises de tête La vie me blesse me laisse sans points de suture T'as connu les prisons, les hôpitaux, les foyers, les retards de loyer, les comicos Amé Dans mes larmes j'me suis noyé Le mitard m'a bloqué, n'a pas bloqué mes rêves Je voulais t'évader d'ici et t'offrir ta villa de tes rêves Oui j'vous parle d'amour, j'vous parle de ce que j'connais J'culpabilise à chaque fou rire, mon moral est passé sous le tro-mé Hé Maman tu me manques, enfin tout me manque L'odeur du pain arabe dans la cuisine, tes conseils, ton Heteï Des litrons dans le four, j'allais jamais en cours, la rue rend sourd Je mendie ton pardon, je mendie ton amour A toutes vos mères dont il n'existe aucune réplique C'est dingue ce soir, le marbre a remplacé mon public Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut Comment t'oublier, comment ne pas t'aimer Pendant que j'râlais devant mes pâtes, toi tu t'battais d'vant les huissiers Ton enfance fut terrible le mariage forcé, le Maroc Petite, tu marchais pieds-nus, moi j'râlais devant mes Reebok J'avais un gun sous l'fut', toi t'avais un cur sous l'foulard Tu t'es sacrifié pour 3 filles, et puis 5 connards Parfois j'sais plus à qui parler, j'sais plus à qui m'confier Et comme Hamidou mon frère, j'attends que la mort vienne me convier Tout seul dans le noir, je regarde là-haut Seul sans y croire, je regarde là-haut Tout seul dans le noir, je regarde là-haut Là-haut, là-haut, là-haut Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut</t>
+          <t>Ouais, j'avais du mal à dormir ce soir J'avais besoin de parler J'avais besoin de te parler Et quand tu m'envoyais acheter du pain, je sais, je râlais Toi te levais à 5h du matin avec ton balai pour remplir le frigo J'ai mal, j'écris ce texte en pleurant, mes larmes tombent sur ma feuille usée J'ai du mal à lire mon couplet Depuis mes journées sont grises et mes nuits sont blanches J'ai du mal à dormir et dans le noir je sens ta présence Avec tes 2000 francs de RMI, m'an tu nous achetais nos livres C'es pas toi que j'ai enterré, c'est ma raison de vivre Et quand je passe devant la maison devant la fenêtre là où t'avais l'habitude d'être Y'a plus personne et personne connait mon mal-être A part Ilham et Samira, Naïma et Hakim , Adil et puis Kamel Amé Dieu seul sait comme on a mal Je souhaite à tous les gens du monde d'avoir une mère comme toi Et pas au pire de mes ennemis de perdre une mère comme toi Aucune médaille d'honneur pour une femme d'honneur Juste un cimetière, quelques larmes, quelques potes, quelque fleurs Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut Tout seul dans le noir je regarde la haut Et forcé d'y croire je regarde là-haut Ecrire ce texte me torture Je me souviens de ton visage, de ton sourire, ta fierté et même dans les coups durs, les mauvaises factures Les crédits, les dettes, les perquis' les prises de tête La vie me blesse me laisse sans points de suture T'as connu les prisons, les hôpitaux, les foyers, les retards de loyer, les comicos Amé Dans mes larmes j'me suis noyé Le mitard m'a bloqué, n'a pas bloqué mes rêves Je voulais t'évader d'ici et t'offrir ta villa de tes rêves Oui j'vous parle d'amour, j'vous parle de ce que j'connais J'culpabilise à chaque fou rire, mon moral est passé sous le tro-mé Hé Maman tu me manques, enfin tout me manque L'odeur du pain arabe dans la cuisine, tes conseils, ton Heteï Des litrons dans le four, j'allais jamais en cours, la rue rend sourd Je mendie ton pardon, je mendie ton amour A toutes vos mères dont il n'existe aucune réplique C'est dingue ce soir, le marbre a remplacé mon public Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut Comment t'oublier, comment ne pas t'aimer Pendant que j'râlais devant mes pâtes, toi tu t'battais d'vant les huissiers Ton enfance fut terrible le mariage forcé, le Maroc Petite, tu marchais pieds-nus, moi j'râlais devant mes Reebok J'avais un gun sous l'fut', toi t'avais un cur sous l'foulard Tu t'es sacrifié pour 3 filles, et puis 5 connards Parfois j'sais plus à qui parler, j'sais plus à qui m'confier Et comme Hamidou mon frère, j'attends que la mort vienne me convier Tout seul dans le noir, je regarde là-haut Seul sans y croire, je regarde là-haut Tout seul dans le noir, je regarde là-haut Là-haut, là-haut, là-haut Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut Quand chez moi tout va mal et que se ferment toutes les portes Amé Quand je me sens seul même entouré de tous mes potes Amé Quand j'avance seul et que je vois chuter ma côte Amé Je regarde là-haut</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Jlèche des feuilles à rouler et la chatte a Rihanna Moi je sors de boite avec 2, 3 numbers de mariama On prend des peines de prison des balles et du poids fiston Prochain album sera dans les bacs de Louis Vuitton Écusson DG ou Gucci sur mon bandana V.I.P Abdel Karima Obama En street swagg sur les champs avec un pur louis Jai vu ton gars en Royal Wear javais honte pour lui Krav Maga Krav Krav Maga Yeah Banlieue sale demande a E-Bony Maga Jt'ai vu payer des tasses pendant que je payais mes impôts Jai fait tomber mes billets tas fait tomber tes potos Yeah jsuis vulgaire, sucer je tai vu le faire Vulgaire rimes en or jsuis en édition chez Manchester yeah Et on vous fuck, on vous fuck Si largent chuchotait, jaurais les oreilles à Spoke You might also like Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Yeah, jai pris une pub sur le cercueil à Michael Jackson Et si les keufs me cherchent mon nom est personne Jcherche une petite tass tah les Halle Berry Jai trop dbuzz on dirait que je viens de sortir de secret story Banlieue, banlieue sale CDC voila le nom de ma click Certains sont trop Hip Hop , garde leurs mics quand ils parlent aux flics Et pour gérer une tass jai jamais mis 40E Jai des Adriana Karembeu Yeah He yo ma pétasse roule en berline, elle me lèche la bite Pendant qula tienne lèche les vitrines Vla mon sterling dis Whats up aux sterling Grosse liasse dans les poches, dur de mettre un jean slim On cherche la monnaie à tout heure, rebeu on cherche les tunes Et si ta meuf est moche, mets-lui un coup dauto tune Mauvais élève, mauvais élève Jlaissais les meufs dans les chiottes avec de lADN sur les lèvres Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Man on fait du blé, on parle aç-comme J'ai mon gun d'vant ta face dis, what's up ? Yeah, t'as déconné, han Man on fait du blé, on parle aç-comme J'ai mon gun d'vant ta face dis, what's up ? Yeah, t'as déconné, han Yeah man on fait du blé , on parle aç-comme Qui na pas rêvé, sortir lAston Man jsuis dans limpasse dédicace à Béné Jai ma tass et si les keufs passent pavé dans la mêlée Yeah, on fait du rap sale, salles de Trappes à Compiègne Les sacs à dos sur les T-Max, on sait ce quils contiennent Krav Maga sur le biz dans le ter ter On va faire comme ton père ou comme ton grand père Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère1</t>
+          <t>Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Jlèche des feuilles à rouler et la chatte a Rihanna Moi je sors de boite avec 2, 3 numbers de mariama On prend des peines de prison des balles et du poids fiston Prochain album sera dans les bacs de Louis Vuitton Écusson DG ou Gucci sur mon bandana V.I.P Abdel Karima Obama En street swagg sur les champs avec un pur louis Jai vu ton gars en Royal Wear javais honte pour lui Krav Maga Krav Krav Maga Yeah Banlieue sale demande a E-Bony Maga Jt'ai vu payer des tasses pendant que je payais mes impôts Jai fait tomber mes billets tas fait tomber tes potos Yeah jsuis vulgaire, sucer je tai vu le faire Vulgaire rimes en or jsuis en édition chez Manchester yeah Et on vous fuck, on vous fuck Si largent chuchotait, jaurais les oreilles à Spoke Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Yeah, jai pris une pub sur le cercueil à Michael Jackson Et si les keufs me cherchent mon nom est personne Jcherche une petite tass tah les Halle Berry Jai trop dbuzz on dirait que je viens de sortir de secret story Banlieue, banlieue sale CDC voila le nom de ma click Certains sont trop Hip Hop , garde leurs mics quand ils parlent aux flics Et pour gérer une tass jai jamais mis 40E Jai des Adriana Karembeu Yeah He yo ma pétasse roule en berline, elle me lèche la bite Pendant qula tienne lèche les vitrines Vla mon sterling dis Whats up aux sterling Grosse liasse dans les poches, dur de mettre un jean slim On cherche la monnaie à tout heure, rebeu on cherche les tunes Et si ta meuf est moche, mets-lui un coup dauto tune Mauvais élève, mauvais élève Jlaissais les meufs dans les chiottes avec de lADN sur les lèvres Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Man on fait du blé, on parle aç-comme J'ai mon gun d'vant ta face dis, what's up ? Yeah, t'as déconné, han Man on fait du blé, on parle aç-comme J'ai mon gun d'vant ta face dis, what's up ? Yeah, t'as déconné, han Yeah man on fait du blé , on parle aç-comme Qui na pas rêvé, sortir lAston Man jsuis dans limpasse dédicace à Béné Jai ma tass et si les keufs passent pavé dans la mêlée Yeah, on fait du rap sale, salles de Trappes à Compiègne Les sacs à dos sur les T-Max, on sait ce quils contiennent Krav Maga sur le biz dans le ter ter On va faire comme ton père ou comme ton grand père Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère1</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Comme dhab ma BS fait des lovés, célébration lève ton re-ve Intérieur cuir, vitres teintées et tous mes reubeus sont broliqués Ils fonts des Lovés, Lovés, Lovés, Lovés Pour quelques feuilles on va se fâcher, en dix piges jai tout arraché Zanotti, diamants, Versace, nan renoi jvais pas te le cacher Jai fait des Lovés, Lovés, Lovés, Lovés Quoi de neuf Fouiny Baby ? Leggo Putain j'ai des problèmes, jentends que les petits mont clashé En plus ma chemise est tachée, le rap me suce et jveux pas cracher À part ça mec jai rien à faire, jgalère chez mon notaire Jsigne des apparts à 1 million et jme barre en classe affaire Niquez vos reums, moi jlai déjà fait, jmen suis lassé, j'm'en suis lassé Jmange avec le commissaire et le bijoutier mpasse les bracelets Bref, lève ta bécane en I, il nest plus question dcaler Mon me me-sper est comme leur te-car, il sfait toujours avaler Fouiny-Fouiny baby, ba-baby, les Chelh ils font pas crédit Frère faut faire des lovés, avoir un brolique sous lTeddy Tas connu des petits rappeurs street, dis bonjour au rappeur Wall Street Ouais ici on tvend cque tu veux mes-ar, coke, shit, jtai dit... Comme dhab ma BS fait des lovés, célébration lève ton re-ve Intérieur cuir, vitres teintées et tous mes reubeus sont broliqués Ils fonts des Lovés, Lovés, Lovés, Lovés Pour quelques feuilles on va se fâcher, en dix piges jai tout arraché Zanotti, diamants, Versace, nan renoi jvais pas te le cacher Jai fait des Lovés, Lovés, Lovés, Lovés You might also like Quand tu cartonnes en course-poursuite, dur de tracheter une conduite Putain ils rappent à lancienne, dans leurs clips ya toujours des pits Méfie-toi un jour cest tes potes, le lendemain tenvoient des piques Ils nont pas retourné leur veste, ils ont retourné la boutique Jmen bats les reins, bats les reins, est-ce que les leurs sont solides Quand ils mvoient passer en bolide, la carte grise au nom de Mouhid Ta petite amie tas viré elle veut sortir avec Soultouane Sur ses côtes ya F.A.Babe mais dabord elle passera par oi-m Quelques seize, quelques billets, jtrébuche sur un tas dseille-o Jsais plus sur quel pied danser, nan jveux pas salir mes Kenzo CDC auto-financé, jai le number à ta fiancée Mec tu rappes pour le seille-o, renoi tes grillé Comme dhab ma BS fait des lovés, célébration lève ton re-ve Intérieur cuir, vitres teintées et tous mes reubeus sont broliqués Ils fonts des Lovés, Lovés, Lovés, Lovés Pour quelques feuilles on va se fâcher, en dix piges jai tout arraché Zanotti, diamants, Versace, nan renoi jvais pas te le cacher Jai fait des Lovés, Lovés, Lovés, Lovés2</t>
+          <t>Comme dhab ma BS fait des lovés, célébration lève ton re-ve Intérieur cuir, vitres teintées et tous mes reubeus sont broliqués Ils fonts des Lovés, Lovés, Lovés, Lovés Pour quelques feuilles on va se fâcher, en dix piges jai tout arraché Zanotti, diamants, Versace, nan renoi jvais pas te le cacher Jai fait des Lovés, Lovés, Lovés, Lovés Quoi de neuf Fouiny Baby ? Leggo Putain j'ai des problèmes, jentends que les petits mont clashé En plus ma chemise est tachée, le rap me suce et jveux pas cracher À part ça mec jai rien à faire, jgalère chez mon notaire Jsigne des apparts à 1 million et jme barre en classe affaire Niquez vos reums, moi jlai déjà fait, jmen suis lassé, j'm'en suis lassé Jmange avec le commissaire et le bijoutier mpasse les bracelets Bref, lève ta bécane en I, il nest plus question dcaler Mon me me-sper est comme leur te-car, il sfait toujours avaler Fouiny-Fouiny baby, ba-baby, les Chelh ils font pas crédit Frère faut faire des lovés, avoir un brolique sous lTeddy Tas connu des petits rappeurs street, dis bonjour au rappeur Wall Street Ouais ici on tvend cque tu veux mes-ar, coke, shit, jtai dit... Comme dhab ma BS fait des lovés, célébration lève ton re-ve Intérieur cuir, vitres teintées et tous mes reubeus sont broliqués Ils fonts des Lovés, Lovés, Lovés, Lovés Pour quelques feuilles on va se fâcher, en dix piges jai tout arraché Zanotti, diamants, Versace, nan renoi jvais pas te le cacher Jai fait des Lovés, Lovés, Lovés, Lovés Quand tu cartonnes en course-poursuite, dur de tracheter une conduite Putain ils rappent à lancienne, dans leurs clips ya toujours des pits Méfie-toi un jour cest tes potes, le lendemain tenvoient des piques Ils nont pas retourné leur veste, ils ont retourné la boutique Jmen bats les reins, bats les reins, est-ce que les leurs sont solides Quand ils mvoient passer en bolide, la carte grise au nom de Mouhid Ta petite amie tas viré elle veut sortir avec Soultouane Sur ses côtes ya F.A.Babe mais dabord elle passera par oi-m Quelques seize, quelques billets, jtrébuche sur un tas dseille-o Jsais plus sur quel pied danser, nan jveux pas salir mes Kenzo CDC auto-financé, jai le number à ta fiancée Mec tu rappes pour le seille-o, renoi tes grillé Comme dhab ma BS fait des lovés, célébration lève ton re-ve Intérieur cuir, vitres teintées et tous mes reubeus sont broliqués Ils fonts des Lovés, Lovés, Lovés, Lovés Pour quelques feuilles on va se fâcher, en dix piges jai tout arraché Zanotti, diamants, Versace, nan renoi jvais pas te le cacher Jai fait des Lovés, Lovés, Lovés, Lovés2</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Il faut une vie à un homme pour se faire une réputation Mais il suffit d'une seconde, une mauvaise parole pour la détruire Envoie les billets Les bons comptes font les bons amis, pour ça que je marche tout seul Paname Boss, tu sais pas qui j'suis ? Tape mon nom sur Google Lâche l'affaire frère, y'a qu'le banquier qui peut m'régler mon compte Le gent-ar ça va ça vient frère, comme un fusil à pompe J'préfère grailler du porc que voter pour Sarko Nique sa mère dans c'rap français y a que des chards-clo 2013 y a plus d'relève, j'suis de plus en plus célèbre J'te touche même pas, j'te pénètre, j'côtoie des futurs proxénètes Venez venez si vous êtes hip-hop, calibré j'veux mourir maintenant Achète mes CDs, j'm'en fous qu'tu m'aimes humainement Prodige comme Pajot et Thauvin, une balle et t'es die Entre gens bons et sales amis, 'bat les couilles j'veux tout graille J'ai qu'une seule parole, une seule daronne et j'peux mourir pour les deux Gros c'est paro, si tu m'carottes j't'allume ta mère sous ses yeux Po-po-potte-ca sur la rétine, on t'encule sans sourciller J'cherche un épicier aveugle pour faire passer des faux billets Si t'as cassé faut payer j'peux jurer wAllah qu'tu vas raquer WA-WA-WAllah qu'tu vas raquer, ou bien wAllah qu'tu repars à pieds Gros ça vient d'la tess', traîne dans le 16, chienne de guerre contre Bulle Terrier Jamais en grève, jamais en hess, faut d'la cess' même les jours fériés Sous les couilles d'la 0.9 dans l'75008 mes 07, tiens chérie prend mon 06 Poto invite moi sur un feat, si t'as besoin d'un classique Le jour où j'ferais-défai Zlatan tu verras qu'Paris est magique You might also like Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Envoie l'oseille que j'l'investisse et qu'j'là coupe au kérosène Sous tes beaux airs s'cache une traîtrise qui ferait courir un faussaire Tes rappeurs s'trémoussent entre eux, miss on oublie l'génocide sur la terre promise Indépendant j'rap comme un électron libre, j'suis violent j'fais du violet via la matière grise Pour des sommes astronomiques méfie-toi des frères qui t'enterrent sans gants Ton putain d'arbre généalogique n'est plus qu'un putain dautomne sanglant Money-money-money mothafuck' dans un gant de velours, j'veux la vie de rêve et de lovés dans l'enveloppe Si j'fais l'mort j'entends voler les vautours, j'sors du poste avec du biff et des marques de menottes Amenez du liquide, tout d'suite, Algérien, Marocain, Tounsi Il reste d'l'espoir même pris pour cible, par la BAC en pleine course poursuite J'court-circuite le rap game, No pain No gain Hôtel, champaign, cocain, oseille Trop d'cicatrices sur le corps y a même plus d'place comme Weezy C'est Still Fresh fils de porc ne demande plus jamais Who is it ? Négro j'fusille, le savoir est une arme j'écris avec un uzi Tu t'feras briser, si t'essayes d'niquer un négro déjà baisé Les rappeurs qui détaillent les étapes de la bicrave sont des poucaves musicales La plupart sont des acteurs compare leurs textes avec leurs vies et tu ricanes Ici ça rappe, représente tous nos gars Niakaté, Camara, on est faits comme des rats C'est pour les malins amène, on prend la monnaie à la minute, depuis minot j'élimine ma musique, cannes Coup d'fil à La Faucheuse pour vous terminer deux par deux J'pisse où j'veux, mon territoire est dans les cieux Depardieu J'calcule moins, elles disent Tu frimes toi, tu fais la re-sta Baby j'fais pas la re-sta... j'suis une re-sta Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Pour les thunes c'est pour ça j'vaille-tra, mais on est trop c'est pour ça j'graille pas Sans perversion c'est pour les velo-tra, mais rien qu'j'les ken j'suis dans l'bizz de pottes-ca Mon style est fou, envoie les sous, le rap c'est chez moi donc installez-vous Rien qu'j'brule des MC's donc régalez-vous, mon flow sser-pa donc décalez-vous Gagner dans l'halal on veut m'en empêcher, tu veux m'rottes-ca ? Va falloir encaisser J'connais les chiffres tu vas pas m'taxer, ainsi qu'l'alphabet on va pas s'rabaisser Tantôt entetté, tantôt endetté, on fait des faits divers qui nous mettent bien l'été Parce que ta vie est moche va pas la saboter, c'est pas parce que t'es grand qu'on va pas sauter Le langage est codé, le personnel est rodé, Banlieue Sale ça bicrave les auditeurs font des OD's On fait des tunes ici pour pouvoir investir au de-ble,crevard du savoir, j'veux pas instruire tout ces teu-bé Fanatique t'as vu comment j'kick, baisé du cerveau t'as vu comment j'trip J'en veux dans mes poches, de la même que dans les clips, j'en ai dans mon flow ouais j'en ai dans mon slip, salope Ici c'est problèmes, grosses peines, drogues douces, boloss, cocaine Paris, hotel, stress, sky, cola, champaign Fiftyfifty, business, money fictil Vil-ci, big deal, 7-5 c'est ma city Briquet, pe-stu, pe-clo dans le jean, sur fond d'Michael Jackson - Billie Jean Ce soir j'fais seul, mon cash dans la ville, prends deux-trois nums de 'tasses dans la file Ma 'sique c'est d'la colombienne, j'attends que les boloss viennent Ma 'sique c'est d'la colombienne, j'attends que les boloss viennent Donc envoie les billets qu'on s'arrache d'ici en Air Force Sur Dakar, Pikine, Belfort ou Washington Airport Bitch, j'suis international Comme Future I wanna woke up in a Bugatti Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées</t>
+          <t>Il faut une vie à un homme pour se faire une réputation Mais il suffit d'une seconde, une mauvaise parole pour la détruire Envoie les billets Les bons comptes font les bons amis, pour ça que je marche tout seul Paname Boss, tu sais pas qui j'suis ? Tape mon nom sur Google Lâche l'affaire frère, y'a qu'le banquier qui peut m'régler mon compte Le gent-ar ça va ça vient frère, comme un fusil à pompe J'préfère grailler du porc que voter pour Sarko Nique sa mère dans c'rap français y a que des chards-clo 2013 y a plus d'relève, j'suis de plus en plus célèbre J'te touche même pas, j'te pénètre, j'côtoie des futurs proxénètes Venez venez si vous êtes hip-hop, calibré j'veux mourir maintenant Achète mes CDs, j'm'en fous qu'tu m'aimes humainement Prodige comme Pajot et Thauvin, une balle et t'es die Entre gens bons et sales amis, 'bat les couilles j'veux tout graille J'ai qu'une seule parole, une seule daronne et j'peux mourir pour les deux Gros c'est paro, si tu m'carottes j't'allume ta mère sous ses yeux Po-po-potte-ca sur la rétine, on t'encule sans sourciller J'cherche un épicier aveugle pour faire passer des faux billets Si t'as cassé faut payer j'peux jurer wAllah qu'tu vas raquer WA-WA-WAllah qu'tu vas raquer, ou bien wAllah qu'tu repars à pieds Gros ça vient d'la tess', traîne dans le 16, chienne de guerre contre Bulle Terrier Jamais en grève, jamais en hess, faut d'la cess' même les jours fériés Sous les couilles d'la 0.9 dans l'75008 mes 07, tiens chérie prend mon 06 Poto invite moi sur un feat, si t'as besoin d'un classique Le jour où j'ferais-défai Zlatan tu verras qu'Paris est magique Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Envoie l'oseille que j'l'investisse et qu'j'là coupe au kérosène Sous tes beaux airs s'cache une traîtrise qui ferait courir un faussaire Tes rappeurs s'trémoussent entre eux, miss on oublie l'génocide sur la terre promise Indépendant j'rap comme un électron libre, j'suis violent j'fais du violet via la matière grise Pour des sommes astronomiques méfie-toi des frères qui t'enterrent sans gants Ton putain d'arbre généalogique n'est plus qu'un putain dautomne sanglant Money-money-money mothafuck' dans un gant de velours, j'veux la vie de rêve et de lovés dans l'enveloppe Si j'fais l'mort j'entends voler les vautours, j'sors du poste avec du biff et des marques de menottes Amenez du liquide, tout d'suite, Algérien, Marocain, Tounsi Il reste d'l'espoir même pris pour cible, par la BAC en pleine course poursuite J'court-circuite le rap game, No pain No gain Hôtel, champaign, cocain, oseille Trop d'cicatrices sur le corps y a même plus d'place comme Weezy C'est Still Fresh fils de porc ne demande plus jamais Who is it ? Négro j'fusille, le savoir est une arme j'écris avec un uzi Tu t'feras briser, si t'essayes d'niquer un négro déjà baisé Les rappeurs qui détaillent les étapes de la bicrave sont des poucaves musicales La plupart sont des acteurs compare leurs textes avec leurs vies et tu ricanes Ici ça rappe, représente tous nos gars Niakaté, Camara, on est faits comme des rats C'est pour les malins amène, on prend la monnaie à la minute, depuis minot j'élimine ma musique, cannes Coup d'fil à La Faucheuse pour vous terminer deux par deux J'pisse où j'veux, mon territoire est dans les cieux Depardieu J'calcule moins, elles disent Tu frimes toi, tu fais la re-sta Baby j'fais pas la re-sta... j'suis une re-sta Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Pour les thunes c'est pour ça j'vaille-tra, mais on est trop c'est pour ça j'graille pas Sans perversion c'est pour les velo-tra, mais rien qu'j'les ken j'suis dans l'bizz de pottes-ca Mon style est fou, envoie les sous, le rap c'est chez moi donc installez-vous Rien qu'j'brule des MC's donc régalez-vous, mon flow sser-pa donc décalez-vous Gagner dans l'halal on veut m'en empêcher, tu veux m'rottes-ca ? Va falloir encaisser J'connais les chiffres tu vas pas m'taxer, ainsi qu'l'alphabet on va pas s'rabaisser Tantôt entetté, tantôt endetté, on fait des faits divers qui nous mettent bien l'été Parce que ta vie est moche va pas la saboter, c'est pas parce que t'es grand qu'on va pas sauter Le langage est codé, le personnel est rodé, Banlieue Sale ça bicrave les auditeurs font des OD's On fait des tunes ici pour pouvoir investir au de-ble,crevard du savoir, j'veux pas instruire tout ces teu-bé Fanatique t'as vu comment j'kick, baisé du cerveau t'as vu comment j'trip J'en veux dans mes poches, de la même que dans les clips, j'en ai dans mon flow ouais j'en ai dans mon slip, salope Ici c'est problèmes, grosses peines, drogues douces, boloss, cocaine Paris, hotel, stress, sky, cola, champaign Fiftyfifty, business, money fictil Vil-ci, big deal, 7-5 c'est ma city Briquet, pe-stu, pe-clo dans le jean, sur fond d'Michael Jackson - Billie Jean Ce soir j'fais seul, mon cash dans la ville, prends deux-trois nums de 'tasses dans la file Ma 'sique c'est d'la colombienne, j'attends que les boloss viennent Ma 'sique c'est d'la colombienne, j'attends que les boloss viennent Donc envoie les billets qu'on s'arrache d'ici en Air Force Sur Dakar, Pikine, Belfort ou Washington Airport Bitch, j'suis international Comme Future I wanna woke up in a Bugatti Parle nous en cash on fait pas d'mes-chro envoie les billets Si j'suis cagoulé ne parle pas trop envoie les billets Que tu sois blanc, rebeu ou négro envoie les billets Matin midi soir j'pense qu'à ça même les mains liées Rien à foutre d'finir au ste-po envoie les billets M'sers pas la main j'suis pas ton poto envoie les billets Si tu veux pas finir à l'hôsto envoie les billets Matin midi soir j'pense qu'à ça même les mains liées</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mets sur la touche ta michetonneuse wAllah elle sert à rien Jette ton avocat commis d'office putain il sert à rien Au parloir ta mère t'aime crois-moi même si elle dit rien Majeur en l'air contre le système, au Sénat ça parle pour rien 7.8 j'ai connu la grosse misère au quartier j'suis parti de rien Galère sur le terrain lever la bécane en i faire des courses poursuites sans freins Les keufs me questionnent, me menacent, c'est peine perdue non j'dirai rien walou Dormir sur un banc à Montparnasse plus de shit raté le dernier train J'fais du biff j'envoie des mandats cash au bled le rap j'm'en bats les reins On récolte ce que l'on sème et ça je sais j'fais du blé, j'veille au grain Envoie l'Attiéké le tajine mon frère j'suis fier d'être africain Et si je pars d'une balle dans le dos ma fille ne pleure pas dis-toi c'est le destin mektoub Tu sais pas ce qu'une femme est capable de faire pour une paire de Louboutin Christian Tu sais pas ce qu'un gars est capable de faire pour se mettre bien entre deux seins Zahia Souvent contourner à la craie blanche mais j'vais pas te faire un dessin Écrivain j'ai fait des millions avec un stylo, mine de rien Et ça bibi et ça bibi rlah rlah, sur le terrain ça tire pour rien Lamborghini, Lamborghini dans le garage mais plus rien pour mettre le plein Ça descend brolické et si les keufs t'allument tu t'éteins Grosse embrouille et si ton pote herleb wAllah il sert à rien Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro You might also like J'ai pas perdu mes valeurs et mes principes face au show-biz et son gratin Ma belle les footeux c'est comme la Française des Jeux, tu te mets bien si t'en grattes un Quand les stups frappent à la porte tu regrettes les magnums et les chambres au Méridien Et si je piétine pas ce fils de pute c'est que je veux pas tâcher pour mon nouveau jeans Balmain Pendule à l'heure, GMT-Master 2 au poignet du numéro un Quoi de neuf Fouiny Babe j'allais percer Momo, Romaric avaient d'l'instinct Ces rappeurs ont fait à peine six mois, à les entendre ils ont fait vingt ans plein J't'ai dit c'est le placard ou le luxe mon fils tu seras riche ou orphelin Tu fais la chaudasse sur le net mais en face tu bégayes tu parle en latin Dans la new school y'a que des gros fans et moi j'ai le flow à Jacques Martin Je tiens les piliers puis les murs au cas où les anges m'appellent demain Marlish j'te sers la main même si tu sers à rien Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien MC Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Wesh ma gueule à la tienne, plein de billets verts pourtant j'ai pas signé chez Saint-Étienne Fais pas le loveur khey, si ta meuf dans les chichas suce pour un kass d'atay Tu bouges pas non tu sers à rien, t'as pas de feuille non tu sers à rien Quand on fume ta beuh on ne tousse pas, ta meuf me pompe pas vous servez à rien Rap français j'lui fais l'amour, j'partirai au sommet comme Ashour Défouraille sur les hnoucha, c'est pour mes miss mourte comme Foja Si tu donnes des tuyaux comme Huggy Huggy, Ne crois pas qu'on va serrer ta putain d'main Comme dans le rap français j'sais pas si t'as vu, y'a toujours un mec dans le groupe qui sert à rien Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Yeah, CDC 4 Le chargeur parle les pneus crissent Eh yo Ruskov j'crois qu'le Hall F a repris du service Skuuurr2</t>
+          <t>Mets sur la touche ta michetonneuse wAllah elle sert à rien Jette ton avocat commis d'office putain il sert à rien Au parloir ta mère t'aime crois-moi même si elle dit rien Majeur en l'air contre le système, au Sénat ça parle pour rien 7.8 j'ai connu la grosse misère au quartier j'suis parti de rien Galère sur le terrain lever la bécane en i faire des courses poursuites sans freins Les keufs me questionnent, me menacent, c'est peine perdue non j'dirai rien walou Dormir sur un banc à Montparnasse plus de shit raté le dernier train J'fais du biff j'envoie des mandats cash au bled le rap j'm'en bats les reins On récolte ce que l'on sème et ça je sais j'fais du blé, j'veille au grain Envoie l'Attiéké le tajine mon frère j'suis fier d'être africain Et si je pars d'une balle dans le dos ma fille ne pleure pas dis-toi c'est le destin mektoub Tu sais pas ce qu'une femme est capable de faire pour une paire de Louboutin Christian Tu sais pas ce qu'un gars est capable de faire pour se mettre bien entre deux seins Zahia Souvent contourner à la craie blanche mais j'vais pas te faire un dessin Écrivain j'ai fait des millions avec un stylo, mine de rien Et ça bibi et ça bibi rlah rlah, sur le terrain ça tire pour rien Lamborghini, Lamborghini dans le garage mais plus rien pour mettre le plein Ça descend brolické et si les keufs t'allument tu t'éteins Grosse embrouille et si ton pote herleb wAllah il sert à rien Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro J'ai pas perdu mes valeurs et mes principes face au show-biz et son gratin Ma belle les footeux c'est comme la Française des Jeux, tu te mets bien si t'en grattes un Quand les stups frappent à la porte tu regrettes les magnums et les chambres au Méridien Et si je piétine pas ce fils de pute c'est que je veux pas tâcher pour mon nouveau jeans Balmain Pendule à l'heure, GMT-Master 2 au poignet du numéro un Quoi de neuf Fouiny Babe j'allais percer Momo, Romaric avaient d'l'instinct Ces rappeurs ont fait à peine six mois, à les entendre ils ont fait vingt ans plein J't'ai dit c'est le placard ou le luxe mon fils tu seras riche ou orphelin Tu fais la chaudasse sur le net mais en face tu bégayes tu parle en latin Dans la new school y'a que des gros fans et moi j'ai le flow à Jacques Martin Je tiens les piliers puis les murs au cas où les anges m'appellent demain Marlish j'te sers la main même si tu sers à rien Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien MC Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Wesh ma gueule à la tienne, plein de billets verts pourtant j'ai pas signé chez Saint-Étienne Fais pas le loveur khey, si ta meuf dans les chichas suce pour un kass d'atay Tu bouges pas non tu sers à rien, t'as pas de feuille non tu sers à rien Quand on fume ta beuh on ne tousse pas, ta meuf me pompe pas vous servez à rien Rap français j'lui fais l'amour, j'partirai au sommet comme Ashour Défouraille sur les hnoucha, c'est pour mes miss mourte comme Foja Si tu donnes des tuyaux comme Huggy Huggy, Ne crois pas qu'on va serrer ta putain d'main Comme dans le rap français j'sais pas si t'as vu, y'a toujours un mec dans le groupe qui sert à rien Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Tu sers à rien, tu sers à rien Tu sers à rien, tu sers à rien Je vais te pendre avec ma Salvatore Ferragamo Je fais plus de biff que le ssiste-gro de ton ssiste-gro Yeah, CDC 4 Le chargeur parle les pneus crissent Eh yo Ruskov j'crois qu'le Hall F a repris du service Skuuurr2</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Arabian téléphone, Barbarian Télécom Variété de rappeurs qui viennent marier les codes On incarne lépoque, sous des cartons diPhone Une histoire qui déconne plus vite quAriane qui décolle M - Salam Salif, cest Médine S - Ça va ou quoi mon pote ? M - Non, ça va pas akhi non S - Arrête quest-ce qui spasse ? M - Ah jen ai ma claque là, toutes leurs conneries Les médias, internet, et tout l'bordel S - Ah ouais jvois l'délire ! M - Jvais vraiment passer à lacte... grésillements ...faut qu'jaille braquer... grésillements S - Sérieux ? M - ...avec un téléphone jailbreaké... S - Tes fou ! M - ...gros jai briqué le fer de mon... grésillements ...pour faire... grésillements ...comme quand... grésillements S - Eh gros ! Tu mappelles dAfghanistan ou quoi gros ? M -grésillements ...commence, ou la connerie s'termine où jégorge... grésillements S - Jentends pas cque tu mdis poto ! M - grésillements ...quon a monté de toutes pièces, auteur dun attentat... grésillements S- Eh laisse tomber, eh laisse tomber, jai compris un mot sur quatre Jvais gérer avec Tunisan, eh mon pote You might also like Tunisiano - As Salamou Alaykoum frère Salif - A-Alaykoum Salam, faut qu'les doigts, les coudes sélèvent Il en a marre des coups de shlef il est détèr' ! Il sen bat les couilles cest net vu que le rap est sur une jambe Je crois que le frère est sur le pied de guerre Il mparle de lignes téléphoniques, de killer les tomi les pitres et les comiques Faire plier les commis sans oublier léconomie Ils pensent au pays mais oubliaient les colonies Jai peur je crois quil a lesprit du tueur Ca ressemble à un cri du cur prépare le C4 et le minuteur Il na ni mentor ni tuteur ni instituteur Sil a pris lavion dans ses chaussures il y a un ptit cutter Cest pas un ptit trafic, je crois bien quil sapplique Ny vois rien dislamique, je pense quil risque sa vie Il mparle de Wikileaks et de Maison Blanche J'en rajoute un peu mais après tout moi il ma dit ca vite Ca sent les Bang Bang et les Rang Rang, encore un barbu ce soir au prime time ! En plus ils nous ont boycott dans les Victoires de la Musique Ce soir grâce à Médine ça sera les Victoires de la tuerie Entiendo ? Tunisiano ? Ok, ok, ok, loco, loco, fais passer linfo mon pote MC en provenance du Havre, le mec est déter Fais sa guerre et son Jihad, une lyricale fusillade Un Arabian Panther qui va défrayer la chronique Son faciès et ses agissements nont rien de très catholique Parle de braquages et de brolics, même de froisser de la tôle De devoir passer les portiques à Charles de Gaulle Il a le fucking power mais les idées pas très nettes Un fennec qui sapprête à refaire le remake des Twin Towers Le poto me fait reup jespère quil nous joue un tour Ca serait dommage quil finisse sa carrière en cours de pilotage Hurlements et prise dotage, quitte à périr Ténébreux récital, de nos jours dur datterrir à la verticale Non je nai pas la date de lopération elle varie Le point de destination de grands ensembles à louest de Paris Et voici ce quon ma dit cest pas du mito, mot pour mot cest du concret Jte donne le scoop, oh scout garde le secret Allo, allo, écoute frérot linfo est sale Khey allo, allo, à toi Crate-So El General ! Médine a médité la terreur, médias terrorisés Il va traumatiser la planète mondialisée Comme un coup de fusil dans une ville tranquille Muselez les pauvres et on explose comme en Palestine Pas destime pour les paroles miskin de ceux qui nous gouvernent On call pas le 18 quand on brule en Enfer Je sais quon est sur écoute khey, dites lui que jai un jeu de fafs et une planque pour une semaine ! Avec une semelle, on brule la pierre La scène du crime, cest du cash sur un tapis de prière Le combat dun citoyen, pas dAl-Qaida Maghreb Attesté chez sa mère et ca fait parler les makrel Fugitif pour la cause frère, plongé dans les ténèbres Le cur plein de courage parce que la lumière te pénètre ! - Ol Kainry Vous êtes déter quoi ! Pff ! Vaillants chevaliers, pour faire la révolution faut juste dire la vérité Pour se faire entendre faut seulement faire trembler lennemi Instinct animal parce que cest la rage qui lanime Colis piégé, prise dotage, encadre du plastique frérot je tencourage Allo Difrey, vas y diffuse, vas dire aux ptits frères que Médine dis vrai El General chico Ouais tinquiètes jgarde ça pour moi So ma dit que Médine avait qué-cra Dans le côté obscur il a sorti son côté ché-ca Ses liens avec ses bougs Din Records il a ssé-ca Sest brouill-em avec son boug Enarce même il la pé-ta Véner comme au tié-quar, noir comme du fé-ca Sa femme la mé-cra il a couché avec Nneka Pour linstant cest calme, veuglé par le Sheitan Le boug est déter comme un drive-by en bécane Yeah ! Tyer est complice dans ce boucan Il veut aller égorger les maisons de disque comme un mouton Complètement déroutant, il sest taillé le bouc Jserais même plus surpris de voir Médine danser le zouk Blague à part jsais aussi quil a parlé dune bombe Comme dans Avatar pour son Eywa va risquer la tombe Ca va plomber hombre, aucun plan B Lindustrie du rap va prendre un gros concombre ! Yaura des dommages collatéraux, jserai aux premières loges à siroter mon apéro Pour linstant le frérot est caché dans un tel-ho ou un motel Tous les rebelles le prennent pour modèle Ne parle à personne de tout cque jviens dte dire lami, cest les bails scred Tu prends mon T-Max, tu vas dans le 7-8, et tu passes le message à Laouni Yeah ! Yeah, Yeah ! Eh yo Rim-K jviens davoir un poto D'Ol Kainry il mfait une blague jen crois pas un mot Yeah jentends pleins de trucs sur le re-fré Médine Ca parle darmes, de plastique, de résine Comment les croire le rebeu est discret Ici les faux prêchent le faux pour parler aux vrais Parait quil quitte Dont Panik, donc jvais le signer chez Nhar Sheitan Click Son bling-bling est déjà prêt, le champagne est au frais, les salopes sont offertes Karim touche-lui deux mots faut quil signe, quon fasse un clip les meufs lattendent autour dla piscine Dis-lui de faire gaffe, que ses gars sont bavards Ici on a des armes et très peu de savoir Bref, fais-lui comprendre quil sera mieux ici Quon en parle autour dun thé, ou dun verre de whisky Cest comme il veut Eh ! cest pas ce quon ma dit Daprès mes sources Médine il monte un réseau Il cherche des fonds et pour ça, il veut braquer le casino Jveux en être, jai la technique à la Mourinho Cest pas pour vous, poussez vous vous êtes trop mignons Jvais leur tasser le cul comme Nadine Morano Les balles tombent Bam Bam ! comme des dominos On a les armes, on a les flows, on a les mots On sunifie, une accolade entre le boulahya et le grand méchant beur Médine featuring Kérimo Jcombats le mal par le mal, cest du rap carcéral Jfais du mal comme les frenchies dArsenal Si yen a un qui voit Médine, dites-lui quil mappelle Jsuis dans un cash game prêt pour un casse bél Après si on minterpelle, jparle peu au GSM Tout dans la cervelle, muet comme un cercueil Ya comme un air de révolte, dites-lui à Sarkozy Jserai planqué derrière Médine avec un micro-Uzi Ou a Punta Cana, joint de cana à la bouche Coup de fil dune cabine à Keny Arkana As-tu des news du frérot, ces temps-ci jle sens chaud, jle sens trop différent Nan il va bien frangin mais cque tu mdis moi jai du mal à lcroire On dirait un scénar dTF1 pour séduire lextrême droite Jremets pas ta parole en doute, mais les sources Les frères méfiez-vous car cest contre nous quils veulent retourner les foules Vous dites le frère est devenu fou, prêt à tout faire péter Quitte à verser du sang partout avec un cur de fer Moi jdis que cest faux, cest flippant, cest grave Ya un sale vice dans lhistoire ou une faute quelque part Vous dites quil aurait dit tout ça lui-même, cest impossible frère Jsuis avec lui depuis le week-end à tailler des rimes claires Pas dmystère les clichés vont et grossissent Barbu, cash, explosifs, donc forcément terroriste Putain mais ou on va si nous même on tombe dans leur panneau Quon défigure la vérité que lon préserve pas les nôtres de leurs clichés Mensongers, fabriqués pour nous nuire Mauvaise foi toute pourrie cest de peur quon nous nourrit, bref Jte rassure Médine va bien, son possee aussi On scie des rimes on fait rimer Arabian et la rabia Préviens les autres linfo est fausse ya pas de doute Allez Salam et jpasse un gros fuck aux RG qui nous écoutent Eh Médine ca murmure des choses bizarres Ca parle de toi, de bombes, de pistes datterrissage Tout Paname dit ça, ca parle dun coup de fil Mais quest ce que tas dis pour quon dise ça ? Cest nimporte quoi ! Jdisais que 2011 faut que jaille braquer, les cerveaux avec un téléphone jailbreaké Gros jai briqué le fer de mon mic pour Faire de mon mieux comme quand Lilou se met a breaker Mon histoire commence ou la connerie se termine Ou jégorge les lignes dun story-telling Dun canular quon a monté de toutes pièces Auteur dun attentat purement burlesque Tous de mèche du 7-6 au 13 Tout est calculé, personne ne sexcite au tél On texhibe le thème on texcise loreille A tous les internautes aux problèmes existentiels Aaah ! On vise ta bande de geeks, nous cest born to kill, lyrics de Wikileaks On a déjoué tous les PIN, mon dossier pèse plus lourd que le PIB de ce pays même La street en unplugged, on forme un bloc Mesdames et messieurs, faites briller les claviers unlocked Arabophone feat marabou fort, hommes et femmes à tout faire fuck les rappeurophobes Au phone jlache mes couplets en forme, tous nos futurs albums te laisseront aphones Yeah ! Joue pas le faux calme Quand le rap game te piège comme Colin Farrell dans Phone Game Arabian téléphone, téléphonie berbère Attentat burlesque sur la planète connerie Encore une histoire de lhomme qui a vu lhomme qui a vu lours Lorsque les bruits de couloirs deviennent des affaires dEtat Que les rumeurs sont prises pour paroles dévangile Mesdames et messieurs, voici le rap game en mode Gene Hackman, Orson Welles et Jason Bourne Yeah ! Din Records, tellement de concepts quon te fait croire au complot Table dEcoute, que tous les bougs vérifient leurs sources1</t>
+          <t>Arabian téléphone, Barbarian Télécom Variété de rappeurs qui viennent marier les codes On incarne lépoque, sous des cartons diPhone Une histoire qui déconne plus vite quAriane qui décolle M - Salam Salif, cest Médine S - Ça va ou quoi mon pote ? M - Non, ça va pas akhi non S - Arrête quest-ce qui spasse ? M - Ah jen ai ma claque là, toutes leurs conneries Les médias, internet, et tout l'bordel S - Ah ouais jvois l'délire ! M - Jvais vraiment passer à lacte... grésillements ...faut qu'jaille braquer... grésillements S - Sérieux ? M - ...avec un téléphone jailbreaké... S - Tes fou ! M - ...gros jai briqué le fer de mon... grésillements ...pour faire... grésillements ...comme quand... grésillements S - Eh gros ! Tu mappelles dAfghanistan ou quoi gros ? M -grésillements ...commence, ou la connerie s'termine où jégorge... grésillements S - Jentends pas cque tu mdis poto ! M - grésillements ...quon a monté de toutes pièces, auteur dun attentat... grésillements S- Eh laisse tomber, eh laisse tomber, jai compris un mot sur quatre Jvais gérer avec Tunisan, eh mon pote Tunisiano - As Salamou Alaykoum frère Salif - A-Alaykoum Salam, faut qu'les doigts, les coudes sélèvent Il en a marre des coups de shlef il est détèr' ! Il sen bat les couilles cest net vu que le rap est sur une jambe Je crois que le frère est sur le pied de guerre Il mparle de lignes téléphoniques, de killer les tomi les pitres et les comiques Faire plier les commis sans oublier léconomie Ils pensent au pays mais oubliaient les colonies Jai peur je crois quil a lesprit du tueur Ca ressemble à un cri du cur prépare le C4 et le minuteur Il na ni mentor ni tuteur ni instituteur Sil a pris lavion dans ses chaussures il y a un ptit cutter Cest pas un ptit trafic, je crois bien quil sapplique Ny vois rien dislamique, je pense quil risque sa vie Il mparle de Wikileaks et de Maison Blanche J'en rajoute un peu mais après tout moi il ma dit ca vite Ca sent les Bang Bang et les Rang Rang, encore un barbu ce soir au prime time ! En plus ils nous ont boycott dans les Victoires de la Musique Ce soir grâce à Médine ça sera les Victoires de la tuerie Entiendo ? Tunisiano ? Ok, ok, ok, loco, loco, fais passer linfo mon pote MC en provenance du Havre, le mec est déter Fais sa guerre et son Jihad, une lyricale fusillade Un Arabian Panther qui va défrayer la chronique Son faciès et ses agissements nont rien de très catholique Parle de braquages et de brolics, même de froisser de la tôle De devoir passer les portiques à Charles de Gaulle Il a le fucking power mais les idées pas très nettes Un fennec qui sapprête à refaire le remake des Twin Towers Le poto me fait reup jespère quil nous joue un tour Ca serait dommage quil finisse sa carrière en cours de pilotage Hurlements et prise dotage, quitte à périr Ténébreux récital, de nos jours dur datterrir à la verticale Non je nai pas la date de lopération elle varie Le point de destination de grands ensembles à louest de Paris Et voici ce quon ma dit cest pas du mito, mot pour mot cest du concret Jte donne le scoop, oh scout garde le secret Allo, allo, écoute frérot linfo est sale Khey allo, allo, à toi Crate-So El General ! Médine a médité la terreur, médias terrorisés Il va traumatiser la planète mondialisée Comme un coup de fusil dans une ville tranquille Muselez les pauvres et on explose comme en Palestine Pas destime pour les paroles miskin de ceux qui nous gouvernent On call pas le 18 quand on brule en Enfer Je sais quon est sur écoute khey, dites lui que jai un jeu de fafs et une planque pour une semaine ! Avec une semelle, on brule la pierre La scène du crime, cest du cash sur un tapis de prière Le combat dun citoyen, pas dAl-Qaida Maghreb Attesté chez sa mère et ca fait parler les makrel Fugitif pour la cause frère, plongé dans les ténèbres Le cur plein de courage parce que la lumière te pénètre ! - Ol Kainry Vous êtes déter quoi ! Pff ! Vaillants chevaliers, pour faire la révolution faut juste dire la vérité Pour se faire entendre faut seulement faire trembler lennemi Instinct animal parce que cest la rage qui lanime Colis piégé, prise dotage, encadre du plastique frérot je tencourage Allo Difrey, vas y diffuse, vas dire aux ptits frères que Médine dis vrai El General chico Ouais tinquiètes jgarde ça pour moi So ma dit que Médine avait qué-cra Dans le côté obscur il a sorti son côté ché-ca Ses liens avec ses bougs Din Records il a ssé-ca Sest brouill-em avec son boug Enarce même il la pé-ta Véner comme au tié-quar, noir comme du fé-ca Sa femme la mé-cra il a couché avec Nneka Pour linstant cest calme, veuglé par le Sheitan Le boug est déter comme un drive-by en bécane Yeah ! Tyer est complice dans ce boucan Il veut aller égorger les maisons de disque comme un mouton Complètement déroutant, il sest taillé le bouc Jserais même plus surpris de voir Médine danser le zouk Blague à part jsais aussi quil a parlé dune bombe Comme dans Avatar pour son Eywa va risquer la tombe Ca va plomber hombre, aucun plan B Lindustrie du rap va prendre un gros concombre ! Yaura des dommages collatéraux, jserai aux premières loges à siroter mon apéro Pour linstant le frérot est caché dans un tel-ho ou un motel Tous les rebelles le prennent pour modèle Ne parle à personne de tout cque jviens dte dire lami, cest les bails scred Tu prends mon T-Max, tu vas dans le 7-8, et tu passes le message à Laouni Yeah ! Yeah, Yeah ! Eh yo Rim-K jviens davoir un poto D'Ol Kainry il mfait une blague jen crois pas un mot Yeah jentends pleins de trucs sur le re-fré Médine Ca parle darmes, de plastique, de résine Comment les croire le rebeu est discret Ici les faux prêchent le faux pour parler aux vrais Parait quil quitte Dont Panik, donc jvais le signer chez Nhar Sheitan Click Son bling-bling est déjà prêt, le champagne est au frais, les salopes sont offertes Karim touche-lui deux mots faut quil signe, quon fasse un clip les meufs lattendent autour dla piscine Dis-lui de faire gaffe, que ses gars sont bavards Ici on a des armes et très peu de savoir Bref, fais-lui comprendre quil sera mieux ici Quon en parle autour dun thé, ou dun verre de whisky Cest comme il veut Eh ! cest pas ce quon ma dit Daprès mes sources Médine il monte un réseau Il cherche des fonds et pour ça, il veut braquer le casino Jveux en être, jai la technique à la Mourinho Cest pas pour vous, poussez vous vous êtes trop mignons Jvais leur tasser le cul comme Nadine Morano Les balles tombent Bam Bam ! comme des dominos On a les armes, on a les flows, on a les mots On sunifie, une accolade entre le boulahya et le grand méchant beur Médine featuring Kérimo Jcombats le mal par le mal, cest du rap carcéral Jfais du mal comme les frenchies dArsenal Si yen a un qui voit Médine, dites-lui quil mappelle Jsuis dans un cash game prêt pour un casse bél Après si on minterpelle, jparle peu au GSM Tout dans la cervelle, muet comme un cercueil Ya comme un air de révolte, dites-lui à Sarkozy Jserai planqué derrière Médine avec un micro-Uzi Ou a Punta Cana, joint de cana à la bouche Coup de fil dune cabine à Keny Arkana As-tu des news du frérot, ces temps-ci jle sens chaud, jle sens trop différent Nan il va bien frangin mais cque tu mdis moi jai du mal à lcroire On dirait un scénar dTF1 pour séduire lextrême droite Jremets pas ta parole en doute, mais les sources Les frères méfiez-vous car cest contre nous quils veulent retourner les foules Vous dites le frère est devenu fou, prêt à tout faire péter Quitte à verser du sang partout avec un cur de fer Moi jdis que cest faux, cest flippant, cest grave Ya un sale vice dans lhistoire ou une faute quelque part Vous dites quil aurait dit tout ça lui-même, cest impossible frère Jsuis avec lui depuis le week-end à tailler des rimes claires Pas dmystère les clichés vont et grossissent Barbu, cash, explosifs, donc forcément terroriste Putain mais ou on va si nous même on tombe dans leur panneau Quon défigure la vérité que lon préserve pas les nôtres de leurs clichés Mensongers, fabriqués pour nous nuire Mauvaise foi toute pourrie cest de peur quon nous nourrit, bref Jte rassure Médine va bien, son possee aussi On scie des rimes on fait rimer Arabian et la rabia Préviens les autres linfo est fausse ya pas de doute Allez Salam et jpasse un gros fuck aux RG qui nous écoutent Eh Médine ca murmure des choses bizarres Ca parle de toi, de bombes, de pistes datterrissage Tout Paname dit ça, ca parle dun coup de fil Mais quest ce que tas dis pour quon dise ça ? Cest nimporte quoi ! Jdisais que 2011 faut que jaille braquer, les cerveaux avec un téléphone jailbreaké Gros jai briqué le fer de mon mic pour Faire de mon mieux comme quand Lilou se met a breaker Mon histoire commence ou la connerie se termine Ou jégorge les lignes dun story-telling Dun canular quon a monté de toutes pièces Auteur dun attentat purement burlesque Tous de mèche du 7-6 au 13 Tout est calculé, personne ne sexcite au tél On texhibe le thème on texcise loreille A tous les internautes aux problèmes existentiels Aaah ! On vise ta bande de geeks, nous cest born to kill, lyrics de Wikileaks On a déjoué tous les PIN, mon dossier pèse plus lourd que le PIB de ce pays même La street en unplugged, on forme un bloc Mesdames et messieurs, faites briller les claviers unlocked Arabophone feat marabou fort, hommes et femmes à tout faire fuck les rappeurophobes Au phone jlache mes couplets en forme, tous nos futurs albums te laisseront aphones Yeah ! Joue pas le faux calme Quand le rap game te piège comme Colin Farrell dans Phone Game Arabian téléphone, téléphonie berbère Attentat burlesque sur la planète connerie Encore une histoire de lhomme qui a vu lhomme qui a vu lours Lorsque les bruits de couloirs deviennent des affaires dEtat Que les rumeurs sont prises pour paroles dévangile Mesdames et messieurs, voici le rap game en mode Gene Hackman, Orson Welles et Jason Bourne Yeah ! Din Records, tellement de concepts quon te fait croire au complot Table dEcoute, que tous les bougs vérifient leurs sources1</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CDC Four Fouiny, Kozi Skurt ! Leggo Conduire ou me faire sucer ? Renoi j'fais les deux Argent propre ou sale ? Ouais, je fais les deux Parler ou m'envier ? Renoi tu fais les deux Tirer dessus ou taser ? Ce soir j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les, les, fais les, fais les, fais les deux Elle a ramené sa shab, moi j'veux les deux Elle t'a quitté donc les slurp fais les mieux ! Fais les mieux, drogue dure argent facile Ma voiture te plaît, rebeu fais les fils Tu vends et puis t'en prends, kho tu fais les deux Ta daronne a une teub, c'est les deux Cinéma ou pe-ra ? Reubeu j'fais les deux On va baiser Zahia ouais, allez les Bleus ! Audemars, Rolex, Breitling ? J'ai les trois Doigt, doigt, langue, teub ! J'mets les trois Carrera, Cayenne, j'ai les deux Tu cherches du taff ? Fais mes backs mais fais les mieux You might also like Conduire ou me faire sucer ? Renoi j'fais les deux Argent propre ou sale ? Ouais, je fais les deux Parler ou m'envier ? Renoi tu fais les deux Tirer dessus ou taser ? Ce soir j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les, les, fais les, fais les deux T'aimes pas les arabes et les renois, là t'as les deux Ter-ter R.A.P tinquiète moi je fais les deux Sucer des bites, jacter derrière mon dos, eux ils font les deux Rapper en français, en lingala, niama, moi j'fais les deux J'suis une étoile filante, kicker avec moi, fais un vu Kozi Niama, Fouiny, 9.2-7.8 on met le feu Biatch tu veux baiser ? Pas de problèmes fais la queue Bien sûr que les puristes savent qu'on fait ça mieux qu'eux Masta Masta pema trop lourd il faut na mema Ça devient du MMA Niama niama deux fois c'est le retour du rap caillera Et qui nous pompera paiera Conduire ou me faire sucer ? Renoi j'fais les deux Argent propre ou sale ? Ouais, je fais les deux Parler ou m'envier ? Renoi tu fais les deux Tirer dessus ou taser ? Ce soir j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les, les, fais les, fais les, fais les deux Y'a ceux qui se tapent, ceux qui se clashent moi j'fais les deux Tu t'es niquer en cross depuis tu vas mieux Frotte ma teube, le génie est blanc fais un vux La chatte à Beyoncé, à Rihanna moi j'veux les deux Séquestration, stupéfiant j'ai fait les deux Bois d'Ar, Osny, Nanterre j'ai fait les trois Si y'a des vitrines à casser frère on fait lémeute Mets du shit, mets d'la beuh ou mets les deux Y'a les Rajjèl les nhommes-bo et les rageux CDC4 on tient les manettes le pe-ra c'est un jeu Wesh ma gueule la prod est lourde, donc on fait ça à deux Paris-Hollande A-R dans la gova ça sent la beuh Babtou reubeu renoi moi je vois prends à trois T'ouvre ta teuch au studio ? J'te ken dans les lettes-toi Je fais du sale tu fais le ménage, ferme ta gueule et nettoie T'es bonne je te baise direct... Pas le temps de mettre des doigts Conduire ou me faire sucer ? Renoi j'fais les deux Argent propre ou sale ? Ouais, je fais les deux Parler ou m'envier ? Renoi tu fais les deux Tirer dessus ou taser ? Ce soir j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les, les, fais les, fais les, fais les deux1</t>
+          <t>CDC Four Fouiny, Kozi Skurt ! Leggo Conduire ou me faire sucer ? Renoi j'fais les deux Argent propre ou sale ? Ouais, je fais les deux Parler ou m'envier ? Renoi tu fais les deux Tirer dessus ou taser ? Ce soir j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les, les, fais les, fais les, fais les deux Elle a ramené sa shab, moi j'veux les deux Elle t'a quitté donc les slurp fais les mieux ! Fais les mieux, drogue dure argent facile Ma voiture te plaît, rebeu fais les fils Tu vends et puis t'en prends, kho tu fais les deux Ta daronne a une teub, c'est les deux Cinéma ou pe-ra ? Reubeu j'fais les deux On va baiser Zahia ouais, allez les Bleus ! Audemars, Rolex, Breitling ? J'ai les trois Doigt, doigt, langue, teub ! J'mets les trois Carrera, Cayenne, j'ai les deux Tu cherches du taff ? Fais mes backs mais fais les mieux Conduire ou me faire sucer ? Renoi j'fais les deux Argent propre ou sale ? Ouais, je fais les deux Parler ou m'envier ? Renoi tu fais les deux Tirer dessus ou taser ? Ce soir j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les, les, fais les, fais les deux T'aimes pas les arabes et les renois, là t'as les deux Ter-ter R.A.P tinquiète moi je fais les deux Sucer des bites, jacter derrière mon dos, eux ils font les deux Rapper en français, en lingala, niama, moi j'fais les deux J'suis une étoile filante, kicker avec moi, fais un vu Kozi Niama, Fouiny, 9.2-7.8 on met le feu Biatch tu veux baiser ? Pas de problèmes fais la queue Bien sûr que les puristes savent qu'on fait ça mieux qu'eux Masta Masta pema trop lourd il faut na mema Ça devient du MMA Niama niama deux fois c'est le retour du rap caillera Et qui nous pompera paiera Conduire ou me faire sucer ? Renoi j'fais les deux Argent propre ou sale ? Ouais, je fais les deux Parler ou m'envier ? Renoi tu fais les deux Tirer dessus ou taser ? Ce soir j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les, les, fais les, fais les, fais les deux Y'a ceux qui se tapent, ceux qui se clashent moi j'fais les deux Tu t'es niquer en cross depuis tu vas mieux Frotte ma teube, le génie est blanc fais un vux La chatte à Beyoncé, à Rihanna moi j'veux les deux Séquestration, stupéfiant j'ai fait les deux Bois d'Ar, Osny, Nanterre j'ai fait les trois Si y'a des vitrines à casser frère on fait lémeute Mets du shit, mets d'la beuh ou mets les deux Y'a les Rajjèl les nhommes-bo et les rageux CDC4 on tient les manettes le pe-ra c'est un jeu Wesh ma gueule la prod est lourde, donc on fait ça à deux Paris-Hollande A-R dans la gova ça sent la beuh Babtou reubeu renoi moi je vois prends à trois T'ouvre ta teuch au studio ? J'te ken dans les lettes-toi Je fais du sale tu fais le ménage, ferme ta gueule et nettoie T'es bonne je te baise direct... Pas le temps de mettre des doigts Conduire ou me faire sucer ? Renoi j'fais les deux Argent propre ou sale ? Ouais, je fais les deux Parler ou m'envier ? Renoi tu fais les deux Tirer dessus ou taser ? Ce soir j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les deux, j'fais les deux J'fais les, les, fais les, fais les, fais les deux1</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yeah yeah Jai de la force pour les frères, où est mon trône ? Retour aux pyramides, nique les clones Un joint, une bougie, ce soir je force lécriture On est en 96, je rappe français sur les murs La darone râle un peu, la fin du mois va être pire Mais les couplets dIdeal J et dÄrsenik me font tenir J'ai les posters de Daddy Lord C, NTM ou Rocca Jai mon survêt Lacoste et puis ma paire de Requins Jrêve dinterview, jrêve dOlympia, j'rêve de quitter Trappes Jai 15ans, jsuis dans ma chambre et ma vie cest le rap Jcasse les couilles aux voisins, jsuis bon quà me casser la voix Chez les keufs, jgarde la furie et la foi Musique rap-rap, musique que jaime, jaime ton parfum Jtaffe mal en classe, ma tête est dure comme un parpaing Un minidisque, une platine, jmen vais poser Mes meilleurs fans restent mes lits superposés Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français On ne courait pas derrière le succès, on était passionnés Les meilleures années Rap Français Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français You might also like Mon esprit est déjà partie en illes-cou Ils disent de moi, ils disent de moi que je suis devenu fou Jsuis dans ma chambre et mon marqueur me sert de mic' Jsuis défoncé, je kick avec mes Nike Jai trop de pulsions, denvie lyricale Yeah, et comme Pit, jrêve dêtre à laffiche dans Radikal Jai les pieds sur Terre, et la tête dans le rap français Et jamais en vacances, faute de moyens financiers Quand jsuis pas en prison, en cavale ou en foyer Jsuis dans ma chambre et puis jgribouille des bouts de papier Jaimerais signer chez Time bomb, chez Secteur Ä Faire des classiques comme Mama Lova Yeah, la vie est comme un labyrinthe négro Et quand ça charbonne, jai Le calibre quil te faut 98 toujours dans ma chambre en train de poser Et mes fans sont toujours mes lits superposés Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français On ne courait pas derrière le succès, on était passionnés Les meilleures années Rap Français Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Aéroport de Bogota, parés au top cest Lunatic Pit Départ dans 10 minutes en cas de doutes planque la coke dans le cockpit Ya les feu-keu,Ves-qui 22 22 Dans mon walkman, jai toujours L 432 On est en 2000, ya de la poussière sur mes posters Les jours se répètent car le maton me guette Dans la salle, jvois les grands qui font la coupole Et moi jdéchire sur une phase B de IV my people Yeah, le rap cest toute ma vie Et quand on me prive de liberté, je rap toute la nuit Les parents divorcent, le daron part, on reste seuls Cest la merde, on veut la vie de rêve comme 3ème il Jsuis bon quà pé-ra, à causer du tort au code pénal La daronne pleure et ça mla fout mal Jsuis sûre que dans 10 ans, je serais toujours là en train de poser Est-ce que ce sera toujours devant des lits superposés ? Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français On ne courait pas derrière le succès, on était passionnés Les meilleures années Rap Français Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Yeah, wAllah, partez prendre le train, partez en studio Rap français On avait rien dans le ventre wAllah rien ! On aurait tout donné wAllah, tout sacrifié, putain Rap français On aurait tout donné pour ce putain de rap français</t>
+          <t>Yeah yeah Jai de la force pour les frères, où est mon trône ? Retour aux pyramides, nique les clones Un joint, une bougie, ce soir je force lécriture On est en 96, je rappe français sur les murs La darone râle un peu, la fin du mois va être pire Mais les couplets dIdeal J et dÄrsenik me font tenir J'ai les posters de Daddy Lord C, NTM ou Rocca Jai mon survêt Lacoste et puis ma paire de Requins Jrêve dinterview, jrêve dOlympia, j'rêve de quitter Trappes Jai 15ans, jsuis dans ma chambre et ma vie cest le rap Jcasse les couilles aux voisins, jsuis bon quà me casser la voix Chez les keufs, jgarde la furie et la foi Musique rap-rap, musique que jaime, jaime ton parfum Jtaffe mal en classe, ma tête est dure comme un parpaing Un minidisque, une platine, jmen vais poser Mes meilleurs fans restent mes lits superposés Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français On ne courait pas derrière le succès, on était passionnés Les meilleures années Rap Français Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Mon esprit est déjà partie en illes-cou Ils disent de moi, ils disent de moi que je suis devenu fou Jsuis dans ma chambre et mon marqueur me sert de mic' Jsuis défoncé, je kick avec mes Nike Jai trop de pulsions, denvie lyricale Yeah, et comme Pit, jrêve dêtre à laffiche dans Radikal Jai les pieds sur Terre, et la tête dans le rap français Et jamais en vacances, faute de moyens financiers Quand jsuis pas en prison, en cavale ou en foyer Jsuis dans ma chambre et puis jgribouille des bouts de papier Jaimerais signer chez Time bomb, chez Secteur Ä Faire des classiques comme Mama Lova Yeah, la vie est comme un labyrinthe négro Et quand ça charbonne, jai Le calibre quil te faut 98 toujours dans ma chambre en train de poser Et mes fans sont toujours mes lits superposés Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français On ne courait pas derrière le succès, on était passionnés Les meilleures années Rap Français Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Aéroport de Bogota, parés au top cest Lunatic Pit Départ dans 10 minutes en cas de doutes planque la coke dans le cockpit Ya les feu-keu,Ves-qui 22 22 Dans mon walkman, jai toujours L 432 On est en 2000, ya de la poussière sur mes posters Les jours se répètent car le maton me guette Dans la salle, jvois les grands qui font la coupole Et moi jdéchire sur une phase B de IV my people Yeah, le rap cest toute ma vie Et quand on me prive de liberté, je rap toute la nuit Les parents divorcent, le daron part, on reste seuls Cest la merde, on veut la vie de rêve comme 3ème il Jsuis bon quà pé-ra, à causer du tort au code pénal La daronne pleure et ça mla fout mal Jsuis sûre que dans 10 ans, je serais toujours là en train de poser Est-ce que ce sera toujours devant des lits superposés ? Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français On ne courait pas derrière le succès, on était passionnés Les meilleures années Rap Français Mon Dieu, quest quon a enduré, quest ce quon a sacrifié Les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Yeah yeah, les meilleures années Rap Français Yeah, wAllah, partez prendre le train, partez en studio Rap français On avait rien dans le ventre wAllah rien ! On aurait tout donné wAllah, tout sacrifié, putain Rap français On aurait tout donné pour ce putain de rap français</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Wesh ma gueule ! On s'endort quand l'soleil se lève, qu'est-ce tu veux qu'j'te dise ? Nan, nan, la gove ne crame pas, c'est un aquarium de weed La misère un chemin qu'l'Afrique n'a pas évité Ok, j'vivrai par principes, mais j'mourrai pour mes idées L'amour un vêtement, avant d'se prendre on s'essaye Mon cur tombe en automne, j'rappe de violentes séquelles Pour les MC y'a MasterCard, moi on n'peut pas m'acheter J'ai oublié des amis, car j'me rappelle d'leur lâcheté J'bosse tout l'temps pendant qu'les autres font la fête Banlieusard et fier de l'être, et j'fais des mots avec À quatre sur un matelas, j'suis pas d'une famille aisée Rebeu en L.V. qui signe un renoi mal élevé J'croise un grand qui sort du chtar, il m'dit Wesh ma gueule ! Wesh ma gueule ! Maintenant tous les p'tits d'la tess' disent Wesh ma gueule ! Wesh ma gueule ! Toutes les meufs que j'croise en boîte disent Wesh ma gueule ! Wesh ma gueule ! Banlieue Sale, on s'croit tout permis Wesh ma gueule ! Wesh ma gueule ! Et j'vois tout l'monde dans la foule crier Wesh ma gueule ! Wesh ma gueule ! Les Parisiens et même les Marseillais Wesh ma gueule ! Wesh ma gueule ! Micro ouvert, guichets fermés Wesh ma gueule ! Wesh ma gueule ! Chez toi on dit quoi ? Par ici, nous on dit Wesh ma gueule ! You might also like Booska-P racheté par Gaumont dans c'game y'a beaucoup d'acteurs Pour qu'tu reconnaisses mon timbre de voix, dois-je étrangler ton facteur ? Pas besoin d'souffler sur des bougies pour rapper comme je veux Barthez dit que cette punchline est tirée par les cheveux Quand j'vois ton rap j'ai des vertiges Banlieue Sale est au sommet Tu peux toujours m'crever les yeux, mais tarrêtes pas un visionnaire Tu m'dis qu'y'a foye, j'te dis qu'y'a drah, un coup d'feu sous un drap Kilogramme, en moi j'ai un côté raggaeman Ton rap est relou comme la pluie F.A.Baby-Sunshine Si on récolte ce que l'on sème j'ai des hectares de punchlines Quand la violence cherche du taf, c'est le Neuf-Trois qui postule Ok, j'suis p't-êt' pas né au bled, mais j'peux t'fumer par coutume J'croise un grand qui sort du chtar, il m'dit Wesh ma gueule ! Wesh ma gueule ! Maintenant tous les p'tits d'la tess' disent Wesh ma gueule ! Wesh ma gueule ! Toutes les meufs que j'croise en boîte disent Wesh ma gueule ! Wesh ma gueule ! Banlieue Sale, on s'croit tout permis Wesh ma gueule ! Wesh ma gueule ! Et j'vois tout l'monde dans la foule crier Wesh ma gueule ! Wesh ma gueule ! Les Parisiens et même les Marseillais Wesh ma gueule ! Wesh ma gueule ! Micro ouvert, guichets fermés Wesh ma gueule ! Wesh ma gueule ! Chez toi on dit quoi ? Par ici, nous on dit Wesh ma gueule ! Pour tous les quartiers français Wesh ma gueule ! Wesh ma gueule ! Pour tous les mecs enfermés Wesh ma gueule ! Wesh ma gueule ! Nanterre, Fleury, la Santé Wesh ma gueule ! Wesh ma gueule ! Tous les jeunes se mettent à chanter Wesh ma gueule ! Wesh ma gueule ! Strasbourg, Bordeaux, Béziers Wesh ma gueule ! Wesh ma gueule ! Nantes, Lille, Toulouse, Montpellier Wesh ma gueule ! Wesh ma gueule ! Mes Auxerrois et mes Lyonnais Wesh ma gueule ! Wesh ma gueule ! Noisy, Rosny, Aulnay, Neuf-Trois renaît</t>
+          <t>Wesh ma gueule ! On s'endort quand l'soleil se lève, qu'est-ce tu veux qu'j'te dise ? Nan, nan, la gove ne crame pas, c'est un aquarium de weed La misère un chemin qu'l'Afrique n'a pas évité Ok, j'vivrai par principes, mais j'mourrai pour mes idées L'amour un vêtement, avant d'se prendre on s'essaye Mon cur tombe en automne, j'rappe de violentes séquelles Pour les MC y'a MasterCard, moi on n'peut pas m'acheter J'ai oublié des amis, car j'me rappelle d'leur lâcheté J'bosse tout l'temps pendant qu'les autres font la fête Banlieusard et fier de l'être, et j'fais des mots avec À quatre sur un matelas, j'suis pas d'une famille aisée Rebeu en L.V. qui signe un renoi mal élevé J'croise un grand qui sort du chtar, il m'dit Wesh ma gueule ! Wesh ma gueule ! Maintenant tous les p'tits d'la tess' disent Wesh ma gueule ! Wesh ma gueule ! Toutes les meufs que j'croise en boîte disent Wesh ma gueule ! Wesh ma gueule ! Banlieue Sale, on s'croit tout permis Wesh ma gueule ! Wesh ma gueule ! Et j'vois tout l'monde dans la foule crier Wesh ma gueule ! Wesh ma gueule ! Les Parisiens et même les Marseillais Wesh ma gueule ! Wesh ma gueule ! Micro ouvert, guichets fermés Wesh ma gueule ! Wesh ma gueule ! Chez toi on dit quoi ? Par ici, nous on dit Wesh ma gueule ! Booska-P racheté par Gaumont dans c'game y'a beaucoup d'acteurs Pour qu'tu reconnaisses mon timbre de voix, dois-je étrangler ton facteur ? Pas besoin d'souffler sur des bougies pour rapper comme je veux Barthez dit que cette punchline est tirée par les cheveux Quand j'vois ton rap j'ai des vertiges Banlieue Sale est au sommet Tu peux toujours m'crever les yeux, mais tarrêtes pas un visionnaire Tu m'dis qu'y'a foye, j'te dis qu'y'a drah, un coup d'feu sous un drap Kilogramme, en moi j'ai un côté raggaeman Ton rap est relou comme la pluie F.A.Baby-Sunshine Si on récolte ce que l'on sème j'ai des hectares de punchlines Quand la violence cherche du taf, c'est le Neuf-Trois qui postule Ok, j'suis p't-êt' pas né au bled, mais j'peux t'fumer par coutume J'croise un grand qui sort du chtar, il m'dit Wesh ma gueule ! Wesh ma gueule ! Maintenant tous les p'tits d'la tess' disent Wesh ma gueule ! Wesh ma gueule ! Toutes les meufs que j'croise en boîte disent Wesh ma gueule ! Wesh ma gueule ! Banlieue Sale, on s'croit tout permis Wesh ma gueule ! Wesh ma gueule ! Et j'vois tout l'monde dans la foule crier Wesh ma gueule ! Wesh ma gueule ! Les Parisiens et même les Marseillais Wesh ma gueule ! Wesh ma gueule ! Micro ouvert, guichets fermés Wesh ma gueule ! Wesh ma gueule ! Chez toi on dit quoi ? Par ici, nous on dit Wesh ma gueule ! Pour tous les quartiers français Wesh ma gueule ! Wesh ma gueule ! Pour tous les mecs enfermés Wesh ma gueule ! Wesh ma gueule ! Nanterre, Fleury, la Santé Wesh ma gueule ! Wesh ma gueule ! Tous les jeunes se mettent à chanter Wesh ma gueule ! Wesh ma gueule ! Strasbourg, Bordeaux, Béziers Wesh ma gueule ! Wesh ma gueule ! Nantes, Lille, Toulouse, Montpellier Wesh ma gueule ! Wesh ma gueule ! Mes Auxerrois et mes Lyonnais Wesh ma gueule ! Wesh ma gueule ! Noisy, Rosny, Aulnay, Neuf-Trois renaît</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Intro Leily Lil Doc I love you, Lil Doc ily docti Ngi n ây ã cho con tim ca tôi bit m say Like you, miss you, do you know, ooh-oh Gió êm m lt qua, di tia nng m em p thit tha Thit tha Wanna be with you I hope you say oh, yes I do I can't take this damage Uh, bi vì này em i you so damn kewt I swear to god, I ain't cappin' Baby girl, I wrote this love letter for you For you Tình yêu bé nh trong lá th Lá th, brr peep Mong em nhn c nó tht nhanh, giá nh Giá nh And I hope my dream come true nhng chuyn ã qua, b vào quá kh Ayy, ayy, ayy Wish you love me too, shout out shootin' stars Shootin' stars On our first date, ta ch i n cùng và Yeah I'm not a bad kid, anh trai ngoan tht thà In the fast whip anh a em v nhà Yeah, yeah Gió êm m lt qua, di tia nng m em p thit tha Thit tha Wanna be with you I hope you say oh, yes I do I can't take this damage Uh, bi vì này em i you so damn kewt I swear to god, I ain't cappin' Baby girl, I wrote this love letter for you For you You might also like Lov makes the world go round I want to stay around you, bless th day I found you I wanna be the one who completes your life cause I love you Và anh bit thi gian thì vn dn trôi, tng lai chính là th mà c hai ta cùng cn ti Anh vn thm lng nh là git sng êm, không nói mà ang làm em bit anh thng em Có nhng th không th thy mà phi cm nhn, có nhng th còn quan trng hn c bn thân em bit con ng dài thì ã có anh ch che em bit ta yêu em n tng hi th nh Mt cách tht mù quáng tui tr anh s chng lãng phí anh chìm vào cn say mc k thi gian thm lng qua i Và có nhng th chng p nh ta ngh Và có nhng th kt cc chng ra gì Có nhng tháng ngày s chng th quay v và em chng mt ai có th thay th Có nhng tháng ngày s chng th quay v và em chng mt ai có th thay th Gió êm m lt qua, di tia nng m em p thit tha Thit tha Wanna be with you I hope you say oh, yes I do I can't take this damage Uh, bi vì này em i you so damn kewt I swear to god, I ain't cappin' Baby girl, I wrote this love letter for you For you Me and Teddy in this shit, yeah Me and Leily in this shit, yeah ativa in this shit, yeah Yeah, I got Lil Doc on the beat, yeah I love you and I need you Baby, I love you I do need you1</t>
+          <t>Intro Leily Lil Doc I love you, Lil Doc ily docti Ngi n ây ã cho con tim ca tôi bit m say Like you, miss you, do you know, ooh-oh Gió êm m lt qua, di tia nng m em p thit tha Thit tha Wanna be with you I hope you say oh, yes I do I can't take this damage Uh, bi vì này em i you so damn kewt I swear to god, I ain't cappin' Baby girl, I wrote this love letter for you For you Tình yêu bé nh trong lá th Lá th, brr peep Mong em nhn c nó tht nhanh, giá nh Giá nh And I hope my dream come true nhng chuyn ã qua, b vào quá kh Ayy, ayy, ayy Wish you love me too, shout out shootin' stars Shootin' stars On our first date, ta ch i n cùng và Yeah I'm not a bad kid, anh trai ngoan tht thà In the fast whip anh a em v nhà Yeah, yeah Gió êm m lt qua, di tia nng m em p thit tha Thit tha Wanna be with you I hope you say oh, yes I do I can't take this damage Uh, bi vì này em i you so damn kewt I swear to god, I ain't cappin' Baby girl, I wrote this love letter for you For you Lov makes the world go round I want to stay around you, bless th day I found you I wanna be the one who completes your life cause I love you Và anh bit thi gian thì vn dn trôi, tng lai chính là th mà c hai ta cùng cn ti Anh vn thm lng nh là git sng êm, không nói mà ang làm em bit anh thng em Có nhng th không th thy mà phi cm nhn, có nhng th còn quan trng hn c bn thân em bit con ng dài thì ã có anh ch che em bit ta yêu em n tng hi th nh Mt cách tht mù quáng tui tr anh s chng lãng phí anh chìm vào cn say mc k thi gian thm lng qua i Và có nhng th chng p nh ta ngh Và có nhng th kt cc chng ra gì Có nhng tháng ngày s chng th quay v và em chng mt ai có th thay th Có nhng tháng ngày s chng th quay v và em chng mt ai có th thay th Gió êm m lt qua, di tia nng m em p thit tha Thit tha Wanna be with you I hope you say oh, yes I do I can't take this damage Uh, bi vì này em i you so damn kewt I swear to god, I ain't cappin' Baby girl, I wrote this love letter for you For you Me and Teddy in this shit, yeah Me and Leily in this shit, yeah ativa in this shit, yeah Yeah, I got Lil Doc on the beat, yeah I love you and I need you Baby, I love you I do need you1</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Banlieue Sale Music A.L.O.N.Z.O. pour C.D.C.3 Papa vaut de l'or, Mama vaut le triple J'vais mourir à l'age du Christ cloué dans la street Sur le terrain les billets, les armes et le shit En R32 3.2 Nhar Sheitan Click Eh oui j'ai tisé, au bar je claque le Bingo Une grosse descente se prépare, les p'tits me font des signes Cache-moi ça dans ta chatte, ce n'est que 200G Ne fait pas la fille halal qui a peur de se faire soulever C'est les quartiers Nord my baby, torse nu en pleine ville Pour les lovés qu'est-ce t'as, y'a personne qui tapine Au volant d'un break ça braque, ça fusille Ca charge les gros sacs tout en vrac, tout en despi Les balances pendez-les, ils méritent le kidnapping Sur le parking Tchic-brah, c'est du fighting Pas de bracelets aux poignets, fais fumer Que j'décompresse un max, c'est la war mon époque, sexe drogue C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Appelle les condés va niquer ta mère avec eux En boite on fait la teuf ces rebeus font la queue C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Banlieue dangereuse, la police ne rentre pas Y'a pas que les keufs qui sont en bleu Drogba You might also like Fais de la place sur le podium le 9-2 est à moi Tu veux kicker sur ce genre de prod tu vas te casser la voix J'suis comme Evelyne Dhéliat, dans le rap j'viens faire la météo Je suis l'élu de la matrice tu peux m'appeler Néo Y'en a qu'ont le bras long, nous on l'a musclé Mes phases te mettent K.O. Cassius Clay On est tous comme Charlie car la plupart de nous se perdent On est pas scatophiles mais bon tu sais qu'on fout la merde J'pousse les rapports, j'baise les rappeurs Dans ma té-ci c'est chaud, la tienne y'a que de chiennes en chaleurs Au dessus de ta tombe avec ta femme j'lui roule des pelles J'peux te citer des MC qui volontiers feraient ma vaisselle On est toujours aigris car ici c'est Paris Après S-Kal c'est sur je signe chez les qataris C'est trop dangereux pour toi car de la sûreté moi j'ai pas le cran Bsahtek pour ta Rolex mais bon tu sais moi j'ai pas le temps C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Appelle les condés va niquer ta mère avec eux En boite on fait la teuf ces rebeus font la queue C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Banlieue dangereuse, la police ne rentre pas Y'a pas que les keufs qui sont en bleu Drogba Qu'ils aillent tous se faire mettre, composez le 17 Criminel au mic eh, surveillez vos arrières J'coupe le beat comme tes plaquettes, des larmes de sang sous la casquette C'est l'été sors les claquettes, tu deviens gris comme ton quartier Mais qui consomme la haya, que tout le monde foute le faya J'vous emmène en voyage dans la gorge de Zahia C'est la sanction t'avances la drogue dans les veines Allume le feu effrite et roule tu vois les keufs en violet Tu t'demandes d'où je viens c'est du cul de l'enfer, on la connait bien la prison ferme On les fume on les crache les p'tits vendent l'herbe, y'a pas qu'en bagarre que les autres sont faibles C.D.C.3 C'est quoi les bails, on appelle ta meuf Appelle les keufs, parce qu'on a froissé sa teuch' C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Appelle les condés va niquer ta mère avec eux En boite on fait la teuf ces rebeus font la queue C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Banlieue dangereuse, la police ne rentre pas Y'a pas que les keufs qui sont en bleu Drogba Y'a pas que les Genius qui sont en orange Naruto1</t>
+          <t>Banlieue Sale Music A.L.O.N.Z.O. pour C.D.C.3 Papa vaut de l'or, Mama vaut le triple J'vais mourir à l'age du Christ cloué dans la street Sur le terrain les billets, les armes et le shit En R32 3.2 Nhar Sheitan Click Eh oui j'ai tisé, au bar je claque le Bingo Une grosse descente se prépare, les p'tits me font des signes Cache-moi ça dans ta chatte, ce n'est que 200G Ne fait pas la fille halal qui a peur de se faire soulever C'est les quartiers Nord my baby, torse nu en pleine ville Pour les lovés qu'est-ce t'as, y'a personne qui tapine Au volant d'un break ça braque, ça fusille Ca charge les gros sacs tout en vrac, tout en despi Les balances pendez-les, ils méritent le kidnapping Sur le parking Tchic-brah, c'est du fighting Pas de bracelets aux poignets, fais fumer Que j'décompresse un max, c'est la war mon époque, sexe drogue C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Appelle les condés va niquer ta mère avec eux En boite on fait la teuf ces rebeus font la queue C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Banlieue dangereuse, la police ne rentre pas Y'a pas que les keufs qui sont en bleu Drogba Fais de la place sur le podium le 9-2 est à moi Tu veux kicker sur ce genre de prod tu vas te casser la voix J'suis comme Evelyne Dhéliat, dans le rap j'viens faire la météo Je suis l'élu de la matrice tu peux m'appeler Néo Y'en a qu'ont le bras long, nous on l'a musclé Mes phases te mettent K.O. Cassius Clay On est tous comme Charlie car la plupart de nous se perdent On est pas scatophiles mais bon tu sais qu'on fout la merde J'pousse les rapports, j'baise les rappeurs Dans ma té-ci c'est chaud, la tienne y'a que de chiennes en chaleurs Au dessus de ta tombe avec ta femme j'lui roule des pelles J'peux te citer des MC qui volontiers feraient ma vaisselle On est toujours aigris car ici c'est Paris Après S-Kal c'est sur je signe chez les qataris C'est trop dangereux pour toi car de la sûreté moi j'ai pas le cran Bsahtek pour ta Rolex mais bon tu sais moi j'ai pas le temps C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Appelle les condés va niquer ta mère avec eux En boite on fait la teuf ces rebeus font la queue C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Banlieue dangereuse, la police ne rentre pas Y'a pas que les keufs qui sont en bleu Drogba Qu'ils aillent tous se faire mettre, composez le 17 Criminel au mic eh, surveillez vos arrières J'coupe le beat comme tes plaquettes, des larmes de sang sous la casquette C'est l'été sors les claquettes, tu deviens gris comme ton quartier Mais qui consomme la haya, que tout le monde foute le faya J'vous emmène en voyage dans la gorge de Zahia C'est la sanction t'avances la drogue dans les veines Allume le feu effrite et roule tu vois les keufs en violet Tu t'demandes d'où je viens c'est du cul de l'enfer, on la connait bien la prison ferme On les fume on les crache les p'tits vendent l'herbe, y'a pas qu'en bagarre que les autres sont faibles C.D.C.3 C'est quoi les bails, on appelle ta meuf Appelle les keufs, parce qu'on a froissé sa teuch' C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Appelle les condés va niquer ta mère avec eux En boite on fait la teuf ces rebeus font la queue C'est quoi les bails ? Appelle les keufs C'est quoi les bails ? Appelle les keufs Banlieue dangereuse, la police ne rentre pas Y'a pas que les keufs qui sont en bleu Drogba Y'a pas que les Genius qui sont en orange Naruto1</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Te rafaler pour de la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw Te rafaler pour de la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw Hmm, défilé Versace, Madame j'vais prendre celle-ci J'suis assis à côté de Kanye et sa pute me suce aussi Il m'offre une nouvelle paire d'Yeezy et j'danse la kizomba, la kizomba J'ouvre des bouteilles de champagne, j'pense au salaire qu'ils n'ont pas, non qu'ils n'ont pas J'suis dans mon new penthouse, vue sur Key Largo, ouais Key Largo Négro, donne-moi mon dû ou on te tire dessus comme à Chicago Ta chienne m'envoie un texto, donc je lui envoie un DM Elle m'a sucé dans ma Merco, et j'l'ai fourée dans ta BM Un million point dans mon bando, t'as pas de quoi t'acheter du pento Givenchy, Dior et Chanel, j'sais pas pé-cho lequel, j'crois que j'vais tous les prendre, gros Un million point dans mon bando, toi t'as perdu ton ticket resto Givenchy, Dior et Chanel, j'sais pé-cho lequel, j'crois que j'vais tous les prendre, gros Te rafaler pour la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw Te rafaler pour de la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw You might also like Détail, détail, détail, c'pas pour moi, moi j'parle en gros Charbonne, charbonne, heureux, quand les tits-peu signent en pro Mes Valentinos sur le parquet posés au Front Row Avec leurs frigos vides, non j'crois qu'ces rappeurs en font trop Sucer, sucer, sucer, 'savent que sucer la relève Ils peura-peura-peura avec du me-sper sur les lèvres Si t'es en chien khoya, ouais parle sur moi ça te fera un buzz Pour moi une Mercedes c'est comme une voiture tamponneuse Confonds pas avec ces putes, ils ont la carte américaine Appart' aux States, mais j'ai la carte nationale marocaine Parquet, parquet, parquet, comment t'évites les longs peines Normal qu'tu t'mettes à table, regarde les casseroles que tu traînes Te rafaler pour la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw Te rafaler pour de la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw T'as des appart' que quand tu joues au Monopoly J'ai pris le flow tah Jumpman, on sait nique ta mère aussi Dépense, dépense, dépense ma belle, ne m'dis pas le prix On passe la nuit debout quand l'gouvernement s'assoupit Marqué par la vie, kho j'ai l'flow tah Mississippi Si t'as poucave tes khos, viens pas faire ta baltringue ici C'est vrai khoya la frappe est molle mais nous on s'endurcit BS, BS, BS, Banlieue Sale, Makaveli BS, BS, BS, Banlieue Sale, Makaveli BS, BS, BS, Banlieue Sale, Makaveli BS, BS, BS, Banlieue Sale, Makaveli BS, BS, BS, Banlieue Sale, Makaveli3</t>
+          <t>Te rafaler pour de la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw Te rafaler pour de la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw Hmm, défilé Versace, Madame j'vais prendre celle-ci J'suis assis à côté de Kanye et sa pute me suce aussi Il m'offre une nouvelle paire d'Yeezy et j'danse la kizomba, la kizomba J'ouvre des bouteilles de champagne, j'pense au salaire qu'ils n'ont pas, non qu'ils n'ont pas J'suis dans mon new penthouse, vue sur Key Largo, ouais Key Largo Négro, donne-moi mon dû ou on te tire dessus comme à Chicago Ta chienne m'envoie un texto, donc je lui envoie un DM Elle m'a sucé dans ma Merco, et j'l'ai fourée dans ta BM Un million point dans mon bando, t'as pas de quoi t'acheter du pento Givenchy, Dior et Chanel, j'sais pas pé-cho lequel, j'crois que j'vais tous les prendre, gros Un million point dans mon bando, toi t'as perdu ton ticket resto Givenchy, Dior et Chanel, j'sais pé-cho lequel, j'crois que j'vais tous les prendre, gros Te rafaler pour la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw Te rafaler pour de la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw Détail, détail, détail, c'pas pour moi, moi j'parle en gros Charbonne, charbonne, heureux, quand les tits-peu signent en pro Mes Valentinos sur le parquet posés au Front Row Avec leurs frigos vides, non j'crois qu'ces rappeurs en font trop Sucer, sucer, sucer, 'savent que sucer la relève Ils peura-peura-peura avec du me-sper sur les lèvres Si t'es en chien khoya, ouais parle sur moi ça te fera un buzz Pour moi une Mercedes c'est comme une voiture tamponneuse Confonds pas avec ces putes, ils ont la carte américaine Appart' aux States, mais j'ai la carte nationale marocaine Parquet, parquet, parquet, comment t'évites les longs peines Normal qu'tu t'mettes à table, regarde les casseroles que tu traînes Te rafaler pour la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw Te rafaler pour de la monnaie, on ne tire pas sur les mollets Regardez l'heure sur ma Rolly, deux kilos d'pure dans le colis Khaliss, litron, Khaliss, litron Khaliss, litron Paw, paw, paw T'as des appart' que quand tu joues au Monopoly J'ai pris le flow tah Jumpman, on sait nique ta mère aussi Dépense, dépense, dépense ma belle, ne m'dis pas le prix On passe la nuit debout quand l'gouvernement s'assoupit Marqué par la vie, kho j'ai l'flow tah Mississippi Si t'as poucave tes khos, viens pas faire ta baltringue ici C'est vrai khoya la frappe est molle mais nous on s'endurcit BS, BS, BS, Banlieue Sale, Makaveli BS, BS, BS, Banlieue Sale, Makaveli BS, BS, BS, Banlieue Sale, Makaveli BS, BS, BS, Banlieue Sale, Makaveli BS, BS, BS, Banlieue Sale, Makaveli3</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>La Fouine ! Kenitra Casa Dar-al-Baïda Al-Maghrib Badr J'suis de la nouvelle et de l'ancienne école À part de Dieu, j'ai peur de personne J'lis la peur dans tes yeux quand le gong sonne Un Marocain va t'faire manger l'sol You Cant wake up with Badr Hari Skurt Skurt Skurt Skurt You Cant wake up with Badr Hari Skurt You Cant wake up with Badr Hari You Cant wake up with Badr Hari Skurt Skurt Skurt Skurt You Cant wake up with Badr Hari J'veux une étoile verte sous mes Louboutin Le monde, je m'en fous tant qu'le bled me soutient On est trois-cents, sur le ring on va te niquer ta race Badr Hari featuring Laouni'das J'aime mes ennemis, bon sang Quand j'monte sur l'ring leur sang change en billet d'cinq cents J'ai connu des hauts, j'ai connu des bas Rebeu la taule n'aura pas raison de moi Deux seules règles dans cette putain d'vie Mettre mes parents, mon menton à l'abri Kenitra, Rabat, Casa Coup d'tête balayette sahbi safé salina Tu va finir comme Pak-Pak-Pak Yo C'est d'la violence, c'est pas du Ne-Yo Une main dans le gant d'boxe, l'autre sur la Lambo C'est pour mes arbés, balafrés, clandos Morocco Gang, demande à Yassine C'est pas en Enfer que tu demandes la clim' Le marchand d'sable est passé Faites vos paris, You Cant wake up with Badr Hari You might also like J'suis de la nouvelle et de l'ancienne école À part de Dieu, j'ai peur de personne J'lis la peur dans tes yeux quand le gong sonne Un Marocain va t'faire manger l'sol You Cant wake up with Badr Hari Skurt Skurt Skurt Skurt You Cant wake up with Badr Hari Skurt You Cant wake up with Badr Hari You Cant wake up with Badr Hari Skurt Skurt Skurt Skurt You Cant wake up with Badr Hari26</t>
+          <t>La Fouine ! Kenitra Casa Dar-al-Baïda Al-Maghrib Badr J'suis de la nouvelle et de l'ancienne école À part de Dieu, j'ai peur de personne J'lis la peur dans tes yeux quand le gong sonne Un Marocain va t'faire manger l'sol You Cant wake up with Badr Hari Skurt Skurt Skurt Skurt You Cant wake up with Badr Hari Skurt You Cant wake up with Badr Hari You Cant wake up with Badr Hari Skurt Skurt Skurt Skurt You Cant wake up with Badr Hari J'veux une étoile verte sous mes Louboutin Le monde, je m'en fous tant qu'le bled me soutient On est trois-cents, sur le ring on va te niquer ta race Badr Hari featuring Laouni'das J'aime mes ennemis, bon sang Quand j'monte sur l'ring leur sang change en billet d'cinq cents J'ai connu des hauts, j'ai connu des bas Rebeu la taule n'aura pas raison de moi Deux seules règles dans cette putain d'vie Mettre mes parents, mon menton à l'abri Kenitra, Rabat, Casa Coup d'tête balayette sahbi safé salina Tu va finir comme Pak-Pak-Pak Yo C'est d'la violence, c'est pas du Ne-Yo Une main dans le gant d'boxe, l'autre sur la Lambo C'est pour mes arbés, balafrés, clandos Morocco Gang, demande à Yassine C'est pas en Enfer que tu demandes la clim' Le marchand d'sable est passé Faites vos paris, You Cant wake up with Badr Hari J'suis de la nouvelle et de l'ancienne école À part de Dieu, j'ai peur de personne J'lis la peur dans tes yeux quand le gong sonne Un Marocain va t'faire manger l'sol You Cant wake up with Badr Hari Skurt Skurt Skurt Skurt You Cant wake up with Badr Hari Skurt You Cant wake up with Badr Hari You Cant wake up with Badr Hari Skurt Skurt Skurt Skurt You Cant wake up with Badr Hari26</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Parfois j'en veux au monde, j'te cache pas, j'ai la haine, j'ai Envie d'rester tout seul dans mon classe G AMG L'succès, l'argent, les femmes, tout ça fait tourner la tête J'aurais pu m'perdre, j'aurais pu prendre perpét' sur un coup d'tête Parfois c'est triste et parfois c'est noir Mais à vaincre sans péril, on triomphe sans gloire Papa, t'as bossé toute ta vie pour un salaire de misère Plus d'eau chaude, on s'douchait à l'eau froide même en plein hiver Kho, les dés sont truqués, elle m'a bien éduqué Boubou, pas d'Loubou, l'Paradis sous ses pieds Concerts à gauche, à droite, de la Clio au Carrera Un seul regret ici bas, Mama n'a pas eu sa villa Si fière, si belle, tu n'as jamais baissé les bras Et j'avoue que c'est dur sans toi, sans ta voix, sans ta voix Mais depuis le ciel, tu es chaque seconde avec moi Est-c'que j'te rends fière et belle ? Oh Mama, oh Mama Toujours un grec complet dans ma belle gov' J'suis pas un nouveau riche, j'suis un ancien pauvre On connait mon nom, j'ai pris du poids comme Mariah Carey J'ai trop tourné en rond, j'ai mérité d'm'asseoir au carré Du bout des doigts, touché tous mes rêves Mauvais élève, marche ou crève, du sang sur le glaive Argent qui dort, disques d'or, disques de platine Aucun remord à part qu'mon Panamera patine P'tit Fouiny est dans l'impasse, le temps passe Seul au fond d'la classe, j'rêvais d'm'asseoir en première classe Concerts à droite, à gauche, de la Clio au Carrera Un seul regret ici bas, Mama n'a pas eu sa villa Si fière, si belle, tu n'as jamais baissé les bras Et j'avoue que c'est dur sans toi, sans ta voix, sans ta voix Mais depuis le ciel, tu es chaque seconde avec moi Est-c'que j'te rends fière et belle ? Oh Mama, oh Mama Quand c'est perdu d'avance, dès l'départ Il y a ceux qui n'refusent pas d'y croire Elle rentrait fatiguée tard le soir Elle est mon modèle, elle est ma gloire Quand c'est perdu d'avance, dès l'départ Il y a ceux qui n'refusent pas d'y croire Elle rentrait fatiguée tard le soir Elle est mon modèle, elle est ma gloire Si fière, si belle, tu n'as jamais baissé les bras Et j'avoue que c'est dur sans toi, sans ta voix, sans ta voix Mais depuis le ciel, tu es chaque seconde avec moi Est-c'que j'te rends fière et belle ? Oh Mama, oh Mama Si fière, si belle, tu n'as jamais baissé les bras Et j'avoue que c'est dur sans toi, sans ta voix, sans ta voix Mais depuis le ciel, tu es chaque seconde avec moi Est-c'que j'te rends fière et belle ? Oh Mama, oh Mama Oh Sans ta voix, sans ta voix Oh Mama, oh MamaYou might also like2</t>
+          <t>Parfois j'en veux au monde, j'te cache pas, j'ai la haine, j'ai Envie d'rester tout seul dans mon classe G AMG L'succès, l'argent, les femmes, tout ça fait tourner la tête J'aurais pu m'perdre, j'aurais pu prendre perpét' sur un coup d'tête Parfois c'est triste et parfois c'est noir Mais à vaincre sans péril, on triomphe sans gloire Papa, t'as bossé toute ta vie pour un salaire de misère Plus d'eau chaude, on s'douchait à l'eau froide même en plein hiver Kho, les dés sont truqués, elle m'a bien éduqué Boubou, pas d'Loubou, l'Paradis sous ses pieds Concerts à gauche, à droite, de la Clio au Carrera Un seul regret ici bas, Mama n'a pas eu sa villa Si fière, si belle, tu n'as jamais baissé les bras Et j'avoue que c'est dur sans toi, sans ta voix, sans ta voix Mais depuis le ciel, tu es chaque seconde avec moi Est-c'que j'te rends fière et belle ? Oh Mama, oh Mama Toujours un grec complet dans ma belle gov' J'suis pas un nouveau riche, j'suis un ancien pauvre On connait mon nom, j'ai pris du poids comme Mariah Carey J'ai trop tourné en rond, j'ai mérité d'm'asseoir au carré Du bout des doigts, touché tous mes rêves Mauvais élève, marche ou crève, du sang sur le glaive Argent qui dort, disques d'or, disques de platine Aucun remord à part qu'mon Panamera patine P'tit Fouiny est dans l'impasse, le temps passe Seul au fond d'la classe, j'rêvais d'm'asseoir en première classe Concerts à droite, à gauche, de la Clio au Carrera Un seul regret ici bas, Mama n'a pas eu sa villa Si fière, si belle, tu n'as jamais baissé les bras Et j'avoue que c'est dur sans toi, sans ta voix, sans ta voix Mais depuis le ciel, tu es chaque seconde avec moi Est-c'que j'te rends fière et belle ? Oh Mama, oh Mama Quand c'est perdu d'avance, dès l'départ Il y a ceux qui n'refusent pas d'y croire Elle rentrait fatiguée tard le soir Elle est mon modèle, elle est ma gloire Quand c'est perdu d'avance, dès l'départ Il y a ceux qui n'refusent pas d'y croire Elle rentrait fatiguée tard le soir Elle est mon modèle, elle est ma gloire Si fière, si belle, tu n'as jamais baissé les bras Et j'avoue que c'est dur sans toi, sans ta voix, sans ta voix Mais depuis le ciel, tu es chaque seconde avec moi Est-c'que j'te rends fière et belle ? Oh Mama, oh Mama Si fière, si belle, tu n'as jamais baissé les bras Et j'avoue que c'est dur sans toi, sans ta voix, sans ta voix Mais depuis le ciel, tu es chaque seconde avec moi Est-c'que j'te rends fière et belle ? Oh Mama, oh Mama Oh Sans ta voix, sans ta voix Oh Mama, oh Mama2</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>I just get home and then I leave again It's long ago and far away I just get home and then I leave again It's long ago and far away J'ai l'ambition d'toucher le ciel mais sans fusée, au square c'est trop abusé Toute ma jeunesse j'ai vu mon père viser la Lune avec un lance-pierre Ils ont trop peur j'viens prendre le trône, nous le savons J'fais peur comme un barbu qui s'lève pour aller pisser dans l'avion La roue tourne, c'est comme les meufs dans nos ve-ca, yeah Car en banlieue, l'avenir est noir comme un féca, yeah L'État tire à blanc, tire, tire, tire à blanc Les frères ont pris d'la poudre magique et s'envolent comme Peter Pan J'suis jeune et ambitieux comme VF Gang ou C4 Clan J'suis supporté par mes Rebeus, mes Noirs, mes Noiches, mes Blancs Yeah, man, j'suis le vilain petit canard Mais j'ai plus de style que la plupart de ces connards Man, j'veux brasser, fuir de là, prendre la famille, fuir de là Mais j'ai pas fais mon job car Mama n'a pas eu sa villa L'écriture vient de Petra, l'inspiration de Casa De Bamako de Dakar, de Oran passant par Oujda, yeah Yeah, un jour j'ai entendu un homme sage dire C'est au sommet d'la montagne qu'on s'sent le plus seul, yeah yeah You might also like Nos rimes sont immortelles ouais, immortelles ouais Immortelles ouais, immortelles Elles traversent le temps, elles sont immortelles ouais Immortelles ouais, immortelles J'aurai tout fait pour y arriver comme mon poto Peul, et finir dans un linceul C'est au sommet d'la montagne, reufré, qu'on s'sent le plus seul C'est pour les p'tits frères que j'croise dans les couloirs d'la prison Qui gardent la tête haute, haute, quelle que soit la raison Yeah, demande à Dixon ou XXX On cherche la monnaie face aux soucis, man, on tient le coup Man on a peur d'là-haut, on sait où la vie nous mène Si il n'y avait pas l'islam, j'aurais autant d'tatouages que Lil Wayne On manque de meufs et de soleil, de cash et de sommeil Le jour on ouvre nos gueules ,et la nuit on ouvre des bouteilles, yeah Impossible d'clasher Fouin, donc l'État garde la pêche On attrape pas un requin avec une canne à pêche Envie d'brasser, d'fuir de là, prendre la famille, fuir de là Mais j'ai pas fait mon job car Mama n'a pas eu sa villa L'écriture vient de Petra, l'inspiration de Casa De Madinina, Guyana, d'la Réunion en passant par Gwada, yeah Yeah, l'argent c'est rien, frère On l'gaspille, les voitures on les bousille, les maisons on les brûle Mais nos traces sont immortelles Nos rimes sont immortelles ouais, immortelles ouais Immortelles ouais, immortelles Elles traversent le temps, elles sont immortelles ouais Immortelles ouais, immortelles On est venus reprendre notre dû, on s'bat encore Notre art est immortel La route est longue le savais-tu, essaye encore Ton art est immortel On est venus reprendre notre dû, on s'bat encore Notre art est immortel La route est longue le savais-tu, essaye encore Ton art est immortel C'est pour les Benoît, Ibrahim ou les Mamadou Pour tous ceux qui nagent dans la misère plus vite qu'Laure Manaudou L'équipe est solide, La Fouine est bien entouré Handek ici l'malheur court plus vite que Ladji Doucouré Man j'rêve de brasser, d'fuir de là, prendre la famille, fuir de là Mais j'ai pas fait mon job car Mama n'a pas eu sa villa L'écriture vient de Petra, l'inspiration de Casa De Bamako de Dakar, de Oran passant par Oujda Yeah, immortelles frère À travers le temps, nos rimes restent Nos rimes sont immortelles ouais, immortelles ouais Immortelles ouais, immortelles Elles traversent le temps, elle sont immortelles ouais Immortelles ouais, immortelles1</t>
+          <t>I just get home and then I leave again It's long ago and far away I just get home and then I leave again It's long ago and far away J'ai l'ambition d'toucher le ciel mais sans fusée, au square c'est trop abusé Toute ma jeunesse j'ai vu mon père viser la Lune avec un lance-pierre Ils ont trop peur j'viens prendre le trône, nous le savons J'fais peur comme un barbu qui s'lève pour aller pisser dans l'avion La roue tourne, c'est comme les meufs dans nos ve-ca, yeah Car en banlieue, l'avenir est noir comme un féca, yeah L'État tire à blanc, tire, tire, tire à blanc Les frères ont pris d'la poudre magique et s'envolent comme Peter Pan J'suis jeune et ambitieux comme VF Gang ou C4 Clan J'suis supporté par mes Rebeus, mes Noirs, mes Noiches, mes Blancs Yeah, man, j'suis le vilain petit canard Mais j'ai plus de style que la plupart de ces connards Man, j'veux brasser, fuir de là, prendre la famille, fuir de là Mais j'ai pas fais mon job car Mama n'a pas eu sa villa L'écriture vient de Petra, l'inspiration de Casa De Bamako de Dakar, de Oran passant par Oujda, yeah Yeah, un jour j'ai entendu un homme sage dire C'est au sommet d'la montagne qu'on s'sent le plus seul, yeah yeah Nos rimes sont immortelles ouais, immortelles ouais Immortelles ouais, immortelles Elles traversent le temps, elles sont immortelles ouais Immortelles ouais, immortelles J'aurai tout fait pour y arriver comme mon poto Peul, et finir dans un linceul C'est au sommet d'la montagne, reufré, qu'on s'sent le plus seul C'est pour les p'tits frères que j'croise dans les couloirs d'la prison Qui gardent la tête haute, haute, quelle que soit la raison Yeah, demande à Dixon ou XXX On cherche la monnaie face aux soucis, man, on tient le coup Man on a peur d'là-haut, on sait où la vie nous mène Si il n'y avait pas l'islam, j'aurais autant d'tatouages que Lil Wayne On manque de meufs et de soleil, de cash et de sommeil Le jour on ouvre nos gueules ,et la nuit on ouvre des bouteilles, yeah Impossible d'clasher Fouin, donc l'État garde la pêche On attrape pas un requin avec une canne à pêche Envie d'brasser, d'fuir de là, prendre la famille, fuir de là Mais j'ai pas fait mon job car Mama n'a pas eu sa villa L'écriture vient de Petra, l'inspiration de Casa De Madinina, Guyana, d'la Réunion en passant par Gwada, yeah Yeah, l'argent c'est rien, frère On l'gaspille, les voitures on les bousille, les maisons on les brûle Mais nos traces sont immortelles Nos rimes sont immortelles ouais, immortelles ouais Immortelles ouais, immortelles Elles traversent le temps, elles sont immortelles ouais Immortelles ouais, immortelles On est venus reprendre notre dû, on s'bat encore Notre art est immortel La route est longue le savais-tu, essaye encore Ton art est immortel On est venus reprendre notre dû, on s'bat encore Notre art est immortel La route est longue le savais-tu, essaye encore Ton art est immortel C'est pour les Benoît, Ibrahim ou les Mamadou Pour tous ceux qui nagent dans la misère plus vite qu'Laure Manaudou L'équipe est solide, La Fouine est bien entouré Handek ici l'malheur court plus vite que Ladji Doucouré Man j'rêve de brasser, d'fuir de là, prendre la famille, fuir de là Mais j'ai pas fait mon job car Mama n'a pas eu sa villa L'écriture vient de Petra, l'inspiration de Casa De Bamako de Dakar, de Oran passant par Oujda Yeah, immortelles frère À travers le temps, nos rimes restent Nos rimes sont immortelles ouais, immortelles ouais Immortelles ouais, immortelles Elles traversent le temps, elle sont immortelles ouais Immortelles ouais, immortelles1</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Plus rien n'est pareil, traqué par le soleil et nous voilà déjà demain Non, plus rien n'est pareil, et quand sonnera le réveil, on ne sera qu'à mi-chemin Reste la nuit, demain on verra Reste la nuit, demain on verra Demain, on verra Demain on verra, rien suffira On regardera le ciel qui vivra verra J'arrive en gamos, je m'arrache en beauté Frère on est côté, même boycotté Cain-fri, cain-ri, laisse passer les reu-sta C'est Salif Keita featuring Guetta Dès l'introduction je vois que t'es mort dans le film 2012 Fouiny n'a toujours pas de jean slim J'm'enjaille, j'm'enjaille, Swagg ouais par heure Fais tourner l'electron, bzz taser Fouiny Fouiny Baby, Maybach maybe J'finirais comme John Lennon, non non let it be Let it be tu nous veux, mets le prix T'as plus confiance en tes vrais fréros, fait le tri Minimum 6 chiffres, réflechis, moi j'agis Fouiny Fouiny Babe, je suis venu, Veni Vidi Vici, swagg Plus rien n'est pareil, traqué par le soleil et nous voilà déjà demain Non, plus rien n'est pareil, et quand sonnera le réveil, on ne sera qu'à mi-chemin Reste la nuit, demain on verra Reste la nuit, demain on verra Demain, on verra You might also like Plus rien n'est pareil, on cherche tous l'oseille On sera tous blindés quand sonnera le réveil Problèmes, problèmes, j'laisse ça derrière Omar Sy y'a du talent dans l'air Numéro 1 voilà l'équipe de tarés Toi t'as plus d'buzz comme Mariah Carey J'galère à l'arrêt de bus, les autres se marraient Fouiny Fouiny Babe banlieusard mal barré Dès l'début du couplet je vois bien que t'es fan Et je les fais voyager Amsterdam Swagg Swagg Swagg Swagg Fouiny Fouiny pèse, mais 10 ans auparavant Fouiny rame Casquette Snapback, jean cartonné Tu veux gérer ce bord,dis-lui juste que tu m'connais Arrêter le peu-ra, MC fallait Ton rap sonne faux Silicon Valley Plus rien n'est pareil, traqué par le soleil et nous voilà déjà demain Non, plus rien n'est pareil, et quand sonnera le réveil, on ne sera qu'à mi-chemin Reste la nuit, demain on verra Reste la nuit, demain on verra Demain, on verra Yeah Corneille Fouiny Yeah J'vide mon verre, vide ton sac On a pris des coups, on a pris des claques Jantes noires, vitres noires, intérieur black J'suis jamais parti donc il y aura pas de come back Swagg Swagg Swagg Swagg Swagg Pose la bouteille, au point VIP n'laisse pas entrer ces chlag Swagg Swagg Swagg Swagg Swagg Depuis le terrain vague, traqué par le Swagg, Fouiny Plus rien n'est pareil, traqué par le soleil et nous voilà déjà demain Non, plus rien n'est pareil, et quand sonnera le réveil, on ne sera qu'à mi-chemin Reste la nuit, demain on verra Reste la nuit, demain on verra Demain, on verra1</t>
+          <t>Plus rien n'est pareil, traqué par le soleil et nous voilà déjà demain Non, plus rien n'est pareil, et quand sonnera le réveil, on ne sera qu'à mi-chemin Reste la nuit, demain on verra Reste la nuit, demain on verra Demain, on verra Demain on verra, rien suffira On regardera le ciel qui vivra verra J'arrive en gamos, je m'arrache en beauté Frère on est côté, même boycotté Cain-fri, cain-ri, laisse passer les reu-sta C'est Salif Keita featuring Guetta Dès l'introduction je vois que t'es mort dans le film 2012 Fouiny n'a toujours pas de jean slim J'm'enjaille, j'm'enjaille, Swagg ouais par heure Fais tourner l'electron, bzz taser Fouiny Fouiny Baby, Maybach maybe J'finirais comme John Lennon, non non let it be Let it be tu nous veux, mets le prix T'as plus confiance en tes vrais fréros, fait le tri Minimum 6 chiffres, réflechis, moi j'agis Fouiny Fouiny Babe, je suis venu, Veni Vidi Vici, swagg Plus rien n'est pareil, traqué par le soleil et nous voilà déjà demain Non, plus rien n'est pareil, et quand sonnera le réveil, on ne sera qu'à mi-chemin Reste la nuit, demain on verra Reste la nuit, demain on verra Demain, on verra Plus rien n'est pareil, on cherche tous l'oseille On sera tous blindés quand sonnera le réveil Problèmes, problèmes, j'laisse ça derrière Omar Sy y'a du talent dans l'air Numéro 1 voilà l'équipe de tarés Toi t'as plus d'buzz comme Mariah Carey J'galère à l'arrêt de bus, les autres se marraient Fouiny Fouiny Babe banlieusard mal barré Dès l'début du couplet je vois bien que t'es fan Et je les fais voyager Amsterdam Swagg Swagg Swagg Swagg Fouiny Fouiny pèse, mais 10 ans auparavant Fouiny rame Casquette Snapback, jean cartonné Tu veux gérer ce bord,dis-lui juste que tu m'connais Arrêter le peu-ra, MC fallait Ton rap sonne faux Silicon Valley Plus rien n'est pareil, traqué par le soleil et nous voilà déjà demain Non, plus rien n'est pareil, et quand sonnera le réveil, on ne sera qu'à mi-chemin Reste la nuit, demain on verra Reste la nuit, demain on verra Demain, on verra Yeah Corneille Fouiny Yeah J'vide mon verre, vide ton sac On a pris des coups, on a pris des claques Jantes noires, vitres noires, intérieur black J'suis jamais parti donc il y aura pas de come back Swagg Swagg Swagg Swagg Swagg Pose la bouteille, au point VIP n'laisse pas entrer ces chlag Swagg Swagg Swagg Swagg Swagg Depuis le terrain vague, traqué par le Swagg, Fouiny Plus rien n'est pareil, traqué par le soleil et nous voilà déjà demain Non, plus rien n'est pareil, et quand sonnera le réveil, on ne sera qu'à mi-chemin Reste la nuit, demain on verra Reste la nuit, demain on verra Demain, on verra1</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>La daronne m'a élevé pauvre mais moi j'la suis avec honneur Posé avec elle à l'arrêt d'bus, à la recherche du bonheur Femme enceinte, père courageux, préfère prendre la fuite J'verse une larme quand j'écris la suite Quand j'plonge dans c'thème j'suis pas dans l'inconnu Cicatrices, césarienne, poussette, transports en commun Le paradis c'est sous son pied, marche pas sur ses sentiments Le thème c'est Femme seule mais y'en a tout un régiment D'après les soldats les plus forts du monde, une mère c'est très brave 'Voulait meubler ton cur de sentiments, mais la pièce est trop vaste J'aimerais lui tendre la main, lui dire Tout est fini Elle pleure la nuit, elle m'le dit pas mais son coussin est trop humide Quand j'écris c'refrain, là c'est personnel Quand j'parle de la daronne, là ça devient personnel J'voulais quitter son nid, mais j'peux pas voler sans elle Quand j'rentre tard la nuit, elle trouve plus sommeil Quand j'écris c'refrain, là c'est personnel Quand j'parle de la daronne, là ça devient personnel J'voulais quitter son nid, mais j'peux pas voler sans elle Quand j'rentre tard la nuit, elle trouve plus sommeil La nuit j'regarde le monde, j'y vois plus clair Quand les anges nous rejoignent J'voulais faire vivre ses rêves mais pas sans elle Palala pala pa pa You might also like A ceux qu'ont perdu des parents, isolés, ou sur les nerfs Une blessure pour ton mariage, une tristesse pour les fêtes des mères Un silence mortuaire, j'entends les veines qui s'ouvrent On se bat plus contre la mort, est ce que la vie en vaut le coût ? Une famille qui s'déchire, moi j'suis qu'un môme Mon fils j's'rais trop présent parce que grand-père a trop fait l'fantôme J'brûle des photos, devenu adulte trop tôt La poésie du divorce, dicte la moi j'te f'rais un sans faute Des embrouilles sanglantes, la p'tite soeur en sanglot Moi j'écris un single, mais j'finirais cinglé À cause de c'thème, certains sont dans la tise Le regard vitreux j'ai peur que ma famille se brise Quand j'écris c'refrain, là c'est personnel Quand j'parle de la daronne, là ça devient personnel J'voulais quitter son nid, mais j'peux pas voler sans elle Quand j'rentre tard la nuit, elle trouve plus sommeil Quand j'écris c'refrain, là c'est personnel Quand j'parle de la daronne, là ça devient personnel J'voulais quitter son nid, mais j'peux pas voler sans elle Quand j'rentre tard la nuit, elle trouve plus sommeil La nuit j'regarde le monde, j'y vois plus clair Quand les anges nous rejoignent J'voulais faire vivre ses rêves mais pas sans elle Palala pala pa pa La nuit j'regarde le monde, j'y vois plus clair Quand les anges nous rejoignent J'voulais faire vivre ses rêves mais pas sans elle Palala pala pa pa Palala pala pa pa Palala pala pa pa La nuit j'regarde le monde, j'y vois plus clair Quand les anges nous rejoignent J'voulais faire vivre ses rêves mais pas sans elle Palala pala pa pa2</t>
+          <t>La daronne m'a élevé pauvre mais moi j'la suis avec honneur Posé avec elle à l'arrêt d'bus, à la recherche du bonheur Femme enceinte, père courageux, préfère prendre la fuite J'verse une larme quand j'écris la suite Quand j'plonge dans c'thème j'suis pas dans l'inconnu Cicatrices, césarienne, poussette, transports en commun Le paradis c'est sous son pied, marche pas sur ses sentiments Le thème c'est Femme seule mais y'en a tout un régiment D'après les soldats les plus forts du monde, une mère c'est très brave 'Voulait meubler ton cur de sentiments, mais la pièce est trop vaste J'aimerais lui tendre la main, lui dire Tout est fini Elle pleure la nuit, elle m'le dit pas mais son coussin est trop humide Quand j'écris c'refrain, là c'est personnel Quand j'parle de la daronne, là ça devient personnel J'voulais quitter son nid, mais j'peux pas voler sans elle Quand j'rentre tard la nuit, elle trouve plus sommeil Quand j'écris c'refrain, là c'est personnel Quand j'parle de la daronne, là ça devient personnel J'voulais quitter son nid, mais j'peux pas voler sans elle Quand j'rentre tard la nuit, elle trouve plus sommeil La nuit j'regarde le monde, j'y vois plus clair Quand les anges nous rejoignent J'voulais faire vivre ses rêves mais pas sans elle Palala pala pa pa A ceux qu'ont perdu des parents, isolés, ou sur les nerfs Une blessure pour ton mariage, une tristesse pour les fêtes des mères Un silence mortuaire, j'entends les veines qui s'ouvrent On se bat plus contre la mort, est ce que la vie en vaut le coût ? Une famille qui s'déchire, moi j'suis qu'un môme Mon fils j's'rais trop présent parce que grand-père a trop fait l'fantôme J'brûle des photos, devenu adulte trop tôt La poésie du divorce, dicte la moi j'te f'rais un sans faute Des embrouilles sanglantes, la p'tite soeur en sanglot Moi j'écris un single, mais j'finirais cinglé À cause de c'thème, certains sont dans la tise Le regard vitreux j'ai peur que ma famille se brise Quand j'écris c'refrain, là c'est personnel Quand j'parle de la daronne, là ça devient personnel J'voulais quitter son nid, mais j'peux pas voler sans elle Quand j'rentre tard la nuit, elle trouve plus sommeil Quand j'écris c'refrain, là c'est personnel Quand j'parle de la daronne, là ça devient personnel J'voulais quitter son nid, mais j'peux pas voler sans elle Quand j'rentre tard la nuit, elle trouve plus sommeil La nuit j'regarde le monde, j'y vois plus clair Quand les anges nous rejoignent J'voulais faire vivre ses rêves mais pas sans elle Palala pala pa pa La nuit j'regarde le monde, j'y vois plus clair Quand les anges nous rejoignent J'voulais faire vivre ses rêves mais pas sans elle Palala pala pa pa Palala pala pa pa Palala pala pa pa La nuit j'regarde le monde, j'y vois plus clair Quand les anges nous rejoignent J'voulais faire vivre ses rêves mais pas sans elle Palala pala pa pa2</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh, mi amor, mi amor, mi a-mi a-mi amor Eh, mi amor, mi amor, mi a-mi a-mi amor J'ai dans mon jardin secret, des larmes et des épines J'connais le parfum des regrets, les jours où je m'incline Tu dis qu'il vaut mieux se taire, quand personne ne veut t'écouter Tu dis qu'il vaut mieux se taire, mais parfois faut crier J'n'ai pas peur d'être blessée, mon présent, mon passée, j'ai tout ça tatoué La vie m'a rien donné, mais j'ai su pardonner sans jamais m'lamenter On veut décrocher la Lune, l'impossible et plus encore Même si je dis sans rancune, j'envoie tout dans le décor J'n'ai pas peur d'être blessée, mon présent, mon passée, j'ai tout ça tatoué La vie m'a rien donné, mais j'ai su pardonner sans jamais m'lamenter You might also like Tant de choses à l'intérieur, que j'n'ai pas su montrer Un jour tu ris un jour t'as peur, j'apprends à surmonter La vie, elle a tout pour plaire, si t'avances sans laisser tomber Moi aussi j'connais la galère, mais j'ai pas succombé Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine On veut décrocher la Lune, l'impossible et plus encore Même si je dis sans rancune, j'envoie tout dans le décor J'n'ai pas peur d'être blessée, mon présent, mon passée, j'ai tout ça tatoué La vie m'a rien donné, mais j'ai su pardonner sans jamais m'lamenter Prisonnier du quartier jusqu'à c'que le rap me délivre Donner avec le cur on apprend pas ça dans les livres Avec passion j'chante ma génération On finira tous aveugles avec la loi du Talion Silencieux, j'entends mes surs qui prient encore, car dehors on t'accuse-accuse à tord Ici l'espoir vaut de l'or quand l'échec est mis à-mis à mort On veut décrocher la Lune, l'impossible et plus encore Même si je dis sans rancune, j'envoie tout dans le décor J'n'ai pas peur d'être blessée, mon présent, mon passée, j'ai tout ça tatoué La vie m'a rien donné, mais j'ai su pardonner sans jamais m'lamenter Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine9</t>
+          <t>Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh, mi amor, mi amor, mi a-mi a-mi amor Eh, mi amor, mi amor, mi a-mi a-mi amor J'ai dans mon jardin secret, des larmes et des épines J'connais le parfum des regrets, les jours où je m'incline Tu dis qu'il vaut mieux se taire, quand personne ne veut t'écouter Tu dis qu'il vaut mieux se taire, mais parfois faut crier J'n'ai pas peur d'être blessée, mon présent, mon passée, j'ai tout ça tatoué La vie m'a rien donné, mais j'ai su pardonner sans jamais m'lamenter On veut décrocher la Lune, l'impossible et plus encore Même si je dis sans rancune, j'envoie tout dans le décor J'n'ai pas peur d'être blessée, mon présent, mon passée, j'ai tout ça tatoué La vie m'a rien donné, mais j'ai su pardonner sans jamais m'lamenter Tant de choses à l'intérieur, que j'n'ai pas su montrer Un jour tu ris un jour t'as peur, j'apprends à surmonter La vie, elle a tout pour plaire, si t'avances sans laisser tomber Moi aussi j'connais la galère, mais j'ai pas succombé Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine On veut décrocher la Lune, l'impossible et plus encore Même si je dis sans rancune, j'envoie tout dans le décor J'n'ai pas peur d'être blessée, mon présent, mon passée, j'ai tout ça tatoué La vie m'a rien donné, mais j'ai su pardonner sans jamais m'lamenter Prisonnier du quartier jusqu'à c'que le rap me délivre Donner avec le cur on apprend pas ça dans les livres Avec passion j'chante ma génération On finira tous aveugles avec la loi du Talion Silencieux, j'entends mes surs qui prient encore, car dehors on t'accuse-accuse à tord Ici l'espoir vaut de l'or quand l'échec est mis à-mis à mort On veut décrocher la Lune, l'impossible et plus encore Même si je dis sans rancune, j'envoie tout dans le décor J'n'ai pas peur d'être blessée, mon présent, mon passée, j'ai tout ça tatoué La vie m'a rien donné, mais j'ai su pardonner sans jamais m'lamenter Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine Eh eh, tu dis qu'on rêve, rêve, mais ça vaut la peine9</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Yeah, Banlieue Sale Hey Rise-E I got you Gucci, Louis, Fendi J'ai seulement deux mains, et vingt-quatre pouces Depuis le début je vois tout ces MCs à mes trousses Je vous baise tous, je vous blesse tous J'ai mis le rap enceinte, pousse ! Pousse ! Depuis le début je matte le rap dans le rétro Mec c'en est trop, confondent l'underground et le métro Nan c'est zéro, zéro, zéro pour mes blancs, mes rebeus, négros bouffe le maro paro Celle là pour mes pirates devant le hall JackSparrow Ton flow est vague, stop les blagues Tu vas perdre une dent VeryBadSwagg Celle-là c'est pour mes voyous, les vrais savent Mes blancs comme Orelsan, si tu kiffes pas Fouin t'as les oreilles sales Sales, Frère t'es trop faible retourne à la salle 60 jours 60 nuits le swagg me suit Lalanne Du sud à l'est c'est pas la peine de test On ramasse pas les restes c'est Banlieue Ouest et nique sa mère le reste Prends ton swagg et quitte ma maison Tu refuses de travailler Orelsan, ton texte, tu t'en souviens ? You might also like Ils disent que je représente la lose mais je représente la vraie vie Le jour, le jour, l'amour, le doute, lintelligence, la bêtise Encore une petite croquette pour te mettre en appétit Une petite roquette avant l'invincible armada de T-1000 Leurs textes sont légers, leurs instrus frôlent l'anorexie C'est pas parce qu'on comprends pas ce que tu écris que tu fais de la poésie Je suis arrivé un peu paumé plein de modestie Aujourd'hui, je me comporte comme le sauveur de la prophétie J'explose la chrysalide, déclenche une pluie d'acide Ils regardent le caillou j'essaye de montrer la pyramide Si t'es à chier c'est pas de la faute à Illuminati Orelsan, j'ai toujours pas rencontré monsieur Miyagi Je suis comme ta petite amie obèse en pleine formes Confisquez ma carte d'identité, je rappe comme personne Tu joues les mecs côtés les rois de la night qui écument les boites Mais la seule chose qui te rapproche d'ibiza c'est une Seat ! Et je passe à la vitesse supérieure, j'en ai marre d'avancer lentement Ils arrivent qu'à nous mimer on devrait livrer nos disques avec des gants blancs Avec La Fouine, avec nos bons côtés, nos mauvais penchants Il est grand temps d'apprendre aux dinosaures à aimer le changement Et tu vas prendre cher, tu vas prendre cher cher Tu vas prendre cher Combien ?, tu vas prendre cher Beaucoup ! Tu vas prendre cher, tu vas prendre cher cher Tu vas prendre cher, tu vas prendre cher Je suis comme les enfants sans défense immunitaires, je suis dans ma bulle J'astique mes figurines pendant que je regarde des mangas d'Uc J'me lève à l'heure de l'apéro, branche Guitar Hero La tise me fait gonfler, mélange du Coca Zero On croit que je fais la fête chaque week-end, c'est faux, je taffe mes flows Je passe plus de temps en cabine que le capitaine Némo C'est l'été ta petite copine est au régime Ça tombe bien j'ai de la viande pour son apport de protéine ! Dédicace à mon découvert Je prépare plus le petit déj mais je remets le couvert Mon album a pris du temps fallait que je reprennes des forces C'est la première fois qu'on me reproche de pas faire d'éjac précoce Yeah, Fouiny Orelsan tout ces rappeurs vont prendre Il faudrait les lunettes à Ray pour voir tes disques se vendre C'est ta putain de carrière qui part en cendres T'es plutôt bonne on ken mais pas question qu'on dorme ensemble Tu vas prendre cher, tu vas prendre cher cher Tu vas prendre cher Combien ?, tu vas prendre cher Beaucoup ! Tu vas prendre cher, tu vas prendre cher cher Tu vas prendre cher, tu vas prendre cher Rejoins-nous sinon tu vas prendre cher !1</t>
+          <t>Yeah, Banlieue Sale Hey Rise-E I got you Gucci, Louis, Fendi J'ai seulement deux mains, et vingt-quatre pouces Depuis le début je vois tout ces MCs à mes trousses Je vous baise tous, je vous blesse tous J'ai mis le rap enceinte, pousse ! Pousse ! Depuis le début je matte le rap dans le rétro Mec c'en est trop, confondent l'underground et le métro Nan c'est zéro, zéro, zéro pour mes blancs, mes rebeus, négros bouffe le maro paro Celle là pour mes pirates devant le hall JackSparrow Ton flow est vague, stop les blagues Tu vas perdre une dent VeryBadSwagg Celle-là c'est pour mes voyous, les vrais savent Mes blancs comme Orelsan, si tu kiffes pas Fouin t'as les oreilles sales Sales, Frère t'es trop faible retourne à la salle 60 jours 60 nuits le swagg me suit Lalanne Du sud à l'est c'est pas la peine de test On ramasse pas les restes c'est Banlieue Ouest et nique sa mère le reste Prends ton swagg et quitte ma maison Tu refuses de travailler Orelsan, ton texte, tu t'en souviens ? Ils disent que je représente la lose mais je représente la vraie vie Le jour, le jour, l'amour, le doute, lintelligence, la bêtise Encore une petite croquette pour te mettre en appétit Une petite roquette avant l'invincible armada de T-1000 Leurs textes sont légers, leurs instrus frôlent l'anorexie C'est pas parce qu'on comprends pas ce que tu écris que tu fais de la poésie Je suis arrivé un peu paumé plein de modestie Aujourd'hui, je me comporte comme le sauveur de la prophétie J'explose la chrysalide, déclenche une pluie d'acide Ils regardent le caillou j'essaye de montrer la pyramide Si t'es à chier c'est pas de la faute à Illuminati Orelsan, j'ai toujours pas rencontré monsieur Miyagi Je suis comme ta petite amie obèse en pleine formes Confisquez ma carte d'identité, je rappe comme personne Tu joues les mecs côtés les rois de la night qui écument les boites Mais la seule chose qui te rapproche d'ibiza c'est une Seat ! Et je passe à la vitesse supérieure, j'en ai marre d'avancer lentement Ils arrivent qu'à nous mimer on devrait livrer nos disques avec des gants blancs Avec La Fouine, avec nos bons côtés, nos mauvais penchants Il est grand temps d'apprendre aux dinosaures à aimer le changement Et tu vas prendre cher, tu vas prendre cher cher Tu vas prendre cher Combien ?, tu vas prendre cher Beaucoup ! Tu vas prendre cher, tu vas prendre cher cher Tu vas prendre cher, tu vas prendre cher Je suis comme les enfants sans défense immunitaires, je suis dans ma bulle J'astique mes figurines pendant que je regarde des mangas d'Uc J'me lève à l'heure de l'apéro, branche Guitar Hero La tise me fait gonfler, mélange du Coca Zero On croit que je fais la fête chaque week-end, c'est faux, je taffe mes flows Je passe plus de temps en cabine que le capitaine Némo C'est l'été ta petite copine est au régime Ça tombe bien j'ai de la viande pour son apport de protéine ! Dédicace à mon découvert Je prépare plus le petit déj mais je remets le couvert Mon album a pris du temps fallait que je reprennes des forces C'est la première fois qu'on me reproche de pas faire d'éjac précoce Yeah, Fouiny Orelsan tout ces rappeurs vont prendre Il faudrait les lunettes à Ray pour voir tes disques se vendre C'est ta putain de carrière qui part en cendres T'es plutôt bonne on ken mais pas question qu'on dorme ensemble Tu vas prendre cher, tu vas prendre cher cher Tu vas prendre cher Combien ?, tu vas prendre cher Beaucoup ! Tu vas prendre cher, tu vas prendre cher cher Tu vas prendre cher, tu vas prendre cher Rejoins-nous sinon tu vas prendre cher !1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Yah, yah Oster on the beat, watchout ! Watchout ! Eh yo Fouiny, donne leur le ton ! Wouh ! Eh yo c'est le retour de Banlieue Sale ma p'tite gueulance Premier League ! Wouh ! Let's go ! Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat Depuis tout p'tit, c'est marche ou crève, réussite, cauchemar ou rêve Les tchoins se couchent, les crosses se lèvent La juge a mon me-sper sur les lèvres Politique gros on les nique, suce ma eue-qu, c'est poétique Gros, ta go est squelettique, moi j'mange du bif, j'suis boulimique Comme Ivar, j'suis désossé, tous mes rêves sont exaucés Possédé, oh, c'est dead, gros, t'es choqué, t'restes plus qu'la OCB À la banque, j'suis VIP, c'est plus un compte, c'est un PIB Tout c'que j'ai, j'l'ai mérité, la go est bonne, j'vais la Harry Kane Ramène le chèque, j'vais l'parapher, pas d'relation tarifée T'as rêvé, j'suis comme le putain d'boule à Nicki Minaj j'suis refait Dans une cellule à l'étroit, j'fais mes preuves, faut pas les croire Faut r'tirer le doigt d'ton boule si tu veux nous pointer du doigt Mon rebeu You might also like Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat À ma rée-soi, t'es le bienvenu, mais laisse ton brelique à l'entrée Toi aussi, ma belle, t'es la bienvenue, mais laisse ton keu-mé à l'entrée Tu ken pas le premier soir, cé-su pas le premier soir Pourtant, ça fait des snap de putes et ça s'prend pour Mère Theresa Ils aimeraient me voir tomber, ils font des rumeurs à la con Trop tard, les gars, j'suis blindé, j'suis comme la voiture de Macron Quand j'ouvre les yeux le matin, j'suis toujours plus riche que la veille Quand t'ouvres les yeux le matin, tu t'fais sucer par ta vieille Fouiny Babe, Fouiny Babe J'ai une bombasse in my bed, j'ai une sse-lia sous my bed J'arrache tout, j'me barre au bled, y'a qu'des racistes là-dehors Quand t'es en chien, personne t'aide, il s'rait déjà ballon d'or s'il s'appelait pas Mohamed Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat1</t>
+          <t>Yah, yah Oster on the beat, watchout ! Watchout ! Eh yo Fouiny, donne leur le ton ! Wouh ! Eh yo c'est le retour de Banlieue Sale ma p'tite gueulance Premier League ! Wouh ! Let's go ! Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat Depuis tout p'tit, c'est marche ou crève, réussite, cauchemar ou rêve Les tchoins se couchent, les crosses se lèvent La juge a mon me-sper sur les lèvres Politique gros on les nique, suce ma eue-qu, c'est poétique Gros, ta go est squelettique, moi j'mange du bif, j'suis boulimique Comme Ivar, j'suis désossé, tous mes rêves sont exaucés Possédé, oh, c'est dead, gros, t'es choqué, t'restes plus qu'la OCB À la banque, j'suis VIP, c'est plus un compte, c'est un PIB Tout c'que j'ai, j'l'ai mérité, la go est bonne, j'vais la Harry Kane Ramène le chèque, j'vais l'parapher, pas d'relation tarifée T'as rêvé, j'suis comme le putain d'boule à Nicki Minaj j'suis refait Dans une cellule à l'étroit, j'fais mes preuves, faut pas les croire Faut r'tirer le doigt d'ton boule si tu veux nous pointer du doigt Mon rebeu Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat À ma rée-soi, t'es le bienvenu, mais laisse ton brelique à l'entrée Toi aussi, ma belle, t'es la bienvenue, mais laisse ton keu-mé à l'entrée Tu ken pas le premier soir, cé-su pas le premier soir Pourtant, ça fait des snap de putes et ça s'prend pour Mère Theresa Ils aimeraient me voir tomber, ils font des rumeurs à la con Trop tard, les gars, j'suis blindé, j'suis comme la voiture de Macron Quand j'ouvre les yeux le matin, j'suis toujours plus riche que la veille Quand t'ouvres les yeux le matin, tu t'fais sucer par ta vieille Fouiny Babe, Fouiny Babe J'ai une bombasse in my bed, j'ai une sse-lia sous my bed J'arrache tout, j'me barre au bled, y'a qu'des racistes là-dehors Quand t'es en chien, personne t'aide, il s'rait déjà ballon d'or s'il s'appelait pas Mohamed Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat Salah, Salah, Salah, Mohamed Salah, Salah, Salah Salah, Salah, Salah, Mohamed Salah, Salah, Salah Parlent de rue mais n'ont jamais touché une kalash, kalash D'main, j'arrête le pe-ra, j'me mets à la Salat, Salat1</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7 ans déjà, à trop vivre au passé Regarder devant moi, trop dur à assumer Marre de regarder là haut, éternellement blessé Et si je tombe, et si je tombe, trop peu pour me relever Yeah, en 7 ans j'me suis fait quelques fans En temps d'guerre tu perds souvent quelques frères d'armes J'ai fait le tour du monde, j'ai parcouru la planète J'ai fait comme tu m'as dit j'ai partagé mon assiette 7 ans c'est long, mais ça passe aussi vite qu'un parloir C'est sur le trône que j'irai m'asseoir J'entends des rumeurs, des gars veulent me tirer dessus Fais moi une place, j'irai peut-être te rejoindre plus tôt que prévu, amé Avec le temps, j'me suis fait quelques ennemis Avec l'argent, quelques amis Ma vie par la fenêtre, les bracos, les recettes Les studios, les répètes, les histoires se répètent 7 années ont passé, ici rien n'a changé Le quartier, les regrets, on mange toujours des que-gré Yeah, j'entends les guns se rapprocher, click click boum T'inquiète maman, j'arrive ComingSoon, Fouiny 7 ans déjà, à trop vivre au passé Regarder devant moi, trop dur à assumer Marre de regarder là haut, éternellement blessé Et si je tombe, et si je tombe, trop peu pour me relever You might also like J'me plains pas, y'en a qui meurent de faim Souvent j'fais plus la prière, je sens que je meurs de foi Fati' a grandi, elle te ressemble Jada t'a rejoint, j'espère que vous êtes ensemble Les soirs de Ramadan j'vais manger chez les re-fré Mais j'me cache aux toilettes pour pleurer en secret Y'a plus tes bons plats, maintenant c'est les que-gré Et puis j'marche souvent seul, car y'a trop d'te-trai J'aimais une fille pourtant je l'ai quittée Et j'ai besoin d'tes conseils, j'suis souvent mal guidé Plus les choses avances et plus je prend du recul J'suis dans ma bulle, et toutes les nuits j'rêve de remonter la pendule J'écris l'avenir avec les larmes d'hier Omi j'ai limpression que tu manques à la terre entière J'ai trop trimé pour être d'la partie Ils feront la première partie d'ma première partie, Fouiny 7 ans déjà, à trop vivre au passé Regarder devant moi, trop dur à assumer Marre de regarder là haut, éternellement blessé Et si je tombe, et si je tombe, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ils sont trop peu pour me relever A passer des nuits blanches, à attendre le jour se lever Je sais que de là-haut, tu veilles sur nous 7 ans ont passé, mais pas pour nous 7 ans déjà, à trop vivre au passé Regarder devant moi, trop dur à assumer Marre de regarder là haut, éternellement blessé Et si je tombe, et si je tombe, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ohh, ohhh, 7 ans déjà1</t>
+          <t>7 ans déjà, à trop vivre au passé Regarder devant moi, trop dur à assumer Marre de regarder là haut, éternellement blessé Et si je tombe, et si je tombe, trop peu pour me relever Yeah, en 7 ans j'me suis fait quelques fans En temps d'guerre tu perds souvent quelques frères d'armes J'ai fait le tour du monde, j'ai parcouru la planète J'ai fait comme tu m'as dit j'ai partagé mon assiette 7 ans c'est long, mais ça passe aussi vite qu'un parloir C'est sur le trône que j'irai m'asseoir J'entends des rumeurs, des gars veulent me tirer dessus Fais moi une place, j'irai peut-être te rejoindre plus tôt que prévu, amé Avec le temps, j'me suis fait quelques ennemis Avec l'argent, quelques amis Ma vie par la fenêtre, les bracos, les recettes Les studios, les répètes, les histoires se répètent 7 années ont passé, ici rien n'a changé Le quartier, les regrets, on mange toujours des que-gré Yeah, j'entends les guns se rapprocher, click click boum T'inquiète maman, j'arrive ComingSoon, Fouiny 7 ans déjà, à trop vivre au passé Regarder devant moi, trop dur à assumer Marre de regarder là haut, éternellement blessé Et si je tombe, et si je tombe, trop peu pour me relever J'me plains pas, y'en a qui meurent de faim Souvent j'fais plus la prière, je sens que je meurs de foi Fati' a grandi, elle te ressemble Jada t'a rejoint, j'espère que vous êtes ensemble Les soirs de Ramadan j'vais manger chez les re-fré Mais j'me cache aux toilettes pour pleurer en secret Y'a plus tes bons plats, maintenant c'est les que-gré Et puis j'marche souvent seul, car y'a trop d'te-trai J'aimais une fille pourtant je l'ai quittée Et j'ai besoin d'tes conseils, j'suis souvent mal guidé Plus les choses avances et plus je prend du recul J'suis dans ma bulle, et toutes les nuits j'rêve de remonter la pendule J'écris l'avenir avec les larmes d'hier Omi j'ai limpression que tu manques à la terre entière J'ai trop trimé pour être d'la partie Ils feront la première partie d'ma première partie, Fouiny 7 ans déjà, à trop vivre au passé Regarder devant moi, trop dur à assumer Marre de regarder là haut, éternellement blessé Et si je tombe, et si je tombe, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ils sont trop peu pour me relever A passer des nuits blanches, à attendre le jour se lever Je sais que de là-haut, tu veilles sur nous 7 ans ont passé, mais pas pour nous 7 ans déjà, à trop vivre au passé Regarder devant moi, trop dur à assumer Marre de regarder là haut, éternellement blessé Et si je tombe, et si je tombe, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ohh, ohhh, trop peu pour me relever Ohh, ohhh, 7 ans déjà1</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>La petite est chargée, mon phone est déchargé, ma kalash est chargée La petite est chargée comme un RS4 qui revient alourdi de Tanger La petite est chargée, dans le sac de sport on parle en tonne, y'a pas de 100g La petite est chargée, le brolique est chargé, couchez-vous, dégagez Écarte tes cuisses, j'aime trop boire à la bouteille, elle tape la C, Alice au pays des merveilles La go s'est retournée, elle est trop gée-char, elle a un de ces pétards, j'crois qu'j'vais rentrer tard Ma colocataire est trop bonne, je la change tous les jours comme Airbnb On sort les trucs, les têtes à têtes, c'est bel est bien fini comme le R'N'B Non khoya j'vais pas fourrer la même qu'hier, j'lui bouffe la teuch', elle mouille comme une serpillière Comme mes kho' de Bab El Oued j'suis trop fier, ratatata, tu finis sur une civière J'ai deux téléphones un pour ma go, un pour la tienne On fait du sale, ouais khoya car ça coule dans nos veines Les keufs me contrôlent, coup d'fil aux baveux La go est trop chaude, elle a le feu J'l'amène chez Dior, elle prend tout ce qu'elle veut Gros, la p'tite est chargée comme le feu La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée la petite, la petite La petite est comme mon gun, elle est chargée Mon réservoir et mon Philipp ont quelque chose en commun, gros demande à Patek Mes petits ne font pas de musculation, ils préfèrent te tirer dans les pecs La petite est gée-char, faut qu'j'reparte au bon-char La petite est gée-char, pour l'salaire à Motta on semait les motards Demande à Dixon, à Glenn ou bien Nelson, on a des noms cain-ri, tah les Jefferson Sur ma Audemars, j'attends que mon heure sonne, connu dans le monde entier, toi t'es personne J'roule trop d'pelle j'suis trilingue hein, mes diamants brillent comme le crâne à Krilin Soixante-dix-huit ça fini en six neuf, toi, ta meuf te trompe, t'es vilain Des millions, des millions, des millions, ma go est trop chargée, mon bord est trop mignon Des litrons, des litrons, des litrons, une cuillère, une seringue, un morceau de citron Quand tu galères pour avoir un feat, on peut appeler ça du CrossFit Trois, quatre, cinq, Mathu' de Belvedere, hein, négro j'vais prendre l'air You might also like La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée la petite, la petite La petite est comme mon gun, elle est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée la petite, la petite La petite est comme mon gun, elle est chargée Hey yo Fouiny La petite est chargée, la petite est convoquée La petite est validée, la petite est homologuée Gros, j'ai rentabilisé, la petite est chargée La petite est chargée La petite est chargée La petite est chargée La petite est chargée1</t>
+          <t>La petite est chargée, mon phone est déchargé, ma kalash est chargée La petite est chargée comme un RS4 qui revient alourdi de Tanger La petite est chargée, dans le sac de sport on parle en tonne, y'a pas de 100g La petite est chargée, le brolique est chargé, couchez-vous, dégagez Écarte tes cuisses, j'aime trop boire à la bouteille, elle tape la C, Alice au pays des merveilles La go s'est retournée, elle est trop gée-char, elle a un de ces pétards, j'crois qu'j'vais rentrer tard Ma colocataire est trop bonne, je la change tous les jours comme Airbnb On sort les trucs, les têtes à têtes, c'est bel est bien fini comme le R'N'B Non khoya j'vais pas fourrer la même qu'hier, j'lui bouffe la teuch', elle mouille comme une serpillière Comme mes kho' de Bab El Oued j'suis trop fier, ratatata, tu finis sur une civière J'ai deux téléphones un pour ma go, un pour la tienne On fait du sale, ouais khoya car ça coule dans nos veines Les keufs me contrôlent, coup d'fil aux baveux La go est trop chaude, elle a le feu J'l'amène chez Dior, elle prend tout ce qu'elle veut Gros, la p'tite est chargée comme le feu La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée la petite, la petite La petite est comme mon gun, elle est chargée Mon réservoir et mon Philipp ont quelque chose en commun, gros demande à Patek Mes petits ne font pas de musculation, ils préfèrent te tirer dans les pecs La petite est gée-char, faut qu'j'reparte au bon-char La petite est gée-char, pour l'salaire à Motta on semait les motards Demande à Dixon, à Glenn ou bien Nelson, on a des noms cain-ri, tah les Jefferson Sur ma Audemars, j'attends que mon heure sonne, connu dans le monde entier, toi t'es personne J'roule trop d'pelle j'suis trilingue hein, mes diamants brillent comme le crâne à Krilin Soixante-dix-huit ça fini en six neuf, toi, ta meuf te trompe, t'es vilain Des millions, des millions, des millions, ma go est trop chargée, mon bord est trop mignon Des litrons, des litrons, des litrons, une cuillère, une seringue, un morceau de citron Quand tu galères pour avoir un feat, on peut appeler ça du CrossFit Trois, quatre, cinq, Mathu' de Belvedere, hein, négro j'vais prendre l'air La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée la petite, la petite La petite est comme mon gun, elle est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée, petite est chargée, la go est chargée La petite est chargée la petite, la petite La petite est comme mon gun, elle est chargée Hey yo Fouiny La petite est chargée, la petite est convoquée La petite est validée, la petite est homologuée Gros, j'ai rentabilisé, la petite est chargée La petite est chargée La petite est chargée La petite est chargée La petite est chargée1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Les magnums sont juste derrière les ceintures H Skurt Fouiny Yeah yeah, yeah yeah Yeah, jai fait un rêve jles shootais tous, pas d'Fervex quand les guns toussent Ouais, renoi les temps sont bizarres, bicrave la dure oublie la drogue douce Ouais baise les Brunes, les Blondes et les Rousses, des barrettes de shit dans la trousse En tournée aux quatre coins du monde, ces renois s'sont tournés les pouces Jai fais du biff mesdames et messieurs, ma carrière nest pas de tout repos Jai tourné jai mangé chez eux au 5 bis Alexandre Turpault Et ouais reubeu jsuis pas de leur monde et ça gros ne loublie jamais Mes blessures sont à lintérieur, ouais juste derrière mon polo Chanel Élevé au tajine, au sombi, attieké, kefta et bissap Nan, nan, cest pas moi quai changé, ces bâtards sont devenus bizarres Tfaçon un jour tout se payera, on sdéfouraille pour un terrain Yesterday les keufs mont soulevé, javais limpression dêtre un R1 Ouais pas dmandat, très peu dcourrier, quun parloir le long de ma peine Aujourdhui sur mon répertoire, jai sûrement lnumber dta chienne Nan renoi sois pas goûte-dé, ouais que Dieu soit loué Ma voiture nest pas louée, mon pare-balles nest pas troué Paraît qutas bicrave quelques barrettes, ouais tu tes trouvé en zonz' Donc tu prépares ta maquette, mais sur lterrain tes pas dans les onze Et puis jvois pas pourquoi ils sla pètent, ils nont pas la médaille de bronze Les balances appellent le 17 et moi jme barre en 911 Parler pour parler à quoi ça sert reufré ? Et pourtant quand venait le moment dallumer Les bâtards engrainaient, les voitures ont freiné, les ratatatata, les daronnes affolées Rafale énervée, les balances ont craqué, confidences avouées, les condés défilaient Le terrain est miné les petits ont filé, enlevez vos sapes et venez les écrouer You might also like Chacun son rôle chacun sa merde, que Dieu soit loué Si on a lmonopole, cest quon est pas troués Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain Yeah, ils disent que jsuis Illuminati, ils ont tord mais bon jles comprends Plus javance plus ma monnaie grandit, Dieu pardonne mais Fouiny Babe nan Jai fait un rêve comme Martin Luther, banque de France jétais duper À cquil paraît tu mas pas vu, cest normal jétais ché-per Envoie les sous, fils de pute, arrête de tweeter, renoi, agis Mon son tourne dans toutes les prisons, comme les Kub Or Maggi Comme en Ukraine, le terrain brûle, madame la juge, on t'encule Brûle les draps les chauffes les PQ, CDC 4 dans ta cellule Ceinture H avec mon pote H, on pose les magnums sur les bles-ta Jcrois quta meuf est sur mes genoux, à en croire la gueule que tas Dans mon allemande jmangeais kefta, dans la boîte à gants jai dla peufra Et si les keufs me contrôlent, jcrois qujleur signerai un autographe Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain3</t>
+          <t>Les magnums sont juste derrière les ceintures H Skurt Fouiny Yeah yeah, yeah yeah Yeah, jai fait un rêve jles shootais tous, pas d'Fervex quand les guns toussent Ouais, renoi les temps sont bizarres, bicrave la dure oublie la drogue douce Ouais baise les Brunes, les Blondes et les Rousses, des barrettes de shit dans la trousse En tournée aux quatre coins du monde, ces renois s'sont tournés les pouces Jai fais du biff mesdames et messieurs, ma carrière nest pas de tout repos Jai tourné jai mangé chez eux au 5 bis Alexandre Turpault Et ouais reubeu jsuis pas de leur monde et ça gros ne loublie jamais Mes blessures sont à lintérieur, ouais juste derrière mon polo Chanel Élevé au tajine, au sombi, attieké, kefta et bissap Nan, nan, cest pas moi quai changé, ces bâtards sont devenus bizarres Tfaçon un jour tout se payera, on sdéfouraille pour un terrain Yesterday les keufs mont soulevé, javais limpression dêtre un R1 Ouais pas dmandat, très peu dcourrier, quun parloir le long de ma peine Aujourdhui sur mon répertoire, jai sûrement lnumber dta chienne Nan renoi sois pas goûte-dé, ouais que Dieu soit loué Ma voiture nest pas louée, mon pare-balles nest pas troué Paraît qutas bicrave quelques barrettes, ouais tu tes trouvé en zonz' Donc tu prépares ta maquette, mais sur lterrain tes pas dans les onze Et puis jvois pas pourquoi ils sla pètent, ils nont pas la médaille de bronze Les balances appellent le 17 et moi jme barre en 911 Parler pour parler à quoi ça sert reufré ? Et pourtant quand venait le moment dallumer Les bâtards engrainaient, les voitures ont freiné, les ratatatata, les daronnes affolées Rafale énervée, les balances ont craqué, confidences avouées, les condés défilaient Le terrain est miné les petits ont filé, enlevez vos sapes et venez les écrouer Chacun son rôle chacun sa merde, que Dieu soit loué Si on a lmonopole, cest quon est pas troués Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain Yeah, ils disent que jsuis Illuminati, ils ont tord mais bon jles comprends Plus javance plus ma monnaie grandit, Dieu pardonne mais Fouiny Babe nan Jai fait un rêve comme Martin Luther, banque de France jétais duper À cquil paraît tu mas pas vu, cest normal jétais ché-per Envoie les sous, fils de pute, arrête de tweeter, renoi, agis Mon son tourne dans toutes les prisons, comme les Kub Or Maggi Comme en Ukraine, le terrain brûle, madame la juge, on t'encule Brûle les draps les chauffes les PQ, CDC 4 dans ta cellule Ceinture H avec mon pote H, on pose les magnums sur les bles-ta Jcrois quta meuf est sur mes genoux, à en croire la gueule que tas Dans mon allemande jmangeais kefta, dans la boîte à gants jai dla peufra Et si les keufs me contrôlent, jcrois qujleur signerai un autographe Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain3</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Kilogra', kilogra', kilogrammes dans le coffre, on revient d'Ketama Kilomètres, kilomètres, kilomètres parcourus pour en arriver là Kalash braquée sur la tempe khoya la vie joue à pile ou face Au quartier j'étais bon qu'à vendre, j'étais distributeur comme Musicast Triste époque, triste époque où ces putains d'loux-ja parlent de tout c'qu'ils n'ont pas Les tits-pe font même plus du rap, chantent sur du ke-zou ou du Kizomba Soudoyer, soudoyer, soudoyer, dans ma poche gradés et surveillants Ils sont beaux Qu'à rapper, qu'à rapper, qu'à rapper mais devant tremblement, bégaiement Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites vite J'm'en bats les reins, bats les reins, bats les reins, parti de rien j'avais juste l'odo Galérien, galérien vise les sommets, un couteau planté dans l'dos Avec un flow pareil, j'suis farhan comme si j'avais gagné au Loto Et tous ces jaloux sont verts, le swagg à Piccolo Allumer, allumer, allumer, paraît qu'tes khos s'sont fait allumer Le rap c'est comme un frère au trou, ton associé il faut l'assumer Broliqués, broliqués, broliqués, et tout les tits-pe ont grandi Le juge ne m'a pas fait de fleur, à Bois d'Ar' ma haine a fleuri Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites vite Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites vite Terminé, terminé, terminé, le procureur t'a dit Terminus Déterminé, j'les ai exterminés, petit le trône est en cactus Favelas, surveille ton dos gamin ou tu finiras comme Jon Snow Les petits grandissent avec Snap, moi j'ai connu les parloirs fantômes 1 million, 2 millions, 3 millions, 10 millions, pour moi c'est jamais assez Rebellion, rebellion, rebellion, et les condés, gros, se font caillasser Sans pression, sans pression, sans pression mon avocat m'évite le bracelet Tu ferais mieux d'fermer ta bouche ou on va te terminer Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites vite Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites viteYou might also like4</t>
+          <t>Kilogra', kilogra', kilogrammes dans le coffre, on revient d'Ketama Kilomètres, kilomètres, kilomètres parcourus pour en arriver là Kalash braquée sur la tempe khoya la vie joue à pile ou face Au quartier j'étais bon qu'à vendre, j'étais distributeur comme Musicast Triste époque, triste époque où ces putains d'loux-ja parlent de tout c'qu'ils n'ont pas Les tits-pe font même plus du rap, chantent sur du ke-zou ou du Kizomba Soudoyer, soudoyer, soudoyer, dans ma poche gradés et surveillants Ils sont beaux Qu'à rapper, qu'à rapper, qu'à rapper mais devant tremblement, bégaiement Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites vite J'm'en bats les reins, bats les reins, bats les reins, parti de rien j'avais juste l'odo Galérien, galérien vise les sommets, un couteau planté dans l'dos Avec un flow pareil, j'suis farhan comme si j'avais gagné au Loto Et tous ces jaloux sont verts, le swagg à Piccolo Allumer, allumer, allumer, paraît qu'tes khos s'sont fait allumer Le rap c'est comme un frère au trou, ton associé il faut l'assumer Broliqués, broliqués, broliqués, et tout les tits-pe ont grandi Le juge ne m'a pas fait de fleur, à Bois d'Ar' ma haine a fleuri Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites vite Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites vite Terminé, terminé, terminé, le procureur t'a dit Terminus Déterminé, j'les ai exterminés, petit le trône est en cactus Favelas, surveille ton dos gamin ou tu finiras comme Jon Snow Les petits grandissent avec Snap, moi j'ai connu les parloirs fantômes 1 million, 2 millions, 3 millions, 10 millions, pour moi c'est jamais assez Rebellion, rebellion, rebellion, et les condés, gros, se font caillasser Sans pression, sans pression, sans pression mon avocat m'évite le bracelet Tu ferais mieux d'fermer ta bouche ou on va te terminer Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites vite Terminé, terminé, terminé, ton vieux banquier t'a dit Terminus J'laisse ma voiture au valet, moi qui galérais à l'arrêt d'bus Bats les couilles, bats les couilles, parti de rien, khoya j'suis né dans l'7-8 Vous voulez fumer Fouiny ? Pa ni pwoblem, les gars faites vite4</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Yeah, mets le son fallait que je vous dise un truc ce soir, approchez Quoi de neuf Laouni ? J'ai commencé en bas, essuyé échec après échec Fais des peines pleines, insignifiant comme un demi grec On avait les poches vides quand la S.T.Y nous coursait La prison est la dot quand la rue choisit de t'épouser Beauté intérieur, pour ça qu'la misère nous drague Souvent pour mettre les voiles, on confond les rails et les vagues J'aurais pu toucher la blanche, mais j'ai touché le ciel Oui elle nous a quitté mais son amour est éternel Si tu savais comme ils me haissent, ils aimeraient me voir flancher J'peux pas tomber plus bas frère, j'ai commencé sur le plancher Les navires s'éloignent et dans leurs cales pleins d'colombes Les blancs aiment le jazz demande à Christophe Colomb Et si j'pouvais changer ma vie, ben je n'y changerai rien On vient, on rit, on pleure, on meurt, on vit en galérien Balafré par la vie frérot tous les jours on saigne Cellule 308 maison d'arrêt des Haut-de-Seine Et si la vie n'est qu'un film on veut notre blase en gros lettrage Click click boom, ça peut s'finir en court métrage On a squatté les mitards, on rêvait de squatter Bercy On pissait sur la justice, les poches vides comme la vessie Banlieue dans mes récits, procureur se méfie Un beur dans la nature ça peut violer, pire plaire a mes filles Fuck les textes engagés, la rue m'a bien appris à compter 63 égal 6.3 AMG On s'est fait tirer dessus, la mort nous fait plus peur J'écris ce couplet poignets menottés au radiateur Petit sèche tes larmes, un jour tout sera fini Dans les quartiers sombres brillent les soleils de minuit You might also like Les Soleils de Minuit Les Soleils de Minuit Kamel, Naïma, Ilham Les Soleils de Minuit Samira, Adil, Hakim Les Soleils de Minuit A Ba, A Mi Les Soleils de Minuit Fatima Mouhid Les Soleils de Minuit Les Soleils de Minuit Les Soleils de Minuit Ces fumées que l'on émane-émane Minute de silence, messieurs, mesdames-mesdames C'est pour les soleils de minuit Dédiés aux étoiles qu'illuminent nos vies Ces fumées que l'on émane, émane Minute de silence, messieurs, mesdames-mesdames Avant que le ciel nous rattrape Donnez-moi la chance de les remercier1</t>
+          <t>Yeah, mets le son fallait que je vous dise un truc ce soir, approchez Quoi de neuf Laouni ? J'ai commencé en bas, essuyé échec après échec Fais des peines pleines, insignifiant comme un demi grec On avait les poches vides quand la S.T.Y nous coursait La prison est la dot quand la rue choisit de t'épouser Beauté intérieur, pour ça qu'la misère nous drague Souvent pour mettre les voiles, on confond les rails et les vagues J'aurais pu toucher la blanche, mais j'ai touché le ciel Oui elle nous a quitté mais son amour est éternel Si tu savais comme ils me haissent, ils aimeraient me voir flancher J'peux pas tomber plus bas frère, j'ai commencé sur le plancher Les navires s'éloignent et dans leurs cales pleins d'colombes Les blancs aiment le jazz demande à Christophe Colomb Et si j'pouvais changer ma vie, ben je n'y changerai rien On vient, on rit, on pleure, on meurt, on vit en galérien Balafré par la vie frérot tous les jours on saigne Cellule 308 maison d'arrêt des Haut-de-Seine Et si la vie n'est qu'un film on veut notre blase en gros lettrage Click click boom, ça peut s'finir en court métrage On a squatté les mitards, on rêvait de squatter Bercy On pissait sur la justice, les poches vides comme la vessie Banlieue dans mes récits, procureur se méfie Un beur dans la nature ça peut violer, pire plaire a mes filles Fuck les textes engagés, la rue m'a bien appris à compter 63 égal 6.3 AMG On s'est fait tirer dessus, la mort nous fait plus peur J'écris ce couplet poignets menottés au radiateur Petit sèche tes larmes, un jour tout sera fini Dans les quartiers sombres brillent les soleils de minuit Les Soleils de Minuit Les Soleils de Minuit Kamel, Naïma, Ilham Les Soleils de Minuit Samira, Adil, Hakim Les Soleils de Minuit A Ba, A Mi Les Soleils de Minuit Fatima Mouhid Les Soleils de Minuit Les Soleils de Minuit Les Soleils de Minuit Ces fumées que l'on émane-émane Minute de silence, messieurs, mesdames-mesdames C'est pour les soleils de minuit Dédiés aux étoiles qu'illuminent nos vies Ces fumées que l'on émane, émane Minute de silence, messieurs, mesdames-mesdames Avant que le ciel nous rattrape Donnez-moi la chance de les remercier1</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Yeah Fouiny Babe I got me Yeah Han Han Yeah ! J'ai marché dans la merde, j'vais marcher sur la moon J'ai sorti mon gun, Dany Boum On va t'niquer ta mère, tu l'as dans la shoun Allergique au MC's, atchoum Yeah, nique sa mère la hess, j'tiens le rap en laisse J'songe à fermer mon Twitter, tu veux ouvrir un Myspace Mes poches sont toujours mouillées, j'ai toujours du liquide Quand j'rentre chez Louis V, ma carte bleue n'est pas timide J'suis sur les Champs, l'air alléchant avec un putain d'hybride Aston Maze, Dj Rise-E navré le rap se suicide Tu veux violer l'pe-ra, t'as des capotes mêlées Ton swagg est sous scellé baggy Pelle Pelle J'écoute pas les gens, les batards haineux laisse les parler J'me rappelle qu'en cellule mineur bah j'avais pas la télé Dix ans plus tard au sommet, ces putains d'MC's m'imitent Seul au mitard, seul Casper avait le permis visite Laisse moi profiter, laisse les cogiter Au lit pas poli mon bolide solide on s'voit au JT L'argent est dur d'oreille donc j'parle avec des signes Le sourire de mon banquier du sang sur un insigne Yeah, j'aime les miss ébène me voilà, me voici Le rap francais s'entretue, moi j'baise les chiennes d'Entrevue Han I'm Not A Star ! Enfin si un peu Allume ta radio j'souffle sur le pe-ra Pfiou fais un vu Fais un vu mais rêve pas, j'peux rien pour ton flow A BS salope t'es comme Lunatic, Protège Ton Dos Protège ton dos, bas du dos, bois pas de l'eau Whisky Vodka sec, abdos, pecs, baise et le pe-ra perd les eaux You might also like Yeah ! J'ai marché dans la merde, j'vais marcher sur la moon J'ai sorti mon gun, Dany Boon On va t'niquer ta mère, tu l'as dans la shoun Allergique au MC's, atchoum2</t>
+          <t>Yeah Fouiny Babe I got me Yeah Han Han Yeah ! J'ai marché dans la merde, j'vais marcher sur la moon J'ai sorti mon gun, Dany Boum On va t'niquer ta mère, tu l'as dans la shoun Allergique au MC's, atchoum Yeah, nique sa mère la hess, j'tiens le rap en laisse J'songe à fermer mon Twitter, tu veux ouvrir un Myspace Mes poches sont toujours mouillées, j'ai toujours du liquide Quand j'rentre chez Louis V, ma carte bleue n'est pas timide J'suis sur les Champs, l'air alléchant avec un putain d'hybride Aston Maze, Dj Rise-E navré le rap se suicide Tu veux violer l'pe-ra, t'as des capotes mêlées Ton swagg est sous scellé baggy Pelle Pelle J'écoute pas les gens, les batards haineux laisse les parler J'me rappelle qu'en cellule mineur bah j'avais pas la télé Dix ans plus tard au sommet, ces putains d'MC's m'imitent Seul au mitard, seul Casper avait le permis visite Laisse moi profiter, laisse les cogiter Au lit pas poli mon bolide solide on s'voit au JT L'argent est dur d'oreille donc j'parle avec des signes Le sourire de mon banquier du sang sur un insigne Yeah, j'aime les miss ébène me voilà, me voici Le rap francais s'entretue, moi j'baise les chiennes d'Entrevue Han I'm Not A Star ! Enfin si un peu Allume ta radio j'souffle sur le pe-ra Pfiou fais un vu Fais un vu mais rêve pas, j'peux rien pour ton flow A BS salope t'es comme Lunatic, Protège Ton Dos Protège ton dos, bas du dos, bois pas de l'eau Whisky Vodka sec, abdos, pecs, baise et le pe-ra perd les eaux Yeah ! J'ai marché dans la merde, j'vais marcher sur la moon J'ai sorti mon gun, Dany Boon On va t'niquer ta mère, tu l'as dans la shoun Allergique au MC's, atchoum2</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Eh yo Dany, cnest quun petit couplet pour lHomme Un grand album pour lHumanité Quand tas rien, du coup, tas moins de khos Tas moins de parasites, autour, tas que tes vrais négros L'amitié visée, paralysée par de gros mythos Du coup, tu marches avec celui qui peut fourrer ta gow et, ça, ça devient normal Du coup, comment ne pas sisoler ? Peu dgens volait À ton secours, personne pour tépauler, tu m'en vois désolé Kho, kho, jcomprends qutu perdes patience, le doigt sur la gâchette T'es mon frérot devant les gens, mais pourquoi tu mniques en cachette ? Tu sers à rien Ils marchent par intérêt Quand lamour, la haine sen mêlent Quand l'amour, la haine s'en mêlent Ils marchent par intérêt Quand lamour, la haine sen mêlent Plus rien nest, plus rien nest pareil Combien dpotos 'chaient-mar' avec toi, gros, par intérêt ? Combien dmichtonneuses accrochées à ton bras par intérêt ? Toi, tu comprends pas car tu n'fonctionnes pas par intérêt Ouais, jusquà ta mort et, là, ya plus personne pour tenterrer Petit, tas du buzz, donc ils te checkent tous par intérêt Tes parents sont friqués, donc les gars sont là par intérêt Un jour, tu fais lbilan, tu vois qui fonctionne par intérêt Tu vois qutes intérêts, et tu trouves des potos par intérim Hm, juste par intérêt Hun, juste par intérêt Hm, juste par intérêt Hun, juste par intérêt Attends, attends, coupe le son Ils fonctionnent par intérêt, tu fais du bif, ils sintéressent La Mercedes, il fait ses preuves, il sest fait plais, mais, dis-moi Tu négliges, khoya, qu'est-c'quil spasse ? Il fait du cash, il fait du bif' le dernier dla classe Ça parle en sapes, en marchandises, la rue laisse des traces Jai pas percé pour le showbiz, les paillettes, les strasses Même si jaime ça, les bitches aiment les footeux, l'échec aime les rageux Les petits kiffent mes couplets, moi, jsuis fier dêtre un Rebeu Et jsuis seul au monde comme Corneille, né un 25 décembre Jai jamais donné dconseils, jai toujours servi dexemple et jfais rien par intérêt Ils marchent par intérêt Quand lamour, la haine sen mêlent Quand l'amour, la haine s'en mêlent Ils marchent par intérêt Quand lamour, la haine sen mêlent Plus rien nest, plus rien nest pareil Combien dpotos 'chaient-mar' avec toi, gros, par intérêt ? Combien dmichtonneuses accrochées à ton bras par intérêt ? Toi, tu comprends pas car tu n'fonctionnes pas par intérêt Ouais, jusquà ta mort et, là, ya plus personne pour tenterrer Petit, tas du buzz, donc ils te checkent tous par intérêt Tes parents sont friqués, donc les gars sont là par intérêt Un jour, tu fais lbilan, tu vois qui fonctionne par intérêt Tu vois qutes intérêts, et tu trouves des potos par intérim Hm, juste par intérêt Hun, juste par intérêt Hm, juste par intérêt Hun, juste par intérêt Moi, jai jamais fonctionné par intérêt, intérêt Jai un baveux pour défendre mes intérêts, intérêts Parle-moi pas si tes là pour tes intérêts, intérêts Ma belle, est-ce que tu maimes pour tes intérêts, intérêts ? Moi, jai jamais fonctionné par intérêt, intérêt Jai un baveux pour défendre mes intérêts, intérêts Parle-moi pas si tes là pour tes intérêts, intérêts Ma belle, est-ce que tu maimes pour tes intérêts, intérêts ? Moi, jai jamais fonctionné par intérêt, intérêt Jai un baveux pour défendre mes intérêts, intérêts Parle-moi pas si tes là pour tes intérêts, intérêts Ma belle, est-ce que tu maimes pour tes intérêts, intérêts ? Ils marchent par intérêt Quand lamour, la haine sen mêlent Quand l'amour, la haine s'en mêlent Ils marchent par intérêt Quand lamour, la haine sen mêlent Plus rien nest, plus rien nest pareil Ils marchent par intérêt Ils marchent par intérêtYou might also like5</t>
+          <t>Eh yo Dany, cnest quun petit couplet pour lHomme Un grand album pour lHumanité Quand tas rien, du coup, tas moins de khos Tas moins de parasites, autour, tas que tes vrais négros L'amitié visée, paralysée par de gros mythos Du coup, tu marches avec celui qui peut fourrer ta gow et, ça, ça devient normal Du coup, comment ne pas sisoler ? Peu dgens volait À ton secours, personne pour tépauler, tu m'en vois désolé Kho, kho, jcomprends qutu perdes patience, le doigt sur la gâchette T'es mon frérot devant les gens, mais pourquoi tu mniques en cachette ? Tu sers à rien Ils marchent par intérêt Quand lamour, la haine sen mêlent Quand l'amour, la haine s'en mêlent Ils marchent par intérêt Quand lamour, la haine sen mêlent Plus rien nest, plus rien nest pareil Combien dpotos 'chaient-mar' avec toi, gros, par intérêt ? Combien dmichtonneuses accrochées à ton bras par intérêt ? Toi, tu comprends pas car tu n'fonctionnes pas par intérêt Ouais, jusquà ta mort et, là, ya plus personne pour tenterrer Petit, tas du buzz, donc ils te checkent tous par intérêt Tes parents sont friqués, donc les gars sont là par intérêt Un jour, tu fais lbilan, tu vois qui fonctionne par intérêt Tu vois qutes intérêts, et tu trouves des potos par intérim Hm, juste par intérêt Hun, juste par intérêt Hm, juste par intérêt Hun, juste par intérêt Attends, attends, coupe le son Ils fonctionnent par intérêt, tu fais du bif, ils sintéressent La Mercedes, il fait ses preuves, il sest fait plais, mais, dis-moi Tu négliges, khoya, qu'est-c'quil spasse ? Il fait du cash, il fait du bif' le dernier dla classe Ça parle en sapes, en marchandises, la rue laisse des traces Jai pas percé pour le showbiz, les paillettes, les strasses Même si jaime ça, les bitches aiment les footeux, l'échec aime les rageux Les petits kiffent mes couplets, moi, jsuis fier dêtre un Rebeu Et jsuis seul au monde comme Corneille, né un 25 décembre Jai jamais donné dconseils, jai toujours servi dexemple et jfais rien par intérêt Ils marchent par intérêt Quand lamour, la haine sen mêlent Quand l'amour, la haine s'en mêlent Ils marchent par intérêt Quand lamour, la haine sen mêlent Plus rien nest, plus rien nest pareil Combien dpotos 'chaient-mar' avec toi, gros, par intérêt ? Combien dmichtonneuses accrochées à ton bras par intérêt ? Toi, tu comprends pas car tu n'fonctionnes pas par intérêt Ouais, jusquà ta mort et, là, ya plus personne pour tenterrer Petit, tas du buzz, donc ils te checkent tous par intérêt Tes parents sont friqués, donc les gars sont là par intérêt Un jour, tu fais lbilan, tu vois qui fonctionne par intérêt Tu vois qutes intérêts, et tu trouves des potos par intérim Hm, juste par intérêt Hun, juste par intérêt Hm, juste par intérêt Hun, juste par intérêt Moi, jai jamais fonctionné par intérêt, intérêt Jai un baveux pour défendre mes intérêts, intérêts Parle-moi pas si tes là pour tes intérêts, intérêts Ma belle, est-ce que tu maimes pour tes intérêts, intérêts ? Moi, jai jamais fonctionné par intérêt, intérêt Jai un baveux pour défendre mes intérêts, intérêts Parle-moi pas si tes là pour tes intérêts, intérêts Ma belle, est-ce que tu maimes pour tes intérêts, intérêts ? Moi, jai jamais fonctionné par intérêt, intérêt Jai un baveux pour défendre mes intérêts, intérêts Parle-moi pas si tes là pour tes intérêts, intérêts Ma belle, est-ce que tu maimes pour tes intérêts, intérêts ? Ils marchent par intérêt Quand lamour, la haine sen mêlent Quand l'amour, la haine s'en mêlent Ils marchent par intérêt Quand lamour, la haine sen mêlent Plus rien nest, plus rien nest pareil Ils marchent par intérêt Ils marchent par intérêt5</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler On balance pas, comme Gustavo, on est des bandits Jai mon groupe sanguin sur mon iPhone au cas où ça rer-ti Fuck tes cartes postales, tes cartes de vux, jai ma carte crédit On a carte blanche avec ta go, on la fait jouir Pars en couille, mon esprit, comme Express D Jenterre mon blé, jsais plus où il est comme à Medelin Fouiny babe, babe Fouiny, ton gamos brille Elle est pendue à mes yeuks lindustrie Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale You might also like Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Tu sais pas ttaper dans un ascenseur, tes comme Jay-Z Billets violets, et jmets des heures à faire le tri Ils parlent de moi, tout ça pour être célèbres jalousie On sait où tes, tu sais toujours où jsuis jacuzzi Menottés, on sprend des baffes parcquon nie Jentends ma mère mappeler par la fenêtre Aji Laouni Ils ont la haine et jsuis dans lviseur dleur putain dfusil À Paname gros tu sers à rien tes comme Lavezzi Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler2</t>
+          <t>Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler On balance pas, comme Gustavo, on est des bandits Jai mon groupe sanguin sur mon iPhone au cas où ça rer-ti Fuck tes cartes postales, tes cartes de vux, jai ma carte crédit On a carte blanche avec ta go, on la fait jouir Pars en couille, mon esprit, comme Express D Jenterre mon blé, jsais plus où il est comme à Medelin Fouiny babe, babe Fouiny, ton gamos brille Elle est pendue à mes yeuks lindustrie Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Tu sais pas ttaper dans un ascenseur, tes comme Jay-Z Billets violets, et jmets des heures à faire le tri Ils parlent de moi, tout ça pour être célèbres jalousie On sait où tes, tu sais toujours où jsuis jacuzzi Menottés, on sprend des baffes parcquon nie Jentends ma mère mappeler par la fenêtre Aji Laouni Ils ont la haine et jsuis dans lviseur dleur putain dfusil À Paname gros tu sers à rien tes comme Lavezzi Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Toute ma vie jai fait largent sale, fais la-fais largent sale Fais largent sale, fais la-fais largent sale Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler Sale gosse, tout lmonde a besoin dun boss Quand jdéboule en Porsche, cquil y a dans lcompte pas besoin den parler2</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Concerts après concerts, je reste le même Peu importe, je fais les mêmes rêves qu'hier Et même si le succès me brûle mes ailes Je sais que quelqu'un m'attend au ciel Dites au pilote d'orienter l'avion vers la Mecque, j'vais faire la salat Normal que j'suis pas baraque, y'avait rien à graille à la baraque Parait qu'ils parlent dans mon dos, j'entends rien j'suis dans mon condo La-haut il pleut des balles, les khos gardez bien la tête sous l'eau Les rêves s'arrêtent là où les gardes à vue commencent Une balance reste une balance, un jour ça recommence Les meilleurs s'en vont les premiers mais j'suis toujours là Une fois dans la merde, tu verras qui sera toujours là Sometimes I could cry, from the memories of you But I keep it inside, I just really miss you I know there will come a time, when I get to see you again We live, we die, we love Live, we die, we love L'ascenseur puait la pisse, ma voiture sent le neuf Et ouais, j'ai pas changé majeur en l'air contre les keufs C'est les surs qui portent le voile que les keufs veulent dévisager Normal que les frères me tiennent au courant ils se font fait taser Ils veulent qu'on tombe, mais nos familles au bled égorgent des moutons On renvoie l'ascenseur, mais ils ne savent pas appuyer sur le bouton J'profite et j'fous la vie en cloque Certaines histoires se finissent avec un Glock J'tournais en promenade, j'avais du mal avec le français On se revoit quinze ans plus tard sur la promenade des Anglais Les meilleurs s'en vont les premiers pourtant j'suis toujours là Une fois dans la merde, tu verras qui sera toujours là You might also like Certains jaloux ouvrent leur gueule rebeu, mais faut les laisser Parfois pour commencer à vivre, faut être victime d'un décès Ou bien les blesser renoi, fait attention Il n'y qu'un pas entre notre relation et réanimation Du mal, du bien, Banlieue Sale, CDC Quand le bon Dieu t'appelle, tu paies le h'ram TTC Ouvrir les portes avec des clefs de bras, gros C'est toujours Fouiny Babe et Maybach O' Sometimes I could cry, from the memories of you But I keep it inside, I just really miss you We love, we die, we love1</t>
+          <t>Concerts après concerts, je reste le même Peu importe, je fais les mêmes rêves qu'hier Et même si le succès me brûle mes ailes Je sais que quelqu'un m'attend au ciel Dites au pilote d'orienter l'avion vers la Mecque, j'vais faire la salat Normal que j'suis pas baraque, y'avait rien à graille à la baraque Parait qu'ils parlent dans mon dos, j'entends rien j'suis dans mon condo La-haut il pleut des balles, les khos gardez bien la tête sous l'eau Les rêves s'arrêtent là où les gardes à vue commencent Une balance reste une balance, un jour ça recommence Les meilleurs s'en vont les premiers mais j'suis toujours là Une fois dans la merde, tu verras qui sera toujours là Sometimes I could cry, from the memories of you But I keep it inside, I just really miss you I know there will come a time, when I get to see you again We live, we die, we love Live, we die, we love L'ascenseur puait la pisse, ma voiture sent le neuf Et ouais, j'ai pas changé majeur en l'air contre les keufs C'est les surs qui portent le voile que les keufs veulent dévisager Normal que les frères me tiennent au courant ils se font fait taser Ils veulent qu'on tombe, mais nos familles au bled égorgent des moutons On renvoie l'ascenseur, mais ils ne savent pas appuyer sur le bouton J'profite et j'fous la vie en cloque Certaines histoires se finissent avec un Glock J'tournais en promenade, j'avais du mal avec le français On se revoit quinze ans plus tard sur la promenade des Anglais Les meilleurs s'en vont les premiers pourtant j'suis toujours là Une fois dans la merde, tu verras qui sera toujours là Certains jaloux ouvrent leur gueule rebeu, mais faut les laisser Parfois pour commencer à vivre, faut être victime d'un décès Ou bien les blesser renoi, fait attention Il n'y qu'un pas entre notre relation et réanimation Du mal, du bien, Banlieue Sale, CDC Quand le bon Dieu t'appelle, tu paies le h'ram TTC Ouvrir les portes avec des clefs de bras, gros C'est toujours Fouiny Babe et Maybach O' Sometimes I could cry, from the memories of you But I keep it inside, I just really miss you We love, we die, we love1</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Yeaaah ! Quoi de neuf Louis Babe ? Gucci Sale Music Hey ! Hey ! Hey ! Hey ! Yeah !! Yeah ! Jarrive en grosse berline neuve Courez, courez, courez, les rappeurs font ce quils peuvent Nique sa mère la BAC combien de fois jai fini au gnouf Tu dis que de la merde, je crois que tes un peu Bip comme Gourcuff On a commencé en bas pour un jour finir en haut Ton rap est comme la barquette, apprécié par tous les corbeaux Magnum de champagne, on boit à ta santé On sort de chez Gucci, bsahtek le sundae Suis moi dans ma chambre, tu me connais jsuis stylé Fouiny Fouiny Babe j'ai rendu Haram le filet Yeah ! Les mauvais garçons sont là ! Comme Jamel on na aucune chance alors saisissons-la ! Nigga Tu veux du hardcore ? Ok khouya Comme dirait Rozay Allelujah Mon rap tue lève le doigt en lair Jattire les haineux ouais la putain de sa mère Les poucaves on leur crache un molard Jaime les arbias, les arboulas Tu veux du hardcore ? Ok khouya Comme dirait Rozay Allelujah You might also like Je pé-ra les mains dans les poches, les mains dans tes poches Gamos 2011 j'démarre la clé dans la poche Jprépare un classique genre Stan Smith Qui prépare le clip ?! Glenn, Glenn Smith ! Jai dû traverser toutes ces putains dépreuves Quil neige, pleuve, jai les bras tendus comme une pieuvre Tu veux gouter la vie ? Le Diable est le traiteur Un procureur qui sourit, cest une daronne qui pleure Jai shooté la lune, jai touché une étoile On ira tous au ciel, la vie nest quune escale La prison ça s'oublie pas frère, cest comme le vélo Or noir, or jaune yeah blacknyellow A piétiner tes rêves, les semelles abîmées Jai vu des frères en manque percer le sablier Jai pas vu le temps filer, si les menottes se serrent Ma tête tourne à lenvers et jespère Quoi de neuf neuf Fouiny Babe ? Tu veux du hardcore ? Ok khouya Comme dirait Rozay Allelujah Mon rap tue lève le doigt en lair Jattire les haineux ouais la putain de sa mère Les poucaves on leur crache un molard Jaime les arbias, les arboulas Tu veux du hardcore ? Ok khouya Comme dirait Rozay Allelujah Comme dirait Fouiny Babe Hamdoulilah Toute léquipe est là, Banlieue Sale porkella Cest Fouiny Baby, Gucci, Watch et Maserati Sur le pavé Louis V, on sort de taule et cest reparti Au sud, à lest, à louest et chez mes gars du nord Jpréfère être un bon vivant quun mauvais mort Comme dirait Rosey Allelouya Ici cest Fouiny Baby, allez ris-Pa Petite y a plus de love jefface ton numéro Ici Juliette sest fait doigtée par Roméo Le ciel est gris, les oiseaux ne chantent plus Largent ne fait pas le bonheur, la misère non plus A piétiner tes rêves, les semelles abîmées Jai vu des frères en manque percer le sablier Jai pas vu le temps filer, si les menottes se serrent Ma tête tourne à lenvers et jespère Quoi de neuf neuf Fouiny Babe ?2</t>
+          <t>Yeaaah ! Quoi de neuf Louis Babe ? Gucci Sale Music Hey ! Hey ! Hey ! Hey ! Yeah !! Yeah ! Jarrive en grosse berline neuve Courez, courez, courez, les rappeurs font ce quils peuvent Nique sa mère la BAC combien de fois jai fini au gnouf Tu dis que de la merde, je crois que tes un peu Bip comme Gourcuff On a commencé en bas pour un jour finir en haut Ton rap est comme la barquette, apprécié par tous les corbeaux Magnum de champagne, on boit à ta santé On sort de chez Gucci, bsahtek le sundae Suis moi dans ma chambre, tu me connais jsuis stylé Fouiny Fouiny Babe j'ai rendu Haram le filet Yeah ! Les mauvais garçons sont là ! Comme Jamel on na aucune chance alors saisissons-la ! Nigga Tu veux du hardcore ? Ok khouya Comme dirait Rozay Allelujah Mon rap tue lève le doigt en lair Jattire les haineux ouais la putain de sa mère Les poucaves on leur crache un molard Jaime les arbias, les arboulas Tu veux du hardcore ? Ok khouya Comme dirait Rozay Allelujah Je pé-ra les mains dans les poches, les mains dans tes poches Gamos 2011 j'démarre la clé dans la poche Jprépare un classique genre Stan Smith Qui prépare le clip ?! Glenn, Glenn Smith ! Jai dû traverser toutes ces putains dépreuves Quil neige, pleuve, jai les bras tendus comme une pieuvre Tu veux gouter la vie ? Le Diable est le traiteur Un procureur qui sourit, cest une daronne qui pleure Jai shooté la lune, jai touché une étoile On ira tous au ciel, la vie nest quune escale La prison ça s'oublie pas frère, cest comme le vélo Or noir, or jaune yeah blacknyellow A piétiner tes rêves, les semelles abîmées Jai vu des frères en manque percer le sablier Jai pas vu le temps filer, si les menottes se serrent Ma tête tourne à lenvers et jespère Quoi de neuf neuf Fouiny Babe ? Tu veux du hardcore ? Ok khouya Comme dirait Rozay Allelujah Mon rap tue lève le doigt en lair Jattire les haineux ouais la putain de sa mère Les poucaves on leur crache un molard Jaime les arbias, les arboulas Tu veux du hardcore ? Ok khouya Comme dirait Rozay Allelujah Comme dirait Fouiny Babe Hamdoulilah Toute léquipe est là, Banlieue Sale porkella Cest Fouiny Baby, Gucci, Watch et Maserati Sur le pavé Louis V, on sort de taule et cest reparti Au sud, à lest, à louest et chez mes gars du nord Jpréfère être un bon vivant quun mauvais mort Comme dirait Rosey Allelouya Ici cest Fouiny Baby, allez ris-Pa Petite y a plus de love jefface ton numéro Ici Juliette sest fait doigtée par Roméo Le ciel est gris, les oiseaux ne chantent plus Largent ne fait pas le bonheur, la misère non plus A piétiner tes rêves, les semelles abîmées Jai vu des frères en manque percer le sablier Jai pas vu le temps filer, si les menottes se serrent Ma tête tourne à lenvers et jespère Quoi de neuf neuf Fouiny Babe ?2</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Yeah, nique sa mère, personne me donne à manger J'ai quelque putes à qui je donne à manger Banlieue Sale, Sartrouville, Trappes, Elancourt, Les Mureaux Pose le blé sur la table, les entretiens s'font sous l'bureau J'ai le hardcore le plus commercial J'ai tellement d'putes dans le V12 que j'me fait doubler par des Peugeot, sale Demande à E-Rise ou Doc Ness J'prends pas l'avion pourtant j'baise tous les jours de belles hôtesses Y a d'l'unité, de l'unité La main sur le volant je traîne sûrement ta pétasse que je què-n Et je sais que t'essaies De voir quelle heure il est sur ma Audemars Piguet Rien qu'un One Shot, cause I love you Toi et moi c'est pas difficile On le f'ra en One shot, c'est juste entre nous Baby juste un pas vers moi, laisse ma voix t'emporter Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Yeah, il t'reste un peu d'sperme sur le cil Trop d'chattes balafrées, ma bite a la tête à Seal Haha, un bon bloc et j'reviens de Hollande J'rêve que j'me fait sucer par Sonia Rolland Yeah, j'réchauffe le rap, pose dans un micro-onde Et dans mes cauchemars, j'ai l'flow à Def Bond Tester mes ni-ni-niggas c'est pour les vrais khos Rentre pas dans nos soirées avec ta gueule à 20 euros Yeah, lèche-moi les doigts que j'puisse compter mes billets sales Et me d'mande d'te baiser, bitch, t'as pas vu l'heure qu'il est Yeah, lèche moi la bite ici c'est Banlieue Sale Et me d'mande pas le nom d'un pote, t'auras qu'une vieille capote usagée, yeah You might also like Rien qu'un One Shot, cause I love you Toi et moi c'est pas difficile On le f'ra en One shot, c'est juste entre nous Baby juste un pas vers moi, laisse ma voix t'emporter Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Yeah, yeah, c'est Banlieue Sale, le flow est sale et viens pas test Quand ta fille kiffe, mamy déteste et pour le reste, c'est what's up Fouiny Baby Yeah, on sait comment on fait laisse les bouffer des chattes On bouffe du mafé c'est what's up Fouiny Baby Yeah, ils savent comment on fait, ils savent comment on fait Fouiny Baby What's up Fouiny Baby ? Yeah, ils savent comment on fait, on sait comment on fait Rickwel, Rise-E What's up Fouiny Baby ?</t>
+          <t>Yeah, nique sa mère, personne me donne à manger J'ai quelque putes à qui je donne à manger Banlieue Sale, Sartrouville, Trappes, Elancourt, Les Mureaux Pose le blé sur la table, les entretiens s'font sous l'bureau J'ai le hardcore le plus commercial J'ai tellement d'putes dans le V12 que j'me fait doubler par des Peugeot, sale Demande à E-Rise ou Doc Ness J'prends pas l'avion pourtant j'baise tous les jours de belles hôtesses Y a d'l'unité, de l'unité La main sur le volant je traîne sûrement ta pétasse que je què-n Et je sais que t'essaies De voir quelle heure il est sur ma Audemars Piguet Rien qu'un One Shot, cause I love you Toi et moi c'est pas difficile On le f'ra en One shot, c'est juste entre nous Baby juste un pas vers moi, laisse ma voix t'emporter Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Yeah, il t'reste un peu d'sperme sur le cil Trop d'chattes balafrées, ma bite a la tête à Seal Haha, un bon bloc et j'reviens de Hollande J'rêve que j'me fait sucer par Sonia Rolland Yeah, j'réchauffe le rap, pose dans un micro-onde Et dans mes cauchemars, j'ai l'flow à Def Bond Tester mes ni-ni-niggas c'est pour les vrais khos Rentre pas dans nos soirées avec ta gueule à 20 euros Yeah, lèche-moi les doigts que j'puisse compter mes billets sales Et me d'mande d'te baiser, bitch, t'as pas vu l'heure qu'il est Yeah, lèche moi la bite ici c'est Banlieue Sale Et me d'mande pas le nom d'un pote, t'auras qu'une vieille capote usagée, yeah Rien qu'un One Shot, cause I love you Toi et moi c'est pas difficile On le f'ra en One shot, c'est juste entre nous Baby juste un pas vers moi, laisse ma voix t'emporter Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Demande-leur qui on est, ils savent comment on fait What's up Fouiny Baby ? Yeah, yeah, c'est Banlieue Sale, le flow est sale et viens pas test Quand ta fille kiffe, mamy déteste et pour le reste, c'est what's up Fouiny Baby Yeah, on sait comment on fait laisse les bouffer des chattes On bouffe du mafé c'est what's up Fouiny Baby Yeah, ils savent comment on fait, ils savent comment on fait Fouiny Baby What's up Fouiny Baby ? Yeah, ils savent comment on fait, on sait comment on fait Rickwel, Rise-E What's up Fouiny Baby ?</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ban-banlieue Sale, Ha-hall F, j'sors du poste, kiffe mon couplet Devant la te-boî garé, ta femeu kiffe mon coupé Parait qu'tu pe-ra que t'es partout, moi je vois pas où t'es À l'écoute de l'album ta grand-mère va être outrée Les fumer fallait, Vip dans les palais Difficile de rapper avec une bite sur le palais RS4 nickel, 6.3 M L Tôt ou tard ils kifferont Fouiny Babe, ces fils de zamels, zamels Frérot j'ai de la bonne, prends en pas trop ça rend malade J'kiffe les hôtels, les bitch, j'kiffe Rama Yade J'ai grandi dans la merde, le porte-feuille de mauvaise humeur T'as pu me voir dans le 16ème avec un pocheton et de la sueur Yeah, avec un pocheton et de la sueur Dans le rap j'ai trop d'avance, ils me suivent que sur Twitter Sortez les K.X, les R.M, la chatte à leurs reums J'faisais ma loi avec un gun et un gros verre de rhum Yeah, à l'aise dans ma cellule et ça les dérange Le rap pue la merde, j'ai brulé quelques peaux d'oranges Veulent faire la révolution, on-on veut faire des lovés Sur la route du succès ils-ils roulent les pneus crevés Et c'est pas un secret, un jour on va les crever Mon-mon problème, c'est la bouteille, les glaçons, des rres-ve Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, la bouteille, les glaçons, les rres-ve You might also like Autour de ma Mathusalem, trop de Mathuzamels T'as un flow banal, t'as un flow anal Ton album dans le canal, quand on rappe, t'as mal Ouais ta meuf se couche pourtant y a pas de rafales Rrrrrraaaaah, Founy Baby, Ché Guevara On a bouffé la tcheké, paré pour t'niquer ta race Yeah, pour vendre de la C, ouais on a séché les cours Ta meuf s'en fout des Beatles, elle aime les bites tout court Yeah, ton flow est mort pourtant tu rappes toujours Tout le monde croit que t'es en vie tah les 2Pac Shakur Sénégal, Maroc, Algérie, Congo, Mali Sur le beat mon flow glisse, Surya Bonaly Je suis dans les soirées huppées, dans les soirées coupe-gorge Le pe-ra est dead et t'as l'alibi à Guy Georges Yeah, ba-barbichette sur le menton Mon Louis Vuitton vient de Pluton Louis Babe Veulent faire la révolution, on-on veut faire des lovés Sur la route du succès ils-ils roulent les pneus crevés Et c'est pas un secret, un jour on va les crever Mon-mon problème, c'est la bouteille, les glaçons, des rres-ve Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, la bouteille, les glaçons, les rres-ve Yeah, y'a que la prison qui peut m'sauver des meufs C'matin j'fume un oinj, ce soir j'fume un keuf Mon reuf, demande à cette pute de Miss France J'dis rien devant la juge pour ça que tous mes complices dansent Mathusalem sur la table, dis bonjour aux clitos Les rappeurs sont des mythos, dans leur slip ont du Pépito Banlieue Sale Banlieue Sale, Banlieue Ouest Banlieue Ouest J'avais pas de quoi m'acheter un pull quand le peu-ra retournait sa veste Mathusalem1</t>
+          <t>Ban-banlieue Sale, Ha-hall F, j'sors du poste, kiffe mon couplet Devant la te-boî garé, ta femeu kiffe mon coupé Parait qu'tu pe-ra que t'es partout, moi je vois pas où t'es À l'écoute de l'album ta grand-mère va être outrée Les fumer fallait, Vip dans les palais Difficile de rapper avec une bite sur le palais RS4 nickel, 6.3 M L Tôt ou tard ils kifferont Fouiny Babe, ces fils de zamels, zamels Frérot j'ai de la bonne, prends en pas trop ça rend malade J'kiffe les hôtels, les bitch, j'kiffe Rama Yade J'ai grandi dans la merde, le porte-feuille de mauvaise humeur T'as pu me voir dans le 16ème avec un pocheton et de la sueur Yeah, avec un pocheton et de la sueur Dans le rap j'ai trop d'avance, ils me suivent que sur Twitter Sortez les K.X, les R.M, la chatte à leurs reums J'faisais ma loi avec un gun et un gros verre de rhum Yeah, à l'aise dans ma cellule et ça les dérange Le rap pue la merde, j'ai brulé quelques peaux d'oranges Veulent faire la révolution, on-on veut faire des lovés Sur la route du succès ils-ils roulent les pneus crevés Et c'est pas un secret, un jour on va les crever Mon-mon problème, c'est la bouteille, les glaçons, des rres-ve Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, la bouteille, les glaçons, les rres-ve Autour de ma Mathusalem, trop de Mathuzamels T'as un flow banal, t'as un flow anal Ton album dans le canal, quand on rappe, t'as mal Ouais ta meuf se couche pourtant y a pas de rafales Rrrrrraaaaah, Founy Baby, Ché Guevara On a bouffé la tcheké, paré pour t'niquer ta race Yeah, pour vendre de la C, ouais on a séché les cours Ta meuf s'en fout des Beatles, elle aime les bites tout court Yeah, ton flow est mort pourtant tu rappes toujours Tout le monde croit que t'es en vie tah les 2Pac Shakur Sénégal, Maroc, Algérie, Congo, Mali Sur le beat mon flow glisse, Surya Bonaly Je suis dans les soirées huppées, dans les soirées coupe-gorge Le pe-ra est dead et t'as l'alibi à Guy Georges Yeah, ba-barbichette sur le menton Mon Louis Vuitton vient de Pluton Louis Babe Veulent faire la révolution, on-on veut faire des lovés Sur la route du succès ils-ils roulent les pneus crevés Et c'est pas un secret, un jour on va les crever Mon-mon problème, c'est la bouteille, les glaçons, des rres-ve Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, Mathusalem, Mathusalem, Mathusalem Mathusalem, la bouteille, les glaçons, les rres-ve Yeah, y'a que la prison qui peut m'sauver des meufs C'matin j'fume un oinj, ce soir j'fume un keuf Mon reuf, demande à cette pute de Miss France J'dis rien devant la juge pour ça que tous mes complices dansent Mathusalem sur la table, dis bonjour aux clitos Les rappeurs sont des mythos, dans leur slip ont du Pépito Banlieue Sale Banlieue Sale, Banlieue Ouest Banlieue Ouest J'avais pas de quoi m'acheter un pull quand le peu-ra retournait sa veste Mathusalem1</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>La Fouine, Ace You know we rock'n'roll Big Money T'es mort dans l'film, mort dans l'film Mort dans l'film, mo-mort dans l'film Y'aura pas de saison 2, fais ce que tu peux Clic clic, pah ! Frère j'vais vivre en Gucci, j'vais mourir en Louis Jantes noires, cuir noir, vitres noires, diamants noirs ma montre est une Mendhi C'est la jungle et t'as l'swagg à Mowgli, ton flow sombrera dans l'oubli Banlieue Ouest We The Best viens pas test, frère t'es dead in the movie Mathusalem de Moët, banlieusard ghetto poète J'regarde tellement mes billets qu'on dirait qu'j'ai des lentilles violettes Bicraver pour s'en sortir, finir au placard au pire Accoster ton vieux rap à l'eau et l'violer Brandao Yeah, on t'sort de ton pieux comme Gbagbo Redescend en D2 comme Monaco Ici c'est Paris akhi fait pas crari, t'as le nez dans la farine Et si t'es devant c'est dans l'coffre Ferrari J'déboule dans la boîte sans aucune escorte J'contrôle le game EASports Mon swagg est toujours à l'heure Ici Poudlard se change en Bois d'Ar pour les Harry Pointeur You might also like T'es mort dans l'film, mort dans l'film Mort dans l'film, mo-mort dans l'film Y'aura pas de saison 2, fais ce que tu peux Clic clic, pah ! Big money on my mind-frame Black panorama, call it Ving Rhames Runnin' on them 6s like Lebron James Ballin' on you bitches thats word to my chain Livin' everyday like Im gon' die tomorrow Master-P aint shit no limit on the card Like my bitches thick if not then disregard Swagg killin' niggas, almost caught a charge Black nigga, a million dollars She starin' at the watch so now the pussy follow New money, same me I know they see me clear, Im in HD T'es mort dans l'film, mort dans l'film Mort dans l'film, mo-mort dans l'film Y'aura pas de saison 2, fais ce que tu peux Clic clic, pah ! Rejoins-nous si t'es pas mort dans l'explain !</t>
+          <t>La Fouine, Ace You know we rock'n'roll Big Money T'es mort dans l'film, mort dans l'film Mort dans l'film, mo-mort dans l'film Y'aura pas de saison 2, fais ce que tu peux Clic clic, pah ! Frère j'vais vivre en Gucci, j'vais mourir en Louis Jantes noires, cuir noir, vitres noires, diamants noirs ma montre est une Mendhi C'est la jungle et t'as l'swagg à Mowgli, ton flow sombrera dans l'oubli Banlieue Ouest We The Best viens pas test, frère t'es dead in the movie Mathusalem de Moët, banlieusard ghetto poète J'regarde tellement mes billets qu'on dirait qu'j'ai des lentilles violettes Bicraver pour s'en sortir, finir au placard au pire Accoster ton vieux rap à l'eau et l'violer Brandao Yeah, on t'sort de ton pieux comme Gbagbo Redescend en D2 comme Monaco Ici c'est Paris akhi fait pas crari, t'as le nez dans la farine Et si t'es devant c'est dans l'coffre Ferrari J'déboule dans la boîte sans aucune escorte J'contrôle le game EASports Mon swagg est toujours à l'heure Ici Poudlard se change en Bois d'Ar pour les Harry Pointeur T'es mort dans l'film, mort dans l'film Mort dans l'film, mo-mort dans l'film Y'aura pas de saison 2, fais ce que tu peux Clic clic, pah ! Big money on my mind-frame Black panorama, call it Ving Rhames Runnin' on them 6s like Lebron James Ballin' on you bitches thats word to my chain Livin' everyday like Im gon' die tomorrow Master-P aint shit no limit on the card Like my bitches thick if not then disregard Swagg killin' niggas, almost caught a charge Black nigga, a million dollars She starin' at the watch so now the pussy follow New money, same me I know they see me clear, Im in HD T'es mort dans l'film, mort dans l'film Mort dans l'film, mo-mort dans l'film Y'aura pas de saison 2, fais ce que tu peux Clic clic, pah ! Rejoins-nous si t'es pas mort dans l'explain !</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny Ter-ter ouvert H-24 comme le pak-pak Faut qu'j'ressorte d'chez BMW dans leur dernier 4x4 Prépare les p'tits au terrain si jamais on rentre au placard T'façon l'école c'est niqué, l'État n'arrête pas d'nous hagar Moi et Sarko on scause pas, j'lui souhaite un cancer d'la prostate Pendant c'temps, j'ferai des gang bang avec Dominique Strauss-Kahn Et j'éclate un gros zdeh poursuivi par les gendarmes J'suis en concert à Sainte-Anne, j'ai un flow d'malade mental J'fais mon job à plein temps, j'ai pas besoin d'Randstad J'ai plus de chaleur humaine je m'exprime avec un lance-flammes Quand tu rappes on s'en tape, même ton équipe te backe pas J'vais t'faire un sourire kabyle pour qu'tu comprennes que j'blague pas J'ai une vision macabre des corps pendus au bord d'la falaise Ici on fait du chiffre, on baise Pythagore et Thalès Paraît qu't'es plutôt balaise, mais quand j'rappe j'sais qu't'as rhaf Qui va à la chasse perd sa place, mais prends ma place j'te baisse ta race C'est pour mes blacks dans les blocs armés d'Glocks dans les frocs Fuck la proc' et l'époque, depuis l'école les cops et les codes, tu sais qu'on les baise ! C'est quoi les diézes ? Paname faut les uèt' Dans les fêtes ça roule des pét' sur fond de gunshot dans les tess' J'arrive en B.O.S.S. écarte les G.O.S.S Lances les S.O.S, S est dans la place pour l'espèce Jantes noires, cuir noir, vitres noires tu sais qui c'est Tu peux t'asseoir à la table seulement si tu sais sucer You might also like La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny Nouvelle École, BS, on blesse, Fouiny futurs bests J'déboule sans prévenir comme cette putain d'peste T'as pas un cheveu mais un poil sur la langue, c'est à force de lahess Ma gueule on a du style, cela va d'swag laisse... Capitale du Crime, Nouvelle École, man on téblouit On nage dans la merde, cherche la monnaie en guise de bouée Gro-grosse équipe derrière au cas où les choses se corsent Que les MC passent le témoin ou on leur prendra de force On force le respect au micro Sans pour autant être sapé en Louis Vuitton, j'arrive à élever le niveau Les rappeurs se disent mortels, numéro 1 Que du bluff pour du buzz, y'a rien d'mortel comme la H1N1 Tiens je pose un rap solide, éloquent Des phases horribles jeune con, c'est la folie je le pense Y'a d'quoi cogiter je pense Il a fallu l'effet Obama pour enfin voir un black au JT de France Déconne pas si ta technique n'est pas complète Et t'étonne pas qu'on passe en tête et qu'on t'éclate en pleine compèt' Au décollage regarde c'qu'on fait, comme t'es trop naze on zappe ton texte Indétrônable on reste en tête, c'en est trop man, j'te le concède Boycotté en douce, mais sur la tape à Fouiny Babe J'pose un rap coté en bourse pendant qu'le tien s'vend sur eBay Une tuerie frère, non non non, tu n'hallucines pas J'ravitaille le biz' R.E.D.Capitale-du-Crime-3 La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny Pendez-les et rejoignez-nous !</t>
+          <t>La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny Ter-ter ouvert H-24 comme le pak-pak Faut qu'j'ressorte d'chez BMW dans leur dernier 4x4 Prépare les p'tits au terrain si jamais on rentre au placard T'façon l'école c'est niqué, l'État n'arrête pas d'nous hagar Moi et Sarko on scause pas, j'lui souhaite un cancer d'la prostate Pendant c'temps, j'ferai des gang bang avec Dominique Strauss-Kahn Et j'éclate un gros zdeh poursuivi par les gendarmes J'suis en concert à Sainte-Anne, j'ai un flow d'malade mental J'fais mon job à plein temps, j'ai pas besoin d'Randstad J'ai plus de chaleur humaine je m'exprime avec un lance-flammes Quand tu rappes on s'en tape, même ton équipe te backe pas J'vais t'faire un sourire kabyle pour qu'tu comprennes que j'blague pas J'ai une vision macabre des corps pendus au bord d'la falaise Ici on fait du chiffre, on baise Pythagore et Thalès Paraît qu't'es plutôt balaise, mais quand j'rappe j'sais qu't'as rhaf Qui va à la chasse perd sa place, mais prends ma place j'te baisse ta race C'est pour mes blacks dans les blocs armés d'Glocks dans les frocs Fuck la proc' et l'époque, depuis l'école les cops et les codes, tu sais qu'on les baise ! C'est quoi les diézes ? Paname faut les uèt' Dans les fêtes ça roule des pét' sur fond de gunshot dans les tess' J'arrive en B.O.S.S. écarte les G.O.S.S Lances les S.O.S, S est dans la place pour l'espèce Jantes noires, cuir noir, vitres noires tu sais qui c'est Tu peux t'asseoir à la table seulement si tu sais sucer La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny Nouvelle École, BS, on blesse, Fouiny futurs bests J'déboule sans prévenir comme cette putain d'peste T'as pas un cheveu mais un poil sur la langue, c'est à force de lahess Ma gueule on a du style, cela va d'swag laisse... Capitale du Crime, Nouvelle École, man on téblouit On nage dans la merde, cherche la monnaie en guise de bouée Gro-grosse équipe derrière au cas où les choses se corsent Que les MC passent le témoin ou on leur prendra de force On force le respect au micro Sans pour autant être sapé en Louis Vuitton, j'arrive à élever le niveau Les rappeurs se disent mortels, numéro 1 Que du bluff pour du buzz, y'a rien d'mortel comme la H1N1 Tiens je pose un rap solide, éloquent Des phases horribles jeune con, c'est la folie je le pense Y'a d'quoi cogiter je pense Il a fallu l'effet Obama pour enfin voir un black au JT de France Déconne pas si ta technique n'est pas complète Et t'étonne pas qu'on passe en tête et qu'on t'éclate en pleine compèt' Au décollage regarde c'qu'on fait, comme t'es trop naze on zappe ton texte Indétrônable on reste en tête, c'en est trop man, j'te le concède Boycotté en douce, mais sur la tape à Fouiny Babe J'pose un rap coté en bourse pendant qu'le tien s'vend sur eBay Une tuerie frère, non non non, tu n'hallucines pas J'ravitaille le biz' R.E.D.Capitale-du-Crime-3 La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny La haine vient d'en bas, les fils de pute causent Bruits d'un Glock pah !, quand les p'tits d'la street posent, pendez-les Pendez-les, pendez-les, 2012 pendez-les Pendez-les, pendez-les, eh Fouiny Pendez-les et rejoignez-nous !</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Respect aux survivants, aux misérables bon-vivant Le cur pur, une vie dure mais toujours souriant Rien de surprenant ces gens ont gardé la foi Pourquoi se suicider déjà qu'on ne vit qu'une fois Tous venu au monde à poil sans mode d'emploi Fais briller ton étoile réussir est un exploit Contentes-toi de ce que te donne le Créateur L'argent ne fait le bonheur que des gratteurs On ne peut pas tout avoir, n'en garde aucune rancur Moi j'aime la vie avec un poignard dans le cur Prends les épreuves dans les bras, soit pas ingrat Y'a toujours un bien quand la vie te fait la hagra Tu peux la trouver injuste envers ce qui n'ont rien Moi j'vois des riches malheureux alors qu'ils ne manquent de rien Mes problèmes sont les miens, pleure pour les tiens Quoi qu'il arrive y'a pas plus grand malheur que le sien J'veux plus d'oseille ne me demande pas combien oh Ce qui me perd me fait du bien Elle aime Rohff, Hous la tire par les cheveux Mes rêves ont la dalle je les nourris comme je peux J'roulais en Twingo rêvais d'Lambo Quand j'mendors à Fresnes et Maman se réveille en sanglots On peut pas tout avoir J'étais ti-peu j'rêvais de percer Les keufs font la course quand le Sheitan joue au tiercé On ne peut pas tout avoir Maman était ma reine J'ai prié pour qu'elle revienne quand Papa me disait On peut pas tout avoir Oho oho oho On peut pas tout avoir À moi l'argent et le boule de l'infirmière J'te laisse le beurre et le boule de la fermière Sur moi le mauvais il aveuglé par ma lumière T'as beau rager, à moi demain, à toi hier T'as la grande gueule pour démarrer une embrouille Un gros gun des balles mais dommage t'as pas d'couilles Tu sais tenir le mic, mais t'as pas de vécu Tu n'es pas respecté c'est chaud pour ta sécu Miss, t'es love d'un beau gosse qui te fait cocu Pourtant t'es belle, t'as des ein-s' mais t'as pas d'cul Elle, intelligente mais personne la calcule Lui, semble intéressé par son appart et véhicule Elle, une bombasse mais elle parle comme une clando Lui, il est dégueulasse mais il roule en Lambo Son portefeuille le rend beau, ramasse que des bimbos Siliconées de partout sauf du cerveau J'roulais en Twingo rêvais d'Lambo Quand j'mendors à Fresnes et Maman se réveille en sanglots On peut pas tout avoir J'étais ti-peu j'rêvais de percer Les keufs font la course quand le Sheitan joue au tiercé On ne peut pas tout avoir Maman était ma reine J'ai prié pour qu'elle revienne quand Papa me disait On peut pas tout avoir Oho oho oho On peut pas tout avoir Oho Ohoho, Oho oho On peut pas tout avoir Ooho Oho oh, Oho Oho On peut pas tout avoir T'es le caïd de la ville, réputé gâchette facile Entre cavale et ennemis tu n'peux plus marcher tranquille Le nez dans la cocaïne, t'es plus c'bonhomme Pourtant tes années taule, fascine les mômes T'as pas de véritable amis, pourtant tu connais du monde Ta bite est courte, mais ta ligne de vie est longue hein Tu roules en Merco mais tu dors dedans T'as la Black Card mais elle ne passe pas, c'est chiant Dans la forme t'es une re-sta genre Mickaël Vendetta Au fond t'es qu'une arnaque, un vrai bouffon, une grosse mierda Et je t'emmerda, t'es populaire, bsahtek T'as un contrat mais pas le talent qui va avec J'roulais en Twingo rêvais d'Lambo Quand j'mendors à Fresnes et Maman se réveille en sanglots On peut pas tout avoir J'étais ti-peu j'rêvais de percer Les keufs font la course quand le Sheitan joue au tiercé On ne peut pas tout avoir Maman était ma reine J'ai prié pour qu'elle revienne quand Papa me disait On peut pas tout avoir Oho oho oho On peut pas tout avoir Yeah Roh2f, Fouiny Baby, c'est ça, On peut pas tout avoir On peut pas tout avoir frérot Wéwéwerss On peut pas tout avoir Yeah, ici c'est tout à l'extérieur Au bled, c'est tout à l'intérieur On peut pas tout avoir frérot, hein C'est l'9.4, 7.8 C'est trop lourd ça Reah, c'est La Cuenta Reah !You might also like</t>
+          <t>Respect aux survivants, aux misérables bon-vivant Le cur pur, une vie dure mais toujours souriant Rien de surprenant ces gens ont gardé la foi Pourquoi se suicider déjà qu'on ne vit qu'une fois Tous venu au monde à poil sans mode d'emploi Fais briller ton étoile réussir est un exploit Contentes-toi de ce que te donne le Créateur L'argent ne fait le bonheur que des gratteurs On ne peut pas tout avoir, n'en garde aucune rancur Moi j'aime la vie avec un poignard dans le cur Prends les épreuves dans les bras, soit pas ingrat Y'a toujours un bien quand la vie te fait la hagra Tu peux la trouver injuste envers ce qui n'ont rien Moi j'vois des riches malheureux alors qu'ils ne manquent de rien Mes problèmes sont les miens, pleure pour les tiens Quoi qu'il arrive y'a pas plus grand malheur que le sien J'veux plus d'oseille ne me demande pas combien oh Ce qui me perd me fait du bien Elle aime Rohff, Hous la tire par les cheveux Mes rêves ont la dalle je les nourris comme je peux J'roulais en Twingo rêvais d'Lambo Quand j'mendors à Fresnes et Maman se réveille en sanglots On peut pas tout avoir J'étais ti-peu j'rêvais de percer Les keufs font la course quand le Sheitan joue au tiercé On ne peut pas tout avoir Maman était ma reine J'ai prié pour qu'elle revienne quand Papa me disait On peut pas tout avoir Oho oho oho On peut pas tout avoir À moi l'argent et le boule de l'infirmière J'te laisse le beurre et le boule de la fermière Sur moi le mauvais il aveuglé par ma lumière T'as beau rager, à moi demain, à toi hier T'as la grande gueule pour démarrer une embrouille Un gros gun des balles mais dommage t'as pas d'couilles Tu sais tenir le mic, mais t'as pas de vécu Tu n'es pas respecté c'est chaud pour ta sécu Miss, t'es love d'un beau gosse qui te fait cocu Pourtant t'es belle, t'as des ein-s' mais t'as pas d'cul Elle, intelligente mais personne la calcule Lui, semble intéressé par son appart et véhicule Elle, une bombasse mais elle parle comme une clando Lui, il est dégueulasse mais il roule en Lambo Son portefeuille le rend beau, ramasse que des bimbos Siliconées de partout sauf du cerveau J'roulais en Twingo rêvais d'Lambo Quand j'mendors à Fresnes et Maman se réveille en sanglots On peut pas tout avoir J'étais ti-peu j'rêvais de percer Les keufs font la course quand le Sheitan joue au tiercé On ne peut pas tout avoir Maman était ma reine J'ai prié pour qu'elle revienne quand Papa me disait On peut pas tout avoir Oho oho oho On peut pas tout avoir Oho Ohoho, Oho oho On peut pas tout avoir Ooho Oho oh, Oho Oho On peut pas tout avoir T'es le caïd de la ville, réputé gâchette facile Entre cavale et ennemis tu n'peux plus marcher tranquille Le nez dans la cocaïne, t'es plus c'bonhomme Pourtant tes années taule, fascine les mômes T'as pas de véritable amis, pourtant tu connais du monde Ta bite est courte, mais ta ligne de vie est longue hein Tu roules en Merco mais tu dors dedans T'as la Black Card mais elle ne passe pas, c'est chiant Dans la forme t'es une re-sta genre Mickaël Vendetta Au fond t'es qu'une arnaque, un vrai bouffon, une grosse mierda Et je t'emmerda, t'es populaire, bsahtek T'as un contrat mais pas le talent qui va avec J'roulais en Twingo rêvais d'Lambo Quand j'mendors à Fresnes et Maman se réveille en sanglots On peut pas tout avoir J'étais ti-peu j'rêvais de percer Les keufs font la course quand le Sheitan joue au tiercé On ne peut pas tout avoir Maman était ma reine J'ai prié pour qu'elle revienne quand Papa me disait On peut pas tout avoir Oho oho oho On peut pas tout avoir Yeah Roh2f, Fouiny Baby, c'est ça, On peut pas tout avoir On peut pas tout avoir frérot Wéwéwerss On peut pas tout avoir Yeah, ici c'est tout à l'extérieur Au bled, c'est tout à l'intérieur On peut pas tout avoir frérot, hein C'est l'9.4, 7.8 C'est trop lourd ça Reah, c'est La Cuenta Reah !</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sans meuf c'est la hass, en cours c'est la hass Nouvelle génération rêves de boules et grosses caisses Ta meuf on la baise, pardonne moi labess Je vise le sommet posé du haut d'ma tess Gros c'est la hass Gros c'est la hass Partout c'est la hass, mon rêve de CLS Y a ceux qui tapent dans un ballon ceux qui tapent dans la cess Ouais partout c'est la hass, refré partout c'est la zermi Y a ceux qui rentrent au bled et y a ceux qui rentrent au tar-mi J'suis partout de rien j'ai dit un jour j'serais le best Rebeu tu sers à rien t'as le flow d'une dent de sagesse L'école de la rue, petit apprends tes leçons Fais pas comme Fouiny Baby ou tu finis dans un fourgon Haineux t'as la haine, j'tiens le rap en laisse Et si tu veux me fumer rebeu vise la Mitchell Ness Pa-pa-partout c'est la hass et je monte level Ils veulent tous collaborer rebeu j'sais pas ce qu'il veulent Pa-pa-partout c'est la hass et la rue m'élevait seule Où étaient-ils quand le daron faisait les courses à Lidl ? Ouais partout c'est la hass et les p'tits deviennent fou Nouvelle génération demande au petit Zifou You might also like Sans meuf c'est la hass, en cours c'est la hass Nouvelle génération rêves de boules et grosses caisses Ta meuf on la baise, pardonne moi labess Je vise le sommet posé du haut d'ma tess Gros c'est la hass Gros c'est la hass Ma génération elle veut des bitches et des liasses Dis pas que tu veux te poser si t'as la réput' d'une tasse La poisse poisse me suis de près comme Strauss-Kahn On a tellement le dalle qu'on galloche des meufs à la cam' Bye bye adieu la hass moi j'm'enjaille Finies les soirées au télo fais péter le champagne Panne t'es tombé en panne ça fait mal Au quartier ça galère, t'as qu'à t'acheter des Ray-Ban Rebeu hlel nique les rageux, les zamel Les pétasses kiffent kiffent kiffent, on attire toutes les femelles Zifou de dingue dingue tu kiffes le son c'est haram J'ai mis le rap dans mon délire Salut Salam Shalom Je veux être celui qui baise le rap game Oui celui qui rappe même sans thème J'espère être le futur king Inch Allah Passe moi le mic tu verras Sans meuf c'est la hass, en cours c'est la hass Nouvelle génération rêves de boules et grosses caisses Ta meuf on la baise, pardonne moi labess Je vise le sommet posé du haut d'ma tess Gros c'est la hass Gros c'est la hass En bas des tours sans ta meuf y a les keufs d'vant les profs C'est la hass c'est la hass T'as plus de love c'est la crise t'en as marre tu révises C'est la hass c'est la hass En bas des tours sans ta meuf y a les keufs d'vant les profs C'est la hass c'est la hass T'as plus de love c'est la crise t'en as marre tu révises C'est la hass c'est la hass Sans meuf c'est la hass, en cours c'est la hass Nouvelle génération rêves de boules et grosses caisses Ta meuf on la baise, pardonne moi labess Je vise le sommet posé du haut d'ma tess Gros c'est la hass Gros c'est la hass2</t>
+          <t>Sans meuf c'est la hass, en cours c'est la hass Nouvelle génération rêves de boules et grosses caisses Ta meuf on la baise, pardonne moi labess Je vise le sommet posé du haut d'ma tess Gros c'est la hass Gros c'est la hass Partout c'est la hass, mon rêve de CLS Y a ceux qui tapent dans un ballon ceux qui tapent dans la cess Ouais partout c'est la hass, refré partout c'est la zermi Y a ceux qui rentrent au bled et y a ceux qui rentrent au tar-mi J'suis partout de rien j'ai dit un jour j'serais le best Rebeu tu sers à rien t'as le flow d'une dent de sagesse L'école de la rue, petit apprends tes leçons Fais pas comme Fouiny Baby ou tu finis dans un fourgon Haineux t'as la haine, j'tiens le rap en laisse Et si tu veux me fumer rebeu vise la Mitchell Ness Pa-pa-partout c'est la hass et je monte level Ils veulent tous collaborer rebeu j'sais pas ce qu'il veulent Pa-pa-partout c'est la hass et la rue m'élevait seule Où étaient-ils quand le daron faisait les courses à Lidl ? Ouais partout c'est la hass et les p'tits deviennent fou Nouvelle génération demande au petit Zifou Sans meuf c'est la hass, en cours c'est la hass Nouvelle génération rêves de boules et grosses caisses Ta meuf on la baise, pardonne moi labess Je vise le sommet posé du haut d'ma tess Gros c'est la hass Gros c'est la hass Ma génération elle veut des bitches et des liasses Dis pas que tu veux te poser si t'as la réput' d'une tasse La poisse poisse me suis de près comme Strauss-Kahn On a tellement le dalle qu'on galloche des meufs à la cam' Bye bye adieu la hass moi j'm'enjaille Finies les soirées au télo fais péter le champagne Panne t'es tombé en panne ça fait mal Au quartier ça galère, t'as qu'à t'acheter des Ray-Ban Rebeu hlel nique les rageux, les zamel Les pétasses kiffent kiffent kiffent, on attire toutes les femelles Zifou de dingue dingue tu kiffes le son c'est haram J'ai mis le rap dans mon délire Salut Salam Shalom Je veux être celui qui baise le rap game Oui celui qui rappe même sans thème J'espère être le futur king Inch Allah Passe moi le mic tu verras Sans meuf c'est la hass, en cours c'est la hass Nouvelle génération rêves de boules et grosses caisses Ta meuf on la baise, pardonne moi labess Je vise le sommet posé du haut d'ma tess Gros c'est la hass Gros c'est la hass En bas des tours sans ta meuf y a les keufs d'vant les profs C'est la hass c'est la hass T'as plus de love c'est la crise t'en as marre tu révises C'est la hass c'est la hass En bas des tours sans ta meuf y a les keufs d'vant les profs C'est la hass c'est la hass T'as plus de love c'est la crise t'en as marre tu révises C'est la hass c'est la hass Sans meuf c'est la hass, en cours c'est la hass Nouvelle génération rêves de boules et grosses caisses Ta meuf on la baise, pardonne moi labess Je vise le sommet posé du haut d'ma tess Gros c'est la hass Gros c'est la hass2</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Han, c'est ça, La-La-La Fouine G.S.P., han, animal likes it, ... la famille C'est ça, 78, han, 190, Trappes G.S.P., hein La Fouine Parce qu'on est tous rongé par le... Le manque d'argent, le manque d'argent Te fais faire des choses dont tu n'as pas conscience Le manque d'argent Le met hors de lui et lui fait perdre confiance Le manque d'argent Le laisse faire le mal sans penser aux conséquences Le manque d'argent, le manque d'argent Le manque d'argent Tu sais, on aimerait tous rouler en Porsche Même avec rien dans les poches, on rêve tous les yeux ouverts devant le porche On vit sans fric, ni rien pourtant on est tous des terriens Tu sais, moi quand j'étais p'tit on m'disait ça j'comprenais rien Avec une balle et quelques potes qu'est-ce qu'on s'amusait On délirait autant que les amis partis à St-Tropez Et ouais, j'vois les gens qui travaillent trop voulant du fric pour élever leurs gamins En oubliant que c'est de l'amour dont ils ont besoin T'en voudras toujours plus ce que t'as c'est jamais assez Et même tout l'or du monde tu pourrais t'en lasser Faire des dons d'charité jamais! Le fric tu crois l'posséder mais c'est lui qui t'possède en réalité Et puis, t'es toujours à vouloir en faire quitte à t'rapprocher de l'enfer Tes robinets tu les veux en or et pas en fer Mon gars, tu comprendras jamais la leçon Le fric c'est l'hameçon et tôt ou tard tu baisseras ton caleçon car le... You might also like Le manque d'argent, le manque d'argent Te fais faire des choses dont tu n'as pas conscience Le manque d'argent Le met hors de lui et lui fait perdre confiance Le manque d'argent Le laisse faire le mal sans penser aux conséquences Le manque d'argent, le manque d'argent Le manque d'argent Tu t'imagines supérieur avec une vieille feuille Ce bout d'papier avec des chiffres qui t'suivra pas dans ton cercueil Tu sais, t'as pas sa vraie notion, t'as pas sa vraie valeur Pour toi ne pas en avoir est synonyme de malheur Alors tu vas braquer pour nourrir ta famille Mais ta femme, elle a besoin d'toi pas des lettres que tu lui envoies Tu sais, elle en marre de croiser tous ces regards tristes au parloir Elle en a marre de retenir ses larmes quand elle viens t'voir Et l'autre qui pense à dealer, à faire rentrer les sous C'est devant sa porte que les chats dormants se donnent tous rendez-vous Mais ses parents pètent un câble, les flics le savent coupable J'espère que quand ils viendront le sauter il ne se mettra pas à table pas ça Et t'as pas l'choix, tu l'sais, tu l'cherches sans arrêt Tu l'cherches toute ta vie avant, d'tout perdre en maison d'arrêt Le fric, plus t'en a plus t'as d'problèmes Plus t'en as plus t'en veux, moins t'en as plus on t'aime car le... Le manque d'argent, le manque d'argent Te fais faire des choses dont tu n'as pas conscience Le manque d'argent Le met hors de lui et lui fait perdre confiance Le manque d'argent Le laisse faire le mal sans penser aux conséquences Le manque d'argent, le manque d'argent Le manque d'argent Yeah, t'as besoin d'fric pour t'acheter les dernières pompes Mais à cause d'un histoire de fric tu t'es fais tirer d'ssus au pompe T'as besoin d'fric parce-que c'est le brouillard dans ta vie Et tu crois qu'à son arrivée t'aura le soleil même dans la nuit T'as besoin d'fric car ta R5 te mérite pas T'en as besoin pour roder, pour t'la raconter dans tout Ris-pa T'as besoin d'fric pour montrer au meufs que t'es pas un ringard T'en as besoin pour plus rater ton train et dormir dans les gares T'as besoin d'fric pour avoir toutes les meufs à tes pieds T'en as besoin pour plus croiser ces gens en blouse R.A.T.P T'as besoin d'fric pour t'acheter d'la bière, du pilon et Plus tard t'en a besoin pour soigner ton foie, tes poumons Tu sais, t'as besoin d'fric pour sortir de l'anonymat Car tu crois qu'en sa compagnie enfin on t'regardera Et puis j'ai besoin d'fric pour m'acheter un belle gova Une maison, j'ai besoin d'fric car j'suis une mec comme toi et que ... Le manque d'argent, le manque d'argent Te fais faire des choses dont tu n'a pas conscience Le manque d'argent Me met hors de moi et me fait perdre confiance Le manque d'argent Le laisse faire le mal sans penser aux conséquences Le manque d'argent, le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent2</t>
+          <t>Han, c'est ça, La-La-La Fouine G.S.P., han, animal likes it, ... la famille C'est ça, 78, han, 190, Trappes G.S.P., hein La Fouine Parce qu'on est tous rongé par le... Le manque d'argent, le manque d'argent Te fais faire des choses dont tu n'as pas conscience Le manque d'argent Le met hors de lui et lui fait perdre confiance Le manque d'argent Le laisse faire le mal sans penser aux conséquences Le manque d'argent, le manque d'argent Le manque d'argent Tu sais, on aimerait tous rouler en Porsche Même avec rien dans les poches, on rêve tous les yeux ouverts devant le porche On vit sans fric, ni rien pourtant on est tous des terriens Tu sais, moi quand j'étais p'tit on m'disait ça j'comprenais rien Avec une balle et quelques potes qu'est-ce qu'on s'amusait On délirait autant que les amis partis à St-Tropez Et ouais, j'vois les gens qui travaillent trop voulant du fric pour élever leurs gamins En oubliant que c'est de l'amour dont ils ont besoin T'en voudras toujours plus ce que t'as c'est jamais assez Et même tout l'or du monde tu pourrais t'en lasser Faire des dons d'charité jamais! Le fric tu crois l'posséder mais c'est lui qui t'possède en réalité Et puis, t'es toujours à vouloir en faire quitte à t'rapprocher de l'enfer Tes robinets tu les veux en or et pas en fer Mon gars, tu comprendras jamais la leçon Le fric c'est l'hameçon et tôt ou tard tu baisseras ton caleçon car le... Le manque d'argent, le manque d'argent Te fais faire des choses dont tu n'as pas conscience Le manque d'argent Le met hors de lui et lui fait perdre confiance Le manque d'argent Le laisse faire le mal sans penser aux conséquences Le manque d'argent, le manque d'argent Le manque d'argent Tu t'imagines supérieur avec une vieille feuille Ce bout d'papier avec des chiffres qui t'suivra pas dans ton cercueil Tu sais, t'as pas sa vraie notion, t'as pas sa vraie valeur Pour toi ne pas en avoir est synonyme de malheur Alors tu vas braquer pour nourrir ta famille Mais ta femme, elle a besoin d'toi pas des lettres que tu lui envoies Tu sais, elle en marre de croiser tous ces regards tristes au parloir Elle en a marre de retenir ses larmes quand elle viens t'voir Et l'autre qui pense à dealer, à faire rentrer les sous C'est devant sa porte que les chats dormants se donnent tous rendez-vous Mais ses parents pètent un câble, les flics le savent coupable J'espère que quand ils viendront le sauter il ne se mettra pas à table pas ça Et t'as pas l'choix, tu l'sais, tu l'cherches sans arrêt Tu l'cherches toute ta vie avant, d'tout perdre en maison d'arrêt Le fric, plus t'en a plus t'as d'problèmes Plus t'en as plus t'en veux, moins t'en as plus on t'aime car le... Le manque d'argent, le manque d'argent Te fais faire des choses dont tu n'as pas conscience Le manque d'argent Le met hors de lui et lui fait perdre confiance Le manque d'argent Le laisse faire le mal sans penser aux conséquences Le manque d'argent, le manque d'argent Le manque d'argent Yeah, t'as besoin d'fric pour t'acheter les dernières pompes Mais à cause d'un histoire de fric tu t'es fais tirer d'ssus au pompe T'as besoin d'fric parce-que c'est le brouillard dans ta vie Et tu crois qu'à son arrivée t'aura le soleil même dans la nuit T'as besoin d'fric car ta R5 te mérite pas T'en as besoin pour roder, pour t'la raconter dans tout Ris-pa T'as besoin d'fric pour montrer au meufs que t'es pas un ringard T'en as besoin pour plus rater ton train et dormir dans les gares T'as besoin d'fric pour avoir toutes les meufs à tes pieds T'en as besoin pour plus croiser ces gens en blouse R.A.T.P T'as besoin d'fric pour t'acheter d'la bière, du pilon et Plus tard t'en a besoin pour soigner ton foie, tes poumons Tu sais, t'as besoin d'fric pour sortir de l'anonymat Car tu crois qu'en sa compagnie enfin on t'regardera Et puis j'ai besoin d'fric pour m'acheter un belle gova Une maison, j'ai besoin d'fric car j'suis une mec comme toi et que ... Le manque d'argent, le manque d'argent Te fais faire des choses dont tu n'a pas conscience Le manque d'argent Me met hors de moi et me fait perdre confiance Le manque d'argent Le laisse faire le mal sans penser aux conséquences Le manque d'argent, le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent Le manque d'argent2</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J'ai vu ce monde au bout du chemin J'ai jamais su hisser les voiles Les temps sont durs, on verra demain Hé , yié, yié, wouoh J'ai vu ma vie le long du chemin J'ai jamais su hisser les voiles Les temps sont durs, on verra demain Hé , yié, yié, wouoh Wouoh, wouoh, yié, hé hé, wouoh Wouoh, wouoh, yié, hé hé Chaque fois que j'perds un membre c'est une photo d'famille qu'on m'ampute J'aime pas les faux sourires, j'préfère les franches disputes Faire des choses déloyales, tout ça pour payer le loyer J'ai grandi sans mère moi, suis-je un enfant noyé ? Artiste bien éduqué poto pourtant la salle gronde J'm'endors seul sur la Lune j'ai plus de blues qu'Armstrong J'ai fait les quatre coins du mondes souvent guidé par la chance Et en boîte sur ma table plus de bouteilles qu'au Tour de France Les temps ont passé, Hélène et les garçons Les keufs et les bastons, penser comme un requin, nager comme un poisson J'ai fixé les aiguilles mais j'ai pas rattrapé l'temps Et de cette prison dorée, Scofield n'a pas les plans N'aie pas la rage j'suis pas l'capitaine de ton naufrage non Une arme pointée sur mes ambitions, j'suis qu'un putain d'otage Jette l'ancre à l'eau ou bien jette-là sur ma page On a la goutte de tristesse qui a fait déborder le vase Un repas une mélodie, s'finissent toujours par une note Chaque fois q'j'ouvre une porte gros, y'en a toujours une autre Il fait froid et j'ai faim, j'ai refusé de mendier Artiste à part entière, j'les laisserai pas me manger J'ai investi dans la pierre, car j'ai grandi sur l'ciment Comme un homme qui se noie, j'vais mourir en silence Manchot ou pas, on avancera main dans la main, kho Comme la route 66, ma vie a fait du chemin You might also like It's a new day, new life, you gotta take it all Make it over, you can make it better J'ai vu ce monde au bout du chemin J'ai jamais su hisser les voiles Les temps sont durs, on verra demain Hé , yié, yié, wouoh J'ai vu ma vie le long du chemin J'ai jamais su hisser les voiles Les temps sont durs, on verra demain Hé , yié, yié, wouoh Wouoh, wouoh, yié, hé hé, wouoh Wouoh, wouoh, yié, hé hé It's a new day, new life, you gotta take it all Make it over, you can make it better It's a new day, new life, you gotta take it all Make it over, you can make it better No matter where you are coming from No matter who you are Today it's a new day Just open your eyes Welcome to the new world1</t>
+          <t>J'ai vu ce monde au bout du chemin J'ai jamais su hisser les voiles Les temps sont durs, on verra demain Hé , yié, yié, wouoh J'ai vu ma vie le long du chemin J'ai jamais su hisser les voiles Les temps sont durs, on verra demain Hé , yié, yié, wouoh Wouoh, wouoh, yié, hé hé, wouoh Wouoh, wouoh, yié, hé hé Chaque fois que j'perds un membre c'est une photo d'famille qu'on m'ampute J'aime pas les faux sourires, j'préfère les franches disputes Faire des choses déloyales, tout ça pour payer le loyer J'ai grandi sans mère moi, suis-je un enfant noyé ? Artiste bien éduqué poto pourtant la salle gronde J'm'endors seul sur la Lune j'ai plus de blues qu'Armstrong J'ai fait les quatre coins du mondes souvent guidé par la chance Et en boîte sur ma table plus de bouteilles qu'au Tour de France Les temps ont passé, Hélène et les garçons Les keufs et les bastons, penser comme un requin, nager comme un poisson J'ai fixé les aiguilles mais j'ai pas rattrapé l'temps Et de cette prison dorée, Scofield n'a pas les plans N'aie pas la rage j'suis pas l'capitaine de ton naufrage non Une arme pointée sur mes ambitions, j'suis qu'un putain d'otage Jette l'ancre à l'eau ou bien jette-là sur ma page On a la goutte de tristesse qui a fait déborder le vase Un repas une mélodie, s'finissent toujours par une note Chaque fois q'j'ouvre une porte gros, y'en a toujours une autre Il fait froid et j'ai faim, j'ai refusé de mendier Artiste à part entière, j'les laisserai pas me manger J'ai investi dans la pierre, car j'ai grandi sur l'ciment Comme un homme qui se noie, j'vais mourir en silence Manchot ou pas, on avancera main dans la main, kho Comme la route 66, ma vie a fait du chemin It's a new day, new life, you gotta take it all Make it over, you can make it better J'ai vu ce monde au bout du chemin J'ai jamais su hisser les voiles Les temps sont durs, on verra demain Hé , yié, yié, wouoh J'ai vu ma vie le long du chemin J'ai jamais su hisser les voiles Les temps sont durs, on verra demain Hé , yié, yié, wouoh Wouoh, wouoh, yié, hé hé, wouoh Wouoh, wouoh, yié, hé hé It's a new day, new life, you gotta take it all Make it over, you can make it better It's a new day, new life, you gotta take it all Make it over, you can make it better No matter where you are coming from No matter who you are Today it's a new day Just open your eyes Welcome to the new world1</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne Yeah !, dans les poches quelques grammes grammes Hey, hey ! Brelic à la place du crâne, dans les poches quelques grammes Je je j'répands la coke, j'suis distributeur comme Wagram J'suis trop farhen j'viens d'sortir mon CLS J'suis trop farhen j'viens d'kicker un CRS Ma ma ma tasse-pé s'emballe Viens pas m'embrasser si t'as sucé Samba Les veines sont coupées, 45 jours au QD Inculpé, inoccupé, bah on sly et j'vais m'buter Je hais Sarko donc qu'il aille niquer sa mère Paraît qu'y a un nouveau membre dans le Ministère Amer 78 sur mon torse, on rêve de Porsche, on rêve de féfé Ils veulent que je retourne au trou, qu'est-ce que j'ai fait ?, ils disent que d'la merde ! Je dors chez l'voisin quand les keufs viennent to-toquer C'est dingue les p'tits n'ont pas de dents veulent déjà qu'on les fasse croquer Choqué, foqué, la tôle laisse des séquelles laisse des séquelles Depuis quand les poulets veulent voler de leurs propres ailes ? Quand j'prends le micro les banlieues se lèvent lèvent Les keufs se soulèvent, les rappeurs ont du s-sperme sur les lèvres lèvres Suffit d'un SMS pour que ta tasse mouille tasse mouille J'connais plus mon texte, je l'ai laissé dans ma fouille dans ma fouille You might also like Je cherche la merde, sur les cross on fume de l'herbe Man on s'en bat les illes-cou, tu te demandes ça vient d'où Banlieue Ouest Je cherche la merde, sur les cross on fume de l'herbe Man on s'en bat les illes-cou, tu te demandes ça vient d'où Banlieue Sud Les juges, les procs, no man on connaît leur tchatche leur tchatche Depuis tout jeune on veut du biff comme Al Pac'Al Pac' Les juges, les procs, no man on connaît leur tchatche leur tchatche Depuis tout jeune on veut du biff comme Al Pac'Al Pac' Je plie, je plie dans les normes du D1 dans sa meilleure forme C'est banlieue ouest patriotique, c'est bien plus puissant qu'une arme On pousse sur le bitume dea-dea-dea-dea-dealer et killer C'est gazoline sur Ségolène, le rouge sang est ma couleur J'crache sur les incapables et sur les lois d'enfant de pute Casse-mâchoire dans les parages et les rivaux préparent la chute C'est pour nos détenus entretenus par le ghetto Qui pourraient vivre de ta perte à part si t'as notre maillot Le 7.8 anti-chochottes, ouais, mon son rapporte Fais la queue putain d'enfoiré, je le bourre ton porc Je suis crème de crème, anti-flemme, le blem' c'est qu'écran je crève Masta le gamin assure les faux, les gros se mettent en grève J'apprends sur le tas, entêté, tatoué, t'urines Ralenti t'montre que j'suis trop talentueux J'malmène, amène ma touche faite pour ratatiner C'est un plafond de Zidane qui mène a la réalité Je cherche la merde, sur les cross on fume de l'herbe Man on s'en bat les illes-cou, tu te demandes ça vient d'où Banlieue Ouest Je cherche la merde, sur les cross on fume de l'herbe Man on s'en bat les illes-cou, tu te demandes ça vient d'où Banlieue Sud Les juges, les procs, no man on connaît leur tchatche leur tchatche Depuis tout jeune on veut du biff comme Al Pac'Al Pac' Les juges, les procs, no man on connaît leur tchatche leur tchatche Depuis tout jeune on veut du biff comme Al Pac'Al Pac' J'ai le millénium, rime de luxe rime de luxe Moi j'suis un fils d'esclave, pas un fils de pute J'viens du 9.4, gros, la capitale des braquos On d'vient pas millionnaire en taffant au MacDo Sarko, j'connais ton fils Il est fasciné par mon ghetto, il a même acheté mon disque Depuis quand les caniches veulent clasher les pit' ? Ça y est, maintenant que j'ai signé, le rap français s'accroche à ma bite J'ai encerclé Paris comme le périphérique Appelle ta pute, elle décroche pas ? Elle est avec Kennedy Tu veux savoir ce qui se dit maintenant dans tous les quartiers ? J'suis l'un des négros les plus chauds du rap game 2500 les 100 G, tu connais le tarif La coke est pure et elle t'éclate les narines Quand j'suis pas au tier-quar, j'suis à New-York ou à Dakar J'suis l'bitume avec un flow, avec un flow d'batârd Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes1</t>
+          <t>Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne Yeah !, dans les poches quelques grammes grammes Hey, hey ! Brelic à la place du crâne, dans les poches quelques grammes Je je j'répands la coke, j'suis distributeur comme Wagram J'suis trop farhen j'viens d'sortir mon CLS J'suis trop farhen j'viens d'kicker un CRS Ma ma ma tasse-pé s'emballe Viens pas m'embrasser si t'as sucé Samba Les veines sont coupées, 45 jours au QD Inculpé, inoccupé, bah on sly et j'vais m'buter Je hais Sarko donc qu'il aille niquer sa mère Paraît qu'y a un nouveau membre dans le Ministère Amer 78 sur mon torse, on rêve de Porsche, on rêve de féfé Ils veulent que je retourne au trou, qu'est-ce que j'ai fait ?, ils disent que d'la merde ! Je dors chez l'voisin quand les keufs viennent to-toquer C'est dingue les p'tits n'ont pas de dents veulent déjà qu'on les fasse croquer Choqué, foqué, la tôle laisse des séquelles laisse des séquelles Depuis quand les poulets veulent voler de leurs propres ailes ? Quand j'prends le micro les banlieues se lèvent lèvent Les keufs se soulèvent, les rappeurs ont du s-sperme sur les lèvres lèvres Suffit d'un SMS pour que ta tasse mouille tasse mouille J'connais plus mon texte, je l'ai laissé dans ma fouille dans ma fouille Je cherche la merde, sur les cross on fume de l'herbe Man on s'en bat les illes-cou, tu te demandes ça vient d'où Banlieue Ouest Je cherche la merde, sur les cross on fume de l'herbe Man on s'en bat les illes-cou, tu te demandes ça vient d'où Banlieue Sud Les juges, les procs, no man on connaît leur tchatche leur tchatche Depuis tout jeune on veut du biff comme Al Pac'Al Pac' Les juges, les procs, no man on connaît leur tchatche leur tchatche Depuis tout jeune on veut du biff comme Al Pac'Al Pac' Je plie, je plie dans les normes du D1 dans sa meilleure forme C'est banlieue ouest patriotique, c'est bien plus puissant qu'une arme On pousse sur le bitume dea-dea-dea-dea-dealer et killer C'est gazoline sur Ségolène, le rouge sang est ma couleur J'crache sur les incapables et sur les lois d'enfant de pute Casse-mâchoire dans les parages et les rivaux préparent la chute C'est pour nos détenus entretenus par le ghetto Qui pourraient vivre de ta perte à part si t'as notre maillot Le 7.8 anti-chochottes, ouais, mon son rapporte Fais la queue putain d'enfoiré, je le bourre ton porc Je suis crème de crème, anti-flemme, le blem' c'est qu'écran je crève Masta le gamin assure les faux, les gros se mettent en grève J'apprends sur le tas, entêté, tatoué, t'urines Ralenti t'montre que j'suis trop talentueux J'malmène, amène ma touche faite pour ratatiner C'est un plafond de Zidane qui mène a la réalité Je cherche la merde, sur les cross on fume de l'herbe Man on s'en bat les illes-cou, tu te demandes ça vient d'où Banlieue Ouest Je cherche la merde, sur les cross on fume de l'herbe Man on s'en bat les illes-cou, tu te demandes ça vient d'où Banlieue Sud Les juges, les procs, no man on connaît leur tchatche leur tchatche Depuis tout jeune on veut du biff comme Al Pac'Al Pac' Les juges, les procs, no man on connaît leur tchatche leur tchatche Depuis tout jeune on veut du biff comme Al Pac'Al Pac' J'ai le millénium, rime de luxe rime de luxe Moi j'suis un fils d'esclave, pas un fils de pute J'viens du 9.4, gros, la capitale des braquos On d'vient pas millionnaire en taffant au MacDo Sarko, j'connais ton fils Il est fasciné par mon ghetto, il a même acheté mon disque Depuis quand les caniches veulent clasher les pit' ? Ça y est, maintenant que j'ai signé, le rap français s'accroche à ma bite J'ai encerclé Paris comme le périphérique Appelle ta pute, elle décroche pas ? Elle est avec Kennedy Tu veux savoir ce qui se dit maintenant dans tous les quartiers ? J'suis l'un des négros les plus chauds du rap game 2500 les 100 G, tu connais le tarif La coke est pure et elle t'éclate les narines Quand j'suis pas au tier-quar, j'suis à New-York ou à Dakar J'suis l'bitume avec un flow, avec un flow d'batârd Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes Brelic à la place du crâne crâne, brelic à la place du crâne Brelic à la place du crâne, dans les poches quelques grammes grammes1</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>As salam alaykoum, wa alaykoum salam Whatever your religion, kiss the ring on the Don Bienvenue dans mon 78, les vendeurs les Compet Les balances se font rosser, devant les keufs fais pas la trompette Nous on fume la paki, adeptes de car-jacking On peut passer la nuit, la semaine, toute l'année sur un parking Les rebellions les cocktails, tournantes hôtel Ici l'argent est sale mais nos avocats font la vaisselle Mantes la Tuerie, Sartrouville, Poissy Pour les sans papiers ouais tous les chemins mènent à Roissy Chanteloup Les Vignes, aux anciens d'ma ville Welcome dans les Yvelines où la poisse demande asile Mangeurs de re-pie, ici on s'contente d'un rien Bâtiments détruits mais nos mâchoires n'y sont pour rien Tribunal de Versailles, lance-ba représailles Tu peux me voir a Trappes galérien et truand comme Morsay Sheïtan tire vers le bas, la Sunna vers le haut J'reste entre les deux à bicrave du shit sous un préau As salam alaykoum, wa alaykoum salam As salam alaykoum, wa alaykoum salam On a laissé quelques plumes verser quelques larmes Je t'ai commencé aux poings je t'ai fini à la lame As salam alaykoum, wa alaykoum salam As salam alaykoum, wa alaykoum salam Ne me demande pas pourquoi la concurrence khaf reuf You might also like J'me rappelle des Gremlins aux Mureaux, frérot Sarajevo Les chars rade d'essence complètement fonse-dé voitures lé-vo Nuits blanches à Bois D'Arcy, braquage de pharmacies Cailleras comme ingrédient ça fait vite des prisons farcies Les potos dElancourt, 78 Guyancourt Ca bicrave des litrons ouais les tipeu ne vont plus en cours Commissariat brulé, putain d'rebellion Nique sa mère la lune frère on veut viser le million Expression Direkt, lyrics de Kertra Les ti-peu peura devant le hall avec ou sans contrat 4ème aide et soutien, 3ème insertion Trafic en réunion agression et séquestration On va plus en classe, nous on veut des tass Frère il n'y a qu'un O entre l'audace et le Dass Parfois je gagne du temps, souvent je perds des refrés En souvenir du passé, Bram's repose en paix As salam alaykoum, wa alaykoum salam As salam alaykoum, wa alaykoum salam On a laissé quelques plumes verser quelques larmes Je t'ai commencé aux poings je t'ai fini à la lame As salam alaykoum, wa alaykoum salam As salam alaykoum, wa alaykoum salam Ne me demande pas pourquoi la concurrence khaf reuf On demande pas à la mer si elle a soif Premier sur la poisse et sur les emmerdes On arrive de loin on a plus rien à perdre Tout ce qu'on a subi oh s'ils savaient L'eau froide en hiver le chauffe eau cassé Premier sur la poisse et sur les emmerdes On arrive de loin on a plus rien à perdre Tout ce qu'on a subi oh s'ils savaient L'eau froide en hiver le chauffe eau cassé Premier sur la poisse et sur les emmerdes On arrive de loin on a plus rien à perdre Tout ce qu'on a subi oh s'ils savaient L'eau froide en hiver le chauffe eau cassé As salam alaykoum, rejoins-nous sur Rap Genius !</t>
+          <t>As salam alaykoum, wa alaykoum salam Whatever your religion, kiss the ring on the Don Bienvenue dans mon 78, les vendeurs les Compet Les balances se font rosser, devant les keufs fais pas la trompette Nous on fume la paki, adeptes de car-jacking On peut passer la nuit, la semaine, toute l'année sur un parking Les rebellions les cocktails, tournantes hôtel Ici l'argent est sale mais nos avocats font la vaisselle Mantes la Tuerie, Sartrouville, Poissy Pour les sans papiers ouais tous les chemins mènent à Roissy Chanteloup Les Vignes, aux anciens d'ma ville Welcome dans les Yvelines où la poisse demande asile Mangeurs de re-pie, ici on s'contente d'un rien Bâtiments détruits mais nos mâchoires n'y sont pour rien Tribunal de Versailles, lance-ba représailles Tu peux me voir a Trappes galérien et truand comme Morsay Sheïtan tire vers le bas, la Sunna vers le haut J'reste entre les deux à bicrave du shit sous un préau As salam alaykoum, wa alaykoum salam As salam alaykoum, wa alaykoum salam On a laissé quelques plumes verser quelques larmes Je t'ai commencé aux poings je t'ai fini à la lame As salam alaykoum, wa alaykoum salam As salam alaykoum, wa alaykoum salam Ne me demande pas pourquoi la concurrence khaf reuf J'me rappelle des Gremlins aux Mureaux, frérot Sarajevo Les chars rade d'essence complètement fonse-dé voitures lé-vo Nuits blanches à Bois D'Arcy, braquage de pharmacies Cailleras comme ingrédient ça fait vite des prisons farcies Les potos dElancourt, 78 Guyancourt Ca bicrave des litrons ouais les tipeu ne vont plus en cours Commissariat brulé, putain d'rebellion Nique sa mère la lune frère on veut viser le million Expression Direkt, lyrics de Kertra Les ti-peu peura devant le hall avec ou sans contrat 4ème aide et soutien, 3ème insertion Trafic en réunion agression et séquestration On va plus en classe, nous on veut des tass Frère il n'y a qu'un O entre l'audace et le Dass Parfois je gagne du temps, souvent je perds des refrés En souvenir du passé, Bram's repose en paix As salam alaykoum, wa alaykoum salam As salam alaykoum, wa alaykoum salam On a laissé quelques plumes verser quelques larmes Je t'ai commencé aux poings je t'ai fini à la lame As salam alaykoum, wa alaykoum salam As salam alaykoum, wa alaykoum salam Ne me demande pas pourquoi la concurrence khaf reuf On demande pas à la mer si elle a soif Premier sur la poisse et sur les emmerdes On arrive de loin on a plus rien à perdre Tout ce qu'on a subi oh s'ils savaient L'eau froide en hiver le chauffe eau cassé Premier sur la poisse et sur les emmerdes On arrive de loin on a plus rien à perdre Tout ce qu'on a subi oh s'ils savaient L'eau froide en hiver le chauffe eau cassé Premier sur la poisse et sur les emmerdes On arrive de loin on a plus rien à perdre Tout ce qu'on a subi oh s'ils savaient L'eau froide en hiver le chauffe eau cassé As salam alaykoum, rejoins-nous sur Rap Genius !</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Yeah, hein hein Capitale du Crime 2 Yeah, quoi de neuf Fouiny Baby ? Nessbeal, yeah Un fe-keu un trav' gifle dans ses dents Un juge une poucave gifle dans ses dents Ton petit frère fume gifle dans ses dents On te regarde mal en soirée gifle dans ses dents Ils méritent ça dans ma Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Yeah, yeah, le rap est blessé donc je l'opère Et comme je lui ai baisé sa mère j'suis son beau-père Devant les bitches et les keufs, négro faut se taire A force de baiser la justice j'ai plus de me-sper J'ai grandi à Trappes là où le crime régnait La rue n'a pas de règle, mais j'la fais trop saigner J'arrive pour te blesser en SLR Te laisse en chien sur le trottoir toi et ton Entrée Libre SFR Yeah, j'ai fait ma peine bientôt je sors en perm' Je suis blanc comme neige, ils sont blancs comme sperme Et pour faire du blé on sait comment faire Chez moi on lâche des pitt' pas des commentaires Yeah, loubia et larhdass abdos et pecs Crève sale bâtard ! Sky sec bsahtek ! Je te tiens tu me tiens par la barbichette La première qui rira aura une levrette You might also like Un fe-keu un trav' gifle dans ses dents Un juge une poucave gifle dans ses dents Ton petit frère fume gifle dans ses dents On te regarde mal en soirée gifle dans ses dents Ils méritent ça dans ma Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Leur plume brille trop quand ils s'envolent On ne met pas tous les oiseaux en cage, l'hiver nous serre dans ses bras, les faucons survolent Épouse de guerre j'éclaire ta nuit comme les lucioles La lumière vient du sous-sol, pas d'auréole mais qu'une parole On ne peut pas perdre si on ne joue pas On tente on aime les actes, rien à perdre, l'adrénaline, 2Pac C'est, la bande originale d'ma life sur disque compact On se relève de tout, on se relève de ça même des impacts, gosse Gosse du divorce ressent tes blessures c'est comme une plaie Des fois l'armure se fissure la Playstation va pas te consoler A chaque jour suffit sa peine, tout est fragile j'peux pas l'ignorer Je m'évade en cavale tant qu'on m'a pas capturé J'me suis mangé des gifles par les grands, je crois que j'ai compris Longtemps après mais, je crois que j'ai compris quand même Ne2s La Fouine 94 Trappes ! Amnesia, fucking life ! Un fe-keu un trav' gifle dans ses dents Un juge une poucave gifle dans ses dents Ton petit frère fume gifle dans ses dents On te regarde mal en soirée gifle dans ses dents Ils méritent ça dans ma Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Yeah, j'ai une montre en diam's, mais j'ai plus le temps Et devant une chatte tu bandes mou comme de l'afghan J'fais des quages-bra, mais je mets pas de gants A en croire ta putain de tass' je suis épatant Quoi de neuf Fouiny Baby ? J'fais jouir ta tass' sans la toucher je suis comme le Wi-Fi Yeah, la rue court La Fouine transpire 78 frère la chaussée m'en rend martyr Un bastos dans les dents, si t'a pas le respect des parents J'me mange une gifle dans les dents, quand je vois mon compte courant Des fois c'est marrant la vie elle te met des gifles à bout portant Des litres et des chiffres, rien d'important Ça délivre une liasses de biff la salade khey, moi je suis content Les chevaliers du zodiaque je me prends pour Ken le Survivant Laouni j'fais pas belhani khey j'rigole moins qu'avant Ma solitude j'affronte la tempête perdu au milieu de l'océan Un fe-keu un trav' gifle dans ses dents Un juge une poucave gifle dans ses dents Ton petit frère fume gifle dans ses dents On te regarde mal en soirée gifle dans ses dents Ils méritent ça dans ma Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue sale music ! Mmh, Nessbeal Fouiny Baby ! Mmh, Banlieue sale music ! Yeah, quoi d'neuf Nessbeal Baby ? C'est ça ! Capitale du crime1</t>
+          <t>Yeah, hein hein Capitale du Crime 2 Yeah, quoi de neuf Fouiny Baby ? Nessbeal, yeah Un fe-keu un trav' gifle dans ses dents Un juge une poucave gifle dans ses dents Ton petit frère fume gifle dans ses dents On te regarde mal en soirée gifle dans ses dents Ils méritent ça dans ma Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Yeah, yeah, le rap est blessé donc je l'opère Et comme je lui ai baisé sa mère j'suis son beau-père Devant les bitches et les keufs, négro faut se taire A force de baiser la justice j'ai plus de me-sper J'ai grandi à Trappes là où le crime régnait La rue n'a pas de règle, mais j'la fais trop saigner J'arrive pour te blesser en SLR Te laisse en chien sur le trottoir toi et ton Entrée Libre SFR Yeah, j'ai fait ma peine bientôt je sors en perm' Je suis blanc comme neige, ils sont blancs comme sperme Et pour faire du blé on sait comment faire Chez moi on lâche des pitt' pas des commentaires Yeah, loubia et larhdass abdos et pecs Crève sale bâtard ! Sky sec bsahtek ! Je te tiens tu me tiens par la barbichette La première qui rira aura une levrette Un fe-keu un trav' gifle dans ses dents Un juge une poucave gifle dans ses dents Ton petit frère fume gifle dans ses dents On te regarde mal en soirée gifle dans ses dents Ils méritent ça dans ma Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Leur plume brille trop quand ils s'envolent On ne met pas tous les oiseaux en cage, l'hiver nous serre dans ses bras, les faucons survolent Épouse de guerre j'éclaire ta nuit comme les lucioles La lumière vient du sous-sol, pas d'auréole mais qu'une parole On ne peut pas perdre si on ne joue pas On tente on aime les actes, rien à perdre, l'adrénaline, 2Pac C'est, la bande originale d'ma life sur disque compact On se relève de tout, on se relève de ça même des impacts, gosse Gosse du divorce ressent tes blessures c'est comme une plaie Des fois l'armure se fissure la Playstation va pas te consoler A chaque jour suffit sa peine, tout est fragile j'peux pas l'ignorer Je m'évade en cavale tant qu'on m'a pas capturé J'me suis mangé des gifles par les grands, je crois que j'ai compris Longtemps après mais, je crois que j'ai compris quand même Ne2s La Fouine 94 Trappes ! Amnesia, fucking life ! Un fe-keu un trav' gifle dans ses dents Un juge une poucave gifle dans ses dents Ton petit frère fume gifle dans ses dents On te regarde mal en soirée gifle dans ses dents Ils méritent ça dans ma Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Yeah, j'ai une montre en diam's, mais j'ai plus le temps Et devant une chatte tu bandes mou comme de l'afghan J'fais des quages-bra, mais je mets pas de gants A en croire ta putain de tass' je suis épatant Quoi de neuf Fouiny Baby ? J'fais jouir ta tass' sans la toucher je suis comme le Wi-Fi Yeah, la rue court La Fouine transpire 78 frère la chaussée m'en rend martyr Un bastos dans les dents, si t'a pas le respect des parents J'me mange une gifle dans les dents, quand je vois mon compte courant Des fois c'est marrant la vie elle te met des gifles à bout portant Des litres et des chiffres, rien d'important Ça délivre une liasses de biff la salade khey, moi je suis content Les chevaliers du zodiaque je me prends pour Ken le Survivant Laouni j'fais pas belhani khey j'rigole moins qu'avant Ma solitude j'affronte la tempête perdu au milieu de l'océan Un fe-keu un trav' gifle dans ses dents Un juge une poucave gifle dans ses dents Ton petit frère fume gifle dans ses dents On te regarde mal en soirée gifle dans ses dents Ils méritent ça dans ma Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue Sale Music, Banlieue Banlieue Sale Music Banlieue sale music ! Mmh, Nessbeal Fouiny Baby ! Mmh, Banlieue sale music ! Yeah, quoi d'neuf Nessbeal Baby ? C'est ça ! Capitale du crime1</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>J'arrive en balle et j'ai chargé mon gun Frérot on est 50 en bas on peut te niquer ta reum Car on a plus rien à perdre Frère on a tout à gagner J'arrive en balle et j'ai chargé mon Glock CL 63 AMG garée devant le bloc Car on a plus rien à perdre Frère on a tout à gagner Yeah... Frère on a plus rien à perdre, on a tout à gagner J'posais mon premier seize, t'étais même pas né Tunisie, Mali, j'ai les mains salies Les rappeurs Français dégagent, hmm BenAli Hmm, BenArfa, on essaye d'me tacler Je suis en tête des ventes, t'es en pleine descente J'ai même des fans qui sont fans de mes propres fans T'as toutes mes punchlines, dans ton S Line Dans ton Twingo, Clio Initiale Bâtiment F deuxième étage, les vrais finissent 'al À trop vouloir monter, un jour tu t'fais descendre Tout vient à point à qui apprend à vendre C'est Fouiny parle et agis pour de vrai Quand la justice prends son souffle tu sais bien où les vents te mènent Yeah, Arrête tes sales manies, t'as le flow Karl Kani Pani problem j'emmerde Florent Pagny You might also like J'arrive en balle et j'ai chargé mon gun Frérot on est 50 en bas on peut te niquer ta reum Car on a plus rien à perdre Frère on a tout à gagner J'arrive en balle et j'ai chargé mon Glock CL 63 AMG garée devant le bloc Car on a plus rien à perdre Frère on a tout à gagner Capitale du crime la région parle de nous Une dua pour ceux sur les genoux et ceux qui voit des jnounns Coursé par la BAC la juge m'a jamais eu Quand la violence tombe malade, il y a qu'les flingues qui éternuent J'rap tu me plantes les fans se font un sang d'encre La renaissance du rap, dis leur que c'est F.A.BigBang Toujours au quartier, toujours à la baraque Les muslims foncent pas tête baissée, dis-leur que c'est juste une rakaat La vie aide tout le monde, la mort sauve personne Un brolic c'est comme un cercueil, tu t'en sers seul Le 93 sans la résine, c'est mieux que ta clique se résigne Mon bloc sent trop la résine, ghetto bamboula riddim Pas de saut à la perche, ici la barre est haute Si j'te tire dessus au grec, c'est que mes potes ont mis la sauce Baby, Laouni, l'histoire est pas très nette Tellement on représente la rue lÉtat nous rackette comme des parcmètres J'arrive en balle et j'ai chargé mon gun Frérot on est 50 en bas on peut te niquer ta reum Car on a plus rien à perdre Frère on a tout à gagner J'arrive en balle et j'ai chargé mon Glock CL 63 AMG garée devant le bloc Car on a plus rien à perdre Frère on a tout à gagner Yeah, ma nouvelle tass c'est mon ex-meuf Les anciennes victimes sont les nouveaux keufs Tes anciens ennemis sont tes nouveaux reufs Avant tu donnais de l'espoir maintenant tu donnes tes seufs Tes anciennes blessures de guerre sont devenues des balafres Tes potes qui étaient là hier aujourd'hui sont pas là New-New-New School tu vois, viens nous-nous test pour voir Aimer une pute c'est traîner son couple sur un trottoir Nous aussi on arrive en balle ! Arrive avec nous !</t>
+          <t>J'arrive en balle et j'ai chargé mon gun Frérot on est 50 en bas on peut te niquer ta reum Car on a plus rien à perdre Frère on a tout à gagner J'arrive en balle et j'ai chargé mon Glock CL 63 AMG garée devant le bloc Car on a plus rien à perdre Frère on a tout à gagner Yeah... Frère on a plus rien à perdre, on a tout à gagner J'posais mon premier seize, t'étais même pas né Tunisie, Mali, j'ai les mains salies Les rappeurs Français dégagent, hmm BenAli Hmm, BenArfa, on essaye d'me tacler Je suis en tête des ventes, t'es en pleine descente J'ai même des fans qui sont fans de mes propres fans T'as toutes mes punchlines, dans ton S Line Dans ton Twingo, Clio Initiale Bâtiment F deuxième étage, les vrais finissent 'al À trop vouloir monter, un jour tu t'fais descendre Tout vient à point à qui apprend à vendre C'est Fouiny parle et agis pour de vrai Quand la justice prends son souffle tu sais bien où les vents te mènent Yeah, Arrête tes sales manies, t'as le flow Karl Kani Pani problem j'emmerde Florent Pagny J'arrive en balle et j'ai chargé mon gun Frérot on est 50 en bas on peut te niquer ta reum Car on a plus rien à perdre Frère on a tout à gagner J'arrive en balle et j'ai chargé mon Glock CL 63 AMG garée devant le bloc Car on a plus rien à perdre Frère on a tout à gagner Capitale du crime la région parle de nous Une dua pour ceux sur les genoux et ceux qui voit des jnounns Coursé par la BAC la juge m'a jamais eu Quand la violence tombe malade, il y a qu'les flingues qui éternuent J'rap tu me plantes les fans se font un sang d'encre La renaissance du rap, dis leur que c'est F.A.BigBang Toujours au quartier, toujours à la baraque Les muslims foncent pas tête baissée, dis-leur que c'est juste une rakaat La vie aide tout le monde, la mort sauve personne Un brolic c'est comme un cercueil, tu t'en sers seul Le 93 sans la résine, c'est mieux que ta clique se résigne Mon bloc sent trop la résine, ghetto bamboula riddim Pas de saut à la perche, ici la barre est haute Si j'te tire dessus au grec, c'est que mes potes ont mis la sauce Baby, Laouni, l'histoire est pas très nette Tellement on représente la rue lÉtat nous rackette comme des parcmètres J'arrive en balle et j'ai chargé mon gun Frérot on est 50 en bas on peut te niquer ta reum Car on a plus rien à perdre Frère on a tout à gagner J'arrive en balle et j'ai chargé mon Glock CL 63 AMG garée devant le bloc Car on a plus rien à perdre Frère on a tout à gagner Yeah, ma nouvelle tass c'est mon ex-meuf Les anciennes victimes sont les nouveaux keufs Tes anciens ennemis sont tes nouveaux reufs Avant tu donnais de l'espoir maintenant tu donnes tes seufs Tes anciennes blessures de guerre sont devenues des balafres Tes potes qui étaient là hier aujourd'hui sont pas là New-New-New School tu vois, viens nous-nous test pour voir Aimer une pute c'est traîner son couple sur un trottoir Nous aussi on arrive en balle ! Arrive avec nous !</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Des étoiles plein la tête, ici on rêve tous de briller Gruger les barrières d'la réussites sans s'faire griller Hamdoulah ça va, ça ira mieux avec des billets Celle là c'est pour mes Rabzas, mes Gueches et mes Antillais, ouais On rentre pas dans leurs moules qui sont préfabriqués Pour m'évader j'ai que ma seum et mon putain de briquet Yeah yeah yeah yeah Ouais j'suis né pour briller, né pour trimer Et toutes ces promesses ne m'ont fait que déprimer J'ai dit J'arrête la bicrave, bonjour la souffrance J'ai tellement fait planer les gens, que tu peux m'appeler Air France Ouais, et toute cette drogue que j'ai liquidé au square Plus j'gagnais de sous, ouais plus j'perdais espoir De retrouver la vue Car les biens les plus chers, sans conscience tu peux pas les voir J'ai pris des coups toute ma vie avec les frères j'ai dû m'taire et puis rester en bas Jamais en cours sans diplôme, j'ai vu les larmes couler sur les joues de mes deux rents-pa Et si les étoiles m'accordent une chance, me laissent une place Alors on brillera, nous sommes nés pour briller Nous sommes nés pour briller Talalatapalapa Nous sommes nés pour briller You might also like Dans mon cas le courage aura payé plus que les études Mon ambition plus que les thunes Là d'où j'viens beaucoup de d'gens perdus crèvent Là où j'vais girl J'aurais souhaité t'amener Dans cette vie, faut s'battre, faut savoir s'battre À mains nues, négro, ou avec une batte Plus d'peur, plus d'pleurs dans l'cur P'tite sur, p'tit frère, que d'l'or, que du bonheur Après la pluie vient le beau temps Le point d'départ de mes rêves c'est ma cité T.R.A.2P.E.S On ira jusqu'au bout, plus dehors à Fresnes, yes Le passé au passé Soit au futur, moi boy si j'dois y rester C'est Yvelines, Green, MLC Ma banlieue boy, elle même sait J'ai pris des coups toute ma vie avec les frères j'ai dû m'taire et puis rester en bas Jamais en cours sans diplôme, j'ai vu les larmes couler sur les joues de mes deux rents-pa Et si les étoiles m'accordent une chance, me laissent une place Alors on brillera, nous sommes nés pour briller Aujourd'hui j'ai vingt piges et j'suis debout tant bien qu'mal J'fraye mon chemin Petit Prince danse avec le Diable Et j'suis un homme J'baisserai jamais les bras, même si ça fait mal J'me soigne à la résine avec mes potes dans les halls-salles Toutes ces blessures que l'square a pu m'causer On fait de moi un MLC, un poète chez les névrosés Tu finiras en taule - c'est c'que les profs me disaient J'm'en bats les couilles, j'aurai des disques d'or par dizaines Et si l'jour se lève une fois de plus C'est pas un hasard Garde la pêche en attendant qu'le ciel se dégage Pour l'instant je traîne et puis j'écris ma rage mon histoire Mais bizarrement j'ai des ratures sur chaque page Trop Black pour broyer du noir quand ça gratte sous mes Nike Qu'les portes claquent, les frères sont enfermés, nos mères craquent Mais c'est comme ça qu'c'est écrit, putain si j'avais eu l'choix J'te jure qu'j't'aurais épargné ces larmes ces soirs là, han J'ai pris des coups toute ma vie avec les frères j'ai dû m'taire et puis rester en bas Jamais en cours sans diplôme, j'ai vu les larmes couler sur les joues de mes deux rents-pa Et si les étoiles m'accordent une chance, me laissent une place Alors on brillera, nous sommes nés pour briller1</t>
+          <t>Des étoiles plein la tête, ici on rêve tous de briller Gruger les barrières d'la réussites sans s'faire griller Hamdoulah ça va, ça ira mieux avec des billets Celle là c'est pour mes Rabzas, mes Gueches et mes Antillais, ouais On rentre pas dans leurs moules qui sont préfabriqués Pour m'évader j'ai que ma seum et mon putain de briquet Yeah yeah yeah yeah Ouais j'suis né pour briller, né pour trimer Et toutes ces promesses ne m'ont fait que déprimer J'ai dit J'arrête la bicrave, bonjour la souffrance J'ai tellement fait planer les gens, que tu peux m'appeler Air France Ouais, et toute cette drogue que j'ai liquidé au square Plus j'gagnais de sous, ouais plus j'perdais espoir De retrouver la vue Car les biens les plus chers, sans conscience tu peux pas les voir J'ai pris des coups toute ma vie avec les frères j'ai dû m'taire et puis rester en bas Jamais en cours sans diplôme, j'ai vu les larmes couler sur les joues de mes deux rents-pa Et si les étoiles m'accordent une chance, me laissent une place Alors on brillera, nous sommes nés pour briller Nous sommes nés pour briller Talalatapalapa Nous sommes nés pour briller Dans mon cas le courage aura payé plus que les études Mon ambition plus que les thunes Là d'où j'viens beaucoup de d'gens perdus crèvent Là où j'vais girl J'aurais souhaité t'amener Dans cette vie, faut s'battre, faut savoir s'battre À mains nues, négro, ou avec une batte Plus d'peur, plus d'pleurs dans l'cur P'tite sur, p'tit frère, que d'l'or, que du bonheur Après la pluie vient le beau temps Le point d'départ de mes rêves c'est ma cité T.R.A.2P.E.S On ira jusqu'au bout, plus dehors à Fresnes, yes Le passé au passé Soit au futur, moi boy si j'dois y rester C'est Yvelines, Green, MLC Ma banlieue boy, elle même sait J'ai pris des coups toute ma vie avec les frères j'ai dû m'taire et puis rester en bas Jamais en cours sans diplôme, j'ai vu les larmes couler sur les joues de mes deux rents-pa Et si les étoiles m'accordent une chance, me laissent une place Alors on brillera, nous sommes nés pour briller Aujourd'hui j'ai vingt piges et j'suis debout tant bien qu'mal J'fraye mon chemin Petit Prince danse avec le Diable Et j'suis un homme J'baisserai jamais les bras, même si ça fait mal J'me soigne à la résine avec mes potes dans les halls-salles Toutes ces blessures que l'square a pu m'causer On fait de moi un MLC, un poète chez les névrosés Tu finiras en taule - c'est c'que les profs me disaient J'm'en bats les couilles, j'aurai des disques d'or par dizaines Et si l'jour se lève une fois de plus C'est pas un hasard Garde la pêche en attendant qu'le ciel se dégage Pour l'instant je traîne et puis j'écris ma rage mon histoire Mais bizarrement j'ai des ratures sur chaque page Trop Black pour broyer du noir quand ça gratte sous mes Nike Qu'les portes claquent, les frères sont enfermés, nos mères craquent Mais c'est comme ça qu'c'est écrit, putain si j'avais eu l'choix J'te jure qu'j't'aurais épargné ces larmes ces soirs là, han J'ai pris des coups toute ma vie avec les frères j'ai dû m'taire et puis rester en bas Jamais en cours sans diplôme, j'ai vu les larmes couler sur les joues de mes deux rents-pa Et si les étoiles m'accordent une chance, me laissent une place Alors on brillera, nous sommes nés pour briller1</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C'est l'été il pleut pour soigner ma crève J'ai ma vodka , ma redbull , mon sachet de beuh Plus personne est peace alors tout le monde crève Ce son c'est comme un Last Dance Je les ai vu ceux qui m'aiment Je les ai vu ceux qui me haïssent Le couteau je le ramasse pas je le fabrique LaFouiny Green sur le même Beat Ça fait vodka red bull 7-8 capitale du crime Frais même si ma banlieue est sale Fuck les donneurs de leçons on fait nos bails Pas easy mais hard Si je tiendrais pas le mic, je tiendrais une me-ar Larme aux yeux, sourire aux lèvres Appelle moi Green mauvais oeil Que ça soit ici ou dans une autre vie Ils payeront ceux qu'ont voulu me maudire J'mélange ma douleur et ma peine, ma violence et ma haine quand je traîne De la vodka et de la Redbull Je mélange mon tabac et ma hiya, die refais le monde quand j'ai bien pillave De la vodka et de la Redbull Je mélange mon quartier dans mes couplets, cellule, keuf, procureurs et le parquet... De la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull Yeah De la vodka et de la Redbull, de la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull You might also like Je mélange ma vodka, dans un verre de Redbull Je ferme les yeux et m'envole vers la lune J'essaye d 'oublier mais la rue m'appelle 25 piges que je traîne, ici y a pas d'appel Mes frères naissent dans la merde, pour oublier, fument de l'herbe On s'accroche a cette 'teille comme une bouée en pleine mer Et on ce dit c'est que de passage Et on se dit c'est que de passage 2, 3 verres dans les veines et ma rétine rougit Je casse une 'teille pour les frères ou j'allume une bougie Je bois de l'amour et vomis de la haine Ouais mec j ai changé de problèmes mais j'ai toujours autant de peine Au volant de ma misère je grille les feux la nuit Je suis tellement dingue de mes problèmes, qu'on m'a retiré le permis Des capsules pour entrer dans la matrice Mais aucune de ces drogues n'effacera mes cicatrices J'mélange ma douleur et ma peine, ma violence et ma haine quand je traîne De la vodka et de la Redbull Je mélange mon tabac et ma hiya, die refais le monde quand j'ai bien pillave De la vodka et de la Redbull Je mélange mon quartier dans mes couplets, cellule, keuf, procureurs et le parquet... De la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull Yeah De la vodka et de la Redbull, de la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull Au dessus des nuages je parasite je suis comme évadé dun asile J'ai vu la paix dans une bouteille de verre et l'état nous baratine Faire un deuxième, un gros spliff, je suis ailleurs J'ai mal au coeur dans cette liqueur je noie mes malheurs Je vois le mal partout , je pète un câble Petit prince s'est fait séduire par le diable Je réécris l'histoire, ouais j'ai un gramme dans le sang Si je pars prématurément, ce sera de la faute à pas de chance masta Paris by night, la coke et la débauche Je sais que tu kiffes bitch grimpe sur mon pied de biche La vie est moche, m'en voulez pas si des fois je triche Mes démons s'excitent faut les vesquis donc des fois je prie L'âme alcoolisé, acide sous mes versés Le secret est percé man, les salopes sont vexés Laisser moi rapper , je suis trop bien dans ma bulle Herbe médicinale vodka et redbull... Yeah Wesh la fouine c'est l'heure des gros bails J'ai remplacé ma limonade par un verre de sky J'mélange ma douleur et ma peine, ma violence et ma haine quand je traîne De la vodka et de la Redbull Je mélange mon tabac et ma hiya, die refais le monde quand j'ai bien pillave De la vodka et de la Redbull Je mélange mon quartier dans mes couplets, cellule, keuf, procureurs et le parquet... De la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull Yeah De la vodka et de la Redbull, de la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull2</t>
+          <t>C'est l'été il pleut pour soigner ma crève J'ai ma vodka , ma redbull , mon sachet de beuh Plus personne est peace alors tout le monde crève Ce son c'est comme un Last Dance Je les ai vu ceux qui m'aiment Je les ai vu ceux qui me haïssent Le couteau je le ramasse pas je le fabrique LaFouiny Green sur le même Beat Ça fait vodka red bull 7-8 capitale du crime Frais même si ma banlieue est sale Fuck les donneurs de leçons on fait nos bails Pas easy mais hard Si je tiendrais pas le mic, je tiendrais une me-ar Larme aux yeux, sourire aux lèvres Appelle moi Green mauvais oeil Que ça soit ici ou dans une autre vie Ils payeront ceux qu'ont voulu me maudire J'mélange ma douleur et ma peine, ma violence et ma haine quand je traîne De la vodka et de la Redbull Je mélange mon tabac et ma hiya, die refais le monde quand j'ai bien pillave De la vodka et de la Redbull Je mélange mon quartier dans mes couplets, cellule, keuf, procureurs et le parquet... De la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull Yeah De la vodka et de la Redbull, de la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull Je mélange ma vodka, dans un verre de Redbull Je ferme les yeux et m'envole vers la lune J'essaye d 'oublier mais la rue m'appelle 25 piges que je traîne, ici y a pas d'appel Mes frères naissent dans la merde, pour oublier, fument de l'herbe On s'accroche a cette 'teille comme une bouée en pleine mer Et on ce dit c'est que de passage Et on se dit c'est que de passage 2, 3 verres dans les veines et ma rétine rougit Je casse une 'teille pour les frères ou j'allume une bougie Je bois de l'amour et vomis de la haine Ouais mec j ai changé de problèmes mais j'ai toujours autant de peine Au volant de ma misère je grille les feux la nuit Je suis tellement dingue de mes problèmes, qu'on m'a retiré le permis Des capsules pour entrer dans la matrice Mais aucune de ces drogues n'effacera mes cicatrices J'mélange ma douleur et ma peine, ma violence et ma haine quand je traîne De la vodka et de la Redbull Je mélange mon tabac et ma hiya, die refais le monde quand j'ai bien pillave De la vodka et de la Redbull Je mélange mon quartier dans mes couplets, cellule, keuf, procureurs et le parquet... De la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull Yeah De la vodka et de la Redbull, de la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull Au dessus des nuages je parasite je suis comme évadé dun asile J'ai vu la paix dans une bouteille de verre et l'état nous baratine Faire un deuxième, un gros spliff, je suis ailleurs J'ai mal au coeur dans cette liqueur je noie mes malheurs Je vois le mal partout , je pète un câble Petit prince s'est fait séduire par le diable Je réécris l'histoire, ouais j'ai un gramme dans le sang Si je pars prématurément, ce sera de la faute à pas de chance masta Paris by night, la coke et la débauche Je sais que tu kiffes bitch grimpe sur mon pied de biche La vie est moche, m'en voulez pas si des fois je triche Mes démons s'excitent faut les vesquis donc des fois je prie L'âme alcoolisé, acide sous mes versés Le secret est percé man, les salopes sont vexés Laisser moi rapper , je suis trop bien dans ma bulle Herbe médicinale vodka et redbull... Yeah Wesh la fouine c'est l'heure des gros bails J'ai remplacé ma limonade par un verre de sky J'mélange ma douleur et ma peine, ma violence et ma haine quand je traîne De la vodka et de la Redbull Je mélange mon tabac et ma hiya, die refais le monde quand j'ai bien pillave De la vodka et de la Redbull Je mélange mon quartier dans mes couplets, cellule, keuf, procureurs et le parquet... De la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull Yeah De la vodka et de la Redbull, de la vodka et de la Redbull De la vodka et de la Redbull, de la vodka et de la Redbull2</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Plus l'temps d'parler pour rien, gros, ma voix sonne comme un crick crick Ton meilleur pote t'a banane, hasba laisse parler les crick crick Les tits-pe sortent la Kalash, voient la mort en face sans entendre les crick crick Et les 9 mili' discutent entre eux, font du bruit, j'entends les crick crick Les tête-à-tête c'est fini skuuurt, crissement de pneus et crick crick Les tête-à-tête c'est fini psht, plus d'extinct' que des crick crick Shout out F.A.Babe j'attends la Symphonie des crick crick J'suis condamné à régner, ou à décale à coups de crick crick Jusque devant ma porte, ces fils de pute font parler le crick crick Tôt ou tard ils le payeront, on oublie rien sur la tête de mon crick crick Plus l'temps d'parler pour rien douce mélodie tah les crick crick J'sors de boîte pété, bitch, écarte les cuisses que j'rentre mon crick crick On cartonne comme Ayrton, donc tous ces rageux veulent nous crick crick Vont niquer leur daronnes, comme Nicky Larson ça s'règle au crick crick Quand l'heure d'la vengeance sonne, entends les horloges chanter Ton buzz n'est plus dans l'ère du temps, j'vois ta carrière étranglée Attaque soviétique, négro j'ai l'flow à Staline crick crick Pour éteindre une embrouille négro va falloir qu't'allumes crick crick Comme des bastos dans un chargeur, toute ton équipe on l'aligne C'est l'histoire d'un bazooka qui voulait viser la Lune crick crick Sur un clic clac t'as surpris ta hlel ça finit en boucherie crick crick Les balles se perdent, les corps se trouvent, pas d'témoin, pas d'soucis La poésie des glocks, les vieilles histoires finissent en crick crick On t'allume pour une clope, dans l'tabac ça finit en crick crick Mon prof c'est Yuri Orlov si le savoir est une arme crick crick Tous les tirs sont cadrés, normal ici c'est Paname Un glock dans la bouche et les chargeurs bégayent crick crick Un corps sur la touche, et on part en YZ crick crick La chaleur de la vengeance, la froideur du métal crick crick Quand un gars tire en l'air y'a pas que Bolt qui décale crick crick Ce soir le rap français finit noyé dans la Seine J'ai fait un cauchemar j'ai rêvé qu'j'avais leur SACEM You might also like Un son bad, fat comme le cul à Nicki, IXZO Fouiny bang bang vas-y sors le liquide Transaction illicite, mon équipe rapplique, on gère le biz' sans fiche de paye au carré VIP Nous c'est les R c'est quoi ton équipe ? Cette année j'prends le titre et la Champions League Flow caméléon, sur l'instru je m'adapte, la voix qui électrifie, j'provoque des arrêts cardiaques Arnaque arnaque, oui j'vais la mettre, glocké, chargé, vise dans la tête Que personne ne m'arrête on m'a dit de tout cramer sur le CDC, CDC Depuis tout petit j'suis c'requin dans cette piscine d'MC, MC Savent comment j'rappe comment trappe comment j'drille, saluez tous c'est le prince de la ville 2.7.0 Tookie P l'industrie ont tourné dans tous les ghettos J'ai fait du chemin depuis la compil' Face B, demande à Bizon J'tabasse le rap mes négros pensent mal, on a fini à l'hôpital On a plaidé coupable, violence en réunion, on a plaidé coupable J'sors d'l'école d'la rue épargne-nous tes leçons J'suis devenu un pêcheur en mordant à l'hameçon J'veux plus tourner en rond, j'en fais sur l'terrain Young nigga, young nigga, bosse comme un ancien Mes potes m'ont dit psahteck tu kickes, tu veux rapper, arrête la bibi Tu veux rapper, arrête la bibi, les keufs t'écoutent même sur Facebook Ils t'likent, ils tweetent, tu connais la suite, tu connais la suite Grosse commission, perquisition, billet d'avion on prend la fuite5</t>
+          <t>Plus l'temps d'parler pour rien, gros, ma voix sonne comme un crick crick Ton meilleur pote t'a banane, hasba laisse parler les crick crick Les tits-pe sortent la Kalash, voient la mort en face sans entendre les crick crick Et les 9 mili' discutent entre eux, font du bruit, j'entends les crick crick Les tête-à-tête c'est fini skuuurt, crissement de pneus et crick crick Les tête-à-tête c'est fini psht, plus d'extinct' que des crick crick Shout out F.A.Babe j'attends la Symphonie des crick crick J'suis condamné à régner, ou à décale à coups de crick crick Jusque devant ma porte, ces fils de pute font parler le crick crick Tôt ou tard ils le payeront, on oublie rien sur la tête de mon crick crick Plus l'temps d'parler pour rien douce mélodie tah les crick crick J'sors de boîte pété, bitch, écarte les cuisses que j'rentre mon crick crick On cartonne comme Ayrton, donc tous ces rageux veulent nous crick crick Vont niquer leur daronnes, comme Nicky Larson ça s'règle au crick crick Quand l'heure d'la vengeance sonne, entends les horloges chanter Ton buzz n'est plus dans l'ère du temps, j'vois ta carrière étranglée Attaque soviétique, négro j'ai l'flow à Staline crick crick Pour éteindre une embrouille négro va falloir qu't'allumes crick crick Comme des bastos dans un chargeur, toute ton équipe on l'aligne C'est l'histoire d'un bazooka qui voulait viser la Lune crick crick Sur un clic clac t'as surpris ta hlel ça finit en boucherie crick crick Les balles se perdent, les corps se trouvent, pas d'témoin, pas d'soucis La poésie des glocks, les vieilles histoires finissent en crick crick On t'allume pour une clope, dans l'tabac ça finit en crick crick Mon prof c'est Yuri Orlov si le savoir est une arme crick crick Tous les tirs sont cadrés, normal ici c'est Paname Un glock dans la bouche et les chargeurs bégayent crick crick Un corps sur la touche, et on part en YZ crick crick La chaleur de la vengeance, la froideur du métal crick crick Quand un gars tire en l'air y'a pas que Bolt qui décale crick crick Ce soir le rap français finit noyé dans la Seine J'ai fait un cauchemar j'ai rêvé qu'j'avais leur SACEM Un son bad, fat comme le cul à Nicki, IXZO Fouiny bang bang vas-y sors le liquide Transaction illicite, mon équipe rapplique, on gère le biz' sans fiche de paye au carré VIP Nous c'est les R c'est quoi ton équipe ? Cette année j'prends le titre et la Champions League Flow caméléon, sur l'instru je m'adapte, la voix qui électrifie, j'provoque des arrêts cardiaques Arnaque arnaque, oui j'vais la mettre, glocké, chargé, vise dans la tête Que personne ne m'arrête on m'a dit de tout cramer sur le CDC, CDC Depuis tout petit j'suis c'requin dans cette piscine d'MC, MC Savent comment j'rappe comment trappe comment j'drille, saluez tous c'est le prince de la ville 2.7.0 Tookie P l'industrie ont tourné dans tous les ghettos J'ai fait du chemin depuis la compil' Face B, demande à Bizon J'tabasse le rap mes négros pensent mal, on a fini à l'hôpital On a plaidé coupable, violence en réunion, on a plaidé coupable J'sors d'l'école d'la rue épargne-nous tes leçons J'suis devenu un pêcheur en mordant à l'hameçon J'veux plus tourner en rond, j'en fais sur l'terrain Young nigga, young nigga, bosse comme un ancien Mes potes m'ont dit psahteck tu kickes, tu veux rapper, arrête la bibi Tu veux rapper, arrête la bibi, les keufs t'écoutent même sur Facebook Ils t'likent, ils tweetent, tu connais la suite, tu connais la suite Grosse commission, perquisition, billet d'avion on prend la fuite5</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>J'aurais dû l'dire quand il fallait, trop d'problèmes à parler Ici on dit oui avec le cur Et si la chance n'est pas notre alliée et qu'l'addition est salée On rappera pour les frères et les surs Yeahi, oh oh oh oh ohh Eh eh eh eh eh Ohohohohohoh Ici on dit oui avec le cur ! Les aveugles sont pas optimistes, c'est un 'blème d'horizons L'UNICEF reçoit pas d'dons, c'est un 'blème de compassion On a tous le visage triste, c'est un 'blème de sourire C'est ma tess contre ta tess, un 'blème de xéno-folie ! Ma nièce voit la vie en rose, avec Dora et ses céréales Si la daronne fait que d'ré-pleu, c'est qu'c'est un 'blème carcéral On fait que d'se tirer dessus, c'est un 'blème de film de Far West ! J'sais pas wesh, il pleut des balles, j'crois qu'c'est un 'blème de K-Way Ton daron veut pas d'ce mariage, c'est un 'blème de culture Si ton label démarre pas, bah c'est un 'blème de structure Si on veut pas devenir comme eux, bah c'est un 'blème avec leurs lois Et si on s'en remet plus à Dieu, bah c'est un 'blème avec notre foi Si tu m'vois marcher tout seul, c'est un 'blème d'amitié Beaucoup trop d'gens m'ont trahi, triste réalité Tu veux que l'horizon t'transporte, t'écouteras ma musique Les miens refusent de s'instruire, y'a pas l'Afrique dans leurs musées You might also like J'aurais dû l'dire quand il fallait, trop d'problèmes à parler Ici on dit oui avec le cur Et si la chance n'est pas notre alliée et qu'l'addition est salée On rappera pour les frères et les surs Yeahi, oh oh oh oh ohh Eh eh eh eh eh Ohohohohohoh Ici on dit oui avec le cur ! Si on s'méfie d'tout l'monde, c'est qu'c'est un 'blème de jalousie Si on a insulté la juge, c'est qu'c'est un 'blème de sursis Et si les femmes ont peur d'aimer, c'est qu'c'est un 'blème avec les hommes Si mes frères s'suicident en taule, c'est un 'blème de parloirs fantômes Des frères expulsés d'la France, paraît qu'c'est un 'blème de visa Moi j'écoute pas leurs politiques, et dis qu'c'est un 'blème de visage De paysage, hier encore les keufs nous ont insultés d'singes Pour la droite, c'est rien, pour nous c'est un truc de dingue Si mes frères se tirent dessus, c'est qu'c'est un 'blème de territoire Et si nos surs nous parlent plus, c'est qu'c'est un 'blème d'autorité Les derniers seront les premiers, j'dis qu'mes gars sont en retard Et si on crame des véhicules, c'est pour qu'la France nous regarde Si tu m'vois rapper ma tristesse, c'est qu'c'est un 'blème avec ma peine Et si j'parle plus au daron, c'est qu'c'est un 'blème personnel Si ma vie j'en f'rais un film, mon neuf-trois s'rait trop ému LAfrique pleure des larmes de tristesse séchées par l'ONU J'aurais dû l'dire quand il fallait, trop d'problèmes à parler Ici on dit oui avec le cur Et si la chance n'est pas notre alliée et qu'l'addition est salée On rappera pour les frères et les surs Yeahi, oh oh oh oh ohh Eh eh eh eh eh Ohohohohohoh Ici on dit oui avec le cur !</t>
+          <t>J'aurais dû l'dire quand il fallait, trop d'problèmes à parler Ici on dit oui avec le cur Et si la chance n'est pas notre alliée et qu'l'addition est salée On rappera pour les frères et les surs Yeahi, oh oh oh oh ohh Eh eh eh eh eh Ohohohohohoh Ici on dit oui avec le cur ! Les aveugles sont pas optimistes, c'est un 'blème d'horizons L'UNICEF reçoit pas d'dons, c'est un 'blème de compassion On a tous le visage triste, c'est un 'blème de sourire C'est ma tess contre ta tess, un 'blème de xéno-folie ! Ma nièce voit la vie en rose, avec Dora et ses céréales Si la daronne fait que d'ré-pleu, c'est qu'c'est un 'blème carcéral On fait que d'se tirer dessus, c'est un 'blème de film de Far West ! J'sais pas wesh, il pleut des balles, j'crois qu'c'est un 'blème de K-Way Ton daron veut pas d'ce mariage, c'est un 'blème de culture Si ton label démarre pas, bah c'est un 'blème de structure Si on veut pas devenir comme eux, bah c'est un 'blème avec leurs lois Et si on s'en remet plus à Dieu, bah c'est un 'blème avec notre foi Si tu m'vois marcher tout seul, c'est un 'blème d'amitié Beaucoup trop d'gens m'ont trahi, triste réalité Tu veux que l'horizon t'transporte, t'écouteras ma musique Les miens refusent de s'instruire, y'a pas l'Afrique dans leurs musées J'aurais dû l'dire quand il fallait, trop d'problèmes à parler Ici on dit oui avec le cur Et si la chance n'est pas notre alliée et qu'l'addition est salée On rappera pour les frères et les surs Yeahi, oh oh oh oh ohh Eh eh eh eh eh Ohohohohohoh Ici on dit oui avec le cur ! Si on s'méfie d'tout l'monde, c'est qu'c'est un 'blème de jalousie Si on a insulté la juge, c'est qu'c'est un 'blème de sursis Et si les femmes ont peur d'aimer, c'est qu'c'est un 'blème avec les hommes Si mes frères s'suicident en taule, c'est un 'blème de parloirs fantômes Des frères expulsés d'la France, paraît qu'c'est un 'blème de visa Moi j'écoute pas leurs politiques, et dis qu'c'est un 'blème de visage De paysage, hier encore les keufs nous ont insultés d'singes Pour la droite, c'est rien, pour nous c'est un truc de dingue Si mes frères se tirent dessus, c'est qu'c'est un 'blème de territoire Et si nos surs nous parlent plus, c'est qu'c'est un 'blème d'autorité Les derniers seront les premiers, j'dis qu'mes gars sont en retard Et si on crame des véhicules, c'est pour qu'la France nous regarde Si tu m'vois rapper ma tristesse, c'est qu'c'est un 'blème avec ma peine Et si j'parle plus au daron, c'est qu'c'est un 'blème personnel Si ma vie j'en f'rais un film, mon neuf-trois s'rait trop ému LAfrique pleure des larmes de tristesse séchées par l'ONU J'aurais dû l'dire quand il fallait, trop d'problèmes à parler Ici on dit oui avec le cur Et si la chance n'est pas notre alliée et qu'l'addition est salée On rappera pour les frères et les surs Yeahi, oh oh oh oh ohh Eh eh eh eh eh Ohohohohohoh Ici on dit oui avec le cur !</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Se faire fumer sous la neige cest ça un fait divers Demande au daron, la pauvreté nest pas héréditaire Jtise plus dalcool, mais jai des problèmes de foi Jroule à fond sur le Pont dlAlma LadyDiana Finie la pénurie, y'a haja ou y'a foye Méfie-toi de certains shabs qui cachent leur jeu comme des ladys-boys Ma voiture est allemande comme le nouveau maillot dAubameyang CDC beaucoup lattendent Mon placard était vide Qui aurait cru quvingt ans plus tard jaurai des excès dbagages, ils ont la rage Ici cest Bagdad jmets tout lmonde daccord Mon album fait plaisir comme un harki mort Jparle pas beaucoup jpréfère agir Et si tu veux ma peau faut tlever tôt comme pour le Fajr Jai des gens qui travaillent pour des gens qui travaillent pour moi Et si tu finis à lhosto cest quon est restés courtois Tester pourquoi ? Rien na changé à part le nouveau modèle de ma ture-voi Fuck leurs lois, ici cest Fouine-La Entre eux et nous ya rien à voir On tnique ta mère et on sort en provisoire Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles You might also like Tu veux tester ma clique arrête LÉtat a ses miradors, lBon Dieu a ses minarets Jfais mal comme une césarienne, à cquil paraît, jrappe tah la maison darrêt Va ldire aux grands, jai du cran et un cran darrêt Jsuis libérable, ramène dla chienne et dla jaune Hchem, pas dla com, jpartirai comme une icône boy La rue me suit depuis ma première gorgée Depuis jai touché lor cest pour les écorchés qui mangent égorgés Voilà un son pas pour les pisseuses 7.8 Fouiny Baby A.K.A mangeur de pierres précieuses La Banlieue Sale ne ramasse pas lsavon Jsuis dans les airs en Première, toi tes en mode avion Jfais dla télé, du rap, des sappes et du cinéma Jai aucun diplôme jsais juste casser des neimans Martin Luther cest pour les reufs Jai fait un rêve, javais du sang dkeuf sur ma DB9 toute neuve Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles Jai plastifié lgame, foutu lrap à quatre pattes Il mreste un peu dC4 et CDC4 On fait des trucs de ouf, les keufs à nos trousses En 22 pouces, signe des contrats sans trousse Et si on plombe lambiance cest pas un jeu dmots, yaura des décès Jrappe depuis le Secteur A, frère, Mafia Trece Depuis ldébut les khos, la poisse me follow Sur mon polo le double G, gros, forme mon logo Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles2</t>
+          <t>Se faire fumer sous la neige cest ça un fait divers Demande au daron, la pauvreté nest pas héréditaire Jtise plus dalcool, mais jai des problèmes de foi Jroule à fond sur le Pont dlAlma LadyDiana Finie la pénurie, y'a haja ou y'a foye Méfie-toi de certains shabs qui cachent leur jeu comme des ladys-boys Ma voiture est allemande comme le nouveau maillot dAubameyang CDC beaucoup lattendent Mon placard était vide Qui aurait cru quvingt ans plus tard jaurai des excès dbagages, ils ont la rage Ici cest Bagdad jmets tout lmonde daccord Mon album fait plaisir comme un harki mort Jparle pas beaucoup jpréfère agir Et si tu veux ma peau faut tlever tôt comme pour le Fajr Jai des gens qui travaillent pour des gens qui travaillent pour moi Et si tu finis à lhosto cest quon est restés courtois Tester pourquoi ? Rien na changé à part le nouveau modèle de ma ture-voi Fuck leurs lois, ici cest Fouine-La Entre eux et nous ya rien à voir On tnique ta mère et on sort en provisoire Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles Tu veux tester ma clique arrête LÉtat a ses miradors, lBon Dieu a ses minarets Jfais mal comme une césarienne, à cquil paraît, jrappe tah la maison darrêt Va ldire aux grands, jai du cran et un cran darrêt Jsuis libérable, ramène dla chienne et dla jaune Hchem, pas dla com, jpartirai comme une icône boy La rue me suit depuis ma première gorgée Depuis jai touché lor cest pour les écorchés qui mangent égorgés Voilà un son pas pour les pisseuses 7.8 Fouiny Baby A.K.A mangeur de pierres précieuses La Banlieue Sale ne ramasse pas lsavon Jsuis dans les airs en Première, toi tes en mode avion Jfais dla télé, du rap, des sappes et du cinéma Jai aucun diplôme jsais juste casser des neimans Martin Luther cest pour les reufs Jai fait un rêve, javais du sang dkeuf sur ma DB9 toute neuve Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles Jai plastifié lgame, foutu lrap à quatre pattes Il mreste un peu dC4 et CDC4 On fait des trucs de ouf, les keufs à nos trousses En 22 pouces, signe des contrats sans trousse Et si on plombe lambiance cest pas un jeu dmots, yaura des décès Jrappe depuis le Secteur A, frère, Mafia Trece Depuis ldébut les khos, la poisse me follow Sur mon polo le double G, gros, forme mon logo Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles Jai dla fraîche pour les frères, pas besoin dtrônes On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles On fuck leurs pyramides on veut des loves Ouais on veut des loves Jai dla fraîche pour les frères, mon avocat mon seul guide Les frères sont libérables après des siècles2</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Triple N Beat Eh yo Nelson, tu vas maccélérer le beat, c'est trop lent là Et tu vas même me mettre des... des rythmiques à l'ancienne Des bonnes caisses claires, charlés, comme en 96, hé ouais, depuis le 96. Yo ! Depuis l'époque où j'entendais des échos dans mon bigot Aujourd'hui les p'tits veulent rapper comme Future et Migos Si tu savais ça fait du bien rebeu de reprendre ce flooow J'vais péter la Grey Goose, au Liv gros ! Jeune trappiste, rebeu souvent coursé par la BAC Sur scène j'avais rien dans les poches mais j'ai vidé mon sac Aujourd'hui les p'tits bourgeois sont fascinés par ça Un terrain, du sang, quelques trous sur l'maillot du Barça Eh ouais petit c'est ça du rap, on t'a menti toute ta vie Ici on risque la nôtre pour une journée de salaire à Xavi Les études on connait pas khoya, alors on braque Fouiny Babe encore un millionnaire qui a pas le bac Ils sont trop jaloux, ils me jettent des sorts comme à Salem Normal, ils sont au McDo, j'suis dans la McLaren J'suis dans l'arène, Banlieue Sale, c'est la crème de la crème Ils font de la peine, j'insulterai leurs mères en plein Carême Ceinture double G comme à l'Atletico Interdit aux fils de pute gravé sur l'écriteau J'm'rappelle de la fumée, aquarium dans la Twingo On se sent souvent seul, quand se baisse le rideau You might also like J'tournais avec mon bédot, puis mon pack de seize Tellement de choses à dire khoya, ils voudraient qu'on s'taise L' État n'est pas content, gros c'est la même on le baise Ce soir j'ai envie d'rapper comme en 96 On connaît la misère du 7-8 jusqu'au 13 On est pas là pour rapper toutes ces choses qui leur plaisent Ils savent pas qui on est, dièse-trente-et-un-dièse Ce soir j'ai envie d'rapper comme en 96 Les plus courageux faisaient des go fast chez les catalans Certains s'obstinaient à rapper mais n'avaient pas le talent On est beaucoup au départ, peu à l'arrivée À l'arrivée, on s'tire dessus avec les frangins du départ J'ai mal au cur, mes surs voilées se font harceler Aujourd'hui, pour un rien tu te fais incarcérer Même si ton iPhone explose à cause de la batterie C'est la merde, ne confonds pas Siri et la Syrie Tu nais, t'as rien, tu charbonne et puis un jour t'as tout Rebeu j'bicrave le bédot, depuis l'époque du Tatoo En promenade avec les gars des Mureaux, Mantes et Chanteloup Toi t'as fait ci, t'as fait ça, tu fais rire comme Canteloup Boom-boom, six heures du mat, les keufs attaquent au bélier J'aurai dû poser à Nice, j'ai le flow à Balotelli Ces fils de pute m'envoient des piques, je m'endors dans les orties J'ai perdu beaucoup d'amis, le jour je m'en suis sorti J'tournais avec mon bédot, puis mon pack de seize Tellement de choses à dire khoya, ils voudraient qu'on s'taise L' État n'est pas content, gros c'est la même on le baise Ce soir j'ai envie d'rapper comme en 96 On connaît la misère du 7-8 jusqu'au 13 On est pas là pour rapper toutes ces choses qui leur plaisent Ils savent pas qui on est, dièse-trente-et-un-dièse Ce soir j'ai envie d'rapper comme en 96 Quand mon front touche le sol, khoya j'me sens trop bien Je marrête à la station, cent cinquante euros le plein J'investis en France, chez les rebeux, chez les ricains Mais j'représente la banlieue, j'ai le flow d'une paire de requins Quoi d'neuf khoya? Rien à part de nouveaux décès Tu veux planer, mets CDCC ou tape un rail de C Ces fils de pute tôt ou tard un jour faudra les mêler J'demande l'heure au maton, ma Hublot est sous-scellée Comme en 96, j'cours sur l'terrain comme Blaise Reviens pécho chez nous, leur peufra est mauvaise Tu veux d'la colombienne, elle monte vite comme James Ce soir j'ai envie de rapper comme en 96 J'tournais avec mon bédot, puis mon pack de seize Tellement de choses à dire khoya, ils voudraient qu'on s'taise L' État n'est pas content, gros c'est la même on le baise Ce soir j'ai envie d'rapper comme en 96 On connaît la misère du 7-8 jusqu'au 13 On est pas là pour rapper toutes ces choses qui leur plaisent Ils savent pas qui on est, dièse-trente-et-un-dièse Ce soir j'ai envie d'rapper comme en 96 Yo, ça fait du bien bébé de reprendre ce flow J'sais pas ce qu'ils racontent wAllah... Tiens Nelson, coupes le son, mets moi un gros beat d'aujourd'hui2</t>
+          <t>Triple N Beat Eh yo Nelson, tu vas maccélérer le beat, c'est trop lent là Et tu vas même me mettre des... des rythmiques à l'ancienne Des bonnes caisses claires, charlés, comme en 96, hé ouais, depuis le 96. Yo ! Depuis l'époque où j'entendais des échos dans mon bigot Aujourd'hui les p'tits veulent rapper comme Future et Migos Si tu savais ça fait du bien rebeu de reprendre ce flooow J'vais péter la Grey Goose, au Liv gros ! Jeune trappiste, rebeu souvent coursé par la BAC Sur scène j'avais rien dans les poches mais j'ai vidé mon sac Aujourd'hui les p'tits bourgeois sont fascinés par ça Un terrain, du sang, quelques trous sur l'maillot du Barça Eh ouais petit c'est ça du rap, on t'a menti toute ta vie Ici on risque la nôtre pour une journée de salaire à Xavi Les études on connait pas khoya, alors on braque Fouiny Babe encore un millionnaire qui a pas le bac Ils sont trop jaloux, ils me jettent des sorts comme à Salem Normal, ils sont au McDo, j'suis dans la McLaren J'suis dans l'arène, Banlieue Sale, c'est la crème de la crème Ils font de la peine, j'insulterai leurs mères en plein Carême Ceinture double G comme à l'Atletico Interdit aux fils de pute gravé sur l'écriteau J'm'rappelle de la fumée, aquarium dans la Twingo On se sent souvent seul, quand se baisse le rideau J'tournais avec mon bédot, puis mon pack de seize Tellement de choses à dire khoya, ils voudraient qu'on s'taise L' État n'est pas content, gros c'est la même on le baise Ce soir j'ai envie d'rapper comme en 96 On connaît la misère du 7-8 jusqu'au 13 On est pas là pour rapper toutes ces choses qui leur plaisent Ils savent pas qui on est, dièse-trente-et-un-dièse Ce soir j'ai envie d'rapper comme en 96 Les plus courageux faisaient des go fast chez les catalans Certains s'obstinaient à rapper mais n'avaient pas le talent On est beaucoup au départ, peu à l'arrivée À l'arrivée, on s'tire dessus avec les frangins du départ J'ai mal au cur, mes surs voilées se font harceler Aujourd'hui, pour un rien tu te fais incarcérer Même si ton iPhone explose à cause de la batterie C'est la merde, ne confonds pas Siri et la Syrie Tu nais, t'as rien, tu charbonne et puis un jour t'as tout Rebeu j'bicrave le bédot, depuis l'époque du Tatoo En promenade avec les gars des Mureaux, Mantes et Chanteloup Toi t'as fait ci, t'as fait ça, tu fais rire comme Canteloup Boom-boom, six heures du mat, les keufs attaquent au bélier J'aurai dû poser à Nice, j'ai le flow à Balotelli Ces fils de pute m'envoient des piques, je m'endors dans les orties J'ai perdu beaucoup d'amis, le jour je m'en suis sorti J'tournais avec mon bédot, puis mon pack de seize Tellement de choses à dire khoya, ils voudraient qu'on s'taise L' État n'est pas content, gros c'est la même on le baise Ce soir j'ai envie d'rapper comme en 96 On connaît la misère du 7-8 jusqu'au 13 On est pas là pour rapper toutes ces choses qui leur plaisent Ils savent pas qui on est, dièse-trente-et-un-dièse Ce soir j'ai envie d'rapper comme en 96 Quand mon front touche le sol, khoya j'me sens trop bien Je marrête à la station, cent cinquante euros le plein J'investis en France, chez les rebeux, chez les ricains Mais j'représente la banlieue, j'ai le flow d'une paire de requins Quoi d'neuf khoya? Rien à part de nouveaux décès Tu veux planer, mets CDCC ou tape un rail de C Ces fils de pute tôt ou tard un jour faudra les mêler J'demande l'heure au maton, ma Hublot est sous-scellée Comme en 96, j'cours sur l'terrain comme Blaise Reviens pécho chez nous, leur peufra est mauvaise Tu veux d'la colombienne, elle monte vite comme James Ce soir j'ai envie de rapper comme en 96 J'tournais avec mon bédot, puis mon pack de seize Tellement de choses à dire khoya, ils voudraient qu'on s'taise L' État n'est pas content, gros c'est la même on le baise Ce soir j'ai envie d'rapper comme en 96 On connaît la misère du 7-8 jusqu'au 13 On est pas là pour rapper toutes ces choses qui leur plaisent Ils savent pas qui on est, dièse-trente-et-un-dièse Ce soir j'ai envie d'rapper comme en 96 Yo, ça fait du bien bébé de reprendre ce flow J'sais pas ce qu'ils racontent wAllah... Tiens Nelson, coupes le son, mets moi un gros beat d'aujourd'hui2</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Le Neuf-Trois a un projet de pierre pour esquiver la police Avec une camisole, j'peux enlacer ma folie Des guns, des couplets, des refrains et des poèmes On prend des risques énormes, à la hauteur d'nos problèmes Dès qu'il y a un délit en vu, les petits d'chez moi le commettent La violence a ses raisons que la douleur peut connaître La misère a les pieds sur terre, j'ai envie d'voler J'ai mis du temps à m'reconstruire, comme l'honneur d'une femme violée Mon destin un flingue, un stylo et un plat d'mafé L'équipe que j'peux t'mettre sur l'dos, elle sera pas là pour t'masser Et si les baceux viennent, dis-leur bien qu'j'suis pas fou Comment respecter la loi quand les keufs la bafouent ? Mon amitié est dans l'brouillard, du coup, j'ai peur pour mes frères Paranoïa instinctive, j'ai tiré sur mon reflet Tu m'envoies des piques, j'vends plus que toi, l'oublie pas J'préfère être puceau sur l'banc qu'être titulaire du Sida Et si le jour se lève et qu't'as encore mal, tu seras obligé d'mettre pause Et si le jour se lève, que Dieu nous pardonne, on refera pas les mêmes fautes Et si le jour se lève et qu't'es encore loin, dis pas qu'c'est d'ma faute Et si le jour se lève et qu't'es encore là, j'te donnerai une rose You might also like Ils veulent me mettre dans un Boeing, direction le pays La France veut couper les ponts mais mes parents les ont construits J'suis ce genre de rebeu identifié derrière la vitre J'cartonne, mais j'suis aussi marocain qu'un filtre Ils aimeraient me voir loin, ils aimeraient me voir dead Ils veulent pas partager tout ce qu'ils ont pillé dans mon bled Frérot, comme ils nous bernent, j'crois qu'il faudrait qu'on m'interne Car j'ai capté leur jeu, les colons modernes Jean-Marie n'est pas clair, il aimerait me voir à terre Je veux rentrer dans les charts, il veut me mettre dans un charter Eh ouais, c'est triste à dire, mais on n'se mélange plus, mon poto Tu verras pas de blanc à part s'il neige à Château d'Eau C'est rare d'nous voir ensemble, à part en équipe de France À part aux concerts de rap, donc viens sur la piste de danse Est-ce que tout l'monde a sa chance, les gras et les maigres ? Aucun patron black, à part Pascal Nègre Fouiny Et si le jour se lève et qu't'as encore mal, tu seras obligé d'mettre pause Et si le jour se lève, que Dieu nous pardonne, on refera pas les mêmes fautes Et si le jour se lève et qu't'es encore loin, dis pas qu'c'est d'ma faute Et si le jour se lève et qu't'es encore là, j'te donnerai une rose J'ai toujours fait ça pour les miens C'est Fouiny, F.A.Baby Le soleil se lève pour ceux qui viennent de loin Neuf-Trois, Sept-Huit, boys and ladies1</t>
+          <t>Le Neuf-Trois a un projet de pierre pour esquiver la police Avec une camisole, j'peux enlacer ma folie Des guns, des couplets, des refrains et des poèmes On prend des risques énormes, à la hauteur d'nos problèmes Dès qu'il y a un délit en vu, les petits d'chez moi le commettent La violence a ses raisons que la douleur peut connaître La misère a les pieds sur terre, j'ai envie d'voler J'ai mis du temps à m'reconstruire, comme l'honneur d'une femme violée Mon destin un flingue, un stylo et un plat d'mafé L'équipe que j'peux t'mettre sur l'dos, elle sera pas là pour t'masser Et si les baceux viennent, dis-leur bien qu'j'suis pas fou Comment respecter la loi quand les keufs la bafouent ? Mon amitié est dans l'brouillard, du coup, j'ai peur pour mes frères Paranoïa instinctive, j'ai tiré sur mon reflet Tu m'envoies des piques, j'vends plus que toi, l'oublie pas J'préfère être puceau sur l'banc qu'être titulaire du Sida Et si le jour se lève et qu't'as encore mal, tu seras obligé d'mettre pause Et si le jour se lève, que Dieu nous pardonne, on refera pas les mêmes fautes Et si le jour se lève et qu't'es encore loin, dis pas qu'c'est d'ma faute Et si le jour se lève et qu't'es encore là, j'te donnerai une rose Ils veulent me mettre dans un Boeing, direction le pays La France veut couper les ponts mais mes parents les ont construits J'suis ce genre de rebeu identifié derrière la vitre J'cartonne, mais j'suis aussi marocain qu'un filtre Ils aimeraient me voir loin, ils aimeraient me voir dead Ils veulent pas partager tout ce qu'ils ont pillé dans mon bled Frérot, comme ils nous bernent, j'crois qu'il faudrait qu'on m'interne Car j'ai capté leur jeu, les colons modernes Jean-Marie n'est pas clair, il aimerait me voir à terre Je veux rentrer dans les charts, il veut me mettre dans un charter Eh ouais, c'est triste à dire, mais on n'se mélange plus, mon poto Tu verras pas de blanc à part s'il neige à Château d'Eau C'est rare d'nous voir ensemble, à part en équipe de France À part aux concerts de rap, donc viens sur la piste de danse Est-ce que tout l'monde a sa chance, les gras et les maigres ? Aucun patron black, à part Pascal Nègre Fouiny Et si le jour se lève et qu't'as encore mal, tu seras obligé d'mettre pause Et si le jour se lève, que Dieu nous pardonne, on refera pas les mêmes fautes Et si le jour se lève et qu't'es encore loin, dis pas qu'c'est d'ma faute Et si le jour se lève et qu't'es encore là, j'te donnerai une rose J'ai toujours fait ça pour les miens C'est Fouiny, F.A.Baby Le soleil se lève pour ceux qui viennent de loin Neuf-Trois, Sept-Huit, boys and ladies1</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Ne suis pas d'règles, j'suis mon propre boss Saigne mon son, comme des menstrus Instru d'batârd, faites sur mesure Toi t'investi sur Soundclick why, mens-tu? Les whites men tuent... Plus de blacks Qu'ils n'arrêtent, de meurtriers blancs vois tu? Je n'ai pas d'voiture, même sans plaques On roule la ville comme des King t'as vu Pas d'tabou, bande de pigeons J'ai une clique d'Hawks, comme Thabo Man t'as beau, rager sur nos sons We the best, still... comme Vado Pas d'tableau, Pourtant tu vois que j'excelle.... Au calme dans mon domaine J'veux d'la doe mayne... Fuck, une vie d'pauvre mec Faut briser le cycle frère You might also likeCeux qui glorifient la guap Ne voient que des dolla signs comme Ty Fuck boys, que des broke boys Se vantent d'une fortune, qu'ils n'ont même pas! J'suis pas Fouine La... ma musique Ne touche pas un public d'âge bas J'veux pas plaire, j'veux qu'tu comprennes Tout c'que j'raconte sur chaque Ke-tra Pas d'gue-bla, King Nov, marche qu'avec des gens comme moi Que des Kebla droits Pique d'illettrés qu'ils envoient... N'atteignent même pas, ma mailbox Si... Tu trouves ces Mc sick, je suis l'antidote Ne compare pas le guépard à une antilope Fuck vos shits, allez longwaaaaa No worry, j'suis sur la bonne voie On lâche que des shits, qui font groover Vouuuuus... Allez chercher vos yecou aux objets trouvés Couuuuurez... Fuck boys, que des fuck boys We still don't give a fuck boy Fuck boys, que des fuck boys We still don't give a fuck booooooy Longwa, mothafucka longwa, longwa Dégage de ma... waye Longwa, mothafucka longwa, longwa Mooooove... Mooooove Longwa, mothafucka longwa, longwa Moooove... MOOOOVE Longwa, mothafucka longwa, longwa En face c'est la sécheresse, t'inquiète pas t'as pas ve-rer Ils tirent la guelan et attendent Qu'une goutte de mon juice tombe du ciel pour s'abreuver J'suis un cadeau d'la street J'fais maigrir ceux qui hate, comme les shmits Font perdre des kilos à ceux qu'ont épouser le biz' Anneau gastrique, à Nev-ge y'a personne Quidort Pour nous c'est juste un arrêt Tu prends une gauche, m'aperçois à tribord Si t'es, wasa wasa viens pas m'check si t'as peur du froid Gage-dé si tu suces resta Pour essayer d'connaître la saveur de la gloire J'veux mon repas, mon damage, mon festin Guidé par les étoiles comme Rois Mages Prêt à assumer mon destin Chaque fois que j'accomplis chose-quelque le ciel Pleure de joie pour moi, j'suis né pour chatoyer Fuck devoir ranger des rayons all day Montre moi du respect quand tu viens m'adresser la parole Saches qu'ici personne est dressé ta daronne la 'aaaah' On sait pas aboyer, beaucoup crois en moi mas malin à la fois J'suis Jordy et Makala à la fois Fils du vieux Malako, fuck tes règles et tes codes Superwak nous sommes Quand le ciel est bleu, mon feeling est ma boussole On fait des classiques depuis l'sous-sol Makaladrogua c'est frappe, tire une latte Te frotte pas les yeuzz, tu m'as sûrement vu car J'suis dans l'coin comme la lucarne, c'est mon but On lâche que des shits, qui font groover Vouuuuus... Allez chercher vos yecou aux objets trouvés Couuuuurez... Fuck boys, que des fuck boys We still don't give a fuck boy Fuck boys, que des fuck boys We still don't give a fuck booooooy Longwa, mothafucka longwa, longwa Dégage de ma... waye Longwa, mothafucka longwa, longwa Mooooove... Mooooove Longwa, mothafucka longwa, longwa Moooove... MOOOOVE Longwa, mothafucka longwa, longwa Wassa wassa wassa wassa Ahhh ! dégage de ma... Waye! Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Zoba! Mais ça veut dire quoi longwa?1</t>
+          <t>Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Ne suis pas d'règles, j'suis mon propre boss Saigne mon son, comme des menstrus Instru d'batârd, faites sur mesure Toi t'investi sur Soundclick why, mens-tu? Les whites men tuent... Plus de blacks Qu'ils n'arrêtent, de meurtriers blancs vois tu? Je n'ai pas d'voiture, même sans plaques On roule la ville comme des King t'as vu Pas d'tabou, bande de pigeons J'ai une clique d'Hawks, comme Thabo Man t'as beau, rager sur nos sons We the best, still... comme Vado Pas d'tableau, Pourtant tu vois que j'excelle.... Au calme dans mon domaine J'veux d'la doe mayne... Fuck, une vie d'pauvre mec Faut briser le cycle frère Ceux qui glorifient la guap Ne voient que des dolla signs comme Ty Fuck boys, que des broke boys Se vantent d'une fortune, qu'ils n'ont même pas! J'suis pas Fouine La... ma musique Ne touche pas un public d'âge bas J'veux pas plaire, j'veux qu'tu comprennes Tout c'que j'raconte sur chaque Ke-tra Pas d'gue-bla, King Nov, marche qu'avec des gens comme moi Que des Kebla droits Pique d'illettrés qu'ils envoient... N'atteignent même pas, ma mailbox Si... Tu trouves ces Mc sick, je suis l'antidote Ne compare pas le guépard à une antilope Fuck vos shits, allez longwaaaaa No worry, j'suis sur la bonne voie On lâche que des shits, qui font groover Vouuuuus... Allez chercher vos yecou aux objets trouvés Couuuuurez... Fuck boys, que des fuck boys We still don't give a fuck boy Fuck boys, que des fuck boys We still don't give a fuck booooooy Longwa, mothafucka longwa, longwa Dégage de ma... waye Longwa, mothafucka longwa, longwa Mooooove... Mooooove Longwa, mothafucka longwa, longwa Moooove... MOOOOVE Longwa, mothafucka longwa, longwa En face c'est la sécheresse, t'inquiète pas t'as pas ve-rer Ils tirent la guelan et attendent Qu'une goutte de mon juice tombe du ciel pour s'abreuver J'suis un cadeau d'la street J'fais maigrir ceux qui hate, comme les shmits Font perdre des kilos à ceux qu'ont épouser le biz' Anneau gastrique, à Nev-ge y'a personne Quidort Pour nous c'est juste un arrêt Tu prends une gauche, m'aperçois à tribord Si t'es, wasa wasa viens pas m'check si t'as peur du froid Gage-dé si tu suces resta Pour essayer d'connaître la saveur de la gloire J'veux mon repas, mon damage, mon festin Guidé par les étoiles comme Rois Mages Prêt à assumer mon destin Chaque fois que j'accomplis chose-quelque le ciel Pleure de joie pour moi, j'suis né pour chatoyer Fuck devoir ranger des rayons all day Montre moi du respect quand tu viens m'adresser la parole Saches qu'ici personne est dressé ta daronne la 'aaaah' On sait pas aboyer, beaucoup crois en moi mas malin à la fois J'suis Jordy et Makala à la fois Fils du vieux Malako, fuck tes règles et tes codes Superwak nous sommes Quand le ciel est bleu, mon feeling est ma boussole On fait des classiques depuis l'sous-sol Makaladrogua c'est frappe, tire une latte Te frotte pas les yeuzz, tu m'as sûrement vu car J'suis dans l'coin comme la lucarne, c'est mon but On lâche que des shits, qui font groover Vouuuuus... Allez chercher vos yecou aux objets trouvés Couuuuurez... Fuck boys, que des fuck boys We still don't give a fuck boy Fuck boys, que des fuck boys We still don't give a fuck booooooy Longwa, mothafucka longwa, longwa Dégage de ma... waye Longwa, mothafucka longwa, longwa Mooooove... Mooooove Longwa, mothafucka longwa, longwa Moooove... MOOOOVE Longwa, mothafucka longwa, longwa Wassa wassa wassa wassa Ahhh ! dégage de ma... Waye! Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Zoba! Mais ça veut dire quoi longwa?1</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>J'ai trop compté les jours, enfermé dans ma geôle Et j'me disais qu'en vrai, j'étais mieux dans mon hall J'ai trop passé mon temps à insulter le temps A vouloir camoufler mon peu de sentiments On subit le présent, on regrette le passé Chez nous on craint l'avenir, on se sent menacés Les huissiers à ma porte, des factures dans nos lettres Y'a que ma solitude qui perçoit mon mal-être Avec mes frères et soeurs, on affronte les épreuves On surmonte les galères, oui on a fait nos preuves Souvent le ciel est gris, plus tard le soleil brille Non faut pas s'attacher, tout fini par passer Encore un nouveau jour, plus rien n'est plus pareil J'ai plus de problèmes que la veille J'ai beau marché seul dans la cour à en perdre le sommeil J'ai plus de problèmes que la veille Que la ve-e-eille, e-e-eille La chance on a du faire sans elle Que la ve-e-eille, e-e-eille Encore une autre journée sans 'seille Oui la vie m'a fait mal, j'lui ai rendu les coups Mon nom au tribunal devient numéro d'écrou Espérant qu'la roue tourne, on a roulé nos bosses Rien n'se passe comme prévu car souvent les choses se corsent Au milieu dl'a cité, on s'prend pour les rois du monde Les soucis nous rattrapent, tout bascule à la s'conde Oui j'ai purgé ma peine, à Fleury-Mérogis Mais si jamais j'y retourne, ça fera de moi un égoïste J'ai fait pleuré ma mère, j'ai attristé mon père J'ai éteint les lumières qui me servaient de repères Toujours sur la défensive, on a pris de sales manies Plusieurs dans nos taudis, les cafards tiennent compagnie You might also like Yeah, p'tit frère fait pas le thug si t'es calme comme un slam P'tite soeur ta vie est un échec car tu joues trop aux dames Plus d'oseille que la veille, plus de 'blèmes que la veille Les matons me surveillent, la liberté en mode veille, khey J'ai vu mon avenir dans une bouteille Bienvenue en banlieue, seul le rap, le foot, le crime paie La mort ne fait jamais semblant tandis que la vie simule Banlieue Sale, S-Kal, l'histoire continue La cité dans mon rétro, une villa à l'horizon Je suis porteur d'espoir comme les clés de la prison J'suis bien un enfant d'ici, j'aspire à viser ailleurs Sur le quai d'ma réussite car j'attends des jours meilleurs Tu sais mzé, tout finit par passer Même les pires situations Hier j'tournais dans les promenades de Fleury Aujourd'hui j'tourne dans toutes les villes de France Si le temps c'est de l'argent Les richesses se dévoile à qui attend son heure Banlieue Sale, S-Kal, l'histoire continue</t>
+          <t>J'ai trop compté les jours, enfermé dans ma geôle Et j'me disais qu'en vrai, j'étais mieux dans mon hall J'ai trop passé mon temps à insulter le temps A vouloir camoufler mon peu de sentiments On subit le présent, on regrette le passé Chez nous on craint l'avenir, on se sent menacés Les huissiers à ma porte, des factures dans nos lettres Y'a que ma solitude qui perçoit mon mal-être Avec mes frères et soeurs, on affronte les épreuves On surmonte les galères, oui on a fait nos preuves Souvent le ciel est gris, plus tard le soleil brille Non faut pas s'attacher, tout fini par passer Encore un nouveau jour, plus rien n'est plus pareil J'ai plus de problèmes que la veille J'ai beau marché seul dans la cour à en perdre le sommeil J'ai plus de problèmes que la veille Que la ve-e-eille, e-e-eille La chance on a du faire sans elle Que la ve-e-eille, e-e-eille Encore une autre journée sans 'seille Oui la vie m'a fait mal, j'lui ai rendu les coups Mon nom au tribunal devient numéro d'écrou Espérant qu'la roue tourne, on a roulé nos bosses Rien n'se passe comme prévu car souvent les choses se corsent Au milieu dl'a cité, on s'prend pour les rois du monde Les soucis nous rattrapent, tout bascule à la s'conde Oui j'ai purgé ma peine, à Fleury-Mérogis Mais si jamais j'y retourne, ça fera de moi un égoïste J'ai fait pleuré ma mère, j'ai attristé mon père J'ai éteint les lumières qui me servaient de repères Toujours sur la défensive, on a pris de sales manies Plusieurs dans nos taudis, les cafards tiennent compagnie Yeah, p'tit frère fait pas le thug si t'es calme comme un slam P'tite soeur ta vie est un échec car tu joues trop aux dames Plus d'oseille que la veille, plus de 'blèmes que la veille Les matons me surveillent, la liberté en mode veille, khey J'ai vu mon avenir dans une bouteille Bienvenue en banlieue, seul le rap, le foot, le crime paie La mort ne fait jamais semblant tandis que la vie simule Banlieue Sale, S-Kal, l'histoire continue La cité dans mon rétro, une villa à l'horizon Je suis porteur d'espoir comme les clés de la prison J'suis bien un enfant d'ici, j'aspire à viser ailleurs Sur le quai d'ma réussite car j'attends des jours meilleurs Tu sais mzé, tout finit par passer Même les pires situations Hier j'tournais dans les promenades de Fleury Aujourd'hui j'tourne dans toutes les villes de France Si le temps c'est de l'argent Les richesses se dévoile à qui attend son heure Banlieue Sale, S-Kal, l'histoire continue</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>À tous ces haineux j'ai d'l'amour pour vous Asseyez-vous tous dans la salle tranquillement Tiens, trouvez-lui des feuilles il veut s'rouler un joint On dirait l'frérot là-bas Bref, ouvrez bien grand vos oreilles Au micro c'est Fouiny Babe J'ai jamais fêté Noël, mais j'ai toujours mis l'paquet Maman nettoyait l'sol et j'ai toujours fini au parquet Drôle de parcours, des voitures volées jusqu'au Valais J'ai fait l'ménage dans ma vie, normal qu'j'ai 30 balais Banlieue Sale, un keuf à terre c'est un tit-pe qui se lève Rap français, y a qu'les frères tombés qui attendent la relève J'fais mon taff arrête de khaf tu vas t'manger des baffes J'suis trop célèbre et même mon assistant signe des autographes Swaaaagg Et moi j'kiffe grave, ouais, c'est un privilège Ici les tox te vendraient leur écharpe pour s'acheter un peu d'neige Dis à l'Oxi d'prévenir les autres tout le square est en deuil Celle-là c'est pour les frères au trou qui sont en chien d'feuilles La rue mon royaume, mon home sweet home Tête baissée, genoux baissés laisse la lumière éclairer mes paumes L'imam m'appelle du banc d'touche mais j'suis toujours sur l'terrain J'avais peur de pas percer, j'traînais avec un surin À part des grosses pierres, frère, aux keufs j'ai rien à balance J'traînais en voiture volée ouais mais j'avais d'l'assurance Enfermé à huit clos, des lettres pour me soutenir J'ai brûlé les photos mais j'en garde encore les souvenirs Passe l'hiver au quartier, l'été en bombardier Bien rencardé j'pousse mon succès comme un brancardier Et tu m'verras pas dans Closer, tu m'verras pas dans Voici Absent de leur émission mais numéro un à Bois d'Arcy J'quitte l'école alcoolisé parce que la rue m'a saoulé Et mes albums sont lourds j'suis dans les bacs avec des bourrelets Dans l'théatre de nos vies la mort refoule personne au casting Ils ont péta mon flow FlowJacking Ils sont restés en chien voilà pourquoi ils ont la rage J'suis trop déchiré mais j'essaye de tourner la page J'ai voulu prendre un bon baveux on m'a dit t'as pas assez Le label voulait que j'pose un seize, j'leur ai dit C'est pas assez ! You might also like Le label voulait que j'pose un seize, j'leur ai dit C'est pas assez Bah j'crois j'vais m'arrêter là Ruskov Et t'sais quoi ? En fait j'aimerais qu'tu m'fasses kiffer un son Avant de partir, j'aimerais qu'tu m'mettes un son, un son magique Tiens coupe ce son, et puis mets-moi Donne-moi</t>
+          <t>À tous ces haineux j'ai d'l'amour pour vous Asseyez-vous tous dans la salle tranquillement Tiens, trouvez-lui des feuilles il veut s'rouler un joint On dirait l'frérot là-bas Bref, ouvrez bien grand vos oreilles Au micro c'est Fouiny Babe J'ai jamais fêté Noël, mais j'ai toujours mis l'paquet Maman nettoyait l'sol et j'ai toujours fini au parquet Drôle de parcours, des voitures volées jusqu'au Valais J'ai fait l'ménage dans ma vie, normal qu'j'ai 30 balais Banlieue Sale, un keuf à terre c'est un tit-pe qui se lève Rap français, y a qu'les frères tombés qui attendent la relève J'fais mon taff arrête de khaf tu vas t'manger des baffes J'suis trop célèbre et même mon assistant signe des autographes Swaaaagg Et moi j'kiffe grave, ouais, c'est un privilège Ici les tox te vendraient leur écharpe pour s'acheter un peu d'neige Dis à l'Oxi d'prévenir les autres tout le square est en deuil Celle-là c'est pour les frères au trou qui sont en chien d'feuilles La rue mon royaume, mon home sweet home Tête baissée, genoux baissés laisse la lumière éclairer mes paumes L'imam m'appelle du banc d'touche mais j'suis toujours sur l'terrain J'avais peur de pas percer, j'traînais avec un surin À part des grosses pierres, frère, aux keufs j'ai rien à balance J'traînais en voiture volée ouais mais j'avais d'l'assurance Enfermé à huit clos, des lettres pour me soutenir J'ai brûlé les photos mais j'en garde encore les souvenirs Passe l'hiver au quartier, l'été en bombardier Bien rencardé j'pousse mon succès comme un brancardier Et tu m'verras pas dans Closer, tu m'verras pas dans Voici Absent de leur émission mais numéro un à Bois d'Arcy J'quitte l'école alcoolisé parce que la rue m'a saoulé Et mes albums sont lourds j'suis dans les bacs avec des bourrelets Dans l'théatre de nos vies la mort refoule personne au casting Ils ont péta mon flow FlowJacking Ils sont restés en chien voilà pourquoi ils ont la rage J'suis trop déchiré mais j'essaye de tourner la page J'ai voulu prendre un bon baveux on m'a dit t'as pas assez Le label voulait que j'pose un seize, j'leur ai dit C'est pas assez ! Le label voulait que j'pose un seize, j'leur ai dit C'est pas assez Bah j'crois j'vais m'arrêter là Ruskov Et t'sais quoi ? En fait j'aimerais qu'tu m'fasses kiffer un son Avant de partir, j'aimerais qu'tu m'mettes un son, un son magique Tiens coupe ce son, et puis mets-moi Donne-moi</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Tu rentres tôt, plus tôt qu'avant Tu allumes ton ordi, tu attends, ils sont tous là, derrière l'écran Cette fois encore, c'est pas ta fête Tu lis quand même, tu baisses la tête, il faudra bien que ça s'arrête Ces mots jetés, un peu pour voir Derrière un clavier, va savoir, quel enfant sage prend le pouvoir ? Seul dans sa chambre, un gamin rit Pour faire rire les autres avec lui et ça tombe sur toi aujourd'hui Sèches tes larmes, regarde-moi J'ai encore plus mal que toi quand tes yeux me demandent Pourquoi ? On répète c'que l'on entend On cherche sa place dans le vent et ce n'sont que des mots d'enfants Pour une fille qui leur dit non Pour un garçon qui aime un garçon, pour une petite phrase à la con Parce qu'au milieu d'une cour d'école Il n'y a pas que les ballons qui volent, il n'y a pas que des jeux drôles Qui est minable, qui est cador ? Pour un blouson, pour un portable, c'est si facile de mettre un vol Lève la tête, regarde-moi J'ai encore plus mal que toi Yeah, Fouiny Babe, yeah Et on les croise à la pelle, les voyous virtuels Les petites ont treize piges, veulent déjà être sensuelles Les murs n'ont plus d'oreilles, ils ont Bluetooth, ADSL Et on joue au jeu de celui qui sera le plus cruel Les commentaires appellent au secours, parfois les mots sont des larmes Les claviers ça tire les ordis sont des armes Maman j'reste dans ma chambre, maman j'ai pas trop faim Maman j'ai fait souffrir, mais c'est court comme un refrain Rencontres sur le net, tu sais même plus qui tu vois Privés sont les messages, plus besoin de se casser la voix Je t'aime par SMS et Tu me manques par e-mail Tu mas kiffé sur Twitter et tas rompu par BBM Moi quand jétais petit on n'avait pas dordinateur On restait jouer au foot et on parlait pendant des heures Toi tes seul devant lécran, et même les jours de fête Dis-moi avec qui tu surfes, je te dirai qui tu traites You might also like Pourquoi ? Demande-le, ils n'savent pas Ils croient jouer comme les grands À d'autres guerres, à d'autres jeux d'enfants Lève la tête, parle, je t'entends Change le sens du vent La haine, ses vices dans les bagages À l'âge des livres d'images Comment lever la tête de mon clavier ? Sèche tes larmes, regarde-moi T'as qu'à ouvrir un compte, si tu veux parler J'ai tellement d'autres mots pour toi Papa, j'ai plus ton temps, j'suis connecté Tes yeux demandent Où on va ? J'suis tranquille dans ma chambre, tu sais où je vais Nulle part, si tu m'en parles pas Combien se sont tués aujourd'hui ? Combien seront-ils encore ?Paroles rédigées et expliquées par la communauté RapGenius France1</t>
+          <t>Tu rentres tôt, plus tôt qu'avant Tu allumes ton ordi, tu attends, ils sont tous là, derrière l'écran Cette fois encore, c'est pas ta fête Tu lis quand même, tu baisses la tête, il faudra bien que ça s'arrête Ces mots jetés, un peu pour voir Derrière un clavier, va savoir, quel enfant sage prend le pouvoir ? Seul dans sa chambre, un gamin rit Pour faire rire les autres avec lui et ça tombe sur toi aujourd'hui Sèches tes larmes, regarde-moi J'ai encore plus mal que toi quand tes yeux me demandent Pourquoi ? On répète c'que l'on entend On cherche sa place dans le vent et ce n'sont que des mots d'enfants Pour une fille qui leur dit non Pour un garçon qui aime un garçon, pour une petite phrase à la con Parce qu'au milieu d'une cour d'école Il n'y a pas que les ballons qui volent, il n'y a pas que des jeux drôles Qui est minable, qui est cador ? Pour un blouson, pour un portable, c'est si facile de mettre un vol Lève la tête, regarde-moi J'ai encore plus mal que toi Yeah, Fouiny Babe, yeah Et on les croise à la pelle, les voyous virtuels Les petites ont treize piges, veulent déjà être sensuelles Les murs n'ont plus d'oreilles, ils ont Bluetooth, ADSL Et on joue au jeu de celui qui sera le plus cruel Les commentaires appellent au secours, parfois les mots sont des larmes Les claviers ça tire les ordis sont des armes Maman j'reste dans ma chambre, maman j'ai pas trop faim Maman j'ai fait souffrir, mais c'est court comme un refrain Rencontres sur le net, tu sais même plus qui tu vois Privés sont les messages, plus besoin de se casser la voix Je t'aime par SMS et Tu me manques par e-mail Tu mas kiffé sur Twitter et tas rompu par BBM Moi quand jétais petit on n'avait pas dordinateur On restait jouer au foot et on parlait pendant des heures Toi tes seul devant lécran, et même les jours de fête Dis-moi avec qui tu surfes, je te dirai qui tu traites Pourquoi ? Demande-le, ils n'savent pas Ils croient jouer comme les grands À d'autres guerres, à d'autres jeux d'enfants Lève la tête, parle, je t'entends Change le sens du vent La haine, ses vices dans les bagages À l'âge des livres d'images Comment lever la tête de mon clavier ? Sèche tes larmes, regarde-moi T'as qu'à ouvrir un compte, si tu veux parler J'ai tellement d'autres mots pour toi Papa, j'ai plus ton temps, j'suis connecté Tes yeux demandent Où on va ? J'suis tranquille dans ma chambre, tu sais où je vais Nulle part, si tu m'en parles pas Combien se sont tués aujourd'hui ? Combien seront-ils encore ?Paroles rédigées et expliquées par la communauté RapGenius France1</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Quoi d'neuf Fouiny Baby ? 78 Banlieue Sale, Capitale du Crime DJ Battle Quoi qu'il en soit Baby, j'espère que t'as pensé à prendre un bon verre de Fouiny Juice avant d'dormir ! Parce que quand t'entends Fouiny, Fouiny, Fouiny, Fouiny .. Stop ! Y'a cul-sec qui va avec ! 6-45 agis rien ne sert de parler Fouiny Fouiny Babe on fait du bruit on rap en Harley Rafale de balle frérot devant moi elles scouchent Mets-toi accroupie ouais ma chienne ouvre la bouche Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Baby Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Fouiny Juice Juice Cest les putains d'règles, cest les putains d'règles Tu saignes des oreilles, tas tes putains d'règles La petite ne suce pas voilà pourquoi j'lai tè-je Ton instru ne sonne pas j'crois quil nest pas belge J'crois quil na pas le cachet, j'crois quil na pas le tampon J'glisse entre tes jambes ma belle j'fais jamais de grand pont Nan pas damour j'suis pas Jay t'es pas B. mais Mais j'vends d'la dope j's'rai Bobby tu s'ra Whitney Yeah Whitney à la rigueur Britney Mes histoires damour sont trop courtes cest des medleys On fait parler les Colt tolère aucune révolte J'frais les sacs à mains si javais les bes-jam à Usain Bolt Whisky coca, vodka redbull Ouais je m'sappe chez Louis Vui, ta mamie tricote des pulls Il est blanc, il est bon, il est chaud mon Fouiny Juice Jarrive avec mes Ciara tarrives avec tes Beatles Juice You might also like 6-45 agis rien ne sert de parler Fouiny Fouiny Babe on fait du bruit on rap en Harley Rafale de balle frérot devant moi elles scouchent Mets-toi accroupie ouais ma chienne ouvre la bouche Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Baby Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Fouiny Juice Juice Cest les putains d'règles, cest les putains d'règles Dégage de ma chambre salope si tas tes règles Cest les putains d'règles, ouais cest les putains d'règles Écarte comme une équerre, jsuis droit comme une règle Jai des Halle Berry dans mon Blackberry Jkiffe trop les meufs que détestent Médine ou Kery Pourquoi tu pleures ? Pourquoi tes vex' ? Welcome chez Banlieue Sale ou les beats sont des Kleenex Tes albums sont pas bons, ton flow cest ficha Jsuis chaud comme le charbon, chienne goûte ma chicha Am stram gram va niquer ta mère et snif un gramme Ta sur suce des bites et ton crew cest la famille Addams Frère tu veut dla bonne hiya tu sais a quelle porte frapper Chienne si tu suces bien jte laisserais peut-être me gratter Un parfum, un sac ou bien des chaussures Tes bras sont pleins de coupures, nos sacs sont haute couture 6-45 agis rien ne sert de parler Fouiny Fouiny Babe on fait du bruit on rap en Harley Rafale de balle frérot devant moi elles scouchent Mets-toi accroupie ouais ma chienne ouvre la bouche Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Baby Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Fouiny Juice Juice</t>
+          <t>Quoi d'neuf Fouiny Baby ? 78 Banlieue Sale, Capitale du Crime DJ Battle Quoi qu'il en soit Baby, j'espère que t'as pensé à prendre un bon verre de Fouiny Juice avant d'dormir ! Parce que quand t'entends Fouiny, Fouiny, Fouiny, Fouiny .. Stop ! Y'a cul-sec qui va avec ! 6-45 agis rien ne sert de parler Fouiny Fouiny Babe on fait du bruit on rap en Harley Rafale de balle frérot devant moi elles scouchent Mets-toi accroupie ouais ma chienne ouvre la bouche Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Baby Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Fouiny Juice Juice Cest les putains d'règles, cest les putains d'règles Tu saignes des oreilles, tas tes putains d'règles La petite ne suce pas voilà pourquoi j'lai tè-je Ton instru ne sonne pas j'crois quil nest pas belge J'crois quil na pas le cachet, j'crois quil na pas le tampon J'glisse entre tes jambes ma belle j'fais jamais de grand pont Nan pas damour j'suis pas Jay t'es pas B. mais Mais j'vends d'la dope j's'rai Bobby tu s'ra Whitney Yeah Whitney à la rigueur Britney Mes histoires damour sont trop courtes cest des medleys On fait parler les Colt tolère aucune révolte J'frais les sacs à mains si javais les bes-jam à Usain Bolt Whisky coca, vodka redbull Ouais je m'sappe chez Louis Vui, ta mamie tricote des pulls Il est blanc, il est bon, il est chaud mon Fouiny Juice Jarrive avec mes Ciara tarrives avec tes Beatles Juice 6-45 agis rien ne sert de parler Fouiny Fouiny Babe on fait du bruit on rap en Harley Rafale de balle frérot devant moi elles scouchent Mets-toi accroupie ouais ma chienne ouvre la bouche Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Baby Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Fouiny Juice Juice Cest les putains d'règles, cest les putains d'règles Dégage de ma chambre salope si tas tes règles Cest les putains d'règles, ouais cest les putains d'règles Écarte comme une équerre, jsuis droit comme une règle Jai des Halle Berry dans mon Blackberry Jkiffe trop les meufs que détestent Médine ou Kery Pourquoi tu pleures ? Pourquoi tes vex' ? Welcome chez Banlieue Sale ou les beats sont des Kleenex Tes albums sont pas bons, ton flow cest ficha Jsuis chaud comme le charbon, chienne goûte ma chicha Am stram gram va niquer ta mère et snif un gramme Ta sur suce des bites et ton crew cest la famille Addams Frère tu veut dla bonne hiya tu sais a quelle porte frapper Chienne si tu suces bien jte laisserais peut-être me gratter Un parfum, un sac ou bien des chaussures Tes bras sont pleins de coupures, nos sacs sont haute couture 6-45 agis rien ne sert de parler Fouiny Fouiny Babe on fait du bruit on rap en Harley Rafale de balle frérot devant moi elles scouchent Mets-toi accroupie ouais ma chienne ouvre la bouche Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Baby Fouiny Juice, Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Juice, Fouiny Juice, Fouiny Juice Fouiny Fouiny Juice Juice</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Encore une nuit, encore une nuit séparé de vous Et si mon cur n'a pas les mots, c'est la distance qui le retient Encore une nuit, encore une nuit, absent de nos rendez-vous Je cherche encore le courage de ces mots Je t'aime et je reviens Les menottes ne m'ont pas laissé le choix Frère riche on l'est ou on l'est pas, la vie de rêve non nous on connaît pas, yeah J'suis né à Trappes pas à ATL Les grands du quartier touchent la coke pendant que les daronnes touchent les APL Les galères de la vie me font mûrir Je t'aime à ma mère j'ai jamais su lui dire Viré du collège la tête haute Depuis j'envoie des SMS avec des fautes à qui la faute ? Les professeurs n'pouvaient pas me blairer A part fonce-dé jamais vous ne me verrez Je raquette des trans dans le Transillien Galère sur le sillon, poumon six cylindres Ferme ta gueule devant les keufs, c'est les putain de gle-ré Donner un nom cette idée ne m'a même pas effleuré J'ai pas connu les petits dèj' au Yoplait Les mâtons écoutent aux portes pour kiffer mes couplets Encore une nuit, encore une nuit, séparé de vous Et si mon cur n'a pas les mots, c'est la distance qui le retient Encore une nuit, encore une nuit, absent de nos rendez-vous Je cherche encore le courage de ces mots Je t'aime et je reviens You might also like Encore une nuit, loin des bras de Morphée À contempler nos vies, nos douleurs et nos trophées À gamberger à ces tempêtes qu'on a dû traverser Ces fantômes du passé qui mettent des cactus dans nos traversins Oui ces embrouilles, ces décès, ces larmes, ce sang versé Toutes ces soirées sans ceintures sans lacets Ces rappels d'huissiers, échec scolarisé Ces erreurs de parcours inspirés par Keyser Söze Encore une nuit à se taper des barres, à ne parler que de bord Puis gamberger comme les frangins qui ont la barre Ça parle d'un nouveau départ, mes cousins crachent sur les bords Pendant que certains prennent mes CD pour un aéroport Encore une nuit à se dire que demain sera mieux A se promettre le meilleur pour nos vieux Encore une nuit à se construire des château sur des sables mouvants Encore une nuit où le marchand n'a pas de sable à nous vendre Encore une nuit, encore une nuit, séparé de vous Et si mon cur n'a pas les mots, c'est la distance qui le retient Encore une nuit, encore une nuit, absent de nos rendez-vous Je cherche encore le courage de ces mots Je t'aime et je reviens Encore une nuit, séparé de mon lit, à annoter des mes-ri ! Hahaha2</t>
+          <t>Encore une nuit, encore une nuit séparé de vous Et si mon cur n'a pas les mots, c'est la distance qui le retient Encore une nuit, encore une nuit, absent de nos rendez-vous Je cherche encore le courage de ces mots Je t'aime et je reviens Les menottes ne m'ont pas laissé le choix Frère riche on l'est ou on l'est pas, la vie de rêve non nous on connaît pas, yeah J'suis né à Trappes pas à ATL Les grands du quartier touchent la coke pendant que les daronnes touchent les APL Les galères de la vie me font mûrir Je t'aime à ma mère j'ai jamais su lui dire Viré du collège la tête haute Depuis j'envoie des SMS avec des fautes à qui la faute ? Les professeurs n'pouvaient pas me blairer A part fonce-dé jamais vous ne me verrez Je raquette des trans dans le Transillien Galère sur le sillon, poumon six cylindres Ferme ta gueule devant les keufs, c'est les putain de gle-ré Donner un nom cette idée ne m'a même pas effleuré J'ai pas connu les petits dèj' au Yoplait Les mâtons écoutent aux portes pour kiffer mes couplets Encore une nuit, encore une nuit, séparé de vous Et si mon cur n'a pas les mots, c'est la distance qui le retient Encore une nuit, encore une nuit, absent de nos rendez-vous Je cherche encore le courage de ces mots Je t'aime et je reviens Encore une nuit, loin des bras de Morphée À contempler nos vies, nos douleurs et nos trophées À gamberger à ces tempêtes qu'on a dû traverser Ces fantômes du passé qui mettent des cactus dans nos traversins Oui ces embrouilles, ces décès, ces larmes, ce sang versé Toutes ces soirées sans ceintures sans lacets Ces rappels d'huissiers, échec scolarisé Ces erreurs de parcours inspirés par Keyser Söze Encore une nuit à se taper des barres, à ne parler que de bord Puis gamberger comme les frangins qui ont la barre Ça parle d'un nouveau départ, mes cousins crachent sur les bords Pendant que certains prennent mes CD pour un aéroport Encore une nuit à se dire que demain sera mieux A se promettre le meilleur pour nos vieux Encore une nuit à se construire des château sur des sables mouvants Encore une nuit où le marchand n'a pas de sable à nous vendre Encore une nuit, encore une nuit, séparé de vous Et si mon cur n'a pas les mots, c'est la distance qui le retient Encore une nuit, encore une nuit, absent de nos rendez-vous Je cherche encore le courage de ces mots Je t'aime et je reviens Encore une nuit, séparé de mon lit, à annoter des mes-ri ! Hahaha2</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Hey yo Fouiny RS4 censuré Skurt Hey yo Nelson TripleNBeat, tu le sais maintenant J'attends plus le jour de la paye, j'attends la paix chaque jour La go m'a dit Foin, je t'aime, j'ai dit je sais, pardon moi je fourre J'suis plus dans le bendo, j'suis dans le penthouse Sur-mesure, Smalto, j'ai toujours mon matos, du rap dans une crack house Quelques rebeux riches à ma gauche à ma gauche, quelques renois riches à ma droite à ma droite Lamborghini juste devant salope, cortège d'italiennes derrière font mes backs bang bang Moi j'ai 2 bigos, j'connais toxico, j'pose mon 16 dans le BM de 2 Pac Beuh de Mexico, kalash de yougo et j'enjaille le vestiaire monégasque Bas les pattes, ne me sert pas la main, bas les pattes j'ai dit non Bas les chattes, la brigade canine te respire le vagin Et haja, on sort les machins ! J'rigolais toujours dans le bloc car le gun à ma ceinture me faisait des guilis Khoya, ton vécu est faux comme le boule, comme les einss à l'ex meuf à Meek Milli Quitte le port de Tanger, m'arrête manger quelques poissons au port d'Algeciras Balance les clés du bolide, fais ronronner le RS4 RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre il m'en reste quatre RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre You might also like Y a quelques grammes dans la chatte de ma mule J'aimerais t'signer, mon rebeu, mais t'es nul J'te nique ta mère, un point, trait, une virgule Khoya, l'amitié sort quand je rentre en cellule J'suis à CDG au salon, j'écoute CDC j'écoute CDC Je préfère la taule au TIG, on m'écoute depuis le CJD depuis le CJD, rebeu On porte pas plainte, nous, on meurt pour la mama, regarde mon gobelet, y a pas d'MDMA On aime la guerre, on a baisé Athena, on fait la pluie, le beau temps, on t'allume en TMAX J'suis dans le Benzo, ou dans le Féfé Enzo J'viens de sortir du tel-hô, suite présidentielle, gros j'ai fouré ma Renzo Moi j'ai deux nourrices mais j'ai qu'un seul sse-go, tu comprends ce que je veux dire mon négro mon rebeu J'ai plusieurs complices mais je donne pas de nom, je préfère finir derrière les barreaux Le soir souvent j'entendais paw, course poursuite me réveille J'mets pas de plumes, j'mets des billets dans mon oreiller pour trouver le sommeil RS6 RS6, RS7 RS7 Les rageux vont me tacler comme Dimitri Payet et CR7 RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre il m'en reste quatre RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre Madame la juge, allez vous faire enculer, mouillé jusqu'au cou, j'ai vu ma jeunesse brûler Aujourd'hui à se-l'ai, j'me rappelle du mitard, j'recevais pas de ttres-le, du shit sur les vres-lè THC dans le HSE, au VIP ta ne-chien me caresse J'appelle mon banquier, j'ai de l'argent qui dort, il me dit que mon biff est paresseux RS4, 5, 6, 7, 8, m'en bats les couilles j'suis dans ma suite Les descentes, les descentes on connaît, nous on parle en litres gros, on te nique ta mère et on est quitte on est quitte On traîne pas avec ces poucaves, khoya nhel sheitan Ma Ferrari a le même blase que le fils à Zidane RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre il m'en reste quatre RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre2</t>
+          <t>Hey yo Fouiny RS4 censuré Skurt Hey yo Nelson TripleNBeat, tu le sais maintenant J'attends plus le jour de la paye, j'attends la paix chaque jour La go m'a dit Foin, je t'aime, j'ai dit je sais, pardon moi je fourre J'suis plus dans le bendo, j'suis dans le penthouse Sur-mesure, Smalto, j'ai toujours mon matos, du rap dans une crack house Quelques rebeux riches à ma gauche à ma gauche, quelques renois riches à ma droite à ma droite Lamborghini juste devant salope, cortège d'italiennes derrière font mes backs bang bang Moi j'ai 2 bigos, j'connais toxico, j'pose mon 16 dans le BM de 2 Pac Beuh de Mexico, kalash de yougo et j'enjaille le vestiaire monégasque Bas les pattes, ne me sert pas la main, bas les pattes j'ai dit non Bas les chattes, la brigade canine te respire le vagin Et haja, on sort les machins ! J'rigolais toujours dans le bloc car le gun à ma ceinture me faisait des guilis Khoya, ton vécu est faux comme le boule, comme les einss à l'ex meuf à Meek Milli Quitte le port de Tanger, m'arrête manger quelques poissons au port d'Algeciras Balance les clés du bolide, fais ronronner le RS4 RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre il m'en reste quatre RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre Y a quelques grammes dans la chatte de ma mule J'aimerais t'signer, mon rebeu, mais t'es nul J'te nique ta mère, un point, trait, une virgule Khoya, l'amitié sort quand je rentre en cellule J'suis à CDG au salon, j'écoute CDC j'écoute CDC Je préfère la taule au TIG, on m'écoute depuis le CJD depuis le CJD, rebeu On porte pas plainte, nous, on meurt pour la mama, regarde mon gobelet, y a pas d'MDMA On aime la guerre, on a baisé Athena, on fait la pluie, le beau temps, on t'allume en TMAX J'suis dans le Benzo, ou dans le Féfé Enzo J'viens de sortir du tel-hô, suite présidentielle, gros j'ai fouré ma Renzo Moi j'ai deux nourrices mais j'ai qu'un seul sse-go, tu comprends ce que je veux dire mon négro mon rebeu J'ai plusieurs complices mais je donne pas de nom, je préfère finir derrière les barreaux Le soir souvent j'entendais paw, course poursuite me réveille J'mets pas de plumes, j'mets des billets dans mon oreiller pour trouver le sommeil RS6 RS6, RS7 RS7 Les rageux vont me tacler comme Dimitri Payet et CR7 RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre il m'en reste quatre RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre Madame la juge, allez vous faire enculer, mouillé jusqu'au cou, j'ai vu ma jeunesse brûler Aujourd'hui à se-l'ai, j'me rappelle du mitard, j'recevais pas de ttres-le, du shit sur les vres-lè THC dans le HSE, au VIP ta ne-chien me caresse J'appelle mon banquier, j'ai de l'argent qui dort, il me dit que mon biff est paresseux RS4, 5, 6, 7, 8, m'en bats les couilles j'suis dans ma suite Les descentes, les descentes on connaît, nous on parle en litres gros, on te nique ta mère et on est quitte on est quitte On traîne pas avec ces poucaves, khoya nhel sheitan Ma Ferrari a le même blase que le fils à Zidane RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre il m'en reste quatre RS4 RS4 RS4 Wouh, wouh J'crois que j'ai perdu un p'tit llion-mi Ma3lich, il m'en reste quatre2</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Ne suis pas d'règles, j'suis mon propre boss Saigne mon son, comme des menstrus Instru d'batârd, faites sur mesure Toi t'investi sur Soundclick why, mens-tu? Les whites men tuent... Plus de blacks Qu'ils n'arrêtent, de meurtriers blancs vois tu? Je n'ai pas d'voiture, même sans plaques On roule la ville comme des King t'as vu Pas d'tabou, bande de pigeons J'ai une clique d'Hawks, comme Thabo Man t'as beau, rager sur nos sons We the best, still... comme Vado Pas d'tableau, Pourtant tu vois que j'excelle.... Au calme dans mon domaine J'veux d'la doe mayne... Fuck, une vie d'pauvre mec Faut briser le cycle frère You might also likeCeux qui glorifient la guap Ne voient que des dolla signs comme Ty Fuck boys, que des broke boys Se vantent d'une fortune, qu'ils n'ont même pas! J'suis pas Fouine La... ma musique Ne touche pas un public d'âge bas J'veux pas plaire, j'veux qu'tu comprennes Tout c'que j'raconte sur chaque Ke-tra Pas d'gue-bla, King Nov, marche qu'avec des gens comme moi Que des Kebla droits Pique d'illettrés qu'ils envoient... N'atteignent même pas, ma mailbox Si... Tu trouves ces Mc sick, je suis l'antidote Ne compare pas le guépard à une antilope Fuck vos shits, allez longwaaaaa No worry, j'suis sur la bonne voie On lâche que des shits, qui font groover Vouuuuus... Allez chercher vos yecou aux objets trouvés Couuuuurez... Fuck boys, que des fuck boys We still don't give a fuck boy Fuck boys, que des fuck boys We still don't give a fuck booooooy Longwa, mothafucka longwa, longwa Dégage de ma... waye Longwa, mothafucka longwa, longwa Mooooove... Mooooove Longwa, mothafucka longwa, longwa Moooove... MOOOOVE Longwa, mothafucka longwa, longwa En face c'est la sécheresse, t'inquiète pas t'as pas ve-rer Ils tirent la guelan et attendent Qu'une goutte de mon juice tombe du ciel pour s'abreuver J'suis un cadeau d'la street J'fais maigrir ceux qui hate, comme les shmits Font perdre des kilos à ceux qu'ont épouser le biz' Anneau gastrique, à Nev-ge y'a personne Quidort Pour nous c'est juste un arrêt Tu prends une gauche, m'aperçois à tribord Si t'es, wasa wasa viens pas m'check si t'as peur du froid Gage-dé si tu suces resta Pour essayer d'connaître la saveur de la gloire J'veux mon repas, mon damage, mon festin Guidé par les étoiles comme Rois Mages Prêt à assumer mon destin Chaque fois que j'accomplis chose-quelque le ciel Pleure de joie pour moi, j'suis né pour chatoyer Fuck devoir ranger des rayons all day Montre moi du respect quand tu viens m'adresser la parole Saches qu'ici personne est dressé ta daronne la 'aaaah' On sait pas aboyer, beaucoup crois en moi mas malin à la fois J'suis Jordy et Makala à la fois Fils du vieux Malako, fuck tes règles et tes codes Superwak nous sommes Quand le ciel est bleu, mon feeling est ma boussole On fait des classiques depuis l'sous-sol Makaladrogua c'est frappe, tire une latte Te frotte pas les yeuzz, tu m'as sûrement vu car J'suis dans l'coin comme la lucarne, c'est mon but On lâche que des shits, qui font groover Vouuuuus... Allez chercher vos yecou aux objets trouvés Couuuuurez... Fuck boys, que des fuck boys We still don't give a fuck boy Fuck boys, que des fuck boys We still don't give a fuck booooooy Longwa, mothafucka longwa, longwa Dégage de ma... waye Longwa, mothafucka longwa, longwa Mooooove... Mooooove Longwa, mothafucka longwa, longwa Moooove... MOOOOVE Longwa, mothafucka longwa, longwa Wassa wassa wassa wassa Ahhh ! dégage de ma... Waye! Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Zoba! Mais ça veut dire quoi longwa?1</t>
+          <t>Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Ne suis pas d'règles, j'suis mon propre boss Saigne mon son, comme des menstrus Instru d'batârd, faites sur mesure Toi t'investi sur Soundclick why, mens-tu? Les whites men tuent... Plus de blacks Qu'ils n'arrêtent, de meurtriers blancs vois tu? Je n'ai pas d'voiture, même sans plaques On roule la ville comme des King t'as vu Pas d'tabou, bande de pigeons J'ai une clique d'Hawks, comme Thabo Man t'as beau, rager sur nos sons We the best, still... comme Vado Pas d'tableau, Pourtant tu vois que j'excelle.... Au calme dans mon domaine J'veux d'la doe mayne... Fuck, une vie d'pauvre mec Faut briser le cycle frère Ceux qui glorifient la guap Ne voient que des dolla signs comme Ty Fuck boys, que des broke boys Se vantent d'une fortune, qu'ils n'ont même pas! J'suis pas Fouine La... ma musique Ne touche pas un public d'âge bas J'veux pas plaire, j'veux qu'tu comprennes Tout c'que j'raconte sur chaque Ke-tra Pas d'gue-bla, King Nov, marche qu'avec des gens comme moi Que des Kebla droits Pique d'illettrés qu'ils envoient... N'atteignent même pas, ma mailbox Si... Tu trouves ces Mc sick, je suis l'antidote Ne compare pas le guépard à une antilope Fuck vos shits, allez longwaaaaa No worry, j'suis sur la bonne voie On lâche que des shits, qui font groover Vouuuuus... Allez chercher vos yecou aux objets trouvés Couuuuurez... Fuck boys, que des fuck boys We still don't give a fuck boy Fuck boys, que des fuck boys We still don't give a fuck booooooy Longwa, mothafucka longwa, longwa Dégage de ma... waye Longwa, mothafucka longwa, longwa Mooooove... Mooooove Longwa, mothafucka longwa, longwa Moooove... MOOOOVE Longwa, mothafucka longwa, longwa En face c'est la sécheresse, t'inquiète pas t'as pas ve-rer Ils tirent la guelan et attendent Qu'une goutte de mon juice tombe du ciel pour s'abreuver J'suis un cadeau d'la street J'fais maigrir ceux qui hate, comme les shmits Font perdre des kilos à ceux qu'ont épouser le biz' Anneau gastrique, à Nev-ge y'a personne Quidort Pour nous c'est juste un arrêt Tu prends une gauche, m'aperçois à tribord Si t'es, wasa wasa viens pas m'check si t'as peur du froid Gage-dé si tu suces resta Pour essayer d'connaître la saveur de la gloire J'veux mon repas, mon damage, mon festin Guidé par les étoiles comme Rois Mages Prêt à assumer mon destin Chaque fois que j'accomplis chose-quelque le ciel Pleure de joie pour moi, j'suis né pour chatoyer Fuck devoir ranger des rayons all day Montre moi du respect quand tu viens m'adresser la parole Saches qu'ici personne est dressé ta daronne la 'aaaah' On sait pas aboyer, beaucoup crois en moi mas malin à la fois J'suis Jordy et Makala à la fois Fils du vieux Malako, fuck tes règles et tes codes Superwak nous sommes Quand le ciel est bleu, mon feeling est ma boussole On fait des classiques depuis l'sous-sol Makaladrogua c'est frappe, tire une latte Te frotte pas les yeuzz, tu m'as sûrement vu car J'suis dans l'coin comme la lucarne, c'est mon but On lâche que des shits, qui font groover Vouuuuus... Allez chercher vos yecou aux objets trouvés Couuuuurez... Fuck boys, que des fuck boys We still don't give a fuck boy Fuck boys, que des fuck boys We still don't give a fuck booooooy Longwa, mothafucka longwa, longwa Dégage de ma... waye Longwa, mothafucka longwa, longwa Mooooove... Mooooove Longwa, mothafucka longwa, longwa Moooove... MOOOOVE Longwa, mothafucka longwa, longwa Wassa wassa wassa wassa Ahhh ! dégage de ma... Waye! Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Longwa, mothafucka longwa, longwa Zoba! Mais ça veut dire quoi longwa?1</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fais pas l'malin, donne-moi mes sous T'es sur messagerie, mais t'es où ? On va t'régler, fais pas le fou J'vais pas l'répéter, donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous La très grosse schnek à ta maman Donne-moi mon biff' avant qu'on parle autrement Qu'on repeigne ton tout petit appartement Toi et toute ta clique de merde à l'a-de-men J'ai signé au Barça, toi tu joues à Sedan Tu vas t'faire plomber renoi, j'parle pas d'tes dents Une brique à ton pied, on t'balance dans l'étang Juste avant d'rentrer de ftor, j'crois qu'j'suis dans les temps Wallah Laouni, ana nebghik bezzaf J'entends ça depuis que je paie l'ISF Assis tranquille à l'arrière d'un classe S Moi j'm'en bats les couilles des grèves SNCF Khoya j'suis en stud', je pose vite eff' C'est qu'une maquette, ils croient déjà que c'est du def' En cellule, j'attends d'être monté au greffe Des billets violets, tanbghihom bezzaf You might also like Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi les, donne-moi les Fais pas l'malin, donne-moi mes sous T'es sur messagerie, mais t'es où ? On va t'régler, fais pas le fou J'vais pas l'répéter donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Coupe le son... Alors comme ça ça fait des p'tites cachoteries en Belgique ? Ça tu nous l'avais pas dit 3000 euros pour fourrer un lascar, alors que tes vrais gars sont chiens à Boulbi izi Banlieue Sale, c'est jamais fini, petit, j'me rappelle pas d'ton blase, mais comment ça s'écrit ? Putain, mon débarras est plus grand qu'ton appart', reste en loup, je te clasherai le jour où tu fera des... ...sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi les, donne-moi les Fais pas l'malin, donne-moi mes sous T'es sur messagerie, mais t'es où ? On va t'régler, fais pas le fou J'vais pas l'répéter donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous gros, ou ça part en garre-ba Quand ça part en couilles, malheureusement, on t'abat Tanger, Ketama, Casa, j'rentre de Rabat Si tu reviens de Dubaï, ramène-moi du tabac Les tits-pe sont vénères, ont sorti les AK La misère, ouvre les yeux, j'vois le monde en 4K Tony tue Many, Scar a fumé Mufasa L'école de la rue, moi j'connais la madrasa Donne-moi mes, donne-moi mes, donne-moi mes sous Donne-moi mes, donne-moi mes, donne-moi mes sous Donne-moi mes, donne-moi mes, donne-moi mes sous Tu sors d'où ? J'vais t'arroser comme Laure Manaudou Donne-moi mes, donne-moi mes, donne-moi mes sous Donne-moi mes, donne-moi mes, donne-moi mes sous Donne-moi mes, donne-moi mes, donne-moi mes sous Tu sors d'où ? J'vais t'arroser comme Laure Manaudou Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous</t>
+          <t>Fais pas l'malin, donne-moi mes sous T'es sur messagerie, mais t'es où ? On va t'régler, fais pas le fou J'vais pas l'répéter, donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous La très grosse schnek à ta maman Donne-moi mon biff' avant qu'on parle autrement Qu'on repeigne ton tout petit appartement Toi et toute ta clique de merde à l'a-de-men J'ai signé au Barça, toi tu joues à Sedan Tu vas t'faire plomber renoi, j'parle pas d'tes dents Une brique à ton pied, on t'balance dans l'étang Juste avant d'rentrer de ftor, j'crois qu'j'suis dans les temps Wallah Laouni, ana nebghik bezzaf J'entends ça depuis que je paie l'ISF Assis tranquille à l'arrière d'un classe S Moi j'm'en bats les couilles des grèves SNCF Khoya j'suis en stud', je pose vite eff' C'est qu'une maquette, ils croient déjà que c'est du def' En cellule, j'attends d'être monté au greffe Des billets violets, tanbghihom bezzaf Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi les, donne-moi les Fais pas l'malin, donne-moi mes sous T'es sur messagerie, mais t'es où ? On va t'régler, fais pas le fou J'vais pas l'répéter donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Coupe le son... Alors comme ça ça fait des p'tites cachoteries en Belgique ? Ça tu nous l'avais pas dit 3000 euros pour fourrer un lascar, alors que tes vrais gars sont chiens à Boulbi izi Banlieue Sale, c'est jamais fini, petit, j'me rappelle pas d'ton blase, mais comment ça s'écrit ? Putain, mon débarras est plus grand qu'ton appart', reste en loup, je te clasherai le jour où tu fera des... ...sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi les, donne-moi les Fais pas l'malin, donne-moi mes sous T'es sur messagerie, mais t'es où ? On va t'régler, fais pas le fou J'vais pas l'répéter donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous gros, ou ça part en garre-ba Quand ça part en couilles, malheureusement, on t'abat Tanger, Ketama, Casa, j'rentre de Rabat Si tu reviens de Dubaï, ramène-moi du tabac Les tits-pe sont vénères, ont sorti les AK La misère, ouvre les yeux, j'vois le monde en 4K Tony tue Many, Scar a fumé Mufasa L'école de la rue, moi j'connais la madrasa Donne-moi mes, donne-moi mes, donne-moi mes sous Donne-moi mes, donne-moi mes, donne-moi mes sous Donne-moi mes, donne-moi mes, donne-moi mes sous Tu sors d'où ? J'vais t'arroser comme Laure Manaudou Donne-moi mes, donne-moi mes, donne-moi mes sous Donne-moi mes, donne-moi mes, donne-moi mes sous Donne-moi mes, donne-moi mes, donne-moi mes sous Tu sors d'où ? J'vais t'arroser comme Laure Manaudou Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous Donne-moi mes sous, sous, sous, sous</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Rembobine, rembo-rembobine On avait des T-shirts sales et des tâches d'huile sur nos jean's On squattait Euromarché, on tapait des Master system Demba ressemblait à Michael quand il mettait pas d'crème Vrai qu'les keufs nous coursaient, on avait nos repères On vendait tous des vingt-cinq, on avait tous des bippers C'est dingue des fois le quartier, quand les frères partent trop tôt De la mauvaise héroïne, une mauvaise vie sur une moto On écoutait les rappeurs, on crachait sur les professeurs On sortait les battes, les couteaux et les extincteurs Maman était une reine au royaume des immigrés Alors j'mettais ma plume au service des opprimés La voisine du haut venait toujours demander du poivre On lui donnait même du sel, on partageait même la gamelle ! Parfois la juge ouvrait la porte du pénitencier En me disant Tu regrettes, mais bon, fallait y penser ! Même seul dans la merde, impossible de m'en défaire, mes repères Même seul dans le noir, perdu, je me suis fait mes propres repères Même seul, égaré, j'ai pu trouver, oui trouvé, mes repères Trouver mes propres repères, j'aurais dû y penser plus tôt Rembobine, rembo-rembobine On traînait les mains dans les poches, et les poches pleines d'héroïne ! On fumait des joints très tard, on restait parler toute la nuit On finissait au chtar, et on y restait toute l'année Yeah, il manque du monde sur cette vieille photo Le bonheur en millions d'pixels, des 8-6, des joints d'popo Derniers à aller aux cages quand on était au foot en salle Premiers à aller en cage quand on était au tribunal Voleurs de tures-voi, débrouillards et you-vois On traînait au studio, criait haut c'que tu pensait tout bas On rentrait jamais en boîte, nos têtes étaient trop cramées Alors on passait au Bois, insulter deux-trois camés Coeur sur la main gauche, gun à la main droite Braquer le bonheur, et mettre la misère à quatre pattes Trouver ses repères, braquer et se refermer La poisse suit les traces de nos Nikes Air You might also like Même seul dans la merde, impossible de m'en défaire, mes repères Même seul dans le noir, perdu, je me suis fait mes propres repères Même seul, égaré, j'ai pu trouver, oui trouvé, mes repères Trouver mes propres repères, j'aurais dû y penser plus tôt Rembobine, rembo-rembobine J'ai perdu mon crayon, mais mon avenir se dessine En route vers l'école, j'étais tout seul assis au fond d'ce bus Rien dans l'estomac, j'aurai pu avaler un cactus Le soir dans des ruelles on arrachait des sacs à mains On courrait fons-dés sur Paris, rattraper l'dernier train Retour à la banlieue, retour à la sère-mi On m'a dit La roue tourne, c'est vrai J'suis sorti en semi On restait à la cité, à écouter du Ice Cube A semer les condés en six-cents centimètres cube On partait au bled, on partageait à vingt un jet-ski On rester au square, à s'partager à vingt un grec-frites Partout c'est la merde, partout c'est la même On a pris nos tickets, on tourne en rond dans ce manège Blanc comme coke, blanc comme neige On veut nos culs entre deux berlines, et plus entre deux chaises Même seul dans la merde, impossible de m'en défaire, mes repères Même seul dans le noir, perdu, je me suis fait mes propres repères Même seul, égaré, j'ai pu trouver, oui trouvé, mes repères Trouver mes propres repères, j'aurais dû y penser plus tôtRejoins la communauté RapGenius France !</t>
+          <t>Rembobine, rembo-rembobine On avait des T-shirts sales et des tâches d'huile sur nos jean's On squattait Euromarché, on tapait des Master system Demba ressemblait à Michael quand il mettait pas d'crème Vrai qu'les keufs nous coursaient, on avait nos repères On vendait tous des vingt-cinq, on avait tous des bippers C'est dingue des fois le quartier, quand les frères partent trop tôt De la mauvaise héroïne, une mauvaise vie sur une moto On écoutait les rappeurs, on crachait sur les professeurs On sortait les battes, les couteaux et les extincteurs Maman était une reine au royaume des immigrés Alors j'mettais ma plume au service des opprimés La voisine du haut venait toujours demander du poivre On lui donnait même du sel, on partageait même la gamelle ! Parfois la juge ouvrait la porte du pénitencier En me disant Tu regrettes, mais bon, fallait y penser ! Même seul dans la merde, impossible de m'en défaire, mes repères Même seul dans le noir, perdu, je me suis fait mes propres repères Même seul, égaré, j'ai pu trouver, oui trouvé, mes repères Trouver mes propres repères, j'aurais dû y penser plus tôt Rembobine, rembo-rembobine On traînait les mains dans les poches, et les poches pleines d'héroïne ! On fumait des joints très tard, on restait parler toute la nuit On finissait au chtar, et on y restait toute l'année Yeah, il manque du monde sur cette vieille photo Le bonheur en millions d'pixels, des 8-6, des joints d'popo Derniers à aller aux cages quand on était au foot en salle Premiers à aller en cage quand on était au tribunal Voleurs de tures-voi, débrouillards et you-vois On traînait au studio, criait haut c'que tu pensait tout bas On rentrait jamais en boîte, nos têtes étaient trop cramées Alors on passait au Bois, insulter deux-trois camés Coeur sur la main gauche, gun à la main droite Braquer le bonheur, et mettre la misère à quatre pattes Trouver ses repères, braquer et se refermer La poisse suit les traces de nos Nikes Air Même seul dans la merde, impossible de m'en défaire, mes repères Même seul dans le noir, perdu, je me suis fait mes propres repères Même seul, égaré, j'ai pu trouver, oui trouvé, mes repères Trouver mes propres repères, j'aurais dû y penser plus tôt Rembobine, rembo-rembobine J'ai perdu mon crayon, mais mon avenir se dessine En route vers l'école, j'étais tout seul assis au fond d'ce bus Rien dans l'estomac, j'aurai pu avaler un cactus Le soir dans des ruelles on arrachait des sacs à mains On courrait fons-dés sur Paris, rattraper l'dernier train Retour à la banlieue, retour à la sère-mi On m'a dit La roue tourne, c'est vrai J'suis sorti en semi On restait à la cité, à écouter du Ice Cube A semer les condés en six-cents centimètres cube On partait au bled, on partageait à vingt un jet-ski On rester au square, à s'partager à vingt un grec-frites Partout c'est la merde, partout c'est la même On a pris nos tickets, on tourne en rond dans ce manège Blanc comme coke, blanc comme neige On veut nos culs entre deux berlines, et plus entre deux chaises Même seul dans la merde, impossible de m'en défaire, mes repères Même seul dans le noir, perdu, je me suis fait mes propres repères Même seul, égaré, j'ai pu trouver, oui trouvé, mes repères Trouver mes propres repères, j'aurais dû y penser plus tôtRejoins la communauté RapGenius France !</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Yah, yah, yah, yah ! sku-sku-sku-sku-sku Eh yo Oster... j'tenais à te dire - bravo pour la prod ! Skurt ! Yah, yah, yah ! Sucer des bites m'intéresse pas, nique sa mère le CSA RSA khoya arrête ça kho, j'te redescends d'ton piédestal CDC c'est ma capitale, j'suis un ancien comme Abidal Tous ces rappeurs ont des couilles dans la bouche, j'crois pas que ce soient les amygdales Royal Offshore, j'ai pas ton temps, Baïla merci pour les pâtes au thon Présomption d'innocence n'existe pas si tu t'appelles Ramadan Roche Bobois, une chicha menthe, j'suis avec une meuf qui est chaude à mort Elle pense à moi, son mi amor, moi, j'pense à faire des mises à mort Au tribunal, assis sur un banc, on réfléchit, mais on tire avant Dans ton zen, j'ai vu un peu de blanc, tout baiser, khoya, c'est ça, le plan Banlieusard dans le Bentayga, dans le bendo, khoya, le biff, t'as pas Tu parles mal, on t'abat, dis-toi qu'on Per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés On per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés You might also like J'ai une bombasse à mon bras, t'as une seringue à ton bras Des fois c'est chaud, mais t'y arriveras, la vie rend dur comme le viagra J'regarde jamais l'étiquette, frérot, les prix je m'en bats les steaks J'emporterai rien avec moi, j'ai le front au sol, direction la Mecque Maman mes larmes n'ont pas séché, mon Seigneur, j'ai trop pêché Un jour, la mort va se dépêcher et j'paierai le dounia TTC Si ta balance au comico, oublie les sourires amicaux Dans la promenade sous lil du gradé, tu vas laisser quelques chicots Putain, ça schlingue à Bois d'Arcy, aujourd'hui, c'est Bois d'Argent Nique sa mère monsieur l'agent, ce genre de phrase c'est alléchant Fils d'ouvrier, j'ai la vie d'un roi, tu veux percer, kho, crois en toi Quelques rageux m'envoient des tweets haineux en direct de Pôle Emploi J'vis la nuit, car on m'a dit que j'allais mourir un jour La vie est une pute khoya et chaque soir j'lui fais l'amour, dis-toi qu'on Per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés On per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés Eh yo bitch, tu veux test Fouiny, on s'en bat les couilles Texte explicite, sors l'automatique, on ramasse pas les douilles Dans le club, on t'a niqué ta mère, au shtar, on t'a dépouille Toujours sapé sur plusieurs gammes, on s'dit qu'même ta nne-chie mouille, même Cardi B mouille Khoya, t'a pris trop d'ecstasy et tu voyais partout des Mickey, whooh La go avec bouteille à lil, j'crois bien qu'elle a sucé le DJ ohhh Les footeux, c'est comme les rappeurs, la plupart du temps c'est surcoté Ils prennent le taureau par les cornes mais... du mauvais côté Ils veulent tester - des barres ! La fierté, l'honneur se font rare M'en bat les couilles, j'sors de chez l'concessionnaire dans le nouveau Velar J'ai connu des michtonneuses, vendraient leur mères pour du buzz J'ai jeté en l'air un an de leur salaires sur le cul d'une stripteaseuse On per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés On per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés1</t>
+          <t>Yah, yah, yah, yah ! sku-sku-sku-sku-sku Eh yo Oster... j'tenais à te dire - bravo pour la prod ! Skurt ! Yah, yah, yah ! Sucer des bites m'intéresse pas, nique sa mère le CSA RSA khoya arrête ça kho, j'te redescends d'ton piédestal CDC c'est ma capitale, j'suis un ancien comme Abidal Tous ces rappeurs ont des couilles dans la bouche, j'crois pas que ce soient les amygdales Royal Offshore, j'ai pas ton temps, Baïla merci pour les pâtes au thon Présomption d'innocence n'existe pas si tu t'appelles Ramadan Roche Bobois, une chicha menthe, j'suis avec une meuf qui est chaude à mort Elle pense à moi, son mi amor, moi, j'pense à faire des mises à mort Au tribunal, assis sur un banc, on réfléchit, mais on tire avant Dans ton zen, j'ai vu un peu de blanc, tout baiser, khoya, c'est ça, le plan Banlieusard dans le Bentayga, dans le bendo, khoya, le biff, t'as pas Tu parles mal, on t'abat, dis-toi qu'on Per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés On per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés J'ai une bombasse à mon bras, t'as une seringue à ton bras Des fois c'est chaud, mais t'y arriveras, la vie rend dur comme le viagra J'regarde jamais l'étiquette, frérot, les prix je m'en bats les steaks J'emporterai rien avec moi, j'ai le front au sol, direction la Mecque Maman mes larmes n'ont pas séché, mon Seigneur, j'ai trop pêché Un jour, la mort va se dépêcher et j'paierai le dounia TTC Si ta balance au comico, oublie les sourires amicaux Dans la promenade sous lil du gradé, tu vas laisser quelques chicots Putain, ça schlingue à Bois d'Arcy, aujourd'hui, c'est Bois d'Argent Nique sa mère monsieur l'agent, ce genre de phrase c'est alléchant Fils d'ouvrier, j'ai la vie d'un roi, tu veux percer, kho, crois en toi Quelques rageux m'envoient des tweets haineux en direct de Pôle Emploi J'vis la nuit, car on m'a dit que j'allais mourir un jour La vie est une pute khoya et chaque soir j'lui fais l'amour, dis-toi qu'on Per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés On per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés Eh yo bitch, tu veux test Fouiny, on s'en bat les couilles Texte explicite, sors l'automatique, on ramasse pas les douilles Dans le club, on t'a niqué ta mère, au shtar, on t'a dépouille Toujours sapé sur plusieurs gammes, on s'dit qu'même ta nne-chie mouille, même Cardi B mouille Khoya, t'a pris trop d'ecstasy et tu voyais partout des Mickey, whooh La go avec bouteille à lil, j'crois bien qu'elle a sucé le DJ ohhh Les footeux, c'est comme les rappeurs, la plupart du temps c'est surcoté Ils prennent le taureau par les cornes mais... du mauvais côté Ils veulent tester - des barres ! La fierté, l'honneur se font rare M'en bat les couilles, j'sors de chez l'concessionnaire dans le nouveau Velar J'ai connu des michtonneuses, vendraient leur mères pour du buzz J'ai jeté en l'air un an de leur salaires sur le cul d'une stripteaseuse On per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés On per-ra pour les vrais, que pour les vrais Et on te laisse tter-gra quelques gobelets, nous on paie, on paie On est frais, l'oseille on le fait On arrive tout droit de ces endroits délabrés1</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Cash Money AP Yeah, Fouiny Rien à, rien à perdre Tu sais doù lon vient, cquon a fait, tu sais cquil treste à faire Tu sais qui on est, comme le facteur, on va te niquer ta mère Tu sais doù lon vient, cquon a fait, tu sais ce quil treste à faire Tu sais qui on est, Banlieue Sale, dis-leur on a rien à perdre On a rien à, rien à perdre, rien à, rien à perdre nigga Rien à, rien à perdre, rien à, rien à perdre reubeu Rien à, rien à perdre, rien à perdre, rien à perdre Rien à, rien à perdre, rien à perdre, rien à perdre, perdre Ma chienne mouille trop IceBucketChallenge-Challenge Tu veux dla peu-fra on tarrange-t'arrange, donne des noms aux keufs on tarrose-arrose Banlieue Sale tu sais qui on est renseignez-vous, mon putain dbanquier ma dit qujrappais mieux quvous Jride tranquille double G sur le polo, jroule en V12 nique sa mère les écolos Jai bien plus quun tour davance, la relève tu sais bien ce que jen pense Et quand je sors en boîte le soir, sur ma table jai quatre-cinq fois leur avance Bitch, jsuis un ancien, ils sont en chien, si ya pas dchèque jvais tfaire un dessin Ils ont baissé leurs frocs, on a vu leurs strings, tu veux percer ? Bah fais-toi un piercing Rien à, rien à, rien à prouver, jcherche le succès tas rien trouvé Ils ont pas une thune ils ont le froc baissé, jai RDV chez la HSBC Fouiny, Fouiny Babe, Babe, jsuis au top mais tu crois quoi, crois quoi ? Jai trop dflow jai fait un cuni à Mamie Wata You might also like Tu sais doù lon vient, cquon a fait, tu sais cquil treste à faire Tu sais qui on est, comme le facteur, on va te niquer ta mère Tu sais doù lon vient, cquon a fait, tu sais ce quil treste à faire Tu sais qui on est, Banlieue Sale, dis-leur on a rien à perdre On a rien à, rien à perdre, rien à, rien à perdre nigga Rien à, rien à perdre, rien à, rien à perdre reubeu Rien à, rien à perdre, rien à perdre, rien à perdre Rien à, rien à perdre, rien à perdre, rien à perdre, perdre Léquipe est Waouw Paouw frérot, que des rabzas fêlés et mes négros 7.8.1.9 rajoute un zéro, jamais déçu Ferrero On prend pas dchèque, que du khalis, on fait tout au black, on fuck le K-Bis On cache du shit dans des apparts mis sous scellés, on emmerde Efidis C'qu'on veut c'est rendre fière la daronne, voir un sourire sur les joues du padre Prêts à tout pour percer plus drespect les petits frères tallument à la Santé Équipe de fêlés tétonne pas si tu vois ta grand-mère dans mon carré Henijai fait une escale pour mieux redémarrer Magnums, mathus, Nabuchodonosor chemise Gucci, polo plaqué Dior Nardo sur lnavire Capitaine Hadock, batarade on encule Castafiore Halla hagra suce mes potes tauras jamais dbisous Banlieue Sale ouais, CDC 4 Casablanca zoo Tu sais doù lon vient, cquon a fait, tu sais cquil treste à faire Tu sais qui on est, comme le facteur, on va te niquer ta mère Tu sais doù lon vient, cquon a fait, tu sais ce quil treste à faire Tu sais qui on est, Banlieue Sale, dis-leur on a rien à perdre On a rien à, rien à perdre, rien à, rien à perdre nigga Rien à, rien à perdre, rien à, rien à perdre reubeu Rien à, rien à perdre, rien à perdre, rien à perdre Rien à, rien à perdre, rien à perdre, rien à perdre, perdre2</t>
+          <t>Cash Money AP Yeah, Fouiny Rien à, rien à perdre Tu sais doù lon vient, cquon a fait, tu sais cquil treste à faire Tu sais qui on est, comme le facteur, on va te niquer ta mère Tu sais doù lon vient, cquon a fait, tu sais ce quil treste à faire Tu sais qui on est, Banlieue Sale, dis-leur on a rien à perdre On a rien à, rien à perdre, rien à, rien à perdre nigga Rien à, rien à perdre, rien à, rien à perdre reubeu Rien à, rien à perdre, rien à perdre, rien à perdre Rien à, rien à perdre, rien à perdre, rien à perdre, perdre Ma chienne mouille trop IceBucketChallenge-Challenge Tu veux dla peu-fra on tarrange-t'arrange, donne des noms aux keufs on tarrose-arrose Banlieue Sale tu sais qui on est renseignez-vous, mon putain dbanquier ma dit qujrappais mieux quvous Jride tranquille double G sur le polo, jroule en V12 nique sa mère les écolos Jai bien plus quun tour davance, la relève tu sais bien ce que jen pense Et quand je sors en boîte le soir, sur ma table jai quatre-cinq fois leur avance Bitch, jsuis un ancien, ils sont en chien, si ya pas dchèque jvais tfaire un dessin Ils ont baissé leurs frocs, on a vu leurs strings, tu veux percer ? Bah fais-toi un piercing Rien à, rien à, rien à prouver, jcherche le succès tas rien trouvé Ils ont pas une thune ils ont le froc baissé, jai RDV chez la HSBC Fouiny, Fouiny Babe, Babe, jsuis au top mais tu crois quoi, crois quoi ? Jai trop dflow jai fait un cuni à Mamie Wata Tu sais doù lon vient, cquon a fait, tu sais cquil treste à faire Tu sais qui on est, comme le facteur, on va te niquer ta mère Tu sais doù lon vient, cquon a fait, tu sais ce quil treste à faire Tu sais qui on est, Banlieue Sale, dis-leur on a rien à perdre On a rien à, rien à perdre, rien à, rien à perdre nigga Rien à, rien à perdre, rien à, rien à perdre reubeu Rien à, rien à perdre, rien à perdre, rien à perdre Rien à, rien à perdre, rien à perdre, rien à perdre, perdre Léquipe est Waouw Paouw frérot, que des rabzas fêlés et mes négros 7.8.1.9 rajoute un zéro, jamais déçu Ferrero On prend pas dchèque, que du khalis, on fait tout au black, on fuck le K-Bis On cache du shit dans des apparts mis sous scellés, on emmerde Efidis C'qu'on veut c'est rendre fière la daronne, voir un sourire sur les joues du padre Prêts à tout pour percer plus drespect les petits frères tallument à la Santé Équipe de fêlés tétonne pas si tu vois ta grand-mère dans mon carré Henijai fait une escale pour mieux redémarrer Magnums, mathus, Nabuchodonosor chemise Gucci, polo plaqué Dior Nardo sur lnavire Capitaine Hadock, batarade on encule Castafiore Halla hagra suce mes potes tauras jamais dbisous Banlieue Sale ouais, CDC 4 Casablanca zoo Tu sais doù lon vient, cquon a fait, tu sais cquil treste à faire Tu sais qui on est, comme le facteur, on va te niquer ta mère Tu sais doù lon vient, cquon a fait, tu sais ce quil treste à faire Tu sais qui on est, Banlieue Sale, dis-leur on a rien à perdre On a rien à, rien à perdre, rien à, rien à perdre nigga Rien à, rien à perdre, rien à, rien à perdre reubeu Rien à, rien à perdre, rien à perdre, rien à perdre Rien à, rien à perdre, rien à perdre, rien à perdre, perdre2</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tu cries Code 187, mais tu ferais pas de mal à une mouche Arrête de parler de braquo, tu sais pas ce que c'est kho T'as une voix trop bizarre, j'crois que t'as trop sucé des bites J'suis obligé de mettre repeat, j'comprends rien à tes aboiements de pitt T'as rien d'un ancien, moi j'innove, toi tu pompes C'est des gifles dans tes dents que tu vas prendre, pas des coups de fusil à pompe 78 capitale du crime Breliqué jusqu'aux couilles, j'te laisse jouer à l'escrime J'suis pas Snoop Dogg, t'as raison à part que... J'ai tourner Doggy Style 3 avec ton flow et ma grosse queue A force de mettre trop de Pento,connard t'as plus les idées claires Tchikibrah... t'as rien dans les couilles, t'as rien dans les bras T'es ni un rat, ni une fouine, ni un rappeur, ni un backeur, ni un braqueur T'es juste un gratteur, un imposteur Ça sert à quoi d'ouvrir ta grande gueule si t'as une petite bite Ça sert à quoi de péta le flow d'L.I.M quand t'es pas illicite connard T'as rien d'un ancien, t'es juste un mec en chien T'es juste en chienne, en fait t'es ma petite chienne wouaf wouaf wouaf Tu sais pas rapper, retourne faire tes backs J'vais te mettre une gifle dans tes dents, tu vas danser le Lean Back ! C'est ça T'essaies de rapper dur, moi j'rappe pour le fric Arrête Kamel, j'prefère K-mel d'Alliance Ethnik T'es la fin d'mon joint, j'vais te keusti keusti T'es pas hardcore et de-spee, t'es simple et même pas funky ! Tu sais pas rapper, tu sais que gratter Un feat ou bien deux... ton style est bien douteux Moi j'fais d'la musique, toi t'es qu'un suce bite Handek, j'pourrais caner de mort subite Moi c'est 78, toi j'sais pas d'où tu sors Arrête de faire l'énervé, de faire le hardcore Goûte à ma fouiny fouiny bite dans ta bouche Et puis ramasse ta savonnette... Elle est tombée sous la douche You might also like Quand les mecs du 7.8 parlent, ferme ta gueule Tu parles trop, t'as pas de couilles re-beu Ferme ta gueule Tchiki brah, tu racontes quoi? Ferme ta gueule Moi c'est 78, c'est 78 Parait que t'as braqué, que t'as tiré... Ferme ta gueule Tu parles d'Islam et tu veux clasher... Ferme ta gueule T'es tout mou, prends de la CC... Ferme ta gueule Menteur, à part les thunes, j'vois pas quel est ton réacteur Ton rap n'est pas bon, ton rap n'est pas fort Ton rap n'est pas hardcore, ton rap il bouffe du porc D'vant moi tu te rabaisses, derrière tu t'élèves Si la bouffonnerie enseignait, tu serais son meilleur élève Le rap a fait une fausse couche et te voilà T'es là sans être là, parait que tu rappes, mais bon, je ne te vois pas A Mantes, j'ai voulu rapper derrière toi, mais le micro puait le sperme J'me demande où ta bouche traine Traitre, tu mens, t'es doux comme un prêtre Joue pas le bad boy, tu pues d'la chatte boy ! Chacun sa voie, moi j'ai déjà choisi ma voie, déchirer avec ma voix Pendant que des petites putes comme toi aboient La Fouine, c'est comme ça que j'm'appelle Pour enterrer ton rap, j'ai ma pioche et ma pelle T'as rien d'ancien, à part ton style, à part ton flow Et tu piques celui des autres, sans même mettre de garrot Quand on s'est croisé, tu m'as sucé la bite Parait que tu m'en veux re-beu tu sais où j'habite T'es ni de l'ancienne, ni de la new school Ton rap pue de la gueule, il aurait besoin d'un Kiss Cool Tu parles de tard-pé mais tu vas te faire tarter A vos marques, prêts, feux, toi et ton flow partez ! T'as pas connu la merde, t'as pas connu la sère-mi T'as jamais fait une gard'av, tu parles toujours de son-pri T'es un don-bi, tu mens, les gens l'ont compris T'es un faux, et si le rap s'est fait baisé, t'es une nympho Fouiny Fouiny, bite dans ta bouche... Ramasse ta savonnette, elle est tombée sous la douche Quand les mecs du 7.8 parlent, ferme ta gueule Tu parles trop, t'as pas de couilles re-beu Ferme ta gueule Tchiki brah, tu racontes quoi? Ferme ta gueule Moi c'est 78, c'est 78 Parait que t'as braqué, que t'as tiré... Ferme ta gueule Tu parles d'Islam et tu veux clasher... Ferme ta gueule T'es tout mou, prends de la CC... Ferme ta gueule Menteur, à part les thunes, j'vois pas quel est ton réacteur Quand on s'est croisé à Mantes-la-Jolie Sale petit pédé, t'es bien venu me sucer la bite en studio Quelques semaines après j'entends que tu veux clasher Sale bouffon va... Ça sert à quoi de parler d'Islam si tu fais de la médisance T'es pas musulman, t'es juste un mec qui ment Tu parles de dîn, des grosses chiennes dans le Cayenne Qui t'appartient même pas, et tu te la pètes dans ris-Pa bouffon T'es pas crédible, trou du cul t'es dans ma cible Trappes c'est la jungle...78 indestructible Tu parles d'indépendance, t'as jamais rien sorti J'posais mes premières tueries, t'écoutais encore 2Be3 D'ailleurs, t'en as gardé la coupe, le tee shirt, et le jean's La première fois que je t'ai vu, putain j'ai cru que t'étais un skin Avoue ton homosexualité Ton rêve de faire un feat avec Alizée peut se réaliser T'es la risée du rap, et tu sors jamais seul J'crois que t'es l'enfant seul, tu sais que c'est toi ! Bienvenue gros bouffon dans les quartiers neufs Bref dans ton cul la même souffrance T'es vraiment un lâche, un hypocrite Si seulement les gens savaient à quel point tu puais la bite c'est ça Fouiny, fouiny, bite dans ta bouche Ramasse ta savonnette, elle est tombée sous la douche Quand les mecs du 7.8 parlent, ferme ta gueule Tu parles trop, t'as pas de couilles re-beu Ferme ta gueule Tchiki brah, tu racontes quoi? Ferme ta gueule Moi c'est 78, c'est 78 Parait que t'as braqué, que t'as tiré... Ferme ta gueule Tu parles d'Islam et tu veux clasher... Ferme ta gueule T'es tout mou, prends de la CC... Ferme ta gueule Menteur, à part les thunes, j'vois pas quel est ton réacteur Ahahah Eh P'tit bouffon Ferme ta gueule J'pourrais jamais t'appeler l'Ancien sur la vie de ma mère Peut-être l'Anchien Ferme Ta Gueule, le Chien,Kamel La Chienne, Kamel En Chien Ferme ta gueule Allez Ferme Ta Gueule p'tit bouffon Rentre dans ta niche, rentre Kamel Le Chien Ferme ta gueule C'est ça1</t>
+          <t>Tu cries Code 187, mais tu ferais pas de mal à une mouche Arrête de parler de braquo, tu sais pas ce que c'est kho T'as une voix trop bizarre, j'crois que t'as trop sucé des bites J'suis obligé de mettre repeat, j'comprends rien à tes aboiements de pitt T'as rien d'un ancien, moi j'innove, toi tu pompes C'est des gifles dans tes dents que tu vas prendre, pas des coups de fusil à pompe 78 capitale du crime Breliqué jusqu'aux couilles, j'te laisse jouer à l'escrime J'suis pas Snoop Dogg, t'as raison à part que... J'ai tourner Doggy Style 3 avec ton flow et ma grosse queue A force de mettre trop de Pento,connard t'as plus les idées claires Tchikibrah... t'as rien dans les couilles, t'as rien dans les bras T'es ni un rat, ni une fouine, ni un rappeur, ni un backeur, ni un braqueur T'es juste un gratteur, un imposteur Ça sert à quoi d'ouvrir ta grande gueule si t'as une petite bite Ça sert à quoi de péta le flow d'L.I.M quand t'es pas illicite connard T'as rien d'un ancien, t'es juste un mec en chien T'es juste en chienne, en fait t'es ma petite chienne wouaf wouaf wouaf Tu sais pas rapper, retourne faire tes backs J'vais te mettre une gifle dans tes dents, tu vas danser le Lean Back ! C'est ça T'essaies de rapper dur, moi j'rappe pour le fric Arrête Kamel, j'prefère K-mel d'Alliance Ethnik T'es la fin d'mon joint, j'vais te keusti keusti T'es pas hardcore et de-spee, t'es simple et même pas funky ! Tu sais pas rapper, tu sais que gratter Un feat ou bien deux... ton style est bien douteux Moi j'fais d'la musique, toi t'es qu'un suce bite Handek, j'pourrais caner de mort subite Moi c'est 78, toi j'sais pas d'où tu sors Arrête de faire l'énervé, de faire le hardcore Goûte à ma fouiny fouiny bite dans ta bouche Et puis ramasse ta savonnette... Elle est tombée sous la douche Quand les mecs du 7.8 parlent, ferme ta gueule Tu parles trop, t'as pas de couilles re-beu Ferme ta gueule Tchiki brah, tu racontes quoi? Ferme ta gueule Moi c'est 78, c'est 78 Parait que t'as braqué, que t'as tiré... Ferme ta gueule Tu parles d'Islam et tu veux clasher... Ferme ta gueule T'es tout mou, prends de la CC... Ferme ta gueule Menteur, à part les thunes, j'vois pas quel est ton réacteur Ton rap n'est pas bon, ton rap n'est pas fort Ton rap n'est pas hardcore, ton rap il bouffe du porc D'vant moi tu te rabaisses, derrière tu t'élèves Si la bouffonnerie enseignait, tu serais son meilleur élève Le rap a fait une fausse couche et te voilà T'es là sans être là, parait que tu rappes, mais bon, je ne te vois pas A Mantes, j'ai voulu rapper derrière toi, mais le micro puait le sperme J'me demande où ta bouche traine Traitre, tu mens, t'es doux comme un prêtre Joue pas le bad boy, tu pues d'la chatte boy ! Chacun sa voie, moi j'ai déjà choisi ma voie, déchirer avec ma voix Pendant que des petites putes comme toi aboient La Fouine, c'est comme ça que j'm'appelle Pour enterrer ton rap, j'ai ma pioche et ma pelle T'as rien d'ancien, à part ton style, à part ton flow Et tu piques celui des autres, sans même mettre de garrot Quand on s'est croisé, tu m'as sucé la bite Parait que tu m'en veux re-beu tu sais où j'habite T'es ni de l'ancienne, ni de la new school Ton rap pue de la gueule, il aurait besoin d'un Kiss Cool Tu parles de tard-pé mais tu vas te faire tarter A vos marques, prêts, feux, toi et ton flow partez ! T'as pas connu la merde, t'as pas connu la sère-mi T'as jamais fait une gard'av, tu parles toujours de son-pri T'es un don-bi, tu mens, les gens l'ont compris T'es un faux, et si le rap s'est fait baisé, t'es une nympho Fouiny Fouiny, bite dans ta bouche... Ramasse ta savonnette, elle est tombée sous la douche Quand les mecs du 7.8 parlent, ferme ta gueule Tu parles trop, t'as pas de couilles re-beu Ferme ta gueule Tchiki brah, tu racontes quoi? Ferme ta gueule Moi c'est 78, c'est 78 Parait que t'as braqué, que t'as tiré... Ferme ta gueule Tu parles d'Islam et tu veux clasher... Ferme ta gueule T'es tout mou, prends de la CC... Ferme ta gueule Menteur, à part les thunes, j'vois pas quel est ton réacteur Quand on s'est croisé à Mantes-la-Jolie Sale petit pédé, t'es bien venu me sucer la bite en studio Quelques semaines après j'entends que tu veux clasher Sale bouffon va... Ça sert à quoi de parler d'Islam si tu fais de la médisance T'es pas musulman, t'es juste un mec qui ment Tu parles de dîn, des grosses chiennes dans le Cayenne Qui t'appartient même pas, et tu te la pètes dans ris-Pa bouffon T'es pas crédible, trou du cul t'es dans ma cible Trappes c'est la jungle...78 indestructible Tu parles d'indépendance, t'as jamais rien sorti J'posais mes premières tueries, t'écoutais encore 2Be3 D'ailleurs, t'en as gardé la coupe, le tee shirt, et le jean's La première fois que je t'ai vu, putain j'ai cru que t'étais un skin Avoue ton homosexualité Ton rêve de faire un feat avec Alizée peut se réaliser T'es la risée du rap, et tu sors jamais seul J'crois que t'es l'enfant seul, tu sais que c'est toi ! Bienvenue gros bouffon dans les quartiers neufs Bref dans ton cul la même souffrance T'es vraiment un lâche, un hypocrite Si seulement les gens savaient à quel point tu puais la bite c'est ça Fouiny, fouiny, bite dans ta bouche Ramasse ta savonnette, elle est tombée sous la douche Quand les mecs du 7.8 parlent, ferme ta gueule Tu parles trop, t'as pas de couilles re-beu Ferme ta gueule Tchiki brah, tu racontes quoi? Ferme ta gueule Moi c'est 78, c'est 78 Parait que t'as braqué, que t'as tiré... Ferme ta gueule Tu parles d'Islam et tu veux clasher... Ferme ta gueule T'es tout mou, prends de la CC... Ferme ta gueule Menteur, à part les thunes, j'vois pas quel est ton réacteur Ahahah Eh P'tit bouffon Ferme ta gueule J'pourrais jamais t'appeler l'Ancien sur la vie de ma mère Peut-être l'Anchien Ferme Ta Gueule, le Chien,Kamel La Chienne, Kamel En Chien Ferme ta gueule Allez Ferme Ta Gueule p'tit bouffon Rentre dans ta niche, rentre Kamel Le Chien Ferme ta gueule C'est ça1</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Es-tu validé? Es-tu validé? Es-tu validé? Es-tu validé? Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é Validé depuis mon premier CD, Mama m'a dit Mon fils, tu es Acharné au taff pour y arriver , nuit blanche, on a du bosser Tu n'as pas idée Tu n'as pas idée-ée-ée Délirer au bloc, en cellule, dans des coins paumés dans tous les quartiers J'suis validé en France, en Afrique, tour-bus, Sud, Ouest de la région centre, au Nord-Pas-de-Calais Toi, tu n'arrêtes pas d'caler-er-er Es-tu... Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é You might also like Diplômé seulement dans mon cur, très mauvais élève, les profs ne m'ont jamais Validé depuis mes débuts, seulement si j'avais su, re-frè, l'école, j'aurais pas quitté J'aurais pas quitté-é-é Maintenant, je sais en élevant ma fille, que ça devait être très dur pour le daron J'l'ai fatigué de tous ces objectifs, j'ai besoin d'air, j'crois qu'le morceau J'vais pas l'clipper, en fait, si, j'vais l'clipper-er-er Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é Validé, personne ne t'a validé Validé, personne ne t'a validé Validé, personne ne t'a validé Validé, personne ne t'a validé Validé-Validé-Validé J'vais en paix, sors le calumet-calumet-calumet J'ai un flow qui fait saliver-saliver-saliver Toi, ton bord n'est pas validé-validé-validé Validé-Validé-Validé J'vais en paix, sors le calumet-calumet-calumet J'ai un flow qui fait saliver-saliver-saliver Toi, ton bord n'est pas validé-validé-validé Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é Validé Validé Validé Validé1</t>
+          <t>Es-tu validé? Es-tu validé? Es-tu validé? Es-tu validé? Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é Validé depuis mon premier CD, Mama m'a dit Mon fils, tu es Acharné au taff pour y arriver , nuit blanche, on a du bosser Tu n'as pas idée Tu n'as pas idée-ée-ée Délirer au bloc, en cellule, dans des coins paumés dans tous les quartiers J'suis validé en France, en Afrique, tour-bus, Sud, Ouest de la région centre, au Nord-Pas-de-Calais Toi, tu n'arrêtes pas d'caler-er-er Es-tu... Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é Diplômé seulement dans mon cur, très mauvais élève, les profs ne m'ont jamais Validé depuis mes débuts, seulement si j'avais su, re-frè, l'école, j'aurais pas quitté J'aurais pas quitté-é-é Maintenant, je sais en élevant ma fille, que ça devait être très dur pour le daron J'l'ai fatigué de tous ces objectifs, j'ai besoin d'air, j'crois qu'le morceau J'vais pas l'clipper, en fait, si, j'vais l'clipper-er-er Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é Validé, personne ne t'a validé Validé, personne ne t'a validé Validé, personne ne t'a validé Validé, personne ne t'a validé Validé-Validé-Validé J'vais en paix, sors le calumet-calumet-calumet J'ai un flow qui fait saliver-saliver-saliver Toi, ton bord n'est pas validé-validé-validé Validé-Validé-Validé J'vais en paix, sors le calumet-calumet-calumet J'ai un flow qui fait saliver-saliver-saliver Toi, ton bord n'est pas validé-validé-validé Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é Validé Es-tu validé? Petite question Ton banquier t'a-t-il validé? Es-tu validé? Tu bombes le torse mais, chez toi, es-tu validé? Es-tu validé? D'où tu viens ? Ici personne t'a validé, validé-é-é Validé Validé Validé Validé1</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Yeah J'oublierais jamais qui je suis J'oublierais jamais d'où je viens Quoi de neuf, Fouiny Baby ? Yeah, hahaha C'est ça, c'est ça Yeah, yeah Yeah, yeah J'oublierais jamais qui je suis, j'oublierais jamais d'où je viens J'oublierais jamais les feukeus et leurs patates de forain J'oublierais jamais les soucis, la tristesse, les galères J'oublierais jamais Bois d'Arcy, le mitard d'Osny ou Nanterre J'oublierais jamais la barquette avec son goût de pisse Les 6 heures du mat', les portes qui claquent et les perquis' J'oublierais jamais mon 7.8 et les petits concerts à Trappes De la salle JBC jusqu'à mon premier Planète Rap Je n'oublie pas qu'avec un rien je peux viser la Lune Je-je je cherche la monnaie car, tout petit, je n'avais pas une thune J'oublierais jamais ces foyers, tous ces éducateurs Et ce président cocu, manipulateur J'oublierais jamais le Gabon, le Maroc et le Mali La Guinée ou l'Algérie, le Cameroun et la Tunisie J'oublierais jamais ces sourires, ces visages, ce Bénin Si vous êtes avec La Fouine, ce soir, levez la main J'oublierai jamais Ahmed, j'oublierai jamais Fatema Dans ma tête, c'est les States mais dans mon coeur, c'est Casablanca, ouais J'oublierais jamais Gouressy ou Kibaki Premier maxi avec un budget aussi grand que Mimie Mathy Je vis avec le respect, je meurs avec mes valeurs J'oublierais jamais les ravageurs, les Black Spiders J'oublierais jamais qui je suis et mets le rap en danger Et si tu dis que j'ai changé, kho, c'est toi qui a changé La Ligne Verte au parloir, escorté par un maton Le retour en cellule avec les larmes de Maman sur mon blouson, hé La mort c'est long, la vie c'est court comme mon rap S'il vous plait, ce jour-là, n'oubliez pas de m'enterrer à Trappes Yeah, j'oublierais jamais la famille, les vrais soss Ceux qui s'interposeraient entre moi et une bastos Paaah Première ou deuxième classe, en avion, c'est la même J'oublie pas, quand j'étais petit, j'les voyais seulement dans le ciel J'vendais du pilon pour acheter à manger Yeeah Souvent j'finissais en prison mais gardais la bouche fermée J'oublierais jamais toutes ces G.A.V Man, ça perd ses racines, un renoi keuf c'est comme un jean délavé J'en place une pour celles qui tournent, celles qui veulent se rier-ma Et ceux qui parlent derrière moi sont forcément derrière moi J'baise le système car le système m'a baisé J'me lève avec le sourire, j'm'endors avec une belle bronzée On parle de moi dans les forums, on dit que j'suis trop cainri J'suis pas assez la rumeur, j'suis pas assez Kery Y a trop de rappeurs, y a trop de jalousie J'lis leurs commentaires et j'tappe des barres pendant qu'on me suce dans mon jacuzzi J'suis tellement vrai que dans mes clips j'mets des grosses 'tasses-pé J'oublie pas que mon grossiste priait avec moi à la mosquée On me dit Écris pas ça mais ma tête est dure comme du marbre Avec le temps, combien de frères ont coupé leur barbe ? J'oublierais jamais ces fins de mois difficiles Les larmes dans les yeux de Papa, le Window Shopper, les pâtes au beurre Prisonnier du RMI, du SMIC, du manque d'écus Et si l'argent ne fait pas le bonheur, la pauvreté non plus Pour les riches c'était la coke, pour les pauvres l'héroïne Ma cave, mes sachets, j'me rappelle de mon usine J'écris en rouge mes pensées noires mais ma feuille reste blanche La nuit, j'coupais du shit, le jour, mon père coupait des planches Tout comme lui, il aurait souhaitait que j'sois menuisier Moi, j'voulais baiser des salopes et rouler en Féfé Vous connaissez les traditions, le silence, le ménage ? Rester pure, se marier avec un khoya du village Ma grande soeur ne voulait pas de cette vie Petite, elle voyait grand, elle a pris ses clics et ses clacs et puis ses 60 francs Héhé J'la vois revenir quelques années plus tard Forte, belle, à jamais, elle sera mon modèle Yeah, combien d'entre nous ont vu leurs vies brisés ? Sur le mauvais cheval, combien de nous ont misé ? Si tu m'a baisé, handek, kho, surveille ton dos J'oublie rien car j'ai la mémoire dans la peau You might also like J'oublierais jamais toutes ces poisses, ces galères À la tienne, au futur, mon frère, levons nos verres Levez tous la main en l'air Ouuuh, la main en l'air, oooh J'oublierais jamais toutes ces poisses, ces galères À la tienne, au futur, mon frère, levons nos verres Donc gardez la main en l'air Ouuuh, la main en l'air, oooh J'oublierais jamais toutes ces poisses, ces galères À la tienne, au futur, mon frère, levons nos verres Levez tous la main en l'air Ouuuh, la main en l'air, oooh J'oublierais jamais toutes ces poisses, ces galères À la tienne, au futur, mon frère, levons nos verres Donc gardez la main en l'air Ouuuh, la main en l'air, oooh</t>
+          <t>Yeah J'oublierais jamais qui je suis J'oublierais jamais d'où je viens Quoi de neuf, Fouiny Baby ? Yeah, hahaha C'est ça, c'est ça Yeah, yeah Yeah, yeah J'oublierais jamais qui je suis, j'oublierais jamais d'où je viens J'oublierais jamais les feukeus et leurs patates de forain J'oublierais jamais les soucis, la tristesse, les galères J'oublierais jamais Bois d'Arcy, le mitard d'Osny ou Nanterre J'oublierais jamais la barquette avec son goût de pisse Les 6 heures du mat', les portes qui claquent et les perquis' J'oublierais jamais mon 7.8 et les petits concerts à Trappes De la salle JBC jusqu'à mon premier Planète Rap Je n'oublie pas qu'avec un rien je peux viser la Lune Je-je je cherche la monnaie car, tout petit, je n'avais pas une thune J'oublierais jamais ces foyers, tous ces éducateurs Et ce président cocu, manipulateur J'oublierais jamais le Gabon, le Maroc et le Mali La Guinée ou l'Algérie, le Cameroun et la Tunisie J'oublierais jamais ces sourires, ces visages, ce Bénin Si vous êtes avec La Fouine, ce soir, levez la main J'oublierai jamais Ahmed, j'oublierai jamais Fatema Dans ma tête, c'est les States mais dans mon coeur, c'est Casablanca, ouais J'oublierais jamais Gouressy ou Kibaki Premier maxi avec un budget aussi grand que Mimie Mathy Je vis avec le respect, je meurs avec mes valeurs J'oublierais jamais les ravageurs, les Black Spiders J'oublierais jamais qui je suis et mets le rap en danger Et si tu dis que j'ai changé, kho, c'est toi qui a changé La Ligne Verte au parloir, escorté par un maton Le retour en cellule avec les larmes de Maman sur mon blouson, hé La mort c'est long, la vie c'est court comme mon rap S'il vous plait, ce jour-là, n'oubliez pas de m'enterrer à Trappes Yeah, j'oublierais jamais la famille, les vrais soss Ceux qui s'interposeraient entre moi et une bastos Paaah Première ou deuxième classe, en avion, c'est la même J'oublie pas, quand j'étais petit, j'les voyais seulement dans le ciel J'vendais du pilon pour acheter à manger Yeeah Souvent j'finissais en prison mais gardais la bouche fermée J'oublierais jamais toutes ces G.A.V Man, ça perd ses racines, un renoi keuf c'est comme un jean délavé J'en place une pour celles qui tournent, celles qui veulent se rier-ma Et ceux qui parlent derrière moi sont forcément derrière moi J'baise le système car le système m'a baisé J'me lève avec le sourire, j'm'endors avec une belle bronzée On parle de moi dans les forums, on dit que j'suis trop cainri J'suis pas assez la rumeur, j'suis pas assez Kery Y a trop de rappeurs, y a trop de jalousie J'lis leurs commentaires et j'tappe des barres pendant qu'on me suce dans mon jacuzzi J'suis tellement vrai que dans mes clips j'mets des grosses 'tasses-pé J'oublie pas que mon grossiste priait avec moi à la mosquée On me dit Écris pas ça mais ma tête est dure comme du marbre Avec le temps, combien de frères ont coupé leur barbe ? J'oublierais jamais ces fins de mois difficiles Les larmes dans les yeux de Papa, le Window Shopper, les pâtes au beurre Prisonnier du RMI, du SMIC, du manque d'écus Et si l'argent ne fait pas le bonheur, la pauvreté non plus Pour les riches c'était la coke, pour les pauvres l'héroïne Ma cave, mes sachets, j'me rappelle de mon usine J'écris en rouge mes pensées noires mais ma feuille reste blanche La nuit, j'coupais du shit, le jour, mon père coupait des planches Tout comme lui, il aurait souhaitait que j'sois menuisier Moi, j'voulais baiser des salopes et rouler en Féfé Vous connaissez les traditions, le silence, le ménage ? Rester pure, se marier avec un khoya du village Ma grande soeur ne voulait pas de cette vie Petite, elle voyait grand, elle a pris ses clics et ses clacs et puis ses 60 francs Héhé J'la vois revenir quelques années plus tard Forte, belle, à jamais, elle sera mon modèle Yeah, combien d'entre nous ont vu leurs vies brisés ? Sur le mauvais cheval, combien de nous ont misé ? Si tu m'a baisé, handek, kho, surveille ton dos J'oublie rien car j'ai la mémoire dans la peau J'oublierais jamais toutes ces poisses, ces galères À la tienne, au futur, mon frère, levons nos verres Levez tous la main en l'air Ouuuh, la main en l'air, oooh J'oublierais jamais toutes ces poisses, ces galères À la tienne, au futur, mon frère, levons nos verres Donc gardez la main en l'air Ouuuh, la main en l'air, oooh J'oublierais jamais toutes ces poisses, ces galères À la tienne, au futur, mon frère, levons nos verres Levez tous la main en l'air Ouuuh, la main en l'air, oooh J'oublierais jamais toutes ces poisses, ces galères À la tienne, au futur, mon frère, levons nos verres Donc gardez la main en l'air Ouuuh, la main en l'air, oooh</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Jantes noires, cuirs noires, vitres noires, tu sais qui c'est Ramène nous 2-3 condés, sur la justice on sait pisser All black, every all-all black, everything J'galoche 2 tass par jours, voilà pourquoi j'suis bilingue Tapage nocturne, les voisins sont trop vénères Nique-nique sa mère, on expulse pas un propriétaire Ça se passe aux 4 coins du globe J'vois plus la vie en rose demande à Marc Jacob Yeah, je suis en feat avec le plafond Nique sa mère les jupons, je suis un coureur de Vuitton Jantes noires, cuirs noires, monte dans mon allemande C'est vrai la vie est dure car dans tous les quartiers les tours bandent Yeah, click-click boom, bye bye T'es le King de Châtelet, j'fais les soldes à Dubaï À Dubaï J'ai une Notorious Big bite, je suis Ready To Die Yeah, appelle-moi Louis Babe hahaha Yeah, eh tu veux un feat ? Autant acheter un nabuchodonosor, ma petite gueule Un minimum de swagg, merde Banlieue Sale, on s'enjaille mouaah Louis Babe, vas y deuxième couplet You might also like Jantes noires, cuirs noires, vitres noires, tu sais qui c'est J'connais pas le prix de la bouteille mais tous mes gars ont tisés All black, every all-all black, everything 5000e sur la ble-ta, demande à Mathusalem Du-per, du-per, c'négro aurait dû se taire Il t'reste quelques temps à vivre à en croire Franck Muller Et pour pas salir mes Nike Air Chez toi j'marche sur la pointe des pieds, y a des traces de me-sper Yeah, haine et violence à grosse dose Belle black écarte les cuisses, présente nous la panthère rose Yeah, j'ai des flashbacks de flashballs J'ai une tass à chaque doigt et un doigt dans chaque hall Yeah si les keufs me cherchent, dis leur que je suis pas là Je suis parti au bled, je me fais rare comme Loana Madinina, Guyanna, Gwada, La Reunion léla Quand je rentre dans l'argent sale l'avocat est là pour me ver-la Yeah, Fouiny Baby, tu veux une prod' du Hall F ? Autant te casser 2 côtes et te sucer tout seul ma gueule Yeah, quoi de neuf Fouiny Baby, yeah Banlieue Sale, on s'enjaille mouaah1</t>
+          <t>Jantes noires, cuirs noires, vitres noires, tu sais qui c'est Ramène nous 2-3 condés, sur la justice on sait pisser All black, every all-all black, everything J'galoche 2 tass par jours, voilà pourquoi j'suis bilingue Tapage nocturne, les voisins sont trop vénères Nique-nique sa mère, on expulse pas un propriétaire Ça se passe aux 4 coins du globe J'vois plus la vie en rose demande à Marc Jacob Yeah, je suis en feat avec le plafond Nique sa mère les jupons, je suis un coureur de Vuitton Jantes noires, cuirs noires, monte dans mon allemande C'est vrai la vie est dure car dans tous les quartiers les tours bandent Yeah, click-click boom, bye bye T'es le King de Châtelet, j'fais les soldes à Dubaï À Dubaï J'ai une Notorious Big bite, je suis Ready To Die Yeah, appelle-moi Louis Babe hahaha Yeah, eh tu veux un feat ? Autant acheter un nabuchodonosor, ma petite gueule Un minimum de swagg, merde Banlieue Sale, on s'enjaille mouaah Louis Babe, vas y deuxième couplet Jantes noires, cuirs noires, vitres noires, tu sais qui c'est J'connais pas le prix de la bouteille mais tous mes gars ont tisés All black, every all-all black, everything 5000e sur la ble-ta, demande à Mathusalem Du-per, du-per, c'négro aurait dû se taire Il t'reste quelques temps à vivre à en croire Franck Muller Et pour pas salir mes Nike Air Chez toi j'marche sur la pointe des pieds, y a des traces de me-sper Yeah, haine et violence à grosse dose Belle black écarte les cuisses, présente nous la panthère rose Yeah, j'ai des flashbacks de flashballs J'ai une tass à chaque doigt et un doigt dans chaque hall Yeah si les keufs me cherchent, dis leur que je suis pas là Je suis parti au bled, je me fais rare comme Loana Madinina, Guyanna, Gwada, La Reunion léla Quand je rentre dans l'argent sale l'avocat est là pour me ver-la Yeah, Fouiny Baby, tu veux une prod' du Hall F ? Autant te casser 2 côtes et te sucer tout seul ma gueule Yeah, quoi de neuf Fouiny Baby, yeah Banlieue Sale, on s'enjaille mouaah1</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Oster, Fouiny baby Ana ou qalbi houssna 3alik malqina Ayo zina, go Héy yow zina Go Tu cherche un mec mortel mais makanch, c'est rare Comme une pucelle au soir à Marrakech J'arrête pas de la mater elle est fraiche J'ai voulu lui parler elle m'a dit wesh, wesh wesh Je lui dis ah les bitchs j'en ai trop Comme les tits-pe avec Pokémon go Elle veut pas la C.F.A., elle veut les pro Elle veut la classe affaires, rien a faire de ta classe eco Je connais tout tes vices vices vices, hbiba Haya vas y trinque trinque trinque Le diable c'est des six six six Je l'ai vu il gère ces meufs au 555 Pleure pas ma h'biba, sèche tes larmes Je ne retournerai pas la bas, j'ai té-je mon âme Je suis dans mon féfé ils sont dans le trame Putain ils savent que parler c'est bien ça le drame Les reines sont en couronne, qui vivent a Babylon La vérité me talonne sous les pieds de la daronne Les roi sont trône, j'ai mis la barre haute Je crois que j'ai niqué un drône, pleure pas ma zina Pleure pas ma zina.. You might also like Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Héé zina je voulais pas de cette vie là On aurai du fuir partir loin toi et moi Ya zina quatre murs nous séparent T'étais toute ma vie et moi j'ai fait le mauvais choix Ma zina, ma zina Ta rivale, meskina On s'en va, ma zina Nos yacht nous attend sur la marina Tu mérite une bague à ton doigt Elles méritent un doigt dans leurs Elles ne font que parler sur toi Ma zina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina</t>
+          <t>Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Oster, Fouiny baby Ana ou qalbi houssna 3alik malqina Ayo zina, go Héy yow zina Go Tu cherche un mec mortel mais makanch, c'est rare Comme une pucelle au soir à Marrakech J'arrête pas de la mater elle est fraiche J'ai voulu lui parler elle m'a dit wesh, wesh wesh Je lui dis ah les bitchs j'en ai trop Comme les tits-pe avec Pokémon go Elle veut pas la C.F.A., elle veut les pro Elle veut la classe affaires, rien a faire de ta classe eco Je connais tout tes vices vices vices, hbiba Haya vas y trinque trinque trinque Le diable c'est des six six six Je l'ai vu il gère ces meufs au 555 Pleure pas ma h'biba, sèche tes larmes Je ne retournerai pas la bas, j'ai té-je mon âme Je suis dans mon féfé ils sont dans le trame Putain ils savent que parler c'est bien ça le drame Les reines sont en couronne, qui vivent a Babylon La vérité me talonne sous les pieds de la daronne Les roi sont trône, j'ai mis la barre haute Je crois que j'ai niqué un drône, pleure pas ma zina Pleure pas ma zina.. Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Héé zina je voulais pas de cette vie là On aurai du fuir partir loin toi et moi Ya zina quatre murs nous séparent T'étais toute ma vie et moi j'ai fait le mauvais choix Ma zina, ma zina Ta rivale, meskina On s'en va, ma zina Nos yacht nous attend sur la marina Tu mérite une bague à ton doigt Elles méritent un doigt dans leurs Elles ne font que parler sur toi Ma zina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina Hé Zina, maderti fina Ana ou qalbi houssna 3alik malqina Ya Zina, maderti fina Ana ou qalbi houssna 3alik malqina</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Yeah, les larmes coulent et la rue ressent ma peine J'ai volé ton album, il n'en valait pas la peine Le prof a fait l'appel, seul ton flow manque à l'appel L'argent t'a bigo fréro mais t'as dû manquer l'appel Yeah, j'ai du boulot pour toi nettoies mes jantes Je sais qu'ils me fréquente, me copie j'suis pas un sample J'ai du remonter la pente avec ou sans les ventes Devant les feu-keu fréro je reste droit comme 1230 Yeah, on parle pas de La Fouine à l'imparfait Dis moi un délit que je n'ai pas commis, une son-pri que je n'ai pas faite Yeah, une parisienne que je n'ai pas fourré, fourré Je ne laisse rien passer YayaTouré C'est la merde, les douaniers me saoulent pour mon passeport Y'a plus de place et toi tu tactes toujours à Gare du Nord T'es à l'ouest fréro, en plus t'as plus de bord Tu soulèves la cuvette des chiottes et nous les raptors Comme s'ils en valaient la peine Comme s'ils en valaient la peine Fouiny Babe Comme s'ils en valaient la peine Yeah laisse les parler, lai-laisse les parler Comme si dans le fond ils en valaient la peine Ils parlent les uns sur les autres et n'entendent même plus l'Adan yeah Même plus l'Adan, what ? même plus leur parents Ils critiquent Fouiny Baby mais ils m'écoutent 12 mois par an Yeah, j'ai fait ma route et rien à foutre de plaire La Fouine et le flow fréro les deux font la paire Yeah, en temps de guerre tu finirais à terre Et si t'es pas content, auto-nique toi ta mère Mes avocats sont juifs, n'ayez aucune crainte J'mange mes grecs et j'laisse les grosses salopes porter plainte J'ai du rosé, on m'a dit que t'aimes J'vend de la cocaïne pour rouler en big Benz ! J'ai sortit le si-ful, j'suis rentré dans l'arène J'ai fait le tour du monde parait que t'as deux fans à Rennes C'est trop hardcore ce qui coule dans mes veines Ça saigne je crois que l'album va sortir en césarienne You might also like Comme s'ils en valaient la peine Comme s'ils en valaient la peine Fouiny Babe Comme s'ils en valaient la peine Yeah laisse les parler, lai-laisse les parler Putain c'est chiant pour les autres, j'crois que je vais m'arrêter là t'as vu, j'suis mort ma gueule. Et puis merde, vas-y remets le son ! Depuis que j'ai commencer j'vois bien que toutes les oreilles n'en peuvent plus J'suis le rap français toi t'es le bouton avec un peu de put A force de cer-su tu pars en cette-su Je fondais mon label quand tu faisais la couv' de Têtu Yeah, tu fais les courses n'oublies pas les capotes Tu fais du biz' n'oublies pas les carottes T'as fait le parloir, ramène moi un 12 Tout le monde les mains en l'air, à part Jamel Debbouze Comme s'ils en valaient la peine Comme s'ils en valaient la peine Fouiny Babe Comme s'ils en valaient la peine Yeah laisse les parler, lai-laisse les parler Comme s'ils en valaient la peine Comme s'ils en valaient la peine Fouiny Babe Comme s'ils en valaient la peine Yeah laisse les parler, lai-laisse les parler</t>
+          <t>Yeah, les larmes coulent et la rue ressent ma peine J'ai volé ton album, il n'en valait pas la peine Le prof a fait l'appel, seul ton flow manque à l'appel L'argent t'a bigo fréro mais t'as dû manquer l'appel Yeah, j'ai du boulot pour toi nettoies mes jantes Je sais qu'ils me fréquente, me copie j'suis pas un sample J'ai du remonter la pente avec ou sans les ventes Devant les feu-keu fréro je reste droit comme 1230 Yeah, on parle pas de La Fouine à l'imparfait Dis moi un délit que je n'ai pas commis, une son-pri que je n'ai pas faite Yeah, une parisienne que je n'ai pas fourré, fourré Je ne laisse rien passer YayaTouré C'est la merde, les douaniers me saoulent pour mon passeport Y'a plus de place et toi tu tactes toujours à Gare du Nord T'es à l'ouest fréro, en plus t'as plus de bord Tu soulèves la cuvette des chiottes et nous les raptors Comme s'ils en valaient la peine Comme s'ils en valaient la peine Fouiny Babe Comme s'ils en valaient la peine Yeah laisse les parler, lai-laisse les parler Comme si dans le fond ils en valaient la peine Ils parlent les uns sur les autres et n'entendent même plus l'Adan yeah Même plus l'Adan, what ? même plus leur parents Ils critiquent Fouiny Baby mais ils m'écoutent 12 mois par an Yeah, j'ai fait ma route et rien à foutre de plaire La Fouine et le flow fréro les deux font la paire Yeah, en temps de guerre tu finirais à terre Et si t'es pas content, auto-nique toi ta mère Mes avocats sont juifs, n'ayez aucune crainte J'mange mes grecs et j'laisse les grosses salopes porter plainte J'ai du rosé, on m'a dit que t'aimes J'vend de la cocaïne pour rouler en big Benz ! J'ai sortit le si-ful, j'suis rentré dans l'arène J'ai fait le tour du monde parait que t'as deux fans à Rennes C'est trop hardcore ce qui coule dans mes veines Ça saigne je crois que l'album va sortir en césarienne Comme s'ils en valaient la peine Comme s'ils en valaient la peine Fouiny Babe Comme s'ils en valaient la peine Yeah laisse les parler, lai-laisse les parler Putain c'est chiant pour les autres, j'crois que je vais m'arrêter là t'as vu, j'suis mort ma gueule. Et puis merde, vas-y remets le son ! Depuis que j'ai commencer j'vois bien que toutes les oreilles n'en peuvent plus J'suis le rap français toi t'es le bouton avec un peu de put A force de cer-su tu pars en cette-su Je fondais mon label quand tu faisais la couv' de Têtu Yeah, tu fais les courses n'oublies pas les capotes Tu fais du biz' n'oublies pas les carottes T'as fait le parloir, ramène moi un 12 Tout le monde les mains en l'air, à part Jamel Debbouze Comme s'ils en valaient la peine Comme s'ils en valaient la peine Fouiny Babe Comme s'ils en valaient la peine Yeah laisse les parler, lai-laisse les parler Comme s'ils en valaient la peine Comme s'ils en valaient la peine Fouiny Babe Comme s'ils en valaient la peine Yeah laisse les parler, lai-laisse les parler</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bonsoir les enfants C'est l'heure d'aller dormir J'ai envie d'écouter une chanson avec les amis Eteignez la lumière et bouchez-vous bien fort les oreilles La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forrest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forrest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forrest Gump La gross chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forrest Gump Niquer des mères, c'est tout ce qu'on sait faire, tu croyais qu'on allait se laisser faire Les semelles rouges et les billets sont verts, on marchait droit, le père était sévère J'ai des diamants kilos d'or dans mon fer, j'ai baissé mon arme et j'ai levé mon verre Nous on va t'enculer toi et ton père, ferme ta chatte au lieu de fermer les frontières La grosse chatte à Donald Trump, chatte à Donald Trump Brelique, pe-cli, me-ar, putain, j'suis swaggé comme un punk Putain d'pocheton de skunk, cache vers mes yeuks Ma salope me trompe pas, gros, j'ai mis l'code PUK Mmmh, la putain de grosse chatte à Jean-Marie, sans contrat, pas question que j'me marie Chérie tu veux du biff, pas maintenant, faut que j'finisse de cracher sur Marine Aux States ils me prennent pour un qatari, c'est pas du rap, c'est de la barbarie J'parle les euros, tu parles pas ma langue, non renoi, moi j'sais pas c'qu'il t'arrive You might also like Chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La chatte à Donald, nez plein de pe-fra tah les resta Maradona J'ai la ge-ra depuis l'époque Apadana ou Madonna, ennnhhh Fils de puta, nique les quotas Kho on va les tacler, hum ThiagoMotta Tout ce qu'il fallait, c'est rafaler On sait c'qu'ils valent, une bastos dans le palais Hamdoulah à l'aise, 200 E pour l'valet J'pose la teille, tes reubeus s'battent pour un gobelet Parle en biff, parle en E, tous ces jaloux parlent entre eux J'suis au VIP, j'vois ces yeux sur ma table à 10 000 E Parle en biff, parle en E, khoya ma carte n'est pas bleue J'vois des étoiles dans leurs yeux quand j'arrive en boite il pleut Chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La chatte à Donald, pas d'accolade avec ces gens la starfoullah Pour eux hagra, c'est la routine, contrôle comme Poutine Hmmmmm, la trump Tower Dans ton postérieur, contrôle le secteur Ces négros vont tomber de haut, j'crois qu'ton Philippe Plein est un faux J'ai levé monté le niveau, t'as pété l'million quoi de beau La putain de chatte à Philippot, veut virer arabe et négro La chatte à Donald et sa go, ho Chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La chatte à Donald, nez plein de pe-fra tah les resta Maradona J'ai la ge-ra depuis l'epoque Apadana ou Madonna, ennnhhh Fils de puta, nique les quotas Kho on va les tacler, hum ThiagoMotta</t>
+          <t>Bonsoir les enfants C'est l'heure d'aller dormir J'ai envie d'écouter une chanson avec les amis Eteignez la lumière et bouchez-vous bien fort les oreilles La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forrest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forrest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forrest Gump La gross chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forrest Gump Niquer des mères, c'est tout ce qu'on sait faire, tu croyais qu'on allait se laisser faire Les semelles rouges et les billets sont verts, on marchait droit, le père était sévère J'ai des diamants kilos d'or dans mon fer, j'ai baissé mon arme et j'ai levé mon verre Nous on va t'enculer toi et ton père, ferme ta chatte au lieu de fermer les frontières La grosse chatte à Donald Trump, chatte à Donald Trump Brelique, pe-cli, me-ar, putain, j'suis swaggé comme un punk Putain d'pocheton de skunk, cache vers mes yeuks Ma salope me trompe pas, gros, j'ai mis l'code PUK Mmmh, la putain de grosse chatte à Jean-Marie, sans contrat, pas question que j'me marie Chérie tu veux du biff, pas maintenant, faut que j'finisse de cracher sur Marine Aux States ils me prennent pour un qatari, c'est pas du rap, c'est de la barbarie J'parle les euros, tu parles pas ma langue, non renoi, moi j'sais pas c'qu'il t'arrive Chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La chatte à Donald, nez plein de pe-fra tah les resta Maradona J'ai la ge-ra depuis l'époque Apadana ou Madonna, ennnhhh Fils de puta, nique les quotas Kho on va les tacler, hum ThiagoMotta Tout ce qu'il fallait, c'est rafaler On sait c'qu'ils valent, une bastos dans le palais Hamdoulah à l'aise, 200 E pour l'valet J'pose la teille, tes reubeus s'battent pour un gobelet Parle en biff, parle en E, tous ces jaloux parlent entre eux J'suis au VIP, j'vois ces yeux sur ma table à 10 000 E Parle en biff, parle en E, khoya ma carte n'est pas bleue J'vois des étoiles dans leurs yeux quand j'arrive en boite il pleut Chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La chatte à Donald, pas d'accolade avec ces gens la starfoullah Pour eux hagra, c'est la routine, contrôle comme Poutine Hmmmmm, la trump Tower Dans ton postérieur, contrôle le secteur Ces négros vont tomber de haut, j'crois qu'ton Philippe Plein est un faux J'ai levé monté le niveau, t'as pété l'million quoi de beau La putain de chatte à Philippot, veut virer arabe et négro La chatte à Donald et sa go, ho Chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La grosse chatte à Donald Trump, chatte à Donald Trump Brelique-Brelique-Brelique, faut-qu'il court comme Forest Gump La chatte à Donald, nez plein de pe-fra tah les resta Maradona J'ai la ge-ra depuis l'epoque Apadana ou Madonna, ennnhhh Fils de puta, nique les quotas Kho on va les tacler, hum ThiagoMotta</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Laouni, faut que je te parle, ça fait quelques temps que j'y pense J'ai pris une grande décision, c'est dur à dire mais je me lance On va pas se mentir, toi et moi, c'est plus pareil J'essaye de rapper hardcore, quand, toi, tu te prends pour Bruel Je suis devenu une reu-sta, même si c'est toi qui écris les rimes C'est mon nom que les gens crient, toi t'es qu'un putain d'anonyme Laouni, t'es personne, et moi je signe des autographes J'te remercie pour tes textes, bourrés de fautes d'orthographe Tes histoires d'ex-taulards, et de 7-8, on s'en fiche Moi, c'est Paris-Miami, mon nom en grand sur les affiches C'est vrai que t'as une belle plume, ce que t'écris ça vient du cur Mais plus question de fermer ma gueule, aujourd'hui je suis majeur Tu me casses les couilles, tu me dis d'être humbles et modeste Moi, je veux que tout le monde voit ma Porsche, je veux que tout le monde voit ma Rolex Avec le temps ça me rend fou, force est de constater Que t'as toujours été jaloux, car c'est mon blaze à la télé Mon blaze à la radio, dans le générique au ciné Mon blaze sur les plateaux,dans toutes les bouches des go, qui arrêtent pas de crier Je peux me payer de vrais auteurs, et je te le dit sans regret On va pas y passer des heures, Laouni t'es viré ! Je vis ma vie c'est décidé Fais ta vie, moi je pourrais pas t'en empêcher Ce que je vis est mérité En tout cas, si t'as besoin de moi, je suis juste à côté, ouais ouais Oh oh oh J'ai plus besoin de toi Oh oh oh C'est ce que tu dis mais c'est ce que l'on verra, ouais ouais You might also like Hey yo mon petit Fouiny, ça y'est t'as vidé ton sac, t'as fini ta crise Tu m'as bien fait marrer, maintenant il faut que je te dise Un soir en studio avec des potes, il y a 18 ans Sous bibine, je t'appelais La Fouine car je trouvais ça marrant A la base, je t'ai créé juste pour divertir les gens J'ai ken l'instru sans capote, t'es le fruit d'un accident Aujourd'hui, tu me dis que tu veux voler de tes propres ailes Mais t'es rien sans moi, ma plume t'es rien sans elle T'as pas connu la prison, la galère à Jean Macé On verra quel est ton avenir sans ton passé T'as déjà vu une maison sans fondations ? Pas moi On t'a déjà comparé à un Franc-Maçon, pas moi T'as connu des groupies, t'as connu des fans J'ai connu l'Amour, moi, j'ai aimé des femmes On voit ton blaze à la télé, mais la CB est à mon nom Le chéquier est à mon nom, la voiture est à mon nom La maison est à mon nom, même ta femme est à mon nom Toi, t'es en chien, et le banquier connaît pas ton nom Nan nan, un rasoir dans la main droite, et tes jours sont comptés Sans ta jolie barbichette, est-ce que t'afficherais complet ? Va faire ton show dans show-business, et quand t'auras plus d'audience Quand t'auras besoin de sens, tu te souviendras de mon existence Tu reviendras en rampant Fouiny, je l'sais déjà Et devine quoi ? Je t'en voudrais même pas Je vis ma vie c'est décidé Fais ta vie, moi je pourrais pas t'en empêcher Ce que je vis est mérité En tout cas, si t'as besoin de moi, je suis juste à côté, ouais ouais Oh oh oh J'ai plus besoin de toi Oh oh oh C'est ce que tu dis mais c'est ce que l'on verra, ouais ouais Je vis ma vie c'est décidé Fais ta vie, moi je pourrais pas t'en empêcher Ce que je vis est mérité En tout cas, si t'as besoin de moi, je suis juste à côté, ouais ouais Oh oh oh J'ai plus besoin de toi Oh oh oh C'est ce que tu dis mais c'est ce que l'on verra, ouais ouais1</t>
+          <t>Laouni, faut que je te parle, ça fait quelques temps que j'y pense J'ai pris une grande décision, c'est dur à dire mais je me lance On va pas se mentir, toi et moi, c'est plus pareil J'essaye de rapper hardcore, quand, toi, tu te prends pour Bruel Je suis devenu une reu-sta, même si c'est toi qui écris les rimes C'est mon nom que les gens crient, toi t'es qu'un putain d'anonyme Laouni, t'es personne, et moi je signe des autographes J'te remercie pour tes textes, bourrés de fautes d'orthographe Tes histoires d'ex-taulards, et de 7-8, on s'en fiche Moi, c'est Paris-Miami, mon nom en grand sur les affiches C'est vrai que t'as une belle plume, ce que t'écris ça vient du cur Mais plus question de fermer ma gueule, aujourd'hui je suis majeur Tu me casses les couilles, tu me dis d'être humbles et modeste Moi, je veux que tout le monde voit ma Porsche, je veux que tout le monde voit ma Rolex Avec le temps ça me rend fou, force est de constater Que t'as toujours été jaloux, car c'est mon blaze à la télé Mon blaze à la radio, dans le générique au ciné Mon blaze sur les plateaux,dans toutes les bouches des go, qui arrêtent pas de crier Je peux me payer de vrais auteurs, et je te le dit sans regret On va pas y passer des heures, Laouni t'es viré ! Je vis ma vie c'est décidé Fais ta vie, moi je pourrais pas t'en empêcher Ce que je vis est mérité En tout cas, si t'as besoin de moi, je suis juste à côté, ouais ouais Oh oh oh J'ai plus besoin de toi Oh oh oh C'est ce que tu dis mais c'est ce que l'on verra, ouais ouais Hey yo mon petit Fouiny, ça y'est t'as vidé ton sac, t'as fini ta crise Tu m'as bien fait marrer, maintenant il faut que je te dise Un soir en studio avec des potes, il y a 18 ans Sous bibine, je t'appelais La Fouine car je trouvais ça marrant A la base, je t'ai créé juste pour divertir les gens J'ai ken l'instru sans capote, t'es le fruit d'un accident Aujourd'hui, tu me dis que tu veux voler de tes propres ailes Mais t'es rien sans moi, ma plume t'es rien sans elle T'as pas connu la prison, la galère à Jean Macé On verra quel est ton avenir sans ton passé T'as déjà vu une maison sans fondations ? Pas moi On t'a déjà comparé à un Franc-Maçon, pas moi T'as connu des groupies, t'as connu des fans J'ai connu l'Amour, moi, j'ai aimé des femmes On voit ton blaze à la télé, mais la CB est à mon nom Le chéquier est à mon nom, la voiture est à mon nom La maison est à mon nom, même ta femme est à mon nom Toi, t'es en chien, et le banquier connaît pas ton nom Nan nan, un rasoir dans la main droite, et tes jours sont comptés Sans ta jolie barbichette, est-ce que t'afficherais complet ? Va faire ton show dans show-business, et quand t'auras plus d'audience Quand t'auras besoin de sens, tu te souviendras de mon existence Tu reviendras en rampant Fouiny, je l'sais déjà Et devine quoi ? Je t'en voudrais même pas Je vis ma vie c'est décidé Fais ta vie, moi je pourrais pas t'en empêcher Ce que je vis est mérité En tout cas, si t'as besoin de moi, je suis juste à côté, ouais ouais Oh oh oh J'ai plus besoin de toi Oh oh oh C'est ce que tu dis mais c'est ce que l'on verra, ouais ouais Je vis ma vie c'est décidé Fais ta vie, moi je pourrais pas t'en empêcher Ce que je vis est mérité En tout cas, si t'as besoin de moi, je suis juste à côté, ouais ouais Oh oh oh J'ai plus besoin de toi Oh oh oh C'est ce que tu dis mais c'est ce que l'on verra, ouais ouais1</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bienvenue dans le monde moderne Bienvenue dans le monde moderne Sku Yo ! Yo ! T'arrives plus à faire confiance, ils t'ont brisé le coeur Si c'est l'homme de ta vie, t'as son PIN, sinon c'est qu'il pine ailleurs Petite soeur, faut t'endurcir Sur le net, l'amour s'envole comme l'oiseau de Twitter Je me rappelle de mon pote footeux Aimait les femmes de la night Il l'a rencontrée dans un club, il est tombé amoureux d'elle Elle est pas là pour son oseille, mais son oseille est là pour elle On est déjà en 2018 C'est fou ce que les années sser-pa Ma gamine a bientôt seize piges A son âge, j'étais au card-pla Déjà mineur, j'étais accro au shit et à l'eau Au fait, l'alcool c'est de l'eau Haineux, ne me prends pas dans tes bras J'suis chaud comme Cantona, comme Evra J'ai quitté le collège en mauvais termes L'argent qui dort me donne des grosses cernes C'est pour les frères qu'ont pris des longues peines Y'a que devant le bon Dieu qu'on se prosterne Il est vrai, j'ai beaucoup d'ennemis C'est toujours mieux que les faux amis J'étais pauvre, j'avais besoin de ness-bi C'est avec un stylo qu'on s'exprime You might also like Yo, ils m'ont tiré dessus plus d'une fois Et je me suis relevé plus d'une fois Je remercie Dieu, j'suis pas mort jeune pourtant j'aurais pu J'ai pas voulu leur faire du mal, pourtant j'aurais dû Mineur, je finissais en garde à v' et je donnais pas de noms Mon père me venait chercher en bus, on n'avait pas de gov' On n'avait pas de loves, on n'avait pas de Range Rove Et toutes ces belles choses, toutes ces belles choses Seul au fond de ma cellule, j'écris Qui peut me stopper ? L'été, c'était la base de loisirs et pas Saint-Tropez Tu me connais pas, tu t'es trompé, personne peut nous dompter Trinque à la réussite sans la Dom Pé' Bah ouais J'rappais les allocations coupées Khoya, celle-là c'est pour les vrais Pas les privilégiés J'ai quitté le collège en mauvais termes L'argent qui dort me donne des grosses cernes C'est pour les frères qu'ont pris des longues peines Y'a que devant le bon Dieu qu'on se prosterne Il est vrai, j'ai beaucoup d'ennemis C'est toujours mieux que les faux amis J'étais pauvre, j'avais besoin de ness-bi C'est avec un stylo qu'on s'exprime Enfant des H.L.M., des quartiers oubliés J'avais pas les thunes pour m'acheter une voiture, alors j'ai véhiculé mes idées Et comme ce monde ne tourne pas rond, chante avec moi en boucle J'ai quitté le collège en mauvais termes L'argent qui dort me donne des grosses cernes C'est pour les frères qu'ont pris des longues peines Y'a que devant le bon Dieu qu'on se prosterne Il est vrai, j'ai beaucoup d'ennemis C'est toujours mieux que les faux amis J'étais pauvre, j'avais besoin de ness-bi C'est avec un stylo qu'on s'exprime J'ai quitté le collège en mauvais termes L'argent qui dort me donne des grosses cernes C'est pour les frères qu'ont pris des longues peines Y'a que devant le bon Dieu qu'on se prosterne Il est vrai, j'ai beaucoup d'ennemis C'est toujours mieux que les faux amis J'étais pauvre, j'avais besoin de ness-bi Le rap français a besoin de Nessbeal9</t>
+          <t>Bienvenue dans le monde moderne Bienvenue dans le monde moderne Sku Yo ! Yo ! T'arrives plus à faire confiance, ils t'ont brisé le coeur Si c'est l'homme de ta vie, t'as son PIN, sinon c'est qu'il pine ailleurs Petite soeur, faut t'endurcir Sur le net, l'amour s'envole comme l'oiseau de Twitter Je me rappelle de mon pote footeux Aimait les femmes de la night Il l'a rencontrée dans un club, il est tombé amoureux d'elle Elle est pas là pour son oseille, mais son oseille est là pour elle On est déjà en 2018 C'est fou ce que les années sser-pa Ma gamine a bientôt seize piges A son âge, j'étais au card-pla Déjà mineur, j'étais accro au shit et à l'eau Au fait, l'alcool c'est de l'eau Haineux, ne me prends pas dans tes bras J'suis chaud comme Cantona, comme Evra J'ai quitté le collège en mauvais termes L'argent qui dort me donne des grosses cernes C'est pour les frères qu'ont pris des longues peines Y'a que devant le bon Dieu qu'on se prosterne Il est vrai, j'ai beaucoup d'ennemis C'est toujours mieux que les faux amis J'étais pauvre, j'avais besoin de ness-bi C'est avec un stylo qu'on s'exprime Yo, ils m'ont tiré dessus plus d'une fois Et je me suis relevé plus d'une fois Je remercie Dieu, j'suis pas mort jeune pourtant j'aurais pu J'ai pas voulu leur faire du mal, pourtant j'aurais dû Mineur, je finissais en garde à v' et je donnais pas de noms Mon père me venait chercher en bus, on n'avait pas de gov' On n'avait pas de loves, on n'avait pas de Range Rove Et toutes ces belles choses, toutes ces belles choses Seul au fond de ma cellule, j'écris Qui peut me stopper ? L'été, c'était la base de loisirs et pas Saint-Tropez Tu me connais pas, tu t'es trompé, personne peut nous dompter Trinque à la réussite sans la Dom Pé' Bah ouais J'rappais les allocations coupées Khoya, celle-là c'est pour les vrais Pas les privilégiés J'ai quitté le collège en mauvais termes L'argent qui dort me donne des grosses cernes C'est pour les frères qu'ont pris des longues peines Y'a que devant le bon Dieu qu'on se prosterne Il est vrai, j'ai beaucoup d'ennemis C'est toujours mieux que les faux amis J'étais pauvre, j'avais besoin de ness-bi C'est avec un stylo qu'on s'exprime Enfant des H.L.M., des quartiers oubliés J'avais pas les thunes pour m'acheter une voiture, alors j'ai véhiculé mes idées Et comme ce monde ne tourne pas rond, chante avec moi en boucle J'ai quitté le collège en mauvais termes L'argent qui dort me donne des grosses cernes C'est pour les frères qu'ont pris des longues peines Y'a que devant le bon Dieu qu'on se prosterne Il est vrai, j'ai beaucoup d'ennemis C'est toujours mieux que les faux amis J'étais pauvre, j'avais besoin de ness-bi C'est avec un stylo qu'on s'exprime J'ai quitté le collège en mauvais termes L'argent qui dort me donne des grosses cernes C'est pour les frères qu'ont pris des longues peines Y'a que devant le bon Dieu qu'on se prosterne Il est vrai, j'ai beaucoup d'ennemis C'est toujours mieux que les faux amis J'étais pauvre, j'avais besoin de ness-bi Le rap français a besoin de Nessbeal9</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Salut mon vieux tu mreconnais ? Nique sa mère le commissaire cbâtard m'fait des frais davocat Ici faut prendre mon blé pour prendre de gros apparts au Troca La dalle elle vient du bled, la même des Comores jusquau roc-Ma Jbaise la France à lhôtel j'suis quitte avec Dominique Strauss-Kahn Les tête-à-tête on connaît pas on connaît pas Donner des blazes on connaît pas on connaît pas Trahir la mif on connaît pas on connaît pas Tu mfollow mais jte connais pas on connaît pas RER A, B, vendre de la C dans lD, jai jamais oublié le bâtiment B Jai un pied dans lbiz lautre cimenté, jrappe comme un tounsi, cest pimenté Les tête-à-tête cest fini fini, cest Kalash contre Uzi-Uzi Fréro tu traînes tes casseroles normal que les keufs te cuisinent, cuisinent Viens pas ici on tfuck, renoi tu vas danser sur dla funk Si tu vois deux gars sur un T-Max, nan ce sera pas les Daft Punk Ce sera des ratatata, nique ta mère fils à papa-papa Banlieue Sale on fait dlauto-stop si lsuccès pa-pa-pa-part Nique sa mère le commissaire cbâtard m'fait des frais davocat Ici faut prendre mon blé pour prendre de gros apparts au Troca La dalle elle vient du bled, la même des Comores jusquau roc-Ma Jbaise la France à lhôtel j'suis quitte avec Dominique Strauss-Kahn Les tête-à-tête on connaît pas on connaît pas Donner des blazes on connaît pas on connaît pas Trahir la mif on connaît pas on connaît pas Tu mfollow mais jte connais pas on connaît pas You might also like Jrappe depuis le fin-fond de ma street, tu sais pas le nombre de gens que jabrite Pas de doutes ce soir MC tes ma petite, sucez toute la longueur de ma bite Qui dit fans dit biff dit rageux, jpense que c'est des mathématiques Rien qujsouris, ceux qui baisent le plus en vrai sont juste les plus sympathiques Percer, ce nest plus un projet, classé mais t'es ancien à c'que j'sais Jencaisse tout, les coups, les ques-chè, moi j'fourre tout, les sons les ckes-shne Stoppez moi-moi le son jai un truc à dire en a capella Jvais tellement tfaire du sale que même le hammam pourra pas tver-la Jai placé mes rottes-ca, jdéfonce comme la vodka Jvous prends en levrette pour ça que jsuis penché sur votre cas Jme régale je sauce ça, mon flow rafale comme Sosa Le rap a des nausées, putain jai du lbaiser sans pote-ca Nique sa mère le commissaire cbâtard m'fait des frais davocat Ici faut prendre mon blé pour prendre de gros apparts au Troca La dalle elle vient du bled, la même des Comores jusquau roc-Ma Jbaise la France à lhôtel j'suis quitte avec Dominique Strauss-Kahn Les tête-à-tête on connaît pas on connaît pas Donner des blazes on connaît pas on connaît pas Trahir la mif on connaît pas on connaît pas Tu mfollow mais jte connais pas on connaît pas Les putains ddés sont lancés gros le game est plié Peu importe ton horoscope, la BAC tsoulève au bélier Du sang et des larmes, du sang et des larmes Tu vas y laisser du sang et des larmes, du sang et des larmes Mes bijoux sont froids mon torse est un mois ddécembre Une ruelle, dlhémoglobine sur un billet dcinq cent Du sang et des larmes, du sang et des larmes Tu vas y laisser du sang et des larmes, du sang et des larmes Laisse-les crier, j'les regarde de haut Fouiny, Fouiny Babe Laisse-les ils font pitié, on sait qui contrôle Bo Souloutoi Ils vont supplier, personne aura notre peau Fouiny, Fouiny Babe On va tout plier, pour nos frères en geôles Bo Souloutoi1</t>
+          <t>Salut mon vieux tu mreconnais ? Nique sa mère le commissaire cbâtard m'fait des frais davocat Ici faut prendre mon blé pour prendre de gros apparts au Troca La dalle elle vient du bled, la même des Comores jusquau roc-Ma Jbaise la France à lhôtel j'suis quitte avec Dominique Strauss-Kahn Les tête-à-tête on connaît pas on connaît pas Donner des blazes on connaît pas on connaît pas Trahir la mif on connaît pas on connaît pas Tu mfollow mais jte connais pas on connaît pas RER A, B, vendre de la C dans lD, jai jamais oublié le bâtiment B Jai un pied dans lbiz lautre cimenté, jrappe comme un tounsi, cest pimenté Les tête-à-tête cest fini fini, cest Kalash contre Uzi-Uzi Fréro tu traînes tes casseroles normal que les keufs te cuisinent, cuisinent Viens pas ici on tfuck, renoi tu vas danser sur dla funk Si tu vois deux gars sur un T-Max, nan ce sera pas les Daft Punk Ce sera des ratatata, nique ta mère fils à papa-papa Banlieue Sale on fait dlauto-stop si lsuccès pa-pa-pa-part Nique sa mère le commissaire cbâtard m'fait des frais davocat Ici faut prendre mon blé pour prendre de gros apparts au Troca La dalle elle vient du bled, la même des Comores jusquau roc-Ma Jbaise la France à lhôtel j'suis quitte avec Dominique Strauss-Kahn Les tête-à-tête on connaît pas on connaît pas Donner des blazes on connaît pas on connaît pas Trahir la mif on connaît pas on connaît pas Tu mfollow mais jte connais pas on connaît pas Jrappe depuis le fin-fond de ma street, tu sais pas le nombre de gens que jabrite Pas de doutes ce soir MC tes ma petite, sucez toute la longueur de ma bite Qui dit fans dit biff dit rageux, jpense que c'est des mathématiques Rien qujsouris, ceux qui baisent le plus en vrai sont juste les plus sympathiques Percer, ce nest plus un projet, classé mais t'es ancien à c'que j'sais Jencaisse tout, les coups, les ques-chè, moi j'fourre tout, les sons les ckes-shne Stoppez moi-moi le son jai un truc à dire en a capella Jvais tellement tfaire du sale que même le hammam pourra pas tver-la Jai placé mes rottes-ca, jdéfonce comme la vodka Jvous prends en levrette pour ça que jsuis penché sur votre cas Jme régale je sauce ça, mon flow rafale comme Sosa Le rap a des nausées, putain jai du lbaiser sans pote-ca Nique sa mère le commissaire cbâtard m'fait des frais davocat Ici faut prendre mon blé pour prendre de gros apparts au Troca La dalle elle vient du bled, la même des Comores jusquau roc-Ma Jbaise la France à lhôtel j'suis quitte avec Dominique Strauss-Kahn Les tête-à-tête on connaît pas on connaît pas Donner des blazes on connaît pas on connaît pas Trahir la mif on connaît pas on connaît pas Tu mfollow mais jte connais pas on connaît pas Les putains ddés sont lancés gros le game est plié Peu importe ton horoscope, la BAC tsoulève au bélier Du sang et des larmes, du sang et des larmes Tu vas y laisser du sang et des larmes, du sang et des larmes Mes bijoux sont froids mon torse est un mois ddécembre Une ruelle, dlhémoglobine sur un billet dcinq cent Du sang et des larmes, du sang et des larmes Tu vas y laisser du sang et des larmes, du sang et des larmes Laisse-les crier, j'les regarde de haut Fouiny, Fouiny Babe Laisse-les ils font pitié, on sait qui contrôle Bo Souloutoi Ils vont supplier, personne aura notre peau Fouiny, Fouiny Babe On va tout plier, pour nos frères en geôles Bo Souloutoi1</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Yeah, quoi d'neuf Louis Babe? Une spéciale à toutes les michtoneuses mort dans le film yeah Mimi cracra l'cash elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra l'cash elle aime ça, encore un llet-bi pour Mimi Cracra Frère elle aime les acteurs, ouais elle aime les Mc Titulaire dans tous les boites li-Lionel messi Collants collants FENDI, Talons talons LV Vuitton relation a long terme évitons Faire du cash et puis m'en sortir de la banlieue triste Des blocs sur des blocs Tetris Les petits, les grands, les femmeu cherchent la nnaie-mo J'suis numero 1 pourtant, j'ai toujours l'dernier mot Mimi aime les apparts sur les champs Elysée Elle ressort en boitant hum KeyserSöze Oui elle aime le violet, oui elle cherche la monnaie Elle me parle en cain-ri avec un accent lyonnais Pour la taro faut dépenser sans regarder le taro Elle veut pas d'un keummé carré, mais d'un mec en carreaux VIP room milliardaire bicraveur du terr-terr Frère et si tu divorces pension vestimentaire Mimi cracra l'cash elle aime ça, encore un llet-bi pour Mimi Cracra Mimi Cracra, l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra, l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra J'veux que tu me prennes en doggy, J'veux que tu-j'veux que tu me prennes en Dougie J'veux que tu me prennes en doggy, J'veux que tu-j'veux que tu me prennes en Dougie Dior Gucci Louis, Dior-Dior Gucci Louis Dior Gucci Louis, Dior-Dior Gucci Louis You might also like Mimi aime la Ligue 1, mimi aime les footeux Ils lui font des petits ponts, elle leur fait des une-deux Hors-jeu, hors-jeu toutes ta clic est hors-jeu L'amour est aveugle mais les biftons ouvrent grands les yeux Celle la c'est pour toutes les mimi Celles qui ont donné leurs... Passons Mimi aime les re-cui elle sait qui a raqué Elle connait le nom des joueurs mieux que Jean Michel Larqué Elle a le pin a Senna, fait la bise à Jean Roch Elle te demandera pas l'heure si au poignet t'as une G-shock Tu la croises au Pullman elle traîne au Méridien Elle sort avec l'Artiste elle s'en fout des musiciens Mimi cracra l'cash elle aime ça, encore un llet-bi pour Mimi Cracra Mimi Cracra, l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra, l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra J'veux que tu me prennes en doggy, J'veux que tu-j'veux que tu me prennes en Dougie J'veux que tu me prennes en doggy, J'veux que tu-j'veux que tu me prennes en Dougie Dior Gucci Louis, Dior-Dior Gucci Louis Dior Gucci Louis, Dior-Dior Gucci Louis Yeah quoi d'neuf Louis Babe Celle la c'est pour toutes les michtonneuse, moissoneuse, batteuse haha Mimi Cracra Fouiny cracra l'cash il aime ça, encore un llet-bi pour Fouiny cracra Fouiny cracra l'cash il aime ça, encore un llet-bi pour Fouiny cracra Banlieue Sale Haha yeah Fouiny Babe, I got You !</t>
+          <t>Yeah, quoi d'neuf Louis Babe? Une spéciale à toutes les michtoneuses mort dans le film yeah Mimi cracra l'cash elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra l'cash elle aime ça, encore un llet-bi pour Mimi Cracra Frère elle aime les acteurs, ouais elle aime les Mc Titulaire dans tous les boites li-Lionel messi Collants collants FENDI, Talons talons LV Vuitton relation a long terme évitons Faire du cash et puis m'en sortir de la banlieue triste Des blocs sur des blocs Tetris Les petits, les grands, les femmeu cherchent la nnaie-mo J'suis numero 1 pourtant, j'ai toujours l'dernier mot Mimi aime les apparts sur les champs Elysée Elle ressort en boitant hum KeyserSöze Oui elle aime le violet, oui elle cherche la monnaie Elle me parle en cain-ri avec un accent lyonnais Pour la taro faut dépenser sans regarder le taro Elle veut pas d'un keummé carré, mais d'un mec en carreaux VIP room milliardaire bicraveur du terr-terr Frère et si tu divorces pension vestimentaire Mimi cracra l'cash elle aime ça, encore un llet-bi pour Mimi Cracra Mimi Cracra, l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra, l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra J'veux que tu me prennes en doggy, J'veux que tu-j'veux que tu me prennes en Dougie J'veux que tu me prennes en doggy, J'veux que tu-j'veux que tu me prennes en Dougie Dior Gucci Louis, Dior-Dior Gucci Louis Dior Gucci Louis, Dior-Dior Gucci Louis Mimi aime la Ligue 1, mimi aime les footeux Ils lui font des petits ponts, elle leur fait des une-deux Hors-jeu, hors-jeu toutes ta clic est hors-jeu L'amour est aveugle mais les biftons ouvrent grands les yeux Celle la c'est pour toutes les mimi Celles qui ont donné leurs... Passons Mimi aime les re-cui elle sait qui a raqué Elle connait le nom des joueurs mieux que Jean Michel Larqué Elle a le pin a Senna, fait la bise à Jean Roch Elle te demandera pas l'heure si au poignet t'as une G-shock Tu la croises au Pullman elle traîne au Méridien Elle sort avec l'Artiste elle s'en fout des musiciens Mimi cracra l'cash elle aime ça, encore un llet-bi pour Mimi Cracra Mimi Cracra, l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra, l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra Mimi cracra l'cash, elle aime ça, encore un llet-bi pour Mimi Cracra J'veux que tu me prennes en doggy, J'veux que tu-j'veux que tu me prennes en Dougie J'veux que tu me prennes en doggy, J'veux que tu-j'veux que tu me prennes en Dougie Dior Gucci Louis, Dior-Dior Gucci Louis Dior Gucci Louis, Dior-Dior Gucci Louis Yeah quoi d'neuf Louis Babe Celle la c'est pour toutes les michtonneuse, moissoneuse, batteuse haha Mimi Cracra Fouiny cracra l'cash il aime ça, encore un llet-bi pour Fouiny cracra Fouiny cracra l'cash il aime ça, encore un llet-bi pour Fouiny cracra Banlieue Sale Haha yeah Fouiny Babe, I got You !</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Les sale manies me suive,partout Je suis trop cramé a quoi bon faire le bakthou Je pense qu'a fumer, cerveau niquer C'est vrai qu'on parle fort mais arrêté de paniquer Laisse les nous juger,de leurs téléviseurs On traîne la nuit dore jusqu'à quinze heures Il disent de nous qu'on est mal polie Mais c'est pétasse nous disent pas la même chose au lit On se sape on se fait clean on traîne dans les grottes Putain dit moi pourquoi on kiff toujours les surs des potes Change de zik si t'aime pas ce mouve Chez pas c'est quoi ta vie mais nous on fait sa à la YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV Toujours les yeux rouge ont fait touts au renlentit Et kan ont parle de Mahyi jamais de plaisenterie Tu veut faire un tète mais ta l'aire Pas sur de toi on va te monter en l'air Mentalité et YOUV pense qu'a fair du porno Les meufs c'est toutes des putes a part nous,daronne respect Les ailes qu'ont peut pas tester,crache part terre ont pisse dehors Génération golf quatre dans le poste temps mort Change de zik si t'aime pas ce mouve Je c'est pas c'est quoi ta vie mais nous ont fait sa à la YOUV You might also likeIl faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV Sort plus du quartier car ont a trop douiller Rébellion car ont veut plus se faire fouiller Les mains dans les poches phone à trente euro Préfère marcher à pied que prendre le métro Sarko veut nous nettoyer mentalité et YOUV Qui ne c'est que tutoiller et quand ont ce parlent Ils sont traumatisés ouai je nique ta race la pute J'ai trop envi de tiser pour les mecs des terres Les millions avant qu'ont en entière Change de zik si t'aime pas ce mouve Je c'est pas c'est quoi ta vie mais nous ont faits sa àla YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV</t>
+          <t>Les sale manies me suive,partout Je suis trop cramé a quoi bon faire le bakthou Je pense qu'a fumer, cerveau niquer C'est vrai qu'on parle fort mais arrêté de paniquer Laisse les nous juger,de leurs téléviseurs On traîne la nuit dore jusqu'à quinze heures Il disent de nous qu'on est mal polie Mais c'est pétasse nous disent pas la même chose au lit On se sape on se fait clean on traîne dans les grottes Putain dit moi pourquoi on kiff toujours les surs des potes Change de zik si t'aime pas ce mouve Chez pas c'est quoi ta vie mais nous on fait sa à la YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV Toujours les yeux rouge ont fait touts au renlentit Et kan ont parle de Mahyi jamais de plaisenterie Tu veut faire un tète mais ta l'aire Pas sur de toi on va te monter en l'air Mentalité et YOUV pense qu'a fair du porno Les meufs c'est toutes des putes a part nous,daronne respect Les ailes qu'ont peut pas tester,crache part terre ont pisse dehors Génération golf quatre dans le poste temps mort Change de zik si t'aime pas ce mouve Je c'est pas c'est quoi ta vie mais nous ont fait sa à la YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV Sort plus du quartier car ont a trop douiller Rébellion car ont veut plus se faire fouiller Les mains dans les poches phone à trente euro Préfère marcher à pied que prendre le métro Sarko veut nous nettoyer mentalité et YOUV Qui ne c'est que tutoiller et quand ont ce parlent Ils sont traumatisés ouai je nique ta race la pute J'ai trop envi de tiser pour les mecs des terres Les millions avant qu'ont en entière Change de zik si t'aime pas ce mouve Je c'est pas c'est quoi ta vie mais nous ont faits sa àla YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Oh Laouni Ne2s Mister Younes Haschich Money qui te passe labess Oh Hautes Noues Peace 19ème Trappes Ah Personne n'est à l'abri du désespoir Chacun son chemin d'croix du berceau au mitard Chaque défaite chaque victoire Instant d'vie chacun son histoire À chaque situation sa solution son cauchemar Paria veut devenir parrain pour ceux qui vivent sous la lune noire La poisse étouffe mes rêves de gloire Sélection naturelle des fois l'bonheur est illusoire On peut tout perdre sur un coup d'tête un peu comme Super Nanny On peut s'faire fumer comme une barrette ouais mec haynani Demande à Laouni ou bien à Nabil même ta meuf s'en lèche les babines Appelle l'ingé j'suis chaud j'vais foutre le feu dans la cabine 19eme on revient à l'ancienne en Runner 180 Mesdames et mesdemoiselles j'me présente j'suis c'lui qu'a très faim C'est pas la fin du film les frères au contraire c'est que l'début On va tout niquer, sa mère y'a zeh notre son c'est d'la re-pu You might also like Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous juger ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent À trop nager dans la merde je vais finir par couler J'me laisse porter par la vague celui qu'a survécu un miraculé Matriculé, matrixé Dans mon dernier cauchemar j'ai vu ma vie basculer J'assume les gosses chéries, j'peux plus reculer T'es partie depuis ma vie a coulé Quand le rêve est brisé, matières grises Brulées par la crise, les reportages dans l'journal télévisé Han, on r'venait d'où les vents t'ont mené Sous les feux des projecteurs trop de refrés oublient d'où ils venaient C'est une histoire de pétrole, vous l'direz à ma fille Bush voulait c'lui de Saddam, Nico celui de Khadafi Et sur la route au compte goutte j'ai perdu quelques frérots Te demande plus pourquoi on a rien, on a inventé l'zéro Fouiny Baby Nessbeal et le frérot Mister You Même en garde à vue, toujours au garde à vous Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous juger ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent On ira là où les vents nous mènent 78 Hautes Noues peace, 19èm khey y'a pas de problème Prends le temps de la vivre la vie va vite Attends le dernier chapitre avant de casser la vitre On ira là où les vents nous mènent 78 Hautes Noues peace, 19èm khey y'a pas de problème Prends le temps de la vivre la vie va vite Attends le dernier chapitre avant de casser la vitre Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous jugez ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous jugez ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent Fouiny Baby Mister You Ne2s Yeah On ira là où les vents nous mènent On ira là où les vents nous mènent, oh1</t>
+          <t>Oh Laouni Ne2s Mister Younes Haschich Money qui te passe labess Oh Hautes Noues Peace 19ème Trappes Ah Personne n'est à l'abri du désespoir Chacun son chemin d'croix du berceau au mitard Chaque défaite chaque victoire Instant d'vie chacun son histoire À chaque situation sa solution son cauchemar Paria veut devenir parrain pour ceux qui vivent sous la lune noire La poisse étouffe mes rêves de gloire Sélection naturelle des fois l'bonheur est illusoire On peut tout perdre sur un coup d'tête un peu comme Super Nanny On peut s'faire fumer comme une barrette ouais mec haynani Demande à Laouni ou bien à Nabil même ta meuf s'en lèche les babines Appelle l'ingé j'suis chaud j'vais foutre le feu dans la cabine 19eme on revient à l'ancienne en Runner 180 Mesdames et mesdemoiselles j'me présente j'suis c'lui qu'a très faim C'est pas la fin du film les frères au contraire c'est que l'début On va tout niquer, sa mère y'a zeh notre son c'est d'la re-pu Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous juger ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent À trop nager dans la merde je vais finir par couler J'me laisse porter par la vague celui qu'a survécu un miraculé Matriculé, matrixé Dans mon dernier cauchemar j'ai vu ma vie basculer J'assume les gosses chéries, j'peux plus reculer T'es partie depuis ma vie a coulé Quand le rêve est brisé, matières grises Brulées par la crise, les reportages dans l'journal télévisé Han, on r'venait d'où les vents t'ont mené Sous les feux des projecteurs trop de refrés oublient d'où ils venaient C'est une histoire de pétrole, vous l'direz à ma fille Bush voulait c'lui de Saddam, Nico celui de Khadafi Et sur la route au compte goutte j'ai perdu quelques frérots Te demande plus pourquoi on a rien, on a inventé l'zéro Fouiny Baby Nessbeal et le frérot Mister You Même en garde à vue, toujours au garde à vous Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous juger ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent On ira là où les vents nous mènent 78 Hautes Noues peace, 19èm khey y'a pas de problème Prends le temps de la vivre la vie va vite Attends le dernier chapitre avant de casser la vitre On ira là où les vents nous mènent 78 Hautes Noues peace, 19èm khey y'a pas de problème Prends le temps de la vivre la vie va vite Attends le dernier chapitre avant de casser la vitre Et si j'ai raté l'dernier train, l'dernier navire Je viens de là où les radeaux les rêves chavirent On ira, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous jugez ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent Et dis toi qu'un jour on fera la une et les gros titres Nous jugez ? Attendez au moins le dernier chapitre Loin là bas, on ira là où les vents nous mènent On ira là où les vents nous mènent Fouiny Baby Mister You Ne2s Yeah On ira là où les vents nous mènent On ira là où les vents nous mènent, oh1</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>À longueur de journée on parle de gun et de tass La variet' est trop vénère on squatte la tête des charts Les voyous prennent le micro, peuvent pas ignorer nos hits La concurrence ne peut rien faire, man on la bouffe comme des chips Comme des... Hey... Han han... Hey... On finira chez Ardisson, Fogiel , Cauet On fera le tour du monde, on passera par Gorée T'as mis le Gucci d'Barbes sur ton corps Et pchit, pchit, pchit, pchit... Tu pues encore ! Quand j'ai commencé le rap, on m'a dit Faut être Noir J'ai voulu faire de la pop, on m'a dit Faut être Blanc J'ai noyé mes soucis devant un verre de sky' Comme c'est bi-bi-bizarre, un Arabe qui aime pas le raï Yeah ! Pas de quoi payer le baveux J'ai giflé le rap et il est passé aux aveux Et contre tous les rageux... La sécurité est Yougoslave À longueur de journée on parle de gun et de tass La variet' est trop vénère on squatte la tête des charts Les voyous prennent le micro, peuvent pas ignorer nos hits La concurrence ne peut rien faire, man on la bouffe comme des chips Comme des... Hey... Han han... Hey... You might also like You ! Pour les frères enfermés You ! Obligés de la fermer You ! Pour les frères énervés You ! On ne sait pas dire I love You ! Pour les frères enfermés You ! Obligés de la fermer You ! Pour les frères énervés You ! On ne sait pas dire I love Sortez les bouteilles, les Lamborghinis Miss ouvre ton garage, que je gare mon Audi Saveur Bolognaise, elle a le goût du risque Écarte les cuisses, goûte ma Chips Elle est trop grillée, elle sent beaucoup Elle s'est fait cramer, arôme barbecue À 200 sur le périph', avec mon vrai gars Sur la banquette arrière, goût paprika À longueur de journée on parle de gun et de tass La variet' est trop vénère on squatte la tête des charts Les voyous prennent le micro, peuvent pas ignorer nos hits La concurrence ne peut rien faire, man on la bouffe comme des chips Comme des... Hey... Han han... Hey... Avec les moyens du bord, on se démerde, on s'en sort Je veux juste remplir les coeurs, je m'en bats les couilles du disque d'or Avec les moyens du bord, on se démerde, on s'en sort On veut juste remplir les coeurs, on s'en bat les couilles du disque d'or Avec les moyens du bord, on se démerde, on s'en sort On veut juste remplir les coeurs, on s'en bat les couilles du disque d'or Du disque d'or Du disque d'or, Du disque d'or du disque d'or Du disque d'or Du disque d'or À longueur de journée on parle de gun et de tass La variet' est trop vénère on squatte la tête des charts Les voyous prennent le micro, peuvent pas ignorer nos hits La concurrence ne peut rien faire, man on la bouffe comme des chips Comme des... Hey... Han han... Hey... Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>À longueur de journée on parle de gun et de tass La variet' est trop vénère on squatte la tête des charts Les voyous prennent le micro, peuvent pas ignorer nos hits La concurrence ne peut rien faire, man on la bouffe comme des chips Comme des... Hey... Han han... Hey... On finira chez Ardisson, Fogiel , Cauet On fera le tour du monde, on passera par Gorée T'as mis le Gucci d'Barbes sur ton corps Et pchit, pchit, pchit, pchit... Tu pues encore ! Quand j'ai commencé le rap, on m'a dit Faut être Noir J'ai voulu faire de la pop, on m'a dit Faut être Blanc J'ai noyé mes soucis devant un verre de sky' Comme c'est bi-bi-bizarre, un Arabe qui aime pas le raï Yeah ! Pas de quoi payer le baveux J'ai giflé le rap et il est passé aux aveux Et contre tous les rageux... La sécurité est Yougoslave À longueur de journée on parle de gun et de tass La variet' est trop vénère on squatte la tête des charts Les voyous prennent le micro, peuvent pas ignorer nos hits La concurrence ne peut rien faire, man on la bouffe comme des chips Comme des... Hey... Han han... Hey... You ! Pour les frères enfermés You ! Obligés de la fermer You ! Pour les frères énervés You ! On ne sait pas dire I love You ! Pour les frères enfermés You ! Obligés de la fermer You ! Pour les frères énervés You ! On ne sait pas dire I love Sortez les bouteilles, les Lamborghinis Miss ouvre ton garage, que je gare mon Audi Saveur Bolognaise, elle a le goût du risque Écarte les cuisses, goûte ma Chips Elle est trop grillée, elle sent beaucoup Elle s'est fait cramer, arôme barbecue À 200 sur le périph', avec mon vrai gars Sur la banquette arrière, goût paprika À longueur de journée on parle de gun et de tass La variet' est trop vénère on squatte la tête des charts Les voyous prennent le micro, peuvent pas ignorer nos hits La concurrence ne peut rien faire, man on la bouffe comme des chips Comme des... Hey... Han han... Hey... Avec les moyens du bord, on se démerde, on s'en sort Je veux juste remplir les coeurs, je m'en bats les couilles du disque d'or Avec les moyens du bord, on se démerde, on s'en sort On veut juste remplir les coeurs, on s'en bat les couilles du disque d'or Avec les moyens du bord, on se démerde, on s'en sort On veut juste remplir les coeurs, on s'en bat les couilles du disque d'or Du disque d'or Du disque d'or, Du disque d'or du disque d'or Du disque d'or Du disque d'or À longueur de journée on parle de gun et de tass La variet' est trop vénère on squatte la tête des charts Les voyous prennent le micro, peuvent pas ignorer nos hits La concurrence ne peut rien faire, man on la bouffe comme des chips Comme des... Hey... Han han... Hey... Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>J'aurais voulu dire je rêvais de fuir Acharné je taff ici et là J'ai connu le pire, je préfère en rire J'ai touché le fond, oui j'ai touché du bois J'regardais le ciel, et rêvais de fuir La nuit les étoiles nous sortent de là Et cette étincelle qui nous fait vivre Qui nous emmènera là-bas Un nouveau jour se lève le paysan est devenu roi Rien ne sert de courir il faut partir en 6.3 Courir après les billets m'a trop usé T'as connu le banc de la FAC moi celui des accusés J'ai pris des coups, j'ai pris des peines et j'me suis toujours relevé Met la rue devant un miroir et tu verras mon reflet Endurer trimer mais patienter en arriver jusque là Galérer l'album aurait du s'appeler Inch'Allah Trente au départ, trop peu à l'arrivée Revé sur revé, j'attendais pas le soleil pour rêver Et puis un jour j'suis devenu Fouiny Babe J'ai frappé chez l'succès, j'lui ai dit Hel Beb J'aurais voulu dire je rêvais de fuir Acharné je taff ici et là J'ai connu le pire, je préfère en rire J'ai touché le fond, oui j'ai touché du bois J'regardais le ciel, et rêvais de fuir La nuit les étoiles nous sortent de là Et cette étincelle qui nous fait vivre Qui nous emmènera là-bas You might also like Yeah ma belle un jour on ira là-bas Tu sortiras de la mairie avec ta belle djellaba Y'aura un Fefe garé devant Interdiction d'arrêter de rêver je t'en défend Millionnaire ou débiteur, on repart tous les pieds devant On est tous collés à la monnaie frère comme un aimant Fréro Fouiny Babe, j'voulais être riche mais l'argent m'a lassé Je suis riche de biens dont je peux me passer Banlieue Ouest, on faisait l'argent malgré la crise T'avais une carte orange, on avait plusieurs cartes grises T'inquiètes un jour on sera tous des Fouiny Babe On frappera chez le succès en lui disant Hel Beb J'aurais voulu dire je rêvais de fuir Acharné je taff ici et là J'ai connu le pire, je préfère en rire J'ai touché le fond, oui j'ai touché du bois J'regardais le ciel, et rêvais de fuir La nuit les étoiles nous sortent de là Et cette étincelle qui nous fait vivre Qui nous emmènera là-bas Trouver le biff ensemble le moment parfait Trouver la force qui nous emmènera là-bas Trouver les mots juste et fournir l'effort La bonne étoile qui nous emmènera là-bas Pour tous les Fouiny Babe, perdus en bas qui cherchent La voix qui nous emmènera là-bas Quand plus rien ne brille, autour de moi tout s'écroule J'me demande qu'est-ce qui nous emmènera là-bas</t>
+          <t>J'aurais voulu dire je rêvais de fuir Acharné je taff ici et là J'ai connu le pire, je préfère en rire J'ai touché le fond, oui j'ai touché du bois J'regardais le ciel, et rêvais de fuir La nuit les étoiles nous sortent de là Et cette étincelle qui nous fait vivre Qui nous emmènera là-bas Un nouveau jour se lève le paysan est devenu roi Rien ne sert de courir il faut partir en 6.3 Courir après les billets m'a trop usé T'as connu le banc de la FAC moi celui des accusés J'ai pris des coups, j'ai pris des peines et j'me suis toujours relevé Met la rue devant un miroir et tu verras mon reflet Endurer trimer mais patienter en arriver jusque là Galérer l'album aurait du s'appeler Inch'Allah Trente au départ, trop peu à l'arrivée Revé sur revé, j'attendais pas le soleil pour rêver Et puis un jour j'suis devenu Fouiny Babe J'ai frappé chez l'succès, j'lui ai dit Hel Beb J'aurais voulu dire je rêvais de fuir Acharné je taff ici et là J'ai connu le pire, je préfère en rire J'ai touché le fond, oui j'ai touché du bois J'regardais le ciel, et rêvais de fuir La nuit les étoiles nous sortent de là Et cette étincelle qui nous fait vivre Qui nous emmènera là-bas Yeah ma belle un jour on ira là-bas Tu sortiras de la mairie avec ta belle djellaba Y'aura un Fefe garé devant Interdiction d'arrêter de rêver je t'en défend Millionnaire ou débiteur, on repart tous les pieds devant On est tous collés à la monnaie frère comme un aimant Fréro Fouiny Babe, j'voulais être riche mais l'argent m'a lassé Je suis riche de biens dont je peux me passer Banlieue Ouest, on faisait l'argent malgré la crise T'avais une carte orange, on avait plusieurs cartes grises T'inquiètes un jour on sera tous des Fouiny Babe On frappera chez le succès en lui disant Hel Beb J'aurais voulu dire je rêvais de fuir Acharné je taff ici et là J'ai connu le pire, je préfère en rire J'ai touché le fond, oui j'ai touché du bois J'regardais le ciel, et rêvais de fuir La nuit les étoiles nous sortent de là Et cette étincelle qui nous fait vivre Qui nous emmènera là-bas Trouver le biff ensemble le moment parfait Trouver la force qui nous emmènera là-bas Trouver les mots juste et fournir l'effort La bonne étoile qui nous emmènera là-bas Pour tous les Fouiny Babe, perdus en bas qui cherchent La voix qui nous emmènera là-bas Quand plus rien ne brille, autour de moi tout s'écroule J'me demande qu'est-ce qui nous emmènera là-bas</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Représente Paris 19 jen suis fier Qui ose traverser les grands fleuves ne craint pas les petites rivières Dans la baraque du trafiquant tous les enfants savent compter Ils connaissent la gueule du procureur et tous les keufs dà coté Rendre service aux autres, cest se rendre service à soi-même On sait qu'en faisant une faute bah on peut grailler la gamelle Des années de prisons, cest souvent ce que la rue toffre Crois-moi vaut mieux remplir son grenier que charger son coffre La patience est une fleur qui pousse pas dans tous les jardins Cest pas en mangeant des pierres quon va chier du Cardin Jsuis dans ma grotte frère mais je te mets au parfum Non ne franchis pas la frontière du 19 par le 20 Yougataga laisse parler les gens Quand le loup nest pas là, les brebis elles sont sur les Champs Demande à La Fouine ou bien à Lacrim, darwah toujours la mentale Même la plus forte des clim négale pas lair frais de la montagne Jaurais aimé cramer du cash dans les iles Canaries Mais bon lEtat il ma mis en cage un peu comme un canari Au chtar jfais pas de sport, jai toujours le même gabarit Jpense au bled où cest la merde 5 fois plus quà Paris À force dêtre traité avec mépris, cest de la haine quon attise Avant daccroitre lintelligence, éradiquons la bêtise Ce quils veulent cest nous détruire malgré tous nos efforts Donc pensons à nous unir histoire dêtre plus fort You might also like Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Le square brule, les sirènes, les boulettes sur mon pull Les seringues trainent, lEtat me freine longue peine Les corbeaux de Bois DArcy, les rats de Fresnes Tu conduis sans permis tu fini à Nanterre Pendant que les keufs écrasent les petits frères Avec une daronne affolée, moi jpicolais, volais Fallait bien remplir le frigo, le procureur na pas rigolé Chez moi les litrons faut en vendre plus Pour passer de larrêt de bus au Brabus Méfie-toi des poucaves obligé, tu peux vite passer du AMG aux TIG Encore un gros son de voyou et si tu fuck You, fuck You Cest pour les frères de Dakar, Tizi Ouzou Et quand tas des grosses galères les gens ils sont où ? Yeah, tête relevée, casquette baissée Faut les laisser devant leur PC, Mister You, Fouiny on vient les blesser Alors on rap comme à lancienne Parce quon a trop jeté des frères à nous dans la Seine Parce que mon nom est sur leurs listes, jrêve décraser un raciste en RS6 Disque de platine mais jen ai pas lair Parle mal jte nique ta mère Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Refais-toi en nous rejoignant Rap Genius !</t>
+          <t>Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Représente Paris 19 jen suis fier Qui ose traverser les grands fleuves ne craint pas les petites rivières Dans la baraque du trafiquant tous les enfants savent compter Ils connaissent la gueule du procureur et tous les keufs dà coté Rendre service aux autres, cest se rendre service à soi-même On sait qu'en faisant une faute bah on peut grailler la gamelle Des années de prisons, cest souvent ce que la rue toffre Crois-moi vaut mieux remplir son grenier que charger son coffre La patience est une fleur qui pousse pas dans tous les jardins Cest pas en mangeant des pierres quon va chier du Cardin Jsuis dans ma grotte frère mais je te mets au parfum Non ne franchis pas la frontière du 19 par le 20 Yougataga laisse parler les gens Quand le loup nest pas là, les brebis elles sont sur les Champs Demande à La Fouine ou bien à Lacrim, darwah toujours la mentale Même la plus forte des clim négale pas lair frais de la montagne Jaurais aimé cramer du cash dans les iles Canaries Mais bon lEtat il ma mis en cage un peu comme un canari Au chtar jfais pas de sport, jai toujours le même gabarit Jpense au bled où cest la merde 5 fois plus quà Paris À force dêtre traité avec mépris, cest de la haine quon attise Avant daccroitre lintelligence, éradiquons la bêtise Ce quils veulent cest nous détruire malgré tous nos efforts Donc pensons à nous unir histoire dêtre plus fort Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Le square brule, les sirènes, les boulettes sur mon pull Les seringues trainent, lEtat me freine longue peine Les corbeaux de Bois DArcy, les rats de Fresnes Tu conduis sans permis tu fini à Nanterre Pendant que les keufs écrasent les petits frères Avec une daronne affolée, moi jpicolais, volais Fallait bien remplir le frigo, le procureur na pas rigolé Chez moi les litrons faut en vendre plus Pour passer de larrêt de bus au Brabus Méfie-toi des poucaves obligé, tu peux vite passer du AMG aux TIG Encore un gros son de voyou et si tu fuck You, fuck You Cest pour les frères de Dakar, Tizi Ouzou Et quand tas des grosses galères les gens ils sont où ? Yeah, tête relevée, casquette baissée Faut les laisser devant leur PC, Mister You, Fouiny on vient les blesser Alors on rap comme à lancienne Parce quon a trop jeté des frères à nous dans la Seine Parce que mon nom est sur leurs listes, jrêve décraser un raciste en RS6 Disque de platine mais jen ai pas lair Parle mal jte nique ta mère Et puis je repense à tout ce mal, frère quon a fait Les peines et les parloirs fantômes, la crasse, les bouts de chemin, frère quon a fait Les petits murissent grandissent trop vite prennent le mauvais chemin mais quest-ce quon a fait ? A trainer devant le hall épaulés par la poisse, mais frère tinquiète, on se refait, on se refait, on se refait Refais-toi en nous rejoignant Rap Genius !</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Les problèmes jles ai vu de près, vu de près Ma jeunesse à courir derrière le cash et le succès, yeah Bonheur, je tai vu de près, côtoyé des gens faux et des gens vrais Pour aller là-bas, de la route jen ferai Et si les portes se ferment, aucun problème Que le quartier sèche ces larmes, Fouiny Babe Et si jai laissé derrière tous ces problèmes Un jour le ciel se lève Un jour jpartirai re-frè cest sûr mais jamais sans me fight Yeah donc avant de partir joublie problèmes, laisse moi kiffer toute la night Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Yeah, donc avant de partir joublie problèmes laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night You might also like M'accrocher ou tomber, tomber Garder la tête hors de leau surtout ne pas replonger Mettre le rap en danger, tôt ou tard se ranger Devant les difficultés fuir je ny ai jamais songé, yeah Et si ce soir la nuit peine à tomber Dédié à tous nos frères perdus, tombés De voir nos rêves de gosses se réaliser Avant que le jour se lève Un jour jpartirai re-frè cest sûr mais jamais sans me fight Yeah donc avant de partir joublie problèmes, laisse moi kiffer toute la night Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Yeah, donc avant de partir joublie problèmes laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Yeah, donc avant de partir joublie problèmes, ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Yeah, donc avant de partir joublie problèmes, ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah</t>
+          <t>Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Les problèmes jles ai vu de près, vu de près Ma jeunesse à courir derrière le cash et le succès, yeah Bonheur, je tai vu de près, côtoyé des gens faux et des gens vrais Pour aller là-bas, de la route jen ferai Et si les portes se ferment, aucun problème Que le quartier sèche ces larmes, Fouiny Babe Et si jai laissé derrière tous ces problèmes Un jour le ciel se lève Un jour jpartirai re-frè cest sûr mais jamais sans me fight Yeah donc avant de partir joublie problèmes, laisse moi kiffer toute la night Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Yeah, donc avant de partir joublie problèmes laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night M'accrocher ou tomber, tomber Garder la tête hors de leau surtout ne pas replonger Mettre le rap en danger, tôt ou tard se ranger Devant les difficultés fuir je ny ai jamais songé, yeah Et si ce soir la nuit peine à tomber Dédié à tous nos frères perdus, tombés De voir nos rêves de gosses se réaliser Avant que le jour se lève Un jour jpartirai re-frè cest sûr mais jamais sans me fight Yeah donc avant de partir joublie problèmes, laisse moi kiffer toute la night Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Yeah, donc avant de partir joublie problèmes laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Yeah, donc avant de partir joublie problèmes, ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Yeah, donc avant de partir joublie problèmes, ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah Ouais laisse moi kiffer toute la night Cest ma life, ho yeah</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Oster on the beat, watch out Ouais ouais ouais ouais Yah yah yah yah Yo, cest rien cest la rue Eh yo Fouiny ! Skurt ! R.A.P Yah yah yah yah Jour et nuit jentends les sirènes, l'sheitan veut ses honoraires Jme demande ce soir la faucheuse prendra lequel de mes frères ? Pleurer à quoi ça sert ? Ça na pas ramené ma mère Poucaves, délateurs, gros faut les kalasher à terre ! Balaye devant chez toi au lieu dbalayer chez les autres Ah non cest pas chez toi, non cest maman qui paie la note Cest gonflé dans mes poches, mes liasses ne font pas de régime Vaillant comme Mesrine, jai jamais courbé léchine Ruelle, masqué, cagoule, tentends, clique, rebeu, boom Zouglou kata, pas dça ici, salam alaykoum Vois ce quon peut devenir, quand on grandit sans repères On peut niquer des mères, des soeurs, des grand-mères et des pères Quand jmendors avec mes bijoux, putain lourd est mon sommeil Jte ken en haut, en bas, cest lascenseur émotionnel Jai quelques traces de jaloux incrustés sous mes semelles Leur vie doit être nulle, ils sont concentrés sur la mienne You might also like Hé ouais ouais ouais Yah yah yah yah Yah yah yah yah Ouais ouais Pas de mandat, cest la rue Mon gun parle pour moi, cest la rue Nous on parle comme ça, cest la rue Me regarde pas comme ça, cest la rue Pas de parloir, cest la rue Gros cest pas fait pour toi, cest la rue Que largent sale, cest la rue On ta mit des rottes-ca, cest la rue Le rap cest comme les femmes, jle baise en physique pas en stream Gros plus rien à prouver depuis Capitale du Crime En cellule, une serviette mouillée sur le front remplace la clim Je sais plus si y a touche, les ptits ont sniffé la ligne Les gars menvoient des snaps, ils kiffent mes sons en cellule Mes poches sont arrondis, le succès prend pas la pillule Plus tes rêves avancent et plus lamitié recule haineux on tencule Pauvreté raciste khoya, époque incertaine Jai pissé sur la flamme du FN jusquà ce quelle séteigne Cest pour mes longues peines, wAllah jai de la peine Baise le système, ouais ouais Pas de mandat, cest la rue Mon gun parle pour moi, cest la rue Nous on parle comme ça, cest la rue Me regarde pas comme ça, cest la rue Pas de parloir, cest la rue Gros cest pas fait pour toi, cest la rue Que largent sale, cest la rue On ta mit des rottes-ca, cest la rue Si jbaisse les bras, cest que jai trop de bijoux à mes poignets Docteur jai besoin de pansements violets pour me soigner Ouais ouais ouais ouais ouais, cest rien cest la rue Ouais ouais ouais ouais ouais, cest rien cest la rue Sans raison ces fils de putes me demandent mes papiers Jsuis tout seul devant la cage, ils veulent pas faire la passe D Ouais ouais ouais ouais ouais, cest rien cest la rue Ouais ouais ouais ouais ouais ouais ouais Pas de mandat, cest la rue Mon gun parle pour moi, cest la rue Nous on parle comme ça, cest la rue Me regarde pas comme ça, cest la rue Pas de parloir, cest la rue Gros cest pas fait pour toi, cest la rue Que largent sale, cest la rue On ta mit des rottes-ca, cest la rue Yah yah yah Ouais ouais ouais Yah yah yah Yah yah yah yah</t>
+          <t>Oster on the beat, watch out Ouais ouais ouais ouais Yah yah yah yah Yo, cest rien cest la rue Eh yo Fouiny ! Skurt ! R.A.P Yah yah yah yah Jour et nuit jentends les sirènes, l'sheitan veut ses honoraires Jme demande ce soir la faucheuse prendra lequel de mes frères ? Pleurer à quoi ça sert ? Ça na pas ramené ma mère Poucaves, délateurs, gros faut les kalasher à terre ! Balaye devant chez toi au lieu dbalayer chez les autres Ah non cest pas chez toi, non cest maman qui paie la note Cest gonflé dans mes poches, mes liasses ne font pas de régime Vaillant comme Mesrine, jai jamais courbé léchine Ruelle, masqué, cagoule, tentends, clique, rebeu, boom Zouglou kata, pas dça ici, salam alaykoum Vois ce quon peut devenir, quand on grandit sans repères On peut niquer des mères, des soeurs, des grand-mères et des pères Quand jmendors avec mes bijoux, putain lourd est mon sommeil Jte ken en haut, en bas, cest lascenseur émotionnel Jai quelques traces de jaloux incrustés sous mes semelles Leur vie doit être nulle, ils sont concentrés sur la mienne Hé ouais ouais ouais Yah yah yah yah Yah yah yah yah Ouais ouais Pas de mandat, cest la rue Mon gun parle pour moi, cest la rue Nous on parle comme ça, cest la rue Me regarde pas comme ça, cest la rue Pas de parloir, cest la rue Gros cest pas fait pour toi, cest la rue Que largent sale, cest la rue On ta mit des rottes-ca, cest la rue Le rap cest comme les femmes, jle baise en physique pas en stream Gros plus rien à prouver depuis Capitale du Crime En cellule, une serviette mouillée sur le front remplace la clim Je sais plus si y a touche, les ptits ont sniffé la ligne Les gars menvoient des snaps, ils kiffent mes sons en cellule Mes poches sont arrondis, le succès prend pas la pillule Plus tes rêves avancent et plus lamitié recule haineux on tencule Pauvreté raciste khoya, époque incertaine Jai pissé sur la flamme du FN jusquà ce quelle séteigne Cest pour mes longues peines, wAllah jai de la peine Baise le système, ouais ouais Pas de mandat, cest la rue Mon gun parle pour moi, cest la rue Nous on parle comme ça, cest la rue Me regarde pas comme ça, cest la rue Pas de parloir, cest la rue Gros cest pas fait pour toi, cest la rue Que largent sale, cest la rue On ta mit des rottes-ca, cest la rue Si jbaisse les bras, cest que jai trop de bijoux à mes poignets Docteur jai besoin de pansements violets pour me soigner Ouais ouais ouais ouais ouais, cest rien cest la rue Ouais ouais ouais ouais ouais, cest rien cest la rue Sans raison ces fils de putes me demandent mes papiers Jsuis tout seul devant la cage, ils veulent pas faire la passe D Ouais ouais ouais ouais ouais, cest rien cest la rue Ouais ouais ouais ouais ouais ouais ouais Pas de mandat, cest la rue Mon gun parle pour moi, cest la rue Nous on parle comme ça, cest la rue Me regarde pas comme ça, cest la rue Pas de parloir, cest la rue Gros cest pas fait pour toi, cest la rue Que largent sale, cest la rue On ta mit des rottes-ca, cest la rue Yah yah yah Ouais ouais ouais Yah yah yah Yah yah yah yah</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Je partirai quoi qu'il en soit Ici l'espoir est à l'étroit Je serai peut-être seule et sans un sou Si mes frères sont sous écrous Je partirai Eh ééééh eh ééééh eh ééééh Je partirai Eh eeeeh eh ééééh eh ééééh Yeah ! Je l'ai vue trimer 24 sur 24, prier 7 jours sur 7 Galérer une main dans la vaisselle, l'autre sur la poussette Des rêves pleins de poussière, galérer puis s'occuper de ses petits frères Je l'ai vue taffer et verser tout son salaire Petite sur rêve de s'enfuir, j'ai vu pleurer petite sur Elle aimait un homme et les parents n'aimaient pas sa couleur Petite sur commence au Mc Do, elle finit chez Quick Elle a des rêves plein les valises, hélas aucun n'se réalise vraiment Petite sur a grandit trop vite, elle a mûrit parmi les loups Confond pas faiblesse et gentillesse elle en a prit des coups Petite sur fait le parloir, petite sur fait le ménage C'est dingue on l'appelle petite sur alors qu'on a tous le même âge Merde le temps passe si vite elle est devenue une super femme Elle paye le loyer même pour acheter mes clopes elle me dépanne Petite sur a sa voiture, débrouillarde et autonome Elle fait les 35 heures mais les parents la voit trop comme une môme You might also like Cette petite femme me dit fais-le Part prend ton envol on verra bien où ça te mène éééh Avant que la nuit ne s'achève Ne laisse pas mourir toutes ces étoiles qui brillent dans tes yeux Pour ça que je partirai Eh ééééh eh ééééh eh ééééh Je partirai Eh ééééh eh ééééh eh ééééh Petite sur est partie chercher son bonheur ailleurs Elle a laissée la maison vide, aussi vide que nos curs Pas de nouvelles, les parents guettent le téléphone pendant des heures Petite sur, grande sur, long silence, grande peur Pars n'ai aucune crainte vis ta vie, vole de tes propres ailes Brille sois quelqu'un arrête de vivre toujours au pluriel Des étoiles pleins les yeux, des montagnes de souvenirs Pars sois quelqu'un mais surtout n'oublie pas de revenir Tu méritais autre chose, ici souvent la poisse nous guette La banlieue est un bocal, les traditions un casse-tête Ne t'perds pas sur ta route, quand tu seras seule n'oublie pas qu'on est là Papa est un peu fâché, avec le temps ça passera Tu es née pour briller, ici les flammes s'éteignent Les oiseaux tombent du nid car souvent la poisse nous brûle les ailes Avec ton sac et quelques sous comme une comète je t'ai vue partir Pars vis ta vie, mais surtout n'oublie pas de revenir Je partirai quoi qu'il en soit Ici l'espoir est à l'étroit Je serai peut-être seule et sans un sou Si mes frères sont sous écrous Je partirai Cette petite femme me dit fais-le Part prend ton envol on verra bien où ça te mène éééh Avant que la nuit ne s'achève Ne laisse pas mourir toutes ces étoiles qui brillent dans tes yeux Pour ça que je partirai Eh ééééh eh ééééh eh ééééh Je partirai Eh ééééh eh ééééh eh ééééh Petite sur est partie chercher son bonheur ailleurs Elle a laissée la maison vide, aussi vide que nos curs Pas de nouvelles, les parents guettent le téléphone pendant des heures Petite sur, grande sur, long silence, grande peur Part n'ai aucune crainte vis ta vie, vole de tes propres ailes Brille sois quelqu'un arrête de vivre toujours au pluriel Des étoiles pleins les yeux, des montagnes de souvenirs Part vis ta vie, mais surtout n'oublie pas de revenir n'oublie pas de revenir2</t>
+          <t>Je partirai quoi qu'il en soit Ici l'espoir est à l'étroit Je serai peut-être seule et sans un sou Si mes frères sont sous écrous Je partirai Eh ééééh eh ééééh eh ééééh Je partirai Eh eeeeh eh ééééh eh ééééh Yeah ! Je l'ai vue trimer 24 sur 24, prier 7 jours sur 7 Galérer une main dans la vaisselle, l'autre sur la poussette Des rêves pleins de poussière, galérer puis s'occuper de ses petits frères Je l'ai vue taffer et verser tout son salaire Petite sur rêve de s'enfuir, j'ai vu pleurer petite sur Elle aimait un homme et les parents n'aimaient pas sa couleur Petite sur commence au Mc Do, elle finit chez Quick Elle a des rêves plein les valises, hélas aucun n'se réalise vraiment Petite sur a grandit trop vite, elle a mûrit parmi les loups Confond pas faiblesse et gentillesse elle en a prit des coups Petite sur fait le parloir, petite sur fait le ménage C'est dingue on l'appelle petite sur alors qu'on a tous le même âge Merde le temps passe si vite elle est devenue une super femme Elle paye le loyer même pour acheter mes clopes elle me dépanne Petite sur a sa voiture, débrouillarde et autonome Elle fait les 35 heures mais les parents la voit trop comme une môme Cette petite femme me dit fais-le Part prend ton envol on verra bien où ça te mène éééh Avant que la nuit ne s'achève Ne laisse pas mourir toutes ces étoiles qui brillent dans tes yeux Pour ça que je partirai Eh ééééh eh ééééh eh ééééh Je partirai Eh ééééh eh ééééh eh ééééh Petite sur est partie chercher son bonheur ailleurs Elle a laissée la maison vide, aussi vide que nos curs Pas de nouvelles, les parents guettent le téléphone pendant des heures Petite sur, grande sur, long silence, grande peur Pars n'ai aucune crainte vis ta vie, vole de tes propres ailes Brille sois quelqu'un arrête de vivre toujours au pluriel Des étoiles pleins les yeux, des montagnes de souvenirs Pars sois quelqu'un mais surtout n'oublie pas de revenir Tu méritais autre chose, ici souvent la poisse nous guette La banlieue est un bocal, les traditions un casse-tête Ne t'perds pas sur ta route, quand tu seras seule n'oublie pas qu'on est là Papa est un peu fâché, avec le temps ça passera Tu es née pour briller, ici les flammes s'éteignent Les oiseaux tombent du nid car souvent la poisse nous brûle les ailes Avec ton sac et quelques sous comme une comète je t'ai vue partir Pars vis ta vie, mais surtout n'oublie pas de revenir Je partirai quoi qu'il en soit Ici l'espoir est à l'étroit Je serai peut-être seule et sans un sou Si mes frères sont sous écrous Je partirai Cette petite femme me dit fais-le Part prend ton envol on verra bien où ça te mène éééh Avant que la nuit ne s'achève Ne laisse pas mourir toutes ces étoiles qui brillent dans tes yeux Pour ça que je partirai Eh ééééh eh ééééh eh ééééh Je partirai Eh ééééh eh ééééh eh ééééh Petite sur est partie chercher son bonheur ailleurs Elle a laissée la maison vide, aussi vide que nos curs Pas de nouvelles, les parents guettent le téléphone pendant des heures Petite sur, grande sur, long silence, grande peur Part n'ai aucune crainte vis ta vie, vole de tes propres ailes Brille sois quelqu'un arrête de vivre toujours au pluriel Des étoiles pleins les yeux, des montagnes de souvenirs Part vis ta vie, mais surtout n'oublie pas de revenir n'oublie pas de revenir2</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Yeah ! Quoi d'neuf Fouiny babe ? Yebisa bango Fouiny Mbote, oza malamu ? Lingala remix Eh yo S-Pi one Bo fukama, bo boukana, bo pousana Ice Crimi', j'fouette avec le linzaka de Oussama Ils sont venus en brillant, vont repartir en criant J'casse des bouches en chillant, jamais fuyant T'as le swag d'un client Toza fêlé fêlé Banlieusard, chegué chegué Pisseront dans leur froc quand le 9-milli va gueuler gueuler Dans le geste ébélé bélé Mbeli dans la mêlée mêlée Mes lyrics sont sous scellées scellées Kin' remix, allez crever crever, hmm... Attends ! Ils jouent tous les dangerous mais leurs notes sont fausses Mbata juste pour voir si ils sont aussi kaïra que quand ils posent Oh ! Tu nous connais la sape est propre J'ai vu leurs daronnes motaka sur le zgeg à Werrason Kinshasa toza ba boss Kinshasa toza ba boss ! You might also like Tu peux me croiser dans un nganda, bouteille de Jack Les jaloux font de la peine ils veulent gester lokola nga Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Bango ba za na sé To zo tala likolo Tu te feras piétiner ta gueule de balance devant tes frelos Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Flow du boug surélevé Du Z à mutu pembé Chaque couplet que je fous paye comme si je fous des PV Avaler le foufou je l'ai fait Je parle de bouffe en effet C'est que je veux le bidon double de Rick Rozay s'est fait Je laisse, la défaite morte de mes ex-villas Nos nerfs suivra t'inquiète le tien un jour expirera Je m'habille de toutes les couleurs, hey! Je suis pas sapologue ni swag J'ai d'autre chose à foutre man et une carte bleu qui boite Le trou est petit mais c'est rien je pense Je suis le tout premier africain sur un terrain de golf Une passe pour les fils du diable qui voulaient me cross Je suis pas de là mon pote, je suis à Kinshasa boss Tu peux me croiser dans un nganda, bouteille de Jack Les jaloux font de la peine ils veulent gester lokola nga Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Bango ba za na sé To zo tala likolo Tu te feras piétiner ta gueule de balance devant tes frelos Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Checki et Check ça sa pe-ra comme à l'ancienne Belek les zaïroises ont des shlasses dans leurs sacs Lancel Yeah... Na yé na tali et puis na bomi J'arrose les bitches avec du Primus, pas du Champomy Masta Sur le mur du son j'ai mis un gros likofi J'ai la carrure de Jadakiss, le swag à Koffi Le rap est loin d'être mort, bango ndé ba kouffi Trop de crédit dans la street, bip moi j'te passe un coup de fil Luis Cavanda Mon petit sûr, Morflip mon lipasa Black brute zaïrois baisser mon froc je connais pas ça 243 sur le bras gauche, les mangwélés comme brassard J'en place une pour les hauts-de-seine et pour mes frères de Brazza Appelle-moi Mopao sur le beat bord ezanga kombo J'aime mettre des K.O sur ma vie c'est un jeu Nintendo C'est pas Étienne Kao qui m'invite c'est LuaLua Trésor Pour toi pas besoin de brolic je te fume avec un paintball Reii van ger, on est une race de vainqueur Je suis à Goma je sors mon arsenal ArsèneWenger Bah ouai ma gueule, le swag est nucléaire Gabbana, Versace, Yamamoto dans le frigidaire Na ko béta masasi Tous les jaloux j'assassine Moina mboka reste pas assis RDC éloko makasi bo bosana té On s'en bat les couilles du reste les Z c'est des racistes On retourne pas nos Givenchy vestes on vous baise avec la zik Tu peux me croiser dans un nganda, bouteille de Jack Les jaloux font de la peine ils veulent gester lokola nga Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Bango ba za na sé To zo tala likolo Tu te feras piétiner ta gueule de balance devant tes frelos Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! J'ai bu du Jack, j'ai pris de la weed, mais j'vais les précher quand même Ils vont tous demander pardon mais je vais les baiser quand même Un peu taré, du crack dans le sang, comme un bébé d'Harlem Grodash Des halls, Kinshasa Boss, t'en avais rêvé je l'ammène Allergique aux fils de flic j'ai carotte plus d'un bolosse Anakin flow killa bees, je détruis la tise au goulot J'ai entendu qu'ils voulaient me clasher pour leurs putains d'promos Libolo ya mères na bino putains d'homos On arrive c'est bisso bisso Ramène les filles, tes potos michto Aller-retour, poto poto C'est quoi les jizz ? Mister Shizzle Fuck la po-police-po J'suis un léopardo Autre chose à foutre que d'ken, allez les bleus Cocorico ! Cousin, cousin, celui là j'sais tu l'attendais On a traversé la tempête On peut te frapper faut pas tenter Tu vas mourir mogo, même si tu m'as plombé Si je crève, enterrez ma putain d'Jordan à Matonge, Shizzle Tu peux me croiser dans un nganda, bouteille de Jack Les jaloux font de la peine ils veulent gester lokola nga Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Bango ba za na sé To zo tala likolo Tu te feras piétiner ta gueule de balance devant tes frelos Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss !1</t>
+          <t>Yeah ! Quoi d'neuf Fouiny babe ? Yebisa bango Fouiny Mbote, oza malamu ? Lingala remix Eh yo S-Pi one Bo fukama, bo boukana, bo pousana Ice Crimi', j'fouette avec le linzaka de Oussama Ils sont venus en brillant, vont repartir en criant J'casse des bouches en chillant, jamais fuyant T'as le swag d'un client Toza fêlé fêlé Banlieusard, chegué chegué Pisseront dans leur froc quand le 9-milli va gueuler gueuler Dans le geste ébélé bélé Mbeli dans la mêlée mêlée Mes lyrics sont sous scellées scellées Kin' remix, allez crever crever, hmm... Attends ! Ils jouent tous les dangerous mais leurs notes sont fausses Mbata juste pour voir si ils sont aussi kaïra que quand ils posent Oh ! Tu nous connais la sape est propre J'ai vu leurs daronnes motaka sur le zgeg à Werrason Kinshasa toza ba boss Kinshasa toza ba boss ! Tu peux me croiser dans un nganda, bouteille de Jack Les jaloux font de la peine ils veulent gester lokola nga Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Bango ba za na sé To zo tala likolo Tu te feras piétiner ta gueule de balance devant tes frelos Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Flow du boug surélevé Du Z à mutu pembé Chaque couplet que je fous paye comme si je fous des PV Avaler le foufou je l'ai fait Je parle de bouffe en effet C'est que je veux le bidon double de Rick Rozay s'est fait Je laisse, la défaite morte de mes ex-villas Nos nerfs suivra t'inquiète le tien un jour expirera Je m'habille de toutes les couleurs, hey! Je suis pas sapologue ni swag J'ai d'autre chose à foutre man et une carte bleu qui boite Le trou est petit mais c'est rien je pense Je suis le tout premier africain sur un terrain de golf Une passe pour les fils du diable qui voulaient me cross Je suis pas de là mon pote, je suis à Kinshasa boss Tu peux me croiser dans un nganda, bouteille de Jack Les jaloux font de la peine ils veulent gester lokola nga Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Bango ba za na sé To zo tala likolo Tu te feras piétiner ta gueule de balance devant tes frelos Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Checki et Check ça sa pe-ra comme à l'ancienne Belek les zaïroises ont des shlasses dans leurs sacs Lancel Yeah... Na yé na tali et puis na bomi J'arrose les bitches avec du Primus, pas du Champomy Masta Sur le mur du son j'ai mis un gros likofi J'ai la carrure de Jadakiss, le swag à Koffi Le rap est loin d'être mort, bango ndé ba kouffi Trop de crédit dans la street, bip moi j'te passe un coup de fil Luis Cavanda Mon petit sûr, Morflip mon lipasa Black brute zaïrois baisser mon froc je connais pas ça 243 sur le bras gauche, les mangwélés comme brassard J'en place une pour les hauts-de-seine et pour mes frères de Brazza Appelle-moi Mopao sur le beat bord ezanga kombo J'aime mettre des K.O sur ma vie c'est un jeu Nintendo C'est pas Étienne Kao qui m'invite c'est LuaLua Trésor Pour toi pas besoin de brolic je te fume avec un paintball Reii van ger, on est une race de vainqueur Je suis à Goma je sors mon arsenal ArsèneWenger Bah ouai ma gueule, le swag est nucléaire Gabbana, Versace, Yamamoto dans le frigidaire Na ko béta masasi Tous les jaloux j'assassine Moina mboka reste pas assis RDC éloko makasi bo bosana té On s'en bat les couilles du reste les Z c'est des racistes On retourne pas nos Givenchy vestes on vous baise avec la zik Tu peux me croiser dans un nganda, bouteille de Jack Les jaloux font de la peine ils veulent gester lokola nga Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Bango ba za na sé To zo tala likolo Tu te feras piétiner ta gueule de balance devant tes frelos Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! J'ai bu du Jack, j'ai pris de la weed, mais j'vais les précher quand même Ils vont tous demander pardon mais je vais les baiser quand même Un peu taré, du crack dans le sang, comme un bébé d'Harlem Grodash Des halls, Kinshasa Boss, t'en avais rêvé je l'ammène Allergique aux fils de flic j'ai carotte plus d'un bolosse Anakin flow killa bees, je détruis la tise au goulot J'ai entendu qu'ils voulaient me clasher pour leurs putains d'promos Libolo ya mères na bino putains d'homos On arrive c'est bisso bisso Ramène les filles, tes potos michto Aller-retour, poto poto C'est quoi les jizz ? Mister Shizzle Fuck la po-police-po J'suis un léopardo Autre chose à foutre que d'ken, allez les bleus Cocorico ! Cousin, cousin, celui là j'sais tu l'attendais On a traversé la tempête On peut te frapper faut pas tenter Tu vas mourir mogo, même si tu m'as plombé Si je crève, enterrez ma putain d'Jordan à Matonge, Shizzle Tu peux me croiser dans un nganda, bouteille de Jack Les jaloux font de la peine ils veulent gester lokola nga Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss ! Bango ba za na sé To zo tala likolo Tu te feras piétiner ta gueule de balance devant tes frelos Kinshasa toza ba boss Kinshasa toza ba boss ! Kinshasa toza ba boss Kinshasa toza ba boss !1</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>J'te jure, y avait de la meuf a St-Quentin aujourd'hui. Wesh, faut bédave, wesh. Putain, on l'a raté de 2 minutes mon frère. Il arrive dans combien d'temps l'prochain? Environ dans 50 minutes. Ah putain. Ah fait tourner, fait tourner Akha. Les gars, j'ai écris un p'tit couplet hier, attends, j'vais vous l'faire, c'est pas fini, hein. Imaginez un p'tit piano. Un truc bien mélancolique, tu vois? Un truc chargé d'émotions. Le truc, ça donne Ce qui fait l'plus mal, c'est pas les attaques de ses ennemis, mais le silence de ses amis Triste époque, All Eyes On Me J'avance à reculons pour surveiller mes arrières Parfois, le quartier est une barrière Il m'ont dit c'est impossible mon fréro, alors je l'ai fait Trop de contrôles abusifs dans le 78, alors on les traite Maison darrêt, j'ai jamais refusé moindre tête à tête Ils ont la haine, j'suis devenu ce qu'ils ont rêvé dêtre Tinquiète, j'ai fait mes preuves, Bois d'Arcy, Osny Les toxicos, c'est comme Neymar, sont toujours à l'infirmerie J'ai connu des hauts, des bas, les bas m'ont ramené la haut Le paradis est sous ses pieds, mais ses pieds sont tout la haut Ils veulent tout ce que tu as, tant pis pour ce qu'ils n'ont pas Seront jamais contents pour toi, pourquoi toi, pourquoi pas moi? S'en bats les couilles que t'as trimé, ils veulent juste la réussite Ils veulent dormir dans des suites, ils suceraient pour un retweet Il s'disent Insh'Allah tu te casse les dents, que tu revienne parmi-nous T'était bon quand t'avais rien, le succès t'a rendu che-lou J'me rappelle mon premier kilo, ils ont commencé a menvier J'me rappelle ma première gov', ils ont commencé a la rayer Maman venait au parloir, personne pour l'accompagner J'vous l'dis, vaut mieux être seul des fois, que bien accompagné Des fois les gens sont faux et c'est dur de faire le tri J'préfère marcher avec une pute, au moins je connais son prix J'ai vu des choses incroyables dans les rues du 78 On t'poucave lentement, mais les keufs te pètent vite On m'a dit c'est Dieu qui donne, mais les jaloux qui reprennent Pose 20'000 sur la table et bizarrement ils reviennent You might also like J'vis comme si c'était mon dernier jour ici, gros J'dors que d'un il, aussi parano qu'un ssiste-gro Alors j'ai dealé pour survivre comme au VF Pour passer du RSA à l'ISF J'vis comme si c'était mon dernier jour ici gros J'dors que d'un il, aussi parano qu'un ssiste-gro Alors j'ai dealé pour survivre comme au VF Pour passer du RSA à l'ISF Voilà, ça donne ça, en gros, mais c'est pas fini, hein, j'ai écris ça vite fait et après... Nan, mais fréro, Laouni, eh ce couplet mon frère. Mais attends, eh, t'a déjà enregistré dans un vrai studio? Non jamais. Un truc professionnel, mon frère. Non, tu connais, nous, c'est la street. Jamais? Eh frère, écoute, la tête de ma mère, j'connais un mec, il a un studio, demain quatorze heure, j'te récupère, on va enregistrer ce putain d'couplet2</t>
+          <t>J'te jure, y avait de la meuf a St-Quentin aujourd'hui. Wesh, faut bédave, wesh. Putain, on l'a raté de 2 minutes mon frère. Il arrive dans combien d'temps l'prochain? Environ dans 50 minutes. Ah putain. Ah fait tourner, fait tourner Akha. Les gars, j'ai écris un p'tit couplet hier, attends, j'vais vous l'faire, c'est pas fini, hein. Imaginez un p'tit piano. Un truc bien mélancolique, tu vois? Un truc chargé d'émotions. Le truc, ça donne Ce qui fait l'plus mal, c'est pas les attaques de ses ennemis, mais le silence de ses amis Triste époque, All Eyes On Me J'avance à reculons pour surveiller mes arrières Parfois, le quartier est une barrière Il m'ont dit c'est impossible mon fréro, alors je l'ai fait Trop de contrôles abusifs dans le 78, alors on les traite Maison darrêt, j'ai jamais refusé moindre tête à tête Ils ont la haine, j'suis devenu ce qu'ils ont rêvé dêtre Tinquiète, j'ai fait mes preuves, Bois d'Arcy, Osny Les toxicos, c'est comme Neymar, sont toujours à l'infirmerie J'ai connu des hauts, des bas, les bas m'ont ramené la haut Le paradis est sous ses pieds, mais ses pieds sont tout la haut Ils veulent tout ce que tu as, tant pis pour ce qu'ils n'ont pas Seront jamais contents pour toi, pourquoi toi, pourquoi pas moi? S'en bats les couilles que t'as trimé, ils veulent juste la réussite Ils veulent dormir dans des suites, ils suceraient pour un retweet Il s'disent Insh'Allah tu te casse les dents, que tu revienne parmi-nous T'était bon quand t'avais rien, le succès t'a rendu che-lou J'me rappelle mon premier kilo, ils ont commencé a menvier J'me rappelle ma première gov', ils ont commencé a la rayer Maman venait au parloir, personne pour l'accompagner J'vous l'dis, vaut mieux être seul des fois, que bien accompagné Des fois les gens sont faux et c'est dur de faire le tri J'préfère marcher avec une pute, au moins je connais son prix J'ai vu des choses incroyables dans les rues du 78 On t'poucave lentement, mais les keufs te pètent vite On m'a dit c'est Dieu qui donne, mais les jaloux qui reprennent Pose 20'000 sur la table et bizarrement ils reviennent J'vis comme si c'était mon dernier jour ici, gros J'dors que d'un il, aussi parano qu'un ssiste-gro Alors j'ai dealé pour survivre comme au VF Pour passer du RSA à l'ISF J'vis comme si c'était mon dernier jour ici gros J'dors que d'un il, aussi parano qu'un ssiste-gro Alors j'ai dealé pour survivre comme au VF Pour passer du RSA à l'ISF Voilà, ça donne ça, en gros, mais c'est pas fini, hein, j'ai écris ça vite fait et après... Nan, mais fréro, Laouni, eh ce couplet mon frère. Mais attends, eh, t'a déjà enregistré dans un vrai studio? Non jamais. Un truc professionnel, mon frère. Non, tu connais, nous, c'est la street. Jamais? Eh frère, écoute, la tête de ma mère, j'connais un mec, il a un studio, demain quatorze heure, j'te récupère, on va enregistrer ce putain d'couplet2</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Deuxième album on envoie la purée, bande denculés, album censuré, flow de taré Tous ces ptits dans lrap vont mappeler msieur lcuré Appellation contrôlée dorigine immigration Si tu veux mcuisiner faut enlever les lardons, si taimes les pennes taimes la pénétration 7.8, ppes-Tra, à lopposé jusquà Sartrouville Arrêtes, bref on est doués, jai pas sauté dclasse mais la prof jlai fourrée Toujours chargé, contrôle, police, pas diplomatique, moi je joue pas à la fenêtre Henijai, Kantiz Records remballe tes prods tu nes pas dnotre ressort Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient You might also like Casablan-cartel, technique de dard-blé on va tenterrer Laisse-les danser, cest bientôt fini, jplombe lambiance dans ma tête cest la Syrie On est doués, impossible de nous douiller Tu nous compares à des ricains, approche jvais tfaire sucer lAfricain Les rappeurs sont trop obsolètes, jai trop la dalle je ne laisse que des squelettes Demande à ton car gadget AKH, ta vie est moins chère que mon putain dKalash FAMAS, FAMAS, jte nique ta race, prépare ta chatte voilà les chiens dla casse À La La Youv toujours pour la route laissez passer Tiger Woods Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Les keufs nous cherchent tu nous connais, ya pas quen hiver quon traîne avec des gros bonnets Ouais avec le temps jcrois quon a trouvé la monnaie, Fouiny Fouiny Babe, Canardo, tu nous connais Banlieue Sale, on fait du lourd ils sdemandent doù on sort Jécrivais du sale, en bas dma tour sans penser aux disques dor Versace Versace Versace Versace des sacs à larrachée On fait du biff et ces négros sont fâchés, jcrois quen cellule ces bolosses prennent des cachets Versace Versace Versace Versace, majeur en lair index sur la gâchette Nouveau Hakim et les rageux vont rager, cest du lourd et jpèse mes mots Sachet Jfais plus de biff que le ssiste-gro de ton ssiste-gro et ouais donc nique ta mère gros Fouiny Babe flow nitro gué-dro sahbi ya qules WC qui me détrônent Quand les vrais parlent, les rageux suivent, récidivent Ouvre ta bouche on va tniquer ta mère, on te piétine à terre, Henijai on lessive, skurt Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient</t>
+          <t>Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Deuxième album on envoie la purée, bande denculés, album censuré, flow de taré Tous ces ptits dans lrap vont mappeler msieur lcuré Appellation contrôlée dorigine immigration Si tu veux mcuisiner faut enlever les lardons, si taimes les pennes taimes la pénétration 7.8, ppes-Tra, à lopposé jusquà Sartrouville Arrêtes, bref on est doués, jai pas sauté dclasse mais la prof jlai fourrée Toujours chargé, contrôle, police, pas diplomatique, moi je joue pas à la fenêtre Henijai, Kantiz Records remballe tes prods tu nes pas dnotre ressort Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Casablan-cartel, technique de dard-blé on va tenterrer Laisse-les danser, cest bientôt fini, jplombe lambiance dans ma tête cest la Syrie On est doués, impossible de nous douiller Tu nous compares à des ricains, approche jvais tfaire sucer lAfricain Les rappeurs sont trop obsolètes, jai trop la dalle je ne laisse que des squelettes Demande à ton car gadget AKH, ta vie est moins chère que mon putain dKalash FAMAS, FAMAS, jte nique ta race, prépare ta chatte voilà les chiens dla casse À La La Youv toujours pour la route laissez passer Tiger Woods Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Les keufs nous cherchent tu nous connais, ya pas quen hiver quon traîne avec des gros bonnets Ouais avec le temps jcrois quon a trouvé la monnaie, Fouiny Fouiny Babe, Canardo, tu nous connais Banlieue Sale, on fait du lourd ils sdemandent doù on sort Jécrivais du sale, en bas dma tour sans penser aux disques dor Versace Versace Versace Versace des sacs à larrachée On fait du biff et ces négros sont fâchés, jcrois quen cellule ces bolosses prennent des cachets Versace Versace Versace Versace, majeur en lair index sur la gâchette Nouveau Hakim et les rageux vont rager, cest du lourd et jpèse mes mots Sachet Jfais plus de biff que le ssiste-gro de ton ssiste-gro et ouais donc nique ta mère gros Fouiny Babe flow nitro gué-dro sahbi ya qules WC qui me détrônent Quand les vrais parlent, les rageux suivent, récidivent Ouvre ta bouche on va tniquer ta mère, on te piétine à terre, Henijai on lessive, skurt Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient Ya dla Belvé on est nien Ya du Ruinart pour les tchoins Jai les yeux rouges Louboutin Elle a plus rien qui mretient</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Yeahhh quoi d'neuf Louis Baby C'est bon le ramadan est fini là, j'crois que j'peux poser le son ma gueule Hollywood, Chewing-gum, Hollywood Hollywood, Chewing-gum, Hollywood Hollywood, Chewing-gum, Hollywood Hollywood, Chewing-gum, Hollywood J'déboule dans la banlieue sale, make love dans le barbecue Salope si j'te lèche la chatte, t'auras ma barbe dans ton cul Hall F et Rise-E, on t'enjaille, on t'enjaille Mon gun braqué sur ta face, cavale cavale L'after s'finit dans ma chambre, viens on baise, viens on baise T'es sérieuse tu veux te poser ? Tiens une chaise,tiens une chaise Tes éditions valent pas un verre de Fanta Ton album aurait du s'appeler mmmh, Koh-Lanta Pas d'bord qui baise pas, pas d'bord qui suce pas Sur scène je meurs de soif, pas d'bord qui mouille pas Tu rappes tout mes xeté, moi j'les avais même pas lu J'mâche des mc's français, j'ai choppé le palu J'débarque avec mes gorilles tu crois qu'on gole-ri Dans le rap j'fais c'que j'veux, j'suis la voix dans Secret Story Yeah, on est hors catégorie Viens pas signer chez Banlieue Sale si t'as le swag à Lorie You might also like Hollywood, Chewing-gum J'mâche des MC, Hollywood Chewing-gum J'mâche des MC, Hollywood Chewing-gum J'mâche des MC, Hollywood Chewing-gum Retourne gratter des clopes, arrête le Hip-hop Tu suces des mc's, Push Pop Un minimum de swagg requis, pas besoin d'croquis Si t'as signé Fouiny Baby, t'as gagné à la loterie Yeah, bsahtek la carte orange, bsahtek la carte vitale Chienne tu veux ma carte grise, ou ma carte bleue banlieue sale Ho-hollywood Et à peine terminé le couplet J'sors de la cabine, donne-moi une date et un verre de lait ! Hollywood, Chewing-gum J'mâche des MC, Hollywood Chewing-gum J'mâche des MC, Hollywood Chewing-gum J'mâche des MC, Hollywood Chewing-gum Hollywood Hollywood Hollywood Hollywood</t>
+          <t>Yeahhh quoi d'neuf Louis Baby C'est bon le ramadan est fini là, j'crois que j'peux poser le son ma gueule Hollywood, Chewing-gum, Hollywood Hollywood, Chewing-gum, Hollywood Hollywood, Chewing-gum, Hollywood Hollywood, Chewing-gum, Hollywood J'déboule dans la banlieue sale, make love dans le barbecue Salope si j'te lèche la chatte, t'auras ma barbe dans ton cul Hall F et Rise-E, on t'enjaille, on t'enjaille Mon gun braqué sur ta face, cavale cavale L'after s'finit dans ma chambre, viens on baise, viens on baise T'es sérieuse tu veux te poser ? Tiens une chaise,tiens une chaise Tes éditions valent pas un verre de Fanta Ton album aurait du s'appeler mmmh, Koh-Lanta Pas d'bord qui baise pas, pas d'bord qui suce pas Sur scène je meurs de soif, pas d'bord qui mouille pas Tu rappes tout mes xeté, moi j'les avais même pas lu J'mâche des mc's français, j'ai choppé le palu J'débarque avec mes gorilles tu crois qu'on gole-ri Dans le rap j'fais c'que j'veux, j'suis la voix dans Secret Story Yeah, on est hors catégorie Viens pas signer chez Banlieue Sale si t'as le swag à Lorie Hollywood, Chewing-gum J'mâche des MC, Hollywood Chewing-gum J'mâche des MC, Hollywood Chewing-gum J'mâche des MC, Hollywood Chewing-gum Retourne gratter des clopes, arrête le Hip-hop Tu suces des mc's, Push Pop Un minimum de swagg requis, pas besoin d'croquis Si t'as signé Fouiny Baby, t'as gagné à la loterie Yeah, bsahtek la carte orange, bsahtek la carte vitale Chienne tu veux ma carte grise, ou ma carte bleue banlieue sale Ho-hollywood Et à peine terminé le couplet J'sors de la cabine, donne-moi une date et un verre de lait ! Hollywood, Chewing-gum J'mâche des MC, Hollywood Chewing-gum J'mâche des MC, Hollywood Chewing-gum J'mâche des MC, Hollywood Chewing-gum Hollywood Hollywood Hollywood Hollywood</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Parce que j'fais pas du rap français J'fais du rap en français Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuve pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter, tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venue t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT GT en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 pétée Ouvre tes oreilles jeune trans', on a fait le tour d'la France J'suis tellement pas poucave que j'refuse de faire mes balances Balance, J'connais pas les vacances Mais j'connaissais ton apart' quand tu partais en vacances Tacle à la gorge gorge, Nerveux comme un Porsche Porsche Facebook, MSN en cellule, Blackberry Torch Torch Nous clasher, comment ont t-ils osé ? Ils n'ont pas les thunes pour un mic, comment ont-ils posé ? You might also like Parce que j'fais pas du rap français J'fais du rap en français Nique sa mère le tennis, Banlieue Sale on t'racket Tu veux être le king, mais les rois, on leur coupaient la tête Ils veulent rouler sur l'or, ils en oublient les péages Ils ont péta mon flow, ils rappent dans une cabine d'essayage Tu veux nous tirer dessus ? À tes risques et périls Ma banlieue à ses risques, ta cité c'est le Parc Astérix Astérix, Dangereux comme Mickey Viens pas bicrave chez nous tu vas t'faire niquer Parce que j'fais pas du rap français J'fais du rap en français Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Parce que j'fais pas du rap français J'fais du rap en français</t>
+          <t>Parce que j'fais pas du rap français J'fais du rap en français Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuve pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter, tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venue t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT GT en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 pétée Ouvre tes oreilles jeune trans', on a fait le tour d'la France J'suis tellement pas poucave que j'refuse de faire mes balances Balance, J'connais pas les vacances Mais j'connaissais ton apart' quand tu partais en vacances Tacle à la gorge gorge, Nerveux comme un Porsche Porsche Facebook, MSN en cellule, Blackberry Torch Torch Nous clasher, comment ont t-ils osé ? Ils n'ont pas les thunes pour un mic, comment ont-ils posé ? Parce que j'fais pas du rap français J'fais du rap en français Nique sa mère le tennis, Banlieue Sale on t'racket Tu veux être le king, mais les rois, on leur coupaient la tête Ils veulent rouler sur l'or, ils en oublient les péages Ils ont péta mon flow, ils rappent dans une cabine d'essayage Tu veux nous tirer dessus ? À tes risques et périls Ma banlieue à ses risques, ta cité c'est le Parc Astérix Astérix, Dangereux comme Mickey Viens pas bicrave chez nous tu vas t'faire niquer Parce que j'fais pas du rap français J'fais du rap en français Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Parce que j'fais pas du rap français J'fais du rap en français</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Oh mon meilleur pote, ou mon meilleur ennemi Il me fait la bise, il m'sert dans ses bras, il m'appelle la famille J'ai vu l'envie, l'hypocrisie, la jalousie Dans ses yeux remplis d'résine khey mon meilleur ennemi Trop de kheys sont au placos, la félonie Mon meilleur ennemi lui veut voir crever dans la sère-mi Une dernière ière-pri Les amis d'hier deviennent les ennemis d'aujourd'hui, khey mon meilleur ennemi La rue me forge, la rue m'égorge La rue m'vide les poches, la rue m'les remplit Sous-sous l'porche y'a plus que des zombies Flow 11-43, trois quart cuir, ma génération est dans un étui Sur la route de l'enfer en Porsche ou en Lamborghini Y'a les impacts de balles Survet' Sergio Tacchini Dar el Beïda, j'viens de là où le mètre carré est plus cher qu'à Miami Je viens du 94, Hautes-Noues Peace, un quartier maudit Pour sortir de là où on est, forcés de conjurer le sort Faire saigner les étoiles C'est vrai qu'à leurs yeux on est, condamnés à faire partie du décor On remet ça Fouiny SL 500, seille-o hallal, de-spi ADSL Le rap pue, j'ai les charts sous mes aisselles Aisselles, le rap sous mes semelles J'graille avec ma pute, pendant que ces MC's font ma vaisselle Nigga, j'arrive du bloc, je nie à bloc J'sors mon Glock, j'shoote un coq Dans mes bras, je vous aime Sous mes draps, je vous ken Yeah, et puis je me torche avec leur CSA On crache sur Nicki et on remet-remet ça J'suis en mer j'ai trop d'flow, NicolasHulot La prod' est suisse comme ma Hublot Reubeu, j'bouffe les Mc's ils m'font de la peine Je peux plus pper-ra BouchePleine Mise à l'amende, voiture allemande Je saute des feu-keu, qui feront sauter des amendes J'arrive dans le game et les autres bougent Je connais les hivers d'prison, les printemps d'bourges You might also like Pour sortir de là où on est, forcés de conjurer le sort Faire saigner les étoiles C'est vrai qu'à leurs yeux on est, condamnés à faire partie du décor On remet ça Fouiny Rap Genius ne peut être que ton meilleur ami, pas ton meilleur ennemi !1</t>
+          <t>Oh mon meilleur pote, ou mon meilleur ennemi Il me fait la bise, il m'sert dans ses bras, il m'appelle la famille J'ai vu l'envie, l'hypocrisie, la jalousie Dans ses yeux remplis d'résine khey mon meilleur ennemi Trop de kheys sont au placos, la félonie Mon meilleur ennemi lui veut voir crever dans la sère-mi Une dernière ière-pri Les amis d'hier deviennent les ennemis d'aujourd'hui, khey mon meilleur ennemi La rue me forge, la rue m'égorge La rue m'vide les poches, la rue m'les remplit Sous-sous l'porche y'a plus que des zombies Flow 11-43, trois quart cuir, ma génération est dans un étui Sur la route de l'enfer en Porsche ou en Lamborghini Y'a les impacts de balles Survet' Sergio Tacchini Dar el Beïda, j'viens de là où le mètre carré est plus cher qu'à Miami Je viens du 94, Hautes-Noues Peace, un quartier maudit Pour sortir de là où on est, forcés de conjurer le sort Faire saigner les étoiles C'est vrai qu'à leurs yeux on est, condamnés à faire partie du décor On remet ça Fouiny SL 500, seille-o hallal, de-spi ADSL Le rap pue, j'ai les charts sous mes aisselles Aisselles, le rap sous mes semelles J'graille avec ma pute, pendant que ces MC's font ma vaisselle Nigga, j'arrive du bloc, je nie à bloc J'sors mon Glock, j'shoote un coq Dans mes bras, je vous aime Sous mes draps, je vous ken Yeah, et puis je me torche avec leur CSA On crache sur Nicki et on remet-remet ça J'suis en mer j'ai trop d'flow, NicolasHulot La prod' est suisse comme ma Hublot Reubeu, j'bouffe les Mc's ils m'font de la peine Je peux plus pper-ra BouchePleine Mise à l'amende, voiture allemande Je saute des feu-keu, qui feront sauter des amendes J'arrive dans le game et les autres bougent Je connais les hivers d'prison, les printemps d'bourges Pour sortir de là où on est, forcés de conjurer le sort Faire saigner les étoiles C'est vrai qu'à leurs yeux on est, condamnés à faire partie du décor On remet ça Fouiny Rap Genius ne peut être que ton meilleur ami, pas ton meilleur ennemi !1</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo J'suis devant les portes du paradis avec ma bitch, enterrez-moi avec un pied de biche J'allais en taule, j'faisais pas de leurs TIG, j'compte plus les piges, non Laisse-les en galère, pas d'salaire, ils chient, n'en ont pas l'air, on n'compte plus les ennemis, ennemis J'ai un flow illimité, des opportunités, chez moi, ça veut dire on va tout niquer Tout ça parce qu'on est Arabe ou Noir, riches et les racistes en perdent le Nord Corde à mon coup à cinquante mille euros, un suicide en platine, la potence est en or Diamants sur ma montre, j'les ai aveuglés, j'fais des euros, tu sais pas lépeler Petit, j'suis toujours en retard et je laisse ma Rolex en diamant leur dire quelle heure il est Sortez l'oseille, c'est le jour de la paye, leur zouglou kata m'a fait mal aux oreilles Haineux, j't'entends pas, j'montre le chemin au pilote, j'roule un pilon juste à l'avant d'l'appareil J'achète mes gov', zéro kilométrage, j'fuck internet et ces p'tits commérages On m'a tiré dessus, ma vie, j'la voyais courte, j'remercie le Seigneur pour ce beau long-métrage Tout baiser, c'était l'plan A, le braquo - le plan B Au quartier, comme une graine de weed, je me suis fait planter Quand j'me fais sucer, j'ai l'sourire à N'Golo Kanté Hahaha J'suis avec ma meuf et la tienne, on boit à ta santé You might also like Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo J'roule un pilon dans le Phantom, mes diamants sont de place Vendôme Paye en cash, khoya, j'fais pas d'chrome, si j'ai pas la coupe, j'roule un cône Les petits passent toutes leurs journées en roue, grosse dédicace à mon frérot Cerou Ils ont envoyé quelqu'un m'tirer dessus, j'crois bien que c'était Olivier Giroud Toujours au top, en équipe comme les Bloods et les Crips, t'es sur l'bouton repeat, vendu kilos de shit On fait dans l'illicite avant la réussite, ils nous prennent en photo, comme des paparazzis Vendu pillons et la cess, on vient de loin, tu le ais-s Porche 911, Turbo S, Balenciaga Triple S On prend pas la coke, non, nous c'est le shit, on aime les gros boules et la bonne cellulite Grosse table, grosses bouteilles et grosse équipe, tu veux m'fumer, khoya, j'suis dans l'coin VIP Come on J'rappe pas pour les minettes, j'ramasse pas les miettes J'suis énervé comme un Raptor qui roule à fond sur les plages de Hamammet Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo</t>
+          <t>Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo J'suis devant les portes du paradis avec ma bitch, enterrez-moi avec un pied de biche J'allais en taule, j'faisais pas de leurs TIG, j'compte plus les piges, non Laisse-les en galère, pas d'salaire, ils chient, n'en ont pas l'air, on n'compte plus les ennemis, ennemis J'ai un flow illimité, des opportunités, chez moi, ça veut dire on va tout niquer Tout ça parce qu'on est Arabe ou Noir, riches et les racistes en perdent le Nord Corde à mon coup à cinquante mille euros, un suicide en platine, la potence est en or Diamants sur ma montre, j'les ai aveuglés, j'fais des euros, tu sais pas lépeler Petit, j'suis toujours en retard et je laisse ma Rolex en diamant leur dire quelle heure il est Sortez l'oseille, c'est le jour de la paye, leur zouglou kata m'a fait mal aux oreilles Haineux, j't'entends pas, j'montre le chemin au pilote, j'roule un pilon juste à l'avant d'l'appareil J'achète mes gov', zéro kilométrage, j'fuck internet et ces p'tits commérages On m'a tiré dessus, ma vie, j'la voyais courte, j'remercie le Seigneur pour ce beau long-métrage Tout baiser, c'était l'plan A, le braquo - le plan B Au quartier, comme une graine de weed, je me suis fait planter Quand j'me fais sucer, j'ai l'sourire à N'Golo Kanté Hahaha J'suis avec ma meuf et la tienne, on boit à ta santé Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo J'roule un pilon dans le Phantom, mes diamants sont de place Vendôme Paye en cash, khoya, j'fais pas d'chrome, si j'ai pas la coupe, j'roule un cône Les petits passent toutes leurs journées en roue, grosse dédicace à mon frérot Cerou Ils ont envoyé quelqu'un m'tirer dessus, j'crois bien que c'était Olivier Giroud Toujours au top, en équipe comme les Bloods et les Crips, t'es sur l'bouton repeat, vendu kilos de shit On fait dans l'illicite avant la réussite, ils nous prennent en photo, comme des paparazzis Vendu pillons et la cess, on vient de loin, tu le ais-s Porche 911, Turbo S, Balenciaga Triple S On prend pas la coke, non, nous c'est le shit, on aime les gros boules et la bonne cellulite Grosse table, grosses bouteilles et grosse équipe, tu veux m'fumer, khoya, j'suis dans l'coin VIP Come on J'rappe pas pour les minettes, j'ramasse pas les miettes J'suis énervé comme un Raptor qui roule à fond sur les plages de Hamammet Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo Pilon, money, bitches, pilon, pilon, money, bitches Pilon, money, bitches, pilon, pilon, money, bitches Aventador dans le bendo, Aventador dans le bendo Aventador dans le bendo, enterrez-moi dans le Kenzo</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>J'pose sur des samples, sur de sombres mélodies P'tit, c'est les grands baisse la tête, on t'a dit AK-47 font de belles mélodies Les tits-pe sont au shtar avec un tel haut débit J'me suis mis au rap, c'était pour ouej au début On me prenait pas en tof, à part peut-être chez les stups J'ai commencé en bas mais j'les sonne Uppercut Personne voulait d'nous, à part Jackie, à part Cut J'te raconte des choses que t'as p't-être jamais vues skrr T'écoutes des rappeurs que t'as p't-être jamais cru Quand la misère sonne, l'amitié sort par la fenêtre N'écoute pas les gens, c'que tu veux, tu peux l'être Le savoir est une arme et je braque la SACEM Gouvernement raciste, Arabes morts dans la Seine Au fond, j'vois qu'tu l'aimes, tu veux fonder une famille Mon frère, tu veux du hlel, t'as qu'à trouver une boucherie J'pose sur des samples, sur de sombres mélodies P'tit, c'est les grands baisse la tête, on t'a dit AK-47 font de belles mélodies Les tits-pe sont au shtar avec un tel haut débit J'me suis mis au rap, c'était pour ouej au début On me prenait pas en tof, à part peut-être chez les stups J'ai commencé en bas mais j'les sonne Uppercut Personne voulait d'nous, à part Jackie, à part Cut You might also like On traînait en bas, on sortait les brah Côtoyer la réussite, j'm'y attendais pas Neuf autour d'un plat ça, tu connais pas Pour percer, t'as sucé tester hmm, non, fallait pas Des années, des années pour percer, pas pressé Ça marchera pas donc, rebeu, tu nous disais Les tards-pés sont chargés, gros, on va les viser Ils nous sucent la queue, avant ils nous méprisaient Ils nous méprisaient Kalachnikov en showcase, j'aime la mélodie Tu veux Fouiny mets le prix J'pose sur des samples, sur de sombres mélodies P'tit, c'est les grands baisse la tête, on t'a dit AK-47 font de belles mélodies Les tits-pe sont au shtar avec un tel haut débit J'me suis mis au rap, c'était pour ouej au début On me prenait pas en tof, à part peut-être chez les stups J'ai commencé en bas mais j'les sonne Uppercut Personne voulait d'nous, à part Jackie, à part Cut On a tout bibi, grosses bouteilles dans le club Galère on connaît, huissiers prenaient les meubles J'vois tous ces rageux juste en bas, guettent ma chute Quand tu t'retrouves au shtar, tu vois les vrais et les putes On a fait les quatre cents coups, on a tout fait ensemble Mais, quand y'a embrouille, j'vois tes genoux qui tremblent Cinq fois par jour, je demande le pardon On va brûler en enfer à force d'aller au charbon N'oubliez jamais on a coursé des gens Les toxicos au shtar ont l'sourire à Deschamps J'écoute pas les keufs, khoya, j'écoute pas les tchoins Seul, tu vas vite en équipe, tu vas loin J'pose sur des samples, sur de sombres mélodies P'tit, c'est les grands baisse la tête, on t'a dit AK-47 font de belles mélodies Les tits-pe sont au shtar avec un tel haut débit J'me suis mis au rap, c'était pour ouej au début On me prenait pas en tof, à part peut-être chez les stups J'ai commencé en bas mais j'les sonne Uppercut Personne voulait d'nous, à part Jackie, à part Cut Hey yo, Luca Presti Fouiny Skurt skurt skurt skurt</t>
+          <t>J'pose sur des samples, sur de sombres mélodies P'tit, c'est les grands baisse la tête, on t'a dit AK-47 font de belles mélodies Les tits-pe sont au shtar avec un tel haut débit J'me suis mis au rap, c'était pour ouej au début On me prenait pas en tof, à part peut-être chez les stups J'ai commencé en bas mais j'les sonne Uppercut Personne voulait d'nous, à part Jackie, à part Cut J'te raconte des choses que t'as p't-être jamais vues skrr T'écoutes des rappeurs que t'as p't-être jamais cru Quand la misère sonne, l'amitié sort par la fenêtre N'écoute pas les gens, c'que tu veux, tu peux l'être Le savoir est une arme et je braque la SACEM Gouvernement raciste, Arabes morts dans la Seine Au fond, j'vois qu'tu l'aimes, tu veux fonder une famille Mon frère, tu veux du hlel, t'as qu'à trouver une boucherie J'pose sur des samples, sur de sombres mélodies P'tit, c'est les grands baisse la tête, on t'a dit AK-47 font de belles mélodies Les tits-pe sont au shtar avec un tel haut débit J'me suis mis au rap, c'était pour ouej au début On me prenait pas en tof, à part peut-être chez les stups J'ai commencé en bas mais j'les sonne Uppercut Personne voulait d'nous, à part Jackie, à part Cut On traînait en bas, on sortait les brah Côtoyer la réussite, j'm'y attendais pas Neuf autour d'un plat ça, tu connais pas Pour percer, t'as sucé tester hmm, non, fallait pas Des années, des années pour percer, pas pressé Ça marchera pas donc, rebeu, tu nous disais Les tards-pés sont chargés, gros, on va les viser Ils nous sucent la queue, avant ils nous méprisaient Ils nous méprisaient Kalachnikov en showcase, j'aime la mélodie Tu veux Fouiny mets le prix J'pose sur des samples, sur de sombres mélodies P'tit, c'est les grands baisse la tête, on t'a dit AK-47 font de belles mélodies Les tits-pe sont au shtar avec un tel haut débit J'me suis mis au rap, c'était pour ouej au début On me prenait pas en tof, à part peut-être chez les stups J'ai commencé en bas mais j'les sonne Uppercut Personne voulait d'nous, à part Jackie, à part Cut On a tout bibi, grosses bouteilles dans le club Galère on connaît, huissiers prenaient les meubles J'vois tous ces rageux juste en bas, guettent ma chute Quand tu t'retrouves au shtar, tu vois les vrais et les putes On a fait les quatre cents coups, on a tout fait ensemble Mais, quand y'a embrouille, j'vois tes genoux qui tremblent Cinq fois par jour, je demande le pardon On va brûler en enfer à force d'aller au charbon N'oubliez jamais on a coursé des gens Les toxicos au shtar ont l'sourire à Deschamps J'écoute pas les keufs, khoya, j'écoute pas les tchoins Seul, tu vas vite en équipe, tu vas loin J'pose sur des samples, sur de sombres mélodies P'tit, c'est les grands baisse la tête, on t'a dit AK-47 font de belles mélodies Les tits-pe sont au shtar avec un tel haut débit J'me suis mis au rap, c'était pour ouej au début On me prenait pas en tof, à part peut-être chez les stups J'ai commencé en bas mais j'les sonne Uppercut Personne voulait d'nous, à part Jackie, à part Cut Hey yo, Luca Presti Fouiny Skurt skurt skurt skurt</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Si cest pas moi qui tle dis, ce sera un autre Tas la maladie du siècle tes parano Avance sans trop réfléchir, délaisse les choses inutiles La vie est courte ici-bas Échange tes larmes en sourires, sinon soupirs en fous rires Pense à la mille-fa Pense à la mille-fa Cétait juste un conseil dami Simple conseil dami Sans étoiles, où est le charme de la nuit ? Jvoulais juste que taies pas dennuis Cétait juste un conseil dami Simple conseil dami Par les temps qui courent, où tout sachète À part un conseil sincère Ptit frère, jte vois partir en couille à courir derrière loseille Jai beau t'dire darrêter, la promenade reste le meilleur conseil Et tous les jours jvois tous ces faux qui gravitent autour de toi Dans cinq-six ans ferme, gros, personne se souviendra dtoi Jai vu le Sheitan à ton oreille gauche en train dchuchoter Ton problème, cest que même solo, tes mal accompagné Tu fuis les paroles des anciens réfugiés dans la bouteille Et tu bicraves en plein jour car la nuit porte conseil Quelques peines, très peu d'surcis et quelques amis d'enfance Comme la daronne j'ai mit la confiance sur la potance Dans les rue tu verras trop de faux comme au musée Grévin On se revoit aux arrivants si j'craque et que j'en crève un Frérot si tes dans la paille, essaye de faire du blé Si ten vends nen prends pas, nan, les laisse pas t'doubler Un conseil dami, un conseil d'ami Ils veulent voir ton échec, sors ton pull à damier You might also like Cétait juste un conseil dami Simple conseil dami Sans étoiles, où est le charme de la nuit ? Jvoulais juste que taies pas dennuis Cétait juste un conseil dami Simple conseil dami Par les temps qui courent, où tout sachète À part un conseil sincère Mon khey le prends pas mal, cest juste un conseil dami Je sais qu'ça peut blesser, toutes les vérités sont bonnes à dire Jétale ta vie au grand public, jespère qu'ça t'fera réagir Faut qu'tu saches quelle est dangereuse, jtai vu tomber dans son vice Elle a tourné dans toute la ville, maintenant elle parle de mariage Réfléchis pas avec ton slip, mon frère, fais preuve de courage Habituée aux tes-boî, elle a squatté toutes les chichas Elle connait tous les DJ Kayz, Hamida Mon vieux tu vaux mieux qu'ça, trouve-toi une femme de famille Une qui a peur de Dieu et quest pas tentée par la nuit Jveux juste te mettre en garde, frérot, arrête tes conneries Si vraiment tu cherches du hallal, fait un tour à la boucherie Cétait juste un conseil dami Simple conseil dami Sans étoiles, où est le charme de la nuit ? Jvoulais juste que taies pas dennuis Cétait juste un conseil dami Simple conseil dami Par les temps qui courent, où tout sachète À part un conseil sincère Nul ne peut senterrer tout seul Ta modestie sest faite avaler par lorgueil Par les temps qui courent où tout sachète Sauf un conseil sincère dune personne qui test chère Même un boss serait rien sans ses employés T'as la tête plus grosse que ton logo Versace Il est tard ce soir, viens quon parle Même amicale, relation froide comme le marbre Cétait juste un conseil dami Simple conseil dami Sans étoiles, où est le charme de la nuit ? Jvoulais juste que taies pas dennuis Cétait juste un conseil dami Simple conseil dami Par les temps qui courent, où tout sachète À part un conseil sincère Cétait juste un conseil dami</t>
+          <t>Si cest pas moi qui tle dis, ce sera un autre Tas la maladie du siècle tes parano Avance sans trop réfléchir, délaisse les choses inutiles La vie est courte ici-bas Échange tes larmes en sourires, sinon soupirs en fous rires Pense à la mille-fa Pense à la mille-fa Cétait juste un conseil dami Simple conseil dami Sans étoiles, où est le charme de la nuit ? Jvoulais juste que taies pas dennuis Cétait juste un conseil dami Simple conseil dami Par les temps qui courent, où tout sachète À part un conseil sincère Ptit frère, jte vois partir en couille à courir derrière loseille Jai beau t'dire darrêter, la promenade reste le meilleur conseil Et tous les jours jvois tous ces faux qui gravitent autour de toi Dans cinq-six ans ferme, gros, personne se souviendra dtoi Jai vu le Sheitan à ton oreille gauche en train dchuchoter Ton problème, cest que même solo, tes mal accompagné Tu fuis les paroles des anciens réfugiés dans la bouteille Et tu bicraves en plein jour car la nuit porte conseil Quelques peines, très peu d'surcis et quelques amis d'enfance Comme la daronne j'ai mit la confiance sur la potance Dans les rue tu verras trop de faux comme au musée Grévin On se revoit aux arrivants si j'craque et que j'en crève un Frérot si tes dans la paille, essaye de faire du blé Si ten vends nen prends pas, nan, les laisse pas t'doubler Un conseil dami, un conseil d'ami Ils veulent voir ton échec, sors ton pull à damier Cétait juste un conseil dami Simple conseil dami Sans étoiles, où est le charme de la nuit ? Jvoulais juste que taies pas dennuis Cétait juste un conseil dami Simple conseil dami Par les temps qui courent, où tout sachète À part un conseil sincère Mon khey le prends pas mal, cest juste un conseil dami Je sais qu'ça peut blesser, toutes les vérités sont bonnes à dire Jétale ta vie au grand public, jespère qu'ça t'fera réagir Faut qu'tu saches quelle est dangereuse, jtai vu tomber dans son vice Elle a tourné dans toute la ville, maintenant elle parle de mariage Réfléchis pas avec ton slip, mon frère, fais preuve de courage Habituée aux tes-boî, elle a squatté toutes les chichas Elle connait tous les DJ Kayz, Hamida Mon vieux tu vaux mieux qu'ça, trouve-toi une femme de famille Une qui a peur de Dieu et quest pas tentée par la nuit Jveux juste te mettre en garde, frérot, arrête tes conneries Si vraiment tu cherches du hallal, fait un tour à la boucherie Cétait juste un conseil dami Simple conseil dami Sans étoiles, où est le charme de la nuit ? Jvoulais juste que taies pas dennuis Cétait juste un conseil dami Simple conseil dami Par les temps qui courent, où tout sachète À part un conseil sincère Nul ne peut senterrer tout seul Ta modestie sest faite avaler par lorgueil Par les temps qui courent où tout sachète Sauf un conseil sincère dune personne qui test chère Même un boss serait rien sans ses employés T'as la tête plus grosse que ton logo Versace Il est tard ce soir, viens quon parle Même amicale, relation froide comme le marbre Cétait juste un conseil dami Simple conseil dami Sans étoiles, où est le charme de la nuit ? Jvoulais juste que taies pas dennuis Cétait juste un conseil dami Simple conseil dami Par les temps qui courent, où tout sachète À part un conseil sincère Cétait juste un conseil dami</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Audemars, Hublot, Rolly - j'ai ! Meilleure place au carré - j'ai ! Gamos, jantes en 22 - j'ai ! Studio, villa, appart - j'ai ! Équipe solide autour - j'ai ! Number d'gow dans mon bigo - j'ai ! Billets business premiere - j'ai ! Givenchy, Valentino - j'ai ! J'ai ! Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Khoya j'suis pas raciste ma Rolex est bicolore Kho j'reviens du futur j'ai fourré Sarah Connor J'ai pris mes llions-mi, j'me suis barré à l'étranger J'ai quitté ce pays où j'serai toujours qu'un étranger Un nouveau jour - une nouvelle paire, un nouveau jour - une nouvelle guerre Quartier, rien n'change à part la coupe des p'tits, la haine dans leurs yeux déter J'ai plus rien à prouver - millionaire, sur la tête de ma pute de mon concessionnaire de mon concessionnaire On est venu de loin mon frère, plus bas que terre breliqué non j'avais rien à perdre swi-swish Pas l'temps d'parler, tu seras pas selectionné gros si ton nom commence par Ben Rolls ou Maserati quel que ce soit le pe-cli khoya j'te dis j'ai la même T'es à fond sur elle, j'étais en train d'la ken pendant qu'elle t'écrivait Chéri je t'aime J'ai plus de gos que de diamants sur mes montres, sur ma chain, chain, chain Audemars, Hublot, Rolly - j'ai ! Meilleure place au carré - j'ai ! Gamos, jantes en 22 - j'ai ! Studio, villa, appart - j'ai ! Équipe solide autour - j'ai ! Number d'gow dans mon bigo - j'ai ! Billets business premiere - j'ai ! Givenchy, Valentino - j'ai ! J'ai ! Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli You might also like Ça sert à rien d'parler, pour me revenir armé Ça sert à rien de sortir le cross, gros si tu sais pas cabrer Heroïne, cocaine, si tu savais ces rappeurs sont bons qu'à taper Ils sont michtonnés par les chiennes, pour fourrer ils sont bons qu'à raquer, khoya ya L'succès qui frappe à la porte coté histoire entre moi et lui Demande à mon banquier, quinze années d'carrière, putain khoya j'suis refait comme Kylie Bitch à l'hotel juste you and me, putain j'vais danser sur Carimi Je l'ai ken dans ma Porsche, elle a tisé toute ma Hennessy, 78 y a d'la haine ici Audemars, Hublot, Rolly - j'ai ! Meilleure place au carré - j'ai ! Gamos, jantes en 22 - j'ai ! Studio, villa, appart - j'ai ! Équipe solide autour - j'ai ! Number d'gow dans mon bigo - j'ai ! Billets business premiere - j'ai ! Givenchy, Valentino - j'ai ! J'ai ! Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Madison Square Garden, demain j'me barre à Miami Mardi Abu-Dhabi, le lendemain dans le boule d'ta bitch Petit j'rêvais d'être riche, pas les thunes pour un Filet-O-Fish En cours on bicravait d'la frappe, j'aurai tout fait pour baiser l'institutrice À Trappes oui j'ai percé, j'suis parti de rien et j'me suis fait tout seul avec pas un rond Les prisons, les foyers, les gavs, si seulement j'écoutais les conseils du daron Bicraver la blanche et la marron, mais putain ce monde ne tourne pas rond Avenir incertain, j'aurai pu finir par terre une seringue au bras sur un carton Audemars, Hublot, Rolly - j'ai ! Meilleure place au carré - j'ai ! Gamos, jantes en 22 - j'ai ! Studio, villa, appart - j'ai ! Équipe solide autour - j'ai ! Number d'gow dans mon bigo - j'ai ! Billets business premiere - j'ai ! Givenchy, Valentino - j'ai ! J'ai ! Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Eh yo ma p'tite gueule j'crois que ça sent l'yencli. J'ai reçu un message j'crois que je vais y aller. C'est un p'tit truc à faire... Go, go ! Leggo !</t>
+          <t>Audemars, Hublot, Rolly - j'ai ! Meilleure place au carré - j'ai ! Gamos, jantes en 22 - j'ai ! Studio, villa, appart - j'ai ! Équipe solide autour - j'ai ! Number d'gow dans mon bigo - j'ai ! Billets business premiere - j'ai ! Givenchy, Valentino - j'ai ! J'ai ! Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Khoya j'suis pas raciste ma Rolex est bicolore Kho j'reviens du futur j'ai fourré Sarah Connor J'ai pris mes llions-mi, j'me suis barré à l'étranger J'ai quitté ce pays où j'serai toujours qu'un étranger Un nouveau jour - une nouvelle paire, un nouveau jour - une nouvelle guerre Quartier, rien n'change à part la coupe des p'tits, la haine dans leurs yeux déter J'ai plus rien à prouver - millionaire, sur la tête de ma pute de mon concessionnaire de mon concessionnaire On est venu de loin mon frère, plus bas que terre breliqué non j'avais rien à perdre swi-swish Pas l'temps d'parler, tu seras pas selectionné gros si ton nom commence par Ben Rolls ou Maserati quel que ce soit le pe-cli khoya j'te dis j'ai la même T'es à fond sur elle, j'étais en train d'la ken pendant qu'elle t'écrivait Chéri je t'aime J'ai plus de gos que de diamants sur mes montres, sur ma chain, chain, chain Audemars, Hublot, Rolly - j'ai ! Meilleure place au carré - j'ai ! Gamos, jantes en 22 - j'ai ! Studio, villa, appart - j'ai ! Équipe solide autour - j'ai ! Number d'gow dans mon bigo - j'ai ! Billets business premiere - j'ai ! Givenchy, Valentino - j'ai ! J'ai ! Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sert à rien d'parler, pour me revenir armé Ça sert à rien de sortir le cross, gros si tu sais pas cabrer Heroïne, cocaine, si tu savais ces rappeurs sont bons qu'à taper Ils sont michtonnés par les chiennes, pour fourrer ils sont bons qu'à raquer, khoya ya L'succès qui frappe à la porte coté histoire entre moi et lui Demande à mon banquier, quinze années d'carrière, putain khoya j'suis refait comme Kylie Bitch à l'hotel juste you and me, putain j'vais danser sur Carimi Je l'ai ken dans ma Porsche, elle a tisé toute ma Hennessy, 78 y a d'la haine ici Audemars, Hublot, Rolly - j'ai ! Meilleure place au carré - j'ai ! Gamos, jantes en 22 - j'ai ! Studio, villa, appart - j'ai ! Équipe solide autour - j'ai ! Number d'gow dans mon bigo - j'ai ! Billets business premiere - j'ai ! Givenchy, Valentino - j'ai ! J'ai ! Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Madison Square Garden, demain j'me barre à Miami Mardi Abu-Dhabi, le lendemain dans le boule d'ta bitch Petit j'rêvais d'être riche, pas les thunes pour un Filet-O-Fish En cours on bicravait d'la frappe, j'aurai tout fait pour baiser l'institutrice À Trappes oui j'ai percé, j'suis parti de rien et j'me suis fait tout seul avec pas un rond Les prisons, les foyers, les gavs, si seulement j'écoutais les conseils du daron Bicraver la blanche et la marron, mais putain ce monde ne tourne pas rond Avenir incertain, j'aurai pu finir par terre une seringue au bras sur un carton Audemars, Hublot, Rolly - j'ai ! Meilleure place au carré - j'ai ! Gamos, jantes en 22 - j'ai ! Studio, villa, appart - j'ai ! Équipe solide autour - j'ai ! Number d'gow dans mon bigo - j'ai ! Billets business premiere - j'ai ! Givenchy, Valentino - j'ai ! J'ai ! Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Ça sent l'Yencli, ça sent l'Yencli Eh yo ma p'tite gueule j'crois que ça sent l'yencli. J'ai reçu un message j'crois que je vais y aller. C'est un p'tit truc à faire... Go, go ! Leggo !</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>J'ai fait mon bout de chemin, pourquoi tu parles ? J'étais perdu au square, j'ai demandé ma route à Ray Charles C'est soit tu m'craches dessus soit t'avales Petit bord est tombé sur une teub et ça fait mal Va t'faire enculer fils de pute, espèce d'ingrât Fais pas le Domenech j'suis de Trappes comme Anelka Eenie meenie miney mo, Banlieue Sale, Fouiny flow Tout roule, on a les bouls et les govs, on est des animaux La tristesse est dans leurs yeux, les larmes sont dans leurs yeux Ils ne voient pas les miens, j'ai les Louis Vuitton à 500 Vu ce qu'on a dans le slip, on devrait avoir des ports d'armes Te demande plus pourquoi ta soeur a un pin sur son portable Ya v'là les vidéos, ya v'là les photos Ya v'là les potos, ya v'là les cotos Yeah, demande à Paul, Smith ou Lanvin On est des chiens de la casse, pour ça que toutes les chiennes en veulent un Y a que quand tu viens de loin que t'en bave À part pour cambrioler, j'ai jamais mis le pied dans un pav' On en a fait du chemin depuis la cave Ban-Banlieue Sale volcanique, j'écris mes textes à la lave Tu veux vivre avec Fouiny, ma belle essaie Je ne fais pas de feat et je ne fais pas la vaisselle Les MC's décèdent, ouais les MC's décèdent Tu crois que tu fais du peura, moi je dirai plutôt que tu essaies Jan-jantes noires, cuirs noirs, vitres noires, tu sais qui c'est J'ai des Beyoncé, moi aussi je suis all-black everything Dé-dé-défenseur, ramène pas ton bord, on va le tacler Et tourne ta langue sept fois dans ta bouche avant de rapper Si tu cherches de la bonne, viens dans le 7.8, il faut passer En boîte on paye des bouteilles et ces clochards paient les pots cassées Cité H.L.M., cité-cité H.L.M Ils voient que je suis trop loin, j'écris mes textes en U.L.M Fouiny-Fouiny Babe elle trop bonne, mais elle fait du cinéma Arrête ton manège si t'as le boul à Nicky Minaj J'pose mes couilles sur la table Cap sur la banlieue Ouest, si les vents sont favorablesYou might also like</t>
+          <t>J'ai fait mon bout de chemin, pourquoi tu parles ? J'étais perdu au square, j'ai demandé ma route à Ray Charles C'est soit tu m'craches dessus soit t'avales Petit bord est tombé sur une teub et ça fait mal Va t'faire enculer fils de pute, espèce d'ingrât Fais pas le Domenech j'suis de Trappes comme Anelka Eenie meenie miney mo, Banlieue Sale, Fouiny flow Tout roule, on a les bouls et les govs, on est des animaux La tristesse est dans leurs yeux, les larmes sont dans leurs yeux Ils ne voient pas les miens, j'ai les Louis Vuitton à 500 Vu ce qu'on a dans le slip, on devrait avoir des ports d'armes Te demande plus pourquoi ta soeur a un pin sur son portable Ya v'là les vidéos, ya v'là les photos Ya v'là les potos, ya v'là les cotos Yeah, demande à Paul, Smith ou Lanvin On est des chiens de la casse, pour ça que toutes les chiennes en veulent un Y a que quand tu viens de loin que t'en bave À part pour cambrioler, j'ai jamais mis le pied dans un pav' On en a fait du chemin depuis la cave Ban-Banlieue Sale volcanique, j'écris mes textes à la lave Tu veux vivre avec Fouiny, ma belle essaie Je ne fais pas de feat et je ne fais pas la vaisselle Les MC's décèdent, ouais les MC's décèdent Tu crois que tu fais du peura, moi je dirai plutôt que tu essaies Jan-jantes noires, cuirs noirs, vitres noires, tu sais qui c'est J'ai des Beyoncé, moi aussi je suis all-black everything Dé-dé-défenseur, ramène pas ton bord, on va le tacler Et tourne ta langue sept fois dans ta bouche avant de rapper Si tu cherches de la bonne, viens dans le 7.8, il faut passer En boîte on paye des bouteilles et ces clochards paient les pots cassées Cité H.L.M., cité-cité H.L.M Ils voient que je suis trop loin, j'écris mes textes en U.L.M Fouiny-Fouiny Babe elle trop bonne, mais elle fait du cinéma Arrête ton manège si t'as le boul à Nicky Minaj J'pose mes couilles sur la table Cap sur la banlieue Ouest, si les vents sont favorables</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Eh yo Fouiny YoungFrenchy 808 Yo French Yo Ça s'invente des vies pour être crédible, c'est ça les rappeurs D'vant la juge, ça fait des six-neufs, face au procureur J'ai du mal à m'lever le matin car j'suis un grand rêveur J'ai quitté la rue car elle avait des pierres dans le cur J'ai écrit Les Soleils de Minuit, khoya j'ai rayonné J'aperçois des traces de cocaïna quand j'te ris au nez Fouin' quelle est ta couleur préférée? J'ai dit violet Sur Instagram font les lions, dans la rue, ils ont miaulé miaulé, miaulé Les fenêtres de ma cellule sont cassées Les embrouilles c'est comme les joints, ça finit par se tasser Putain, j'en ai fait du chemin depuis le Square Jean Macé Les douleurs en moi ne veulent pas s'effacer, la vie est sombre mais Les poucaves ont les cheveux colorés Appart' sur la rue Saint-Honoré J'me répétais le million, je l'aurai Maintenant, j'pense plus qu'à le dépenser Les poucaves ont les cheveux colorés Appart' sur la rue Saint-Honoré J'me répétais le million, je l'aurai Yah, yah You might also like Calme-toi mon bébé, pour les embrouilles, j'ai pas l'time Mets tes fesses sur ma face, que l'on fasse un FaceTime Un gros joint, j'quitte la terre et j'm'envole sans fusée J'ai jamais cherché la bagarre mais j'l'ai jamais refusé J'ai des baraques partout, y a ma tête sur Netflix J'suis devenu SVF, sans villa fixe Et je voyage partout, à Vegas, à Phuket Quand j'suis trop fatigué, y a un lit dans le jet dans le jet Les poucaves ont les cheveux colorés Avalanche de neige, de poudreuse dans leurs nez Ça sent mauvais si ton meilleur shab est dans l'bureau d'l'inspecteur avec une clope, un café avec une clope, un café Les poucaves ont les cheveux colorés Appart' sur la rue Saint-Honoré J'me répétais le million, je l'aurai Maintenant, j'pense plus qu'à le dépenser Les poucaves ont les cheveux colorés Appart' sur la rue Saint-Honoré J'me répétais le million, je l'aurai Maintenant, j'pense plus qu'à le dépenser</t>
+          <t>Eh yo Fouiny YoungFrenchy 808 Yo French Yo Ça s'invente des vies pour être crédible, c'est ça les rappeurs D'vant la juge, ça fait des six-neufs, face au procureur J'ai du mal à m'lever le matin car j'suis un grand rêveur J'ai quitté la rue car elle avait des pierres dans le cur J'ai écrit Les Soleils de Minuit, khoya j'ai rayonné J'aperçois des traces de cocaïna quand j'te ris au nez Fouin' quelle est ta couleur préférée? J'ai dit violet Sur Instagram font les lions, dans la rue, ils ont miaulé miaulé, miaulé Les fenêtres de ma cellule sont cassées Les embrouilles c'est comme les joints, ça finit par se tasser Putain, j'en ai fait du chemin depuis le Square Jean Macé Les douleurs en moi ne veulent pas s'effacer, la vie est sombre mais Les poucaves ont les cheveux colorés Appart' sur la rue Saint-Honoré J'me répétais le million, je l'aurai Maintenant, j'pense plus qu'à le dépenser Les poucaves ont les cheveux colorés Appart' sur la rue Saint-Honoré J'me répétais le million, je l'aurai Yah, yah Calme-toi mon bébé, pour les embrouilles, j'ai pas l'time Mets tes fesses sur ma face, que l'on fasse un FaceTime Un gros joint, j'quitte la terre et j'm'envole sans fusée J'ai jamais cherché la bagarre mais j'l'ai jamais refusé J'ai des baraques partout, y a ma tête sur Netflix J'suis devenu SVF, sans villa fixe Et je voyage partout, à Vegas, à Phuket Quand j'suis trop fatigué, y a un lit dans le jet dans le jet Les poucaves ont les cheveux colorés Avalanche de neige, de poudreuse dans leurs nez Ça sent mauvais si ton meilleur shab est dans l'bureau d'l'inspecteur avec une clope, un café avec une clope, un café Les poucaves ont les cheveux colorés Appart' sur la rue Saint-Honoré J'me répétais le million, je l'aurai Maintenant, j'pense plus qu'à le dépenser Les poucaves ont les cheveux colorés Appart' sur la rue Saint-Honoré J'me répétais le million, je l'aurai Maintenant, j'pense plus qu'à le dépenser</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Yeah ! Quelques valises sur le palier et repartir à zéro Quelques flics et quelques huissiers et le moral à zéro J'ai vu ce frère partir trop tôt le nez plongé dans l'héro On se refait pas avec une plaquette de double zéro Les deux pieds dans la merde mais des rêves pleins la tête Des bâtons dans les roues , merhliche faut déployer ses ailes Et puisqu'il faut vivre , puisqu'il faut mourir Si j'avais pas bicrave , mon frigo qui allait le remplir ? Repartir à zéro comme joujou sortir de card-pla Rester assis devant ce juge à écouter ses bla-bla C'est avec mes larmes et ma sueur que mon château j'ai bâti Repartir à zéro, sans Rachida Dati Des coups de pompes sur ces porcs j't'ai dit On peut exploser ces porcs j't'ai dit Le moral à zéro, au plus bas est le moral Un joint, un Cartier, une feuille à rouler, une mission locale You might also like Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Combien d'allers-retours on compte à nos palmarès ? Oui combien de plaies on porte avec des compresses ? Chez moi quand on tombe , on se relève Même en chien , on évite la laisse, après un cauchemars , chez moi on rêve Nos pères ont portés beaucoup plus lourd que nous Y'avait qu'en faisant la Tahiya qu'ils étaient à genoux Avec des exemples comme ça Dans ce Roben-Island , comment ne pas être un Mandela ?! Tu sais c'qui ne tue pas te rend plus fort Pour conjurer le sort ici faut avoir l'appétit d'un ogre Donc je croquerai le monde même si tu m'pètes les dents Même si l'hiver persiste , j'imposerai le printemps En tout cas, j'ai pas l'choix .. Voilà pourquoi chaque jour j'fais du bouche à bouche à ma foi Qui le fera pour moi ? En tout cas pas tous ces profs qui n'ont jamais cru en moi Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Yeah, le moral à zéro Yeah, le moral à zéro Yeah, le moral à zéro À zéro, à zéro Yeah, on repart à zéro Yeah, on repart à zéro Yeah, on repart à zéro, yeah Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Yeah quoi qu'il arrive la tête haute la famille On repart a zéro, même si le moral est a zéro Yeah c'est ça la fierté qu'on nous a appris en Afrique Sourire aux lèvres même quand le ciel te tombe sur la tête...1</t>
+          <t>Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Yeah ! Quelques valises sur le palier et repartir à zéro Quelques flics et quelques huissiers et le moral à zéro J'ai vu ce frère partir trop tôt le nez plongé dans l'héro On se refait pas avec une plaquette de double zéro Les deux pieds dans la merde mais des rêves pleins la tête Des bâtons dans les roues , merhliche faut déployer ses ailes Et puisqu'il faut vivre , puisqu'il faut mourir Si j'avais pas bicrave , mon frigo qui allait le remplir ? Repartir à zéro comme joujou sortir de card-pla Rester assis devant ce juge à écouter ses bla-bla C'est avec mes larmes et ma sueur que mon château j'ai bâti Repartir à zéro, sans Rachida Dati Des coups de pompes sur ces porcs j't'ai dit On peut exploser ces porcs j't'ai dit Le moral à zéro, au plus bas est le moral Un joint, un Cartier, une feuille à rouler, une mission locale Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Combien d'allers-retours on compte à nos palmarès ? Oui combien de plaies on porte avec des compresses ? Chez moi quand on tombe , on se relève Même en chien , on évite la laisse, après un cauchemars , chez moi on rêve Nos pères ont portés beaucoup plus lourd que nous Y'avait qu'en faisant la Tahiya qu'ils étaient à genoux Avec des exemples comme ça Dans ce Roben-Island , comment ne pas être un Mandela ?! Tu sais c'qui ne tue pas te rend plus fort Pour conjurer le sort ici faut avoir l'appétit d'un ogre Donc je croquerai le monde même si tu m'pètes les dents Même si l'hiver persiste , j'imposerai le printemps En tout cas, j'ai pas l'choix .. Voilà pourquoi chaque jour j'fais du bouche à bouche à ma foi Qui le fera pour moi ? En tout cas pas tous ces profs qui n'ont jamais cru en moi Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Yeah, le moral à zéro Yeah, le moral à zéro Yeah, le moral à zéro À zéro, à zéro Yeah, on repart à zéro Yeah, on repart à zéro Yeah, on repart à zéro, yeah Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Même en touchant le fond ayant le moral à zéro Là d'où l'on vient on apprend à repartir à zéro On garde la tête haute, on apprend de nos fautes Le moral à zéro, on repart à zéro Yeah quoi qu'il arrive la tête haute la famille On repart a zéro, même si le moral est a zéro Yeah c'est ça la fierté qu'on nous a appris en Afrique Sourire aux lèvres même quand le ciel te tombe sur la tête...1</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Les autres l'ont dit, donc ils l'ont chanté Et moi, j'vais chanter c'qui n'a pas été dit Avalanche de larmes sur montagne de peine Désert de guerre, donc mirage de paix Le sage est propre à l'humain Le jeune ira plus vite, certes, mais l'plus vieux connaît l'chemin La route vers la paix s'trouve pas sur un panneau Je cherche une touche d'espoir qu'il n'y a pas sur vos pianos Plongé dans le passé, noyé dans les souvenirs On a l'sourire, en partant, on peine à revenir Train d'vie familial et j'ai pensé changer La vie nous fait du mal donc j'ai chanté, chanté Vous êtes là pour le bal, ouais, ont chanté, dansé On s'aime et on s'éloigne, ouais, y'a danger, danger J'ai mal quand j'essaie ou j'ai du mal à essayer La mort joue des accords que j'vais devoir signer Fouiny Mais qui n'a pas fait ce rêve, ce rêve de grandeur? Milliard a fixé le ciel à suspens entre les heures Mais quel est mon avenir? Je sais pas où je vais Mais quel est mon avenir? Je sais pas où je vais Mais quel est mon avenir? Je sais pas où je vais Quel est mon avenir? Je sais pas où je vais You might also like On n'parle plus d'avenir à un homme dans l'coma Pour faire peur, pas besoin d'fiction, y'a d'jà les cauchemars T'iras nulle part à vouloir être partout Les miroirs, eux, ne reflètent pas tout Dois-je me plaindre à la gloire quand l'succès me harcèle? Marteau d'la juge m'accuse à tord mais j'suis pas un Marvel La mort t'rappelle que rien n'vaut la vie Et le sourd veut répéter c'que l'aveugle a vu Les bancs d'l'école ont été délaissés Mes cicatrices sont la preuve que j'ai été blessé Rivières et collines, murs et barrages Ces valises sous les yeux m'rappellent qu'j'ai du voyage Mon innocence dans l'cur de ma fille Et la musique a p't-être comblé un vide J'me rachète une conduite sur ces quelques mots Entre trahison et peine, j'essaie d'faire un créneaux Mais qui n'a pas fait ce rêve, ce rêve de grandeur? Milliard a fixé le ciel à suspens entre les heures Mais quel est mon avenir? Je sais pas où je vais Mais quel est mon avenir? Je sais pas où je vais Mais quel est mon avenir? Je sais pas où je vais Quel est mon avenir? Je sais pas où je vais</t>
+          <t>Les autres l'ont dit, donc ils l'ont chanté Et moi, j'vais chanter c'qui n'a pas été dit Avalanche de larmes sur montagne de peine Désert de guerre, donc mirage de paix Le sage est propre à l'humain Le jeune ira plus vite, certes, mais l'plus vieux connaît l'chemin La route vers la paix s'trouve pas sur un panneau Je cherche une touche d'espoir qu'il n'y a pas sur vos pianos Plongé dans le passé, noyé dans les souvenirs On a l'sourire, en partant, on peine à revenir Train d'vie familial et j'ai pensé changer La vie nous fait du mal donc j'ai chanté, chanté Vous êtes là pour le bal, ouais, ont chanté, dansé On s'aime et on s'éloigne, ouais, y'a danger, danger J'ai mal quand j'essaie ou j'ai du mal à essayer La mort joue des accords que j'vais devoir signer Fouiny Mais qui n'a pas fait ce rêve, ce rêve de grandeur? Milliard a fixé le ciel à suspens entre les heures Mais quel est mon avenir? Je sais pas où je vais Mais quel est mon avenir? Je sais pas où je vais Mais quel est mon avenir? Je sais pas où je vais Quel est mon avenir? Je sais pas où je vais On n'parle plus d'avenir à un homme dans l'coma Pour faire peur, pas besoin d'fiction, y'a d'jà les cauchemars T'iras nulle part à vouloir être partout Les miroirs, eux, ne reflètent pas tout Dois-je me plaindre à la gloire quand l'succès me harcèle? Marteau d'la juge m'accuse à tord mais j'suis pas un Marvel La mort t'rappelle que rien n'vaut la vie Et le sourd veut répéter c'que l'aveugle a vu Les bancs d'l'école ont été délaissés Mes cicatrices sont la preuve que j'ai été blessé Rivières et collines, murs et barrages Ces valises sous les yeux m'rappellent qu'j'ai du voyage Mon innocence dans l'cur de ma fille Et la musique a p't-être comblé un vide J'me rachète une conduite sur ces quelques mots Entre trahison et peine, j'essaie d'faire un créneaux Mais qui n'a pas fait ce rêve, ce rêve de grandeur? Milliard a fixé le ciel à suspens entre les heures Mais quel est mon avenir? Je sais pas où je vais Mais quel est mon avenir? Je sais pas où je vais Mais quel est mon avenir? Je sais pas où je vais Quel est mon avenir? Je sais pas où je vais</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Yeah, ma putain banlieue sale a trop la côte, On braque, on deal, et des petits trouvent ça à la mode Pour les potes j'ai toujours 2, 3 tass dans mon bolide Pour les jaloux, toujours 2,3 balles dans mon brolic Le casque et bécane, negro ça peut se terminer là J'suis trop loin, j'suis sponsorisé par la NASA Toujours O.P, dans la rue les keufs, les tass me mattent Négro j'défonce , j'ai le flow coupé au bicarbonate Les jaloux parlent trop , voudront jamais se taire Ma3lich la chatte, de la chatte, à la chatte à leur grand mère Dangereuse est ma banlieue mais t'inquiète je gère Dans le 7.8, on coule à force de manger des pierres, Yeah, quand tu embrouilles, les baltringues se chient dessus A Trappes on a des guns, nique sa mère le jujitsu Et on vous fuck, on vous fuck J'm'en bats les couilles je prends mon bif, bientôt je me barre en Royal Air Maroc Ton meilleur pote t'as poucave, ça fait mal, ça fait mal Ils sont 6 , t'es dans la cave, ça fait mal, ça fait mal Quand les keufs te soulèvent, ça fait mal, ça fait mal Ils t'en reste un peu sur les lèvres, ça fait mal, ça fait mal Nouvel album dans les bacs, ça fait mal, ça fait mal Il est lourd , il met des claques, ça fait mal, ça fait mal T'es arrivant j'suis libéral, ça fait mal, ça fait mal Le champagne sur la table, ça fait mal, ça fait mal You might also like Ça fait mal a la tête, chant-mé, les zoulous prennent place Ma bite et mon gun sont astiqués par une putain d'tass' Du haut d'mon building, j'crache un molard sur le rap français Toujours pas tombé ça fait 1h que j'ai craché Yeah, On dit vaut mieux être seul que mal accompagné Moi perso j'préfère être au tel-hô avec un bon 95B J'suis dans son couloir, j'ai pris l'pouvoir sans l'vouloir Balance des putains d'lyrics d'album, te laisse des mixtapes comme pourboire Yeah, Les Mureaux d'Trappes on su remonter la pente J'pose des putain d'tueries, ces MC posent des mains courantes J'ai, j'ai, j'ai, j'ai tout c'qui faut pour t'faire planer Ton corps est a Trappes, ton cerveau dans l'Nord-pas-De-Calais Yeah Et monte les watts, monte les watts, putain C'est dingue ma bite est propre depuis que ta meuf sort en boîte On peut glisser au V.I.P demande à Jean Roch Nique la France, nique les States, bientôt j'me barre en royal air Maroc Ton meilleur pote t'as poucave, ça fait mal, ça fait mal Ils sont 6 , t'es dans la cave, ça fait mal, ça fait mal Quand les keufs te soulèvent, ça fait mal, ça fait mal Ils t'en reste un peu sur les lèvres, ça fait mal, ça fait mal Nouvel album dans les bacs, ça fait mal, ça fait mal Il est lourd , il met des claques, ça fait mal, ça fait mal T'es arrivant j'suis libéral, ça fait mal, ça fait mal Le champagne sur la table, ça fait mal, ça fait mal Dans une cage d'escalier on peut le faire On peut finir a l'hôtel, si y'a plus d'place, sa mère Il reste ma banquette arrière Il reste ma banquette arrière, il reste ma banlieue ouest Dans une cage d'escalier on peut le faire On peut finir a l'hôtel, si y'a plus d'place, sa mère Il reste ma banquette arrière Il reste ma banquette arrière, il reste ma banlieue ouest</t>
+          <t>Yeah, ma putain banlieue sale a trop la côte, On braque, on deal, et des petits trouvent ça à la mode Pour les potes j'ai toujours 2, 3 tass dans mon bolide Pour les jaloux, toujours 2,3 balles dans mon brolic Le casque et bécane, negro ça peut se terminer là J'suis trop loin, j'suis sponsorisé par la NASA Toujours O.P, dans la rue les keufs, les tass me mattent Négro j'défonce , j'ai le flow coupé au bicarbonate Les jaloux parlent trop , voudront jamais se taire Ma3lich la chatte, de la chatte, à la chatte à leur grand mère Dangereuse est ma banlieue mais t'inquiète je gère Dans le 7.8, on coule à force de manger des pierres, Yeah, quand tu embrouilles, les baltringues se chient dessus A Trappes on a des guns, nique sa mère le jujitsu Et on vous fuck, on vous fuck J'm'en bats les couilles je prends mon bif, bientôt je me barre en Royal Air Maroc Ton meilleur pote t'as poucave, ça fait mal, ça fait mal Ils sont 6 , t'es dans la cave, ça fait mal, ça fait mal Quand les keufs te soulèvent, ça fait mal, ça fait mal Ils t'en reste un peu sur les lèvres, ça fait mal, ça fait mal Nouvel album dans les bacs, ça fait mal, ça fait mal Il est lourd , il met des claques, ça fait mal, ça fait mal T'es arrivant j'suis libéral, ça fait mal, ça fait mal Le champagne sur la table, ça fait mal, ça fait mal Ça fait mal a la tête, chant-mé, les zoulous prennent place Ma bite et mon gun sont astiqués par une putain d'tass' Du haut d'mon building, j'crache un molard sur le rap français Toujours pas tombé ça fait 1h que j'ai craché Yeah, On dit vaut mieux être seul que mal accompagné Moi perso j'préfère être au tel-hô avec un bon 95B J'suis dans son couloir, j'ai pris l'pouvoir sans l'vouloir Balance des putains d'lyrics d'album, te laisse des mixtapes comme pourboire Yeah, Les Mureaux d'Trappes on su remonter la pente J'pose des putain d'tueries, ces MC posent des mains courantes J'ai, j'ai, j'ai, j'ai tout c'qui faut pour t'faire planer Ton corps est a Trappes, ton cerveau dans l'Nord-pas-De-Calais Yeah Et monte les watts, monte les watts, putain C'est dingue ma bite est propre depuis que ta meuf sort en boîte On peut glisser au V.I.P demande à Jean Roch Nique la France, nique les States, bientôt j'me barre en royal air Maroc Ton meilleur pote t'as poucave, ça fait mal, ça fait mal Ils sont 6 , t'es dans la cave, ça fait mal, ça fait mal Quand les keufs te soulèvent, ça fait mal, ça fait mal Ils t'en reste un peu sur les lèvres, ça fait mal, ça fait mal Nouvel album dans les bacs, ça fait mal, ça fait mal Il est lourd , il met des claques, ça fait mal, ça fait mal T'es arrivant j'suis libéral, ça fait mal, ça fait mal Le champagne sur la table, ça fait mal, ça fait mal Dans une cage d'escalier on peut le faire On peut finir a l'hôtel, si y'a plus d'place, sa mère Il reste ma banquette arrière Il reste ma banquette arrière, il reste ma banlieue ouest Dans une cage d'escalier on peut le faire On peut finir a l'hôtel, si y'a plus d'place, sa mère Il reste ma banquette arrière Il reste ma banquette arrière, il reste ma banlieue ouest</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Qui sont les best ? Banlieue Ouest, mate leur équipe s'écrouler Grosse différence, ils lèchent des chattes et nous des feuilles à rouler Ramène ta clique, on t'nique ta race avec ta team J'serai sur les lieux du crime, Sept-Huit c'est chaud car on a pas la clim' J'ai la hi', le crack, le shit, les pétasses si ça tintéresse Man j'suis rassasié qu'avec un bon bucket de CRS Fuck les gardes à vue, les mitards, nan maintenant j'veux peser Rentrer en boite, niquer le bénef avec mon équipe de bronzés J'suis pas le king du Sept-Huit, j'suis le Sept-Huit J'représente ces négros, ces rabzas qui sucent pas d'bites Tass', cesse ton speech, on sait qu't'es qu'une bitch Tu sautes sur les gars, sur les tables, sur les 'teilles, sur la tête de ma barbichette Les rappeurs s'font les ongles, ont-ils vraiment raison ? La tête baissée, les jambes écartées comme l'Arc de Triomphe Mon label me donne des avances, les 'tasses m'font des avances J'faisais le tour de la promenade, maintenant je fais le tour d'la France On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie You might also like J'ai trop d'tass' et pas assez de crédit Y'a ceux qui rappent, y'a ceux qui parlent, y'a ceux qui rer-ti C'est Banlieue Ouest, au bout d'ma bite s'agrippe une grosse chienne Mon bling bling 78 se balance au bout d'une grosse chaine On sait reconnaitre les vrais gars, souvent coriace comme Blanka C'est Banlieue Ouest j'exporte mon rap et mon shit de Casablanca J'fais mal à la France, mec sans lubrifiant méfiance J'baise lÉtat, les keufs, les pétasses et les juges pour enfants Yeah, parait que trop de pédales parlent mal On baise des blondes, on fume des blondes, laisse les bédaves d'la Pall Mall Ok, dans nos têtes c'est le Kosovo, on est armés comme des serbes Les fleuves se jettent dans la mer, les lascars dans la merde On est trop défoncés négro quand les keufs nous contrôlent J'ai mon gun dans ma main, j'fais danser ces fils de pute comme Sean Paul J'suis sur mes gardes j'esquive les balles et la taule À part baiser les chiennes, bicrave quel est mon rôle ? On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie Yeah, le rap est travesti comme McDoom Mon son est joué en boite, les tiens dans les vieilles boums J'ai jamais baissé mon froc à part pour faire rentrer du shit en son-pri Et puis leur rap de merde j'ai rien compris J'ai, j'aime trop mon rap game, j'ai j'aime trop les rumeurs J'ai, j'aime trop quand les tass' s'approchent avec des boules gros comme des Hummer J'aime trop la condi', j'ai j'aime trop la demander J'ai j'aime trop mater la surveillante putain elle m'fait trop bander Qu'est-ce tu connais de la rue ? Connais-tu de mon vécu ? J'viens de Trappes, ce soir y'aura du poulet criblé de balles au menu Quand j'prends le mic tu t'reconnais yé Si tu traines dehors, tu galères man, t'es bon qu'à dealer yé Putain personne ne bouge, Banlieue Ouest Zone Rouge On est dans la merde, voila pourquoi on bicrave tout ce qui bouge Ils auront jamais mon fric, mon style, mon brolic et mon flow Car mon rap sort du lot, mon avocat me sort de taule, négro On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie</t>
+          <t>Qui sont les best ? Banlieue Ouest, mate leur équipe s'écrouler Grosse différence, ils lèchent des chattes et nous des feuilles à rouler Ramène ta clique, on t'nique ta race avec ta team J'serai sur les lieux du crime, Sept-Huit c'est chaud car on a pas la clim' J'ai la hi', le crack, le shit, les pétasses si ça tintéresse Man j'suis rassasié qu'avec un bon bucket de CRS Fuck les gardes à vue, les mitards, nan maintenant j'veux peser Rentrer en boite, niquer le bénef avec mon équipe de bronzés J'suis pas le king du Sept-Huit, j'suis le Sept-Huit J'représente ces négros, ces rabzas qui sucent pas d'bites Tass', cesse ton speech, on sait qu't'es qu'une bitch Tu sautes sur les gars, sur les tables, sur les 'teilles, sur la tête de ma barbichette Les rappeurs s'font les ongles, ont-ils vraiment raison ? La tête baissée, les jambes écartées comme l'Arc de Triomphe Mon label me donne des avances, les 'tasses m'font des avances J'faisais le tour de la promenade, maintenant je fais le tour d'la France On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie J'ai trop d'tass' et pas assez de crédit Y'a ceux qui rappent, y'a ceux qui parlent, y'a ceux qui rer-ti C'est Banlieue Ouest, au bout d'ma bite s'agrippe une grosse chienne Mon bling bling 78 se balance au bout d'une grosse chaine On sait reconnaitre les vrais gars, souvent coriace comme Blanka C'est Banlieue Ouest j'exporte mon rap et mon shit de Casablanca J'fais mal à la France, mec sans lubrifiant méfiance J'baise lÉtat, les keufs, les pétasses et les juges pour enfants Yeah, parait que trop de pédales parlent mal On baise des blondes, on fume des blondes, laisse les bédaves d'la Pall Mall Ok, dans nos têtes c'est le Kosovo, on est armés comme des serbes Les fleuves se jettent dans la mer, les lascars dans la merde On est trop défoncés négro quand les keufs nous contrôlent J'ai mon gun dans ma main, j'fais danser ces fils de pute comme Sean Paul J'suis sur mes gardes j'esquive les balles et la taule À part baiser les chiennes, bicrave quel est mon rôle ? On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie Yeah, le rap est travesti comme McDoom Mon son est joué en boite, les tiens dans les vieilles boums J'ai jamais baissé mon froc à part pour faire rentrer du shit en son-pri Et puis leur rap de merde j'ai rien compris J'ai, j'aime trop mon rap game, j'ai j'aime trop les rumeurs J'ai, j'aime trop quand les tass' s'approchent avec des boules gros comme des Hummer J'aime trop la condi', j'ai j'aime trop la demander J'ai j'aime trop mater la surveillante putain elle m'fait trop bander Qu'est-ce tu connais de la rue ? Connais-tu de mon vécu ? J'viens de Trappes, ce soir y'aura du poulet criblé de balles au menu Quand j'prends le mic tu t'reconnais yé Si tu traines dehors, tu galères man, t'es bon qu'à dealer yé Putain personne ne bouge, Banlieue Ouest Zone Rouge On est dans la merde, voila pourquoi on bicrave tout ce qui bouge Ils auront jamais mon fric, mon style, mon brolic et mon flow Car mon rap sort du lot, mon avocat me sort de taule, négro On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie On a les guns, s'en bat les couilles, ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes, cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu, cherche la monnaie Voleur, receleur, bicraveur, bagareur, cherche la monnaie</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuves pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venue t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips, ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT GT en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 pétée Ouvre tes oreilles jeune trans', on a fait le tour d'la France J'suis tellement pas poucave que j'refuse de faire mes balances Balance, J'connais pas les vacances Mais j'connaissais ton apart' quand tu partais en vacances Tacle à la gorge gorge, Nerveux comme un Porsche Porsche Facebook, Msn en cellule, Blackberry Torch Torch Nous clasher, comment ont t-ils osé ? Ils n'ont pas les thunes pour un mic, comment ont-ils posé ? Nique sa mère le tennis, Banlieue Sale on t'racket Tu veux être le king, mais les rois, on leur coupaient la tête Ils veulent rouler sur l'or, ils en oublient les péages Ils péta mon flow, ils rappent dans une cabine d'essayage Tu veux nous tirer dessus ? À tes risques et périls Ma banlieue à ses risques, ta cité c'est le Parc Astérix Astérix, Dangereux comme Mickey Viens pas bicrave chez nous tu vas t'faire niquer On déjeune au Grec, nique sa mère les Fouquet's T'as une poussière dans lil, attends je sors le lance-roquettes Le Hip-Hop est mort, sur ma vie je le regrette Je parle dans ton dos hmmmm, j'aime trop la levrette Tu crois que je suis sérieux mais depuis le début frère, je déconne Le rap français est dead, il a ftour un Mac Bacon Lunettes Vuitton, j'ai jamais froid aux yeux Man j'ai toujours foi en Dieu, jamais confiance aux hommes en bleu Et j'ai mis du botox dans mon stylo bic Ouest Side, Banlieue Sale, ouais Nhar Sheitan click De la C ,de la hi, sur les prix on te chahel On importe, on exporte, j'ai le flow tah D.H.L Je fais des albums toute l'année, ouais 365 jours V'là mon quatrième, on attend toujours ton 45 tours Disque de platine, jaloux je vois pas pourquoi t'es triste Une banquette arrière avec ma chienne, je joue à Tetris Du 'sky dans les veines, on s'enjaille MC nettoie moi les coins de la bouche quand j'graille On déboule sur scène, on t'enjaille Un gun dans la bouche, on va te faire danser le raï On s'enjaille, on s'enjaille On s'enjaille rebeu, on s'enjaille Si t'es pas prêts d'assumer fais pas le con, vise les mollets Là d'où je viens, les vrais vont tout chercher, l'argent là où il est Dédié à tous ces fils de putes qui tiennent les clés au mitard La vie n'a pas de prix comme ma montre Audemars Les jaloux qui veulent clash finissent tous dans une marre Ton African Dream finis vite en cauchemar Et click click, ratatahh, pose ton gun J'ai le corps à Snoop et les couilles à Big Pun Ton rap pue la merde, va niquer ton keum J'mâche des MC's mache chewing-gum T'as des dent de laits, t'en laisseras quelques unes parterre Ta mère est trop jeune donc on a niquer ta grand-mère Mec arrête le rap, ton album c'est de la de-mer Monte sur ma mmmmm, t'auras le mal de mer T'es a deux doigts d'me faire chier et à un ongle de nous quitter J'ai un pied dans la merde et un orteil dans la mosquée On parle plusieurs langages ici, on aime celui des douilles Laisse-les porter plainte, frero on porte nos couilles You might also like Yeah, yeah Veni Vidi Vici je suis venu, j'ai fourré et j'ai vaincu J'aimerais tellement te dire que t'es pas ma chienne, mais ces mots sonnes faux oh! Yeah quoi de neuf Fouiny Babe ? J'ai des tasses j'ai du flow Je vais t'masser le dos puis je vais t'casser le dos Oh, ouais on roule sans permis Mercedes Benz Fouiny R'n'b J'ai tant besoin de toi t'es ma salope à moi Yeah 4x4 noir vitres fumées Si j'vend mes 4 jantes, j'ai assez pour te faire fumer fumer Avec des si tu refais le monde Avec des uzis on arrose tout le monde On sniffe pas de coke, on mange pas de porc Mon rap n'es pas halal, normal il est pas mort Yeah alors je suis rentré dans un boule J'ai pris le temps de partir a 'dam et d'rentrer avec un 12 Yeah yeah Veni Vidi Vici je suis tombé, je suis tombé, je suis ressorti Innocent, incarcéré, dossier classé sans suite Ne jamais remettre a demain ce qu'on peut pé-ta tout d'suite Yeah mon rap n'est pas un rasoir jetable Banlieue-Banlieue Sale envois ton bord s'il est potable Swagg sur la casquette, Louis sur le gilet Le rap c'est comme le McDo, t'as pas le choix je suis le filet Yeah, c'est Banlieue Sale sur la piste La voiture de mon DJ coûte plus chère que la promo de leur artiste Yeah, le rap français pète un câble Capitale du crime des voyous en feat avec des comptables J'suis trop content on a rayé ma caisse, mais sans rancune J'fais partie des rares MC's qui en ont une bingo ! T'as testé, tu repars déçu À Trappes quand le chat n'est pas les souris se tirent dessus ! Yeah, yeah Veni Vidi Vici je suis venu en Gucci, en Louis Tu devais sortir en juin finalement tu sors en automne T'as écouté mon disque et ta repoussé ton album Yeah on les oublieras tous comme Danny Glover Pour nous c'est Range Rover, pour eux c'est game over Yeah concert a guichet fermé fait pas le bête Man on bouchait la rue pendant qu'tu bouchais les toilettes Yeah fusil a pompe sur la prod' a Rise-E 2000-2011 trop d'MC's ont la chatte rasée, rasée Raser les murs c'est ce qui te reste à faire On va faire comme ton père on va te faire un petit frère Yeah ma blanche se vend comme Lady Gaga Si on me pète je finis a l'ombre comme You Gataga-taga T'as qu'à dire ici c'est le 7.8 Appelez les keufs mais faites vite Qui sont les best ? Banlieue Ouest, mate leur équipe s'écrouler Grosse différence, ils lèchent des chattes et nous des feuilles à rouler Ramène ta clique, on t'nique ta race avec ta team J'serai sur les lieux du crime, Sept-Huit c'est chaud car on a pas la clim' J'ai la hi', le crack, le shit, les pétasses si ça tintéresse Moi j'suis rassasié qu'avec un bon bucket de CRS Fuck les gardes à vue, les mitards, nan maintenant j'veux peser Rentrer en boite, niquer le benef avec mon équipe de bronzés J'suis pas le king du Sept-Huit, j'suis le Sept-Huit J'représente ces négros, ces rabzas qui sucent pas d'bites Tass', cesse ton speech, on sait qu't'es qu'une bitch Tu sautes sur les gars, sur les tables, sur les 'teilles, sur la tête de ma barbichette Les rappeurs s'font les ongles Ont-ils vraiment raison ? La tête baissée, les jambes écartées comme l'Arc de Triomphe Mon label me donne des avances Les 'tasses m'font des avances J'faisais le tour de la Promenade, maintenant je fais le tour d'la France x2 On a les guns, s'en bat les couilles Ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes Cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu Cherche la monnaie, voleur, receleur, bicraveur, bagareur Cherche la monnaie Jlèche des feuilles à rouler et la chatte a Rihanna Moi je sors de boite avec 2, 3 numbers de mariama On prend des peines de prison des balles et du poids fiston Prochain album sera dans les bacs de Louis Vuitton Écusson DG man ou Gucci sur mon bandana V.I.P Abdel Karima Obama En street swagg sur les champs avec un pur louis Jai vu ton gars en Royal Wear javais honte pour lui Krav Maga Krav Krav Maga Yeah Banlieue sale demande a ???? Maga Jt'ai vu payer des tasses pendant que je payais mes impôts Jai fait tomber mes billets tas fait tomber tes potos Yeah jsuis vulgaire, sucer je tai vu le faire Vulgaire rimes en or jsuis en édition chez Manchester yeah Et on vous fuck, on vous fuck Si largent chuchotais jaurais les oreilles à Spoke Yeah, jai pris une pub sur le cercueil à Michael Jackson Et si les keufs me cherchent mon nom est personne Jcherche une petite tass tah les Halle Berry Jai trop dbuzz on dirait que je viens de sortir de Secret Story Banlieue, banlieue sale CDC voila le nom de ma click Certains sont trop Hip Hop , garde leurs mics quand ils parlent aux flics Et pour gérer une tass jai jamais mis 40E Jai des Adriana Karembeu Yeah He yo ma pétasse roule en berline, elle me lèche la bite Pendant qula tienne lèche les vitrines Vla mon sterling dis Whats up aux sterling Grosse liasse dans les poches, dur de mettre un jean slim On cherche la monnaie à tout heure, rebeu on cherche les tunes Et si ta meuf est moche, mets-lui un coup dauto-tune Mauvais élève, mauvais élève Jlaissais les meufs dans les chiottes avec de lADN sur les lèvres J'arrive en balle et j'ai chargé mon gun Fréro on est 50 en bas on peut te niquer ta reum Car on a plus rien à perdre, plus rien à perdre, on a tout à gagner, on a tout à gagner J'arrive en balle et j'ai chargé mon Glock CL 63 AMG garée devant le block Car on a plus rien à perdre, plus rien à perdre, frère on a tout à gagner, on a tout à gagner Frère on a plus rien à perdre, on a tout à gagner J'posais mon premier seize, t'étais même pas né Tunisie Mali, j'ai les mains salies Les rappeurs Français dégagent, hmm BenAli Hmm, BenArfa, on essaye d'me tacler Je suis en tête des ventes, t'es en pleine descente J'ai même des fans qui sont fans de mes propres fans T'as toutes mes punchlines, dans ton S Line Dans ton Twingo, Clio Initiale Bâtiment F deuxième étage, les vrais finissent 'al A trop vouloir monter, un jour tu t'fais descendre Tout vient à point à qui apprend à vendre C'est Fouiny parle et agis pour de vrai Quand la justice prends son souffle tu sais bien où les vents te mènent Nigga, Arrête tes sales manies, t'as le flow Karl Kani Pani problem j'emmerde Florent Pagny J'peux pas faire la reusta, La Fouine vient du reu-squa J'ai fait ma vie, j'ai fait mes choix, frimer ne m'intéresse pas Je passais devant Foot Locker avec des baskets trouées Le manque de fric me fait pas peur, moi je suis fils d'ouvrier Le portefeuille vide comme le frigo, j'avais des amis toxicos Qui, pour une dose, auraient troqué leur tricot Les tours telles des montagnes égarées dans les vallées Au fin fond des caves, telles des grottes, j'ai vu des filles avaler, OK Dans l'escalier un grand se shoote, sur le terrain une balle de foot Une pierre tombale sur laquelle un nouveau nom s'ajoute Et toute sa vie ma mère s'est cassée l'dos au square Elle lavait le linge de ses sept enfants toute seule dans la baignoire C'était pour les riches le micro-ondes, les machines à laver Tout le bien qu'elle a fait Sur ses mains toutes les traces qu'elle avait, OK Je viens de loin dites-moi qui peut m'stopper Le juge t'enverra au D1 même si tu dis s'il te plaît, OK x2 Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Mais qui peut m'stoper? Mais qui peut m'stopper? Mais qui peut m'stopper? Yeah, les larmes coulent et la rue ressent ma peine J'ai volé ton album, il n'en valait pas la peine Le prof a fait l'appel, seul ton flow manque à l'appel L'argent t'a bigo fréro mais t'as dû manquer l'appel Yeah, j'ai du boulot pour toi nettoies mes jantes Je sais qu'ils me fréquente, me copie j'suis pas un sample J'ai du remonter la pente avec ou sans les ventes Devant les feu-keu fréro je reste droit comme 1230 Yeah, on parle pas de La Fouine à l'imparfait Dis moi un délit que je n'ai pas commis, une son-pri que je n'ai pas faite Yeah, une parisienne que je n'ai pas fourré, fourré Je ne laisse rien passer YayaTouré C'est la merde, les douaniers me saoulent pour mon passeport Y'a plus de place et toi tu tactes toujours à Gare du Nord T'es à l'ouest fréro, en plus t'as plus de bord Tu soulèves la cuvette des chiottes et nous les raptors Comme si dans le fond ils en valaient la peine Ils parlent les uns sur les autres et n'entendent même plus l'Adan Même plus l'Adan, même plus leur parents Ils critiquent Fouiny Baby mais ils m'écoutent 12 mois par an Yeah, j'ai fait ma route et rien à foutre de plaire La Fouine et le flow fréro les deux font la paire Frère, en temps de guerre tu finirais à terre Et si t'es pas content, auto-nique toi ta mère Mes avocats sont juifs, n'ayez aucune crainte J'mange mes grecs et j'laisse les grosses salopes porter plainte J'ai du rosé, on m'a dit que t'aimes J'vend de la cocaïne pour rouler en big Benz ! J'ai sortit le si-ful, j'suis rentré dans l'arène J'ai fait le tour du monde parait que t'as deux fans à Rennes C'est trop hardcore ce qui coule dans mes veines Ça saigne je crois que l'album va sortir en césarienne Depuis que j'ai commencer j'vois bien que toutes les oreilles n'en peuvent plus J'suis le rap français toi t'es le bouton avec un peu de put A force de cer-su tu pars en cette-su Je fondais mon label quand tu faisais la couv' de Têtu Yeah, tu fais les courses n'oublies pas les capotes Tu fais du biz' n'oublies pas les carottes T'as fait le parloir, ramène moi un 12 Tout le monde les mains en l'air, à part Jamel Debbouze Argent sale pourtant j'ai fait l'odo, j'ai quelques traces de sang de keuf fraîches sur mon polo On rappait dans la vec', personne croyait en nous Et on traînait en meute parce qu'on nous laissait en loup J'goûtais la ceinture de mon père étant-étant petit Si j'fais la même avec ma fille elle aura des traces Gucci La bague au doigt les fusils parés, chargés, prêt à cracher, voitures garées Guette l'angle mort comme les frères qu'ont parlé Maison d'arrêt, foyers d'mineurs j'étais jeune et fougueux J'mène la belle vie comme un footeux, haineux, j'm'en fous d'eux J'rentre pas dans le moule, j'donne pas mon boule Ils s'arrachent les veuchs, rebeu j'ai fait la boule Capitale du Crime frère viens pas t'y aventurer Même Judas fut bien entouré, t'auras beau jurer Sur la vie d'ta grosse pute de mère, lyrics amères car le respect s'perd Fouiny, baisse la tête qu'à la mosquée, démodé leur swagg a fait une O.D On est rodés, parle en langage codé, à chaque phrase autant d'insultes que de C.O.D Une étoile verte sur un fond rouge J'pars en couille ou j'pars en khourouj Depuis tout petit les keufs me recherchent Savent où me trouver, rien à prouver Cherches les lovés Osé, audacieux, cagoulé Bra-braquer des bourges Pourquoi tu me parles ? Pourquoi tu m'fixes Que le rap repose en paix, comme le string à FX Yeah j'traine au VIP, au Hustler Les haineux parlent la chatte à leur soeur Nique les illuminatis, nique les franc-maçons Trop d'avance MC note ma plaque d'immatriculation Nigga' AK-47 sur ta vieille face J'te blesse en attendant que Dieu le fasse On a fumé un keuf, c'est l'Aïd Tous ces rappeurs sont des gros mythos, je te jure sur ma ie-v Tu veux un tube ? Appelle-appelle l'ingé Confond pas ceux qui touchent du bois, ceux qui touchent tes points G Trop de haineux, trop-trop de haineux dans ma salle d'attente Tu veux un feat ? Parle à l'assistant d'mon assistante On tombe au shtar, tu tombes dans les pommes Tiens mon mail VaNiquerTaMère.com Porsche Panamera turbo, Carrera, Cayenne J'parle pas au keufs, seuls les micros, les chiennes connaissent mon haleine On m'aime, on m'déteste, bref j'suis celui qu'on cite Pute, suce-moi direct, je suis circoncis J'reste au-dessus du pe-ra comme un accent circonflexe 1995, j'ai le flow tah Busta Flex J'débarque du 7.8, compète et verdure Elevé à la dure, lou-loubia lahdess coups-coups de ceinture On a fumé un keuf, Mazel tov Vodka Ruskov mec ton flow est bof, BS s'attaque au coffre Gros gun braqué sur ta face, Teach me how to Dougie Nique sa mère appelle moi Rox, j'pose avec mes Rookies Ta daronne frise la folie on l'insulte on reste pas poli Fère, à force de regarder l'rap derrière Torticolis Grandi dans un taudis maudit, affronté que des gorilles golri Jeune homme lève toi bat toi hmm DaddyMory J'faisais du pera vénère, ces rappeurs n'étaient pas nés On a des lingots d'or, ils ont des poissons panés Fouiny Babe, Sneazzy West écarte tes cuisses 3010 fait le reste Compile de tarés, s'marrer l'rap francais n'est pas préparé Mal barré on a soulevé ton flow car il était mal garé Nique sa mère l'Etat, nique sa mère l'Etat J'suis à mi-chemin entre 1995 et 3010 Yeah Mes nouvelles groupies sont tes ex fans J'arrive en balle RS4 Espagne Trop de négros ont la haine depuis qu'j'vends plus qu'eux Couche toi au sol... il pleut Mais j'ai mon K-Way, ouais ouais j'ai mon K-Way Depuis toutes ces années, j'reste debout comme au tarawih Va niquer ta maman jack a dit a dit et redit Ouvre tes be-jam dans ma bre-cham, raconte pas ta vie Baleyette, patate dans les abdos J'ai pas soif, garde ta bouteille d'eau Sors pas ton brolic, si tu tire a blanc Arabes et noirs Laurent Blanc Mc vient pas tester si t'es pas de taille Tournée au Canada j'te laisse le Canada Dry On a le meilleur bédo frero primo Mon shit fais des bulles SanPellegrino T'as grandis a Trappes, apprend a te taire J'ai choisis le rap pour pas leur plaire J'te l'ai dit dans le 2 On va faire comme ton père Ils veulent me caner et m'jeter dans la mer Ben Laden Ben Laden Ben Laden Ben Landen Ben Landen Ben Landen Ben Laden Ben Laden Ben Laden Platine en 8 semaines les rappeurs font de la peine Ta soeur a des bleus elle s'est fait violer J'me fait courser par les bleus pour des billets violets Ouvre pas ta chatte arrete de miauler Les rappeurs sont des pits sont toujours derriere mes mollets Festival de Cannes j'te laisse le sucre de canne Moi, s'suis dans ma suite Strauss Kahn ! Tu pus la merde, tu pus la tise Les rappeurs on la dalle Ramadan Surprise Toujours en baggy sur le maquis a te revendre la paki Toujours en LV, Yves Saint Laurent, Dior, Gucci, Fendi Ils sont deter, mais j'suis venu les terminer J'ai un swagg a durée indeterminée Tu pus la merde, on s'ouvient pas d'tes rimes Tes albums sont des missions interims Fouiny Babe, un vrai mec de tess J'écoute pas les meufs à part celle du GPS Tu rap a l'ancienne JurassicPark J'suis venu kidnapper le pera comme un jeune FARC Audemars au poignet j'te laisse les flic flac J'kenne des cainri fuck fuck Ces rappeurs confondent l'underground et le metro Ces rappeurs confondent l'underground et le metro Ils veulent mes billets verts, Ils aurront qu'mes molards Ils m'auront pas frère MullahOmar Maman un jour tout ira mieux pour le moment ici on trime grave L'argent est sur messagerie notre espoir est en gardav' On priait le seigneur, on sera pas ingénieur La misère emportait la promesse de nos jours meilleurs Frérot famille nombreuse, la vaisselle, les poussières Rajoutez des couverts ma mère est à découvert On rêvait de se barrer partir chercher la vie belle La chance n'est pas consentante comme dans les suites du Sofitel J'me rappelle du futur, j'me rappelle du passé J'apprenais la zik' avant d'apprendre à faire mes lacets Ici on cherche les sous, on tend pas l'autre joue Sur la route on fait du mal on perd des frères comme Bandigou J'rappe pour les Blancs, les Africains, les Créoles Le rap est mort c'est pour ça que sur mes chèques y'a autant d'auréoles C'est perdu d'avance, merlich j'retente ma chance Concert guichets fermés moi qui blindait les salles d'audience Des fois j'suis le Sheitan, des fois j'suis la Sunna Les absents ont toujours tort à part Zyed et Bouna Un jour on t'oubliera frère un peu comme Larusso Laisse-les foncedés les portes du succès frérot j'ai l'trousseau J'me rappelle des hivers, l'eau froide dans la baignoire Quand maman pleurait les huissiers lui tendaient des mouchoirs Dédicace à Ben et Haroune J'vais percer sans baisser mon Ice Moon Trop d'bâtards parlent sur moi j'les connais à peine Depuis j'écris des textes sur ma motherfuckin'pain J'passe mes nuits en studio, la routine comme d'hab J'fais des doubles albums car mes fans veulent du rap Baisser les bras c'est pas pour moi, première classe à bord du Airbus J'en ai fait du chemin depuis mes textes à l'arrêt de bus Un jour j'rapperais torse nu pour pas retourner ma veste Rapper avec le cur sur c'est tout ce qu'il me reste J'finirais comme 2pac, BigL ou Biggie Inch'allah j'serai dans le din quand j'rejoindrais le père à Ziggy Lundi on s'fera la guerre, Mardi on sera des frères Peu importe la semaine ,dimanche on dîne au cimetière Fouiny Babe x3 Les yeux baissés, les mains tendues au ciel Où est la foi jaurais tant besoin delle À lapproche de la fin les gens saident On se rapproche quand les galères senchaînent Yeah, tu voulais que je coupe des planches comme toi J'ai pas voulu et j'ai eu de la chance mais t'inquiètes je touche du bois Le frigo vide à ton départ maman t'en voulait beaucoup J'avais pas le droit mais en cachette moi je t'aimais beaucoup J'ai mis dans ce rap ce que je n'ai pas su te dire Tu restes mon père pour le meilleur et pour le pire Tu te levais à cinq heures du mat' pour qu'on puisse avoir des baskets à nos pattes Mais malgré ça j'ai quand même giflé le prof de maths Yeah, au square on m'appelle Fouiny Baby Mais pour toi je reste Laouni weld bladi Boom boom, les keufs viennent me lever T'es jamais venu au parloir car les hommes se cachent pour pleurer Yeah si t'as ouvert c'est que le vice a sonné Mais on reste tous les mêmes, papa tu es pardonné C'qui est dit est dit, c'qui est fait est fait J'ai trempé ma plume dans mes larmes pour écrire ce couplet Et si je garde en moi toutes les blessures du passé C'est pour me rappeler tout ce que tu as fait pour moi Dans mon jardin secret les mauvaises fleurs ont toutes fané Le temps va, tout s'en va, pas l'amour que j'ai pour toi Papa, juste un mot j'irai là-bas, là-bas, pour toi Papa, le temps va, tout s'en va, pas l'amour que j'ai pour toi Je te regarde d'en-haut, tu me regardes d'en-bas Tu fais vibrer mon cur de ton regard rêveur J'suis trop souvent absent, me le pardonneras-tu ? J'essaie d'être un bon père, maman me regarde d'au-dessus J'écris ce rap sincère de l'arrière du car J'ai ta p'tite tête en fond d'écran les doigts sur la guitare J'arrive à la salle pour faire les balances, il est midi Tu sors sûrement des cours avec ton sac Hello Kitty On fait la fête ce soir on affiche complet Plus personne peut entrer, mon cur affiche complet Je t'aime comme un fou, je t'aime à la folie On m'a retiré tout mes points, je t'aime comme c'est plus permis Et comme en un éclair t'es rentrée dans ma vie J'ai dis non à la taule, plus jamais les soucis C'qui est dit est dit, c'qui est fait est fait Et quand je serais plus là, j'espère que tu diras .. A s'retrouver seul en bas A pleurer sur son sort La moindre main tendue A ces moments vaut de l'or C'est de l'or Elle vaut de l'or Et si t'es c'p'tit au fond d'la classe, surtout garde c'regard rêveur N'oublie pas qu'les conseils d'un père ça perd pas d'valeur C'est de l'or Elle vaut de lor Et les mois, les années passent la vie posée, calme ne t'interesse guère Rester sincère comme le sourire d'un frère C'est de l'or C'est de l'or Ohoh! Le v'la braqué sur ta tête Les frères esclaves d'la gachette L'amitié, la liberté, dès l'or ici tout s'achète Et là, vois les sirènes, les bruits, les peines, les chaines T'apprendras que le silence est d'or Et puis vouloir toucher le ciel Maman nettoie le sol Vouloir s'vider la tête, mais la tête est pleine de substances sales Alors j'divague, j'm'invente des raisons d'haineux Et j'suis trop cette p'tite voix qui me dit au fond d'moi Fais-le Le v'la braqué sur ta tête Les frères esclaves d'la gachette L'amitié, la liberté, dès l'or ici tout s'achète Et là, je lis tes lettres, écrites avec attentions Je ferme fort les yeux Et j'm'imagine à la maison Et là ... Parfois je pleure seul éveillé sur vos photos J'ai pris le mauvais train Le mauvais, seul dans mon wagon, re-fré Je brûle mes lettres,tout seul en train d'tripper J'me dit qu'je vaux de l'or Mais frère, l'or, c'est fait pour briller x4 Certaines phrases valent de l'or Les amis plus encore On cherche l'or</t>
+          <t>Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuves pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venue t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips, ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT GT en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 pétée Ouvre tes oreilles jeune trans', on a fait le tour d'la France J'suis tellement pas poucave que j'refuse de faire mes balances Balance, J'connais pas les vacances Mais j'connaissais ton apart' quand tu partais en vacances Tacle à la gorge gorge, Nerveux comme un Porsche Porsche Facebook, Msn en cellule, Blackberry Torch Torch Nous clasher, comment ont t-ils osé ? Ils n'ont pas les thunes pour un mic, comment ont-ils posé ? Nique sa mère le tennis, Banlieue Sale on t'racket Tu veux être le king, mais les rois, on leur coupaient la tête Ils veulent rouler sur l'or, ils en oublient les péages Ils péta mon flow, ils rappent dans une cabine d'essayage Tu veux nous tirer dessus ? À tes risques et périls Ma banlieue à ses risques, ta cité c'est le Parc Astérix Astérix, Dangereux comme Mickey Viens pas bicrave chez nous tu vas t'faire niquer On déjeune au Grec, nique sa mère les Fouquet's T'as une poussière dans lil, attends je sors le lance-roquettes Le Hip-Hop est mort, sur ma vie je le regrette Je parle dans ton dos hmmmm, j'aime trop la levrette Tu crois que je suis sérieux mais depuis le début frère, je déconne Le rap français est dead, il a ftour un Mac Bacon Lunettes Vuitton, j'ai jamais froid aux yeux Man j'ai toujours foi en Dieu, jamais confiance aux hommes en bleu Et j'ai mis du botox dans mon stylo bic Ouest Side, Banlieue Sale, ouais Nhar Sheitan click De la C ,de la hi, sur les prix on te chahel On importe, on exporte, j'ai le flow tah D.H.L Je fais des albums toute l'année, ouais 365 jours V'là mon quatrième, on attend toujours ton 45 tours Disque de platine, jaloux je vois pas pourquoi t'es triste Une banquette arrière avec ma chienne, je joue à Tetris Du 'sky dans les veines, on s'enjaille MC nettoie moi les coins de la bouche quand j'graille On déboule sur scène, on t'enjaille Un gun dans la bouche, on va te faire danser le raï On s'enjaille, on s'enjaille On s'enjaille rebeu, on s'enjaille Si t'es pas prêts d'assumer fais pas le con, vise les mollets Là d'où je viens, les vrais vont tout chercher, l'argent là où il est Dédié à tous ces fils de putes qui tiennent les clés au mitard La vie n'a pas de prix comme ma montre Audemars Les jaloux qui veulent clash finissent tous dans une marre Ton African Dream finis vite en cauchemar Et click click, ratatahh, pose ton gun J'ai le corps à Snoop et les couilles à Big Pun Ton rap pue la merde, va niquer ton keum J'mâche des MC's mache chewing-gum T'as des dent de laits, t'en laisseras quelques unes parterre Ta mère est trop jeune donc on a niquer ta grand-mère Mec arrête le rap, ton album c'est de la de-mer Monte sur ma mmmmm, t'auras le mal de mer T'es a deux doigts d'me faire chier et à un ongle de nous quitter J'ai un pied dans la merde et un orteil dans la mosquée On parle plusieurs langages ici, on aime celui des douilles Laisse-les porter plainte, frero on porte nos couilles Yeah, yeah Veni Vidi Vici je suis venu, j'ai fourré et j'ai vaincu J'aimerais tellement te dire que t'es pas ma chienne, mais ces mots sonnes faux oh! Yeah quoi de neuf Fouiny Babe ? J'ai des tasses j'ai du flow Je vais t'masser le dos puis je vais t'casser le dos Oh, ouais on roule sans permis Mercedes Benz Fouiny R'n'b J'ai tant besoin de toi t'es ma salope à moi Yeah 4x4 noir vitres fumées Si j'vend mes 4 jantes, j'ai assez pour te faire fumer fumer Avec des si tu refais le monde Avec des uzis on arrose tout le monde On sniffe pas de coke, on mange pas de porc Mon rap n'es pas halal, normal il est pas mort Yeah alors je suis rentré dans un boule J'ai pris le temps de partir a 'dam et d'rentrer avec un 12 Yeah yeah Veni Vidi Vici je suis tombé, je suis tombé, je suis ressorti Innocent, incarcéré, dossier classé sans suite Ne jamais remettre a demain ce qu'on peut pé-ta tout d'suite Yeah mon rap n'est pas un rasoir jetable Banlieue-Banlieue Sale envois ton bord s'il est potable Swagg sur la casquette, Louis sur le gilet Le rap c'est comme le McDo, t'as pas le choix je suis le filet Yeah, c'est Banlieue Sale sur la piste La voiture de mon DJ coûte plus chère que la promo de leur artiste Yeah, le rap français pète un câble Capitale du crime des voyous en feat avec des comptables J'suis trop content on a rayé ma caisse, mais sans rancune J'fais partie des rares MC's qui en ont une bingo ! T'as testé, tu repars déçu À Trappes quand le chat n'est pas les souris se tirent dessus ! Yeah, yeah Veni Vidi Vici je suis venu en Gucci, en Louis Tu devais sortir en juin finalement tu sors en automne T'as écouté mon disque et ta repoussé ton album Yeah on les oublieras tous comme Danny Glover Pour nous c'est Range Rover, pour eux c'est game over Yeah concert a guichet fermé fait pas le bête Man on bouchait la rue pendant qu'tu bouchais les toilettes Yeah fusil a pompe sur la prod' a Rise-E 2000-2011 trop d'MC's ont la chatte rasée, rasée Raser les murs c'est ce qui te reste à faire On va faire comme ton père on va te faire un petit frère Yeah ma blanche se vend comme Lady Gaga Si on me pète je finis a l'ombre comme You Gataga-taga T'as qu'à dire ici c'est le 7.8 Appelez les keufs mais faites vite Qui sont les best ? Banlieue Ouest, mate leur équipe s'écrouler Grosse différence, ils lèchent des chattes et nous des feuilles à rouler Ramène ta clique, on t'nique ta race avec ta team J'serai sur les lieux du crime, Sept-Huit c'est chaud car on a pas la clim' J'ai la hi', le crack, le shit, les pétasses si ça tintéresse Moi j'suis rassasié qu'avec un bon bucket de CRS Fuck les gardes à vue, les mitards, nan maintenant j'veux peser Rentrer en boite, niquer le benef avec mon équipe de bronzés J'suis pas le king du Sept-Huit, j'suis le Sept-Huit J'représente ces négros, ces rabzas qui sucent pas d'bites Tass', cesse ton speech, on sait qu't'es qu'une bitch Tu sautes sur les gars, sur les tables, sur les 'teilles, sur la tête de ma barbichette Les rappeurs s'font les ongles Ont-ils vraiment raison ? La tête baissée, les jambes écartées comme l'Arc de Triomphe Mon label me donne des avances Les 'tasses m'font des avances J'faisais le tour de la Promenade, maintenant je fais le tour d'la France x2 On a les guns, s'en bat les couilles Ferme ta gueule, cherche la monnaie Cherche la merde, cherche les tunes Cherches nos douilles, cherche la monnaie Braqueur, arnaqueur, dealeur, rappeur, rebeu Cherche la monnaie, voleur, receleur, bicraveur, bagareur Cherche la monnaie Jlèche des feuilles à rouler et la chatte a Rihanna Moi je sors de boite avec 2, 3 numbers de mariama On prend des peines de prison des balles et du poids fiston Prochain album sera dans les bacs de Louis Vuitton Écusson DG man ou Gucci sur mon bandana V.I.P Abdel Karima Obama En street swagg sur les champs avec un pur louis Jai vu ton gars en Royal Wear javais honte pour lui Krav Maga Krav Krav Maga Yeah Banlieue sale demande a ???? Maga Jt'ai vu payer des tasses pendant que je payais mes impôts Jai fait tomber mes billets tas fait tomber tes potos Yeah jsuis vulgaire, sucer je tai vu le faire Vulgaire rimes en or jsuis en édition chez Manchester yeah Et on vous fuck, on vous fuck Si largent chuchotais jaurais les oreilles à Spoke Yeah, jai pris une pub sur le cercueil à Michael Jackson Et si les keufs me cherchent mon nom est personne Jcherche une petite tass tah les Halle Berry Jai trop dbuzz on dirait que je viens de sortir de Secret Story Banlieue, banlieue sale CDC voila le nom de ma click Certains sont trop Hip Hop , garde leurs mics quand ils parlent aux flics Et pour gérer une tass jai jamais mis 40E Jai des Adriana Karembeu Yeah He yo ma pétasse roule en berline, elle me lèche la bite Pendant qula tienne lèche les vitrines Vla mon sterling dis Whats up aux sterling Grosse liasse dans les poches, dur de mettre un jean slim On cherche la monnaie à tout heure, rebeu on cherche les tunes Et si ta meuf est moche, mets-lui un coup dauto-tune Mauvais élève, mauvais élève Jlaissais les meufs dans les chiottes avec de lADN sur les lèvres J'arrive en balle et j'ai chargé mon gun Fréro on est 50 en bas on peut te niquer ta reum Car on a plus rien à perdre, plus rien à perdre, on a tout à gagner, on a tout à gagner J'arrive en balle et j'ai chargé mon Glock CL 63 AMG garée devant le block Car on a plus rien à perdre, plus rien à perdre, frère on a tout à gagner, on a tout à gagner Frère on a plus rien à perdre, on a tout à gagner J'posais mon premier seize, t'étais même pas né Tunisie Mali, j'ai les mains salies Les rappeurs Français dégagent, hmm BenAli Hmm, BenArfa, on essaye d'me tacler Je suis en tête des ventes, t'es en pleine descente J'ai même des fans qui sont fans de mes propres fans T'as toutes mes punchlines, dans ton S Line Dans ton Twingo, Clio Initiale Bâtiment F deuxième étage, les vrais finissent 'al A trop vouloir monter, un jour tu t'fais descendre Tout vient à point à qui apprend à vendre C'est Fouiny parle et agis pour de vrai Quand la justice prends son souffle tu sais bien où les vents te mènent Nigga, Arrête tes sales manies, t'as le flow Karl Kani Pani problem j'emmerde Florent Pagny J'peux pas faire la reusta, La Fouine vient du reu-squa J'ai fait ma vie, j'ai fait mes choix, frimer ne m'intéresse pas Je passais devant Foot Locker avec des baskets trouées Le manque de fric me fait pas peur, moi je suis fils d'ouvrier Le portefeuille vide comme le frigo, j'avais des amis toxicos Qui, pour une dose, auraient troqué leur tricot Les tours telles des montagnes égarées dans les vallées Au fin fond des caves, telles des grottes, j'ai vu des filles avaler, OK Dans l'escalier un grand se shoote, sur le terrain une balle de foot Une pierre tombale sur laquelle un nouveau nom s'ajoute Et toute sa vie ma mère s'est cassée l'dos au square Elle lavait le linge de ses sept enfants toute seule dans la baignoire C'était pour les riches le micro-ondes, les machines à laver Tout le bien qu'elle a fait Sur ses mains toutes les traces qu'elle avait, OK Je viens de loin dites-moi qui peut m'stopper Le juge t'enverra au D1 même si tu dis s'il te plaît, OK x2 Je viens de loin, et vu mon teint, j'dois faire les choses bien Mais qui peut m'stopper ? Mais qui peut m'stoper? Mais qui peut m'stopper? Mais qui peut m'stopper? Yeah, les larmes coulent et la rue ressent ma peine J'ai volé ton album, il n'en valait pas la peine Le prof a fait l'appel, seul ton flow manque à l'appel L'argent t'a bigo fréro mais t'as dû manquer l'appel Yeah, j'ai du boulot pour toi nettoies mes jantes Je sais qu'ils me fréquente, me copie j'suis pas un sample J'ai du remonter la pente avec ou sans les ventes Devant les feu-keu fréro je reste droit comme 1230 Yeah, on parle pas de La Fouine à l'imparfait Dis moi un délit que je n'ai pas commis, une son-pri que je n'ai pas faite Yeah, une parisienne que je n'ai pas fourré, fourré Je ne laisse rien passer YayaTouré C'est la merde, les douaniers me saoulent pour mon passeport Y'a plus de place et toi tu tactes toujours à Gare du Nord T'es à l'ouest fréro, en plus t'as plus de bord Tu soulèves la cuvette des chiottes et nous les raptors Comme si dans le fond ils en valaient la peine Ils parlent les uns sur les autres et n'entendent même plus l'Adan Même plus l'Adan, même plus leur parents Ils critiquent Fouiny Baby mais ils m'écoutent 12 mois par an Yeah, j'ai fait ma route et rien à foutre de plaire La Fouine et le flow fréro les deux font la paire Frère, en temps de guerre tu finirais à terre Et si t'es pas content, auto-nique toi ta mère Mes avocats sont juifs, n'ayez aucune crainte J'mange mes grecs et j'laisse les grosses salopes porter plainte J'ai du rosé, on m'a dit que t'aimes J'vend de la cocaïne pour rouler en big Benz ! J'ai sortit le si-ful, j'suis rentré dans l'arène J'ai fait le tour du monde parait que t'as deux fans à Rennes C'est trop hardcore ce qui coule dans mes veines Ça saigne je crois que l'album va sortir en césarienne Depuis que j'ai commencer j'vois bien que toutes les oreilles n'en peuvent plus J'suis le rap français toi t'es le bouton avec un peu de put A force de cer-su tu pars en cette-su Je fondais mon label quand tu faisais la couv' de Têtu Yeah, tu fais les courses n'oublies pas les capotes Tu fais du biz' n'oublies pas les carottes T'as fait le parloir, ramène moi un 12 Tout le monde les mains en l'air, à part Jamel Debbouze Argent sale pourtant j'ai fait l'odo, j'ai quelques traces de sang de keuf fraîches sur mon polo On rappait dans la vec', personne croyait en nous Et on traînait en meute parce qu'on nous laissait en loup J'goûtais la ceinture de mon père étant-étant petit Si j'fais la même avec ma fille elle aura des traces Gucci La bague au doigt les fusils parés, chargés, prêt à cracher, voitures garées Guette l'angle mort comme les frères qu'ont parlé Maison d'arrêt, foyers d'mineurs j'étais jeune et fougueux J'mène la belle vie comme un footeux, haineux, j'm'en fous d'eux J'rentre pas dans le moule, j'donne pas mon boule Ils s'arrachent les veuchs, rebeu j'ai fait la boule Capitale du Crime frère viens pas t'y aventurer Même Judas fut bien entouré, t'auras beau jurer Sur la vie d'ta grosse pute de mère, lyrics amères car le respect s'perd Fouiny, baisse la tête qu'à la mosquée, démodé leur swagg a fait une O.D On est rodés, parle en langage codé, à chaque phrase autant d'insultes que de C.O.D Une étoile verte sur un fond rouge J'pars en couille ou j'pars en khourouj Depuis tout petit les keufs me recherchent Savent où me trouver, rien à prouver Cherches les lovés Osé, audacieux, cagoulé Bra-braquer des bourges Pourquoi tu me parles ? Pourquoi tu m'fixes Que le rap repose en paix, comme le string à FX Yeah j'traine au VIP, au Hustler Les haineux parlent la chatte à leur soeur Nique les illuminatis, nique les franc-maçons Trop d'avance MC note ma plaque d'immatriculation Nigga' AK-47 sur ta vieille face J'te blesse en attendant que Dieu le fasse On a fumé un keuf, c'est l'Aïd Tous ces rappeurs sont des gros mythos, je te jure sur ma ie-v Tu veux un tube ? Appelle-appelle l'ingé Confond pas ceux qui touchent du bois, ceux qui touchent tes points G Trop de haineux, trop-trop de haineux dans ma salle d'attente Tu veux un feat ? Parle à l'assistant d'mon assistante On tombe au shtar, tu tombes dans les pommes Tiens mon mail VaNiquerTaMère.com Porsche Panamera turbo, Carrera, Cayenne J'parle pas au keufs, seuls les micros, les chiennes connaissent mon haleine On m'aime, on m'déteste, bref j'suis celui qu'on cite Pute, suce-moi direct, je suis circoncis J'reste au-dessus du pe-ra comme un accent circonflexe 1995, j'ai le flow tah Busta Flex J'débarque du 7.8, compète et verdure Elevé à la dure, lou-loubia lahdess coups-coups de ceinture On a fumé un keuf, Mazel tov Vodka Ruskov mec ton flow est bof, BS s'attaque au coffre Gros gun braqué sur ta face, Teach me how to Dougie Nique sa mère appelle moi Rox, j'pose avec mes Rookies Ta daronne frise la folie on l'insulte on reste pas poli Fère, à force de regarder l'rap derrière Torticolis Grandi dans un taudis maudit, affronté que des gorilles golri Jeune homme lève toi bat toi hmm DaddyMory J'faisais du pera vénère, ces rappeurs n'étaient pas nés On a des lingots d'or, ils ont des poissons panés Fouiny Babe, Sneazzy West écarte tes cuisses 3010 fait le reste Compile de tarés, s'marrer l'rap francais n'est pas préparé Mal barré on a soulevé ton flow car il était mal garé Nique sa mère l'Etat, nique sa mère l'Etat J'suis à mi-chemin entre 1995 et 3010 Yeah Mes nouvelles groupies sont tes ex fans J'arrive en balle RS4 Espagne Trop de négros ont la haine depuis qu'j'vends plus qu'eux Couche toi au sol... il pleut Mais j'ai mon K-Way, ouais ouais j'ai mon K-Way Depuis toutes ces années, j'reste debout comme au tarawih Va niquer ta maman jack a dit a dit et redit Ouvre tes be-jam dans ma bre-cham, raconte pas ta vie Baleyette, patate dans les abdos J'ai pas soif, garde ta bouteille d'eau Sors pas ton brolic, si tu tire a blanc Arabes et noirs Laurent Blanc Mc vient pas tester si t'es pas de taille Tournée au Canada j'te laisse le Canada Dry On a le meilleur bédo frero primo Mon shit fais des bulles SanPellegrino T'as grandis a Trappes, apprend a te taire J'ai choisis le rap pour pas leur plaire J'te l'ai dit dans le 2 On va faire comme ton père Ils veulent me caner et m'jeter dans la mer Ben Laden Ben Laden Ben Laden Ben Landen Ben Landen Ben Landen Ben Laden Ben Laden Ben Laden Platine en 8 semaines les rappeurs font de la peine Ta soeur a des bleus elle s'est fait violer J'me fait courser par les bleus pour des billets violets Ouvre pas ta chatte arrete de miauler Les rappeurs sont des pits sont toujours derriere mes mollets Festival de Cannes j'te laisse le sucre de canne Moi, s'suis dans ma suite Strauss Kahn ! Tu pus la merde, tu pus la tise Les rappeurs on la dalle Ramadan Surprise Toujours en baggy sur le maquis a te revendre la paki Toujours en LV, Yves Saint Laurent, Dior, Gucci, Fendi Ils sont deter, mais j'suis venu les terminer J'ai un swagg a durée indeterminée Tu pus la merde, on s'ouvient pas d'tes rimes Tes albums sont des missions interims Fouiny Babe, un vrai mec de tess J'écoute pas les meufs à part celle du GPS Tu rap a l'ancienne JurassicPark J'suis venu kidnapper le pera comme un jeune FARC Audemars au poignet j'te laisse les flic flac J'kenne des cainri fuck fuck Ces rappeurs confondent l'underground et le metro Ces rappeurs confondent l'underground et le metro Ils veulent mes billets verts, Ils aurront qu'mes molards Ils m'auront pas frère MullahOmar Maman un jour tout ira mieux pour le moment ici on trime grave L'argent est sur messagerie notre espoir est en gardav' On priait le seigneur, on sera pas ingénieur La misère emportait la promesse de nos jours meilleurs Frérot famille nombreuse, la vaisselle, les poussières Rajoutez des couverts ma mère est à découvert On rêvait de se barrer partir chercher la vie belle La chance n'est pas consentante comme dans les suites du Sofitel J'me rappelle du futur, j'me rappelle du passé J'apprenais la zik' avant d'apprendre à faire mes lacets Ici on cherche les sous, on tend pas l'autre joue Sur la route on fait du mal on perd des frères comme Bandigou J'rappe pour les Blancs, les Africains, les Créoles Le rap est mort c'est pour ça que sur mes chèques y'a autant d'auréoles C'est perdu d'avance, merlich j'retente ma chance Concert guichets fermés moi qui blindait les salles d'audience Des fois j'suis le Sheitan, des fois j'suis la Sunna Les absents ont toujours tort à part Zyed et Bouna Un jour on t'oubliera frère un peu comme Larusso Laisse-les foncedés les portes du succès frérot j'ai l'trousseau J'me rappelle des hivers, l'eau froide dans la baignoire Quand maman pleurait les huissiers lui tendaient des mouchoirs Dédicace à Ben et Haroune J'vais percer sans baisser mon Ice Moon Trop d'bâtards parlent sur moi j'les connais à peine Depuis j'écris des textes sur ma motherfuckin'pain J'passe mes nuits en studio, la routine comme d'hab J'fais des doubles albums car mes fans veulent du rap Baisser les bras c'est pas pour moi, première classe à bord du Airbus J'en ai fait du chemin depuis mes textes à l'arrêt de bus Un jour j'rapperais torse nu pour pas retourner ma veste Rapper avec le cur sur c'est tout ce qu'il me reste J'finirais comme 2pac, BigL ou Biggie Inch'allah j'serai dans le din quand j'rejoindrais le père à Ziggy Lundi on s'fera la guerre, Mardi on sera des frères Peu importe la semaine ,dimanche on dîne au cimetière Fouiny Babe x3 Les yeux baissés, les mains tendues au ciel Où est la foi jaurais tant besoin delle À lapproche de la fin les gens saident On se rapproche quand les galères senchaînent Yeah, tu voulais que je coupe des planches comme toi J'ai pas voulu et j'ai eu de la chance mais t'inquiètes je touche du bois Le frigo vide à ton départ maman t'en voulait beaucoup J'avais pas le droit mais en cachette moi je t'aimais beaucoup J'ai mis dans ce rap ce que je n'ai pas su te dire Tu restes mon père pour le meilleur et pour le pire Tu te levais à cinq heures du mat' pour qu'on puisse avoir des baskets à nos pattes Mais malgré ça j'ai quand même giflé le prof de maths Yeah, au square on m'appelle Fouiny Baby Mais pour toi je reste Laouni weld bladi Boom boom, les keufs viennent me lever T'es jamais venu au parloir car les hommes se cachent pour pleurer Yeah si t'as ouvert c'est que le vice a sonné Mais on reste tous les mêmes, papa tu es pardonné C'qui est dit est dit, c'qui est fait est fait J'ai trempé ma plume dans mes larmes pour écrire ce couplet Et si je garde en moi toutes les blessures du passé C'est pour me rappeler tout ce que tu as fait pour moi Dans mon jardin secret les mauvaises fleurs ont toutes fané Le temps va, tout s'en va, pas l'amour que j'ai pour toi Papa, juste un mot j'irai là-bas, là-bas, pour toi Papa, le temps va, tout s'en va, pas l'amour que j'ai pour toi Je te regarde d'en-haut, tu me regardes d'en-bas Tu fais vibrer mon cur de ton regard rêveur J'suis trop souvent absent, me le pardonneras-tu ? J'essaie d'être un bon père, maman me regarde d'au-dessus J'écris ce rap sincère de l'arrière du car J'ai ta p'tite tête en fond d'écran les doigts sur la guitare J'arrive à la salle pour faire les balances, il est midi Tu sors sûrement des cours avec ton sac Hello Kitty On fait la fête ce soir on affiche complet Plus personne peut entrer, mon cur affiche complet Je t'aime comme un fou, je t'aime à la folie On m'a retiré tout mes points, je t'aime comme c'est plus permis Et comme en un éclair t'es rentrée dans ma vie J'ai dis non à la taule, plus jamais les soucis C'qui est dit est dit, c'qui est fait est fait Et quand je serais plus là, j'espère que tu diras .. A s'retrouver seul en bas A pleurer sur son sort La moindre main tendue A ces moments vaut de l'or C'est de l'or Elle vaut de l'or Et si t'es c'p'tit au fond d'la classe, surtout garde c'regard rêveur N'oublie pas qu'les conseils d'un père ça perd pas d'valeur C'est de l'or Elle vaut de lor Et les mois, les années passent la vie posée, calme ne t'interesse guère Rester sincère comme le sourire d'un frère C'est de l'or C'est de l'or Ohoh! Le v'la braqué sur ta tête Les frères esclaves d'la gachette L'amitié, la liberté, dès l'or ici tout s'achète Et là, vois les sirènes, les bruits, les peines, les chaines T'apprendras que le silence est d'or Et puis vouloir toucher le ciel Maman nettoie le sol Vouloir s'vider la tête, mais la tête est pleine de substances sales Alors j'divague, j'm'invente des raisons d'haineux Et j'suis trop cette p'tite voix qui me dit au fond d'moi Fais-le Le v'la braqué sur ta tête Les frères esclaves d'la gachette L'amitié, la liberté, dès l'or ici tout s'achète Et là, je lis tes lettres, écrites avec attentions Je ferme fort les yeux Et j'm'imagine à la maison Et là ... Parfois je pleure seul éveillé sur vos photos J'ai pris le mauvais train Le mauvais, seul dans mon wagon, re-fré Je brûle mes lettres,tout seul en train d'tripper J'me dit qu'je vaux de l'or Mais frère, l'or, c'est fait pour briller x4 Certaines phrases valent de l'or Les amis plus encore On cherche l'or</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Han, la chatte à Marine le Pen La chatte à son père aussi, la chatte à sa nièce aussi Jbaise toute la famille, jbaise toute la famille Jrêve de les voir sous mes Cortez Majeur en lair contre ces fils de timpes Je sais pas ce que jai wAllah mais ils naiment pas mon teint Et je crache sur le Bleu Marine ce soir une haine manime Nan ne censure pas Marine cest La Fouine Jfous le bordel comme quand lAlgérie a gagné On sort les grosses mes-ar difficiles à magner Jsors de garde à-v jai le flow à Leonarda Jbaise le FN comme le boule à Kim Karda Jcrois que jvais leur niquer leurs mères Ouais Fouiny fais le Jveux la voir en porte-jarretelles dblack dentelles Tous en mode daleux, compét' ver-le Manuel Valls dans le coffre du SL You might also like Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National FN FN FN que la flamme bleu blanc rouge séteigne T'as vu comment j'les baise j'suis Français né dans les Hautes de Seine Va dire à Jean-Marie que lAfrique et moi on le ken Attends deux secondes j'me branle, jfais du gloss pour Marine le Pen Jte pisse sur le front jte chie sur la nation Pour les fils dimmigrés les insulter cest une passion Tes un fils de te-pu depuis que les miens sont des fils dexclus La France est des WC depuis que ya trop de lèche-culs Guess who's back dans le boule à Marine Marine Mister Canardo jles baise en soum comme la Marine Jai la bite noire à force denculer Jean-Marie Pour tous les sans-papiers fréro de Marseille à Paris Jencule le FN sans baisser le falzar Marine tes plus très jeune pas grave on aime les cougars Si Le Pen passe en bas d'chez moi, petite douche de pisse Mon sperme en guise de pastis, Nardo Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National FN pue le fion, Qatari vaut des millions Ici ça vend du pillon, ouais ouais sinon Marine, Marine jvais te sser-pi sur le Front Laissez passez le mauvais garçon jsuis circoncit dans le caleçon Djazairy sur les ondes Ton père a lil crevé, va lui dire que c'est mon daron En France on suce sonne-per la putain de ta mère J'vais faire danser du chaabi à Marine et son père Légalisez la drogue, mettez que des bonnes prof Videz les pénitenciers nique sa mère le proc' Sers-nous du champagne au poste, c'est la BS big boss On t'as prise en fragrant délit au lit avec un sex-toy T'as connu les rude boys, ouais Vaux-en-Velin que des cowboys, ouais Dans les beaux quartiers on ira pisser la Poliakov T'as reconnu Darino textuellement TOP Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National6</t>
+          <t>Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Han, la chatte à Marine le Pen La chatte à son père aussi, la chatte à sa nièce aussi Jbaise toute la famille, jbaise toute la famille Jrêve de les voir sous mes Cortez Majeur en lair contre ces fils de timpes Je sais pas ce que jai wAllah mais ils naiment pas mon teint Et je crache sur le Bleu Marine ce soir une haine manime Nan ne censure pas Marine cest La Fouine Jfous le bordel comme quand lAlgérie a gagné On sort les grosses mes-ar difficiles à magner Jsors de garde à-v jai le flow à Leonarda Jbaise le FN comme le boule à Kim Karda Jcrois que jvais leur niquer leurs mères Ouais Fouiny fais le Jveux la voir en porte-jarretelles dblack dentelles Tous en mode daleux, compét' ver-le Manuel Valls dans le coffre du SL Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National FN FN FN que la flamme bleu blanc rouge séteigne T'as vu comment j'les baise j'suis Français né dans les Hautes de Seine Va dire à Jean-Marie que lAfrique et moi on le ken Attends deux secondes j'me branle, jfais du gloss pour Marine le Pen Jte pisse sur le front jte chie sur la nation Pour les fils dimmigrés les insulter cest une passion Tes un fils de te-pu depuis que les miens sont des fils dexclus La France est des WC depuis que ya trop de lèche-culs Guess who's back dans le boule à Marine Marine Mister Canardo jles baise en soum comme la Marine Jai la bite noire à force denculer Jean-Marie Pour tous les sans-papiers fréro de Marseille à Paris Jencule le FN sans baisser le falzar Marine tes plus très jeune pas grave on aime les cougars Si Le Pen passe en bas d'chez moi, petite douche de pisse Mon sperme en guise de pastis, Nardo Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National FN pue le fion, Qatari vaut des millions Ici ça vend du pillon, ouais ouais sinon Marine, Marine jvais te sser-pi sur le Front Laissez passez le mauvais garçon jsuis circoncit dans le caleçon Djazairy sur les ondes Ton père a lil crevé, va lui dire que c'est mon daron En France on suce sonne-per la putain de ta mère J'vais faire danser du chaabi à Marine et son père Légalisez la drogue, mettez que des bonnes prof Videz les pénitenciers nique sa mère le proc' Sers-nous du champagne au poste, c'est la BS big boss On t'as prise en fragrant délit au lit avec un sex-toy T'as connu les rude boys, ouais Vaux-en-Velin que des cowboys, ouais Dans les beaux quartiers on ira pisser la Poliakov T'as reconnu Darino textuellement TOP Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National Peace sur le, Peace sur le Front National6</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>La France va mal, mais je l'aime quand même Souvent on flirte entre l'amour, la haine Et tous les jours on fait face aux problèmes La France va mal, mais je l'aime quand même Assis d'vant la télé, tous ces gens m'font d'la peine L'Homme a crée les armes, et milite pour la paix Colonisés ou déportés, on porte plainte contre Paris Les écrivains s'font un sang d'encre à savoir si j'suis Charlie Le tiers monde regarde le ciel pour éviter d'pleurer Pour faire disparaître une ombre, il suffit de l'éclairer Des fois on cherche un coupable, pour éviter le regret J'aime même déjà vu une femme seule, accuser son reflet Souvent on s'insulte, par peur de se connaître Parfois on blâme des crimes, qu'on aurait pu commettre On réapprend à vivre une fois qu'on frôle la mort Je cherche le point commun entre Clichy et Baltimore La France va mal, mais je l'aime quand même Souvent on flirte entre l'amour, la haine Et tous les jours on fait face aux problèmes La France va mal, mais je l'aime quand même Mais je l'aime quand même You might also like Les médias sont au bout de la corde, quand ça d'vient tendu Caméras, journalistes, et sous-entendus Les réseaux sociaux nous ont réellement marqués Avant d'sauver cette femme qui s'noie, laissez moi la snapchatter Un sourire ne vaudra jamais une larme Ces pays qui peinent à s'nourrir, en vrai qui les arme ? Qui les aide ? qui les aide ? Qui les aime ? qui les aime ? L'Afrique est blessée, c'est l'ciel qui saigne Y'a quelqu'un qui m'a dit, La France tu l'aimes ou tu la quittes J'ai dit à la juge La Fouine tu l'aimes et tu l'acquittes ! Suis-je coupable ou à plaindre, d'après leur politique ? Quand apparaît le Soleil, faut bien qu'la Lune s'éclipse Mon ami rabbin, j'l'aime sans haine ni contrainte Tant qu'la télé reste éteinte La France va mal, mais je l'aime quand même Souvent on flirte entre l'amour, la haine Et tous les jours on fait face aux problèmes La France va mal, mais je l'aime quand même Mais je l'aime quand même</t>
+          <t>La France va mal, mais je l'aime quand même Souvent on flirte entre l'amour, la haine Et tous les jours on fait face aux problèmes La France va mal, mais je l'aime quand même Assis d'vant la télé, tous ces gens m'font d'la peine L'Homme a crée les armes, et milite pour la paix Colonisés ou déportés, on porte plainte contre Paris Les écrivains s'font un sang d'encre à savoir si j'suis Charlie Le tiers monde regarde le ciel pour éviter d'pleurer Pour faire disparaître une ombre, il suffit de l'éclairer Des fois on cherche un coupable, pour éviter le regret J'aime même déjà vu une femme seule, accuser son reflet Souvent on s'insulte, par peur de se connaître Parfois on blâme des crimes, qu'on aurait pu commettre On réapprend à vivre une fois qu'on frôle la mort Je cherche le point commun entre Clichy et Baltimore La France va mal, mais je l'aime quand même Souvent on flirte entre l'amour, la haine Et tous les jours on fait face aux problèmes La France va mal, mais je l'aime quand même Mais je l'aime quand même Les médias sont au bout de la corde, quand ça d'vient tendu Caméras, journalistes, et sous-entendus Les réseaux sociaux nous ont réellement marqués Avant d'sauver cette femme qui s'noie, laissez moi la snapchatter Un sourire ne vaudra jamais une larme Ces pays qui peinent à s'nourrir, en vrai qui les arme ? Qui les aide ? qui les aide ? Qui les aime ? qui les aime ? L'Afrique est blessée, c'est l'ciel qui saigne Y'a quelqu'un qui m'a dit, La France tu l'aimes ou tu la quittes J'ai dit à la juge La Fouine tu l'aimes et tu l'acquittes ! Suis-je coupable ou à plaindre, d'après leur politique ? Quand apparaît le Soleil, faut bien qu'la Lune s'éclipse Mon ami rabbin, j'l'aime sans haine ni contrainte Tant qu'la télé reste éteinte La France va mal, mais je l'aime quand même Souvent on flirte entre l'amour, la haine Et tous les jours on fait face aux problèmes La France va mal, mais je l'aime quand même Mais je l'aime quand même</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Yeah, fais péter le joint et ton business Et tes p'tites fesses, c'est pour les p'tits de téce Man fais pas chier fais péter le joint et ton business Et tes p'tites fesses, c'est pour les p'tits de téce Yeah ! Ok j'ai pris le périph' bêtement, cherché des thunes bêtement As-tu vu les keufs ? T'inquiètes nan, j'vais faire un p'tit tour t'inquiètes m'an Je soigne les tox' en que-man, la dope et leurs médicaments Je fume et je bois si le juge me voit je ne tomberai pas je touche du bois Ici on cherche les embêtements, n'est bon qu'à ber-tom bêtement Petit voilà ta CC si t'en prends t'auras pas d'bénef', naaan ! Yeah, yeah pe-pom sous la Goose Pour rer-ti j'ai deux boules et pour gole-ri j'ai Debbouze La tass' est dans le CLK, si elle mate et c'est le cas Vodka hôtel coup de teub et j'la démarre comme Anelka Yeah, tout le monde me cherche dans la ville Les potes les putes les tass et même les stups' en civil car J'ai de la bonne hiya, dans ma tabatière J'ai de la cess' et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Man j'surveille mes arrières, j'surveille mes arrières J'ai de la bonne hiya, dans ma tabatière J'ai de la CC et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Gros brolic' à la ceinture et j'surveille mes arrières You might also like J'sors les gros fers et j'tape des poses plastique Bienvenue dans mon Sept-Huit où les toxicos se piquent Où les p'tits vendent la CC en écoutant ma zique' Où ces fils de pute de keufs se prennent des gros front-kicks, se prennent des gros fous-kicks Petit mais j'marche dans la nuit Le keuf me parle mal je ferais pas belhani Complètement paranoïaque, fonce-dé à l'ammoniac Serré dans une cellule comme un canoë-kayak Alors j'ai pris le train en route man les sacs plein de kilos Moi j'cherchais à être millionnaire, les petits Zé Pequeno C'est kilos de CC, rettes-ba, feu rouge t'arrêtes pas Voilà mon phone bipe moi, voilà ma queue pipe moi dures comme le béton, règle nos dièses au pe-pom T'as pas d'euros laisse ber-tom, va sniffer le passage piéton Au dessus des lois c'est c'est haut haut haut ! Les keufs débarquent au re-squa c'est oh flashballs ! J'ai de la bonne hiya, dans ma tabatière J'ai de la cess' et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Man j'surveille mes arrières, j'surveille mes arrières J'ai de la bonne hiya, dans ma tabatière J'ai de la CC et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Gros brolic' à la ceinture et j'surveille mes arrières Fais péter le joint et ton business Et tes p'tites fesses, c'est pour les p'tits de tess' Tass' fais pas chier fais péter le joint et ton business Et tes p'tites fesses, c'est pour les p'tits de tess' J'tape un rail avec Jacques, fume un joint avec Nico Si mes condamnations seraient des diplômes j'serais un putain d'intello Mon album est dans les bacs, Tony fonce-dé à la co-co Tout le monde me cherche les stups les tass et puis, même les potos car J'ai de la bonne hiya, dans ma tabatière J'ai de la cess' et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Man j'surveille mes arrières, j'surveille mes arrières J'ai de la bonne hiya, dans ma tabatière J'ai de la CC et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Man, j'ai de la bonne hiya et tu n'en auras pas T - Mais.. allez.. steuplaît fais moi un crédit.. mais... fais moi un crédit.. avec tout ce que je te prends tu vas pas me faire chier pour une dose ! Mais... mais fais moi un crédit steuplaît ! Tiens ! Tiens ! J'te passe un bon kefta omelette double fromage ! LF - Ah garde le ton kefta j'ai pas faim ! T - Mais.. mais fais moi un crédit pour une fois ! LF - Y a pas de crédit si t'as pas de fric c'est que t'as pas de cul mon négro ! T - J'te suce la bite mec j'te suce la bite ! LF - T'as dis quoi là ? T'as dis quoi ? Tu me suces quoi ? Tu me suces quoi négro ? Mais qu'est-ce que t'as dis là ? Répète c'que t'as dis ! Tu suces quoi là ? T - Mais range ça négro ! LF - Tiens ! Suce-moi ça !Paroles rédigées et expliquées par la communauté Rap Genius France</t>
+          <t>Yeah, fais péter le joint et ton business Et tes p'tites fesses, c'est pour les p'tits de téce Man fais pas chier fais péter le joint et ton business Et tes p'tites fesses, c'est pour les p'tits de téce Yeah ! Ok j'ai pris le périph' bêtement, cherché des thunes bêtement As-tu vu les keufs ? T'inquiètes nan, j'vais faire un p'tit tour t'inquiètes m'an Je soigne les tox' en que-man, la dope et leurs médicaments Je fume et je bois si le juge me voit je ne tomberai pas je touche du bois Ici on cherche les embêtements, n'est bon qu'à ber-tom bêtement Petit voilà ta CC si t'en prends t'auras pas d'bénef', naaan ! Yeah, yeah pe-pom sous la Goose Pour rer-ti j'ai deux boules et pour gole-ri j'ai Debbouze La tass' est dans le CLK, si elle mate et c'est le cas Vodka hôtel coup de teub et j'la démarre comme Anelka Yeah, tout le monde me cherche dans la ville Les potes les putes les tass et même les stups' en civil car J'ai de la bonne hiya, dans ma tabatière J'ai de la cess' et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Man j'surveille mes arrières, j'surveille mes arrières J'ai de la bonne hiya, dans ma tabatière J'ai de la CC et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Gros brolic' à la ceinture et j'surveille mes arrières J'sors les gros fers et j'tape des poses plastique Bienvenue dans mon Sept-Huit où les toxicos se piquent Où les p'tits vendent la CC en écoutant ma zique' Où ces fils de pute de keufs se prennent des gros front-kicks, se prennent des gros fous-kicks Petit mais j'marche dans la nuit Le keuf me parle mal je ferais pas belhani Complètement paranoïaque, fonce-dé à l'ammoniac Serré dans une cellule comme un canoë-kayak Alors j'ai pris le train en route man les sacs plein de kilos Moi j'cherchais à être millionnaire, les petits Zé Pequeno C'est kilos de CC, rettes-ba, feu rouge t'arrêtes pas Voilà mon phone bipe moi, voilà ma queue pipe moi dures comme le béton, règle nos dièses au pe-pom T'as pas d'euros laisse ber-tom, va sniffer le passage piéton Au dessus des lois c'est c'est haut haut haut ! Les keufs débarquent au re-squa c'est oh flashballs ! J'ai de la bonne hiya, dans ma tabatière J'ai de la cess' et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Man j'surveille mes arrières, j'surveille mes arrières J'ai de la bonne hiya, dans ma tabatière J'ai de la CC et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Gros brolic' à la ceinture et j'surveille mes arrières Fais péter le joint et ton business Et tes p'tites fesses, c'est pour les p'tits de tess' Tass' fais pas chier fais péter le joint et ton business Et tes p'tites fesses, c'est pour les p'tits de tess' J'tape un rail avec Jacques, fume un joint avec Nico Si mes condamnations seraient des diplômes j'serais un putain d'intello Mon album est dans les bacs, Tony fonce-dé à la co-co Tout le monde me cherche les stups les tass et puis, même les potos car J'ai de la bonne hiya, dans ma tabatière J'ai de la cess' et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Man j'surveille mes arrières, j'surveille mes arrières J'ai de la bonne hiya, dans ma tabatière J'ai de la CC et j'ai du crack dans la poche arrière Bien maquillées les deux-trois tass' sur la banquette arrière Man, j'ai de la bonne hiya et tu n'en auras pas T - Mais.. allez.. steuplaît fais moi un crédit.. mais... fais moi un crédit.. avec tout ce que je te prends tu vas pas me faire chier pour une dose ! Mais... mais fais moi un crédit steuplaît ! Tiens ! Tiens ! J'te passe un bon kefta omelette double fromage ! LF - Ah garde le ton kefta j'ai pas faim ! T - Mais.. mais fais moi un crédit pour une fois ! LF - Y a pas de crédit si t'as pas de fric c'est que t'as pas de cul mon négro ! T - J'te suce la bite mec j'te suce la bite ! LF - T'as dis quoi là ? T'as dis quoi ? Tu me suces quoi ? Tu me suces quoi négro ? Mais qu'est-ce que t'as dis là ? Répète c'que t'as dis ! Tu suces quoi là ? T - Mais range ça négro ! LF - Tiens ! Suce-moi ça !Paroles rédigées et expliquées par la communauté Rap Genius France</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Quoi d'neuf Fouiny Baby ? J'ai .. j'ai .. j'ai longtemps couru après .. après les .. toutes ces choses matérielles .. toutes ces .. toutes ces choses qui ont fait de moi un... Mais bon c'est pas grave .. j'peux passer .. passé... à travers ça J'ai longtemps couru après le succès À bout de souffle, atteindre les sommets Jusqu'à en perdre la tête, oublier tout c'qui m'était cher Seigneur montre-moi la lumière, la lumière, la lumière, la lumière Seigneur montre-nous la lumière Ici c'est les maglites des keufs qui nous éclairent De 8 heures à 20 heures du soir voilà les horaires de mon père Et comme on attend rien d'la vie, alors on espère Yeah, et que personne ne m'face la morale, nan Physiquement ça va, mais bon moralement On sera tous blindés, un jour ouais normalement Des fois la vie c'est cheum, comme enterrer sa maman Les keufs en viennent aux mains mais bon je prends sur moi Et comme la coke se vend bien, alors j'en prends sur moi J'ai souvent fini aux chtars avec les mains liées T'avais beau témoigner moi j'ai toujours nié Yeah, demande à Clément d'Animalsons Les plus tragiques histoires font les meilleurs sons Yeah ! Enfant d'la DASS, de la CAF Petit Laouni, à qui les keufs demandent des autographes haha ! You might also likeRefrain J'ai longtemps couru après le succès À bout de souffle, atteindre les sommets Jusqu'à en perdre la tête, oublier tout c'qui m'était cher Seigneur montre-moi la lumière, la lumière, la lumière, la lumière Yeah, j'ai longtemps couru derrière l'succès À bout d'souffle, atteindre les sommets Yeah, j'ai accepté le diable comme ami, l'Enfer m'envoie des com's Et si j'monte au Paradis, j'crois qu'j'connaîtrai personne J'ai fait des mauvaises choses, mais j'en ai fait des bonnes J'ai dormi au Formule 1 avant d'dormir au Hilton Yeah, et ceux qui m'jugent pour une insulte sur un refrain En connaissent autant sur Dieu qu'les journalistes de TF1 Yeah, j'ai longtemps couru derrière l'bonheur Mais d'puis qu'maman n'est plus là, c'est lui qui court derrière moi J'aurais pu finir dans la street, mourir d'overdose M'faire caner par un haineux, à la recherche d'un gros buzz J'aurais pu m'niquer en KX, j'aurais pu m'niquer en RM Un tribunal, une famille triste, un verdict, une longue peine J'ai longtemps couru après le succès À bout de souffle, atteindre les sommets Jusqu'à en perdre la tête, oublier tout c'qui m'était cher Seigneur montre-moi la lumière, la lumière, la lumière, la lumière Yeah, seigneur montre-nous la lumière, trop marre des ténèbres D'studio en studio mon ange gauche est dev'nu célèbre J'traîne dans les coins sombres, montrez-moi la lumière Appartement délabré Montrez-moi Monsieur l'maire Yeah, Seigneur montre-moi la lumière Un joint d'beuh, et j'me sens d'humeur lunaire J'avais seize ans quand'les keufs m'ont privé d'ma liberté Quand tu cries seul dans ta cellule seul Dieu peut t'écouter Yeah ! Enfant d'la DASS, de la CAF, des halls et des taules Enfant des coups d'shlass pour un coup d'épaule Yeah, j'ai longtemps couru derrière l'succès Les gens veulent être moi, pendant qu'je cours derrière les années passées J'ai longtemps couru après le succès À bout de souffle, atteindre les sommets Jusqu'à en perdre la tête, oublier tout c'qui m'était cher Seigneur montre-moi la lumière, la lumière, la lumière, la lumière Quoi d'neuf Fouiny Baby, hanhan J'ai longtemps couru derrière l'succès La lumière Depuis l'époque où on trouvait des bouts d'plastique dans les savonettes La lumière Depuis l'époque où on galérait pour les couper Quoi d'neuf Fouiny Baby ! Hanhan La lumière La lumière, la lumière, la lumière Rejoins-nous pour qu'on puisse nous aussi te montrer la lumière !</t>
+          <t>Quoi d'neuf Fouiny Baby ? J'ai .. j'ai .. j'ai longtemps couru après .. après les .. toutes ces choses matérielles .. toutes ces .. toutes ces choses qui ont fait de moi un... Mais bon c'est pas grave .. j'peux passer .. passé... à travers ça J'ai longtemps couru après le succès À bout de souffle, atteindre les sommets Jusqu'à en perdre la tête, oublier tout c'qui m'était cher Seigneur montre-moi la lumière, la lumière, la lumière, la lumière Seigneur montre-nous la lumière Ici c'est les maglites des keufs qui nous éclairent De 8 heures à 20 heures du soir voilà les horaires de mon père Et comme on attend rien d'la vie, alors on espère Yeah, et que personne ne m'face la morale, nan Physiquement ça va, mais bon moralement On sera tous blindés, un jour ouais normalement Des fois la vie c'est cheum, comme enterrer sa maman Les keufs en viennent aux mains mais bon je prends sur moi Et comme la coke se vend bien, alors j'en prends sur moi J'ai souvent fini aux chtars avec les mains liées T'avais beau témoigner moi j'ai toujours nié Yeah, demande à Clément d'Animalsons Les plus tragiques histoires font les meilleurs sons Yeah ! Enfant d'la DASS, de la CAF Petit Laouni, à qui les keufs demandent des autographes haha ! Refrain J'ai longtemps couru après le succès À bout de souffle, atteindre les sommets Jusqu'à en perdre la tête, oublier tout c'qui m'était cher Seigneur montre-moi la lumière, la lumière, la lumière, la lumière Yeah, j'ai longtemps couru derrière l'succès À bout d'souffle, atteindre les sommets Yeah, j'ai accepté le diable comme ami, l'Enfer m'envoie des com's Et si j'monte au Paradis, j'crois qu'j'connaîtrai personne J'ai fait des mauvaises choses, mais j'en ai fait des bonnes J'ai dormi au Formule 1 avant d'dormir au Hilton Yeah, et ceux qui m'jugent pour une insulte sur un refrain En connaissent autant sur Dieu qu'les journalistes de TF1 Yeah, j'ai longtemps couru derrière l'bonheur Mais d'puis qu'maman n'est plus là, c'est lui qui court derrière moi J'aurais pu finir dans la street, mourir d'overdose M'faire caner par un haineux, à la recherche d'un gros buzz J'aurais pu m'niquer en KX, j'aurais pu m'niquer en RM Un tribunal, une famille triste, un verdict, une longue peine J'ai longtemps couru après le succès À bout de souffle, atteindre les sommets Jusqu'à en perdre la tête, oublier tout c'qui m'était cher Seigneur montre-moi la lumière, la lumière, la lumière, la lumière Yeah, seigneur montre-nous la lumière, trop marre des ténèbres D'studio en studio mon ange gauche est dev'nu célèbre J'traîne dans les coins sombres, montrez-moi la lumière Appartement délabré Montrez-moi Monsieur l'maire Yeah, Seigneur montre-moi la lumière Un joint d'beuh, et j'me sens d'humeur lunaire J'avais seize ans quand'les keufs m'ont privé d'ma liberté Quand tu cries seul dans ta cellule seul Dieu peut t'écouter Yeah ! Enfant d'la DASS, de la CAF, des halls et des taules Enfant des coups d'shlass pour un coup d'épaule Yeah, j'ai longtemps couru derrière l'succès Les gens veulent être moi, pendant qu'je cours derrière les années passées J'ai longtemps couru après le succès À bout de souffle, atteindre les sommets Jusqu'à en perdre la tête, oublier tout c'qui m'était cher Seigneur montre-moi la lumière, la lumière, la lumière, la lumière Quoi d'neuf Fouiny Baby, hanhan J'ai longtemps couru derrière l'succès La lumière Depuis l'époque où on trouvait des bouts d'plastique dans les savonettes La lumière Depuis l'époque où on galérait pour les couper Quoi d'neuf Fouiny Baby ! Hanhan La lumière La lumière, la lumière, la lumière Rejoins-nous pour qu'on puisse nous aussi te montrer la lumière !</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>M'évader, m'évader, m'évader M'évader, m'évader, m'évader M'évader, m'évader, m'évader M'évader, m'évader, m'évader De cette tristesse à huis clos Yeah, douleur et peine, douleur et peine Billets violets, nique sa mère la juge d'application des peines Mon stylo saigne, j'suis en écoute chez les R.G Et si j'ai suivi le troupeau c'est pour exécuter le berger Les langages sont codés, codés Les petits vendent de la C.C aux grands frères qui font des O.D On traîne dans les couloirs, les tribunaux sont bien colorés Ouais tu me fous là-bas mais la coke reste ta prison dorée On avait que des miettes que l'état voulait picorer Quand le drame arrive, les keufs sont là pour décorer Ouais la vie est dure avec ou sans gingembre Je danse le tchiriri, je fais ma peine sur une jambe Fouiny Babe M'évader, m'évader, m'évader Combien de fois j'ai voulu scier ces barreaux M'évader, m'évader, m'évader La solitude allongé seul dans ce fourgon M'évader, m'évader, m'évader Les saisons passent, le froid a glacé les carreaux M'évader, m'évader, m'évader De cette tristesse à huit clos You might also like M'évader, m'évader Au début on m'écrivait, avec le temps on m'oubliait J'descends du parloir, parait que ton frère est en G.AV Amnésie devant le juge, les poucaves et les vrais le savent Fouiny Baby écris de mon sang dans leur mitard J'ai toujours été personne, rien à foutre d'être une star Tu veux qu'on parle de nous, ma vie n'est pas un poème Pas besoin de parler d'amour, l'amour parle de lui même Pas une lettre, pas un mandat mais sans rancune Les juges n'aiment pas les dealeurs mais les avocats aiment leurs thunes Ce soir je m'endors en rêvant d'être ailleurs Ils ouvrent des magnums pendant que j'déjeune du pain et du beurre Fouiny Babe M'évader, m'évader, m'évader Combien de fois j'ai voulu scier ces barreaux M'évader, m'évader, m'évader La solitude allongé seul dans ce fourgon M'évader, m'évader, m'évader Les saisons passent, le froid a glacé les carreaux M'évader, m'évader, m'évader De cette tristesse à huit clos Maman sèche tes larmes Je sais que j'ai construit de mes propres mains cette galère dans laquelle on rame Encore 1 mois sans la télé Les courriers se font rares comme les pointeurs qu'ont à mêlés Forfait Néo, on s'endort au portable Je pense à l'avenir mais je sais que la poisse m'attend devant le portail Promis bébé à ma sortie je ferai des efforts Et tes courriers, je ne les lis plus, je les dévore Au square les gens ne dorment que d'un il Car avec l'autre il te porte lil La paraître, le paraître J'ai jamais été libre, la prison c'est dans la tête M'évader, m'évader, m'évader Combien de fois j'ai voulu scier ces barreaux M'évader, m'évader, m'évader La solitude allongé seul dans ce fourgon M'évader, m'évader, m'évader Les saisons passent, le froid a glacé les carreaux M'évader, m'évader, m'évader De cette tristesse à huit clos</t>
+          <t>M'évader, m'évader, m'évader M'évader, m'évader, m'évader M'évader, m'évader, m'évader M'évader, m'évader, m'évader De cette tristesse à huis clos Yeah, douleur et peine, douleur et peine Billets violets, nique sa mère la juge d'application des peines Mon stylo saigne, j'suis en écoute chez les R.G Et si j'ai suivi le troupeau c'est pour exécuter le berger Les langages sont codés, codés Les petits vendent de la C.C aux grands frères qui font des O.D On traîne dans les couloirs, les tribunaux sont bien colorés Ouais tu me fous là-bas mais la coke reste ta prison dorée On avait que des miettes que l'état voulait picorer Quand le drame arrive, les keufs sont là pour décorer Ouais la vie est dure avec ou sans gingembre Je danse le tchiriri, je fais ma peine sur une jambe Fouiny Babe M'évader, m'évader, m'évader Combien de fois j'ai voulu scier ces barreaux M'évader, m'évader, m'évader La solitude allongé seul dans ce fourgon M'évader, m'évader, m'évader Les saisons passent, le froid a glacé les carreaux M'évader, m'évader, m'évader De cette tristesse à huit clos M'évader, m'évader Au début on m'écrivait, avec le temps on m'oubliait J'descends du parloir, parait que ton frère est en G.AV Amnésie devant le juge, les poucaves et les vrais le savent Fouiny Baby écris de mon sang dans leur mitard J'ai toujours été personne, rien à foutre d'être une star Tu veux qu'on parle de nous, ma vie n'est pas un poème Pas besoin de parler d'amour, l'amour parle de lui même Pas une lettre, pas un mandat mais sans rancune Les juges n'aiment pas les dealeurs mais les avocats aiment leurs thunes Ce soir je m'endors en rêvant d'être ailleurs Ils ouvrent des magnums pendant que j'déjeune du pain et du beurre Fouiny Babe M'évader, m'évader, m'évader Combien de fois j'ai voulu scier ces barreaux M'évader, m'évader, m'évader La solitude allongé seul dans ce fourgon M'évader, m'évader, m'évader Les saisons passent, le froid a glacé les carreaux M'évader, m'évader, m'évader De cette tristesse à huit clos Maman sèche tes larmes Je sais que j'ai construit de mes propres mains cette galère dans laquelle on rame Encore 1 mois sans la télé Les courriers se font rares comme les pointeurs qu'ont à mêlés Forfait Néo, on s'endort au portable Je pense à l'avenir mais je sais que la poisse m'attend devant le portail Promis bébé à ma sortie je ferai des efforts Et tes courriers, je ne les lis plus, je les dévore Au square les gens ne dorment que d'un il Car avec l'autre il te porte lil La paraître, le paraître J'ai jamais été libre, la prison c'est dans la tête M'évader, m'évader, m'évader Combien de fois j'ai voulu scier ces barreaux M'évader, m'évader, m'évader La solitude allongé seul dans ce fourgon M'évader, m'évader, m'évader Les saisons passent, le froid a glacé les carreaux M'évader, m'évader, m'évader De cette tristesse à huit clos</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va, ça va, 911 et j'me pavane, pavane Fier comme un lion dans la Savane, Savane, gros gare-ci tah La Havane, Havane La route fut longue mais ça va, ça va, jsuis en roi quon menterre à Rabat, Rabat Moi et tous mes khos on est rhabat, rhabat, on s'enjaille dans un fer noir mat, noir mat Ils veulent du flouze, ils veulent du flouze, et l'monde part en partouze, et l'monde part en partouze Télé-réalité, jai même vu, lAnge Gabriel sur NRJ12, sur NRJ12 Moi hamdullah ça va, tu m'as vu chez Arthur, Cauet, Difool, tu m'as vu chez Hanouna J'ai rendu fière la Mama, avant quelle ne sen aille, haineux, fauché, reste dans la paille Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Moi hamdullah ça va, ça va, ça fait dix piges que j'me pavane, pavane Big up à mes frérots de Mada, Gwada, La Réunion léla Guyana-yana Et j'ai fait l'tour de l'Africa, frica, compte plus le temps pour les Visas, Visas Tournée dans les clubs, dans les chichas, chichas, j'en ai vu des mythos se ffiche-a, ffiche-a Elles veulent briller, elles veulent briller, mais, mais t'as pas le mari de Beyoncé Regarde le ciel, apprends à remercier, sur un champ de mines sur quel pied danser ? Ils sont grillées Ils veulent briller, mais c'est qu'une fois dans la merde qu'ils veulent prier Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujoursYou might also like</t>
+          <t>Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va, ça va, 911 et j'me pavane, pavane Fier comme un lion dans la Savane, Savane, gros gare-ci tah La Havane, Havane La route fut longue mais ça va, ça va, jsuis en roi quon menterre à Rabat, Rabat Moi et tous mes khos on est rhabat, rhabat, on s'enjaille dans un fer noir mat, noir mat Ils veulent du flouze, ils veulent du flouze, et l'monde part en partouze, et l'monde part en partouze Télé-réalité, jai même vu, lAnge Gabriel sur NRJ12, sur NRJ12 Moi hamdullah ça va, tu m'as vu chez Arthur, Cauet, Difool, tu m'as vu chez Hanouna J'ai rendu fière la Mama, avant quelle ne sen aille, haineux, fauché, reste dans la paille Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Moi hamdullah ça va, ça va, ça fait dix piges que j'me pavane, pavane Big up à mes frérots de Mada, Gwada, La Réunion léla Guyana-yana Et j'ai fait l'tour de l'Africa, frica, compte plus le temps pour les Visas, Visas Tournée dans les clubs, dans les chichas, chichas, j'en ai vu des mythos se ffiche-a, ffiche-a Elles veulent briller, elles veulent briller, mais, mais t'as pas le mari de Beyoncé Regarde le ciel, apprends à remercier, sur un champ de mines sur quel pied danser ? Ils sont grillées Ils veulent briller, mais c'est qu'une fois dans la merde qu'ils veulent prier Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours Moi, comme tu vois ça va toujours J'ai fait ma route, j'ai brillé sans aucun détour Hamdullah ça va toujours</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Brrr, brrr, brrr, brrr, brrr, B.S Skurt Yeah, Fouiny Eh lmaire ! Nique ta mère au maire ! Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères, mères Yaura du niquage de mamans Baisse dun ton renoi parle autrement Jai changé lgame ouais jai changé la donne Ah, jai lflow Royal Oak Daytona Yaura du niquage de darons Là-haut ça tourne pas rond, les gros stapent dla marron Massage avec finitions, tu connais Faîtes place, multimillionnaire sans brevet Sak pasé n'ap boulé Jme rappelle des six du mat des keufs en boul-dé Javais rien dans les poches javais lsalaire dun poundé Menottes aux poignets avec le regard trop goûte-dé Porsche, S4 Ces MC nont aucun buzz, ya que pendant lRamadan quils ont des dattes S-Kal, Banlieue Sale, Team Banlieue Sale Ce reubeu brasse plus vite que les balles You might also like Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères, mères Amène les XXX, enlève tes lacets Rappe ma vie, invente-toi un passé Tes au coin VIP, arrête de tla péter Attends, dis-toi qusur ma table jai lprix dune Audi TT skurt R8, 7.8 dans les parages Fonce tête baissée comme sur les barrages Ya plus dbiff ils ont braqué Colette Si jai plus dgun coup dclé à molette Nique la BAC, la départementale Quand les guns tirent les départements parlent Ici on tfuck ya pas dpeace Dans ta matrice reubeu tas un flow commis doffice Yaura du niquage de surs Ici on bloque lascenseur Tous mes tits-pe chantent en chur Yaura du, yaura du Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères, mères Démarre le fer, on monte sur les Champs On t'casse les dents DidierDeschamps Les meufs daujourdhui, cest plus comme à lépoque Elle mettent plus dcapote sauf pour passer la coke Y'aura du niquage de mères Le temps des représailles sa mère On t'vend dla coke, en ptits sachets Tous les chemins mènent à Versace Demande à Momo khoya, demande à Roma' Jai giflé lrap jlai laissé dans lcomas Arrête tes salades là tu sens le felfel Dar Beida frère kefta Djmel Yaura du niquage de dandys On sen bats les couilles on a kidnappé Gandhi Yaura du niquage de jdas Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères, mères6</t>
+          <t>Brrr, brrr, brrr, brrr, brrr, B.S Skurt Yeah, Fouiny Eh lmaire ! Nique ta mère au maire ! Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères, mères Yaura du niquage de mamans Baisse dun ton renoi parle autrement Jai changé lgame ouais jai changé la donne Ah, jai lflow Royal Oak Daytona Yaura du niquage de darons Là-haut ça tourne pas rond, les gros stapent dla marron Massage avec finitions, tu connais Faîtes place, multimillionnaire sans brevet Sak pasé n'ap boulé Jme rappelle des six du mat des keufs en boul-dé Javais rien dans les poches javais lsalaire dun poundé Menottes aux poignets avec le regard trop goûte-dé Porsche, S4 Ces MC nont aucun buzz, ya que pendant lRamadan quils ont des dattes S-Kal, Banlieue Sale, Team Banlieue Sale Ce reubeu brasse plus vite que les balles Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères, mères Amène les XXX, enlève tes lacets Rappe ma vie, invente-toi un passé Tes au coin VIP, arrête de tla péter Attends, dis-toi qusur ma table jai lprix dune Audi TT skurt R8, 7.8 dans les parages Fonce tête baissée comme sur les barrages Ya plus dbiff ils ont braqué Colette Si jai plus dgun coup dclé à molette Nique la BAC, la départementale Quand les guns tirent les départements parlent Ici on tfuck ya pas dpeace Dans ta matrice reubeu tas un flow commis doffice Yaura du niquage de surs Ici on bloque lascenseur Tous mes tits-pe chantent en chur Yaura du, yaura du Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères, mères Démarre le fer, on monte sur les Champs On t'casse les dents DidierDeschamps Les meufs daujourdhui, cest plus comme à lépoque Elle mettent plus dcapote sauf pour passer la coke Y'aura du niquage de mères Le temps des représailles sa mère On t'vend dla coke, en ptits sachets Tous les chemins mènent à Versace Demande à Momo khoya, demande à Roma' Jai giflé lrap jlai laissé dans lcomas Arrête tes salades là tu sens le felfel Dar Beida frère kefta Djmel Yaura du niquage de dandys On sen bats les couilles on a kidnappé Gandhi Yaura du niquage de jdas Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères Niquage de mères, niquage de mères, yaura du niquage de mères, mères6</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Oh oh oh Cause we dont need more revolution Yeah La la la la la Fouine Jimmy Sissoko and La Fouine Yeah, le message c'est, Unité Parce que dans nos mains ils ont placés des guns Parce que dans des tours sont entassées nos reums Parce que trop de nos frères purgent des longues peines Parce que dans la merde toujours les mêmes qui traînent Parce quon est rien si lon ne sunit pas Car y en a trop qui souffrent dans lanonymat Unité, unité Car y en a trop qui se cachent pour sniffer Pour enfin se rapprocher les uns des autres Et quon arrête enfin de se rejeter la faute Unité, unité Ecoutez cest juste une idée Unité, je réclame lunité parce quils nous ont divisés pour mieux régner Je réclame lunité, depuis toujours le même mot dordre, diviser pour mieux régner Cest ça, lunité, diviser pour mieux régner Parce quils nous ont divisés, oubliés, séparés, aux quatre coins du monde entier You might also like Jai vu cette terre se changer en continent Se changer en pays, se changer en ville gentiment Et puis ces barreaux qui ont fait de nous des détenus Ces chaînes qui ont fait de nous des esclaves aux regards toujours émus Jai vu ma ville se changer en quartier Diviser les petits blindés dargent dotés dune grande rivalité Les traditions cassent les couples dhorizons différents, Personne sy fait, on continue à jouer même après le coup de sifflet Cest unité unité Chez moi les étrangers sont reçus avec un sourire, un verre de thé Malheureusement, divisés divisés Toujours les mêmes images que lon nous donne dans leur journal télévisé Et parfois les murs remplacent les frontières entre deux pays Parfois les uniformes de flics se changent en treillis Cest unité unité Sachez que contre la mort personne na limmunité Unité, je réclame lunité parce quils nous ont divisés pour mieux régner Je réclame lunité, depuis toujours le même mot dordre, diviser pour mieux régner Cest ça, lunité, diviser pour mieux régner Parce quils nous ont divisés, oubliés, séparés, aux quatre coins du monde entier Love and peace and unity All the ghetto youth cry liberty All around the world I see that misery Stop the violence and give a chance to every people Unity, give a little liberty Give a U-N-I-T-Y Yes unity, give them the liberty U-N-I-T-Y Unité, je réclame lunité parce quils nous ont divisés pour mieux régner Je réclame lunité, depuis toujours le même mot dordre, diviser pour mieux régner Cest ça, lunité, diviser pour mieux régner Parce quils nous ont divisés, oubliés, séparés, aux quatre coins du monde entier Unité, je réclame lunité parce quils nous ont divisés pour mieux régner Je réclame lunité, depuis toujours le même mot dordre, diviser pour mieux régner Cest ça, lunité, diviser pour mieux régner Parce quils nous ont divisés, oubliés, séparés, aux quatre coins du monde entier Love and peace and unity All the ghetto youths dreams of liberty Love and peace and unity Give the same chance to all the people Love and peace and unity All the ghetto youths , dreams of liberty All around the world I see the misery To all the people give a chance 2004 the original Jimmy Sissoko and La Fouine La La La La La La La La La Fouine Cest ça !</t>
+          <t>Oh oh oh Cause we dont need more revolution Yeah La la la la la Fouine Jimmy Sissoko and La Fouine Yeah, le message c'est, Unité Parce que dans nos mains ils ont placés des guns Parce que dans des tours sont entassées nos reums Parce que trop de nos frères purgent des longues peines Parce que dans la merde toujours les mêmes qui traînent Parce quon est rien si lon ne sunit pas Car y en a trop qui souffrent dans lanonymat Unité, unité Car y en a trop qui se cachent pour sniffer Pour enfin se rapprocher les uns des autres Et quon arrête enfin de se rejeter la faute Unité, unité Ecoutez cest juste une idée Unité, je réclame lunité parce quils nous ont divisés pour mieux régner Je réclame lunité, depuis toujours le même mot dordre, diviser pour mieux régner Cest ça, lunité, diviser pour mieux régner Parce quils nous ont divisés, oubliés, séparés, aux quatre coins du monde entier Jai vu cette terre se changer en continent Se changer en pays, se changer en ville gentiment Et puis ces barreaux qui ont fait de nous des détenus Ces chaînes qui ont fait de nous des esclaves aux regards toujours émus Jai vu ma ville se changer en quartier Diviser les petits blindés dargent dotés dune grande rivalité Les traditions cassent les couples dhorizons différents, Personne sy fait, on continue à jouer même après le coup de sifflet Cest unité unité Chez moi les étrangers sont reçus avec un sourire, un verre de thé Malheureusement, divisés divisés Toujours les mêmes images que lon nous donne dans leur journal télévisé Et parfois les murs remplacent les frontières entre deux pays Parfois les uniformes de flics se changent en treillis Cest unité unité Sachez que contre la mort personne na limmunité Unité, je réclame lunité parce quils nous ont divisés pour mieux régner Je réclame lunité, depuis toujours le même mot dordre, diviser pour mieux régner Cest ça, lunité, diviser pour mieux régner Parce quils nous ont divisés, oubliés, séparés, aux quatre coins du monde entier Love and peace and unity All the ghetto youth cry liberty All around the world I see that misery Stop the violence and give a chance to every people Unity, give a little liberty Give a U-N-I-T-Y Yes unity, give them the liberty U-N-I-T-Y Unité, je réclame lunité parce quils nous ont divisés pour mieux régner Je réclame lunité, depuis toujours le même mot dordre, diviser pour mieux régner Cest ça, lunité, diviser pour mieux régner Parce quils nous ont divisés, oubliés, séparés, aux quatre coins du monde entier Unité, je réclame lunité parce quils nous ont divisés pour mieux régner Je réclame lunité, depuis toujours le même mot dordre, diviser pour mieux régner Cest ça, lunité, diviser pour mieux régner Parce quils nous ont divisés, oubliés, séparés, aux quatre coins du monde entier Love and peace and unity All the ghetto youths dreams of liberty Love and peace and unity Give the same chance to all the people Love and peace and unity All the ghetto youths , dreams of liberty All around the world I see the misery To all the people give a chance 2004 the original Jimmy Sissoko and La Fouine La La La La La La La La La Fouine Cest ça !</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Mec j'suis bourré au rap, je sniffe du EVE Dans ma seringue y'a du Death Row et j'prends du crack, non du Craig Mack Serre-moi une verre, mais un ptit comme Easy E J'ai la haine comme Joe Budden, quand j'tise du CNN Du label 5 au 2.1.3 Dans mon verre y'a du Nas, et dans mon joint du Jay-Z J'pète des grosses caisses et j'rote des caisses claires Et j'bois tellement de Suge Knight qu j'rêve d'être un gangster J'suis ivre assis par terre et mon bar c'est la Fnac Où j'mendie quelques gouttes, quelques tubes d'Ice Cube Du WC et du Mac 1O dans ma Heineken Et les glaçons sont Method Man et Redman Tous les yeux sont sur moi, oh la zer-mi J'vais m'faire mal, j'vais m'def au Mos Def C'est ça, serre-moi un demi ou un litre de Rakim Car j'suis bourré au son, bourré au rap, voilà La Fouine J'suis bourré au son mec, bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec, bourré au son mec, c'est ça Alcoolique anonyme, mon ami, le rap est mon hymne J'suis bourré au son mec, bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec, bourré au son mec Bourré au son mec You might also like Putain, j'suis bourré au rap, j'déambule dans les rues d'Châtelet Puis j'te jure man, j'suis en chien, j'crois bien qu'je vais braquer Urban Et sur mon burman, j'me prends pour un Ruff Ryder Ma bouche pue le DMX, ma belle tiens ! Un Jadakiss Avec Snoop on prépare Doggy style 3 J'suis un poivrot comme Ol'Dirty quand j'tise du D.P.G J'suis bourré au rap, j'bois du 2Pac et j'bois du Biggie J'en consomme tellement que j'ai envie d'me faire tirer dessus comme Fifty Roule-moi India Irie que j'me détende Un Kurupt Daz dans l'nez, j'me prends pour Bad Azz Un bon Bob Marley dans ma feuille à rouler J'suis stone comme Whitney Houston ou fan d'Eminem comme Stan C'est ça, ma capuche et ma bouteille de Mobb Deep Ma carrure et mon stick, comme Lil' Kim j'ai mon magic stick, c'est ça J'suis bourré au son mec, bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec, bourré au son mec, c'est ça Alcoolique anonyme, mon ami, le rap est mon hymne J'suis bourré au son mec, bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec, bourré au son mec Bourré au son mec J'suis pire qu'un toxico, il me faut mon Rohypnol Mec, il m'faut ma dose et j'prends pas de cocaïne, j'carbure au Cokane Si les keufs me contrôlent, j'suis bon pour l'isolement J'roule avec 10 CD's dans le chargeur, 2 grammes dans l'sang J'suis pire que Mick Jagger avec du Somebody somewhere Mes oreilles sont pires que son aspirateur Et dans ma chicha y'a du N.W.A J'fais du lourd comme Big Pun, du Big L dans mon Ethey Et quand j'rêve de grosse fortune, j'bois du Master P, du E-40 Du Timbaland, du Missy dans mon juice and gin De la East et d'la West dans mon cocktail De Wu-Tang Clan Campbell, du X To The Hi, du Pharell, c'est ça J'suis bourré au son, bourré au rap Mec, y'a pas à dire, j'suis J'suis bourré au son mec, bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec, bourré au son mec, c'est ça Alcoolique anonyme, mon ami, le rap est mon hymne J'suis bourré au son mec, bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, c'est ça La-La Fouine, La-La-La Fouine La-La-La Fouine, c'est ça</t>
+          <t>Mec j'suis bourré au rap, je sniffe du EVE Dans ma seringue y'a du Death Row et j'prends du crack, non du Craig Mack Serre-moi une verre, mais un ptit comme Easy E J'ai la haine comme Joe Budden, quand j'tise du CNN Du label 5 au 2.1.3 Dans mon verre y'a du Nas, et dans mon joint du Jay-Z J'pète des grosses caisses et j'rote des caisses claires Et j'bois tellement de Suge Knight qu j'rêve d'être un gangster J'suis ivre assis par terre et mon bar c'est la Fnac Où j'mendie quelques gouttes, quelques tubes d'Ice Cube Du WC et du Mac 1O dans ma Heineken Et les glaçons sont Method Man et Redman Tous les yeux sont sur moi, oh la zer-mi J'vais m'faire mal, j'vais m'def au Mos Def C'est ça, serre-moi un demi ou un litre de Rakim Car j'suis bourré au son, bourré au rap, voilà La Fouine J'suis bourré au son mec, bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec, bourré au son mec, c'est ça Alcoolique anonyme, mon ami, le rap est mon hymne J'suis bourré au son mec, bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec, bourré au son mec Bourré au son mec Putain, j'suis bourré au rap, j'déambule dans les rues d'Châtelet Puis j'te jure man, j'suis en chien, j'crois bien qu'je vais braquer Urban Et sur mon burman, j'me prends pour un Ruff Ryder Ma bouche pue le DMX, ma belle tiens ! Un Jadakiss Avec Snoop on prépare Doggy style 3 J'suis un poivrot comme Ol'Dirty quand j'tise du D.P.G J'suis bourré au rap, j'bois du 2Pac et j'bois du Biggie J'en consomme tellement que j'ai envie d'me faire tirer dessus comme Fifty Roule-moi India Irie que j'me détende Un Kurupt Daz dans l'nez, j'me prends pour Bad Azz Un bon Bob Marley dans ma feuille à rouler J'suis stone comme Whitney Houston ou fan d'Eminem comme Stan C'est ça, ma capuche et ma bouteille de Mobb Deep Ma carrure et mon stick, comme Lil' Kim j'ai mon magic stick, c'est ça J'suis bourré au son mec, bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec, bourré au son mec, c'est ça Alcoolique anonyme, mon ami, le rap est mon hymne J'suis bourré au son mec, bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec, bourré au son mec Bourré au son mec J'suis pire qu'un toxico, il me faut mon Rohypnol Mec, il m'faut ma dose et j'prends pas de cocaïne, j'carbure au Cokane Si les keufs me contrôlent, j'suis bon pour l'isolement J'roule avec 10 CD's dans le chargeur, 2 grammes dans l'sang J'suis pire que Mick Jagger avec du Somebody somewhere Mes oreilles sont pires que son aspirateur Et dans ma chicha y'a du N.W.A J'fais du lourd comme Big Pun, du Big L dans mon Ethey Et quand j'rêve de grosse fortune, j'bois du Master P, du E-40 Du Timbaland, du Missy dans mon juice and gin De la East et d'la West dans mon cocktail De Wu-Tang Clan Campbell, du X To The Hi, du Pharell, c'est ça J'suis bourré au son, bourré au rap Mec, y'a pas à dire, j'suis J'suis bourré au son mec, bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec, bourré au son mec, c'est ça Alcoolique anonyme, mon ami, le rap est mon hymne J'suis bourré au son mec, bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, bourré au son mec Bourré au son mec Bourré au son mec, c'est ça La-La Fouine, La-La-La Fouine La-La-La Fouine, c'est ça</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>On a coupé les sav' là où les gens en bavent Là où les gens vivent difficilement mais pour les vrais savent Connus la pénurie, les descentes des ennemis Connus la GAV la BAC le RMI D'où j'viens la misère fait du bruit comme les bécanes de cross On rêve de voir les politiciens en jupe comme en Écosse On s'est toujours accroché, depuis le début on a trimé On l'a fait pour la famille sans jamais oublier le quartier J'oublie mon matricule, le sky me manipule Le rap s'endort laisse moi l'réveiller comme d'la Red Bull Le shit le foot en salle, les garbas l'argent sale Les portables en cellule, l'ANPE mission locale Les keufs les alentours, la bicrave dans la cour Une chienne, une cave une capote un matelas et nique l'amour Un ghetto français RDV en maison d'arrêt J'pourrais rejoindre maman à cause d'un haineux et d'un cran d'arrêt ! Yeah ! Y'a rien à perdre comme y'a rien à gagner Quand tu nais là où je nais, mentalité rien à perdre Y'a rien à perdre quitte à vendre un peu d'herbe ouais Trafiquer galérer au quartier, mentalité rien à perdre D'où je viens rien à perdre au quartier rien à perdre À l'école rien à perdre, devant l'juge rien à perdre Le frigo vide rien à perdre, aucune chance rien à perdre Rien à gagner rien à perdre ! Rien à-rien à perdre ! You might also like Ici chacun son clan mais y'a plus d'petits ni d'grands Mais j'ai du sky dans la gourde pourtant j'arrive premier au cent mètres La roue tourne comme la SkyRoulette, on brûle comme une boulette Quitte à finir écrouer j'prends l'pactole et t'laisse des brouettes, yeaah ! On branche des tasspées, on laisse des gens en sang par terre Tu branches ton PC tu cliques tu laisses des commentaires Aller retour on t'fait l'amour ta feu-meu pète un câble Arriver dans le game les trois quarts de ces rappeurs sont relégables Tu sais qu'on part de rien rageux on s'en bat les reins Rebeux en garde à vue seules les balances mangent à leur faim Yeah au tribunal j'ai jamais pleuré Dans mes rêves j'insulte la juge jusqu'à même la voir pleurer ! Yeah Bienvenue dans mon quartier j'srais d'vant l'hall ou au card-pla On est pas des fils à papa mais des fils à garres-ba ! Y'a pas d'hasard haineux on mérite tous ce qui nous arrive On gaspille nos euros on t'laisse gaspiller ta salive, yeah Y'a rien à perdre comme y'a rien à gagner Quand tu nais là où je nais, mentalité rien à perdre Y'a rien à perdre quitte à vendre un peu d'herbe ouais Trafiquer galérer au quartier, mentalité rien à perdre D'où je viens rien à perdre au quartier rien à perdre À l'école rien à perdre, devant l'juge rien à perdre Le frigo vide rien à perdre, aucune chance rien à perdre Rien à gagner rien à perdre ! Rien à-rien à perdre ! Trop d'soucis dans nos têtes trop d'keftas dans nos becs Tu veux du taff il t'faut la tête à Justin Timberlake C'est barrette sur barrette on veut viser le pactole Un CS 500 man une remorque et un Raptor ! J'm'en bats les blings-blings aucune attache aux biens matériels Regarde ces hypocrites ils parlent du Din pour faire de l'oseille Même les haineux ma gueule bougent leurs têtes en secret Banlieue banlieue sale on ouvre des kechnets et des kegrès ! C'est la capitale mon frère, elle cherche les millionnaires Tu sors de boite Top Model rime avec concessionnaire ! Putain le crime m'appelle tu crois qu'on s'la fait belle Man on a trop la haine dédicace aux frères de Villiers Le Bel! C'est l'Sheitan à la prod mon pe-ra a pris des prot' 78 tu cherches la merde et tu trouves un gode ! Parce qu'on a rien à perdre parce que l'argent est l'boss Parfois on fait d'la taule parfois on fait du cross, yeah ! Y'a rien à perdre comme y'a rien à gagner Quand tu nais là où je nais, mentalité rien à perdre Y'a rien à perdre quitte à vendre un peu d'herbe ouais Trafiquer galérer au quartier, mentalité rien à perdre D'où je viens rien à perdre au quartier rien à perdre À l'école rien à perdre, devant l'juge rien à perdre Le frigo vide rien à perdre, aucune chance rien à perdre Rien à gagner rien à perdre ! Rien à-rien à perdre !</t>
+          <t>On a coupé les sav' là où les gens en bavent Là où les gens vivent difficilement mais pour les vrais savent Connus la pénurie, les descentes des ennemis Connus la GAV la BAC le RMI D'où j'viens la misère fait du bruit comme les bécanes de cross On rêve de voir les politiciens en jupe comme en Écosse On s'est toujours accroché, depuis le début on a trimé On l'a fait pour la famille sans jamais oublier le quartier J'oublie mon matricule, le sky me manipule Le rap s'endort laisse moi l'réveiller comme d'la Red Bull Le shit le foot en salle, les garbas l'argent sale Les portables en cellule, l'ANPE mission locale Les keufs les alentours, la bicrave dans la cour Une chienne, une cave une capote un matelas et nique l'amour Un ghetto français RDV en maison d'arrêt J'pourrais rejoindre maman à cause d'un haineux et d'un cran d'arrêt ! Yeah ! Y'a rien à perdre comme y'a rien à gagner Quand tu nais là où je nais, mentalité rien à perdre Y'a rien à perdre quitte à vendre un peu d'herbe ouais Trafiquer galérer au quartier, mentalité rien à perdre D'où je viens rien à perdre au quartier rien à perdre À l'école rien à perdre, devant l'juge rien à perdre Le frigo vide rien à perdre, aucune chance rien à perdre Rien à gagner rien à perdre ! Rien à-rien à perdre ! Ici chacun son clan mais y'a plus d'petits ni d'grands Mais j'ai du sky dans la gourde pourtant j'arrive premier au cent mètres La roue tourne comme la SkyRoulette, on brûle comme une boulette Quitte à finir écrouer j'prends l'pactole et t'laisse des brouettes, yeaah ! On branche des tasspées, on laisse des gens en sang par terre Tu branches ton PC tu cliques tu laisses des commentaires Aller retour on t'fait l'amour ta feu-meu pète un câble Arriver dans le game les trois quarts de ces rappeurs sont relégables Tu sais qu'on part de rien rageux on s'en bat les reins Rebeux en garde à vue seules les balances mangent à leur faim Yeah au tribunal j'ai jamais pleuré Dans mes rêves j'insulte la juge jusqu'à même la voir pleurer ! Yeah Bienvenue dans mon quartier j'srais d'vant l'hall ou au card-pla On est pas des fils à papa mais des fils à garres-ba ! Y'a pas d'hasard haineux on mérite tous ce qui nous arrive On gaspille nos euros on t'laisse gaspiller ta salive, yeah Y'a rien à perdre comme y'a rien à gagner Quand tu nais là où je nais, mentalité rien à perdre Y'a rien à perdre quitte à vendre un peu d'herbe ouais Trafiquer galérer au quartier, mentalité rien à perdre D'où je viens rien à perdre au quartier rien à perdre À l'école rien à perdre, devant l'juge rien à perdre Le frigo vide rien à perdre, aucune chance rien à perdre Rien à gagner rien à perdre ! Rien à-rien à perdre ! Trop d'soucis dans nos têtes trop d'keftas dans nos becs Tu veux du taff il t'faut la tête à Justin Timberlake C'est barrette sur barrette on veut viser le pactole Un CS 500 man une remorque et un Raptor ! J'm'en bats les blings-blings aucune attache aux biens matériels Regarde ces hypocrites ils parlent du Din pour faire de l'oseille Même les haineux ma gueule bougent leurs têtes en secret Banlieue banlieue sale on ouvre des kechnets et des kegrès ! C'est la capitale mon frère, elle cherche les millionnaires Tu sors de boite Top Model rime avec concessionnaire ! Putain le crime m'appelle tu crois qu'on s'la fait belle Man on a trop la haine dédicace aux frères de Villiers Le Bel! C'est l'Sheitan à la prod mon pe-ra a pris des prot' 78 tu cherches la merde et tu trouves un gode ! Parce qu'on a rien à perdre parce que l'argent est l'boss Parfois on fait d'la taule parfois on fait du cross, yeah ! Y'a rien à perdre comme y'a rien à gagner Quand tu nais là où je nais, mentalité rien à perdre Y'a rien à perdre quitte à vendre un peu d'herbe ouais Trafiquer galérer au quartier, mentalité rien à perdre D'où je viens rien à perdre au quartier rien à perdre À l'école rien à perdre, devant l'juge rien à perdre Le frigo vide rien à perdre, aucune chance rien à perdre Rien à gagner rien à perdre ! Rien à-rien à perdre !</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Pétasse suis-moi dans mon hôtel J'vais te faire la sère-mi toute la nuit Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc pétasse suis-moi dans mon hôtel Pour une volontaire agression sexuelle Faites monter les mineurs jsuis pire qu R. Kelly 1 pour le sexe, 2 pour la monnaie Sexe et money, sexe et money Sexe et money Moi c'est rien que le sexe et la monnaie Sexet et money, owa owa Pétasse monte dans mon hôtel en porte-jarretelles Si on te demande ce gars cest qui cest moi ! Si dans ton sac y a trop decstasy Monte sur ma bite position assise cest ça ! Jte laisserai pas dgoût amer, moi jbouge comme MC Hammer Jsuis aussi lourd quun Hummer, pétasse jai déjà ton number Avec le L.A.F. Monsieur Fricman Le jerricane est plein donc monte sur ma bite ma lady Tes ma tass' pas ma lady Tu vas hurler lady Tu vas crier lady Tes ma bitch pas ma lady Tu vas crier lady La Fouine ladies La Fouine ladies You might also like Pétasse suis-moi dans mon hôtel J'vais te faire la sère-mi toute la nuit Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc pétasse suis-moi dans mon hôtel Pour une volontaire agression sexuelle Faites monter les mineurs jsuis pire qu R. Kelly 1 pour le sexe, 2 pour la monnaie Sexe et money, sexe et money Sexe et money Moi c'est rien que le sexe et la monnaie Sexe et money, owa owa Donc tass' grimpe dans mon hôtel mortel Tu vas hurler toute la nuit cest ça ! Grimpe dans ma gov' cesse toute tes manies Jsais bien que ton gars a des anomalies cest ça ! Jvais réviser ta grammaire, ma belle surveille tes arrières Préviens surtout pas ta mère, jaime quand tu joues la panthère Hôtel première classe ou bien F1 Jai ma dixième tass' jsuis pas un biffin, non tes pas ma lady Tu vas crier lady Tu vas hurler lady Tes ma tass pas ma lady Tu vas crier lady La Fouine ladies La Fouine ladies T'es ma bitch pas ma lady Pétasse suis-moi dans mon hôtel J'vais te faire la sère-mi toute la nuit Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc pétasse suis-moi dans mon hôtel Pour une volontaire agression sexuelle Faites monter les mineurs jsuis pire qu R. Kelly 1 pour le sexe, 2 pour la monnaie Sexe et money, sexe et money Sexe et money Moi c'est rien que le sexe et la monnaie Sexe et money, owa owa Donc tasse-pé cesse tes non, ton frère va pas mtester non Jralentis je sais que tes lente, le niveau est excellent Attrape ma dick quand toutes les tass' sont dans le tel-hô Si lintelligence est dans le slip, tous mes potes sont des intellos Tes en rade Demande à ta copine cque jlui ai mis Tu sais la Fouine est fantastique Laisse-moi donc finir mon stick Jsuis O.K Sur la poignée ne pas déranger Trop de tass' ont le double des clés Suis-moi dans mon hôtel Pétasse suis-moi dans mon hôtel J'vais te faire la sère-mi toute la nuit Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc pétasse suis-moi dans mon hôtel Pour une volontaire agression sexuelle Faites monter les mineurs jsuis pire qu R. Kelly 1 pour le sexe, 2 pour la monnaie Sexe et money, sexe et money Sexe et money Moi c'est rien que le sexe et la monnaie Sexe et money, owa owa Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Pétasse suis-moi dans mon hôtel J'vais te faire la sère-mi toute la nuit Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc pétasse suis-moi dans mon hôtel Pour une volontaire agression sexuelle Faites monter les mineurs jsuis pire qu R. Kelly 1 pour le sexe, 2 pour la monnaie Sexe et money, sexe et money Sexe et money Moi c'est rien que le sexe et la monnaie Sexet et money, owa owa Pétasse monte dans mon hôtel en porte-jarretelles Si on te demande ce gars cest qui cest moi ! Si dans ton sac y a trop decstasy Monte sur ma bite position assise cest ça ! Jte laisserai pas dgoût amer, moi jbouge comme MC Hammer Jsuis aussi lourd quun Hummer, pétasse jai déjà ton number Avec le L.A.F. Monsieur Fricman Le jerricane est plein donc monte sur ma bite ma lady Tes ma tass' pas ma lady Tu vas hurler lady Tu vas crier lady Tes ma bitch pas ma lady Tu vas crier lady La Fouine ladies La Fouine ladies Pétasse suis-moi dans mon hôtel J'vais te faire la sère-mi toute la nuit Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc pétasse suis-moi dans mon hôtel Pour une volontaire agression sexuelle Faites monter les mineurs jsuis pire qu R. Kelly 1 pour le sexe, 2 pour la monnaie Sexe et money, sexe et money Sexe et money Moi c'est rien que le sexe et la monnaie Sexe et money, owa owa Donc tass' grimpe dans mon hôtel mortel Tu vas hurler toute la nuit cest ça ! Grimpe dans ma gov' cesse toute tes manies Jsais bien que ton gars a des anomalies cest ça ! Jvais réviser ta grammaire, ma belle surveille tes arrières Préviens surtout pas ta mère, jaime quand tu joues la panthère Hôtel première classe ou bien F1 Jai ma dixième tass' jsuis pas un biffin, non tes pas ma lady Tu vas crier lady Tu vas hurler lady Tes ma tass pas ma lady Tu vas crier lady La Fouine ladies La Fouine ladies T'es ma bitch pas ma lady Pétasse suis-moi dans mon hôtel J'vais te faire la sère-mi toute la nuit Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc pétasse suis-moi dans mon hôtel Pour une volontaire agression sexuelle Faites monter les mineurs jsuis pire qu R. Kelly 1 pour le sexe, 2 pour la monnaie Sexe et money, sexe et money Sexe et money Moi c'est rien que le sexe et la monnaie Sexe et money, owa owa Donc tasse-pé cesse tes non, ton frère va pas mtester non Jralentis je sais que tes lente, le niveau est excellent Attrape ma dick quand toutes les tass' sont dans le tel-hô Si lintelligence est dans le slip, tous mes potes sont des intellos Tes en rade Demande à ta copine cque jlui ai mis Tu sais la Fouine est fantastique Laisse-moi donc finir mon stick Jsuis O.K Sur la poignée ne pas déranger Trop de tass' ont le double des clés Suis-moi dans mon hôtel Pétasse suis-moi dans mon hôtel J'vais te faire la sère-mi toute la nuit Toi et moi c'est juste pour le sexe girl Arrête de croire que t'as un diamant entre les cuisses Donc pétasse suis-moi dans mon hôtel Pour une volontaire agression sexuelle Faites monter les mineurs jsuis pire qu R. Kelly 1 pour le sexe, 2 pour la monnaie Sexe et money, sexe et money Sexe et money Moi c'est rien que le sexe et la monnaie Sexe et money, owa owa Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Yah yah Eh yo Fouiny So French... Yah Plus de perquis' à la maison, j'suis refait L'son est lourd, tu remets, tu retombes, tu ressors, les mêmes erreurs, tu refais Après la mort, tu renais, t'avais tout et tu râlais Et pour t'empêcher d'briller gros, les ennemis se relaient On s'en sort en bicravant, rien qu'ça lèche apparemment Qui sont les fils de putes, les lâches ? Gros, tu l'apprends en t'en allant Ils font des thunes sans talent, j'ai trop d'montres, j'ai l'bras long Ma meuf a les couleurs de Manchester United sous l'talon J'collectionne les bolides, les Rollys, j'dormirai avec une bombe même si je pissais au lit Au fait, moi c'est Fouiny Baby, j'ai plusieurs cartes grises dans mon sac Fendi Toujours en équipe, baisse pas mon slip pour faire un hit C'est pas mon type, quand j'rappe, c'est deep, j'aime pas les hommes en bleu, nigga, ouais comme les Bloods et les Crips Ça parle pour rien, ça discute, obligé d'être un maquereau quand la vie est une pute Ingénieur, plus de voix, monte le son Ça fait vingt piges qu'ils s'enjaillent sur mes sons Concessionnaire, j'ai besoin d'plus d'options Papa, j'ai besoin plus de bénédictions Ingénieur, plus de voix, monte le son Ça fait vingt piges qu'ils s'enjaillent sur mes sons Concessionnaire, j'ai besoin d'plus d'options Papa, j'ai besoin plus de bénédictions You might also like Yah Dans les yeux d'mes ennemis, j'trouve la force d'avancer J'me rappelle d'où je viens quand je n'sais plus où je vais J'essaye d'noyer mes soucis dans l'alcool, mais ils savent nager J'suis juste de passage, mon album est un messager messager T'étais mon frérot mais tu m'as tourné le dos En amitié, on perd au change, on n'connait jamais les taux nan, nan J'connais la son-pri, sa monotonie sa monotonie, Bois-d'Arcy, Osny, rêves à l'agonie Y a plus d'place dans mon cur comme dans le jean de Cardi B L'rap français est bloqué, ils ont besoin d'ma Face ID J'm'en bat les couilles, j'fais du biff, du mardi au mardi En m'voyant, ta meuf mouille, he, PoolParty Et j'ai couru quand ils m'ont dit marche ou crève marche ou crève Dans mes cauchemars, j'ai la vie de tes rêves En prison, y a qu'des coupables gros qui plaident leur innocence yah Le savoir c'est de l'argent et toi t'es dans l'ignorance Ingénieur, plus de voix, monte le son Ça fait vingt piges qu'ils s'enjaillent sur mes sons Concessionnaire, j'ai besoin d'plus d'options Papa, j'ai besoin plus de bénédictions Ingénieur, plus de voix, monte le son Ça fait vingt piges qu'ils s'enjaillent sur mes sons Concessionnaire, j'ai besoin d'plus d'options Papa, j'ai besoin plus de bénédictions</t>
+          <t>Yah yah Eh yo Fouiny So French... Yah Plus de perquis' à la maison, j'suis refait L'son est lourd, tu remets, tu retombes, tu ressors, les mêmes erreurs, tu refais Après la mort, tu renais, t'avais tout et tu râlais Et pour t'empêcher d'briller gros, les ennemis se relaient On s'en sort en bicravant, rien qu'ça lèche apparemment Qui sont les fils de putes, les lâches ? Gros, tu l'apprends en t'en allant Ils font des thunes sans talent, j'ai trop d'montres, j'ai l'bras long Ma meuf a les couleurs de Manchester United sous l'talon J'collectionne les bolides, les Rollys, j'dormirai avec une bombe même si je pissais au lit Au fait, moi c'est Fouiny Baby, j'ai plusieurs cartes grises dans mon sac Fendi Toujours en équipe, baisse pas mon slip pour faire un hit C'est pas mon type, quand j'rappe, c'est deep, j'aime pas les hommes en bleu, nigga, ouais comme les Bloods et les Crips Ça parle pour rien, ça discute, obligé d'être un maquereau quand la vie est une pute Ingénieur, plus de voix, monte le son Ça fait vingt piges qu'ils s'enjaillent sur mes sons Concessionnaire, j'ai besoin d'plus d'options Papa, j'ai besoin plus de bénédictions Ingénieur, plus de voix, monte le son Ça fait vingt piges qu'ils s'enjaillent sur mes sons Concessionnaire, j'ai besoin d'plus d'options Papa, j'ai besoin plus de bénédictions Yah Dans les yeux d'mes ennemis, j'trouve la force d'avancer J'me rappelle d'où je viens quand je n'sais plus où je vais J'essaye d'noyer mes soucis dans l'alcool, mais ils savent nager J'suis juste de passage, mon album est un messager messager T'étais mon frérot mais tu m'as tourné le dos En amitié, on perd au change, on n'connait jamais les taux nan, nan J'connais la son-pri, sa monotonie sa monotonie, Bois-d'Arcy, Osny, rêves à l'agonie Y a plus d'place dans mon cur comme dans le jean de Cardi B L'rap français est bloqué, ils ont besoin d'ma Face ID J'm'en bat les couilles, j'fais du biff, du mardi au mardi En m'voyant, ta meuf mouille, he, PoolParty Et j'ai couru quand ils m'ont dit marche ou crève marche ou crève Dans mes cauchemars, j'ai la vie de tes rêves En prison, y a qu'des coupables gros qui plaident leur innocence yah Le savoir c'est de l'argent et toi t'es dans l'ignorance Ingénieur, plus de voix, monte le son Ça fait vingt piges qu'ils s'enjaillent sur mes sons Concessionnaire, j'ai besoin d'plus d'options Papa, j'ai besoin plus de bénédictions Ingénieur, plus de voix, monte le son Ça fait vingt piges qu'ils s'enjaillent sur mes sons Concessionnaire, j'ai besoin d'plus d'options Papa, j'ai besoin plus de bénédictions</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel Choisis bien tes amis car tes ennemis te choisissent Brolique à la main dans l'désert je cherche l'oasis Reubeu les keufs nous braquaient, nous visaient sans balle à blanc, dites à l'entraîneur que moi j'vais pas sur le banc Patek Philippe au poignet gros j'suis dans les temps, coup franc en pleine lucarne khoya j'prends pas d'élan Péter la bécane aux tits-pe, j'les vois lever le gros bolide en i Ligue des Champions j'suis seul sur le terrain, j'ai l'flow d'la tête à Basile Boli J'me fais courser par les bleus, n'ont pas le cardio à Kanté N'Golo Petit, t'as fini à ry-Fleu, ta mère t'a pourtant dit de ne pas m'fréquenter Y a tes empreintes sur les douilles, main Audemars dans ta fouille Tu posais bouteille sur bouteille, aujourd'hui, tes chiennes s'en battent toutes les couilles On a tourné avant toi, ils tourneront après nous, après nous, après tout T'es plus qu'un numéro d'écrou, tu t'es... Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel You might also like J'suis né au square Jean Macé, khoya, un million c'est pas assez, khoya Ils m'ont dit ça va pas marcher, khoya, quand j'volais des fruits au marché, khoya Bédave et bicrave au foyer du Sonacotra Fumer l'premier fils de pute qui se la racontera Go, jette des billets sur le cul des strip-teaseuses, méfie-toi d'la vie, cette salope est vicieuse Tes amis pleurent quand tes ennemis creusent, aujourd'hui les salopes veulent du buzz, veulent du buzz gratter du buzz Ils s'prennent dans tous les sales biz, rafale sur le pare-brise P'tit frère, l'hiver arrive, corps froid sur la Banquise Garde à vue, perquisition, promenade, ce matin, mon avoc' a les crocs J'veux sortir en condi', c'bâtard ne veut pas, il m'dit qu'il manque quelques zéros Khoya, balance le bigo, faut qu'j'appelle le p'tit frérot En mon absence, il part en yeuc, il s'est Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel Repose en paix, mon rebeu Repose en paix, mon négro</t>
+          <t>Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel Choisis bien tes amis car tes ennemis te choisissent Brolique à la main dans l'désert je cherche l'oasis Reubeu les keufs nous braquaient, nous visaient sans balle à blanc, dites à l'entraîneur que moi j'vais pas sur le banc Patek Philippe au poignet gros j'suis dans les temps, coup franc en pleine lucarne khoya j'prends pas d'élan Péter la bécane aux tits-pe, j'les vois lever le gros bolide en i Ligue des Champions j'suis seul sur le terrain, j'ai l'flow d'la tête à Basile Boli J'me fais courser par les bleus, n'ont pas le cardio à Kanté N'Golo Petit, t'as fini à ry-Fleu, ta mère t'a pourtant dit de ne pas m'fréquenter Y a tes empreintes sur les douilles, main Audemars dans ta fouille Tu posais bouteille sur bouteille, aujourd'hui, tes chiennes s'en battent toutes les couilles On a tourné avant toi, ils tourneront après nous, après nous, après tout T'es plus qu'un numéro d'écrou, tu t'es... Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel J'suis né au square Jean Macé, khoya, un million c'est pas assez, khoya Ils m'ont dit ça va pas marcher, khoya, quand j'volais des fruits au marché, khoya Bédave et bicrave au foyer du Sonacotra Fumer l'premier fils de pute qui se la racontera Go, jette des billets sur le cul des strip-teaseuses, méfie-toi d'la vie, cette salope est vicieuse Tes amis pleurent quand tes ennemis creusent, aujourd'hui les salopes veulent du buzz, veulent du buzz gratter du buzz Ils s'prennent dans tous les sales biz, rafale sur le pare-brise P'tit frère, l'hiver arrive, corps froid sur la Banquise Garde à vue, perquisition, promenade, ce matin, mon avoc' a les crocs J'veux sortir en condi', c'bâtard ne veut pas, il m'dit qu'il manque quelques zéros Khoya, balance le bigo, faut qu'j'appelle le p'tit frérot En mon absence, il part en yeuc, il s'est Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel Noyé dans une bouteille, la nuit porte conseil Faire un paquet d'oseille, avant d'retourner au ciel T'as voulu jouer tu payes, blessé dans une ruelle Elle est venue avec ses ailes, pour t'emmener au Ciel Repose en paix, mon rebeu Repose en paix, mon négro</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>I paint to feel alive When all I need is time To find the right words Oh, the painter Yeah, yeah Premier jour de promenade, j'crois qu'ils ont brulé mon auréole Premier taff, mon premier joint, mes pieds ont décollé du sol Premier passage en radio, j'ai perdu v'là les potos Premier frère qu'on enterre, accident de moto Première fois j'ouvrai l'Coran, mon dernier mandat de dépôt Premier entretien d'embauche, t'aimais pas ma couleur de peau Premier concert en banlieue, embrouilles, ça tirait dans la foule Première garde à vue, pas d'billet, juste OCB dans la fouille Premier she-fla dans la poche, première fois qu'j'séchais les cours Première fois à Bois-d'Arcy, , jamais d'premier tour Première go pète sa mère, premier oin-j pète sa mère Première moula pète sa mère, j'vais aux puces prendre ma paire Première fois, sans capote, mashallah, première maternité Première fois qu'mon front toucha le sol pour dire la vérité Première fois qu'on m'tirait d'ssus, j'ai vu la mort pour de vrai Obligé d'aller d'l'avant, la vie n'fait pas d'passes en retrait Y a qu'des Arabes et des noirs, gros, dans les rues de ma ville La première fois qu'j'ai vu une blanche, les grands l'avaient dans les narines Premières fois qu'j'ai vu la juge, dernière fois qu'j'ai vu le jour La cité, c'est explosif, ils ont détruit toutes nos tours Premières balades en voiture, première fois qu'j'ai fait les files Les huissiers frappent à la porte, première trace indélébile Le poto se fait planter, première fois qu'j'vois l'sang couler Première instru, premier drame, j'écris mon premier couplet You might also like Fouiny babe, babe, babe, babe babe, babe, babe I paint to feel alive Fouiny babe, babe, babe, babe yo, yo When all I need is time Au cas où t'avais oublié au cas où t'avais oublié To find the right words J'rappe comme si c'était la première fois première fois Oh, the painter La première fois Yo, sans dire au r'voir aux parents, ma première nuit au foyer Première fois qu'on m'a poucave, j'ai vu l'amitié s'noyer Unité, mon premier hit, sans même chercher à le faire Ma première nuit au mitard, ma première nuit en enfer J'ai perdu quelques potos, j'sais pas s'ils en valaient le coup Quand t'as plus rien, ils ont les doigts sur le front comme Sangoku Scénario chaotique, j'attends l'verdict dans ma geôle Dans ce film dramatique, j'ai toujours eu l'premier rôle Premier cross pète sa mère, première gov' pète sa mère Première liasse pète sa mère, premier contrôle mains en l'air Ma première sortie en boite, enjaillement avec les frères J'aurais pu souffler dans l'ballon, j'avais pas d'quoi m'payer un verre Premier tour au parloir, première fois qu'l'ai vu pleurer J'ai fait de ma vie un rêve, j'm'endors sur ma réalité Premier maxi, demande aux anciens, ma plume est sacrée Les jaloux essaient de détruire ce qu'ils ne peuvent pas créer Fouiny babe, babe, babe, babe babe, babe, babe I paint to feel alive Fouiny babe, babe, babe, babe yo, yo When all I need is time Au cas où t'avais oublié au cas où t'avais oublié To find the right words J'rappe comme si c'était la première fois première fois Oh, the painter La première fois I paint to feel alive When all I need is time To find the right words Oh, the painter</t>
+          <t>I paint to feel alive When all I need is time To find the right words Oh, the painter Yeah, yeah Premier jour de promenade, j'crois qu'ils ont brulé mon auréole Premier taff, mon premier joint, mes pieds ont décollé du sol Premier passage en radio, j'ai perdu v'là les potos Premier frère qu'on enterre, accident de moto Première fois j'ouvrai l'Coran, mon dernier mandat de dépôt Premier entretien d'embauche, t'aimais pas ma couleur de peau Premier concert en banlieue, embrouilles, ça tirait dans la foule Première garde à vue, pas d'billet, juste OCB dans la fouille Premier she-fla dans la poche, première fois qu'j'séchais les cours Première fois à Bois-d'Arcy, , jamais d'premier tour Première go pète sa mère, premier oin-j pète sa mère Première moula pète sa mère, j'vais aux puces prendre ma paire Première fois, sans capote, mashallah, première maternité Première fois qu'mon front toucha le sol pour dire la vérité Première fois qu'on m'tirait d'ssus, j'ai vu la mort pour de vrai Obligé d'aller d'l'avant, la vie n'fait pas d'passes en retrait Y a qu'des Arabes et des noirs, gros, dans les rues de ma ville La première fois qu'j'ai vu une blanche, les grands l'avaient dans les narines Premières fois qu'j'ai vu la juge, dernière fois qu'j'ai vu le jour La cité, c'est explosif, ils ont détruit toutes nos tours Premières balades en voiture, première fois qu'j'ai fait les files Les huissiers frappent à la porte, première trace indélébile Le poto se fait planter, première fois qu'j'vois l'sang couler Première instru, premier drame, j'écris mon premier couplet Fouiny babe, babe, babe, babe babe, babe, babe I paint to feel alive Fouiny babe, babe, babe, babe yo, yo When all I need is time Au cas où t'avais oublié au cas où t'avais oublié To find the right words J'rappe comme si c'était la première fois première fois Oh, the painter La première fois Yo, sans dire au r'voir aux parents, ma première nuit au foyer Première fois qu'on m'a poucave, j'ai vu l'amitié s'noyer Unité, mon premier hit, sans même chercher à le faire Ma première nuit au mitard, ma première nuit en enfer J'ai perdu quelques potos, j'sais pas s'ils en valaient le coup Quand t'as plus rien, ils ont les doigts sur le front comme Sangoku Scénario chaotique, j'attends l'verdict dans ma geôle Dans ce film dramatique, j'ai toujours eu l'premier rôle Premier cross pète sa mère, première gov' pète sa mère Première liasse pète sa mère, premier contrôle mains en l'air Ma première sortie en boite, enjaillement avec les frères J'aurais pu souffler dans l'ballon, j'avais pas d'quoi m'payer un verre Premier tour au parloir, première fois qu'l'ai vu pleurer J'ai fait de ma vie un rêve, j'm'endors sur ma réalité Premier maxi, demande aux anciens, ma plume est sacrée Les jaloux essaient de détruire ce qu'ils ne peuvent pas créer Fouiny babe, babe, babe, babe babe, babe, babe I paint to feel alive Fouiny babe, babe, babe, babe yo, yo When all I need is time Au cas où t'avais oublié au cas où t'avais oublié To find the right words J'rappe comme si c'était la première fois première fois Oh, the painter La première fois I paint to feel alive When all I need is time To find the right words Oh, the painter</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>C'est à moi maintenant, je me fais bien comprendre ? Ça a servi à rien, ce que vous avez essayé de faire, vous avez pas pu me démolir. Je suis debout, je suis solide et je suis fort, et je le resterai toute ma vie. Bang, bang, bang, couplet sombre, on voit que j'écris la nuit J'me prends des patates par le flic et je nie, céréales de weed au petit-déjeuner T'es sur le net et j'suis sur TF1, j'ai connu la galère, les hôtels F1 Putains d'hypocrites, dans le game, y'en a plein, quand ils étaient personne, je leur tendais la main J'ai coupé des plaquettes, j'ai coupé des barrettes, avec la misère, gros, j'ai coupé les ponts J'ai grandi dans l'sept-huit la galère, on connaît, dur de différencier les merdes et les bons Y'a ceux qui la prennent et y'a ceux qui la vendent, dans mes baskets, y'avait seulement deux bandes L'été au quartier, on bouffait des glaces à l'eau, maintenant, j'ai les pompes, tah les Virgil Abloh On s'était dit À la vie, à la mort mais, pour avoir ta vie, ils te souhaiteraient la mort Fais ta vie avec, gros, si tu l'aimes à mort, ils ont pété l'khoya, putain, j'ai le mors Tes MCs sont relégables en CFA, t'es millionnaire mais en francs CFA On sait pas qui t'es, on s'en bat les couilles de toi, sers-nous pas la main, ici, on t'connaît pas Si tu m'dois d'l'argent, rembourse-moi dans les délais, les keufs me coursent et j'accélère comme Dembélé Mes bijoux sont glacés, mes poignets sont gelés, j'veux pas de cette meuf, elle est plate comme ma télé Problèmes de respiration, j'ai b'soin d'un bédo, nique sa mère la Ventoline J'ai dû reconstruire l'amitié dans mon cur, la traîtrise avait tout démoli Si l'rap n'existait pas, j's'rais devant le hall, j'bicraverais d'la ppe-fra devant le hall La rue, c'est pas du cinéma, joue pas un rôle, fallait pas manger chez elle, elle t'a fait le s'hour En hiver, la go, je l'ai rendue ouf, j'lui ai mis un oigt-d mais j'ai gardé le moufle Si t'es en chien, mec, qué-bra le hanout, même si j'meurs de faim, j'mangerai jamais du halouf Bang, bang, bang, plus d'tête-à-tête, gros, ça finit en bang Tu leur devais des sous, ça a fini en bang, pour régler les malentendus, y'a des bangs Des gros bangs, bangs, bangs, on n'est plus là, salam aleykoum Virus autotune, la rue a pris froid, les guns éternuent, a-a-atchoumYou might also like1</t>
+          <t>C'est à moi maintenant, je me fais bien comprendre ? Ça a servi à rien, ce que vous avez essayé de faire, vous avez pas pu me démolir. Je suis debout, je suis solide et je suis fort, et je le resterai toute ma vie. Bang, bang, bang, couplet sombre, on voit que j'écris la nuit J'me prends des patates par le flic et je nie, céréales de weed au petit-déjeuner T'es sur le net et j'suis sur TF1, j'ai connu la galère, les hôtels F1 Putains d'hypocrites, dans le game, y'en a plein, quand ils étaient personne, je leur tendais la main J'ai coupé des plaquettes, j'ai coupé des barrettes, avec la misère, gros, j'ai coupé les ponts J'ai grandi dans l'sept-huit la galère, on connaît, dur de différencier les merdes et les bons Y'a ceux qui la prennent et y'a ceux qui la vendent, dans mes baskets, y'avait seulement deux bandes L'été au quartier, on bouffait des glaces à l'eau, maintenant, j'ai les pompes, tah les Virgil Abloh On s'était dit À la vie, à la mort mais, pour avoir ta vie, ils te souhaiteraient la mort Fais ta vie avec, gros, si tu l'aimes à mort, ils ont pété l'khoya, putain, j'ai le mors Tes MCs sont relégables en CFA, t'es millionnaire mais en francs CFA On sait pas qui t'es, on s'en bat les couilles de toi, sers-nous pas la main, ici, on t'connaît pas Si tu m'dois d'l'argent, rembourse-moi dans les délais, les keufs me coursent et j'accélère comme Dembélé Mes bijoux sont glacés, mes poignets sont gelés, j'veux pas de cette meuf, elle est plate comme ma télé Problèmes de respiration, j'ai b'soin d'un bédo, nique sa mère la Ventoline J'ai dû reconstruire l'amitié dans mon cur, la traîtrise avait tout démoli Si l'rap n'existait pas, j's'rais devant le hall, j'bicraverais d'la ppe-fra devant le hall La rue, c'est pas du cinéma, joue pas un rôle, fallait pas manger chez elle, elle t'a fait le s'hour En hiver, la go, je l'ai rendue ouf, j'lui ai mis un oigt-d mais j'ai gardé le moufle Si t'es en chien, mec, qué-bra le hanout, même si j'meurs de faim, j'mangerai jamais du halouf Bang, bang, bang, plus d'tête-à-tête, gros, ça finit en bang Tu leur devais des sous, ça a fini en bang, pour régler les malentendus, y'a des bangs Des gros bangs, bangs, bangs, on n'est plus là, salam aleykoum Virus autotune, la rue a pris froid, les guns éternuent, a-a-atchoum1</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Yeah ! Tu passais en gamos trop nice Pendant qu'on t'regardait vener moi et mes sacs Leader Price C'est la merde, c'est la hass, rap français En période de vaches maigres, j'bouffe au KFC Yeah ! Parce qu'on a tous envie d'y croire, tous envie d'y croire Dans l'noir tous envie d'y voir Yeah ! Parce qu'on n'mange pas de n'importe quel pain Petit j'étais personne, et j'rêvais d'être quelqu'un Cache tes courses maman quand tu reviens de chez Coluche Au quartier on s'fout d'ma gueule, la se-ti est mon refuge Yeah ! Quand j'y pense j'étais trop bête Tu n'pensais qu'à nous nourrir et moi j'pensais qu'aux compèts' Aux compèts', aux feu-meu, en son-pri toujours à l'heure La vie m'a dit je t'aime ouais I love you for never Yeah, quoi d'neuf Fouiny Baby ? Lève ta main en l'air si comme moi t'as .. You might also like Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Frère t'as commencé en bas, affronté les hauts les bas Ne marche pas sur mes pas, ne deviens pas c'que tu n'es pas Vis sur ton Iphone, mate comme on charbonne J'ai goûté la vie mouaaah, wAllah elle est trop bonne Ouais j'rêvais d'être au top, au square j'grattais des clopes J'ai vu des shlags faire leur pèlerinage au coffee shop Frère que dieu me pardonne, ouais que dieu les pardonne Avec un flow en carton j'me demande comment tu cartonnes Yeah, j'ai mal au ventre j'ai même pas déjeuner En cours j'aimerai faire mes devoirs mais mon stylo a jeûné, jeûné .. Je n'ai jamais donné aucun blase En garde à vue j'décorais les murs de mes ptites phrases Yeah, frère et si ça sent l'poulet Prend tes jambes à ton cou , n'oublie pas ton col roulé Yeah, quoi d'neuf Fouiny Baby ? Lève ta main en l'air si comme moi t'as .. Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Le ciel est la limite, fais briller ton étoile Le ciel est la limite, yeah OneShot , Fouiny Babe Le ciel est la limite, yeah Street Fab' Le ciel est la limite, yeah Le ciel est la limite, le ciel est la limite Le ciel est la limite, yeah Banlieue Sale music Le ciel est la limite, le ciel est la limite Le ciel est la limite, la limite , la limite ..</t>
+          <t>Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Yeah ! Tu passais en gamos trop nice Pendant qu'on t'regardait vener moi et mes sacs Leader Price C'est la merde, c'est la hass, rap français En période de vaches maigres, j'bouffe au KFC Yeah ! Parce qu'on a tous envie d'y croire, tous envie d'y croire Dans l'noir tous envie d'y voir Yeah ! Parce qu'on n'mange pas de n'importe quel pain Petit j'étais personne, et j'rêvais d'être quelqu'un Cache tes courses maman quand tu reviens de chez Coluche Au quartier on s'fout d'ma gueule, la se-ti est mon refuge Yeah ! Quand j'y pense j'étais trop bête Tu n'pensais qu'à nous nourrir et moi j'pensais qu'aux compèts' Aux compèts', aux feu-meu, en son-pri toujours à l'heure La vie m'a dit je t'aime ouais I love you for never Yeah, quoi d'neuf Fouiny Baby ? Lève ta main en l'air si comme moi t'as .. Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Frère t'as commencé en bas, affronté les hauts les bas Ne marche pas sur mes pas, ne deviens pas c'que tu n'es pas Vis sur ton Iphone, mate comme on charbonne J'ai goûté la vie mouaaah, wAllah elle est trop bonne Ouais j'rêvais d'être au top, au square j'grattais des clopes J'ai vu des shlags faire leur pèlerinage au coffee shop Frère que dieu me pardonne, ouais que dieu les pardonne Avec un flow en carton j'me demande comment tu cartonnes Yeah, j'ai mal au ventre j'ai même pas déjeuner En cours j'aimerai faire mes devoirs mais mon stylo a jeûné, jeûné .. Je n'ai jamais donné aucun blase En garde à vue j'décorais les murs de mes ptites phrases Yeah, frère et si ça sent l'poulet Prend tes jambes à ton cou , n'oublie pas ton col roulé Yeah, quoi d'neuf Fouiny Baby ? Lève ta main en l'air si comme moi t'as .. Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Débuter en bas, l'important c'est d'y croire Rêver d'autre part, même en touchant le fond, fais briller ton étoile Le ciel est la limite, fais briller ton étoile Le ciel est la limite, yeah OneShot , Fouiny Babe Le ciel est la limite, yeah Street Fab' Le ciel est la limite, yeah Le ciel est la limite, le ciel est la limite Le ciel est la limite, yeah Banlieue Sale music Le ciel est la limite, le ciel est la limite Le ciel est la limite, la limite , la limite ..</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Tu sais, petit frère, ils t'ont carottés Alors, broliqué, tu veux les sauter Les sirènes, les menottes et les parquets Les larmes de la mama sur le parquet Parfois, vaut mieux écouter son père avant d'se retrouver sans repères Tu sais, ma petite sur, tout ça, c'est pour leur plaire Mais là, tu me parais bien vulgaire Tu valais mieux, tu valais mieux, tu valais mieux que ça Tu valais mieux, tu valais mieux, tu valais mieux que ça Tu valais mieux, tu valais mieux, tu valais mieux que ça Tu valais mieux, tu valais mieux Tu valais mieux que ça Tu valais mieux que ça Tu sais, petit frère, ils ont trop parlé Et moi, trop fier, j'ai du riposter Les journaux, les médias s'en sont tous mêlé Tristesse dans les yeux des gens que j'aimais Parfois, vaut mieux écouter ses frères Moi, j'ai jamais su m'laisser faire On est tous perdants dans nos guerres Je valais mieux que les faits divers You might also like Je valais mieux, je valais mieux, je valais mieux que ça Je valais mieux, je valais mieux, je valais mieux que ça Je valais mieux, je valais mieux, je valais mieux que ça Je valais mieux, je valais mieux Je valais mieux que ça Je valais mieux que ça Perdus sur les réseaux sociaux Wallay qu'on commente des photos Et on s'insulte en 4G Pas d'réseau pour s'réconcilier On reste dans nos coins comme des incompris On s'parle seulement quand on n'a plus d'batterie On crache notre haine derrière nos écrans Toute la nuit comme des chiens errants On rêve de cette vie que l'on n'a pas De tous ces amis que l'on n'a pas De tous ces lieux où on ne va pas De tous ces rêves que l'on attache S'humilier, on ne pense qu'à ça J'repense à la petite Aicha partie trop tôt Paix à son âme, kho, comme elle, j'crois qu'on valait mieux qu'ça On valait mieux que ça, on valait mieux que ça On valait mieux que ça, on valait mieux que ça On valait mieux que ça, on valait mieux que ça On valait mieux que ça On valait, on valait mieux que ça On valait, on valait mieux que ça</t>
+          <t>Tu sais, petit frère, ils t'ont carottés Alors, broliqué, tu veux les sauter Les sirènes, les menottes et les parquets Les larmes de la mama sur le parquet Parfois, vaut mieux écouter son père avant d'se retrouver sans repères Tu sais, ma petite sur, tout ça, c'est pour leur plaire Mais là, tu me parais bien vulgaire Tu valais mieux, tu valais mieux, tu valais mieux que ça Tu valais mieux, tu valais mieux, tu valais mieux que ça Tu valais mieux, tu valais mieux, tu valais mieux que ça Tu valais mieux, tu valais mieux Tu valais mieux que ça Tu valais mieux que ça Tu sais, petit frère, ils ont trop parlé Et moi, trop fier, j'ai du riposter Les journaux, les médias s'en sont tous mêlé Tristesse dans les yeux des gens que j'aimais Parfois, vaut mieux écouter ses frères Moi, j'ai jamais su m'laisser faire On est tous perdants dans nos guerres Je valais mieux que les faits divers Je valais mieux, je valais mieux, je valais mieux que ça Je valais mieux, je valais mieux, je valais mieux que ça Je valais mieux, je valais mieux, je valais mieux que ça Je valais mieux, je valais mieux Je valais mieux que ça Je valais mieux que ça Perdus sur les réseaux sociaux Wallay qu'on commente des photos Et on s'insulte en 4G Pas d'réseau pour s'réconcilier On reste dans nos coins comme des incompris On s'parle seulement quand on n'a plus d'batterie On crache notre haine derrière nos écrans Toute la nuit comme des chiens errants On rêve de cette vie que l'on n'a pas De tous ces amis que l'on n'a pas De tous ces lieux où on ne va pas De tous ces rêves que l'on attache S'humilier, on ne pense qu'à ça J'repense à la petite Aicha partie trop tôt Paix à son âme, kho, comme elle, j'crois qu'on valait mieux qu'ça On valait mieux que ça, on valait mieux que ça On valait mieux que ça, on valait mieux que ça On valait mieux que ça, on valait mieux que ça On valait mieux que ça On valait, on valait mieux que ça On valait, on valait mieux que ça</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Lundi, jvoudrais une meuf du 91 qui kifferait mes refrains Mignonne, cambrée, les cheveux châtains Mardi, plutôt une meuf du 92, numéro 10 dans sa team Fraîche dans son jean, kiff les rebeux Mercredi, plutôt une meuf du 93, qui lécherait son doigt Zoom zoom zang dans ma Ford Fiesta J'voudrais une J.Lo, mec une bombe latina Bien polie, tu sais les racailles ça mintéresse pas Jeudi, dans le 94, une meuf qui kiffe la Mafia K1 Fry Mignonne, une française ou une kainfry Vendredi, je cherche dans le 95 avec une pioche Elle plus moi jveux être gravé dans la roche Samedi, dans le 77 avec une copine à moi Jcherche une meuf avec qui on ferait un ménage à 3 Quant à dimanche tas vu, jpréfère rester posé Trouves-moi une meuf du 78 histoire de... Cette meuf est fashion Elle est venue toute seule Elle illumine la salle Elle a quelque chose de spécial Quelque soit ton département, ta ville ou ton continent Ma belle déhanches-toi correctement Quelque soit ton département, ta ville ou ton continent Jai ressenti en toi quelque chose de spécial You might also like Lundi, une gazelle de Marseille Une de celle qui me harcèle parce quelle ma pas vu en marcel Franchement La Fouine, je suis trop mortelle Je sais, je tai vu moi aussi jai un 3ème oeil Mardi, en provenance de province, belle qui kifferait mon pince Et jpaierais le ciné parce que La Fouine nest pas une grosse pince Mercredi, une madinina ou une gwadada Qui me chercherait partout parce que je sors de Bois Da-Da Que je nlai pas vu depuis des mois et que ça va être d-har A gwadada pull up à gwadada Jeudi, une marocaine, algérienne ou tunisienne Une meuf qui se respecte pas une grosse... Vendredi, bambara, peul ou soninké Une meuf clean pas une meuf à dossiers Samedi, jvoudrais une meuf du sud, une bastos, un missile scud Qui poursuit ou pas ses études On dirait La Fouine, en dirait le sud Jvoudrais une noire, une blanche, une friquée et même une sans thunes Quant à dimanche tas vu, jpréfère rester posé Je change de cap je cherche une meuf de Trappes Quelque soit ton département, ta ville ou ton continent Ma belle déhanches-toi correctement Quelque soit ton département, ta ville ou ton continent Jai ressenti en toi quelque chose de spécial Cette meuf est fashion Elle est venue toute seule Elle illumine la salle Elle a quelque chose de spécial Cette meuf est fashion Elle est venue toute seule Elle illumine la salle Elle a quelque chose de spécial Quelque soit ton département, ta ville ou ton continent Ma belle déhanches-toi correctement Quelque soit ton département, ta ville ou ton continent Jai ressenti en toi quelque chose de spécial Quelque soit ton département, ta ville ou ton continent Ma belle déhanches-toi correctement Quelque soit ton département, ta ville ou ton continent Jai ressenti en toi quelque chose de spécial1</t>
+          <t>Lundi, jvoudrais une meuf du 91 qui kifferait mes refrains Mignonne, cambrée, les cheveux châtains Mardi, plutôt une meuf du 92, numéro 10 dans sa team Fraîche dans son jean, kiff les rebeux Mercredi, plutôt une meuf du 93, qui lécherait son doigt Zoom zoom zang dans ma Ford Fiesta J'voudrais une J.Lo, mec une bombe latina Bien polie, tu sais les racailles ça mintéresse pas Jeudi, dans le 94, une meuf qui kiffe la Mafia K1 Fry Mignonne, une française ou une kainfry Vendredi, je cherche dans le 95 avec une pioche Elle plus moi jveux être gravé dans la roche Samedi, dans le 77 avec une copine à moi Jcherche une meuf avec qui on ferait un ménage à 3 Quant à dimanche tas vu, jpréfère rester posé Trouves-moi une meuf du 78 histoire de... Cette meuf est fashion Elle est venue toute seule Elle illumine la salle Elle a quelque chose de spécial Quelque soit ton département, ta ville ou ton continent Ma belle déhanches-toi correctement Quelque soit ton département, ta ville ou ton continent Jai ressenti en toi quelque chose de spécial Lundi, une gazelle de Marseille Une de celle qui me harcèle parce quelle ma pas vu en marcel Franchement La Fouine, je suis trop mortelle Je sais, je tai vu moi aussi jai un 3ème oeil Mardi, en provenance de province, belle qui kifferait mon pince Et jpaierais le ciné parce que La Fouine nest pas une grosse pince Mercredi, une madinina ou une gwadada Qui me chercherait partout parce que je sors de Bois Da-Da Que je nlai pas vu depuis des mois et que ça va être d-har A gwadada pull up à gwadada Jeudi, une marocaine, algérienne ou tunisienne Une meuf qui se respecte pas une grosse... Vendredi, bambara, peul ou soninké Une meuf clean pas une meuf à dossiers Samedi, jvoudrais une meuf du sud, une bastos, un missile scud Qui poursuit ou pas ses études On dirait La Fouine, en dirait le sud Jvoudrais une noire, une blanche, une friquée et même une sans thunes Quant à dimanche tas vu, jpréfère rester posé Je change de cap je cherche une meuf de Trappes Quelque soit ton département, ta ville ou ton continent Ma belle déhanches-toi correctement Quelque soit ton département, ta ville ou ton continent Jai ressenti en toi quelque chose de spécial Cette meuf est fashion Elle est venue toute seule Elle illumine la salle Elle a quelque chose de spécial Cette meuf est fashion Elle est venue toute seule Elle illumine la salle Elle a quelque chose de spécial Quelque soit ton département, ta ville ou ton continent Ma belle déhanches-toi correctement Quelque soit ton département, ta ville ou ton continent Jai ressenti en toi quelque chose de spécial Quelque soit ton département, ta ville ou ton continent Ma belle déhanches-toi correctement Quelque soit ton département, ta ville ou ton continent Jai ressenti en toi quelque chose de spécial1</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Fouiny Fouiny Fouiny Fouiny Skurt Bones Bone Collector Jachète cque jveux, qui jveux, où jveux, quand jveux Nasser El-Khalaifi El-Khalaifi, Nasser El-Khalaifi Rolex, Patek Philippe, Audemars gros cest fini Nasser El-Khalaifi, Nasser El-Khalaifi El-Khalaifi La carte grise est à mon nom elle est à mon nom La carte grise est à mon nom elle est à mon nom Contrôle de keufs, ils veulent quoi ces cons ? Jmen bats les couilles La carte grise est à mon nom Cabaye sort, Lavezzi tu rentres Pastore sur la touche, Fouiny passe avant-centre Jai rien graille mais jen ai dans lventre Fouiny, S-Kal BS les frèros bicravent au corner mettent la tune au centre Sarko est une grosse merde, Hollande ne vaut pas mieux Sur lterrain les petits fument lherbe, triste décor comme à Rif-le Gagarine collège village, jbicravais aux surveillants Trop de haineux depuis mon plus jeune âge, gâchent leurs vies en mobservant Jachète cque jveux, qui jveux, où jveux, quand jveux Nasser El-Khalaifi El-Khalaifi, Nasser El-Khalaifi Rolex, Patek Philippe, Audemars gros cest fini Nasser El-Khalaifi, Nasser El-Khalaifi El-Khalaifi La carte grise est à mon nom elle est à mon nom La carte grise est à mon nom elle est à mon nom Contrôle de keufs, ils veulent quoi ces cons ? Jmen bats les couilles La carte grise est à mon nom You might also like Trop dpistons ils ont dla chatte, ils disparaîtront comme un Snapchat Quelques feuilles, CDC 4, ils sont tous en chien mais ils puent dla chatte La carte grise est à mon putain dblaze, là jte parle pas dun X-Max Flow électrique car les keufs nous tazent, j'reviens à la base et jpête un câble La carte grise est à mon nom Sois carré ou tu feras pas un rond Serres les fesses si tu remontes du parlu, aux States jsuis suspect comme un barbu Jai connu lAfrique et le palu, aujourdhui Merco jantes alu dis-toi que Jachète cque jveux, qui jveux, où jveux, quand jveux Nasser El-Khalaifi El-Khalaifi, Nasser El-Khalaifi Rolex, Patek Philippe, Audemars gros cest fini Nasser El-Khalaifi, Nasser El-Khalaifi El-Khalaifi La carte grise est à mon nom elle est à mon nom La carte grise est à mon nom elle est à mon nom Contrôle de keufs, ils veulent quoi ces cons ? Jmen bats les couilles La carte grise est à mon nom Nasser El-Khalaifi, harbi flow cainri Harbi flow cainri, Nasser El-Khalaifi Harbi flow cainri, mi-homme mi-Qatari Jachète même la teuch à Riri Ton équipe cest dla grosse merde, jvois la concurrence hurler Gros le game est fini, y'a qu'à la shisha qu'on voit des têtes bruler J'ai shazamé ma chasse deau, jai pu trouver ton bum-al Gros mon coffre cest ton capot, R8, Féfé, Lambo, jtai dit... Jachète cque jveux, qui jveux, où jveux, quand jveux Nasser El-Khalaifi El-Khalaifi, Nasser El-Khalaifi Rolex, Patek Philippe, Audemars gros cest fini Nasser El-Khalaifi, Nasser El-Khalaifi El-Khalaifi La carte grise est à mon nom elle est à mon nom La carte grise est à mon nom elle est à mon nom Contrôle de keufs, ils veulent quoi ces cons ? Jmen bats les couilles La carte grise est à mon nom</t>
+          <t>Fouiny Fouiny Fouiny Fouiny Skurt Bones Bone Collector Jachète cque jveux, qui jveux, où jveux, quand jveux Nasser El-Khalaifi El-Khalaifi, Nasser El-Khalaifi Rolex, Patek Philippe, Audemars gros cest fini Nasser El-Khalaifi, Nasser El-Khalaifi El-Khalaifi La carte grise est à mon nom elle est à mon nom La carte grise est à mon nom elle est à mon nom Contrôle de keufs, ils veulent quoi ces cons ? Jmen bats les couilles La carte grise est à mon nom Cabaye sort, Lavezzi tu rentres Pastore sur la touche, Fouiny passe avant-centre Jai rien graille mais jen ai dans lventre Fouiny, S-Kal BS les frèros bicravent au corner mettent la tune au centre Sarko est une grosse merde, Hollande ne vaut pas mieux Sur lterrain les petits fument lherbe, triste décor comme à Rif-le Gagarine collège village, jbicravais aux surveillants Trop de haineux depuis mon plus jeune âge, gâchent leurs vies en mobservant Jachète cque jveux, qui jveux, où jveux, quand jveux Nasser El-Khalaifi El-Khalaifi, Nasser El-Khalaifi Rolex, Patek Philippe, Audemars gros cest fini Nasser El-Khalaifi, Nasser El-Khalaifi El-Khalaifi La carte grise est à mon nom elle est à mon nom La carte grise est à mon nom elle est à mon nom Contrôle de keufs, ils veulent quoi ces cons ? Jmen bats les couilles La carte grise est à mon nom Trop dpistons ils ont dla chatte, ils disparaîtront comme un Snapchat Quelques feuilles, CDC 4, ils sont tous en chien mais ils puent dla chatte La carte grise est à mon putain dblaze, là jte parle pas dun X-Max Flow électrique car les keufs nous tazent, j'reviens à la base et jpête un câble La carte grise est à mon nom Sois carré ou tu feras pas un rond Serres les fesses si tu remontes du parlu, aux States jsuis suspect comme un barbu Jai connu lAfrique et le palu, aujourdhui Merco jantes alu dis-toi que Jachète cque jveux, qui jveux, où jveux, quand jveux Nasser El-Khalaifi El-Khalaifi, Nasser El-Khalaifi Rolex, Patek Philippe, Audemars gros cest fini Nasser El-Khalaifi, Nasser El-Khalaifi El-Khalaifi La carte grise est à mon nom elle est à mon nom La carte grise est à mon nom elle est à mon nom Contrôle de keufs, ils veulent quoi ces cons ? Jmen bats les couilles La carte grise est à mon nom Nasser El-Khalaifi, harbi flow cainri Harbi flow cainri, Nasser El-Khalaifi Harbi flow cainri, mi-homme mi-Qatari Jachète même la teuch à Riri Ton équipe cest dla grosse merde, jvois la concurrence hurler Gros le game est fini, y'a qu'à la shisha qu'on voit des têtes bruler J'ai shazamé ma chasse deau, jai pu trouver ton bum-al Gros mon coffre cest ton capot, R8, Féfé, Lambo, jtai dit... Jachète cque jveux, qui jveux, où jveux, quand jveux Nasser El-Khalaifi El-Khalaifi, Nasser El-Khalaifi Rolex, Patek Philippe, Audemars gros cest fini Nasser El-Khalaifi, Nasser El-Khalaifi El-Khalaifi La carte grise est à mon nom elle est à mon nom La carte grise est à mon nom elle est à mon nom Contrôle de keufs, ils veulent quoi ces cons ? Jmen bats les couilles La carte grise est à mon nom</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Yah ! Yah ! Eh yo FlowFleezy Yah ! J'connais pas l'rap français gros mais l'rap français me connait bien Dis au physio' d'fermer l'entrée, l'carré VIP, c'est pour les miens Et ça rentre chez Goyard, Valentino, prends tout c'que tu veux Pendant qu'les riches brûlent leur argent, les pauvres meurent à petit feu Moi, c'est Gucci, Louis, Fouiny, sept-huit, Veni Vidi Vici Aveuglement, poignet, Rolly, la gow me dit hola papi La gow me dit hola papi, j'crois qu'elle tapine L'rap au tapis, l'moitié truqué, hmm BernardTapie Toute la journée, j'fais du blé, j'ai v'là les pains Millionnaire, pour percer j'ai pas eu à serrer toutes ces mains Toi, t'as léché tous ces culs, bizarrement ta bouche sent le mien Les clients, c'est comme les tchoins, tu veux qu'ils reviennent, serres-les bien T'as prié, t'as fais des douaas pour qu'j'revienne avec ce flow C'est Fouiny Babe, ça fait du rap, j'te laisse le zouk, le n'dombolo Bouffer clito', un poquito, souvenirs igo dans ma Clio J'rêvais de kilos, venez pas me soulever si tôt hmm Despacito hahah J'traîne pas avec ces balances, ils font pas l'poids comme une anorexique sur une balance J'appelle banquier, cent-mille en p'tites coupures pour les vacances C'est bizarre mais pour prendre par derrière, il se fait des avances Y a pas d'gangsters sur les réseaux sociaux, seulement des gars qu'ont du réseau Connaît igo, ils ouvrent leurs bouches quand les condés viennent les ter-sau Grosse différence entre Fouiny Baby et puis tous ces rappeurs Ils veulent rentrer sur les playlists, moi, j'veux rentrer dans tous les curs Méfies-toi des petits, l'argent monte à la tête Hier, tu lui donnais du feu, il t'poucave pour une cigarette Ça fait l'malin maintenant, avant j't'aurais racketté dans l'train Couplet fini j'laisse place au refrain, j'ai menti Haut les mains, oh l'bâtard, ohh mehlich, au final, on les baise Fous la corde au cou du peu-ra, pendant qu'j'fasse tomber la chaise J'ai des étoiles plein les yeux, plein-plafond de ma voiture J'achète c'que j'veux, mon biff à la banque me fait d'la progéniture À l'époque, le rap c'était braqueur, arnaqueur, receleur Aujourd'hui, c'est instagrameur, snapchateur et youtubeur À Marseille, j'écoute les anciens, 3e il et Don Choa Aujourd'hui, le game il parle chinois, Konichiwa Arrête de sniffer khoya car tu vas vite être sur la paille Mates ces bijous à mon cou, j'ai froid, même en été je caille J'suis qu'un putain d'arabe de plus, sur écoute, j'ai cassé ma puce L'alcool, c'est de l'eau et de l'eau c'est un cunnilingus Vrais reconnaissent vrais, pour ça que w'Allah, je n'sais pas qui vous êtes Vous r'tournez tellement vos vestes que vous n'savez pas qui vous êtes J'écris c'putain d'couplet dans Lambo', dégagez s'il vous plaît J'mets le contact, c'est pire qu'un AMG, écoutesYou might also like</t>
+          <t>Yah ! Yah ! Eh yo FlowFleezy Yah ! J'connais pas l'rap français gros mais l'rap français me connait bien Dis au physio' d'fermer l'entrée, l'carré VIP, c'est pour les miens Et ça rentre chez Goyard, Valentino, prends tout c'que tu veux Pendant qu'les riches brûlent leur argent, les pauvres meurent à petit feu Moi, c'est Gucci, Louis, Fouiny, sept-huit, Veni Vidi Vici Aveuglement, poignet, Rolly, la gow me dit hola papi La gow me dit hola papi, j'crois qu'elle tapine L'rap au tapis, l'moitié truqué, hmm BernardTapie Toute la journée, j'fais du blé, j'ai v'là les pains Millionnaire, pour percer j'ai pas eu à serrer toutes ces mains Toi, t'as léché tous ces culs, bizarrement ta bouche sent le mien Les clients, c'est comme les tchoins, tu veux qu'ils reviennent, serres-les bien T'as prié, t'as fais des douaas pour qu'j'revienne avec ce flow C'est Fouiny Babe, ça fait du rap, j'te laisse le zouk, le n'dombolo Bouffer clito', un poquito, souvenirs igo dans ma Clio J'rêvais de kilos, venez pas me soulever si tôt hmm Despacito hahah J'traîne pas avec ces balances, ils font pas l'poids comme une anorexique sur une balance J'appelle banquier, cent-mille en p'tites coupures pour les vacances C'est bizarre mais pour prendre par derrière, il se fait des avances Y a pas d'gangsters sur les réseaux sociaux, seulement des gars qu'ont du réseau Connaît igo, ils ouvrent leurs bouches quand les condés viennent les ter-sau Grosse différence entre Fouiny Baby et puis tous ces rappeurs Ils veulent rentrer sur les playlists, moi, j'veux rentrer dans tous les curs Méfies-toi des petits, l'argent monte à la tête Hier, tu lui donnais du feu, il t'poucave pour une cigarette Ça fait l'malin maintenant, avant j't'aurais racketté dans l'train Couplet fini j'laisse place au refrain, j'ai menti Haut les mains, oh l'bâtard, ohh mehlich, au final, on les baise Fous la corde au cou du peu-ra, pendant qu'j'fasse tomber la chaise J'ai des étoiles plein les yeux, plein-plafond de ma voiture J'achète c'que j'veux, mon biff à la banque me fait d'la progéniture À l'époque, le rap c'était braqueur, arnaqueur, receleur Aujourd'hui, c'est instagrameur, snapchateur et youtubeur À Marseille, j'écoute les anciens, 3e il et Don Choa Aujourd'hui, le game il parle chinois, Konichiwa Arrête de sniffer khoya car tu vas vite être sur la paille Mates ces bijous à mon cou, j'ai froid, même en été je caille J'suis qu'un putain d'arabe de plus, sur écoute, j'ai cassé ma puce L'alcool, c'est de l'eau et de l'eau c'est un cunnilingus Vrais reconnaissent vrais, pour ça que w'Allah, je n'sais pas qui vous êtes Vous r'tournez tellement vos vestes que vous n'savez pas qui vous êtes J'écris c'putain d'couplet dans Lambo', dégagez s'il vous plaît J'mets le contact, c'est pire qu'un AMG, écoutes</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Tu parles de ton équipe, c'est pas la mienne Tu parles de ta cité, c'est pas la mienne Tu parles de ta tristesse, c'est pas la mienne Tu parles de ta salope, on a la même Tu parles de ta me-ar, c'est pas la mienne Tu parles de ton équipe, c'est pas la mienne Tu parles de ta vengeance, c'est pas la mienne Tu parles de ta bouteille, c'est pas la tienne Tu parles de ton baveux, c'est pas ma peine Tu poucaves tes rebeux, c'est pas la peine Renoi tu peux t'piquer, c'est pas mes veines Et blinder tes narines, c'est pas les miennes Tu descends d'une voiture qui est pas la tienne T'es love c'est qu'une pute, non c'est pas la reine La bicrave, la squée-mo, non c'est pas la même Tu t'retrouves en taule car tu suis pas l'adhan Tu parles de ton enfance, c'est pas la même Tu parles de tes galères, c'est pas les miennes Tu parles de tes embrouilles, c'est pas les miennes J'suis libre car ces empreintes c'est pas les miennes Ton quartier, mon quartier, c'est pas la peine Le mien gros, c'est pas le Jardin d'Eden La juge est trop vénère c'est pas la peine, mais Mon baveux, ton baveux, c'est pas la même You might also like Parle pas de nos gles-rè c'est pas les mêmes Parle pas de nos daronnes c'est pas les mêmes Parle pas de nos vécus c'est pas les mêmes J'te l'dis, toi et moi gros, c'est pas la même Dégagez ces BS qui tient les rênes Vos banquiers, nos banquiers c'est pas la même Et me voir en te-boî sans miss ébène C'est rare comme un chinois qui aime pas les nems L'assistante sociale connait pas ma peine Ces bâtards de juges me connaissent à peine J'ai demandé à Dieu, mais qui tient les rênes ? Ton vécu, mon vécu, c'est pas le même Ta vie et la mienne gros, c'est pas la même La prison, les foyers, c'est ça la mienne Tu parles de ta Rolex c'est n'est pas la tienne J'te parle de ma vie car c'est pas la tienne Quand j'parle de la daronne, j'ai v'la la peine Quand j'parle de Hamidou, j'ai v'la la peine Quand j'parle de Zakaria, j'ai v'la la peine Quand j'parle de la jedda, j'ai v'la la peine Quand j'pense à mon enfant, j'revois la scène Des skins qui essayent de me jeter dans la Seine Un p'tit rebeu avec v'la les séquelles Mon père n'avait pas l'salaire d'Ezequiel J'me débrouillais à semer même sans la graine J'pars en Fé-fé où le vent m'emmène J'sais pas où j'vais mais qui tient les rênes ? J'crois qu'on a fumé le capitaine Tu parles de liberté, c'est pas la même Tu parles de nous douiller, c'est pas la peine Ton terrain, ton équipe c'est pas la même J'crois qu'on a fumé le capitaine C'est pour les longues et les petites peines C'est dans la beuh, que l'on a nos peines Les grands sont morts, aiguilles dans les veines Petit, sois ton propre capitaine Petit, sois ton propre capitaine2</t>
+          <t>Tu parles de ton équipe, c'est pas la mienne Tu parles de ta cité, c'est pas la mienne Tu parles de ta tristesse, c'est pas la mienne Tu parles de ta salope, on a la même Tu parles de ta me-ar, c'est pas la mienne Tu parles de ton équipe, c'est pas la mienne Tu parles de ta vengeance, c'est pas la mienne Tu parles de ta bouteille, c'est pas la tienne Tu parles de ton baveux, c'est pas ma peine Tu poucaves tes rebeux, c'est pas la peine Renoi tu peux t'piquer, c'est pas mes veines Et blinder tes narines, c'est pas les miennes Tu descends d'une voiture qui est pas la tienne T'es love c'est qu'une pute, non c'est pas la reine La bicrave, la squée-mo, non c'est pas la même Tu t'retrouves en taule car tu suis pas l'adhan Tu parles de ton enfance, c'est pas la même Tu parles de tes galères, c'est pas les miennes Tu parles de tes embrouilles, c'est pas les miennes J'suis libre car ces empreintes c'est pas les miennes Ton quartier, mon quartier, c'est pas la peine Le mien gros, c'est pas le Jardin d'Eden La juge est trop vénère c'est pas la peine, mais Mon baveux, ton baveux, c'est pas la même Parle pas de nos gles-rè c'est pas les mêmes Parle pas de nos daronnes c'est pas les mêmes Parle pas de nos vécus c'est pas les mêmes J'te l'dis, toi et moi gros, c'est pas la même Dégagez ces BS qui tient les rênes Vos banquiers, nos banquiers c'est pas la même Et me voir en te-boî sans miss ébène C'est rare comme un chinois qui aime pas les nems L'assistante sociale connait pas ma peine Ces bâtards de juges me connaissent à peine J'ai demandé à Dieu, mais qui tient les rênes ? Ton vécu, mon vécu, c'est pas le même Ta vie et la mienne gros, c'est pas la même La prison, les foyers, c'est ça la mienne Tu parles de ta Rolex c'est n'est pas la tienne J'te parle de ma vie car c'est pas la tienne Quand j'parle de la daronne, j'ai v'la la peine Quand j'parle de Hamidou, j'ai v'la la peine Quand j'parle de Zakaria, j'ai v'la la peine Quand j'parle de la jedda, j'ai v'la la peine Quand j'pense à mon enfant, j'revois la scène Des skins qui essayent de me jeter dans la Seine Un p'tit rebeu avec v'la les séquelles Mon père n'avait pas l'salaire d'Ezequiel J'me débrouillais à semer même sans la graine J'pars en Fé-fé où le vent m'emmène J'sais pas où j'vais mais qui tient les rênes ? J'crois qu'on a fumé le capitaine Tu parles de liberté, c'est pas la même Tu parles de nous douiller, c'est pas la peine Ton terrain, ton équipe c'est pas la même J'crois qu'on a fumé le capitaine C'est pour les longues et les petites peines C'est dans la beuh, que l'on a nos peines Les grands sont morts, aiguilles dans les veines Petit, sois ton propre capitaine Petit, sois ton propre capitaine2</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Bang, yo, bang, bang, bang Eh yo, Fouiny, bang VVS on the track J'crois quc'est le moment de passer aux choses sérieuses Yo Fouiny Go VVS got the juice, hold up Audemars, Goyard, la go dit que j'suis bien pe-sa Chérie, cest pas l'coup de foudre, tu m'as juste sucé dans ma Tesla bang, bang, bang Une batte dans la main comme si j'étais Negan Elle a bouffé ma queue, pourtant cette salope est vegan J'arrive par les côtés comme Paredes, j'ai dormi en gardav', j'ai mal aux fesses Mon cur est blindé comme un CRS, nous cest la Premier League, vous MLS AP, bras long, gros boule, talons Le pe-ra fait rigoler comme si javais passé toute ma soirée sous ballons Un million d'euros, cest trop peu, j'me barre à Saint Tropez, t'as cru qu'jétais finis khoya tu t'es trompé J't'ai dit qui peut m'stopper ? J'ai sorti la Don Pé, je vis dans des endroits que tu loues pour clipper Sodome, Gomorrhe, cambrée, ge-gor Le pe-ra français, j'le regarde de haut comme si j'avais posé du mirador Six heures du mat', ça fait doum-doum-doum Casser la te-por, mon cur a fait boom-boom-boom swish Casa, Oran, ta go mouille, un torrent J'suis multimillionnaire sur l'Coran Six heures du mat', ça fait doum-doum-doum Casser les te-por, mon cur a fait boom-boom-boom swish Casa, Oran, ta go mouille, un torrent J'suis multimillionnaire sur l'Coran You might also like Showcase, PayPal, on leur fait du sale comme à Pigalle Arai, intégral, dans l'meilleur des cas, c'est l'hôpital Champagne sur un yacht, tranquille on papote avec d'autres riches T'inquiète, j'suis pas ouf, non j'ferai pas d'rime avec Autriche J'suis plus devant le block à vendre des barrettes, à la que-ban, j'explose les baromètres Appartement, Paname, j'achète au mètre, putain mon avocat est malhonnête Ingé' vas-y mets moi la drill oui, fous la concurrence sur le grill oui On va tous finir à l'asile oui, à chercher le salaire d'Özil oui Mesut Six heures du mat', ça fait doum-doum-doum Casser la te-por, mon cur a fait boom-boom-boom swish Casa, Oran, ta go mouille, un torrent J'suis multimillionnaire sur l'Coran Six heures du mat', ça fait doum-doum-doum Casser les te-por, mon cur a fait boom-boom-boom swish Casa, Oran, ta go mouille, un torrent J'suis multimillionnaire sur l'Coran</t>
+          <t>Bang, yo, bang, bang, bang Eh yo, Fouiny, bang VVS on the track J'crois quc'est le moment de passer aux choses sérieuses Yo Fouiny Go VVS got the juice, hold up Audemars, Goyard, la go dit que j'suis bien pe-sa Chérie, cest pas l'coup de foudre, tu m'as juste sucé dans ma Tesla bang, bang, bang Une batte dans la main comme si j'étais Negan Elle a bouffé ma queue, pourtant cette salope est vegan J'arrive par les côtés comme Paredes, j'ai dormi en gardav', j'ai mal aux fesses Mon cur est blindé comme un CRS, nous cest la Premier League, vous MLS AP, bras long, gros boule, talons Le pe-ra fait rigoler comme si javais passé toute ma soirée sous ballons Un million d'euros, cest trop peu, j'me barre à Saint Tropez, t'as cru qu'jétais finis khoya tu t'es trompé J't'ai dit qui peut m'stopper ? J'ai sorti la Don Pé, je vis dans des endroits que tu loues pour clipper Sodome, Gomorrhe, cambrée, ge-gor Le pe-ra français, j'le regarde de haut comme si j'avais posé du mirador Six heures du mat', ça fait doum-doum-doum Casser la te-por, mon cur a fait boom-boom-boom swish Casa, Oran, ta go mouille, un torrent J'suis multimillionnaire sur l'Coran Six heures du mat', ça fait doum-doum-doum Casser les te-por, mon cur a fait boom-boom-boom swish Casa, Oran, ta go mouille, un torrent J'suis multimillionnaire sur l'Coran Showcase, PayPal, on leur fait du sale comme à Pigalle Arai, intégral, dans l'meilleur des cas, c'est l'hôpital Champagne sur un yacht, tranquille on papote avec d'autres riches T'inquiète, j'suis pas ouf, non j'ferai pas d'rime avec Autriche J'suis plus devant le block à vendre des barrettes, à la que-ban, j'explose les baromètres Appartement, Paname, j'achète au mètre, putain mon avocat est malhonnête Ingé' vas-y mets moi la drill oui, fous la concurrence sur le grill oui On va tous finir à l'asile oui, à chercher le salaire d'Özil oui Mesut Six heures du mat', ça fait doum-doum-doum Casser la te-por, mon cur a fait boom-boom-boom swish Casa, Oran, ta go mouille, un torrent J'suis multimillionnaire sur l'Coran Six heures du mat', ça fait doum-doum-doum Casser les te-por, mon cur a fait boom-boom-boom swish Casa, Oran, ta go mouille, un torrent J'suis multimillionnaire sur l'Coran</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>90k dans bolide, noyer mes soucis dans la weed L'impression d'tomber dans le vide, j'aurais pu finir dans l'héroïne J'ai fait mes armes dans le sept-huit, éloigné des suceurs de bite J'rentre chez Louis Vuitton, Balenciaga, j'suis comme ma carte bleue, gros, je débite J'rêvais d'sortir de la sère-mi, faire péter la Maserati N'oublie pas d'où tu viens ma fille, du Maroc et du Mali Ils ont tenté d'me salir, m'ont tiré dessus, mais j'me suis relevé, j'ai guéri mes blessures J'suis un soldat, la rue - j'la connais, j'l'ai vécue, j'ai ressuscité dix fois, vingt fois, je sais plus J'ai les mains dans la merde et je valais de l'or, ils m'ont rendu plus fort, m'lamenter sur mon sort Tu sais, c'est pas pour moi, j'suis un conquistador dans un Aventador, et j'les baise à la mort T'es nouveau dans l'game, petit, un conseil méfie-toi des groupies Elle voulait une photographie, ça a fini en échographie La daronne m'a dit Fais-le, les grands du quartier m'ont dit Fais-le, fais-le Mon frérot m'a dit Fais-le, toute la cité m'a dit Fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le En promenade, m'ont dit Fais-le, cette voix dans ma tête m'a dit Fais-le, fais-le Le daron m'a dit Fais-le, même si t'échoues, mon fils, fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le Dans ce monde, tout est négatif, y'a que le séro qui reste positif Cet album, il pue la galère, pas d'zouglou, d'jolis sons festifs Triste vie, triste mélodie, en cellule, j'étais bien loti Des fois, le quartier me manque, j'aimerais m'faire couper chez Mehdi On est plein dans ma tête mais j'ai qu'une seule voix, et si j'rentre d'Espagne dans un RS3 Si j'me fais péter, viendras-tu me voir ? J'repense à ton cul dans mon lit, le soir J'suis toujours en vie, j'fais des billets violets, verts Élevé au niquage de mères, mères J'croyais que t'étais un homme mais je t'ai vu pleurer quand la feu-meu t'a té-je L'habit ne fait pas le moine, la barbe ne fait pas le Hajj, non Toute ma jeunesse, j'ai baigné dans le crime, pourtant, j'avais mes ablutions Si j'aime pas ta gueule, je te fais pas crédit, khoya, je suis mon intuition You might also like La daronne m'a dit Fais-le, les grands du quartier m'ont dit Fais-le, fais-le Mon frérot m'a dit Fais-le, toute la cité m'a dit Fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le En promenade, m'ont dit Fais-le, cette voix dans ma tête m'a dit Fais-le, fais-le Le daron m'a dit Fais-le, même si t'échoues, mon fils, fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le</t>
+          <t>90k dans bolide, noyer mes soucis dans la weed L'impression d'tomber dans le vide, j'aurais pu finir dans l'héroïne J'ai fait mes armes dans le sept-huit, éloigné des suceurs de bite J'rentre chez Louis Vuitton, Balenciaga, j'suis comme ma carte bleue, gros, je débite J'rêvais d'sortir de la sère-mi, faire péter la Maserati N'oublie pas d'où tu viens ma fille, du Maroc et du Mali Ils ont tenté d'me salir, m'ont tiré dessus, mais j'me suis relevé, j'ai guéri mes blessures J'suis un soldat, la rue - j'la connais, j'l'ai vécue, j'ai ressuscité dix fois, vingt fois, je sais plus J'ai les mains dans la merde et je valais de l'or, ils m'ont rendu plus fort, m'lamenter sur mon sort Tu sais, c'est pas pour moi, j'suis un conquistador dans un Aventador, et j'les baise à la mort T'es nouveau dans l'game, petit, un conseil méfie-toi des groupies Elle voulait une photographie, ça a fini en échographie La daronne m'a dit Fais-le, les grands du quartier m'ont dit Fais-le, fais-le Mon frérot m'a dit Fais-le, toute la cité m'a dit Fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le En promenade, m'ont dit Fais-le, cette voix dans ma tête m'a dit Fais-le, fais-le Le daron m'a dit Fais-le, même si t'échoues, mon fils, fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le Dans ce monde, tout est négatif, y'a que le séro qui reste positif Cet album, il pue la galère, pas d'zouglou, d'jolis sons festifs Triste vie, triste mélodie, en cellule, j'étais bien loti Des fois, le quartier me manque, j'aimerais m'faire couper chez Mehdi On est plein dans ma tête mais j'ai qu'une seule voix, et si j'rentre d'Espagne dans un RS3 Si j'me fais péter, viendras-tu me voir ? J'repense à ton cul dans mon lit, le soir J'suis toujours en vie, j'fais des billets violets, verts Élevé au niquage de mères, mères J'croyais que t'étais un homme mais je t'ai vu pleurer quand la feu-meu t'a té-je L'habit ne fait pas le moine, la barbe ne fait pas le Hajj, non Toute ma jeunesse, j'ai baigné dans le crime, pourtant, j'avais mes ablutions Si j'aime pas ta gueule, je te fais pas crédit, khoya, je suis mon intuition La daronne m'a dit Fais-le, les grands du quartier m'ont dit Fais-le, fais-le Mon frérot m'a dit Fais-le, toute la cité m'a dit Fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le En promenade, m'ont dit Fais-le, cette voix dans ma tête m'a dit Fais-le, fais-le Le daron m'a dit Fais-le, même si t'échoues, mon fils, fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le Fais-le, fais-le, fais-le, fais-le Just do it, fais-le, fais-le</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Yeah, c'est clair on n'ira pas à Harvard T'façon tout se sait, la rue est bavarde On meurt de soif, pourtant tous nos projets tombent à l'eau On restera à la cité, à manger des glaces à l'eau Les yeux rouges, on regardera le ciel tard le soir Et on parlera de quand on sera des stars On parlera de quand on sera des gens heureux De la gloire, du public et puis des tas de fe-meu Des vacances, des bateaux et puis du beau temps Et de toutes ces choses qu'on nous cache depuis trop longtemps On parlera de nos chauffeurs, de nos villas On parlera du jour où t'épousera Sabrina Ouais Sabrina, j'vois bien que tu la kiffes Elle te regarderait j'suis sûr, si t'avais du biff Merde, t'as vu l'heure qu'il est ? On n'a pas vu le temps passer On s'reverra demain frère, histoire d'en reparler Tous nos désirs, tous nos voeux Rien que de les toucher du bout des doigts Tous nos désirs, tous nos voeux On les touchera du bout des doigts Yeah, tant pis on n'a pas connu Harvard T'façon ils savent tous, la rue est bavarde Frérot, tu te rappelles de nos vies, de tous nos projets ? Noyés dans la merde, on a dû apprendre à nager Les yeux rouges, on regarde le ciel tard le soir Et on parle de quand on n'était pas des stars Ouais, on parle de quand on était des gens heureux Insouciants, quand on partageait tous nos grecs en deux Quand on empruntait la voiture au père Quand on n'avait même pas les sous pour rentrer Quand on se battait pour le thé de la mater' Comme ils me manquent ces lits superposés Quand on pensait que l'argent faisait le bonheur À présent on sait que seul le bonheur fait le bonheur Merde, ça va être à nous, on n'a pas vu le temps passer On s'voit après le show, ça m'a fait du bien d'en reparler You might also like Tous nos désirs, tous nos voeux Rien que de les toucher du bout des doigts Tous nos désirs, tous nos voeux On les touchera du bout des doigts Du bout des doigts, du bout des doigts Hey, tous nos désirs, tous nos voeux On les touchera du bout des doigts, yeah On les touchera du bout des doigts, hey On les touchera du bout des doigts Leïla, Fouiny Tous nos désirs, tous nos voeux Rien que de les toucher du bout des doigts Tous nos désirs, tous nos voeux On les touchera du bout des doigts</t>
+          <t>Yeah, c'est clair on n'ira pas à Harvard T'façon tout se sait, la rue est bavarde On meurt de soif, pourtant tous nos projets tombent à l'eau On restera à la cité, à manger des glaces à l'eau Les yeux rouges, on regardera le ciel tard le soir Et on parlera de quand on sera des stars On parlera de quand on sera des gens heureux De la gloire, du public et puis des tas de fe-meu Des vacances, des bateaux et puis du beau temps Et de toutes ces choses qu'on nous cache depuis trop longtemps On parlera de nos chauffeurs, de nos villas On parlera du jour où t'épousera Sabrina Ouais Sabrina, j'vois bien que tu la kiffes Elle te regarderait j'suis sûr, si t'avais du biff Merde, t'as vu l'heure qu'il est ? On n'a pas vu le temps passer On s'reverra demain frère, histoire d'en reparler Tous nos désirs, tous nos voeux Rien que de les toucher du bout des doigts Tous nos désirs, tous nos voeux On les touchera du bout des doigts Yeah, tant pis on n'a pas connu Harvard T'façon ils savent tous, la rue est bavarde Frérot, tu te rappelles de nos vies, de tous nos projets ? Noyés dans la merde, on a dû apprendre à nager Les yeux rouges, on regarde le ciel tard le soir Et on parle de quand on n'était pas des stars Ouais, on parle de quand on était des gens heureux Insouciants, quand on partageait tous nos grecs en deux Quand on empruntait la voiture au père Quand on n'avait même pas les sous pour rentrer Quand on se battait pour le thé de la mater' Comme ils me manquent ces lits superposés Quand on pensait que l'argent faisait le bonheur À présent on sait que seul le bonheur fait le bonheur Merde, ça va être à nous, on n'a pas vu le temps passer On s'voit après le show, ça m'a fait du bien d'en reparler Tous nos désirs, tous nos voeux Rien que de les toucher du bout des doigts Tous nos désirs, tous nos voeux On les touchera du bout des doigts Du bout des doigts, du bout des doigts Hey, tous nos désirs, tous nos voeux On les touchera du bout des doigts, yeah On les touchera du bout des doigts, hey On les touchera du bout des doigts Leïla, Fouiny Tous nos désirs, tous nos voeux Rien que de les toucher du bout des doigts Tous nos désirs, tous nos voeux On les touchera du bout des doigts</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Salut mon vieux tu mreconnais ? Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Putain jsuis trop content, mon ascenseur sent plus la pisse Et le soir quand jmendors, plus dsirènes de la police Bizarre quand jdescends au garage, les voitures ne sont plus rayées Sbahlilah quand jrelève le courrier renoi ya plus dfactures à payer Putain cest dingue ma salle de bains fait la taille de leur appart Il est vénèr jcrois qujai ken sa meuf, dans sa Fiat 500 Abarth Cest vrai ma vie a changé, polo Banlieue Sale chez lteinturier Renoi jsais plus faire des créneaux, cest sûrement la faute aux voituriers Hamdoullah jvis dans un rêve, ce rêve que taimerais faire Promo télé radio concerts sold out, mais on peut toujours te niquer ta mère Tribune présidentielle, jserre la main à Zlatan Quand jy pense petit au quartier, demande à Hakim on avait même pas Canal Ma voiture sent le neuf, mon doigt sent la meuf Shab tu mconnais pas, ma belle arrête ton bluff À part ça nan jai pas changé, renoi jsais pas qui tas dit ça Tiens MC va macheter un grec, complet mayonnaise harissa You might also like Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin 22 ça sent lmurder, jsuis avec mes acolytes On sembrouille pas pour du rap mais t'fume pour un euro symbolique Dis-leur que cest BR en personne, si la police te questionne À force de faire des longues peines, tu nen as plus pour personne Bitch Glock et Audi RS, quel est le fils de pute qua osé me zehef ? Laisse-les nehess, on les baise, flow étudié au CNRS Des millions deuros dans mon rêve, Beyoncé me fait le mafé Négro jai connu des blazes tellement gangs, que jpeux même pas les dédicacer À vos marques prêts feu click click boom, 240 gang dans ton living-room 9.1, 9.1zer cest le fucking hood, cest le fucking hood, cest le fucking hood Dans c'putain d'monde tout sachète, comme ta shneck derrière la vitrine On ma dit qucétait toi le best, ça ma donné envie drire Jreprendrai pas tes patins, à part si tu connais ma somme Chez moi les guerres sont gratuites, cest lEssonne, cest lEssonne All Eyez On Me DBR jfais sentir ma merde à lescorte Mon gros chez moi les couilles appartiennent à ceux qui les portent Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin T28, G87, P38, AK47 Bonne cuite braque la get 7, la coke est cuite, raque la recette Prenez fuite, faites le 17, sucez des bites, faites comme vos ancêtres Encore un hit, toujours pas dmixtape, ça vend du shit, ça vend dla zipette Ça fait du chiffre, des armes soviets, ça fait les pitres, en face les mauviettes Ça suce des bites ça finira en levrette, furtif niama je vous mets une tempête Tas kiffé lskud tu nous connais, cest chaud dans la ville, sous Jack on est Rafale dans ton bide jai pas ltemps de cogner, 7.8 et 9.2, fuck laumônier 7.62 dans le parking, dis-moi donc j'vais m'faire tirer par qui ? Jsuis avec mes reubeus, jsuis avec mes chinois, jsuis avec mes gitans, jsuis avec mes blackys Trop de catins, jfais couler les larmes, prends mes patins, je prendrai les armes Furif kamikaze, jtarracherai ton arme, esprit criminel, CDC Drame Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin3</t>
+          <t>Salut mon vieux tu mreconnais ? Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Putain jsuis trop content, mon ascenseur sent plus la pisse Et le soir quand jmendors, plus dsirènes de la police Bizarre quand jdescends au garage, les voitures ne sont plus rayées Sbahlilah quand jrelève le courrier renoi ya plus dfactures à payer Putain cest dingue ma salle de bains fait la taille de leur appart Il est vénèr jcrois qujai ken sa meuf, dans sa Fiat 500 Abarth Cest vrai ma vie a changé, polo Banlieue Sale chez lteinturier Renoi jsais plus faire des créneaux, cest sûrement la faute aux voituriers Hamdoullah jvis dans un rêve, ce rêve que taimerais faire Promo télé radio concerts sold out, mais on peut toujours te niquer ta mère Tribune présidentielle, jserre la main à Zlatan Quand jy pense petit au quartier, demande à Hakim on avait même pas Canal Ma voiture sent le neuf, mon doigt sent la meuf Shab tu mconnais pas, ma belle arrête ton bluff À part ça nan jai pas changé, renoi jsais pas qui tas dit ça Tiens MC va macheter un grec, complet mayonnaise harissa Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin 22 ça sent lmurder, jsuis avec mes acolytes On sembrouille pas pour du rap mais t'fume pour un euro symbolique Dis-leur que cest BR en personne, si la police te questionne À force de faire des longues peines, tu nen as plus pour personne Bitch Glock et Audi RS, quel est le fils de pute qua osé me zehef ? Laisse-les nehess, on les baise, flow étudié au CNRS Des millions deuros dans mon rêve, Beyoncé me fait le mafé Négro jai connu des blazes tellement gangs, que jpeux même pas les dédicacer À vos marques prêts feu click click boom, 240 gang dans ton living-room 9.1, 9.1zer cest le fucking hood, cest le fucking hood, cest le fucking hood Dans c'putain d'monde tout sachète, comme ta shneck derrière la vitrine On ma dit qucétait toi le best, ça ma donné envie drire Jreprendrai pas tes patins, à part si tu connais ma somme Chez moi les guerres sont gratuites, cest lEssonne, cest lEssonne All Eyez On Me DBR jfais sentir ma merde à lescorte Mon gros chez moi les couilles appartiennent à ceux qui les portent Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin T28, G87, P38, AK47 Bonne cuite braque la get 7, la coke est cuite, raque la recette Prenez fuite, faites le 17, sucez des bites, faites comme vos ancêtres Encore un hit, toujours pas dmixtape, ça vend du shit, ça vend dla zipette Ça fait du chiffre, des armes soviets, ça fait les pitres, en face les mauviettes Ça suce des bites ça finira en levrette, furtif niama je vous mets une tempête Tas kiffé lskud tu nous connais, cest chaud dans la ville, sous Jack on est Rafale dans ton bide jai pas ltemps de cogner, 7.8 et 9.2, fuck laumônier 7.62 dans le parking, dis-moi donc j'vais m'faire tirer par qui ? Jsuis avec mes reubeus, jsuis avec mes chinois, jsuis avec mes gitans, jsuis avec mes blackys Trop de catins, jfais couler les larmes, prends mes patins, je prendrai les armes Furif kamikaze, jtarracherai ton arme, esprit criminel, CDC Drame Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin Compare pas nos banlieues à risques khoya et tous tes petits patelins Si tas mis des asbas à gauche à droite on prendra pas tes patins Nan on prendra pas tes patins, nan on prendra pas tes patins 48 heures on ressort à jeun, khoya on a plus de flow quun vagin3</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne J'ai mon gros Bling-Bling, nique sa mère les bibliothèques J'ai toujours ma salope, mon brolic, mon que-sti au bec Deux-trois kilos et j'sais où investir Ces rappeurs conscients ont-ils conscience que je baise plus qu'ils ne respirent ? Si le talent ça payait, la cliqua serait tous millionnaires J'regarde le boule des salopes car j'suis un visionnaire J'attends ma condi, les lettres d'Addil Hakim Serré dans ma cellule comme dans un jean slim, yeah Du plomb dans l'aile j'avais un gun et pas un Bescherelle J'voyais pas le bonheur jusqu'à ce que l'rap me fasse la courte échelle Le daron bicravait la hia sous mes yeux Le bon shit de Casa au foyer partait comme des oeufs Aucun maître à part Dieu, même en cellule deux par deux A ppes-tra on la coupe, tu repars avec le zen à Depardieu T'as pas d'bords ? Baisse les yeux quand on t'menace T'as les couilles pleines, comme les narines à Amy Whinehouse You might also like Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne J'rap tellement halal qu'on dit que j'rappe haram Au square on bicrave les ke-grè, la pe-sa et la came, yeah Les grands du quartier ont tous finit comme Maradonna Aller-Retour ne vieillit pas, il est comme Madonna Obligé d'kiffer la vie maintenant que j'ai remonté la pente Et si la vie est une chienne j'suis bé-tom pour tournante Aucun sou, aucun mandat cash quand j'étais dans la merde Quand j'tournais dans la cour, que j'faisais tièp' comme Betancourt N'ai pas la haine, boy, on est venu fermes des gueules Man on a sorti les guns, on les fait danser comme Soulja Boy YOUU J'sors pas sans la famille YOUU, j'sors pas sans la famille YOUU Jamais sans la famille, jamais-jamais sans la famille Je monte au tar-mi, car les poucaves m'ont flairé Au square on tient les murs et même le Diable surveille ses intérêts Ils n'savent plus quoi raconter, ça devient trop grave là Et si le rap te fait plus bander, voilà ton Fouiny-Viagra Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne On doit rien à pers-on doit-on doit rien à personne Rebeu j'ai dégainé mon AbdelKader Smith Wesson Wallaï Billaï j'suis trop loin j'plane comme Tunis air J'défonce comme le zéb des Antilles, le Rhum du Cap-Vert On donne avec le coeur, sans attendre en retour Ma pétasse je la baise, et ma fe-meu j'lui fait l'amour, Yeah Gros gamos, grosse équipe et gros portefeuille Ils sont tellement jaloux que même Stevie Wonder nous porte l'oeil Casablanca, j'suis sûr que si je reste là J'en laisserai trop en deuil car j'ferais mon retour dans un cercueil Pour faire un be-tu ? Pas besoin d'baisser son caleçon Passe-moi un stylo et une feuille, un gros beat d'AnimalSon, Yeah On fera toujours des tueries, on fera toujours des sons lourds C'est dangereux dans la street, si t'entends crick-crick, Cours ! La prod' de Canardo est lourde comme le salaire à Parker On rappe pas pour les groupies, on rappe avec le coeur, Yeah Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Rejoins la communauté RapGenius France !</t>
+          <t>Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne J'ai mon gros Bling-Bling, nique sa mère les bibliothèques J'ai toujours ma salope, mon brolic, mon que-sti au bec Deux-trois kilos et j'sais où investir Ces rappeurs conscients ont-ils conscience que je baise plus qu'ils ne respirent ? Si le talent ça payait, la cliqua serait tous millionnaires J'regarde le boule des salopes car j'suis un visionnaire J'attends ma condi, les lettres d'Addil Hakim Serré dans ma cellule comme dans un jean slim, yeah Du plomb dans l'aile j'avais un gun et pas un Bescherelle J'voyais pas le bonheur jusqu'à ce que l'rap me fasse la courte échelle Le daron bicravait la hia sous mes yeux Le bon shit de Casa au foyer partait comme des oeufs Aucun maître à part Dieu, même en cellule deux par deux A ppes-tra on la coupe, tu repars avec le zen à Depardieu T'as pas d'bords ? Baisse les yeux quand on t'menace T'as les couilles pleines, comme les narines à Amy Whinehouse Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne J'rap tellement halal qu'on dit que j'rappe haram Au square on bicrave les ke-grè, la pe-sa et la came, yeah Les grands du quartier ont tous finit comme Maradonna Aller-Retour ne vieillit pas, il est comme Madonna Obligé d'kiffer la vie maintenant que j'ai remonté la pente Et si la vie est une chienne j'suis bé-tom pour tournante Aucun sou, aucun mandat cash quand j'étais dans la merde Quand j'tournais dans la cour, que j'faisais tièp' comme Betancourt N'ai pas la haine, boy, on est venu fermes des gueules Man on a sorti les guns, on les fait danser comme Soulja Boy YOUU J'sors pas sans la famille YOUU, j'sors pas sans la famille YOUU Jamais sans la famille, jamais-jamais sans la famille Je monte au tar-mi, car les poucaves m'ont flairé Au square on tient les murs et même le Diable surveille ses intérêts Ils n'savent plus quoi raconter, ça devient trop grave là Et si le rap te fait plus bander, voilà ton Fouiny-Viagra Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne On doit rien à pers-on doit-on doit rien à personne Rebeu j'ai dégainé mon AbdelKader Smith Wesson Wallaï Billaï j'suis trop loin j'plane comme Tunis air J'défonce comme le zéb des Antilles, le Rhum du Cap-Vert On donne avec le coeur, sans attendre en retour Ma pétasse je la baise, et ma fe-meu j'lui fait l'amour, Yeah Gros gamos, grosse équipe et gros portefeuille Ils sont tellement jaloux que même Stevie Wonder nous porte l'oeil Casablanca, j'suis sûr que si je reste là J'en laisserai trop en deuil car j'ferais mon retour dans un cercueil Pour faire un be-tu ? Pas besoin d'baisser son caleçon Passe-moi un stylo et une feuille, un gros beat d'AnimalSon, Yeah On fera toujours des tueries, on fera toujours des sons lourds C'est dangereux dans la street, si t'entends crick-crick, Cours ! La prod' de Canardo est lourde comme le salaire à Parker On rappe pas pour les groupies, on rappe avec le coeur, Yeah Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man si on est la, c'est qu'on fait l'taf, gros Yeah, man à part Dieu, on n'doit rien à personne Rejoins la communauté RapGenius France !</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Quand t'es sur le podium, faut se faire accepter J'espère que tu tiens la forme, va falloir cavaler Roses sont les bébés Cadum quand je mate la télé À croire que les miens sont pas dans la norme Beaucoup trop typés Je m'inquiète pour les droits de l'homme Qui viennent de se faire lyncher Par derrière on l'assomme après l'avoir menotté Lui même créera le sérum pour tous ces enfoirés Un peu d'acier aluminium le tout bien propulsé Par un 357 magnum pour ne pas rater Faut-il quitter un monde qui déconne avant de le voir exploser Que Dieu me pardonne ma voix n'est pas à la bonne tonalité Je parle de tout en vrac, tout dans le même sac Pour les petits, pour les grands Pour les jeunes, pour les vieux Pour les jaunes pour les blancs, pour les blacks Sur le défensive, je passe à l'attaque x2 Tu aimes les saveurs exquises, tire sur mon Phillies Personne ne freeze, Big Red double la mise C'est chaud pour le biz, mon style j'aiguise La paix j'attise, qu'est ce que tu veux que je te dise C'est pas la première place que je vise You might also like La conseillère d'orientation respecte pas les droits civiques Cette mégère a cru bon t'envoyer faire de la mécanique Elle s'est pas dit, demandons ce qu'en pense Dominique Plus vite nous orientons les jeunes venus d'Afrique Moins de problèmes nous aurons avec ce vent de panique Qui déferle dans nos régions et rend les gens hystériques Sortent leurs gueules des bas-fonds et viennent brasser notre fric Faut faire attention ils connaissent leurs mathématiques J'ai l'impression qu'ils progressent de façon stratégique Comme le major Big Red de l'armée de l'air sonic Qui n'a pas besoin d'aide pour foutre la panique Tu sais comment il procède posé sur la rythmique À te dire au mic les droits de l'homme c'est pas un mythe x2 Tu aimes les saveurs exquises, tire sur mon Phillies Personne ne freeze, Big Red double la mise C'est chaud pour le biz, mon style j'aiguise La paix j'attise, qu'est ce que tu veux que je te dise C'est pas la première place que je vise Pour tout le monde faut que ce soit peace, greenpeace Mes surs, mes frères envoyez vous des kiss Ensemble sortons du mode practice Les provocations vaut mieux qu'elles glissent Tu sais moi les cons je les plisse Faut pas me prendre pour un novice Je bosse telle une mygale qui tisse C'est une fois que tes yeux se plissent Que tu accèdes à un niveau où le vice Ne te sera d'aucune aide où les gens sont pas factices Et volontiers te cèdent un peu de greenpeace revu par Big Red Le mauvais j'élimine, le bon je valide, pur raggamuffin Qui veut du liquide, je sais pas si tu t'imagines Trop de malpropres font les mecs clean Chient dans leurs frocs et font les fouines Donne-moi de la thune que je cantine</t>
+          <t>Quand t'es sur le podium, faut se faire accepter J'espère que tu tiens la forme, va falloir cavaler Roses sont les bébés Cadum quand je mate la télé À croire que les miens sont pas dans la norme Beaucoup trop typés Je m'inquiète pour les droits de l'homme Qui viennent de se faire lyncher Par derrière on l'assomme après l'avoir menotté Lui même créera le sérum pour tous ces enfoirés Un peu d'acier aluminium le tout bien propulsé Par un 357 magnum pour ne pas rater Faut-il quitter un monde qui déconne avant de le voir exploser Que Dieu me pardonne ma voix n'est pas à la bonne tonalité Je parle de tout en vrac, tout dans le même sac Pour les petits, pour les grands Pour les jeunes, pour les vieux Pour les jaunes pour les blancs, pour les blacks Sur le défensive, je passe à l'attaque x2 Tu aimes les saveurs exquises, tire sur mon Phillies Personne ne freeze, Big Red double la mise C'est chaud pour le biz, mon style j'aiguise La paix j'attise, qu'est ce que tu veux que je te dise C'est pas la première place que je vise La conseillère d'orientation respecte pas les droits civiques Cette mégère a cru bon t'envoyer faire de la mécanique Elle s'est pas dit, demandons ce qu'en pense Dominique Plus vite nous orientons les jeunes venus d'Afrique Moins de problèmes nous aurons avec ce vent de panique Qui déferle dans nos régions et rend les gens hystériques Sortent leurs gueules des bas-fonds et viennent brasser notre fric Faut faire attention ils connaissent leurs mathématiques J'ai l'impression qu'ils progressent de façon stratégique Comme le major Big Red de l'armée de l'air sonic Qui n'a pas besoin d'aide pour foutre la panique Tu sais comment il procède posé sur la rythmique À te dire au mic les droits de l'homme c'est pas un mythe x2 Tu aimes les saveurs exquises, tire sur mon Phillies Personne ne freeze, Big Red double la mise C'est chaud pour le biz, mon style j'aiguise La paix j'attise, qu'est ce que tu veux que je te dise C'est pas la première place que je vise Pour tout le monde faut que ce soit peace, greenpeace Mes surs, mes frères envoyez vous des kiss Ensemble sortons du mode practice Les provocations vaut mieux qu'elles glissent Tu sais moi les cons je les plisse Faut pas me prendre pour un novice Je bosse telle une mygale qui tisse C'est une fois que tes yeux se plissent Que tu accèdes à un niveau où le vice Ne te sera d'aucune aide où les gens sont pas factices Et volontiers te cèdent un peu de greenpeace revu par Big Red Le mauvais j'élimine, le bon je valide, pur raggamuffin Qui veut du liquide, je sais pas si tu t'imagines Trop de malpropres font les mecs clean Chient dans leurs frocs et font les fouines Donne-moi de la thune que je cantine</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg Tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg Tu n'as aucun swagg, tu n'as aucun swagg J'confonds ma garde robe et le crâne à Swaggman Tu pousses à la salle mais tu n'as aucun pec' Tu veux monter sur scène, mais t'as mais t'as l'swagg a Drake Tu n'as aucun swagg, tu n'as aucun swagg T'as la couverture de ton lit et nous celle de Rap Mag On dévalise Gucci dans la cour des grands Et quand je rentre chez LV c'est pas pour acheter des gants Ils maccueillent comme un roi, ils me proposent du champagne Renoi ta soeur te cherche elle veut récupérer son pagne Tu n'as aucun swagg inspire toi de La Fouine Je peux pas être homophobe j'aime trop les gouines Tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg Tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg You might also like Tu n'as aucun swagg, comme les profs de dessin Putain c'est la honte ta meuf n'a même pas de faux seins Tu n'as aucun swagg, tu n'as aucun swagg Putain c'est la hass ! T'as une montre Guess ! Tu n'as aucun swagg , tu nous fais de la peine Frère j'ai trop de swagg, j'suis recherché par Birdman Mon texte parle de rien, bouge ta tête essaie pas de penser Tu n'as aucun swagg comme les rappeurs français Cherche pas la merde on est né en plein d'dans Blackberry Torch bsahtek le Nokia serpent Tu n'as aucun swagg, tu n'as aucun bail Ta chienne bouffe des grecs sauce samouraï Tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg Tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg</t>
+          <t>Tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg Tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg Tu n'as aucun swagg, tu n'as aucun swagg J'confonds ma garde robe et le crâne à Swaggman Tu pousses à la salle mais tu n'as aucun pec' Tu veux monter sur scène, mais t'as mais t'as l'swagg a Drake Tu n'as aucun swagg, tu n'as aucun swagg T'as la couverture de ton lit et nous celle de Rap Mag On dévalise Gucci dans la cour des grands Et quand je rentre chez LV c'est pas pour acheter des gants Ils maccueillent comme un roi, ils me proposent du champagne Renoi ta soeur te cherche elle veut récupérer son pagne Tu n'as aucun swagg inspire toi de La Fouine Je peux pas être homophobe j'aime trop les gouines Tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg Tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg Tu n'as aucun swagg, comme les profs de dessin Putain c'est la honte ta meuf n'a même pas de faux seins Tu n'as aucun swagg, tu n'as aucun swagg Putain c'est la hass ! T'as une montre Guess ! Tu n'as aucun swagg , tu nous fais de la peine Frère j'ai trop de swagg, j'suis recherché par Birdman Mon texte parle de rien, bouge ta tête essaie pas de penser Tu n'as aucun swagg comme les rappeurs français Cherche pas la merde on est né en plein d'dans Blackberry Torch bsahtek le Nokia serpent Tu n'as aucun swagg, tu n'as aucun bail Ta chienne bouffe des grecs sauce samouraï Tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun swagg,swagg,swagg,swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg Tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun swagg, swagg, swagg, swagg Tu n'as tu n'as aucun bord, aucun euro, aucun fer swagg Et quand j'te vois en boîte tu danses avec aucun verre swagg</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Condamnés à rester en bas avec la main tendue Souffrir et ramasser les restes jetés par l' O.N.U Mes yeux sont ouverts, je vois lAfrique pillée par l'Occident Le gaz, le pétrole, largent, lor, les minéraux, les diamants Combien de frères souffrent à Abidjan ? Et ces laissés pour compte condamnés par le manque dargent La couleur de peau, les battements d'cur de Bamako Dici jentends les pleurs et les cris de Conakry Même sur Air Sénégal, en première classe, posé Joublierai jamais que les négriers partaient d'Gorée Les gosses qui meurent au Darfour ou en Somalie La France a dautres problèmes elle préfère traquer Cheb Mami On prend la mer, on meurt sans nourriture pour Barcelone Où on tvendra des flacons de Chanel plein d'Eau d'Cologne On essaye tous de se débrouiller T'façon ça sera toujours mieux que les bidonvilles de Yaoundé Regarde-moi rouler dans ma caisse grâce au pétrole d'Afrique Regarde-moi briller comme le jour grâce aux diamants d'Afrique Mais pas assez de reconnaissance pour ma terre d'Afrique Ces vraies valeurs qui font qu'on peut se sentir bien sans fric Regarde-les planer dans les airs grâce au pétrole dAfrique Regarde-les briller comme le jour grâce aux diamants d'Afrique Mais pas assez de reconnaissance pour ma terre d'Afrique Pour ma terre d'Afrique, pour ma terre d'Afrique You might also like Les chefs d'États se partagent le mago Les gens comme toi et moi, mon frère, se partagent juste le maro On sort en boîte, on voit ces gros lards chefs dentreprises Avec ces prostituées quont même pas 14 piges Est-ce que Mandela méritait ces années d'malheur ? Est-ce que George Bush a fait exploser le World Trade Center ? Est-ce que la vie d'Saïd et d'Nico ont la même valeur ? Est-ce quon a indemnisé toutes ces familles d'tirailleurs ? Regarde-les tous sentretuer pour ces barils d'Afrique Regarde-les mourir dans des mines pour ces diamants d'Afrique Casablanca, Tunisie, Alger, Oran, click-click Dakar, Nouakchott, on shoote l'État et toute sa clique-clique Y'a sûrement une couille quelque part Comment peut-on être aussi pauvre avec autant d'or noir ? Face à tout ça j'reste faible, comme le Franc CFA Ne baisse pas les bras, Afrika Regarde-moi rouler dans ma caisse grâce au pétrole d'Afrique Regarde-moi briller comme le jour grâce aux diamants d'Afrique Mais pas assez de reconnaissance pour ma terre d'Afrique Ces vraies valeurs qui font qu'on peut se sentir bien sans fric Regarde-les planer dans les airs grâce au pétrole dAfrique Regarde-les briller comme le jour grâce aux diamants d'Afrique Mais pas assez de reconnaissance pour ma terre d'Afrique Pour ma terre d'Afrique, pour ma terre d'Afrique Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Condamnés à rester en bas avec la main tendue Souffrir et ramasser les restes jetés par l' O.N.U Mes yeux sont ouverts, je vois lAfrique pillée par l'Occident Le gaz, le pétrole, largent, lor, les minéraux, les diamants Combien de frères souffrent à Abidjan ? Et ces laissés pour compte condamnés par le manque dargent La couleur de peau, les battements d'cur de Bamako Dici jentends les pleurs et les cris de Conakry Même sur Air Sénégal, en première classe, posé Joublierai jamais que les négriers partaient d'Gorée Les gosses qui meurent au Darfour ou en Somalie La France a dautres problèmes elle préfère traquer Cheb Mami On prend la mer, on meurt sans nourriture pour Barcelone Où on tvendra des flacons de Chanel plein d'Eau d'Cologne On essaye tous de se débrouiller T'façon ça sera toujours mieux que les bidonvilles de Yaoundé Regarde-moi rouler dans ma caisse grâce au pétrole d'Afrique Regarde-moi briller comme le jour grâce aux diamants d'Afrique Mais pas assez de reconnaissance pour ma terre d'Afrique Ces vraies valeurs qui font qu'on peut se sentir bien sans fric Regarde-les planer dans les airs grâce au pétrole dAfrique Regarde-les briller comme le jour grâce aux diamants d'Afrique Mais pas assez de reconnaissance pour ma terre d'Afrique Pour ma terre d'Afrique, pour ma terre d'Afrique Les chefs d'États se partagent le mago Les gens comme toi et moi, mon frère, se partagent juste le maro On sort en boîte, on voit ces gros lards chefs dentreprises Avec ces prostituées quont même pas 14 piges Est-ce que Mandela méritait ces années d'malheur ? Est-ce que George Bush a fait exploser le World Trade Center ? Est-ce que la vie d'Saïd et d'Nico ont la même valeur ? Est-ce quon a indemnisé toutes ces familles d'tirailleurs ? Regarde-les tous sentretuer pour ces barils d'Afrique Regarde-les mourir dans des mines pour ces diamants d'Afrique Casablanca, Tunisie, Alger, Oran, click-click Dakar, Nouakchott, on shoote l'État et toute sa clique-clique Y'a sûrement une couille quelque part Comment peut-on être aussi pauvre avec autant d'or noir ? Face à tout ça j'reste faible, comme le Franc CFA Ne baisse pas les bras, Afrika Regarde-moi rouler dans ma caisse grâce au pétrole d'Afrique Regarde-moi briller comme le jour grâce aux diamants d'Afrique Mais pas assez de reconnaissance pour ma terre d'Afrique Ces vraies valeurs qui font qu'on peut se sentir bien sans fric Regarde-les planer dans les airs grâce au pétrole dAfrique Regarde-les briller comme le jour grâce aux diamants d'Afrique Mais pas assez de reconnaissance pour ma terre d'Afrique Pour ma terre d'Afrique, pour ma terre d'Afrique Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Faut que tous on vise la victoire Qu'on vise la victoire x3 Yeah qui aurait cru qu'on en serait arrivé là ? Parti de rien on voyait grand comme le Roc-A-Fella La même équipe la même la même depuis 96 Dis-moi avec qui tu traines je te dirais qui tu baises Je fonce la vie est hardcore alors je mets mes crampons Si ton cur a ses règles à la banque ils ont des tampons yeah Passe à la caisse à la caisse Fouiny Baby L'argent ça rend beau même si t'as les lèvres à Jay-Z Zied Bouna Mouhsin Laramy quand ton heure sonne Ici on n'a pas tous les obsèques à Mickael Jackson Très vite oublié fréro comme la mort d'un camé Alors on a que nos yeux pour pleurer et des caisses à cramer Trimer ça on fait avec R.M.I on fait avec Allocations on fait avec toujours les yeux rivés vers la Mecque Vers la Mecque vers la Mecque vers la Mecque Toujours en cellule, j'ai l'habitude mais les keufs débarquent dans quelques minutes On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil You might also like O.K. je pars au quart de seconde ma rage sort de ses gonds Car on se souvient du premier mais rarement du second Et puis laisse parler ces cons laisse ces cons et leurs zesses-gon Rafle les médailles comme un gymnaste de Hong-Kong Mon slogan gare au 7-6 Rap au plexus, gagne en silence comme Carlos et Smith J'ai la carrosserie du risque dans l'industrie du disque J'ai les keys de la réussite et sa carte grise Tu veux les étoiles, vise la Lune Petit fils allume, ta vie insalubre Vaincre, c'est comme le Port-Salut c'est écrit dessus Cherche le salut dans les saintes écritures Puisque l'histoire est écrite par les békés J'ai raturé le cahier pour y marquer L.K.P héhé 3arbis et Antilles, Caraïbes et Arabie La La La La Fouine Médine Admiral T On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil Non, non non non on ne plie pas même si on prend des coups Même si la route est longue elle-elle est longue on ira jusqu'au bout Nous mettre des bâtons dans les roues ça ne sert à rien du tout On connait le goût, de la difficulté Garçon on gravit les étapes les étapes évite les obstacles et les tacles Encaisser des claques et des claques et des claques, on a l'habitude Comme Barack-Barack Obama je vise le top All by myself vise la victoire comme Usain Bolt Depuis le cordon ombilical, dans la rue c'est la mode illégal On est des gars déterminés, mental dur comme le métal On brillera comme l'étoile du Berger On a bien scruté le fond, l'heure est venue pour nous démerger hé-hé-hé-hé On puise, notre force, dans l'espoir On s'épuise, mais à force, d'y croire Un jour on connaitra la gloire qu'on soit blancs beurs jaunes noirs Non Non Non Non restons seuls, on termine notre histoire On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil Parce que le ciel est la limite Parce que le temps passe si vite Parce qu'on veut viser la victoire Et ne plus marcher tout seul dans le noir Et si la vie ne tient qu'à un fil Et si mes traces sont indélébiles Même si mon quartier est difficile J'ai la victoire au bout du fil Pas la peine de m'appeler je ne prends pas de double appel car J'ai la victoire au bout du fil Je n'ai pas beaucoup d'unités il faut que je fasse vite J'ai la victoire au bout du fil Je veux l'approcher la toucher la facture sera lourde Impossible pour moi de raccrocher j'ai la victoire au bout du fil Orrh je n'ai plus de batterie et il faut que je vous laisse car J'ai la victoire au bout du fil1</t>
+          <t>Faut que tous on vise la victoire Qu'on vise la victoire x3 Yeah qui aurait cru qu'on en serait arrivé là ? Parti de rien on voyait grand comme le Roc-A-Fella La même équipe la même la même depuis 96 Dis-moi avec qui tu traines je te dirais qui tu baises Je fonce la vie est hardcore alors je mets mes crampons Si ton cur a ses règles à la banque ils ont des tampons yeah Passe à la caisse à la caisse Fouiny Baby L'argent ça rend beau même si t'as les lèvres à Jay-Z Zied Bouna Mouhsin Laramy quand ton heure sonne Ici on n'a pas tous les obsèques à Mickael Jackson Très vite oublié fréro comme la mort d'un camé Alors on a que nos yeux pour pleurer et des caisses à cramer Trimer ça on fait avec R.M.I on fait avec Allocations on fait avec toujours les yeux rivés vers la Mecque Vers la Mecque vers la Mecque vers la Mecque Toujours en cellule, j'ai l'habitude mais les keufs débarquent dans quelques minutes On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil O.K. je pars au quart de seconde ma rage sort de ses gonds Car on se souvient du premier mais rarement du second Et puis laisse parler ces cons laisse ces cons et leurs zesses-gon Rafle les médailles comme un gymnaste de Hong-Kong Mon slogan gare au 7-6 Rap au plexus, gagne en silence comme Carlos et Smith J'ai la carrosserie du risque dans l'industrie du disque J'ai les keys de la réussite et sa carte grise Tu veux les étoiles, vise la Lune Petit fils allume, ta vie insalubre Vaincre, c'est comme le Port-Salut c'est écrit dessus Cherche le salut dans les saintes écritures Puisque l'histoire est écrite par les békés J'ai raturé le cahier pour y marquer L.K.P héhé 3arbis et Antilles, Caraïbes et Arabie La La La La Fouine Médine Admiral T On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil Non, non non non on ne plie pas même si on prend des coups Même si la route est longue elle-elle est longue on ira jusqu'au bout Nous mettre des bâtons dans les roues ça ne sert à rien du tout On connait le goût, de la difficulté Garçon on gravit les étapes les étapes évite les obstacles et les tacles Encaisser des claques et des claques et des claques, on a l'habitude Comme Barack-Barack Obama je vise le top All by myself vise la victoire comme Usain Bolt Depuis le cordon ombilical, dans la rue c'est la mode illégal On est des gars déterminés, mental dur comme le métal On brillera comme l'étoile du Berger On a bien scruté le fond, l'heure est venue pour nous démerger hé-hé-hé-hé On puise, notre force, dans l'espoir On s'épuise, mais à force, d'y croire Un jour on connaitra la gloire qu'on soit blancs beurs jaunes noirs Non Non Non Non restons seuls, on termine notre histoire On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil Parce que le ciel est la limite Parce que le temps passe si vite Parce qu'on veut viser la victoire Et ne plus marcher tout seul dans le noir Et si la vie ne tient qu'à un fil Et si mes traces sont indélébiles Même si mon quartier est difficile J'ai la victoire au bout du fil Pas la peine de m'appeler je ne prends pas de double appel car J'ai la victoire au bout du fil Je n'ai pas beaucoup d'unités il faut que je fasse vite J'ai la victoire au bout du fil Je veux l'approcher la toucher la facture sera lourde Impossible pour moi de raccrocher j'ai la victoire au bout du fil Orrh je n'ai plus de batterie et il faut que je vous laisse car J'ai la victoire au bout du fil1</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>L'avenir appartient à ceux qu'ont des sses-lia sous leur lit Gardé à vue, je n'ai jamais donné le nom d'un ami Au restaurant, payer l'addition, khoya, j'en suis fier Toujours la main à la poche, comme un arbitre sévère J'demande rien aux êtres humains, non, c'est l'Bon Dieu qui donne Et, quand l'Bon Dieu donne, les gens veulent rayer ton Aston Les ténèbres ne pourront jamais me sortir des ténèbres Seuls la lumière et quelques millions d'euros peuvent le faire J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis Me fumer dans ma voiture, ils en ont la tentation WAllah, y'a plus personne quand tu t'retrouves en détention La jalousie car, sur l'capot, y'a c'putain d'canasson L'Enfer, c'est pas l'hammam, khoya, c'est pas la Thalasso Ils ont tourné leur veste, ils ont même retourné leur peau Heureusement, j'suis pas gay quand ces bâtards me tournent le dos J'me suis servi d'mon passé pour mieux sauver mon avenir Ils peuvent m'amputer d'une jambe, j'aurai toujours mes pied-à-terre You might also like J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis Maman nous a quittés, on était cent autour d'sa tombe Mais, seule dans sa cuisine, elle discutait avec son ombre Tony a tué Manny, Sarko' tua Kadhafi La vie mène à la mort non, j'crois qu'la mort mène à la vie Argent, platine, mes murs sont imprégnés de disques d'or L'argent, c'est comme mes cauchemars putain, j'en fais quand je dors Dix-sept piges déjà, accroc, j'pouvais pas écrire à jeun L'argent ne fait pas l'Homme, khoya, c'est l'Homme qui fait l'argent J'ai tourné à Osny avec les khos d'Garges-lès-Gonesse Je rappe toujours ma vie car c'est la seule que je connaisse Tout seul, assis au square, mes rêves ont nourri mon espoir Un coup d'Taser et j'prends la route du paradis en Tesla J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis</t>
+          <t>L'avenir appartient à ceux qu'ont des sses-lia sous leur lit Gardé à vue, je n'ai jamais donné le nom d'un ami Au restaurant, payer l'addition, khoya, j'en suis fier Toujours la main à la poche, comme un arbitre sévère J'demande rien aux êtres humains, non, c'est l'Bon Dieu qui donne Et, quand l'Bon Dieu donne, les gens veulent rayer ton Aston Les ténèbres ne pourront jamais me sortir des ténèbres Seuls la lumière et quelques millions d'euros peuvent le faire J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis Me fumer dans ma voiture, ils en ont la tentation WAllah, y'a plus personne quand tu t'retrouves en détention La jalousie car, sur l'capot, y'a c'putain d'canasson L'Enfer, c'est pas l'hammam, khoya, c'est pas la Thalasso Ils ont tourné leur veste, ils ont même retourné leur peau Heureusement, j'suis pas gay quand ces bâtards me tournent le dos J'me suis servi d'mon passé pour mieux sauver mon avenir Ils peuvent m'amputer d'une jambe, j'aurai toujours mes pied-à-terre J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis Maman nous a quittés, on était cent autour d'sa tombe Mais, seule dans sa cuisine, elle discutait avec son ombre Tony a tué Manny, Sarko' tua Kadhafi La vie mène à la mort non, j'crois qu'la mort mène à la vie Argent, platine, mes murs sont imprégnés de disques d'or L'argent, c'est comme mes cauchemars putain, j'en fais quand je dors Dix-sept piges déjà, accroc, j'pouvais pas écrire à jeun L'argent ne fait pas l'Homme, khoya, c'est l'Homme qui fait l'argent J'ai tourné à Osny avec les khos d'Garges-lès-Gonesse Je rappe toujours ma vie car c'est la seule que je connaisse Tout seul, assis au square, mes rêves ont nourri mon espoir Un coup d'Taser et j'prends la route du paradis en Tesla J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer, m'barrer d'ici, d'ici, d'ici J'veux m'barrer d'ici, d'ici, d'ici, d'ici J'veux leur tirer dessus mais mon gun est indécis</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr Après l'tête-à-tête, sors le gun, sans rancune Négro, quand l'chat n'est pas là, les souris sortent l'autotune Faire du cash, c'est l'essentiel tiens, mon Glock, roule-lui une pelle Dis-leur à part chez les putes, nous, on fera pas dans la dentelle J'mets toute la coke dans l'même panier, ces fils de pute peuvent pas nier Banlieue Sale, gros, la musique est bonne comme la pute de Kanye Est-ce que tu l'es, millionnaire ? Enculé, j'suis venu célébrer Pas d'immaculé gros, j'envoie la purée dans ton gros fessier Allergique à la pauvreté alors les guns éternuent La go s'est faite ken, c'est plus une tte-ch mais l'Triangle des Bermudes L'objectif, c'est d'être riche, ce n'est pas d'en avoir l'air Si, demain, je meurs, rien à battre tant que j'ai le front par terre Yo, Patek Philippe, Philipp Plein l'objectif finir plein Tu nous aimes ou tu nous crains c'est soit t'es plein ou soit on t'plaint J'ai vu ta sur, gros, rien qu'elle tourne, elle est comme la Ford Mondeo Putain, ils ont niqué l'rap, j'demande l'assistance vidéo You might also like Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr S'en sortir, c'est mission impossible tellement l'avenir est sombre Maton fait sa ronde pendant qu'le rap français trafique les nombres Bien vis-ser sont les tox' accusés dans le box J'descends au bled, j'reviens avec un sac de frappe, mais je n'fais pas de boxe Pure, pure, pure gue-dro dure, valeur sûre Vends la pure, gros, j'investis dans la pierre, j'ai la vie dure J'ai des jaloux qui sont jaloux des gens qui sont jaloux d'moi J'ai vécu vaillant parmi les vaillants, j'ai l'talent qu'ils n'ont pas, tout est sombre Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Sskrr skrr skrr skrr Yo, yo, j'essaye d'entrevoir la lumière mais tout est sombre sombre vie, sombre existence, sombre mélodie, sombre. Sombre, sombre, sombre, sombre</t>
+          <t>Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr Après l'tête-à-tête, sors le gun, sans rancune Négro, quand l'chat n'est pas là, les souris sortent l'autotune Faire du cash, c'est l'essentiel tiens, mon Glock, roule-lui une pelle Dis-leur à part chez les putes, nous, on fera pas dans la dentelle J'mets toute la coke dans l'même panier, ces fils de pute peuvent pas nier Banlieue Sale, gros, la musique est bonne comme la pute de Kanye Est-ce que tu l'es, millionnaire ? Enculé, j'suis venu célébrer Pas d'immaculé gros, j'envoie la purée dans ton gros fessier Allergique à la pauvreté alors les guns éternuent La go s'est faite ken, c'est plus une tte-ch mais l'Triangle des Bermudes L'objectif, c'est d'être riche, ce n'est pas d'en avoir l'air Si, demain, je meurs, rien à battre tant que j'ai le front par terre Yo, Patek Philippe, Philipp Plein l'objectif finir plein Tu nous aimes ou tu nous crains c'est soit t'es plein ou soit on t'plaint J'ai vu ta sur, gros, rien qu'elle tourne, elle est comme la Ford Mondeo Putain, ils ont niqué l'rap, j'demande l'assistance vidéo Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr S'en sortir, c'est mission impossible tellement l'avenir est sombre Maton fait sa ronde pendant qu'le rap français trafique les nombres Bien vis-ser sont les tox' accusés dans le box J'descends au bled, j'reviens avec un sac de frappe, mais je n'fais pas de boxe Pure, pure, pure gue-dro dure, valeur sûre Vends la pure, gros, j'investis dans la pierre, j'ai la vie dure J'ai des jaloux qui sont jaloux des gens qui sont jaloux d'moi J'ai vécu vaillant parmi les vaillants, j'ai l'talent qu'ils n'ont pas, tout est sombre Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Skrr skrr skrr skrr Sombre mélodie, sombre vie, sombre existence, sombre La mixtape est sombre, la puissance du nombre, négro, sombre Sombre, sombre, sombre, sombre Sskrr skrr skrr skrr Yo, yo, j'essaye d'entrevoir la lumière mais tout est sombre sombre vie, sombre existence, sombre mélodie, sombre. Sombre, sombre, sombre, sombre</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Ouais, Medeline, bien ou quoi ? Dis moi, la prod que tu m'as envoyé hier soir J'ai écris un p'tit truc vite fait en deux minutes dessus On teste ça ? Vas y, balance le beat on va voir c'que ça donne Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Ils peuvent ramener de la CC khoya ils vont saigner du nez Les gars, ici c'est Paris je vous répète que c'est pas ATL Tu m'as contacté pour un feat rebeu mais j'ai changé d'e-mail Avalanche, poudreuse dans leur zen Ils marchent à pied mais ils ont pris des ailes J'ai fait des sous, ouais j'ai fait de l'oseille Abracadabra ouais, un jean Balmain remplace mon jean Diesel Balance un grec, harissa, mayo, sans oignon Que je dégomme dans mon nouveau turbo s tout au tout option Ils ont tous fait de la merde, ils veulent tous faire de la trap Suis-je le gardien de mon frère ? Comme Kévin tu passes à la trappe La vengeance se mange froid, nous on sait que t'as chaud derrière ton ordi Bande devant Chicago avec ta glace à l'eau, eh ouais mon petit Les ti-pe pour quitter la street, te bicravent de la blanche, de la marron J'ai levé mon majeur en l'air, je parle pas d'adultes dans un avion Nouveau Monde, sixième album frèro, j'ai pas le temps de pioncer Je rentre chez Hermès, Givenchy, y'a pas de fair play financier Sors un skeud, on fait une cauète Marche sur le succès, mode Harry Coens Tu veux chialer ? Tiens mon épaule On te piétine après l'heure du ftor You might also like Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Ils peuvent ramener de la CC khoya ils vont saigner du nez Ouais, frérot j'crois qu'on va laisser ça comme ça Pas besoin d'autre couplet J't'ai dit, c'est trop facile c'bordel Dis moi, la prod que t'as fait ce matin kho Fais voir c'que ça donne, coupe celle-là, mets l'autre</t>
+          <t>Ouais, Medeline, bien ou quoi ? Dis moi, la prod que tu m'as envoyé hier soir J'ai écris un p'tit truc vite fait en deux minutes dessus On teste ça ? Vas y, balance le beat on va voir c'que ça donne Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Ils peuvent ramener de la CC khoya ils vont saigner du nez Les gars, ici c'est Paris je vous répète que c'est pas ATL Tu m'as contacté pour un feat rebeu mais j'ai changé d'e-mail Avalanche, poudreuse dans leur zen Ils marchent à pied mais ils ont pris des ailes J'ai fait des sous, ouais j'ai fait de l'oseille Abracadabra ouais, un jean Balmain remplace mon jean Diesel Balance un grec, harissa, mayo, sans oignon Que je dégomme dans mon nouveau turbo s tout au tout option Ils ont tous fait de la merde, ils veulent tous faire de la trap Suis-je le gardien de mon frère ? Comme Kévin tu passes à la trappe La vengeance se mange froid, nous on sait que t'as chaud derrière ton ordi Bande devant Chicago avec ta glace à l'eau, eh ouais mon petit Les ti-pe pour quitter la street, te bicravent de la blanche, de la marron J'ai levé mon majeur en l'air, je parle pas d'adultes dans un avion Nouveau Monde, sixième album frèro, j'ai pas le temps de pioncer Je rentre chez Hermès, Givenchy, y'a pas de fair play financier Sors un skeud, on fait une cauète Marche sur le succès, mode Harry Coens Tu veux chialer ? Tiens mon épaule On te piétine après l'heure du ftor Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, faut les laisser Ils veulent tous faire de la trap, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Moi j'y suis né, moi j'y suis, moi j'y suis né Ils peuvent ramener de la CC khoya ils vont saigner du nez Ouais, frérot j'crois qu'on va laisser ça comme ça Pas besoin d'autre couplet J't'ai dit, c'est trop facile c'bordel Dis moi, la prod que t'as fait ce matin kho Fais voir c'que ça donne, coupe celle-là, mets l'autre</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>This is Bone Collector Jcrois qucest lmoment dsortir le champagne Cest trop facile C'est trop facile V'là nouvelle raison dcélébrer, skurt Une nouvelle raison dnous haïr ou dnous aimer Cest trop facile CDC Four Cest trop facile Cest trop facile Eh Fouiny quoi ? Jvois monter leur haine, quand tu prends du poids Jvois monter leur haine quand tu montes en scène, tinquiète mets-les tous à genoux comme un quad Bref, jen voulais au monde entier, trente balais jsuis déjà rentier Frère on vient de loin demande à Canardo, le brolique planqué dans la Gallardo Cest pas dma faute si tas pas lniveau, jrappe mieux quta grand-mère la pute Cqui nous sépare cest quelques zéros, baisse dun ton, fais monter les tarots Rien na changé pourquoi spresser ? Cest CDC, quelques décès Jamais stressé, rien à péter, riche dhiver en été, trop facile Trop facile, au fond jcrois qumon succès les fascine Le rap français cest comme le gingembre reubeu jprends lque-tru à la racine Jai la rage depuis Jean Macé depuis jai vu les liasses sentasser Si jferme les yeux devant les condés cest sûrement quces bâtards mont gazé, refrain Disques de platine pour nous cest trop facile Faire des putains dbes-tu pour nous cest trop facile Sortir en condi gros pour nous cest trop facile F458 semer les schmitts pour nous cest trop facile Tfaire fumer en deux-deux pour nous cest trop facile Assumer lbon baveux pour nous cest trop facile Faire du rap français ouais pour nous cest trop facile Il paraît qutu trimes ouais jen suis navré pour nous cest trop facile You might also like Elle dit quelle madore moi jadore la nouvelle Aventador Hein jpasse les rapports quoi, tes en chien bah mince alors Wesh bien ou quoi ? Renoi si tas mis des asbas Léquipe qui frappera chez toi nsera pas témoin dJéhovah Casse-moi pas les couilles ouais renoi jsuis busy Plus dplace sur mon passeport comme sur le corps de Weezy Ya qupour peser la C quon traîne avec des balances Ouais ma belle traîne avec ton chéquier jrépondrai à tes avances Faire un-deux-trois millions pour nous cest trop facile ils sont trop fragiles On retrouvera leurs cadavres dans un putain dbaril Jai 6.3 raisons de voir le bout du tunnel J'passe de DBZ aux DB9 vas ldire à tous ces zemel Disques de platine pour nous cest trop facile Faire des putains dbes-tu pour nous cest trop facile Sortir en condi gros pour nous cest trop facile F458 semer les schmitts pour nous cest trop facile Tfaire fumer en deux-deux pour nous cest trop facile Assumer lbon baveux pour nous cest trop facile Faire du rap français ouais pour nous cest trop facile Il paraît qutu trimes ouais jen suis navré pour nous cest trop facile Cest trop facile, cest trop facile Balance le riz la viande et la sauce Dakatine Cest trop facile, cest trop facile Et si jrentre dans lhistoire cest que jsors dla cabine Cest trop facile, cest trop facile Balance le riz la viande et la sauce Dakatine Cest trop facile, cest trop facile Et si jrentre dans lhistoire cest qu'jsors de la cabine Polo Versace, ta mamie coud tes tricots Retourne à lentraînement petit demande à Mourinho Jtravaille en silence mais mon succès fait du bruit J'mets des barres sur les T des points sur les compèts quon lève en I Disques de platine pour nous cest trop facile Faire des putains dbes-tu pour nous cest trop facile Sortir en condi gros pour nous cest trop facile F458 semer les schmitts pour nous cest trop facile Tfaire fumer en deux-deux pour nous cest trop facile Assumer lbon baveux pour nous cest trop facile Faire du rap français ouais pour nous cest trop facile Il paraît qutu trimes ouais jen suis navré pour nous cest trop facile</t>
+          <t>This is Bone Collector Jcrois qucest lmoment dsortir le champagne Cest trop facile C'est trop facile V'là nouvelle raison dcélébrer, skurt Une nouvelle raison dnous haïr ou dnous aimer Cest trop facile CDC Four Cest trop facile Cest trop facile Eh Fouiny quoi ? Jvois monter leur haine, quand tu prends du poids Jvois monter leur haine quand tu montes en scène, tinquiète mets-les tous à genoux comme un quad Bref, jen voulais au monde entier, trente balais jsuis déjà rentier Frère on vient de loin demande à Canardo, le brolique planqué dans la Gallardo Cest pas dma faute si tas pas lniveau, jrappe mieux quta grand-mère la pute Cqui nous sépare cest quelques zéros, baisse dun ton, fais monter les tarots Rien na changé pourquoi spresser ? Cest CDC, quelques décès Jamais stressé, rien à péter, riche dhiver en été, trop facile Trop facile, au fond jcrois qumon succès les fascine Le rap français cest comme le gingembre reubeu jprends lque-tru à la racine Jai la rage depuis Jean Macé depuis jai vu les liasses sentasser Si jferme les yeux devant les condés cest sûrement quces bâtards mont gazé, refrain Disques de platine pour nous cest trop facile Faire des putains dbes-tu pour nous cest trop facile Sortir en condi gros pour nous cest trop facile F458 semer les schmitts pour nous cest trop facile Tfaire fumer en deux-deux pour nous cest trop facile Assumer lbon baveux pour nous cest trop facile Faire du rap français ouais pour nous cest trop facile Il paraît qutu trimes ouais jen suis navré pour nous cest trop facile Elle dit quelle madore moi jadore la nouvelle Aventador Hein jpasse les rapports quoi, tes en chien bah mince alors Wesh bien ou quoi ? Renoi si tas mis des asbas Léquipe qui frappera chez toi nsera pas témoin dJéhovah Casse-moi pas les couilles ouais renoi jsuis busy Plus dplace sur mon passeport comme sur le corps de Weezy Ya qupour peser la C quon traîne avec des balances Ouais ma belle traîne avec ton chéquier jrépondrai à tes avances Faire un-deux-trois millions pour nous cest trop facile ils sont trop fragiles On retrouvera leurs cadavres dans un putain dbaril Jai 6.3 raisons de voir le bout du tunnel J'passe de DBZ aux DB9 vas ldire à tous ces zemel Disques de platine pour nous cest trop facile Faire des putains dbes-tu pour nous cest trop facile Sortir en condi gros pour nous cest trop facile F458 semer les schmitts pour nous cest trop facile Tfaire fumer en deux-deux pour nous cest trop facile Assumer lbon baveux pour nous cest trop facile Faire du rap français ouais pour nous cest trop facile Il paraît qutu trimes ouais jen suis navré pour nous cest trop facile Cest trop facile, cest trop facile Balance le riz la viande et la sauce Dakatine Cest trop facile, cest trop facile Et si jrentre dans lhistoire cest que jsors dla cabine Cest trop facile, cest trop facile Balance le riz la viande et la sauce Dakatine Cest trop facile, cest trop facile Et si jrentre dans lhistoire cest qu'jsors de la cabine Polo Versace, ta mamie coud tes tricots Retourne à lentraînement petit demande à Mourinho Jtravaille en silence mais mon succès fait du bruit J'mets des barres sur les T des points sur les compèts quon lève en I Disques de platine pour nous cest trop facile Faire des putains dbes-tu pour nous cest trop facile Sortir en condi gros pour nous cest trop facile F458 semer les schmitts pour nous cest trop facile Tfaire fumer en deux-deux pour nous cest trop facile Assumer lbon baveux pour nous cest trop facile Faire du rap français ouais pour nous cest trop facile Il paraît qutu trimes ouais jen suis navré pour nous cest trop facile</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Yeah, tu veux du hardcore ? Ok khouya Comme dirait Rozay alléluia Yeah, mon rap tue lève le doigt en l'air J'attire les haineux ouais la putain de sa mère Les poucaves on leur crache un molard J'aime les arbias, les arboulas Tu veux du hardcore ? Ok khouya Comme dirait Rozay alléluia Comme dirait Rozay alléluia Comme dirait Fouiny Baby hamdoulilah Toute l'équipe est là Banlieue Sale, Porkela Quoi de neuf Fouiny Baby ? Yeah, Porkela Yeah hein hein on est sur Skyrock Haschich draham, Nessbeal, Mister You hein hein ! Haschich money Yeah, yeah Frère t'as commencé en bas, affronter les hauts les bas Ne marche pas sur mes pas ne devient pas ce que tu n'es pas Vis sur ton I-phone, mate comment on charbonne J'ai goûté la vie wAllah elle est trop bonne J'rêvais d'être au top, au square j'grattais des clopes J'ai vu des schlags faire leur pélérinage au coffee shop Frère que Dieu me pardonne, ouais que Dieu les pardonne Avec un flow en carton, j'me demande comment tu cartonnes Yeah, j'ai mal au ventre, j'ai même pas déjeuné En cours j'aimerais faire mes devoirs mais mon stylo a jeuné Je n'ai, je n'ai jamais donné aucun blaz' En garde à vue j'décorais les murs de mes petites phrases Yeah, frère ici ça sent l'poulet Prends tes jambes à ton cou n'oublie pas ton col roulé Yeah, quoi de neuf Fouiny Baby ? Haschich draham, Mister You, Nessbeal You might also like C'est l'âge de glace un dos argenté dans un igloo Une paire de sunglasses j'porte mes cicatrices comme des bijoux Un string Gucci khey c'est le zbeul comme dans les saloons Le périph c'est Mad Max, khey Paris a trop une grosse choune Khey, si ça saigne, c'est que t'es sur le devant d'la scène J'ai les dents qui raclent le sol khey, ça fait des étincelles Fais des du'as si j'm'éteins et qu'j'pars dans l'ciel Ça bouge pas, si c'est toi, j'serai vengé par un de mes khey Vodka Bison, ce soir on s'explose la vessie Des lamelles, un terrain, j'fracasse tes reins comme Lionel Messi Trop speed un V6, du rap de té-ci Ça bouge pas j'suis la version rap Léonard de Vinci Flow Sergio Tacchini kheye j'suis certifié classique Sur écoute Chris Snoop a.k.a. Verbal Brolik J'descendrai dans la street en costard j'ai classe à Marlo Ça bouge pas j'défonce tout depuis le premier solo Et c'est Laisse couler l'instru Pour tous les mecs au hebs Qu'ont pas encore tapé dans la porte les gars Eh cassez la porte les gars Quand on était petit En voulant acheter ce qui est superflu, on finit par vendre ce qui est nécessaire Faut pas trop vanter la merde, sortir l'appétit pour le dessert J'paranoïe mais pour Khider la liberté vaut l'or du monde Comme on dit perd un oeil là tu verras la valeur de l'autre Avant de lui dire je t'aime vérifie bien que c'est pas un vlo-tr' Même certains prophètes furent trahis par leurs propres apôtres mec Quand on était petit, en direction du casse pipe On s'était dit rendez vous dans 10 ans devant le bureau de la SPIP On était tout petit, mais on avait déjà des principes Pour trouver l'appétit on fumait des ptits en écoutant de la zik Eh, sois intelligent et cogite avant de t'enclencher Bouge pas pour trop de gens car c'est pas sûr qu'ils iront te venger Hormis tes rents-pa ici bas personne te donne à manger Chaque chose en son temps, avant de brasser faut savoir nager A part ça, à l'école eh beh on n'était pas si te-bê que ça Mais on est tombé dans l'alcool et on est devenu des vrais diques-sa khey ! Khey haschich money, ça bouge pas ma p'tite gueule! A coup de calibre dans leur gueule ma gueule Yeah hein hein, quoi de neuf Fouiny Babe ? Yeah hein hein, on est sur Skyrock On a fumé un keuf c'est l'Aïd Les rappeurs sont des mythos, je te le jure sur ma ie-v Tu veux un tube appelle-appelle l'ingé Confonds pas ceux qui touchent du bois, ceux qui touchent des points G Trop de haineux trop-trop de haineux dans ma salle d'attente Tu veux un feat ? Parle à l'assistante d'mon assistante On tombe au shtar, tu tombes dans les pommes Tiens mon mail Vaniquertamère.com Porsche Panamera turbo, Carrera, Cayenne J'parle pas au keufs seuls les micros les chiennes connaissent mon haleine On m'aime on m'déteste, bref j'suis celui qu'on cite Pute, suce-moi direct, je suis circoncis J'reste au-dessus du pe-ra comme un accent circonflexe 1995, j'ai le flow tah Busta Flex J'arrive du 7.8., compète et verdure Élevé à la dure, loubia, coups de ceinture Quoi de neuf Fouiny Baby ? On est sur Sky, hein hein Nessbeal, You on est sur Sky Débuter en bas, toi-même tu sais que c'est ça Yeah hein hein yeah, débuter en bas Quoi de neuf Fouiny Baby ? On est sur Sky Nessbeal, Mister You débuter en bas Nessbeal Mister You, yeah Débuter en bas, l'important c'est d'y croire yeah Débuter en bas, même dans le fond fait briller ton étoile Yeah, hein hein Fouiny yeah, Ne2s rap de tess' Yeah, Mister You rap de tess' Quoi de neuf Fouiny Babe ? L'album sort lundi prochain 14 février ma gueule à noter dans les annales L'instru laisse ça continue ma gueule Dédicace à tous les frères enfermés Big up Saïd Walid et Anouar à eux 3 ils ont pris 50 ans Bien sûr que nos mères elle pleurent, quand, les magistrats ils sont contents A défaut de clé faut du stic-pla pour les portes de la Santé Ca part d'une ptite barette de merde, ça s'termine par de la sûreté Si tu fumes du foin toute ta peine, on croira pas que t'es une te-tê Pour être millionnaire, suffit d'une flûte, tu m'niques ça par l'entrée J'sors du Zoogata-zoo quartier mal fréquenté Rempli de boloss, rempli de condés, rempli de trafiquantés Quand t'es seul au bord du gouffre, rappelle-toi que beaucoup de gens souffrent Ouais dahwa tout est mektoub, faut bien qu'les portes des prisons s'ouvrent C'est pas l'argent qui fait l'homme nan, c'est l'bonhomme qui fait sa paye Grosse dédicace à Lass', même sur téléfoot ça fait l'rappel Ca passe de la place au Real, du dispatching au disque platine C'est la frontière de l'irréel, dans nos tiers-quar c'est Trainspotting Quand on était petit avec Bazoo, dans l'zoo c'était Resident Evil On voulait gué-lar des tonnes pour être les présidents de Belleville Mais bon l'État il nous a eu, il nous a fait mal au moral Bon on a pas poucave en gard'av on a tous eu zéro a l'oral Toujours présumé coupable jamais acquitté Clin d'oeil à Slimane Belmadi ainsi qu'à Ali Diakité J'aimerais avoir à ne plus jamais envoyer de mandat Les épreuves stressent on tient, on se suicide pas comme Dalida Inch'allah on fait une bête de villa pour Walida Au fond de moi c'est comme une dette, un bered d'athay sous la véranda L'échec m'est inadmissible, le chèque pour calmer nos dames C'est pour nos gosses, j'flippe que la haine soit transmissible Besoin d'espace, la place d'un loup n'est pas en cage Aiguisant de cash mon talent y'a du talion dans le langage Elles sont utopistes, mais ont leur cause à défendre On s'lève au bord du précipice, c'est pour ne pas voir nos chances fondre En deuil j'ai vu ma nation se pendre Par le billet, ma narration une vérité pourtant facile à comprendre J'ai rien j'veux entreprendre, j'passe mon temps à prétendre de l'âme et de sang Paraît que le monde a changé depuis le 11 septembre J'vais pas m'étendre ma souffrance en France J'ai vu la flamme s'étendre, l'ignorance se répandre Sans cesse on ressasse ce passé qui nous fait plonger Quand il est chargé peine impurgeable, à peine sorti que tu deviens insurgé Et ça resurgit, rime interne comme l'hémorragie Ne2s Hautes Noues Peace, Dar-al-Baidaa les origines Ah y'a 3 casaouis ! Dar-al-Baidaa Ca bouge pas ! Quoi de neuf Fouiny Fouiny Babe ? Yeah ma gueule DJ Battle aux platines ! Fred est là ma p'tite gueule Yeah yeah Quoi de neuf Fouiny Babe ? Lundi, La Fouine vs Laouni dans les bacs Quoi de neuf fouiny baby ? Ban-banlieue Sale, Ha-hall F, j'sors du poste, kiffe mon couplet Devant la te-boî garé, ta fe-meu kiffe mon coupé Paraît que t'es partout que tu pe-ra moi je vois pas où t'es A l'écoute de l'album ta grand-mère va être outrée Les fumer fallait, V.I.P. dans les palais Difficile de rapper avec une bite sur le palais RS4 nickel, 6.3. ML Tôt ou tard ils kifferont Fouiny Babe, ces fils de zamel, zamel Frérot j'ai de la bonne, prends en pas trop ça rend malade J'kiffe les hôtels, les biatchs, j'kiffe Rama Yade J'ai grandi dans la merde, le porte-feuille de mauvaise humeur T'as cru me voir dans le 16ème avec un pocheton et de la sueur Yeah, avec un pocheton et de la sueur Dans le rap j'ai trop d'avance, ils me suivent que sur Twitter Sortez les K.X., les R.M., la chatte à leurs reums J'faisais ma loi avec un gun et un gros verre de rhum Yeah, à l'aise dans ma cellule et ça les dérange Le rap pue la merde, j'ai brulé quelques peaux d'orange Fouiny Babe ! J'aimerais avoir à ne plus jamais envoyer de mandat Les épreuves stressent on tient on se suicide pas comme Dalida Inchallah on fait une bête de villa pour walida Au fond de moi merde.. Woogataga ! Ok, laisse parler les gens les commissaires etles agents On les baise tout en sachant que le temps c'est de l'argent Mais que la patience c'est de l'or, là j'vais sortir ma troisième jambe Pour bien niquer ce pays, et fuir la vingt-troisième chambre ! Kiffante la liberté, hachek j'bande, touche ! Y'a que l'entraineur qu'a le droit d'ètre fier d'ètre sur le banc de touche Représente la street, live in direct de Bélize Quand on entend pas marhbabik et ouais c'est tout seul qu'on s'invite Eh c'est, demande à La Fouine parce que c'est son album qu'on présente Dahwa toi même tu sais c'est qui, c'est qui, c'est qui qu'on représente ! C'est l'roc-Ma ma gueule, c'est Casablanca Eh c'est, nique la mère à tout le monde, ça vend de la khokha On est tous assis là à attendre le bon dièze Marre de vanter mes péchés, d'baiser des chattes qui puent la fournaise Représente 94 Hautes Noues Peace cité close Pas le droit à l'erreur j'ai trop la dalle pour moi le SMIC c'est trop guez' La haine est une cage qui nous empêche de voler C'est très tôt le matin que la BAC ils viennent nous interpeller J'peux pas extrapoler moi j'te parle de ce que j'connais La zenka, la vie d'une cellule sans la télé Et la frustration conditionnelle refusée Commission rogatoire, tomber pour un délit supposé Le, le phrasé, le bitume froid, de la taule froissée Un flash pour les flashbacks la nostalgie du passé Loin du rivage, les flashballs, un coeur sous gilet pare-balle C'est le rap le foot ou le fight du bitume la pierre tombale A la base un dissident court plus que les balles A la barre les peines sont maximales oublie que t'es un homme khey Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Yeah, tu veux du hardcore ? Ok khouya Comme dirait Rozay alléluia Yeah, mon rap tue lève le doigt en l'air J'attire les haineux ouais la putain de sa mère Les poucaves on leur crache un molard J'aime les arbias, les arboulas Tu veux du hardcore ? Ok khouya Comme dirait Rozay alléluia Comme dirait Rozay alléluia Comme dirait Fouiny Baby hamdoulilah Toute l'équipe est là Banlieue Sale, Porkela Quoi de neuf Fouiny Baby ? Yeah, Porkela Yeah hein hein on est sur Skyrock Haschich draham, Nessbeal, Mister You hein hein ! Haschich money Yeah, yeah Frère t'as commencé en bas, affronter les hauts les bas Ne marche pas sur mes pas ne devient pas ce que tu n'es pas Vis sur ton I-phone, mate comment on charbonne J'ai goûté la vie wAllah elle est trop bonne J'rêvais d'être au top, au square j'grattais des clopes J'ai vu des schlags faire leur pélérinage au coffee shop Frère que Dieu me pardonne, ouais que Dieu les pardonne Avec un flow en carton, j'me demande comment tu cartonnes Yeah, j'ai mal au ventre, j'ai même pas déjeuné En cours j'aimerais faire mes devoirs mais mon stylo a jeuné Je n'ai, je n'ai jamais donné aucun blaz' En garde à vue j'décorais les murs de mes petites phrases Yeah, frère ici ça sent l'poulet Prends tes jambes à ton cou n'oublie pas ton col roulé Yeah, quoi de neuf Fouiny Baby ? Haschich draham, Mister You, Nessbeal C'est l'âge de glace un dos argenté dans un igloo Une paire de sunglasses j'porte mes cicatrices comme des bijoux Un string Gucci khey c'est le zbeul comme dans les saloons Le périph c'est Mad Max, khey Paris a trop une grosse choune Khey, si ça saigne, c'est que t'es sur le devant d'la scène J'ai les dents qui raclent le sol khey, ça fait des étincelles Fais des du'as si j'm'éteins et qu'j'pars dans l'ciel Ça bouge pas, si c'est toi, j'serai vengé par un de mes khey Vodka Bison, ce soir on s'explose la vessie Des lamelles, un terrain, j'fracasse tes reins comme Lionel Messi Trop speed un V6, du rap de té-ci Ça bouge pas j'suis la version rap Léonard de Vinci Flow Sergio Tacchini kheye j'suis certifié classique Sur écoute Chris Snoop a.k.a. Verbal Brolik J'descendrai dans la street en costard j'ai classe à Marlo Ça bouge pas j'défonce tout depuis le premier solo Et c'est Laisse couler l'instru Pour tous les mecs au hebs Qu'ont pas encore tapé dans la porte les gars Eh cassez la porte les gars Quand on était petit En voulant acheter ce qui est superflu, on finit par vendre ce qui est nécessaire Faut pas trop vanter la merde, sortir l'appétit pour le dessert J'paranoïe mais pour Khider la liberté vaut l'or du monde Comme on dit perd un oeil là tu verras la valeur de l'autre Avant de lui dire je t'aime vérifie bien que c'est pas un vlo-tr' Même certains prophètes furent trahis par leurs propres apôtres mec Quand on était petit, en direction du casse pipe On s'était dit rendez vous dans 10 ans devant le bureau de la SPIP On était tout petit, mais on avait déjà des principes Pour trouver l'appétit on fumait des ptits en écoutant de la zik Eh, sois intelligent et cogite avant de t'enclencher Bouge pas pour trop de gens car c'est pas sûr qu'ils iront te venger Hormis tes rents-pa ici bas personne te donne à manger Chaque chose en son temps, avant de brasser faut savoir nager A part ça, à l'école eh beh on n'était pas si te-bê que ça Mais on est tombé dans l'alcool et on est devenu des vrais diques-sa khey ! Khey haschich money, ça bouge pas ma p'tite gueule! A coup de calibre dans leur gueule ma gueule Yeah hein hein, quoi de neuf Fouiny Babe ? Yeah hein hein, on est sur Skyrock On a fumé un keuf c'est l'Aïd Les rappeurs sont des mythos, je te le jure sur ma ie-v Tu veux un tube appelle-appelle l'ingé Confonds pas ceux qui touchent du bois, ceux qui touchent des points G Trop de haineux trop-trop de haineux dans ma salle d'attente Tu veux un feat ? Parle à l'assistante d'mon assistante On tombe au shtar, tu tombes dans les pommes Tiens mon mail Vaniquertamère.com Porsche Panamera turbo, Carrera, Cayenne J'parle pas au keufs seuls les micros les chiennes connaissent mon haleine On m'aime on m'déteste, bref j'suis celui qu'on cite Pute, suce-moi direct, je suis circoncis J'reste au-dessus du pe-ra comme un accent circonflexe 1995, j'ai le flow tah Busta Flex J'arrive du 7.8., compète et verdure Élevé à la dure, loubia, coups de ceinture Quoi de neuf Fouiny Baby ? On est sur Sky, hein hein Nessbeal, You on est sur Sky Débuter en bas, toi-même tu sais que c'est ça Yeah hein hein yeah, débuter en bas Quoi de neuf Fouiny Baby ? On est sur Sky Nessbeal, Mister You débuter en bas Nessbeal Mister You, yeah Débuter en bas, l'important c'est d'y croire yeah Débuter en bas, même dans le fond fait briller ton étoile Yeah, hein hein Fouiny yeah, Ne2s rap de tess' Yeah, Mister You rap de tess' Quoi de neuf Fouiny Babe ? L'album sort lundi prochain 14 février ma gueule à noter dans les annales L'instru laisse ça continue ma gueule Dédicace à tous les frères enfermés Big up Saïd Walid et Anouar à eux 3 ils ont pris 50 ans Bien sûr que nos mères elle pleurent, quand, les magistrats ils sont contents A défaut de clé faut du stic-pla pour les portes de la Santé Ca part d'une ptite barette de merde, ça s'termine par de la sûreté Si tu fumes du foin toute ta peine, on croira pas que t'es une te-tê Pour être millionnaire, suffit d'une flûte, tu m'niques ça par l'entrée J'sors du Zoogata-zoo quartier mal fréquenté Rempli de boloss, rempli de condés, rempli de trafiquantés Quand t'es seul au bord du gouffre, rappelle-toi que beaucoup de gens souffrent Ouais dahwa tout est mektoub, faut bien qu'les portes des prisons s'ouvrent C'est pas l'argent qui fait l'homme nan, c'est l'bonhomme qui fait sa paye Grosse dédicace à Lass', même sur téléfoot ça fait l'rappel Ca passe de la place au Real, du dispatching au disque platine C'est la frontière de l'irréel, dans nos tiers-quar c'est Trainspotting Quand on était petit avec Bazoo, dans l'zoo c'était Resident Evil On voulait gué-lar des tonnes pour être les présidents de Belleville Mais bon l'État il nous a eu, il nous a fait mal au moral Bon on a pas poucave en gard'av on a tous eu zéro a l'oral Toujours présumé coupable jamais acquitté Clin d'oeil à Slimane Belmadi ainsi qu'à Ali Diakité J'aimerais avoir à ne plus jamais envoyer de mandat Les épreuves stressent on tient, on se suicide pas comme Dalida Inch'allah on fait une bête de villa pour Walida Au fond de moi c'est comme une dette, un bered d'athay sous la véranda L'échec m'est inadmissible, le chèque pour calmer nos dames C'est pour nos gosses, j'flippe que la haine soit transmissible Besoin d'espace, la place d'un loup n'est pas en cage Aiguisant de cash mon talent y'a du talion dans le langage Elles sont utopistes, mais ont leur cause à défendre On s'lève au bord du précipice, c'est pour ne pas voir nos chances fondre En deuil j'ai vu ma nation se pendre Par le billet, ma narration une vérité pourtant facile à comprendre J'ai rien j'veux entreprendre, j'passe mon temps à prétendre de l'âme et de sang Paraît que le monde a changé depuis le 11 septembre J'vais pas m'étendre ma souffrance en France J'ai vu la flamme s'étendre, l'ignorance se répandre Sans cesse on ressasse ce passé qui nous fait plonger Quand il est chargé peine impurgeable, à peine sorti que tu deviens insurgé Et ça resurgit, rime interne comme l'hémorragie Ne2s Hautes Noues Peace, Dar-al-Baidaa les origines Ah y'a 3 casaouis ! Dar-al-Baidaa Ca bouge pas ! Quoi de neuf Fouiny Fouiny Babe ? Yeah ma gueule DJ Battle aux platines ! Fred est là ma p'tite gueule Yeah yeah Quoi de neuf Fouiny Babe ? Lundi, La Fouine vs Laouni dans les bacs Quoi de neuf fouiny baby ? Ban-banlieue Sale, Ha-hall F, j'sors du poste, kiffe mon couplet Devant la te-boî garé, ta fe-meu kiffe mon coupé Paraît que t'es partout que tu pe-ra moi je vois pas où t'es A l'écoute de l'album ta grand-mère va être outrée Les fumer fallait, V.I.P. dans les palais Difficile de rapper avec une bite sur le palais RS4 nickel, 6.3. ML Tôt ou tard ils kifferont Fouiny Babe, ces fils de zamel, zamel Frérot j'ai de la bonne, prends en pas trop ça rend malade J'kiffe les hôtels, les biatchs, j'kiffe Rama Yade J'ai grandi dans la merde, le porte-feuille de mauvaise humeur T'as cru me voir dans le 16ème avec un pocheton et de la sueur Yeah, avec un pocheton et de la sueur Dans le rap j'ai trop d'avance, ils me suivent que sur Twitter Sortez les K.X., les R.M., la chatte à leurs reums J'faisais ma loi avec un gun et un gros verre de rhum Yeah, à l'aise dans ma cellule et ça les dérange Le rap pue la merde, j'ai brulé quelques peaux d'orange Fouiny Babe ! J'aimerais avoir à ne plus jamais envoyer de mandat Les épreuves stressent on tient on se suicide pas comme Dalida Inchallah on fait une bête de villa pour walida Au fond de moi merde.. Woogataga ! Ok, laisse parler les gens les commissaires etles agents On les baise tout en sachant que le temps c'est de l'argent Mais que la patience c'est de l'or, là j'vais sortir ma troisième jambe Pour bien niquer ce pays, et fuir la vingt-troisième chambre ! Kiffante la liberté, hachek j'bande, touche ! Y'a que l'entraineur qu'a le droit d'ètre fier d'ètre sur le banc de touche Représente la street, live in direct de Bélize Quand on entend pas marhbabik et ouais c'est tout seul qu'on s'invite Eh c'est, demande à La Fouine parce que c'est son album qu'on présente Dahwa toi même tu sais c'est qui, c'est qui, c'est qui qu'on représente ! C'est l'roc-Ma ma gueule, c'est Casablanca Eh c'est, nique la mère à tout le monde, ça vend de la khokha On est tous assis là à attendre le bon dièze Marre de vanter mes péchés, d'baiser des chattes qui puent la fournaise Représente 94 Hautes Noues Peace cité close Pas le droit à l'erreur j'ai trop la dalle pour moi le SMIC c'est trop guez' La haine est une cage qui nous empêche de voler C'est très tôt le matin que la BAC ils viennent nous interpeller J'peux pas extrapoler moi j'te parle de ce que j'connais La zenka, la vie d'une cellule sans la télé Et la frustration conditionnelle refusée Commission rogatoire, tomber pour un délit supposé Le, le phrasé, le bitume froid, de la taule froissée Un flash pour les flashbacks la nostalgie du passé Loin du rivage, les flashballs, un coeur sous gilet pare-balle C'est le rap le foot ou le fight du bitume la pierre tombale A la base un dissident court plus que les balles A la barre les peines sont maximales oublie que t'es un homme khey Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Yo, yo Bou-bou-bou-bou Young Bouba got the sauce Yo, Young Bouba got the sauce Woo, so baby Hey, yo, eh, woo Envoie la gue-dro, envoie la gue-dro, fuck Pascal Praud Bou-bou J'ai deux-trois raclis dans l'Audi Quattro Policiers coupables que vous libérez Chez nous la justice, on n'y croit pas trop La kichta s'exprime, nous on parle pas trop Que des gars dangereux comme au Libéria Et ouais, les tarots, ça monte, ça descend comme un libéro Woo J'suis à l'hôtel, elle prend plus de ballons qu'un ramasseur de balles Poh Authentique, si j'avais pas la mental, jamais j'aurais cru qu'j'aurais compté autant d'fric Poh Compter des bricks et ds bricks et des bricks Rien qu'je brille, rien qu'elle m'fixe, j'envoie deux Araï sur l'GSX Glah, glah Trop de pétasses dans le périmètre, j'baise le game à en d'venir stérile Shish Soit c'est l'amour, soit c'est tarifé, les grands de ta ville, on les terrifie Les grands de ta ville, on les terrifie Ouais, rafale de 9 sur le Série 6 neuf Pas de mendicité, paiement anticipé, plus de ients-cli ici que chez les Médicis Bou-bou-bou-bou You might also like Paiement en crypto', deux sur un scooter, j'entends mes shooters Bou-bou-bou-bou Grandir dans l'ghetto, brandir les métaux, on a la méthode Bou-bou-bou-bou Eh, l'assassin d'Nahel en conditionnelle, plus rien ne m'étonne Bou-bou-bou-bou Plus rien ne m'étonne Bou-bou-bou-bou, bou-bou Quand j'suis venu cagoulé, il s'est mis à bégayer comme Chalghoumi, yeah Donc on l'a gravé goumé, à part être keuf, y a pas d'taf pourri J'suis content comme si j'étais à Bois-d'Arcy, qu'j'recevais un putain d'colis Let's go J'suis content comme un libérable qui s'retrouve à l'hôtel avec Katsumi Let's go Ou avec quatre soumises Woo, un million quatre dans la Samsonite J'sors pas sans mon 9, sans mon acolyte, j'fais crier l'bolide et la garce aussi Sku L'argent t'appelle mais tu n'es pas là, autant de cash que dans l'Nevada Depuis tout p'tit, j'rêve de m'évader, j'prends pas de poudre, que du népalais J'fais plus de she-ca qu'un bon baveux, j'reviens du bled avec le palu' Ils sont v'nus chez toi mais t'étais pas là, mes shooters ont la dégaine d'Lomepal Let's go Bou-bou-bou-bou Paiement en crypto', deux sur un scooter, j'entends mes shooters Bou-bou-bou-bou Grandir dans l'ghetto, brandir les métaux, on a la méthode Bou-bou-bou-bou, sku, sku Eh, l'assassin d'Nahel en conditionnelle, plus rien ne m'étonne Bou-bou-bou-bou Plus rien ne m'étonne Bou-bou-bou-bou, bou-bou Paiement en crypto', deux sur un scooter, j'entends mes shooters Bou-bou-bou-bou Grandir dans l'ghetto, brandir les métaux, on a la méthode Bou-bou-bou-bou Eh, l'assassin d'Nahel en conditionnelle, plus rien ne m'étonne Bou-bou-bou-bou Plus rien ne m'étonne Bou-bou-bou-bou, bou-bou</t>
+          <t>Yo, yo Bou-bou-bou-bou Young Bouba got the sauce Yo, Young Bouba got the sauce Woo, so baby Hey, yo, eh, woo Envoie la gue-dro, envoie la gue-dro, fuck Pascal Praud Bou-bou J'ai deux-trois raclis dans l'Audi Quattro Policiers coupables que vous libérez Chez nous la justice, on n'y croit pas trop La kichta s'exprime, nous on parle pas trop Que des gars dangereux comme au Libéria Et ouais, les tarots, ça monte, ça descend comme un libéro Woo J'suis à l'hôtel, elle prend plus de ballons qu'un ramasseur de balles Poh Authentique, si j'avais pas la mental, jamais j'aurais cru qu'j'aurais compté autant d'fric Poh Compter des bricks et ds bricks et des bricks Rien qu'je brille, rien qu'elle m'fixe, j'envoie deux Araï sur l'GSX Glah, glah Trop de pétasses dans le périmètre, j'baise le game à en d'venir stérile Shish Soit c'est l'amour, soit c'est tarifé, les grands de ta ville, on les terrifie Les grands de ta ville, on les terrifie Ouais, rafale de 9 sur le Série 6 neuf Pas de mendicité, paiement anticipé, plus de ients-cli ici que chez les Médicis Bou-bou-bou-bou Paiement en crypto', deux sur un scooter, j'entends mes shooters Bou-bou-bou-bou Grandir dans l'ghetto, brandir les métaux, on a la méthode Bou-bou-bou-bou Eh, l'assassin d'Nahel en conditionnelle, plus rien ne m'étonne Bou-bou-bou-bou Plus rien ne m'étonne Bou-bou-bou-bou, bou-bou Quand j'suis venu cagoulé, il s'est mis à bégayer comme Chalghoumi, yeah Donc on l'a gravé goumé, à part être keuf, y a pas d'taf pourri J'suis content comme si j'étais à Bois-d'Arcy, qu'j'recevais un putain d'colis Let's go J'suis content comme un libérable qui s'retrouve à l'hôtel avec Katsumi Let's go Ou avec quatre soumises Woo, un million quatre dans la Samsonite J'sors pas sans mon 9, sans mon acolyte, j'fais crier l'bolide et la garce aussi Sku L'argent t'appelle mais tu n'es pas là, autant de cash que dans l'Nevada Depuis tout p'tit, j'rêve de m'évader, j'prends pas de poudre, que du népalais J'fais plus de she-ca qu'un bon baveux, j'reviens du bled avec le palu' Ils sont v'nus chez toi mais t'étais pas là, mes shooters ont la dégaine d'Lomepal Let's go Bou-bou-bou-bou Paiement en crypto', deux sur un scooter, j'entends mes shooters Bou-bou-bou-bou Grandir dans l'ghetto, brandir les métaux, on a la méthode Bou-bou-bou-bou, sku, sku Eh, l'assassin d'Nahel en conditionnelle, plus rien ne m'étonne Bou-bou-bou-bou Plus rien ne m'étonne Bou-bou-bou-bou, bou-bou Paiement en crypto', deux sur un scooter, j'entends mes shooters Bou-bou-bou-bou Grandir dans l'ghetto, brandir les métaux, on a la méthode Bou-bou-bou-bou Eh, l'assassin d'Nahel en conditionnelle, plus rien ne m'étonne Bou-bou-bou-bou Plus rien ne m'étonne Bou-bou-bou-bou, bou-bou</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Yeah, des sentiments dans le réservoir, quand l'amour nous fait les pleins phares J'aimerais rouler rouler faire le tour de la terre Ici la nuit tous les chats sont gris alors pour nous tous les feux sont verts Ouvre la fenêtre laisse entrer l'horizon, laisse entrer un peu d'air, yeah yeah Ce matin, ce matin, oui j'ai grillé un feu rouge Ce matin, ce matin, oui j'ai grillé un feu rouge Je suis tellement bien dans ma voiture, que j'en oublie le feu Je suis tellement bien dans la voiture, parce que l'on est deux Et je peux lire ta joie sur tes yeux mouillés Et chaque arbre qui passe fait partie du passé Le bonheur sur le capot, chanter chanter les oiseaux Plus rien ne sera comme avant, les cheveux dans le vent Ce matin, ce matin, oui j'ai grillé un feu rouge Ce matin, ce matin, oui j'ai grillé un feu rouge Je suis tellement bien dans ma voiture, que j'en oublie le feu Je suis tellement bien dans la voiture, parce que l'on est deux Et on se mariera sur l'autoroute, j'ai même prévenu les photographes De toute façon y en a tous les bords d'autoroutes, souris, ils appellent ça des flashs Appelle, préviens ton employeur, j'sais pas moi dis lui que t'es malade Dis lui que t'as la maladie dAlzheimer, et qu'même ton répondeur est malade You might also like J'aimerais rouler jusqu'à l'aurore, rouler jusqu'à ce que le soleil s'éteigne Peu importe de rouler sur l'or de rouler jusqu'à dépasser nos peines J'aimerais rouler jusqu'à l'aurore, rouler jusqu'à ce que le soleil s'éteigne Peu importe de rouler sur l'or de rouler jusqu'à dépasser nos peines Ce matin, ce matin, oui j'ai grillé un feu rouge Ce matin, ce matin, oui j'ai grillé un feu rouge Je suis tellement bien dans ma voiture, que j'en oublie le feu Je suis tellement bien dans la voiture, parce que l'on est deux On aurait pu rouler sans jamais s'arrêter N'me regarde pas comme ça bébé, non, on pourra toujours recommencer On retentera notre chance, le bout du monde on ira voir Enfin si d'ici là il nous reste de l'amour dans le réservoir2</t>
+          <t>Yeah, des sentiments dans le réservoir, quand l'amour nous fait les pleins phares J'aimerais rouler rouler faire le tour de la terre Ici la nuit tous les chats sont gris alors pour nous tous les feux sont verts Ouvre la fenêtre laisse entrer l'horizon, laisse entrer un peu d'air, yeah yeah Ce matin, ce matin, oui j'ai grillé un feu rouge Ce matin, ce matin, oui j'ai grillé un feu rouge Je suis tellement bien dans ma voiture, que j'en oublie le feu Je suis tellement bien dans la voiture, parce que l'on est deux Et je peux lire ta joie sur tes yeux mouillés Et chaque arbre qui passe fait partie du passé Le bonheur sur le capot, chanter chanter les oiseaux Plus rien ne sera comme avant, les cheveux dans le vent Ce matin, ce matin, oui j'ai grillé un feu rouge Ce matin, ce matin, oui j'ai grillé un feu rouge Je suis tellement bien dans ma voiture, que j'en oublie le feu Je suis tellement bien dans la voiture, parce que l'on est deux Et on se mariera sur l'autoroute, j'ai même prévenu les photographes De toute façon y en a tous les bords d'autoroutes, souris, ils appellent ça des flashs Appelle, préviens ton employeur, j'sais pas moi dis lui que t'es malade Dis lui que t'as la maladie dAlzheimer, et qu'même ton répondeur est malade J'aimerais rouler jusqu'à l'aurore, rouler jusqu'à ce que le soleil s'éteigne Peu importe de rouler sur l'or de rouler jusqu'à dépasser nos peines J'aimerais rouler jusqu'à l'aurore, rouler jusqu'à ce que le soleil s'éteigne Peu importe de rouler sur l'or de rouler jusqu'à dépasser nos peines Ce matin, ce matin, oui j'ai grillé un feu rouge Ce matin, ce matin, oui j'ai grillé un feu rouge Je suis tellement bien dans ma voiture, que j'en oublie le feu Je suis tellement bien dans la voiture, parce que l'on est deux On aurait pu rouler sans jamais s'arrêter N'me regarde pas comme ça bébé, non, on pourra toujours recommencer On retentera notre chance, le bout du monde on ira voir Enfin si d'ici là il nous reste de l'amour dans le réservoir2</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Eh yo, rajoutes un peu de Ruinart dans mon verre Leggo La go est trop sex dans ma Benz j'lui ai mis Faire du biff c'est simple comme si j'chante Do Ré Mi J'mesure mon succès à mon taux d'ennemis J'crois que j'suis l'seul putain d'reubeu qui danse sur Carimi Khoya j'fais ma peine sur une seule bouche et mi Le temps m'est Conté j'ai le flow d'Batshuayi J'commence mon couplet ça s'affole en régie Gros y'aura des décès j'prépare donc l'autopsie BS, grosse équipe posée dans l'carré VIP Toutes les salopes à ma table ont jamais l'rre-vé vide Khoya j'aime le putain d'riz avec sa sauce arachide Mes bords sont toutes mouillées car je paie tout en liquide J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe j'ai de la frappe moi j'suis nien J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe mec de Trappes Trappes Fouiny Fouiny dance Casaoui Doukkali Frère on parle de moi d'Abidjan au Mali J'suis dans l'immobilier Casa, Paris, Miami Quand j'dors, j'fais de l'oseille, j'me réveille, j'le gaspille Tape moi sur les doigts quand j'critique Cavani bang On va t'rafaler parfum d'Yougoslavie Pour la Saint-Valentin j'vais chez Dior chez Fendi Ma meuf est comme Stevie Wonder elle ne voit plus les prix J'mange avec le boss de ton boss j'crêche au Ritz Je ne suis qu'un simple rebeu qu'a plusieurs cartes grises gogo Tous au sol pah pah pah on allume ton leasing Mes sapes sortent de l'usine dans la boîte à gants y'a le uzi, j'ai de la peu-fra You might also like J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe j'ai de la frappe moi j'suis nien J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe mec de Trappes Trappes J'me retrouve en taule les grands m'disent c'est la vie 78 Quand les keufs me coursent j'ai l'cardio d'Verratti Gros j'mélange ma beuh le client j'l'anesthésie Billet bleu vert violet j'mets la nuit à faire le tri BS comme Fillon on travaille en famille La qualité d'mon amnésia te provoque amnésie P'tain le flow est chaud il vient du bled c'est pas cain-ri Tu va t'faire tirer dessus gros ici c'est Paris Quand je viens faire les courses, gros ils ferment la boutique Je me sens comme un qatari qui vient claquer son fric Nasser Capitale du Crime Censuré cartel de Cali' Khoya dans mon garage j'ai l'Allemagne l'Italie J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe j'ai de la frappe moi j'suis nien J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe mec de Trappes Trappes J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe j'ai de la frappe moi j'suis nien J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe mec de Trappes Trappes</t>
+          <t>Eh yo, rajoutes un peu de Ruinart dans mon verre Leggo La go est trop sex dans ma Benz j'lui ai mis Faire du biff c'est simple comme si j'chante Do Ré Mi J'mesure mon succès à mon taux d'ennemis J'crois que j'suis l'seul putain d'reubeu qui danse sur Carimi Khoya j'fais ma peine sur une seule bouche et mi Le temps m'est Conté j'ai le flow d'Batshuayi J'commence mon couplet ça s'affole en régie Gros y'aura des décès j'prépare donc l'autopsie BS, grosse équipe posée dans l'carré VIP Toutes les salopes à ma table ont jamais l'rre-vé vide Khoya j'aime le putain d'riz avec sa sauce arachide Mes bords sont toutes mouillées car je paie tout en liquide J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe j'ai de la frappe moi j'suis nien J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe mec de Trappes Trappes Fouiny Fouiny dance Casaoui Doukkali Frère on parle de moi d'Abidjan au Mali J'suis dans l'immobilier Casa, Paris, Miami Quand j'dors, j'fais de l'oseille, j'me réveille, j'le gaspille Tape moi sur les doigts quand j'critique Cavani bang On va t'rafaler parfum d'Yougoslavie Pour la Saint-Valentin j'vais chez Dior chez Fendi Ma meuf est comme Stevie Wonder elle ne voit plus les prix J'mange avec le boss de ton boss j'crêche au Ritz Je ne suis qu'un simple rebeu qu'a plusieurs cartes grises gogo Tous au sol pah pah pah on allume ton leasing Mes sapes sortent de l'usine dans la boîte à gants y'a le uzi, j'ai de la peu-fra J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe j'ai de la frappe moi j'suis nien J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe mec de Trappes Trappes J'me retrouve en taule les grands m'disent c'est la vie 78 Quand les keufs me coursent j'ai l'cardio d'Verratti Gros j'mélange ma beuh le client j'l'anesthésie Billet bleu vert violet j'mets la nuit à faire le tri BS comme Fillon on travaille en famille La qualité d'mon amnésia te provoque amnésie P'tain le flow est chaud il vient du bled c'est pas cain-ri Tu va t'faire tirer dessus gros ici c'est Paris Quand je viens faire les courses, gros ils ferment la boutique Je me sens comme un qatari qui vient claquer son fric Nasser Capitale du Crime Censuré cartel de Cali' Khoya dans mon garage j'ai l'Allemagne l'Italie J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe j'ai de la frappe moi j'suis nien J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe mec de Trappes Trappes J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe j'ai de la frappe moi j'suis nien J'ai de la frappe j'ai de la frappe moi j'suis nien J'suis sur l'rrain-té ! J'ai de la frappe mec de Trappes Trappes</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ferme ta gueule, j'ai rien à prouver J'voulais viser les couilles du rap mais j'ai pas trouvé Wesh, écoute un peu, s'tu veux m'rattraper c'est qu't'es bête C'est pas avec une bicyclette qu'on rattrape un compèt' Man ici c'est Paname, kilogramme rime avec banane Pour une douille de trop ça canarde, on retrouve ton corps dans un canal Prendre son premier rail c'est risqué comme de tomber love d'un tapin Cherche-moi enculé, j'te mets une reprise de volée à la Papin Rien à foutre d'leur rap conscient, rien à foutre d'leur théorie T'es l'seul à pas avoir pris conscience à quel point t'es horrible MC, plus j'avance et plus j't'enterre Comprends pourquoi j'ai l'sourire même avec un appareil dentaire Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même You might also like Viens pas traîner chez Banlieue Sale si ton Gucci est un faux J't'ai baisé sans capote, pour ça qu'ton fils a du flow J'sors en conditionnelle, bye bye les barreaux Toujours en LV, obligé d'me tenir à carreau Fouiny-Fouiny Babe et le ti-pe Still Fresh Anti-juges, anti-keufs et en cours antisèches C'est Ban-Ban-Banlieue Sale, frérot viens là qu'on t'relance Et click click pah pah pah pah Condoléances ! Fausse déposition chez les keufs, ouais ma gueule J'suis bon qu'à remixer appelle-moi DJ Battle J'ai le PIN à ta sur, le phone à ta cousine J'ai re-tweeté ta tante, ta meuf me suce dans la piscine Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ma clique n'est pas sortable depuis l'époque du cartable Tu fais tomber ton portable, chez moi ça tombe pour port d'armes Dans l'game j'fais l'ménage, j'nique tout, m'parle pas d'mon âge Ils kiffent sur mon rap comme sur le boule à Nicki Minaj Nouvelle École, Banlieue Sale, d'la came bien vie-sèr Du swag jusque dans l'veau-cèr, ils en attrapent des ulcères Zarma t'es une meuf bien, tu t'es jamais retrouvée à quatre pattes Arrètes ta tchatche biatch, toute la Terre a vu ta chatte Y'a pas d'loves donc pas d'peace, j'crois en Dieu pas en leur justice Laisse pas traîner ton fils avec ma team si tu veux pas qu'il glisse Dans l'rap trop d'tasses, donc j'lève pas l'même doigt qu'en classe Crois pas qu'on kiff la hass, que Sarko kiss my ass Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même</t>
+          <t>Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ferme ta gueule, j'ai rien à prouver J'voulais viser les couilles du rap mais j'ai pas trouvé Wesh, écoute un peu, s'tu veux m'rattraper c'est qu't'es bête C'est pas avec une bicyclette qu'on rattrape un compèt' Man ici c'est Paname, kilogramme rime avec banane Pour une douille de trop ça canarde, on retrouve ton corps dans un canal Prendre son premier rail c'est risqué comme de tomber love d'un tapin Cherche-moi enculé, j'te mets une reprise de volée à la Papin Rien à foutre d'leur rap conscient, rien à foutre d'leur théorie T'es l'seul à pas avoir pris conscience à quel point t'es horrible MC, plus j'avance et plus j't'enterre Comprends pourquoi j'ai l'sourire même avec un appareil dentaire Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Viens pas traîner chez Banlieue Sale si ton Gucci est un faux J't'ai baisé sans capote, pour ça qu'ton fils a du flow J'sors en conditionnelle, bye bye les barreaux Toujours en LV, obligé d'me tenir à carreau Fouiny-Fouiny Babe et le ti-pe Still Fresh Anti-juges, anti-keufs et en cours antisèches C'est Ban-Ban-Banlieue Sale, frérot viens là qu'on t'relance Et click click pah pah pah pah Condoléances ! Fausse déposition chez les keufs, ouais ma gueule J'suis bon qu'à remixer appelle-moi DJ Battle J'ai le PIN à ta sur, le phone à ta cousine J'ai re-tweeté ta tante, ta meuf me suce dans la piscine Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ma clique n'est pas sortable depuis l'époque du cartable Tu fais tomber ton portable, chez moi ça tombe pour port d'armes Dans l'game j'fais l'ménage, j'nique tout, m'parle pas d'mon âge Ils kiffent sur mon rap comme sur le boule à Nicki Minaj Nouvelle École, Banlieue Sale, d'la came bien vie-sèr Du swag jusque dans l'veau-cèr, ils en attrapent des ulcères Zarma t'es une meuf bien, tu t'es jamais retrouvée à quatre pattes Arrètes ta tchatche biatch, toute la Terre a vu ta chatte Y'a pas d'loves donc pas d'peace, j'crois en Dieu pas en leur justice Laisse pas traîner ton fils avec ma team si tu veux pas qu'il glisse Dans l'rap trop d'tasses, donc j'lève pas l'même doigt qu'en classe Crois pas qu'on kiff la hass, que Sarko kiss my ass Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>La rue me dit fais nous que du sale, mes ennemis méritent que du sale Ta salope me dit fais-moi du sale, que du sale, que du sale, que du sale Les petits me réclament que du sale, on tire dessus devant l'foot en salle Gros, t'auras beau pousser à la salle, que du sale, que du sale, que du sale Mes ennemis méritent que du sale, niquez vos mères, ici Banlieue Sale On va trouer ton gilet pare-balle, suis le troupeau, t'auras deux trous d'balle BS de retour dans la city, oh ! Ils veulent tous gratter l'amitié, oh ! Comme la juge, j'serai sans pitié, oh ! J'te dis renoi, tu vas tomber d'haut Oh, quand tes amis deviennent tous ennemis, difficile d'faire le tri Ils veulent savoir le prix de ta vie, de ta belle Ferrari, de tes pompes, d'ton appart', de ta montre en roro oh Quand les petits veulent tous s'barrer d'ici, veulent leur place au soleil Avec un paquet d'oseille pour poser la 'teille, ils vont tirer dessus, faire du sale et du sale mon négro Ouais mon négro, ils font du sale Quand le gouvernement s'enrichit, sur les plus pauvres, ces négros font du sale Laisse pas traîner ta sur au quartier, j'te l'ai dit, mes petits ont trop la dalle Que du sale, que du sale, que du sale, que du sale La rue me dit fais nous que du sale, mes ennemis méritent que du sale Ta salope me dit fais moi du sale, que du sale, que du sale, que du sale Les petits me réclament que du sale, on tire dessus devant l'foot en salle Gros, t'auras beau pousser à la salle, que du sale, que du sale, que du sale Sale, sale, et puis du sale, baby, fous donc ça dans l'cellophane, baby On a l'même vécu mais pas l'même prix, critiqué comme Unay Emery On t'allume avec ou sans quet-bri, j'roule en Porsche, psartek le débrit Trouve-moi dans l'7-8 ou bien dans l'Maârif, j'me barre en Floride si l'ciel est gris Ils veulent me porter le 3ein, bats les couilles, liasse dans le jean De retour, demande à Glenn, on est venu enterrer Will Smith La rue m'a dit fais nous du sale En forme comme Rachid Ghezzal, on va laisser des séquelles Casser des côtes et niquer quelques daronnes sur la route, fermer quelques gueules Chez toi, on parle pas comme ça, nous on va t'niquer ta mère La rue m'a dit on veut Fouiny trop vénère, celui qui mangeait la gamelle Niquer le game avec tous mes rebeus, avec tous mes babtous, et mes khel Va finir à l'hôpital, gros, nous on fait que du sale Ta mâchoire sous mes sandales CDC, que du sale, que du sale CDC, CDC Sale CDC, CDC, que du sale, que du sale CDC, CDC Sale Sale La rue me dit fais nous que du sale, mes ennemis méritent que du sale Ta salope me dit fais moi du sale, que du sale, que du sale, que du sale Les petits me réclament que du sale, on tire dessus devant l'foot en salle Gros, t'auras beau pousser à la salle, que du sale, que du sale, que du sale La rue me dit fais nous que du sale, mes ennemis méritent que du sale Ta salope me dit fais moi du sale, que du sale, que du sale, que du sale Les petits me réclament que du sale, on tire dessus devant l'foot en salle Gros, t'auras beau pousser à la salle, que du sale, que du sale, que du saleYou might also like3</t>
+          <t>La rue me dit fais nous que du sale, mes ennemis méritent que du sale Ta salope me dit fais-moi du sale, que du sale, que du sale, que du sale Les petits me réclament que du sale, on tire dessus devant l'foot en salle Gros, t'auras beau pousser à la salle, que du sale, que du sale, que du sale Mes ennemis méritent que du sale, niquez vos mères, ici Banlieue Sale On va trouer ton gilet pare-balle, suis le troupeau, t'auras deux trous d'balle BS de retour dans la city, oh ! Ils veulent tous gratter l'amitié, oh ! Comme la juge, j'serai sans pitié, oh ! J'te dis renoi, tu vas tomber d'haut Oh, quand tes amis deviennent tous ennemis, difficile d'faire le tri Ils veulent savoir le prix de ta vie, de ta belle Ferrari, de tes pompes, d'ton appart', de ta montre en roro oh Quand les petits veulent tous s'barrer d'ici, veulent leur place au soleil Avec un paquet d'oseille pour poser la 'teille, ils vont tirer dessus, faire du sale et du sale mon négro Ouais mon négro, ils font du sale Quand le gouvernement s'enrichit, sur les plus pauvres, ces négros font du sale Laisse pas traîner ta sur au quartier, j'te l'ai dit, mes petits ont trop la dalle Que du sale, que du sale, que du sale, que du sale La rue me dit fais nous que du sale, mes ennemis méritent que du sale Ta salope me dit fais moi du sale, que du sale, que du sale, que du sale Les petits me réclament que du sale, on tire dessus devant l'foot en salle Gros, t'auras beau pousser à la salle, que du sale, que du sale, que du sale Sale, sale, et puis du sale, baby, fous donc ça dans l'cellophane, baby On a l'même vécu mais pas l'même prix, critiqué comme Unay Emery On t'allume avec ou sans quet-bri, j'roule en Porsche, psartek le débrit Trouve-moi dans l'7-8 ou bien dans l'Maârif, j'me barre en Floride si l'ciel est gris Ils veulent me porter le 3ein, bats les couilles, liasse dans le jean De retour, demande à Glenn, on est venu enterrer Will Smith La rue m'a dit fais nous du sale En forme comme Rachid Ghezzal, on va laisser des séquelles Casser des côtes et niquer quelques daronnes sur la route, fermer quelques gueules Chez toi, on parle pas comme ça, nous on va t'niquer ta mère La rue m'a dit on veut Fouiny trop vénère, celui qui mangeait la gamelle Niquer le game avec tous mes rebeus, avec tous mes babtous, et mes khel Va finir à l'hôpital, gros, nous on fait que du sale Ta mâchoire sous mes sandales CDC, que du sale, que du sale CDC, CDC Sale CDC, CDC, que du sale, que du sale CDC, CDC Sale Sale La rue me dit fais nous que du sale, mes ennemis méritent que du sale Ta salope me dit fais moi du sale, que du sale, que du sale, que du sale Les petits me réclament que du sale, on tire dessus devant l'foot en salle Gros, t'auras beau pousser à la salle, que du sale, que du sale, que du sale La rue me dit fais nous que du sale, mes ennemis méritent que du sale Ta salope me dit fais moi du sale, que du sale, que du sale, que du sale Les petits me réclament que du sale, on tire dessus devant l'foot en salle Gros, t'auras beau pousser à la salle, que du sale, que du sale, que du sale3</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Si tu t'reconnais dans c'que j'dis C'est ça ! Si tu braques, voles, vends des keusse-dix Si tu t'reconnais dans c'que j'fais Yeah ! Aussi bien libre, qu'enfermé mon autobiographie Si tu t'reconnais dans c'que j'dis C'est la même vie, la même Autobiographie mon autobiographie Si tu t'reconnais dans c'que j'fais C'est la même vie, la même Autobiographie Ma fin à moi commence le jour où une clope toucha mes lèvres, ouais, mes lèvres d'enfant Ce même jour où cette prof de dingue me traita de mauvais élève Chamboulé, là ma vie bascula, parce que tu taffes plus là Quand tu veux être comme les autres, genre Adidas, Puma Alors j'trainais, de cambriolages en postes J'partais souvent en vrille au poste, ou sur le terrain, là où on bosse Plus ça allait, et plus les choses prenaient de l'ampleur Mec c'était pire en pire, j'compte même plus les fois où j'voyais mère en pleurs Combien de fois j'ai du m'absenter Partir loin, là ou ma seule occupation restait d'chanter ? Mais putain j'voulais faire comme eux, j'aurais peut-être pu finir camé Ouais si j'pensais qu'à moi, ça la chienneté je m'y attendais pas, mais Les grands couraient derrière le fric, et nous on courait derrière eux Et les petits derrière nous, têtes baissées On aurait pu être blessés, où même pire victimes d'un décès Bah tiens, demande à ceux qui ont un frère en terre, et puis une mère déçue Dieu merci, j'ai jamais ôté une vie, ou bien violé une fille J'me rends compte aujourd'hui que la vie ne tient qu'à un fil J'mérite aucun trophée, même si j'en ai trop fait J'en tire aucun profit, pour vous, mon autobiographie Avec mon joint à la bouche, j'me croyais tout permis Et j'croyais tout faire mieux, et mieux, j'étais libre, même enfermé C'est clair que j'avais changé frère, j'trafiquais la 100, j'éclaire Sans efforts, j'étais devenu quelqu'un d'autre, et ça en un éclair Seulement si j'écoutais les parents, eux qui n'étaient pas préparés Ouais j'les rendais tarés, j'voulais fumer et puis me marrer Avec les tchoins, j'disais que c'était mon choix Tu parles d'une vie, tu parles d'un choix, quand c'est ceux qui t'aiment que tu déçois J'comprenais pas trop ce qui m'arrivait La chose est sûre, c'est que dans ce putain de whisky de merde, frère, j'ai mariné Bien sûr, j'avais des projets, mais au lieu de les concrétiser Avec les potes, j'comptais fumer, et puis j'comptais tiser On pensait qu'à moyenner, avec la maille ou non Ouais des meufs fats ou non c'est ça, j'voyais des petits sucer des Fiat Uno J'étais dans l'ignorance, inconscient de mes actes Influencable, je suivais le troupeau, écoutant ceux qui jactent C'est le commencement de la fin, il a rien compris l'enfant Ouais les débuts d'la fouin, quand il buvait et fumait à la fois Complètement die, j'aurais pu te la danser, ou même te la graffer Mais bon je te la chante, mon autobiographie You might also like Si tu t'reconnais dans c'que j'dis Si tu braques, voles, vends des keusse-dix Si tu t'reconnais dans c'que j'fais Aussi bien libre, qu'enfermé mon autobiographie Si tu t'reconnais dans c'que j'dis C'est la même vie, la même Autobiographie mon autobiographie Si tu t'reconnais dans c'que j'fais C'est la même vie, la même Autobiographie mon autobiographie Si j'te raconte tout ça, c'est pour plus que ça n'arrive Ouais pour plus qu'un canif transperce un petit naïf, même si c'est la iv La merde il faut passer dedans pour voir que ça fait mal Pour voir que c'est infernal, j'aurais pu clamser pour des affaires nulles Tu parles d'un avenir pour un jeune con, parmi les junkies Les banaves, les putes, les traîtres, tous ceux qui gènent quoi Mais, aujourd'hui j'ai changé d'optique Et j'explique aux petits, qu'il vaut mieux renoncer à ce chemin sceptique sceptique C'est pas du bourrage de crâne que j'te fais C'est juste que ça serait bête de pas le dire, faut faire le bien avant de partir Seul Dieu sait ce qui m'attend, seul Dieu connait l'avenir Mais bon, les ennuis j'les voyais venir, tout comme cette juge que j'voyais nuir A mon existence, à moi et à mon équipe dense, à l'évidence Aujourd'hui j'sais avec qui j'rappe, avec qui j'danse Aussi j'rends hommage à la mémoire de tous nos frères morts Et à nos pères et mères qui ont su rester forts C'est ça Ouvre bien ton coeur, car c'est avec le mien que j'parle Ouvre le bien grand car c'est le mien qui saigne lorsque les frères partent J'me plains pas, c'est juste que j'allais gâcher ma vie Pour ça que j'te raconte, mon autobiographie Si tu t'reconnais dans c'que j'dis Si tu braques, voles, vends des keusse-dix Si tu t'reconnais dans c'que j'fais Aussi bien libre, qu'enfermé mon autobiographie Si tu t'reconnais dans c'que j'dis C'est la même vie, la même Autobiographie mon autobiographie Si tu t'reconnais dans c'que j'fais C'est la même vie, la même Autobiographie mon autobiographie Que j'sois riche ou bien en chien, je sais où le bus me ramène Lève ton verre pour tous tes frères, et matte comment j'la ramène Pour les reufs qui trainent en bas et ceux qui mangent la gamèle Kiffez le son, j'suis pas venu donner des leçons C'est ça Que j'sois riche ou bien en chien, je sais où le bus me ramène Lève ton verre pour tous tes frères et matte comment j'la ramène Pour les reufs qui trainent en bas et ceux qui mangent la gamèle Ton autobiographie Mon autobiographie Que j'sois riche ou bien en chien, je sais où le bus me ramène Lève ton verre pour tous tes frères et matte comment j'la ramène Pour les reufs qui trainent en bas et ceux qui mangent la gamèle Kiffez le son, j'suis pas venu donner des leçons C'est ça Que j'sois riche ou bien en chien, je sais où le bus me ramène Lève ton verre pour tous tes frères, et matte comment j'la ramène Pour les reufs qui trainent en bas et ceux qui mangent la gamèle Ton autobiographie Mon autobiographie</t>
+          <t>Si tu t'reconnais dans c'que j'dis C'est ça ! Si tu braques, voles, vends des keusse-dix Si tu t'reconnais dans c'que j'fais Yeah ! Aussi bien libre, qu'enfermé mon autobiographie Si tu t'reconnais dans c'que j'dis C'est la même vie, la même Autobiographie mon autobiographie Si tu t'reconnais dans c'que j'fais C'est la même vie, la même Autobiographie Ma fin à moi commence le jour où une clope toucha mes lèvres, ouais, mes lèvres d'enfant Ce même jour où cette prof de dingue me traita de mauvais élève Chamboulé, là ma vie bascula, parce que tu taffes plus là Quand tu veux être comme les autres, genre Adidas, Puma Alors j'trainais, de cambriolages en postes J'partais souvent en vrille au poste, ou sur le terrain, là où on bosse Plus ça allait, et plus les choses prenaient de l'ampleur Mec c'était pire en pire, j'compte même plus les fois où j'voyais mère en pleurs Combien de fois j'ai du m'absenter Partir loin, là ou ma seule occupation restait d'chanter ? Mais putain j'voulais faire comme eux, j'aurais peut-être pu finir camé Ouais si j'pensais qu'à moi, ça la chienneté je m'y attendais pas, mais Les grands couraient derrière le fric, et nous on courait derrière eux Et les petits derrière nous, têtes baissées On aurait pu être blessés, où même pire victimes d'un décès Bah tiens, demande à ceux qui ont un frère en terre, et puis une mère déçue Dieu merci, j'ai jamais ôté une vie, ou bien violé une fille J'me rends compte aujourd'hui que la vie ne tient qu'à un fil J'mérite aucun trophée, même si j'en ai trop fait J'en tire aucun profit, pour vous, mon autobiographie Avec mon joint à la bouche, j'me croyais tout permis Et j'croyais tout faire mieux, et mieux, j'étais libre, même enfermé C'est clair que j'avais changé frère, j'trafiquais la 100, j'éclaire Sans efforts, j'étais devenu quelqu'un d'autre, et ça en un éclair Seulement si j'écoutais les parents, eux qui n'étaient pas préparés Ouais j'les rendais tarés, j'voulais fumer et puis me marrer Avec les tchoins, j'disais que c'était mon choix Tu parles d'une vie, tu parles d'un choix, quand c'est ceux qui t'aiment que tu déçois J'comprenais pas trop ce qui m'arrivait La chose est sûre, c'est que dans ce putain de whisky de merde, frère, j'ai mariné Bien sûr, j'avais des projets, mais au lieu de les concrétiser Avec les potes, j'comptais fumer, et puis j'comptais tiser On pensait qu'à moyenner, avec la maille ou non Ouais des meufs fats ou non c'est ça, j'voyais des petits sucer des Fiat Uno J'étais dans l'ignorance, inconscient de mes actes Influencable, je suivais le troupeau, écoutant ceux qui jactent C'est le commencement de la fin, il a rien compris l'enfant Ouais les débuts d'la fouin, quand il buvait et fumait à la fois Complètement die, j'aurais pu te la danser, ou même te la graffer Mais bon je te la chante, mon autobiographie Si tu t'reconnais dans c'que j'dis Si tu braques, voles, vends des keusse-dix Si tu t'reconnais dans c'que j'fais Aussi bien libre, qu'enfermé mon autobiographie Si tu t'reconnais dans c'que j'dis C'est la même vie, la même Autobiographie mon autobiographie Si tu t'reconnais dans c'que j'fais C'est la même vie, la même Autobiographie mon autobiographie Si j'te raconte tout ça, c'est pour plus que ça n'arrive Ouais pour plus qu'un canif transperce un petit naïf, même si c'est la iv La merde il faut passer dedans pour voir que ça fait mal Pour voir que c'est infernal, j'aurais pu clamser pour des affaires nulles Tu parles d'un avenir pour un jeune con, parmi les junkies Les banaves, les putes, les traîtres, tous ceux qui gènent quoi Mais, aujourd'hui j'ai changé d'optique Et j'explique aux petits, qu'il vaut mieux renoncer à ce chemin sceptique sceptique C'est pas du bourrage de crâne que j'te fais C'est juste que ça serait bête de pas le dire, faut faire le bien avant de partir Seul Dieu sait ce qui m'attend, seul Dieu connait l'avenir Mais bon, les ennuis j'les voyais venir, tout comme cette juge que j'voyais nuir A mon existence, à moi et à mon équipe dense, à l'évidence Aujourd'hui j'sais avec qui j'rappe, avec qui j'danse Aussi j'rends hommage à la mémoire de tous nos frères morts Et à nos pères et mères qui ont su rester forts C'est ça Ouvre bien ton coeur, car c'est avec le mien que j'parle Ouvre le bien grand car c'est le mien qui saigne lorsque les frères partent J'me plains pas, c'est juste que j'allais gâcher ma vie Pour ça que j'te raconte, mon autobiographie Si tu t'reconnais dans c'que j'dis Si tu braques, voles, vends des keusse-dix Si tu t'reconnais dans c'que j'fais Aussi bien libre, qu'enfermé mon autobiographie Si tu t'reconnais dans c'que j'dis C'est la même vie, la même Autobiographie mon autobiographie Si tu t'reconnais dans c'que j'fais C'est la même vie, la même Autobiographie mon autobiographie Que j'sois riche ou bien en chien, je sais où le bus me ramène Lève ton verre pour tous tes frères, et matte comment j'la ramène Pour les reufs qui trainent en bas et ceux qui mangent la gamèle Kiffez le son, j'suis pas venu donner des leçons C'est ça Que j'sois riche ou bien en chien, je sais où le bus me ramène Lève ton verre pour tous tes frères et matte comment j'la ramène Pour les reufs qui trainent en bas et ceux qui mangent la gamèle Ton autobiographie Mon autobiographie Que j'sois riche ou bien en chien, je sais où le bus me ramène Lève ton verre pour tous tes frères et matte comment j'la ramène Pour les reufs qui trainent en bas et ceux qui mangent la gamèle Kiffez le son, j'suis pas venu donner des leçons C'est ça Que j'sois riche ou bien en chien, je sais où le bus me ramène Lève ton verre pour tous tes frères, et matte comment j'la ramène Pour les reufs qui trainent en bas et ceux qui mangent la gamèle Ton autobiographie Mon autobiographie</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Li fat mat frèrot Yeah, on court tous après le fric La vie n'est qu'un film où la mort est le générique Parait que la vie n'est qu'un test La misère me boude, elle dit que j'ai retourné ma veste J'la trouvais trop petite cette assiette On avait deux chambres dans lesquelles on s'entassaient à sept Au fait, t'auras pas un cercueil Gucci Quand t'as des dettes, ça sent le roussi ou la Russie T'as pris le Sheitan comme réal' Sur les poudreuses, tu fais du ski par voix nasale Cap-capitale du crime, ma terre natale Crève en faisant du biff, on crève la dalle Real Tu traces des lignes mais plus sur les pelouses, toi qui rêvait du Real Si t'aimes la Mama, ne commets pas les mêmes erreurs N'attends pas qu'elle parte pour lui offrir des fleurs Et je vis ma vie anti-Illuminati, anti franc-maçon À part la street, aucune formation Crever lil dans la pyramide à coups de pelle En attendant que les anges nous ouvrent leurs ailes You might also like Je vis ma vie anti-Illuminati, anti-franc maçon À part la street, aucune formation Les courants m'emportent, y'a trop de flow J'rappe avec un tuba, demande à Cousteau Tant qu'il y aura des pauvres, y'aura du rap Tant qu'il y aura Fouiny Baby, y'aura la bac Les gens souffriront tant qu'il y aura Sarko Tant qu'il y aura la misère, il y aura des braquos LÉtat veut nous la mettre à moi et mes shrabs Mais on reste collés au mur, on marche comme des crabes Depuis tout petit on me traite de sale Arabe Contre ces chiens ,j'ai de la haine en rap In-testable En garde a vue fini le ramadan, les poucaves s'mettent à table La vie suit son cours, prochain épisode On est mieux dans les curs que dans les Ipods Et je vis ma vie anti-Illuminati, anti franc-maçon À part la street, aucune formation Crever lil dans la pyramide à coups de pelle En attendant que les anges nous ouvrent leurs ailes Quoi d'neuf Fouiny Babe ? En attendant que les anges nous ouvrent leurs ailes Anti-Illuminati, anti franc-maçon En attendant que les anges nous ouvrent leurs ailes En attendant que les anges nous ouvrent leurs ailes Crever lil dans la pyramide à coups de pelle En attendant que les anges nous ouvrent leurs ailes</t>
+          <t>Li fat mat frèrot Yeah, on court tous après le fric La vie n'est qu'un film où la mort est le générique Parait que la vie n'est qu'un test La misère me boude, elle dit que j'ai retourné ma veste J'la trouvais trop petite cette assiette On avait deux chambres dans lesquelles on s'entassaient à sept Au fait, t'auras pas un cercueil Gucci Quand t'as des dettes, ça sent le roussi ou la Russie T'as pris le Sheitan comme réal' Sur les poudreuses, tu fais du ski par voix nasale Cap-capitale du crime, ma terre natale Crève en faisant du biff, on crève la dalle Real Tu traces des lignes mais plus sur les pelouses, toi qui rêvait du Real Si t'aimes la Mama, ne commets pas les mêmes erreurs N'attends pas qu'elle parte pour lui offrir des fleurs Et je vis ma vie anti-Illuminati, anti franc-maçon À part la street, aucune formation Crever lil dans la pyramide à coups de pelle En attendant que les anges nous ouvrent leurs ailes Je vis ma vie anti-Illuminati, anti-franc maçon À part la street, aucune formation Les courants m'emportent, y'a trop de flow J'rappe avec un tuba, demande à Cousteau Tant qu'il y aura des pauvres, y'aura du rap Tant qu'il y aura Fouiny Baby, y'aura la bac Les gens souffriront tant qu'il y aura Sarko Tant qu'il y aura la misère, il y aura des braquos LÉtat veut nous la mettre à moi et mes shrabs Mais on reste collés au mur, on marche comme des crabes Depuis tout petit on me traite de sale Arabe Contre ces chiens ,j'ai de la haine en rap In-testable En garde a vue fini le ramadan, les poucaves s'mettent à table La vie suit son cours, prochain épisode On est mieux dans les curs que dans les Ipods Et je vis ma vie anti-Illuminati, anti franc-maçon À part la street, aucune formation Crever lil dans la pyramide à coups de pelle En attendant que les anges nous ouvrent leurs ailes Quoi d'neuf Fouiny Babe ? En attendant que les anges nous ouvrent leurs ailes Anti-Illuminati, anti franc-maçon En attendant que les anges nous ouvrent leurs ailes En attendant que les anges nous ouvrent leurs ailes Crever lil dans la pyramide à coups de pelle En attendant que les anges nous ouvrent leurs ailes</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>J'fais tout en soum-soum, j'laisse le succès fermer toutes leurs mères J'entends des boum-boum, six heures du mat' la brigade monte en l'air T'entends des vroum-vroum, voiture neuve quand j'sors du concessionnaire Faut qu'on les goume-goume, comme la coke on est durs on t'monte en l'air J'entends les douilles-douilles tomber au sol mais mes frères montent au ciel J'm'en bat les couilles-couilles si tu m'aimes pas, l'argent c'est l'essentiel Salam aleykoum-koum, malheureusement trop de frères manquent à l'appel J'suis dans la zone-zone, pour t'enterrer pas besoin qu'on m'roule une pelle J'donne aucun nom c'est la vie, j'finis au shtar, Bois d'Arcy J'sors de là-bas, j'prends du poids, j'ai la touffe de Fellaini Double mixtape Sombre punch', j'fais freestyle Booska reuch Booska hebs ou Booska tape, le soir je bouffe une Booska teuch Belvedere ou gros cigare ou gros pétard quand ça s'égare Ta meuf n'est pas satisfaite, j'crois qu'elle simule comme Neymar J'suis à Rolex sur les Champs, si tu veux me faire un guet-apens Ouais j'parle souvent des footeux car j'ai le salaire d'un attaquant Si t'entend click-click khoya, c'est soit les menottes soit les brah Au studio c'est les cléfs de Sol, au quartier c'est les clés de bras J'envois pas de piques-piques, j'envois équipe calibrée devant chez toi J'me tape un trip, j'ai pas baissé mon slip, j'ai le flow d'un 6.3 J'rappe mes tripes-tripes, j'crois qu'l'album va sortir en césarienne Gros ton équipe-quipe est revenue en même temps que ta SACEM Le rap est RIP-RIP, j'ai sorti l'costume noir, les chrysanthèmes Et j'fais des hits-hits pour les petits en cellules, les mauvaises graines J'me rappelle... ce soir le frère nous a quitté trop vite Dans la bouteille-teille, mon frère j'ai cherché à combler ce vide Petit y a R-R, Thiery Henry, mon flow prend pas de rides J'suis dans le R-R, une paire de Nike Air, j'roule un joint de weed Aucun diplôme-plôme gros dans la rue j'apprends à me débrouiller J'roule un cône-cône gros dans le train j'apprends à dépouiller J'fais pas de chrome-chrome, tu payes cash ou tu fumes tabac roulé Eh ouais la darone-rone, j'ai braqué pour plus voir ses yeux mouillés Tétanos-nos, j'te braque avec toute sorte d'objets rouillés Sortez les cross-cross, la S.D.Y. est revenue fouiller C'est la West Coast-Coast, Banlieue Ouest, ils ont voulu me rafaler Et le fusio-sio se fait fumer par les petits qu'il a recalés J'croque le monde-monde, j'écarte le game et j'crache dans le cercle Si tu tombes-tombes, envois ton écrou que j'envoie l'oseille Mauvaises ondes-ondes, j'les ressens quand je passe avec mon fer Mixtape Sombre-Sombre écoute-la en allant niquer des mères Tout est sombreYou might also like</t>
+          <t>J'fais tout en soum-soum, j'laisse le succès fermer toutes leurs mères J'entends des boum-boum, six heures du mat' la brigade monte en l'air T'entends des vroum-vroum, voiture neuve quand j'sors du concessionnaire Faut qu'on les goume-goume, comme la coke on est durs on t'monte en l'air J'entends les douilles-douilles tomber au sol mais mes frères montent au ciel J'm'en bat les couilles-couilles si tu m'aimes pas, l'argent c'est l'essentiel Salam aleykoum-koum, malheureusement trop de frères manquent à l'appel J'suis dans la zone-zone, pour t'enterrer pas besoin qu'on m'roule une pelle J'donne aucun nom c'est la vie, j'finis au shtar, Bois d'Arcy J'sors de là-bas, j'prends du poids, j'ai la touffe de Fellaini Double mixtape Sombre punch', j'fais freestyle Booska reuch Booska hebs ou Booska tape, le soir je bouffe une Booska teuch Belvedere ou gros cigare ou gros pétard quand ça s'égare Ta meuf n'est pas satisfaite, j'crois qu'elle simule comme Neymar J'suis à Rolex sur les Champs, si tu veux me faire un guet-apens Ouais j'parle souvent des footeux car j'ai le salaire d'un attaquant Si t'entend click-click khoya, c'est soit les menottes soit les brah Au studio c'est les cléfs de Sol, au quartier c'est les clés de bras J'envois pas de piques-piques, j'envois équipe calibrée devant chez toi J'me tape un trip, j'ai pas baissé mon slip, j'ai le flow d'un 6.3 J'rappe mes tripes-tripes, j'crois qu'l'album va sortir en césarienne Gros ton équipe-quipe est revenue en même temps que ta SACEM Le rap est RIP-RIP, j'ai sorti l'costume noir, les chrysanthèmes Et j'fais des hits-hits pour les petits en cellules, les mauvaises graines J'me rappelle... ce soir le frère nous a quitté trop vite Dans la bouteille-teille, mon frère j'ai cherché à combler ce vide Petit y a R-R, Thiery Henry, mon flow prend pas de rides J'suis dans le R-R, une paire de Nike Air, j'roule un joint de weed Aucun diplôme-plôme gros dans la rue j'apprends à me débrouiller J'roule un cône-cône gros dans le train j'apprends à dépouiller J'fais pas de chrome-chrome, tu payes cash ou tu fumes tabac roulé Eh ouais la darone-rone, j'ai braqué pour plus voir ses yeux mouillés Tétanos-nos, j'te braque avec toute sorte d'objets rouillés Sortez les cross-cross, la S.D.Y. est revenue fouiller C'est la West Coast-Coast, Banlieue Ouest, ils ont voulu me rafaler Et le fusio-sio se fait fumer par les petits qu'il a recalés J'croque le monde-monde, j'écarte le game et j'crache dans le cercle Si tu tombes-tombes, envois ton écrou que j'envoie l'oseille Mauvaises ondes-ondes, j'les ressens quand je passe avec mon fer Mixtape Sombre-Sombre écoute-la en allant niquer des mères Tout est sombre</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous On allait pécho pour eux, on a jamais oublié les conseils des anciens Grands, on s'est tapé pour eux, c'était risqué, on prenait les patins des anciens L'héroïne a fait son apparition puis d'un coup on enterrait les anciens On était petit, quelques années de prison plus tard on est devenu des anciens Ferme ta mère qu'est-ce que tu connais d'la rue ? Ferme tes fesses à part quand tu reviens du parlu' Mon bout de shit arrive du Rif khoya il fait des bulles Cherche le biff en pleine nuit comme un somnambule Certains sont morts une seringue dans les veines, d'autres sont devenus fous pendant leurs peines Les plus chanceux partent sans donner de nouvelle, ou bien sont sauvés par le son de l'adhan Gros mon contrôleur judiciaire n'est pas con, j'ai drogue dans les veines j'peux pas pisser dans le flacon Mère nous a quitté j'aurai pas son pardon, les keufs cassent la porte je vais sauter du balcon J'écoutais bien plus les conseils des anciens que ceux des rents-pa J'aime les meuf aux gros culs, chez moi y'a que les écrans qui sont plats Si on s'quitte c'est pas la faute à pas de chance non c'est celle de tes proches Bébé j't'ai jamais battue le violet n'est pas sous tes yeux mais dans tes poches You might also like Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous On allait pécho pour eux, on n'a jamais oublié les conseils des anciens Grand, on s'est tapé pour eux c'était risqué on prenait les patins des anciens L'héroïne a fait son apparition puis d'un coup on enterrait les anciens On était petit, quelques années de prison plus tard on est devenu des anciens Bicrave depuis tout petit je l'ai pas choisi, violets, verts J'avais des liasses de billets sous mon matelas moisi, niquer des mères Avec les re-frè c'était notre sport favori, été, hiver On vendait de la blanche toute la nuit aux gosses de riches, ça c'est clair, gros Bats les couilles de gagner les primaires, au poignet j'ai bracelet présidentiel Comme les re-frè antillais sortait breliqué chargé, les tirer au ciel Les meuf tournent autour de la ruche, normal sur la table j'ai mis du Jack et du miel Khoya j'suis nul en français mais quand tu m'parles de monnaie tu m'parles au pluriel Bats les yeuks bats les yeuks, bats les yeuks bats les yeuks 45 jours au mitard j'ai quelque chose dans mon boule mais j'ai pas les yeuf Bats les yeuks bats les yeuks, bats les yeuks bats les yeuks Pour une histoire de seuf, ils s'entre-tuent les reuf Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous1</t>
+          <t>Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous On allait pécho pour eux, on a jamais oublié les conseils des anciens Grands, on s'est tapé pour eux, c'était risqué, on prenait les patins des anciens L'héroïne a fait son apparition puis d'un coup on enterrait les anciens On était petit, quelques années de prison plus tard on est devenu des anciens Ferme ta mère qu'est-ce que tu connais d'la rue ? Ferme tes fesses à part quand tu reviens du parlu' Mon bout de shit arrive du Rif khoya il fait des bulles Cherche le biff en pleine nuit comme un somnambule Certains sont morts une seringue dans les veines, d'autres sont devenus fous pendant leurs peines Les plus chanceux partent sans donner de nouvelle, ou bien sont sauvés par le son de l'adhan Gros mon contrôleur judiciaire n'est pas con, j'ai drogue dans les veines j'peux pas pisser dans le flacon Mère nous a quitté j'aurai pas son pardon, les keufs cassent la porte je vais sauter du balcon J'écoutais bien plus les conseils des anciens que ceux des rents-pa J'aime les meuf aux gros culs, chez moi y'a que les écrans qui sont plats Si on s'quitte c'est pas la faute à pas de chance non c'est celle de tes proches Bébé j't'ai jamais battue le violet n'est pas sous tes yeux mais dans tes poches Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous On allait pécho pour eux, on n'a jamais oublié les conseils des anciens Grand, on s'est tapé pour eux c'était risqué on prenait les patins des anciens L'héroïne a fait son apparition puis d'un coup on enterrait les anciens On était petit, quelques années de prison plus tard on est devenu des anciens Bicrave depuis tout petit je l'ai pas choisi, violets, verts J'avais des liasses de billets sous mon matelas moisi, niquer des mères Avec les re-frè c'était notre sport favori, été, hiver On vendait de la blanche toute la nuit aux gosses de riches, ça c'est clair, gros Bats les couilles de gagner les primaires, au poignet j'ai bracelet présidentiel Comme les re-frè antillais sortait breliqué chargé, les tirer au ciel Les meuf tournent autour de la ruche, normal sur la table j'ai mis du Jack et du miel Khoya j'suis nul en français mais quand tu m'parles de monnaie tu m'parles au pluriel Bats les yeuks bats les yeuks, bats les yeuks bats les yeuks 45 jours au mitard j'ai quelque chose dans mon boule mais j'ai pas les yeuf Bats les yeuks bats les yeuks, bats les yeuks bats les yeuks Pour une histoire de seuf, ils s'entre-tuent les reuf Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous Khoya, ce soir jai le blues, mélange ma Gin et mon juice Au bando mal dans mes shoes, et j'me soigne à la Greygoose Bats les couilles, bats les couilles, bats les couilles, bats les couilles, bats les couilles Ils sont pas comme nous, comme nous, comme nous, comme nous, comme nous1</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Les bitches et les euros c'est ma life M'amènent trop d'ennemis Un gun à la main on en reparle Envoie les taros mon ami Les bitches et les euros c'est ma life M'amènent trop d'ennemis Ici les poucaves se font marave Man c'est sex drogue et ness-bui Le rap tourne en rond comme le périph', les emcees puent d'la chatte Tu sens l'odeur et même Tony Montana m'verse des droits d'auteur J'ai commencé dans la merde, j'mangeais la barquette Et ouais négro baisse les taros ou on te rackette tes plaquettes T'achètes un gros fer, mais t'achètes pas le respect On t'fournit pas la paire, de couilles avec le revolver Tu sais, j'attends ma condi', le boule plein d'résine Les daronnes attendent leurs tontines, les frères attendent leurs cantines J'écris sans zigzags mon flow va droit au but Anti kisdés, anti juges anti gros fils de putes J'ai commencé en chien sans thunes, les barreaux comme public La même équipe ma zik' te montre ses couilles elle n'est pas pudique Si t'es du genre à pleurer chez ton frère Viens pas traîner chez nous ou on va t'racketter ton fer Après 8 Mile on est plein d'Eminem Après Get Rich' affluent plein de p'tits Fifty, man ! You might also like Les bitches et les euros c'est ma life M'amènent trop d'ennemis Un gun à la main on en reparle Envoie les taros mon ami Les bitches et les euros c'est ma life M'amènent trop d'ennemis Ici les poucaves se font marave Man c'est sex drogue et ness-bui J'ai beau rapper comme un gun, ferme ta gueule J'lève les drapeaux tu vois l'topo, c'est pour les arab' et les khel T'fou, sur la banquette tu écartes Interdit aux fils de putes c'est inscrit sur la pancarte Le temps presse, en cellule le temps passe Sur la mesure ça sent la biture, les emcees ont besoin d'un tampax Très peu de diplômes, les plus chanceux ont un BAFA C'est pour les rabzouz comme Rim'k les vrais re-noi comme Booba La première fois que j'suis sorti d'taule j'avais 16 piges J'ai dit Va t'faire baiser ! quand l'juge m'a dit tu feras les TIG Tu vends d'la dope, et tu finis par en prendre T'as plus d'fric c'est pathétique comme un rappeur qu'a plus d'équipe 78 on lève le niveau, on lève les bons dits Les braqueurs soulèvent les banquiers, les keufs soulèvent les bandits Sois pas choqué man, j't'ai bien fait croquer 2007 fini d'clasher désormais on vient te toc-toquer Les bitches et les euros c'est ma life M'amènent trop d'ennemis Un gun à la main on en reparle Envoie les taros mon ami Les bitches et les euros c'est ma life M'amènent trop d'ennemis Ici les poucaves se font marave Man c'est sex drogue et ness-bui Violets, sont les hématomes sur tes bras J'relève ces putains d'empreintes, cousin le pe-ra s'est fait violer En de-s de-s j'balance une di-keus Mon son s'arrache comme un p'tit keus p'tit reuf, les emcees sont dangereux comme Titeuf J'sors de taule fusil à l'épaule Sean Paul fait danser les voyous, moi les mangeurs de cailloux, ok Et si le rap se barrait pas en cette-su Ça ferait longtemps que j'me serais fait tirer dessus J'suis Ballon d'Or comme Ronnie, je sors de Osny Arrête tes conneries, quand les mecs du 7.8 parlent lâche le cro-mi J'peux pas m'permettre de clasher certaines saucisses Au fond c'est comme si Jay-Z se mettait à clasher Will Smith re-fré Quand j'veux j'lève le niveau man Quand j'veux tu sais qui domine Morveux l'rap a mis un putain de gueux S'est fait des copines, Banlieue ouest ! Les bitches et les euros c'est ma life M'amènent trop d'ennemis Un gun à la main on en reparle Envoie les taros mon ami Les bitches et les euros c'est ma life M'amènent trop d'ennemis Ici les poucaves se font marave Man c'est sex drogue et ness-bui Buter une crêpe, une putain de mixtape On va t'niquer gros dèp, yeah yeah yeah yeah yeah Buter une crêpe, une putain de mixtape On va t'niquer gros dèp, yeah demande à La-La-La-Fouine Buter une crêpe, une putain de mixtape On va t'niquer gros dèp, yeah yeah yeah yeah yeah Buter une crêpe, une putain de mixtape On va t'niquer gros dèp, yeah demande à La-La-La-Fouine Paroles rédigées et expliquées par la communauté RapGenius France1</t>
+          <t>Les bitches et les euros c'est ma life M'amènent trop d'ennemis Un gun à la main on en reparle Envoie les taros mon ami Les bitches et les euros c'est ma life M'amènent trop d'ennemis Ici les poucaves se font marave Man c'est sex drogue et ness-bui Le rap tourne en rond comme le périph', les emcees puent d'la chatte Tu sens l'odeur et même Tony Montana m'verse des droits d'auteur J'ai commencé dans la merde, j'mangeais la barquette Et ouais négro baisse les taros ou on te rackette tes plaquettes T'achètes un gros fer, mais t'achètes pas le respect On t'fournit pas la paire, de couilles avec le revolver Tu sais, j'attends ma condi', le boule plein d'résine Les daronnes attendent leurs tontines, les frères attendent leurs cantines J'écris sans zigzags mon flow va droit au but Anti kisdés, anti juges anti gros fils de putes J'ai commencé en chien sans thunes, les barreaux comme public La même équipe ma zik' te montre ses couilles elle n'est pas pudique Si t'es du genre à pleurer chez ton frère Viens pas traîner chez nous ou on va t'racketter ton fer Après 8 Mile on est plein d'Eminem Après Get Rich' affluent plein de p'tits Fifty, man ! Les bitches et les euros c'est ma life M'amènent trop d'ennemis Un gun à la main on en reparle Envoie les taros mon ami Les bitches et les euros c'est ma life M'amènent trop d'ennemis Ici les poucaves se font marave Man c'est sex drogue et ness-bui J'ai beau rapper comme un gun, ferme ta gueule J'lève les drapeaux tu vois l'topo, c'est pour les arab' et les khel T'fou, sur la banquette tu écartes Interdit aux fils de putes c'est inscrit sur la pancarte Le temps presse, en cellule le temps passe Sur la mesure ça sent la biture, les emcees ont besoin d'un tampax Très peu de diplômes, les plus chanceux ont un BAFA C'est pour les rabzouz comme Rim'k les vrais re-noi comme Booba La première fois que j'suis sorti d'taule j'avais 16 piges J'ai dit Va t'faire baiser ! quand l'juge m'a dit tu feras les TIG Tu vends d'la dope, et tu finis par en prendre T'as plus d'fric c'est pathétique comme un rappeur qu'a plus d'équipe 78 on lève le niveau, on lève les bons dits Les braqueurs soulèvent les banquiers, les keufs soulèvent les bandits Sois pas choqué man, j't'ai bien fait croquer 2007 fini d'clasher désormais on vient te toc-toquer Les bitches et les euros c'est ma life M'amènent trop d'ennemis Un gun à la main on en reparle Envoie les taros mon ami Les bitches et les euros c'est ma life M'amènent trop d'ennemis Ici les poucaves se font marave Man c'est sex drogue et ness-bui Violets, sont les hématomes sur tes bras J'relève ces putains d'empreintes, cousin le pe-ra s'est fait violer En de-s de-s j'balance une di-keus Mon son s'arrache comme un p'tit keus p'tit reuf, les emcees sont dangereux comme Titeuf J'sors de taule fusil à l'épaule Sean Paul fait danser les voyous, moi les mangeurs de cailloux, ok Et si le rap se barrait pas en cette-su Ça ferait longtemps que j'me serais fait tirer dessus J'suis Ballon d'Or comme Ronnie, je sors de Osny Arrête tes conneries, quand les mecs du 7.8 parlent lâche le cro-mi J'peux pas m'permettre de clasher certaines saucisses Au fond c'est comme si Jay-Z se mettait à clasher Will Smith re-fré Quand j'veux j'lève le niveau man Quand j'veux tu sais qui domine Morveux l'rap a mis un putain de gueux S'est fait des copines, Banlieue ouest ! Les bitches et les euros c'est ma life M'amènent trop d'ennemis Un gun à la main on en reparle Envoie les taros mon ami Les bitches et les euros c'est ma life M'amènent trop d'ennemis Ici les poucaves se font marave Man c'est sex drogue et ness-bui Buter une crêpe, une putain de mixtape On va t'niquer gros dèp, yeah yeah yeah yeah yeah Buter une crêpe, une putain de mixtape On va t'niquer gros dèp, yeah demande à La-La-La-Fouine Buter une crêpe, une putain de mixtape On va t'niquer gros dèp, yeah yeah yeah yeah yeah Buter une crêpe, une putain de mixtape On va t'niquer gros dèp, yeah demande à La-La-La-Fouine Paroles rédigées et expliquées par la communauté RapGenius France1</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort Yeah, quoi d'neuf Fouiny baby ? A mon dernier packtage, libérable j'avais 20 piges C'est fou ce que les projets sont cotés et que le temps se fige J'aurais pu rester en bas, a vendre de la hija Niquer le halla halla, eh, eh, eh Dur de rester debout j'suis ce diamant dans la boue Tous dans la merde, on serre les coudes, les temps sont durs mais on tient le coup Car on vient des quartiers, on a jamais vu Saint-Tropez On traîne au foot en salle et on kiffe chanter qui peut me stopper Pour eux mon frère, on reste le projet des banlieues On reve de sortir l'Aston Martin, mais même sans fric on reste heureux On a tous en nous cet or ,ouais tous en nous cet or Numéro 1 dans le rap et le sport, dieu merci on dort pas dehors Ici on a ce truc qui vaut de l'or On est pas bien chez nous, alors on traîne dehors Ici on a ce truc qui vaut de l'or, qui vaut de l'or You might also like On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort On a tous en nous cet or et le ciel est la limite J'ai l'argent qui dort, mais les problèmes se réveillent si vite Souvent on perd un ami proche mais jamais nos couilles Parfois on parle avec les mains, parfois avec nos douilles Mon son a traversé les frontières, il brille dans le noir Il vit en eux, il porte la jeunesse, man il donne espoir Enfant du rap, j'l'ai appris au fond d'une cellule Bienvenue dans mon quartier, ou laisse l'espoir a pris la pilule Famille nombreuse, trop de ménages a la son-mai, trop de vaisselle Les soeurs trouvent plus de boulot même avec une tonne de ressel J'suis sur écoute, j'entends trop de bruits sur mon portable Si j'me balade avec mon flow, je peux bé-tom pour port d'arme Ici on a ce truc qui vaut de l'or On est pas bien chez nous, alors on traîne dehors Ici on a ce truc qui vaut de l'or, qui vaut de l'or On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort</t>
+          <t>On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort Yeah, quoi d'neuf Fouiny baby ? A mon dernier packtage, libérable j'avais 20 piges C'est fou ce que les projets sont cotés et que le temps se fige J'aurais pu rester en bas, a vendre de la hija Niquer le halla halla, eh, eh, eh Dur de rester debout j'suis ce diamant dans la boue Tous dans la merde, on serre les coudes, les temps sont durs mais on tient le coup Car on vient des quartiers, on a jamais vu Saint-Tropez On traîne au foot en salle et on kiffe chanter qui peut me stopper Pour eux mon frère, on reste le projet des banlieues On reve de sortir l'Aston Martin, mais même sans fric on reste heureux On a tous en nous cet or ,ouais tous en nous cet or Numéro 1 dans le rap et le sport, dieu merci on dort pas dehors Ici on a ce truc qui vaut de l'or On est pas bien chez nous, alors on traîne dehors Ici on a ce truc qui vaut de l'or, qui vaut de l'or On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort On a tous en nous cet or et le ciel est la limite J'ai l'argent qui dort, mais les problèmes se réveillent si vite Souvent on perd un ami proche mais jamais nos couilles Parfois on parle avec les mains, parfois avec nos douilles Mon son a traversé les frontières, il brille dans le noir Il vit en eux, il porte la jeunesse, man il donne espoir Enfant du rap, j'l'ai appris au fond d'une cellule Bienvenue dans mon quartier, ou laisse l'espoir a pris la pilule Famille nombreuse, trop de ménages a la son-mai, trop de vaisselle Les soeurs trouvent plus de boulot même avec une tonne de ressel J'suis sur écoute, j'entends trop de bruits sur mon portable Si j'me balade avec mon flow, je peux bé-tom pour port d'arme Ici on a ce truc qui vaut de l'or On est pas bien chez nous, alors on traîne dehors Ici on a ce truc qui vaut de l'or, qui vaut de l'or On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort On a tous en nous cet or Ce petit truc qui nous rend plus fort Yeah, on a tous en nous cet or Cette lumière dans les yeux qui brille, nous rend plus fort</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Est-ce que tu m'aimes au moins un peu ? Est-ce que ça serre à quelque chose ? Si j'cogite avec mon joint d'beuh et que la bouteille plaide ta cause J'veux pas finir comme le poto, qui croyait avoir touché l'gros lot Mais ça sentait pas l'Marionnaud, elle l'a quittée pour un joueur d'Bordeaux Et je cogite, et je cogite, et je cogite oui, ouais je bedave, ouais je bedave sur mon joint de weed Si j'prends vingt piges m'attendras-tu ? Ou j'te retrouverai entourée d'Mathus ? Es-tu ma femme ou es-tu ma pute ? Ou celle qui causera ma chute ? Tu fais ton chemin et j'fais l'mien, c'est mieux comme ça T'es une fille bien et si tu reviens, j'serai mieux qu'l'autre fois Faire mon oseille, m'empêche de cogiter, et tes copines, elles ont tirées sur notre amour RIP Tes je t'aime, j'les entends comme un sourd J'fais des millions, on verra plus tard pour l'amour Et si j'meurs, rappelles-toi de mon parcours Soit t'es ma hlel, soit t'es ma roue de secours Tes je t'aime, j'les entends comme un sourd J'fais des millions, on verra plus tard pour l'amour Et si j'meurs, rappelles-toi de mon parcours Soit t'es ma hlel, soit t'es ma roue de secours Faut qu'j'trouve Dieu avant qu'il m'trouve, non j'ai plus l'temps d'faire le youv En public lâches-moi la main, j'ai pas envie d'faire leurs couvs' Et quand j'vois tes yeux briller, comme ce que j'ai autour du cou Si j'te passe la bague au doigt, ne me pose pas la corde au cou Et je t'évites, et je t'évites, et je t'évites oui, ça me consume, ça me consume, comme mon joint de weed J'aime ta personnalité, mais le soir j'préfère ton cul, pas d'mercato cet été, je te l'jure, non pas de nouvelle recrue Si j'fais l'fou, viendras-tu me voir au parlu' ? J't'aimerai quand tu seras plus cotée à l'Argus J'suis pas eux, t'es pas elle, ils sont pas nous, j'crains que Dieu, ni la mort, ni les coups You might also like Tes je t'aime, j'les entends comme un sourd J'fais des millions, on verra plus tard pour l'amour Et si j'meurs, rappelles-toi de mon parcours Soit t'es ma hlel, soit t'es ma roue de secours Tes je t'aime, j'les entends comme un sourd J'fais des millions, on verra plus tard pour l'amour Et si j'meurs, rappelles-toi de mon parcours Soit t'es ma hlel, soit t'es ma roue de secours J'croyais en rien, j'avais un gun dans mon bouquet Même en enfer l'sheitan voulait me booker T'étais la seule qui me soutenait au parquet T'es belle en Fenty, j'te préfère en Myriam K1</t>
+          <t>Est-ce que tu m'aimes au moins un peu ? Est-ce que ça serre à quelque chose ? Si j'cogite avec mon joint d'beuh et que la bouteille plaide ta cause J'veux pas finir comme le poto, qui croyait avoir touché l'gros lot Mais ça sentait pas l'Marionnaud, elle l'a quittée pour un joueur d'Bordeaux Et je cogite, et je cogite, et je cogite oui, ouais je bedave, ouais je bedave sur mon joint de weed Si j'prends vingt piges m'attendras-tu ? Ou j'te retrouverai entourée d'Mathus ? Es-tu ma femme ou es-tu ma pute ? Ou celle qui causera ma chute ? Tu fais ton chemin et j'fais l'mien, c'est mieux comme ça T'es une fille bien et si tu reviens, j'serai mieux qu'l'autre fois Faire mon oseille, m'empêche de cogiter, et tes copines, elles ont tirées sur notre amour RIP Tes je t'aime, j'les entends comme un sourd J'fais des millions, on verra plus tard pour l'amour Et si j'meurs, rappelles-toi de mon parcours Soit t'es ma hlel, soit t'es ma roue de secours Tes je t'aime, j'les entends comme un sourd J'fais des millions, on verra plus tard pour l'amour Et si j'meurs, rappelles-toi de mon parcours Soit t'es ma hlel, soit t'es ma roue de secours Faut qu'j'trouve Dieu avant qu'il m'trouve, non j'ai plus l'temps d'faire le youv En public lâches-moi la main, j'ai pas envie d'faire leurs couvs' Et quand j'vois tes yeux briller, comme ce que j'ai autour du cou Si j'te passe la bague au doigt, ne me pose pas la corde au cou Et je t'évites, et je t'évites, et je t'évites oui, ça me consume, ça me consume, comme mon joint de weed J'aime ta personnalité, mais le soir j'préfère ton cul, pas d'mercato cet été, je te l'jure, non pas de nouvelle recrue Si j'fais l'fou, viendras-tu me voir au parlu' ? J't'aimerai quand tu seras plus cotée à l'Argus J'suis pas eux, t'es pas elle, ils sont pas nous, j'crains que Dieu, ni la mort, ni les coups Tes je t'aime, j'les entends comme un sourd J'fais des millions, on verra plus tard pour l'amour Et si j'meurs, rappelles-toi de mon parcours Soit t'es ma hlel, soit t'es ma roue de secours Tes je t'aime, j'les entends comme un sourd J'fais des millions, on verra plus tard pour l'amour Et si j'meurs, rappelles-toi de mon parcours Soit t'es ma hlel, soit t'es ma roue de secours J'croyais en rien, j'avais un gun dans mon bouquet Même en enfer l'sheitan voulait me booker T'étais la seule qui me soutenait au parquet T'es belle en Fenty, j'te préfère en Myriam K1</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Musique rap, ils tont niqué ta mère Jsuis venu trop tard et jtai trouvé à terre Comme une épave là sans aucun repère Jy vois plus rien moi sans ta lumière Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Yah, yah Jétais petit, javais les crocs, jvoulais signer chez les pros Plus tard jvoulais vendre en gros, quitter lbus, adieu lmetro Jfaisais les courses à ED, les grands faisaient des OD Jtraine avec les rescapés, jai même pas le niveau CAP Les keufs passaient tôt lmatin, toujours à lheure dla chicorée Khoya la vie cest comme une teuch, il faut savoir la picorer À lépoque javais rien à perdre, à lépoque javais rien à faire Jfumais la résine dans mon fer, perdu sans aucun repère Puis un jour jtai rencontré, ce jour là, tout à changé Tu m'accompagnais partout, au square, en taule, en GAV Je te couchais sur une feuille, tu méloignais du cercueil Moi je marchais sur tes pas, quand les autres me jetaient loeil Je tai aimé nuit et jour, jétais pas là pour largent Tu mas sorti du quartier, tu mas fait rentrer chez Cartier Quand jte vois agoniser, tfou je crache sur la relève Jai mal pour ce quils tont fait, jprie pour que tu te relèves You might also like Musique rap, ils tont niqué ta mère Jsuis venu trop tard et jtai trouvé à terre Comme une épave là sans aucun repère Jy vois plus rien moi sans ta lumière Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Yah yah Rap français, ils ont vendu ton âme, rap français, tout ça me hante Tas troqué les salles de concert pour deux, trois clubs, une chicha menthe Jparle de toi à limparfait, jsais ce monde est imparfait Ce qui tarrive wAllah cest chaud, jcrois que tas joué dans Cosby Show Eh mets de lautotune, on va faire des tunes Putain cest devenu une vraie musique de fils de pute Et jai rêvé dtoi cette nuit, tétais dans les bras dKery, tout allait bien mais Rap ils t'ont niqué ta mère, kho ils tont laissé par terre Ils tont cassé tous les os, je lai vu dans le scanner Moi je taime comme à lépoque, ça nous deux nous le savons Hier soir jtai bouffé la shneck, mais ça sentait le savon Musique rap, ils tont niqué ta mère Jsuis venu trop tard et jtai trouvé à terre Comme une épave là sans aucun repère Jy vois plus rien moi sans ta lumière Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Yah Toi et moi cest pas un jeu, même sils appellent ça le game Jpense à ton passé glorieux, jsuis venu toffrir des chrysanthèmes Aujourdhui cest qui vend le plus, rien à foutre de la plus belle plume Rien que ça stream et rien que ça suce, t'ont prostitué pour deux, trois tubes Les vrais écouteront ce son, ils mdiront Fouiny tes dans lvrai La belle époque ou tu rayonnais quand on sbaladait à Châtelet Putain tes dents ont jaunies, je tai vu à lagonie Sans aucun bruit tu es parti, tas pas eu les obsèques de Johnny Tu tes fais zougloutiser, les levrettes ont pas laché Jles ai vu à ton chevet, tenter dte réanimer Des vrais comme Fianso, Sadek, Hamza, Kalash Criminel Au début le rap cétait ma pute, mais jsuis tombé amoureux delle Musique rap, ils tont niqué ta mère Jsuis venu trop tard et jtai trouvé à terre Comme une épave là sans aucun repère Jy vois plus rien moi sans ta lumière Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère</t>
+          <t>Musique rap, ils tont niqué ta mère Jsuis venu trop tard et jtai trouvé à terre Comme une épave là sans aucun repère Jy vois plus rien moi sans ta lumière Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Yah, yah Jétais petit, javais les crocs, jvoulais signer chez les pros Plus tard jvoulais vendre en gros, quitter lbus, adieu lmetro Jfaisais les courses à ED, les grands faisaient des OD Jtraine avec les rescapés, jai même pas le niveau CAP Les keufs passaient tôt lmatin, toujours à lheure dla chicorée Khoya la vie cest comme une teuch, il faut savoir la picorer À lépoque javais rien à perdre, à lépoque javais rien à faire Jfumais la résine dans mon fer, perdu sans aucun repère Puis un jour jtai rencontré, ce jour là, tout à changé Tu m'accompagnais partout, au square, en taule, en GAV Je te couchais sur une feuille, tu méloignais du cercueil Moi je marchais sur tes pas, quand les autres me jetaient loeil Je tai aimé nuit et jour, jétais pas là pour largent Tu mas sorti du quartier, tu mas fait rentrer chez Cartier Quand jte vois agoniser, tfou je crache sur la relève Jai mal pour ce quils tont fait, jprie pour que tu te relèves Musique rap, ils tont niqué ta mère Jsuis venu trop tard et jtai trouvé à terre Comme une épave là sans aucun repère Jy vois plus rien moi sans ta lumière Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Yah yah Rap français, ils ont vendu ton âme, rap français, tout ça me hante Tas troqué les salles de concert pour deux, trois clubs, une chicha menthe Jparle de toi à limparfait, jsais ce monde est imparfait Ce qui tarrive wAllah cest chaud, jcrois que tas joué dans Cosby Show Eh mets de lautotune, on va faire des tunes Putain cest devenu une vraie musique de fils de pute Et jai rêvé dtoi cette nuit, tétais dans les bras dKery, tout allait bien mais Rap ils t'ont niqué ta mère, kho ils tont laissé par terre Ils tont cassé tous les os, je lai vu dans le scanner Moi je taime comme à lépoque, ça nous deux nous le savons Hier soir jtai bouffé la shneck, mais ça sentait le savon Musique rap, ils tont niqué ta mère Jsuis venu trop tard et jtai trouvé à terre Comme une épave là sans aucun repère Jy vois plus rien moi sans ta lumière Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Yah Toi et moi cest pas un jeu, même sils appellent ça le game Jpense à ton passé glorieux, jsuis venu toffrir des chrysanthèmes Aujourdhui cest qui vend le plus, rien à foutre de la plus belle plume Rien que ça stream et rien que ça suce, t'ont prostitué pour deux, trois tubes Les vrais écouteront ce son, ils mdiront Fouiny tes dans lvrai La belle époque ou tu rayonnais quand on sbaladait à Châtelet Putain tes dents ont jaunies, je tai vu à lagonie Sans aucun bruit tu es parti, tas pas eu les obsèques de Johnny Tu tes fais zougloutiser, les levrettes ont pas laché Jles ai vu à ton chevet, tenter dte réanimer Des vrais comme Fianso, Sadek, Hamza, Kalash Criminel Au début le rap cétait ma pute, mais jsuis tombé amoureux delle Musique rap, ils tont niqué ta mère Jsuis venu trop tard et jtai trouvé à terre Comme une épave là sans aucun repère Jy vois plus rien moi sans ta lumière Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère Musique rap, ils tont niqué ta mère</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Yeah ! Hey, hey, hey Quoi d'neuf Fouiny Baby ? Yeah ! Hey, hey Hey, hey C'est ça Hey Si on t'a rotte-ca ton shit négro on s'en bat les couilles Quand les keufs sont trop speed négro on s'en bat les couilles Pose la 'teille, on prend un VIP négro on s'en bat les couilles Laisse la donc finir son strip négro on s'en bat les couilles On l'a géré d'vant son keum négro on s'en bat les couilles Coupe le son, j'veux mon cut je m'en bats les couilles Tu peux finir dans ma fête négro on s'en bat les couilles Sur le square on fume de l'herbe, t'sais pas ce qu'on te réserve Pourquoi sortir le gamos man si tu roules en réserve ? On s'en bat les couilles, on fait parler les douilles Ce soir c'est privé, c'est gangster, faut s'taire, on sort les fers elles mouillent Les rappeurs ont pris trois mois, se prennent pour Michael Scofield Bâtiment F, deuxième étage, tu peux me joindre sur mon sans fil J'fais de l'art, le keuf s'est pris un p-penalty meskine Avec son sang j'vais repeindre mon nouveau P-Polo meskine Rebeu si je meurs, prenez ma voix, faites en des dons d'organe J'partirai d'une balle dans l'dos dans l'lit d'Clara Morgane -gane Les rappeurs portent plainte plainte, elles ont honte, crainte Je deale d'la dope, pas du sum, moi je baise sur du zouk You might also like Si on t'a rotte-ca ton shit négro on s'en bat les couilles Quand les keufs sont trop speed négro on s'en bat les couilles Pose la 'teille, on prend un VIP négro on s'en bat les couilles Laisse la donc finir son strip négro on s'en bat les couilles On l'a géré d'vant son keum négro on s'en bat les couilles Coupe le son, j'veux mon cut je m'en bats les couilles Tu peux finir dans ma fête négro on s'en bat les couilles Apprends, j'ai un plan, lâche ta bouteille d'Clan On fout le désordre chez les forces de l'ordre, y'a plus d'petits, ni d'grands, nan On s'en bat les couilles, on fait parler les douilles Oh my God, c'est mort mon pote, les godes sont trouvés dans ta fouille C'est la merde, j'fais des bes-tu sans baisser mon calcif Et puis j'ai-j'ai-j'ai une 'tasses à chaque porte du périph' On fait du chiffre, on fait des sous, on prend du bif', tu prends des gifles Se balader broliké voilà c'que c'est qu'd'avoir un bif', c'est la merde mais Laisse les parler, juste une balle, ça peut mal aller Laisse les se faire recaler interdit aux poucaves Laisse les parler, juste une balle, ça peut mal aller On finit en soirée privée, ils finissent dans la cave Fracasse le beat, flow équipé AMG Et depuis qu'j'ai signé les RG surveillent BMG Ici les bitchs et les euros, il en faut faut Les millions posés sur la table, négro je les vaux vaux, ils disent que d'la merde Laisse les parler, juste une balle, ça peut mal aller Laisse les se faire recaler interdit aux poucaves Laisse les parler, juste une balle, ça peut mal aller On fini en soirée privée, ils finissent dans la cave Si on t'a rotte-ca ton shit négro on s'en bat les couilles Quand les keufs sont trop speed négro on s'en bat les couilles Pose la 'teille, on prend un VIP négro on s'en bat les couilles Laisse la donc finir son strip négro on s'en bat les couilles On l'a géré d'vant son keum négro on s'en bat les couilles Coupe le son, j'veux mon cut je m'en bat les couilles Tu peux finir dans ma fête négro on s'en bat les couilles Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Yeah ! Hey, hey, hey Quoi d'neuf Fouiny Baby ? Yeah ! Hey, hey Hey, hey C'est ça Hey Si on t'a rotte-ca ton shit négro on s'en bat les couilles Quand les keufs sont trop speed négro on s'en bat les couilles Pose la 'teille, on prend un VIP négro on s'en bat les couilles Laisse la donc finir son strip négro on s'en bat les couilles On l'a géré d'vant son keum négro on s'en bat les couilles Coupe le son, j'veux mon cut je m'en bats les couilles Tu peux finir dans ma fête négro on s'en bat les couilles Sur le square on fume de l'herbe, t'sais pas ce qu'on te réserve Pourquoi sortir le gamos man si tu roules en réserve ? On s'en bat les couilles, on fait parler les douilles Ce soir c'est privé, c'est gangster, faut s'taire, on sort les fers elles mouillent Les rappeurs ont pris trois mois, se prennent pour Michael Scofield Bâtiment F, deuxième étage, tu peux me joindre sur mon sans fil J'fais de l'art, le keuf s'est pris un p-penalty meskine Avec son sang j'vais repeindre mon nouveau P-Polo meskine Rebeu si je meurs, prenez ma voix, faites en des dons d'organe J'partirai d'une balle dans l'dos dans l'lit d'Clara Morgane -gane Les rappeurs portent plainte plainte, elles ont honte, crainte Je deale d'la dope, pas du sum, moi je baise sur du zouk Si on t'a rotte-ca ton shit négro on s'en bat les couilles Quand les keufs sont trop speed négro on s'en bat les couilles Pose la 'teille, on prend un VIP négro on s'en bat les couilles Laisse la donc finir son strip négro on s'en bat les couilles On l'a géré d'vant son keum négro on s'en bat les couilles Coupe le son, j'veux mon cut je m'en bats les couilles Tu peux finir dans ma fête négro on s'en bat les couilles Apprends, j'ai un plan, lâche ta bouteille d'Clan On fout le désordre chez les forces de l'ordre, y'a plus d'petits, ni d'grands, nan On s'en bat les couilles, on fait parler les douilles Oh my God, c'est mort mon pote, les godes sont trouvés dans ta fouille C'est la merde, j'fais des bes-tu sans baisser mon calcif Et puis j'ai-j'ai-j'ai une 'tasses à chaque porte du périph' On fait du chiffre, on fait des sous, on prend du bif', tu prends des gifles Se balader broliké voilà c'que c'est qu'd'avoir un bif', c'est la merde mais Laisse les parler, juste une balle, ça peut mal aller Laisse les se faire recaler interdit aux poucaves Laisse les parler, juste une balle, ça peut mal aller On finit en soirée privée, ils finissent dans la cave Fracasse le beat, flow équipé AMG Et depuis qu'j'ai signé les RG surveillent BMG Ici les bitchs et les euros, il en faut faut Les millions posés sur la table, négro je les vaux vaux, ils disent que d'la merde Laisse les parler, juste une balle, ça peut mal aller Laisse les se faire recaler interdit aux poucaves Laisse les parler, juste une balle, ça peut mal aller On fini en soirée privée, ils finissent dans la cave Si on t'a rotte-ca ton shit négro on s'en bat les couilles Quand les keufs sont trop speed négro on s'en bat les couilles Pose la 'teille, on prend un VIP négro on s'en bat les couilles Laisse la donc finir son strip négro on s'en bat les couilles On l'a géré d'vant son keum négro on s'en bat les couilles Coupe le son, j'veux mon cut je m'en bat les couilles Tu peux finir dans ma fête négro on s'en bat les couilles Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>C'est un bâtiment bleu Adossé à la colline On y va en fourgon On ne frappe pas Ceux qui vivent là N'ont jamais eu les clefs On se retrouve enfin Après tant d'années d'exil Autour d'un repas Des feuilles à rouler On s'rappelle le temps Où on était la-bas Quand toutes les portes se ferment Quand toutes les lumières s'éteignent Je pense à vous Ou êtes vous ? Moussa et Sam Redouane Attendez moi Aucune larme n'a coulée Car la vie est ainsi faite Plus on tombe de haut Mieux on se relève Ainsi va la vie Ainsi vont nos rêves Un autre arrivera Pour nous dire des nouvelles Du sursis tombé Certains ont fait appel Déprimant le soir Le courrier se fait rare You might also like Quand toutes les portes se ferment Quand toutes les lumières s'éteignent Je pense à vous Ou êtes vous ? Moussa et Sam Redouane Attendez moi C'est un bâtiment bleu Accrochée à ma mémoire On y allé en fourgon On y frappe pas Quand on y vivait la-bas On avait pas les clefs On se retrouve ensemble Après tant d'années de doutes Quelques débris d'espoir Les numéros d'écrous On est devenu des hommes Enfin on est devenu... C'est tout Quand toutes les portes se ferment Quand toutes les lumières s'éteignent Je pense à vous Ou êtes vous ? Moussa et Sam Redouane Pardonnez-moi</t>
+          <t>C'est un bâtiment bleu Adossé à la colline On y va en fourgon On ne frappe pas Ceux qui vivent là N'ont jamais eu les clefs On se retrouve enfin Après tant d'années d'exil Autour d'un repas Des feuilles à rouler On s'rappelle le temps Où on était la-bas Quand toutes les portes se ferment Quand toutes les lumières s'éteignent Je pense à vous Ou êtes vous ? Moussa et Sam Redouane Attendez moi Aucune larme n'a coulée Car la vie est ainsi faite Plus on tombe de haut Mieux on se relève Ainsi va la vie Ainsi vont nos rêves Un autre arrivera Pour nous dire des nouvelles Du sursis tombé Certains ont fait appel Déprimant le soir Le courrier se fait rare Quand toutes les portes se ferment Quand toutes les lumières s'éteignent Je pense à vous Ou êtes vous ? Moussa et Sam Redouane Attendez moi C'est un bâtiment bleu Accrochée à ma mémoire On y allé en fourgon On y frappe pas Quand on y vivait la-bas On avait pas les clefs On se retrouve ensemble Après tant d'années de doutes Quelques débris d'espoir Les numéros d'écrous On est devenu des hommes Enfin on est devenu... C'est tout Quand toutes les portes se ferment Quand toutes les lumières s'éteignent Je pense à vous Ou êtes vous ? Moussa et Sam Redouane Pardonnez-moi</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Vaulx-en-Velin vida loca, de la pure dans le bocal Maître Screve mon avocat, Algérien comme Apoka Jouvre la bouche cage-Vocal, dans lviseur que des bâtards Jfume ta mère jrentre au placard, jencule les deks' et les poucaves Que des mathus sur la ble-ta, tu mas vu moi jte vois pas Dans lcarré VIP la Banlieue Sale, 3.5.7 sous la ceintura Benzema crochet, coup du foulard, 69 sur la que-pla Mes kheys sont chauds rien quça quer-bra, un regard de trop jte dis khamsa On veut lmillion et s'barrer dlà, staper les kahbas de Dar-el-beida La bonne frappe de Ketama, tous mes harbis à Marbella En train d'negocier la selh3a , pour monter lshit faut des qelwas 2.50 dans le RS3, un regard de trop jte dis khamsa On va les baiser... Une balle dans lgenou gauche, tsais sur quel pied danser À part ton flow par la fenêtre, nan jai rien balancé Ramène la juge quon la touse-par Attaque soviétique, rlah, pousse-toi Yaura des blessés, yaura des blessés Laisse pas ton fils sortir csoir yaura des blessés Yaura des blessés, yaura des blessés Laisse pas ta pouf venir au showcase on va la baiser Allez, dis-moi où sont les lovés Ah ouais, jvais commencer par les mollets On est venus innover Ça vient dVaulx, Darino Ratatata dans ta vitre, 6.9 un-deux costaud On tallume quand tu sors du rt-spo, dans un dîner couple au restau Kala, Kala dans la tête des petits, aucun câlin avant de dormir Tu veux la pillave tu sors dgardav, triquare comme un rat d'la Part-Dav' Un bon taff Dur dur à trouver comme une feuille OCB en fin drée-soi Ya plus dvodka chez lépicier, tu tes fini au Rhum-Coca À quand la villa sous léquateur ? Cest du porno le morceau est sur Brazzers You might also like Une balle dans lgenou gauche, tsais sur quel pied danser À part ton flow par la fenêtre, nan jai rien balancé Ramène la juge quon la touse-par Attaque soviétique, rlah, pousse-toi Yaura des blessés, yaura des blessés Laisse pas ton fils sortir csoir yaura des blessés Yaura des blessés, yaura des blessés Laisse pas ta pouf venir au showcase on va la baiser Yeah, GSX, skurt Banlieue Sale Yaura des blessés hélas Jrachète ton contrat, jai lflow à Aulas</t>
+          <t>Vaulx-en-Velin vida loca, de la pure dans le bocal Maître Screve mon avocat, Algérien comme Apoka Jouvre la bouche cage-Vocal, dans lviseur que des bâtards Jfume ta mère jrentre au placard, jencule les deks' et les poucaves Que des mathus sur la ble-ta, tu mas vu moi jte vois pas Dans lcarré VIP la Banlieue Sale, 3.5.7 sous la ceintura Benzema crochet, coup du foulard, 69 sur la que-pla Mes kheys sont chauds rien quça quer-bra, un regard de trop jte dis khamsa On veut lmillion et s'barrer dlà, staper les kahbas de Dar-el-beida La bonne frappe de Ketama, tous mes harbis à Marbella En train d'negocier la selh3a , pour monter lshit faut des qelwas 2.50 dans le RS3, un regard de trop jte dis khamsa On va les baiser... Une balle dans lgenou gauche, tsais sur quel pied danser À part ton flow par la fenêtre, nan jai rien balancé Ramène la juge quon la touse-par Attaque soviétique, rlah, pousse-toi Yaura des blessés, yaura des blessés Laisse pas ton fils sortir csoir yaura des blessés Yaura des blessés, yaura des blessés Laisse pas ta pouf venir au showcase on va la baiser Allez, dis-moi où sont les lovés Ah ouais, jvais commencer par les mollets On est venus innover Ça vient dVaulx, Darino Ratatata dans ta vitre, 6.9 un-deux costaud On tallume quand tu sors du rt-spo, dans un dîner couple au restau Kala, Kala dans la tête des petits, aucun câlin avant de dormir Tu veux la pillave tu sors dgardav, triquare comme un rat d'la Part-Dav' Un bon taff Dur dur à trouver comme une feuille OCB en fin drée-soi Ya plus dvodka chez lépicier, tu tes fini au Rhum-Coca À quand la villa sous léquateur ? Cest du porno le morceau est sur Brazzers Une balle dans lgenou gauche, tsais sur quel pied danser À part ton flow par la fenêtre, nan jai rien balancé Ramène la juge quon la touse-par Attaque soviétique, rlah, pousse-toi Yaura des blessés, yaura des blessés Laisse pas ton fils sortir csoir yaura des blessés Yaura des blessés, yaura des blessés Laisse pas ta pouf venir au showcase on va la baiser Yeah, GSX, skurt Banlieue Sale Yaura des blessés hélas Jrachète ton contrat, jai lflow à Aulas</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>x2 Tous les chemins, toutes les voies Quand se fermaient toutes les portes J'ai combattu, battu Tous ces signes que l'on voit Toutes ces épreuves, peu importe Oui, je sais Et pour en arriver là J'ai dû partir loin de toi Loin de ma vie, de nos vies Seul là-bas J'ai dû partir, apprendre à rester fort Pour en arriver là J'ai dû faire de nombreux sacrifices Ma mère vous dira qu'elle a un sacré fils J'ai dû affronter tout seul des armées J'ai perdu, j'ai gagné, j'ai dû m'armer J'ai ramé, j'suis tombé, je me suis relevé Pour croire en ce que je fais, j'ai dû rêver J'ai dû faire face aux échecs, face à l'adversité Hachek, mon cul j'l'ai pas donné J'ai pas oublié, mais j'ai pardonné Les jaloux c'est grâce à vous que j'ai cartonné J'ai dû zapper des gens, j'ai dû les mettre d'côté J'ai dû sacrifier mon temps pour être un mec côté J'ai dû traverser l'désert assoiffé Les galères et les misères ne m'ont que renforcé J'ai fait des choix, j'ai fait des erreurs, j'ai dû foncer J'ai dû faire face à des portes, j'ai dû les défoncer You might also like J'ai dû avancer sans regret, sans me retourner J'ai cravaché, j'ai taffé d'arrache pied J'ai lutté, sans réfléchir, buté J'me suis incrusté, imposé, même amputé J'avais deux femmes la solitude et la pauvreté J'ai dû m'couper du Monde, j'ai dû m'déconnecter J'ai dû t'quitter, j'ai dû être sans pitié Sans pitié, y a qu'sur moi que j'pouvais compter J'ai dû braver les épreuves, j'ai dû les accepter J'ai braver les interdits, j'ai dû y accéder J'ai toujours continué, je me suis pas arrêté Avec fierté, même si personne me supportait J'ai grimpé pour un jour voir le sommet Fatigué, à bout d'souffle, et j'ai jamais lâché J'ai fait des choix, j'ai fait des erreurs, j'ai dû foncer J'ai dû faire face à des portes, j'ai dû les défoncer Paroles rédigées et expliquées par la communauté Rap Genius France</t>
+          <t>x2 Tous les chemins, toutes les voies Quand se fermaient toutes les portes J'ai combattu, battu Tous ces signes que l'on voit Toutes ces épreuves, peu importe Oui, je sais Et pour en arriver là J'ai dû partir loin de toi Loin de ma vie, de nos vies Seul là-bas J'ai dû partir, apprendre à rester fort Pour en arriver là J'ai dû faire de nombreux sacrifices Ma mère vous dira qu'elle a un sacré fils J'ai dû affronter tout seul des armées J'ai perdu, j'ai gagné, j'ai dû m'armer J'ai ramé, j'suis tombé, je me suis relevé Pour croire en ce que je fais, j'ai dû rêver J'ai dû faire face aux échecs, face à l'adversité Hachek, mon cul j'l'ai pas donné J'ai pas oublié, mais j'ai pardonné Les jaloux c'est grâce à vous que j'ai cartonné J'ai dû zapper des gens, j'ai dû les mettre d'côté J'ai dû sacrifier mon temps pour être un mec côté J'ai dû traverser l'désert assoiffé Les galères et les misères ne m'ont que renforcé J'ai fait des choix, j'ai fait des erreurs, j'ai dû foncer J'ai dû faire face à des portes, j'ai dû les défoncer J'ai dû avancer sans regret, sans me retourner J'ai cravaché, j'ai taffé d'arrache pied J'ai lutté, sans réfléchir, buté J'me suis incrusté, imposé, même amputé J'avais deux femmes la solitude et la pauvreté J'ai dû m'couper du Monde, j'ai dû m'déconnecter J'ai dû t'quitter, j'ai dû être sans pitié Sans pitié, y a qu'sur moi que j'pouvais compter J'ai dû braver les épreuves, j'ai dû les accepter J'ai braver les interdits, j'ai dû y accéder J'ai toujours continué, je me suis pas arrêté Avec fierté, même si personne me supportait J'ai grimpé pour un jour voir le sommet Fatigué, à bout d'souffle, et j'ai jamais lâché J'ai fait des choix, j'ai fait des erreurs, j'ai dû foncer J'ai dû faire face à des portes, j'ai dû les défoncer Paroles rédigées et expliquées par la communauté Rap Genius France</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Maman, maman, maman, maman Je n'sais pas comment t'as pu faire Stoppe-les, dis-moi comment, comment, comment T'as su protéger mes arrières Dans ces moments, moments, moments, moments Où j'ai tout dit, tout fait de travers Mais la vie c'est donnant-donnant, donnant-donnant Et si c'était à refaire Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière J'vais pas t'faire un roman, roman, roman, roman J'veux pas jouer le rôle du grand frère Tu mens à tes parents, parents, parents, parents Tu prends tout ça à la légère Mais dans dix ans, dix ans, dix ans, dix ans Tu regarderas en arrière Tu te diras souvent, souvent, souvent, souvent Et si c'était à refaire? You might also like Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière-ère, Ayrton aurait dû freiner J'me rappelle de maman les mains pleines de henné Le regard trop peiné, les mains pleines de larmes Machine arrière, j'aurais surement posé cette arme Hnin mais mon cur s'est fait cambrioler Depuis J.F.K, j'monte plus dans un cabriolet Parfois, vaut mieux reculer pour prendre de l'élan J'ai fait marche arrière pour aller de l'avant, machine arrière Machine arrière, revenir un instant Et dire à sa mère tant qu'il est encore temps Qu'elle est un repère qu'il nous manque à présent Ouh oh, ouh oh Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière</t>
+          <t>Maman, maman, maman, maman Je n'sais pas comment t'as pu faire Stoppe-les, dis-moi comment, comment, comment T'as su protéger mes arrières Dans ces moments, moments, moments, moments Où j'ai tout dit, tout fait de travers Mais la vie c'est donnant-donnant, donnant-donnant Et si c'était à refaire Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière J'vais pas t'faire un roman, roman, roman, roman J'veux pas jouer le rôle du grand frère Tu mens à tes parents, parents, parents, parents Tu prends tout ça à la légère Mais dans dix ans, dix ans, dix ans, dix ans Tu regarderas en arrière Tu te diras souvent, souvent, souvent, souvent Et si c'était à refaire? Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière-ère, Ayrton aurait dû freiner J'me rappelle de maman les mains pleines de henné Le regard trop peiné, les mains pleines de larmes Machine arrière, j'aurais surement posé cette arme Hnin mais mon cur s'est fait cambrioler Depuis J.F.K, j'monte plus dans un cabriolet Parfois, vaut mieux reculer pour prendre de l'élan J'ai fait marche arrière pour aller de l'avant, machine arrière Machine arrière, revenir un instant Et dire à sa mère tant qu'il est encore temps Qu'elle est un repère qu'il nous manque à présent Ouh oh, ouh oh Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière Toujours quelque chose qu'on n'aurait pas du faire On a parlé quand on aurait du se taire Si l'on pouvait, entre tristesse et colère, faire machine arrière Machine arrière</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Yeah, Quoi de neuf Fouiny Baby, M.A.S 78 Rappelle toi qu'on étais souvent en bas Traités par les gens d'en haut comme d' la merde comme de la merde Rappelle toi qu'on aurait pu se tirer dessus Qu'on aurait pu s'entre tuer pour de la merde Fouiny Babe Rappelle toi qu'on a trop tourner ensemble Et qu'on a trop partagés nos galères nos galères frèro Rappelle toi qu'on nous regardent là haut Et qu'ici bas tout se paye Rappelle toi de mon vécu, du peu de mon pécule Immatriculé et l'écrou comme c'est dur Rappelle toi du sourire de ta mère quand elle t'achetait du nike air Du sourire de ton père quand il venait gifler ta mère Si je cris victoire cris victoire Mais rappelle toi d'avoir vu ton pote étaler dans le sang dans la baignoire Te demande pas pourquoi je suis si glock Au fond de ma tête c'est le trou noir c'est plus violent qu'un cyclone Imagine toi seul dans le noir, j'ai vu ce noir c'est mon ciel Rappelle toi qu'une fois mort bah tu seras sûrement seul J'ai recherché l'essentiel, couvert sous un lin seuil Rappelle toi que sur ta femme quelque frère se rince l'il Rappelle toi qu'une fois mort bah tu seras sûrement froid C'est dommage c'est dans le mal que souvent on s'enferme Trop souvent je me sens mal, alors le diable s'en mêle Petit frère prend mes ailes tu peux t'envoler sans moi You might also like Rappelle toi qu'on étais souvent en bas Traités par les gens d'en haut comme d' la merde comme de la merde Rappelle toi qu'on aurait pu se tirer dessus Qu'on aurait pu s'entre tuer pour de la merde Fouiny Babe Rappelle toi qu'on a trop tourner ensemble Et qu'on a trop partagés nos galères nos galères frèro Rappelle toi qu'on nous regardent là haut Et qu'ici bas tout se paye Rappelle toi quand tu pleurs le soir Qu'il y a pire ailleurs mais qu'il ne se plaigne pas Y a plein de choses dans ce bas monde qui ne se soigne pas Rappelle toi que dans le feu même les flammes ne se plaise pas Mais rappelle toi! Que j'écris à la demande C'est pas demain qu'on te donnera un coup de main Rappelle toi qu'on te descends si jamais tu balances un de tes frères C'est quand même très navrant Rappelle toi des anciens ceux qu'on marqués le passé C'est dans le sang que la souffrance est remarquer Rappelle toi que la vie c'est pas du ping pong T'attends trop les réponses l'ange de la mort fais ding dong On oublie pas d'où l'on viens mais on ne sais pas ou l'on va On n'essaie de trouver le droit chemin c'est ça le combat La colombe c'est le symbole de la paix frolonbe Mais le monde l'a déjà rayer de nos rêves frolonbe</t>
+          <t>Yeah, Quoi de neuf Fouiny Baby, M.A.S 78 Rappelle toi qu'on étais souvent en bas Traités par les gens d'en haut comme d' la merde comme de la merde Rappelle toi qu'on aurait pu se tirer dessus Qu'on aurait pu s'entre tuer pour de la merde Fouiny Babe Rappelle toi qu'on a trop tourner ensemble Et qu'on a trop partagés nos galères nos galères frèro Rappelle toi qu'on nous regardent là haut Et qu'ici bas tout se paye Rappelle toi de mon vécu, du peu de mon pécule Immatriculé et l'écrou comme c'est dur Rappelle toi du sourire de ta mère quand elle t'achetait du nike air Du sourire de ton père quand il venait gifler ta mère Si je cris victoire cris victoire Mais rappelle toi d'avoir vu ton pote étaler dans le sang dans la baignoire Te demande pas pourquoi je suis si glock Au fond de ma tête c'est le trou noir c'est plus violent qu'un cyclone Imagine toi seul dans le noir, j'ai vu ce noir c'est mon ciel Rappelle toi qu'une fois mort bah tu seras sûrement seul J'ai recherché l'essentiel, couvert sous un lin seuil Rappelle toi que sur ta femme quelque frère se rince l'il Rappelle toi qu'une fois mort bah tu seras sûrement froid C'est dommage c'est dans le mal que souvent on s'enferme Trop souvent je me sens mal, alors le diable s'en mêle Petit frère prend mes ailes tu peux t'envoler sans moi Rappelle toi qu'on étais souvent en bas Traités par les gens d'en haut comme d' la merde comme de la merde Rappelle toi qu'on aurait pu se tirer dessus Qu'on aurait pu s'entre tuer pour de la merde Fouiny Babe Rappelle toi qu'on a trop tourner ensemble Et qu'on a trop partagés nos galères nos galères frèro Rappelle toi qu'on nous regardent là haut Et qu'ici bas tout se paye Rappelle toi quand tu pleurs le soir Qu'il y a pire ailleurs mais qu'il ne se plaigne pas Y a plein de choses dans ce bas monde qui ne se soigne pas Rappelle toi que dans le feu même les flammes ne se plaise pas Mais rappelle toi! Que j'écris à la demande C'est pas demain qu'on te donnera un coup de main Rappelle toi qu'on te descends si jamais tu balances un de tes frères C'est quand même très navrant Rappelle toi des anciens ceux qu'on marqués le passé C'est dans le sang que la souffrance est remarquer Rappelle toi que la vie c'est pas du ping pong T'attends trop les réponses l'ange de la mort fais ding dong On oublie pas d'où l'on viens mais on ne sais pas ou l'on va On n'essaie de trouver le droit chemin c'est ça le combat La colombe c'est le symbole de la paix frolonbe Mais le monde l'a déjà rayer de nos rêves frolonbe</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Cest lhistoire de trois potes, unis, respectables, stables Quétaient moyens en classe et quhabitaient tous trois en face Du terrain de foot sur lquel ils jouaient tous les jours Ils sdébrouillaient pas trop mal, en fait ils voulaient tous devnir professionnels Alain, Christophe et Frank sont trois babtous du ghetto Délinquants et chauds, intégrés aux bougnouls et aux négros Ils étaient toujours là lun pour lautre, près à sentraider Car la vie était dure, la pouasse rodait tout près où ils traînaient Cétait les inséparables, les trois frères, les trois mousquetaires Les trois maillons dune chaîne la rage, la peine et la haine Frank était laîné dla famille, dparents alcooliques Il avait deux ptits frères quil aimait par dssus tout, au-delà des femmes et lfric Et lsoir quand il rentrait, lhaleine skylleuse, dune journée laborieuse Il sendormait les larmes aux yeuze Tout comme ses potes il comptait sen sortir Mais pour eux sen sortir, sen sortir... Cétait faire beaucoup dfric et senfuir On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto Christophe, quant à lui, vivait chez Alain Il avait fugué du foyer, comme beaucoup dmômes il était orphelin Il aimait ces ambiances dfamille nombreuse, lui qui nen a jamais eu Il observait lgrand monde de ses ptits yeux, et Lmatin, Frank vnait les chercher, ils partaient au lycée Mais dans la tête cest chaud sans lfric alors ils sêchaient Et ils restaient dvant lhall à vendre de la hi En parlant dfilles et dT.D.I, combien d'p'tits délits? C'était trois rebels, genre niquez-vous, vous et vos lois Au square ya trop dhaine, vice, et trop dvannes sur les gaulois Jcomprends même pourquoi ils aimaient rester entre eux Entre autre, ils ont même braqué, mec, sans finir au trou Il leur a fallu peu de temps pour cesser Lécole, vendre dla CC et passer dbeaux étés en audi TT Cétait boîte-femme, femme-boîte, filles à quatre pattes Cétait lhistoire dtrois gars quen avaient rien à battre You might also like On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto Ils étaient respectés et appréciés de tous Ils aidaient leur famille avec largent quils sfsaient, ils avaient trop damis Ils profitaient, genre grand voyage au Brésil Ils visitaient des îles avec des femmes aux grandes jambes et aux grands cils Contrebande, trafic, contre bandes Peu deau, pièces dextas, odeur dfric nauséabonde Tas plus trop lchoix quand lvice ta embauché Soudain tas dgrands projets, pour eux cnétait plus question dse reposer Jsais pas si tas rmarqué mais dpuis dtà lheure jte parle au passé Cétait en 96, aujourdhui beaucoup dchoses ont changé Frank en voulait trop, il a mal tourné Il purge une peine de séquestration et meurt dans un pénitencier A force de trop dfemmes, Alain a lsida Dans un centre de soins paléatifs, il lui reste quelques mois Christophe, quant à lui, a une femme, des enfants, un bon emploi, une barbe Et sfait appeler Abdullah Eh, toi quécoutes ce son, là ! Jessaie pas dtinfluencer ou dte faire la morale, dte montrer quel chemin emprunter. Jte raconte juste une histoire vraie qui ma beaucoup touché. Tinterprètes, cest tout, tu prends ça comme tu veux. Hum Chacun son point dvue, tu sais. La vie est dure... On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars du ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars du ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto</t>
+          <t>Cest lhistoire de trois potes, unis, respectables, stables Quétaient moyens en classe et quhabitaient tous trois en face Du terrain de foot sur lquel ils jouaient tous les jours Ils sdébrouillaient pas trop mal, en fait ils voulaient tous devnir professionnels Alain, Christophe et Frank sont trois babtous du ghetto Délinquants et chauds, intégrés aux bougnouls et aux négros Ils étaient toujours là lun pour lautre, près à sentraider Car la vie était dure, la pouasse rodait tout près où ils traînaient Cétait les inséparables, les trois frères, les trois mousquetaires Les trois maillons dune chaîne la rage, la peine et la haine Frank était laîné dla famille, dparents alcooliques Il avait deux ptits frères quil aimait par dssus tout, au-delà des femmes et lfric Et lsoir quand il rentrait, lhaleine skylleuse, dune journée laborieuse Il sendormait les larmes aux yeuze Tout comme ses potes il comptait sen sortir Mais pour eux sen sortir, sen sortir... Cétait faire beaucoup dfric et senfuir On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto Christophe, quant à lui, vivait chez Alain Il avait fugué du foyer, comme beaucoup dmômes il était orphelin Il aimait ces ambiances dfamille nombreuse, lui qui nen a jamais eu Il observait lgrand monde de ses ptits yeux, et Lmatin, Frank vnait les chercher, ils partaient au lycée Mais dans la tête cest chaud sans lfric alors ils sêchaient Et ils restaient dvant lhall à vendre de la hi En parlant dfilles et dT.D.I, combien d'p'tits délits? C'était trois rebels, genre niquez-vous, vous et vos lois Au square ya trop dhaine, vice, et trop dvannes sur les gaulois Jcomprends même pourquoi ils aimaient rester entre eux Entre autre, ils ont même braqué, mec, sans finir au trou Il leur a fallu peu de temps pour cesser Lécole, vendre dla CC et passer dbeaux étés en audi TT Cétait boîte-femme, femme-boîte, filles à quatre pattes Cétait lhistoire dtrois gars quen avaient rien à battre On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto Ils étaient respectés et appréciés de tous Ils aidaient leur famille avec largent quils sfsaient, ils avaient trop damis Ils profitaient, genre grand voyage au Brésil Ils visitaient des îles avec des femmes aux grandes jambes et aux grands cils Contrebande, trafic, contre bandes Peu deau, pièces dextas, odeur dfric nauséabonde Tas plus trop lchoix quand lvice ta embauché Soudain tas dgrands projets, pour eux cnétait plus question dse reposer Jsais pas si tas rmarqué mais dpuis dtà lheure jte parle au passé Cétait en 96, aujourdhui beaucoup dchoses ont changé Frank en voulait trop, il a mal tourné Il purge une peine de séquestration et meurt dans un pénitencier A force de trop dfemmes, Alain a lsida Dans un centre de soins paléatifs, il lui reste quelques mois Christophe, quant à lui, a une femme, des enfants, un bon emploi, une barbe Et sfait appeler Abdullah Eh, toi quécoutes ce son, là ! Jessaie pas dtinfluencer ou dte faire la morale, dte montrer quel chemin emprunter. Jte raconte juste une histoire vraie qui ma beaucoup touché. Tinterprètes, cest tout, tu prends ça comme tu veux. Hum Chacun son point dvue, tu sais. La vie est dure... On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars du ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars du ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto On est tant épaulé par des connaissances immenses, trois gars au ghetto! Eh oh, eh oh, eh oh, jcrie très haut lhistoire de trois mecs au ghetto</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>J'prends le mic' et j'donne ça, pour les receleurs, dealers de von-sa J'ai cartonné l'pe-ra sans faire d'constat Banlieue hostile, pour leur taff de merde j'ai pas l'profil J'viens trafiquer mes kills, restez tranquille Les bouffons se chient d'ssus, j'ai pécho l'gun et lâché la muscu Le savoir est une arme de trou du cul En chien sans écu, tu restes en bas quelque soit ton vécu Pour les blessés du bled y'a pas d'sécu Donc j'donne le power, pour tous les res-frè partis avant l'heure Le rap est plein d'mythos, de beaux parleurs Change devant l'procureur, je rentre dans ta banque sans mettre de cagoule Mon rap c'est ni Manhattan, ni Kaboul Que mes banlieues Ouest est-ce compris ? Les erreurs que l'on traine lourde comme des longues peines La corde au coup fait tomber l'escabeau 7.8 les rappeurs de la fosse sortez l'gamos Dixon, Momo, Larche et tout les soces T.R.A.2.P.E.S, man on représente Poissy, comme d'hab on représente Mantes-la-Jolie, man on représente Sartrouville, comme d'hab on représente Chanteloup-les-Vignes, man on représente Les Mureaux, comme d'hab on représente 78, man on représente Toutes les banlieues d'France, man on représente You might also like Passe-moi le mic' et j'donne ça, trop d'cadavres de seringues dan les ve-ca Car les petites sachent que j'vends d'la me-ca Ma banlieue s'agite dans l'hall on vend l'shit, les kilos transitent Ils traquent les cailles, laissent les pointeurs de p'tites Ça d'vient trop de-spee, préviens toute l'équipe qu'on parte au casse-pipe 307 métallisée c'est qui c'type Surement un gros stup, ramène ces baltringues qu'on les foute dans l'clip Rien à foutre on rentre dans ta boite en VIP La haine, la rage au ventre man on trouve pas nos mots Déserte vite les ondes avec ton son d'homo Man on peut sortir les guns avec ou sans promo Toujours frais pour le casse-pipe man demande à Momo La haine, la rage au ventre man on trouve pas nos mots Déserte vite les ondes avec ton son d'homo Man on peut sortir les guns avec ou sans promo Toujours frais pour le casse-pipe man demande à Momo T.R.A.2.P.E.S, man on représente Poissy, comme d'hab on représente Mantes-la-Jolie, man on représente Sartrouville, comme d'hab on représente Chanteloup-les-Vignes, man on représente Les Mureaux, comme d'hab on représente 78, man on représente Toutes les banlieues d'France, man on représente</t>
+          <t>J'prends le mic' et j'donne ça, pour les receleurs, dealers de von-sa J'ai cartonné l'pe-ra sans faire d'constat Banlieue hostile, pour leur taff de merde j'ai pas l'profil J'viens trafiquer mes kills, restez tranquille Les bouffons se chient d'ssus, j'ai pécho l'gun et lâché la muscu Le savoir est une arme de trou du cul En chien sans écu, tu restes en bas quelque soit ton vécu Pour les blessés du bled y'a pas d'sécu Donc j'donne le power, pour tous les res-frè partis avant l'heure Le rap est plein d'mythos, de beaux parleurs Change devant l'procureur, je rentre dans ta banque sans mettre de cagoule Mon rap c'est ni Manhattan, ni Kaboul Que mes banlieues Ouest est-ce compris ? Les erreurs que l'on traine lourde comme des longues peines La corde au coup fait tomber l'escabeau 7.8 les rappeurs de la fosse sortez l'gamos Dixon, Momo, Larche et tout les soces T.R.A.2.P.E.S, man on représente Poissy, comme d'hab on représente Mantes-la-Jolie, man on représente Sartrouville, comme d'hab on représente Chanteloup-les-Vignes, man on représente Les Mureaux, comme d'hab on représente 78, man on représente Toutes les banlieues d'France, man on représente Passe-moi le mic' et j'donne ça, trop d'cadavres de seringues dan les ve-ca Car les petites sachent que j'vends d'la me-ca Ma banlieue s'agite dans l'hall on vend l'shit, les kilos transitent Ils traquent les cailles, laissent les pointeurs de p'tites Ça d'vient trop de-spee, préviens toute l'équipe qu'on parte au casse-pipe 307 métallisée c'est qui c'type Surement un gros stup, ramène ces baltringues qu'on les foute dans l'clip Rien à foutre on rentre dans ta boite en VIP La haine, la rage au ventre man on trouve pas nos mots Déserte vite les ondes avec ton son d'homo Man on peut sortir les guns avec ou sans promo Toujours frais pour le casse-pipe man demande à Momo La haine, la rage au ventre man on trouve pas nos mots Déserte vite les ondes avec ton son d'homo Man on peut sortir les guns avec ou sans promo Toujours frais pour le casse-pipe man demande à Momo T.R.A.2.P.E.S, man on représente Poissy, comme d'hab on représente Mantes-la-Jolie, man on représente Sartrouville, comme d'hab on représente Chanteloup-les-Vignes, man on représente Les Mureaux, comme d'hab on représente 78, man on représente Toutes les banlieues d'France, man on représente</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>... On dévoile l'artillerie lourde épaulé de la Fouine la rage dans les burnes c'est burn C'est pour les gars ... comme aux urnes Ça fait un bail que j'hiberne On veut la célébrité, militer pour nos cailles, interview avec cet enfoiré de Stéphane Bern Ou sur les mêmes bornes Entre les anges la bête à 7 cornes l'instru j'orne et j'laisse des victimes sur les bornes Y'a pas de doute ça vient du bitume et des caves À part ci ... bad sur beat bad ... sans être groove Qui dit rap dit innove fous ta griffe Appelle ton alcove ou ton squat et la scène de crack Tous les bad boys kiffent les bras en l'air Allumez les briquets ou les spliffs ... aux criquets à l'écoute de ce mort 22 long rifle J'en pose une pour mes reufs ma mif Carrément dingue anecdote ghetto star young gun c'est le reste du collectif oh 95 KO à mon actif, un punch de poids lourd sous un corps chétif Le rap a perdu le sens ma couille c'est dead Donc on prépare l'essence et les douilles avant que ça devienne raide et que nos micros rouillent You might also like GSP le rap biz La Fouine, Scalo, Bek's', T.Killa l'arrivage kiffe la nouvelle génération Mais ça c'est Garges, Villiers à Trappes C'est du venin c'est du semtex alors consomme ça avec modération Dans un rap français noir lugubre Prépare toi à voir arriver vers toi ici une lumière aveuglante Light 6 ! Ça c'est du made in la rue mon frère Alors mets le son à fond dans ton Cabriolet dans ton jet ou ton tank hey J'ai compris que dans ce milieu de requins trop souvent truqué faut en avoir comme Rocco Même si c'est trop con avoir les poings de Rocky ou s'inspirer des ricains Si naufragé comme l'Erika, inspiré comme Eryka Badu ou suspect comme Moussa Mamadou Vas y donc si ça parle défonce la Fouine on consomme grave ou quoi Je t'ai dit y'a du ye-ska, y'a de l'aya Vas y mets le son Fouin' pendant que la tasspé fait son fil Sur toi la tess nous on fait ses fils Quoi ma gueule elle a quoi ma gueule sous Clan Campbell ? Me dis pas que je ressemble à Michael Who's bad ? Donc si j'ai bien compris si ça sent pas tu seras pas dégoûté Tu t'en battras les couilles ce sera tout Trappes qui viendra t'écouter A 4 l'instru on ruine, T.Killa Bek' Scalo La Fouine Ici on extermine toutes les putes de sales mines, on prime Sur le style le beat extermine L'enfoiré qui veut test on le fait smurfer sur un champ de ruines A 4 l'instru on ruine, T.Killa Bek' Scalo La Fouine Ici on extermine toutes les putes de sales mines, on prime Sur le style le beat extermine L'enfoiré qui veut test on le fait smurfer sur un champ de ruines Je crois que l'heure a sonné, nouveau testament j'viens donner ... Faire face au rap sensé, acte 1 verset 2 ... Mon rap c'est baise la police Le premier qui veut test je le fais smurfer sur un champ de ruines On m'a dit de réussir Putain faudrait que ça cesse et se demander ... A 4 l'instru on ruine, T.Killa Bek' Scalo La Fouine Ici on extermine toutes les putes de sales mines, on prime Sur le style le beat extermine L'enfoiré qui veut test on le fait smurfer sur un champ de ruines A 4 l'instru on ruine, T.Killa Bek' Scalo La Fouine Ici on extermine toutes les putes de sales mines, on prime Sur le style le beat extermine L'enfoiré qui veut test on le fait smurfer sur un champ de ruines Ça vient de Garges, Villiers à Trappes ...</t>
+          <t>... On dévoile l'artillerie lourde épaulé de la Fouine la rage dans les burnes c'est burn C'est pour les gars ... comme aux urnes Ça fait un bail que j'hiberne On veut la célébrité, militer pour nos cailles, interview avec cet enfoiré de Stéphane Bern Ou sur les mêmes bornes Entre les anges la bête à 7 cornes l'instru j'orne et j'laisse des victimes sur les bornes Y'a pas de doute ça vient du bitume et des caves À part ci ... bad sur beat bad ... sans être groove Qui dit rap dit innove fous ta griffe Appelle ton alcove ou ton squat et la scène de crack Tous les bad boys kiffent les bras en l'air Allumez les briquets ou les spliffs ... aux criquets à l'écoute de ce mort 22 long rifle J'en pose une pour mes reufs ma mif Carrément dingue anecdote ghetto star young gun c'est le reste du collectif oh 95 KO à mon actif, un punch de poids lourd sous un corps chétif Le rap a perdu le sens ma couille c'est dead Donc on prépare l'essence et les douilles avant que ça devienne raide et que nos micros rouillent GSP le rap biz La Fouine, Scalo, Bek's', T.Killa l'arrivage kiffe la nouvelle génération Mais ça c'est Garges, Villiers à Trappes C'est du venin c'est du semtex alors consomme ça avec modération Dans un rap français noir lugubre Prépare toi à voir arriver vers toi ici une lumière aveuglante Light 6 ! Ça c'est du made in la rue mon frère Alors mets le son à fond dans ton Cabriolet dans ton jet ou ton tank hey J'ai compris que dans ce milieu de requins trop souvent truqué faut en avoir comme Rocco Même si c'est trop con avoir les poings de Rocky ou s'inspirer des ricains Si naufragé comme l'Erika, inspiré comme Eryka Badu ou suspect comme Moussa Mamadou Vas y donc si ça parle défonce la Fouine on consomme grave ou quoi Je t'ai dit y'a du ye-ska, y'a de l'aya Vas y mets le son Fouin' pendant que la tasspé fait son fil Sur toi la tess nous on fait ses fils Quoi ma gueule elle a quoi ma gueule sous Clan Campbell ? Me dis pas que je ressemble à Michael Who's bad ? Donc si j'ai bien compris si ça sent pas tu seras pas dégoûté Tu t'en battras les couilles ce sera tout Trappes qui viendra t'écouter A 4 l'instru on ruine, T.Killa Bek' Scalo La Fouine Ici on extermine toutes les putes de sales mines, on prime Sur le style le beat extermine L'enfoiré qui veut test on le fait smurfer sur un champ de ruines A 4 l'instru on ruine, T.Killa Bek' Scalo La Fouine Ici on extermine toutes les putes de sales mines, on prime Sur le style le beat extermine L'enfoiré qui veut test on le fait smurfer sur un champ de ruines Je crois que l'heure a sonné, nouveau testament j'viens donner ... Faire face au rap sensé, acte 1 verset 2 ... Mon rap c'est baise la police Le premier qui veut test je le fais smurfer sur un champ de ruines On m'a dit de réussir Putain faudrait que ça cesse et se demander ... A 4 l'instru on ruine, T.Killa Bek' Scalo La Fouine Ici on extermine toutes les putes de sales mines, on prime Sur le style le beat extermine L'enfoiré qui veut test on le fait smurfer sur un champ de ruines A 4 l'instru on ruine, T.Killa Bek' Scalo La Fouine Ici on extermine toutes les putes de sales mines, on prime Sur le style le beat extermine L'enfoiré qui veut test on le fait smurfer sur un champ de ruines Ça vient de Garges, Villiers à Trappes ...</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Les sale manies me suive,partout Je suis trop cramé a quoi bon faire le bakthou Je pense qu'a fumer, cerveau niquer C'est vrai qu'on parle fort mais arrêté de paniquer Laisse les nous juger,de leurs téléviseurs On traîne la nuit dore jusqu'à quinze heures Il disent de nous qu'on est mal polie Mais c'est pétasse nous disent pas la même chose au lit On se sape on se fait clean on traîne dans les grottes Putain dit moi pourquoi on kiff toujours les surs des potes Change de zik si t'aime pas ce mouve Chez pas c'est quoi ta vie mais nous on fait sa à la YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV Toujours les yeux rouge ont fait touts au renlentit Et kan ont parle de Mahyi jamais de plaisenterie Tu veut faire un tète mais ta l'aire Pas sur de toi on va te monter en l'air Mentalité et YOUV pense qu'a fair du porno Les meufs c'est toutes des putes a part nous,daronne respect Les ailes qu'ont peut pas tester,crache part terre ont pisse dehors Génération golf quatre dans le poste temps mort Change de zik si t'aime pas ce mouve Je c'est pas c'est quoi ta vie mais nous ont fait sa à la YOUV You might also likeIl faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV Sort plus du quartier car ont a trop douiller Rébellion car ont veut plus se faire fouiller Les mains dans les poches phone à trente euro Préfère marcher à pied que prendre le métro Sarko veut nous nettoyer mentalité et YOUV Qui ne c'est que tutoiller et quand ont ce parlent Ils sont traumatisés ouai je nique ta race la pute J'ai trop envi de tiser pour les mecs des terres Les millions avant qu'ont en entière Change de zik si t'aime pas ce mouve Je c'est pas c'est quoi ta vie mais nous ont faits sa àla YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV</t>
+          <t>Les sale manies me suive,partout Je suis trop cramé a quoi bon faire le bakthou Je pense qu'a fumer, cerveau niquer C'est vrai qu'on parle fort mais arrêté de paniquer Laisse les nous juger,de leurs téléviseurs On traîne la nuit dore jusqu'à quinze heures Il disent de nous qu'on est mal polie Mais c'est pétasse nous disent pas la même chose au lit On se sape on se fait clean on traîne dans les grottes Putain dit moi pourquoi on kiff toujours les surs des potes Change de zik si t'aime pas ce mouve Chez pas c'est quoi ta vie mais nous on fait sa à la YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV Toujours les yeux rouge ont fait touts au renlentit Et kan ont parle de Mahyi jamais de plaisenterie Tu veut faire un tète mais ta l'aire Pas sur de toi on va te monter en l'air Mentalité et YOUV pense qu'a fair du porno Les meufs c'est toutes des putes a part nous,daronne respect Les ailes qu'ont peut pas tester,crache part terre ont pisse dehors Génération golf quatre dans le poste temps mort Change de zik si t'aime pas ce mouve Je c'est pas c'est quoi ta vie mais nous ont fait sa à la YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV Sort plus du quartier car ont a trop douiller Rébellion car ont veut plus se faire fouiller Les mains dans les poches phone à trente euro Préfère marcher à pied que prendre le métro Sarko veut nous nettoyer mentalité et YOUV Qui ne c'est que tutoiller et quand ont ce parlent Ils sont traumatisés ouai je nique ta race la pute J'ai trop envi de tiser pour les mecs des terres Les millions avant qu'ont en entière Change de zik si t'aime pas ce mouve Je c'est pas c'est quoi ta vie mais nous ont faits sa àla YOUV Il faut que tu compraîine pourquoi je traîne c'est mentalité a la YOUV En bas du block deille, on pense qu'a l'oseille car mec on fait sa à la YOUV</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Oh mi amor Tu étais ma reine bien avant les autres, bien avant les trophées, les radios Oh amigo Tu étais mon frère bien avant les femmes, bien avant le succès, les Euros Ettoné, je t'avoue que bien des fois, ça m'a troublé Tu n'as jamais changé ton regard sur moi quand d'autres l'ont Et les années ont passée et le rideau s'est levé Dans leurs yeux intéressés, j'ai pas reconnu mon reflet Mi amor, mi amor Sans toi, je serais déjà mort Amigo, amigo Sans toi, j'irais pas plus haut Oh mi amor Tu étais ma reine bien avant les autres, bien avant les trophées, les radios Oh amigo Tu étais mon frère bien avant les femmes, bien avant le succès, les Euros Quand parfois, je me sens seul alors que je suis entouré De milliers de gens qui veulent un bout de moi, tout ça m'effraie Et je n'ai qu'à repenser à mes deux gardiens secrets Ceux qui ont su rester vrais et m'ont pas laissé m'égarer You might also like Mi amor, mi amor Sans toi, je serais déjà mort Amigo, amigo Sans toi, j'irais pas plus haut Oh mi amor Tu étais ma reine bien avant les autres, bien avant les trophées, les radios Oh amigo Tu étais mon frère bien avant les femmes, bien avant le succès, les Euros Qu'est-c'qui fait un homme? Qu'est-c'qui fait sa fierté quand il fait la somme de ses erreurs passées? Quand je me questionne, quand je fais le vide, tout est limpide Chaque fois, ça m'étonne, c'est dans ma chair indélébile Mi amor, mi amor Sans toi, je serais déjà mort Amigo, amigo Sans toi, j'irais pas plus haut Oh mi amor Tu étais ma reine bien avant les autres, bien avant les trophées, les radios Oh amigo Tu étais mon frère bien avant les femmes, bien avant le succès, les Euros</t>
+          <t>Oh mi amor Tu étais ma reine bien avant les autres, bien avant les trophées, les radios Oh amigo Tu étais mon frère bien avant les femmes, bien avant le succès, les Euros Ettoné, je t'avoue que bien des fois, ça m'a troublé Tu n'as jamais changé ton regard sur moi quand d'autres l'ont Et les années ont passée et le rideau s'est levé Dans leurs yeux intéressés, j'ai pas reconnu mon reflet Mi amor, mi amor Sans toi, je serais déjà mort Amigo, amigo Sans toi, j'irais pas plus haut Oh mi amor Tu étais ma reine bien avant les autres, bien avant les trophées, les radios Oh amigo Tu étais mon frère bien avant les femmes, bien avant le succès, les Euros Quand parfois, je me sens seul alors que je suis entouré De milliers de gens qui veulent un bout de moi, tout ça m'effraie Et je n'ai qu'à repenser à mes deux gardiens secrets Ceux qui ont su rester vrais et m'ont pas laissé m'égarer Mi amor, mi amor Sans toi, je serais déjà mort Amigo, amigo Sans toi, j'irais pas plus haut Oh mi amor Tu étais ma reine bien avant les autres, bien avant les trophées, les radios Oh amigo Tu étais mon frère bien avant les femmes, bien avant le succès, les Euros Qu'est-c'qui fait un homme? Qu'est-c'qui fait sa fierté quand il fait la somme de ses erreurs passées? Quand je me questionne, quand je fais le vide, tout est limpide Chaque fois, ça m'étonne, c'est dans ma chair indélébile Mi amor, mi amor Sans toi, je serais déjà mort Amigo, amigo Sans toi, j'irais pas plus haut Oh mi amor Tu étais ma reine bien avant les autres, bien avant les trophées, les radios Oh amigo Tu étais mon frère bien avant les femmes, bien avant le succès, les Euros</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Hein, la Fouine Peco Bled Hard Concept Planète Trappes C'est ça On arrive pour la suite ColonizaSon, Bourré au Son Animalsons C'est ça La Fouine Kotigui Dedo La Fouine Mister Al Peco Kotigui Dedo J'décris la vie au square, les joies, les peines à en perdre le sommeil sommeil J'écris pour tous ceux perdus dans la nuit cherchant le soleil soleil J'décris la vie au square, les joies, les peines à en perdre le sommeil sommeil on dort pas, on fait qu'une sieste J'écris pour tous ceux perdus dans la nuit cherchant le soleil soleil Génération T'inquiète C'est ça J'ai plus goût à rien, plus goût à la vie mec Plus j'ai d'fric et moins j'ai d'amis Trop d'poisse trop d'pleurs trop d'haine trop d'drogue Trop d'biz trop d'drames trop d'peine trop d'tass Les perquises à six heures, sans arrêt trop d'démélés Si les menottes ont rougi tes poignets c'est qu'tu t'es fait mêler Parce qu'le prix de la vie s'élève et que l'élève apprenne le vice La haine dans le cartable, la vengeance dans la trousse Sincère j'ai trop serré la ceinture, j'aimerais l'enlever, faute et pauvreté J'aimerais voler de mes propres ailes mais on m'les a coupées Tout comme les Assedic alors je rappe pour le fric J'ai rien à faire, rien à foutre, rien à prouver Rien à perdre, égaré j'me suis trouvé J'sors du rond-point mon frère, j'ai trop tourné Je hais la son-pri, comme j't'ai dit j'ai trop tourné Mauvaises manies, mauvais amis, conduit au mal acquis Fais pas l'malin, joue pas au con, les grands me l'avaient dit L'État me l'avait mis, le petit l'a banni Le petit Laouni sans même un avocat se retrouve à Osny Mon enfance, la même que la tienne La zonz, les tass, les joints, les Heineken Les mauvaises graines, les potes avec qui j'traîne Les tass avec qui j'ken, les mensonges oui j't'aime You might also like J'ai commencé Pas à l'école du micro d'argent Galéré Trop de bâtards et de faux plans Ambiancé Des clubs de Dakar, Bamako, Abidjan Tu reconnais 9-9 représentant J'ai commencé mes premiers pas dans l'pera bad à la boubou Beaucoup m'disaient l'rap au bled ça marchera jamais, Peco tu t'goures Même pas un sou, pas un clou en poche, mes proches m'prenaient pour un fou Fou furieux d'cette zik de zoulou Maman m'disait mon fils tu rêves Mon fils tu t'perds, please redescends sur Terre Continue tes études, mon fils unique, rends-nous fiers Toulouse débarqua à la fac en 9-8 Bac S réussi Quatre ans plus tard, la maîtrise en poche, la baraka m'sourit Pec Excel, MC en faction Buzz s'accélère d'une méchante façon Indipendenza, Sang d'Encre Peco 2004 révélation Mixtape sur mixtape je pose Tout l'monde respecte j'm'impose Met tout l'monde d'accord Bled Hard Concept Mixtape sur mixtape oh Tout l'monde respecte c'est ça Planète Trappes Écoute ma planète Ma haine s'échappe en quelques lettres Ça crie en bas, on crée l'concept Peco la Fouine, Maroc Mali ColonizaSon, Bourré au Son J'décris la vie au square, les joies, les peines à en perdre le sommeil sommeil, sommeil J'écris pour tous ceux perdus dans la nuit cherchant le soleil soleil J'décris la vie au square, les joies, les peines à en perdre le sommeil sommeil La Fouine J'écris pour tous ceux perdus dans la nuit cherchant le soleil soleil</t>
+          <t>Hein, la Fouine Peco Bled Hard Concept Planète Trappes C'est ça On arrive pour la suite ColonizaSon, Bourré au Son Animalsons C'est ça La Fouine Kotigui Dedo La Fouine Mister Al Peco Kotigui Dedo J'décris la vie au square, les joies, les peines à en perdre le sommeil sommeil J'écris pour tous ceux perdus dans la nuit cherchant le soleil soleil J'décris la vie au square, les joies, les peines à en perdre le sommeil sommeil on dort pas, on fait qu'une sieste J'écris pour tous ceux perdus dans la nuit cherchant le soleil soleil Génération T'inquiète C'est ça J'ai plus goût à rien, plus goût à la vie mec Plus j'ai d'fric et moins j'ai d'amis Trop d'poisse trop d'pleurs trop d'haine trop d'drogue Trop d'biz trop d'drames trop d'peine trop d'tass Les perquises à six heures, sans arrêt trop d'démélés Si les menottes ont rougi tes poignets c'est qu'tu t'es fait mêler Parce qu'le prix de la vie s'élève et que l'élève apprenne le vice La haine dans le cartable, la vengeance dans la trousse Sincère j'ai trop serré la ceinture, j'aimerais l'enlever, faute et pauvreté J'aimerais voler de mes propres ailes mais on m'les a coupées Tout comme les Assedic alors je rappe pour le fric J'ai rien à faire, rien à foutre, rien à prouver Rien à perdre, égaré j'me suis trouvé J'sors du rond-point mon frère, j'ai trop tourné Je hais la son-pri, comme j't'ai dit j'ai trop tourné Mauvaises manies, mauvais amis, conduit au mal acquis Fais pas l'malin, joue pas au con, les grands me l'avaient dit L'État me l'avait mis, le petit l'a banni Le petit Laouni sans même un avocat se retrouve à Osny Mon enfance, la même que la tienne La zonz, les tass, les joints, les Heineken Les mauvaises graines, les potes avec qui j'traîne Les tass avec qui j'ken, les mensonges oui j't'aime J'ai commencé Pas à l'école du micro d'argent Galéré Trop de bâtards et de faux plans Ambiancé Des clubs de Dakar, Bamako, Abidjan Tu reconnais 9-9 représentant J'ai commencé mes premiers pas dans l'pera bad à la boubou Beaucoup m'disaient l'rap au bled ça marchera jamais, Peco tu t'goures Même pas un sou, pas un clou en poche, mes proches m'prenaient pour un fou Fou furieux d'cette zik de zoulou Maman m'disait mon fils tu rêves Mon fils tu t'perds, please redescends sur Terre Continue tes études, mon fils unique, rends-nous fiers Toulouse débarqua à la fac en 9-8 Bac S réussi Quatre ans plus tard, la maîtrise en poche, la baraka m'sourit Pec Excel, MC en faction Buzz s'accélère d'une méchante façon Indipendenza, Sang d'Encre Peco 2004 révélation Mixtape sur mixtape je pose Tout l'monde respecte j'm'impose Met tout l'monde d'accord Bled Hard Concept Mixtape sur mixtape oh Tout l'monde respecte c'est ça Planète Trappes Écoute ma planète Ma haine s'échappe en quelques lettres Ça crie en bas, on crée l'concept Peco la Fouine, Maroc Mali ColonizaSon, Bourré au Son J'décris la vie au square, les joies, les peines à en perdre le sommeil sommeil, sommeil J'écris pour tous ceux perdus dans la nuit cherchant le soleil soleil J'décris la vie au square, les joies, les peines à en perdre le sommeil sommeil La Fouine J'écris pour tous ceux perdus dans la nuit cherchant le soleil soleil</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Marcher sur le game et puis niquer des reums les piétiner j'suis toujours en Givenchy Maître est toujours au dessus des élèves je m'élève j'ai piétiné ton judo-chi Fier d'être un marocain,c'est pour mes algériens,pour mes tounsi qui mangent lablabi Direction Dior c'est fini Kiabi, t'inquiètes j'vais te sortir de là baby La rue m'a dit bats toi sans kimono, si tu conduits bourré normal t'fais des tonneaux Putain la présentatrice est trop nne-bo, j'vais la fourrer comme un bonobo Nique lui sa mère et sans tatami tatami, toujours à l'aller, mon salami salami Ça part en couilles mais c'est ça la vie ça la vie, mon banquier m'appelle le qataris qataris J'traîne avec des barbus, maman pleure au parlu Les bolosses sont à l'affut, foutent le crack dans l'alu Ici les broliques sont pas paresseux paresseux, tes gars sont fous ? On est pareils qu'eux pareils qu'eux Négro tu balances il paraît que paraît que, ta salope a sucé v'la les queues v'la les queues Pour moi une teuch' c'est comme un macaron Ladurée, Ladurée J'peux pas me confesser négro ou je vais traumatiser ton curé ton curé Banlieue sale Banlieue sale j'te l'ai dit la comédie à assez durée Un chèque de 20 000 euros pas pour l'acheter mais pour l'assurer T'as poucave tes négros askip, t'as sucé v'la les queues askip T'as posé trois Mathu' askip, j'vous l'ai déjà dit j'aime pas ce type Chez toi t'es recherché askip, t'as mis des bananas askip Tu marches broliqué askip, fumez le j'ai dit j'aime pas ce type Escaladé murs et barbelés, tes vieux conseils négro garde les Télé-réalitée braquez les, faites quelques millions et Va Bene J'la fourre à l'arrière de la Bentley, Khoya j'suis partout mayday mayday C'est comme dans tous les championnats partout où tu iras tu trouveras un Dembélé J'suis dans le bendo les bords c'est du benco j'les tape au petit déjeuner J'suis à la barre mon avocat est blanc j'crois il y en a qui s'en mettent dans le nez Khoya m'en bats les 'yeuks, Khoya mon fer est neuf Khoya mon papier est violet je dépense je dépense et laisse les gratter les ièps You might also like T'as poucave tes négros askip, t'as sucé v'la les queues askip T'as posé trois Mathu' askip, j'vous l'ai déjà dit j'aime pas ce type Chez toi t'es recherché askip, t'as mis des bananas askip Tu marches broliqué askip, fumez le j'ai dit j'aime pas ce type J'vais te faire une fleur j'vais t'arroser juste pour être sûr que tu vas pas faner Guillotiné j'ai la tête du rap game dans mon coffre elle est cellophanée 78, j'veux ma part du gâteau malheur à ceux qui l'on entamé Ceux qui graillent dans les business sont les plus déter' pas les plus affamés Le temps c'est de l'argent qui ne t'appartient pas Mille deux pour 1680 heures de charbon j'trouve pas ça trop sympa Ça fait bang bang bang bang parles pas de street boy tu connais pas les tarifs La bavette du compèt' est bien aiguisée 22 22 il y a les condés qu'arrivent Ta salope est pas claire je la vérifie, attends s'te plaît négro fais repeat La vraie définition du sale c'est celui qui la mettra à mère et fille Le collège m'a gâté le lycée m'a gâté j'avoue qu'je me suis déja fait lahass dans les WC Belek belek il y aura sûrement des décès des blessés trappes 7.8 CDCC T'as poucave tes négros askip, t'as sucé v'la les queues askip T'as posé trois Mathu' askip, j'vous l'ai déjà dit j'aime pas ce type Chez toi t'es recherché askip, t'as mis des bananas askip Tu marches broliqué askip, fumez le j'ai dit j'aime pas ce type Tu veux tourner dans le peu-cli ? Poupée pas sans maquillage Si t'es pas nne-bo problème de fessier Glenn te coupe au montage T'as mis des bananas askip, j'ai mis des trois points comme Magic On sort pas les automatiques ce renoi mérite un high-kick Petit enculé comme Jesé tu vas sauter avant la fin du Mercato 2.40 sur le périph' en me faisant cer-su j'ai ton sang sur le capot J'roule pas en Ibiza j'suis à Ibiza avec ma bizara Poignet 24 carats et j'les fait mouiller comme au Niagara Ils sont dans le bendo j'suis dans le benzo en kenzo j'leur mets une khezo Tic tac tic tac pas l'temps pour eux pas l'même fuseau Il a fait ci il a fait ça à c'qui paraît c'qui paraît Quand il y a embrouille disparaît c'qui paraît c'qui paraît Il a fait ci il a fait ça à c'qui paraît c'qui paraît Quand il y a embrouille disparaît c'qui paraît c'qui paraît T'as poucave tes négros askip, t'as sucé v'la les queues askip T'as posé trois Mathu' askip, j'vous l'ai déjà dit j'aime pas ce type Chez toi t'es recherché askip, t'as mis des bananas askip Tu marches broliqué askip, fumez le j'ai dit j'aime pas ce type</t>
+          <t>Marcher sur le game et puis niquer des reums les piétiner j'suis toujours en Givenchy Maître est toujours au dessus des élèves je m'élève j'ai piétiné ton judo-chi Fier d'être un marocain,c'est pour mes algériens,pour mes tounsi qui mangent lablabi Direction Dior c'est fini Kiabi, t'inquiètes j'vais te sortir de là baby La rue m'a dit bats toi sans kimono, si tu conduits bourré normal t'fais des tonneaux Putain la présentatrice est trop nne-bo, j'vais la fourrer comme un bonobo Nique lui sa mère et sans tatami tatami, toujours à l'aller, mon salami salami Ça part en couilles mais c'est ça la vie ça la vie, mon banquier m'appelle le qataris qataris J'traîne avec des barbus, maman pleure au parlu Les bolosses sont à l'affut, foutent le crack dans l'alu Ici les broliques sont pas paresseux paresseux, tes gars sont fous ? On est pareils qu'eux pareils qu'eux Négro tu balances il paraît que paraît que, ta salope a sucé v'la les queues v'la les queues Pour moi une teuch' c'est comme un macaron Ladurée, Ladurée J'peux pas me confesser négro ou je vais traumatiser ton curé ton curé Banlieue sale Banlieue sale j'te l'ai dit la comédie à assez durée Un chèque de 20 000 euros pas pour l'acheter mais pour l'assurer T'as poucave tes négros askip, t'as sucé v'la les queues askip T'as posé trois Mathu' askip, j'vous l'ai déjà dit j'aime pas ce type Chez toi t'es recherché askip, t'as mis des bananas askip Tu marches broliqué askip, fumez le j'ai dit j'aime pas ce type Escaladé murs et barbelés, tes vieux conseils négro garde les Télé-réalitée braquez les, faites quelques millions et Va Bene J'la fourre à l'arrière de la Bentley, Khoya j'suis partout mayday mayday C'est comme dans tous les championnats partout où tu iras tu trouveras un Dembélé J'suis dans le bendo les bords c'est du benco j'les tape au petit déjeuner J'suis à la barre mon avocat est blanc j'crois il y en a qui s'en mettent dans le nez Khoya m'en bats les 'yeuks, Khoya mon fer est neuf Khoya mon papier est violet je dépense je dépense et laisse les gratter les ièps T'as poucave tes négros askip, t'as sucé v'la les queues askip T'as posé trois Mathu' askip, j'vous l'ai déjà dit j'aime pas ce type Chez toi t'es recherché askip, t'as mis des bananas askip Tu marches broliqué askip, fumez le j'ai dit j'aime pas ce type J'vais te faire une fleur j'vais t'arroser juste pour être sûr que tu vas pas faner Guillotiné j'ai la tête du rap game dans mon coffre elle est cellophanée 78, j'veux ma part du gâteau malheur à ceux qui l'on entamé Ceux qui graillent dans les business sont les plus déter' pas les plus affamés Le temps c'est de l'argent qui ne t'appartient pas Mille deux pour 1680 heures de charbon j'trouve pas ça trop sympa Ça fait bang bang bang bang parles pas de street boy tu connais pas les tarifs La bavette du compèt' est bien aiguisée 22 22 il y a les condés qu'arrivent Ta salope est pas claire je la vérifie, attends s'te plaît négro fais repeat La vraie définition du sale c'est celui qui la mettra à mère et fille Le collège m'a gâté le lycée m'a gâté j'avoue qu'je me suis déja fait lahass dans les WC Belek belek il y aura sûrement des décès des blessés trappes 7.8 CDCC T'as poucave tes négros askip, t'as sucé v'la les queues askip T'as posé trois Mathu' askip, j'vous l'ai déjà dit j'aime pas ce type Chez toi t'es recherché askip, t'as mis des bananas askip Tu marches broliqué askip, fumez le j'ai dit j'aime pas ce type Tu veux tourner dans le peu-cli ? Poupée pas sans maquillage Si t'es pas nne-bo problème de fessier Glenn te coupe au montage T'as mis des bananas askip, j'ai mis des trois points comme Magic On sort pas les automatiques ce renoi mérite un high-kick Petit enculé comme Jesé tu vas sauter avant la fin du Mercato 2.40 sur le périph' en me faisant cer-su j'ai ton sang sur le capot J'roule pas en Ibiza j'suis à Ibiza avec ma bizara Poignet 24 carats et j'les fait mouiller comme au Niagara Ils sont dans le bendo j'suis dans le benzo en kenzo j'leur mets une khezo Tic tac tic tac pas l'temps pour eux pas l'même fuseau Il a fait ci il a fait ça à c'qui paraît c'qui paraît Quand il y a embrouille disparaît c'qui paraît c'qui paraît Il a fait ci il a fait ça à c'qui paraît c'qui paraît Quand il y a embrouille disparaît c'qui paraît c'qui paraît T'as poucave tes négros askip, t'as sucé v'la les queues askip T'as posé trois Mathu' askip, j'vous l'ai déjà dit j'aime pas ce type Chez toi t'es recherché askip, t'as mis des bananas askip Tu marches broliqué askip, fumez le j'ai dit j'aime pas ce type</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Au bout de la route Au bout de la route Au bout de la route Au bout de la route J'marche sans savoir ce qui se passe au bout de cette route Défaite ou victoire, j'marche, une douche froide, la pluie me remplit d'doutes Sur la bande d'arrêt d'urgence j'suis né un 16 août Au bord de la route, on s'déchire, on se fait des bisous La route est longue, de Casa à Tizi-Ouzou J'ai braqué la vie devant mes yeux, j'l'ai vu défiler quand ils m'ont mis en joue Un cur de lion dans la jungle, j'ai jamais fait de stop Quand j'tombe en panne, y'a plus personne, où sont mes potes ? Depuis tout jeune, je vois bien que tu doutes Pas grave, on se reverra au bout de la route Sur les fronts, on voit les larmes et les gouttes De ceux qui vivent sur le bord de la route Si tu pars, si tu tombes, si tu penses que t'es seul N'oublie pas que le bout du tunnel Est si proche et si fort, que le monde est à toi Quand les anges te prennent sous leurs ailes Au bout de la route Au bout de la route Au bout de la route Au bout de la route You might also like On prend l'autoroute de la vie en sens interdit On s'retrouvera là-bas, sur le dos d'un ange, on montera tous au Paradis On s'sépare, on pleure, on gole-ri, rattraper le temps perdu Profiter de la famille, cherche la rédemption, fini les conneries On met des étiquettes sur nos douleurs, mais ça continue de faire mal La lumière au bout du tunnel, comme les elfes, survole les montagnes T'as peur, mais le courage t'accompagne, faut pas que tu désespères T'as raté le départ, la fin de l'histoire sera triomphale T'as serré le moteur, des kilomètres t'en as fait combien ? En plein cauchemar tu te lèves un matin, tu te retrouves au bout du chemin N.E.2.S. La Fouine, enfin le bout de la route Y'a de l'or dans nos mains, écoute le refrain, avant qu'j'parte dans une soute Depuis tout jeune, je vois bien que tu doutes Pas grave, on se reverra au bout de la route Sur les fronts, on voit les larmes et les gouttes De ceux qui vivent sur le bord de la route Si tu pars, si tu tombes, si tu penses que t'es seul N'oublie pas que le bout du tunnel Est si proche et si fort que le monde est à toi Quand les anges te prennent sous leurs ailes Au bout de la route Au bout de la route Au bout de la route Au bout de la route Yeah, yeah, hein hein, yeah, yeah Yeah, dans tes yeux, je vois bien que tu doutes Maâlich, on se reverra un jour au bout de la route Ils m'ont trahi, ils m'ont traîné dans la boue Mais t'inquiète, on se reverra un jour, n'ayez aucun doute Yeah, au bout de la route On ira quel que soit le prix À payer, à payer Yeah, Nessbeal, Fouiny Baby ! Depuis tout jeune, je vois bien que tu doutes Que tu doutes Pas grave, on se reverra au bout de la route Au bout de la route Sur les fronts, on voit les larmes et les gouttes Et les gouttes De ceux qui vivent sur le bord de la route N.E.2.S. Si tu pars, si tu tombes, si tu penses que t'es seul N'oublie pas que le bout du tunnel Le bout du tunnel Est si proche et si fort que le monde est à toi Quand les anges te prennent sous leurs ailes Au bout de la route Yeah, au bout de la route Au bout de la route Quoi de neuf Fouiny Baby ? Au bout de la route N.E.2.S. Rap de tess Au bout de la route Yeah, au bout de la route Banlieue Sale Music, Verbal Brolik Fouiny Baby, Docteur Skread</t>
+          <t>Au bout de la route Au bout de la route Au bout de la route Au bout de la route J'marche sans savoir ce qui se passe au bout de cette route Défaite ou victoire, j'marche, une douche froide, la pluie me remplit d'doutes Sur la bande d'arrêt d'urgence j'suis né un 16 août Au bord de la route, on s'déchire, on se fait des bisous La route est longue, de Casa à Tizi-Ouzou J'ai braqué la vie devant mes yeux, j'l'ai vu défiler quand ils m'ont mis en joue Un cur de lion dans la jungle, j'ai jamais fait de stop Quand j'tombe en panne, y'a plus personne, où sont mes potes ? Depuis tout jeune, je vois bien que tu doutes Pas grave, on se reverra au bout de la route Sur les fronts, on voit les larmes et les gouttes De ceux qui vivent sur le bord de la route Si tu pars, si tu tombes, si tu penses que t'es seul N'oublie pas que le bout du tunnel Est si proche et si fort, que le monde est à toi Quand les anges te prennent sous leurs ailes Au bout de la route Au bout de la route Au bout de la route Au bout de la route On prend l'autoroute de la vie en sens interdit On s'retrouvera là-bas, sur le dos d'un ange, on montera tous au Paradis On s'sépare, on pleure, on gole-ri, rattraper le temps perdu Profiter de la famille, cherche la rédemption, fini les conneries On met des étiquettes sur nos douleurs, mais ça continue de faire mal La lumière au bout du tunnel, comme les elfes, survole les montagnes T'as peur, mais le courage t'accompagne, faut pas que tu désespères T'as raté le départ, la fin de l'histoire sera triomphale T'as serré le moteur, des kilomètres t'en as fait combien ? En plein cauchemar tu te lèves un matin, tu te retrouves au bout du chemin N.E.2.S. La Fouine, enfin le bout de la route Y'a de l'or dans nos mains, écoute le refrain, avant qu'j'parte dans une soute Depuis tout jeune, je vois bien que tu doutes Pas grave, on se reverra au bout de la route Sur les fronts, on voit les larmes et les gouttes De ceux qui vivent sur le bord de la route Si tu pars, si tu tombes, si tu penses que t'es seul N'oublie pas que le bout du tunnel Est si proche et si fort que le monde est à toi Quand les anges te prennent sous leurs ailes Au bout de la route Au bout de la route Au bout de la route Au bout de la route Yeah, yeah, hein hein, yeah, yeah Yeah, dans tes yeux, je vois bien que tu doutes Maâlich, on se reverra un jour au bout de la route Ils m'ont trahi, ils m'ont traîné dans la boue Mais t'inquiète, on se reverra un jour, n'ayez aucun doute Yeah, au bout de la route On ira quel que soit le prix À payer, à payer Yeah, Nessbeal, Fouiny Baby ! Depuis tout jeune, je vois bien que tu doutes Que tu doutes Pas grave, on se reverra au bout de la route Au bout de la route Sur les fronts, on voit les larmes et les gouttes Et les gouttes De ceux qui vivent sur le bord de la route N.E.2.S. Si tu pars, si tu tombes, si tu penses que t'es seul N'oublie pas que le bout du tunnel Le bout du tunnel Est si proche et si fort que le monde est à toi Quand les anges te prennent sous leurs ailes Au bout de la route Yeah, au bout de la route Au bout de la route Quoi de neuf Fouiny Baby ? Au bout de la route N.E.2.S. Rap de tess Au bout de la route Yeah, au bout de la route Banlieue Sale Music, Verbal Brolik Fouiny Baby, Docteur Skread</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Au bout de mes idées, mes idées même si la chance est en exile je suis mon étoile Au bout de mes idées mais qui voulait me stoppe De toute les étoiles Et si les anges m'ouvrent leurs ailes j'irai là bas J'ai dis Ok refrè j'ai dis je sais mes journées sont longues mes nuits courtes même en éjaculant mes couilles restent lourdes. Boy tu veux savoir ce que c'est être un homme C'est celui qu'assume jusqu'à ce qu'il crève. Des sangs d'hommes enchainés je suis l'homme noir boy destiné à briller c'est plus question de temps mais de chance. On vient avec du talent et on le précoche. J'ai fait des promesses je comte les tenir, je te promets d'atteindre le sommet et réussir. Rien n'arrete un homme dé-ter-miné Bonhomme. Si tu dois le faire sans moi vas y fais le parce que sans toi moi boy je le ferais Au bout de mes idées, mes idées même si la chance est en exile je suis mon étoile Au bout de mes idées mais qui voulait me stoppe De toute les étoiles Et si les anges m'ouvrent leurs ailes j'irai là bas C'est Joe du masta m'a frappé droit dans la lucarne, j'incarne le futur mon flow pue les favelas money money macadam l'algérence de franck lucas négro le ciel est dégagé mais les étoiles trainent pas là la larme coule au parlu une larme perce un inconnu bousillé par les tunes j'suis prêt à laisser du sang dans la rue, un fil dans le Oui dans le cahier, speed comme un C'est l'une de ma casquette. les couilles ne font pas l'homme les pd sont que d'passage Et les fachos trainent au tribunal. parano je suis, anti-nouvelle heure mondiale Montre leur que tu n'est pas un trou du cul, guider par le destin avec la drogue qui ralentie mais t'auras jamais mon niveau meme sautant sur un trampoline Tu met les choses au clair, mais sans personne car mes idées sont les seules à m'évader d'cette personne, quand tu m'aperçois la rue me scie comme mon ombre, j'efface Mais j'ai l'impression d'la verser comme un mome, on garde les idées claires, on éblouie trop d'monde, j'suis comme cette lueur qui t'saute au plus d'ton profond coma, qui sais j'suis peu etre cette chance qui te comblera qu'avant on est tous pareil on dinait tous à la cave. c'est comme si, j'suis pensif, j'me sens désabusé, 23 perges et tant d'galères la vie m'a épuisé, au quartier j'cogite nan c'est pas les cités d'or ici, les rues sont plus issues . sale comme les halls des batiments où j'réside, mon voisin paie le loyer avec le traffic de résine, ma vie n'est pas si rosé j'tai pas encore tout dit, il m'faut de laYou might also like</t>
+          <t>Au bout de mes idées, mes idées même si la chance est en exile je suis mon étoile Au bout de mes idées mais qui voulait me stoppe De toute les étoiles Et si les anges m'ouvrent leurs ailes j'irai là bas J'ai dis Ok refrè j'ai dis je sais mes journées sont longues mes nuits courtes même en éjaculant mes couilles restent lourdes. Boy tu veux savoir ce que c'est être un homme C'est celui qu'assume jusqu'à ce qu'il crève. Des sangs d'hommes enchainés je suis l'homme noir boy destiné à briller c'est plus question de temps mais de chance. On vient avec du talent et on le précoche. J'ai fait des promesses je comte les tenir, je te promets d'atteindre le sommet et réussir. Rien n'arrete un homme dé-ter-miné Bonhomme. Si tu dois le faire sans moi vas y fais le parce que sans toi moi boy je le ferais Au bout de mes idées, mes idées même si la chance est en exile je suis mon étoile Au bout de mes idées mais qui voulait me stoppe De toute les étoiles Et si les anges m'ouvrent leurs ailes j'irai là bas C'est Joe du masta m'a frappé droit dans la lucarne, j'incarne le futur mon flow pue les favelas money money macadam l'algérence de franck lucas négro le ciel est dégagé mais les étoiles trainent pas là la larme coule au parlu une larme perce un inconnu bousillé par les tunes j'suis prêt à laisser du sang dans la rue, un fil dans le Oui dans le cahier, speed comme un C'est l'une de ma casquette. les couilles ne font pas l'homme les pd sont que d'passage Et les fachos trainent au tribunal. parano je suis, anti-nouvelle heure mondiale Montre leur que tu n'est pas un trou du cul, guider par le destin avec la drogue qui ralentie mais t'auras jamais mon niveau meme sautant sur un trampoline Tu met les choses au clair, mais sans personne car mes idées sont les seules à m'évader d'cette personne, quand tu m'aperçois la rue me scie comme mon ombre, j'efface Mais j'ai l'impression d'la verser comme un mome, on garde les idées claires, on éblouie trop d'monde, j'suis comme cette lueur qui t'saute au plus d'ton profond coma, qui sais j'suis peu etre cette chance qui te comblera qu'avant on est tous pareil on dinait tous à la cave. c'est comme si, j'suis pensif, j'me sens désabusé, 23 perges et tant d'galères la vie m'a épuisé, au quartier j'cogite nan c'est pas les cités d'or ici, les rues sont plus issues . sale comme les halls des batiments où j'réside, mon voisin paie le loyer avec le traffic de résine, ma vie n'est pas si rosé j'tai pas encore tout dit, il m'faut de la</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>En me baladant sur l'avenue, c'est sur le trottoir à demi-nu Que j'ai vu cette femme remuer ses fesses devant les CRS J'ai vu ce frère se faire tabasser et puis ce flingue sur moi braqué J'ai vu ce frère trop défoncé ne pouvant plus marcher Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Attends, attends Tu m'as dit c'est le pays du vin, l'avenue de l'amour, le pays du pain C'est plus l'avenue des Saoudiens, le pays des galériens Y a des clochards par terre et des keufs qui cognent et des prostituées à l'Eau de Cologne Crois-moi, y a rien de romantique au Bois de Boulogne You might also like Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Ouais, aux Champs Elysées Au soleil, sous la pluie, à midi ou à minuit Il y a tout ce que vous voulez aux Champs Elysées2</t>
+          <t>En me baladant sur l'avenue, c'est sur le trottoir à demi-nu Que j'ai vu cette femme remuer ses fesses devant les CRS J'ai vu ce frère se faire tabasser et puis ce flingue sur moi braqué J'ai vu ce frère trop défoncé ne pouvant plus marcher Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Attends, attends Tu m'as dit c'est le pays du vin, l'avenue de l'amour, le pays du pain C'est plus l'avenue des Saoudiens, le pays des galériens Y a des clochards par terre et des keufs qui cognent et des prostituées à l'Eau de Cologne Crois-moi, y a rien de romantique au Bois de Boulogne Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Aux Champs Elysées Y'a d'la cocaïne, des prostituées et de l'héroïne à bon marché Il y a tout ce que vous voulez aux Champs Elysées Aux Champs Elysées Ouais, aux Champs Elysées Au soleil, sous la pluie, à midi ou à minuit Il y a tout ce que vous voulez aux Champs Elysées2</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Grosse kichta pour soigner les apparences Tu voulais une punchline, voilà une avalanche Grosse kichta pour soigner les apparences Bitch, grosse kichta, voilà une avalanche Yo, j'préfère les pas dpoukie, salaire Premier League comme Pukki Si tu suces bien t'es ma rookie, gun sur le front j'tapprends à danser le Dougie Pas d'rouge à lèvres sur la chemise, j'ai du fond de teint sur les abdos J'chrche le bénéfice comm Pablo, quattro, cinco kilos dans l'Audi Quattro, bitch Lundi en Balmain, mardi en Givenchy, mercredi Amiri, l'argent rentre pas donc j'dégaine tranquillement mon J'aime les gros chèques, chèques, chèques, cest pour la mama Jaime les grosses schnecks, schnecks, schnecks, c'est pour le parloir Tu peux pas nous épater, ton vécu cest Gaumont, c'est Pathé Regardez le poignet, la Rolly, la Patek et la gov', l'assurance à mon nom les papiers Jsuis dans l'binks, j'ai la concurrence dans le larynx On marche en famille comme le parrain, on les fumera tous un par un J'mouille le maillot pour mon pays un peu comme Drogba Ces rappeurs ont sniffé plus de lignes que sur un code barre Elle a vu mon compte, elle a confondu avec mon numéro de sécu J'ai vu ta tchoin dans l'véhicule, j'ai confondu avec ta sécu' J'vois la concurrence à 2,40 dans l'corbillard, et dans mes poches y a plus de vert que sur un billard Bats les couilles des gilets jaunes, nous on est juste des pillards J'ai trop de ice à mon poignet j'ai signé chez Picard, bitch You might also like XXI fort 2021 Fouiny Grosse kichta pour soigner les apparences Tu voulais une punchline, voilà une avalanche</t>
+          <t>Grosse kichta pour soigner les apparences Tu voulais une punchline, voilà une avalanche Grosse kichta pour soigner les apparences Bitch, grosse kichta, voilà une avalanche Yo, j'préfère les pas dpoukie, salaire Premier League comme Pukki Si tu suces bien t'es ma rookie, gun sur le front j'tapprends à danser le Dougie Pas d'rouge à lèvres sur la chemise, j'ai du fond de teint sur les abdos J'chrche le bénéfice comm Pablo, quattro, cinco kilos dans l'Audi Quattro, bitch Lundi en Balmain, mardi en Givenchy, mercredi Amiri, l'argent rentre pas donc j'dégaine tranquillement mon J'aime les gros chèques, chèques, chèques, cest pour la mama Jaime les grosses schnecks, schnecks, schnecks, c'est pour le parloir Tu peux pas nous épater, ton vécu cest Gaumont, c'est Pathé Regardez le poignet, la Rolly, la Patek et la gov', l'assurance à mon nom les papiers Jsuis dans l'binks, j'ai la concurrence dans le larynx On marche en famille comme le parrain, on les fumera tous un par un J'mouille le maillot pour mon pays un peu comme Drogba Ces rappeurs ont sniffé plus de lignes que sur un code barre Elle a vu mon compte, elle a confondu avec mon numéro de sécu J'ai vu ta tchoin dans l'véhicule, j'ai confondu avec ta sécu' J'vois la concurrence à 2,40 dans l'corbillard, et dans mes poches y a plus de vert que sur un billard Bats les couilles des gilets jaunes, nous on est juste des pillards J'ai trop de ice à mon poignet j'ai signé chez Picard, bitch XXI fort 2021 Fouiny Grosse kichta pour soigner les apparences Tu voulais une punchline, voilà une avalanche</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Realest shit I ever wrote, chilling in my Maybach Whatever I send out, homey I'mma make back back Can you believe it? You gotta see it Cause I don't plan on going broke, put that on my Maybach Cause I'm in it to win now, niggas can't take that Listen to my Maybach music, to my Maybach music À défaut d'rouler en Maybach J'roule en Mégane biatch! Yeah! Ok, Ok et poussez-vous 'llywood veut ma peau car mon blaze est dans toutes les bouches Je suis sur toutes les lèvres tu peux m'appeler Labello Je-je roule sur la route du succès, toi t'es encore au créneau Merde! je suis guidé par l'applaudimètre J'ai tapé les yeux sur mon TomTom y m'a dit vous êtes yeah Ma 'sique dans l'creux d'l'oreille et vient te dire je t'aime J'suis une étoile, une vraie, oublie celle de ta paire de babe Quand je marche ouais, quand je marche l'école braille Demande à Merse personne n'a un style comme moi Nan j'déconne pas, je suis le meilleur détrompe toi J'mets tout l'rap au chômage, demande plus qui est le tron-pa Yeah! Les nuages sont mes accoudoirs J'ai trop de swagg, pardon mais raconte pas Va voir le dentiste si t'as une dent contre moiYou might also like</t>
+          <t>Realest shit I ever wrote, chilling in my Maybach Whatever I send out, homey I'mma make back back Can you believe it? You gotta see it Cause I don't plan on going broke, put that on my Maybach Cause I'm in it to win now, niggas can't take that Listen to my Maybach music, to my Maybach music À défaut d'rouler en Maybach J'roule en Mégane biatch! Yeah! Ok, Ok et poussez-vous 'llywood veut ma peau car mon blaze est dans toutes les bouches Je suis sur toutes les lèvres tu peux m'appeler Labello Je-je roule sur la route du succès, toi t'es encore au créneau Merde! je suis guidé par l'applaudimètre J'ai tapé les yeux sur mon TomTom y m'a dit vous êtes yeah Ma 'sique dans l'creux d'l'oreille et vient te dire je t'aime J'suis une étoile, une vraie, oublie celle de ta paire de babe Quand je marche ouais, quand je marche l'école braille Demande à Merse personne n'a un style comme moi Nan j'déconne pas, je suis le meilleur détrompe toi J'mets tout l'rap au chômage, demande plus qui est le tron-pa Yeah! Les nuages sont mes accoudoirs J'ai trop de swagg, pardon mais raconte pas Va voir le dentiste si t'as une dent contre moi</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Au clair de la lune prête moi ton zifute, que je dégomme les étoiles la sincérité, suscitent la réussite, la corde au cou, certain perdent espoir et donc se suicident Folie passagère pulsions meurtrières SI l'enfant seul à pris l'habitude de rester seul, il sera alaise seul dans un limp seul Pendant que les hommes font les fous La tristesse mes des baffe en Afrique Les colonies nous ont hagar On pique tous le frique avant de se barrer et financer dans des flash ball, des pied de biche.Putin les bâtards, après se couper la France entière? s'enssurer isssue de la bande de Gaza moi j'aime la tchétchénie même si la bas c'est le bazars. Bad Boys, on nait on vit on meurt comme des Bad Boys Je survivrai tant que je peux garder mes proches dans le vieux depuis qu'il peut mais la misère a fait de nous des mecs dangereux a la recherche de la pierre qui frappe déboiter la brique pour se faire entendre je crois faut défoncer un bringx.Appelle moi Madson qui boit voila la France pour eux c'est l'Afrique Pose avec les gars de chez moi MLC Sams mali le guiné Note tous les 3 on a pas besoin d'un kiné Notre cur bat en BBm Tapper des barres c'est sa chienne? J peux rien y faire j suis trop poche in the route J suis Bad Boys avec la classe de la? Mais faut plus de mal pour mes reufs plus de mal pour ma tête on roule à 100000 miles pour éviter la reys, mais faut plus de mal pour Madson, pour de mal pour Sams, plus de mal MLC car on est des Bad Boys Je serais jamais dans les rangs car dans la vie j suis vétéran Bad Boys dans la vie Bad Boys quand j'écris pas de bol Trop de coups m'ont perturbés Trop de fois j'ai entubé C'est la merde? Bad Boys pose ton gun laisse pas trainer ton fils La lune est pleine et les bouteilles sont vides Quand les loups deviennent garou protègent ta vie Car la route tourne vite comme un mort qui évite de tomber dans la vide Tes soucis sont raccourcis Pas de taule se coup si mais le prof ta à l il car pour lui t'es qu'un Bad Boys et toute ta vie tu sera qu'un Bad Boys J'ai plus d'air j vais me barrer sur Jupiter L'épiderme de mon cur est tapisser par la haine si ta poussé sur ma peine c'est qu'on avait la même chaine, frère Baisse pas les bras sinon comment toucher le ciel Jamais dans les rangs comme un Bad Boys On fait notre argent salement comme un Bad Boy Clip Bad Boy Banlieue sart militant comme un Bad Boy Les boucles sont des Bad Boys des Bad Boys On continue a faire la guerre comme un Bad Boy J traine avec sam c la momie comme des Bad Boys On nait on vit on meurt comme des Bad Boys Les boucles sont des Bad Boys des Bad BoysYou might also like</t>
+          <t>Au clair de la lune prête moi ton zifute, que je dégomme les étoiles la sincérité, suscitent la réussite, la corde au cou, certain perdent espoir et donc se suicident Folie passagère pulsions meurtrières SI l'enfant seul à pris l'habitude de rester seul, il sera alaise seul dans un limp seul Pendant que les hommes font les fous La tristesse mes des baffe en Afrique Les colonies nous ont hagar On pique tous le frique avant de se barrer et financer dans des flash ball, des pied de biche.Putin les bâtards, après se couper la France entière? s'enssurer isssue de la bande de Gaza moi j'aime la tchétchénie même si la bas c'est le bazars. Bad Boys, on nait on vit on meurt comme des Bad Boys Je survivrai tant que je peux garder mes proches dans le vieux depuis qu'il peut mais la misère a fait de nous des mecs dangereux a la recherche de la pierre qui frappe déboiter la brique pour se faire entendre je crois faut défoncer un bringx.Appelle moi Madson qui boit voila la France pour eux c'est l'Afrique Pose avec les gars de chez moi MLC Sams mali le guiné Note tous les 3 on a pas besoin d'un kiné Notre cur bat en BBm Tapper des barres c'est sa chienne? J peux rien y faire j suis trop poche in the route J suis Bad Boys avec la classe de la? Mais faut plus de mal pour mes reufs plus de mal pour ma tête on roule à 100000 miles pour éviter la reys, mais faut plus de mal pour Madson, pour de mal pour Sams, plus de mal MLC car on est des Bad Boys Je serais jamais dans les rangs car dans la vie j suis vétéran Bad Boys dans la vie Bad Boys quand j'écris pas de bol Trop de coups m'ont perturbés Trop de fois j'ai entubé C'est la merde? Bad Boys pose ton gun laisse pas trainer ton fils La lune est pleine et les bouteilles sont vides Quand les loups deviennent garou protègent ta vie Car la route tourne vite comme un mort qui évite de tomber dans la vide Tes soucis sont raccourcis Pas de taule se coup si mais le prof ta à l il car pour lui t'es qu'un Bad Boys et toute ta vie tu sera qu'un Bad Boys J'ai plus d'air j vais me barrer sur Jupiter L'épiderme de mon cur est tapisser par la haine si ta poussé sur ma peine c'est qu'on avait la même chaine, frère Baisse pas les bras sinon comment toucher le ciel Jamais dans les rangs comme un Bad Boys On fait notre argent salement comme un Bad Boy Clip Bad Boy Banlieue sart militant comme un Bad Boy Les boucles sont des Bad Boys des Bad Boys On continue a faire la guerre comme un Bad Boy J traine avec sam c la momie comme des Bad Boys On nait on vit on meurt comme des Bad Boys Les boucles sont des Bad Boys des Bad Boys</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Ok, ok, ok Balancia, Balanciaga Eh yo, Fouiny Bal' Ok, ok, ok J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, j'vais quer-bra si y a pas J'sors l'brolique si y a drah, my nigga, yah J'ai pas l'temps, j'suis busy, j'sors l'brolique pour viser Posé au bord d'la piscine, au tabac, vingt milles j'ai misés Sur la tête d'l'OPJ, vis-ser mal, c'est léger J'préfère faire mon TIG, en cellule, j'avais la 4G, yo Parle pas d'gent-ar, igo, j'en vois plus qu'un siste-gros J'les regarde dans l'rétro, ils ont sucé l'micro Ça ramasse la savonnette, ça parle mal que sur le net Menaces à des kilomètres, en face, ça parle le japonais Si t'es bonne, t'es mon bébé, mon clip est en TT J'arrive dans un GT, à l'époque, j'taffais chez BP You might also like J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, bord, tah les Ciara, ouais, Paname, on est là, my nigga, ouais J'ride à Copacabana, tise Piña colada, c'soir, j'pine une batata, Dar Al Beida, ouais Gow de Puerto Rico, ramène pas ta pine-co, non j'ai pas de , liasses grosses comme un putain d'rico J'ride en Balanciaga, j'fais des passes dé', blunts, quelques G, j'trouve les points, double G Et j'me barre en Goyard ou en Off White, c'est trop dar, j'ai ton bord à mon bras, ne pleure pas, c'est trop dar Les poucaves, à Paname, t'inquiètes, nous les connaissons J'appelle pas toutes mes ex, j'aime les nouvelles collections J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu</t>
+          <t>Ok, ok, ok Balancia, Balanciaga Eh yo, Fouiny Bal' Ok, ok, ok J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, j'vais quer-bra si y a pas J'sors l'brolique si y a drah, my nigga, yah J'ai pas l'temps, j'suis busy, j'sors l'brolique pour viser Posé au bord d'la piscine, au tabac, vingt milles j'ai misés Sur la tête d'l'OPJ, vis-ser mal, c'est léger J'préfère faire mon TIG, en cellule, j'avais la 4G, yo Parle pas d'gent-ar, igo, j'en vois plus qu'un siste-gros J'les regarde dans l'rétro, ils ont sucé l'micro Ça ramasse la savonnette, ça parle mal que sur le net Menaces à des kilomètres, en face, ça parle le japonais Si t'es bonne, t'es mon bébé, mon clip est en TT J'arrive dans un GT, à l'époque, j'taffais chez BP J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, bord, tah les Ciara, ouais, Paname, on est là, my nigga, ouais J'ride à Copacabana, tise Piña colada, c'soir, j'pine une batata, Dar Al Beida, ouais Gow de Puerto Rico, ramène pas ta pine-co, non j'ai pas de , liasses grosses comme un putain d'rico J'ride en Balanciaga, j'fais des passes dé', blunts, quelques G, j'trouve les points, double G Et j'me barre en Goyard ou en Off White, c'est trop dar, j'ai ton bord à mon bras, ne pleure pas, c'est trop dar Les poucaves, à Paname, t'inquiètes, nous les connaissons J'appelle pas toutes mes ex, j'aime les nouvelles collections J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu J'ride en Balanciaga, en Balanciaga, en Balanciaga, my nigga J'ride en Balanciaga, en Balanciaga, en Balanciaga, mon rebeu</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Tu sais bien ce qui a brisé nos chaines .. Bang bang Tu sais où cette chienne de vie nous mène .. Bang bang Tu connais ce mauvais passé qu'on traîne .. Ouuuh Bang bang Bang bang , bang bang .. Naah ouuuh ouuuh ouuuh Nord-Sud-Est-Ouest pour toutes les capitales du crime Naah ouuuh ouuuh ouuuh Banlieue Sale , 78 , Canardo , La Fouine Yeah j'ai grandi dans les rues d'Trappes , 2-3 toxicos sur le champ d'vision Première division, slalom entre les peines de prisons Enlève tes baskets, mets-toi accroupi, tousse Drogue dure, drogue douce, on en vend tous , les murs ont des Bluetooth Quand j'étais p'tit ma mère m'envoyait faire les courses à ED Toute ma vie j'ai vu les gens qu'j'aimais faire des O.D J'aurai kiffé être né dans l'XVIe Mais j'suis né à Trappes , l'ascenseur est bloqué quand j'veux monter au 16e J'verse pas d'gorgées pour nos morts , j'leur envoie des prières Les jours passent mais ma peine reste la même qu'hier Ça d'vient grave on s'fait mal pour un gramme Les p'tits frères s'font planter , les couteaux ont pris du viagra Dans mes rêves jassommais les keufs à coups d'marteau Ouais gars, tout va pour le mieux , demande à Canardo Viens pas gazer ici ou tu vas manger l'sol Maîtrise les clés d'bras et les clés d'sol, hassol ! You might also like Tu sais bien ce qui a brisé nos chaines .. Bang bang Tu sais où cette chienne de vie nous mène .. Bang bang Tu connais ce mauvais passé qu'on traîne .. Ouuuh Bang bang Bang bang , bang bang .. Naah ouuuh ouuuh ouuuh Nord-Sud-Est-Ouest pour toutes les capitales du crime Naah ouuuh ouuuh ouuuh Banlieue Sale , 78 , Canardo , La Fouine J'ai eu la rue comme père , jamais vraiment eu d'modèle Pour m'montrer c'qui était bon ou mauvais Aujourd'hui j'ai un fils qui m'dit Papa j't'aime Où tu vas ? Dès qu'tu sors mon cur fait bang bang C'est pour lui que j'rêve d'quitter cette merde Et pour lui boy l'père qu'j'n'ai pas eu Le mien était trop absent , trop souvent en taule Au ptit déj' pas d'croissant , pas d'eau chaude Guerrier résistant Mon passé m'a rendu thug , rendu prestant J'ai pas souri d'puis longtemps frère J'ai vu l'feu, j'ai vu l'enfer Peu importe c'que s'ra ma life négro j'assume Paix et dédicace aux vrais boys du bitume Yeah, tous nos rêves s'réaliseront Canardo , Green , La Fouine s'en occuperont, yeah Tu sais bien ce qui a brisé nos chaines .. Bang bang Tu sais où cette chienne de vie nous mène .. Bang bang Tu connais ce mauvais passé qu'on traîne .. Ouuuh Bang bang Bang bang , bang bang .. Naah ouuuh ouuuh ouuuh Nord-Sud-Est-Ouest pour toutes les capitales du crime Naah ouuuh ouuuh ouuuh Banlieue Sale , 78 , Canardo , La Fouine Yeah , ne me demande pas mes projets , car mec je n'en ai pas Ici à part le bizz ou bien rester en vie Je viens des quartiers sales , ceux qui proviennent d'en bas Touchés par la crise , ici la poisse nous aime L'endroit où l'on viiiit On y dort mais on n'y rêve pas Et puis parfois on riiiit Mais les 34 sont au card-pla On a tous quitté l'école , pour faire de la money L'amour ça rend fou , regarde Clyde et Bonnie De parquet en parquet , sur la tête un sursis d'6 mois La rue a fait de moi , ce que tu sais sur moi On fume des gros spliffs , redbull et vodka Parfois on la joue clean , et parfois on rotte-ca Putain y'a pas d'taff , mais demande à mon gars On met des costumes sans oublier que l'on vient d'en bas Tu sais bien ce qui a brisé nos chaines .. Bang bang Tu sais où cette chienne de vie nous mène .. Bang bang Tu connais ce mauvais passé qu'on traîne .. Ouuuh Bang bang Bang bang , bang bang .. Naah ouuuh ouuuh ouuuh Nord-Sud-Est-Ouest pour toutes les capitales du crime Naah ouuuh ouuuh ouuuh Banlieue Sale , 78 , Canardo , La Fouine1</t>
+          <t>Tu sais bien ce qui a brisé nos chaines .. Bang bang Tu sais où cette chienne de vie nous mène .. Bang bang Tu connais ce mauvais passé qu'on traîne .. Ouuuh Bang bang Bang bang , bang bang .. Naah ouuuh ouuuh ouuuh Nord-Sud-Est-Ouest pour toutes les capitales du crime Naah ouuuh ouuuh ouuuh Banlieue Sale , 78 , Canardo , La Fouine Yeah j'ai grandi dans les rues d'Trappes , 2-3 toxicos sur le champ d'vision Première division, slalom entre les peines de prisons Enlève tes baskets, mets-toi accroupi, tousse Drogue dure, drogue douce, on en vend tous , les murs ont des Bluetooth Quand j'étais p'tit ma mère m'envoyait faire les courses à ED Toute ma vie j'ai vu les gens qu'j'aimais faire des O.D J'aurai kiffé être né dans l'XVIe Mais j'suis né à Trappes , l'ascenseur est bloqué quand j'veux monter au 16e J'verse pas d'gorgées pour nos morts , j'leur envoie des prières Les jours passent mais ma peine reste la même qu'hier Ça d'vient grave on s'fait mal pour un gramme Les p'tits frères s'font planter , les couteaux ont pris du viagra Dans mes rêves jassommais les keufs à coups d'marteau Ouais gars, tout va pour le mieux , demande à Canardo Viens pas gazer ici ou tu vas manger l'sol Maîtrise les clés d'bras et les clés d'sol, hassol ! Tu sais bien ce qui a brisé nos chaines .. Bang bang Tu sais où cette chienne de vie nous mène .. Bang bang Tu connais ce mauvais passé qu'on traîne .. Ouuuh Bang bang Bang bang , bang bang .. Naah ouuuh ouuuh ouuuh Nord-Sud-Est-Ouest pour toutes les capitales du crime Naah ouuuh ouuuh ouuuh Banlieue Sale , 78 , Canardo , La Fouine J'ai eu la rue comme père , jamais vraiment eu d'modèle Pour m'montrer c'qui était bon ou mauvais Aujourd'hui j'ai un fils qui m'dit Papa j't'aime Où tu vas ? Dès qu'tu sors mon cur fait bang bang C'est pour lui que j'rêve d'quitter cette merde Et pour lui boy l'père qu'j'n'ai pas eu Le mien était trop absent , trop souvent en taule Au ptit déj' pas d'croissant , pas d'eau chaude Guerrier résistant Mon passé m'a rendu thug , rendu prestant J'ai pas souri d'puis longtemps frère J'ai vu l'feu, j'ai vu l'enfer Peu importe c'que s'ra ma life négro j'assume Paix et dédicace aux vrais boys du bitume Yeah, tous nos rêves s'réaliseront Canardo , Green , La Fouine s'en occuperont, yeah Tu sais bien ce qui a brisé nos chaines .. Bang bang Tu sais où cette chienne de vie nous mène .. Bang bang Tu connais ce mauvais passé qu'on traîne .. Ouuuh Bang bang Bang bang , bang bang .. Naah ouuuh ouuuh ouuuh Nord-Sud-Est-Ouest pour toutes les capitales du crime Naah ouuuh ouuuh ouuuh Banlieue Sale , 78 , Canardo , La Fouine Yeah , ne me demande pas mes projets , car mec je n'en ai pas Ici à part le bizz ou bien rester en vie Je viens des quartiers sales , ceux qui proviennent d'en bas Touchés par la crise , ici la poisse nous aime L'endroit où l'on viiiit On y dort mais on n'y rêve pas Et puis parfois on riiiit Mais les 34 sont au card-pla On a tous quitté l'école , pour faire de la money L'amour ça rend fou , regarde Clyde et Bonnie De parquet en parquet , sur la tête un sursis d'6 mois La rue a fait de moi , ce que tu sais sur moi On fume des gros spliffs , redbull et vodka Parfois on la joue clean , et parfois on rotte-ca Putain y'a pas d'taff , mais demande à mon gars On met des costumes sans oublier que l'on vient d'en bas Tu sais bien ce qui a brisé nos chaines .. Bang bang Tu sais où cette chienne de vie nous mène .. Bang bang Tu connais ce mauvais passé qu'on traîne .. Ouuuh Bang bang Bang bang , bang bang .. Naah ouuuh ouuuh ouuuh Nord-Sud-Est-Ouest pour toutes les capitales du crime Naah ouuuh ouuuh ouuuh Banlieue Sale , 78 , Canardo , La Fouine1</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Pepom gun shit tarpé banlieue Food halal bout de shit coffré banlieue ... En 2 mots je te résume le ghetto banlieue Lève le doigt en l'air la justice nique sa mère 78 VF Gang et La Fouine c'est big bang Banlieue dramatique avec de la merde et beaucoup de haram ... Oh la zermi c'est la dèche quand je sors de zonpri C'est la merde et ça les grands l'ont dit ... Sexe drogue gun dans ma banlieue ouest Ton son est largué man on te met à l'ouest On a changé les saloons en halls comme au far west On va te niquer ta mère si tu veux test Dans nos mains on a des guns Dans les blocs il y a nos reum C'est la fouine j'ai le seum C'est banlieue Ouest Nous c'est la banlieue ouest Je le sens il ve pleuvoir Sans les gens on ne peut rien voir J'ai bien dormi comme un loir Ne vas pas te baigner dans la Loire Ecoute LA FOUINE ecoute Belleck Sa fait banlieue banlieue sale 88, 78 Belleck la fouine Dans nos mains on a des guns Dans les blocs il y a nos reum C'est la fouine j'ai le seum C'est banlieue Ouest Yeah, Yeah Le rap avance Chez moi c'est le 78 BLOCS, immeubles Banlieue sale 78 La La La Fouine C'est ça yeah quoi de neuf fouiny baby Ah ah Chez moi c'est l'78 et je rap avec mon poto de la banlieue banlieue 88 Belleck et LA FOUINE sa la fait écoute et moi j'te le dit pn va faire comme ton père et ton grand-père Dans nos mains on a des guns Dans les blocs il y a nos reum C'est la fouine j'ai le seum C'est banlieue OuestYou might also like</t>
+          <t>Pepom gun shit tarpé banlieue Food halal bout de shit coffré banlieue ... En 2 mots je te résume le ghetto banlieue Lève le doigt en l'air la justice nique sa mère 78 VF Gang et La Fouine c'est big bang Banlieue dramatique avec de la merde et beaucoup de haram ... Oh la zermi c'est la dèche quand je sors de zonpri C'est la merde et ça les grands l'ont dit ... Sexe drogue gun dans ma banlieue ouest Ton son est largué man on te met à l'ouest On a changé les saloons en halls comme au far west On va te niquer ta mère si tu veux test Dans nos mains on a des guns Dans les blocs il y a nos reum C'est la fouine j'ai le seum C'est banlieue Ouest Nous c'est la banlieue ouest Je le sens il ve pleuvoir Sans les gens on ne peut rien voir J'ai bien dormi comme un loir Ne vas pas te baigner dans la Loire Ecoute LA FOUINE ecoute Belleck Sa fait banlieue banlieue sale 88, 78 Belleck la fouine Dans nos mains on a des guns Dans les blocs il y a nos reum C'est la fouine j'ai le seum C'est banlieue Ouest Yeah, Yeah Le rap avance Chez moi c'est le 78 BLOCS, immeubles Banlieue sale 78 La La La Fouine C'est ça yeah quoi de neuf fouiny baby Ah ah Chez moi c'est l'78 et je rap avec mon poto de la banlieue banlieue 88 Belleck et LA FOUINE sa la fait écoute et moi j'te le dit pn va faire comme ton père et ton grand-père Dans nos mains on a des guns Dans les blocs il y a nos reum C'est la fouine j'ai le seum C'est banlieue Ouest</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>De 1, j'ai pé-cho ta meuf parce qu'elle était trop bonne Elle a butiné mon miel sur l'instru' de J-Kwone Viens pécho à Trappes, ça parle en tonnes Même les keufs fument la hiy' car plus rien n'm'étonne Un bédo, une 16, j'étais postiché au square Quand ta meuf me voit, elle m'appelle sa superstar Dis-leur Canardo, c'est pour les reufs qui rentrent tard Dédicace à tous les mecs de Trappes à Bois d'Ar' J'aime quand les keufs coursent les p'tits en bécane de cross J'aime quand les fils de pute se prennent des coups d'crosse Raptor, CL6, Bombardier, Porsche Direction le bled, La La Fouine dans ton poste J'aime quand, par la fenêtre, on jette nos barquettes J'aime quand on cache du shit dans nos baskets J'aime quand les reufs s'en sortent bien aux Assiet' Quand ces fils de pute de pointeurs de p'tites prennent la perpet' C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest De 2, va per-cho ma mixtape en attendant l'album J'ai collé les pièces de ma vie avec un chewing-gum Rap business, banlieue, sexe, drogue, gun Tu vas finir dans un coffre, si t'ouvres trop ta grande gueule Les p'tits ont braqué les profs et ont quitté tôt l'école Si comme moi, t'as roulé des joints pendant tes heures d'colle Chez nous, on sniffe pas d'colle, non on picole Avec des gros 25 de hiy' caché dans la groll J'aime quand les keufs se font maravent au square J'aime rouler sans permis, fumer tard le soir J'aime quand on parle en sursis au prétoire J'aime ma cellule quand je sors du mitard J'aime pas les juges avec leurs gueules d'avocat J'aime tous les banlieusards, en chien, dans mon cas L'album arrive, voilà l'premier attentat S'il m'arrive quelque chose, les reufs assurent les mandats You might also like C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest De 3, va per-cho mon son, il est gratuit, j'te le donne Sur lafouine78.com Les keufs ont mis sur écoute mon Sony Ericsson J'ai un il couleur shit, l'autre strip comme Sermon J'aime quand les p'tits indics s'prennent des grosses baffes J'aime quand les gens apprécient quand j'fais mon taf' Enfile ton pare-balles car ma bouche est un glock Ici, tous les p'tits veulent per-pom Jenny from the block C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest</t>
+          <t>De 1, j'ai pé-cho ta meuf parce qu'elle était trop bonne Elle a butiné mon miel sur l'instru' de J-Kwone Viens pécho à Trappes, ça parle en tonnes Même les keufs fument la hiy' car plus rien n'm'étonne Un bédo, une 16, j'étais postiché au square Quand ta meuf me voit, elle m'appelle sa superstar Dis-leur Canardo, c'est pour les reufs qui rentrent tard Dédicace à tous les mecs de Trappes à Bois d'Ar' J'aime quand les keufs coursent les p'tits en bécane de cross J'aime quand les fils de pute se prennent des coups d'crosse Raptor, CL6, Bombardier, Porsche Direction le bled, La La Fouine dans ton poste J'aime quand, par la fenêtre, on jette nos barquettes J'aime quand on cache du shit dans nos baskets J'aime quand les reufs s'en sortent bien aux Assiet' Quand ces fils de pute de pointeurs de p'tites prennent la perpet' C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest De 2, va per-cho ma mixtape en attendant l'album J'ai collé les pièces de ma vie avec un chewing-gum Rap business, banlieue, sexe, drogue, gun Tu vas finir dans un coffre, si t'ouvres trop ta grande gueule Les p'tits ont braqué les profs et ont quitté tôt l'école Si comme moi, t'as roulé des joints pendant tes heures d'colle Chez nous, on sniffe pas d'colle, non on picole Avec des gros 25 de hiy' caché dans la groll J'aime quand les keufs se font maravent au square J'aime rouler sans permis, fumer tard le soir J'aime quand on parle en sursis au prétoire J'aime ma cellule quand je sors du mitard J'aime pas les juges avec leurs gueules d'avocat J'aime tous les banlieusards, en chien, dans mon cas L'album arrive, voilà l'premier attentat S'il m'arrive quelque chose, les reufs assurent les mandats C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest De 3, va per-cho mon son, il est gratuit, j'te le donne Sur lafouine78.com Les keufs ont mis sur écoute mon Sony Ericsson J'ai un il couleur shit, l'autre strip comme Sermon J'aime quand les p'tits indics s'prennent des grosses baffes J'aime quand les gens apprécient quand j'fais mon taf' Enfile ton pare-balles car ma bouche est un glock Ici, tous les p'tits veulent per-pom Jenny from the block C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest C'est sexe, drogue, gun dans ma banlieue ouest Sexe, drogue, gun dans ma banlieue ouest</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>À tous ces haineux, j'ai de l'amour pour vous Asseyez-vous tous dans la salle tranquillement Tiens, trouvez-lui des feuilles il veut se rouler un joint On dirait le frérot là-bas Bref, ouvrez bien grand vos oreilles Au micro c'est Fouiny Babe J'ai jamais fêté Noël, mais j'ai toujours mis le paquet Maman nettoyait le sol et j'ai toujours fini au parquet Drôle de parcours, des voitures volées jusqu'au Valais J'ai fait le ménage dans ma vie. Normal, j'ai 30 balais Banlieue Sale Un keuf à terre c'est un tit-pe qui se lève Rap français, y a que les frères tombés qui attendent la relève Je fais mon taff arrête de khaf tu vas te manger des baffes Je suis trop célèbre et même mon assistant signe des autographes Swaaaag Et moi je kiffe grave, ouais, c'est un privilège Ici les tox te vendraient leur écharpe pour s'acheter un peu de neige Dis à l'Oxi de prévenir les autres tout le square est en deuil Celle-là c'est pour les frères au trou qui sont en chien de feuilles La rue mon royaume, mon home sweet home Tête baissée, genoux baissés laisse la lumière éclairer mes paumes L'imam m'appelle du banc de touche mais je suis toujours sur le terrain J'avais peur de pas percer, je traînais avec un surin A part des grosses pierres, frère, aux keufs j'ai rien à balance Je traînais en voiture volée ouais mais j'avais de l'assurance Enfermé à huit clos, des lettres pour me soutenir J'ai brûlé les photos mais j'en garde encore les souvenirs Passe l'hiver au quartier, l'été en bombardier Bien rencardé je pousse mon succès comme un brancardier Et tu me verras pas dans Closer, tu me verras pas dans Voici Absent de leur émission mais numéro un à Bois d'Arcy Je quitte l'école alcoolisé parce que la rue m'a saoulé Et mes albums sont lourds je suis dans les bacs avec des bourrelets Dans le théâtre de nos vies la mort refoule personne au casting Ils ont péta mon flow FlowJacking Ils sont restés en chien voilà pourquoi ils ont la rage Je suis trop déchiré mais j'essaye de tourner la page J'ai voulu prendre un bon baveux on m'a dit t'as pas assez Le label voulait que je pose un seize Je leur ai dit C'est pas assez! You might also likeLe label voulait que je pose un seize Je leur ai dit C'est pas assez Bah je crois je vais m'arrêter là Ruskov Et tu sais quoi? En fait j'aimerais que tu me fasses kiffer un son Avant de partir, j'aimerais que tu me mettes un son Un son magique Tiens coupe ce son. Et puis mets-moi Donne-moi</t>
+          <t>À tous ces haineux, j'ai de l'amour pour vous Asseyez-vous tous dans la salle tranquillement Tiens, trouvez-lui des feuilles il veut se rouler un joint On dirait le frérot là-bas Bref, ouvrez bien grand vos oreilles Au micro c'est Fouiny Babe J'ai jamais fêté Noël, mais j'ai toujours mis le paquet Maman nettoyait le sol et j'ai toujours fini au parquet Drôle de parcours, des voitures volées jusqu'au Valais J'ai fait le ménage dans ma vie. Normal, j'ai 30 balais Banlieue Sale Un keuf à terre c'est un tit-pe qui se lève Rap français, y a que les frères tombés qui attendent la relève Je fais mon taff arrête de khaf tu vas te manger des baffes Je suis trop célèbre et même mon assistant signe des autographes Swaaaag Et moi je kiffe grave, ouais, c'est un privilège Ici les tox te vendraient leur écharpe pour s'acheter un peu de neige Dis à l'Oxi de prévenir les autres tout le square est en deuil Celle-là c'est pour les frères au trou qui sont en chien de feuilles La rue mon royaume, mon home sweet home Tête baissée, genoux baissés laisse la lumière éclairer mes paumes L'imam m'appelle du banc de touche mais je suis toujours sur le terrain J'avais peur de pas percer, je traînais avec un surin A part des grosses pierres, frère, aux keufs j'ai rien à balance Je traînais en voiture volée ouais mais j'avais de l'assurance Enfermé à huit clos, des lettres pour me soutenir J'ai brûlé les photos mais j'en garde encore les souvenirs Passe l'hiver au quartier, l'été en bombardier Bien rencardé je pousse mon succès comme un brancardier Et tu me verras pas dans Closer, tu me verras pas dans Voici Absent de leur émission mais numéro un à Bois d'Arcy Je quitte l'école alcoolisé parce que la rue m'a saoulé Et mes albums sont lourds je suis dans les bacs avec des bourrelets Dans le théâtre de nos vies la mort refoule personne au casting Ils ont péta mon flow FlowJacking Ils sont restés en chien voilà pourquoi ils ont la rage Je suis trop déchiré mais j'essaye de tourner la page J'ai voulu prendre un bon baveux on m'a dit t'as pas assez Le label voulait que je pose un seize Je leur ai dit C'est pas assez! Le label voulait que je pose un seize Je leur ai dit C'est pas assez Bah je crois je vais m'arrêter là Ruskov Et tu sais quoi? En fait j'aimerais que tu me fasses kiffer un son Avant de partir, j'aimerais que tu me mettes un son Un son magique Tiens coupe ce son. Et puis mets-moi Donne-moi</t>
         </is>
       </c>
     </row>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Ta meuf est moche, toi tu traînes toujours dehors Faut souffrir pour être belle, elle va dvoir frôler la mort Bats les couilles des gilets jaunes, on veut juste brûler les Champs Faut pas prendre les gens pour des cons et puis les cons pour des gens Moi cest Fouiny Babe, enchanté señorita, maintenant chupa 78 on sort les machins sil ya haija on ne joue pas Rien na changé sauf la qualité dmes diamants VVS Tas commencé dans la bibi, tas fini l'nez dans la cess' Bébé niques ta maman là-bas, fais ta ie-v Parait qutas tourné la page, moi jai changé de livre Joublie des liasses dans mes poches tête en lair jrécidive Putain mes vêtements sont mauves en sortant de la lessive Gros jsuis né pour briller, né pour piller, circoncis comme canon scié Venu pour piller, billet, jai quelques hassanets dans lbarillet Quelques Douaas pour le padre, juste un couplet pour tépater Jtiens les murs, bientôt les piliers, grosses hassanets dans le barillet dans lbarillet Dans lbarillet Grosses hassanets dans lbarillet Dans lbarillet Avec des si tu refais le monde, avec des scies on tcoupe un membre Où est passé tout le gang ? J'crois qutas poucave tous les membres Petit jsuivais trop les grands, jsavais rapper dans les temps Ils mdisaient tas trop dflow, comme si jmétais noyé dans létang On les a piqué, niqué, trop impliqué, forcé dkicker dans la street Quartier fliqué, ascenseur niqué, on monte on descend dans la pisse On monte on descend dans la pisse, go fast, Espagne, RS6 RSA de père en fils, jpréfère finir aux assises Génération incroyable, jsuis dans un monde incroyable Sil y a tant dinfluenceurs cest quil y a tant dgens influençables Jvais finir comme Mandela, ça fait vingt ans quon est là WAllah ltalent ça paye plus, demande à Karim Benzema You might also like Gros jsuis né pour briller, né pour piller, circoncis comme canon scié Venu pour piller, billet, jai quelques hassanets dans lbarillet Quelques Douaas pour le padre, juste un couplet pour tépater Jtiens les murs, bientôt les piliers, grosses hassanets dans le barillet dans lbarillet Dans lbarillet Grosses hassanets dans lbarillet Dans lbarillet Holà, holà, holà muchacho Jsuis dans lbario quelques hassanets dans lbarillet Fouiny, eh yo FlowFleezy Gang gang gang</t>
+          <t>Ta meuf est moche, toi tu traînes toujours dehors Faut souffrir pour être belle, elle va dvoir frôler la mort Bats les couilles des gilets jaunes, on veut juste brûler les Champs Faut pas prendre les gens pour des cons et puis les cons pour des gens Moi cest Fouiny Babe, enchanté señorita, maintenant chupa 78 on sort les machins sil ya haija on ne joue pas Rien na changé sauf la qualité dmes diamants VVS Tas commencé dans la bibi, tas fini l'nez dans la cess' Bébé niques ta maman là-bas, fais ta ie-v Parait qutas tourné la page, moi jai changé de livre Joublie des liasses dans mes poches tête en lair jrécidive Putain mes vêtements sont mauves en sortant de la lessive Gros jsuis né pour briller, né pour piller, circoncis comme canon scié Venu pour piller, billet, jai quelques hassanets dans lbarillet Quelques Douaas pour le padre, juste un couplet pour tépater Jtiens les murs, bientôt les piliers, grosses hassanets dans le barillet dans lbarillet Dans lbarillet Grosses hassanets dans lbarillet Dans lbarillet Avec des si tu refais le monde, avec des scies on tcoupe un membre Où est passé tout le gang ? J'crois qutas poucave tous les membres Petit jsuivais trop les grands, jsavais rapper dans les temps Ils mdisaient tas trop dflow, comme si jmétais noyé dans létang On les a piqué, niqué, trop impliqué, forcé dkicker dans la street Quartier fliqué, ascenseur niqué, on monte on descend dans la pisse On monte on descend dans la pisse, go fast, Espagne, RS6 RSA de père en fils, jpréfère finir aux assises Génération incroyable, jsuis dans un monde incroyable Sil y a tant dinfluenceurs cest quil y a tant dgens influençables Jvais finir comme Mandela, ça fait vingt ans quon est là WAllah ltalent ça paye plus, demande à Karim Benzema Gros jsuis né pour briller, né pour piller, circoncis comme canon scié Venu pour piller, billet, jai quelques hassanets dans lbarillet Quelques Douaas pour le padre, juste un couplet pour tépater Jtiens les murs, bientôt les piliers, grosses hassanets dans le barillet dans lbarillet Dans lbarillet Grosses hassanets dans lbarillet Dans lbarillet Holà, holà, holà muchacho Jsuis dans lbario quelques hassanets dans lbarillet Fouiny, eh yo FlowFleezy Gang gang gang</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Oui par amour qu'est-ce que tu ferais ? Oui par amour jusqu'où t'irais ? Tourner le dos à tes re-fré Pour les beaux yeux d'une petite traînée Oui par amour qu'est-ce que tu ferais ? Oui par amour jusqu'où t'irais ? L'amour est aveugle, et ses yeux sont un piège Après t'avoir brisé, mon ami elle t'as té-je Oui il s'est tapé des groupies, youpi Là, ça ne sert à rien de pleurer Faut qu'il, comprenne que tu n'es pas un outil Et si il te prend pour un acquis c'est la faute à qui ? Je sais que tu penses que je te taquine Mais sur la tête de ma reu-mè c'était ta copine Tu dis que tu as mal, mais moi de quoi je me mêle ? Et attends je n'ai pas tout dit Elle s'est approchée de ton homme Devant lui a sha-sha-shaké son booty En face d'elle il était comme un môme Qui ba-bavait devant un cookie Et si ses excuses sont les mêmes Sors de son taudis, qu'il soit maudit Fais de lui un ex et expire Dans une semaine tu diras who's next ? You might also like Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! Pourquoi lui irait voir ailleurs et pas toi ? Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! De lui dire casse-toi, barre-toi, basta ! Qu'est-ce que tu ferais par amour ? Dis-moi qu'est-ce que tu ferais ? Tu serais peut-être prêt comme un tre-traî à donner tes re-frè Qu'est-ce que tu déconnes, comporte-toi comme un homme Comporte-toi comme un vrai et, laisse de côté l'alcool C'est vrai elle t'a quitté mais dis-moi tu comptes faire quoi ? Lui chanter ne me quitte pas ça ne marche pas Elle te trompait ta meuf et ça tout le monde te l'a dit mais bon L'amour est aveugle et toi tu criais c'est la seule ! Elle se foutait de ta gueule, elle voulait grimper dans ta gov' Elle cherchait pas le lascar le plus beau, mais le compte le plus gros C'est qu'une groupie groupie, elle tourne comme une toupie toupie Elle cherche le Louis Vuitton le Gucci Gucci Elle te mérite même pas ce n'est qu'une tass' Avec elle tu t'es noyé dans les soucis re-frè t'as bu la tasse L'amour est aveugle man, il t'as rendu con man il t'as rendu sourd T'as les mauvaises réponses, t'es tu posé les bonnes questions ? Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! Pourquoi lui irait voir ailleurs et pas toi ? Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! De lui dire casse-toi, barre-toi, basta ! Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! Pourquoi lui irait voir ailleurs et pas toi ? Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! De lui dire casse-toi, barre-toi, basta ! Arrête de pleurer sur ton sort, arrête de pleurer dans ton verre Arrête de te lamenter sur ta, soit-disante dernière bière Elle est partie avec un autre pour combien de temps ? Pour combien de zéros, pour combien de pourcents ? Pleure pas gamin, après tout ce n'est qu'un pain Sèche tes larmes avec ta tête de j'vais me balancer sous l'train Man sèche tes larmes, va pas en faire un drame Viens j'te paie un coup, après tout on s'en fout ! Faut que t'aies le courage de lui dire que c'est un salaud Que tous vos projets tombent à l'eau Tu n'as qu'à l'appeler au phone et lui dire Allô Baby c'est fini j'pars au galop Bien sûr il va essayer de t'emballer Tu lui diras je démissionne reprends ton balai Garde ta salive dans ton palais Il y a plus le temps de parler Oui par amour qu'est-ce que tu ferais ? Oui par amour jusqu'où t'irais ? Tourner le dos à tes re-fré Pour les beaux yeux d'une petite traînée Oui par amour qu'est-ce que tu ferais ? Oui par amour jusqu'où t'irais ? L'amour est aveugle, et ses yeux sont un piège Après t'avoir brisé, mon ami elle t'as té-je1</t>
+          <t>Oui par amour qu'est-ce que tu ferais ? Oui par amour jusqu'où t'irais ? Tourner le dos à tes re-fré Pour les beaux yeux d'une petite traînée Oui par amour qu'est-ce que tu ferais ? Oui par amour jusqu'où t'irais ? L'amour est aveugle, et ses yeux sont un piège Après t'avoir brisé, mon ami elle t'as té-je Oui il s'est tapé des groupies, youpi Là, ça ne sert à rien de pleurer Faut qu'il, comprenne que tu n'es pas un outil Et si il te prend pour un acquis c'est la faute à qui ? Je sais que tu penses que je te taquine Mais sur la tête de ma reu-mè c'était ta copine Tu dis que tu as mal, mais moi de quoi je me mêle ? Et attends je n'ai pas tout dit Elle s'est approchée de ton homme Devant lui a sha-sha-shaké son booty En face d'elle il était comme un môme Qui ba-bavait devant un cookie Et si ses excuses sont les mêmes Sors de son taudis, qu'il soit maudit Fais de lui un ex et expire Dans une semaine tu diras who's next ? Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! Pourquoi lui irait voir ailleurs et pas toi ? Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! De lui dire casse-toi, barre-toi, basta ! Qu'est-ce que tu ferais par amour ? Dis-moi qu'est-ce que tu ferais ? Tu serais peut-être prêt comme un tre-traî à donner tes re-frè Qu'est-ce que tu déconnes, comporte-toi comme un homme Comporte-toi comme un vrai et, laisse de côté l'alcool C'est vrai elle t'a quitté mais dis-moi tu comptes faire quoi ? Lui chanter ne me quitte pas ça ne marche pas Elle te trompait ta meuf et ça tout le monde te l'a dit mais bon L'amour est aveugle et toi tu criais c'est la seule ! Elle se foutait de ta gueule, elle voulait grimper dans ta gov' Elle cherchait pas le lascar le plus beau, mais le compte le plus gros C'est qu'une groupie groupie, elle tourne comme une toupie toupie Elle cherche le Louis Vuitton le Gucci Gucci Elle te mérite même pas ce n'est qu'une tass' Avec elle tu t'es noyé dans les soucis re-frè t'as bu la tasse L'amour est aveugle man, il t'as rendu con man il t'as rendu sourd T'as les mauvaises réponses, t'es tu posé les bonnes questions ? Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! Pourquoi lui irait voir ailleurs et pas toi ? Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! De lui dire casse-toi, barre-toi, basta ! Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! Pourquoi lui irait voir ailleurs et pas toi ? Faut que t'aies le courage de lui dire barre-toi ! Non n'aie pas peur de lui dire casse-toi ! Faut que t'aies le courage de lui dire barre-toi ! De lui dire casse-toi, barre-toi, basta ! Arrête de pleurer sur ton sort, arrête de pleurer dans ton verre Arrête de te lamenter sur ta, soit-disante dernière bière Elle est partie avec un autre pour combien de temps ? Pour combien de zéros, pour combien de pourcents ? Pleure pas gamin, après tout ce n'est qu'un pain Sèche tes larmes avec ta tête de j'vais me balancer sous l'train Man sèche tes larmes, va pas en faire un drame Viens j'te paie un coup, après tout on s'en fout ! Faut que t'aies le courage de lui dire que c'est un salaud Que tous vos projets tombent à l'eau Tu n'as qu'à l'appeler au phone et lui dire Allô Baby c'est fini j'pars au galop Bien sûr il va essayer de t'emballer Tu lui diras je démissionne reprends ton balai Garde ta salive dans ton palais Il y a plus le temps de parler Oui par amour qu'est-ce que tu ferais ? Oui par amour jusqu'où t'irais ? Tourner le dos à tes re-fré Pour les beaux yeux d'une petite traînée Oui par amour qu'est-ce que tu ferais ? Oui par amour jusqu'où t'irais ? L'amour est aveugle, et ses yeux sont un piège Après t'avoir brisé, mon ami elle t'as té-je1</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Quand la nuit tombe et qu'je me sens si seul, j'ai, très peu de gens sur qui compter Qui je suis, au fond seuls les vrais le savent, que le ciel me regarde J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera T'as l'taureau sur la canette, moi j'l'ai sur le capot J'grattais en cellule, normal que l'succès m'donne le barreau Brillant banlieusard, je fais du rap et plus du pognon Ils ont versés quelques larmes, ils s'sont mêlés d'mes oignons Et même Stevie a vu leur trahison Ils ont les mêmes dépositions, j'crois qu'ils poucavent à l'unisson Gloire, réussite, j'ai des impact de balle sur le parachute J'aimerais peser mes mots, wAllah j'peux pas c'est des fils de pute Inscrire libre à la lame sur mon bras car j'suis mort en cellule Nan personne ne m'a aidé, j'rappais seul au crépuscule L'évolution dans les rues d'Trappes, Laouni ou La Fouine J'courbe l'échine que devant Dieu, fuck Darwin En airplay sur toutes les ondes, j'ai la SACEM à Cloclo Ils ont la rage eux, y'a qu'à la clinique qu'ils font des radios Dans mes raps y'a plus d'images que dans toutes vos BD Premier en physique, en digital. J'pourrai jamais céder Quand la nuit tombe et qu'je me sens si seul, j'ai, très peu de gens sur qui compter Qui je suis, au fond seuls les vrais le savent, que le ciel me regarde J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera You might also like Il est vrai j'peux t'niquer ta mère Ta carrière on l'enterre, terre, terre Le bon Dieu surveille mes arrières Pas des pseudos gangsters, ters, ters Basané normal au square on est bon qu'à bronzer khey Les petits passent en balle en bécane et puis font des soleils Six heures du matin les keufs venaient souvent nous pincer Si t'as pas d'liquide c'est peut-être que ton flow est rincé Maman portait le voile, papa mettait les voiles Mon stylo est un pinceau si la banlieue est une toile Dur à cuire les keufs te cuisinent donc tu traînes tes casseroles Ne m'jugez pas rappelez-vous même Iblis avait l'auréole Comme un cadavre j'suis froid et distant Bavure policière, contrôles abusifs pour nous ça c'est fréquent J'connais le rap game et sa médisance Comme un sniper j'prends mes distances Sur l'terrain les keufs tirent des balles on essaye d'filer Les grands ravitaillent à l'heure de l'Adhan et les petits peuvent plus prier Demande à la brigade des stupéfiants Muet comme une tombe, mais j'reste un bon-vivant Quand la nuit tombe et qu'je me sens si seul, j'ai, très peu de gens sur qui compter Qui je suis, au fond seuls les vrais le savent, que le ciel me regarde J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne...</t>
+          <t>Quand la nuit tombe et qu'je me sens si seul, j'ai, très peu de gens sur qui compter Qui je suis, au fond seuls les vrais le savent, que le ciel me regarde J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera T'as l'taureau sur la canette, moi j'l'ai sur le capot J'grattais en cellule, normal que l'succès m'donne le barreau Brillant banlieusard, je fais du rap et plus du pognon Ils ont versés quelques larmes, ils s'sont mêlés d'mes oignons Et même Stevie a vu leur trahison Ils ont les mêmes dépositions, j'crois qu'ils poucavent à l'unisson Gloire, réussite, j'ai des impact de balle sur le parachute J'aimerais peser mes mots, wAllah j'peux pas c'est des fils de pute Inscrire libre à la lame sur mon bras car j'suis mort en cellule Nan personne ne m'a aidé, j'rappais seul au crépuscule L'évolution dans les rues d'Trappes, Laouni ou La Fouine J'courbe l'échine que devant Dieu, fuck Darwin En airplay sur toutes les ondes, j'ai la SACEM à Cloclo Ils ont la rage eux, y'a qu'à la clinique qu'ils font des radios Dans mes raps y'a plus d'images que dans toutes vos BD Premier en physique, en digital. J'pourrai jamais céder Quand la nuit tombe et qu'je me sens si seul, j'ai, très peu de gens sur qui compter Qui je suis, au fond seuls les vrais le savent, que le ciel me regarde J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera Il est vrai j'peux t'niquer ta mère Ta carrière on l'enterre, terre, terre Le bon Dieu surveille mes arrières Pas des pseudos gangsters, ters, ters Basané normal au square on est bon qu'à bronzer khey Les petits passent en balle en bécane et puis font des soleils Six heures du matin les keufs venaient souvent nous pincer Si t'as pas d'liquide c'est peut-être que ton flow est rincé Maman portait le voile, papa mettait les voiles Mon stylo est un pinceau si la banlieue est une toile Dur à cuire les keufs te cuisinent donc tu traînes tes casseroles Ne m'jugez pas rappelez-vous même Iblis avait l'auréole Comme un cadavre j'suis froid et distant Bavure policière, contrôles abusifs pour nous ça c'est fréquent J'connais le rap game et sa médisance Comme un sniper j'prends mes distances Sur l'terrain les keufs tirent des balles on essaye d'filer Les grands ravitaillent à l'heure de l'Adhan et les petits peuvent plus prier Demande à la brigade des stupéfiants Muet comme une tombe, mais j'reste un bon-vivant Quand la nuit tombe et qu'je me sens si seul, j'ai, très peu de gens sur qui compter Qui je suis, au fond seuls les vrais le savent, que le ciel me regarde J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne un jour me stoppera J'crois qu'une balle dans l'crâne...</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cllule avec la rage Ls armes à feu font bien plus de victimes que corona Pourtant on m'a jamais demandé de confiner mon Beretta Donner des noms à l'inspecteur, gros ça mintéresse pas Un coup de tazer et j'monte au paradis en Tesla Quand j'lui tire les cheveux et qu'elle m'en demande encore Alors que je lui ai déjà mise, hahah, c'est ça la France Insoumise Moula, moula dans le joggo, trop de boulettes sur le Pas de dans l'équipe, j'suis chaud depuis l'époque du croco Gros fais pas la pute, trop d'flow, donc j'ai du liquide l'Bois d'Arcy, le malo, la sauce arachide On reste à l'affût, ils portent lil de la pyramide Pour niquer ta go une capote à la chloroquine You might also like Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage J'rappais seul dans ma gov', j'aurai pu canner pour du mauve J'ai vendu toute la journée, effiloché pour quelques doses J'rappais seul dans ma gov', j'aurai pu canner pour du mauve J'ai vendu toute la journée, effiloché pour quelques doses Gun, gun, gun, gun dans le bendo, on t'tire dessus ici khoya et j'parle de paint ball Quand les keufs te prennent en photo, ils mettent le flash-ball, maman m'disait Laouni koul Des fois ça chauffe comme à Corbeil-Essonnes, j'ai mis le game dans la corbeille... Et on vit du RSA, on reste assis quand ça chauffe, confonds pas le CSA et le CSI Y a la moula, moula, moula dans le Balanciaga, en cellule tu grattes un pillon, gros j'te dis direct si y a pas Arrête de faire le mytho, gros si t'as des me-ar, sors les, tes ennemis khoya faut les , morde les Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage J'rappais seul dans ma gov', j'aurai pu canner pour du mauve J'ai vendu toute la journée, effiloché pour quelques doses J'rappais seul dans ma gov', j'aurai pu canner pour du mauve J'ai vendu toute la journée, effiloché pour quelques doses</t>
+          <t>Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cllule avec la rage Ls armes à feu font bien plus de victimes que corona Pourtant on m'a jamais demandé de confiner mon Beretta Donner des noms à l'inspecteur, gros ça mintéresse pas Un coup de tazer et j'monte au paradis en Tesla Quand j'lui tire les cheveux et qu'elle m'en demande encore Alors que je lui ai déjà mise, hahah, c'est ça la France Insoumise Moula, moula dans le joggo, trop de boulettes sur le Pas de dans l'équipe, j'suis chaud depuis l'époque du croco Gros fais pas la pute, trop d'flow, donc j'ai du liquide l'Bois d'Arcy, le malo, la sauce arachide On reste à l'affût, ils portent lil de la pyramide Pour niquer ta go une capote à la chloroquine Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage J'rappais seul dans ma gov', j'aurai pu canner pour du mauve J'ai vendu toute la journée, effiloché pour quelques doses J'rappais seul dans ma gov', j'aurai pu canner pour du mauve J'ai vendu toute la journée, effiloché pour quelques doses Gun, gun, gun, gun dans le bendo, on t'tire dessus ici khoya et j'parle de paint ball Quand les keufs te prennent en photo, ils mettent le flash-ball, maman m'disait Laouni koul Des fois ça chauffe comme à Corbeil-Essonnes, j'ai mis le game dans la corbeille... Et on vit du RSA, on reste assis quand ça chauffe, confonds pas le CSA et le CSI Y a la moula, moula, moula dans le Balanciaga, en cellule tu grattes un pillon, gros j'te dis direct si y a pas Arrête de faire le mytho, gros si t'as des me-ar, sors les, tes ennemis khoya faut les , morde les Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage Million d'euro pour la baraque, khoya payé cash Combien m'ont tourné le dos, le game est plein de lâches Un keuf à terre, un pavé, gros j'adore le paysage Premier album gratté en cellule avec la rage J'rappais seul dans ma gov', j'aurai pu canner pour du mauve J'ai vendu toute la journée, effiloché pour quelques doses J'rappais seul dans ma gov', j'aurai pu canner pour du mauve J'ai vendu toute la journée, effiloché pour quelques doses</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Les streams s'achètent mais pas les hassanetes T'as fait du chiffre, au shtar j'attends tes lettres Poucave, déposition confirmée, ma carte bleue n'est jamais confinée Une remorque, un sea-doo, j'rentre au pays Poser la Don-Pé, je vais brûler mon blé comme à Pompéi Mandat dépôt, Baumettes, Comme juge de touche, j'surveille l'terrain eeeh Mandat dépôt, Baumettes, Comme juge de touch, j'surveille l'terrain eeeh J'parl en billet de 500, jacuzzi, toi t'es dans l'bain d'sang Mes billets comme des rouleaux de printemps, l'été on t'vend de la neige J'parle en billet de 500, jacuzzi, toi t'es dans l'bain d'sang Mes billets comme des rouleaux de printemps, l'été on t'vend de la neige Inchallah, igo c'est long time, on parle en kilo d'C Et quand l'bigo ça résonne, j'crois que t'es filoché Inchallah, igo c'est long time, on parle en kilo d'C On s'barre à Rio, Colombia, l'été on t'vend de la neige On a vendu la Bayda, pillave de la Tequilla, malgré tout on a rendu fière El Walida J'ai mon Beretta, en très bon état, ouais les gars, comme la daronne moi j'écoutais Dalida On a des armes stockées, on va rentrer sans toquer, ne me dis pas s'teuplaît Si ta tête est soldée, j'viendrai te sauter Dis-moi qui peut me stopper santé et bonheur Je sais que t'es une pute, dis-moi pourquoi tu crie, si t'es hypocrite, dis-moi pourquoi tu prie Tu sais pas en faire, dis-moi pourquoi tu drill Tu viens de la capitale, on vient de la capitale du crime Kofs You might also like Mandat dépôt, Bois d'Ar, benna oui Laouni Comme juge de touche, j'surveille l'terrain eeeh sur la vie d'ma mère Mandat dépôt, Bois d'Ar, benna Baumettes, Bois d'Ar gros Comme juge de touche, j'surveille l'terrain eeeh J'parle en billet de 500, jacuzzi, toi t'es dans l'bain d'sang Mes billets comme des rouleaux de printemps, l'été on t'vend de la neige J'parle en billet de 500, jacuzzi, toi t'es dans l'bain d'sang Mes billets comme des rouleaux de printemps, l'été on t'vend de la neige Inchallah, igo c'est long time, on parle en kilo d'C Et quand l'bigo ça résonne, j'crois que t'es filoché Inchallah, igo c'est long time, on parle en kilo d'C On s'barre à Rio, Colombia, l'été on t'vend de la neige On a fait du haram, on est voués à l'enfer, mais maman est dans le din cocaïne dans l'jean l'été on t'vend de la neige Ils nous attendaient pas, on a tiré sur eux et ensuite on est reparti on est reparti</t>
+          <t>Les streams s'achètent mais pas les hassanetes T'as fait du chiffre, au shtar j'attends tes lettres Poucave, déposition confirmée, ma carte bleue n'est jamais confinée Une remorque, un sea-doo, j'rentre au pays Poser la Don-Pé, je vais brûler mon blé comme à Pompéi Mandat dépôt, Baumettes, Comme juge de touche, j'surveille l'terrain eeeh Mandat dépôt, Baumettes, Comme juge de touch, j'surveille l'terrain eeeh J'parl en billet de 500, jacuzzi, toi t'es dans l'bain d'sang Mes billets comme des rouleaux de printemps, l'été on t'vend de la neige J'parle en billet de 500, jacuzzi, toi t'es dans l'bain d'sang Mes billets comme des rouleaux de printemps, l'été on t'vend de la neige Inchallah, igo c'est long time, on parle en kilo d'C Et quand l'bigo ça résonne, j'crois que t'es filoché Inchallah, igo c'est long time, on parle en kilo d'C On s'barre à Rio, Colombia, l'été on t'vend de la neige On a vendu la Bayda, pillave de la Tequilla, malgré tout on a rendu fière El Walida J'ai mon Beretta, en très bon état, ouais les gars, comme la daronne moi j'écoutais Dalida On a des armes stockées, on va rentrer sans toquer, ne me dis pas s'teuplaît Si ta tête est soldée, j'viendrai te sauter Dis-moi qui peut me stopper santé et bonheur Je sais que t'es une pute, dis-moi pourquoi tu crie, si t'es hypocrite, dis-moi pourquoi tu prie Tu sais pas en faire, dis-moi pourquoi tu drill Tu viens de la capitale, on vient de la capitale du crime Kofs Mandat dépôt, Bois d'Ar, benna oui Laouni Comme juge de touche, j'surveille l'terrain eeeh sur la vie d'ma mère Mandat dépôt, Bois d'Ar, benna Baumettes, Bois d'Ar gros Comme juge de touche, j'surveille l'terrain eeeh J'parle en billet de 500, jacuzzi, toi t'es dans l'bain d'sang Mes billets comme des rouleaux de printemps, l'été on t'vend de la neige J'parle en billet de 500, jacuzzi, toi t'es dans l'bain d'sang Mes billets comme des rouleaux de printemps, l'été on t'vend de la neige Inchallah, igo c'est long time, on parle en kilo d'C Et quand l'bigo ça résonne, j'crois que t'es filoché Inchallah, igo c'est long time, on parle en kilo d'C On s'barre à Rio, Colombia, l'été on t'vend de la neige On a fait du haram, on est voués à l'enfer, mais maman est dans le din cocaïne dans l'jean l'été on t'vend de la neige Ils nous attendaient pas, on a tiré sur eux et ensuite on est reparti on est reparti</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Yeah Euh... viens , viens voir j'vais te dire un truc , viens Eh viens vite fait, ouaaais Pro Rise, han wesh, hahaha J'ai un message à tous mes bords ne jamais vendre la peau du Fouin' avant de l'avoir cé-su, hahahah Yeah, yeah, yeah Lâche-moi ton PIN, j'ai un BlackBerry Que j'te pine dans ma Black Berline J'ai tout ce qu'il faut dans le coffre Avec mon majeur, j'active ton bouton ONOFF Yeah, ma belle grimpe dans le Hummer Aucun cendrier, à part ma bite espace non fumeur J'suis pas Jay-Z et t'es pas Beyoncéé Tu seras ma pute, j'ai pas de fiancée Yeah, ça fait longtemps qu'on trime, fréro, trop longtemps qu'on rame La vie c'est un poker, j'me couche si c'est avec Shy'm J'ai trop de choses dans la tête, elles ont trop de choses dans la bouche Viens, on fait un gosse, on pourra planquer de la coke dans les couches Yeah, elles ont trop le nez dans nos affaires À part quelques centaines de milliers d'euros, j'ai rien à perdre, yeah Tout à changer depuis l'époque où j'bicravais de la com' Tu veux des news ? doublenprod.com You might also like Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Yeah, lâche-moi ton PIN, j'ai un BlackBerry, ha Tu roules avec le Boy Black, chérie Menottes au string, elle choure les poulets Bibendum Black, on fait un millier de roulés-boulets Thierry Henry, quand j'mets ma main sur son boule et Bataille navale sur son clito' TouchéCoulé, yeah T'es pas Carla et j'suis pas Nicolas Avant de me sucer, prends un Ricola Yeah, à l'époque Sopalin, zéro meuf dans le phone-tél' Aujourd'hui, Blacky a besoin d'un deuxième phone-tél' Qu'est-ce qu'elle bonne, elle, nan, nan, j'préfère sa sur Mais deux pour le prix d'une, un 16 10 brunes Depuis le début, tu sais que je rappe, lady, tu parles de quoi ? Ma haaan dans sa bouche, comme ça tu parles de moi La tête posée sur son boule, j'fais des mots croisés Et frangin, pendant que t'as la haine, moi je, je, je... Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Yeah, yeah, Faut que j'efface cette pute de mon BlackBerry À peine deux semaines que j'la ken, elle m'appelle déjà mon chéri J'veux pas être ton ami même si j'ai trop kiffé ton look T'as deux solutions ouvre ta chatte ou ouvre un FaceBook Yeah, j'suis plus en mesure de te comprendre J'suis juste en mesure de te prendre et de te reprendre Banlieue Sale, Black Kent, Fouiny Baby Shit, beuh, sky, j'aime tout mélanger comme la plébi' mooooi J'aime tout déranger donc j'prends leur buzz et puis leurs 'tasses Sorties de chez moi, elle boitent DocteurHouse Et pour la first place, j't'emmène dîner au Ritz Mais pour ton boule, j'te donne une bise et un Filet-O-Fish Ne rien filer aux bitchs, c'est la règle d'or Le Boy Black peut jamais tomber, je gère le bord, haaa J'entends que ça jacte, ouais ils peuvent Moi quand j'm'ennuie, j'tapote sur mon BlackBerry Curve, hooo Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah</t>
+          <t>Yeah Euh... viens , viens voir j'vais te dire un truc , viens Eh viens vite fait, ouaaais Pro Rise, han wesh, hahaha J'ai un message à tous mes bords ne jamais vendre la peau du Fouin' avant de l'avoir cé-su, hahahah Yeah, yeah, yeah Lâche-moi ton PIN, j'ai un BlackBerry Que j'te pine dans ma Black Berline J'ai tout ce qu'il faut dans le coffre Avec mon majeur, j'active ton bouton ONOFF Yeah, ma belle grimpe dans le Hummer Aucun cendrier, à part ma bite espace non fumeur J'suis pas Jay-Z et t'es pas Beyoncéé Tu seras ma pute, j'ai pas de fiancée Yeah, ça fait longtemps qu'on trime, fréro, trop longtemps qu'on rame La vie c'est un poker, j'me couche si c'est avec Shy'm J'ai trop de choses dans la tête, elles ont trop de choses dans la bouche Viens, on fait un gosse, on pourra planquer de la coke dans les couches Yeah, elles ont trop le nez dans nos affaires À part quelques centaines de milliers d'euros, j'ai rien à perdre, yeah Tout à changer depuis l'époque où j'bicravais de la com' Tu veux des news ? doublenprod.com Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Yeah, lâche-moi ton PIN, j'ai un BlackBerry, ha Tu roules avec le Boy Black, chérie Menottes au string, elle choure les poulets Bibendum Black, on fait un millier de roulés-boulets Thierry Henry, quand j'mets ma main sur son boule et Bataille navale sur son clito' TouchéCoulé, yeah T'es pas Carla et j'suis pas Nicolas Avant de me sucer, prends un Ricola Yeah, à l'époque Sopalin, zéro meuf dans le phone-tél' Aujourd'hui, Blacky a besoin d'un deuxième phone-tél' Qu'est-ce qu'elle bonne, elle, nan, nan, j'préfère sa sur Mais deux pour le prix d'une, un 16 10 brunes Depuis le début, tu sais que je rappe, lady, tu parles de quoi ? Ma haaan dans sa bouche, comme ça tu parles de moi La tête posée sur son boule, j'fais des mots croisés Et frangin, pendant que t'as la haine, moi je, je, je... Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Yeah, yeah, Faut que j'efface cette pute de mon BlackBerry À peine deux semaines que j'la ken, elle m'appelle déjà mon chéri J'veux pas être ton ami même si j'ai trop kiffé ton look T'as deux solutions ouvre ta chatte ou ouvre un FaceBook Yeah, j'suis plus en mesure de te comprendre J'suis juste en mesure de te prendre et de te reprendre Banlieue Sale, Black Kent, Fouiny Baby Shit, beuh, sky, j'aime tout mélanger comme la plébi' mooooi J'aime tout déranger donc j'prends leur buzz et puis leurs 'tasses Sorties de chez moi, elle boitent DocteurHouse Et pour la first place, j't'emmène dîner au Ritz Mais pour ton boule, j'te donne une bise et un Filet-O-Fish Ne rien filer aux bitchs, c'est la règle d'or Le Boy Black peut jamais tomber, je gère le bord, haaa J'entends que ça jacte, ouais ils peuvent Moi quand j'm'ennuie, j'tapote sur mon BlackBerry Curve, hooo Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah Ma 'tasse et puis mon gamos, je traîne J'ai planqué des millions d'euros dans le jardin d'Éden Elle me dit je t'aime et je sais, ouais je sais, ouais je sais Moi j'aime le bas de son dos, de son dos, de son dos Retourne-toi, baby Yeah</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Stop ! Avant d'parler, enlève la bite que tu as dans la bouche J'vais frapper ton daron car il est conseillé de toujours s'attaquer au mal à la source Millionnaire, j'fais du 'pe-ra' pour m'amuser, j'grattais des textes sur le banc des accusés Ici, on t'allume avant de s'excuser, mais, ratatata, le témoin s'est récusé Merde, les négros, j'vais pas vous mentir, moi, j'ai pas fait Saint-Cyr, j'ai bâti un empire J'ai vu l'négro senfuir, et j'ai vraiment tout fait pour sortir de la merde Tu veux commander de la pure, mon négro ? Mes dealers sont plus rapides qu'Allo Resto Combien de frères on a enterré ? La mort a mis tout l'monde d'accord Les michtonneuses sont désespérées, j'les ai ramenées chez Micheal Kors Niquez vos daronnes, niquez vos padrés, j'ai vu la concurrence finir emplâtrée Et j'ai vu des proches retourner leur 'ste-vé', le pire, c'est que j'osais appeler ça des 'res-fré' Grandis dans la crasse, endroits insalubres, où les crachats se mélangent à la peinture Big up à Youri Kalenga, mon gars sûr, on frappe sous la ceinture en live de la 'ue-r' Un jour, t'allumeras les infos, t'entendras Fouiny s'est fait fumer, chaud Mais la vie reprendra son cours, les bolosses continueront d'aller 'per-cho' Ce son ne passera pas en radio, ce son ne passera pas en télé Ce son, c'est pour mes petits au cachot qu'ont du mal à payer la télé Tu peux fourrer ta salope sur l'intro, tu bandes, c'est le nouveau CDC Désolé, j'suis 'de-spee', j'dois tailler, le temps, c'est d'l'argent mais, l'argent, ce n'est qu'un couplet Bang, bang, bang Bang, bang, bang, bang Go, go, go Oh, on t'nique ta mère si t'en fais trop On passe du 'mme-gra' aux litrons, le maigrichon bicrave en gros Oh, quand on a fumé le boss de la zone Ta salope m'harcèle sur mon phone, mes rebeux n'fument pas de la com Oh, go, un mauvais regard et je t'ai couché, il pleuvait des balles donc les petits se sont douchés Tentez le dialogue, il n'y a pas d'fautes de français Entendez des bang, où sont nos ennemis ? Ils sont dead On a trop fait couler le red, c'est chaud comme Raja et Wydad, capitale du bangYou might also like</t>
+          <t>Stop ! Avant d'parler, enlève la bite que tu as dans la bouche J'vais frapper ton daron car il est conseillé de toujours s'attaquer au mal à la source Millionnaire, j'fais du 'pe-ra' pour m'amuser, j'grattais des textes sur le banc des accusés Ici, on t'allume avant de s'excuser, mais, ratatata, le témoin s'est récusé Merde, les négros, j'vais pas vous mentir, moi, j'ai pas fait Saint-Cyr, j'ai bâti un empire J'ai vu l'négro senfuir, et j'ai vraiment tout fait pour sortir de la merde Tu veux commander de la pure, mon négro ? Mes dealers sont plus rapides qu'Allo Resto Combien de frères on a enterré ? La mort a mis tout l'monde d'accord Les michtonneuses sont désespérées, j'les ai ramenées chez Micheal Kors Niquez vos daronnes, niquez vos padrés, j'ai vu la concurrence finir emplâtrée Et j'ai vu des proches retourner leur 'ste-vé', le pire, c'est que j'osais appeler ça des 'res-fré' Grandis dans la crasse, endroits insalubres, où les crachats se mélangent à la peinture Big up à Youri Kalenga, mon gars sûr, on frappe sous la ceinture en live de la 'ue-r' Un jour, t'allumeras les infos, t'entendras Fouiny s'est fait fumer, chaud Mais la vie reprendra son cours, les bolosses continueront d'aller 'per-cho' Ce son ne passera pas en radio, ce son ne passera pas en télé Ce son, c'est pour mes petits au cachot qu'ont du mal à payer la télé Tu peux fourrer ta salope sur l'intro, tu bandes, c'est le nouveau CDC Désolé, j'suis 'de-spee', j'dois tailler, le temps, c'est d'l'argent mais, l'argent, ce n'est qu'un couplet Bang, bang, bang Bang, bang, bang, bang Go, go, go Oh, on t'nique ta mère si t'en fais trop On passe du 'mme-gra' aux litrons, le maigrichon bicrave en gros Oh, quand on a fumé le boss de la zone Ta salope m'harcèle sur mon phone, mes rebeux n'fument pas de la com Oh, go, un mauvais regard et je t'ai couché, il pleuvait des balles donc les petits se sont douchés Tentez le dialogue, il n'y a pas d'fautes de français Entendez des bang, où sont nos ennemis ? Ils sont dead On a trop fait couler le red, c'est chaud comme Raja et Wydad, capitale du bang</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>C'est ça Ouais, ouais Kho, La-La-La Fouine La-La-La Fouine C'est ça ! La-La-La Fouine Tu te rappelles ? J'suis le mec du 92 L'homme que tu voulais niquer à plus de 12, salope Eh, t'es marqué de mes bagouzes Mon shlass sur la ..., salope Pense à moi, matin midi soir Enfin un petit noir protégé par le prétoire, salope Au comico, confrontation skin head You forget my head, maintenant pour toi c'est dead, salope J'ai le statut de pseudo-victime Merci Sarko de protéger mon crime, salope Rien, contente-moi, j'crève Sans crève, chouf ton sang, crève, salope Heil Hitler avant le tabassage Et les high qui s'perdent après mon bête de passage, salope Eh Mazalaza, mon blaze Moi, j'crève, salope Sors le shit et la hi C'est ça 78, sky 92i, salope C'est Mala, La-La-La-La Fouine, c'est ça You might also like Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Boum boum boum, peine maximale, réveil matinal Devant les gradés qui guettent et les barquets d'salle Dans les cellules, j'vois des frères qui s'agenouillent, font la prière Pendant que d'autres squattent le S.M.P.R. C'est ça Trop de profs nets, la prison mendie Quand les fourgons cellulaires remplacent le R.E.R., c'est Au square, y'a trop de barrières, trop de crans d'arrêt Trop de grands arrêts, trop de frères en maison d'arrêt Un panorama brut, les canons sciés dans les poches gauches Dans les droites, les D.V.D. Tony Montana C'est ça Mon Panasonic Sun à Paname sous l'sun Les gars-là ont l'seum de m'voir die sans cana' ou com' Oh bad boy, bad boy, pose ton gun Si t'as des couilles, tape un tête à tête avec ton rival si t'as l'seum Trop de frères tapent des sommes éternellement Vas-y, éteins la 'sique là pour l'enterrement Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Les reufs ont rien compris, se sont fait des sous À fond dans leur cellule, ils kiffaient des sons Même la plus dure des taules ne sert pas de leçon Ça, c'est pour les gaillards du square qui caillassent les shtars, c'est ça Les reufs ont rien compris, se sont fait des sous À fond dans leur cellule, ils kiffaient des sons Même la plus dure des taules ne sert pas de leçon Ça, c'est pour les gaillards du square qui caillassent les shtars, c'est ça La-La-La Fouine Boum Boum La-La-La Fouine Boum Boum Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça C'est ça 78 mec, 92 Yeah, La-La-La Fouine C'est ça, Boulogne-Trappes C'est ça</t>
+          <t>C'est ça Ouais, ouais Kho, La-La-La Fouine La-La-La Fouine C'est ça ! La-La-La Fouine Tu te rappelles ? J'suis le mec du 92 L'homme que tu voulais niquer à plus de 12, salope Eh, t'es marqué de mes bagouzes Mon shlass sur la ..., salope Pense à moi, matin midi soir Enfin un petit noir protégé par le prétoire, salope Au comico, confrontation skin head You forget my head, maintenant pour toi c'est dead, salope J'ai le statut de pseudo-victime Merci Sarko de protéger mon crime, salope Rien, contente-moi, j'crève Sans crève, chouf ton sang, crève, salope Heil Hitler avant le tabassage Et les high qui s'perdent après mon bête de passage, salope Eh Mazalaza, mon blaze Moi, j'crève, salope Sors le shit et la hi C'est ça 78, sky 92i, salope C'est Mala, La-La-La-La Fouine, c'est ça Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Boum boum boum, peine maximale, réveil matinal Devant les gradés qui guettent et les barquets d'salle Dans les cellules, j'vois des frères qui s'agenouillent, font la prière Pendant que d'autres squattent le S.M.P.R. C'est ça Trop de profs nets, la prison mendie Quand les fourgons cellulaires remplacent le R.E.R., c'est Au square, y'a trop de barrières, trop de crans d'arrêt Trop de grands arrêts, trop de frères en maison d'arrêt Un panorama brut, les canons sciés dans les poches gauches Dans les droites, les D.V.D. Tony Montana C'est ça Mon Panasonic Sun à Paname sous l'sun Les gars-là ont l'seum de m'voir die sans cana' ou com' Oh bad boy, bad boy, pose ton gun Si t'as des couilles, tape un tête à tête avec ton rival si t'as l'seum Trop de frères tapent des sommes éternellement Vas-y, éteins la 'sique là pour l'enterrement Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Les reufs ont rien compris, se sont fait des sous À fond dans leur cellule, ils kiffaient des sons Même la plus dure des taules ne sert pas de leçon Ça, c'est pour les gaillards du square qui caillassent les shtars, c'est ça Les reufs ont rien compris, se sont fait des sous À fond dans leur cellule, ils kiffaient des sons Même la plus dure des taules ne sert pas de leçon Ça, c'est pour les gaillards du square qui caillassent les shtars, c'est ça La-La-La Fouine Boum Boum La-La-La Fouine Boum Boum Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça Boum boum, c'est la balle sortie du canon suivie d'un Toc toc, c'est les keufs qui frappent à la porte, merde Bling bling, font les menottes à ton poignet La tête dégoûtée, les gendarmes qui t'escortent, c'est ça, c'est ça C'est ça 78 mec, 92 Yeah, La-La-La Fouine C'est ça, Boulogne-Trappes C'est ça</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Mec j'suis bourré au rap Je sniffe du EVE Dans ma seringue y'a du Death Row Et j'prends du crack, non du Craig Mac Serre-moi une verre, mais un ptit comme Easy E J'ai la haine comme Joe Budden, quand j'tise du CNN Du label 5 au 2.1.3 Dans mon verre y'a du Nas, et dans mon joint du Jay-Z J'pète des grosses caisses et j'rote des caisses claires Et j'bois tellement de Suge Knight qu j'rêve d'être un gangster J'suis ivre assis par terre Et mon bar c'est la Fnac, où j'mendie quelques gouttes, quelques Tubes d'Ice Cube Du WC et du Mac IO dans ma Heineken Et les glaçons sont Method Man et Redman Tous les yeux sont sur moi, oh la zer-mi J'vais m'faire mal, j'vais m'def au Mos Def Serres-moi un demi ou un litre de Rakim Car j'suis bourré au son, bourré au rap, voilà La Fouine J'suis bourré au son mec Bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec Bourré au son mec C'est ça Alcoolique anonyme Mon ami, le rap est mon hymne J'suis bourré au son mec Bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec Bourré au son mec Bourré au son mec Putain, j'suis bourré au rap J'déambule dans les rues d'Châtelet Puis j'te jure man J'suis en chien, j'crois bien qu'je vais braquer Urban Et sur mon burman, j'me prends pour un Ruff Ryder Ma bouche pue le DMX Ma belle tiens ! Un Jadakiss Avec Snoop on prépare Doggy style 3 J'suis un poivrot comme Ol'Dirty quand j'tise du DPJ J'suis bourré au rap J'bois du 2Pac et j'bois du Biggie J'en consommes tellement que j'ai envie d'me faire tirer dessus Comme Fifty Roule-moi India Irie que j'me détende Un Kurupt Daz dans l'nez, j'me prends pour Bad Ass Un bon Bob Marley dans ma feuille à rouler J'suis stone comme Whitney Houston Ou fan d'Eminem comme Stan C'est ça Ma capuche et ma bouteille de Mobb Deep Ma carrure et mon stick Comme Lil' Kim j'ai mon magic stick J'suis bourré au son mec Bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec Bourré au son mec C'est ça Alcoolique anonyme Mon ami, le rap est mon hymne J'suis bourré au son mec Bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec Bourré au son mec Bourré au son mec J'suis pire qu'un toxico Il me faut mon Rohypnol mec Il m'faut ma dose et j'prends pas de cocaïne J'carbure au Cokane Si les keufs me contrôlent, j'suis bon pour l'isolement J'roule avec 10 CD's dans le chargeur, 2 grammes dans l'sang J'suis pire que Mick Jagger avec du Somebody somewhere Mes oreilles sont pires que son aspirateur Et dans ma chicha y'a du NWA J'fais du lourd comme Big Pun Ou Big L dans mon Ethey Et quand j'rêve de grosse fortune, j'bois du Master P Ou E40 du Timbaland, du Missy dans mon juice and gin De la East et d'la West dans mon cocktail de Wu-Tang Clan Campbell Du X To The Hi, Du Pharell C'est ça J'suis bourré au son mec, bourré au rap Y'a pas à dire, j'suis J'suis bourré au son mec Bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec Bourré au son mec C'est ça Alcoolique anonyme Mon ami, le rap est mon hymne J'suis bourré au son mec Bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec Bourré au son mec Bourré au son mecYou might also like</t>
+          <t>Mec j'suis bourré au rap Je sniffe du EVE Dans ma seringue y'a du Death Row Et j'prends du crack, non du Craig Mac Serre-moi une verre, mais un ptit comme Easy E J'ai la haine comme Joe Budden, quand j'tise du CNN Du label 5 au 2.1.3 Dans mon verre y'a du Nas, et dans mon joint du Jay-Z J'pète des grosses caisses et j'rote des caisses claires Et j'bois tellement de Suge Knight qu j'rêve d'être un gangster J'suis ivre assis par terre Et mon bar c'est la Fnac, où j'mendie quelques gouttes, quelques Tubes d'Ice Cube Du WC et du Mac IO dans ma Heineken Et les glaçons sont Method Man et Redman Tous les yeux sont sur moi, oh la zer-mi J'vais m'faire mal, j'vais m'def au Mos Def Serres-moi un demi ou un litre de Rakim Car j'suis bourré au son, bourré au rap, voilà La Fouine J'suis bourré au son mec Bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec Bourré au son mec C'est ça Alcoolique anonyme Mon ami, le rap est mon hymne J'suis bourré au son mec Bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec Bourré au son mec Bourré au son mec Putain, j'suis bourré au rap J'déambule dans les rues d'Châtelet Puis j'te jure man J'suis en chien, j'crois bien qu'je vais braquer Urban Et sur mon burman, j'me prends pour un Ruff Ryder Ma bouche pue le DMX Ma belle tiens ! Un Jadakiss Avec Snoop on prépare Doggy style 3 J'suis un poivrot comme Ol'Dirty quand j'tise du DPJ J'suis bourré au rap J'bois du 2Pac et j'bois du Biggie J'en consommes tellement que j'ai envie d'me faire tirer dessus Comme Fifty Roule-moi India Irie que j'me détende Un Kurupt Daz dans l'nez, j'me prends pour Bad Ass Un bon Bob Marley dans ma feuille à rouler J'suis stone comme Whitney Houston Ou fan d'Eminem comme Stan C'est ça Ma capuche et ma bouteille de Mobb Deep Ma carrure et mon stick Comme Lil' Kim j'ai mon magic stick J'suis bourré au son mec Bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec Bourré au son mec C'est ça Alcoolique anonyme Mon ami, le rap est mon hymne J'suis bourré au son mec Bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec Bourré au son mec Bourré au son mec J'suis pire qu'un toxico Il me faut mon Rohypnol mec Il m'faut ma dose et j'prends pas de cocaïne J'carbure au Cokane Si les keufs me contrôlent, j'suis bon pour l'isolement J'roule avec 10 CD's dans le chargeur, 2 grammes dans l'sang J'suis pire que Mick Jagger avec du Somebody somewhere Mes oreilles sont pires que son aspirateur Et dans ma chicha y'a du NWA J'fais du lourd comme Big Pun Ou Big L dans mon Ethey Et quand j'rêve de grosse fortune, j'bois du Master P Ou E40 du Timbaland, du Missy dans mon juice and gin De la East et d'la West dans mon cocktail de Wu-Tang Clan Campbell Du X To The Hi, Du Pharell C'est ça J'suis bourré au son mec, bourré au rap Y'a pas à dire, j'suis J'suis bourré au son mec Bourré au son mec J'tease tellement de rap que mon rap fait 24 carats J't'ai dit que j'suis bourré son mec Bourré au son mec C'est ça Alcoolique anonyme Mon ami, le rap est mon hymne J'suis bourré au son mec Bourré au son mec Bourré au son, je vais chez le disquaire pécho ma conso J'suis bourré au son mec Bourré au son mec Bourré au son mec</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Paroles rédigées et annotées par la communauté française de Rap GeniusYou might also like</t>
+          <t>Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Yeeeah ! Quoi d'neuf, Fouiny Baby ? Canardo, Capitale du Crime Huh, Banlieue Sale, Banlieue Ouest hey, hey, hey Yeeeah ! Capitale du Crime, Capi-Capitale du Crime Yeah Kiffe ma 'tasse et mon gun et ma Capitale du Crime Nique l'État, nique les keufs, ouais ma Capitale du Crime Banlieue Sale, Banlieue Ouest, ouais ma Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime J'compte pas laisser l'État m'baiser ni laisser mes rêves se briser On sera toujours exclus même si nos cheveux sont défrisés Au quartier, on s'emmerde alors on préfère vendre de l'herbe Niquer la BAC, mettre des claques sur les balances qui gerbent Joue pas les grands car ici tous les petits sont grands T'arrachent ta caisse, en plein centre et sans cagoule, ni gants Ne t'inventes pas dealer si tu sais pas dealer Aussi ne t'inventes pas keuf si tu sais pas tirer Nos quartiers se ressemblent à deux, trois douilles près Soit ça tire, soit ça meurt ou bien ça joue les traîtres La vie est dure et n'te demande pas ton âge, yeah Arrête d'aimer ne s'en sorte, ici, que ceux qu'ont la rage Tu veux savoir qui contrôle ? C'est la Capitale du Crime Trafic d'armes, détournement d'fonds Capitale du Crime Argent sale, kilos d'héroïne Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime You might also like Sur les keufs, man, on shoote, sur l'État, man, on shoote Sur les procs, man, on shoote, sur vos lois, man, on shoote Sur les poucaves, man, on shoote, soit on crache, soit on shoote Soit on baffe, soit on shoote, ouais on shoote, shoote, shoote Kiffe ma 'tasse et mon gun, ouais ma Capitale du Crime Nique l'État, nique les keufs, ouais ma Capitale du Crime Banlieue Sale, Banlieue Ouest, ouais ma Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime Hey Biatch Biatch, écarte, arrête tes petites mimiques C'est la merde au quartier, tout baigne seulement pour Ménélik Les petits sortent du foot et rêvent de gros casse-dalles au cacher Moi j'ai toujours la bite propre, Sarko' m'la nettoie sans Kärcher Yeeeah Rien à perdre, j'défouraille comme un serbe On vend la cess, trafique le crack pour sortir de la merde Les biatchs se succèdent, les 'tasses se succèdent Depuis qu'j'ai pécho l'micro, negro, les rappeurs décèdent Arrête de parler pour rien, haineux, tu sais bien qu'j'arrache Gaspille pas ta salive, putain c'est sur les keufs qu'on crache J'écris ma haine, j'dois faire ma peine, le crime m'appelle Ni coke, ni crack, ni héroïne, juste l'odeur de ma zeb Héroïne, cocaïne, crack Capitale du Crime Des tueries, des litrons d'pilons Capitale du Crime Brouillon, coups d'feu, réanimation Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime Sur les keufs, man, on shoote, sur l'État, man, on shoote Sur les procs, man, on shoote, sur vos lois, man, on shoote Sur les poucaves, man, on shoote, soit on crache, soit on shoote Soit on baffe, soit on shoote, ouais on shoote, shoote, shoote Kiffe ma 'tasse et mon gun, ouais ma Capitale du Crime Nique l'État, nique les keufs, ouais ma Capitale du Crime Banlieue Sale, Banlieue Ouest, ouais ma Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime Mais, putain. J'm'attendais pas à un retour aussi...explosif. Un jour, mon grand-père m'a demandé si j'tenais à vivre. Oui j'y tiens...mais maintenant il est trop tard1</t>
+          <t>Yeeeah ! Quoi d'neuf, Fouiny Baby ? Canardo, Capitale du Crime Huh, Banlieue Sale, Banlieue Ouest hey, hey, hey Yeeeah ! Capitale du Crime, Capi-Capitale du Crime Yeah Kiffe ma 'tasse et mon gun et ma Capitale du Crime Nique l'État, nique les keufs, ouais ma Capitale du Crime Banlieue Sale, Banlieue Ouest, ouais ma Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime J'compte pas laisser l'État m'baiser ni laisser mes rêves se briser On sera toujours exclus même si nos cheveux sont défrisés Au quartier, on s'emmerde alors on préfère vendre de l'herbe Niquer la BAC, mettre des claques sur les balances qui gerbent Joue pas les grands car ici tous les petits sont grands T'arrachent ta caisse, en plein centre et sans cagoule, ni gants Ne t'inventes pas dealer si tu sais pas dealer Aussi ne t'inventes pas keuf si tu sais pas tirer Nos quartiers se ressemblent à deux, trois douilles près Soit ça tire, soit ça meurt ou bien ça joue les traîtres La vie est dure et n'te demande pas ton âge, yeah Arrête d'aimer ne s'en sorte, ici, que ceux qu'ont la rage Tu veux savoir qui contrôle ? C'est la Capitale du Crime Trafic d'armes, détournement d'fonds Capitale du Crime Argent sale, kilos d'héroïne Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime Sur les keufs, man, on shoote, sur l'État, man, on shoote Sur les procs, man, on shoote, sur vos lois, man, on shoote Sur les poucaves, man, on shoote, soit on crache, soit on shoote Soit on baffe, soit on shoote, ouais on shoote, shoote, shoote Kiffe ma 'tasse et mon gun, ouais ma Capitale du Crime Nique l'État, nique les keufs, ouais ma Capitale du Crime Banlieue Sale, Banlieue Ouest, ouais ma Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime Hey Biatch Biatch, écarte, arrête tes petites mimiques C'est la merde au quartier, tout baigne seulement pour Ménélik Les petits sortent du foot et rêvent de gros casse-dalles au cacher Moi j'ai toujours la bite propre, Sarko' m'la nettoie sans Kärcher Yeeeah Rien à perdre, j'défouraille comme un serbe On vend la cess, trafique le crack pour sortir de la merde Les biatchs se succèdent, les 'tasses se succèdent Depuis qu'j'ai pécho l'micro, negro, les rappeurs décèdent Arrête de parler pour rien, haineux, tu sais bien qu'j'arrache Gaspille pas ta salive, putain c'est sur les keufs qu'on crache J'écris ma haine, j'dois faire ma peine, le crime m'appelle Ni coke, ni crack, ni héroïne, juste l'odeur de ma zeb Héroïne, cocaïne, crack Capitale du Crime Des tueries, des litrons d'pilons Capitale du Crime Brouillon, coups d'feu, réanimation Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime Sur les keufs, man, on shoote, sur l'État, man, on shoote Sur les procs, man, on shoote, sur vos lois, man, on shoote Sur les poucaves, man, on shoote, soit on crache, soit on shoote Soit on baffe, soit on shoote, ouais on shoote, shoote, shoote Kiffe ma 'tasse et mon gun, ouais ma Capitale du Crime Nique l'État, nique les keufs, ouais ma Capitale du Crime Banlieue Sale, Banlieue Ouest, ouais ma Capitale du Crime Heeey Capitale du Crime, Capi-Capitale du Crime Mais, putain. J'm'attendais pas à un retour aussi...explosif. Un jour, mon grand-père m'a demandé si j'tenais à vivre. Oui j'y tiens...mais maintenant il est trop tard1</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>La-la La Fouine j'ai le son qu'il faut c'est ça ! Ahmed débarque avec toutes tes pines-co c'est ça ! Y'a tous les rhos et ça pue l'bédo c'est ça ! Ça sent la ... et bien il fait chaud c'est ça ! La main en l'air si t'es pas macqué c'est ça ! Vas y ma belle, fais-toi remarquer c'est ça ! Les gars ont faim, là juste à côté c'est ça Tu veux savoir si y'a moyen d'croquer c'est ça ! Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère encore Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère Hé mec, juste une phrase, pousse le son à fond que j'tape juste une phase Juste une phase, juste une phrase car dans ta petite tête il te manque juste une case Ça c'est pour les rhos qui s'sont fait recaler, pour les rhos qui sont enfermés Pour une dix keuss khamsa lef, ça-ça c'est pour les rhos qui sont zahef stahef La famille, t'as poucave tes rhos, tu retrouves sans amis Tu pues la hi', t'as plus fierté, plus d'orgueil, t'as tout perdu mec, il reste que ta grande gueule Tellement d'stress et d'keufs dans ta vie que tu t'es subitement à balancer tous tes reufs Ma belle cesse tes histoires, quartier chic, suis-moi dans ma banlieue, j'sais que tu kiffe les rebeus Tu sais qu'j'ai l'vice, j'sais qu't'as l'fric, j't'ai attiré, j'dis vrai, j'te présente tous les res-frè C'est 78 style, quelques tapes et j'taille, j'fais mon taf, j'te laisse le freestyle La-la La Fouine j'ai le son qu'il faut c'est ça ! Ahmed débarque avec toutes tes pines-co c'est ça ! Y'a tous les rhos et ça pue l'bédo c'est ça ! Ça sent la ... et bien il fait chaud c'est ça ! La main en l'air si t'es pas macqué c'est ça ! Vas y ma belle, fais-toi remarquer c'est ça ! Les gars ont faim, là juste à côté c'est ça Tu veux savoir si y'a moyen d'croquer c'est ça ! Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère encore Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère Pour tous ceux qui comptent leurs jours, tout est gris en bas des tours Vas-y La Fouine balance ton son car les vrais savent Pour tous ceux qui comptent leurs jours, tout est gris en bas des tours Vas-y La Fouine balance ton son car les vrais savent La Fouine balance le son, faut me laisser, ça c'est pour les rhos stressés C'est pour les meufs frisées, tressés, si le rap est un faux , ben laisse-moi l'dresser La-la-la La Fouine, j'ai la-la-la la flemme de trainer dans tes ANPE men C'est ça, j'te laisse savourer ça, starlef la famille toujours bien pé-sa Monte le son garçon, monte le son, j'veux pas qu'les gens restent assis, froids comme des glaçons Ma belle enlève ton écharpe même si t'as un suçon, laisse La Fouine engrainer toutes tes pulsions J'ai trainé dans tes halls, trainé dans tes taules, trainé là où les gens te mettent un coup d'couteau dans l'épaule 78190, j'viens d'là où les gens te goument à 190 La Fouine toujours opé', nique l'OPJ et la SRPJ Versailles, ils veulent me voir sous terre, die, sous terre, sous terre, c'est ça La-la La Fouine j'ai le son qu'il faut c'est ça ! Ahmed débarque avec toutes tes pines-co c'est ça ! Y'a tous les rhos et ça pue l'bédo c'est ça ! Ça sent la ... et bien il fait chaud c'est ça ! La main en l'air si t'es pas macqué c'est ça ! Vas y ma belle, fais-toi remarquer c'est ça ! Les gars ont faim, là juste à côté c'est ça Tu veux savoir si y'a moyen d'croquer c'est ça ! Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère encore Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère Pour tous ceux qui comptent leurs jours, tout est gris en bas des tours Vas-y La Fouine balance ton son car les vrais savent Pour tous ceux qui comptent leurs jours, tout est gris en bas des tours Vas-y La Fouine balance ton son car les vrais saventYou might also like</t>
+          <t>La-la La Fouine j'ai le son qu'il faut c'est ça ! Ahmed débarque avec toutes tes pines-co c'est ça ! Y'a tous les rhos et ça pue l'bédo c'est ça ! Ça sent la ... et bien il fait chaud c'est ça ! La main en l'air si t'es pas macqué c'est ça ! Vas y ma belle, fais-toi remarquer c'est ça ! Les gars ont faim, là juste à côté c'est ça Tu veux savoir si y'a moyen d'croquer c'est ça ! Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère encore Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère Hé mec, juste une phrase, pousse le son à fond que j'tape juste une phase Juste une phase, juste une phrase car dans ta petite tête il te manque juste une case Ça c'est pour les rhos qui s'sont fait recaler, pour les rhos qui sont enfermés Pour une dix keuss khamsa lef, ça-ça c'est pour les rhos qui sont zahef stahef La famille, t'as poucave tes rhos, tu retrouves sans amis Tu pues la hi', t'as plus fierté, plus d'orgueil, t'as tout perdu mec, il reste que ta grande gueule Tellement d'stress et d'keufs dans ta vie que tu t'es subitement à balancer tous tes reufs Ma belle cesse tes histoires, quartier chic, suis-moi dans ma banlieue, j'sais que tu kiffe les rebeus Tu sais qu'j'ai l'vice, j'sais qu't'as l'fric, j't'ai attiré, j'dis vrai, j'te présente tous les res-frè C'est 78 style, quelques tapes et j'taille, j'fais mon taf, j'te laisse le freestyle La-la La Fouine j'ai le son qu'il faut c'est ça ! Ahmed débarque avec toutes tes pines-co c'est ça ! Y'a tous les rhos et ça pue l'bédo c'est ça ! Ça sent la ... et bien il fait chaud c'est ça ! La main en l'air si t'es pas macqué c'est ça ! Vas y ma belle, fais-toi remarquer c'est ça ! Les gars ont faim, là juste à côté c'est ça Tu veux savoir si y'a moyen d'croquer c'est ça ! Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère encore Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère Pour tous ceux qui comptent leurs jours, tout est gris en bas des tours Vas-y La Fouine balance ton son car les vrais savent Pour tous ceux qui comptent leurs jours, tout est gris en bas des tours Vas-y La Fouine balance ton son car les vrais savent La Fouine balance le son, faut me laisser, ça c'est pour les rhos stressés C'est pour les meufs frisées, tressés, si le rap est un faux , ben laisse-moi l'dresser La-la-la La Fouine, j'ai la-la-la la flemme de trainer dans tes ANPE men C'est ça, j'te laisse savourer ça, starlef la famille toujours bien pé-sa Monte le son garçon, monte le son, j'veux pas qu'les gens restent assis, froids comme des glaçons Ma belle enlève ton écharpe même si t'as un suçon, laisse La Fouine engrainer toutes tes pulsions J'ai trainé dans tes halls, trainé dans tes taules, trainé là où les gens te mettent un coup d'couteau dans l'épaule 78190, j'viens d'là où les gens te goument à 190 La Fouine toujours opé', nique l'OPJ et la SRPJ Versailles, ils veulent me voir sous terre, die, sous terre, sous terre, c'est ça La-la La Fouine j'ai le son qu'il faut c'est ça ! Ahmed débarque avec toutes tes pines-co c'est ça ! Y'a tous les rhos et ça pue l'bédo c'est ça ! Ça sent la ... et bien il fait chaud c'est ça ! La main en l'air si t'es pas macqué c'est ça ! Vas y ma belle, fais-toi remarquer c'est ça ! Les gars ont faim, là juste à côté c'est ça Tu veux savoir si y'a moyen d'croquer c'est ça ! Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère encore Hé l'ami, lève la main en l'air c'est ça ! Car il n'est plus question d'se taire c'est ça ! Leurs barreaux retiennent trop d'nos frères tous ensemble La justice nique sa mère Pour tous ceux qui comptent leurs jours, tout est gris en bas des tours Vas-y La Fouine balance ton son car les vrais savent Pour tous ceux qui comptent leurs jours, tout est gris en bas des tours Vas-y La Fouine balance ton son car les vrais savent</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>À s'retrouver seul en bas, à pleurer sur son sort La moindre main tendue à ces moments vaut de l'or C'est de l'or... Elle vaut de l'or... Et le p'tit qui fout la merde au fond d'la classe, trop rêveur N'oublie pas qu'les conseils d'un père ça perd pas d'valeur C'est de l'or... C'est de l'or... Et les mois, les années passent la vie posée, calme ne t'interesse guère Rester sincère comme le sourire d'un frère C'est de l'or... hey C'est de l'or... hey Ohoh! Le v'la braqué sur ta tête, les frères esclaves d'la gachette L'amitié, la liberté, de l'or ici tout s'achète Et là, vois les sirènes, les bruits, les peines, les chaines T'apprendras que le silence est d'or Et puis vouloir toucher le ciel, Maman nettoie le sol Vouloir s'vider la tête, mais la tête est pleine de substances sales Alors j'divague, j'm'invente des raisons d'haineux Et j'suis trop cette p'tite voix qui me dit au fond d'moi Fais-le A s'retrouver seul en bas, à pleurer sur son sort La moindre main tendue à ces moments vaut de l'or C'est de l'or... Elle vaut de l'or... Et le p'tit qui fout la merde au fond d'la classe, trop rêveur N'oublie pas qu'les conseils d'un père ça perd pas d'valeur C'est de l'or... C'est de l'or... Et les mois, les années passent la vie posée, stable ne t'intéresse guère Rester sincère comme le sourire d'un frère C'est de l'or... hey C'est de l'or... hey Ohoh! You might also like Avec les huissiers à la porte, l'espoir est mis de côté Quand les meufs sont prises de force, en effet les dés sont jetés Et là, je lis tes lettres, écrites avec attentions Je ferme fort les yeux et j'm'imagine à la maison Et là... Parfois je rêve seul éveillé sur vos photos J'ai pris le mauvais train, le mauvais, seul dans mon wagon, re-fré Je brûle mes feuilles, tout seul en train d'tripper J'me dis qu'je vaux de l'or, mais frère, l'or, c'est fait pour briller Trop souvent devant le block, à pleurer sur son sort La moindre main tendue à ces moments vaut de l'or C'est de l'or... Elle vaut de l'or... Et le p'tit qui fout la merde au fond d'la classe, trop rêveur N'oublie pas qu'les conseils d'un père ça perd pas d'valeur C'est de l'or... C'est de l'or... Certaines phrases valent de l'or, les amis plus encore On cherche l'or Certaines phrases valent de l'or, les amis plus encore On cherche l'or</t>
+          <t>À s'retrouver seul en bas, à pleurer sur son sort La moindre main tendue à ces moments vaut de l'or C'est de l'or... Elle vaut de l'or... Et le p'tit qui fout la merde au fond d'la classe, trop rêveur N'oublie pas qu'les conseils d'un père ça perd pas d'valeur C'est de l'or... C'est de l'or... Et les mois, les années passent la vie posée, calme ne t'interesse guère Rester sincère comme le sourire d'un frère C'est de l'or... hey C'est de l'or... hey Ohoh! Le v'la braqué sur ta tête, les frères esclaves d'la gachette L'amitié, la liberté, de l'or ici tout s'achète Et là, vois les sirènes, les bruits, les peines, les chaines T'apprendras que le silence est d'or Et puis vouloir toucher le ciel, Maman nettoie le sol Vouloir s'vider la tête, mais la tête est pleine de substances sales Alors j'divague, j'm'invente des raisons d'haineux Et j'suis trop cette p'tite voix qui me dit au fond d'moi Fais-le A s'retrouver seul en bas, à pleurer sur son sort La moindre main tendue à ces moments vaut de l'or C'est de l'or... Elle vaut de l'or... Et le p'tit qui fout la merde au fond d'la classe, trop rêveur N'oublie pas qu'les conseils d'un père ça perd pas d'valeur C'est de l'or... C'est de l'or... Et les mois, les années passent la vie posée, stable ne t'intéresse guère Rester sincère comme le sourire d'un frère C'est de l'or... hey C'est de l'or... hey Ohoh! Avec les huissiers à la porte, l'espoir est mis de côté Quand les meufs sont prises de force, en effet les dés sont jetés Et là, je lis tes lettres, écrites avec attentions Je ferme fort les yeux et j'm'imagine à la maison Et là... Parfois je rêve seul éveillé sur vos photos J'ai pris le mauvais train, le mauvais, seul dans mon wagon, re-fré Je brûle mes feuilles, tout seul en train d'tripper J'me dis qu'je vaux de l'or, mais frère, l'or, c'est fait pour briller Trop souvent devant le block, à pleurer sur son sort La moindre main tendue à ces moments vaut de l'or C'est de l'or... Elle vaut de l'or... Et le p'tit qui fout la merde au fond d'la classe, trop rêveur N'oublie pas qu'les conseils d'un père ça perd pas d'valeur C'est de l'or... C'est de l'or... Certaines phrases valent de l'or, les amis plus encore On cherche l'or Certaines phrases valent de l'or, les amis plus encore On cherche l'or</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Fausse déposition chez les keufs, ouais ma gueule ! Je suis bon qu'à remixer Appelle-moi Dj Battle ! Fausse déposition chez les keufs, ouais ma gueule Je suis bon qu'à remixer, appelle-moi Dj Battle ! Viens pas traîner chez Banlieue Sale si ton Gucci est un faux J't'ai baisé sans capote, pour ça qu'ton fils a du flow J'sors en conditionnelle, bye bye les barreaux Toujours en LV, obligé d'me tenir à carreau Fouiny-Fouiny Babe et le ti-pe Still Fresh Anti-juges, anti-keufs et en cours antisèches C'est Ban-Ban-Banlieue Sale, frérot viens là qu'on t'relance Et click-click pah ! pah ! pah-pah Condoléances ! Fausse déposition chez les keufs, ouais ma gueule J'suis bon qu'à remixer appelle-moi DJ Battle J'ai le PIN à ta sur, le phone à ta cousine J'ai re-tweeté ta tante, ta meuf me suce dans la piscine You might also like 2936 74 ! Pas la peine de parler, mon pardon mec je te l'accorde Ramène ta clique pour qu'on parle si tu n'es pas d'accord J'ai un feat avec une beurette dans un hôtel du groupe Accor Je ne suis pas un rappeur je ne fais pas de rap, mais des rapports ! Check ma paire de baskets, j'suis bien pire qu'un Sappeur ! Mille est enclenché, t'entends ? Vous êtes tous en danger, sanglant ! Ta femelle trouve que j'suis tentant On arrive et toi t'as peur ! Tu fais du rap ? Bah négro t'es mon fils ! J'arrive ici, et j'ai bloqué ma place ! J'ai compris ça quand ta madame bougeait ses fesses Je jette des euros en l'air, et madame les ramasse ! Dur de voir le génie quand il vient d'arriver, hein ? Dur de croire le messie, c'est un truc abusé, hein ? Notre arrivée, c'est à beaucoup, toi t'es seul On ne veut pas de ton Dj, appelle-moi DJ Battle ! Ferme ta gueule, j'ai rien à prouver J'voulais viser les couilles du rap mais j'ai pas trouvé Wesh, écoute un peu, s'tu veux m'rattraper c'est qu't'es bête C'est pas avec une bicyclette qu'on rattrape un compèt' Man ici c'est Paname, kilogramme rime avec banane Pour une douille de trop ça canarde, on retrouve ton corps dans un canal Prendre son premier rail c'est risqué comme de tomber love d'un tapin Cherche-moi enculé, j'te mets une reprise de volée à la Papin Rien à foutre d'leur rap conscient, rien à foutre d'leurs théories T'es l'seul à pas avoir pris conscience à quel point t'es horrible ! MC, plus j'avance et plus j't'enterre Comprends pourquoi j'ai l'sourire même avec un appareil dentaire Rejoins la communauté Rap Genius France !</t>
+          <t>Fais aps le malin ou j'vais rentrer dans la mêlée-mêlée S'mêler d'mon business c'est entrer en terrain miné Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Ils sont hors-jeu, on est hors normes On est sur Youtube, ils sont sur Youporn Eux et nous c'est pas la même, c'est pas, c'est pas la même Eux et nous c'est pas la même, c'est pas, c'est pas la même Fausse déposition chez les keufs, ouais ma gueule ! Je suis bon qu'à remixer Appelle-moi Dj Battle ! Fausse déposition chez les keufs, ouais ma gueule Je suis bon qu'à remixer, appelle-moi Dj Battle ! Viens pas traîner chez Banlieue Sale si ton Gucci est un faux J't'ai baisé sans capote, pour ça qu'ton fils a du flow J'sors en conditionnelle, bye bye les barreaux Toujours en LV, obligé d'me tenir à carreau Fouiny-Fouiny Babe et le ti-pe Still Fresh Anti-juges, anti-keufs et en cours antisèches C'est Ban-Ban-Banlieue Sale, frérot viens là qu'on t'relance Et click-click pah ! pah ! pah-pah Condoléances ! Fausse déposition chez les keufs, ouais ma gueule J'suis bon qu'à remixer appelle-moi DJ Battle J'ai le PIN à ta sur, le phone à ta cousine J'ai re-tweeté ta tante, ta meuf me suce dans la piscine 2936 74 ! Pas la peine de parler, mon pardon mec je te l'accorde Ramène ta clique pour qu'on parle si tu n'es pas d'accord J'ai un feat avec une beurette dans un hôtel du groupe Accor Je ne suis pas un rappeur je ne fais pas de rap, mais des rapports ! Check ma paire de baskets, j'suis bien pire qu'un Sappeur ! Mille est enclenché, t'entends ? Vous êtes tous en danger, sanglant ! Ta femelle trouve que j'suis tentant On arrive et toi t'as peur ! Tu fais du rap ? Bah négro t'es mon fils ! J'arrive ici, et j'ai bloqué ma place ! J'ai compris ça quand ta madame bougeait ses fesses Je jette des euros en l'air, et madame les ramasse ! Dur de voir le génie quand il vient d'arriver, hein ? Dur de croire le messie, c'est un truc abusé, hein ? Notre arrivée, c'est à beaucoup, toi t'es seul On ne veut pas de ton Dj, appelle-moi DJ Battle ! Ferme ta gueule, j'ai rien à prouver J'voulais viser les couilles du rap mais j'ai pas trouvé Wesh, écoute un peu, s'tu veux m'rattraper c'est qu't'es bête C'est pas avec une bicyclette qu'on rattrape un compèt' Man ici c'est Paname, kilogramme rime avec banane Pour une douille de trop ça canarde, on retrouve ton corps dans un canal Prendre son premier rail c'est risqué comme de tomber love d'un tapin Cherche-moi enculé, j'te mets une reprise de volée à la Papin Rien à foutre d'leur rap conscient, rien à foutre d'leurs théories T'es l'seul à pas avoir pris conscience à quel point t'es horrible ! MC, plus j'avance et plus j't'enterre Comprends pourquoi j'ai l'sourire même avec un appareil dentaire Rejoins la communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Yeah ! Quoi d'neuf Fouiny Baby ? Hahaha ! Envoie l'son du 7.8 Dis leur Focus C'est ça ?! Yeah, yeah ! Chaque rime et chaque phrase et chaque mot blesse L'album me rappelle que le petit La Fouine bosse Ok la distance et les dépenses En chien quand on sait que l'underground recense Partir en studio sans un ticket resto Si il fallait le refaire, je le ferais let's go ! J'ai pris le mic et fait du bon Et puis t'as levé les mains, et puis t'as levé les bras, ok, j'ai géré le bord Bord silence, brolic' à bord Anti contrôle de keufs, anti juge, anti porc 78 écrit en gros sur ma chaîne Ma chienne je la fais sur une jambe ma peine ma belle T'façon tu grimpes dans ma Benz Les MC's veulent tester, dites leur C'est pas la peine Oh ! Oh ! La Fouine, oh ! Plus tu montes dans ce biz', plus on veut ta peau Oh ! Oh ! La Fouine, oh ! La vie est une chienne, j'la fous sur le ttoir-tro Les MC's sont pas prêts, les MC's sont pas pro' Bloqués sur leur rythmique, paix à leur musique Respect à La Fouine reste bien aux Yvelines Respect aux petites r-oeus et aux anciens d'ma ville Qui trafiquent les armes, qui trafiquent les kil' Restez tran-, restez tran-, restez tranquilles You might also like Bienvenue dans mon 78, où trahir tes potes c'est pas la peine Bienvenue dans mon club, à ma table, et gérer nos bords c'est pas la peine Bienvenue dans mon square, dans ma tess', et frimer dans ta caisse c'est pas la peine Tester c'est pas la peine, c'est-c'est-c'est pas la peine Bienvenue dans mon 78, où trahir tes potes c'est pas la peine Bienvenue dans mon club, à ma table, et gérer nos bords c'est pas la peine Bienvenue dans mon square, dans ma tess', et frimer dans ta caisse c'est pas la peine Tester c'est pas la peine, c'est-c'est-c'est pas la peine Ok, mes premiers pas furent à la zonz', à la Dass Chien d'la casse, tu veux t'noyer dans l'rap ? Bois la tasse et ma 'tasse Le rap français est frustré dans la passe Il veut plus innover, alors il s'fond dans la masse Oh ! La main sur le brolic', l'autre sur le bolide Lyrical homicide, des boulons d'deux et demi Avec une plaquette et demi, si si la famille All eyes, all eyez on me ! Ils n'aiment pas nos mots Cherche pas t'es coupable si tu t'appelles Momo Ou Moussa, ou , Boubacar, ou Toum' Ils veulent t'caser en prison s'tu viens d'Casa' Dar al Baidaa Imdina lkdima Toujours les mêmes en chien té-ma, té-ma J'ai pas toujours emprunté la bonne voie mec Et souvent critiqué comme Raymond Domenech Oh ! Oh ! J'fume, j'assume Cherche la merde et je cherche les thunes Oh ! Oh ! Mon son attire les khos Les banlieusards, l'euro, les toxicos, l'héro' Oh ! Oh, oh, oh ! Yeah ! On dit quoi La Fouine ? Bienvenue dans mon 78, où trahir tes potes c'est pas la peine Bienvenue dans mon club, à ma table, et gérer nos bords c'est pas la peine Bienvenue dans mon square, dans ma tess', et frimer dans ta caisse c'est pas la peine Tester c'est pas la peine, c'est-c'est-c'est pas la peine Bienvenue dans mon 78, où trahir tes potes c'est pas la peine Bienvenue dans mon club, à ma table, et gérer nos bords c'est pas la peine Bienvenue dans mon square, dans ma tess', et frimer dans ta caisse c'est pas la peine Tester c'est pas la peine, c'est-c'est-c'est pas la peine Yeah ! Voilà mon Aller-Retour ! Quoi d'neuf enfoiré ? C'est ça ?! La Fouine, Focus What's up ? Yeah Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Yeah ! Quoi d'neuf Fouiny Baby ? Hahaha ! Envoie l'son du 7.8 Dis leur Focus C'est ça ?! Yeah, yeah ! Chaque rime et chaque phrase et chaque mot blesse L'album me rappelle que le petit La Fouine bosse Ok la distance et les dépenses En chien quand on sait que l'underground recense Partir en studio sans un ticket resto Si il fallait le refaire, je le ferais let's go ! J'ai pris le mic et fait du bon Et puis t'as levé les mains, et puis t'as levé les bras, ok, j'ai géré le bord Bord silence, brolic' à bord Anti contrôle de keufs, anti juge, anti porc 78 écrit en gros sur ma chaîne Ma chienne je la fais sur une jambe ma peine ma belle T'façon tu grimpes dans ma Benz Les MC's veulent tester, dites leur C'est pas la peine Oh ! Oh ! La Fouine, oh ! Plus tu montes dans ce biz', plus on veut ta peau Oh ! Oh ! La Fouine, oh ! La vie est une chienne, j'la fous sur le ttoir-tro Les MC's sont pas prêts, les MC's sont pas pro' Bloqués sur leur rythmique, paix à leur musique Respect à La Fouine reste bien aux Yvelines Respect aux petites r-oeus et aux anciens d'ma ville Qui trafiquent les armes, qui trafiquent les kil' Restez tran-, restez tran-, restez tranquilles Bienvenue dans mon 78, où trahir tes potes c'est pas la peine Bienvenue dans mon club, à ma table, et gérer nos bords c'est pas la peine Bienvenue dans mon square, dans ma tess', et frimer dans ta caisse c'est pas la peine Tester c'est pas la peine, c'est-c'est-c'est pas la peine Bienvenue dans mon 78, où trahir tes potes c'est pas la peine Bienvenue dans mon club, à ma table, et gérer nos bords c'est pas la peine Bienvenue dans mon square, dans ma tess', et frimer dans ta caisse c'est pas la peine Tester c'est pas la peine, c'est-c'est-c'est pas la peine Ok, mes premiers pas furent à la zonz', à la Dass Chien d'la casse, tu veux t'noyer dans l'rap ? Bois la tasse et ma 'tasse Le rap français est frustré dans la passe Il veut plus innover, alors il s'fond dans la masse Oh ! La main sur le brolic', l'autre sur le bolide Lyrical homicide, des boulons d'deux et demi Avec une plaquette et demi, si si la famille All eyes, all eyez on me ! Ils n'aiment pas nos mots Cherche pas t'es coupable si tu t'appelles Momo Ou Moussa, ou , Boubacar, ou Toum' Ils veulent t'caser en prison s'tu viens d'Casa' Dar al Baidaa Imdina lkdima Toujours les mêmes en chien té-ma, té-ma J'ai pas toujours emprunté la bonne voie mec Et souvent critiqué comme Raymond Domenech Oh ! Oh ! J'fume, j'assume Cherche la merde et je cherche les thunes Oh ! Oh ! Mon son attire les khos Les banlieusards, l'euro, les toxicos, l'héro' Oh ! Oh, oh, oh ! Yeah ! On dit quoi La Fouine ? Bienvenue dans mon 78, où trahir tes potes c'est pas la peine Bienvenue dans mon club, à ma table, et gérer nos bords c'est pas la peine Bienvenue dans mon square, dans ma tess', et frimer dans ta caisse c'est pas la peine Tester c'est pas la peine, c'est-c'est-c'est pas la peine Bienvenue dans mon 78, où trahir tes potes c'est pas la peine Bienvenue dans mon club, à ma table, et gérer nos bords c'est pas la peine Bienvenue dans mon square, dans ma tess', et frimer dans ta caisse c'est pas la peine Tester c'est pas la peine, c'est-c'est-c'est pas la peine Yeah ! Voilà mon Aller-Retour ! Quoi d'neuf enfoiré ? C'est ça ?! La Fouine, Focus What's up ? Yeah Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Wesh Tino, ... Skurt On t'nique ta mère, ta grand mère, ta petite amie et tout ce qui s'en suis J'sais pas si j'rappe dans les temps mais j'm'en bats les couilles j'ai mon rythme de vie Tu rêves de poser des bouteilles, moi j'hésite à racheter la boîte de nuit Avec le temps tout se sait renoi tu perds toute ta street crédibility Les michtos c'est comme les balances, ça simmisce entre les potos T'as bicrave litrons et litrons, maintenant t'es en chien de toto Au quartier d'hiver en été, on avait pas de petit poney J'ai mis deux trous dans mon bonnet pa-pa-pa tu connais Des salopes, des salopes, on accélère quand eux ils galopent, on aime pas les saloperies On dirige slalom, sont hasbeen comme Zanotti, la rue on connait on touchait les alloc' On passe des nuits blanches en cellule pas comme Jean-Roch, j'te balancerais pas t'as ma parole, MC fais pas la folle On vendait d'la C en heure de colle, on t'nique ta mère en Do-Ré-Mi-Fa-Sol, putain mais mets-toi au sol On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On t'nique ta reum ici kho, on fait pas de belhani On bouge pas, on ne fuit jamais devant l'ennemi On t'nique ta reum ici kho, on fait pas de belhani On bouge pas, on ne fuit jamais devant l'ennemi On t'nique ta reum ici kho, on fait pas de belhani You might also like Chacal, chacal bang bang On l'a fourré comme un chacal Vol à l'arraché comme un chacal Vol à la portière comme un chacal C'est pour mes chacals, chacals bang bang On l'a piétiné comme un chacal On traîne le soir comme des chacals On aime les représailles de chacals, c'est pour mes chacals Je suis nouveau, j'termine vos ancêtres J'suis réglé, j'démarre comme un coup d'pete Depuis Mino j'laisse rien dans mon assiette J't'aime bébé mais j'vais les baiser, excuse mon infidélité A Carrefour j'baisais la caissière, j'déchire la carte fidélité M-U-T-S mappelle sur mon bigot, m'envoie des punchs T'as de l'herpès et sur tes fesses tu voudrais qu'je surf XXX ils portent du Moschino Pour lui casser le dos, j'vais devoir la bossinto Ces pédés nous parlent de la rue mais je vois pas leur fer garés dans le parking Ah bon c'était eux les king, ma 'queen me suce pendant que j'lui car jacking Et c'est parti pour un car jacking On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On t'nique ta reum ici kho, on fait pas de belhani On bouge pas, on ne fuit jamais devant l'ennemi On t'nique ta reum ici kho, on fait pas de belhani On bouge pas, on ne fuit jamais devant l'ennemi On t'nique ta reum ici kho, on fait pas de belhani Chacal, chacal bang bang On l'a fourré comme un chacal Vol à l'arraché comme un chacal Vol à la portière comme un chacal C'est pour mes chacals, chacals bang bang On l'a piétiné comme un chacal On traîne le soir comme des chacals On aime les représailles de chacals, c'est pour mes chacals</t>
+          <t>Wesh Tino, ... Skurt On t'nique ta mère, ta grand mère, ta petite amie et tout ce qui s'en suis J'sais pas si j'rappe dans les temps mais j'm'en bats les couilles j'ai mon rythme de vie Tu rêves de poser des bouteilles, moi j'hésite à racheter la boîte de nuit Avec le temps tout se sait renoi tu perds toute ta street crédibility Les michtos c'est comme les balances, ça simmisce entre les potos T'as bicrave litrons et litrons, maintenant t'es en chien de toto Au quartier d'hiver en été, on avait pas de petit poney J'ai mis deux trous dans mon bonnet pa-pa-pa tu connais Des salopes, des salopes, on accélère quand eux ils galopent, on aime pas les saloperies On dirige slalom, sont hasbeen comme Zanotti, la rue on connait on touchait les alloc' On passe des nuits blanches en cellule pas comme Jean-Roch, j'te balancerais pas t'as ma parole, MC fais pas la folle On vendait d'la C en heure de colle, on t'nique ta mère en Do-Ré-Mi-Fa-Sol, putain mais mets-toi au sol On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On t'nique ta reum ici kho, on fait pas de belhani On bouge pas, on ne fuit jamais devant l'ennemi On t'nique ta reum ici kho, on fait pas de belhani On bouge pas, on ne fuit jamais devant l'ennemi On t'nique ta reum ici kho, on fait pas de belhani Chacal, chacal bang bang On l'a fourré comme un chacal Vol à l'arraché comme un chacal Vol à la portière comme un chacal C'est pour mes chacals, chacals bang bang On l'a piétiné comme un chacal On traîne le soir comme des chacals On aime les représailles de chacals, c'est pour mes chacals Je suis nouveau, j'termine vos ancêtres J'suis réglé, j'démarre comme un coup d'pete Depuis Mino j'laisse rien dans mon assiette J't'aime bébé mais j'vais les baiser, excuse mon infidélité A Carrefour j'baisais la caissière, j'déchire la carte fidélité M-U-T-S mappelle sur mon bigot, m'envoie des punchs T'as de l'herpès et sur tes fesses tu voudrais qu'je surf XXX ils portent du Moschino Pour lui casser le dos, j'vais devoir la bossinto Ces pédés nous parlent de la rue mais je vois pas leur fer garés dans le parking Ah bon c'était eux les king, ma 'queen me suce pendant que j'lui car jacking Et c'est parti pour un car jacking On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On bouge pas, on ne fuit jamais devant l'ennemi jamais, jamais On t'nique ta reum ici kho, on fait pas de belhani On bouge pas, on ne fuit jamais devant l'ennemi On t'nique ta reum ici kho, on fait pas de belhani On bouge pas, on ne fuit jamais devant l'ennemi On t'nique ta reum ici kho, on fait pas de belhani Chacal, chacal bang bang On l'a fourré comme un chacal Vol à l'arraché comme un chacal Vol à la portière comme un chacal C'est pour mes chacals, chacals bang bang On l'a piétiné comme un chacal On traîne le soir comme des chacals On aime les représailles de chacals, c'est pour mes chacals</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Je parles de money, parce que je n'en ai pas Je vise le sommet, parce que je viens d'en bas Je braque des fers mec, Parce que j'aime pas dealer Course poursuite, keuf, fais gaff à ne pas piler La journée je galère, le soir je traîne au feu Écharpe sur le nez, et dans la poche en feu Rien à foutre mec, j'allume tout ce qui bouge Vas y descend boy, ou je la repeint en rouge Le ventre vide ouai, et mes couilles débordent Et quand t'arrive au feu, surveilles ton angle mort Banlieue sale ouai, capitale du crime Greeny Baby, Canardo, La Fouine Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men You might also likeYeah Banlieue set-huit, Bowled Banlieue What's Up, Bitch, Dow me C'est capitale du crime, combing Banlieue sale, Game Up, Canardo Green Je sais que je te choque Alors recule sinon, Fuck Up Yeah Back Up Back Up Shut the Fuck Up Back Up Back Up Motherfucker Rien à foutre quand je kick Les négros savent que je suis crazy, Bitch Demande a qui qui ce négro c'est qui? J'ai appris qu'toute ton équipe aimait ça, sucer Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men</t>
+          <t>Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Je parles de money, parce que je n'en ai pas Je vise le sommet, parce que je viens d'en bas Je braque des fers mec, Parce que j'aime pas dealer Course poursuite, keuf, fais gaff à ne pas piler La journée je galère, le soir je traîne au feu Écharpe sur le nez, et dans la poche en feu Rien à foutre mec, j'allume tout ce qui bouge Vas y descend boy, ou je la repeint en rouge Le ventre vide ouai, et mes couilles débordent Et quand t'arrive au feu, surveilles ton angle mort Banlieue sale ouai, capitale du crime Greeny Baby, Canardo, La Fouine Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Yeah Banlieue set-huit, Bowled Banlieue What's Up, Bitch, Dow me C'est capitale du crime, combing Banlieue sale, Game Up, Canardo Green Je sais que je te choque Alors recule sinon, Fuck Up Yeah Back Up Back Up Shut the Fuck Up Back Up Back Up Motherfucker Rien à foutre quand je kick Les négros savent que je suis crazy, Bitch Demande a qui qui ce négro c'est qui? J'ai appris qu'toute ton équipe aimait ça, sucer Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men Ce son c'est pour mes Soldier Banlieue sale banlieue sale Yeah Soldier Les fumeurs de Ganja men Cité HLM, Motherfucker Money men</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>J'suis dans l'dernier SLS, vers le succès je m'en vais J'entends pas tes sms, fait du bruit le AMG Tous les jours j'remercie l'ciel, j'ai pas fini kalashé j'ai pas fini kalashé Et t'as mis mon cur sur écoute et j'aime pas ça, on n'était pas prêt pour la route faut des bagages Bolide auto, j'fais des tours car j'ai pas l'time, boîte séquentielle boîte séquentielle 230 dans l'Audi, ralentis ou l'tier-quar te maudit tier-quar te maudit Moi l'amour de ma vie, c'est la street, la moula, le wari le wari Je t'ai brisée, tu m'aimes encore, c'est compliqué Et quand tu saignes, je vois mes torts, y a que toi qui sait Dis-moi comment, comment on fait, dis-moi comment, comment on fait Laisses pas traîner ton cur dans mes affaires S'en sortir du quartier c'est l'essentiel, du rrain-té, à la tribune présidentielle On visser, dès les premières étincelles, six heures, gros la flicaille est ponctuelle Des jaloux disaient quittes pas la cité, mais tu sais, un cur abimé peut parasiter nos projets Pour pas oublier tout ce qu'on avait, j'vais clipper 230 dans l'Audi, ralentis ou l'tier-quar te maudit tier-quar te maudit Moi l'amour de ma vie, c'est la street, la moula, le wari le wari You might also like Je t'ai brisée, tu m'aimes encore, c'est compliqué Et quand tu saignes, je vois mes torts, y a que toi qui sait Dis-moi comment, comment on fait, dis-moi comment, comment on fait Laisses pas traîner ton cur dans mes affaires Je t'ai brisée, tu m'aimes encore, c'est compliqué Et quand tu saignes, je vois mes torts, y a que toi qui sait Dis-moi comment, comment on fait, dis-moi comment, comment on fait Laisses pas traîner ton cur dans mes affaires</t>
+          <t>J'suis dans l'dernier SLS, vers le succès je m'en vais J'entends pas tes sms, fait du bruit le AMG Tous les jours j'remercie l'ciel, j'ai pas fini kalashé j'ai pas fini kalashé Et t'as mis mon cur sur écoute et j'aime pas ça, on n'était pas prêt pour la route faut des bagages Bolide auto, j'fais des tours car j'ai pas l'time, boîte séquentielle boîte séquentielle 230 dans l'Audi, ralentis ou l'tier-quar te maudit tier-quar te maudit Moi l'amour de ma vie, c'est la street, la moula, le wari le wari Je t'ai brisée, tu m'aimes encore, c'est compliqué Et quand tu saignes, je vois mes torts, y a que toi qui sait Dis-moi comment, comment on fait, dis-moi comment, comment on fait Laisses pas traîner ton cur dans mes affaires S'en sortir du quartier c'est l'essentiel, du rrain-té, à la tribune présidentielle On visser, dès les premières étincelles, six heures, gros la flicaille est ponctuelle Des jaloux disaient quittes pas la cité, mais tu sais, un cur abimé peut parasiter nos projets Pour pas oublier tout ce qu'on avait, j'vais clipper 230 dans l'Audi, ralentis ou l'tier-quar te maudit tier-quar te maudit Moi l'amour de ma vie, c'est la street, la moula, le wari le wari Je t'ai brisée, tu m'aimes encore, c'est compliqué Et quand tu saignes, je vois mes torts, y a que toi qui sait Dis-moi comment, comment on fait, dis-moi comment, comment on fait Laisses pas traîner ton cur dans mes affaires Je t'ai brisée, tu m'aimes encore, c'est compliqué Et quand tu saignes, je vois mes torts, y a que toi qui sait Dis-moi comment, comment on fait, dis-moi comment, comment on fait Laisses pas traîner ton cur dans mes affaires</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Monsieur coupez le contact s'il-vous-plaît Veuillez poser vos deux mains sur le capot Avez-vous quelque chose de dangereux, d'illicite dans vos poches ? Des stupéfiants ou bien un couteau ? Veuillez vous rangez sur le côté s'il-vous-plaît Présentez vos papiers d'identité Permis de conduire, assurance, carte grise Y'a intérêt que le contrôle technique soit OK Je hais ces contrôles de police, ces matraques, ces abus, ces caricatures Ces képis, ces insignes, ces sous-entendus, ces vents C'est humiliant, c'est tendu, l'as-tu ressenti ? Un arabe dans un BM s'fait contrôler toutes les minutes, toutes les nuits On prend la route sans papier man on finit tous où tu sais Lors d'un contrôle pas droit d'parler, d'respirer, même de pisser J'ai pris l'équipe et décider d'rendre visite à des petites Tout de suite les gyrophares, c'est pas l'contenu d'mes poches mais ma tête qu'est illicite Policier - Euh... Contrôle d'identité s'il-vous-plaît Veuillez éteindre le contact s'il-vous-plaît Ce véhicule est à vous ? Hein ? Bon.. Ça va bien se passer... Descendez du véhicule. You might also like C'est vrai les gens sont différents, mais toutes les cartes sont grises Vous m'contrôlez alors que le gars devant là puait la tise Vous même vous puez la tise, laissez-moi je parle plus avec vous Tenez mes papiers d'identités contrôlez, puis laissez moi me barrez Avec vos conseils bidons Contrôlez tout arabes et noirs véhiculés même si celui-ci a un guidon Aucune politesse, aucun tact vous ne savez que jacter Tu fais le fier mais sans ta plaque tes genoux vont claquer Tu fais pitié avec ta tête de J'me suis trop fais racketter T'façon pour toi c'était les Stup' ou la RATP Aucune ambition, aucune modestie, qu'une émission, aucun respect Vous vous défoulerez à la prochaine manifestation Fouillez le coffre, les sièges et même sous la boîte à gants Je vends des disques, j'en ai fini avec les stupéfiants Pas plus vicieux, tordu qu'un keuf comme vous, lieutenant Balayez chez vous au lieu de balayer chez les gens Policier - Eh oh ! De quoi j'me mêle ? Laouni - Vas-y, vas-y... Policier - Eh mais il est fou celui-là hein ! Laouni - Vas-y... Comment ça j'suis un fou ? Policier - Je vais t'embarquer ! Laouni - Vas-y embarque, qu'est-ce que j'en ai à foutre ? Policier - Tu te mêle de tes affaires Laouni - Qu'est-ce que t'as contre moi ? Qu'est-ce que j'ai fait ? Policier - D'abord, est-ce que ce véhicule est à toi, hein ? Il est fou celui-là... Laouni - Ouais il est à moi et alors ? Monsieur coupez le contact s'il-vous-plaît Veuillez poser vos deux mains sur le capot Avez-vous quelque chose de dangereux, d'illicite dans vos poches ? Des stupéfiants ou bien un couteau ? Veuillez vous rangez sur le côté s'il-vous-plaît Présentez vos papiers d'identité Permis de conduire, assurance, carte grise Y'a intérêt que le contrôle technique soit OK Je hais ces contrôles de police, ces contrôles abusifs Ces provocateurs, ces gros bâtards, ces putes mal baisées j'ai trop encaissé Faut me laisser, j'ai trop la rage avant que je tombe pour outrage Laisse-les taper mon nom au fichier moi j'ai tourné la page J'ai trop les nerfs, jattends dans mon véhicule que les choses se fassent Que le temps passe, que ces fils de putes comprennent qu'ils me les cassent Avec vos attitudes vous comprenez pas que vous agacez Après vous vous étonnez qu'au quartier vous vous faites caillasser Laouni - Bande de bouffons Policier - Oh tu m'insultes là ?! Laouni - Ouais je t'insulte qu'est-ce qu'il y a ? Policier - Allez on l'embarque, on l'embarque Laouni Depuis tout à l'heure vous me cassez les couilles Policier Non, non, non, non on l'embarque ! Laouni Lâche-moi, lâche-moi ! T'es un fou ou quoi !? x3 Policier - J'embarque le chef, j'ai été contraint d'embarqué le chef, on l'embarque ! Monsieur coupez le contact s'il-vous-plaît Veuillez poser vos deux mains sur le capot Avez-vous quelque chose de dangereux, d'illicite dans vos poches ? Des stupéfiants ou bien un couteau ? Veuillez vous rangez sur le côté s'il-vous-plaît Présentez vos papiers d'identité Permis de conduire, assurance, carte grise Y'a intérêt que le contrôle technique soit OK Policier 1 - Oh calmez-vous hein, on va s'arranger. Jean Marie tu ne l'as pas reconnu ? C'est le rappeur là La Fouine, l'unité ! Policier 2 - Oh excusez-moi, je ne l'avais pas reconnu et mon fils est fan de vous ! Vous pouvez lui signer un autographe s'il-vous-plaît ? Il s'appelle Jérémy. Oh... Je vous avez pas reconnu fallait le dire plus tôt La Fouine - Vas-y donne moi mes papiers là, vas-y Policier 2 - Ah La Fouine mon fils est fan de vous La Fouine - Allez donne mes papiers vas-y Policier 2 - Tenez,un petit autographe s'il vous plait La Fouine - Vas-y, vas-y... Quitte là-bas toi et ton autographe... Vas-y venez on s'barre, vas-y monte, monte.</t>
+          <t>Monsieur coupez le contact s'il-vous-plaît Veuillez poser vos deux mains sur le capot Avez-vous quelque chose de dangereux, d'illicite dans vos poches ? Des stupéfiants ou bien un couteau ? Veuillez vous rangez sur le côté s'il-vous-plaît Présentez vos papiers d'identité Permis de conduire, assurance, carte grise Y'a intérêt que le contrôle technique soit OK Je hais ces contrôles de police, ces matraques, ces abus, ces caricatures Ces képis, ces insignes, ces sous-entendus, ces vents C'est humiliant, c'est tendu, l'as-tu ressenti ? Un arabe dans un BM s'fait contrôler toutes les minutes, toutes les nuits On prend la route sans papier man on finit tous où tu sais Lors d'un contrôle pas droit d'parler, d'respirer, même de pisser J'ai pris l'équipe et décider d'rendre visite à des petites Tout de suite les gyrophares, c'est pas l'contenu d'mes poches mais ma tête qu'est illicite Policier - Euh... Contrôle d'identité s'il-vous-plaît Veuillez éteindre le contact s'il-vous-plaît Ce véhicule est à vous ? Hein ? Bon.. Ça va bien se passer... Descendez du véhicule. C'est vrai les gens sont différents, mais toutes les cartes sont grises Vous m'contrôlez alors que le gars devant là puait la tise Vous même vous puez la tise, laissez-moi je parle plus avec vous Tenez mes papiers d'identités contrôlez, puis laissez moi me barrez Avec vos conseils bidons Contrôlez tout arabes et noirs véhiculés même si celui-ci a un guidon Aucune politesse, aucun tact vous ne savez que jacter Tu fais le fier mais sans ta plaque tes genoux vont claquer Tu fais pitié avec ta tête de J'me suis trop fais racketter T'façon pour toi c'était les Stup' ou la RATP Aucune ambition, aucune modestie, qu'une émission, aucun respect Vous vous défoulerez à la prochaine manifestation Fouillez le coffre, les sièges et même sous la boîte à gants Je vends des disques, j'en ai fini avec les stupéfiants Pas plus vicieux, tordu qu'un keuf comme vous, lieutenant Balayez chez vous au lieu de balayer chez les gens Policier - Eh oh ! De quoi j'me mêle ? Laouni - Vas-y, vas-y... Policier - Eh mais il est fou celui-là hein ! Laouni - Vas-y... Comment ça j'suis un fou ? Policier - Je vais t'embarquer ! Laouni - Vas-y embarque, qu'est-ce que j'en ai à foutre ? Policier - Tu te mêle de tes affaires Laouni - Qu'est-ce que t'as contre moi ? Qu'est-ce que j'ai fait ? Policier - D'abord, est-ce que ce véhicule est à toi, hein ? Il est fou celui-là... Laouni - Ouais il est à moi et alors ? Monsieur coupez le contact s'il-vous-plaît Veuillez poser vos deux mains sur le capot Avez-vous quelque chose de dangereux, d'illicite dans vos poches ? Des stupéfiants ou bien un couteau ? Veuillez vous rangez sur le côté s'il-vous-plaît Présentez vos papiers d'identité Permis de conduire, assurance, carte grise Y'a intérêt que le contrôle technique soit OK Je hais ces contrôles de police, ces contrôles abusifs Ces provocateurs, ces gros bâtards, ces putes mal baisées j'ai trop encaissé Faut me laisser, j'ai trop la rage avant que je tombe pour outrage Laisse-les taper mon nom au fichier moi j'ai tourné la page J'ai trop les nerfs, jattends dans mon véhicule que les choses se fassent Que le temps passe, que ces fils de putes comprennent qu'ils me les cassent Avec vos attitudes vous comprenez pas que vous agacez Après vous vous étonnez qu'au quartier vous vous faites caillasser Laouni - Bande de bouffons Policier - Oh tu m'insultes là ?! Laouni - Ouais je t'insulte qu'est-ce qu'il y a ? Policier - Allez on l'embarque, on l'embarque Laouni Depuis tout à l'heure vous me cassez les couilles Policier Non, non, non, non on l'embarque ! Laouni Lâche-moi, lâche-moi ! T'es un fou ou quoi !? x3 Policier - J'embarque le chef, j'ai été contraint d'embarqué le chef, on l'embarque ! Monsieur coupez le contact s'il-vous-plaît Veuillez poser vos deux mains sur le capot Avez-vous quelque chose de dangereux, d'illicite dans vos poches ? Des stupéfiants ou bien un couteau ? Veuillez vous rangez sur le côté s'il-vous-plaît Présentez vos papiers d'identité Permis de conduire, assurance, carte grise Y'a intérêt que le contrôle technique soit OK Policier 1 - Oh calmez-vous hein, on va s'arranger. Jean Marie tu ne l'as pas reconnu ? C'est le rappeur là La Fouine, l'unité ! Policier 2 - Oh excusez-moi, je ne l'avais pas reconnu et mon fils est fan de vous ! Vous pouvez lui signer un autographe s'il-vous-plaît ? Il s'appelle Jérémy. Oh... Je vous avez pas reconnu fallait le dire plus tôt La Fouine - Vas-y donne moi mes papiers là, vas-y Policier 2 - Ah La Fouine mon fils est fan de vous La Fouine - Allez donne mes papiers vas-y Policier 2 - Tenez,un petit autographe s'il vous plait La Fouine - Vas-y, vas-y... Quitte là-bas toi et ton autographe... Vas-y venez on s'barre, vas-y monte, monte.</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>- Ne laisse jamais quelqu'un te dire que tu ne peux pas faire quelque chose, même pas moi, d'accord ? - D'accord - Si tu as un rêve tu dois le protéger. Parfois les gens sont mauvais dans une chose et ils vont te dire toi aussi laisses tomber. Si tu veux quelque chose tu peux l'avoir, point final ! Mission locale, pôle emploi, t'en as marre de cette vie Des fois ta carrière peut démarrer de la bite à Ray J T'as galéré, t'as trimé, puis un jour t'as réussi On m'a dit la roue tourne, j'ai dis la Mondeo aussi On peut t'allumer pour rien, un terrain, de la Cess Quand ça part en couilles les balles n'ont jamais de GPS J't'ai dis envoie moi des pâtes, tu m'as dis c'est la D En prison j'avais rien, à part ma voix pour m'évader Des fois j'crois en mes rêves, des fois j'crois en moi-même Ouais la vie est une pute, mon répertoire un harem Au quartier on peut t'aimer fort tant que tu perce pas T'auras toujours sur qui compter frère tant que tu perce pas Quand tu rencontre une fille bien essaye de pas la tromper Des fois les potes sont des putes essaye de pas te tromper L'oseille ça va ça viens comme le manche d'un fusil à pompe Si tu sors avec le diable mon frère c'est mieux de rompre Trafic de stupéfiant, on connait ça, on connait ça Même quand t'as pas poucave ils sont rarement reconnaissants Et j'ai chercher le succès jusquà mépuiser Dans mes voitures neuves j'faisais monter v'la les chattes usées J'ai vu son appareil dentaire gros quand elle m'a vu rapper Tu vois l'concept sa bouche, ma queue, du fromage râpé Des fois j'dis n'importe quoi Mais c'est comme ça qu'on aime Fouiny Babe Produit des cités dortoirs Un jour j'ai prié fort et j'ai tout fais pour les love, ouais J'ai redoublé d'efforts, sur l'rrain-té combien d'fois m'ont sauté J'ai vu des procureurs gros qu'en avaient rien à péter J'étais un d'ces tipeu qui prennait un billet pour guetter J'ai vu la daronne pleurer, bien sur j'ai regretté J'me rappel qu'à l'époque on faisait arnaque à la CB Rebeu ça tape fort, ça tape fort, trop de quartier Les deux et demi se levaient, les kho qu'on a entré Comment croire aux autres quand tu crois pas en toi même Khoya même les plus grosse crapules veulent tous attraper une hlel Jai crée Banlieue Sale gros j'avais pas un rond en poche Gros j'suis passé des rues sales à l'appart avenue FochYou might also like</t>
+          <t>- Ne laisse jamais quelqu'un te dire que tu ne peux pas faire quelque chose, même pas moi, d'accord ? - D'accord - Si tu as un rêve tu dois le protéger. Parfois les gens sont mauvais dans une chose et ils vont te dire toi aussi laisses tomber. Si tu veux quelque chose tu peux l'avoir, point final ! Mission locale, pôle emploi, t'en as marre de cette vie Des fois ta carrière peut démarrer de la bite à Ray J T'as galéré, t'as trimé, puis un jour t'as réussi On m'a dit la roue tourne, j'ai dis la Mondeo aussi On peut t'allumer pour rien, un terrain, de la Cess Quand ça part en couilles les balles n'ont jamais de GPS J't'ai dis envoie moi des pâtes, tu m'as dis c'est la D En prison j'avais rien, à part ma voix pour m'évader Des fois j'crois en mes rêves, des fois j'crois en moi-même Ouais la vie est une pute, mon répertoire un harem Au quartier on peut t'aimer fort tant que tu perce pas T'auras toujours sur qui compter frère tant que tu perce pas Quand tu rencontre une fille bien essaye de pas la tromper Des fois les potes sont des putes essaye de pas te tromper L'oseille ça va ça viens comme le manche d'un fusil à pompe Si tu sors avec le diable mon frère c'est mieux de rompre Trafic de stupéfiant, on connait ça, on connait ça Même quand t'as pas poucave ils sont rarement reconnaissants Et j'ai chercher le succès jusquà mépuiser Dans mes voitures neuves j'faisais monter v'la les chattes usées J'ai vu son appareil dentaire gros quand elle m'a vu rapper Tu vois l'concept sa bouche, ma queue, du fromage râpé Des fois j'dis n'importe quoi Mais c'est comme ça qu'on aime Fouiny Babe Produit des cités dortoirs Un jour j'ai prié fort et j'ai tout fais pour les love, ouais J'ai redoublé d'efforts, sur l'rrain-té combien d'fois m'ont sauté J'ai vu des procureurs gros qu'en avaient rien à péter J'étais un d'ces tipeu qui prennait un billet pour guetter J'ai vu la daronne pleurer, bien sur j'ai regretté J'me rappel qu'à l'époque on faisait arnaque à la CB Rebeu ça tape fort, ça tape fort, trop de quartier Les deux et demi se levaient, les kho qu'on a entré Comment croire aux autres quand tu crois pas en toi même Khoya même les plus grosse crapules veulent tous attraper une hlel Jai crée Banlieue Sale gros j'avais pas un rond en poche Gros j'suis passé des rues sales à l'appart avenue Foch</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>J'écris pour les oubliés, j'écris pour les mecs à part, j'écris pour les écroués, gros, j'écris pour les mecs au square On est toujours pris pour cible, j'ai pas besoin d'être crédible, la daronne pleurait au parloir et moi, j'restais insensible Pour les p'tits qui veulent signer pro, j'écris pour les frères au trou Sans capote, j'la mets au fond, gros, j'suis pas Kostas Mitrouglou Ils nous tirent dessus, les gilets jaunes sont devenus gilets rouges J'me suis marié avec la rue, khoya, c'est une mauvaise épouse Si j'te tourne le dos, c'est que quand j'avais rien, t'étais pas là Ils ont enfermé Ramadan alors pourquoi pas Benalla ? Pas de justice pour Adama, rien n'a changé depuis Obama Le rap engagé s'est désengagé, la filha de puta J'ai grandi dans l'illicite, j'ai jamais sucé des bites, je sais qu'là, t'es sur repeat, les vestes vont se retourner vite T'as pas écarté pour percer, pour ça qu'tu taffes au McDrive Dans l'rap, y a plus de putes qu'au 5 5 5 Ils sont sous GHB, ils vont finir en HP, j'fais pas preuve de lâcheté, j'ai pas besoin de m'racheter La jalousie t'a achevé, non, moi, rien ne peut m'acheter Le quartier peut briser tes rêves, demande à MHD J'ai toujours des choses à dire, j'ai grandi là où ça tire Autour de moi, ça part en couilles, gros, plus ça suce, plus ça s'en tire Ouais, la vie est un combat, gros, j'ai les poings dApollo Creed et si j'raconte n'importe quoi, petit, c'est que la bouteille est vide Parce que c'est dead... Dead ou en vie Fouiny You might also like Parce que je vis et je meurs dans ce monde dans ce monde Oui, je ris et je pleure mais j'affronte Et je l'aime d'un amour inconditionnel, j'veux rentrer Mais la juge a refusé ma conditionnelle, j'dois rester ouais, ouais Parce que je vis et je meurs dans ce monde dans ce monde Oui, je ris et je pleure mais j'affronte Elle a taillé, depuis, plus rien n'est pareil, j'fais les fils mais cette gov' ne peut pas me ramener auprès d'elle, c'est la merde Conte de fée-fée, j'sors le Fe-Fe, si t'as poucave, viens pas m'checker Ma coke est blanche comme les békés, maman n'avait rien à léguer Audemars Piguet toujours réglée, rap français, gros, j'l'ai trop Kengué Gros, j'ai appris à encaisser, personne voulait de moi comme Jésé Jétais p'tit, pour un rien jsortais lGlock, les jaloux, je les vois pas comme Sandra Bullock J'avais rien mais j'ai jamais baissé mon froc, j'rappe comme à l'époque, 18 carats VVS, Fouiny ne connaît pas le toc Et j'les baise, baise, baise jusqu'au profond de leur être Du fin fond de ma Banlieue Sale, gros, j'suis venu chanter mon mal-être J'suis pas là pour le paraître jusqu'à ce que ma vie s'arrête J'remercie Dieu, j'achète baraque, moi qui vendait des barrettes Parce que je vis et je meurs dans ce monde dans ce monde Oui, je ris et je pleure mais j'affronte Et je l'aime d'un amour inconditionnel, j'veux rentrer Mais la juge a refusé ma conditionnelle, j'dois rester ouais, ouais Parce que je vis et je meurs dans ce monde dans ce monde Oui, je ris et je pleure mais j'affronte Elle a taillé, depuis, plus rien n'est pareil, j'fais les fils mais cette gov' ne peut pas me ramener auprès d'elle, c'est la merde3</t>
+          <t>J'écris pour les oubliés, j'écris pour les mecs à part, j'écris pour les écroués, gros, j'écris pour les mecs au square On est toujours pris pour cible, j'ai pas besoin d'être crédible, la daronne pleurait au parloir et moi, j'restais insensible Pour les p'tits qui veulent signer pro, j'écris pour les frères au trou Sans capote, j'la mets au fond, gros, j'suis pas Kostas Mitrouglou Ils nous tirent dessus, les gilets jaunes sont devenus gilets rouges J'me suis marié avec la rue, khoya, c'est une mauvaise épouse Si j'te tourne le dos, c'est que quand j'avais rien, t'étais pas là Ils ont enfermé Ramadan alors pourquoi pas Benalla ? Pas de justice pour Adama, rien n'a changé depuis Obama Le rap engagé s'est désengagé, la filha de puta J'ai grandi dans l'illicite, j'ai jamais sucé des bites, je sais qu'là, t'es sur repeat, les vestes vont se retourner vite T'as pas écarté pour percer, pour ça qu'tu taffes au McDrive Dans l'rap, y a plus de putes qu'au 5 5 5 Ils sont sous GHB, ils vont finir en HP, j'fais pas preuve de lâcheté, j'ai pas besoin de m'racheter La jalousie t'a achevé, non, moi, rien ne peut m'acheter Le quartier peut briser tes rêves, demande à MHD J'ai toujours des choses à dire, j'ai grandi là où ça tire Autour de moi, ça part en couilles, gros, plus ça suce, plus ça s'en tire Ouais, la vie est un combat, gros, j'ai les poings dApollo Creed et si j'raconte n'importe quoi, petit, c'est que la bouteille est vide Parce que c'est dead... Dead ou en vie Fouiny Parce que je vis et je meurs dans ce monde dans ce monde Oui, je ris et je pleure mais j'affronte Et je l'aime d'un amour inconditionnel, j'veux rentrer Mais la juge a refusé ma conditionnelle, j'dois rester ouais, ouais Parce que je vis et je meurs dans ce monde dans ce monde Oui, je ris et je pleure mais j'affronte Elle a taillé, depuis, plus rien n'est pareil, j'fais les fils mais cette gov' ne peut pas me ramener auprès d'elle, c'est la merde Conte de fée-fée, j'sors le Fe-Fe, si t'as poucave, viens pas m'checker Ma coke est blanche comme les békés, maman n'avait rien à léguer Audemars Piguet toujours réglée, rap français, gros, j'l'ai trop Kengué Gros, j'ai appris à encaisser, personne voulait de moi comme Jésé Jétais p'tit, pour un rien jsortais lGlock, les jaloux, je les vois pas comme Sandra Bullock J'avais rien mais j'ai jamais baissé mon froc, j'rappe comme à l'époque, 18 carats VVS, Fouiny ne connaît pas le toc Et j'les baise, baise, baise jusqu'au profond de leur être Du fin fond de ma Banlieue Sale, gros, j'suis venu chanter mon mal-être J'suis pas là pour le paraître jusqu'à ce que ma vie s'arrête J'remercie Dieu, j'achète baraque, moi qui vendait des barrettes Parce que je vis et je meurs dans ce monde dans ce monde Oui, je ris et je pleure mais j'affronte Et je l'aime d'un amour inconditionnel, j'veux rentrer Mais la juge a refusé ma conditionnelle, j'dois rester ouais, ouais Parce que je vis et je meurs dans ce monde dans ce monde Oui, je ris et je pleure mais j'affronte Elle a taillé, depuis, plus rien n'est pareil, j'fais les fils mais cette gov' ne peut pas me ramener auprès d'elle, c'est la merde3</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Serrés à trois, dans une petite cellule de même pas 9 mètres carrés Avais-je le choix, voici la vie à laquelle j'étais prédestiné ouais Et nos rents-pa, ils nettoyaient le sol, ils disaient oui monsieur Voilà pourquoi je m'assois en première classe, la victoire dans mes yeux ouais La victoire dans mes yeux ouais, sous mes lunettes, Louis Vuitton, Virgil Abloh Je repeins l'histoire de ma vie, rouge était le tableau ce putain d'tableau Y a deux choses qui te tirent vers le bas les jaloux et la gravité Couper les doses, de revoir la mort en bas, le croque-mort nous félicitait ouais, ouais J'ai mis des illères car j'ai l'cheval sur le capot ouais, ouais J'ai mis de côté, j'peux stopper le pe-ra tantôt ouais, ouais J'suis dans le binks, les me-ar sont froides, les tchoins sont chaudes ouais, ouais Et j'fais le tour de la zone et j'fais le tour de la zone J'suis dans l'allemande, j'refais le tour de la zone, ouais, ouais Je pense au temps où j'étais bloqué dans la zone, ouais, ouais Comme à l'époque, ils refusaient d'me faire un chrome, ouais ouais Genoux au sol, moi j'demande avec les paumes, ouais, ouais J'suis dans l'allemande, j'refais le tour de la zone, ouais, ouais Je pense au temps où j'étais bloqué dans la zone, ouais, ouais Comme à l'époque, ils refusaient d'me faire un chrome, ouais ouais Genoux au sol, moi j'demande avec les paumes, ouais, ouais You might also like Serrés à neuf, dans un petit F4, 39 square Jean Macé Qui aurait cru qu'on aurait des italiennes, laisserait les clés au valet Qu'on dormirait dans des putains de villas, qu'on aurait payé cash Pas de crédit, maman me l'a interdit, elle m'aurait mit des baffes, ouais Elle m'aurait mit des baffes, elle m'aurait dit Laouni n'oublie pas d'où tu viens, qui t'es J'pense à eux fort quand j'pousse à 240 le Porsche GT Les petits reviennent d'Espagne, ils cherchent un distributeur Believe sont chauds, mais on parle pas du même style de distributeur ouais, ouais J'ai mis des illères car j'ai l'cheval sur le capot ouais, ouais J'ai mis de côté, j'peux stopper le pe-ra tantôt ouais, ouais J'suis dans le binks, les me-ar sont froides, les tchoins sont chaudes ouais, ouais Et j'fais le tour de la zone et j'fais le tour de la zone J'suis dans l'allemande, j'refais le tour de la zone, ouais, ouais Je pense au temps où j'étais bloqué dans la zone, ouais, ouais Comme à l'époque, ils refusaient d'me faire un chrome, ouais ouais Genoux au sol, moi j'demande avec les paumes, ouais, ouais J'suis dans l'allemande, j'refais le tour de la zone, ouais, ouais Je pense au temps où j'étais bloqué dans la zone, ouais, ouais Comme à l'époque, ils refusaient d'me faire un chrome, ouais ouais Genoux au sol, moi j'demande avec les paumes, ouais, ouais</t>
+          <t>Serrés à trois, dans une petite cellule de même pas 9 mètres carrés Avais-je le choix, voici la vie à laquelle j'étais prédestiné ouais Et nos rents-pa, ils nettoyaient le sol, ils disaient oui monsieur Voilà pourquoi je m'assois en première classe, la victoire dans mes yeux ouais La victoire dans mes yeux ouais, sous mes lunettes, Louis Vuitton, Virgil Abloh Je repeins l'histoire de ma vie, rouge était le tableau ce putain d'tableau Y a deux choses qui te tirent vers le bas les jaloux et la gravité Couper les doses, de revoir la mort en bas, le croque-mort nous félicitait ouais, ouais J'ai mis des illères car j'ai l'cheval sur le capot ouais, ouais J'ai mis de côté, j'peux stopper le pe-ra tantôt ouais, ouais J'suis dans le binks, les me-ar sont froides, les tchoins sont chaudes ouais, ouais Et j'fais le tour de la zone et j'fais le tour de la zone J'suis dans l'allemande, j'refais le tour de la zone, ouais, ouais Je pense au temps où j'étais bloqué dans la zone, ouais, ouais Comme à l'époque, ils refusaient d'me faire un chrome, ouais ouais Genoux au sol, moi j'demande avec les paumes, ouais, ouais J'suis dans l'allemande, j'refais le tour de la zone, ouais, ouais Je pense au temps où j'étais bloqué dans la zone, ouais, ouais Comme à l'époque, ils refusaient d'me faire un chrome, ouais ouais Genoux au sol, moi j'demande avec les paumes, ouais, ouais Serrés à neuf, dans un petit F4, 39 square Jean Macé Qui aurait cru qu'on aurait des italiennes, laisserait les clés au valet Qu'on dormirait dans des putains de villas, qu'on aurait payé cash Pas de crédit, maman me l'a interdit, elle m'aurait mit des baffes, ouais Elle m'aurait mit des baffes, elle m'aurait dit Laouni n'oublie pas d'où tu viens, qui t'es J'pense à eux fort quand j'pousse à 240 le Porsche GT Les petits reviennent d'Espagne, ils cherchent un distributeur Believe sont chauds, mais on parle pas du même style de distributeur ouais, ouais J'ai mis des illères car j'ai l'cheval sur le capot ouais, ouais J'ai mis de côté, j'peux stopper le pe-ra tantôt ouais, ouais J'suis dans le binks, les me-ar sont froides, les tchoins sont chaudes ouais, ouais Et j'fais le tour de la zone et j'fais le tour de la zone J'suis dans l'allemande, j'refais le tour de la zone, ouais, ouais Je pense au temps où j'étais bloqué dans la zone, ouais, ouais Comme à l'époque, ils refusaient d'me faire un chrome, ouais ouais Genoux au sol, moi j'demande avec les paumes, ouais, ouais J'suis dans l'allemande, j'refais le tour de la zone, ouais, ouais Je pense au temps où j'étais bloqué dans la zone, ouais, ouais Comme à l'époque, ils refusaient d'me faire un chrome, ouais ouais Genoux au sol, moi j'demande avec les paumes, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2-0-0-4, La Fouine C'est ça ! Planète Trappes man Banlieue Ouest Mixtape, Original Les Yvelines, Trappes Parce que t'as trop sous-estimé 78 mon continent Mec on t'prend par la gorge et pas par les sentiments J'suis comme une puce balourd sauf qu'j'saute pas J'saute que l'Etat, j'saute que les dames, mesdames j'suis polygame Comme mon soss VR6, respect à Light Six Man t'es qu'a Mach3, moi j'suis déjà Mach6 La vie ça va vite comme un R1 et ouais On t'nique ta mère et on t'laisse parterre si t'as bicrave sur notre terrain Lalala La Fouine, position, Banlieue Ouest Fusil à pompe, petite question, petit test Mon rap pue la Brinks et mes rimes sont des roquettes Y aura des tête à tête, comme dit Chabo' Baise les collabos Mon flow est dans l'arène et les 'tasses sont dans la Benz' Les bites sont dans les chattes, les keufs sont dans la tess Les reufs se sont fait plais', le 7-8 est dans la presse Braquage sans se faire rez tu connais lalala la dèche Ça c'est le son des tards-pé, refré c'est bientôt mixé Man, l'album arrive bientôt Dans les bacs, dans les bacs, dans les bacs, dans les bacs Ça c'est le son des tards-pé, refré c'est bientôt mixé Man, l'album arrive bientôt Dans les bacs, dans les bacs, dans les bacs, dans les bacs You might also like R to the Ezzy, M to the Yzzy My arms stay breezy, the Don stay flizzy Got a date at 8, I'm in the 7-4-fizzive And I just bought a bike so I can ride till I die With a matchin' jacket, 'bout to cop me a mansion My niggas in the club, but you know they not dancin We gangsta, and gangstas don't dance, we boogie So never mind how we got in here with burners and hoodies Listen we don't pay admission and the bouncers don't check us And we - walk around the metal detectors And there really ain't a need for a VIP section In the middle of the dance floor reckless, check it Said he - liked my necklace, started relaxin Now that's what the fuck I call a chain reaction See Money Ain't a Thing nigga, we still the same niggas Flows just changed now we bout to change the game nigga Ça c'est le son des tards-pé, refré c'est bientôt mixé Man, l'album arrive bientôt Dans les bacs, dans les bacs, dans les bacs, dans les bacs Ça c'est le son des tards-pé, refré c'est bientôt mixé Man, l'album arrive bientôt Dans les bacs, dans les bacs, dans les bacs, dans les bacs</t>
+          <t>2-0-0-4, La Fouine C'est ça ! Planète Trappes man Banlieue Ouest Mixtape, Original Les Yvelines, Trappes Parce que t'as trop sous-estimé 78 mon continent Mec on t'prend par la gorge et pas par les sentiments J'suis comme une puce balourd sauf qu'j'saute pas J'saute que l'Etat, j'saute que les dames, mesdames j'suis polygame Comme mon soss VR6, respect à Light Six Man t'es qu'a Mach3, moi j'suis déjà Mach6 La vie ça va vite comme un R1 et ouais On t'nique ta mère et on t'laisse parterre si t'as bicrave sur notre terrain Lalala La Fouine, position, Banlieue Ouest Fusil à pompe, petite question, petit test Mon rap pue la Brinks et mes rimes sont des roquettes Y aura des tête à tête, comme dit Chabo' Baise les collabos Mon flow est dans l'arène et les 'tasses sont dans la Benz' Les bites sont dans les chattes, les keufs sont dans la tess Les reufs se sont fait plais', le 7-8 est dans la presse Braquage sans se faire rez tu connais lalala la dèche Ça c'est le son des tards-pé, refré c'est bientôt mixé Man, l'album arrive bientôt Dans les bacs, dans les bacs, dans les bacs, dans les bacs Ça c'est le son des tards-pé, refré c'est bientôt mixé Man, l'album arrive bientôt Dans les bacs, dans les bacs, dans les bacs, dans les bacs R to the Ezzy, M to the Yzzy My arms stay breezy, the Don stay flizzy Got a date at 8, I'm in the 7-4-fizzive And I just bought a bike so I can ride till I die With a matchin' jacket, 'bout to cop me a mansion My niggas in the club, but you know they not dancin We gangsta, and gangstas don't dance, we boogie So never mind how we got in here with burners and hoodies Listen we don't pay admission and the bouncers don't check us And we - walk around the metal detectors And there really ain't a need for a VIP section In the middle of the dance floor reckless, check it Said he - liked my necklace, started relaxin Now that's what the fuck I call a chain reaction See Money Ain't a Thing nigga, we still the same niggas Flows just changed now we bout to change the game nigga Ça c'est le son des tards-pé, refré c'est bientôt mixé Man, l'album arrive bientôt Dans les bacs, dans les bacs, dans les bacs, dans les bacs Ça c'est le son des tards-pé, refré c'est bientôt mixé Man, l'album arrive bientôt Dans les bacs, dans les bacs, dans les bacs, dans les bacs</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Des cagoules au broliques, Man d'Osny à Fresnes Des condés des frères sans cesse ils viennent loger là où on traîne De longues perquisitions, les petits salaires les longues peines La débrouillardise survivre au système, man c'est dans nos gènes Du sud au nord, est ouest Viens dans nos quartiers on t'montre comment on fait Du sud au nord, est ouest J'en viens même à m'demander comment on fait Yeah ! yeah ! Mic Check ! Mic Check ! Un Deux ! Un Deux ! Villiers-Le-Bel paraît qu'un keuf mort en vaut deux Paraît que l'argent appartient à ceux qui se lèvent tôt rebeu Voila pourquoi j'monte sur scène avec des poches sous les yeux J'ai grandi à Trappes la merde sous mes semelles Ah ça sent l'essence laisse les rapper sur des vélos sans selles Quand on passe du mitard à l'Olympia plein Paris Ils parlent de cul de rue mais de casiers vierges comme Marie Ils sont en panne de bi de tass et de moteurs Et si le proc me cé-su c'est qu'le baveux est à la hauteur Tu dis que tu bicraves parait qu't'es qu'un pointeur On dit qu'j'ai trop de flow ça glisse j'rappe avec des rollers J'écris dans le 7.8 ça s'termine dans le 9.4 Ça sent la chatte dans le 4x4 On ta hagar en promenade, racketté dans la cour Fin du couplet j'remonte ma braguette dans ton boule, t'as du street lourd You might also like Des cagoules au broliques, Man d'Osny à Fresnes Des condés des frères sans cesse ils viennent loger là où on traîne De longues perquisitions, les petits salaires les longues peines La débrouillardise survivre au système, man c'est dans nos gènes Du sud au nord, est ouest Viens dans nos quartiers on t'montre, comment on fait Du sud au nord, est ouest J'en viens même à m'demander comment on fait Qui prend qui ? qui prend quoi ? Qui veut çi ? qui veut çà ? Qui sait d'où vient mes émotions, vérifie mon thermomètre Pas de maîtres ni d'élèves, non dis moi qui que tu sois J'me rends pas Africa, c'est la foi c'est la mère Salam au bled aux deux aires mec Nos îles ont adopté le paraître, la mondialisation installe des fenêtres On veut ci on veut çà, dans la joie dans la foi Caca aka RS4 en fumette Comprends-tu pourquoi je mets les lunettes ? Trop de hijabs dans le quartier, un simple regard montre qu'on a pas pied Les gens honnêtes sont tellement rares qu'on les prend pour des bêtes Car la loi c'est être droit c'est le geste Moi j'fais mon vendredi, tu fais ta messe Pas pour ça qu'on se déteste La vie de ma mère crois en toi Mets une croix à la coca à la moka la marijuana, tu n'es pas la ponny daniels Des cagoules au broliques, Man d'Osny à Fresnes Des condés des frères sans cesse ils viennent loger là où on traîne De longues perquisitions, les petits salaires les longues peines La débrouillardise survivre au système, man c'est dans nos gènes Du sud au nord, est ouest Viens dans nos quartiers on t'montre, comment on fait Du sud au nord, est ouest J'en viens même à m'demander comment on fait Hey j'reviens remettre une couche, aucune punchline me couche Ton allonge à trop teddy, moi comment veux tu qu'elle bouge Si je suis dur faut que tu la touches Y'a que des ordures ramasse donc la savonnette dans la douche Nous on a rien à voir aux autres, mange le poulet les os On a tellement marché à l'ombre, aujourd'hui on veut marcher sur l'eau Ah on veut du flouze, mais tout le paye Jusqu'à quel prix je partirais, laisse ma famille en paix Ne tire pas dans les bacs si tu lances la balle Ne vise pas en bas ou elle reviendra Si chacun à son devoir, ouais plus rien redevoir A personne le boomerang un jour reviendra Du 9.4 au 7.8 Le 1.3 j'prends le refré en son-pri Alors regarde tout le monde tape Mais personne te dira qu'ils en auront pris Des cagoules au broliques, Man d'Osny à Fresnes Des condés des frères sans cesse ils viennent loger là où on traîne De longues perquisitions, les petits salaires les longues peines La débrouillardise survivre au système, man c'est dans nos gènes Du sud au nord, est ouest Viens dans nos quartiers on t'montre, comment on fait Du sud au nord, est ouest J'en viens même à m'demander comment on fait On réfléchit avec le pénis, on croit plus aux ministres Qui va payer les sinistres ? La rue on vise les euros nous guérissent, la merde sur les tennis Corona, Laouni que Dieu nous bénisse On réfléchit avec le pénis, on croit plus aux ministres Qui va payer les sinistres ? La rue on vise les euros nous guérissent, la merde sur les tennis Corona, Laouni que Dieu nous bénisse</t>
+          <t>Des cagoules au broliques, Man d'Osny à Fresnes Des condés des frères sans cesse ils viennent loger là où on traîne De longues perquisitions, les petits salaires les longues peines La débrouillardise survivre au système, man c'est dans nos gènes Du sud au nord, est ouest Viens dans nos quartiers on t'montre comment on fait Du sud au nord, est ouest J'en viens même à m'demander comment on fait Yeah ! yeah ! Mic Check ! Mic Check ! Un Deux ! Un Deux ! Villiers-Le-Bel paraît qu'un keuf mort en vaut deux Paraît que l'argent appartient à ceux qui se lèvent tôt rebeu Voila pourquoi j'monte sur scène avec des poches sous les yeux J'ai grandi à Trappes la merde sous mes semelles Ah ça sent l'essence laisse les rapper sur des vélos sans selles Quand on passe du mitard à l'Olympia plein Paris Ils parlent de cul de rue mais de casiers vierges comme Marie Ils sont en panne de bi de tass et de moteurs Et si le proc me cé-su c'est qu'le baveux est à la hauteur Tu dis que tu bicraves parait qu't'es qu'un pointeur On dit qu'j'ai trop de flow ça glisse j'rappe avec des rollers J'écris dans le 7.8 ça s'termine dans le 9.4 Ça sent la chatte dans le 4x4 On ta hagar en promenade, racketté dans la cour Fin du couplet j'remonte ma braguette dans ton boule, t'as du street lourd Des cagoules au broliques, Man d'Osny à Fresnes Des condés des frères sans cesse ils viennent loger là où on traîne De longues perquisitions, les petits salaires les longues peines La débrouillardise survivre au système, man c'est dans nos gènes Du sud au nord, est ouest Viens dans nos quartiers on t'montre, comment on fait Du sud au nord, est ouest J'en viens même à m'demander comment on fait Qui prend qui ? qui prend quoi ? Qui veut çi ? qui veut çà ? Qui sait d'où vient mes émotions, vérifie mon thermomètre Pas de maîtres ni d'élèves, non dis moi qui que tu sois J'me rends pas Africa, c'est la foi c'est la mère Salam au bled aux deux aires mec Nos îles ont adopté le paraître, la mondialisation installe des fenêtres On veut ci on veut çà, dans la joie dans la foi Caca aka RS4 en fumette Comprends-tu pourquoi je mets les lunettes ? Trop de hijabs dans le quartier, un simple regard montre qu'on a pas pied Les gens honnêtes sont tellement rares qu'on les prend pour des bêtes Car la loi c'est être droit c'est le geste Moi j'fais mon vendredi, tu fais ta messe Pas pour ça qu'on se déteste La vie de ma mère crois en toi Mets une croix à la coca à la moka la marijuana, tu n'es pas la ponny daniels Des cagoules au broliques, Man d'Osny à Fresnes Des condés des frères sans cesse ils viennent loger là où on traîne De longues perquisitions, les petits salaires les longues peines La débrouillardise survivre au système, man c'est dans nos gènes Du sud au nord, est ouest Viens dans nos quartiers on t'montre, comment on fait Du sud au nord, est ouest J'en viens même à m'demander comment on fait Hey j'reviens remettre une couche, aucune punchline me couche Ton allonge à trop teddy, moi comment veux tu qu'elle bouge Si je suis dur faut que tu la touches Y'a que des ordures ramasse donc la savonnette dans la douche Nous on a rien à voir aux autres, mange le poulet les os On a tellement marché à l'ombre, aujourd'hui on veut marcher sur l'eau Ah on veut du flouze, mais tout le paye Jusqu'à quel prix je partirais, laisse ma famille en paix Ne tire pas dans les bacs si tu lances la balle Ne vise pas en bas ou elle reviendra Si chacun à son devoir, ouais plus rien redevoir A personne le boomerang un jour reviendra Du 9.4 au 7.8 Le 1.3 j'prends le refré en son-pri Alors regarde tout le monde tape Mais personne te dira qu'ils en auront pris Des cagoules au broliques, Man d'Osny à Fresnes Des condés des frères sans cesse ils viennent loger là où on traîne De longues perquisitions, les petits salaires les longues peines La débrouillardise survivre au système, man c'est dans nos gènes Du sud au nord, est ouest Viens dans nos quartiers on t'montre, comment on fait Du sud au nord, est ouest J'en viens même à m'demander comment on fait On réfléchit avec le pénis, on croit plus aux ministres Qui va payer les sinistres ? La rue on vise les euros nous guérissent, la merde sur les tennis Corona, Laouni que Dieu nous bénisse On réfléchit avec le pénis, on croit plus aux ministres Qui va payer les sinistres ? La rue on vise les euros nous guérissent, la merde sur les tennis Corona, Laouni que Dieu nous bénisse</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Bitch ! La la la la la la la La Fouine Bitch ! Yeah ! De loin ou de près, on fuit les problèmes Au fond de moi sommeille cette haine À force de trop parler, le système a semé Au fond de moi cette mauvaise graine Yeah, mais qu'elle est belle, la jeunesse de France Tous dans la merde sans les thunes, j'vois pas de délivrance Plus d'temps à perdre alors, on fait c'qu'on peut Et on s'la ramène évite les grosses peines On veut finir millionnaire avant la trentaine Fatigué de suivre les règles du jeu Y'a pas d'taff vers chez nous alors on fait c'que l'on peut Au pied du mur, c'est la rage qui tourne en boucle J'ai pas vu passer l'orage, sale temps pour un mois d'Août Les saisons se suivent et se ressemblent Malheureusement, on vit rarement, on meurt ensemble Alors on pleure nos disparus, main sur le cur Le vécu transpire la rue et toutes ses erreurs Tu sais ? Y'a plus d'espoir j'me sens lège' comme la veille Dégouté tous les soirs le regard vide, comme une bouteille Et on s'accroche, obligé de serrer les coudes Vu qu'on passe plus de temps à parler de nos problèmes qu'à les résoudre You might also like De loin ou de près, on fuit les problèmes Au fond de moi sommeil cette haine A force de trop parler, le système a semer Au fond de moi cette mauvaise graine Ici la chance s'est fait la belle, triste mélodie À force de vivre ma galère, J'kiffe la mélancolie Perdu, sous les débris de l'espoir on se cherche On prie tous les jours, les mauvais coups on encaisse Le décor HLM, toujours les mêmes sur l'palier Au crochet des alloc, les retards de loyer T'sais quoi ? Moi aussi j'veux la vie de rêve, vie de rêve Comme toi aussi, j'compare la vie avec un putain de glaive La banlieue peut te briser un homme Malgré les rappels on a fait croqué la pomme On en fait qu'à nos têtes, mais bon tout s'paye On fait cramer la verdure pour décrocher le sommeil Où est passé l'amour ? Pt-être à la fenêtre fatigué des querelles On s'attache, on regrette, on s'attrape, on se pète tous dans l'ivresse On a misé sur le talent, mais la misère nous prend d'vitesse De loin ou de près, on fuit les problèmes Au fond de moi sommeille cette haine A force de trop parler, le système a semé Au fond de moi cette mauvaise graine</t>
+          <t>Bitch ! La la la la la la la La Fouine Bitch ! Yeah ! De loin ou de près, on fuit les problèmes Au fond de moi sommeille cette haine À force de trop parler, le système a semé Au fond de moi cette mauvaise graine Yeah, mais qu'elle est belle, la jeunesse de France Tous dans la merde sans les thunes, j'vois pas de délivrance Plus d'temps à perdre alors, on fait c'qu'on peut Et on s'la ramène évite les grosses peines On veut finir millionnaire avant la trentaine Fatigué de suivre les règles du jeu Y'a pas d'taff vers chez nous alors on fait c'que l'on peut Au pied du mur, c'est la rage qui tourne en boucle J'ai pas vu passer l'orage, sale temps pour un mois d'Août Les saisons se suivent et se ressemblent Malheureusement, on vit rarement, on meurt ensemble Alors on pleure nos disparus, main sur le cur Le vécu transpire la rue et toutes ses erreurs Tu sais ? Y'a plus d'espoir j'me sens lège' comme la veille Dégouté tous les soirs le regard vide, comme une bouteille Et on s'accroche, obligé de serrer les coudes Vu qu'on passe plus de temps à parler de nos problèmes qu'à les résoudre De loin ou de près, on fuit les problèmes Au fond de moi sommeil cette haine A force de trop parler, le système a semer Au fond de moi cette mauvaise graine Ici la chance s'est fait la belle, triste mélodie À force de vivre ma galère, J'kiffe la mélancolie Perdu, sous les débris de l'espoir on se cherche On prie tous les jours, les mauvais coups on encaisse Le décor HLM, toujours les mêmes sur l'palier Au crochet des alloc, les retards de loyer T'sais quoi ? Moi aussi j'veux la vie de rêve, vie de rêve Comme toi aussi, j'compare la vie avec un putain de glaive La banlieue peut te briser un homme Malgré les rappels on a fait croqué la pomme On en fait qu'à nos têtes, mais bon tout s'paye On fait cramer la verdure pour décrocher le sommeil Où est passé l'amour ? Pt-être à la fenêtre fatigué des querelles On s'attache, on regrette, on s'attrape, on se pète tous dans l'ivresse On a misé sur le talent, mais la misère nous prend d'vitesse De loin ou de près, on fuit les problèmes Au fond de moi sommeille cette haine A force de trop parler, le système a semé Au fond de moi cette mauvaise graine</t>
         </is>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Gros, j'ai deux couilles, j'suis de droite et d'gauche Ta meuf est bonne, faut qu'je la débauche Cheveu sur la langue ou gun dans la bouche Y'aura pas du flow, ils sucent sous la douche Moïse écartait la mer, moi, j'écartais la teuch de la tienne J't'enterre, fais du bif' à la pelle Taches de sang sur l'pare-choc de la Benz Renoi, j'te connais pas, mais pourquoi tu m'tutoies ? Un doigt dans l'cul, pour ça qu'on t'pointe du doigt T'as ken le premier soir, c'est officiel Tu seras ma tchoin, pas mon officielle J'crois que ton couple tient qu'à une ficelle J'connais la rue, j'la rappe en pixels La chatte à Tokyo, Fouiny del Papel J'roule des gamos toi, tu roules des pelles On est dix, on va quand même rentrer On est dix, on va quand même rentrer On est, on est, on est dix, on va quand même rentrer On est dix, on va quand même rentrer On va dépenser, dépenser, dépenser Dépenser, dépenser, dépenser Dépenser, dépenser, dépenser La go est bonne, j'sais plus à quelle star porno elle m'fait penser You might also like Depuis l'début, j'suis tout seul J'avance et je sais qu't'as l'seum Yo, posé avec Capri-Sun J'ai mon petit Capri-Gun Olala, YZ, T-Max, lève-le Elle est bonne, feu-mme, lève-la Tu fais l'malin on t'niquer ta reum T'es pas content ? On la re-nique Mentalité rien qu'j'les fuck J'vais casser tous les écrans, même si t'as dernière coque J'ai des frères sur qui j'peux compter qui s'appellent Tout est faux chez toi, j'crois qu'ta mère vient d'Bangkok RIS Business D'où viennent ses fesses ? Fitness Jolie caisse, pas d'hess Y'a l'hassas, pas d'stress On est dix, on va quand même rentrer On est dix, on va quand même rentrer On est, on est, on est dix, on va quand même rentrer On est dix, on va quand même rentrer On va dépenser, dépenser, dépenser Dépenser, dépenser, dépenser Dépenser, dépenser, dépenser La go est bonne, j'sais plus à quelle star porno elle m'fait penser</t>
+          <t>Gros, j'ai deux couilles, j'suis de droite et d'gauche Ta meuf est bonne, faut qu'je la débauche Cheveu sur la langue ou gun dans la bouche Y'aura pas du flow, ils sucent sous la douche Moïse écartait la mer, moi, j'écartais la teuch de la tienne J't'enterre, fais du bif' à la pelle Taches de sang sur l'pare-choc de la Benz Renoi, j'te connais pas, mais pourquoi tu m'tutoies ? Un doigt dans l'cul, pour ça qu'on t'pointe du doigt T'as ken le premier soir, c'est officiel Tu seras ma tchoin, pas mon officielle J'crois que ton couple tient qu'à une ficelle J'connais la rue, j'la rappe en pixels La chatte à Tokyo, Fouiny del Papel J'roule des gamos toi, tu roules des pelles On est dix, on va quand même rentrer On est dix, on va quand même rentrer On est, on est, on est dix, on va quand même rentrer On est dix, on va quand même rentrer On va dépenser, dépenser, dépenser Dépenser, dépenser, dépenser Dépenser, dépenser, dépenser La go est bonne, j'sais plus à quelle star porno elle m'fait penser Depuis l'début, j'suis tout seul J'avance et je sais qu't'as l'seum Yo, posé avec Capri-Sun J'ai mon petit Capri-Gun Olala, YZ, T-Max, lève-le Elle est bonne, feu-mme, lève-la Tu fais l'malin on t'niquer ta reum T'es pas content ? On la re-nique Mentalité rien qu'j'les fuck J'vais casser tous les écrans, même si t'as dernière coque J'ai des frères sur qui j'peux compter qui s'appellent Tout est faux chez toi, j'crois qu'ta mère vient d'Bangkok RIS Business D'où viennent ses fesses ? Fitness Jolie caisse, pas d'hess Y'a l'hassas, pas d'stress On est dix, on va quand même rentrer On est dix, on va quand même rentrer On est, on est, on est dix, on va quand même rentrer On est dix, on va quand même rentrer On va dépenser, dépenser, dépenser Dépenser, dépenser, dépenser Dépenser, dépenser, dépenser La go est bonne, j'sais plus à quelle star porno elle m'fait penser</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Arrivé du deu-blé déraciné, j'arrive à Osny, j'suis déraciné Arrivé du deu-blé déraciné, yeah... Arrivé du deu-blé déraciné, maman t'iras plus nettoyer le sol Une liasse de 500 pour me réanimer, confonds pas le teh et la méthadone J'arrive à Osny, j'suis déraciné, j'ai fumé un gramme et j'ai rêvé de tonnes Pas besoin d'la chauffer pour la couper, elle arrive de Ketama, elle est bonne Envoyez-moi vers la famille, j'vais cantiner, pardonne-moi bébé mais mon cur est confiné La bicrave ou l'pe-ra, c'était ma dstinée, tout le monde m'a saigné, j'suis comm l'eau du robinet Tu traines avec lui, il a baisé ta sur, il traîne avec toi, il a poucave ton frère L'amitié c'est devenu un film érotique, ils m'tirent dans le dos khoya, prépares le biopic Dix kilos dans le coffre de la Fiat 500 parlent en billets de 500, parlent en billets violets Contrôle d'identité, gros sourire, eh tenez, les papiers ça passe crème, va te faire enculer Hm, va te faire enculer, j'ai giflé la poucave, j'ai finis au QD Personne viendra t'sauver dans l'coffre du SUV, je l'ai blanchi, mon argent avait fait des UV bang, bang Déraciné, ils ont pillé l'Afrique, va falloir assumer Mon oseille a fait des p'tits, j'demande le test de paternité Ouais nuit et jour, ouais nuit et jour j'pense qu'à la fraîche j'pense qu'à la fraîche Nuit et jour, j'pense qu'à la fraîche You might also like Arrivé du deu-blé déraciné, maman t'iras plus nettoyer le sol Une liasse de 500 pour me réanimer, confonds pas le teh et la méthadone J'arrive à Osny, j'suis déraciné, j'ai fumé un gramme et j'ai rêvé de tonnes Pas besoin d'la chauffer pour la couper, elle arrive de Ketama, elle est bonne Palettes au volant, mon bédo est collant, direction la Hollande, déchirer des collants J'ai percé, j'ai percé, j'ai pris mon envol, mais le sheitan me tient comme avec un cerf-volant Ils ont pillé l'Afrique déracinée, les colons ont laissé une terre abimée Comme je te l'ai dit, mon poignet vient de Suisse, ma voiture vient d'Allemagne, gros j'suis déraciné À Paname elles cherchent un footeux à pigeonner, elles cherchent le Classe G, j'ai trouvé les points G Détailler la 100 G c'est fini, caille-ra, dix-huit-cent sur l'album, dix-huit carats Cette année c'est promis j'vais ramener la cup, les vrais tirent vers le haut et j'parle pas de swipe-up Cette année c'est promis j'vais ramener la cup, les vrais tirent vers le haut et j'parle pas de swipe-up bang, bang Déraciné, ils ont pillé l'Afrique, va falloir assumer Mon oseille a fait des p'tits, j'demande le test de paternité Ouais nuit et jour, ouais nuit et jour j'pense qu'à la fraîche j'pense qu'à la fraîche Nuit et jour, j'pense qu'à la fraîche Arrivé du deu-blé déraciné, maman t'iras plus nettoyer le sol Une liasse de 500 pour me réanimer, confonds pas le teh et la méthadone J'arrive à Osny, j'suis déraciné, j'ai fumé un gramme et j'ai rêvé de tonnes Pas besoin d'la chauffer pour la couper, elle arrive de Ketama, elle est bonne</t>
+          <t>Arrivé du deu-blé déraciné, j'arrive à Osny, j'suis déraciné Arrivé du deu-blé déraciné, yeah... Arrivé du deu-blé déraciné, maman t'iras plus nettoyer le sol Une liasse de 500 pour me réanimer, confonds pas le teh et la méthadone J'arrive à Osny, j'suis déraciné, j'ai fumé un gramme et j'ai rêvé de tonnes Pas besoin d'la chauffer pour la couper, elle arrive de Ketama, elle est bonne Envoyez-moi vers la famille, j'vais cantiner, pardonne-moi bébé mais mon cur est confiné La bicrave ou l'pe-ra, c'était ma dstinée, tout le monde m'a saigné, j'suis comm l'eau du robinet Tu traines avec lui, il a baisé ta sur, il traîne avec toi, il a poucave ton frère L'amitié c'est devenu un film érotique, ils m'tirent dans le dos khoya, prépares le biopic Dix kilos dans le coffre de la Fiat 500 parlent en billets de 500, parlent en billets violets Contrôle d'identité, gros sourire, eh tenez, les papiers ça passe crème, va te faire enculer Hm, va te faire enculer, j'ai giflé la poucave, j'ai finis au QD Personne viendra t'sauver dans l'coffre du SUV, je l'ai blanchi, mon argent avait fait des UV bang, bang Déraciné, ils ont pillé l'Afrique, va falloir assumer Mon oseille a fait des p'tits, j'demande le test de paternité Ouais nuit et jour, ouais nuit et jour j'pense qu'à la fraîche j'pense qu'à la fraîche Nuit et jour, j'pense qu'à la fraîche Arrivé du deu-blé déraciné, maman t'iras plus nettoyer le sol Une liasse de 500 pour me réanimer, confonds pas le teh et la méthadone J'arrive à Osny, j'suis déraciné, j'ai fumé un gramme et j'ai rêvé de tonnes Pas besoin d'la chauffer pour la couper, elle arrive de Ketama, elle est bonne Palettes au volant, mon bédo est collant, direction la Hollande, déchirer des collants J'ai percé, j'ai percé, j'ai pris mon envol, mais le sheitan me tient comme avec un cerf-volant Ils ont pillé l'Afrique déracinée, les colons ont laissé une terre abimée Comme je te l'ai dit, mon poignet vient de Suisse, ma voiture vient d'Allemagne, gros j'suis déraciné À Paname elles cherchent un footeux à pigeonner, elles cherchent le Classe G, j'ai trouvé les points G Détailler la 100 G c'est fini, caille-ra, dix-huit-cent sur l'album, dix-huit carats Cette année c'est promis j'vais ramener la cup, les vrais tirent vers le haut et j'parle pas de swipe-up Cette année c'est promis j'vais ramener la cup, les vrais tirent vers le haut et j'parle pas de swipe-up bang, bang Déraciné, ils ont pillé l'Afrique, va falloir assumer Mon oseille a fait des p'tits, j'demande le test de paternité Ouais nuit et jour, ouais nuit et jour j'pense qu'à la fraîche j'pense qu'à la fraîche Nuit et jour, j'pense qu'à la fraîche Arrivé du deu-blé déraciné, maman t'iras plus nettoyer le sol Une liasse de 500 pour me réanimer, confonds pas le teh et la méthadone J'arrive à Osny, j'suis déraciné, j'ai fumé un gramme et j'ai rêvé de tonnes Pas besoin d'la chauffer pour la couper, elle arrive de Ketama, elle est bonne</t>
         </is>
       </c>
     </row>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Mec, t'es die, sur la tête t'as des entailles T'as dormi où ? Tu sais plus, chez toi ou bien en garde à vue Tu pues et ta mauvaise haleine, t'es comme la baleine Que t'as serré, que t'as ramené à l'hôtel et qu't'as 'ken avec ta 'soss Heineken Vu qu'on t'a pas laissé rentrer à l'Xtrême On t'a retrouvé le lendemain matin avec une bière, un café crème Avec tes vieilles histoires de BM Avec tes vieilles histoires Avec tes faux numéros, t'es mythos mec et puis du sang sur tes TN Merde, merde tu t'fais même livreur d'pizzas T'en as laissé une devant l'entrée, moi j'avais rien commandé Les meufs veulent plus sortir avec toi, tu les as traumatisé Tu les menaces avec un shlass aiguisé quand t'as trop tisé, c'est ça T'as quelques grammes dans l'sang, tu t'crois plus dans l'centre Approches pas trop sinon merde faudrait que j'allume l'encens Un verre ça va, deux verres, bonjour la hella' Tu vas serrer un cadavre et nous dire Mais ressuscitez-la car t'es die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die You might also like Lève ton verre à la mienne, mais n'abuse pas sur la boisson En quelques temps elle pourrait devenir ta passion Elle pourrait t'engrainer, faire de toi une vraie traînée Faire de toi une crasseuse, une de celle qui a trop tournée Mais ce soir danse le Harlem Shake sur du 2Pac Shakur Profite de chaque seconde, de chaque minute et de chaque heure Avant que tout s'arrête, j'explose une barrette Comme à l'ancienne avant qu'mes poumons m'disent Putain La Fouine, y faut qu't'arrêtes Quand tout le monde a baissé les bras, lève ton verre Verses une gorgée pour tes frères, et pour le reste, laisse moi faire Car, j'connais ton clan, c'est le Clan Campbell Avec lui même les thons deviennent toutes des Naomi Campbell Une crêpe à Montmartre, on se croirait à Hollywood Comme les gars seuls ont des mains, puis ta meuf a des oides' Tu feras pas la différence car t'es fonce-dé à la weed Car t'es fonce-dé à La La La La La La La Fouine car t'es die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die C'est ça Si, si la famille, c'est ça En direct de Trappes 78 Vous êtes là ou pas ? Ouais ! Ouais C'est ça, ça fait Oh ! La Fouine et Trappes c'est Ouais ! Animal Light 6 c'est Oh ! Tous les mecs de Trappes c'est Ouais ! 78 mec Oh ! Pour tous les mecs de Trappes c'est Oh ! Animal Light 6 c'est Oh ! Starl'afh la famille c'est Oh ! La La La La La La La La Fouine Fais gaffe à quoi tu roules, la coke n'a pas d'freins Si tu touches trop au 'sky mec, j'espère que t'es ready to die Y'a que la maille qui m'aille, timal, t'investis mal T'abuses trop sur la boisson, t'as des douleurs intestinales Ma belle, t'es de-spee et t'es désespérée Comme ton gars t'a lâché, ce soir tu sors avec Desperado Ou avec Jack Daniels C'est ça ? avec toutes ces abeilles Qui tournent autour de ton gros joint d'miel A Paris, tu crois avoir la côte, sans argent C'est rare comme un alcootest dans une boîte à gants Rare comme une boîte sans alcool, comme un sans-papier à l'école Comme la jet-set sur un yacht en train d'se faire mal à la colle Et ça sent le whisky jusque sur le corps des filles Qui discutent sur un capot, en leur bédo Et ça sent le whisky jusque dans les boîtes à rythme Dans les boîtes à gants ça sent même quand tu cries au Bataclan J'suis die ! T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die Die Si, si la famille T-R-A-2-P-E-S Préviens tous tes 'soss', tes assoces', tes 'tasses Dis leur que La Fouine il est bourré au son mec J'te laisse le 'sky mec C'est ça J'te laisse le 'sky mec T'es-t'es-t'es die ! T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Mec, t'es die, sur la tête t'as des entailles T'as dormi où ? Tu sais plus, chez toi ou bien en garde à vue Tu pues et ta mauvaise haleine, t'es comme la baleine Que t'as serré, que t'as ramené à l'hôtel et qu't'as 'ken avec ta 'soss Heineken Vu qu'on t'a pas laissé rentrer à l'Xtrême On t'a retrouvé le lendemain matin avec une bière, un café crème Avec tes vieilles histoires de BM Avec tes vieilles histoires Avec tes faux numéros, t'es mythos mec et puis du sang sur tes TN Merde, merde tu t'fais même livreur d'pizzas T'en as laissé une devant l'entrée, moi j'avais rien commandé Les meufs veulent plus sortir avec toi, tu les as traumatisé Tu les menaces avec un shlass aiguisé quand t'as trop tisé, c'est ça T'as quelques grammes dans l'sang, tu t'crois plus dans l'centre Approches pas trop sinon merde faudrait que j'allume l'encens Un verre ça va, deux verres, bonjour la hella' Tu vas serrer un cadavre et nous dire Mais ressuscitez-la car t'es die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die Lève ton verre à la mienne, mais n'abuse pas sur la boisson En quelques temps elle pourrait devenir ta passion Elle pourrait t'engrainer, faire de toi une vraie traînée Faire de toi une crasseuse, une de celle qui a trop tournée Mais ce soir danse le Harlem Shake sur du 2Pac Shakur Profite de chaque seconde, de chaque minute et de chaque heure Avant que tout s'arrête, j'explose une barrette Comme à l'ancienne avant qu'mes poumons m'disent Putain La Fouine, y faut qu't'arrêtes Quand tout le monde a baissé les bras, lève ton verre Verses une gorgée pour tes frères, et pour le reste, laisse moi faire Car, j'connais ton clan, c'est le Clan Campbell Avec lui même les thons deviennent toutes des Naomi Campbell Une crêpe à Montmartre, on se croirait à Hollywood Comme les gars seuls ont des mains, puis ta meuf a des oides' Tu feras pas la différence car t'es fonce-dé à la weed Car t'es fonce-dé à La La La La La La La Fouine car t'es die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die C'est ça Si, si la famille, c'est ça En direct de Trappes 78 Vous êtes là ou pas ? Ouais ! Ouais C'est ça, ça fait Oh ! La Fouine et Trappes c'est Ouais ! Animal Light 6 c'est Oh ! Tous les mecs de Trappes c'est Ouais ! 78 mec Oh ! Pour tous les mecs de Trappes c'est Oh ! Animal Light 6 c'est Oh ! Starl'afh la famille c'est Oh ! La La La La La La La La Fouine Fais gaffe à quoi tu roules, la coke n'a pas d'freins Si tu touches trop au 'sky mec, j'espère que t'es ready to die Y'a que la maille qui m'aille, timal, t'investis mal T'abuses trop sur la boisson, t'as des douleurs intestinales Ma belle, t'es de-spee et t'es désespérée Comme ton gars t'a lâché, ce soir tu sors avec Desperado Ou avec Jack Daniels C'est ça ? avec toutes ces abeilles Qui tournent autour de ton gros joint d'miel A Paris, tu crois avoir la côte, sans argent C'est rare comme un alcootest dans une boîte à gants Rare comme une boîte sans alcool, comme un sans-papier à l'école Comme la jet-set sur un yacht en train d'se faire mal à la colle Et ça sent le whisky jusque sur le corps des filles Qui discutent sur un capot, en leur bédo Et ça sent le whisky jusque dans les boîtes à rythme Dans les boîtes à gants ça sent même quand tu cries au Bataclan J'suis die ! T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die Die Si, si la famille T-R-A-2-P-E-S Préviens tous tes 'soss', tes assoces', tes 'tasses Dis leur que La Fouine il est bourré au son mec J'te laisse le 'sky mec C'est ça J'te laisse le 'sky mec T'es-t'es-t'es die ! T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die T'as un peu trop bu de whisky T'as dépensé toute ta maille, tu n'sais plus qui est qui T'as un peu trop bu de whisky Car t'es die, t'es trop die Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Damn right muhfucka got that gangsta music Better hold on to your head cause Imma make you lose it If I make ya clap ya hands then Imma make ya bruise 'em Cause we got that G-music that you play when your cruisin', huh And I don't talk much bet your ass I do alot Got the hood jumpin' from the buildin' to the parkin' lot Got the feins studderin' aki like I wanna rock Tell ya what here ya go and now ya coppin' from my block Got a short fuse and news has the same Even though a million French bitches screamin' our name I ain't gon' front nah yea I'm in it for the fame Break ya jaw easy but my biggest muscle is my brain Wrote this shit in first class on a eight hour flight And why we goin' over seas cause our hype is right I got these crazy ad libs and my doubles tight Thats why ya rappers get silent when I hold this mic Jai pris le mic assis sur mon banc, jai vu la misère assise sur mes plans I ride or die for the money Pour faire loseille, jai foutu les gants, cagoulé prêt a tirer sur ces gens I ride or die for the money Les euros, les femmes passent après lor, car après tout tu peux pas fourrer dehors I ride or die for the money En G.A.V le silence est dor, la haine de la cellule, les lyrics se sort You ride or die for the money You might also like Jai pris le mic javais la dalle, jétais fonce-dé au rhum La justice ma dit vient voir, jlui ai dit, va voir niquer ta reum Et comme le rap nétait pas là, jai fait son teum teum clic clic boum Tu rentres en taule, ten ressorts en Vincent Mac Doom Le rap est blindé comme les promnades de fleuries Pour ceux qui rêvent de baiser Halle Berry Jai pris le micro, trop dangereux en temps de crise temps de crise Change la matière marron en matière grise matière grise La CC dans la poche arrière et la pétasse sur la banquette arrière Soudain envie biatch Speed comme dans Boyz in the Hood Ma bite sent la menthe car ta meuf kiffe les Hollywood Ca sert à rien si tu te drogue pas Jai dla bonne elle monte vite comme Didier Drogba I ride or die for the money. Yeah! Les bitches et les euros cest ma life chienne Les poucaves les mithos cest la tienne, I ride or die for the money Jai pris le mic assis sur mon banc, jai vu la misère assise sur mes plans I ride or die for the money Pour faire loseille, jai foutu les gants, cagoulé prêt a tirer sur ces gens I ride or die for the money Les euros, les femmes passent après lor, car après tout tu peux pas fourrer dehors I ride or die for the money En G.A.V le silence est dor, la haine de la cellule, les lyrics se sort You ride or die for the money Matchstick keeping the block lit like Christmas Eve And my guns made outta ice cause they make ya freezy And I treat ya like hoes so get on ya knees I heard a muhfuckin' gangsta now ha ha ha I'm a grimey muhfucker I dont know any better Lay the pipe to ya sister better yet to ya mother Mica microphone checka you dont any second Motherfucker the return of mister body dropper Yeah ya fuck with this flow while ya fuck with ya ho By the time you start to shine boy I'll be ready to glow So lets go I don't need to sensor my shit anymore I got the shit under control man you already know Got haters on my dick but its bitches I want to smash Its funny how they flip they script when I get cash You poten that weed man I'm poten this hash And if you wanna battle me boy oh boy you'll get trashed Jai pris le mic assis sur mon banc, jai vu la misère assise sur mes plans I ride or die for the money Pour faire loseille, jai foutu les gants, cagoulé prêt a tirer sur ces gens I ride or die for the money Les euros, les femmes passent après lor, car après tout tu peux pas fourrer dehors I ride or die for the money En G.A.V le silence est dor, la haine de la cellule, les lyrics se sort You ride or die for the money</t>
+          <t>Damn right muhfucka got that gangsta music Better hold on to your head cause Imma make you lose it If I make ya clap ya hands then Imma make ya bruise 'em Cause we got that G-music that you play when your cruisin', huh And I don't talk much bet your ass I do alot Got the hood jumpin' from the buildin' to the parkin' lot Got the feins studderin' aki like I wanna rock Tell ya what here ya go and now ya coppin' from my block Got a short fuse and news has the same Even though a million French bitches screamin' our name I ain't gon' front nah yea I'm in it for the fame Break ya jaw easy but my biggest muscle is my brain Wrote this shit in first class on a eight hour flight And why we goin' over seas cause our hype is right I got these crazy ad libs and my doubles tight Thats why ya rappers get silent when I hold this mic Jai pris le mic assis sur mon banc, jai vu la misère assise sur mes plans I ride or die for the money Pour faire loseille, jai foutu les gants, cagoulé prêt a tirer sur ces gens I ride or die for the money Les euros, les femmes passent après lor, car après tout tu peux pas fourrer dehors I ride or die for the money En G.A.V le silence est dor, la haine de la cellule, les lyrics se sort You ride or die for the money Jai pris le mic javais la dalle, jétais fonce-dé au rhum La justice ma dit vient voir, jlui ai dit, va voir niquer ta reum Et comme le rap nétait pas là, jai fait son teum teum clic clic boum Tu rentres en taule, ten ressorts en Vincent Mac Doom Le rap est blindé comme les promnades de fleuries Pour ceux qui rêvent de baiser Halle Berry Jai pris le micro, trop dangereux en temps de crise temps de crise Change la matière marron en matière grise matière grise La CC dans la poche arrière et la pétasse sur la banquette arrière Soudain envie biatch Speed comme dans Boyz in the Hood Ma bite sent la menthe car ta meuf kiffe les Hollywood Ca sert à rien si tu te drogue pas Jai dla bonne elle monte vite comme Didier Drogba I ride or die for the money. Yeah! Les bitches et les euros cest ma life chienne Les poucaves les mithos cest la tienne, I ride or die for the money Jai pris le mic assis sur mon banc, jai vu la misère assise sur mes plans I ride or die for the money Pour faire loseille, jai foutu les gants, cagoulé prêt a tirer sur ces gens I ride or die for the money Les euros, les femmes passent après lor, car après tout tu peux pas fourrer dehors I ride or die for the money En G.A.V le silence est dor, la haine de la cellule, les lyrics se sort You ride or die for the money Matchstick keeping the block lit like Christmas Eve And my guns made outta ice cause they make ya freezy And I treat ya like hoes so get on ya knees I heard a muhfuckin' gangsta now ha ha ha I'm a grimey muhfucker I dont know any better Lay the pipe to ya sister better yet to ya mother Mica microphone checka you dont any second Motherfucker the return of mister body dropper Yeah ya fuck with this flow while ya fuck with ya ho By the time you start to shine boy I'll be ready to glow So lets go I don't need to sensor my shit anymore I got the shit under control man you already know Got haters on my dick but its bitches I want to smash Its funny how they flip they script when I get cash You poten that weed man I'm poten this hash And if you wanna battle me boy oh boy you'll get trashed Jai pris le mic assis sur mon banc, jai vu la misère assise sur mes plans I ride or die for the money Pour faire loseille, jai foutu les gants, cagoulé prêt a tirer sur ces gens I ride or die for the money Les euros, les femmes passent après lor, car après tout tu peux pas fourrer dehors I ride or die for the money En G.A.V le silence est dor, la haine de la cellule, les lyrics se sort You ride or die for the money</t>
         </is>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Eh Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Le poids d'mes soucis est chargé mais bon, faut faire des balles Trop de gens me portent l'il, j'les rafale piou, piou C'est pour ça qu'je traîne dans les arrière-salles Celle qui a ma main, j'la mets, sur un piédestal Moi je viens de la cité où ça vit d'l'illégal Ça fait des maths, ça règle problème avec 38 Spécial On s'fait péter sans faire exprès, et ça fait du mal Comme voir sa re-mè pleurer, dans leur tribunal On purge nos peines, violence ça sème Comment j'm'appelle ? Bosoulou le sale J'rentre dans l'arène, j'transforme ma haine Fais comme moi j'aime, le reste ça m'est égal You might also like Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Orphelin, quand j'me retourne, y a personne pour m'épauler Maman touchait la pension toute seule pour femme isolée Tu m'as bien élevé, mais l'être humain est mauvais Plus de bâtons dans les roues, on te tire sur les mollets Putain quelle épopée, toutes les peines écopées Nanga def, anisoroma, salam, mbote Comme un tirailleur front mais jamais décoré Les rageux sont comme des pigeons j'donne à picorer Commencé, rien dans les poches, j'suis devenu Fouiny baby Moi j'te baise, baby, blindé, weld bladi Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner J'commence à peine, Comment j'm'appelle ? Bosoulou le sale Rentre dans l'arène, j'transforme ma haine Fais comme moi j'aime, le reste ça m'est égal Hahaha Quoi d'neuf, Fouiny baby ? Marseille-Las Vegas, Bagneux-Trappes, Iwazaru Bosou bosou, bosou</t>
+          <t>Eh Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Le poids d'mes soucis est chargé mais bon, faut faire des balles Trop de gens me portent l'il, j'les rafale piou, piou C'est pour ça qu'je traîne dans les arrière-salles Celle qui a ma main, j'la mets, sur un piédestal Moi je viens de la cité où ça vit d'l'illégal Ça fait des maths, ça règle problème avec 38 Spécial On s'fait péter sans faire exprès, et ça fait du mal Comme voir sa re-mè pleurer, dans leur tribunal On purge nos peines, violence ça sème Comment j'm'appelle ? Bosoulou le sale J'rentre dans l'arène, j'transforme ma haine Fais comme moi j'aime, le reste ça m'est égal Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Orphelin, quand j'me retourne, y a personne pour m'épauler Maman touchait la pension toute seule pour femme isolée Tu m'as bien élevé, mais l'être humain est mauvais Plus de bâtons dans les roues, on te tire sur les mollets Putain quelle épopée, toutes les peines écopées Nanga def, anisoroma, salam, mbote Comme un tirailleur front mais jamais décoré Les rageux sont comme des pigeons j'donne à picorer Commencé, rien dans les poches, j'suis devenu Fouiny baby Moi j'te baise, baby, blindé, weld bladi Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner Moi j'cherchais qu'à t'offrir, la vie qu't'avais rêvée Bicrave toute la noche, dévaliser Dolce Quartier m'a fait souffrir, j'cherchais qu'à empocher T'étais comme ma plaquette j'voulais te tamponner J'commence à peine, Comment j'm'appelle ? Bosoulou le sale Rentre dans l'arène, j'transforme ma haine Fais comme moi j'aime, le reste ça m'est égal Hahaha Quoi d'neuf, Fouiny baby ? Marseille-Las Vegas, Bagneux-Trappes, Iwazaru Bosou bosou, bosou</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Bicrave sur le terrain le petit est doué Mais pour trois fois rien, ils ont sorti le jouet Il baigne dans son sang sa veste est trouée Cela brise le cur je dois vous l'avouer Bicrave sur le terrain le petit est doué doué, doué Mais pour trois fois rien, ils ont sorti le jouet jouet, jouet Il baigne dans son sang sa veste est trouée trouée, trouée Cela brise le cur je dois vous l'avouer vouer, vouer Je reviens moi de la prison, les glocks, on coupait la drogue a l'époque Ils tirent plus de balles qu'au golf, maintenant les petit ont des kalachnikov Regarde le diamant sur ma montre, mate la jalousie dans leurs yeux Ici petit frère, plus tu montes, plus on veut te crevé les pneus Moi j'ai grandi parmi les fauves, je parle pas de celle qu'on voit danser J'ai un point en commun avec mes gov's, on est tous les deux étranger J'ai baisé des brunes et des rousses, je sais pas pourquoi le diable me pousse Au bled j'ai dormi dans la brousse, frérot juste avant que les keufs me course Nationalité marocaine, j'ai fourré des américaines Dans ton zen, t'as de la cubaine, petit fais très gaffe avec qui tu traînes Le ti-peu voulait signé pro, on l'as fumer sur un terrain de foot Le negro voulais monté haut, trop tôt Bicrave sur le terrain le petit est doué Mais pour trois fois rien, ils ont sorti le jouet Il baigne dans son sang sa veste est trouée Cela brise le cur je dois vous l'avouer Bicrave sur le terrain le petit est doué doué, doué Mais pour trois fois rien, ils ont sorti le jouet jouet, jouet Il baigne dans son sang sa veste est trouée trouée, trouée Cela brise le cur je dois vous l'avouer vouer, vouer You might also like Ma vie c'est courir après l'or, trouve moi chez Gucci ou chez Dior Ils n'ont jamais dormi dehors, frérot moi j'ai jamais manger de porc J'ai niqué des mères sur ma route, j'ai vu des frérot qui se shoot Quelques Audemars dans la soute, frero je m'en bas les couilles, d'savoir combien ça coute Resté le même toutes ces année, c'est la devise rebeu c'est les temps qui ont changé Mais en cellule jattendais le courrier, maintenant tous les ti-peu ont l'abonnement 4g En galère j'attendais le bus, gare de Trappes, 417A Aujourd'hui ma salope est russe a bord d'un Ferrari california J'ai vu tout ces yeux sur mon dos, j'ai fait grimpé grimpé les taux J'ai vu tout ces batards m'enfermer, mais ces batard m'encerclé resserré l'étau C'est vrai le petit est doué, mais je crois que sa voiture est loué Je crois que son plan a échoué choué Bicrave sur le terrain le petit est doué Mais pour trois fois rien, ils ont sorti le jouet Il baigne dans son sang sa veste est trouée Cela brise le cur je dois vous l'avouer Bicrave sur le terrain le petit est doué doué, doué Mais pour trois fois rien, ils ont sorti le jouet jouet, jouet Il baigne dans son sang sa veste est trouée trouée, trouée Cela brise le cur je dois vous l'avouer vouer, vouer Bicrave sur le terrain le petit est doué</t>
+          <t>Bicrave sur le terrain le petit est doué Mais pour trois fois rien, ils ont sorti le jouet Il baigne dans son sang sa veste est trouée Cela brise le cur je dois vous l'avouer Bicrave sur le terrain le petit est doué doué, doué Mais pour trois fois rien, ils ont sorti le jouet jouet, jouet Il baigne dans son sang sa veste est trouée trouée, trouée Cela brise le cur je dois vous l'avouer vouer, vouer Je reviens moi de la prison, les glocks, on coupait la drogue a l'époque Ils tirent plus de balles qu'au golf, maintenant les petit ont des kalachnikov Regarde le diamant sur ma montre, mate la jalousie dans leurs yeux Ici petit frère, plus tu montes, plus on veut te crevé les pneus Moi j'ai grandi parmi les fauves, je parle pas de celle qu'on voit danser J'ai un point en commun avec mes gov's, on est tous les deux étranger J'ai baisé des brunes et des rousses, je sais pas pourquoi le diable me pousse Au bled j'ai dormi dans la brousse, frérot juste avant que les keufs me course Nationalité marocaine, j'ai fourré des américaines Dans ton zen, t'as de la cubaine, petit fais très gaffe avec qui tu traînes Le ti-peu voulait signé pro, on l'as fumer sur un terrain de foot Le negro voulais monté haut, trop tôt Bicrave sur le terrain le petit est doué Mais pour trois fois rien, ils ont sorti le jouet Il baigne dans son sang sa veste est trouée Cela brise le cur je dois vous l'avouer Bicrave sur le terrain le petit est doué doué, doué Mais pour trois fois rien, ils ont sorti le jouet jouet, jouet Il baigne dans son sang sa veste est trouée trouée, trouée Cela brise le cur je dois vous l'avouer vouer, vouer Ma vie c'est courir après l'or, trouve moi chez Gucci ou chez Dior Ils n'ont jamais dormi dehors, frérot moi j'ai jamais manger de porc J'ai niqué des mères sur ma route, j'ai vu des frérot qui se shoot Quelques Audemars dans la soute, frero je m'en bas les couilles, d'savoir combien ça coute Resté le même toutes ces année, c'est la devise rebeu c'est les temps qui ont changé Mais en cellule jattendais le courrier, maintenant tous les ti-peu ont l'abonnement 4g En galère j'attendais le bus, gare de Trappes, 417A Aujourd'hui ma salope est russe a bord d'un Ferrari california J'ai vu tout ces yeux sur mon dos, j'ai fait grimpé grimpé les taux J'ai vu tout ces batards m'enfermer, mais ces batard m'encerclé resserré l'étau C'est vrai le petit est doué, mais je crois que sa voiture est loué Je crois que son plan a échoué choué Bicrave sur le terrain le petit est doué Mais pour trois fois rien, ils ont sorti le jouet Il baigne dans son sang sa veste est trouée Cela brise le cur je dois vous l'avouer Bicrave sur le terrain le petit est doué doué, doué Mais pour trois fois rien, ils ont sorti le jouet jouet, jouet Il baigne dans son sang sa veste est trouée trouée, trouée Cela brise le cur je dois vous l'avouer vouer, vouer Bicrave sur le terrain le petit est doué</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah Yah, yah La jalousie, des fois, les amis deviennent ennemis Quand le Clio 2 se change en putain d'Ferrari Quand ton HLM devient vue sur la tour Eiffel Quand les meufs dont tu rêvais deviennent celles que tu ken Quand le RER A laisse place à la classe affaire Quand ton avocat te dit de n'plus jamais t'en faire Quand je frappe chez toi et que je commence à lui plaire, cut C'est pas une métaphore, j'vais vraiment niquer ta mère Dommage J'remercie mes ennemis car ils me donnent la ce-for J'lis leurs commentaires et j'rigole tout seul dans ma sche-Por Khoya, vu mon teint, ouais, j'dois faire les choses bien, ouais J'te l'ai déjà dit, yah, yah, yah, yah, yah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah You might also like Quand tu reçois aucun mandat, wAllah t'as la haine Tu sors, ils veulent tous te faire la bise, c''est pas la peine Dur de faire confiance, j'ai grandi dans un HLM Ici pas de dons de sang, trop d'jalousie dans les veines swish Comme le game allait mal, gros, fallait que je revienne Oui, sa gorge est comme ma poche, elle est profonde et pleine J'fais des rêves trop bizarres, j'ai deux-trois keufs dans mon coffre La taille de ton appart', c'est les chiottes de mon loft Je pardonne mes ennemis car ils sont trop en ien-ch, ouais Paraît qu'ils sont chauds, ils ont repassé le linge, ouais Khoya, vu mon teint, ouais, j'dois faire les choses bien, ouais J'te l'ai déjà dit, yah, yah, yah, yah, yah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah On sait d'où l'on vient, on sait dire Amin ou Amen On a bicrave jour et nuit, on sait où ça ramène Ouais, j'vous l'dis sincèrement, eux et nous, c'est pas la même Gros, on ferait pousser d'la beuh, ouais, dans le jardin d'Éden Fouiny-Fouiny Baby est de retour, oh my god Banlieue-Banlieue Sale, encore un nouvel épisode Ils squattent à la chicha au lieu d'aller à l'école Ils font des ronds avec leur bouche mais c'est pas des auréoles J'aperçois mon seul ennemi quand j'suis devant la glace, ouais Sortir en boîte, moi j'appelle ça Partir à la chasse , ouais Khoya, vu mon teint, ouais, j'dois faire les choses bien, ouais J'te l'ai déjà dit, yah, yah, yah, yah, yah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah</t>
+          <t>J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah Yah, yah La jalousie, des fois, les amis deviennent ennemis Quand le Clio 2 se change en putain d'Ferrari Quand ton HLM devient vue sur la tour Eiffel Quand les meufs dont tu rêvais deviennent celles que tu ken Quand le RER A laisse place à la classe affaire Quand ton avocat te dit de n'plus jamais t'en faire Quand je frappe chez toi et que je commence à lui plaire, cut C'est pas une métaphore, j'vais vraiment niquer ta mère Dommage J'remercie mes ennemis car ils me donnent la ce-for J'lis leurs commentaires et j'rigole tout seul dans ma sche-Por Khoya, vu mon teint, ouais, j'dois faire les choses bien, ouais J'te l'ai déjà dit, yah, yah, yah, yah, yah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah Quand tu reçois aucun mandat, wAllah t'as la haine Tu sors, ils veulent tous te faire la bise, c''est pas la peine Dur de faire confiance, j'ai grandi dans un HLM Ici pas de dons de sang, trop d'jalousie dans les veines swish Comme le game allait mal, gros, fallait que je revienne Oui, sa gorge est comme ma poche, elle est profonde et pleine J'fais des rêves trop bizarres, j'ai deux-trois keufs dans mon coffre La taille de ton appart', c'est les chiottes de mon loft Je pardonne mes ennemis car ils sont trop en ien-ch, ouais Paraît qu'ils sont chauds, ils ont repassé le linge, ouais Khoya, vu mon teint, ouais, j'dois faire les choses bien, ouais J'te l'ai déjà dit, yah, yah, yah, yah, yah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah On sait d'où l'on vient, on sait dire Amin ou Amen On a bicrave jour et nuit, on sait où ça ramène Ouais, j'vous l'dis sincèrement, eux et nous, c'est pas la même Gros, on ferait pousser d'la beuh, ouais, dans le jardin d'Éden Fouiny-Fouiny Baby est de retour, oh my god Banlieue-Banlieue Sale, encore un nouvel épisode Ils squattent à la chicha au lieu d'aller à l'école Ils font des ronds avec leur bouche mais c'est pas des auréoles J'aperçois mon seul ennemi quand j'suis devant la glace, ouais Sortir en boîte, moi j'appelle ça Partir à la chasse , ouais Khoya, vu mon teint, ouais, j'dois faire les choses bien, ouais J'te l'ai déjà dit, yah, yah, yah, yah, yah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah J'voulais rien sauf la villa pour la mama, hein-hein Parti d'rien, ma vie, c'était juste du drama, hein J'viens de loin, quand j'avais besoin t'étais pas là, hein-hein C'est pour ça qu'quand t'appelles, je n'réponds pas-ah-ah-ah</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah OK DJ Battle, this is the remix La Fouine What up, Fouiny baby? Francisco Francisco ! Du ferme remix This time I think we got one, baby We had to go international with this one, man This is Paris to Miami Big shout-out to my man, DJ Battle, I see you, homie Take, take the guns and weed I feel like the police is catching up on me They can't find out that I got an extensive rap sheet All because someone out there went and snitched on me I ain't done nothing wrong except try to eat Put food upon the table and feed my family But there's always someone out there that tries to see That I end up in jail, locked up, not free x2 They want me not free, free, free They want me up in jail, jail, jail They tryna take my life away from me They won't catch me slippin' so they'll have to kill me You might also like Co-cocaïne dans le jean Samy rejoint quelques clients à Porte Dauphine Mademoiselle devient folle avec ses amies intimes Un garrot, une seringue, et bim, et bim Mais elle a mis plus de jus qu'dans une orange sanguine Elle a fini en drame cette soirée entre copines Il est six heures du mat' quand les keufs font dring Il vendait de la dope, mais il comparaît pour crime x2 Il a pris vingt piges, piges, piges Sam a pris du ferme, ferme, ferme They want me not free, free, free They want me up in jail, jail, jail They want me not free, free, free They want me up in jail DJ Battle, baby Francisco, La Fouine It's official!</t>
+          <t>Yeah, yeah, yeah OK DJ Battle, this is the remix La Fouine What up, Fouiny baby? Francisco Francisco ! Du ferme remix This time I think we got one, baby We had to go international with this one, man This is Paris to Miami Big shout-out to my man, DJ Battle, I see you, homie Take, take the guns and weed I feel like the police is catching up on me They can't find out that I got an extensive rap sheet All because someone out there went and snitched on me I ain't done nothing wrong except try to eat Put food upon the table and feed my family But there's always someone out there that tries to see That I end up in jail, locked up, not free x2 They want me not free, free, free They want me up in jail, jail, jail They tryna take my life away from me They won't catch me slippin' so they'll have to kill me Co-cocaïne dans le jean Samy rejoint quelques clients à Porte Dauphine Mademoiselle devient folle avec ses amies intimes Un garrot, une seringue, et bim, et bim Mais elle a mis plus de jus qu'dans une orange sanguine Elle a fini en drame cette soirée entre copines Il est six heures du mat' quand les keufs font dring Il vendait de la dope, mais il comparaît pour crime x2 Il a pris vingt piges, piges, piges Sam a pris du ferme, ferme, ferme They want me not free, free, free They want me up in jail, jail, jail They want me not free, free, free They want me up in jail DJ Battle, baby Francisco, La Fouine It's official!</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Eh! mec j'fais mon état des lieux C'est quelques gribouillis d'la banlieue, La-la La Fouine Eh mec j'fais mon état des lieux C'est quelques gribouillis d'la banlieue J'connais rien à la politique, moi j'suis un mec du bitume Quand ça va mal, j'ai mes yeux, pour pleurer j'ai ma plume J'fais mon état des lieux, mon-é état des lieux J'croyais qu'avec l'arrivée de Jacques peut-être un jour tout irait mieux Si l'espoir de réussite est aussi fine qu'un trombone Quand tu tournes en promenade au lieu de tourner à la Sorbonne J'préfère boire mon whisky que de voir leur discours Je n'approuve pas, je fais semblant d'entendre mais je suis sourd J'suis pas là pour moi, aucune loi n'arrange Un mec du quartier, fonce-dé, qui dérange Eh oui, la France se coupe en deux, se cou-coupe en deux Y'a le bruit et l'odeur, les escrocs, les menteurs J'ai voulu voter Nicolas mais personne n'est cord-d'a Voulu voter Le Pen, c'est pas la peine Au bled, on me traite de français. En France, on me traite d'immigré Personne me représente mais j'irai quand même voter J'ai voulu voter Nicolas mais personne n'est cord-d'a Voulu voter Le Pen, c'est pas la peine Au bled, on me traite de français. En France, on me traite d'immigré Personne me représente mais j'irai quand même voter, La FouineYou might also like</t>
+          <t>Eh! mec j'fais mon état des lieux C'est quelques gribouillis d'la banlieue, La-la La Fouine Eh mec j'fais mon état des lieux C'est quelques gribouillis d'la banlieue J'connais rien à la politique, moi j'suis un mec du bitume Quand ça va mal, j'ai mes yeux, pour pleurer j'ai ma plume J'fais mon état des lieux, mon-é état des lieux J'croyais qu'avec l'arrivée de Jacques peut-être un jour tout irait mieux Si l'espoir de réussite est aussi fine qu'un trombone Quand tu tournes en promenade au lieu de tourner à la Sorbonne J'préfère boire mon whisky que de voir leur discours Je n'approuve pas, je fais semblant d'entendre mais je suis sourd J'suis pas là pour moi, aucune loi n'arrange Un mec du quartier, fonce-dé, qui dérange Eh oui, la France se coupe en deux, se cou-coupe en deux Y'a le bruit et l'odeur, les escrocs, les menteurs J'ai voulu voter Nicolas mais personne n'est cord-d'a Voulu voter Le Pen, c'est pas la peine Au bled, on me traite de français. En France, on me traite d'immigré Personne me représente mais j'irai quand même voter J'ai voulu voter Nicolas mais personne n'est cord-d'a Voulu voter Le Pen, c'est pas la peine Au bled, on me traite de français. En France, on me traite d'immigré Personne me représente mais j'irai quand même voter, La Fouine</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Putain mes voisins ont porté plainte, ma voiture faisait vraiment trop de bruit Chez Christian Louboutin, je mate les vendeuses, je m'attarde jamais sur ces putains de prix Pépère tranquille dans une thalasso, nous dans le 78 on tape pas la C On a pas élevé les cochons ensemble, on les a caillassé Le teh et la weed on a mit les deux, fous la vodka dans le pineapple Ici on rappe pas pour les minettes, tu rases les murs comme un Gilette Tout l'monde est rentré dans ta p'tite amie, au quartier on l'appelle HDMI Un couplet vaut plus que ta PME, khoya j'ai grandi dans la H-A-I-N-E Parti de rien, me voici maintenant j'ken la meuf qui fait la couv' de Voici Tu veux d'la bonne, bah vas y j'reviens d'Ketama, mon bédo t'euthanasie Gros poulet braisé pour le dîner, j'te ken même si t'es même pas épilée 78 stop la comédie, si y a heja t'inquiète on ré-ti Sans pression j'évite la condamnation, j'passe un p'tit coup d'fil à Dupond-Moretti J'sors de taule et direct j'récidive, j'aime pas les poches vides Dans ta vie il t'arrive rien d'positif à part le Covid Tu veux, tu veux d'la bonne, bah vas y binks Tu veux, tu veux d'la bonne bah va t'as reconnu l'écusson, binks Tu veux, tu veux, tu veux d'la bonne, bah vas y binks Tu veux d'la bonne, bah vas y, j'reviens d'Ketama, mon bédo t'euthanasie Hey, on est venu on avait rien on a tout pris, on a dit y a plus rien à perdre J'ai donné d'l'amour à des des fils de puta, ils m'ont servit à rien, ils m'ont mit dans la perte D'ailleurs j'vais en parler des putas, ils font semblant mais ils font que d'écouter mes sons dans leurs voitures Mais j'm'occupe d'eux plus tard et là j'me fais pé-pom jusqu'à j'suis dégouté J'vais droit au but ici c'est Paris, serein comme si au bar j'fais un pari Que j'vais les ken cette année c'est promis, c'est sûr et c'est promis j'en sortirai premier Le sac à Fouiny c'est un LV, un peu comme le niveau du son Un fond rouge avec une étoile verte, j'suis marocain c'est qu't'as reconnu l'écusson binks You might also like Tu veux, tu veux d'la bonne, bah vas y binks Tu veux, tu veux d'la bonne bah va t'as reconnu l'écusson, binks Tu veux, tu veux, tu veux d'la bonne, bah vas y binks Tu veux d'la bonne, bah vas y, j'reviens d'Ketama, mon bédo t'euthanasie binks</t>
+          <t>Putain mes voisins ont porté plainte, ma voiture faisait vraiment trop de bruit Chez Christian Louboutin, je mate les vendeuses, je m'attarde jamais sur ces putains de prix Pépère tranquille dans une thalasso, nous dans le 78 on tape pas la C On a pas élevé les cochons ensemble, on les a caillassé Le teh et la weed on a mit les deux, fous la vodka dans le pineapple Ici on rappe pas pour les minettes, tu rases les murs comme un Gilette Tout l'monde est rentré dans ta p'tite amie, au quartier on l'appelle HDMI Un couplet vaut plus que ta PME, khoya j'ai grandi dans la H-A-I-N-E Parti de rien, me voici maintenant j'ken la meuf qui fait la couv' de Voici Tu veux d'la bonne, bah vas y j'reviens d'Ketama, mon bédo t'euthanasie Gros poulet braisé pour le dîner, j'te ken même si t'es même pas épilée 78 stop la comédie, si y a heja t'inquiète on ré-ti Sans pression j'évite la condamnation, j'passe un p'tit coup d'fil à Dupond-Moretti J'sors de taule et direct j'récidive, j'aime pas les poches vides Dans ta vie il t'arrive rien d'positif à part le Covid Tu veux, tu veux d'la bonne, bah vas y binks Tu veux, tu veux d'la bonne bah va t'as reconnu l'écusson, binks Tu veux, tu veux, tu veux d'la bonne, bah vas y binks Tu veux d'la bonne, bah vas y, j'reviens d'Ketama, mon bédo t'euthanasie Hey, on est venu on avait rien on a tout pris, on a dit y a plus rien à perdre J'ai donné d'l'amour à des des fils de puta, ils m'ont servit à rien, ils m'ont mit dans la perte D'ailleurs j'vais en parler des putas, ils font semblant mais ils font que d'écouter mes sons dans leurs voitures Mais j'm'occupe d'eux plus tard et là j'me fais pé-pom jusqu'à j'suis dégouté J'vais droit au but ici c'est Paris, serein comme si au bar j'fais un pari Que j'vais les ken cette année c'est promis, c'est sûr et c'est promis j'en sortirai premier Le sac à Fouiny c'est un LV, un peu comme le niveau du son Un fond rouge avec une étoile verte, j'suis marocain c'est qu't'as reconnu l'écusson binks Tu veux, tu veux d'la bonne, bah vas y binks Tu veux, tu veux d'la bonne bah va t'as reconnu l'écusson, binks Tu veux, tu veux, tu veux d'la bonne, bah vas y binks Tu veux d'la bonne, bah vas y, j'reviens d'Ketama, mon bédo t'euthanasie binks</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>J'roule tranquille, musique à fond avec mon joint J'écoute l'album sur l'périph, j'fais des va-et-vient Siège passager, ma gow sourit, m'tient la main C'que j'aime chez elle, c'est qu'elle ne parle pas mandarin J'ai des lunettes mais l'amour dans mes yeux se voit à des kilomètres, j'me suis fait flasher car ça va trop vite dans ma tête Des fois la vie, c'est merveilleux, si magnifique, on s'croit dans un clip, on est dans un trip, on n'veut plus que la gov' s'arrête Elle m'parle d'elle, j'lui parle de moi, on parle de tout On parle d'avenir, on parle sérieux, on parle de nous Et puis, on roule comme y a dix ans, comme dans Feu rouge J'me dis qu'la vie, ça va trop vite, y faut qu'j'me bouge Et sur la route, on ne voit plus le temps passer, y a qu'le futur, m'en bats les couilles du temps passé Elle mdit je t'aime, j'lui dit moi aussi, tu sais, mais j'suis pas prêt On est fait l'un pour l'autre, on l'sait, mais mon p'tit cur est balafré Les mauvaises langues, au quartier, m'disaient Fouiny, tu sais pas rapper On ira tellement loin, beauté, personne pourra nous rattraper -He merde, c'est toujours la même histoire avec ces fils de timp' -Mais chéri, c'est quoi l'délire ? -T'inquiètes, t'inquiètes J'connais cette lumière et ces gyrophares, je ralentis, sans problème, je me gare T'inquiètes, bébé, c'est qu'un simple contrôle et j'ai la situation sous contrôle Tout est en règle et on a nos ceintures, un arabe, ça plait pas dans une belle voiture Habitué aux contrôles de routine, j'ai roulé ma bosse dans la capitale du crime Ils me disent de sortir du véhicule, c'est c'que je fais sans aucune résistance J'm'abaisse à la fenêtre pour répondre à mon tel, c'est la dernière chose dont je me rappelle You might also like -Mais qu'est-ce qu'il a dans la main ? -Mais c'est un téléphone, bordel de merde -Il a une arme -C'est un téléphone mais non, mais c'est un téléphone -Il a une arme -Mais, mais Putain, il vous l'a dit -Bouge plus -Mais il s'passe quoi là ? C'est quoi l'délire ? -Lâche c'que t'as dans la main et puis merde tirs, cris J'les regarde tout doucement, je monte au ciel Hier encore, j'avais la vie devant moi J'voulais juste répondre à c'putain de phone-tel Je n'pensais pas que c'était pour la dernière fois J'les regarde tout doucement, je monte au ciel Hier encore, j'avais la vie devant moi J'voulais juste répondre à c'putain de phone-tel Je n'pensais pas que c'était pour la dernière fois</t>
+          <t>J'roule tranquille, musique à fond avec mon joint J'écoute l'album sur l'périph, j'fais des va-et-vient Siège passager, ma gow sourit, m'tient la main C'que j'aime chez elle, c'est qu'elle ne parle pas mandarin J'ai des lunettes mais l'amour dans mes yeux se voit à des kilomètres, j'me suis fait flasher car ça va trop vite dans ma tête Des fois la vie, c'est merveilleux, si magnifique, on s'croit dans un clip, on est dans un trip, on n'veut plus que la gov' s'arrête Elle m'parle d'elle, j'lui parle de moi, on parle de tout On parle d'avenir, on parle sérieux, on parle de nous Et puis, on roule comme y a dix ans, comme dans Feu rouge J'me dis qu'la vie, ça va trop vite, y faut qu'j'me bouge Et sur la route, on ne voit plus le temps passer, y a qu'le futur, m'en bats les couilles du temps passé Elle mdit je t'aime, j'lui dit moi aussi, tu sais, mais j'suis pas prêt On est fait l'un pour l'autre, on l'sait, mais mon p'tit cur est balafré Les mauvaises langues, au quartier, m'disaient Fouiny, tu sais pas rapper On ira tellement loin, beauté, personne pourra nous rattraper -He merde, c'est toujours la même histoire avec ces fils de timp' -Mais chéri, c'est quoi l'délire ? -T'inquiètes, t'inquiètes J'connais cette lumière et ces gyrophares, je ralentis, sans problème, je me gare T'inquiètes, bébé, c'est qu'un simple contrôle et j'ai la situation sous contrôle Tout est en règle et on a nos ceintures, un arabe, ça plait pas dans une belle voiture Habitué aux contrôles de routine, j'ai roulé ma bosse dans la capitale du crime Ils me disent de sortir du véhicule, c'est c'que je fais sans aucune résistance J'm'abaisse à la fenêtre pour répondre à mon tel, c'est la dernière chose dont je me rappelle -Mais qu'est-ce qu'il a dans la main ? -Mais c'est un téléphone, bordel de merde -Il a une arme -C'est un téléphone mais non, mais c'est un téléphone -Il a une arme -Mais, mais Putain, il vous l'a dit -Bouge plus -Mais il s'passe quoi là ? C'est quoi l'délire ? -Lâche c'que t'as dans la main et puis merde tirs, cris J'les regarde tout doucement, je monte au ciel Hier encore, j'avais la vie devant moi J'voulais juste répondre à c'putain de phone-tel Je n'pensais pas que c'était pour la dernière fois J'les regarde tout doucement, je monte au ciel Hier encore, j'avais la vie devant moi J'voulais juste répondre à c'putain de phone-tel Je n'pensais pas que c'était pour la dernière fois</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe Yo yo, yo Khoya, motherfuck craint pas les douilles, non Mon amitié craint pas la rouille, non J'écris ma vie sur les murs de la banlieue ouest Khoya, vu qu'les paroles s'envolent et que les écrits restent Ferrari ou Mercedes, on finit tous dans l'corbillard La vengeance est un plat qui se ge-man chez Picard Y a pas qu'au 14 juillet qu'les p'tits sortent les pétards Rayer ma caisse, c'est comme si t'avais blessé Neymar Bois d'Ar', en promenade, affamé Le shtar, c'est pas la mer à boire, juste la barquette à avaler Longue carrière, j'ai vu des vrais et des faux Les bâtards, comme les serpents, changent de peau Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe You might also like Yo, j'ai rêvé qu'j'avais la trace sur le front, yo J'ai vu des frères mourir au front, yo Arrête les questions à la con, yo On demande pas aux balles où elles vont, yo Les tits-pe veulent du pe-ra, ça tombe bien moi aussi Khoya, t'as moins d'euros donc tu plais moins aux filles Plouf, plouf, j'hésite entre Gucci et Louis Balenciaga, Givenchy T'essayes de regarder l'heure sur ma AP J't'ai juste fourré, t'es pas ma baby Dans ma tête, le Sheitan et les anges font un derby Là-bas, on m'appelle Fouiny, ici, c'est Laouni Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe</t>
+          <t>Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe Yo yo, yo Khoya, motherfuck craint pas les douilles, non Mon amitié craint pas la rouille, non J'écris ma vie sur les murs de la banlieue ouest Khoya, vu qu'les paroles s'envolent et que les écrits restent Ferrari ou Mercedes, on finit tous dans l'corbillard La vengeance est un plat qui se ge-man chez Picard Y a pas qu'au 14 juillet qu'les p'tits sortent les pétards Rayer ma caisse, c'est comme si t'avais blessé Neymar Bois d'Ar', en promenade, affamé Le shtar, c'est pas la mer à boire, juste la barquette à avaler Longue carrière, j'ai vu des vrais et des faux Les bâtards, comme les serpents, changent de peau Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe Yo, j'ai rêvé qu'j'avais la trace sur le front, yo J'ai vu des frères mourir au front, yo Arrête les questions à la con, yo On demande pas aux balles où elles vont, yo Les tits-pe veulent du pe-ra, ça tombe bien moi aussi Khoya, t'as moins d'euros donc tu plais moins aux filles Plouf, plouf, j'hésite entre Gucci et Louis Balenciaga, Givenchy T'essayes de regarder l'heure sur ma AP J't'ai juste fourré, t'es pas ma baby Dans ma tête, le Sheitan et les anges font un derby Là-bas, on m'appelle Fouiny, ici, c'est Laouni Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe Ils veulent partager mes rêves, ils veulent partager l'oseille Ils veulent partager le miel mais pas les piqûres d'abeille Fouiny Babe Fouiny Babe</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>J'ai kidnappé Greg sur la banquette arrière Mesdames j'me présente La Fouine le millionaire ! Au volant d'un Z4 avec ma sauce Marjolaine J'suis l'seul célibataire en route pour une partie d'jambes en l'air Et puis, fous-moi dans ton île de la tentation J'vais tenter tes tentatrices à l'aide de ma tentacule J'suis une drogue pour tes oreilles tu bouges la tête si t'aimes J'arrive et j'vais chambouler tout ton echosystème ! Je zappe 30 millions d'amis, moi j'veux 30 millions d'euros Oui 30 millions et payer 20 millions d'impôts ! J'aimerais être une popstar, intrus à la Star Academy Serrer toutes les fouinettes et vesqui dans la nuit! Paris est ma forêt, Trappes est mon terrier Tu sais j'suis zen pour moi la vie est un long jour férié ! C'est ça ! Fous seulement La Fouine dans les colocataires Y'aura des mégots par terre et des nuisettes aux couleurs de panthère! Les vrais savent d'où j'viens T-R-A-2-P-E-S Va per-cho l'album, histoire de gun, de ghetto et de fesses Au fait, La Fouine quel est le thème de ton album ? Y'en a pas, j'rappe pour serrer des meufs et n'pas manquer d'alcool ! Votez pour moi ! Sam'di soir les nominations J'assiste à la plus grosse banane de la télévision ! Votez pour moi ! Le prime sur ton canapé L'émission à ne pas rater, La Fouine Academy steuplé ! Votez pour moi ! Tapez 1 pour Harlem, 2 pour Houcine 3 pour Nolwenn, 7-8 pour La Fouine ! Votez pour moi ! Yeah ! Lalalala Fouine ! C'est ça ! J'lache mon fouinyfouinyfouinyfouinyfouiny flow okay ! Lalalala Fouine dans ton poste, c'est ça ! Oublie les soucis quand tu danses, c'est ça ! Lalalala Fouine quand tu bosses, c'est ça ! Ma belle amène toutes tes copines ... You might also like Yeah....Yeah L-A-F-O-U-I-N-E J'traîne avec 20 lascars, et puis 60 feumeu J'aurais bien fait Koh-Lanta, si dans les arbres il poussait des pote-ca ! Si dans les gourdes ils foutaient d'la vodka ! Yeah ! J'aime faire l'amour aux p'tites, aux grandes Au jour de l'An man ! Tu connais ma bande ! 7-8 ! J'ai jeté mon gun et mon schlass J'ai serré 2-3 tasses et les ai conduit à lhôtel 1ère classe ! J'suis ni hardcore, ni gore, j'm'excuse ! Au fait, j'ouvre pas ma gueule mais mon museau J'lache mon fouinyfouinyfouinyfouinyfouinyfouiny flow À la recherche de la nouvelle tasse ! Chez moi ça sent le sexe comme dans Nice People Raconte ma story comme dans l'Loft, j'mène mon Opération Séduction J'vais serrer Nolwenn, et puis Jennifer T'inquiète j'sais y faire, bientôt La Fouine sur Fan 2 en poster ! Yeah ! J'ai pris des cours de C-walk chez Kamel Ouali J'suis OP, j'danse comme une ah!, bébé j'suis OP ! Ça y est, j'suis prêt, j'suis pro, j'ai fait mes deux mois au château J'vais faire de l'ombre à Obispo ! Votez pour moi ! Sam'di soir les nominations J'assiste à la plus grosse banane de la télévision ! Votez pour moi ! Le prime sur ton canapé L'émission à ne pas rater, La Fouine Academy steuplé ! Votez pour moi ! Tapez 1 pour Harlem, 2 pour Houcine 3 pour Nolwenn, 7-8 pour La Fouine ! Votez pour moi ! Yeah ! Lalalala Fouine ! C'est ça ! J'lache mon fouinyfouinyfouinyfouinyfouiny flow okay ! Lalalala Fouine dans ton poste, c'est ça ! Oublie les soucis quand tu danses, c'est ça ! Lalalala Fouine quand tu bosses, c'est ça ! Ma belle amène toutes tes copines ...</t>
+          <t>J'ai kidnappé Greg sur la banquette arrière Mesdames j'me présente La Fouine le millionaire ! Au volant d'un Z4 avec ma sauce Marjolaine J'suis l'seul célibataire en route pour une partie d'jambes en l'air Et puis, fous-moi dans ton île de la tentation J'vais tenter tes tentatrices à l'aide de ma tentacule J'suis une drogue pour tes oreilles tu bouges la tête si t'aimes J'arrive et j'vais chambouler tout ton echosystème ! Je zappe 30 millions d'amis, moi j'veux 30 millions d'euros Oui 30 millions et payer 20 millions d'impôts ! J'aimerais être une popstar, intrus à la Star Academy Serrer toutes les fouinettes et vesqui dans la nuit! Paris est ma forêt, Trappes est mon terrier Tu sais j'suis zen pour moi la vie est un long jour férié ! C'est ça ! Fous seulement La Fouine dans les colocataires Y'aura des mégots par terre et des nuisettes aux couleurs de panthère! Les vrais savent d'où j'viens T-R-A-2-P-E-S Va per-cho l'album, histoire de gun, de ghetto et de fesses Au fait, La Fouine quel est le thème de ton album ? Y'en a pas, j'rappe pour serrer des meufs et n'pas manquer d'alcool ! Votez pour moi ! Sam'di soir les nominations J'assiste à la plus grosse banane de la télévision ! Votez pour moi ! Le prime sur ton canapé L'émission à ne pas rater, La Fouine Academy steuplé ! Votez pour moi ! Tapez 1 pour Harlem, 2 pour Houcine 3 pour Nolwenn, 7-8 pour La Fouine ! Votez pour moi ! Yeah ! Lalalala Fouine ! C'est ça ! J'lache mon fouinyfouinyfouinyfouinyfouiny flow okay ! Lalalala Fouine dans ton poste, c'est ça ! Oublie les soucis quand tu danses, c'est ça ! Lalalala Fouine quand tu bosses, c'est ça ! Ma belle amène toutes tes copines ... Yeah....Yeah L-A-F-O-U-I-N-E J'traîne avec 20 lascars, et puis 60 feumeu J'aurais bien fait Koh-Lanta, si dans les arbres il poussait des pote-ca ! Si dans les gourdes ils foutaient d'la vodka ! Yeah ! J'aime faire l'amour aux p'tites, aux grandes Au jour de l'An man ! Tu connais ma bande ! 7-8 ! J'ai jeté mon gun et mon schlass J'ai serré 2-3 tasses et les ai conduit à lhôtel 1ère classe ! J'suis ni hardcore, ni gore, j'm'excuse ! Au fait, j'ouvre pas ma gueule mais mon museau J'lache mon fouinyfouinyfouinyfouinyfouinyfouiny flow À la recherche de la nouvelle tasse ! Chez moi ça sent le sexe comme dans Nice People Raconte ma story comme dans l'Loft, j'mène mon Opération Séduction J'vais serrer Nolwenn, et puis Jennifer T'inquiète j'sais y faire, bientôt La Fouine sur Fan 2 en poster ! Yeah ! J'ai pris des cours de C-walk chez Kamel Ouali J'suis OP, j'danse comme une ah!, bébé j'suis OP ! Ça y est, j'suis prêt, j'suis pro, j'ai fait mes deux mois au château J'vais faire de l'ombre à Obispo ! Votez pour moi ! Sam'di soir les nominations J'assiste à la plus grosse banane de la télévision ! Votez pour moi ! Le prime sur ton canapé L'émission à ne pas rater, La Fouine Academy steuplé ! Votez pour moi ! Tapez 1 pour Harlem, 2 pour Houcine 3 pour Nolwenn, 7-8 pour La Fouine ! Votez pour moi ! Yeah ! Lalalala Fouine ! C'est ça ! J'lache mon fouinyfouinyfouinyfouinyfouiny flow okay ! Lalalala Fouine dans ton poste, c'est ça ! Oublie les soucis quand tu danses, c'est ça ! Lalalala Fouine quand tu bosses, c'est ça ! Ma belle amène toutes tes copines ...</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Hey Fouiny babe, Mozart Edouardo joue du piano Fouiny baby, Mozart Fouiny baby, Mozart Scvrla Oh Empiler des briques jusqu'au plafond Racks, cagoulé pendant le plavon Yeah C'est un fucked nigga, nous le savons Wouh, gyrophares, t'entends les pim-pom Ouh, ouais Trois bitchies dans le jacuzzi parce que j'suis gangsta et célèbre Gangsta et célèbre Jantes noires, cuir noir parce que j'suis gangsta et célèbre Emballé, pesé, y a plus qu'a livrer, j'marche à Cali, même ma pute est calibrée J'suis sur Beriz Tou-tou-touh en RS Yeah, mon cauchemar, c'est le rêve d'un CRS Sku, sku, sku Et j'la ken sur du Keyshia Cole, j'attends toujours que la kich' me colle Yeah J'ai fumé les dix, il reste plus qu'le goal et Fouiny, Leto, il reste plus qu'les GOATS Rah, rah, rah Dis-leur, faut pas s'inquiéter, même si j'prends cinq étés, j'donnerai jamais ceux qu'j'aime Jamais Donc j'savoure chaque été Yeah, j'fume dans le cinq étoiles comme dans mon HLM Moi, j'aime bien J'vais les dépouiller, solide comme Puyol Puyol, God damn, mon gun a rouillé God damn Contrôle, ils veulent me fouiller Sku, elle m'palpe, la pute a mouillé Sku You might also like Oh Empiler des briques jusqu'au plafond Racks, cagoulé pendant le plavon Yeah C'est un fucked nigga, nous le savons Wouh, gyrophares, t'entends les pim-pom Ouh, ouais Trois bitchies dans le jacuzzi parce que j'suis gangsta et célèbre Gangsta et célèbre Jantes noires, cuir noir parce que j'suis gangsta et célèbre Gang-, gangsta et célèbre Célèbre, elle mouille quand je la pénètre Hey, hey Quand je fume de la beuh, j'ai de l'inspiration donc j'empile les syllabes Wouh J'fais du bruit comme AK-4-7 To-to-toh, matrixé quand j'découpe la cassette To-to-toh J'fais ti-par, après, j'coffre la recette To-to-to-toh Dans tous les cas, t'es un flocko Wouh Arrête ton cinéma, s'il te plaît, mon Seigneur, aide-moi Hey Je n'ai aucun doute, pull-up et l'arme, elle est lourde Poh, poh Y a vingt bitches avec moi sur un yacht, j'ai mal au cur mais ça va il fait beau Capitaine fait de l'art comme Picasso Oh Empiler des briques jusqu'au plafond Racks, cagoulé pendant le plavon Yeah C'est un fucked nigga, nous le savons Wouh, gyrophares, t'entends les pim-pom Ouh, ouais Trois bitchies dans le jacuzzi parce que j'suis gangsta et célèbre Gangsta et célèbre Jantes noires, cuir noir parce que j'suis gangsta et célèbre Gangsta et célèbre Trois bitchies dans le classe G parce que j'suis gangsta et célèbre Fouiny babe, Leto, parce que j'suis gangsta et célèbre Fouiny baby, Mozart Fouiny baby, Mozart</t>
+          <t>Hey Fouiny babe, Mozart Edouardo joue du piano Fouiny baby, Mozart Fouiny baby, Mozart Scvrla Oh Empiler des briques jusqu'au plafond Racks, cagoulé pendant le plavon Yeah C'est un fucked nigga, nous le savons Wouh, gyrophares, t'entends les pim-pom Ouh, ouais Trois bitchies dans le jacuzzi parce que j'suis gangsta et célèbre Gangsta et célèbre Jantes noires, cuir noir parce que j'suis gangsta et célèbre Emballé, pesé, y a plus qu'a livrer, j'marche à Cali, même ma pute est calibrée J'suis sur Beriz Tou-tou-touh en RS Yeah, mon cauchemar, c'est le rêve d'un CRS Sku, sku, sku Et j'la ken sur du Keyshia Cole, j'attends toujours que la kich' me colle Yeah J'ai fumé les dix, il reste plus qu'le goal et Fouiny, Leto, il reste plus qu'les GOATS Rah, rah, rah Dis-leur, faut pas s'inquiéter, même si j'prends cinq étés, j'donnerai jamais ceux qu'j'aime Jamais Donc j'savoure chaque été Yeah, j'fume dans le cinq étoiles comme dans mon HLM Moi, j'aime bien J'vais les dépouiller, solide comme Puyol Puyol, God damn, mon gun a rouillé God damn Contrôle, ils veulent me fouiller Sku, elle m'palpe, la pute a mouillé Sku Oh Empiler des briques jusqu'au plafond Racks, cagoulé pendant le plavon Yeah C'est un fucked nigga, nous le savons Wouh, gyrophares, t'entends les pim-pom Ouh, ouais Trois bitchies dans le jacuzzi parce que j'suis gangsta et célèbre Gangsta et célèbre Jantes noires, cuir noir parce que j'suis gangsta et célèbre Gang-, gangsta et célèbre Célèbre, elle mouille quand je la pénètre Hey, hey Quand je fume de la beuh, j'ai de l'inspiration donc j'empile les syllabes Wouh J'fais du bruit comme AK-4-7 To-to-toh, matrixé quand j'découpe la cassette To-to-toh J'fais ti-par, après, j'coffre la recette To-to-to-toh Dans tous les cas, t'es un flocko Wouh Arrête ton cinéma, s'il te plaît, mon Seigneur, aide-moi Hey Je n'ai aucun doute, pull-up et l'arme, elle est lourde Poh, poh Y a vingt bitches avec moi sur un yacht, j'ai mal au cur mais ça va il fait beau Capitaine fait de l'art comme Picasso Oh Empiler des briques jusqu'au plafond Racks, cagoulé pendant le plavon Yeah C'est un fucked nigga, nous le savons Wouh, gyrophares, t'entends les pim-pom Ouh, ouais Trois bitchies dans le jacuzzi parce que j'suis gangsta et célèbre Gangsta et célèbre Jantes noires, cuir noir parce que j'suis gangsta et célèbre Gangsta et célèbre Trois bitchies dans le classe G parce que j'suis gangsta et célèbre Fouiny babe, Leto, parce que j'suis gangsta et célèbre Fouiny baby, Mozart Fouiny baby, Mozart</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Eh yo, Aymoune On m'a dit t'es où? J'ai dit j'suis juste là GnaGnaGna Yah, yah On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna Khoya, pète ton oint-j, c'est d'la ppe-f', gnagnagna Et j'fais la p'tite danse à la Puff, gnagnagna J'arrête pas de mater ses sses-f', gnagnagna Mais j'pourrais pas la ken, elle a ses ragnagnas Khoya, j'suis dans le club, ils m'ont dit Mais t'es où ? Gros, ma bouteille de champagne est plus grosse que Sarah Fraisou skurt Quand j'étais au shtar, mais dis-moi, t'étais où ? Gros, tu veux mon 06, t'avais pas l'numéro d'écrou Et puis j'roule en allemande, italienne, en anglaise, la justice, je la baise Te d'mande pas si je pèse, t'inquiète pas j'fais des sous comme Tevez ou comme Blaise, j'suis à l'aise Dédicace aux vrais DZ comme Mahrez Obligé de re-dégainer le Fouiny-Fouiny flow, j'les ai punis-punis l'soir et j'fais des cuni-cuni kho Comme le filtre sur ton oint-j, j'suis v'nu faire un carton Marche-moi pas sur les baskets, 2 000 eu' le pardon Bref You might also like On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna Khoya, pète ton oint-j, c'est d'la ppe-f', gnagnagna Et j'fais la p'tite danse à la Puff, gnagnagna J'arrête pas de mater ses sses-f', gnagnagna Mais j'pourrais pas la ken, elle a ses ragnagnas Normal que tu sois défoncé, ma ppe-fra, c'est du sale Filtre marocain avec ma carte nationale Ouais, j't'ai pas menti, j'm'arrache au bled, Ça fait mal J'vois pas Qui peut m'stopper à part un Glock et une balle Ma montre est en diamant, pourtant j'suis jamais à l'heure Les gens cest comme les pièces, ils ont deux faces et très peu d'valeur J'me suis toujours relevé même quand j'suis tombé à terre Petit, j'pars en tournée et le sheitan veut en VHR J'suis en feat' avec un jnoun, DJ Aymoune T'es mort dans l'premier round, salam aleykoum On m'a dit t'es où ?, j'suis dans l'cul d'ta mère On a besoin de mon poignet, réchauffement planétaire Bref On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna Khoya, pète ton oint-j, c'est d'la ppe-f', gnagnagna Et j'fais la p'tite danse à la Puff, gnagnagna J'arrête pas de mater ses sses-f', gnagnagna Mais j'pourrais pas la ken, elle a ses ragnagnas</t>
+          <t>Eh yo, Aymoune On m'a dit t'es où? J'ai dit j'suis juste là GnaGnaGna Yah, yah On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna Khoya, pète ton oint-j, c'est d'la ppe-f', gnagnagna Et j'fais la p'tite danse à la Puff, gnagnagna J'arrête pas de mater ses sses-f', gnagnagna Mais j'pourrais pas la ken, elle a ses ragnagnas Khoya, j'suis dans le club, ils m'ont dit Mais t'es où ? Gros, ma bouteille de champagne est plus grosse que Sarah Fraisou skurt Quand j'étais au shtar, mais dis-moi, t'étais où ? Gros, tu veux mon 06, t'avais pas l'numéro d'écrou Et puis j'roule en allemande, italienne, en anglaise, la justice, je la baise Te d'mande pas si je pèse, t'inquiète pas j'fais des sous comme Tevez ou comme Blaise, j'suis à l'aise Dédicace aux vrais DZ comme Mahrez Obligé de re-dégainer le Fouiny-Fouiny flow, j'les ai punis-punis l'soir et j'fais des cuni-cuni kho Comme le filtre sur ton oint-j, j'suis v'nu faire un carton Marche-moi pas sur les baskets, 2 000 eu' le pardon Bref On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna Khoya, pète ton oint-j, c'est d'la ppe-f', gnagnagna Et j'fais la p'tite danse à la Puff, gnagnagna J'arrête pas de mater ses sses-f', gnagnagna Mais j'pourrais pas la ken, elle a ses ragnagnas Normal que tu sois défoncé, ma ppe-fra, c'est du sale Filtre marocain avec ma carte nationale Ouais, j't'ai pas menti, j'm'arrache au bled, Ça fait mal J'vois pas Qui peut m'stopper à part un Glock et une balle Ma montre est en diamant, pourtant j'suis jamais à l'heure Les gens cest comme les pièces, ils ont deux faces et très peu d'valeur J'me suis toujours relevé même quand j'suis tombé à terre Petit, j'pars en tournée et le sheitan veut en VHR J'suis en feat' avec un jnoun, DJ Aymoune T'es mort dans l'premier round, salam aleykoum On m'a dit t'es où ?, j'suis dans l'cul d'ta mère On a besoin de mon poignet, réchauffement planétaire Bref On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna On m'a dit t'es où ? où ?, on m'a dit t'es où ? où ? On m'a dit t'es..., mmh, gnagnagna Khoya, pète ton oint-j, c'est d'la ppe-f', gnagnagna Et j'fais la p'tite danse à la Puff, gnagnagna J'arrête pas de mater ses sses-f', gnagnagna Mais j'pourrais pas la ken, elle a ses ragnagnas</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Dans ce brouillard j'étais calibré, mort au combat, y a pas de Valhalla Sans GPS ouais j'ai navigué, ces rappeurs ont tous le Pass Navigo Je suis plus dans le bendo, j'suis dans ma suite Plus l'temps de détailler le bédo, j'pose un gros 16 et puis j't'éclate Frère on les coule comme le Titanic, j'arrive en biker Balmain Je leur transperce la cage thoracique, histoire d'avoir le cur sur la main Hola, hola, hola, qui va-là, passement de jambes, Dybala Quelques salopes dans le Impala, j'leur écarte les jambes comme au tir à l'arc Fous ça dans le Goyard, fous ça dans le putain d'Goyard Fous ça dans le Goyard, leur sang sur mes antibrouillards Ils sont deux, trois par terre, on est deux, trois par teh Ils sont deux, trois par terre, on est deux, trois par teh Fous ça dans le Goyard, fous ça dans le putain d'Goyard Fous ça dans le Goyard, leur sang sur mes antibrouillards Ils sont deux, trois par terre, on est deux, trois par teh Ils sont deux, trois par terre, on est deux, trois par teh J'ai claqué 20k Galerie Lafayette, la beuh n'est pas bonne on va pas les yer-p' À la maison je ne fais pas le ménage, mais au quartier je mets des balayettes J'crois que le sheitan parle à l'oreillette, j'arrête pas de faire des tahramiyates Balles perdues, t'avais qu'à pas y être, les go c'est du pain, ramasses pas les miettes Tu restes un mystère, comme dans le slip de Caitlyn Jenner Été comme hiver, ça vend de la C, les ti-peu vont t'visser Tu crois qu'on est qui nous, niques ta mère on est jamais hnin nous Tu crois qu'on est qui nous, fuck le S.P.A., on t'bouffe le minou You might also like Fous ça dans le Goyard, fous ça dans le putain d'Goyard Fous ça dans le Goyard, leur sang sur mes antibrouillards Ils sont deux, trois par terre, on est deux, trois par teh Ils sont deux, trois par terre, on est deux, trois par teh Fous ça dans le Goyard, fous ça dans le putain d'Goyard Fous ça dans le Goyard, leur sang sur mes antibrouillards Ils sont deux, trois par terre, on est deux, trois par teh Ils sont deux, trois par terre, on est deux, trois par teh</t>
+          <t>Dans ce brouillard j'étais calibré, mort au combat, y a pas de Valhalla Sans GPS ouais j'ai navigué, ces rappeurs ont tous le Pass Navigo Je suis plus dans le bendo, j'suis dans ma suite Plus l'temps de détailler le bédo, j'pose un gros 16 et puis j't'éclate Frère on les coule comme le Titanic, j'arrive en biker Balmain Je leur transperce la cage thoracique, histoire d'avoir le cur sur la main Hola, hola, hola, qui va-là, passement de jambes, Dybala Quelques salopes dans le Impala, j'leur écarte les jambes comme au tir à l'arc Fous ça dans le Goyard, fous ça dans le putain d'Goyard Fous ça dans le Goyard, leur sang sur mes antibrouillards Ils sont deux, trois par terre, on est deux, trois par teh Ils sont deux, trois par terre, on est deux, trois par teh Fous ça dans le Goyard, fous ça dans le putain d'Goyard Fous ça dans le Goyard, leur sang sur mes antibrouillards Ils sont deux, trois par terre, on est deux, trois par teh Ils sont deux, trois par terre, on est deux, trois par teh J'ai claqué 20k Galerie Lafayette, la beuh n'est pas bonne on va pas les yer-p' À la maison je ne fais pas le ménage, mais au quartier je mets des balayettes J'crois que le sheitan parle à l'oreillette, j'arrête pas de faire des tahramiyates Balles perdues, t'avais qu'à pas y être, les go c'est du pain, ramasses pas les miettes Tu restes un mystère, comme dans le slip de Caitlyn Jenner Été comme hiver, ça vend de la C, les ti-peu vont t'visser Tu crois qu'on est qui nous, niques ta mère on est jamais hnin nous Tu crois qu'on est qui nous, fuck le S.P.A., on t'bouffe le minou Fous ça dans le Goyard, fous ça dans le putain d'Goyard Fous ça dans le Goyard, leur sang sur mes antibrouillards Ils sont deux, trois par terre, on est deux, trois par teh Ils sont deux, trois par terre, on est deux, trois par teh Fous ça dans le Goyard, fous ça dans le putain d'Goyard Fous ça dans le Goyard, leur sang sur mes antibrouillards Ils sont deux, trois par terre, on est deux, trois par teh Ils sont deux, trois par terre, on est deux, trois par teh</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Yeah, La Fouine, c'est ça, c'est ça Yeah yeah, T.R.A.2.P.E.S., c'est ça Grou-groupie, autour d'la scine-pi Kingué-kingué ton La Fouine est trop cinglé-cinglé Un grec, un break, ma belle assieds-toi Etonnée, du genre, Hé beh, La Fouine ouais c'est toi Et, ramenez les belles et même les moches comme Lorie Faites montez les mineurs, j'suis pire qu'R.Kelly Moi je change les filles perdues en reines des boîtes et Les planètes rap en planète Trappes Je change les rimes en or, la raison en tort Je change les plus forts en La Fouine encore J'étais moche avant, j'avais des grandes oreilles Aujourd'hui j'plais à des filles qui m'avaient recalé la veille T'es plus beau derrière une vitre teintée, t'es plus élégant, blindé Elle passe partout même entre des seins tassé B C'est groupie groupie groupie love Monte dans la chambre d'hôtel et oublie la cave ma belle Le succès ça rend beau, oui j'ai la côte depuis qu'j'suis plus en manque d'argent Le sun sur mes lunettes, la classe, mon costard blanc, j'suis plus en manque d'argent Mon chapeau de travers et loin du temps d'avant rappelez-vous, manque d'argent J'suis plus en manque d'argent, groupie Love, groupie Love L'argent ça rend beau, le manque de fric ça rend idiot J'ai la côte maintenant que j'brille comme les paillettes du lido Rappelle-toi ma belle que sous la pluie on faisait d'l'auto-stop Aujourd'hui on met la gomme en merco et on grille les stops A l'école les profs disaient que j'étais voué à l'échec Aujourd'hui on kiffe mon écriture vu que j'la signe sur des chèques J'ai, des beaux yeux j'suis musclé On m'fait tout pleins d'compliments maintenant qu'mon compte est plein, à présent qu'j'suis dé-blin C'est çaa Et quand y'a embrouille j'sors plus mon tar-pé mais mon chéquier Et même les gens qui m'aiment pas viennent me checker Le succès ça rend mignon avant, j'avais pas d'quoi m'acheter un grecque Aujourd'hui on m'dit Tiens, cadeau d'la maison Et, j'vous dis ça en riant mais bon y'a rien d'drôle Le succès ça rend fou et j'suis pas sûr d'garder ma tête sur mes épaules Loin d'cette période sombre, drogues, alcool, taule J'oublierais jamais tout ceux qui m'épaulent Le succès ça rend beau, oui j'ai la côte depuis qu'j'suis plus en manque d'argent Le sun sur mes lunettes, la classe, mon costard blanc, j'suis plus en manque d'argent Mon chapeau de travers et loin du temps d'avant rappelez-vous, manque d'argent J'suis plus en manque d'argent, groupie Love, groupie Love Yeah, Balance le son E-Rise Yeah, Yeah, c'est ça Kingué Kingué La petite, la petite Viens viens j'vais t'payer un verre on va s'bourrer au son, bourrer au son, 78 mec George Sand, Jean Macé, en passant par les Merisiers, c'est çaa 78, Trappes, Mantes-la-Jolie, Les Mureaux, Chantes-loups, Sartrouville C'est çaa, Kingué Kingué La petite la petite la petite la petite C'est çaa yeah LalalalalaFouineYou might also like</t>
+          <t>Yeah, La Fouine, c'est ça, c'est ça Yeah yeah, T.R.A.2.P.E.S., c'est ça Grou-groupie, autour d'la scine-pi Kingué-kingué ton La Fouine est trop cinglé-cinglé Un grec, un break, ma belle assieds-toi Etonnée, du genre, Hé beh, La Fouine ouais c'est toi Et, ramenez les belles et même les moches comme Lorie Faites montez les mineurs, j'suis pire qu'R.Kelly Moi je change les filles perdues en reines des boîtes et Les planètes rap en planète Trappes Je change les rimes en or, la raison en tort Je change les plus forts en La Fouine encore J'étais moche avant, j'avais des grandes oreilles Aujourd'hui j'plais à des filles qui m'avaient recalé la veille T'es plus beau derrière une vitre teintée, t'es plus élégant, blindé Elle passe partout même entre des seins tassé B C'est groupie groupie groupie love Monte dans la chambre d'hôtel et oublie la cave ma belle Le succès ça rend beau, oui j'ai la côte depuis qu'j'suis plus en manque d'argent Le sun sur mes lunettes, la classe, mon costard blanc, j'suis plus en manque d'argent Mon chapeau de travers et loin du temps d'avant rappelez-vous, manque d'argent J'suis plus en manque d'argent, groupie Love, groupie Love L'argent ça rend beau, le manque de fric ça rend idiot J'ai la côte maintenant que j'brille comme les paillettes du lido Rappelle-toi ma belle que sous la pluie on faisait d'l'auto-stop Aujourd'hui on met la gomme en merco et on grille les stops A l'école les profs disaient que j'étais voué à l'échec Aujourd'hui on kiffe mon écriture vu que j'la signe sur des chèques J'ai, des beaux yeux j'suis musclé On m'fait tout pleins d'compliments maintenant qu'mon compte est plein, à présent qu'j'suis dé-blin C'est çaa Et quand y'a embrouille j'sors plus mon tar-pé mais mon chéquier Et même les gens qui m'aiment pas viennent me checker Le succès ça rend mignon avant, j'avais pas d'quoi m'acheter un grecque Aujourd'hui on m'dit Tiens, cadeau d'la maison Et, j'vous dis ça en riant mais bon y'a rien d'drôle Le succès ça rend fou et j'suis pas sûr d'garder ma tête sur mes épaules Loin d'cette période sombre, drogues, alcool, taule J'oublierais jamais tout ceux qui m'épaulent Le succès ça rend beau, oui j'ai la côte depuis qu'j'suis plus en manque d'argent Le sun sur mes lunettes, la classe, mon costard blanc, j'suis plus en manque d'argent Mon chapeau de travers et loin du temps d'avant rappelez-vous, manque d'argent J'suis plus en manque d'argent, groupie Love, groupie Love Yeah, Balance le son E-Rise Yeah, Yeah, c'est ça Kingué Kingué La petite, la petite Viens viens j'vais t'payer un verre on va s'bourrer au son, bourrer au son, 78 mec George Sand, Jean Macé, en passant par les Merisiers, c'est çaa 78, Trappes, Mantes-la-Jolie, Les Mureaux, Chantes-loups, Sartrouville C'est çaa, Kingué Kingué La petite la petite la petite la petite C'est çaa yeah LalalalalaFouine</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Yeah D'où j'viens ? Comme tout le monde ici, j'crois On vient tous du quartier ou tous de la rue Yeah On fait avec, on esquive, parfois on s'en sert Yeah, yeah Yeah, quand la rue m'appelle, j'essaye de faire le sourd J'essaie de l'oublier mais, impossible, elle m'entoure J'essaie de la calmer mais y'a pas de putain de mode veille Et pour la faire vieillir, je dis Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha Henijay La rue m'a propulsé mais elle m'a coupé les ailes Et puis je reste qu'un pantin tiré par ses ficelles Et puis j'essaie de me débattre mais sans succès La rue m'aime, elle peut aussi me détester Tout ira bien si j'n'essaie pas de la fuire Elle m'endort les yeux ouverts et ne me parle jamais d'avenir La rue me charme avec de beaux horizons C'est ces mêmes charmes qui m'emmèneront en prison Ouais c'est la rue qui avait fait de moi un gangster Et j'ai tout fait pour lui échapper comme un Casper Et quand j'regarde autour moi, oui j'me rappelle Que si je rappe aujourd'hui, c'est grâce à elle You might also like Yeah, quand la rue m'appelle, j'essaye de faire le sourd J'essaie de l'oublier mais, impossible, elle m'entoure J'essaie de la calmer mais y'a pas de putain de mode veille Et pour la faire vieillir, je dis Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha Henijay Henijay, Henijay, faire du cash, ouais j'essaye On devient père avant l'âge, le cur est vidé par la 'teille J'regarde en l'air, les keufs et les menottes serrent Si la coke poussait parterre, trop d'MC's feraient la prière Henijay, Henijay Tout se paie, il n'y a qu'un pas entre le sky et le heytey Les 35 heures m'intéressent aps, j'descends au bled en RS4 Pour tous ceux qui vendent le lo-k' de seum au square a 2.4 Henijay, Henijay, la rue m'appelle, Henijay De là-haut, tu veilles, sur nous, la mort n'envoie pas d'e-mail Henijay Henijay, Henijay La Fouine, Canardo Henijay, Henijay Banlieue Sale, yeah Henijay Yeah, quand la rue m'appelle, j'essaye de faire le sourd J'essaie de l'oublier mais, impossible, elle m'entoure J'essaie de la calmer mais y'a pas de putain de mode veille Et pour la faire vieillir, je dis Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha Henijay2</t>
+          <t>Yeah D'où j'viens ? Comme tout le monde ici, j'crois On vient tous du quartier ou tous de la rue Yeah On fait avec, on esquive, parfois on s'en sert Yeah, yeah Yeah, quand la rue m'appelle, j'essaye de faire le sourd J'essaie de l'oublier mais, impossible, elle m'entoure J'essaie de la calmer mais y'a pas de putain de mode veille Et pour la faire vieillir, je dis Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha Henijay La rue m'a propulsé mais elle m'a coupé les ailes Et puis je reste qu'un pantin tiré par ses ficelles Et puis j'essaie de me débattre mais sans succès La rue m'aime, elle peut aussi me détester Tout ira bien si j'n'essaie pas de la fuire Elle m'endort les yeux ouverts et ne me parle jamais d'avenir La rue me charme avec de beaux horizons C'est ces mêmes charmes qui m'emmèneront en prison Ouais c'est la rue qui avait fait de moi un gangster Et j'ai tout fait pour lui échapper comme un Casper Et quand j'regarde autour moi, oui j'me rappelle Que si je rappe aujourd'hui, c'est grâce à elle Yeah, quand la rue m'appelle, j'essaye de faire le sourd J'essaie de l'oublier mais, impossible, elle m'entoure J'essaie de la calmer mais y'a pas de putain de mode veille Et pour la faire vieillir, je dis Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha Henijay Henijay, Henijay, faire du cash, ouais j'essaye On devient père avant l'âge, le cur est vidé par la 'teille J'regarde en l'air, les keufs et les menottes serrent Si la coke poussait parterre, trop d'MC's feraient la prière Henijay, Henijay Tout se paie, il n'y a qu'un pas entre le sky et le heytey Les 35 heures m'intéressent aps, j'descends au bled en RS4 Pour tous ceux qui vendent le lo-k' de seum au square a 2.4 Henijay, Henijay, la rue m'appelle, Henijay De là-haut, tu veilles, sur nous, la mort n'envoie pas d'e-mail Henijay Henijay, Henijay La Fouine, Canardo Henijay, Henijay Banlieue Sale, yeah Henijay Yeah, quand la rue m'appelle, j'essaye de faire le sourd J'essaie de l'oublier mais, impossible, elle m'entoure J'essaie de la calmer mais y'a pas de putain de mode veille Et pour la faire vieillir, je dis Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha, Henijay Henijay, Henijay, Henijay, Henijay Henijay, Henijay, Wakha Henijay2</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Quoi de neuf Fouiny Babe ! Rien à foutre je vais toutes les serrer C'est ça ! Oh ! Yes ! Banlieue Ouest ! Balance le son du 7.8 Je sors de taule , j'ai la dalle ma'men Alors je vais faire un petit tour , man, pour trouver ma reine Et comme Kelis a serrée Nas , Beyonce Jay Z J'ai décidé de faire un petit tour dans le R'n'B J'ai tenté de serrer Leslie , mais elle était avec Kore Et puis Kayna Samet voulait d'un MC Hardcore Alors je suis seul , j'ai l'seum, j'me ballade seul sur la planète J'ai voulu serrer Diam's, mais j'avais pas internet Caché derrière l'olivier j'ai tenté de tacler Wallen Des crampons sous ses talons man elle faisait sa maline Alors je vais , viser la lune, non je vais , viser la une Et dans ma belle benz, j'fais monter la belle Amel Bent Oh ! j'ai des choses à te dire Pearl C'est fini , je casse, donc casse toi d'ici Les potes me disent ça se fait pas mais qu'est ce que tu as ? Je leur dis Je m'en bats les couilles j'invite Kayliah au Kefta J'veux celles qui chantent le mieux, car les autres me font trop de peine Si tu es dernière du top , viens pas serrer La Fouine, c'est pas la peine Mains en l'air , billets verts, je suis venu taper mon Hold Up men' Je suis venu taper mon Hold Up Men', Hold Up men' You might also like Rien de bon sur le marché Alors je vais serrer celle qui pour le moment a bien marchée Et c'est parti pour le... Dis leur Nadiya et c'est parti pour le Tel-ho J'ai laché Lynnsha cette loque Elle voulait dealer du Zouk, moi je voulais dealer de la coc' Et ses bijoux étaient en fer, en plastique en toc' Je roulais en bolide quand elle se déplaçait en loc' J'ai voulu serrer China deuspi sur les plateaux d'MTV Mais elle m'a recalée car Mouloud était trop deuspi Parait qu'y'a une nouvelle qui s'appelle Vitaa ? Je vais la mettre dans ma poche prés de ma carte , vitale J'ai pas voulu serrer Sweety , non je me suis fait tout petit Parait que les meufs dans la Dancehall , ont de gros appétits Même en faisant le tour , du R' , R'N'B Rien à faire je ne trouve pas , ma belle , belle Bitch J'veux celles qui chantent le mieux, car les autres me font trop de peine Si tu es dernière du top , viens pas serrer La Fouine, c'est pas la peine Mains en l'air , billets verts, je suis venu taper mon Hold Up men' Je suis venu taper mon Hold Up Men', Hold Up men' Man je sais pas où est le problème, les rappeurs ont trop de peines, le R'n'B est open Man je sais pas où est le problème, les rappeurs ont trop de peines, le R'n'B est open Man je sais pas où est le problème, les rappeurs ont trop de peines, le R'n'B est open Le R'n'B est open alors sers toi</t>
+          <t>Quoi de neuf Fouiny Babe ! Rien à foutre je vais toutes les serrer C'est ça ! Oh ! Yes ! Banlieue Ouest ! Balance le son du 7.8 Je sors de taule , j'ai la dalle ma'men Alors je vais faire un petit tour , man, pour trouver ma reine Et comme Kelis a serrée Nas , Beyonce Jay Z J'ai décidé de faire un petit tour dans le R'n'B J'ai tenté de serrer Leslie , mais elle était avec Kore Et puis Kayna Samet voulait d'un MC Hardcore Alors je suis seul , j'ai l'seum, j'me ballade seul sur la planète J'ai voulu serrer Diam's, mais j'avais pas internet Caché derrière l'olivier j'ai tenté de tacler Wallen Des crampons sous ses talons man elle faisait sa maline Alors je vais , viser la lune, non je vais , viser la une Et dans ma belle benz, j'fais monter la belle Amel Bent Oh ! j'ai des choses à te dire Pearl C'est fini , je casse, donc casse toi d'ici Les potes me disent ça se fait pas mais qu'est ce que tu as ? Je leur dis Je m'en bats les couilles j'invite Kayliah au Kefta J'veux celles qui chantent le mieux, car les autres me font trop de peine Si tu es dernière du top , viens pas serrer La Fouine, c'est pas la peine Mains en l'air , billets verts, je suis venu taper mon Hold Up men' Je suis venu taper mon Hold Up Men', Hold Up men' Rien de bon sur le marché Alors je vais serrer celle qui pour le moment a bien marchée Et c'est parti pour le... Dis leur Nadiya et c'est parti pour le Tel-ho J'ai laché Lynnsha cette loque Elle voulait dealer du Zouk, moi je voulais dealer de la coc' Et ses bijoux étaient en fer, en plastique en toc' Je roulais en bolide quand elle se déplaçait en loc' J'ai voulu serrer China deuspi sur les plateaux d'MTV Mais elle m'a recalée car Mouloud était trop deuspi Parait qu'y'a une nouvelle qui s'appelle Vitaa ? Je vais la mettre dans ma poche prés de ma carte , vitale J'ai pas voulu serrer Sweety , non je me suis fait tout petit Parait que les meufs dans la Dancehall , ont de gros appétits Même en faisant le tour , du R' , R'N'B Rien à faire je ne trouve pas , ma belle , belle Bitch J'veux celles qui chantent le mieux, car les autres me font trop de peine Si tu es dernière du top , viens pas serrer La Fouine, c'est pas la peine Mains en l'air , billets verts, je suis venu taper mon Hold Up men' Je suis venu taper mon Hold Up Men', Hold Up men' Man je sais pas où est le problème, les rappeurs ont trop de peines, le R'n'B est open Man je sais pas où est le problème, les rappeurs ont trop de peines, le R'n'B est open Man je sais pas où est le problème, les rappeurs ont trop de peines, le R'n'B est open Le R'n'B est open alors sers toi</t>
         </is>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Les Yvelines, Capitale du crime 78, demande à La Fouine On nique les keufs, on ken les meufs Quand les poucaves sortent, c'est mauvais signe Sur ma vie man on cherche juste le fric Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut pour sortir les gamos de l'usine J'ai grandi à Trappes entre les perquiz' et la tise Entre les tôles et les foyers, entre les poisses et les retards d'loyers Entre les expulsions et les toxos Entre les parties d'foot en salle et les pétasses trop sales, putain Les petits suivent nos traces, le square me laisse des traces J'ai connu la poisse avant d'me r'trouver sur Trace, sache On a nos codes et nos modes de vie À mon avis avant d'rester underground j'essaie juste de rester en vie J'suis offishal en écoutant ton rap Même les p'tites chialent, tu t'ficha j'tiens les ficelles, c'est officiel J'kiffe les tueries des Yvelines, ton rap c'est d'la bibine J'trinque à ton rap de merde tchin-tchin Les Yvelines, Capitale du crime 78, demande à La Fouine On nique les keufs, on ken les meufs Quand les poucaves sortent, c'est mauvais signe Sur ma vie man on cherche juste le fric Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut pour sortir le gamos de l'usine You might also like Okay, j'ai ressorti le brelic' et la haine, mon index a fait d'la muscu' Mon rap sent le musc on l'écoute jusqu'au crépuscule Eh ! Le rap a fait son paquetage puis son partage Les faux, à gauche, La Fouine dans son bagage Les MC envoient des piques, moi j'envoie des roquettes Paraît qu't'as maigri comme Missy depuis mon missile J'ai écrit c'texte à Bois-d'Ar', Rogny ou Nanterre Ils représentent les gars qui devant l'juge savent se taire Okay, la vérité sort de la bouche des enfants Sauf quand ils ont les yeux rouges et quelques grammes dans l'sang Okay, je me voyais déjà en haut de l'affiche Et comme la porte était fermée j'l'ai défoncé au pied-de-biche Putain, j'suis détenteur d'un bon rap Imiter c'est rare comme un p'tit qui respecte pas les grands d'Trappes J'me suis torché avec ton Code Pénal Putain mon rap c'est du K-1, Ok man C'est ça, souviens-toi d'mon rap comme un France-Sénégal Comme un Brésil-France, mon rap est lourd, on l'écoute jusqu'au Népal Comme un keuf à Trappes qui slalome entre les balles Comme mon pote Tepkal ou Tepnam 7.8 c'est l'Viet Nam Les Yvelines, Capitale du crime 78, demande à La Fouine On nique les keufs, on ken les meufs Quand les poucaves sortent, c'est mauvais signe Sur ma vie man on cherche juste le fric Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut pour sortir le gamos de l'usine</t>
+          <t>Les Yvelines, Capitale du crime 78, demande à La Fouine On nique les keufs, on ken les meufs Quand les poucaves sortent, c'est mauvais signe Sur ma vie man on cherche juste le fric Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut pour sortir les gamos de l'usine J'ai grandi à Trappes entre les perquiz' et la tise Entre les tôles et les foyers, entre les poisses et les retards d'loyers Entre les expulsions et les toxos Entre les parties d'foot en salle et les pétasses trop sales, putain Les petits suivent nos traces, le square me laisse des traces J'ai connu la poisse avant d'me r'trouver sur Trace, sache On a nos codes et nos modes de vie À mon avis avant d'rester underground j'essaie juste de rester en vie J'suis offishal en écoutant ton rap Même les p'tites chialent, tu t'ficha j'tiens les ficelles, c'est officiel J'kiffe les tueries des Yvelines, ton rap c'est d'la bibine J'trinque à ton rap de merde tchin-tchin Les Yvelines, Capitale du crime 78, demande à La Fouine On nique les keufs, on ken les meufs Quand les poucaves sortent, c'est mauvais signe Sur ma vie man on cherche juste le fric Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut pour sortir le gamos de l'usine Okay, j'ai ressorti le brelic' et la haine, mon index a fait d'la muscu' Mon rap sent le musc on l'écoute jusqu'au crépuscule Eh ! Le rap a fait son paquetage puis son partage Les faux, à gauche, La Fouine dans son bagage Les MC envoient des piques, moi j'envoie des roquettes Paraît qu't'as maigri comme Missy depuis mon missile J'ai écrit c'texte à Bois-d'Ar', Rogny ou Nanterre Ils représentent les gars qui devant l'juge savent se taire Okay, la vérité sort de la bouche des enfants Sauf quand ils ont les yeux rouges et quelques grammes dans l'sang Okay, je me voyais déjà en haut de l'affiche Et comme la porte était fermée j'l'ai défoncé au pied-de-biche Putain, j'suis détenteur d'un bon rap Imiter c'est rare comme un p'tit qui respecte pas les grands d'Trappes J'me suis torché avec ton Code Pénal Putain mon rap c'est du K-1, Ok man C'est ça, souviens-toi d'mon rap comme un France-Sénégal Comme un Brésil-France, mon rap est lourd, on l'écoute jusqu'au Népal Comme un keuf à Trappes qui slalome entre les balles Comme mon pote Tepkal ou Tepnam 7.8 c'est l'Viet Nam Les Yvelines, Capitale du crime 78, demande à La Fouine On nique les keufs, on ken les meufs Quand les poucaves sortent, c'est mauvais signe Sur ma vie man on cherche juste le fric Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut Le fric ? Il en faut, faut, faut, faut, faut pour sortir le gamos de l'usine</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Tch, tch, tch, tch Bang, bang Ki, ki, ki, ki J'me rappelle d'un temps d'un temps, c'était plus facile ok Y avait moins d'oseille ok, j'avais plus d'amis oh yeah On était dans la vente nan, han, BEP te-shi te-shi Pas de comptes en banque en banque, moins de blehni ok, ok Fonce-dé, on regarde la lune ok, en scred, on l'a vise l'a vise J'voyais vie en rose oh nan même sans carte grise oh nan Les flics cassaient la porte ok mais c'était pas fermé nan, han On laissait ouvert ouvert, chez moi, rien à taper nan, han On connaît l'paragraphe ok, papa cherche du taf du taf Maman squatte la CAF la CAF et moi, j'tire une taffe taffe On enterrait Zakaria, j'rêvais d'une Clio Baccara On s'faisait courser par la BAC en s'faisant traiter d'sale arabe Y avait pas le Net ok, on s'tapait pour de vrai de vrai Caillasse dans la tête bang, bang à la gare de Châtelet ok Grandi dans la pisse yah, j'faisais un mètre dix yah À l'école du vice ok, j'avais bac 6 God, God Parfois j'mangeais bien, parfois y avait rien rien Parfois j'ken une tchoin ouais, parfois j'ai ma main ok Et on montait sur les Champs, tapait bouteilles à Auchan Poursuivis par les méchants parce que poucave par les gens Sèche l'école un peu, maman qui ré-pleu ok Allocations coupées oh nan, couper plaquettes jamais Papa rentre au bled bled, noyé par les dettes yah Les huissiers nous jettent, j'dors plus in my bed bye bye Donc on bicrave à la gare et j'finissais à Bois d'Ar' La vie m'a taclé sur l'terrain, à l'époque y avait pas la VAR J'me rappelle d'un temps un temps, j'étais délinquant ah ouais Foyer pour enfant ouais, prison d'temps en temps J'ai pas connu l'lycée ok, jamais diplômé oh nan À part avec la rue ok, j'ai jamais flirté ok J'me rappelle d'un temps, quartier tout l'été ok Cashir dans du pain et cola d'Ed Si tu sais pas d'où tu viens, comment savoir où tu vas ? Dis-moi avec qui tu traînes, j'dirai dans quelle prison tu vas You might also like Là j'vous parle d'un temps un temps que les moins d'vingt ans vingt ans Ne peuvent pas connaître oh nan sauf en googlant en googlant Tu m'appelles Le sang ok mais tu fais couler l'mien ok Pour quelques billets d'cent ok, pas le même groupe sanguin yah J'me rappelle d'un temps, on respectait les grands les grands On squattait devant l'hall ok, on rappait dans les temps Ouais, il fut un temps il fut un temps, il fut un temps Yah, yah, yah, yah, yah, il fut un temps Ouh-oh-oh-oh, ouh-oh-oh-oh-oh</t>
+          <t>Tch, tch, tch, tch Bang, bang Ki, ki, ki, ki J'me rappelle d'un temps d'un temps, c'était plus facile ok Y avait moins d'oseille ok, j'avais plus d'amis oh yeah On était dans la vente nan, han, BEP te-shi te-shi Pas de comptes en banque en banque, moins de blehni ok, ok Fonce-dé, on regarde la lune ok, en scred, on l'a vise l'a vise J'voyais vie en rose oh nan même sans carte grise oh nan Les flics cassaient la porte ok mais c'était pas fermé nan, han On laissait ouvert ouvert, chez moi, rien à taper nan, han On connaît l'paragraphe ok, papa cherche du taf du taf Maman squatte la CAF la CAF et moi, j'tire une taffe taffe On enterrait Zakaria, j'rêvais d'une Clio Baccara On s'faisait courser par la BAC en s'faisant traiter d'sale arabe Y avait pas le Net ok, on s'tapait pour de vrai de vrai Caillasse dans la tête bang, bang à la gare de Châtelet ok Grandi dans la pisse yah, j'faisais un mètre dix yah À l'école du vice ok, j'avais bac 6 God, God Parfois j'mangeais bien, parfois y avait rien rien Parfois j'ken une tchoin ouais, parfois j'ai ma main ok Et on montait sur les Champs, tapait bouteilles à Auchan Poursuivis par les méchants parce que poucave par les gens Sèche l'école un peu, maman qui ré-pleu ok Allocations coupées oh nan, couper plaquettes jamais Papa rentre au bled bled, noyé par les dettes yah Les huissiers nous jettent, j'dors plus in my bed bye bye Donc on bicrave à la gare et j'finissais à Bois d'Ar' La vie m'a taclé sur l'terrain, à l'époque y avait pas la VAR J'me rappelle d'un temps un temps, j'étais délinquant ah ouais Foyer pour enfant ouais, prison d'temps en temps J'ai pas connu l'lycée ok, jamais diplômé oh nan À part avec la rue ok, j'ai jamais flirté ok J'me rappelle d'un temps, quartier tout l'été ok Cashir dans du pain et cola d'Ed Si tu sais pas d'où tu viens, comment savoir où tu vas ? Dis-moi avec qui tu traînes, j'dirai dans quelle prison tu vas Là j'vous parle d'un temps un temps que les moins d'vingt ans vingt ans Ne peuvent pas connaître oh nan sauf en googlant en googlant Tu m'appelles Le sang ok mais tu fais couler l'mien ok Pour quelques billets d'cent ok, pas le même groupe sanguin yah J'me rappelle d'un temps, on respectait les grands les grands On squattait devant l'hall ok, on rappait dans les temps Ouais, il fut un temps il fut un temps, il fut un temps Yah, yah, yah, yah, yah, il fut un temps Ouh-oh-oh-oh, ouh-oh-oh-oh-oh</t>
         </is>
       </c>
     </row>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>CashMoneyAP GO GO ! Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère Les grands me disent fais la monnaie petit pourquoi tu chômes ? Et même dans ton business ton poto ne fait pas de chromes Fais gaffe avec qui tu traînes à qui tu tends ta paume Fais gaffe et si tu consommes go Combien d'entre nous nous ont quittés ? Combien t'as perdu de frères ? Les fils de pute faut les éviter, ta salope peut t'quitter même si tu sors en perm' Et si tu fumes la beuh, khoya laisse-moi un peu Sont pressées les fe-meu, tombe pas pour la meu-meu Et si t'as trop d'haineux, fumes-en un ou deux Tu verras c'est comme la beuh, des fois tu tousses un peu Le succès ça coûte un bras Demande à mon poto Jamel tu quittes la misère que quand tu t'y attends pas Galère à la gare de Trappes surveillé jour et nuit, bicrave la peu-fra Et si tu veux les cket-tra, la hagra ça paye pas, ils reviennent avec les AK Après il est trop tard, trop tard Trop tard You might also like Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère J'trouve plus mon brolik y a trop d'billets dans la sacoche Les haineux j'm'en bats les couilles comme les pièces jaunes dans ma poche Jette le bédo par terre y a le grand frère qui approche Qui approche C'est la hass, pas de Gucci, pas de Givenchy, pas de trucs trop reuch Connais pas bague au doigt, connais dans la veuc' un doigt dans la teuch' Conseils des frérots m'en balance, mets les mmes-gra sur la balance Pars à Phuket pour les vacances, traîne avec les kho' d'Casamance Harbi, bambara traîne avec des peul on connait qu'LIDL Des fois je crois qu'j'avance mais putain j'recule un peu comme Michael Enfant des favelas, j'ai fait mes preuves hélas Grandis au tribunal commis d'office sur les côtes, jugé au pénal Est-ce que tu t'rappelles d'ma gow ? J'l'ai fourré dans sa Twingo Est-ce que tu t'rappelles d'son kho' ? C'est dingue, il a plus d'chicots Et peu importe les conseils, c'est quand on grandit qu'on sait Quand on tombe on s'relève, on apprend mieux quand on saigne Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère</t>
+          <t>CashMoneyAP GO GO ! Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère Les grands me disent fais la monnaie petit pourquoi tu chômes ? Et même dans ton business ton poto ne fait pas de chromes Fais gaffe avec qui tu traînes à qui tu tends ta paume Fais gaffe et si tu consommes go Combien d'entre nous nous ont quittés ? Combien t'as perdu de frères ? Les fils de pute faut les éviter, ta salope peut t'quitter même si tu sors en perm' Et si tu fumes la beuh, khoya laisse-moi un peu Sont pressées les fe-meu, tombe pas pour la meu-meu Et si t'as trop d'haineux, fumes-en un ou deux Tu verras c'est comme la beuh, des fois tu tousses un peu Le succès ça coûte un bras Demande à mon poto Jamel tu quittes la misère que quand tu t'y attends pas Galère à la gare de Trappes surveillé jour et nuit, bicrave la peu-fra Et si tu veux les cket-tra, la hagra ça paye pas, ils reviennent avec les AK Après il est trop tard, trop tard Trop tard Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère J'trouve plus mon brolik y a trop d'billets dans la sacoche Les haineux j'm'en bats les couilles comme les pièces jaunes dans ma poche Jette le bédo par terre y a le grand frère qui approche Qui approche C'est la hass, pas de Gucci, pas de Givenchy, pas de trucs trop reuch Connais pas bague au doigt, connais dans la veuc' un doigt dans la teuch' Conseils des frérots m'en balance, mets les mmes-gra sur la balance Pars à Phuket pour les vacances, traîne avec les kho' d'Casamance Harbi, bambara traîne avec des peul on connait qu'LIDL Des fois je crois qu'j'avance mais putain j'recule un peu comme Michael Enfant des favelas, j'ai fait mes preuves hélas Grandis au tribunal commis d'office sur les côtes, jugé au pénal Est-ce que tu t'rappelles d'ma gow ? J'l'ai fourré dans sa Twingo Est-ce que tu t'rappelles d'son kho' ? C'est dingue, il a plus d'chicots Et peu importe les conseils, c'est quand on grandit qu'on sait Quand on tombe on s'relève, on apprend mieux quand on saigne Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère Ils me disaient parfois, d'ou tu viens n'oublie pas, surtout ne balance pas restes vrai Reste dans le coin là-bas, quand t'auras tout bicrave, là j'serais fier de toi p'tit frère</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer J'ouvre une canette fraîche sous une chaleur caniculaire Une paire de Nike Air sur le même bitume que cet hiver J'pense aux frères en galère, en calèche, qui souffrent par manque d'oseille C'est quand les keufs débarquent que tu regrettes tes mathusalems Expérience de rue, expérience de vie Les cadavres continuent de parler selon les scientifiques Toujours anti-schmits, ne m'envoie pas tes sbires du sourire j'ai encore le temps d'vieillir J'ai traversé les époques, j'ai su surfer sur la vague Parfois posé dans un yacht, souvent je traîne dans les bars Du droit chemin je m'égare, je me retrouve en Enfer Du sexe pour du sexe dans des relations à court terme Mieux vaut être avec sa dulcinée qu'avec des putes minées L'amour est dans le pré, le loup caché sous les herbes vertes Je pense à mon Afrique, à mon retour au village Le Général n'est jamais parti, j'ai toujours été là You might also like On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer Parait qu'il me faut des loves si je veux te séduire Mauvais comportement parce qu'on a les nerfs à vif Dieu m'a donné la voie, ma voix te donne de l'espoir Même si par effraction le GIGN a pénétré chez toi Le charme de la timidité, un monstre sommeille en moi Quelque soit la couleur du ciel, il reste toujours au dessus de moi J'suis pas une star, j'suis pas une vedette juste un mec d'Auber' Sache qu'il y'a Pernelle entre les pépèts' et la perpét', hein Au pied du mur on s'retourne vers l'Éternel N'attends pas d'être au fond du trou pour penser à faire tes prières Je puise mes forces dans l'énergie solaire J'ai embrassé la vie d'gangster après mon échec scolaire La vie est belle, la vie est moche L'esprit engrainé par la violence quand j'étais mioche Je pense à mon Afrique, à mon retour au village Le Général n'est jamais parti, j'ai toujours été là On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer Interdit de ne pas rejoindre notre communauté Rap Genius France !</t>
+          <t>On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer J'ouvre une canette fraîche sous une chaleur caniculaire Une paire de Nike Air sur le même bitume que cet hiver J'pense aux frères en galère, en calèche, qui souffrent par manque d'oseille C'est quand les keufs débarquent que tu regrettes tes mathusalems Expérience de rue, expérience de vie Les cadavres continuent de parler selon les scientifiques Toujours anti-schmits, ne m'envoie pas tes sbires du sourire j'ai encore le temps d'vieillir J'ai traversé les époques, j'ai su surfer sur la vague Parfois posé dans un yacht, souvent je traîne dans les bars Du droit chemin je m'égare, je me retrouve en Enfer Du sexe pour du sexe dans des relations à court terme Mieux vaut être avec sa dulcinée qu'avec des putes minées L'amour est dans le pré, le loup caché sous les herbes vertes Je pense à mon Afrique, à mon retour au village Le Général n'est jamais parti, j'ai toujours été là On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer Parait qu'il me faut des loves si je veux te séduire Mauvais comportement parce qu'on a les nerfs à vif Dieu m'a donné la voie, ma voix te donne de l'espoir Même si par effraction le GIGN a pénétré chez toi Le charme de la timidité, un monstre sommeille en moi Quelque soit la couleur du ciel, il reste toujours au dessus de moi J'suis pas une star, j'suis pas une vedette juste un mec d'Auber' Sache qu'il y'a Pernelle entre les pépèts' et la perpét', hein Au pied du mur on s'retourne vers l'Éternel N'attends pas d'être au fond du trou pour penser à faire tes prières Je puise mes forces dans l'énergie solaire J'ai embrassé la vie d'gangster après mon échec scolaire La vie est belle, la vie est moche L'esprit engrainé par la violence quand j'étais mioche Je pense à mon Afrique, à mon retour au village Le Général n'est jamais parti, j'ai toujours été là On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer On vous raconte nos joies, nos peines, esquive les condés par centaines Souvent nos ennemis nous craignent, une seule devise là ou l'on traîne Interdit d'échouer Interdit d'échouer Interdit d'échouer Interdit de ne pas rejoindre notre communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>La Fouine Hey ! Nico baisse le son, baisse le son La Fouine Yeah, bien les gars ou quoi ? Ouais, tranquille hein et toi ? L'album ça se passe ou quoi ? Ça avance ? La Fouine Yeah tranquille Et le feat avec T-Pain ça ça... La Fouine Ouais, normalement ça devrait se faire La Fouine Attend, je vais appeler Karim pour voir Numérotation d'un téléphone Appelle vers Karim Oui allô ? La Fouine Yeah, Karim bien ou quoi ? Karim Ouais, Laouni ça va bien ? La Fouine Ouais, pépère et toi cool ? Karim Ouais, ça bosse dur la La Fouine Alors, tu as eu T-Pain pour le feat ou quoi ? Karim Ouais j'ai eu ses managers, euh... écoute'euh... c'était un petit peu vague, j'ai l'impression qu'il y a des problèmes d'emploi du temps avec ses potes artistes'euh NON... je suis un petit peu pessimiste hein pour la suite des histoires La Fouine Vas-y gros, je m'en bas les couilles de toute façon, je vais faire ça sans lui La Fouine Vas-y ciao, bye Raccroche La Fouine Putain T-Pain il fait sa re-sta, truc de ouf, nique sa race, vas-y on va faire ça sent lui, vas-y balance le son CanardoYou might also like</t>
+          <t>La Fouine Hey ! Nico baisse le son, baisse le son La Fouine Yeah, bien les gars ou quoi ? Ouais, tranquille hein et toi ? L'album ça se passe ou quoi ? Ça avance ? La Fouine Yeah tranquille Et le feat avec T-Pain ça ça... La Fouine Ouais, normalement ça devrait se faire La Fouine Attend, je vais appeler Karim pour voir Numérotation d'un téléphone Appelle vers Karim Oui allô ? La Fouine Yeah, Karim bien ou quoi ? Karim Ouais, Laouni ça va bien ? La Fouine Ouais, pépère et toi cool ? Karim Ouais, ça bosse dur la La Fouine Alors, tu as eu T-Pain pour le feat ou quoi ? Karim Ouais j'ai eu ses managers, euh... écoute'euh... c'était un petit peu vague, j'ai l'impression qu'il y a des problèmes d'emploi du temps avec ses potes artistes'euh NON... je suis un petit peu pessimiste hein pour la suite des histoires La Fouine Vas-y gros, je m'en bas les couilles de toute façon, je vais faire ça sans lui La Fouine Vas-y ciao, bye Raccroche La Fouine Putain T-Pain il fait sa re-sta, truc de ouf, nique sa race, vas-y on va faire ça sent lui, vas-y balance le son Canardo</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Yeah! Quoi d'neuf Fouiny Baby ? As-salm aláykum XXX Na nga def In moro Aw ni sògòma Sbah el-khir khoya Quoi de neuf Fouiny Baby Le jour où j'aurai la tune à Bill Gates, j'ferai les putains de XXX Toute l'Afrique frère Masta En attendant reste en chien ma gueuleYou might also like2</t>
+          <t>Yeah! Quoi d'neuf Fouiny Baby ? As-salm aláykum XXX Na nga def In moro Aw ni sògòma Sbah el-khir khoya Quoi de neuf Fouiny Baby Le jour où j'aurai la tune à Bill Gates, j'ferai les putains de XXX Toute l'Afrique frère Masta En attendant reste en chien ma gueule2</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Paroles rédigées et annotées par la communauté française de Rap GeniusYou might also like</t>
+          <t>Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>- Quand on grandissait chez nous, on prenait l'habitude d'être emmerdé par les flics. Ils nous suivaient en bagnole puis se barraient ou bien ils nous arrêtaient sans raison et nous interrogeaient surtout avec une caisse comme la mienne... - Va te faire voir Tat! Rires - Eh! Pour qui tu te prends? Pour ce connard de héros de Superman. À me menacer si je te file pas ton fric? Eh j'suis pas ta meuf négro! Qu'est-ce que tu vas faire? -Eh déconne pas! -Fait pas chier toi! Dégage! -Non,non,non,non,non. Allez, vas y mec appuie. Qu'est-ce qu'il ya? Tu crois que tu me fais peur avec ton flingue? J'te dis que t'auras ton fric, tu l'auras. Même si tu me suce la queue! Coups de feu -Bon tout ce qu'on à faire c'est d'allumer cette bande de pédales, ca va pas être dur. Mais bordel c'est un truc qu'on laisse pas passer! On fonce dans ce tas de vermines et on allume tout le monde et moi je me fous de qui sera là! Alors faut savoir si tu marches blackos? -Mais bordel vous allez la fermer tous les deux. Vous vous comportez tous les deux comme une bande de meufs. Tout les deux vous mouillez de pétoche de descendre ces salopes. Eh! Rends-moi mon putain de joint négro!You might also like</t>
+          <t>- Quand on grandissait chez nous, on prenait l'habitude d'être emmerdé par les flics. Ils nous suivaient en bagnole puis se barraient ou bien ils nous arrêtaient sans raison et nous interrogeaient surtout avec une caisse comme la mienne... - Va te faire voir Tat! Rires - Eh! Pour qui tu te prends? Pour ce connard de héros de Superman. À me menacer si je te file pas ton fric? Eh j'suis pas ta meuf négro! Qu'est-ce que tu vas faire? -Eh déconne pas! -Fait pas chier toi! Dégage! -Non,non,non,non,non. Allez, vas y mec appuie. Qu'est-ce qu'il ya? Tu crois que tu me fais peur avec ton flingue? J'te dis que t'auras ton fric, tu l'auras. Même si tu me suce la queue! Coups de feu -Bon tout ce qu'on à faire c'est d'allumer cette bande de pédales, ca va pas être dur. Mais bordel c'est un truc qu'on laisse pas passer! On fonce dans ce tas de vermines et on allume tout le monde et moi je me fous de qui sera là! Alors faut savoir si tu marches blackos? -Mais bordel vous allez la fermer tous les deux. Vous vous comportez tous les deux comme une bande de meufs. Tout les deux vous mouillez de pétoche de descendre ces salopes. Eh! Rends-moi mon putain de joint négro!</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes On inonde les ondes, on inonde les ondes DJ Ashe La Fouine, La Fouine On inonde les ondes, on inonde les ondes GS Trappes On inonde les ondes, on inonde les ondes DJ Ashe La Fouine, La Fouine On inonde les ondes, on inonde les ondes Dis toi bien que c'est XXX XXX la famille, on arrive J'avance quoi que les gens disent Dis toi bien... XXX Dis toi bien... La Fouine Dis toi bien... You might also like La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes</t>
+          <t>La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes On inonde les ondes, on inonde les ondes DJ Ashe La Fouine, La Fouine On inonde les ondes, on inonde les ondes GS Trappes On inonde les ondes, on inonde les ondes DJ Ashe La Fouine, La Fouine On inonde les ondes, on inonde les ondes Dis toi bien que c'est XXX XXX la famille, on arrive J'avance quoi que les gens disent Dis toi bien... XXX Dis toi bien... La Fouine Dis toi bien... La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes La Fouine donimwa, on inonde les ondes</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Bienvenue sur la Planète Trappes Allumez vos bédos, décapsulez vos tises Ce son c'est pour les mans et les bitches Yeah, Banlieue OuestYou might also like</t>
+          <t>Bienvenue sur la Planète Trappes Allumez vos bédos, décapsulez vos tises Ce son c'est pour les mans et les bitches Yeah, Banlieue Ouest</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Yeah, que l'état suce ma bite Si un keuf fume un jeune on en fume un et on est quitte D'la hilla et du pall mall Au mitard je fume des joints avec les feuilles du code pénal Yeah, jeune qu'en a rien à branler Si ça chauffe je monte au ciel mais jamais aux isolés Trop fonc-dé pour faire mes devoirs J'échangeais des baskets pleines de shit avec mon frère au parloir Yeah fouiny fouiny babe une étoile est née J'pissais sur la lune trop alcoolisé Et combien de fois les keufs m'ont verbalisé Nique sa mère, j'ai la bouche anesthésiée J'avais pas d'gov, j'avais pas d'permis J'avais pas de chienne donc me dit pas que tu kiffes Laouni Yeah, on a commencé par des barrettes puis les plaquettes Et j'ai réinvesti sur ma barbichette Qui met les plus grosses bananes ? Jacques Chirac On investit ton quartier comme les troupes en Irak Un jour on sera les best, on te l'avait déjà dit D'ici là on t'oubliera, t'es comme les Tragédie Jacques Chirac, Jacques Chirac Qui met les plus grosses bananes ? Jacques Chirac On investit le rap comme les troupes en Irak Qui met les plus grosses bananes ? Jacques Chirac Qui met les plus grosses bananes ? Jacques Chirac On investit ton quartier comme les troupes en Irak Un jour on sera les best, on te l'avait déjà dit D'ici là on t'oubliera, t'es comme les Tragédie Jacques Chirac, Jacques Chirac Qui met les plus grosses bananes ? Jacques Chirac On investit le rap comme les troupes en Irak Qui met les plus grosses bananes ? Jacques ChiracYou might also like1</t>
+          <t>Yeah, que l'état suce ma bite Si un keuf fume un jeune on en fume un et on est quitte D'la hilla et du pall mall Au mitard je fume des joints avec les feuilles du code pénal Yeah, jeune qu'en a rien à branler Si ça chauffe je monte au ciel mais jamais aux isolés Trop fonc-dé pour faire mes devoirs J'échangeais des baskets pleines de shit avec mon frère au parloir Yeah fouiny fouiny babe une étoile est née J'pissais sur la lune trop alcoolisé Et combien de fois les keufs m'ont verbalisé Nique sa mère, j'ai la bouche anesthésiée J'avais pas d'gov, j'avais pas d'permis J'avais pas de chienne donc me dit pas que tu kiffes Laouni Yeah, on a commencé par des barrettes puis les plaquettes Et j'ai réinvesti sur ma barbichette Qui met les plus grosses bananes ? Jacques Chirac On investit ton quartier comme les troupes en Irak Un jour on sera les best, on te l'avait déjà dit D'ici là on t'oubliera, t'es comme les Tragédie Jacques Chirac, Jacques Chirac Qui met les plus grosses bananes ? Jacques Chirac On investit le rap comme les troupes en Irak Qui met les plus grosses bananes ? Jacques Chirac Qui met les plus grosses bananes ? Jacques Chirac On investit ton quartier comme les troupes en Irak Un jour on sera les best, on te l'avait déjà dit D'ici là on t'oubliera, t'es comme les Tragédie Jacques Chirac, Jacques Chirac Qui met les plus grosses bananes ? Jacques Chirac On investit le rap comme les troupes en Irak Qui met les plus grosses bananes ? Jacques Chirac1</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Wohohohoho ! J'ai des dettes, j'ai des dettes, des putains de dettes Wow ! J'ai des dettes, j'ai des dettes, des putains de dettes Wohohohoho ! J'ai des dettes, j'ai des dettes, des putains de dettes Wow ! J'ai des dettes, j'ai des dettes, des putains de dettes ! Wohohohoho ! Discutons, asseyons-nous La s'maine prochaine j'te rembourse tout On va m'avancer les sous J'suis ken, j'ai des dettes, j'ai des veux-che tous blancs tout autour de la tête J'ai tout fumé, j'suis cuit J'ferai plus de crédits La tête remplie dans des histoires de bédos J'ai tout fumé, j'ai tout fumé sans me soucier d'ma conso' J'm'en tape j'vais trouver du taffe J'm'en bat les 'illeuc', j'assume, j'm'en bats J'm'en tape, j'viens d'Trappes Wohohohoho ! J'ai des dettes, j'ai des dettes, des putains de dettes C'est ça ! Wow ! J'ai des dettes, j'ai des... J'crois qu'j'vais plus traîner au square J'crois qu'j'vais plus m'taper des barres Mec t'as craqué Tu te fous d'moi , tu rages chant-mé , tu crois qu'j'vais m'barrer, t'as l'seum T'cherches la merde, mon p'tit Pour la peine je te donne rien, keum Ça t'apprendra à 'pper-fli Wohohoho ! J'm'en tape tu fais pas l'poids J'm'en bats les couilles, j'assume, j'm'en tape J'm'en tape !, j'viens d'Trappes Wohohohoho ! You might also like J'avais des dettes, j'avais des dettes, des putains de dettes Wow ! J'avais des dettes, j'avais des dettes, des putains de dettes Wohohohoho ! J'avais des dettes, j'avais des dettes, des putains de dettes Wow ! J'avais des dettes, j'avais des dettes, des putains de dettes ! Wohohohoho ! Quoi ? J'ai entendu dire qu'on pose des contrats sur moi Pourtant tout l'monde sait où j'traîne juste devant chez moi Ça m'fait marrer quand j'entends Hakim, si j'te trouve j'vais niquer sa mère grave C'fils de pute, j'vais l'mettre dans la cave J'suis devant chez moi, H24, ils le savent Moi, toujours à la hauteur Comme d'hab', sur l'terrain, j'suis pas un imposteur La Fouine vient remettre les compteurs C'est la Banlieue Ouest, dégage si t'as trop peur Wohohohoho ! J'avais des dettes, j'avais des dettes, des putains de dettes Wow ! J'avais des dettes, j'avais des dettes, des putains de dettes Wohohohoho ! J'avais des dettes, j'avais des dettes, des putains de dettes Wow ! J'avais des dettes, j'avais des dettes, des putains de dettes ! Wohohohoho ! Histoires de thunes, de dettes, de gros crédits Big La Fouine, Canardo Le Bandit Arrache ta gueule avec ton son moisi J'ai des dettes, j'ai des dettes, j'ai des dettes Histoires de thunes, de dettes de gros crédits Big La Fouine, Canardo Le Bandit Arrache ta gueule avec ton son moisi J'ai des dettes, j'ai des dettes, j'ai des dettes</t>
+          <t>Wohohohoho ! J'ai des dettes, j'ai des dettes, des putains de dettes Wow ! J'ai des dettes, j'ai des dettes, des putains de dettes Wohohohoho ! J'ai des dettes, j'ai des dettes, des putains de dettes Wow ! J'ai des dettes, j'ai des dettes, des putains de dettes ! Wohohohoho ! Discutons, asseyons-nous La s'maine prochaine j'te rembourse tout On va m'avancer les sous J'suis ken, j'ai des dettes, j'ai des veux-che tous blancs tout autour de la tête J'ai tout fumé, j'suis cuit J'ferai plus de crédits La tête remplie dans des histoires de bédos J'ai tout fumé, j'ai tout fumé sans me soucier d'ma conso' J'm'en tape j'vais trouver du taffe J'm'en bat les 'illeuc', j'assume, j'm'en bats J'm'en tape, j'viens d'Trappes Wohohohoho ! J'ai des dettes, j'ai des dettes, des putains de dettes C'est ça ! Wow ! J'ai des dettes, j'ai des... J'crois qu'j'vais plus traîner au square J'crois qu'j'vais plus m'taper des barres Mec t'as craqué Tu te fous d'moi , tu rages chant-mé , tu crois qu'j'vais m'barrer, t'as l'seum T'cherches la merde, mon p'tit Pour la peine je te donne rien, keum Ça t'apprendra à 'pper-fli Wohohoho ! J'm'en tape tu fais pas l'poids J'm'en bats les couilles, j'assume, j'm'en tape J'm'en tape !, j'viens d'Trappes Wohohohoho ! J'avais des dettes, j'avais des dettes, des putains de dettes Wow ! J'avais des dettes, j'avais des dettes, des putains de dettes Wohohohoho ! J'avais des dettes, j'avais des dettes, des putains de dettes Wow ! J'avais des dettes, j'avais des dettes, des putains de dettes ! Wohohohoho ! Quoi ? J'ai entendu dire qu'on pose des contrats sur moi Pourtant tout l'monde sait où j'traîne juste devant chez moi Ça m'fait marrer quand j'entends Hakim, si j'te trouve j'vais niquer sa mère grave C'fils de pute, j'vais l'mettre dans la cave J'suis devant chez moi, H24, ils le savent Moi, toujours à la hauteur Comme d'hab', sur l'terrain, j'suis pas un imposteur La Fouine vient remettre les compteurs C'est la Banlieue Ouest, dégage si t'as trop peur Wohohohoho ! J'avais des dettes, j'avais des dettes, des putains de dettes Wow ! J'avais des dettes, j'avais des dettes, des putains de dettes Wohohohoho ! J'avais des dettes, j'avais des dettes, des putains de dettes Wow ! J'avais des dettes, j'avais des dettes, des putains de dettes ! Wohohohoho ! Histoires de thunes, de dettes, de gros crédits Big La Fouine, Canardo Le Bandit Arrache ta gueule avec ton son moisi J'ai des dettes, j'ai des dettes, j'ai des dettes Histoires de thunes, de dettes de gros crédits Big La Fouine, Canardo Le Bandit Arrache ta gueule avec ton son moisi J'ai des dettes, j'ai des dettes, j'ai des dettes</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>J'traînais dans la street avec des vêtements pas chers Vêtements pas chers L'avenir appartient à ceux qui s'lèvent pour l'Fajr Amin On n'est jamais mieux servi que par un p'tit frère La rue est le meilleur prof mais elle est sévère sévère J'ferai pas l'million avec ces grammes, non Ma putain d'caisse tombe sans arrêt en panne, ouais J'me sentirais mieux un joint dans le crâne, ouais J'te vi-ser mal, y a plus de cellophane, ouais Yo, j'vais les fumer, Jacques a dit, j'dois les fumer, Jacques a dit J'fais tomber une larme d'ami dans un océan d'ennemis Mon cur est froid comme en décembre mais je n'fête pas Noël Je vais marcher sur leurs cendres, je n'fais pas de LOL Sur le chemin du succès, je n'ai vu que des feux verts J'tournais dans les rues d'ma ville avec des voitures pas chères L'amitié et le whisky m'ont laissé v'la le goût amer Les fleurs, c'est pas pour les tchoins, c'est pour la tombe de ma mère J'traînais dans la street avec des vêtements pas chers Vêtements pas chers L'avenir appartient à ceux qui s'lèvent pour l'Fajr Amin On n'est jamais mieux servi que par un p'tit frère La rue est le meilleur prof mais elle est sévère sévère You might also like J'ferai pas l'million avec ces grammes, non Ma putain d'caisse tombe sans arrêt en panne, ouais J'me sentirais mieux un joint dans le crâne, ouais J'te vi-ser mal, y a plus de cellophane, ouais Yo, j'dois les fumer, Jacques a dit, j'vais les fumer, Jacques a dit Ma meuf met tout dans les gros sacs, elle n'regarde jamais les prix Pur-pur produit des HLM, c'est trop bon d'sortir de là Quand t'as grandi dans la soie, tu sais pas dire hamdoullah Les huissiers, les tribunaux, on avait la corde au cou J'm'achète une Ferrari jaune comme les cheveux de Sangoku Ouais, laisse couler, ouais, laisser parler, billets violets, yah, yah Je sais d'où j'viens, je sais où j'vais, Fouiny baby, yah, yah J'traînais dans la street avec des vêtements pas chers Vêtements pas chers L'avenir appartient à ceux qui s'lèvent pour l'Fajr Amin On n'est jamais mieux servi que par un p'tit frère La rue est le meilleur prof mais elle est sévère sévère J'ferai pas l'million avec ces grammes, non Ma putain d'caisse tombe sans arrêt en panne, ouais J'me sentirais mieux un joint dans le crâne, ouais J'te vi-ser mal, y a plus de cellophane, ouais J'ai besoin de la bénédiction de mes parents Et ils auront besoin de la mienne après leur mort Moi, j'aurai besoin de celle de ma fille quand j'serai plus là On est juste les maillons d'une chaîne, t'as capté ? J'ferai pas l'million avec ces grammes, non Non Ma putain d'caisse tombe sans arrêt en panne, ouais Ouais J'me sentirais mieux un joint dans le crâne, ouais Ouais J'te vi-ser mal, y a plus de cellophane, ouais J'crois qu'ils ont capté</t>
+          <t>J'traînais dans la street avec des vêtements pas chers Vêtements pas chers L'avenir appartient à ceux qui s'lèvent pour l'Fajr Amin On n'est jamais mieux servi que par un p'tit frère La rue est le meilleur prof mais elle est sévère sévère J'ferai pas l'million avec ces grammes, non Ma putain d'caisse tombe sans arrêt en panne, ouais J'me sentirais mieux un joint dans le crâne, ouais J'te vi-ser mal, y a plus de cellophane, ouais Yo, j'vais les fumer, Jacques a dit, j'dois les fumer, Jacques a dit J'fais tomber une larme d'ami dans un océan d'ennemis Mon cur est froid comme en décembre mais je n'fête pas Noël Je vais marcher sur leurs cendres, je n'fais pas de LOL Sur le chemin du succès, je n'ai vu que des feux verts J'tournais dans les rues d'ma ville avec des voitures pas chères L'amitié et le whisky m'ont laissé v'la le goût amer Les fleurs, c'est pas pour les tchoins, c'est pour la tombe de ma mère J'traînais dans la street avec des vêtements pas chers Vêtements pas chers L'avenir appartient à ceux qui s'lèvent pour l'Fajr Amin On n'est jamais mieux servi que par un p'tit frère La rue est le meilleur prof mais elle est sévère sévère J'ferai pas l'million avec ces grammes, non Ma putain d'caisse tombe sans arrêt en panne, ouais J'me sentirais mieux un joint dans le crâne, ouais J'te vi-ser mal, y a plus de cellophane, ouais Yo, j'dois les fumer, Jacques a dit, j'vais les fumer, Jacques a dit Ma meuf met tout dans les gros sacs, elle n'regarde jamais les prix Pur-pur produit des HLM, c'est trop bon d'sortir de là Quand t'as grandi dans la soie, tu sais pas dire hamdoullah Les huissiers, les tribunaux, on avait la corde au cou J'm'achète une Ferrari jaune comme les cheveux de Sangoku Ouais, laisse couler, ouais, laisser parler, billets violets, yah, yah Je sais d'où j'viens, je sais où j'vais, Fouiny baby, yah, yah J'traînais dans la street avec des vêtements pas chers Vêtements pas chers L'avenir appartient à ceux qui s'lèvent pour l'Fajr Amin On n'est jamais mieux servi que par un p'tit frère La rue est le meilleur prof mais elle est sévère sévère J'ferai pas l'million avec ces grammes, non Ma putain d'caisse tombe sans arrêt en panne, ouais J'me sentirais mieux un joint dans le crâne, ouais J'te vi-ser mal, y a plus de cellophane, ouais J'ai besoin de la bénédiction de mes parents Et ils auront besoin de la mienne après leur mort Moi, j'aurai besoin de celle de ma fille quand j'serai plus là On est juste les maillons d'une chaîne, t'as capté ? J'ferai pas l'million avec ces grammes, non Non Ma putain d'caisse tombe sans arrêt en panne, ouais Ouais J'me sentirais mieux un joint dans le crâne, ouais Ouais J'te vi-ser mal, y a plus de cellophane, ouais J'crois qu'ils ont capté</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Haha, DJ Battle! This is the remix, baby! Yeah, I'm in my jacuzzi, they full of jealousy Jealou-jealousy, jealou-jealousy I'll keep my jacuzzi, you keep your jealousy Jealou-jealousy, jealou-jealou-jealousy Now they can talk all day long, it's all jealousy They run their mouths, talk so loud, it's all jealousy Seein' me fall's what you want, it's all jealousy But nothin's gonna faze me, jealou-jealousy J'ai percé dans l'peura frérot ouais nique sa mère les braquos Le rap sans DJ Mehdi, c'est comme Sniper sans Blacko Cherche la monnaie nuit et jour, ouais nique sa mère les haters Billets violets, billets jaunes j'ai signé chez les Lakers Stop le peura renoi, c'est pas pour toi, stop les blagues Dis-moi avec qui tu traînes et j'te dirais si t'as du swag Parfois j'fais la salat pour m'éloigner du 6.6.6 J'suis toujours en avance rebeu ma montre est suisse-suisse-suisse XXX You might also like XXX I'm gonna faint on what I'm And let 'em know who I am, I'm the Person they call when they wanna make a jam So sexy! But they're not gonna faze me Got Fouiny for the fellas and Francisco for the ladies And now it's our turn, only I've had enough So full of jealousy you can't even get in the club So get your game right, you're damn right Cause you know I'm rolling with the best Fouiny, DJ Battle, let's go! Appelle-les, appelle-les, nous reste al Broliqué , concentré, khey, on va faire mal Pourquoi tu m'parles ? J'attends tout c'qui s'passe derrière mon dos XXX Canardo Tu veux rapper, arrête le LSD Tu peux recupèrer ta meuf, on l'a mis RSV Il faudra bien XXX J'ai fini de me laver dans mon jacuzzi Et puis j'te laisse te noyer, dans ta jalousie Capitale du crime, capi-capitale du crime Capitale du crime, capi-capitale du crime XXX Yeah, j'suis dans mon jacuzzi, t'es dans ta jalousie Jalou-jalousie Jalou-jalousie J'reste dans mon jacuzzi, reste dans ta jalousie Jalou-jalousie Jalou-jalou-jalousie Les rageux parlent, on appelle ça d'la jalousie Les haineux parlent, on appelle ça d'la jalou-jalousie Tu portes l'il, on appelle ça d'la jalousie Laisse, laisse-les parler, jalou-jalou-jalousie1</t>
+          <t>Haha, DJ Battle! This is the remix, baby! Yeah, I'm in my jacuzzi, they full of jealousy Jealou-jealousy, jealou-jealousy I'll keep my jacuzzi, you keep your jealousy Jealou-jealousy, jealou-jealou-jealousy Now they can talk all day long, it's all jealousy They run their mouths, talk so loud, it's all jealousy Seein' me fall's what you want, it's all jealousy But nothin's gonna faze me, jealou-jealousy J'ai percé dans l'peura frérot ouais nique sa mère les braquos Le rap sans DJ Mehdi, c'est comme Sniper sans Blacko Cherche la monnaie nuit et jour, ouais nique sa mère les haters Billets violets, billets jaunes j'ai signé chez les Lakers Stop le peura renoi, c'est pas pour toi, stop les blagues Dis-moi avec qui tu traînes et j'te dirais si t'as du swag Parfois j'fais la salat pour m'éloigner du 6.6.6 J'suis toujours en avance rebeu ma montre est suisse-suisse-suisse XXX XXX I'm gonna faint on what I'm And let 'em know who I am, I'm the Person they call when they wanna make a jam So sexy! But they're not gonna faze me Got Fouiny for the fellas and Francisco for the ladies And now it's our turn, only I've had enough So full of jealousy you can't even get in the club So get your game right, you're damn right Cause you know I'm rolling with the best Fouiny, DJ Battle, let's go! Appelle-les, appelle-les, nous reste al Broliqué , concentré, khey, on va faire mal Pourquoi tu m'parles ? J'attends tout c'qui s'passe derrière mon dos XXX Canardo Tu veux rapper, arrête le LSD Tu peux recupèrer ta meuf, on l'a mis RSV Il faudra bien XXX J'ai fini de me laver dans mon jacuzzi Et puis j'te laisse te noyer, dans ta jalousie Capitale du crime, capi-capitale du crime Capitale du crime, capi-capitale du crime XXX Yeah, j'suis dans mon jacuzzi, t'es dans ta jalousie Jalou-jalousie Jalou-jalousie J'reste dans mon jacuzzi, reste dans ta jalousie Jalou-jalousie Jalou-jalou-jalousie Les rageux parlent, on appelle ça d'la jalousie Les haineux parlent, on appelle ça d'la jalou-jalousie Tu portes l'il, on appelle ça d'la jalousie Laisse, laisse-les parler, jalou-jalou-jalousie1</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Que mes zins partent en vrille, que t'aurais pas envie de changer dair Mais pas de mode de vie, mec sans ambition moi j'serai pas en vie J'saurai pas trop quoi te dire à part que les choses empirent et que trop de personnes en pleur Mec cest de pire en pire quand y'a trop de mères en pleur Que mes zins partent en vrille, que t'aurais pas envie de changer d'air Mais pas de mode de vie, mec sans ambition moi j'serai pas en vie J'saurai pas trop quoi te dire à part que les choses empirent et que trop de personnes en pleur Mec c'est de pire en pire quand y'a trop de mères en pleur ... die du soir au matin ... Putain demain jespère rester le même ... Demain jcontinuerai même si c'est nul à chier Je saurai pas trop quoi te dire si ce nest que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et jme motive J'avance mais toujours aussi loin de l'autre île Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île You might also like Mec on avance quoi que les gens disent ... T'as intérêt de mettre le onss ... Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île Un jour, ouai mais lequel ? J'ai trop attendu, j'suis trop tendu et j'ai trop d'sequelles Rester tel quel? Tandis que d'autre trou d'balle se la font belle avec des sons debiles et emballent des contrats nickel Tu reves et si tu entraves ma route tu creves C'est à la pointe de ma haine que mes paroles s'écrivent Ma rime nocive est à la noce Donc ne te fie pas a ma figure de gosse Ma rancune est féroce et chacune des pistes que j'enpeste au avant poste Me pousse a la riposte Tu veux le nom de mes assoc' Y'a chério et les chacals , la bonnes écoles qui fait son son avec des bricoles Pour que ce jour J soit le notre Pour que le pe-ra arrete un peu de faire semblant d'pas nous connaitre Un jour peut etre Nous n'serons plus les pitres qui tiennent les poutres et que tous l'monde aille se faire foutre Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île Que mes zins partent en vrille, que t'aurais pas envie de changer d'air Mais pas de mode de vie, mec sans ambition moi j'serai pas en vie J'saurai pas trop quoi te dire à part que les choses empirent et que trop de personnes en pleur Mec c'est de pire en pire quand y'a trop de mères en pleur Que mes zins partent en vrille, que t'aurais pas envie de changer d'air Mais pas de mode de vie, mec sans ambition moi j'serai pas en vie J'saurai pas trop quoi te dire à part que les choses empirent et que trop de personnes en pleur Mec c'est de pire en pire quand y'a trop de mères en pleur5</t>
+          <t>Que mes zins partent en vrille, que t'aurais pas envie de changer dair Mais pas de mode de vie, mec sans ambition moi j'serai pas en vie J'saurai pas trop quoi te dire à part que les choses empirent et que trop de personnes en pleur Mec cest de pire en pire quand y'a trop de mères en pleur Que mes zins partent en vrille, que t'aurais pas envie de changer d'air Mais pas de mode de vie, mec sans ambition moi j'serai pas en vie J'saurai pas trop quoi te dire à part que les choses empirent et que trop de personnes en pleur Mec c'est de pire en pire quand y'a trop de mères en pleur ... die du soir au matin ... Putain demain jespère rester le même ... Demain jcontinuerai même si c'est nul à chier Je saurai pas trop quoi te dire si ce nest que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et jme motive J'avance mais toujours aussi loin de l'autre île Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île Mec on avance quoi que les gens disent ... T'as intérêt de mettre le onss ... Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île Un jour, ouai mais lequel ? J'ai trop attendu, j'suis trop tendu et j'ai trop d'sequelles Rester tel quel? Tandis que d'autre trou d'balle se la font belle avec des sons debiles et emballent des contrats nickel Tu reves et si tu entraves ma route tu creves C'est à la pointe de ma haine que mes paroles s'écrivent Ma rime nocive est à la noce Donc ne te fie pas a ma figure de gosse Ma rancune est féroce et chacune des pistes que j'enpeste au avant poste Me pousse a la riposte Tu veux le nom de mes assoc' Y'a chério et les chacals , la bonnes écoles qui fait son son avec des bricoles Pour que ce jour J soit le notre Pour que le pe-ra arrete un peu de faire semblant d'pas nous connaitre Un jour peut etre Nous n'serons plus les pitres qui tiennent les poutres et que tous l'monde aille se faire foutre Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île Je saurai pas trop quoi te dire si ce n'est que tout part en couille Que trop de personnes n'ont rien à dire et sur leurs feuilles bafouillent Putain, j'avance quoi que les gens disent, j'avance et j'me motive J'avance mais toujours aussi loin de l'autre île Que mes zins partent en vrille, que t'aurais pas envie de changer d'air Mais pas de mode de vie, mec sans ambition moi j'serai pas en vie J'saurai pas trop quoi te dire à part que les choses empirent et que trop de personnes en pleur Mec c'est de pire en pire quand y'a trop de mères en pleur Que mes zins partent en vrille, que t'aurais pas envie de changer d'air Mais pas de mode de vie, mec sans ambition moi j'serai pas en vie J'saurai pas trop quoi te dire à part que les choses empirent et que trop de personnes en pleur Mec c'est de pire en pire quand y'a trop de mères en pleur5</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères J'repense aux frères J'repense aux frères J'me remémore les bons souv'nirs Les meilleurs s'en vont toujours les premiers Laissant les proches avec des larmes et des regrets Les souv'nirs et les plaies que l'alcool ne guérit pas Avec toujours ces mêmes mots Ce sort il ne méritait pas J'ai vu des potes perdrent leurs parents Le visage me peine, un bouquet de chrysanthèmes Une tombe sur laquelle est écrit on t'aime J'ai vu ce frère s'éteindre brusquement En l'espace d'un été, que son âme repose en paix Puis, j'ai vu ces frères repartirent au bled dans des cercueils Et leur famille portant toute leur vie l'deuil J'ai vu ces bébés qu'ont jamais pu répleu Qui ont laissé le soin a leur mère de l'faire pour eux Moi, j'lis dans les yeux d'ma fic J'suis pas éternel C'est le cycle de la vie Elle nie, je meurs J'ai vu ce frère atteint d'une tumeur Et pour toutes les fois où j'ai pas pu l'faire Le vide pleure You might also like Moi, j'repense aux frères J'repense aux frères J'repense aux frères J'repense aux frères Partis trop tôt J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs J'dédis c'morceau a tous ceux qui ont pas fini d'souffrir Et a tous ceux qui ont vu les portes de la douleur s'ouvrirent Si personne a les clés et qui brandit l'épée Périt par l'épée sans même finir l'été J'ai vu les frères prendrent de longues peines C'est ça La pauvreté entraine notre haine plus haut qu'notre peine J'repense a mon ami parti au bled Depuis sans nouvelles, laissant mon coeur souffrant sans remède Et moi j'profite de la vie avant de mourir D'la santé avant d'être souffrant Avant d'être beau, j'profite de l'argent C'est ça Dis moi si j'ai tort J'repense à mes frères forts Quand c'est le bon moment, j'me remémore Aujourd'hui tu danses dans une grande boite Demain on t'enferme dans une p'tite C'est la vie et personne n'y échappe J'repense à ce frère mauvais Qu'a changé le cours de sa vie Pour devenir quelqu'un de mieux Quelqu'un d'sérieux J'repense aux frères J'repense aux frères Partis trop tôt J'me remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs La mémoire courte remplie d'grands moments J'repense aux frères aux soeurs Le coeur gros portant le poids du malheur J'repense aux familles des victimes A ceux qui triment Loin de la vie qui voulaient avoir J'repense aux frères qui trainent J'repense à nos parents courageux Une valise sur le dos Qui dans l'Afrique croyant découvrir l'nouvel Eldorado La miséré traverse les frontières La Méditerranée, l'Détroit d'Gibralatar J'pense à toi qui sait pas où dormir ce soir J'repense aux frères partis trop tôt Devant cette vieille photo Encore la faute a coup d'couteaux Y a-t'il une vie après la mort? J'en suis sûr Ce s'ra la même issu d'banlieue ou d'la côte d'Azur Moi j'repense aux frères J'repense aux frères J'repense aux frères J'repense aux frères Partis trop tôt J'repense aux frères Jme remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères Partis trop tôt J'me remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères J'repense aux frères J'repense aux frères J'repense aux frères J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères J'repense aux frères J'repense aux frères Partis trop tôt J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs</t>
+          <t>J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères J'repense aux frères J'repense aux frères J'me remémore les bons souv'nirs Les meilleurs s'en vont toujours les premiers Laissant les proches avec des larmes et des regrets Les souv'nirs et les plaies que l'alcool ne guérit pas Avec toujours ces mêmes mots Ce sort il ne méritait pas J'ai vu des potes perdrent leurs parents Le visage me peine, un bouquet de chrysanthèmes Une tombe sur laquelle est écrit on t'aime J'ai vu ce frère s'éteindre brusquement En l'espace d'un été, que son âme repose en paix Puis, j'ai vu ces frères repartirent au bled dans des cercueils Et leur famille portant toute leur vie l'deuil J'ai vu ces bébés qu'ont jamais pu répleu Qui ont laissé le soin a leur mère de l'faire pour eux Moi, j'lis dans les yeux d'ma fic J'suis pas éternel C'est le cycle de la vie Elle nie, je meurs J'ai vu ce frère atteint d'une tumeur Et pour toutes les fois où j'ai pas pu l'faire Le vide pleure Moi, j'repense aux frères J'repense aux frères J'repense aux frères J'repense aux frères Partis trop tôt J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs J'dédis c'morceau a tous ceux qui ont pas fini d'souffrir Et a tous ceux qui ont vu les portes de la douleur s'ouvrirent Si personne a les clés et qui brandit l'épée Périt par l'épée sans même finir l'été J'ai vu les frères prendrent de longues peines C'est ça La pauvreté entraine notre haine plus haut qu'notre peine J'repense a mon ami parti au bled Depuis sans nouvelles, laissant mon coeur souffrant sans remède Et moi j'profite de la vie avant de mourir D'la santé avant d'être souffrant Avant d'être beau, j'profite de l'argent C'est ça Dis moi si j'ai tort J'repense à mes frères forts Quand c'est le bon moment, j'me remémore Aujourd'hui tu danses dans une grande boite Demain on t'enferme dans une p'tite C'est la vie et personne n'y échappe J'repense à ce frère mauvais Qu'a changé le cours de sa vie Pour devenir quelqu'un de mieux Quelqu'un d'sérieux J'repense aux frères J'repense aux frères Partis trop tôt J'me remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs La mémoire courte remplie d'grands moments J'repense aux frères aux soeurs Le coeur gros portant le poids du malheur J'repense aux familles des victimes A ceux qui triment Loin de la vie qui voulaient avoir J'repense aux frères qui trainent J'repense à nos parents courageux Une valise sur le dos Qui dans l'Afrique croyant découvrir l'nouvel Eldorado La miséré traverse les frontières La Méditerranée, l'Détroit d'Gibralatar J'pense à toi qui sait pas où dormir ce soir J'repense aux frères partis trop tôt Devant cette vieille photo Encore la faute a coup d'couteaux Y a-t'il une vie après la mort? J'en suis sûr Ce s'ra la même issu d'banlieue ou d'la côte d'Azur Moi j'repense aux frères J'repense aux frères J'repense aux frères J'repense aux frères Partis trop tôt J'repense aux frères Jme remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères Partis trop tôt J'me remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères J'repense aux frères J'repense aux frères J'repense aux frères J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères J'repense aux frères J'repense aux frères Partis trop tôt J'repense aux frères J'me remémore les bons souv'nirs J'repense aux frères Sur une photo J'repense aux frères Que du sourire J'repense aux frères J'me remémore les bons souv'nirs</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Yeah C'est bon, ça Joue moi un truc, Fred Yeah Yeah, la petite souris s'est blessée J'ai mis un gun et pas une dent sous mon putain d'oreiller J'ai balancé ma vie en l'air et j'ai visé la Lune J'ai cramé les faits divers mais j'ai jamais fait la une Yeah, la misère rôde dans les parages Les petits veulent être nous et les petits n'ont pas l'âge J'levais mon majeur, j'rêvais du Barça, du Manchester, moi qui n'était même pas majeur Yeah, même mes souvenirs me trahissent Au square, on a grand coeur, on a très peu de khaliss J'ai fait les 400 coups, j'ai fait les milles pas J'pourrais sortir du ghetto mais pas sortir le ghetto qu'il y a en moi, let's go Yeah, J'pourrais sortir du ghetto mais pas sortir le ghetto qu'il y a en moi Yeah Descendre au boude et risquer sa vie bêtement, tu sais Bicrave la cess, sortir le brolic, man, je sais où ça ramène Je sais où ça ramène Moi, je sais où ça ramène Oh moi je sais où ça ramène Je sais où ça ramène You might also like Yeah, yeah, yeah Autant d'amis que d'ennemis, ça fait un moment que ça dure Mon gun est tombé parterre car les jaloux marquent à la ceinture Écoute, bien les vrais messages venus des vraies caves Les vrais savent ont sorti le brolic et ont commis des fautes graves Fuck l'État et sa politique chelou J'préfère vivre et peser debout que de mourir à genoux La France s'est bien servie en Afrique où elle a pillé sans dire merci L'État remplie les prisons, NTM remplit les Bercy Yeeah J'suis pas Snoop, j'ai grandi à Trappes, dans la merde J'suis grand et maigre car le frigo était grand et vide, merde Les keufs cassaient les couilles à 6 heures, faisaient dring, dring Hamdoulah, j'ai remplacé mes menottes par des blings-blings J'peux juger personne, j'suis blanc comme crack Pour ça que les keufs me traquent, j'suis aussi hallal qu'un Big Mac J'ai fait les 400 coups, j'ai fait les mille pas J'pourrais sortir du ghetto mais pas sortir le ghetto qu'il y a en moi, let's go Descendre au boude et risquer sa vie bêtement, tu sais Bicrave la cess, sortir le brolic, man, je sais où ça ramène Je sais où ça ramène Moi, je sais où ça ramène Oh moi je sais où ça ramène Je sais où ça ramène Yeah, sortir le brolic au quartier Tourner, bicrave la c-c Négliger, les conseils des rents-pa déboussollés, yeah Je sais où ça ramène ' , ,</t>
+          <t>Yeah C'est bon, ça Joue moi un truc, Fred Yeah Yeah, la petite souris s'est blessée J'ai mis un gun et pas une dent sous mon putain d'oreiller J'ai balancé ma vie en l'air et j'ai visé la Lune J'ai cramé les faits divers mais j'ai jamais fait la une Yeah, la misère rôde dans les parages Les petits veulent être nous et les petits n'ont pas l'âge J'levais mon majeur, j'rêvais du Barça, du Manchester, moi qui n'était même pas majeur Yeah, même mes souvenirs me trahissent Au square, on a grand coeur, on a très peu de khaliss J'ai fait les 400 coups, j'ai fait les milles pas J'pourrais sortir du ghetto mais pas sortir le ghetto qu'il y a en moi, let's go Yeah, J'pourrais sortir du ghetto mais pas sortir le ghetto qu'il y a en moi Yeah Descendre au boude et risquer sa vie bêtement, tu sais Bicrave la cess, sortir le brolic, man, je sais où ça ramène Je sais où ça ramène Moi, je sais où ça ramène Oh moi je sais où ça ramène Je sais où ça ramène Yeah, yeah, yeah Autant d'amis que d'ennemis, ça fait un moment que ça dure Mon gun est tombé parterre car les jaloux marquent à la ceinture Écoute, bien les vrais messages venus des vraies caves Les vrais savent ont sorti le brolic et ont commis des fautes graves Fuck l'État et sa politique chelou J'préfère vivre et peser debout que de mourir à genoux La France s'est bien servie en Afrique où elle a pillé sans dire merci L'État remplie les prisons, NTM remplit les Bercy Yeeah J'suis pas Snoop, j'ai grandi à Trappes, dans la merde J'suis grand et maigre car le frigo était grand et vide, merde Les keufs cassaient les couilles à 6 heures, faisaient dring, dring Hamdoulah, j'ai remplacé mes menottes par des blings-blings J'peux juger personne, j'suis blanc comme crack Pour ça que les keufs me traquent, j'suis aussi hallal qu'un Big Mac J'ai fait les 400 coups, j'ai fait les mille pas J'pourrais sortir du ghetto mais pas sortir le ghetto qu'il y a en moi, let's go Descendre au boude et risquer sa vie bêtement, tu sais Bicrave la cess, sortir le brolic, man, je sais où ça ramène Je sais où ça ramène Moi, je sais où ça ramène Oh moi je sais où ça ramène Je sais où ça ramène Yeah, sortir le brolic au quartier Tourner, bicrave la c-c Négliger, les conseils des rents-pa déboussollés, yeah Je sais où ça ramène ' , ,</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Et même si j'voudrais renier ma race J'pourrais pas car j'viens du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du reskoi Ici les frigos sont vides, les prisons sont pleines Suspect comme l'eau de la Seine, j'suis revenu briser mes chaînes Et si j'roule pas dans une grosse Cadillac C'est pas que j'ai peur d'aller en taule, j'ai plutôt peur que ma mère nous fasse une crise cardiaque Y'a pas de bons avocats pour de pauvres immigrés Comme y'a pas d'RMI pour cet illetré à Saint-Germain-des-Prés Ici on vit en défense, on se contente de quelques tacles Mais lÉtat a gagné le championnat, a mis Sarkozy en attaque Et si ce rap de merde s'est politisé J'squatte le hall, pas lÉlysée, pas le Sénat, moi j'étais bon qu'à tiser Un peu trop métissé à leur goût Mais tu sais la vie c'est cru le rap n'est pas mort on l'a juste intubé Famille nombreuse, peu de sous, beaucoup de joies, peu de choix J'me dis quand j'entends boom boom boom j'avais pas le choix C'est bien j'ai su me taire seul dans mon fourgon cellulaire J'me suis trompé d'autoroute le square, ce putain de boulevard circulaire Et même si j'voudrais renier ma race J'pourrais pas car j'viens du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du reskoi Et même si j'voudrais renier ma race J'pourrais pas car j'viens du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du roc-Ma You might also like Mes parents ont débarqué en France en 75 Y'a maintenant de ça 30 ans Je jouais avec les petits en bas Écoute Ici j'ai passé tellement d'étés, j'ai tellement vu des gens s'endetter J'ai tellement vu des gens sans rien se la péter Ici ton passé te rattrape, tu voulais rouler en 4x4 Maintenant tu râles dommage en taule on peut pas cantiner le moral J'aime pas trop parler de taule, demande à ceux qui la vivent Car une pige comparée à dix, c'est comme deux, trois mois de TIG J'ai connu cette fille belle, intelligente Adoptée trop tôt par l'héro' devenue moche, bête et chiante Je chante depuis dix piges, les gens me connaissent, le rap m'écoute, je me confesse Jamais ça cesse, le rap me tient en laisse sta3araf On veut du fric, des femmes mais la misère nous guette Juliette a tej' Roméo, elle veut sortir avec Bill Gates Aujourd'hui je signe des autographes pour faire beau Rien a changé avant je les signais sur des procès verbaux En garde à vue, quatre murs comme public Ma promo dans les faits divers Et même si j'voudrais renier ma race J'pourrais pas car j'viens du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du reskoi Et si un jour tu voulais renier ta race N'oublie pas que tu viens du reskoi Impossible pour lui d'renier sa race Il oublie pas qu'il vient du reskoi Et si un jour elle voudrait renier sa race Faut pas qu'elle oublie qu'elle vient du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du roc-Ma</t>
+          <t>Et même si j'voudrais renier ma race J'pourrais pas car j'viens du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du reskoi Ici les frigos sont vides, les prisons sont pleines Suspect comme l'eau de la Seine, j'suis revenu briser mes chaînes Et si j'roule pas dans une grosse Cadillac C'est pas que j'ai peur d'aller en taule, j'ai plutôt peur que ma mère nous fasse une crise cardiaque Y'a pas de bons avocats pour de pauvres immigrés Comme y'a pas d'RMI pour cet illetré à Saint-Germain-des-Prés Ici on vit en défense, on se contente de quelques tacles Mais lÉtat a gagné le championnat, a mis Sarkozy en attaque Et si ce rap de merde s'est politisé J'squatte le hall, pas lÉlysée, pas le Sénat, moi j'étais bon qu'à tiser Un peu trop métissé à leur goût Mais tu sais la vie c'est cru le rap n'est pas mort on l'a juste intubé Famille nombreuse, peu de sous, beaucoup de joies, peu de choix J'me dis quand j'entends boom boom boom j'avais pas le choix C'est bien j'ai su me taire seul dans mon fourgon cellulaire J'me suis trompé d'autoroute le square, ce putain de boulevard circulaire Et même si j'voudrais renier ma race J'pourrais pas car j'viens du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du reskoi Et même si j'voudrais renier ma race J'pourrais pas car j'viens du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du roc-Ma Mes parents ont débarqué en France en 75 Y'a maintenant de ça 30 ans Je jouais avec les petits en bas Écoute Ici j'ai passé tellement d'étés, j'ai tellement vu des gens s'endetter J'ai tellement vu des gens sans rien se la péter Ici ton passé te rattrape, tu voulais rouler en 4x4 Maintenant tu râles dommage en taule on peut pas cantiner le moral J'aime pas trop parler de taule, demande à ceux qui la vivent Car une pige comparée à dix, c'est comme deux, trois mois de TIG J'ai connu cette fille belle, intelligente Adoptée trop tôt par l'héro' devenue moche, bête et chiante Je chante depuis dix piges, les gens me connaissent, le rap m'écoute, je me confesse Jamais ça cesse, le rap me tient en laisse sta3araf On veut du fric, des femmes mais la misère nous guette Juliette a tej' Roméo, elle veut sortir avec Bill Gates Aujourd'hui je signe des autographes pour faire beau Rien a changé avant je les signais sur des procès verbaux En garde à vue, quatre murs comme public Ma promo dans les faits divers Et même si j'voudrais renier ma race J'pourrais pas car j'viens du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du reskoi Et si un jour tu voulais renier ta race N'oublie pas que tu viens du reskoi Impossible pour lui d'renier sa race Il oublie pas qu'il vient du reskoi Et si un jour elle voudrait renier sa race Faut pas qu'elle oublie qu'elle vient du reskoi Impossible pour moi d'renier ma race J'oublie pas que j'viens du roc-Ma</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>On poucave pas, on tombe à deux Gilet pare-balle quand il pleut Nous, on agit, on parle peu Toi et moi, et mon joint d'beuh Peuh, peuh, peuh, peuh, toi et moi, mon joint d'beuh Ce jaloux fait c'qu'il peut si y'a les hnoucha, ça sauve qui peut Nigga, yo, depuis petit, fais l'oseille, c'est l'argent sale qui nous paye J'en ai perdu le sommeil, je l'ai cherché dans la 'teille J'ai envie d'la ken, elle fait des tminiks Elle veut communiquer, moi, j'rêve juste de la niquer J'fume d'la hollandaise, j'conduis une anglaise Entre parenthèses, j'foder une Portugaise CR7, huit, j'vais trop vite, man, pas les schmitts On vient de loin, fait dans l'illicite pour percer, t'as sucé des bites Diamants aux poignets, gros, t'es aveuglé Appelle la SACEM, j'ai fini mon couplet On poucave pas, on tombe à deux Gilet pare-balle quand il pleut Nous, on agit, on parle peu Toi et moi, et mon joint d'beuh You might also like Peuh, peuh, peuh, peuh, j'fais du bif' et pas qu'un peu Dis aux bords qu'j'suis pas radin, qu'j'la kenerai pas aux Balladins Khoya, l'monde est à nous, mais le Porsche est à moi Et j'ai bicrave la com', et j'ai arrêté l'école Les meufs, c'est comme les feuilles quand tu les lèches, elles collent T'es dans mon collimateur, j'crois que le Rebeu a peur J'aime les films X, j'parle pas de Mulder J'crois qu't'as sniffé tout l'bénéf' J'crois qu't'as quelque chose sur les lèvres, j'crois qu't'as trop léché des fesses Des bords et des bords, encore plus de bords Ta meuf n'est pas au sport, elle est dans mon Range Rover Sport Les avis, c'est comme les Glocks tout l'monde en a un Quand t'entends plus l'Adhan, Sheitan tend la main On poucave pas, on tombe à deux Gilet pare-balle quand il pleut Nous, on agit, on parle peu Toi et moi, et mon joint d'beuh On poucave pas, on tombe à deux Gilet pare-balle quand il pleut Nous, on agit, on parle peu Toi et moi, et mon joint d'beuh</t>
+          <t>On poucave pas, on tombe à deux Gilet pare-balle quand il pleut Nous, on agit, on parle peu Toi et moi, et mon joint d'beuh Peuh, peuh, peuh, peuh, toi et moi, mon joint d'beuh Ce jaloux fait c'qu'il peut si y'a les hnoucha, ça sauve qui peut Nigga, yo, depuis petit, fais l'oseille, c'est l'argent sale qui nous paye J'en ai perdu le sommeil, je l'ai cherché dans la 'teille J'ai envie d'la ken, elle fait des tminiks Elle veut communiquer, moi, j'rêve juste de la niquer J'fume d'la hollandaise, j'conduis une anglaise Entre parenthèses, j'foder une Portugaise CR7, huit, j'vais trop vite, man, pas les schmitts On vient de loin, fait dans l'illicite pour percer, t'as sucé des bites Diamants aux poignets, gros, t'es aveuglé Appelle la SACEM, j'ai fini mon couplet On poucave pas, on tombe à deux Gilet pare-balle quand il pleut Nous, on agit, on parle peu Toi et moi, et mon joint d'beuh Peuh, peuh, peuh, peuh, j'fais du bif' et pas qu'un peu Dis aux bords qu'j'suis pas radin, qu'j'la kenerai pas aux Balladins Khoya, l'monde est à nous, mais le Porsche est à moi Et j'ai bicrave la com', et j'ai arrêté l'école Les meufs, c'est comme les feuilles quand tu les lèches, elles collent T'es dans mon collimateur, j'crois que le Rebeu a peur J'aime les films X, j'parle pas de Mulder J'crois qu't'as sniffé tout l'bénéf' J'crois qu't'as quelque chose sur les lèvres, j'crois qu't'as trop léché des fesses Des bords et des bords, encore plus de bords Ta meuf n'est pas au sport, elle est dans mon Range Rover Sport Les avis, c'est comme les Glocks tout l'monde en a un Quand t'entends plus l'Adhan, Sheitan tend la main On poucave pas, on tombe à deux Gilet pare-balle quand il pleut Nous, on agit, on parle peu Toi et moi, et mon joint d'beuh On poucave pas, on tombe à deux Gilet pare-balle quand il pleut Nous, on agit, on parle peu Toi et moi, et mon joint d'beuh</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>West ! C'est ça Wooh ! La Fouine Yeah, Aklips C'est ça Yeah Yeah Quand je débarque avec toute l'équipe, quand je débarque clasher sans muselière et que j'ai la dalle comme 3 pits Quand je débarque avec mes groupies love, un de mes groupes innovent, Eklips, La Fouine, nouvel épisode Quand je débarque avec des dingues filles, quand je débarque avec des balles, quand je débarque avec Ashanti Quand j'arrive avec du Sean Paul, difficile d'imiter, le flow est bon même sur de la jungle Tu veux des baffes, pose ton gun, ready to rumble, j'prends le numéro de toutes les bombes, de toutes les crumble Scandale, j'rentre dans ta boîte en sandale, on s'en bat les couilles quand la situation s'emballe 78 écrit en gros sur mon pélé-pélé, ferme donc ta gueule, joue pas au con, petit pédé pédé Tu joues au chaud, mais tu t'es pris des baffes, tu cries Venez m'aider !, des gros bleus sur ta gueule, tu t'es fait mêler mêler Chacune de mes rimes claque, esprit de cogneuse, chacune de mes rimes braque, esprit de cogneuse Maintenant tu sais c'est qui le mac, esprit de donneuse, maintenant si t'es brumeuse, man on kiffe trop les randonneuses L.A.F.O.I.N.E., acclamé par toutes les foules, par tous les shtars, par tous les gangsters Retourne pas ma veste, va te faire mettre, va donc faire tourner ton petit cul chez tous les traîtres Mon rap une lourde peine man, j'ai fait appel, ton flow pue, jette tous tes textes à la poubelle Ton rap, c'est de la comédie, ça tout le monde le dit, ça tout le monde le crie sur tous les toits, voilà la nouvelle J'ai décidé de lessiver le milieu, putain ton grain de sel dans le sable, La Fouine est le Bon style khel, les fils de pute crèvent, les rien ne sert de courir man, j'préfère un bolide You might also like You can't fuck with us, do it like a hustler, gotta keep it gangsta, can't no one collide with us Non, joue pas les gangstas, tu pourrais nous teste, tu pourrais te prendre des baffes Do it like a hustler, gotta keep it gangsta, can't no one collide with us Non, joue pas les gangstas, tu pourrais nous teste, tu pourrais te prendre des baffes A.K.L.I.P.S. A.K.A. la bonne lyriciste qui résiste, sport d'adresse Pose un shot à les rendre dingue, pas besoin de jouer les vendus, dès qu'j'ai vu, j'm'évade Man, roule on part en vadrouille, laisse faire qu'on t'enseigne, assume ta femme en sous val graille Si t'as saisi, tu nous fous au top, ta femme dit stop, on va et vient et revient du stop T'es dans le rouge mystère quand La Fouine entre en piste, un round dans vos disques Pour Cosno, Binks et Vice, le lexical équat' de gomme, évertuait efface mes vices De temps à oi-m, faut le feeling du pas pour être roi du ring, compter sur chaque pote avant de péter le score J'te guette, mets les mains en l'air, mate l'allure, on est à l'heure, autant vous le dire, on est venu bâtir un empire ... Tu peux pas nous test, tu peux pas nous test Tu peux pas nous test, tu peux pas nous test Tu peux pas nous test, tu peux pas nous test Tu peux pas nous test, tu peux pas nous test Tu peux pas nous test, tu peux pas nous test You can't fuck with us, do it like a hustler, gotta keep it gangsta, can't no one collide with us Non, joue pas les gangstas, tu pourrais nous teste, tu pourrais te prendre des baffes Do it like a hustler, gotta keep it gangsta, can't no one collide with us Non, joue pas les gangstas, tu pourrais nous teste, tu pourrais te prendre des baffes</t>
+          <t>West ! C'est ça Wooh ! La Fouine Yeah, Aklips C'est ça Yeah Yeah Quand je débarque avec toute l'équipe, quand je débarque clasher sans muselière et que j'ai la dalle comme 3 pits Quand je débarque avec mes groupies love, un de mes groupes innovent, Eklips, La Fouine, nouvel épisode Quand je débarque avec des dingues filles, quand je débarque avec des balles, quand je débarque avec Ashanti Quand j'arrive avec du Sean Paul, difficile d'imiter, le flow est bon même sur de la jungle Tu veux des baffes, pose ton gun, ready to rumble, j'prends le numéro de toutes les bombes, de toutes les crumble Scandale, j'rentre dans ta boîte en sandale, on s'en bat les couilles quand la situation s'emballe 78 écrit en gros sur mon pélé-pélé, ferme donc ta gueule, joue pas au con, petit pédé pédé Tu joues au chaud, mais tu t'es pris des baffes, tu cries Venez m'aider !, des gros bleus sur ta gueule, tu t'es fait mêler mêler Chacune de mes rimes claque, esprit de cogneuse, chacune de mes rimes braque, esprit de cogneuse Maintenant tu sais c'est qui le mac, esprit de donneuse, maintenant si t'es brumeuse, man on kiffe trop les randonneuses L.A.F.O.I.N.E., acclamé par toutes les foules, par tous les shtars, par tous les gangsters Retourne pas ma veste, va te faire mettre, va donc faire tourner ton petit cul chez tous les traîtres Mon rap une lourde peine man, j'ai fait appel, ton flow pue, jette tous tes textes à la poubelle Ton rap, c'est de la comédie, ça tout le monde le dit, ça tout le monde le crie sur tous les toits, voilà la nouvelle J'ai décidé de lessiver le milieu, putain ton grain de sel dans le sable, La Fouine est le Bon style khel, les fils de pute crèvent, les rien ne sert de courir man, j'préfère un bolide You can't fuck with us, do it like a hustler, gotta keep it gangsta, can't no one collide with us Non, joue pas les gangstas, tu pourrais nous teste, tu pourrais te prendre des baffes Do it like a hustler, gotta keep it gangsta, can't no one collide with us Non, joue pas les gangstas, tu pourrais nous teste, tu pourrais te prendre des baffes A.K.L.I.P.S. A.K.A. la bonne lyriciste qui résiste, sport d'adresse Pose un shot à les rendre dingue, pas besoin de jouer les vendus, dès qu'j'ai vu, j'm'évade Man, roule on part en vadrouille, laisse faire qu'on t'enseigne, assume ta femme en sous val graille Si t'as saisi, tu nous fous au top, ta femme dit stop, on va et vient et revient du stop T'es dans le rouge mystère quand La Fouine entre en piste, un round dans vos disques Pour Cosno, Binks et Vice, le lexical équat' de gomme, évertuait efface mes vices De temps à oi-m, faut le feeling du pas pour être roi du ring, compter sur chaque pote avant de péter le score J'te guette, mets les mains en l'air, mate l'allure, on est à l'heure, autant vous le dire, on est venu bâtir un empire ... Tu peux pas nous test, tu peux pas nous test Tu peux pas nous test, tu peux pas nous test Tu peux pas nous test, tu peux pas nous test Tu peux pas nous test, tu peux pas nous test Tu peux pas nous test, tu peux pas nous test You can't fuck with us, do it like a hustler, gotta keep it gangsta, can't no one collide with us Non, joue pas les gangstas, tu pourrais nous teste, tu pourrais te prendre des baffes Do it like a hustler, gotta keep it gangsta, can't no one collide with us Non, joue pas les gangstas, tu pourrais nous teste, tu pourrais te prendre des baffes</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>J'rappe pour le fric mais attention pour en faire Suffit de plus d'une meuf sur le refrain et d'un instru qui pue la merde Faut s'prendre la tête, s'donner à fond sur les mixtapes Squatter les radios spé, toaster et taffer à côté J'rappe pour le fric, mais attention pour en faire Faut gratter les compilations, s'faire un nom, passer du sol au plafond Donc j'te laisse rapper par amour Quand la haine reste le thème principal de tous les rappeurs d'la capitale Rappe pour tout c'que tu veux, moi j'rappe pour le fric Faut qu'j'sois numéro 1 sinon j'vais retouner vendre du shit J'peux pas prostituer ma zik, elle est depuis l'début Une pute qui donne du plaisir qui tourne dans les véhicules J'vis pour le rap man, le rap c'est ma vie Pour améliorer celle-ci, faut sans cesse que j'me tue à l'écrit J'rap pour le fric, pour ma carte bleue Le reste m'importe peu, maintenant dis c'que tu veux J'rappe pour le fun mec, j'rappe pour les reufs J'rappe par plaisir man, j'rappe pour la seuf J'rappe par passion, tu connais l'générique Le rap c'est tout pour moi mais j'rappe pour le fric J'rappe pour la gloire, j'rappe pour le succès J'rappe pour la reconnaissance, j'rappe pour percer J'rappe par amour, j'te laisse imaginer la suite Même si le rap c'est tout, avant tout, j'rappe pour le fric You might also like J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric J'rappe par amour, par amour du fric Alors pour en gagner merde, j'suis obligé d'faire de bons disques J'suis forcé d'm'appliquer dans tout c'que j'fais tu vois Du choix des instrus, man aux choix des rimes aux prise de voix J'me souviens quand j'rappais par passion, par plaisir J'faisais ça vite fait, j'm'en foutais, c'était pour l'délire Maintenant que j'rap pour l'argent, tout est différent Faut qu'j'écrive de belles paroles et puis que j'me démarque des gens Le rap à l'eau ça marche plus merde, j'vais devoir faire du bon son Les radios sont pas stupides, elles veulent du lourd au fond J'rappe pour le fric et puis tu veux qu'j'te dise J'ai jamais autant bien rappé donc arrêtez toutes vos bêtises Arrête l'hypocrisie, tu rappes pour sauver la terre man Moi j'le crie bien haut, j'rappe pour sauver mon compte épargne OK, j'rappe pour le fric J'ai rien à cacher, comme tout le monde moi, j'rappe pour le fric J'rappe pour le fun mec, j'rappe pour les reufs J'rappe par plaisir man, j'rappe pour la seuf J'rappe par passion, tu connais l'générique Le rap c'est tout pour moi mais j'rappe pour le fric J'rappe pour la gloire, j'rappe pour le succès J'rappe pour la reconnaissance, j'rappe pour percer J'rappe par amour, j'te laisse imaginer la suite Même si le rap c'est tout, avant tout, j'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric Nan j'rappe pas la misère, j'rap pour en sortir Ok, c'est vrai, j'rap pour les grosses tires Ok, j'l'admets, j'rap pour investir Pas pour le plaisir, pour ma villa à Casa ou Monastir J'rappe pour les billets comme tout le rap français J'viens d'Trappes et j'vais piller tout ton rap français J'rap pour les 8 zéros après la virgule Faut qu'j'sois numéro 1 sinon j'vais r'tourner mettre la cagoule J'rappe pour la fraîche, garde la pêche Si tu crois qu'j'vais taper des grecs toute ma vie chez Cardech Ok, c'est vrai, j'rappe pour le fric man J'ai rien à cacher, comme tout le monde, j'aime les gros cachets J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe, j'rappe pour le fric J'rappe pour le fun mec, j'rappe pour les reufs J'rappe par plaisir man, j'rappe pour la seuf J'rappe par passion, tu connais l'générique Le rap c'est tout pour moi mais j'rappe pour le fric J'rappe pour la gloire, j'rappe pour le succès J'rappe pour la reconnaissance, j'rappe pour percer J'rappe par amour, j'te laisse imaginer la suite Même si le rap c'est tout, avant tout, j'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric</t>
+          <t>J'rappe pour le fric mais attention pour en faire Suffit de plus d'une meuf sur le refrain et d'un instru qui pue la merde Faut s'prendre la tête, s'donner à fond sur les mixtapes Squatter les radios spé, toaster et taffer à côté J'rappe pour le fric, mais attention pour en faire Faut gratter les compilations, s'faire un nom, passer du sol au plafond Donc j'te laisse rapper par amour Quand la haine reste le thème principal de tous les rappeurs d'la capitale Rappe pour tout c'que tu veux, moi j'rappe pour le fric Faut qu'j'sois numéro 1 sinon j'vais retouner vendre du shit J'peux pas prostituer ma zik, elle est depuis l'début Une pute qui donne du plaisir qui tourne dans les véhicules J'vis pour le rap man, le rap c'est ma vie Pour améliorer celle-ci, faut sans cesse que j'me tue à l'écrit J'rap pour le fric, pour ma carte bleue Le reste m'importe peu, maintenant dis c'que tu veux J'rappe pour le fun mec, j'rappe pour les reufs J'rappe par plaisir man, j'rappe pour la seuf J'rappe par passion, tu connais l'générique Le rap c'est tout pour moi mais j'rappe pour le fric J'rappe pour la gloire, j'rappe pour le succès J'rappe pour la reconnaissance, j'rappe pour percer J'rappe par amour, j'te laisse imaginer la suite Même si le rap c'est tout, avant tout, j'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric J'rappe par amour, par amour du fric Alors pour en gagner merde, j'suis obligé d'faire de bons disques J'suis forcé d'm'appliquer dans tout c'que j'fais tu vois Du choix des instrus, man aux choix des rimes aux prise de voix J'me souviens quand j'rappais par passion, par plaisir J'faisais ça vite fait, j'm'en foutais, c'était pour l'délire Maintenant que j'rap pour l'argent, tout est différent Faut qu'j'écrive de belles paroles et puis que j'me démarque des gens Le rap à l'eau ça marche plus merde, j'vais devoir faire du bon son Les radios sont pas stupides, elles veulent du lourd au fond J'rappe pour le fric et puis tu veux qu'j'te dise J'ai jamais autant bien rappé donc arrêtez toutes vos bêtises Arrête l'hypocrisie, tu rappes pour sauver la terre man Moi j'le crie bien haut, j'rappe pour sauver mon compte épargne OK, j'rappe pour le fric J'ai rien à cacher, comme tout le monde moi, j'rappe pour le fric J'rappe pour le fun mec, j'rappe pour les reufs J'rappe par plaisir man, j'rappe pour la seuf J'rappe par passion, tu connais l'générique Le rap c'est tout pour moi mais j'rappe pour le fric J'rappe pour la gloire, j'rappe pour le succès J'rappe pour la reconnaissance, j'rappe pour percer J'rappe par amour, j'te laisse imaginer la suite Même si le rap c'est tout, avant tout, j'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric Nan j'rappe pas la misère, j'rap pour en sortir Ok, c'est vrai, j'rap pour les grosses tires Ok, j'l'admets, j'rap pour investir Pas pour le plaisir, pour ma villa à Casa ou Monastir J'rappe pour les billets comme tout le rap français J'viens d'Trappes et j'vais piller tout ton rap français J'rap pour les 8 zéros après la virgule Faut qu'j'sois numéro 1 sinon j'vais r'tourner mettre la cagoule J'rappe pour la fraîche, garde la pêche Si tu crois qu'j'vais taper des grecs toute ma vie chez Cardech Ok, c'est vrai, j'rappe pour le fric man J'ai rien à cacher, comme tout le monde, j'aime les gros cachets J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe pour le fric J'rappe, j'rappe pour le fric J'rappe pour le fun mec, j'rappe pour les reufs J'rappe par plaisir man, j'rappe pour la seuf J'rappe par passion, tu connais l'générique Le rap c'est tout pour moi mais j'rappe pour le fric J'rappe pour la gloire, j'rappe pour le succès J'rappe pour la reconnaissance, j'rappe pour percer J'rappe par amour, j'te laisse imaginer la suite Même si le rap c'est tout, avant tout, j'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric J'rappe pour le fric man J'rappe pour le fric J'attends pas les Assedics man J'rappe pour le fric J'me lève et j'm'applique man J'rappe pour le fric Dis toi qu'si tu m'écoutes c'est parce que J'rappe pour le fric</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>J'voulais cherche ma petite vibe J'me met la gouinche avec mon gang J'éclaire la vie avec mes pleins phares Récolte les galères que je sème Le rêve américain c'est posséder, avoir les poches pleines Avoir du biff et des 'tasses sur la banquette arrière du Cayenne Passer en boucle sur toutes les chaînes Sortir de son quartier, briser les chaînes qui nous retiennent Le rap c'est ma vie, quelle est la tienne ? J'ai tout donné et pas assez reçu, aujourd'hui mature, le rap va cracher, v'là ma facture Sur les chemins de la gloire, j'ai croisé Jalousie Qui m'a crevé un pneu, mais reuf' dans l'coffre, j'en avais un tout neuf Et j'ai continué ma route, comme si de rien n'était Comme les khos au square, en été vivaient de rien Car j'avais décidé de rouler en faisant des slaloms comme un sale môme Ou comme un flic qui décide de faire son argent salement On est grillés, comme des tâches sur un dalmatien Et pour se soigner, on va voir le dealer, et non le pharmacien Le bras à la fenêtre, la main sur le volant J'roule vers un monde meilleur, j'veux pas rester ici, ça pue la sueur J'ai fais des fautes et j'ai la côte quand je nie Quand les portes de la prison s'ouvrent et que ma bouche reste close C'est le 78 sur scène et l'public a sa dose Y'a pas que dans le RER que les bombes explosent J'roule toute la nuit jusqu'à tomber en panne d'essence La vie m'a appris la méfiance à l'égard de la confiance En panne de fuel comme les reufs' en manque de fioles Comme les meufs en manque d'argent se mettent à vendre leur pot d'échappement, j'roule You might also like La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde Comment aider mes frères pauvres si j'suis l'un d'entre eux Si mes pompes sont trouées et que mon ventre sonne creux ? Toujours embouteillé, ouais, comme les frères accrocs à la bouteille Toujours en chien d'la tête aux orteils Y'a qu'le fric qui compte dans leurs yeux Je vois des E barrés avec 2 traits suivi d'un Barre toi sale te-traî ! En écoutant ce son on fera semblant de ne pas être visé Ah bon ? Comme si l'argent nous avait pas divisés On roule tous pour nos gueules, nos intérêts La nuit j'enregistre cet album et le jour j'pointe à l'intérim Et puis j'cherche mes rimes, ce son qu'les vrais écoutent en boucle J'essaie d'joindre les deux bouts, dur de rester debout Gagner des barres ce n'était pas convenu au départ J'ai fais mes crocs dans l'underground dans les coins sombres et trop noirs Sur les chemins d'la vie, des gens m'ont menotté Mais bon, c'est monotone, on te traque pour un 25, on te laisse dehors pour des tonnes Reste sur ta file et paie ta part, mon flow, putain c'est tout c'que j'ai Arrête de te balader dans mon enclos Mon rap s'est vendu sous l'manteau avant datterrir dans tes bacs J'vends pas mes disques avec ma bouche moi Mec, ça n'a pas de sens, j'ai appris la patience avec mon pote pas d'chance Pas de respect pour les balances Pas de respect pour les balances Yeah, j'roule et j'm'écroule quand je réalise que je vis dans une grande prison Et qu'ma planque pourrait être mon numéro d'écrou La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde J'voulais cherche ma petite vibe J'me met la gouinche avec mon gang J'éclaire la vie avec mes pleins phares Récolte les galères que je sème J'voulais cherche ma petite vibe J'me met la gouinche avec mon gang J'éclaire la vie avec mes pleins phares Récolte les galères que je sème Mes erreurs sont tellement loin Pour ma vie, mes lendemains Mon ras-le-bol est tellement plein Que je vais faner, que je vais caner Mes erreurs sont tellement loin Pour ma vie, mes lendemains Elles me suivent à la trace comme un chien Elles veulent me freiner, me rattraper La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde La route est longue J'me met la gouinche avec mon gang J'roule ma voix sur toutes les ondes Shaheen La route est longue J'roule ma voix sur toutes les ondes Récolte les galères que je sème La route est longue, j'roule J'siffle et j'roule Toujours les crans quand je roule Pour mes soces, ouais je roule Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>J'voulais cherche ma petite vibe J'me met la gouinche avec mon gang J'éclaire la vie avec mes pleins phares Récolte les galères que je sème Le rêve américain c'est posséder, avoir les poches pleines Avoir du biff et des 'tasses sur la banquette arrière du Cayenne Passer en boucle sur toutes les chaînes Sortir de son quartier, briser les chaînes qui nous retiennent Le rap c'est ma vie, quelle est la tienne ? J'ai tout donné et pas assez reçu, aujourd'hui mature, le rap va cracher, v'là ma facture Sur les chemins de la gloire, j'ai croisé Jalousie Qui m'a crevé un pneu, mais reuf' dans l'coffre, j'en avais un tout neuf Et j'ai continué ma route, comme si de rien n'était Comme les khos au square, en été vivaient de rien Car j'avais décidé de rouler en faisant des slaloms comme un sale môme Ou comme un flic qui décide de faire son argent salement On est grillés, comme des tâches sur un dalmatien Et pour se soigner, on va voir le dealer, et non le pharmacien Le bras à la fenêtre, la main sur le volant J'roule vers un monde meilleur, j'veux pas rester ici, ça pue la sueur J'ai fais des fautes et j'ai la côte quand je nie Quand les portes de la prison s'ouvrent et que ma bouche reste close C'est le 78 sur scène et l'public a sa dose Y'a pas que dans le RER que les bombes explosent J'roule toute la nuit jusqu'à tomber en panne d'essence La vie m'a appris la méfiance à l'égard de la confiance En panne de fuel comme les reufs' en manque de fioles Comme les meufs en manque d'argent se mettent à vendre leur pot d'échappement, j'roule La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde Comment aider mes frères pauvres si j'suis l'un d'entre eux Si mes pompes sont trouées et que mon ventre sonne creux ? Toujours embouteillé, ouais, comme les frères accrocs à la bouteille Toujours en chien d'la tête aux orteils Y'a qu'le fric qui compte dans leurs yeux Je vois des E barrés avec 2 traits suivi d'un Barre toi sale te-traî ! En écoutant ce son on fera semblant de ne pas être visé Ah bon ? Comme si l'argent nous avait pas divisés On roule tous pour nos gueules, nos intérêts La nuit j'enregistre cet album et le jour j'pointe à l'intérim Et puis j'cherche mes rimes, ce son qu'les vrais écoutent en boucle J'essaie d'joindre les deux bouts, dur de rester debout Gagner des barres ce n'était pas convenu au départ J'ai fais mes crocs dans l'underground dans les coins sombres et trop noirs Sur les chemins d'la vie, des gens m'ont menotté Mais bon, c'est monotone, on te traque pour un 25, on te laisse dehors pour des tonnes Reste sur ta file et paie ta part, mon flow, putain c'est tout c'que j'ai Arrête de te balader dans mon enclos Mon rap s'est vendu sous l'manteau avant datterrir dans tes bacs J'vends pas mes disques avec ma bouche moi Mec, ça n'a pas de sens, j'ai appris la patience avec mon pote pas d'chance Pas de respect pour les balances Pas de respect pour les balances Yeah, j'roule et j'm'écroule quand je réalise que je vis dans une grande prison Et qu'ma planque pourrait être mon numéro d'écrou La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde J'voulais cherche ma petite vibe J'me met la gouinche avec mon gang J'éclaire la vie avec mes pleins phares Récolte les galères que je sème J'voulais cherche ma petite vibe J'me met la gouinche avec mon gang J'éclaire la vie avec mes pleins phares Récolte les galères que je sème Mes erreurs sont tellement loin Pour ma vie, mes lendemains Mon ras-le-bol est tellement plein Que je vais faner, que je vais caner Mes erreurs sont tellement loin Pour ma vie, mes lendemains Elles me suivent à la trace comme un chien Elles veulent me freiner, me rattraper La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde La route est longue Je taffe dur, sors de la pénombre J'roule ma voix sur toutes les ondes Sors du square, vas voir le monde La route est longue J'me met la gouinche avec mon gang J'roule ma voix sur toutes les ondes Shaheen La route est longue J'roule ma voix sur toutes les ondes Récolte les galères que je sème La route est longue, j'roule J'siffle et j'roule Toujours les crans quand je roule Pour mes soces, ouais je roule Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Eh yo Fouiny CCC Toutes ces bitchs veulent de l'oseille, j'ai mis 10 000 pour une teille T'attends le jour de la paye, moi j'ai plus de biff que la veille Si tu sors le Tmax mets l'Akrapovic, je contrôle les bleus comme Abramovitch Enlève ta main on blaire pas les snitch, je vais mourir pauvre ou je vais me barrer riche Non l'alcool c'est pas de l'eau on va te niquer ta mère cherche le papier les lots On va taper des go liasse de vert et de mauve t'auras pas la vie sauve à trainer par ici je te dis t'es pas mon khoooo Tous ces MCs sont fauchés Cherche la lucarne je suis gaucher, si t'es bien bonne je crois que j'vais t'embaucher, refrain Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Kardashians Kardashians Khloé, Khloé Kardashians Karda Kardashians Kimmy, Kimmy Kardashians Karda Kardashians Kourtney, Kourtney Kardashians Karda Kardashians On aurait dû braquer Kimmy prendre la fuite avec nos Yeezy's Traîne avec mes putains de bandits, je t'dis pas de salope ici On aurait dû braquer tout ce qu'il bouge en particulier ces petites salopes d'Hollywood Je suis né dans le 78 khoya c'est le Hood depuis petit on apprend à serrer les coudes J'entends des Vendez les, prenez ces sachets mettez les dans vos poches et puis les petits, vendez-les Et sortez les mes-ar pour un petit terrain, j'entends des ouais, fumez les On fait des tête a tête il font des Twitte à Twitte ces bouffon baffez les Baffez les, baffez-les, c'est le retour CDC CDC Reluque ton cul si tu veux me plaire, roule à 280 sans mis-per Pour mes béninois, pour mes cameres, gros la situation dégénère La tête dure j'investis dans la pierre, tout à gagner j'ai plus rien à perdre Ici, les petits sont trop vénère ils veulent aller braquer Kelly Jenner You might also like Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Kardashians, Kardashians Khloé, Khloé Kardashians, Karda Kardashians Kimmy, Kimmy Kardashians, Karda Kardashians Kourtney, Kourtney Kardashians, Karda Kardashians On aurait dû braquer Kimmy prendre fuite avec nos uzi Traîne avec mes putains de bandits, je t'dis pas de salope ici On aurait dû braquer Kimmy prendre fuite avec nos uzi Traîne avec mes putains de bandits, je t'dis pas de salope ici</t>
+          <t>Eh yo Fouiny CCC Toutes ces bitchs veulent de l'oseille, j'ai mis 10 000 pour une teille T'attends le jour de la paye, moi j'ai plus de biff que la veille Si tu sors le Tmax mets l'Akrapovic, je contrôle les bleus comme Abramovitch Enlève ta main on blaire pas les snitch, je vais mourir pauvre ou je vais me barrer riche Non l'alcool c'est pas de l'eau on va te niquer ta mère cherche le papier les lots On va taper des go liasse de vert et de mauve t'auras pas la vie sauve à trainer par ici je te dis t'es pas mon khoooo Tous ces MCs sont fauchés Cherche la lucarne je suis gaucher, si t'es bien bonne je crois que j'vais t'embaucher, refrain Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Kardashians Kardashians Khloé, Khloé Kardashians Karda Kardashians Kimmy, Kimmy Kardashians Karda Kardashians Kourtney, Kourtney Kardashians Karda Kardashians On aurait dû braquer Kimmy prendre la fuite avec nos Yeezy's Traîne avec mes putains de bandits, je t'dis pas de salope ici On aurait dû braquer tout ce qu'il bouge en particulier ces petites salopes d'Hollywood Je suis né dans le 78 khoya c'est le Hood depuis petit on apprend à serrer les coudes J'entends des Vendez les, prenez ces sachets mettez les dans vos poches et puis les petits, vendez-les Et sortez les mes-ar pour un petit terrain, j'entends des ouais, fumez les On fait des tête a tête il font des Twitte à Twitte ces bouffon baffez les Baffez les, baffez-les, c'est le retour CDC CDC Reluque ton cul si tu veux me plaire, roule à 280 sans mis-per Pour mes béninois, pour mes cameres, gros la situation dégénère La tête dure j'investis dans la pierre, tout à gagner j'ai plus rien à perdre Ici, les petits sont trop vénère ils veulent aller braquer Kelly Jenner Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Plus besoin de braquer des banques on va braquer les Kardashians, Kardashians Kardashians, Kardashians Khloé, Khloé Kardashians, Karda Kardashians Kimmy, Kimmy Kardashians, Karda Kardashians Kourtney, Kourtney Kardashians, Karda Kardashians On aurait dû braquer Kimmy prendre fuite avec nos uzi Traîne avec mes putains de bandits, je t'dis pas de salope ici On aurait dû braquer Kimmy prendre fuite avec nos uzi Traîne avec mes putains de bandits, je t'dis pas de salope ici</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Yah Eh yo FouinyFrenchy Y a la Henessy, y a la beuh Encore une dinguerie de DJ FlowFly sur le beat mon rebeu Eh yo Fouiny, BS is back my nigga I got you bro' Yah J'la prends dans toutes les positions partage, positions Les chiens reniflent leurs teuchs', elles cachaient quelques litrons Putain j'suis millionaire en écrivant des chansons J'étais toujours sur le rrain-té, j'bicravais en crampons Et j'prends pas de cocaïne, j'tape jamais des lignes J'suis de Trappes les amis, khoya fuck Medellin J'aime les meufs qui parlent ap, comme dans The Artist Putain écartes les cuisses, que j'fasse du hors-piste Elle était pas open gros, alors je l'ai bloqué Elle s'prenait pour Nicki, j'voulais juste la niquer Pour le paradis j'ai fais la queue, j'attends mon ticket Quand j'm'ennuie, je fous des diamants sur ma Audemars Piguet J'arrête pas de lui dire Kiki, si tu ken pas, sors d'la ture-voi Car j'ai pas de temps à perdre, j'parle pas chinois Moi j'parle français ou bien rabza, t'es ma kehba You might also like Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Et sèches tes putains d'larmes, j'ai des mouchoirs violets Pète sa mère l'bord est lourd, j'parle en message codé Tous les jours de la semaine, c'est le jour de la paie Demande à DJ Arafat, dur de reposer en paix J'voyage en première, l'hôtesse veut mon number Pour mes chauffeurs-livreurs, kilos d'C dans l'Uber Gros j'ai grandis dans la hess, l'7.8 peut attester Tu traînes en mini-jupe devant ta mère, t'as aucun respect Et laisse-les parler, moi j'ai quelques millions d'côté ouais J'm'en bat les couilles, j'suis plein les fouilles et laisse les défourailler ouais j'm'en bat les douilles Yah, yah, yah Et je m'en bat les, et je m'en bat les, j'laisse le gros bolide au valet, je rentre là où t'es recalé hahah J'compte les vrais amis sur les doigts d'la main d'un voleur en Arabie Saoudite Moi c'est Fouiny Babe, tu sais qu'on les baise, la bouteille est vide, j'ai fini mon seize Dis-lui Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, si tu ken pas, sors d'la ture-voi Car j'ai pas de temps à perdre, j'parle pas chinois Moi j'parle français ou bien rabza, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Yah yah Hahahah Eh yo FouinyFrenchy BS back nigga, yah Encore une dinguerie de FleezyFlow sur le beat mon négro Kiki, si tu ken pas, sors d'la ture-voi Car j'ai pas de temps à perdre, j'parle pas chinois Moi j'parle français ou bien rabza, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba</t>
+          <t>Yah Eh yo FouinyFrenchy Y a la Henessy, y a la beuh Encore une dinguerie de DJ FlowFly sur le beat mon rebeu Eh yo Fouiny, BS is back my nigga I got you bro' Yah J'la prends dans toutes les positions partage, positions Les chiens reniflent leurs teuchs', elles cachaient quelques litrons Putain j'suis millionaire en écrivant des chansons J'étais toujours sur le rrain-té, j'bicravais en crampons Et j'prends pas de cocaïne, j'tape jamais des lignes J'suis de Trappes les amis, khoya fuck Medellin J'aime les meufs qui parlent ap, comme dans The Artist Putain écartes les cuisses, que j'fasse du hors-piste Elle était pas open gros, alors je l'ai bloqué Elle s'prenait pour Nicki, j'voulais juste la niquer Pour le paradis j'ai fais la queue, j'attends mon ticket Quand j'm'ennuie, je fous des diamants sur ma Audemars Piguet J'arrête pas de lui dire Kiki, si tu ken pas, sors d'la ture-voi Car j'ai pas de temps à perdre, j'parle pas chinois Moi j'parle français ou bien rabza, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Et sèches tes putains d'larmes, j'ai des mouchoirs violets Pète sa mère l'bord est lourd, j'parle en message codé Tous les jours de la semaine, c'est le jour de la paie Demande à DJ Arafat, dur de reposer en paix J'voyage en première, l'hôtesse veut mon number Pour mes chauffeurs-livreurs, kilos d'C dans l'Uber Gros j'ai grandis dans la hess, l'7.8 peut attester Tu traînes en mini-jupe devant ta mère, t'as aucun respect Et laisse-les parler, moi j'ai quelques millions d'côté ouais J'm'en bat les couilles, j'suis plein les fouilles et laisse les défourailler ouais j'm'en bat les douilles Yah, yah, yah Et je m'en bat les, et je m'en bat les, j'laisse le gros bolide au valet, je rentre là où t'es recalé hahah J'compte les vrais amis sur les doigts d'la main d'un voleur en Arabie Saoudite Moi c'est Fouiny Babe, tu sais qu'on les baise, la bouteille est vide, j'ai fini mon seize Dis-lui Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, si tu ken pas, sors d'la ture-voi Car j'ai pas de temps à perdre, j'parle pas chinois Moi j'parle français ou bien rabza, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Yah yah Hahahah Eh yo FouinyFrenchy BS back nigga, yah Encore une dinguerie de FleezyFlow sur le beat mon négro Kiki, si tu ken pas, sors d'la ture-voi Car j'ai pas de temps à perdre, j'parle pas chinois Moi j'parle français ou bien rabza, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba Kiki, t'es ma kehba</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, j'suis dans la street et j'ai aucun contrat Ton cul c'est la jungle et ma bite, c'est un anaconda MC t'as pas les épaules, garde ton putain de statut d'écolier Ton flow est plus cramé qu'jouer à cache-cache avec Guy Carlier Fuck le Président, faut que mon son pique dans les alentours Ta meuf c'est Fort Boyard, dans sa chatte est fourré Passe-Partout Arrête d'ouvrir ta gueule, si t'as pas retenu tes leçons On devient pas une star avec un rap d'enculeur de cochons Yeah j'rentre dans la mêlée, appelle moi Money Bippe moi girl, j'te rappel j'ai le millé' Man j'rap comme Picasso peignait Si elle t'dis quelle a ses règles, c'est que j'l'ai saigné Krav Maga, Kra-Kra-Krav Maga Killer MC, flow a.k.a hagra Tu veux du Funny Game, girl ? Viens avec nous Se soir c'est avec MoneyMan qu't'as rendez-vous You might also like Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Album dans les bacs, drogue dure comme le crack Ton style reste en défense, et le mien monte en attaque Dangereux banalisé, en douce comme les kiss-dé Ils essaient d'm'analyser, le rap est trop déguisé Reste vrai comme Joey starr, m'exporte comme Mohamed Dia Ici le 7-8 ou quoi, on parle de nous dans les médias Le style est trop lourd T'es devant moi car j'ai déjà fait un tour Au quartier tu longes les murs, et sur Paname tu frimes Au quartier tu portes des baggies, et en boîte des jeans slim Tu racontes trop de blabla, tu t'étonnes qu'on te drah-drah Banlieue Sale, banlieue ouest, Banlieue wa-wa-wa-wa Et si les gens sont avec toi, j'ai mon équipe de diables Plus intelligent que l'on s'arrange à l'amiable Ton flow n'a plus la côte, non mais regarde les magazines Et le mien, zéro au compteur, il sort de l'usine Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Man on fait du blé, on parle aç-comme J'ai mon gun devant ta face, dis what's up ? Yeah, t'as déconné, han Man on fait du blé, on parle aç-comme J'ai mon gun devant ta face, dis what's up ? Yeah, t'as déconné, han Yeah, on prend du poids putain, ma Banlieue Sale a fait des blessés Et si la prof me met des bonnes notes, j'l'ai peut-être baisé Des millions de dollars et j'suis refait Appelle-moi Air Force, nique la douane volante, j'ai pas que ça à faire Si le son est criminel, je plaide coupable Joker cannibale, un Opinel et c'est le drame Ah bon les rappeurs tirent ? Moi j'ai ta soeur en ligne de mire Masta, c'est MLC, un bon soldat en temps de guerre, biatch Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Paroles rédigées et expliquées par la communauté RapGenius France1</t>
+          <t>Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, j'suis dans la street et j'ai aucun contrat Ton cul c'est la jungle et ma bite, c'est un anaconda MC t'as pas les épaules, garde ton putain de statut d'écolier Ton flow est plus cramé qu'jouer à cache-cache avec Guy Carlier Fuck le Président, faut que mon son pique dans les alentours Ta meuf c'est Fort Boyard, dans sa chatte est fourré Passe-Partout Arrête d'ouvrir ta gueule, si t'as pas retenu tes leçons On devient pas une star avec un rap d'enculeur de cochons Yeah j'rentre dans la mêlée, appelle moi Money Bippe moi girl, j'te rappel j'ai le millé' Man j'rap comme Picasso peignait Si elle t'dis quelle a ses règles, c'est que j'l'ai saigné Krav Maga, Kra-Kra-Krav Maga Killer MC, flow a.k.a hagra Tu veux du Funny Game, girl ? Viens avec nous Se soir c'est avec MoneyMan qu't'as rendez-vous Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Album dans les bacs, drogue dure comme le crack Ton style reste en défense, et le mien monte en attaque Dangereux banalisé, en douce comme les kiss-dé Ils essaient d'm'analyser, le rap est trop déguisé Reste vrai comme Joey starr, m'exporte comme Mohamed Dia Ici le 7-8 ou quoi, on parle de nous dans les médias Le style est trop lourd T'es devant moi car j'ai déjà fait un tour Au quartier tu longes les murs, et sur Paname tu frimes Au quartier tu portes des baggies, et en boîte des jeans slim Tu racontes trop de blabla, tu t'étonnes qu'on te drah-drah Banlieue Sale, banlieue ouest, Banlieue wa-wa-wa-wa Et si les gens sont avec toi, j'ai mon équipe de diables Plus intelligent que l'on s'arrange à l'amiable Ton flow n'a plus la côte, non mais regarde les magazines Et le mien, zéro au compteur, il sort de l'usine Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Man on fait du blé, on parle aç-comme J'ai mon gun devant ta face, dis what's up ? Yeah, t'as déconné, han Man on fait du blé, on parle aç-comme J'ai mon gun devant ta face, dis what's up ? Yeah, t'as déconné, han Yeah, on prend du poids putain, ma Banlieue Sale a fait des blessés Et si la prof me met des bonnes notes, j'l'ai peut-être baisé Des millions de dollars et j'suis refait Appelle-moi Air Force, nique la douane volante, j'ai pas que ça à faire Si le son est criminel, je plaide coupable Joker cannibale, un Opinel et c'est le drame Ah bon les rappeurs tirent ? Moi j'ai ta soeur en ligne de mire Masta, c'est MLC, un bon soldat en temps de guerre, biatch Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Krav Maga, Krav-Krav Maga, Krav Maga Krav Maga, Krav-Krav Maga, Krav Maga Coup d'boule dans les couilles, man tu gaves on t'monte en l'air On va t'faire comme ton père, on va t'niquer ta mère Paroles rédigées et expliquées par la communauté RapGenius France1</t>
         </is>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Quoi d'neuf Fouiny Babay ? Quoi d'neuf Laouni Babay ? Bigg ! Et s'il le fallait, je lèverai sans effort Et si je valais de l'or, yeah yeah yeah yeah Et s'il le fallait, je lèverai sans effort La3bine la3bine ou bghaytou t7aydouna Bdina bwalo baby, kanna3sou wast dlam Halli chad stoun ha li fina ghir kaybram Bghina nwaslo bwalo, kana ghir ma7gourin Ma 3tawna walo fwalo kikhasrou ghi fel mlayn Mabghina zafta mankoun Hadchi li kano ygoulou Hadouk l'mikhaliyin hadchi li 3lina kano ygoulou Machi mouchkil koulna kenna 3arfin hadchi dayz 7oull fommok al7mar mnin tchoufek f MTV Base Ta7ed mata9 fina matgoulch ma3andi zhar Darouri matewsal ghir khdem bellil ou s'har Hakda dayez blan darouri y7niw ras Darouri matchouf lwil men 3and k7al rras You might also like La3bine la3biiine ou bghaytou t7aydounaa Makrahtounach nbi3ou 7chich ghir 7gartouna La3bine la3bine ou bghaytou twaskhouna Lsa9na likoum men la3dam ma9dartou t9at3ouna Et s'il le fallait, je lèverai sans effort Et si je valais de l'or, yeah yeah yeah yeah Et s'il le fallait, je lèverai sans effort La3bine la3bine ou bghaytou t7aydouna Koulchi fina kaytsanna lhawta Hawti man Makrahounach ntla7o 7ta ydouz 3lina train Ydouzou 3lina houma ga3 3arrina 3la dra3 Ouchkoun fina sbaa3 Man! chkoun fina li tbaa3 Man! chkoun li mcha ou chkoun li draa3 Man! daba neb9aw nebkiw 3la z'harna Zharna 7na n'dirouh oula ne3tewh b'dherna 3ich ou khdemha b'snanek baby Koun 3douya fel'khedma n'balek s7aybek Man, baraka men ch'khir man Dreb 3la rassek ra koulchi bda 7a9ir man La3bine la3biiine ou bghaytou t7aydounaa Makrahtounach nbi3ou 7chich ghir 7gartouna La3bine la3bine ou bghaytou twaskhouna Lsa9na likoum men la3dam ma9dartou t9at3ouna Ne me dites pas que c'est perdu d'avance Ne me dites pas que j'ai perdu ma chance Ne me dites pas que tu laissais Yeah yeah hey, yeah yeah hey Yeah yeah hey, yeah yeah hey Wila 3tatni, lwe9t gha nhez jbal Waakha nkoun me7gouur yeah yeah yeah yeah Wila 3tatni, lwe9t gha nhez jbal Gha nhez wakha, gha nhez wakha, gha nhez wakha, gha nhez wakha Et s'il le fallait, je lèverai sans effort Et si je valais de l'or, yeah yeah yeah yeah Et s'il le fallait, je lèverai sans effort La3bine la3bine ou bghaytou t7aydouna Yeah! Salamu alikom Bigg Laouni hada La Fouine jit nchofk 3ndi chi mouchkil Lfransawya tay3aytoli l maghrabi tanji lmaghreb tay3iytoli l fransawi, matnhdrch mzian l3rbya, matnhdrch mzian lfransawya hada mochkil li... ma3lich</t>
+          <t>Quoi d'neuf Fouiny Babay ? Quoi d'neuf Laouni Babay ? Bigg ! Et s'il le fallait, je lèverai sans effort Et si je valais de l'or, yeah yeah yeah yeah Et s'il le fallait, je lèverai sans effort La3bine la3bine ou bghaytou t7aydouna Bdina bwalo baby, kanna3sou wast dlam Halli chad stoun ha li fina ghir kaybram Bghina nwaslo bwalo, kana ghir ma7gourin Ma 3tawna walo fwalo kikhasrou ghi fel mlayn Mabghina zafta mankoun Hadchi li kano ygoulou Hadouk l'mikhaliyin hadchi li 3lina kano ygoulou Machi mouchkil koulna kenna 3arfin hadchi dayz 7oull fommok al7mar mnin tchoufek f MTV Base Ta7ed mata9 fina matgoulch ma3andi zhar Darouri matewsal ghir khdem bellil ou s'har Hakda dayez blan darouri y7niw ras Darouri matchouf lwil men 3and k7al rras La3bine la3biiine ou bghaytou t7aydounaa Makrahtounach nbi3ou 7chich ghir 7gartouna La3bine la3bine ou bghaytou twaskhouna Lsa9na likoum men la3dam ma9dartou t9at3ouna Et s'il le fallait, je lèverai sans effort Et si je valais de l'or, yeah yeah yeah yeah Et s'il le fallait, je lèverai sans effort La3bine la3bine ou bghaytou t7aydouna Koulchi fina kaytsanna lhawta Hawti man Makrahounach ntla7o 7ta ydouz 3lina train Ydouzou 3lina houma ga3 3arrina 3la dra3 Ouchkoun fina sbaa3 Man! chkoun fina li tbaa3 Man! chkoun li mcha ou chkoun li draa3 Man! daba neb9aw nebkiw 3la z'harna Zharna 7na n'dirouh oula ne3tewh b'dherna 3ich ou khdemha b'snanek baby Koun 3douya fel'khedma n'balek s7aybek Man, baraka men ch'khir man Dreb 3la rassek ra koulchi bda 7a9ir man La3bine la3biiine ou bghaytou t7aydounaa Makrahtounach nbi3ou 7chich ghir 7gartouna La3bine la3bine ou bghaytou twaskhouna Lsa9na likoum men la3dam ma9dartou t9at3ouna Ne me dites pas que c'est perdu d'avance Ne me dites pas que j'ai perdu ma chance Ne me dites pas que tu laissais Yeah yeah hey, yeah yeah hey Yeah yeah hey, yeah yeah hey Wila 3tatni, lwe9t gha nhez jbal Waakha nkoun me7gouur yeah yeah yeah yeah Wila 3tatni, lwe9t gha nhez jbal Gha nhez wakha, gha nhez wakha, gha nhez wakha, gha nhez wakha Et s'il le fallait, je lèverai sans effort Et si je valais de l'or, yeah yeah yeah yeah Et s'il le fallait, je lèverai sans effort La3bine la3bine ou bghaytou t7aydouna Yeah! Salamu alikom Bigg Laouni hada La Fouine jit nchofk 3ndi chi mouchkil Lfransawya tay3aytoli l maghrabi tanji lmaghreb tay3iytoli l fransawi, matnhdrch mzian l3rbya, matnhdrch mzian lfransawya hada mochkil li... ma3lich</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Yeah ! Quoi d'neuf Fouiny Baby ? Balance le son du 7.8 La Fouine, Banlieue Ouest Oh ! Yeah ! J'aime l'argent sale, démarre le B.M Si l'commissaire a l'nez cassé alors j'ai du sang sur mes T.N Sur mes Air Force 9, anti-juge, anti-keuf Anti-anti-anti-porc, les euros sont mes anticorps Yeah ! Montés sur la table, on fête ta sortie La poucave est dans le coffre de la Mini Austin Hostile, j'efface les fils de putes, appelle moi Tipp Ex Essuie sans complexe, qu'on rentre au VIP, qu'on rentre au Duplex Sponsorisé par Latex, MC de Dar-al-Baidaa Nous on n'sait que péta et bédave, pétasse ! Tu veux l'yoyo ? Mets ton bras Tu veux du fric ? Va quer-bra C'est ça, lyrics amères, Mister tchiki, j'te gère Comme l'a dit le reuf, la rue c'est bim-bim, le square t'abime-bime La rue t'a piné, moi elle m'a carabiné Te v'là d'retour chez l'kiné' Aucune peur, j'rappe sans peur, j'suis en clash avec Bernard Minet Oh ! J'prends le mic, oh no ! Fuck les bitches et les keufs là-haut Lève les bras bien haut C'est la danse du ghetto Ça donne Un pas devant c'est ça ?! Un pas derrière c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! C'est ça ?! Un pas à gauche c'est ça ?! Un pas à droite c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! Oh ! You might also like La-La-La-La Fouine, 78 zoo Si l'keuf a l'nez cassé j'ai du sang sur mon Evisu C'est la danse des parquets, c'est la danse d'la banlieue Des vols en hauts lieux, c'est la danse des plaquettes, c'est la danse des barquettes, yeah ! J'préfère danser que m'lamenter sur mon sort J'aime quand un immigré s'en sort, qu'est renvoyé par l'ascenseur C'est la danse des parkings, des kidnappings C'est la danse des guets-apens, tu veux tirer ? Mais qu'est-ce t'attends ? Jusqu'à Nanterre, les bras en l'air, gun à la ceinture Whisky pur, immature, DJ joues nous La Fouine, arrête tes bitures 78 Capitale Du Crime ! Dans nos banlieues chaudes, le fric remplace la clim' Yeah, clic clic boom ! Le rap me recherche, je l'ai douillé J'ai un gun assez gros pour faire flipper David Douillet Les daronnes attendent leurs tontines, les frères attendent leurs cantines Avec une liasse de 500, j'trouve vite ta Valentine Oh ! J'prends le mic, oh no ! Fuck les bitches et les keufs là-haut Lève les bras bien haut C'est la danse du ghetto Ça donne Un pas devant c'est ça ?! Un pas derrière c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! C'est ça ?! Un pas à gauche c'est ça ?! Un pas à droite c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! Oh ! Et ça donne Un pas devant c'est ça ?! Un pas derrière c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! C'est ça ?! Un pas à gauche c'est ça ?! Un pas à droite c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! Oh ! Au Maroc ! On dit quoi ? Au Sénégal ! On dit quoi ? Tunisie ! On dit quoi ? Au Mali ! On dit quoi ? Algérie ! On dit quoi ? En Guinée ! On dit quoi ? Mandinina ! On dit quoi ? Gwadada ! On dit quoi ? Les Comores ! On dit quoi ? En Réunion ! On dit quoi ? Au Congo ! On dit quoi ? En Côte d'Ivoire ! On dit quoi ? Mauritanie ! On dit quoi ? À Paris ! On dit quoi ? À Marseille ! On dit quoi ? Dans toute la France ! On dit quoi ? Oh ! J'prends le mic, oh no ! Fuck les bitches et les keufs là-haut Lève les bras bien haut C'est la danse du ghetto Ça donne Un pas devant c'est ça ?! Un pas derrière c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! C'est ça ?! Un pas à gauche c'est ça ?! Un pas à droite c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! Oh ! Yeah ! C'est ça ?! Clic clic... Banlieue Ouest ! Oh ! Quoi d'neuf Fouiny Baby ? Yeah 7.8 Yeah, yeah La Fouine Oh ! C'est ça ?! Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Yeah ! Quoi d'neuf Fouiny Baby ? Balance le son du 7.8 La Fouine, Banlieue Ouest Oh ! Yeah ! J'aime l'argent sale, démarre le B.M Si l'commissaire a l'nez cassé alors j'ai du sang sur mes T.N Sur mes Air Force 9, anti-juge, anti-keuf Anti-anti-anti-porc, les euros sont mes anticorps Yeah ! Montés sur la table, on fête ta sortie La poucave est dans le coffre de la Mini Austin Hostile, j'efface les fils de putes, appelle moi Tipp Ex Essuie sans complexe, qu'on rentre au VIP, qu'on rentre au Duplex Sponsorisé par Latex, MC de Dar-al-Baidaa Nous on n'sait que péta et bédave, pétasse ! Tu veux l'yoyo ? Mets ton bras Tu veux du fric ? Va quer-bra C'est ça, lyrics amères, Mister tchiki, j'te gère Comme l'a dit le reuf, la rue c'est bim-bim, le square t'abime-bime La rue t'a piné, moi elle m'a carabiné Te v'là d'retour chez l'kiné' Aucune peur, j'rappe sans peur, j'suis en clash avec Bernard Minet Oh ! J'prends le mic, oh no ! Fuck les bitches et les keufs là-haut Lève les bras bien haut C'est la danse du ghetto Ça donne Un pas devant c'est ça ?! Un pas derrière c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! C'est ça ?! Un pas à gauche c'est ça ?! Un pas à droite c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! Oh ! La-La-La-La Fouine, 78 zoo Si l'keuf a l'nez cassé j'ai du sang sur mon Evisu C'est la danse des parquets, c'est la danse d'la banlieue Des vols en hauts lieux, c'est la danse des plaquettes, c'est la danse des barquettes, yeah ! J'préfère danser que m'lamenter sur mon sort J'aime quand un immigré s'en sort, qu'est renvoyé par l'ascenseur C'est la danse des parkings, des kidnappings C'est la danse des guets-apens, tu veux tirer ? Mais qu'est-ce t'attends ? Jusqu'à Nanterre, les bras en l'air, gun à la ceinture Whisky pur, immature, DJ joues nous La Fouine, arrête tes bitures 78 Capitale Du Crime ! Dans nos banlieues chaudes, le fric remplace la clim' Yeah, clic clic boom ! Le rap me recherche, je l'ai douillé J'ai un gun assez gros pour faire flipper David Douillet Les daronnes attendent leurs tontines, les frères attendent leurs cantines Avec une liasse de 500, j'trouve vite ta Valentine Oh ! J'prends le mic, oh no ! Fuck les bitches et les keufs là-haut Lève les bras bien haut C'est la danse du ghetto Ça donne Un pas devant c'est ça ?! Un pas derrière c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! C'est ça ?! Un pas à gauche c'est ça ?! Un pas à droite c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! Oh ! Et ça donne Un pas devant c'est ça ?! Un pas derrière c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! C'est ça ?! Un pas à gauche c'est ça ?! Un pas à droite c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! Oh ! Au Maroc ! On dit quoi ? Au Sénégal ! On dit quoi ? Tunisie ! On dit quoi ? Au Mali ! On dit quoi ? Algérie ! On dit quoi ? En Guinée ! On dit quoi ? Mandinina ! On dit quoi ? Gwadada ! On dit quoi ? Les Comores ! On dit quoi ? En Réunion ! On dit quoi ? Au Congo ! On dit quoi ? En Côte d'Ivoire ! On dit quoi ? Mauritanie ! On dit quoi ? À Paris ! On dit quoi ? À Marseille ! On dit quoi ? Dans toute la France ! On dit quoi ? Oh ! J'prends le mic, oh no ! Fuck les bitches et les keufs là-haut Lève les bras bien haut C'est la danse du ghetto Ça donne Un pas devant c'est ça ?! Un pas derrière c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! C'est ça ?! Un pas à gauche c'est ça ?! Un pas à droite c'est ça ?! Les doigts en l'air, Nicolas, lève ton verre ! Oh ! Yeah ! C'est ça ?! Clic clic... Banlieue Ouest ! Oh ! Quoi d'neuf Fouiny Baby ? Yeah 7.8 Yeah, yeah La Fouine Oh ! C'est ça ?! Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Arrêtes de faire croire que t'as équipe, glock, tu fais des chorées sur TikTok Pas de Balmain dans lLevi Strauss, t'as pas de quoi lui payer un petit gloss Au KFC gratte des petites sauces, ne lui dis pas t'es un big boss Tu disais que tu vendais des petites doses, elle voulait juste une petite rose Trop de mythos daffilée 'ffilée, trop de mensonges à l'affilée 'ffilée Trop de mythos d'affilée 'ffilée, trop de mensonges à l'affilée 'ffilée Laisse faire, tas pas besoin de ça pour plaire pour lui plaire Laisse faire, tas pas besoin de ça pour plaire pour lui plaire Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire Laisse faire, tas pas besoin de ça pour plaire pour lui plaire Quand tu mets ta carte c'est le suspense, pour cette fois ça passe de justesse Tu fais les cent pas dans la tristesse, tu crois vraiment qu'elle veut de l'espèce Tu dors toute la journée comme une loque, même ta voiture cest une loc' En boîte toutes les bouteilles sont posées, mais tu dors sur un lit superposé Trop de mythos d'affilée 'ffilée, trop de mensonges à l'affilée 'ffilée Trop de mythos d'affilée 'ffilée, trop de mensonges à l'affilée 'ffilée You might also like Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire</t>
+          <t>Arrêtes de faire croire que t'as équipe, glock, tu fais des chorées sur TikTok Pas de Balmain dans lLevi Strauss, t'as pas de quoi lui payer un petit gloss Au KFC gratte des petites sauces, ne lui dis pas t'es un big boss Tu disais que tu vendais des petites doses, elle voulait juste une petite rose Trop de mythos daffilée 'ffilée, trop de mensonges à l'affilée 'ffilée Trop de mythos d'affilée 'ffilée, trop de mensonges à l'affilée 'ffilée Laisse faire, tas pas besoin de ça pour plaire pour lui plaire Laisse faire, tas pas besoin de ça pour plaire pour lui plaire Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire Laisse faire, tas pas besoin de ça pour plaire pour lui plaire Quand tu mets ta carte c'est le suspense, pour cette fois ça passe de justesse Tu fais les cent pas dans la tristesse, tu crois vraiment qu'elle veut de l'espèce Tu dors toute la journée comme une loque, même ta voiture cest une loc' En boîte toutes les bouteilles sont posées, mais tu dors sur un lit superposé Trop de mythos d'affilée 'ffilée, trop de mensonges à l'affilée 'ffilée Trop de mythos d'affilée 'ffilée, trop de mensonges à l'affilée 'ffilée Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire Laisse faire, t'as pas besoin de ça pour plaire pour lui plaire</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Elle est abonnée à Miss et Belle Dans Carré VIP près des bouteilles pleines Le métro ça fait longtemps qu'elle le prend plus C'est sur des sièges en cuir qu'elle pose son cul! Mais laisse-la s'enjailler Elle est si facile D'être un bord relancé Tu sais c'est pas si débile Mais laisse-la s'enjailler Elle est si facile D'être un bord relancé Tu sais c'est pas si débile Au fond de son lit, un footeux s'endort Un acteur ou un rappeur disque d'or Elle, elle s'en fou, elle s'enjaille quand même...Miaaaah! Elle lui ronronne des tonnes de je t'aime Tout le monde avec moi S'enjailler! A vous! s'enjailler! S'enjailler! s'enjailler! S'enjailler-er-er! s'enjailler-er-er! S'enjailler! s'enjailler! Plus dur dans les aigües! S'enjailler-er! s'enjailler-er! S'enjailler-er-er! s'enjailler-er-er! S'enjailler! s'enjailler! S'enjailler! s'enjailler! You might also like Seule devant sa télé Elle bouffe un tajine Le bord s'est fait jeté Pour une de ses copines Les mecs c'est comme la Despé Faut bien que ça se vide D'être une femme libérée C'n'est que dans les films 1</t>
+          <t>Elle est abonnée à Miss et Belle Dans Carré VIP près des bouteilles pleines Le métro ça fait longtemps qu'elle le prend plus C'est sur des sièges en cuir qu'elle pose son cul! Mais laisse-la s'enjailler Elle est si facile D'être un bord relancé Tu sais c'est pas si débile Mais laisse-la s'enjailler Elle est si facile D'être un bord relancé Tu sais c'est pas si débile Au fond de son lit, un footeux s'endort Un acteur ou un rappeur disque d'or Elle, elle s'en fou, elle s'enjaille quand même...Miaaaah! Elle lui ronronne des tonnes de je t'aime Tout le monde avec moi S'enjailler! A vous! s'enjailler! S'enjailler! s'enjailler! S'enjailler-er-er! s'enjailler-er-er! S'enjailler! s'enjailler! Plus dur dans les aigües! S'enjailler-er! s'enjailler-er! S'enjailler-er-er! s'enjailler-er-er! S'enjailler! s'enjailler! S'enjailler! s'enjailler! Seule devant sa télé Elle bouffe un tajine Le bord s'est fait jeté Pour une de ses copines Les mecs c'est comme la Despé Faut bien que ça se vide D'être une femme libérée C'n'est que dans les films 1</t>
         </is>
       </c>
     </row>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>On vend du shit car y'a pas de taf, car nos daronnes pointent à la CAF À l'arrêt de bus on voit des classe C, alors on vend d'la cess On fait du rap parce qu'on a que ça, mon assurance c'est mon gun, c'est pas que ça Quand j'ai des dettes soit je tire soit je m'fais vate-sa Les keufs débarquent au quartier, tirent au flashball tirent dans le tas Ma sur faut plus avorter on a besoin de plus de soldats J'rêve d'Afrique comme DJ Makhtar, m'barrer au Qatar Pour le moment j'suis au placard et puis j'cantine des quatre-quarts Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Parce qu'on se sent trahi, parce qu'on se sent sali Parce que je suis né et rejeté dans ce pays Et comme, rien ne change On se venge, ça dérange On a la haine et ces putains de caisses, brûlent On a lâché les pitt-bull, t'es pas content on t'encule Tu sais, toujours seul tant que les balles fusent dans ma bulle Toujours en marge, télécharge ma putain de rage sur E-Mule Révolution, révolution rime avec évolution Et comme, rien ne change alors nous démolissons Et quand les keufs nous capturent, nous foutent dans leurs cages Les courriers se font rares comme s'en sortir pour braquage Tu voulais le bac dans ta poche mais t'as la BAC à ton cul Tu voulais tout tu voulais les sous, t'auras qu'un numéro d'écrou Ok, moi j'viens pas de Neuilly j'viens du Sept-Huit Et quand la juge me parlait moi j'voulais gifler cette pute J'ai pas connu le lycée, j'ai connu le tribunal J'ai côtoyé les filles ficelées, et je leur faisais mal J'ai, trop la haine et si je croise le procureur Coûte que coûte coup coup coup d'cutter You might also like Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Parce qu'on se sent trahi, parce qu'on se sent sali Parce que je suis né et rejeté dans ce pays Et comme, rien ne change On se venge, ça dérange Je m'en vais brûler la nation, pour votre information T'façon, vous dites que de la merde Je m'en vais brûler la nation, pour votre information T'façon, nous n'avons plus rien à perdre Je m'en vais brûler la nation, pour votre information T'façon, vous dites que de la merde Et comme, rien ne change On se venge, ça dérange J'ai crié l'unité dans l'oreille d'un sourd Les problèmes sont dans les tours et les ients-cli sont dans le four J'ai rien à perdre rien à prouver Merde j'ai tout fait j'suis fiché, là où t'as pissé j'ai chié C'est tantôt du sursis, tantôt du ferme La délinquance est dans nos tours, la pédophilie dans vos fermes Un cocktail molotov en espérant que ça change Ils ripostent on se venge, paraît que mon pe-ra dérange Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Parce qu'on se sent trahi, parce qu'on se sent sali Parce que je suis né et rejeté dans ce pays Et comme, rien ne change On se venge, ça dérange Je m'en vais brûler la nation, pour votre information T'façon, vous dites que de la merde Je m'en vais brûler la nation, pour votre information T'façon, nous n'avons plus rien à perdre Je m'en vais brûler la nation, pour votre information T'façon, vous dites que de la merde Et comme, rien ne change On se venge, ça dérange Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>On vend du shit car y'a pas de taf, car nos daronnes pointent à la CAF À l'arrêt de bus on voit des classe C, alors on vend d'la cess On fait du rap parce qu'on a que ça, mon assurance c'est mon gun, c'est pas que ça Quand j'ai des dettes soit je tire soit je m'fais vate-sa Les keufs débarquent au quartier, tirent au flashball tirent dans le tas Ma sur faut plus avorter on a besoin de plus de soldats J'rêve d'Afrique comme DJ Makhtar, m'barrer au Qatar Pour le moment j'suis au placard et puis j'cantine des quatre-quarts Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Parce qu'on se sent trahi, parce qu'on se sent sali Parce que je suis né et rejeté dans ce pays Et comme, rien ne change On se venge, ça dérange On a la haine et ces putains de caisses, brûlent On a lâché les pitt-bull, t'es pas content on t'encule Tu sais, toujours seul tant que les balles fusent dans ma bulle Toujours en marge, télécharge ma putain de rage sur E-Mule Révolution, révolution rime avec évolution Et comme, rien ne change alors nous démolissons Et quand les keufs nous capturent, nous foutent dans leurs cages Les courriers se font rares comme s'en sortir pour braquage Tu voulais le bac dans ta poche mais t'as la BAC à ton cul Tu voulais tout tu voulais les sous, t'auras qu'un numéro d'écrou Ok, moi j'viens pas de Neuilly j'viens du Sept-Huit Et quand la juge me parlait moi j'voulais gifler cette pute J'ai pas connu le lycée, j'ai connu le tribunal J'ai côtoyé les filles ficelées, et je leur faisais mal J'ai, trop la haine et si je croise le procureur Coûte que coûte coup coup coup d'cutter Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Parce qu'on se sent trahi, parce qu'on se sent sali Parce que je suis né et rejeté dans ce pays Et comme, rien ne change On se venge, ça dérange Je m'en vais brûler la nation, pour votre information T'façon, vous dites que de la merde Je m'en vais brûler la nation, pour votre information T'façon, nous n'avons plus rien à perdre Je m'en vais brûler la nation, pour votre information T'façon, vous dites que de la merde Et comme, rien ne change On se venge, ça dérange J'ai crié l'unité dans l'oreille d'un sourd Les problèmes sont dans les tours et les ients-cli sont dans le four J'ai rien à perdre rien à prouver Merde j'ai tout fait j'suis fiché, là où t'as pissé j'ai chié C'est tantôt du sursis, tantôt du ferme La délinquance est dans nos tours, la pédophilie dans vos fermes Un cocktail molotov en espérant que ça change Ils ripostent on se venge, paraît que mon pe-ra dérange Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Laissez-moi dénoncer Parce qu'on se sent trahi, parce qu'on se sent sali Parce que je suis né et rejeté dans ce pays Et comme, rien ne change On se venge, ça dérange Je m'en vais brûler la nation, pour votre information T'façon, vous dites que de la merde Je m'en vais brûler la nation, pour votre information T'façon, nous n'avons plus rien à perdre Je m'en vais brûler la nation, pour votre information T'façon, vous dites que de la merde Et comme, rien ne change On se venge, ça dérange Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Dors petit fils de pute, dors Dors petit fils de pute, dors Dors petit fils de pute, dors Dors va niquer ta mère, dors Qui sont les best, banlieue ouest, mate leur équipe s'écrouler Grosse différence, ils lèchent des chattes et nous des feuilles à rouler Ramène ta clique, on t'nique ta race avec ta team J'serai sur les lieux du crime, 7.8 c'est chaud car on a pas la clim'. Dors petit fils de pute, dors Dors va niquer ta mère, dors Dors petit fils de pute, dors Dors va niquer ta mère, dorsYou might also like</t>
+          <t>Dors petit fils de pute, dors Dors petit fils de pute, dors Dors petit fils de pute, dors Dors va niquer ta mère, dors Qui sont les best, banlieue ouest, mate leur équipe s'écrouler Grosse différence, ils lèchent des chattes et nous des feuilles à rouler Ramène ta clique, on t'nique ta race avec ta team J'serai sur les lieux du crime, 7.8 c'est chaud car on a pas la clim'. Dors petit fils de pute, dors Dors va niquer ta mère, dors Dors petit fils de pute, dors Dors va niquer ta mère, dors</t>
         </is>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Wooo, wooo Eh YoungFrenchy Traînes avec tes ennemis, car ici tes amis te font plus de mal T'ouvres les yeux seulement quand tu vois la mort en face comme Abidal Contrôle de police, j'imagine que j'leurs mets un kick dans les amygdales J'sors de chez Louis Vui', sac de billet dans mon Virgil Abloh gris pâle Tu vois les prix, le ciel est gris, on sent le musc, le poulet frit En taule on crie, on part en vrille, nés dans la merde, un jour on brille 78, j'ai fais les fils, on prend du ferme, quinze piges, on deal Longue est la peine, courte est la vie, hier l'Adhan, demain y a tchi nigga Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça On veut pas d'une grosse tchoin, qui tourne comme une kehba On rêve tous d'une fille bien qui tourne autour d'la Kaaba Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça You might also like On veut pas d'une grosse tchoin, qui tourne comme une kehba On rêve tous d'une fille bien qui tourne autour d'la Kaaba Mets-moi plus de poulets, d'avocats, de procureurs dans mon O'Tacos J'ai dis aux profs que j'allais m'en sortir, quitter le quartier, mon rêve de gosse J'rêve d'aller au paradis, j'suis sûr que c'est bien mieux depuis que t'es là-bas Le front au sol, y a ceux qui priaient et y a ceux qu'ont une grosse seringue dans le bras Tu sous-estimes, c'est rien on trime, comme le reuf, j'ai fais des crimes Un seul rêve, dans c'putain d'film, quitter ce monde dans le Dîn Ils t'demandent comment tu te portes, mais ils veulent pas que tu t'en sortes La vraie valeur d'une amitié a fait ses preuves dans pauvreté J'viens d'en bas, j'irai en haut, le ventre est vide, j'attends le ftor La vie c'est ça, la vie c'est quoi ? Couper la tête à tous ces rois Fouiny Babe, nouvel album, j'vendais la mort, j'vendais la comm' Ils veulent la guerre ces enculés, ils ont pas d'couilles, immaculés Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça On veut pas d'une grosse tchoin, qui tourne comme une kehba On rêve tous d'une fille bien qui tourne autour d'la Kaaba Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça On veut pas d'une grosse tchoin, qui tourne comme une kehba On rêve tous d'une fille bien qui tourne autour d'la Kaaba</t>
+          <t>Wooo, wooo Eh YoungFrenchy Traînes avec tes ennemis, car ici tes amis te font plus de mal T'ouvres les yeux seulement quand tu vois la mort en face comme Abidal Contrôle de police, j'imagine que j'leurs mets un kick dans les amygdales J'sors de chez Louis Vui', sac de billet dans mon Virgil Abloh gris pâle Tu vois les prix, le ciel est gris, on sent le musc, le poulet frit En taule on crie, on part en vrille, nés dans la merde, un jour on brille 78, j'ai fais les fils, on prend du ferme, quinze piges, on deal Longue est la peine, courte est la vie, hier l'Adhan, demain y a tchi nigga Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça On veut pas d'une grosse tchoin, qui tourne comme une kehba On rêve tous d'une fille bien qui tourne autour d'la Kaaba Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça On veut pas d'une grosse tchoin, qui tourne comme une kehba On rêve tous d'une fille bien qui tourne autour d'la Kaaba Mets-moi plus de poulets, d'avocats, de procureurs dans mon O'Tacos J'ai dis aux profs que j'allais m'en sortir, quitter le quartier, mon rêve de gosse J'rêve d'aller au paradis, j'suis sûr que c'est bien mieux depuis que t'es là-bas Le front au sol, y a ceux qui priaient et y a ceux qu'ont une grosse seringue dans le bras Tu sous-estimes, c'est rien on trime, comme le reuf, j'ai fais des crimes Un seul rêve, dans c'putain d'film, quitter ce monde dans le Dîn Ils t'demandent comment tu te portes, mais ils veulent pas que tu t'en sortes La vraie valeur d'une amitié a fait ses preuves dans pauvreté J'viens d'en bas, j'irai en haut, le ventre est vide, j'attends le ftor La vie c'est ça, la vie c'est quoi ? Couper la tête à tous ces rois Fouiny Babe, nouvel album, j'vendais la mort, j'vendais la comm' Ils veulent la guerre ces enculés, ils ont pas d'couilles, immaculés Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça On veut pas d'une grosse tchoin, qui tourne comme une kehba On rêve tous d'une fille bien qui tourne autour d'la Kaaba Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça Ouais la vie c'est ça On veut pas d'une grosse tchoin, qui tourne comme une kehba On rêve tous d'une fille bien qui tourne autour d'la Kaaba</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Je me rappelle de ces longues journées passées au tribunal Les yeux des parents pleins de larmes et le procureur qui parle mal Les éducateurs perdus entre deux jeunes, débordés Foyer daccueil durgence, tu parles dune enfance, tu parles dune chance Fugue sur fugue, coups sur coups voilà mon parcours Et même mon autobiographie est écrite par le greffier, yeah... Mes baskets pour oreiller Seul en pensant à ma mère devant leur sandwich au gruyère Tu sais ils croient me comprendre, ils croient me défendre Perdus seul dans ma cellule ils ne font que me descendre Où que jaille cest la même, retour au point de départ Jen ai perdu du temps, seul au tribunal pour enfants Pour avancer dans la vie prendre un nouveau départ, yeah... Il me faut trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Pour prendre un nouveau dé-dé-départ, c'est ça Pour avancer dans la vie prendre un nouveau départ Il me faut trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Pour prendre un nouveau dé-dé-départ, c'est ça Encore une belle après midi, sans Soleil, une nuit sans sommeil Jattends mon psychologue moi qui aurais besoin dun pneumologue Parti de rien je rêvais de Porsche, de caisses, de Maserati Mais la vie, ma mis un coup de tête comme sur un Materazzi Javais ma mère et mon père pour mélever pas besoin de vos tuteurs Et pour remplir le frigo, souvent jai sorti le cutter Le jour se lève, jsuis dans la merde, jsuis dans un foyer différent Malheureusement, la nuit tombée je fugue retourne au bâtiment Les potes étaient au lycée, moi jétais en prison Ils étaient souvent chez des meufs, moi jétais souvent chez les keufs Rien à faire mon gars à Trappes, les anciennes histoires te rattrapent Il mattire comme un aimant, ce tribunal pour enfants You might also like Pour avancer dans la vie prendre un nouveau départ, yeah... Il me faut trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Pour prendre un nouveau dé-dé-départ, c'est ça Pour avancer dans la vie prendre un nouveau départ Il me faut trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Pour prendre un nouveau dé-dé-départ, c'est ça Jai le moral à zéro, je cherche des réponses La juge a en face delle un jeune qui souffre, un jeune qui sdéfonce Mes parents savent plus quoi faire, plus javance plus je me renferme Un beau jour jai eu 16 ans et ce jour là jai pris du ferme À tous les jeunes des foyers quon ne pourra jamais comprendre A toi qui souffre, à toi qui fugue, à toi qui refuse de trendre A toi qui dors loin de chez toi quelle que soit la raison Quelle que soit la saison, quaimerait rentrer à la maison Mais laissons les vivre, ces tribunaux, laissons les vides Ces cellules pour enfants, laissons les vides Jétais ce ptit casquette basse, tête baissée, regard triste Et pourtant plein despoir au tribunal pour enfants Au cur du problème, au tribunal pour enfants Au cur du problème, au tribunal pour enfants Au cur du problème, au tribunal pour enfants Au cur du problème, au tribunal pour enfants Pour avancer dans la vie prendre un nouveau départ, yeah... Il me faut trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Pour prendre un nouveau dé-dé-départ, c'est ça Pour avancer dans la vie prendre un nouveau départ Il me faut trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Pour prendre un nouveau dé-dé-départ, c'est ça</t>
+          <t>Je me rappelle de ces longues journées passées au tribunal Les yeux des parents pleins de larmes et le procureur qui parle mal Les éducateurs perdus entre deux jeunes, débordés Foyer daccueil durgence, tu parles dune enfance, tu parles dune chance Fugue sur fugue, coups sur coups voilà mon parcours Et même mon autobiographie est écrite par le greffier, yeah... Mes baskets pour oreiller Seul en pensant à ma mère devant leur sandwich au gruyère Tu sais ils croient me comprendre, ils croient me défendre Perdus seul dans ma cellule ils ne font que me descendre Où que jaille cest la même, retour au point de départ Jen ai perdu du temps, seul au tribunal pour enfants Pour avancer dans la vie prendre un nouveau départ, yeah... Il me faut trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Pour prendre un nouveau dé-dé-départ, c'est ça Pour avancer dans la vie prendre un nouveau départ Il me faut trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Trouver le cur du problème Pour prendre un nouveau dé-dé-départ, c'est ça Encore une belle après midi, sans Soleil, une nuit sans sommeil Jattends mon psychologue moi qui aurais besoin dun pneumologue Parti de rien je rêva